--- a/output/Total_time_range_data/内蒙古自治区/呼和浩特市_学习考察.xlsx
+++ b/output/Total_time_range_data/内蒙古自治区/呼和浩特市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F211"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,6750 +436,7385 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>25</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>呼和浩特市政府考察团赴上海考察学习</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2021-04-26</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwgk/2022_ldzc/hhd/ldhd_53123/202203/t20220321_1216607.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['4月24日至25日，市委副书记、市长、和林格尔新区党工委书记贺海东带领呼和浩特市政府考察团赴上海考察学习，就城市规划建设、智能化管理、城市更新、老旧小区改造等方面进行考察学习。上海市政府合作交流办副主任强程鹏陪同考察。', '考察团一行先后考察了花博会项目、金砖银行项目、黄浦区滨江公共岸线贯通工程项目、浦东开发开放30周年主题展、浦东新区城市运行综合管理中心、浦东新区企业服务中心、上海大数据中心、长宁区“上生·新所”、长宁区敬老邨改造项目，详细了解城市规划建设理念、智慧城市打造、政府服务“一网通办、一网通管”、老旧小区改造和城市更新等情况。每到一处，考察团成员都认真参观学习，并就关心的问题进行详细提问了解。先进的城市设计理念，科学化、智能化的城市管理水平，便捷高效的政务服务体系给考察团留下了深刻印象。', '每天考察学习结束后，考察团都及时召开座谈会总结部署。考察团成员依次谈感受、谈想法、谈运用，贺海东最后强调，在新时代推进首府城市规划、设计、建设、管理，必须深入贯彻落实习近平总书记提出的“城市是人民的城市，人民城市为人民”的重要论断，坚持以人民为中心，聚焦人民群众的需求，对标上海，学习先进机制、经验、成果，高水平规划、高水平建设、高标准管理，在完善功能提升品位中扮靓首府新形象。智慧城市建设要借鉴上海做法，以“一网通办、一网通管”为目标，打造政务服务升级;要明确职责、突出重点、强化监督，科学整合相关平台，尽快提高我市城市大脑的应用水平。老旧小区改造和城市更新要精细设计、以民为本，突出群众需求导向，切实提高群众的参与度、认同感，全力调动居民参与老旧小区改造工作的积极性和主动性，同时努力做好老旧小区改造后物业管理跟进工作。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>25</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>厦门市人社局市委编办赴我市学习考察根治欠薪和劳动保障监察机构综合执法体制改革工作</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-05-06</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/srlzyhshbzj_22410/fdzdgknr/ywxx/202305/t20230506_1523021.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['厦门市人社局、市委编办赴我市学习考察根治欠薪和劳动保障监察机构综合执法体制改革工作_ 呼和浩特市人民政府', '厦门市人社局、市委编办赴我市学习考察 根治欠薪和劳动保障监察机构综合执法体制改革工作', '2023年4月25日，厦门市人社局、市委编办一行学习考察组赴我市学习考察我市根治欠薪工作和劳动保障监察机构综合执法体制改革工作，并开展了座谈交流会议。', '呼和浩特市人社局党组成员、副局长樊小全同志参加并主持了座谈会。会上，首先由呼和浩特市委编办改革科科长何美玉同志就全市交通运输、农牧业、生态环境等15个领域基本实现了“一个领域一支队伍管执法”，全市54乡镇、涉农街道实现了“一个区域一支队伍管执法”的执法体制改革经验做了介绍，特别对劳动保障监察机构市区执法力量上划合并，形成市本级一级执法体制改革做法做了重点介绍。第二，呼和浩特市人社综合行政执法支队负责人牟建华同志就我市建立联合根治欠薪组织机构、加强源头治理、发挥多部门联动作用、积极开展“双驻双查”、加大欠薪查处力度、加强多部门联合惩戒等工作做法做了交流。厦门市人社局、市委编办的有关同志就根治欠薪工作和执法机构体制改革工作进行了对口交流，同时也交流了厦门市各自部门的工作做法。', '最后，呼和浩特市人社局樊小全同志指出：这次厦门市人社局、市委编办赴我市考察学习，既展示了我市根治欠薪工作亮点和执法机构体制改革经验，通过交流也足不出户学习了厦门市根治欠薪工作和执法体制改革的先进做法，同时也增进了两地编办、人社部门之间的友谊和联系。我们将珍惜这次难得的交流机会，总结经验，对比双方工作，努力克服自身短板，共同促进两地人社和编制工作水平提质增效。', '厦门市学习考察组由市人社局党组成员、一级调研员余卫东带队，市人社局、市委编办、市劳动保障监察支队等相关部门人员参加。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>25</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>市大数据管理局赴北京开展考察交流活动</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-12-06</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/sdsjglj_22438/fdzdgknr_26169/qt/ggfwyms/202312/t20231206_1629314.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['11月27日至29日，呼和浩特市大数据管理局党组书记、局长徐艳国带队先后赴北京智源人工智能研究院、海淀城市大脑展示体验中心、北京猿链网络科技公司、北京金信网银公司、浪潮（北京）电子信息产业公司进行考察交流，围绕数字经济及产业发展、数据治理体系建设、夯实数字基础设施等内容进行了考察。内蒙古大数据产业发展有限公司参加此次考察。', '在北京智源人工智能研究院，考察组一行深入了解智慧招商、产业大脑等技术开发和应用成果。双方聚焦人工智能新技术的赋能作用进行深入的交流，希望下一步就运用人工智能等新技术，推动新技术在我市电子信息技术产业链延链补链的深度运用展开合作。', '在海淀城市大脑展示体验中心，考察组一行深入了解海淀区建设城市大脑的背景和历程，中心充分展示了城市管理、公共安全、生态环保、城市交通、智慧能源以及共性平台等不同场景下的整体建设布局、实时应用情况和实现成果。随后双方展开了深入交流。徐艳国表示我们要充分学习借鉴海淀区在城市建设、社会治理、数字化建设等方面的先进经验，切实转化学习考察成果，学以致用，补齐短板。', '考察期间还走访了北京金信网银公司、北京猿链网络科技公司、浪潮（北京）电子信息产业公司等企业。', '通过此次考察学习，将加强与企业的沟通交流，促成与企业开展更大范围、更深层次的合作，充分发挥企业的核心优势，实现企地共赢发展，助力我市在推进电子信息技术产业聚链成群、搭建数据治理体系“四梁八柱”、打牢数字经济发展底座更高质量的发展。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>25</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>呼和浩特市党政考察团赴天津学习考察</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2021-06-21</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwgk/2022_ldzc/hhd/ldhd_53123/202203/t20220321_1216534.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['6月19日，自治区党委常委、市委书记王莉霞，市委副书记、市长、和林格尔新区党工委书记贺海东利用周六休息时间，带领呼和浩特市党政考察团赴天津市，就生态环保、光伏产业智能化发展等深入企业进行了为期一天的考察学习并座谈，市政府与相关企业签订了合作协议。', '考察期间，王莉霞、贺海东一行在天津泰达投资控股有限公司党委书记、董事长王志勇，天津中环半导体股份有限公司副董事长、总经理沈浩平的陪同下，先后参观了天津泰达股份有限公司生产线、天津中环股份公司年产25GW高效太阳能超薄单晶片智慧工厂项目等。', '在当日举行的签约仪式上，贺海东与天津泰达股份有限公司董事长张旺签署了《战略合作框架协议》，双方将围绕生态环保领域，建设呼和浩特循环经济产业园、城市垃圾分类、生物质(农林)热电联产等项目开展合作;就“内蒙古中环产业园产业提升项目群”与天津中环半导体股份有限公司总经理沈浩平进行签约，企业将在呼建设中环五期扩能项目，内蒙古中环光伏材料有限公司G12智慧化切片项目、内蒙古中环领先半导体材料有限公司二期项目、智慧仓储物流中心建设项目等，总投资89亿元。', '王莉霞在座谈中对于上述企业在呼投资兴业表示热烈欢迎，希望双方长久合作，共同携手，深入贯彻落实习近平总书记对内蒙古重要讲话重要指示批示精神，围绕立足新发展阶段、贯彻新发展理念、构建新发展格局带来的新形势、提出的新要求，立足首府，深耕内蒙古。', '王志勇表示，愿意增强彼此了解，加强互惠合作，打造一批政企合作的精品项目、示范项目，携手共创“草原青山同城、低碳宜居共享”的现代化都市。沈浩平表示，将继续加速智能制造转型，加速技术创新转化，加快项目投产达产，为早日实现碳中和目标努力奋斗。', '市委常委、秘书长吴文明，副市长毕国臣及相关旗县区、市属相关部门主要负责同志参加上述活动。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>25</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>呼和浩特市政府考察团赴苏州考察学习并座谈交流</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2021-04-27</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwgk/2022_ldzc/hhd/ldhd_53123/202203/t20220321_1216606.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['4月26日，市委副书记、市长、和林格尔新区党工委书记贺海东带领呼和浩特市政府考察团赴苏州考察学习，并与苏州市委副书记、市长李亚平就推动经济高质量发展进行座谈交流。', '考察团一行首先来到苏州工业园区展示中心，全面了解园区发展历程、辉煌成就和未来规划。在园区智慧城市运行中心，工作人员现场进行了城市管理、生态环境保护、应急救援、公共安全管控等四个方面的展示，智能感知、精细治理的“一网统管”模式给考察团成员留下了深刻印象。在园区一站式服务中心，大家认真听取了自贸区制度创新、政务服务供给体系创新等情况介绍。在苏州纳米城，考察团成员深入了解载体建设、人才引进、产业培育与创新能力建设等，感受苏州工业园区强化创新驱动、推动产业转型升级的活力。', '随后，贺海东与李亚平座谈交流。贺海东指出，苏州经济社会各项事业走在全国前列，非常值得学习借鉴。一直以来，呼和浩特按照习近平总书记和党中央赋予内蒙古“两个屏障”“两个基地”和“一个桥头堡”的战略定位，围绕打造区域性“科技创新、交通物流、生活消费、休闲度假中心”目标，全力建设现代化首府城市。虽然经济社会发展取得显著成效，但与苏州相比还有很大差距。希望能与苏州在产业发展、科技创新、对外开放、生态环保等领域密切对接沟通、加强深度合作，共同努力推动两地经济实现高质量发展。', '李亚平说，呼和浩特历史文化丰富、资源优势显著，目前正在加快产业转型升级，积极融入全国大循环。希望双方互相学习借鉴，加强交流互动，深化务实合作，推动两市经济社会发展取得新成绩。', '市领导王浩雷、毕国臣，和林格尔新区管委会副主任朱建国，呼和浩特经济技术开发区党工委书记李晓东，市政府秘书长张仲东及相关地区和部门负责同志参加考察学习并座谈交流。苏州市政府秘书长周伟及相关部门负责同志参加座谈交流。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>25</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>加强考察学习提升专业技能呼和浩特市大数据管理局赴上海市杭州市考察学习</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2024-05-10</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/sdsjglj_22438/fdzdgknr_26169/zdxmjs/xmjzqk/202405/t20240510_1705685.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['加强考察学习 提升专业技能｜呼和浩特市大数据管理局赴上海市、杭州市考察学习_ 呼和浩特市人民政府', '4月25日至26日，呼和浩特市大数据管理局党组书记、局长徐艳国带队先后赴上海市、杭州市围绕数据治理应用、公共数据授权运营、信息化项目建设管理等方面进行了深入考察学习。', '在上海市，调研组一行先后拜访了上海数据集团、上海数据交易所及上海市大数据中心数据治理工作承接企业上海德拓信息技术股份有限公司，详细了解了上海市数据基础平台建设、数据治理体系架构、公共数据授权运营、数据交易等工作体制机制建设情况、目前工作推进情况及数据集团生态产业体系搭建等相关工作。', '在杭州市，调研组一行前往杭州市萧山区数据资源管理局进行了拜访，认真学习了解了杭州市在数据局专业化团队打造、政务信息化项目建设管理、数据治理工作等方面的先进经验及围绕“党建+业务”深度融合，创立“数智项目突击队”品牌的亮点工作成效。', '此次考察为进一步优化提升我市数据治理工作水平提供了新思路、新点子，为加快推动公共数据授权运营、流通交易工作理顺了思路、提供了路径，为推动党建与大数据工作业务深度融合提供了新方案。下一步，市大数据管理局将加快推动先进建设经验与我市工作的深度融合，理顺工作思路、组建工作团队、建立工作机制，加快推动我市数据工作再出新成效、再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>25</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>呼和浩特市党政考察团赴包头考察学习</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwgk/2022_ldzc/hhd/ldhd_53123/202203/t20220321_1216438.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['9月1日，市委副书记、市长、和林格尔新区党工委书记贺海东带领呼和浩特市党政考察团赴包头市，就着力优化营商环境、推动重点项目建设等方面进行了为期一天的考察学习，返呼后连夜召开总结会，交流考察学习心得体会，凝聚共识。包头市委副书记、市长张锐，副市长王秀莲、刘永祥陪同考察。', '近年来，包头市把打造一流营商环境作为推动经济社会高质量发展的长久之策和服务、融入新发展格局的关键之举，不断提升全市产业基础高级化和产业链现代化水平。当日，考察团一行先后走进内蒙古光威碳纤有限公司、双良硅材料(包头)有限公司、金力永磁(包头)科技有限公司、北奔重型汽车集团有限公司、一机集团和新特能源股份有限公司，每到一处，考察团成员都详细了解包头市在重大项目推进、营商环境打造等方面的经验和做法，积极寻找差距、虚心学习经验。', '总结会上，考察团成员结合地区和部门实际，从学什么、解决什么、抓什么三个方面进行深入交流，一致表示要进一步理清工作思路，加大创新力度，主动对标对表，查找自身不足，积极推动全市经济社会高质量发展。', '贺海东在讲话中指出，抓项目就是抓发展，抓投资就是抓未来，各级各部门要通过考察学习做到“五个要”，即认识要到位、谋划要主动、推动要有力、方式要创新、服务要精准。要找准定位，发挥优势，形成“抓一把手、一把手抓”的良好氛围，敢于担当、勇于担当，推动各项工作扎实开展。', '贺海东强调，首府就要有首府的样子，各地区各部门要学习借鉴先进地区的经验和做法，围绕产业谋项目、研究政策争项目、优化环境强项目，谋定后动、谋定快动，切实增强推进项目的能力。要坚持领导带头、率先垂范，一级带着一级干、一级干给一级看，形成比、学、赶、帮、超的浓厚氛围，以实实在在的成效推动我市各项工作再上新台阶。', '市领导刘程民、魏红军、王彦军、张永文，市政府党组成员、和林格尔新区管委会主任朱建国，呼和浩特经济技术开发区党工委书记李晓东及各旗县区、市属相关部门主要负责同志参加考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>25</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>我市党政代表团赴包头市考察学习</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650096386&amp;idx=3&amp;sn=39e217cf26e7a2f49efd1e15308d4257&amp;scene=0</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '8月22日，自治区党委常委、呼和浩特市委书记包钢，呼和浩特市委副书记、市长贺海东率我市党政代表团赴包头市考察学习。', '考察中，市党政代表团直奔企业、园区，进车间、看项目、听介绍，在明阳北方智慧能源、弘元新材料、通威高纯晶硅、双良硅材料、英思特稀磁新材料等企业，详细了解了包头市风电装备制造、晶硅光伏、稀土产业发展情况，对项目建设、产业集聚、园区配套等进行了重点考察。在青山区自由路二号街坊，市党政代表团一行考察了老旧小区改造及兵工文化特色完整社区建设情况。代表团一路走、一路看、一路议，切身感受到了包头在坚持“两新”导向抓项目、强化增量意识谋发展中取得的突出成效。', '代表团返呼后，当晚召开会议，交流学习收获。包钢指出，包头工业基础雄厚，产业特色突出，特别是在运用系统思维谋划推进全产业链发展和强化发展质效考核方面，形成了很多好经验好做法，非常值得我市学习借鉴。大家要学习包头抓机遇的敏锐和高效、抓项目的韧劲和精细、抓发展的担当和魄力，切实把握新一轮发展机遇，乘势而上，敢闯敢干。要聚焦产业抓项目，强招商会招商，站在利当下、谋长远的高度推动“六大产业集群”链式化发展，为城市未来发展赢得更多主动。', '市领导张海峰、王海瑜、魏红军、刘继英、李晓燕、付金在、朱建国及各旗县区、相关部门主要负责同志参加考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>25</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>呼和浩特市党政代表团赴晋考察学习</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-07-06</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650078970&amp;idx=3&amp;sn=20d92f3f44216b5f10e0dc6b6b6cf33a&amp;scene=0</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '7月2日至5日，自治区党委常委、市委书记包钢，市委副书记、市长贺海东带领呼和浩特市党政代表团赴山西省太原市、大同市、朔州市考察学习。山西省委常委、大同市委书记卢东亮，山西省委常委、太原市委书记韦韬，太原市委副书记、市长张新伟，大同市委副书记、市长张强，朔州市委副书记、市长吴秀玲陪同考察或参加工作会谈。', '考察中，市党政代表团先后深入大同市博物馆、经开区、装备制造产业园、大同古城墙、太原中海国际商务中心、汾河生态修复治理太原城区段、太原锅炉集团、长城计算机公司、老军营小区、先进计算太原中心和朔州老城及朔州经济开发区慧源创新科创园等地，详细了解了当地历史文化、城市建设、产业发展、生态治理、文旅融合、楼宇经济和老旧小区改造等情况。代表团成员一路走、一路看、一路思，大家表示，要学真髓、悟真谛、取真经，要找差距、补短板、强弱项，切实学出信心、学出思路、学出措施、学出干劲，全力推动首府加快建设现代化区域中心城市。', '韦韬代表太原市委、市政府对包钢一行表示欢迎，简要介绍了太原的发展机遇、产业基础和战略规划。他说，呼和浩特市区位优势明显，近年来经济社会发展取得了显著成绩，许多经验做法值得太原学习借鉴。希望两市发挥比较优势，加强交流合作，在产业发展方面携手共进、在文旅融合方面协同发力、在生态治理方面互学互鉴，实现优势互补、合作共赢。', '包钢感谢太原市委、市政府对呼和浩特市发展的关注，简要介绍了我市经济社会发展情况。他说，两市地缘相近、人文相亲，各方面联系十分密切，地区间合作空间广阔。希望两地加强对接联系，在推动产业发展、城市建设、生态治理、文旅融合等方面深化交流互鉴，促进城市合作发展。', '市领导刘程民、魏红军、刘继英、张永文、朱建国及相关地区、部门负责同志参加考察或工作会谈。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>25</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>赤峰市儿童福利工作考察团一行赴呼和浩特市儿童福利院考察学习</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-04-14</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/smzj_22407/fdzdgknr/ywxx/202304/t20230421_1513893.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['2023年4月14日下午，赤峰市民政局社会事务和儿童福利科副科长彭磊带领市儿童福利院、未保中心等干部职工到呼和浩特市儿童福利院，考察调研儿童福利机构建设运营服务情况，市民政局儿童福利科科长成红明陪同考察学习。', '市儿童福利院党总支成员、副院长于涛代表院领导班子对考察团的到来表示热烈欢迎，陪同考察团实地参观我院模拟家庭、单元式养育、党建文化长廊、康复、志愿者工作站、特教等区域，详细了解了各个区域的建设、使用、功能及各项业务工作的实际开展情况。在成果展室，考察团对市儿童福利院近年来在业务工作方面所作的工作进行了详细了解。市儿童福利院在儿童福利机构标准化建设、特需运动体育项目、社会工作典型案例、媒体宣传报道等方面取得的成果得到了考察团的高度评价。', '本次考察学习，进一步深化了两地儿童福利工作的合作交流，为互学互鉴、互联互通，推动儿童福利事业合作发展奠定了坚实的基础。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>25</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>呼和浩特市党政考察团赴深圳考察学习和参加我市举办的企业家恳谈会活动</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2020-12-08</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/sqyjjhzj_22436/fdzdgknr_25934/bmgk/202012/t20201208_945945.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['呼和浩特市党政考察团赴深圳考察学习和参加我市举办的企业家恳谈会活动_ 呼和浩特市人民政府', '12月1日至2日，自治区党委常委、市委书记王莉霞带领呼和浩特市党政考察团赴改革开放的前沿阵地广东省深圳市，与广东省委副书记、深圳市委书记王伟中会见交流，就绿色农蓄产品采购、文旅宣传推介、两地间直飞航线开通、推动国有企业改革等领域进行深入交流，达成合作共识。对标先进，开拓思路，寻求南北两座城市发展的新路径。', '呼和浩特市党政考察团一行先后走进前海合作区考察了前海展厅、前海石公园；考察华为公司总部并与轮值董事长徐直军就推进智慧城市建设，建立北方总部基地等方面深入交流，达成共识；考察正威集团并与董事局主席王文银就在首府投资铜基新材料、晶元新材料、美丽乡村建设、北方总部基地建设等方面进行深入交流，达成共识；考察宝能集团并与董事长姚振华就新能源汽车制造、绿色食品加工、文旅开发、康养、综合物流园建设、北方总部基地建设等多个领域深入交流，达成合作意向；考察东部华侨城并与党委书记李彦忠就下一步合作达成意向。在深期间，我市还举行了美丽青城·草原都市呼和浩特（深圳）企业家恳谈会，邀请了350多家企业参加。会上重点就呼和浩特市文化旅游、智慧城市、和林格尔新区建设等方面，以及伊利现代智慧健康谷、蒙牛中国乳业产业园等重点项目进行推介，伊利集团、蒙牛集团还与8家上下游企业签订合作协议。考察期间共与华为公司、正威集团、宝能集团、华大基因等17家企业签订战略合作协议，涉及投资金额760亿元。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>25</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>呼和浩特市体育局组织考察学习团赴自治区十五运赛场观摩学习</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-08-11</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/styj_22426/fdzdgknr_24634/ywxx/202308/t20230811_1570889.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['为推进全市青少年业余训练工作健康有序发展，全面提升首府竞技体育水平，学习借鉴发达地区组织大型赛事和青少年科学化训练管理经验，调动首府基层学校、协会、俱乐部等训练单位培养高水平体育后备人才的热情和积极性，', '日观看了“十五运”开幕式、内蒙古自治区体育事业发展成就展，赴鄂尔多斯市体育中心田径场、综合馆、游泳馆、鄂尔多斯市体校、伊金霍洛旗全民健身中心等单位调研学习。在鄂尔多斯市一中观摩“十五运”排球比赛并与校方就体教融合进行座谈交流。', '短短两天的考察学习圆满结束，大家收获颇丰，更进一步了解了自治区体育事业发展一路走来的成就，纷纷表示要为体育事业不断添砖加瓦，共同推进首府体育事业迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>25</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>关于整合高标准农田建设项目零散地块推进农业集约化发展的紧急通知</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2020-04-01</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/snmj_22416/fdzdgknr/bmgk/202004/t20200401_938268.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['关于整合高标准农田建设项目零散地块推进农业集约化发展的紧急通知_ 呼和浩特市人民政府', '为了切实加快我市农业绿色生态高质量发展，近日，由市委主要领导带队，市委、市政府分管领导、市相关部门和部分承担高标准农田建设项目任务的旗县区主要领导，赴通辽市考察学习了高标准农田建设的先进经验，深刻领会到集中连片，整体推进高标准农田建设是促进农业现代化的根本保证。针对当前部分项目县地块小而散，不利于集中开发建设和规模化、集约化经营的状况，结合先进地区的经验做法，按照市委副书记贺海东在考察学习后总结会上的具体指示精神，请各地区按照项目的总体要求和市委、市政府的决策部署，进一步优化项目区建设布局，切实做好全市高标准农田建设的各项工作。单个项目区地块的面积原则上不得小于5000亩，请各地区按此要求尽快进行项目区地块的整合调整，确保项目整体顺利推进。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>25</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>市商务局组织参加全区优化口岸营商环境业务培训</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/sswj_22417/fdzdgknr/qt/ggfwyms/202407/t20240712_1748293.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['2024年7月3日－5日，内蒙古自治区商务厅（口岸办）在北京市中科院大学举办了优化口岸营商环境业务培训，市商务局谭金龙副局长带队参加培训。', '这次培训邀请了国家口岸管理办公室通关协调处处长朱振、中科院大学教授黄金川、北京市海关综合业务处李庆、中国人民警察大学（移民管理学院）教授王强进行了面对面授课，分别从持续优化市场化法治化国际化一流口岸营商环境、不断提升跨境贸易便利化水平；营商环境新形势新思路以及对内蒙古优化口岸营商环境的思考；世界银行营商环境新评估体系与“国际贸易”指标介绍；保国门安全、助开放发展，营造一流口岸营商环境、国际贸易单一窗口应用等多维度进行了讲解，并组织学员赴北京市天竺综合保税区实地考察，学习北京市在优化口岸营商环境方面的好经验和好做法。', '通过培训和实地考察，培育了“营商内蒙古·提升口岸便利化”服务品牌意识，进一步提升了口岸系统工作人员整体业务素质、服务意识和工作能力，更好地助力首府口岸高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>25</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>泰安市公路事业发展中心赴市智慧交通与应急指挥中心考察交流</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-10-11</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/fwyzt/jt_jtcx/jtyw/202310/t20231011_1600096.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['10月11日上午，泰安市公路事业发展中心党组成员、总会计师亓飞一行赴我市智慧交通与应急指挥中心考察智慧交通建设工作。', '考察团一行参观了智慧交通与应急指挥中心的指挥调度大厅，观看了呼和浩特市交通行业宣传片，并对智慧交通指挥调度平台的八大模块进行了详细了解。', '通过此次考察学习，双方就如何挖掘数据价值，不断拓展应用场景有了更深的认识，下一步，双方将在智慧交通建设、技术联通协作、地域特色挖掘等方面开展更深层次的交流合作。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>25</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>呼和浩特市农牧局关于呼和浩特市第十五届人民代表大会第三次会议第号关于加强首府地区空气质量优化禁止农民焚烧秸秆出台秸秆还田相关政策建议的答复</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2020-09-27</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/snmj_22416/fdzdgknr/jytablnew/202009/t20200927_942517.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['呼和浩特市农牧局关于呼和浩特市第十五届人民代表大会第三次会议第400号《关于加强首府地区空气质量优化，禁止农民焚烧秸秆、出台秸秆还田相关政策建议》的答复_ 呼和浩特市人民政府', '呼和浩特市农牧局关于呼和浩特市第十五届 人民代表大会第三次会议第400号《关于加强首府 地区空气质量优化，禁止农民焚烧秸秆、出台 秸秆还田相关政策建议》的答复', '您提出的《关于加强首府地区空气质量优化，禁止农民焚烧秸秆、出台秸秆还田相关政策建议》收悉，现答复如下:', '着力推进秸秆饲料化利用。在稳定发展现有秸秆全株青饲、黄饲的基础上，积极探索秸秆饲料化利用、商品化生产、产业化经营的新途径，形成秸秆饲料产业与奶牛、肉牛、肉驴、肉羊等畜牧养殖产业同步持续健康快速发展的良好局面。', '加大推广秸秆肥料化利用。按照全市农业可持续发展的基本思路，以提升地力为目标，采用秸秆生产有机肥，同时开展秸秆还田技术示范推广，以秸秆还田作业补贴与购机补贴为重点，积极鼓励农民实施秸秆田间机械化粉碎直接翻压还田作业和秸秆粉碎堆沤还田技术。', '适度发展秸秆燃料化利用。结合大气环境治理，有条件的重点区域大力推动燃煤炉具改造为生物质成型燃料炉具，扩大生物质成型燃料市场规模，在不宜铺设燃气管网的城郊接合部，推广户用生物质成型燃料炉具，解决户用采暖用能。', '拓展其他秸秆利用途径。在主要发展秸秆饲料化、肥料化和燃料化的基础上，因地制宜，积极挖掘和拓展秸秆的基料化和原料化转化利用形式，推广蔬菜大棚秸秆生物反应堆技术、秸秆蚯蚓养殖技术、秸秆种植食用菌等技术。', '通过2年工作，逐步推进全市秸秆收储运用体系的完善，提升全市的秸秆综合利用水平。建立起覆盖全市的秸秆收、储、运、用体系，实现秸秆资源市场化利用和产业化发展、社会化服务的良性态势。', '为推动我市秸秆综合利用工作，2019年11月，在赛罕区和玉泉区召开秸秆综合利用现场会，推广秸秆综合利用技术模式。市农牧局于2019年12月初派出专业技术人员赴黑龙江、吉林、辽宁三省考察学习，于12底派出调研组赴通辽市考察学习，积极探索秸秆综合利用的好途径和好做法。另外，市、县两级农牧部门成立了技术指导小组，负责开展技术咨询、指导、培训和推广服务，目前发放宣传资料2万份。', '秸秆存放于秸秆收储网点，存在重大消防安全隐患。为切实保护人民群众生命财产安全和生态环境，市农牧局下发了《关于进一步加强对秸秆收储网点安全防火的通知》，要求各旗县区将秸秆收储网点安全防火的监督工作作为一项重要工作来抓。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>25</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>山西省民政厅副厅长琚李梅一行到呼和浩特市儿童福利院考察调研</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-04-19</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/smzj_22407/fdzdgknr/ywxx/202304/t20230421_1513890.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['2023年4月13日上午，山西省民政厅党组成员、副厅长琚李梅一行到呼和浩特市儿童福利院考察调研儿童福利和未成年人保护工作，内蒙古自治区民政厅儿童福利处处长王宝文，市民政局党组成员、副局长李瑞俊等领导同志陪同考察。', '考察组首先听取了市儿童福利院党总支书记、院长米红瑞关于儿童福利院基本情况介绍，并实地参观了院内儿童生活、康复、教育、医疗等特色功能区，详细了解了各个区域的建设、使用、功能及各项业务工作的实际开展情况。在成果展室，琚李梅厅长重点了解了市儿童福利院在儿童福利机构标准化建设方面的工作实绩，对市儿童福利院管理标准化和服务标准化给予了高度认可。', '李瑞俊副局长向考察组介绍了市儿童福利院的整体改造提升计划，市儿童福利院将以硬件改造和设施设备提升为重点，继续发挥人才队伍、工作机制等“软实力”优势，乘势而上，推进儿童福利机构提质优化创新转型高质量发展。', '在深入考察和交流后，琚李梅副厅长表示，要以此次考察学习为契机，推进两地儿童福利机构合作交流，互学互鉴，共同进步，积极推进儿童福利事业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>25</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>贵阳市代表团在呼考察</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2024-06-26</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/wzjyhdsjfxpt/wntj/202406/t20240626_1740107.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['考察期间，贵阳市代表团深入呼和浩特市城市展示中心、伊利现代智慧健康谷、和林格尔新区城市大脑及数字化展示中心、中国移动呼和浩特数据中心、中国银行总行金融数据中心，对我市城市规划、智能制造、算力产业发展等情况进行了详细了解。', '实地考察后，包钢会见胡忠雄一行。包钢代表呼和浩特市委、市政府对贵阳市代表团来呼考察表示欢迎，并简要介绍了呼和浩特市经济社会发展情况。他说，当前，呼和浩特正在深入贯彻习近平总书记对内蒙古的重要指示精神，积极培育“六大产业集群”，重点布局人工智能等未来产业，加快构建现代化产业体系，全面建设现代化区域中心城市。贵阳市在产业发展、城市建设、基层治理等方面工作成效显著，特别是在数字经济发展上起步早、成效好，许多宝贵经验值得呼和浩特市认真学习借鉴。贵阳、呼和浩特同属国家“东数西算”枢纽节点城市，一南一北遥相呼应，合作前景广阔、潜力巨大，希望两市在算力产业、人工智能等方面进一步深化交流合作，携手推进高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>25</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>关于对呼和浩特市政协十三届二次会议第号提案的答复</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2019-11-13</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/sqyjjhzj_22436/fdzdgknr_25934/jytablnew/201911/t20191113_945922.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['市区域经济合作局属我市机构改革新设部门，自成立以来，按照局机关职能职责认真开展优化营商环境相关工作，落实各项政策，不断提升服务水平。', '今年，市委、市政府对y优化营商环境非常重视，确定2019年为全市“优化营商环境提升年”。为深入贯彻落实国家和自治区关于区域协同发展、招商引资的方针政策和法律法规，充分调动各旗县区、呼和浩特市经济技术开发区和市直相关部门招商引资工作积极性，我局相继出台《呼和浩特市招商引资工作管理办法》《呼和浩特市招商引资工作考核制度》和《呼和浩特市招商引资工作奖励制度》，为进一步推进招商引资工作提供坚实的制度保障。', '加大全市招商引资、纳贤引智工作力度，建立良好的工作平台，扩大工作成果，市委、市政府在北京、上海、深圳、烟台等地设立四个市级驻外招商引资、纳贤引智工作联络处，借鉴发达城市招商引资工作的先进经验、先进做法。', '审批和政务服务局、市住房和城乡建设局、市公共资源交易监督管理局等部门组成考察组赴江阴市考察学习优化营商环境先进经验，对提升我市营商环境提出了有效的建议和意见。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>25</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>土左旗党建引领助力乡村产业振兴</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2024-05-17</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/2022_fwzx/202405/t20240517_1708222.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['土左旗近年来不断推进党建引领助力乡村振兴工作模式，以产业振兴为抓手，结合精准扶贫，按照“发展产业、技术融合、优势互补”的原则，在善岱镇成立了党建引领蘑菇种植产业发展共同体，通过9个党组织联建共建，共同助力乡村产业振兴。', '多年来，蘑菇种植产业发展示范基地实施“合作社＋基地＋村集体＋农户”的村集体经济发展管理模式，从最初引入社会资金建设大棚，争取自治区财政优势特色绿色农畜产品发展资金，到镇党委带队外出考察学习先进种植技术，提升基地产量和蘑菇品质，再到争取中央财政扶持壮大村集体经济发展资金，新建育菌棚和冷库，购进先进数控设备，一步步实现了从种菌到销售的“全包干”，做到了统一供种、统一标准、统一收购、统一销售。', '其中，仅善岱村的蘑菇种植基地就已建成130栋蘑菇大棚、400平方米的冷库2座、深加工车间设备（线）2条，日产量达到6000—7000斤左右，并以善岱村、公布村蘑菇种植基地为中心，将蘑菇种植经验辐射推广到周边村，形成了“以强带弱、抱团发展、资源共享、合作共赢”的产业发展新模式。', '据介绍，今年，善岱镇蘑菇种植产业发展示范基地制作菌棒近65万棒，生产鲜香菇约130万斤，产值可达600万元，不仅销往市区及周边城市，还吸引了来自北京、重庆、山西、陕西、河南等地的客商上门收购。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>25</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>自治区推进高质量发展重大项目建设动员大会在包头召开</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2021-04-23</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwgk/2022_ldzc/hhd/ldhd_53123/202203/t20220321_1216612.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['自治区党政考察团赴上海市和江苏省学习考察一结束，4月21日至22日，自治区党委和政府随即在包头市召开推进高质量发展重大项目建设动员大会，交流学习考察体会，观摩包头市重大项目建设，听取各盟市项目建设情况汇报，进一步传导谋发展、促转型、抓项目的强烈信号，动员全区上下、方方面面抓住项目建设的黄金季节抓紧行动起来，高质量高效率推进重大项目建设，为“十四五”开好局、起好步提供有力支撑。自治区党委书记、人大常委会主任石泰峰在动员大会上宣布重大项目集中开工并在座谈时讲话。', '自治区领导王莉霞、孟凡利、张院忠、艾丽华、马学军出席活动，自治区党委常委、秘书长、自治区常务副主席张韶春主持活动。', '与会人员首先深入包头市的企业、车间、项目施工现场，实地考察了弘元新材料、南高齿风电齿轮箱二期、金力永磁材料、上海交通大学包头材料研究院及产业园、韵升强磁材料二期和光威碳纤维等重大项目建设情况，详细了解企业科技创新、产业升级等情况。在现场观摩中，当了解到上海交通大学包头材料研究院一项项科研成果、一个个中试产业项目吸引了国内一些企业前来寻求合作，石泰峰指出，企业是以市场为导向的，哪一项科研成果具有应用转化潜力，企业最敏感、最清楚。要坚持需求导向，面向市场进行研发、围绕创新链进行研发，吸引更多企业来我区转化成果，以科技集聚产业。', '在随后举行的动员大会上，各盟市通过视频连线的方式依次汇报了2021年重大项目推进情况，石泰峰宣布自治区推进高质量发展重大项目集中开工。他强调，推动项目建设必须务实扎实，谋划推进的项目一定要真正落地落实，决不能喊口号、做样子。对今天各盟市汇报的重点项目，有关方面要加强跟踪督办，组建工作专班跟进推动，坚持挂图作战，实行清单管理，做到全程监督，切实把责任落实到每一个盟市、旗县和部门，把项目建设的每一个环节都盯紧抓实，确保每一个项目都落地见效。', '在22日下午的座谈会上，呼和浩特市、包头市、鄂尔多斯市、通辽市、赤峰市和自治区发改委、自然资源厅、生态环境厅、住建厅、林草局负责同志作了重点发言，交流了赴上海市和江苏省学习考察的感受体会，汇报了推进项目建设有关情况。', '在认真听取大家发言后，石泰峰指出，项目建设是牵动经济社会发展全局的“牛鼻子”，进入新发展阶段，我们面临的发展形势、发展环境、发展条件、发展要求与过去相比都有了很大不同，但项目建设的地位和作用丝毫没有减弱，抓项目这一手始终不能放松。推动高质量发展，确保“十四五”开好局、起好步，必须把项目建设紧紧抓在手上、有效落到实处。各级领导干部特别是盟市、旗县主要负责同志要胸怀全局抓项目、聚精会神抓项目、千方百计抓项目，以更高的站位、更宽的视野和更强烈的担当谋划推进重大项目建设，确保“十四五”发展迈好第一步、见到新气象。', '石泰峰强调，内蒙古有效施工期短，现在已经进入第二季度，各地各部门要立即行动起来，紧盯全年目标任务，切实加大工作力度、加快建设进度，全力推动重大项目建设见形见效、提质增效。要加快推动重大项目开复工，对已列入年度计划的新开工项目，逐一排布节点计划，抓紧落实土地、资金等建设条件，按照开工时间倒逼工作进度，确保按期开工、实质开工;对能够按期复工的在建续建项目，合理安排工期，紧抓施工关键环节，加快建设进度，力争早日竣工投产。对项目建设中遇到的实际问题，要认真分析研究，加强调度，精准施策，抓紧解决。要精准有效开展招商引资，坚持把延链补链强链作为重中之重，顺着产业链、价值链、创新链、供应链招大项目、引好项目，更加重视以商招商、以企引企，吸引和集聚上下游企业组团式投资、集群式发展。开展招商引资要注重实效，做到突出重点、精准出击，引进后要履诺践诺，确保抓一个成一个。要加强对签约项目的跟踪问效、服务保障，确保项目能够尽快落地施工、及早达产见效。各地要立足自身功能定位，主动适应投资需求的结构性变化，因时因势调整优化项目储备的主攻方向，紧跟国家政策导向，加强项目策划、严把项目标准，科学谋划储备一批强基础、利长远、增后劲的重大项目，推动形成储备一批、开工一批、建设一批、竣工一批的滚动接续格局。', '石泰峰强调，营商环境对于项目建设尤为重要，各地各部门要真正拿出自我革命精神抓好优化营商环境工作，把服务保障企业运行和项目建设作为中心任务，平等对待各类投资主体，集中精力解决好企业反映的实际困难和问题，着力提供全方位全周期的优质高效服务，切实营造形成关心企业、服务企业、爱护企业的良好氛围。谋项目抓项目一定要统筹好经济发展与生态保护的关系，该干的务必干好，不能干的坚决不干，决不能头脑发热盲目蛮干，决不能干偏离生态优先导向、突破资源环境承载能力的事情。要进一步健全用能预算等管理制度，严格控制能源消费强度特别是化石能源消费总量，强化节能目标责任评价考核及结果应用，坚决防止盲目新上高耗能高排放项目。项目建设是实实在在的经济工作，等不得、慢不得，更来不得半点虚的。各地各有关部门要扎扎实实地抓，真刀真枪地干，按照规划项目抓储备、新建项目抓开工、在建项目抓进度、建成项目抓运行的要求，加强统筹调度，强化工作措施，争分夺秒、时不我待地抓好项目建设，确保全年目标任务顺利完成。', '市领导贺海东、刘程民、毕国臣、张国平、朱建国、李晓东，市政府秘书长张仲东以及各旗县区、市有关部门负责同志在呼和浩特分会场参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>25</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>呼和浩特市人民政府外事办公室关于接待中国机电商品进出口商会发展中国家机械行业主管部门官员及实业家研修班的请示</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2017-08-04</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/swsbgs_22423/fdzdgknr/bmgk/201807/t20180730_943356.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['呼和浩特市人民政府外事办公室关于接待中国机电商品进出口商会发展中国家机械行业主管部门官员及实业家研修班的请示_ 呼和浩特市人民政府', '呼和浩特市人民政府外事办公室关于接待中国机电商品进出口商会发展中国家机械行业主管部门官员及实业家研修班的请示', '中国机电商品进出口商会（正厅级）将于7月25日至8月14日在北京市和呼和浩特市举办“发展中国家机械行业主管部门官员及实业家研修班”项目。此项目旨在通过赴相关城市地区考察学习、座谈交流，使受训官员对我国以及相关省市经济社会发展情况进行深入了解，从而推动各方在机械及电子制造业领域的务实合作。截止目前，已有包括巴勒斯坦、波黑、南非等在内的16个国家53名处级及以下干部报名参加该研修班。', '该研修班拟于8月4日至7日访问我市，与我市领导和相关部门负责人进行座谈交流，赴企业进行考察参观、合作洽谈。为推动我市外向型企业的经贸交流，根据机电商会的意见，我办拟作如下安排：', '一、拟请市领导于8月5日下午16:00与代表团进行座谈及宴请，市发展改革委员会、外事办、商务局、贸促会等相关部门负责人出席活动。', '二、8月6日至7日赴伊利集团、华电、中环光伏、蒙草抗旱、云计算中心等企业进行考察、交流。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>25</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>呼和浩特市农牧局关于对呼和浩特市政协第十三届三次会议第号关于秸秆综合利用的建议提案的答复</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2020-11-11</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/snmj_22416/fdzdgknr/jytablnew/202011/t20201111_942549.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['呼和浩特市农牧局关于对呼和浩特市政协第十三届三次会议第425号《关于秸秆综合利用的建议》提案的答复_ 呼和浩特市人民政府', '呼和浩特市农牧局关于对 呼和浩特市政协第十三届三次会议第425号 《关于秸秆综合利用的建议》提案的答复', '2019年，土默特左旗和赛罕区承担了国家秸秆综合利用示范点项目，项目资金分别为241万和220万。2020年，土默特左旗、托克托县、和林格尔县、赛罕区承担国家秸秆综合利用示范点项目，项目资金分别为900万、900万、700万和305万，共2805万元。通过项目的实施，可逐步推进全市秸秆收储运用体系的完善，提升全市的秸秆综合利用水平。通过2-3年项目的实施，建立起覆盖全市的秸秆收、储、运、用体系，实现秸秆资源市场化利用和产业化发展、社会化服务的良性态势。', '为坚决打赢“蓝天保卫战”，2019年呼和浩特市人民政府发布《关于禁止露天焚烧农作物秸秆通告》，2020年3月呼和浩特市人民政府发布《呼和浩特市人民政府关于鼓励举报露天焚烧秸秆行为的通告》，凡是举报在呼和浩特市行政区域内有露天焚烧秸秆行为且经市农牧局审核查证属实的，每例给予举报人人民币200元奖励。截至4月14日，市农牧局共接到电话举报焚烧秸秆事件50起，核实焚烧秸秆行为19起。为加快回收利用进度，市农牧局印发了《呼和浩特市农牧局加强秸秆综合利用和露天焚烧巡查工作方案》，成立了三个常态巡查工作组，从11月初开始对全市九个旗县区的秸秆综合利用和禁止露天焚烧工作开展网格化的技术指导和巡查督导，发现露天焚烧现象向生态环境部门和当地各级政府反馈情况并及时进行处理。2020年2月，市农牧局专门召开会议并下发了《关于切实加快推进农作物秸秆综合利用坚决杜绝焚烧农作物秸秆工作的通知》，要求各地千方百计加快回收进度，市农牧局成立4个推进督导组分区包片推进秸秆回收利用工作，局领导多次赴各旗县区进行督导。', '按照市政府印发《关于促进秸秆综合利用和禁止露天焚烧秸秆的决定》以及市农牧局印发《关于印发2019年农作物秸秆综合利用实施方案的通知》相关文件要求，市农牧局于2020年5月18日，成立了秸秆综合利用工作专项考核领导小组，对全市2019年秸秆综合利用完成情况进行全面考核，查看了当地秸秆综合利用市本级及旗县区配套资金到位使用情况，同时实地抽查了共12家秸秆回收企业、合作社和大户,对秸秆收、储、运、用等情况进行了详细了解，从而推动政策落实。', '为推动我市秸秆综合利用工作，市农牧局于2019年12月初派出专业技术人员赴黑龙江、吉林、辽宁三省考察学习，于12底派出调研组赴通辽市考察学习，积极探索秸秆综合利用的好途径和好做法。2019年11月，在赛罕区和玉泉区召开秸秆综合利用现场会，推广秸秆综合利用技术模式。另外，市、县两级农牧部门成立了技术指导小组，负责开展技术咨询、指导、培训和推广服务，目前发放宣传资料2万份。', '秸秆存放于秸秆收储网点，存在重大消防安全隐患。为切实保护人民群众生命财产安全和生态环境，市农牧局下发了《关于进一步加强对秸秆收储网点安全防火的通知》，要求各旗县区将秸秆收储网点安全防火的监督工作作为一项重要工作来抓。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>25</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>呼和浩特市大数据管理局关于对呼和浩特市第十五届人民代表大会第四次会议第号建议关于加强城市精细化管理的建议的答复</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2021-06-28</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/sdsjglj_22438/fdzdgknr_26169/jytablnew/202106/t20210629_997390.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['呼和浩特市大数据管理局关于对呼和浩特市第十五届人民代表大会第四次会议第166号建议《关于加强城市精细化管理的建议》的答复_ 呼和浩特市人民政府', '呼和浩特市大数据管理局关于对 呼和浩特市第十五届人民代表大会第四次会议第166号建议 《关于加强城市精细化管理的建议》的答复', '“建议”办理分工，市大数据管理局为分办单位，主要负责第五部分“强化提升推进智慧化建设重要性认识，不断增强对现代科技手段的适应性”办理工作。您在建议中提出的更新智慧城市发展理念、建立城市管理协调联动平台、建立统一的城市管理数据库等内容，我们进行了认真研究，现答复如下：', '，市委书记、市长带队赴杭州实地考察学习先进经验，随即召开常委会研究制定《呼和浩特新型智慧城市顶层设计方案（', '成立由市委书记任总指挥、市长任第一副总指挥的智慧城市建设指挥部，全面统筹、定期调度、强力推进', '2021年1月20日，历时100天，呼和浩特市城市大脑正式上线启用，呼和浩特市智慧城市建设“四梁八柱”基本框架搭建完成，形成了走在国内智慧城市体系先列的“1+4+N”建设体系（“1”即城市大脑，“4”即感知体系、数据体系、安全体系、“爱青城”APP4个基础支撑，“N”即智慧综治、智慧城管、智慧文旅、智慧林草等智慧应用），为下一步科学规划推进智慧青城建设奠定了坚实基础。', '为充分发挥智慧化、科技化、信息化力量，更新城市规划管理理念，推动城市管理向精细化、精准化迈进，', '2021年4月，呼和浩特市委副书记、市长贺海东带队，赴上海市、苏州市等城市管理水平先进地区考察学习，提出要推动实现城市治理要素“一屏统揽”，上下联动“一键互通”，城市运行“一网统管”。', '“1+4+N”的智慧城市建设基础框架下，依托12345接诉即办指挥调度中心职能职责，进一步汇集整理城市治理数据，实现城市治理要素“一屏统揽”；同时，各旗县区建立城市大脑分平台，推动实现与市本级城市大脑系统互通、数据共享，各区情况实时感知，上下联动“一键互通”；通过城市治理要素“一屏统揽”，市本级-旗县区上下联动“一键互通”，实现城市运行“一网统管”。目前，旗县区城市大脑分平台建设、各委办局数据共享、系统互通工作正在稳步推进。', '为切实打破全市各委办局数据壁垒，实现数据互通、集成共享，提高政府部门行政办公效能、提升青城市民民生服务效率，《呼和浩特市智慧青城（一期）建设方案》中明确提出，建立全市统一大数据平台，汇集整合全市政务数据、社会数据、民生数据等城市建设发', '25家委办局、8279万条数据，对接全市智慧文旅、智慧停车、智慧综治等各单位信息系统12个。为实现对全市各类数据的有效治理，已建成10个部门库和政治、经济、文化、社会、生态五大专题库，发布各类数据模型共计300余个，有效实现了数据清洗、治理、归集相关能力。为进一步推进数据共享，掀起全市数据会战大潮，我们于近期编制印发了《呼和浩特市数据汇聚大会战实施方案》，下大力气推进数据汇集共享相关工作。', '下一步，市大数据管理局将按照市委市政府安排部署，认真落实职能职责，有序推进数据汇集，让更多委办局、更多企业、更多群众享受到我市数据共享带来的便利。', '感谢您对城市管理的关注与支持，我们将一如既往的做好本职工作，通力配合推进城市精细化管理，不断提升首府市民获得感、幸福感、安全感。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>呼和浩特市农牧局关于对呼和浩特市政协第十三届三次会议第号关于采取有效措施解决农村秸秆焚烧问题的建议提案的答复</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2020-11-11</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/snmj_22416/fdzdgknr/jytablnew/202011/t20201111_942533.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['呼和浩特市农牧局关于对呼和浩特市政协第十三届三次会议第278号《关于采取有效措施解决农村秸秆焚烧问题的建议 》提案的答复_ 呼和浩特市人民政府', '呼和浩特市农牧局关于对 呼和浩特市政协第十三届三次会议第278号 《关于采取有效措施解决农村秸秆焚烧问题 的建议 》提案的答复', '2019年，土默特左旗和赛罕区承担了国家秸秆综合利用示范点项目，项目资金分别为241万和220万。2020年，土默特左旗、托克托县、和林格尔县、赛罕区承担国家秸秆综合利用示范点项目，项目资金分别为900万、900万、700万和305万，共2805万元。通过项目的实施，可逐步推进全市秸秆收储运用体系的完善，提升全市的秸秆综合利用水平。通过2-3年项目的实施，建立起覆盖全市的秸秆收、储、运、用体系，实现秸秆资源市场化利用和产业化发展、社会化服务的良性态势。', '为坚决打赢“蓝天保卫战”，2019年呼和浩特市人民政府发布《关于禁止露天焚烧农作物秸秆通告》，2020年3月呼和浩特市人民政府发布《呼和浩特市人民政府关于鼓励举报露天焚烧秸秆行为的通告》，凡是举报在呼和浩特市行政区域内有露天焚烧秸秆行为且经市农牧局审核查证属实的，每例给予举报人人民币200元奖励。截至4月14日，市农牧局共接到电话举报焚烧秸秆事件50起，核实焚烧秸秆行为19起。为加快回收利用进度，市农牧局印发了《呼和浩特市农牧局加强秸秆综合利用和露天焚烧巡查工作方案》，成立了三个常态巡查工作组，从11月初开始对全市九个旗县区的秸秆综合利用和禁止露天焚烧工作开展网格化的技术指导和巡查督导，发现露天焚烧现象向生态环境部门和当地各级政府反馈情况并及时进行处理。2020年2月，市农牧局专门召开会议并下发了《关于切实加快推进农作物秸秆综合利用坚决杜绝焚烧农作物秸秆工作的通知》，要求各地千方百计加快回收进度，市农牧局成立4个推进督导组分区包片推进秸秆回收利用工作，局领导多次赴各旗县区进行督导。', '按照市政府印发《关于促进秸秆综合利用和禁止露天焚烧秸秆的决定》以及市农牧局印发《关于印发2019年农作物秸秆综合利用实施方案的通知》相关文件要求，市农牧局于2020年5月18日，成立了秸秆综合利用工作专项考核领导小组，对全市2019年秸秆综合利用完成情况进行全面考核，查看了当地秸秆综合利用市本级及旗县区配套资金到位使用情况，同时实地抽查了共12家秸秆回收企业、合作社和大户,对秸秆收、储、运、用等情况进行了详细了解，从而推动政策落实。', '为推动我市秸秆综合利用工作，市农牧局于2019年12月初派出专业技术人员赴黑龙江、吉林、辽宁三省考察学习，于12底派出调研组赴通辽市考察学习，积极探索秸秆综合利用的好途径和好做法。2019年11月，在赛罕区和玉泉区召开秸秆综合利用现场会，推广秸秆综合利用技术模式。另外，市、县两级农牧部门成立了技术指导小组，负责开展技术咨询、指导、培训和推广服务，目前发放宣传资料2万份。', '秸秆存放于秸秆收储网点，存在重大消防安全隐患。为切实保护人民群众生命财产安全和生态环境，市农牧局下发了《关于进一步加强对秸秆收储网点安全防火的通知》，要求各旗县区将秸秆收储网点安全防火的监督工作作为一项重要工作来抓。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>市科技局主动对接蓄势谋篇下好呼包科技同城一盘棋</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2024-02-06</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/bmdt/202402/t20240205_1657600.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['2月4日,呼和浩特市科技局四级调研员贾瑞生带领相关科室、局属事业单位负责人、旗县区科技部门代表、企业科技特派员工作站代表一行来到包头市,学习借鉴兄弟盟市科技创新工作的先进经验,考察对接科技创新同城化工作,与包头市科技局齐聚一堂,座谈对接、调研交流,凝聚共识,共同谋划科技同城高质量发展的新蓝图。', '包头市科技局党组书记、局长杨军对呼和浩特市科技局的到访表示热烈欢迎。在座谈交流环节,呼和浩特市科技局在认真听取包头市科技局相关科室负责人对于业务工作介绍的基础上,详细了解了包头市科技创新工作基本情况和亮点工作,重点考察学习了包头市“科技体检”及科技特派员工作、研发投入、技术合同登记等方面的先进经验做法。双方从各自的人员构成、科技投入、科技管理切入,围绕科技政策体系、高能级创新平台载体建设、孵化器建设、科技型中小企业、高新技术企业等创新主体培育、研发投入攻坚、科技成果转化、企业科技特派员等方面的工作进行了深度交流。双方聚焦科技同城高质量发展,从创新资源互通共享、深度开展科技合作进行协同创新、联合科技攻关和成果转化、建立合作机制等方面,分析两市资源优势,梳理特色亮点,共同谋划推进2024年呼包科技创新同城化高质量发展相关活动举措与具体事宜,达成了广泛共识。', '在实地调研环节,呼和浩特市科技局一行来到包头稀土研究院,参观了稀土博物馆,实地调研了解稀土新材料技术创新中心建设情况及科技创新助力稀土产业高质量发展情况,为下一步首府全速建设高能级创新平台、与包头共建产业联盟提供了新思路,为加速呼包科技同城工作打下了良好基础。', '以此次对接调研为契机,呼和浩特市科技局将不断完善与包头市的常态化合作联动工作机制,进一步强化两地科技资源互联共享、科技人才交流互动,找准靶心,落好点位,推动两市产业协同创新发展,奋力开启科技同城工作新局面。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>25</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>呼和浩特市农牧局关于对呼和浩特市政协第十三届三次会议第号关于采取有效措施解决农村秸秆焚烧的建议提案的答复</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2020-11-11</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/snmj_22416/fdzdgknr/jytablnew/202011/t20201111_942531.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['呼和浩特市农牧局关于对呼和浩特市政协第十三届三次会议第249号《关于采取有效措施解决农村秸秆焚烧的建议》提案的答复_ 呼和浩特市人民政府', '呼和浩特市农牧局关于对 呼和浩特市政协第十三届三次会议第249号 《关于采取有效措施解决农村秸秆焚烧 的建议》提案的答复', '2019年，按照农情统计，全市玉米种植面积为223万亩，主要集中在土左旗、托县、和林县、清水河县、赛罕区、玉泉区；向日葵种植面积49.6万亩，主要种植区域为武川县。玉米秸秆回收利用面积223万亩，可回收量约为56.4万吨；向日葵秸秆49.6万亩全部打捆回收，回收量约为4.3万吨。', '全市秸秆回收作业去年10月下旬开始，各类秸秆综合利用企业、合作社和回收大户59家参与回收作业，投入各类打捆回收机械300多台套，正常每天可完成作业面积3万多亩。由于11月底后连续降雪和新型冠状病毒肺炎疫情的原因，秸秆回收作业基本停止。各地从2月底开始根据土壤干湿状况，在适宜地块陆续开工作业。2019年度的玉米秸秆打捆回收工作于2020年3月31日全部完成，向日葵秸秆打捆回收工作于2020年4月6日全部完成。2019年全市综合利用率目标为84.5%，截止2020年8月5日全市玉米秸秆综合利用率为88.79%，向日葵秸秆综合利用率为97%，全市秸秆综合利用率为89.4%。', '2019年，土默特左旗和赛罕区承担了国家秸秆综合利用示范点项目，项目资金分别为241万和220万。2020年，土默特左旗、托克托县、和林格尔县、赛罕区承担国家秸秆综合利用示范点项目，项目资金分别为900万、900万、700万和305万，共2805万元。通过项目的实施，可逐步推进全市秸秆收储运用体系的完善，提升全市的秸秆综合利用水平。通过2-3年项目的实施，建立起覆盖全市的秸秆收、储、运、用体系，实现秸秆资源市场化利用和产业化发展、社会化服务的良性态势。', '为坚决打赢“蓝天保卫战”，2019年呼和浩特市人民政府发布《关于禁止露天焚烧农作物秸秆通告》，2020年3月呼和浩特市人民政府发布《呼和浩特市人民政府关于鼓励举报露天焚烧秸秆行为的通告》，凡是举报在呼和浩特市行政区域内有露天焚烧秸秆行为且经市农牧局审核查证属实的，每例给予举报人人民币200元奖励。截至4月14日，市农牧局共接到电话举报焚烧秸秆事件50起，核实焚烧秸秆行为19起。为加快回收利用进度，市农牧局印发了《呼和浩特市农牧局加强秸秆综合利用和露天焚烧巡查工作方案》，成立了三个常态巡查工作组，从11月初开始对全市九个旗县区的秸秆综合利用和禁止露天焚烧工作开展网格化的技术指导和巡查督导，发现露天焚烧现象向生态环境部门和当地各级政府反馈情况并及时进行处理。2020年2月，市农牧局专门召开会议并下发了《关于切实加快推进农作物秸秆综合利用坚决杜绝焚烧农作物秸秆工作的通知》，要求各地千方百计加快回收进度，市农牧局成立4个推进督导组分区包片推进秸秆回收利用工作，局领导多次赴各旗县区进行督导。', '按照市政府印发《关于促进秸秆综合利用和禁止露天焚烧秸秆的决定》以及市农牧局印发《关于印发2019年农作物秸秆综合利用实施方案的通知》相关文件要求，市农牧局于2020年5月18日，成立了秸秆综合利用工作专项考核领导小组，对全市2019年秸秆综合利用完成情况进行全面考核，查看了当地秸秆综合利用市本级及旗县区配套资金到位使用情况，同时实地抽查了共12家秸秆回收企业、合作社和大户,对秸秆收、储、运、用等情况进行了详细了解，从而推动政策落实。', '为推动我市秸秆综合利用工作，市农牧局于2019年12月初派出专业技术人员赴黑龙江、吉林、辽宁三省考察学习，于12底派出调研组赴通辽市考察学习，积极探索秸秆综合利用的好途径和好做法。2019年11月，在赛罕区和玉泉区召开秸秆综合利用现场会，推广秸秆综合利用技术模式。另外，市、县两级农牧部门成立了技术指导小组，负责开展技术咨询、指导、培训和推广服务，目前发放宣传资料2万份。', '秸秆存放于秸秆收储网点，存在重大消防安全隐患。为切实保护人民群众生命财产安全和生态环境，市农牧局下发了《关于进一步加强对秸秆收储网点安全防火的通知》，要求各旗县区将秸秆收储网点安全防火的监督工作作为一项重要工作来抓。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>25</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>月至月大事记</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2020-08-05</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/hhht_zfgb/qsh/2020/202001/202008/t20200805_717980.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['、张敏春副县长上午研究部署物资保障有关工作;下午督导窑沟乡、包联小区疫情防控工作。', '、张敏春副县长上午调度疫情防控物资管理使用情况;下午督导窑沟乡、包联小区疫情防控工作。', '、祁俊虎副县长上午研究疫情防控工作人员安置事宜;下午督查指导市场部门疫情防控工作。', '、张敏春副县长上午研究筹备疫情防控应急物资事宜;下午督导窑沟乡、包联小区疫情防控工作。', '、祁俊虎副县长上午调度市场管控保障和人员安置工作;下午督查指导包联小区疫情防控工作。', '、亢永强县长上午在指挥部安排部署新冠肺炎防控工作;下午检查乡镇新冠肺炎疫情防控工作。', '、张敏春副县长上午研究筹备疫情防控物资事宜;下午督导窑沟乡、包联小区疫情防控工作。', '、亢永强县长上午参加疫情防控期间统筹当前重点工作部署会议，之后召开工业园区项目建设推进会;下午指挥调度新冠肺炎疫情防控工作。', '、张敏春副县长上午参加县疫情防控期间统筹当前重点工作部署会议;下午督导窑沟乡、包联小区疫情防控工作。', '、王崇英副县长上午参加县疫情防控期间统筹当前重点工作部署会议;下午督导6个卡口疫情防控工作。', '、张谢军副县长上午参加县疫情防控期间统筹当前重点工作部署会议;下午协调部署新冠肺炎疫情防控工作。', '、祁俊虎副县长上午参加县疫情防控期间统筹当前重点工作部署会议;下午督查指导疫情防控工作。', '、李军副县长上午参加县疫情防控期间统筹当前重点工作部署会议;下午开展疫情防控工作。', '、石永平副县长上午参加县疫情防控期间统筹当前重点工作部署会议;下午研究企业复工复产及开学前疫情防控工作。', '、杜贵忠上午参加县疫情防控期间统筹当前重点工作部署会议;下午研究工业园区企业复工相关事宜。', '、石永平副县长上午研究青龙洞庙(全佛寺)修复改造项目相关事宜;研究棚户区改造农发行贷款事宜;下午研究企业开复工及疫情防控事宜。', '、亢永强县长上午赴自治区能源局协调工作;下午指挥调度新冠肺炎疫情防控工作，现场调研指导企业复产复工事宜。', '、王崇英副县长上午赴和林县公安局参加国务院相关工作视频会议;下午督导检查卡口疫情防控工作。', '、石永平副县长上午陪同亢永强县长赴自治区能源局协调工作;下午研究企业开复工及疫情防控工作。', '、亢永强县长上午主持召开县政府常务会议;下午指挥调度新冠肺炎疫情防控工作，现场调研指导企业复产复工事宜。', '、亢永强县长上午参加市政府第7次常务会议;下午参加疫情防控和经济社会发展工作会议。', '、张敏春副县长上午研究部署企业复工复产期间安全生产工作;下午参加疫情防控和经济社会发展工作电视电话会议。', '、张谢军副县长上午协调部署新冠肺炎疫情防控工作;下午参加疫情防控和经济社会发展工作电视电话会议。', '、祁俊虎副县长上午督查指导疫情防控工作;下午参加疫情防控和经济社会发展工作电视电话会议。', '、石永平副县长上午研究企业复工复产及疫情防控工作;下午参加疫情防控和经济社会发展工作电视电话会议。', '、亢永强县长上午参加市委常委会第165次会议暨市应对新冠肺炎疫情工作领导小组第11次会议;下午指挥调度新冠肺炎疫情防控工作，现场调研指导企业复产复工事宜。', '、亢永强县长上午陪同自治区领导调研工作;下午指挥调度新冠肺炎疫情防控工作，现场调研指导企业复工复产事宜。', '、李军副县长上午主持召开春季动物防疫工作部署会;下午参加全国春季农业生产电视电话会议。', '、张敏春副县长上午安排部署第七次全国人口普查工作;下午安排部署保障农民工工资支付工作。', '、石永平副县长上午实地查看天皓水泥集团矸石电厂选址;下午研究企业复产复工及教育系统开学前后疫情防控工作。', '、亢永强县长上午调研指导企业疫情防控和复工复产事宜;下午参加清水河县“全面过硬、走在前列”脱贫攻坚先进县创建工作动员部署会议。', '、张敏春副县长上午安排部署环保工作;下午参加清水河县“全面过硬、走在前列”脱贫攻坚先进县创建工作动员部署会议。', '、王崇英副县长上午督导检查企业疫情防控工作;下午参加清水河县“全面过硬、走在前列”脱贫攻坚先进县创建工作动员部署会议。', '、张谢军副县长上午协调部署新冠肺炎疫情防控工作;下午参加清水河县“全面过硬、走在前列”脱贫攻坚先进县创建工作动员部署会议。', '、祁俊虎副县长上午督导包联企业统筹疫情防控和复工复产工作;下午参加清水河县“全面过硬、走在前列”脱贫攻坚先进县创建工作动员部署会议。', '、李军副县长下午参加清水河县“全面过硬、走在前列”脱贫攻坚先进县创建工作动员部署会议。', '、石永平副县长上午调研包联企业;下午参加清水河县“全面过硬、走在前列”脱贫攻坚先进县创建工作动员部署会议。', '、刘在俊上午督导包联企业疫情防控工作;下午参加清水河县“全面过硬、走在前列”脱贫攻坚先进县创建工作动员部署会议。', '、亢永强县长上午参加自治区煤炭资源领域违规违法问题专项整治工作动员部署会议;参加清水河县“全面过硬、走在前列”脱贫攻坚先进县创建工作动员部署会议和县委理论学习中心组第2次(扩大)学习会;下午参加县委理论学习中心组集体学习研讨会，调研指导企业疫情防控和复工复产事宜。', '、张敏春副县长上午参加自治区煤炭资源领域违规违法问题专项整治工作动员部署会议;参加清水河县“全面过硬、走在前列”脱贫攻坚先进县创建工作动员部署会议和县委理论学习中心组第2次(扩大)学习会;下午参加全市环保工作调度会。', '、祁俊虎副县长上午参加自治区煤炭资源领域违规违法问题专项整治工作动员部署会议;参加清水河县“全面过硬、走在前列”脱贫攻坚先进县创建工作动员部署会议和参加县委理论学习中心组第2次(扩大)学习会;下午调度市场管控保障组工作。', '、李军副县长上午参加自治区煤炭资源领域违规违法问题专项整治工作动员部署会议;参加清水河县“全面过硬、走在前列”脱贫攻坚先进县创建工作动员部署会议;参加县委理论学习中心组第2次(扩大)学习会。', '、石永平副县长上午参加自治区煤炭资源领域违规违法问题专项整治工作动员部署会议;参加清水河县“全面过硬、走在前列”脱贫攻坚先进县创建工作动员部署会议和县委理论学习中心组第2次(扩大)学习会;下午调研指导包联企业复工复产及疫情防控工作。', '、刘在俊上午参加自治区煤炭资源领域违规违法问题专项整治工作动员部署会议;参加清水河县“全面过硬、走在前列”脱贫攻坚先进县创建工作动员部署会议;参加县委理论学习中心组第2次(扩大)学习会;下午督导包联企业疫情防控工作。', '、亢永强县长上午参加全市煤炭资源领域违规违法问题专项整治工作动员部署电视电话会议;下午现场调研指导企业复工复产和新冠肺炎疫情防控事宜。', '、王崇英副县长上午自治区公安厅、市公安局第五次周例会;下午赴企业督导疫情防控工作。', '、张谢军副县长上午参加全市煤炭资源领域违规违法问题专项整治工作动员部署电视电话会议;下午协调部署新冠肺炎疫情防控工作。', '、李军副县长上午参加全市煤炭资源领域违规违法问题专项整治工作动员部署电视电话会议;下午下乡指导扶贫工作。', '、石永平副县长上午参加全市煤炭资源领域违规违法问题专项整治工作动员部署电视电话会议;下午研究城区房屋征收事宜;调研指导包联企业复工复产及疫情防控工作。', '、刘在俊上午参加全市煤炭资源领域违规违法问题专项整治工作动员部署电视电话会议;下午赴城关镇指导扶贫工作。', '、亢永强县长上午调研脱贫攻坚工作;下午现场调研指导企业复工复产和新冠肺炎疫情防控工作。', '、石永平副县长上午参加北堡乡“全面过硬、走在前列”脱贫攻坚协调推进会;调研指导包联企业复工复产及疫情防控工作;研究房屋征收事宜;下午研究环境卫生综合整治、企业复工复产及疫情防控工作。', '、石永平副县长上午参加全市违建别墅整治、土地卫片执法检查(耕地保护督察)、混凝土搅拌站整治工作调度会;下午列席县委常委会会议。', '、亢永强县长上午陪同自治区水利厅领导督查指导黄河防凌工作;下午参加全县煤炭资源领域违规违法问题专项整治工作动员部署会议。', '、张敏春副县长上午陪同自治区水利厅领导督查指导黄河防凌工作;下午安排部署安全生产工作。', '、祁俊虎副县长上午陪同自治区水利厅领导督查指导黄河防凌工作;下午研究脱贫攻坚工作。', '、石永平副县长上午研究房屋征收事宜;下午参加全县煤炭资源领域违规违法问题专项整治工作动员部署会议。', '、亢永强县长上午安排部署脱贫攻坚、新冠肺炎疫情防控工作;下午参加中央决战决胜脱贫攻坚座谈会。', '、石永平副县长上午研究城关镇房屋征收事宜;下午参加毕市长主持召开的煤矿采空区治理调度会议。', '、杜贵忠上午召开园区党工委中心组学习会议;下午到社区督导新冠肺炎疫情防控工作。', '、李军副县长上午参加自治区扶贫办领导调研活动;下午参加自治区决胜决战脱贫攻坚座谈会。', '、石永平副县长上午研究重点项目手续办理事宜;研究城关镇房屋征收工作。下午研究脱贫攻坚危房改造、易地扶贫搬迁相关工作。', '、亢永强县长上午在市政府协调生态保护红线划定相关工作;下午参加全市坚决打赢污染防治攻坚战动员部署电视电话会议和决战决胜脱贫攻坚工作暨扶贫开发领导小组会议。', '、张敏春副县长上午参加全国、全区、全市森林草原防灭火工作电视电话会议，之后陪同工商银行调研组调研工作;下午参加全市坚决打赢污染防治攻坚战动员部署电视电话会议和决战决胜脱贫攻坚工作暨扶贫开发领导小组会议。', '、王崇英副县长上午研究扫黑除恶专项斗争相关工作;下午主持召开公安局2019年度党支部书记抓党建工作述职评议会议。', '、李军副县长上午参加全国、全区、全市森林草原防灭火工作电视电话会议;下午参加全市坚决打赢污染防治攻坚战动员部署电视电话会议和决战决胜脱贫攻坚工作暨扶贫开发领导小组会议。', '、石永平副县长上午赴市政府协调生态保护红线划定相关工作;下午参加市煤炭资源领域违法违规问题整治规划立项和资源配置专项组调研对接活动，实地调研煤炭企业;参加全市坚决打赢污染防治攻坚战动员部署电视电话会议和决战决胜脱贫攻坚工作暨扶贫开发领导小组会议。', '、石永平副县长上午研究宏河物流园区房屋、土地征收事宜;参加市领导调研活动;下午参加煤炭领域专项整治工作推进会。', '、亢永强县长上午参加县委常委会会议;下午参加2020年扶贫开发领导小组第8次会议暨县委理论学习中心组第3次集体学习会。', '、张敏春副县长上午参加县委常委会会议;陪同市生态环境局检查组检查工作;下午参加2020年扶贫开发领导小组第8次会议暨县委理论学习中心组第3次集体学习会。', '、王崇英副县长上午列席县委常委会会议;下午参加2020年扶贫开发领导小组第8次会议暨县委理论学习中心组第3次集体学习会。', '、李军副县长上午列席县委常委会会议;下午参加2020年扶贫开发领导小组第8次会议暨县委理论学习中心组第3次集体学习会。', '、石永平副县长上午列席县委常委会会议;下午参加2020年扶贫开发领导小组第8次会议暨县委理论学习中心组第3次集体学习会。', '、石永平副县长上午研究天皓水泥集团2X660MW机组发电项目推进事宜;参加煤炭资源领域违规违法问题专项整治工作推进会;参加全县教育系统巡察反馈会;下午参加市住建局决战决胜脱贫攻坚工作会议。', '、亢永强县长上午主持召开全县重点项目及房地产历史遗留问题集中治理工作调度会议;下午参加市委常委会第170次会议暨疫情工作领导小组第16次会议。', '、石永平副县长上午参加全县重点项目及房地产历史遗留问题集中治理工作调度会议;下午参加全国自然保护地整合优化和生态保护红线评估调整推进工作电视电话会议。', '、亢永强县长上午参加中共呼和浩特市第十二届纪委第六次全会第一次全体会议;下午参加全市重点工作重点项目调度会。', '、张敏春副县长上午参加中共呼和浩特市第十二届纪委第六次全会第一次全体会议;下午安排部署安全生产工作。', '、祁俊虎副县长上午参加中共呼和浩特市第十二届纪委第六次全会第一次全体会议;下午调度近期重点工作。', '、石永平副县长上午参加中共呼和浩特市第十二届纪委第六次全会第一次全体会议;下午研究重点项目集中开工事宜;研究煤炭资源领域违规违法问题专项整治相关工作。', '、刘在俊上午参加中共呼和浩特市第十二届纪委第六次全会第一次全体会议;下午调研包联企业复工复产情况。', '、亢永强县长上午参加2020年度全市安全生产暨应急管理工作电视电话会议;下午赴自治区林草局协调工作。', '、张敏春副县长上午参加2020年度全市安全生产暨应急管理工作电视电话会议;下午研究部署我县关于第七次全国人口普查工作。', '、王崇英副县长上午参加2020年度全市安全生产暨应急管理工作电视电话会议;下午赴市公安局协调工作。', '、石永平副县长上午参加2020年度全市安全生产暨应急管理工作电视电话会议;下午研究重点项目集中开工事宜。', '、石永平副县长上午参加开全市矿产资源领域突出问题专项整治、露天矿山综合整治、砂石土矿产资源开发秩序专项工作会议。下午研究重点项目集中开工事宜。', '、亢永强县长上午参加市政府2020年第10次常务会议;下午参加市委常委会第171次会议暨疫情工作领导小组第17次会议。', '、石永平副县长上午参加全县煤炭资源领域违规违法问题专项整治工作第3次调度会议;协调解决宏河镇扶贫产业园项目区杆线迁移事宜。', '、亢永强县长上午参加县委人大工作会议;参加县委政协工作会议;下午参加中国共产党清水河县第十四届纪律检查委员会第六次全体会议。', '、张敏春副县长上午参加县委人大工作会议;参加县委政协工作会议;下午参加中国共产党清水河县第十四届纪律检查委员会第六次全体会议。', '、王崇英副县长上午参加县委人大工作会议;参加县委政协工作会议;下午参加全市司法行政工作视频会议。', '、祁俊虎副县长上午参加县委人大工作会议;参加县委政协工作会议;下午参加中国共产党清水河县第十四届纪律检查委员会第六次全体会议。', '、石永平副县长上午参加县委人大工作会议;参加县委政协工作会议;下午参加中国共产党清水河县第十四届纪律检查委员会第六次全体会议。', '、刘在俊上午参加县委人大工作会议;参加县委政协工作会议;下午参加中国共产党清水河县第十四届纪律检查委员会第六次全体会议。', '、杜贵忠上午参加县委人大工作会议;参加县委政协工作会议;下午参加中国共产党清水河县第十四届纪律检查委员会第六次全体会议。', '、亢永强县长上午实地查看城镇建设情况;参加县委常委会;下午主持召开县政府常务会议。', '、张敏春副县长上午参加县委常委会;下午参加全市农村人居环境整治工作电视电话会议;参加县政府常务会议。', '、李军副县长上午列席县委常委会;下午参加全市农村人居环境整治工作电视电话会议;参加县政府常务会议。', '、石永平副县长上午陪同亢县长实地查看城镇建设情况;列席县委常委会;下午参加县政府常务会议。', '、亢永强县长下午参加全县党建工作会议;参加县委政法工作暨全县市域社会治理现代化工作会议。', '、王崇英副县长上午参加全市公安工作会议;下午参加全县党建工作会议;参加县委政法工作暨全县市域社会治理现代化工作会议。', '、石永平副县长上午参加2020年全县教育系统党风廉政建设暨春季学期开学复课疫情防控工作部署会议;下午参加全县党建工作会议。', '、石永平副县长上午实地察看城关镇环境卫生综合整治工作;研究城镇建设相关事宜;下午研究教育系统复学准备工作。', '、亢永强县长上午参加全市疫情防控视频调度会;下午实地查看初三、高三复课前准备工作。', '、石永平副县长上午参加全市人防系统腐败问题治理工作安排部署会;下午陪同亢县长实地查看初三、高三复课前准备工作。', '、亢永强县长上午参加自治区落实中央脱贫攻坚专项巡视“回头看”和脱贫攻坚成效考核反馈意见整改部署视频会;下午参加市委常委会第172次会议暨疫情工作领导小组第18次会议。', '、张敏春副县长上午参加自治区落实中央脱贫攻坚专项巡视“回头看”和脱贫攻坚成效考核反馈意见整改部署视频会;下午研究安全生产工作。', '、祁俊虎副县长上午参加自治区落实中央脱贫攻坚专项巡视“回头看”和脱贫攻坚成效考核反馈意见整改部署视频会;下午安排部署文旅工作。', '、李军副县长上午参加自治区落实中央脱贫攻坚专项巡视“回头看”和脱贫攻坚成效考核反馈意见整改部署视频会。', '、石永平副县长上午参加自治区落实中央脱贫攻坚专项巡视“回头看”和脱贫攻坚成效考核反馈意见整改部署视频会;下午研究城镇建设相关工作。', '、亢永强县长上午参加全市重点项目重点工作调度会;参加市政府第12次常务会议;下午陪同自治区领导调研脱贫攻坚工作。', '、石永平副县长上午实地查看城关镇环境卫生综合整治工作;参加个人有关事项填报培训会议;下午研究城镇建设、物业管理相关事宜。', '、亢永强县长上午参加全市落实中央脱贫攻坚专项巡视“回头看”和脱贫攻坚成效考核反馈意见整改部署视频会;下午参加内蒙古明阳新能源25万千瓦风电项目签约仪式。', '、张敏春副县长上午参加全市落实中央脱贫攻坚专项巡视“回头看”和脱贫攻坚成效考核反馈意见整改部署视频会;参加智慧政务服务平台建设对接座谈会;下午陪同工商银行调研组调研工作。', '、王崇英副县长上午参加全市落实中央脱贫攻坚专项巡视“回头看”和脱贫攻坚成效考核反馈意见整改部署视频会;下午参加全国禁毒工作电视电话会议。', '、祁俊虎副县长上午参加全市落实中央脱贫攻坚专项巡视“回头看”和脱贫攻坚成效考核反馈意见整改部署视频会，之后调研食品加工园区;下午列席清水河县第十五届人大常委会第十五次会议。', '、李军副县长上午参加全市落实中央脱贫攻坚专项巡视“回头看”和脱贫攻坚成效考核反馈意见整改部署视频会;陪同自治区防灭火指挥部督查组督查森林草原防火工作;下午赴呼市参加全市森林草原防火工作调度会。', '、石永平副县长上午参加全市落实中央脱贫攻坚专项巡视“回头看”和脱贫攻坚成效考核反馈意见整改部署视频会;下午参加内蒙古明阳新能源25万千瓦风电项目签约仪式。', '、刘在俊上午参加全市落实中央脱贫攻坚专项巡视“回头看”和脱贫攻坚成效考核反馈意见整改部署视频会;参加智慧政务服务平台建设对接座谈会。', '、张敏春副县长上午陪同市政府调查组调查地震受灾情况;下午参加全国、全区防汛抗旱工作视频会。', '、石永平副县长上午研究房地产项目历史遗留问题集中治理事宜;下午研究中小学、幼儿园复课复学准备工作。', '、刘在俊上午陪同市医保局领导检查健康扶贫工作;下午参加全区卫生健康系统落实中央脱贫攻坚专项巡视“回头看”和成效考核反馈意见健康扶贫整改部署暨推进会议。', '、石永平副县长上午参加北方联合电力新能源基地项目推进会;下午下乡检查指导森林草原防火工作。', '、亢永强县长上午参加市委常委会第173次会议暨疫情工作领导小组第19次会议;下午赴乡镇检查“全面过硬、走在前列”先进县创建工作。', '、亢永强县长上午参加市委理论学习中心组(扩大)第四次集体学习会;下午参加市委书记办公会议。', '、亢永强县长上午参加全国安全生产工作电视电话会议;下午赴乡镇调研“全面过硬、走在前列”先进县创建工作。', '、石永平副县长上午参加全国安全生产工作电视电话会议;下午研究易地扶贫搬迁有关事宜。', '、亢永强县长上午参加市委常委会第174次会议暨疫情工作领导小组第20次会议;下午参加市河湖长制工作领导小组第1次会议。', '、石永平副县长上午参加自治区国企改制国资监管审核专项组对我市涉煤国有企业违规违法问题开展专项核查工作会议;下午安排部署重点项目春季集中开工仪式有关事宜。', '、张敏春副县长上午主持召开会议研究城关镇水源地保护区调整工作有关事宜;下午赴窑沟乡督导脱贫攻坚工作。', '、石永平副县长上午研究城镇建设相关事宜;下午安排部署重点项目春季集中开工仪式有关事宜。', '、亢永强县长上午赴五良太乡调研地震受灾房屋改造、脱贫攻坚工作;下午参加全区加快政府化解和政府债券发行使用工作电视电话会议、市政府常务会议、全市重点项目重大工作调度会。', '、张敏春副县长上午陪同亢县长赴五良太乡调研地震受灾房屋改造、脱贫攻坚工作;下午参加市领导调研座谈会。', '、石永平副县长上午陪同亢县长赴五良太乡调研地震受灾房屋改造、脱贫攻坚工作;下午研究城镇建设相关工作。', '、亢永强县长上午参加市纪委监委赴我县调研煤炭资源领域违规违法问题专项整治工作汇报会;下午参加援鄂医务人员返县欢迎仪式;参加县委常委会会议。', '、张敏春副县长上午参加市纪委监委赴我县调研煤炭资源领域违规违法问题专项整治工作汇报会;下午参加援鄂医务人员返县欢迎仪式;参加县委常委会会议。', '、祁俊虎副县长上午研究老牛湾景区恢复营业事宜;下午参加援鄂医务人员返县欢迎仪式;列席县委常委会会议。', '、李军副县长上午赴宏河镇指导人居环境整治工作;下午参加援鄂医务人员返县欢迎仪式;列席县委常委会会议。', '、石永平副县长上午参加市纪委监委赴我县调研煤炭资源领域违规违法问题专项整治工作汇报会;下午参加援鄂医务人员返县欢迎仪式;列席县委常委会会议。', '、张敏春副县长上午参加王莉霞书记主持召开的规范政府债务管理防范金融风险工作领导小组会议;下午参加全市“转作风、优环境、勇担当”工作动员会。', '、王崇英副县长上午参加全市公安系统调度会议;下午参加全市“转作风、优环境、勇担当”工作动员会。', '、祁俊虎副县长上午调度文旅工作;下午参加全市“转作风、优环境、勇担当”工作动员会。', '、李军副县长上午参加全县扶贫开发领导小组2020年第12次会议暨全县贫困户帮扶责任人工作推进会议;下午参加全市“转作风、优环境、勇担当”工作动员会。', '、石永平副县长上午参加市审计局赴我县开展人防系统审计进点会;下午参加全市“转作风、优环境、勇担当”工作动员会。', '、石永平副县长上午实地查看城区环境卫生综合整治工作;下午参加全区易地扶贫搬迁存在问题整改落实推进电视电话会议。', '、石永平副县长上午参加全市开学复课联席会议;下午参加普通高级中学高三一模成绩分析会。', '、祁俊虎副县长上午研究老牛湾景区管理运营事宜;下午开展专题民主生活会会前谈心谈话。', '、石永平副县长上午督查指导初中、高中一二年级开学复课工作;下乡开展脱贫攻坚包联工作;下午研究分管领域脱贫攻坚问题整改相关工作。', '、亢永强县长上午参加县委第126次常委会暨县委全面深化改革委员会第4次会议;下午参加全县干部大会;参加县委中心组集中学习会。', '、张敏春副县长上午参加县委第126次常委会暨县委全面深化改革委员会第4次会议;下午参加全县干部大会;参加县委中心组集中学习会。', '、王崇英副县长上午参加县委第126次常委会暨县委全面深化改革委员会第4次会议;下午参加全县干部大会;参加县委中心组集中学习会。', '、祁俊虎副县长上午参加县委第126次常委会暨县委全面深化改革委员会第4次会议;下午参加全县干部大会;参加县委中心组集中学习会。', '、李军副县长上午参加县委第126次常委会暨县委全面深化改革委员会第4次会议;下午参加全县干部大会;参加县委中心组集中学习会。', '、石永平副县长上午参加县委第126次常委会暨县委全面深化改革委员会第4次会议;下午参加全县干部大会;参加县委中心组集中学习会。', '、云娜副县长上午列席县委第126次常委会暨县委全面深化改革委员会第4次会议;督查已复课学校疫情防控工作;下午参加全县干部大会;参加县委中心组集中学习会。', '、刘在俊上午参加县委第126次常委会暨县委全面深化改革委员会第4次会议;下午参加全县干部大会;参加县委中心组集中学习会。', '、杜贵忠上午参加县委第126次常委会暨县委全面深化改革委员会第4次会议;下午参加全县干部大会;参加县委中心组集中学习会。', '、亢永强县长上午参加市政府党组会议;下午参加市委月调度点评会;晚上主持召开县政府党组脱贫攻坚专题民主生活会。', '、张敏春副县长参加县委常委班子脱贫攻坚专题民主生活会;参加县政府党组脱贫攻坚专题民主生活会。', '、王崇英副县长上午召开公安局“五一”假期安保及近期工作安排部署会;下午赴乡镇调研;晚上参加县政府党组脱贫攻坚专题民主生活会。', '、祁俊虎副县长开展民主生活会会前谈心谈话;调研脱贫攻坚工作;参加县政府党组脱贫攻坚专题民主生活会。', '、石永平副县长参加呼和浩特市社会信用体系建设首期空中讲堂系列培训;陪同自治区自然资源厅副厅长靳延平一行调研我县第三次全国国土调查工作及房地一体化确权登记工作;晚上参加县政府党组脱贫攻坚专题民主生活会。', '、云娜副县长上午下乡入户走访帮扶贫困户;晚上参加县政府党组脱贫攻坚专题民主生活会。', '、张敏春副县长上午主持召开会议，研究部署政府债务化解工作;下午安排部署“五一”期间安全生产工作。', '、王崇英副县长上午参加全区公安机关纪律作风教育整顿动员大会;下午研究扫黑除恶专项斗争相关工作。', '、石永平副县长上午陪同亢县长调研企业复工复产工作;实地调研城镇建设相关工作;参加全县煤炭资源领域违规违法问题整治调度会;下午实地查看全市集中开工仪式清水河县宏河物流园施工现场筹备情况。', '、云娜副县长上午调研教育系统开学复课疫情防控及校园安全管理工作;下午赴民政局调研。', '、亢永强县长上午参加呼和浩特市推进高质量发展重大项目建设动员大会;下午参加创建脱贫攻坚示范县问题整改推进会。', '、石永平副县长上午参加呼和浩特市推进高质量发展重大项目建设动员大会;下午参加创建脱贫攻坚示范县问题整改推进会。', '、李军副县长上午研究伊利新建牧场有关事宜;下午参加2020年度自治区文明委会议暨群众性文明内蒙古建设工作部署电视电话会议。', '、石永平副县长下午参加2020年度自治区文明委会议暨群众性文明内蒙古建设工作部署电视电话会议。', '、云娜副县长下午参加2020年度自治区文明委会议暨群众性文明内蒙古建设工作部署电视电话会议。', '、亢永强县长上午参加全县2020年河长制工作会议，之后会见神华准能公司负责人;下午参加内蒙古电视台直播带货公益扶贫活动。', '、张敏春副县长上午参加全县2020年河长制工作会议，之后主持召开会议，研究部署公益性岗位整改有关事宜;下午赴窑沟乡督导脱贫攻坚工作。', '、李军副县长上午参加全县2020年河长制工作会议，之后参加公益性岗位整改工作调动会;下午参加2020年优势特色产业集群和农业产业强镇建设视频调度会。', '、石永平副县长上午参加全县2020年河长制工作会议;陪同神华准能集团董事长杨荣明一行调研宏河物流园区项目;下午研究脱贫攻坚整改相关事宜。', '、刘在俊上午参加包联乡镇脱贫攻坚问题整改推进会;下午协调解决健康扶贫和医疗保障工作中存在的问题。', '、张敏春副县长上午参加清水河县第四届党风廉政建设宣传教育月启动仪式;下午研究部署环保工作。', '、王崇英副县长上午参加全县基层“微腐败”大清扫行动暨“三务”公开工作推进会;参加全国公安机关深入学习贯彻习近平总书记在全国公安工作会议上的重要讲话精神电视电话会议;下午安排部署信访维稳工作。', '、李军副县长上午参加清水河县第四届党风廉政建设宣传教育月启动仪式;下午下乡调研脱贫攻坚工作。', '、石永平副县长上午参加2020年度全区社会信用体系建设工作电视电话会议;参加脱贫攻坚农村住房安全交叉检查对接会;下午参加自治区督查组督查我县易地扶贫搬迁工作反馈会。', '、云娜副县长上午参加清水河县第四届党风廉政建设宣传教育月启动仪式;下午参加2020年全国打击侵权假冒工作电视电话会议。', '、刘在俊上午参加清水河县第四届党风廉政建设宣传教育月启动仪式;下午参加行政审批事项服务体验活动。', '、石永平副县长上午参加全市物流业发展专题座谈会;下午参加市委宣传部领导调研座谈会。', '、祁俊虎副县长召开农村客运班线公交化改造工作会;赴市交通局参加209国道清水河至偏关段公路回购工作调度会，之后协调沿黄旅游公路建设事宜。', '、石永平副县长上午陪同云霖琼书记调研浑河河长制工作情况和五良太乡住房安全工作情况;下午研究重点项目推进相关事宜。', '、云娜副县长上午陪同市民委领导实地查看市民委脱贫攻坚工作现场会观摩点;下午研究少数民族流动人口服务管理体系建设试点工作。', '、亢永强县长上午陪同自治区考评组检查考评“双拥模范县”创建工作;下午参加县委常委会会议。', '、张敏春副县长上午陪同自治区考评组检查考评“双拥模范县”创建工作;下午参加县委常委会会议。', '、王崇英副县张上午主持召开公安局全国“两会”安保工作部署会;下午列席县委常委会会议。', '、石永平副县长上午研究房地产项目历史遗留问题集中治理事宜;下午列席县委常委会会议。', '、亢永强县长上午赴自治区、市有关单位协调工作;下午参加市委第179次常委会暨市应对新冠肺炎疫情工作领导小组第23次会议。', '、王崇英副县长上午参加全区禁毒工作电视电话会议，之后参加清水河县第二次信访联席会议暨全国“两会”期间信访保障会议。', '、云娜副县长上午参加县委理论学习中心组第5次(扩大)学习会暨全县推进“一法一条例”贯彻落实培训会;下午实地查看学校消防验收工作。', '、刘在俊上午参加县委理论学习中心组第5次(扩大)学习会暨全县推进“一法一条例”贯彻落实培训会;下午参加县人大代表建议、政协委员提案交办会。', '、王崇英副县长上午参加全区、全市公安机关疫情防控工作调度会;下午研究信访维稳工作。', '、石永平副县长上午擦剂自治区督查组督查我县人防系统腐败问题转型治理工作反馈会;下午参加托县工作组对我县开展的住房安全交叉检查交流会。', '、石永平副县长上午实地查看城关镇房屋征收事宜;参加煤炭资源领域违规违法问题专项整治工作推进会;下午研究住房安全交叉检查交流反馈意见整改落实相关事宜。', '、亢永强县长上午实地查看五良太乡地震灾后房屋改造工作;参加女企业家为我县教育系统捐资助学活动;下午出席全县禁毒工作会议、防汛抗旱工作会议。', '、张敏春副县长上午陪同市人大常委会执法检查组开展“一法一条例”执法检查工作;下午参加全县防汛抗旱工作会议。', '、王崇英副县长上午参加自治区扫黑除恶专项斗争督导“回头看”动员会;下午参加全县禁毒工作会议、防汛抗旱工作会议。', '、祁俊虎副县长上午召开全县农村客运班线公交化改造工作调度会;下午参加全县防汛抗旱工作会议。', '、石永平副县长上午参加毕国臣副市长包联信访案件推进情况调度会;下午调度住房安全交叉检查交流反馈意见整改落实相关推进情况。', '、刘在俊上午参加全市人大代表建议工作交班会;下午参加全区新冠肺炎疫情常态化防控工作电视电话会议。', '、亢永强县长上午调研“全面过硬、走在前列”先进县创建工作;下午观看全国政协十三届三次会议开幕式;调研“全面过硬、走在前列”先进县创建工作。', '、张敏春副县长上午参加全县国防动员潜力统计调查工作及民兵整组工作部署会，之后参加基干民兵点验大会;下午主持召开会议安排部署保障农民工工资支付工作。', '、王崇英副县长上午主持召开公安局纪律作风教育整顿会议;下午观看全国政协十三届三次会议开幕式。', '、石永平副县长上午召开会议协调易地扶贫搬迁工作安置点和哦产业扶贫工作现场观摩会;下午下乡检查煤矿安全生产工作。', '、刘在俊上午检查指导县医保局“一站式”工作开展情况;下午观看全国政协十三届三次会议开幕式。', '、亢永强县长上午参加县委理论学习中心组2020年第6次(扩大)学习会议;下午参加自治区党委对呼市党政领导班子2019年度工作考核谈话。', '、张敏春副县长上午参加县委理论学习中心组2020年第6次(扩大)学习会议;下午赴五良太乡调研危房改造工作。', '、李军副县长上午参加县委理论学习中心组2020年第6次(扩大)学习会议;下午赴乡镇督促指导脱贫攻坚观摩现场会相关工作落实情况。', '、石永平副县长上午参加全市易地扶贫搬迁工程安置点观摩和产业扶贫工作现场会;下午参加全市易地搬迁扶贫问题整改推进会暨局际联席会。', '、云娜副县长上午参加县委理论学习中心组2020年第6次(扩大)学习会议;下午参加县人大常委会食品安全执法检查座谈会。', '、李军副县长上午参加呼和浩特市“全面过硬、走在前列”扶贫整改样板示范县创建现场观摩会工作调度会;下午下乡督查农村人居环境整治工作、落实现场观摩会事宜。', '、石永平副县长上午陪同自治区派驻清水河县脱贫攻坚总队总队长李宏光一行下乡开展贫困户帮扶工作;下午参加全市易地扶贫搬迁整改问题推进会。', '、张敏春副县长上午主持召开清水河县金融支持稳企业保就业工作会议;下午陪同自治区银保监局调研组调研金融扶贫工作，之后参加财税工作调度会。', '、李军副县长上午下乡督导脱贫攻坚样板村创建工作;下午参加《中华人民共和国种子法》执法检查。', '、刘在俊上午督导健康扶贫重点工作进展情况;下午调研县医保局“一站式”工作开展情况。', '、亢永强县长上午参加市新冠肺炎疫情防控指挥部工作会议、市政府常务会议;下午参加自治区传达贯彻全国“两会”精神干部大会。', '、张敏春副县长上午信访值班;参加清水河县防汛抗旱应急预案技术评审会，并安排部署当前全县防汛抗旱工作;下午信访值班。', '、王崇英副县长上午研究我县森林公安体制改革相关事宜;下午参加自治区传达贯彻全国“两会”精神干部大会。', '、祁俊虎副县长上午参加清水河县防汛抗旱应急预案技术评审会;下午参加自治区传达贯彻全国“两会”精神干部大会。', '、李军副县长上午赴宏河镇调研脱贫攻坚工作;下午参加自治区传达贯彻全国“两会”精神干部大会。', '、亢永强县长上午参加市扶贫开发领导小组2020年第6次会议;下午参加县委常委会会议;参加清水河县传达贯彻全国“两会”精神干部大会。', '、张敏春副县长上午研究财税工作;下午参加县委常委会会议;参加清水河县传达贯彻全国“两会”精神干部大会。', '、王崇英副县长上午参加全市公安机关干部大会;下午参加市公安局扫黑除恶线索督办推进会议。', '、祁俊虎副县长上午研究交通、文旅工作;下午参加清水河县传达贯彻全国“两会”精神干部大会。', '、李军副县长上午参加市扶贫开发领导小组2020年第6次会议;下午参加清水河县传达贯彻全国“两会”精神干部大会。', '、云娜副县长上午赴市民政局协调工作;下午参加清水河县传达贯彻全国“两会”精神干部大会。', '、亢永强县长上午陪同自治区交通运输厅领导调研我县交通运输工作;下午陪同自治区领导调研我县旅游工作。', '、祁俊虎副县长上午参加自治区内交通厅领导一行调研座谈会;下午陪同自治区领导调研老牛湾景区。', '、石永平副县长上午研究煤炭资源领域违规违法问题专项整治工作相关事宜，研究解决分管领域信访问题;下午实地查看环境卫生综合整治工作。', '、云娜副县长上午列席县第十五届人大常委会第十六次会议;下午参加全国普通高等学校毕业生就业创业工作电视电话会议', '、杜贵忠上午陪同自治区领导调研工业园区企业;下午协调旭阳中燃公司二期建设相关工作。', '、石永平副县长上午实地查看城关镇城区环境卫生整治情况，研究易地扶贫搬迁工作相关事宜;下午参加全区督促易地扶贫搬迁存在问题整改电视电话会议。', '、亢永强县长上午参加市委党校主体班开学典礼暨新校区揭牌仪式;下午参加呼市民主党派、工商联、无党派代表人士脱贫攻坚民主监督协商座谈会。', '、亢永强县长上午参加自治区学习贯彻习近平总书记关于应急管理、安全生产、防灾减灾救灾工作重要论述精神宣讲活动，参加县委编委会;下午参加全市民革中央助力内蒙古产业发展招商引资工作推进会，参加京东内蒙古杂粮产业扶贫直播活动。', '、张敏春副县长上午参加自治区学习贯彻习近平总书记关于应急管理、安全生产、防灾减灾救灾工作重要论述精神宣讲活动。', '、祁俊虎副县长上午赴自治区文旅厅协调工作;下午在自治区文旅厅参加老牛湾黄河大峡谷旅游区和准格尔黄河大峡谷旅游区联合开发协调会。', '、石永平副县长上午研究房屋征收相关工作;研究中萃光伏发电项目推进相关事宜;下午赴五良太乡实地查看危房改造推进情况。', '、杜贵忠上午赴市政府参加中央驻内蒙古产业发展招商引资动员部署会;下午参加全市民革中央助力内蒙古产业发展招商引资工作推进会。', '、亢永强县长上午在市相关部门协调调工作;下午参加市委第182次常委会暨市应对新冠肺炎疫情工作领导小组第24次会议。', '、张敏春副县长上午安排部署环保工作;下午陪同县人大常委会执法检查组开展大气污染防治法执法检查。', '、亢永强县长上午参加市委理论学习中心组(扩大)学习视频会，参加风光储大型清洁能源综合应用扶贫示范项目签约仪式;下午参加自治区加强黄河流域生态保护和文化旅游开发促进高质量发展推进视频会。', '、张敏春副县长上午陪同国家电投集团贵州金元股份有限公司调研组调研，之后参加风光储大型清洁能源综合应用扶贫示范项目签约仪式;下午参加窑沟乡脱贫攻坚推进会。', '、祁俊虎副县长上午参加市委理论学习中心组(扩大)学习视频会;下午参加自治区加强黄河流域生态保护和文化旅游开发促进高质量发展推进视频会。', '、李军副县长上午参加市委理论学习中心组(扩大)学习视频会;下午参加自治区加强黄河流域生态保护和文化旅游开发促进高质量发展推进视频会。', '、石永平副县长陪同毕国臣副市长赴大唐国际发电股份有限公司洽商新能源基地项目相关事宜。', '、亢永强县长上午参加市委第183次常委会暨市应对新冠肺炎疫情工作领导小组第25次会议;下午主持召开县新冠肺炎疫情防控指挥部工作会议。', '、张敏春副县长上午参加徐瑞霞副市长主持召开的部分退役士兵社会保险接续工作调度会议;下午安排部署环保工作。', '、王崇英副县长上午参加市局周调度会，之后主持召开县公安局“以案促改”专题民主生活会。', '、李军副县长上赴五良太乡开展脱贫攻坚工作;下午参加县新冠肺炎疫情防控指挥部工作会议。', '、石永平副县长上午研究天皓水泥厂周边居民搬迁事宜;下午调度易地扶贫搬迁、危房改造工作。', '、杜贵忠上午到呼市协调三联化工搬迁和旭阳中燃项目相关工作;下午到工业园区走访企业。', '、刘在俊上午研究新冠肺炎疫情防控相关工作;下午安排部署“放管服”改革重点工作专项督查事宜。', '、王崇英副县长上午主持召开县公安局2019年度工作考核会;下午参加县政府第4次政府常务会议。', '、祁俊虎副县长上午参加“十四五”规划编制工作推进会;下午参加县政府第4次政府常务会议。', '、李军副县长上午在统计局主持召开全县脱贫攻坚普查培训会议;下午参加县政府第4次政府常务会议。', '、石永平副县长上午赴神华新朔铁路有限公司洽谈宏河物流园区项目建设相关事宜;下午参加县政府第4次政府常务会议。', '、亢永强县长上午参加全区疫情防控工作紧急电视电话会议，之后调研融媒体中心工作;下午赴五良太乡调研脱贫攻坚工作。', '、石永平副县长上午参加全区疫情防控工作紧急电视电话会议;下午研究城镇建设相关工作。', '、刘在俊上午主持召开迎接自治区“放管服”改革专项督查工作安排部署会议，之后参加全区疫情防控工作紧急电视电话会议;下午实地查看政务便民服务点工作开展情况。', '、张敏春副县长上午参加脱贫攻坚总队赴五良太乡调研工作;下午赴窑沟乡督导脱贫攻坚工作。', '、王崇英副县长上午参加清水河县公安局森林公安分局揭牌仪式;下午参加市公安局第16次党委(扩大)会议暨市公安局党委2020年第7次理论学习中心组(扩大)学习会。', '、李军副县长上午清水河县公安局森林公安分局揭牌仪式，之后主持召开伊利牧场项目推进会;下午实地查看伊利牧场工作进展情况。', '、石永平副县长上午相爱相调研走访贫困户，参加自治区督查组督查我县“放管服”工作汇报会、座谈会;下午研究重点项目推进相关事宜。', '、王崇英副县长上午参加全市公安机关调度会;下午赴乡镇开展“大干20天 问题整改‘三帮三助三走访’”专项行动。', '、亢永强县长参加2019年度考核谈话会议;实地调研五良太乡震后危房改造，陪同开鲁县考察团考察我县葡萄种植。', '、王崇英副县长上午参加2019年度考核谈话会议，之后参加全国禁毒工作先进集体和先进个人表彰会;下午赴乡镇开展“大干20天 问题整改‘三帮三助三走访’”专项行动。', '、祁俊虎副县长上午参加市委党校第1期县处级干部轮训班学习;下午参加2019年度考核谈话会议。', '、李军副县长参加2019年度考核谈话会议;陪同开鲁县考察团考察我县葡萄种植。', '、亢永强县长上午在市相关部门协调工作;下午赴和林格尔新区考察学习深化“放管服”改革、优化营商环境工作。', '、王崇英副县长上午参加全市政法系统以案促改纪律作风教育整顿视频会议;下午研究扫黑除恶专项斗争相关工作。', '、李军副县长上午赴乡镇开展“大干20天 问题整改‘三帮三助三走访’”工作;下午参加自治区产业扶贫电视电话会议。', '、杜贵忠上午赴呼市旭阳中燃公司参加企业消防安全演练活动;下午赴和林格尔新区考察学习深化“放管服”改革、优化营商环境工作。', '、亢永强县长上午主持县域医疗集团管理委员会会议、参加县医疗集团挂牌仪式;下午参加乡村振兴规划设计汇报会。', '、李军上午主持召开抗旱抢播抢种工作部署会;赴五良太乡督查抗旱抢播抢种工作;下午赴市委党校参加处级干部轮训班学习。', '、张敏春副县长上午参加考核谈话会;下午参加全国、全区、全市在常态化疫情防控下的兵源征集会议。', '、张敏春副县长上午参加县政府常务会议，之后陪同市调研组调研工作;下午安排部署环保工作。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>25</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>进入林业部门管理的自治区级自然保护区从事教学实习参观考察拍摄影片登山等活动的审批</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1970-01-01</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://zwfw.nmg.gov.cn/handle_affairs_detail?item_detail_id=ff8080817849eb4801785e52eefd7709&amp;amp;regionCode=150100000000&amp;highlight=personal&amp;record=istrue</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['进入林业部门管理的自治区级自然保护区从事教学实习、参观考察、拍摄影片、登山等活动的审批_内蒙古政务服务网', '进入林业部门管理的自治区级自然保护区从事教学实习、参观考察、拍摄影片、登山等活动的审批', '申请材料是否齐全，是否符合审批条件，申请符合相关法律法规及技术规范的标准要求准予行政许可、批复文件的拟办意见是否明确、申请不符合相关法律法规及技术规范标准要求的不予以行政许可', '1、申请材料是否齐全； 2、是否符合审批条件； 3. 申请符合相关法律法规及技术规范、标准要求的，准予行政许可； 4. 申请不符合相关法律法规及技术规范标准要求的，不予行政许可。', '1、申请材料是否齐全； 2、是否符合审批条件； 3. 申请符合相关法律法规及技术规范、标准要求的，准予行政许可； 4. 申请不符合相关法律法规及技术规范标准要求的，不予行政许可', '呼和浩特市赛罕区敕勒川大街6号 呼和浩特市行政审批和政务服务局一楼大厅F区5-10号窗口', '乘坐3路、18路、60路、102路公交车到政务服务中心站点下车，政务服务中心在站点南侧；乘坐100路、109路公交车到银河南街站点下车，政务服务中心在站点北侧。', '呼和浩特市赛罕区敕勒川大街6号 呼和浩特市行政审批和政务服务局一楼大厅F区6-10号窗口', '核对申请人是否符合申请条件、依据办事材料清单逐一核对是否齐全，能当场受理或通过当场补证达到受理条件的，直接进入受理补证，当场出具受理通知书、根据一次性告知通知书内容进行补证后达到受理条件的出具受理决定通知书。', '《森林和野生动物类型自然保护区管理办法》（1985年6月21日国务院批准 1985年7月6日林业部发布） 第十三条 进入自然保护区从事科学研究、教学实习、参观考察、拍摄影片、登山等活动的单位和个人，必须经省、自治区、直辖市以上林业主管部门的同意。 任何部门、团体、单位与国外签署涉及国家自然保护区的协议，接待外国人到国家自然保护区从事有关活动，必须征得林业部的同意；涉及地方自然保护区的，必须征得省、自治区、直辖市林业主管部门的同意。 经批准进入自然保护区从事上述活动的，必须遵守本办法和有关规定，并交纳保护管理费。 【自治区政府决定】《内蒙古自治区人民政府关于分级审批、下放和取消部分行政审批项目的决定》（内政发【2014】58号） 附件2 第18项 项目名称：进入林业部门管理的自治区级自然保护区从事教学实习、参观考察、拍摄影片、登山等活动的审批；实施机关：由自治区林业厅下放至盟市林业行政主管部门']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>25</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>呼和浩特市农牧局关于呼和浩特市第十五届人民代表大会第三次会议第号关于加大秸秆利用的建议的答复</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2020-09-27</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/snmj_22416/fdzdgknr/jytablnew/202009/t20200927_942496.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['呼和浩特市农牧局关于呼和浩特市第十五届人民代表大会第三次会议第183号《关于加大秸秆利用的建议》的答复_ 呼和浩特市人民政府', '呼和浩特市农牧局关于呼和浩特市 第十五届人民代表大会第三次会议第183号 《关于加大秸秆利用的建议》的答复', '您提出的《关于加大秸秆利用的建议》（总编号183）已收悉，现结合我局职能职责，就办理内容答复如下：', '着力推进秸秆饲料转化利用。在稳定发展现有秸秆全株青饲、黄饲的基础上，积极探索秸秆饲料化利用、商品化生产、产业化经营的新途径，形成秸秆饲料产业与奶牛、肉牛、肉驴、肉羊等畜牧养殖产业同步持续健康快速发展的良好局面。', '加大推广秸秆肥料化利用。按照全市农业可持续发展的基本思路，以提升地力为目标，采用秸秆生产有机肥，同时开展秸秆还田技术示范推广，以秸秆还田作业补贴与购机补贴为重点，积极鼓励农民实施秸秆田间机械化粉碎直接翻压还田作业和秸秆粉碎堆沤还田技术。', '适度发展秸秆燃料化利用。结合大气环境治理，有条件的重点区域大力推动燃煤炉具改造为生物质成型燃料炉具，扩大生物质成型燃料市场规模，在不宜铺设燃气管网的城郊接合部，推广户用生物质成型燃料炉具，解决户用采暖用能。', '拓展其他秸秆利用途径。在主要发展秸秆饲料化、肥料化和燃料化的基础上，因地制宜，积极挖掘和拓展秸秆的基料化和原料化转化利用形式，推广蔬菜大棚秸秆生物反应堆技术、秸秆蚯蚓养殖技术、秸秆种植食用菌等技术。', '2019年，土默特左旗和赛罕区承担了国家秸秆综合利用示范点项目，目前开展了秸秆打捆回收饲料化利用、秸秆粉碎直接还田、秸秆堆沤还田、秸秆专用炉具燃料化等模式技术的试验、示范和推广应用以及秸秆收储网点的建设等工作。', '2020年，土默特左旗、和林县和赛罕区承担国家秸秆综合利用示范点项目。通过项目的实施，可逐步推进全市秸秆收储运用体系的完善，提升全市的秸秆综合利用水平。通过2-3年项目的实施，建立起覆盖全市的秸秆收、储、运、用体系，实现秸秆资源市场化利用和产业化发展、社会化服务的良性态势。', '为坚决打赢“蓝天保卫战”，2019年呼和浩特市人民政府发布《关于禁止露天焚烧农作物秸秆通告》，2020年3月呼和浩特市人民政府发布《呼和浩特市人民政府关于鼓励举报露天焚烧秸秆行为的通告》，凡是举报在呼和浩特市行政区域内有露天焚烧秸秆行为且经市农牧局审核查证属实的，每例给予举报人人民币200元奖励。截至4月14日，市农牧局共接到电话举报焚烧秸秆事件50起，核实焚烧秸秆行为19起。为加快回收利用进度，市农牧局印发了《呼和浩特市农牧局加强秸秆综合利用和露天焚烧巡查工作方案》，成立了三个常态巡查工作组，从11月初开始对全市九个旗县区的秸秆综合利用和禁止露天焚烧工作开展网格化的技术指导和巡查督导，发现露天焚烧现象向生态环境部门和当地各级政府反馈情况并及时进行处理。2020年2月，市农牧局专门召开会议并下发了《关于切实加快推进农作物秸秆综合利用坚决杜绝焚烧农作物秸秆工作的通知》，要求各地千方百计加快回收进度，市农牧局成立4个推进督导组分区包片推进秸秆回收利用工作，局领导多次赴各旗县区进行督导。', '按照市政府印发《关于促进秸秆综合利用和禁止露天焚烧秸秆的决定》以及市农牧局印发《关于印发2019年农作物秸秆综合利用实施方案的通知》相关文件要求，市农牧局于2020年5月18日，成立了秸秆综合利用工作专项考核领导小组，对全市2019年秸秆综合利用完成情况进行全面考核，查看了当地秸秆综合利用市本级及旗县区配套资金到位使用情况，同时实地抽查了共12家秸秆回收企业、合作社和大户,对秸秆收、储、运、用等情况进行了详细了解，从而推动政策落实。', '为推动我市秸秆综合利用工作，市农牧局于2019年12月初派出专业技术人员赴黑龙江、吉林、辽宁三省考察学习，于12底派出调研组赴通辽市考察学习，积极探索秸秆综合利用的好途径和好做法。2019年11月，在赛罕区和玉泉区召开秸秆综合利用现场会，推广秸秆综合利用技术模式。另外，市、县两级农牧部门成立了技术指导小组，负责开展技术咨询、指导、培训和推广服务，目前发放宣传资料2万份。', '秸秆存放于秸秆收储网点，存在重大消防安全隐患。为切实保护人民群众生命财产安全和生态环境，市农牧局下发了《关于进一步加强对秸秆收储网点安全防火的通知》，要求各旗县区将秸秆收储网点安全防火的监督工作作为一项重要工作来抓。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>25</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>关于加快推进呼包鄂乌养老服务区域一体化发展工作的通知</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2021-04-22</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/ztzl/yhyshj/hpxzczl/hq/zzqj/202110/t20211022_1039228.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['为加快推进呼包鄂乌养老服务一体化，根据《呼包鄂乌一体化发展2021年工作要点》确定的目标任务，现将有关事宜通知如下：', '要进一步提高内蒙古养老服务信息系统推广应用紧迫性的认识，切实加强组织领导，压实工作责任，明确主要任务，成立工作专班，做到专人负责、专项督导，组织指导所辖旗县（市、区）做好系统数据录入工作，确保在6月底前完成养老机构的数据填报工作。四地要尽快上线居家和社区养老服务平台，确保10月底前完成社区养老服务机构设施相关数据填报工作，实现四地养老服务政策、服务信息、养老服务资源、标准化建设等基础数据跨地区信息共享。', '鼓励支持养老机构连锁化、品牌化运营，指导当地服务较好、有条件的养老机构，充分发挥各自优势，在呼包鄂乌四地建立连锁机构，全力打造服务品牌，实现连锁化运营和规模发展。', '呼和浩特市、包头市要继续推进居家社区养老服务改革试点工作，及时总结试点经验，为其他盟市做好示范。鄂尔多斯市、乌兰察布市要积极组织相关人员，赴区内外学习先进经验。四地要加强交流，组织学习考察，相互借鉴养老服务工作好的经验和做法，推动本地区居家和社区养老服务再上新台阶、取得新进展。要以居家和社区养老服务工作纳入盟市党政领导班子绩效考核为契机，强化居家和社区养老服务组织保障。将居家和社区养老服务资金纳入财政公共预算，为居家和社区养老服务机构设施建设提供资金支持。', '要建立呼包鄂乌养老服务一体化合作机制，定期组织召开呼包鄂乌养老服务联席会议，统筹协调发展相关事宜，推动合作项目。四地要推动养老服务业协同发展，切实提升呼包鄂乌养老服务质量。要建立本地养老服务部门联席会议制度，定期召开养老服务部门联席会议，专题研究部署居家社区养老服务工作。', '加大服务商招募力度，扩展服务类别，为四地老年人提供更多样化更优质的便民为老服务。四地养老机构要加强区域联动，积极推进一体化发展。四地要做好养老服务行业标准、规范的制定，推动出台更多优惠政策，通过招商引资的方式，引进区外成熟的养老机构，支持在呼包鄂乌四地率先建立养老服务点，开展养老业务。同时，鼓励四地有实力的养老机构加强战略加盟与合作，提高养老服务综合能力。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>25</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>呼和浩特市农牧局关于对呼和浩特市政协第十三届三次会议第号关于加强秸秆综合利用促进我市农业绿色发展的提议提案的答复</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2020-11-11</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/snmj_22416/fdzdgknr/jytablnew/202011/t20201111_942532.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['呼和浩特市农牧局关于对呼和浩特市政协第十三届三次会议第257号《关于加强秸秆综合利用促进我市农业绿色发展的提议》提案的答复_ 呼和浩特市人民政府', '呼和浩特市农牧局关于对 呼和浩特市政协第十三届三次会议第257号 《关于加强秸秆综合利用促进我市农业绿色发展 的提议》提案的答复', '我市秸秆回收转化途径一是着力推进秸秆饲料化利用。在稳定发展现有秸秆全株青饲、黄饲的基础上，积极探索秸秆饲料化利用、商品化生产、产业化经营的新途径，形成秸秆饲料产业与奶牛、肉牛、肉驴、肉羊等畜牧养殖产业同步持续健康快速发展的良好局面。二是加大推广秸秆肥料化利用。按照全市农业可持续发展的基本思路，以提升地力为目标，采用秸秆生产有机肥，同时开展秸秆还田技术示范推广，以秸秆还田作业补贴与购机补贴为重点，积极鼓励农民实施秸秆田间机械化粉碎直接翻压还田作业和秸秆粉碎堆沤还田技术。三是适度发展秸秆燃料化利用。结合大气环境治理，有条件的重点区域大力推动燃煤炉具改造为生物质成型燃料炉具，扩大生物质成型燃料市场规模，在不宜铺设燃气管网的城郊结合部，推广户用生物质成型燃料炉具，解决户用采暖用能。四是拓展其他秸秆利用途径。在主要发展秸秆饲料化、肥料化和燃料化的基础上，因地制宜，积极挖掘和拓展秸秆的基料化和原料化转化利用形式，推广蔬菜大棚秸秆生物反应堆技术、秸秆蚯蚓养殖技术、秸秆种植食用菌等技术。', '2020年市政府下达秸秆综合资金1000万元，用于玉米和向日葵秸秆打捆回收作业补贴，资金按照各旗县区籽粒玉米和向日葵种植面积分配至各旗县区。', '2019年，土默特左旗和赛罕区承担了国家秸秆综合利用示范点项目，项目共461万元。目前开展了秸秆打捆回收饲料化利用、秸秆粉碎直接还田、秸秆堆沤还田、秸秆专用炉具燃料化等模式技术的试验、示范和推广应用以及秸秆收储网点的建设等工作。', '2020年，土默特左旗、托克托县、和林格尔县和赛罕区承担国家秸秆综合利用示范点项目，项目资金共2805万元。项目计划对秸秆粉碎直接换田、秸秆堆沤还田、秸秆收储运中心和秸秆深加工企业进行补贴。通过项目的实施，可逐步推进全市秸秆收储运用体系的完善，提升全市的秸秆综合利用水平。通过2-3年项目的实施，建立起覆盖全市的秸秆收、储、运、用体系，实现秸秆资源市场化利用和产业化发展、社会化服务的良性态势。', '为坚决打赢“蓝天保卫战”，2019年呼和浩特市人民政府发布《关于禁止露天焚烧农作物秸秆通告》，2020年3月呼和浩特市人民政府发布《呼和浩特市人民政府关于鼓励举报露天焚烧秸秆行为的通告》，凡是举报在呼和浩特市行政区域内有露天焚烧秸秆行为且经市农牧局审核查证属实的，每例给予举报人人民币200元奖励。截至4月14日，市农牧局共接到电话举报焚烧秸秆事件50起，核实焚烧秸秆行为19起。为加快回收利用进度，市农牧局印发了《呼和浩特市农牧局加强秸秆综合利用和露天焚烧巡查工作方案》，成立了三个常态巡查工作组，从11月初开始对全市九个旗县区的秸秆综合利用和禁止露天焚烧工作开展网格化的技术指导和巡查督导，发现露天焚烧现象向生态环境部门和当地各级政府反馈情况并及时进行处理。2020年2月，市农牧局专门召开会议并下发了《关于切实加快推进农作物秸秆综合利用坚决杜绝焚烧农作物秸秆工作的通知》，要求各地千方百计加快回收进度，市农牧局成立4个推进督导组分区包片推进秸秆回收利用工作，局领导多次赴各旗县区进行督导。', '按照市政府印发《关于促进秸秆综合利用和禁止露天焚烧秸秆的决定》以及市农牧局印发《关于印发2019年农作物秸秆综合利用实施方案的通知》相关文件要求，市农牧局于2020年5月18日，成立了秸秆综合利用工作专项考核领导小组，对全市2019年秸秆综合利用完成情况进行全面考核，查看了当地秸秆综合利用市本级及旗县区配套资金到位使用情况，同时实地抽查了共12家秸秆回收企业、合作社和大户,对秸秆收、储、运、用等情况进行了详细了解，从而推动政策落实。', '为推动我市秸秆综合利用工作，市农牧局于2019年12月初派出专业技术人员赴黑龙江、吉林、辽宁三省考察学习，于12底派出调研组赴通辽市考察学习，积极探索秸秆综合利用的好途径和好做法。2019年11月，在赛罕区和玉泉区召开秸秆综合利用现场会，推广秸秆综合利用技术模式。另外，市、县两级农牧部门成立了技术指导小组，负责开展技术咨询、指导、培训和推广服务，目前发放宣传资料2万份。', '秸秆存放于秸秆收储网点，存在重大消防安全隐患。为切实保护人民群众生命财产安全和生态环境，市农牧局下发了《关于进一步加强对秸秆收储网点安全防火的通知》，要求各旗县区将秸秆收储网点安全防火的监督工作作为一项重要工作来抓。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>25</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>呼和浩特市人民政府外事办公室事业单位公务用车制度改革方案</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2019-07-16</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/swsbgs_22423/fdzdgknr/bmgk/201907/t20190716_943366.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['为扎实稳妥推进公务用车制度改革工作，按照《呼和浩特市公务用车制度改革领导小组关于印发&lt;呼和浩特市事业单位公务用车制度改革实施意见&gt;的通知》(呼车改组发〔2019〕 1号)要求，我办现结合工作实际，制定本方案如下：', '我办共有对外友好交流中心和翻译中心两个二级事业单位，全部为全额拨款公益一类正科级事业单位。', '对外友好交流中心工作职责：贯彻落实国家自治区及我市外事工作方针政策，为我市涉外部门提供外事接待、信息、咨询、翻译等服务。承办各类人员赴国外进行招商、考察、学习、培训、文体交流活动，接待外国及港、澳、台地区各类友好来访团组因公、因私出国的邀请电函，国际驾照及涉外公证材料的翻译等工作。', '翻译中心工作职责：承担全市重要外事活动的翻译和市领导出访、重要外宾来访的翻译工作；收集整理并翻译有关我市的重要涉外信息；承担重要对外交往函电、文书、协议的翻译工作。', '我办现共有事业人员14人，其中对外友好交流中心现有在编在岗8人（正科1人,副科1人,科员6人），翻译中心现有在编在岗6人（正科1人，副科1人，科员4名）。', '我办事业单位共有1辆一般公务用车需要保留并纳入参改范围。保留业务用车主要用于日常向自治区政府外事办公室报送涉外公证书原件、护照原件等重要材料办理领事认证及出国签证。', '（一）加强组织领导。成立以办党组书记、主任为组长的事业单位公务用车制度改革工作领导小组，领导小组办公室设在办综合科。', '参改后我办将降低车辆使用率，减少公务用车车辆运行维护费的预算开支，确保改革后公务交通年度总支出减少30%。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>25</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>呼和浩特市城市管理综合执法局关于对呼和浩特市政协第十四届二次会议第号提案关于规范再生资源行业管理助力文明城市创建的建议的答复</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/scsglzhzfj_22434/fdzdgknr_25699/jytablnew/202308/t20230828_1577792.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['呼和浩特市城市管理综合执法局关于对呼和浩特市政协第十四届二次会议第0437号提案《关于规范再生资源行业管理 助力文明城市创建的建议\u200b》的答复_ 呼和浩特市人民政府', '呼和浩特市城市管理综合执法局 关于对呼和浩特市政协第十四届二次会议第0437号提案 《关于规范再生资源行业管理 助力文明城市创建的建议\u200b》的答复', '贵单位提出的“关于规范再生资源行业管理 助力文明城市创建的建议”已收悉，现结合城市管理工作治理再生资源回收站点“脏、乱、差”、违章搭建等顽症痼疾问题及“两网融合”相关工作情况答复如下：', '为切实解决我市再生资源回收站点违规私搭乱建和环境卫生脏乱差等问题，2022年9月，我市城管执法部门制定了《呼市城管综合行政执法支队再生资源回收行业周边环境卫生专项整治工作实施方案》，按照“属地管理、依法整治、堵疏结合、综合治理、长效管理”的原则,通过专项整治,对全市废品回收站点进行摸排整改,规范废品回收经营行为,达到“整改一批、规范一批、提升一批”的目标，净化市容环境，提高群众生活品质。市、区两级城管执法部门按照各自职责划分，对全市废品收购站点违规搭建、随处倾倒垃圾排放污水等行为进行了查处，同时定期对清理整治成果进行复查，加固整治成果,防止废品收购站点脏、乱、差现象回潮。', '为加快推动“两网融合”，建立可回收物再生利用网络体系，通过多次考察学习先进城市的管理经验，结合呼和浩特市实际情况，我市印发了《呼和浩特市2023年生活垃圾分类工作实施方案》，方案明确了各部门推动“两网融合”的工作任务。', '目前我市城管执法部门正在积极推广可回收物“便民交售”自助投放模式，具体做法为每500-1000户居民区域内建设一个可回收物自助投放点，选址可以在小区内，也可以在社区人流集中地区域。点位无人值守，7×24小时开放。社区、办事处负责为每个点位的保洁清扫，并提供宣传动员活动，采用现场说明讲解和游戏等方式，提高居民知晓率和参与率。截止目前共完成19座招标并签订采购协议，其中4座已投入使用，另有50座已发布采购预公告，计划7月底前全部建成使用。', '宣传方面，在生活垃圾分类知识宣传纳入学校日常教育的基础上，结合垃圾分类进校园活动，在校园同步推广可回收物自助投放阳光厢房模式，现已完成了60所中小学的建设工作，计划今年再新增100所中小学。同时充分利用“中央级、自治区级、市级、区级”四级主流媒体和融媒体、抖音、快手、媒体，以及美篇、简书等自媒体，并通过商业LED广告屏、楼宇电梯电视、道旗广告等方式，高频次、多角度，线上线下相结合的宣传。', '最后感谢贵单位对我们工作的理解与支持，希望今后一如既往的提出更多更好的建议和意见，我们将不断改进和完善工作。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>25</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>习近平在清华大学考察</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2021-04-20</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tt_1/202104/t20210420_862061.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['新华社北京4月19日电 在清华大学建校110周年校庆日即将来临之际，中共中央总书记、国家主席、中央军委主席习近平来到清华大学考察。习近平代表党中央，向清华大学全体师生员工和海内外校友致以节日的祝贺，向全国广大青年学生致以诚挚的问候。', '习近平强调，百年大计，教育为本。今年是中国共产党成立100周年，我国开启了全面建设社会主义现代化国家新征程。党和国家事业发展对高等教育的需要，对科学知识和优秀人才的需要，比以往任何时候都更为迫切。我们要建设的世界一流大学是中国特色社会主义的一流大学，我国社会主义教育就是要培养德智体美劳全面发展的社会主义建设者和接班人。我国高等教育要立足中华民族伟大复兴战略全局和世界百年未有之大变局，心怀“国之大者”，把握大势，敢于担当，善于作为，为服务国家富强、民族复兴、人民幸福贡献力量。广大青年要肩负历史使命，坚定前进信心，立大志、明大德、成大才、担大任，努力成为堪当民族复兴重任的时代新人，让青春在为祖国、为民族、为人民、为人类的不懈奋斗中绽放绚丽之花。', '4月19日，在清华大学建校110周年校庆日即将来临之际，中共中央总书记、国家主席、中央军委主席习近平来到清华大学考察。这是习近平在清华大学美术学院参观美术学院校庆特别展。新华社记者 丁林 摄', '上午9时30分许，习近平在中共中央政治局常委、中央书记处书记王沪宁，清华大学党委书记陈旭、校长邱勇陪同下，首先来到美术学院，参观美术学院校庆特别展。美术展馆内，一块块展板图文并茂，一件件展品各具特色。习近平详细了解重大主题和国家形象设计作品创作、展示等情况介绍，仔细观看展品。习近平指出，美术、艺术、科学、技术相辅相成、相互促进、相得益彰。要发挥美术在服务经济社会发展中的重要作用，把更多美术元素、艺术元素应用到城乡规划建设中，增强城乡审美韵味、文化品位，把美术成果更好服务于人民群众的高品质生活需求。要增强文化自信，以美为媒，加强国际文化交流。', '4月19日，在清华大学建校110周年校庆日即将来临之际，中共中央总书记、国家主席、中央军委主席习近平来到清华大学考察。这是习近平在清华大学成像与智能技术实验室，结合展板、电子屏幕察看实验室开展计算光学、脑科学与人工智能交叉科学实验研究和开发新科技应用场景情况，听取实验室理论研究、技术攻关、成果转化应用等情况介绍。新华社记者 鞠鹏 摄', '清华大学成像与智能技术实验室成立于2001年，主要开展计算摄像、脑科学与人工智能国际前沿交叉科学等基础理论与关键技术的研究。习近平来到这里，结合展板、电子屏幕察看实验室开展计算光学、脑科学与人工智能交叉科学实验研究和开发新科技应用场景情况，听取实验室理论研究、技术攻关、成果转化应用等情况介绍。习近平指出，中国教育是能够培养出大师来的。我们要有这个自信，开拓视野、兼收并蓄，扎扎实实把中国教育办好。重大原始创新成果往往萌发于深厚的基础研究，产生于学科交叉领域，大学在这两方面具有天然优势。要保持对基础研究的持续投入，鼓励自由探索，敢于质疑现有理论，勇于开拓新的方向。', '4月19日，在清华大学建校110周年校庆日即将来临之际，中共中央总书记、国家主席、中央军委主席习近平来到清华大学考察。这是习近平在清华大学成像与智能技术实验室同师生们亲切交谈。新华社记者 黄敬文 摄', '清华大学主楼二层，展示了学校近年来重点教学科研成果。习近平听取了关于增强自主创新能力、助力世界主要科学中心和创新高地建设、提高人文社会学科教育研究水平等情况介绍，对清华大学取得的成绩给予充分肯定。习近平指出，要坚持中国特色社会主义教育发展道路，充分发挥科研优势，增强学科设置的针对性，加强基础研究，加大自主创新力度，并从我国改革发展实践中提出新观点、构建新理论，努力构建中国特色、中国风格、中国气派的学科体系、学术体系、话语体系。', '4月19日，在清华大学建校110周年校庆日即将来临之际，中共中央总书记、国家主席、中央军委主席习近平来到清华大学考察。这是习近平在清华大学主楼二层听取关于增强自主创新能力、助力世界主要科学中心和创新高地建设、提高人文社会学科教育研究水平等情况介绍。新华社记者 黄敬文 摄', '在主楼二层大厅，习近平看望部分老教授、中青年骨干教师代表并同他们亲切交谈。习近平感谢在教学科研岗位上默默耕耘、辛勤奉献、作出突出贡献的老师们，向老教授们表示敬意，勉励中青年教师继续在教书育人和科研创新上不断有新进步。他强调，清华大学秉持自强不息、厚德载物的校训，深化改革、加快创新，各项事业欣欣向荣，科研创新成果与国家发展需要丝丝相扣，展现了清华人的勇毅和担当。面向未来，清华大学要坚持把立德树人作为根本任务，把服务国家作为最高追求，把学科建设作为发展根基，把深化改革作为强大动力，把加强党的建设作为坚强保证，不忘初心、牢记使命，为党育人、为国育才，为实现第二个百年奋斗目标、实现中华民族伟大复兴的中国梦、推动人类文明进步作出新的更大的贡献。', '4月19日，在清华大学建校110周年校庆日即将来临之际，中共中央总书记、国家主席、中央军委主席习近平来到清华大学考察。这是习近平在清华大学主楼二层大厅看望部分老教授、中青年骨干教师代表并同他们亲切交谈。新华社记者 鞠鹏 摄', '位于校园西北部的西体育馆，是清华早期四大建筑之一。在馆内篮球场，校篮球运动员正在进行训练。习近平走进体育馆，同他们亲切交谈，并在体育荣誉室察看历史照片、实物展览，了解体育馆保护利用、学校继承发扬优良传统、开展体育教育等情况。习近平表示，重视体育是清华大学的光荣传统，希望同学们发扬好清华大学的优良学风和体育传统，坚持德智体美劳全面发展，努力成为祖国建设的栋梁之才。', '4月19日，在清华大学建校110周年校庆日即将来临之际，中共中央总书记、国家主席、中央军委主席习近平来到清华大学考察。这是习近平在清华大学西体育馆篮球场同校篮球运动员亲切交谈。新华社记者 鞠鹏 摄', '4月19日，在清华大学建校110周年校庆日即将来临之际，中共中央总书记、国家主席、中央军委主席习近平来到清华大学考察。这是习近平在清华大学西体育馆体育荣誉室察看历史照片、实物展览，了解体育馆保护利用、学校继承发扬优良传统、开展体育教育等情况。新华社记者 鞠鹏 摄', '11时20分许，习近平来到清华大学西体育馆后馆，出席师生代表座谈会。清华大学党委书记陈旭、校长邱勇、土木系教师聂建国、公管学院教师梅赐琪、工物系应届博士毕业生孙启明、人文学院二年级本科生李润凤分别发言。习近平认真听取他们的发言，现场气氛轻松、热烈。', '最后，习近平发表了重要讲话。他指出，清华大学诞生于国家和民族危难之际，成长于国家和民族奋进之中，发展于国家和民族振兴之时。110年来，清华大学深深扎根中国大地，培育了爱国奉献、追求卓越的光荣传统，形成了又红又专、全面发展的教书育人特色，为国家、为民族、为人民培养了大批可堪大任的杰出英才。这是一代代清华人拼搏奋斗、勇攀高峰、争创一流的结果。', '4月19日，在清华大学建校110周年校庆日即将来临之际，中共中央总书记、国家主席、中央军委主席习近平来到清华大学考察。这是习近平出席师生代表座谈会并发表重要讲话。新华社记者 鞠鹏 摄', '习近平强调，清华大学的发展历程，是我国高等教育发展的一个生动缩影。新中国成立以来，我国高等教育走过了从小到大、从弱到强的极不平凡历程，办学规模、培养质量、服务能力实现历史性跃升。特别是党的十八大以来，我国高等教育与祖国共进、与时代同行，创造了举世瞩目的发展成就。', '习近平指出，一个国家的高等教育体系需要有一流大学群体的有力支撑，一流大学群体的水平和质量决定了高等教育体系的水平和质量。一流大学建设要坚持党的领导，坚持马克思主义指导地位，全面贯彻党的教育方针，坚持社会主义办学方向，抓住历史机遇，紧扣时代脉搏，立足新发展阶段、贯彻新发展理念、服务构建新发展格局，把发展科技第一生产力、培养人才第一资源、增强创新第一动力更好结合起来，更好为改革开放和社会主义现代化建设服务。', '习近平强调，追求一流是一个永无止境、不断超越的过程，要明确方向、突出重点。要培养一流人才方阵。建设一流大学，关键是要不断提高人才培养质量。要想国家之所想、急国家之所急、应国家之所需，抓住全面提高人才培养能力这个重点，坚持把立德树人作为根本任务，着力培养担当民族复兴大任的时代新人。要构建一流大学体系。高等教育体系是一个有机整体，其内部各部分具有内在的相互依存关系。要用好学科交叉融合的“催化剂”，加强基础学科培养能力，打破学科专业壁垒，对现有学科专业体系进行调整升级，瞄准科技前沿和关键领域，推进新工科、新医科、新农科、新文科建设，加快培养紧缺人才。要提升原始创新能力。一流大学是基础研究的主力军和重大科技突破的策源地，要完善以健康学术生态为基础、以有效学术治理为保障、以产生一流学术成果和培养一流人才为目标的大学创新体系，勇于攻克“卡脖子”的关键核心技术，加强产学研深度融合，促进科技成果转化。要坚持开放合作。加强国际交流合作，主动搭建中外教育文化友好交往的合作平台，共同应对全球性挑战，促进人类共同福祉。', '习近平指出，当代中国青年是与新时代同向同行、共同前进的一代，生逢盛世，肩负重任。广大青年要爱国爱民，从党史学习中激发信仰、获得启发、汲取力量，不断坚定“四个自信”，不断增强做中国人的志气、骨气、底气，树立为祖国为人民永久奋斗、赤诚奉献的坚定理想。要锤炼品德，自觉树立和践行社会主义核心价值观，自觉用中华优秀传统文化、革命文化、社会主义先进文化培根铸魂、启智润心，加强道德修养，明辨是非曲直，增强自我定力，矢志追求更有高度、更有境界、更有品位的人生。要勇于创新，深刻理解把握时代潮流和国家需要，敢为人先、敢于突破，以聪明才智贡献国家，以开拓进取服务社会。要实学实干，脚踏实地、埋头苦干，孜孜不倦、如饥似渴，在攀登知识高峰中追求卓越，在肩负时代重任时行胜于言，在真刀真枪的实干中成就一番事业。', '习近平强调，教师是教育工作的中坚力量，没有高水平的师资队伍，就很难培养出高水平的创新人才，也很难产生高水平的创新成果。大学教师对学生承担着传授知识、培养能力、塑造正确人生观的职责。教师要成为大先生，做学生为学、为事、为人的示范，促进学生成长为全面发展的人。要研究真问题，着眼世界学术前沿和国家重大需求，致力于解决实际问题，善于学习新知识、新技术、新理论。要坚定信念，始终同党和人民站在一起，自觉做中国特色社会主义的坚定信仰者和忠实实践者。', '4月19日，在清华大学建校110周年校庆日即将来临之际，中共中央总书记、国家主席、中央军委主席习近平来到清华大学考察。这是习近平离开学校时，同师生们挥手致意。新华社记者 鞠鹏 摄', '习近平离开学校时，操场上、道路旁站满了师生，大家纷纷向总书记问好，齐声高喊“总书记好”、“学长好”，高呼“祖国万岁”、“清华加油”，习近平满怀深情地同大家挥手致意，掌声、问候声在校园里久久回荡。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>25</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>呼和浩特市退役军人事务局印发关于开展对标对表争创一流活动工作方案的通知</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2020-04-01</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/styjrswj_22420/fdzdgknr/bmgk/202004/t20200401_943116.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['呼和浩特市退役军人事务局印发《关于开展“对标对表、争创一流”活动工作方案》的通知_ 呼和浩特市人民政府', '呼和浩特市退役军人事务局印发《关于开展 “对标对表、争创一流”活动工作方案》的通知', '经研究，现将《关于开展“对标对表、争创一流”活动工作方案》印发给你们，请结合工作实际，认真贯彻落实。', '为开创我市退役军人事务工作新局面，按照市委“对标对表”工作要求，特制订本工作方案。', '按照“学习标杆、创新发展、突出特色”的原则，充分借鉴全国、自治区退役军人事务工作先进经验，解放思想，转变观念，创新措施，积极开展对标对表活动，力争用两年时间使全市退役军人事务工作跻身全国先进行列。', '加强政治建设，做好党建和党风廉政建设，做好“三务公开”等方面；贯彻落实中共中央、国务院、中央军委《关于加强新时代退役军人工作的意见》，制定退役军人政策体系方面；加强退役军人服务保障体系建设，完善运行机制建设方面；做好退役军人思想政治建设，加强权益维护工作方面；推进退役军人培训模式，创建退役军人就业创业园方面；落实退役军人、随军随调家属、军休干部、无军籍职工安置政策，解决遗留问题方面；落实拥军优抚政策，拓展英烈褒扬纪念广度深度方面；开展双拥共建工作等方面。', '（一）开展一次考察活动。局党组研究组织分批次到全国或全区退役军人事务先进地区进行实地考察学习，通过眼见手触脚踏，亲身感受了解先进，找出差距，排查问题，形成书面考察报告。', '（二）开展一次培训活动。邀请全国、全区退役军人事务工作先进地区的业务骨干，来呼对我市退役军人事务系统进行培训，有针对性地交流工作体会。将先进理念经验辐射到基层，提升机关及基层干部职工业务能力。', '（三）开展一次研讨活动。邀请退役军人事务部、自治区退役军人事务厅领导以及相关专家学者，到呼对我市退役军人事务工作进行业务指导，现场问诊把脉，点对点对接，帮助提升解决问题的能力。', '（一）加强组织领导。各单位、各科室要高度重要，切实加强组织领导，按照局党组统一部署，开展业务工作对标对表工作，要坚持高标准、严要求，向先进看齐、向一流看齐，正视差距，高起点谋划工作，高标准推进工作。', '（二）确立工作目标。各单位、各科室要结合工作实际上，确立学习全国、全区范围内的先进典型的工作目标，研究制定本单位（科室）的工作方案和工作措施，要结合实际积极创新，突出工作特色。对标对表工作方案和目标单位于2020年4月10日前报局办公室。', '（三）列入考核目标。局党组平时将不定期进行督导检查和调研，同时将对标对表工作列入各单位、各科室年底的目标考核任务。局党组将对对标对表工作学习到位、成效明显、作用突出的单位和个人进行表彰奖励。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>25</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>呼和浩特市审计局配合为民服务热线平台推动接诉即办工作实施方案</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2020-07-08</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/wugongkai/jieguogk/shengjigk/202105/t20210527_945230.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['呼和浩特市审计局配合为民服务热线平台推动“接诉即办”工作实施方案_ 呼和浩特市人民政府', '为贯彻落实党的十九大关于“建设人民满意的服务型政府”决策部署，根据《中共中央办公厅 国务院办公厅关于深入推进审批服务便民化的指导意见》、《内蒙古自治区人民政府观关于印发深入推进“放管服”改革全面优化政务服务若干措施的通知》、《呼和浩特市建设为民服务热线平台推动“接诉即办”工作实施方案》等文件精神，学习借鉴北京、上海等地区的先进经验做法，结合审计工作实际，制定如下实施方案。', '以习近平新时代中国特色社会主义思想为指导，深入贯彻落实习近平总书记关于内蒙古工作重要讲话、重要指导批示精神，以建设服务型政府为目标，科学整合热线资源，建立统一运行平台，进一步提高政府行政效能和公共服务水平，构建便民、利民、惠民的服务平台，架设政府与市民交流互动的直达桥梁，更好地推进机关作风转变和服务型政府建设，促进提升审计机关服务水平。', '(一)便民利民，规范高效。不断完善服务功能，创新服务方式，规范服务内容，改进工作作风，提高行政效能，努力让群众享受便捷、高效的政府公共服务。', '(二)受理群众诉求。受理群众反映的审计问题、通过转办、协调督办等方式解决群众诉求，为群众提供服务和帮助。', '(三)配合服务热线。收集、整理社情民意和社会动态、进行综合分析，为服务热线提供参考和依据。', '（三） 起草《呼和浩特市审计局配合为民服务热线平台推动“接诉即办”工作实施方案》。', '（一）统一思想、加强领导。建立一把手负总责，分管领导具体抓的领导责任，明确工作要求，切实配合做好“为民服务热线12345”资源整合优化和业务衔接工作，确保平台建设工作顺利进行。', '（二）注重宣传、通力协作。充分发挥各媒体的舆论监督作用，引导公众参与，提高公众知晓率，不断扩大审计平台影响力。积极配合有关部门做好平台前期建设各项工作，确保平台建设工作有序开展。', '（三）严肃纪律、强化考核。相关人员要严肃工作纪律，强化大局意识，认真执行实施方案明确各项工作和措施；办公室要加强工作检查，实行定期督导和随机检查的方式，确保平台有序平稳运行。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>25</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>呼和浩特市安全生产监督管理局关于加强和改进领导干部工作作风建设情况的报告</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2010-06-09</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/syjglj_22421/xxgknb/202105/t20210525_931154.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['呼和浩特市安全生产监督管理局关于加强和改进领导干部工作作风建设情况的报告_ 呼和浩特市人民政府', '近期，我局按照市委办公厅《关于加强和改进领导干部工作作风建设情况进行督查的通知》精神，对我局加强和改进领导干部工作作风建设情况进行了认真细致的自查总结，现将有关情况报告如下：', '今年以来，我局严格执行中央、自治区和市委、市政府有关规定，尽量精简会议、文件、节庆和达标评比活动。除规定的每季度安全生产工作调度会外，未召开任何全市性会议；文件下发控制在必要范围内，能够合并的文件内容尽量合并下发，有效控制了文件下发总量；除“全国安全生产月”、“安全生产质量万里行”外，未组织任何节庆和达标评比活动。尽量减少了不必要的出差学习；外出差旅补助严格按照市委、市政府有关规定执行，没有超标准补助和虚报冒领差旅费等问题。', '局党组成员和各科室领导干部能够严格执行上级有关规定，合理安排必要的公务接待活动，没有利用公款宴请，大吃大喝现象，没有用公款安排旅游、健身，高消费娱乐等活动；没有以各种名义变相组织外出学习、考察公款旅游等不正之风。', '为了确保全市社会经济生活的繁荣稳定，加强对基层、企业和群众的了解接触，今年上半年，我们结合“全国安全生产月活动”、“全国安全生产万里行活动”和“重点行业领域安全生产隐患排查治理专项行动”先后组织了十几个工作组，由局领导亲自带队深入基层、深入企业，对全市范围内的1390家生产经营企业进行了多5次大规模的督察、调研，共排查安全隐患1443处，整改隐患1224个，整改率达78.4%，深入基层时间占全部工作日的60%以上。通过督察、调研活动我市安全形式明显好转，比较去年同期，事故起数减少62起，下降3.4%。各类事故死亡人数同比下降14.79%，最大程度地减少了各类生产事故的发生，较好地规范了全市高危行业安全生产秩序。在对民航净空区超高建筑拆迁、北油库加油站接近靠近居民区，安全距离不足等牵涉面广，涉及群众、企业实际利益多，解决难度较大的安全隐患，由局领导亲自出面，组织相关单位进行协商解决，收到了较好的效果。执法检查过程中，我们结合市委、市政府组织的“整顿机关作风、提高行政效能”活动，自觉坚持文明执法、秉公执法，不在受检单位就餐，不收受企业礼物，树立了安监执法队伍的良好形象。同时我们还在检查过程中注重调研思考，局党组成员带头研究安全生产中出现的新情况、新问题，思考解决办法，局党组成员和科室负责人都撰写了与实际工作结合比较紧密，建设性较强的调研报告。 总的来看，我局在市委、市政府的领导下，认真落实了领导干部工作作风建设的各项目标任务，注重抓制度，注重抓落实，切实加强和改进了领导干部工作作风，取得了实效。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>25</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>呼和浩特市大数据管理局关于对呼和浩特市政协十三届四次会议第号提案关于提升首府城市精细化管理水平的建议的答复</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2021-08-27</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/sdsjglj_22438/fdzdgknr_26169/jytablnew/202108/t20210830_1020501.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['呼和浩特市大数据管理局关于对呼和浩特市政协十三届四次会议第308号提案《关于提升首府城市精细化管理水平的建议》的答复_ 呼和浩特市人民政府', '呼和浩特市大数据管理局关于对呼和浩特市 政协十三届四次会议第308号提案《关于提升首府城市 精细化管理水平的建议》的答复', '《关于提升首府城市精细化管理水平的建议》收悉，按照办理分工，市大数据管理局为分办单位，主要负责建议中“提升智慧化城市管理水平”部分的办理工作。关于建议中提出的“建立智慧城市管理服务系统，加强基础数据平台建设，实现数据联动与资源共享”等内容，我们进行了认真研究，现答复如下：', '为深入贯彻落实习近平总书记“让城市更聪明、更智慧”重要指示精神，高位谋划、全力推进我市智慧城市建设，切实提升首府精细化、智慧化城市管理水平，按照石泰峰书记2020年4月调研我市城市管理指挥平台时的工作要求，呼和浩特市委市政府快速响应、集中部署、强力推进，全面开启了智慧青城建设新篇章。', '2020年10月，《呼和浩特市智慧青城（一期）建设方案》编制印发，从建设框架、基础布局、应用规划等方面进行明确，在夯实底座的基础上，按照“需求导向、急用先行”的原则，先期集中建设智慧综治、智慧城管等城市管理方面的智慧应用，全面启动智慧城市建设。', '2021年6月，经过半年的集中攻坚，以呼和浩特市城市大脑为基础的智慧青城“四梁八柱”框架搭建完成，城市基础大数据平台、便民服务终端、城市管理系统建设取得阶段性成效，立足青城实际逐步探索形成智慧呼和浩特管理模式，青城管理向智慧化、精细化、便民化大阔步迈进。', '在城市智慧化管理平台建设方面：目前，已建成感知体系、智慧综治、智慧城管、智慧停车、智慧文旅、智慧应急、智慧林草、疫情防控大数据平台、共享单车监管平台等12个城市管理系统，涵盖社区网格化管理、城市部件监管、施工工地监管、停车监管、景区监管、重点危化企业监管、林草资源监管等城市管理领域，实现了在城市大脑的基础上的城市管理系统一云集合、一屏统揽。', '为进一步提升城市管理系统智慧化监管水平，切实发挥智慧监管效能，2021年4月，呼和浩特市委副书记、市长贺海东带队，赴上海市、苏州市等城市管理水平先进地区考察学习，提出在现有智慧城市建设基础上，进一步拓展智慧化城市监管维度，依托12345接诉即办指挥调度中心事件处理平台，推动形成城市事件“闭环处置”、城市态势“一屏感知”、城市运行“一网统管”。目前，“一网统管”相关工作正在稳步有序推进。', '在建立城市基础数据平台方面：为切实打破全市各委办局数据壁垒，实现数据联动、资源共享，提高政府部门行政办公效能、提升青城市民民生服务效率，我们在智慧青城（一期）中同时建设了全市统一大数据平台，汇集整合全市政务数据、社会数据、民生数据等城市建设发展各方面数据，充分发挥数据红利，赋能城市治理、保障民生服务和服务企业发展。', '目前，全市大数据平台已汇集超30家委办局、8814万条数据，对接市委政法委、城管执法局、文旅局、林草局等各单位信息系统12个。为实现对全市各类数据有效治理，已建成10个部门库和政治、经济、文化、社会、生态五大专题库，发布各类数据模型共计300余个，具备了数据清洗、治理、归集相关能力。为进一步推进数据共享，掀起全市数据会战大潮，我们于近期编制印发了《呼和浩特市智慧城市数据归集共享大会战实施方案》，下大力气开展数据汇集共享，创新推进数据治理场景等相关工作。', '下一步，市大数据管理局将按照市委市政府安排部署，认真落实职能职责，有序推进数据汇集，让更多委办局、更多企业、更多群众享受到我市数据共享带来的便利。', '感谢农工党呼和浩特市委员会对我市城市精细化管理工作的关注与支持，我们将一如既往做好城市智慧化建设工作，让青城市民切实感受到智慧便利、享受到智慧福利。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>25</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>呼市大数据管理局关于人大代表建议办理工作情况的总结</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2021-10-13</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/sdsjglj_22438/fdzdgknr_26169/jytablnew/202111/t20211123_1062135.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['呼和浩特市大数据管理局今年共收到市人大十五届四次会议建议承办件3件，主要内容包括城市地下管网建设维护管理、城市精细化管理、创建呼和浩特市创新科技产业园等方面。其中分办2件，协办1件，全部按时办理答复完毕。现将办理工作总结如下：', '接到市人大代表建议办理件后，我局高度重视办理回复工作，积极部署安排，成立市大数据管理局2021年市人大建议办理工作领导小组，加强对办理工作的组织领导，确定办理工作联系人，制定《呼和浩特市大数据管理局关于十五届人大四次会议代表建议办理计划》，完善办理机制，保证办理质量。5月7日，由局党组书记主持召开了呼和浩特市大数据管理局第9次党组会议，审议通过了《市大数据管理局关于人大建议、政协提案办理任务分解方案》，详细部署了人大建议工作任务分工，明确具体的办理工作目标、办理责任，认真分析人大代表的各项建议，按业务内容分解到具体科室，对办理形式和办理进度进行安排部署，针对热点难点问题进行深入研究，力争每件建议的办理落到实处。', '为确保办理工作取得成效，我局积极加强与代表们联系，通过电话沟通、见面交流等方式虚心听取代表的意见建议，不断改进和完善各项建议办理情况，6月24日上午，我局邀请人大代表、政协委员到呼和浩特市智慧城市中心进行参观座谈。座谈会上，我局认真听取代表、委员们的意见建议，并就办理思路与方向进行了充分交流，得到了与会代表和委员们的肯定。', '我局结合工作职责，制定工作措施，将建议办理落实在具体工作中，全部按时办理答复完毕，2项办理结果为A类，1项办理结果为B类。具体办理答复情况如下：', '（一）关于总编号126《关于进一步加强城市地下管网建设维护管理的建议》。我局是协办单位，主要负责协助办理建议中“加快城市管网信息化建设”的相关内容。', '基本情况：呼和浩特地下管线系统于2016年由呼和浩特勘察测绘院牵头建设，系统包括综合管线8大类30小类管线数据的三维建模，累计里程18025平方公里，覆盖全市域、以及武川县、和林格尔县、托克托县、清水河县、土默特左旗，系统可以查看、统计各类管线设施资源供领导和统计部门参考，也可以辅助城市规划设计以及地面开挖分析，科学直观的指导城市管线的施工建设、应急应用。', '答复情况：为实现城市管网信息化，我市于2018年建设了呼和浩特空间地理信息数据库。该项目完成对时空数据的处理与建库，形成了全市时空大数据雏形。空间地理信息数据库汇聚了城市地上地下管网及公共基础设施数据，系统上线以来，已经支持对接了水务局、住建局、公安局、中燃公司等多个部门，并为其提供地理信息基础数据服务。', '2020年底我市启动智慧城市一期建设，城市感知体系已纳入智慧城市一期建设方案中。感知体系建设内容包含排水、井盖、路灯、道桥监测4个系统，现已安装部署了鼓楼立交桥7种48个监测点，及路灯、井盖等各类感知设备共计3068个，可实现对部分城市基础设施的精准管理、动态监控和高效维护。该体系利用现有基站加快物联网设施部署，优化全市视频图像点位布局和布点扩面，完善城市“触觉感知”“视觉感知”网络，推动物联感知体系整合及跨区域、跨部门调用共享。', '（二）关于总编号166《关于加强城市精细化管理的建议》。我局是分办单位，主要负责建议中第五项“强化提升推进智能化建设重要性认识”办理。', '基本情况：呼和浩特市以便民、兴业、共治为设计理念，充分运用大数据、云计算、物联网等先进技术，全面推进了智慧青城（一期）建设，构建了“1+4+N”的智慧城市框架体系，“1”即城市大脑，“4”即数据体系、安全体系、感知体系、“爱青城”APP4个基础支撑，“N”即基于城市大脑拓展研发的N个智慧应用，一期主要包括智慧综治、智慧城管、智慧停车、智慧应急、智慧林草、智慧文旅、数字平安校园、智慧急救、政企连心桥等9个智慧应用。', '答复情况：一是关于更新智慧城市发展理念方面。为深入贯彻落实习近平总书记“让城市更聪明、更智慧”重要指示精神，高位谋划、全力推进我市智慧城市建设，按照石泰峰书记2020年4月调研我市城市管理指挥平台时的工作要求，呼和浩特市委市政府快速响应、集中部署，全面开启智慧青城建设新篇章。2020年7月，市委书记、市长带队赴杭州实地考察学习先进经验，随即召开常委会研究制定《呼和浩特新型智慧城市顶层设计方案（2020-2022年）》，从基础支撑、数字核心、安全保障、智慧应用等四个方面全面规划我市智慧城市建设图景。2020年9月，成立由市委书记任总指挥、市长任第一副总指挥的智慧城市建设指挥部，全面统筹、定期调度、强力推进，指挥部办公室设在市大数据管理局，负责统筹协调推进各项建设任务；组建了国有控股公司内蒙古智慧青城公司，具体承担智慧城市建设任务。2020年10月，印发《呼和浩特市智慧青城（一期）建设方案》，全面启动智慧城市建设。2021年1月20日，历时100天，呼和浩特市城市大脑正式上线启用，呼和浩特市智慧城市建设“四梁八柱”基本框架搭建完成，形成了走在国内智慧城市体系先列的“1+4+N”建设体系（“1”即城市大脑，“4”即感知体系、数据体系、安全体系、“爱青城”APP 4个基础支撑，“N”即智慧综治、智慧城管、智慧文旅、智慧林草等智慧应用），为下一步科学规划智慧青城建设奠定了坚实基础。二是关于建立城市管理协调联动平台方面。为充分发挥智慧化、科技化、信息化力量，更新城市规划管理理念，推动城市管理向精细化、精准化迈进，2021年4月，呼和浩特市委副书记、市长贺海东带队，赴上海市、苏州市等城市管理水平先进地区考察学习，提出要推动实现城市治理要素“一屏统揽”，上下联动“一键互通”，城市运行“一网统管”。按照市委市政府安排部署，市大数据管理局等相关部门迅速行动，确定在我市“1+4+N”的智慧城市建设基础框架下，依托12345接诉即办指挥调度中心职能职责，进一步汇集整理城市治理数据，实现城市治理要素“一屏统揽”；同时，各旗县区建立城市大脑分平台，推动实现与市本级城市大脑系统互通、数据共享，各区情况实时感知，上下联动“一键互通”；通过城市治理要素“一屏统揽”，市本级-旗县区上下联动“一键互通”，实现城市运行“一网统管”。目前，旗县区城市大脑分平台建设、各委办局数据共享、系统互通工作正在稳步推进。三是关于建立统一的城市管理数据库方面。为切实打破全市各委办局数据壁垒，实现数据互通、集成共享，提高政府部门行政办公效能、提升青城市民民生服务效率，《呼和浩特市智慧青城（一期）建设方案》中明确提出，建立全市统一大数据平台，汇集整合全市政务数据、社会数据、民生数据等城市建设发展各方面数据，充分发挥数据红利，赋能城市治理、保障民生服务和服务企业发展。目前，全市大数据平台已汇集超25家委办局、8279万条数据，对接全市智慧文旅、智慧停车、智慧综治等各单位信息系统12个。为实现对全市各类数据的有效治理，已建成10个部门库和政治、经济、文化、社会、生态五大专题库，发布各类数据模型共计300余个，有效实现了数据清洗、治理、归集相关能力。为进一步推进数据共享，掀起全市数据会战大潮，我们于近期编制印发了《呼和浩特市智慧城市数据归集共享大会战实施方案》，下大力气推进数据汇集共享相关工作。', '答复情况：关于建议中公共服务的“（4）云计算服务。为入驻企业提供共享软件开发云服务、云计算服务；为入驻企业提供数据抓取与统计报告服务。”我局主管的呼和浩特市政务云中心于2016年建成投运，具备计算存储、本地容灾备份、异地容灾备份、安全防护等能力。目前政务云可以提供基础设施服务、支撑软件服务、应用软件服务、安全保障服务、方案设计服务、项目实施服务、咨询培训服务、第三方迁移服务等总计8大类40项服务，主要为市级、各旗县区各部门、单位提供云服务。', '为打造营商环境，积极创建创新科技园，在园区的优惠政策方面，结合我局职能职责，下一步考虑拓宽政务云服务对象，充实服务目录，在保障平台安全、流程完善的基础上，可为入驻企业提供云服务。', '为确保答复按时保质完成，我局指定专门科室负责人大代表建议办理工作的组织协调和督促监督，及时督促责任科室工作进度，建立办理台账，定期通报进展情况。同时要求办理结束前、与人大代表进行再次沟通，确保办理结果人大代表满意。我局通过办理代表建议，在我市城市地下管网建设维护管理、城市精细化管理、创建呼和浩特市创新科技产业园等方面的发挥积极作用。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>25</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>呼和浩特市商务局关于对呼和浩特市政协十四届一次会议第号提案关于加快我市区域现代消费中心建设的提案的答复</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2022-09-28</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/sswj_22417/fdzdgknr/jytablnew/202209/t20220928_1382037.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['呼和浩特市商务局关于对呼和浩特市政协十四届一次会议第0287号提案《关于加快我市区域现代消费中心建设的提案》的答复_ 呼和浩特市人民政府', '呼和浩特市商务局 关于对呼和浩特市政协十四届一次会议第0287号提案《关于加快我市区域现代消费中心建设的提案》的答复', '您提案中指出的引入高端消费业态、加大招商引资力度等建议，对我市打造区域现代消费中心具有重要借鉴意义，也是我们打造区域现代消费中心工作的重点内容。结合前期与您沟通对接情况，市商务局立足职能职责，全力推动相关工作开展。', '为加快落实市第十三次党代会精神，全面建设区域现代消费中心城市，由分管副市长牵头，市商务局多次组织会议进行研究，并赴市四区实地调研，邀请专家进行论证，召开部门、企业、专家、大学教授等不同群体的座谈会、专题会研究调度。在此基础上，经市政府审议通过并印发了《呼和浩特市建设区域现代消费中心三年行动方案（2022-2024年）》，围绕中心建设目标，明确了“七大行动”任务和27条具体措施，制定了《呼和浩特市建设区域现代消费中心任务分工方案》，建立了《2022年打造区域现代消费中心重点任务清单》，并形成工作推进情况月度报告制度。', '为加快打造区域现代消费中心，重点围绕大型商业综合体、知名品牌超市等开展招商引资工作。在推动引进王府井奥莱如意小镇、地铁网红街等商业项目的基础上，进一步加大招商力度。一是主动“走出去”开展招商推介，今年以来先后赴上海、北京等地与Costco、盒马鲜生、星月环球港等知名企业进行考察学习和项目对接。二是积极“邀进来”考察选址，先后邀请fudi仓储超市、麦德龙、中粮大悦城、奥特莱斯IDG等国内知名商业企业来我市考察对接和项目选址，目前正在进一步洽谈中。三是加大对永辉、正大新零售等招商项目的跟踪服务，主动与企业加强联对接，及时协调解决投资企业的诉求和问题。', '一是开展惠民菜店建设。依托综合超市、生鲜连锁企业已经设置并投入运营141个惠民菜店，其中：“社区店”61个，“超市店”40个，市四区“小区店”40个。二是搭建完成“两个平台”。上线运行青城惠民菜店运营监测平台，依托平台每日形成并发布30种惠民蔬菜零售指导价，实现了品种、价格、销量采集上传，进行惠民菜店监测评估。搭建蔬菜产销对接平台，推动合作社、种植基地、一级批发商和零售菜店上线，通过线上对接供需信息，配套第三方物流、线上交易结算，初步实现了直采直供、减少环节、信息对称透明、降低价格的目的。', '为有效推进一刻钟便民生活圈建设，专门成立了由市主要领导任组长的工作领导小组，通过强化规划引领统筹指导、加强市区联动协同推进、因地制宜分类推进等具体措施，加快补齐设施短板、提升服务品质、创新服务能力。按照“缺什么、补什么”要求，计划至2026年建设提升59个规模合理、业态齐全、功能完善、智慧便捷、规范有序、服务优质、商居和谐的一刻钟便民生活圈，实现城市建成区90%以上社区实现便民生活圈服务覆盖。2022年重点在市四区建设提升10个便民生活圈，实现居民日常生活基本消费便利化，丰富文化、休闲、娱乐等业态，满足居民个性品质消费需求，将便民生活圈打造成为服务保障民生、推动便利消费及扩大就业的重要平台和载体。', '为加快推进县域商业体系建设工作，引领县域商业高质量发展，巩固脱贫攻坚成果，助力乡村振兴，市商务局会同市财政局、乡村振兴局组织各旗县申报县域商业示范县，清水河县被确定为县域商业示范县，争取到中央专项资金1178万元。为加快县域商业建设各项任务落实，我局先后多次组织各旗县进行县域商业专题培训并进行了部署，深入清水河县、和林县进行调研，了解工作推进情况、项目实施进度及下一步计划。同时，建立项目跟踪制度对项目实行月调度，推动县域商业各项任务加快实施。', '一是依托“青城草原音乐美食节”，开设“敕勒川味道”品鉴专区、直播专区，进行区域公用品牌集中宣传展示；二是积极与市乡村振兴局对接，建立了“敕勒川味道”企业产品名录，涵盖各类特色农产品200多类；三是设计了“敕勒川味道”标牌，积极对接市农牧局推动在农特产品商店设立专区，配合设立“敕勒川味道”直播基地展示专区2个。', '组织全市10万平米以上大型商场召开绿色商场创建工作推进暨培训会，对相关政策和程序、条件等进行了讲解，并辅导企业通过商务部统一业务平台进行网上申报。目前，已有一家企业完成材料上传工作，还有两家商场正在按要求准备申报材料。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>25</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>关于申请开展水稻旱作全覆膜栽培试点工作经费的请示</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2018-03-14</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/zfxxgknew/fdzdgknr/ghjhnew/201802/t20180201_938546.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['为了进一步加快我市农业供给侧结构性改革，探索优化我市种植结构，保障粮食稳定和安全，2017年我局组织部分旗县区农牧业局的专家赴兴安盟考察学习了水稻旱作种植技术，并结合全市基本情况，', '计划于2018年在土左旗、和林县、清水河县、托县选择地块，开展水稻旱作全覆膜栽培试验，探索水稻旱作在我市推广的经验，计划在土左旗、托县、和林县和清水河县各试验种植200亩，共计800亩，共需试验经费60万元，恳请市政府帮助予以解决，具体情况如下：', '水稻旱作与水稻插秧是两种不同种植模式。水稻旱作是种子不经育苗和插秧，而是在较为平整的旱地条件下进行直播，全生育期实行旱作管理，其它如施肥、除草、防治病虫害等田间作业均在旱作条件下进行，较水稻常规种植省去多个环节，农民很容易掌握种植技术，在北方旱作区域有非常广泛的推广价值。', '1.水稻旱作滴灌栽培技术的核心是节水。水稻常规栽培用水量为每亩1000—1500立方米。而水稻旱作用水量300-500方，与常规水稻栽培相比可节约用水70%以上。整个生育期浇灌水都是根据水稻旱作对水分需求的临界点，采用膜下滴灌水肥一体化技术，水分全部被作物吸收，达到精准用水的效果，同时提高了地温，利于作物生长。我市的土左旗、托县、和林县北部川区水地玉米多数采用大水漫灌，一个生育周期(包括汇地)按至少灌溉三次计算，需水量约800-900方，是水稻旱作膜下滴灌的1.6-3倍。', '2.节省了劳力和节约了成本。采用全覆膜种植方式，覆膜、布滴灌管和播种用机械一次完成，减少了田间作业次数和劳动强度，降低作业成本，省去了平整土地、催芽、育秧、泡田、插秧、除草等环节，每亩至少比水稻种植节约种植成本200元。', '3.水稻旱种，有利于水稻在苗期的扎根和蹲苗，增强抗倒伏能力，病害少，适宜发展有机农业。', '旱作水稻突破传统水稻“水作”方式，采用机械化播种，亩株数可达30万株以上，整个生育期灌水均采用膜下滴灌技术，可实现水稻生产全程机械化。旱作水稻亩投入约600元，亩产1000斤，水稻收购价每斤按1.6元计算，亩纯收入1000元，与传统水稻收益基本持平，经济效益十分可观。', '赴兴安盟扎赉特旗调研水稻旱作种植，通过实地查看田间苗情长势、实地考察科右前旗华诚农机厂生产的水稻旱种全覆膜沟播专用播种机，并与当地农业干部、专业技术人员现场座谈交流等形式进行了调研学习，从我市的自然基本状况看，除土壤的PH值偏碱性，其他情况与兴安盟大致相同，可选择部分土壤PH值低于7.5的区块，引进示范种植水稻旱作技术，尤其是当前玉米种植效益降低，种植结构急需优化调整的时期，选择部分地区试验推广是一条可行的途径。', '本着先简单后复杂，先小面积试验示范，后推广的原则，分别在土左旗、托县、和林县、清水河县选择土壤状况较好（PH值必须低于7.5）、水源有保证、地势基本平坦的地块，选择自愿且有积极性的种植大户或合作组织进行试验示范种植，面积为100-200亩之间。获得成功后，再扩大推广面积。', '如果按照试验第一年亩均单产500公斤的（低水平）测算，全市4个旗县试验800亩，预计可产稻谷40万公斤，按每公斤3元测算，可收入120万元。', '目前各地试验点已选实，备春耕工作已开始，但所需试点补助资金仍未落实，恳请市政府予以安排解决。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>25</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>月至月大事迹</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2022-02-21</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/hhht_zfgb/qsh/2021/202102/202202/t20220221_1182511.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['3.王崇英副县长上午参加升旗仪式;集中观看建党100周年庆祝活动;下午研究信访工作。', '4.白海林副县长上午参加升旗仪式;集中观看建党100周年庆祝活动;下午赴三十一号村协调村集体养殖场用地事宜。', '6.李军副县长上午参加升旗仪式;集中观看建党100周年庆祝活动;下午实地督导环保及河道治理工作。', '7.云娜副县长上午参加升旗仪式;集中观看建党100周年庆祝活动;下午研究推进殡仪馆建设项目。', '4.白海林副县长上午参加重点信访事项化解工作调度会议;下午赴市政府参加农村改厕问题排查整改工作安排部署会。', '6.李军副县长上午参加全市城镇公共收费停车场建设管理领域腐败和作风问题专项整治工作调度会议;下午列席县委常委会。', '3.李军副县长上午参加军区党委班子考核会;下午赴市政府参加非税收入划转工作领导小组专题会议暨优化税收营商环境重点工作推进会。', '6.张如刚副县长上午参加2021年度呼和浩特市“青城好人””最美家庭”揭晓暨“颂党恩、传家风”宣讲活动;下午调研民政工作。', '1.陈胡日查代县长参加全市学习贯彻习近平总书记“七一”重要讲话精神专题轮训班。', '3.李军副县长参加全市学习贯彻习近平总书记“七一”重要讲话精神专题轮训班。', '5.王惠慜副县参加全市学习贯彻习近平总书记“七一”重要讲话精神专题轮训班。', '6.张如刚副县长参加全市学习贯彻习近平总书记“七一”重要讲话精神专题轮训班。', '7.刘建强副县长参加全市学习贯彻习近平总书记“七一”重要讲话精神专题轮训班。', '8.刘在俊上午参加全区2021年下半年新冠病毒疫苗接种工作电视电话会;下午督导新冠肺炎疫苗接种工作。', '1.陈胡日查代县长上午参加老牛湾码头规划设计汇报会;调研沿黄生态保护和高质量发展工作;下午参加全县干部大会。', '3.李军副县长上午参加老牛湾码头规划设计汇报会;调研沿黄生态保护和高质量发展工作;下午参加全县干部大会。', '5.王惠慜副县长上午在市文旅广电局参加会议;下午参加全县干部大会;调研老牛湾景区;参加老牛湾景区重点工作推进会。', '6.张如刚副县长上午参加市人大常委会赴清水河调研2021年上半年经济社会发展、预算执行、统计法贯彻实施及优化营商环境工作;下午到市民政局协调工作。', '2.苏和副县长参加全市学习贯彻习近平总书记在庆祝中国共产党成立100周年大会上的重要讲话精神专题轮训班。', '5.白海林副县长参加全市学习贯彻习近平总书记在庆祝中国共产党成立100周年大会上的重要讲话精神专题轮训班。', '9.刘在俊参加全市学习贯彻习近平总书记在庆祝中国共产党成立100周年大会上的重要讲话精神专题轮训班。', '4.白海林副县长参加全市学习贯彻习近平总书记在庆祝中国共产党成立100周年大会上的重要讲话精神专题轮训班。', '5.王惠慜副县长上午研究老牛湾景区导游词、文化故事编写事宜;下午研究教育工作，之后会同江山多娇规划院一行调研老牛湾景区创5A工作。', '7.刘在俊参加全市学习贯彻习近平总书记在庆祝中国共产党成立100周年大会上的重要讲话精神专题轮训班。', '1.陈胡日查代县长上午陪同自治区政法队伍教育整顿督导组;下午参加学习贯彻习近平总书记在庆祝中国共产党成立100周年大会上的重要讲话精神专题轮训班开班仪式。', '2.苏和副县长上午参加组织生活会;下午参加学习贯彻习近平总书记在庆祝中国共产党成立100周年大会上的重要讲话精神专题轮训班开班仪式。', '3.李军副县长下午参加学习贯彻习近平总书记在庆祝中国共产党成立100周年大会上的重要讲话精神专题轮训班开班仪式。', '4.云静副县长上午参加组织生活会;调研分管部门工作;召开煤矿安全生产会议;下午参加学习贯彻习近平总书记在庆祝中国共产党成立100周年大会上的重要讲话精神专题轮训班开班仪式。', '5.白海林副县长上午召开迎接市巩固脱贫攻坚成果有效衔接乡村振兴督查工作会议;下午参加学习贯彻习近平总书记在庆祝中国共产党成立100周年大会上的重要讲话精神专题轮训班开班仪式。', '6.王惠慜副县长上午安排部署老牛湾景区创5A工作;下午参加学习贯彻习近平总书记在庆祝中国共产党成立100周年大会上的重要讲话精神专题轮训班开班仪式。', '7.张如刚副县长上午参加组织生活会;下午参加学习贯彻习近平总书记在庆祝中国共产党成立100周年大会上的重要讲话精神专题轮训班开班仪式。', '8.刘建强上午调研公安工作;下午参加学习贯彻习近平总书记在庆祝中国共产党成立100周年大会上的重要讲话精神专题轮训班开班仪式。', '9.刘在俊上午督导疫苗接种工作;下午参加学习贯彻习近平总书记在庆祝中国共产党成立100周年大会上的重要讲话精神专题轮训班开班仪式。', '1.陈胡日查代县长上午参加“相聚敕勒川 共谋新发展”中国女企业家走进呼和浩特创新创业发展大会。', '6.张如刚副县长陪同市委督查组实地督查《中国共产党统一战线工作条例》学习宣传贯彻与民族工作开展情况。', '7.刘建强副县长上午参加市公安局周调度会;参加学习习近平总书记“七一”重要讲话精神专题视频会;下午调研公安工作。', '1.陈胡日查代县长参加中共清水河县第十四届委员会第十七次全会;参加中共清水河县第十五次代表大会。', '2.苏和副县长参加中共清水河县第十四届委员会第十七次全会;列席中共清水河县第十五次代表大会。', '3.李军副县长参加中共清水河县第十四届委员会第十七次全会;参加中共清水河县第十五次代表大会。', '4.云静副县长参加中共清水河县第十四届委员会第十七次全会;参加中共清水河县第十五次代表大会。', '5.白海林副县长参加中共清水河县第十四届委员会第十七次全会;参加中共清水河县第十五次代表大会。', '6.王惠慜副县长参加中共清水河县第十四届委员会第十七次全会;列席中共清水河县第十五次代表大会。', '8.刘建强副县长参加中共清水河县第十四届委员会第十七次全会;参加中共清水河县第十五次代表大会。', '1.陈胡日查代县长上午参加市委农村牧区工作领导小组工作会议暨农牧业农村四项重点工作推进会议;下午参加县委常委会暨黄河流域生态保护和高质量发展领导小组第5次会议。', '2.苏和副县长上午督导检查疫情防控工作;下午参加县委常委会暨黄河流域生态保护和高质量发展领导小组第5次会议。', '3.李军副县长上午参加刘市长主持召开的国务院第八次大督查安排部署电视电话会议;主持召开文体广场(原二旅社)房屋征拆迁工作会议;下午参加县委常委会暨黄河流域生态保护和高质量发展领导小组第5次会议。', '4.云静副县长上午调度全县重点项目推进情况;下午参加县委常委会暨黄河流域生态保护和高质量发展领导小组第5次会议。', '5.白海林副县长上午参加市委农村牧区工作领导小组工作会议暨农牧业农村四项重点工作推进会议;下午参加县委常委会暨黄河流域生态保护和高质量发展领导小组第5次会议。', '6.王惠慜副县长上午研究文旅工作;下午参加县委常委会暨黄河流域生态保护和高质量发展领导小组第5次会议。', '7.张如刚副县长上午调研民政重点项目推进情况;下午参加县委常委会暨黄河流域生态保护和高质量发展领导小组第5次会议。', '9.刘在俊上午督导疫苗接种工作;下午参加县委常委会暨黄河流域生态保护和高质量发展领导小组第5次会议。', '1.陈胡日查代县长上午参加市政府疫情防控调度会;参加黄河流域生态保护和高质量发展新闻发布会。', '6.王惠慜副县长上午陪同张书记调研宣传文化工作;下午参加老牛湾景区创5A工作会议。', '8.刘建强副县长上午赴市局参加“厅局共建”三项重大任务工作总结会议;下午研究公安工作。', '6.王惠慜副县长上午赴自治区文旅厅参加区域旅游一体化发展推进会;下午在市相关部门对接工作。', '1.陈胡日查代县长上午调研检查城市精细化管理工作;参加信访联席会议;下午主持召开县政府常务会议。', '4.云静副县长上午参加调研检查城市精细化管理工作;调研规上企业运行情况;下午参加县政府常务会议。', '5.白海林副县长上午参加调研检查城市精细化管理工作;参加信访联席会议;下午参加县政府常务会议。', '6.王惠慜副县长上午参加调研检查城市精细化管理工作;参加信访联席会议;下午参加县政府常务会议;参加全市“双减”工作电视电话会议。', '2.李军副县长上午主持召开自治区审计扶贫工作进点会;下午调度安全生产工作落实情况。', '3.云静副县长上午参加市长办公会议;下午调度黄河流域生态保护高质量发展工作进展情况。', '5.王惠慜副县长上午赴自治区文旅厅参加区域旅游一体化规划编制座谈会;下午赴市相关部门对接工作。', '7.刘建强副县长上午调研公安工作;下午参加市局领导干部政治素养及履职能力专项提升培训班。', '2.李军副县长上午主持召开县一中新建项目用地征拆工作协调会;主持召开征兵工作推进会;下午研究交通公路相关工作。', '4.白海林副县长上午主持召开水务局重点工作调度会;下午调研赛科星牧场工程进展情况。', '5.王惠慜副县长上午参加县一中新建项目用地征拆工作协调会;召开文旅工作会议;下午赴老牛湾景区检查指导工作。', '2.李军副县长上午赴宏河镇调研督导重点工作落实及疫苗接种情况;下午调研城镇建设工作。', '3.云静副县长上午赴窑沟乡实地调研矿区整改落实情况;下午赴县工业园区实地调研企业整改落实情况及企业职工疫苗接种情况;召开分管部门铸牢中华民族共同体意识暨党风廉政建设工作会议。', '6.张如刚副县长下午赴市政府参加自治区殡葬业价格秩序、公益性安葬设施建设经营专项整治暨违建墓地专项整治成果巩固提升行动电视电话会议。', '4.云静副县长上午召开分管部门工作会议;下午参加全市提升政务服务工作推进电视电话会议;参加县委常委会。', '6.王惠慜副县长上午参加县委教育工作领导小组工作会议;下午赴市人大参加文旅产业招商工作领导小组调度会议。', '3.李军副县长上午主持召开喇嘛湾镇运输车辆管理和矿管税费征收工作会议;下午参加全市重点工作月度点评会。', '4.云静副县长上午参加市新能源产业集群招商引资推进会;下午赴自治区能源局对接工作。', '6.王惠慜副县长上午陪同县人大调研食品安全法活动;下午参加全市重点工作月度点评会。', '8.刘建强副县长上午参加清水河县县乡两级人大换届选举工作会议;下午参加全市重点工作月度点评会。', '1.陈胡日查代县长上午参加市委农村牧区工作领导小组会议暨巩固脱贫攻坚成果同乡村振兴有效衔接工作部署推进会议;下午参加县委理论学习中心组(扩大)学习会;同内蒙古医科大学团委书记洽谈工作。', '3.云静副县长上午参加县委理论学习中心组(扩大)学习会;下午陪同市发改委领导调研物流园区。', '5.刘在俊上午参加县委理论学习中心组(扩大)学习会;下午督导疫苗接种工作。', '1.陈胡日查代县长上午参加中共清水河县第十四届委员会第十七次全会;下午参加中共清水河县第十五次代表大会。', '2.苏和副县长参加中共清水河县第十四届委员会第十七次全会;下午列席中共清水河县第十五次代表大会。', '3.李军副县长上午参加中共清水河县第十四届委员会第十七次全会;下午参加中共清水河县第十五次代表大会。', '4.云静副县长上午参加中共清水河县第十四届委员会第十七次全会;下午参加中共清水河县第十五次代表大会。', '5.白海林副县长上午参加中共清水河县第十四届委员会第十七次全会;下午参加中共清水河县第十五次代表大会。', '6.王惠慜副县长上午参加中共清水河县第十四届委员会第十七次全会;下午列席中共清水河县第十五次代表大会。', '8.刘建强副县长上午参加中共清水河县第十四届委员会第十七次全会;下午参加中共清水河县第十五次代表大会。', '9.刘在俊上午参加全国优化生育政策电视电话会议;下午列席中共清水河县第十五次代表大会。', '8.刘建强副县长上午参加中清农业公司葡萄园种植基地建设项目开工;下午研究公安工作。', '4.云静副县长召开分管部门工作会议;下午参加全市提升政务服务工作推进电视电话会议;参加县委常委会。', '1.陈胡日查代县长上午参加市委农村牧区工作领导小组会议暨巩固脱贫攻坚成果同乡村振兴有效衔接工作部署推进会议;参加县委理论学习中心组(扩大)学习会;下午同内蒙古医科大学团委书记洽谈工作。', '1.陈胡日查代县长上午参加创城、国企改革、地标产品生产标准相关工作会议;下午参加喇嘛湾镇、工业园区管网改造工作会议。', '4.白海林副县长上午信访值班;下午参加地标产品标准制定及绿色农产品加工园区推进会议。', '5.王惠慜副县长上午参加呼市文旅产业招商引资工作领导小组调度会;下午赴市相关部门对接工作。', '3.李军副县长上午参加全县扫黑除恶斗争常态化暨重点行业领域整治推进会;下午参加创城工作会议;参加县委常委会议。', '9.刘在俊上午参加全区秋季疫情防控深入开展爱国卫生运动部署电视电话会议;下午督导疫苗接种工作;列席县委常委会议。', '1.陈胡日查代县长上午参加县黄河流域水污染治理项目方案审议会;下午调研文明城市创建工作。', '2.李军副县长上午参加全市国资企业系统以案促改会议;赴市政府参加国道清水河至偏关段公路回购专题会议;下午主持召开2021年全县第二次规委会。', '4.白海林副县长上午参加县黄河流域水污染治理项目方案审议会;下午到包联社区巡查文明城市创建工作。', '4.云静副县长上午陪同市国家统计督察反馈意见整改领导小组办公室督查乡镇统计工作;下午督导文明城市创建工作。', '6.王惠慜副县长上午赴学校检查工作;赴包联片区督导文明城市创建工作;下午列席县人大常委会。', '2.李军副县长上午调研城关镇、韭菜庄受灾情况;参加“1•4”重大中毒窒息事故调查组推进会议;下午参加县2021年第二次规委会;召开会议研究老牛湾镇窖洞租赁有关问题。', '5.王惠慜副县长上午调研教育工作;陪同自治区文旅厅领导调研长城文化公园项目;下午召开《清水河县地质博物馆布展方案》征求意见会。', '7.刘建强副县长上午参加县重点信访工作推进会;下午赴包联片区督查文明城市创建工作。', '1.陈胡日查代县长上午参加市政府常务会议;下午考察学习赛罕区城市精细化管理工作。', '2.李军副县长上午主持召开县突发应急预案修订工作会议;下午与住建、林草部门赴呼市考察园林绿化。', '3.李军副县长上午参加县政府常务会议;主持召开地震防范工作座谈会;下午参加县委常委会议。', '6.王惠慜副县长上午参加县政府常务会议;参加清水河县第38个民族团结进步活动月启动仪式;下午列席县委常委会议。', '3.李军副县长上午实地督导创城工作;赴乡镇督查废弃矿山治理工作;下午参加教师节庆祝大会。', '5.白海林副县长上午参加全市高标准农田审计工作发现问题整改工作会议;下午督导包联社区创城工作。', '8.刘建强副县长上午赴窑沟乡召开命案防控暨易肇事肇祸精神病人防控调研座谈会;下午参加2021警媒协作座谈会。', '1.陈胡日查代县长上午参加市长办公会议;下午参加呼和浩特品牌暨“敕勒川味道”区域公用品牌建设座谈会。', '4.白海林副县长上午督导包联片区创城工作;下午参加全市生态环境重点任务开展情况工作会议。', '5.白海林副县长上午参加自治区巩固脱贫攻坚成果与乡村振兴有效街接调研督导组谈话;下午列席县委常委会议。', '2.苏和副县长赴老牛坡党员干部教育中心出席全区机关党务工作者和社会组织党组织书记培训示范班。', '6.王惠慜副县长上午参加第二十四届全国推广普通话宣传周启动仪式;信访值班;下午召开教育工作会议。', '6.王惠慜副县长上午参加自治区文旅厅召开的中央电视台《直播长城》节目拍摄工作协调会;下午调研教育工作。', '4.云静副县长上午走访包联企业;参加县领导挂职期满考核谈话;下午赴乡镇宣讲习近平总书记“七一”重要讲话精神。', '5.白海林副县长上午召开水务局党组会;参加县领导挂职期满考核谈话;下午参加1-8月份全市农村经济运行情况调度会。', '4.王惠慜副县长上午调研教育工作;陪同张书记调研安全生产、市场供应和疫情防控工作;下午听取老牛湾景区创5A规划设计汇报。', '7.刘在俊上午陪同张书记调研安全生产、市场供应和疫情防控工作;下午督导疫苗接种工作。', '2.李军副县长上午主持召开经济形势分析会;主持召开金融安全稳定风险防控会议;参加渗水地膜旱作技术试点示范现场观摩会;下午参加会议研究2021年度社会主义核心价值观先进典型拟发布人选名单。', '4.王惠慜副县长上午参加“军民共建民族团结少年军校”揭牌暨捐赠图书仪式;下午参加“新时代好少年”发布会。', '1.陈胡日查代县长上午参加自治区生态环境厅黄河流域地表水环境问题专项督察反馈会议;下午陪同市领导赴北京对接招商引资项目。', '2.李军副县长上午出席宏河镇爱心家园为老服务餐厅揭牌仪式;下午参加全区新冠肺炎疫情防控工作电视电话会议。', '3.云静副县长上午参加自治区粮食购销领域腐败问题专项整治工作动员部署会;下午参加全区新冠肺炎疫情防控工作电视电话会议', '4.白海林副县长上午赴内蒙古水利厅参加会议;下午参加全区新冠肺炎疫情防控工作电视电话会议。', '5.王惠慜副县长上午调度文旅、教育工作;下午参加全区新冠肺炎疫情防控工作电视电话会议。', '6.张如刚副县长上午参加宏河镇爱心家园为老服务餐厅揭牌仪式;下午参加全区新冠肺炎疫情防控工作电视电话会议。', '2.李军副县长上午参加县委理论中心组学习暨乡村振兴专题培训班开班仪式;下午参加县委常委会议。', '4.白海林副县长上午参加县委理论中心组学习暨乡村振兴专题培训班开班仪式;下午列席县委常委会议。', '5.王惠慜副县长上午参加县委理论中心组学习暨乡村振兴专题培训班开班仪式;下午列席县委常委会议。', '6.张如刚副县长上午参加县委理论中心组学习暨乡村振兴专题培训班开班仪式;下午列席县委常委会议。', '7.刘建强副县长上午参加县委理论中心组学习暨乡村振兴专题培训班开班仪式;下午列席县委常委会议。', '8.刘在俊上午参加县委理论中心组学习暨乡村振兴专题培训班开班仪式;下午列席县委常委会议。', '2.李军副县长上午主持召开应急分队组建会议;参加全国、自治区秋冬季森林草原防灭火工作电视电话会议;下午督导重点项目推进情况。', '3.白海林副县长上午主持召开宏河镇水源地划定工作协调会;参加全国、自治区秋冬季森林草原防灭火工作电视电话会议;下午参加呼和浩特市“十四五”应对气候变化规划、温室气体排放清单及碳排放达峰方案征求意见会。', '3.白海林副县长上午陪同自治区农业厅督查户厕改造情况;出席宏河镇豆制品技能大赛活动;下午调研赛科星育种场。', '4.王惠慜副县长上午参加内蒙古自治区县域义务教育均衡发展国家督导检查反馈电视电话会议;下午安排部署文旅、教育工作。', '5.张如刚副县长上午研究机关事业单位合同制人员招聘工作;下午研究退役军人再就业事宜。', '3.白海林副县长上午参加市林草系统2021年森林草原防扑火实战演练;下午列席县第十五届人大常委会第二十七次会议。', '4.王惠慜副县长上午参加内蒙古自治区县域义务教育均衡发展国家督导检查反馈视频会议;下午安排部署文旅、教育工作。', '5.张如刚副县长上午陪同县人大常委会执法检查组检查民族工作贯彻落实情况;下午赴市政府参加市退役军人信访维稳会议。', '1.陈胡日查代县长上午参加市长办公会议;下午参加全区安全生产暨安全防范工作电视电话会议;参加县经济运行调度会。', '2.李军副县长上午参加县委常委(扩大)会议;下午参加呼和浩特市粮食购销领域腐败问题专项整治工作调度推进会;参加呼和浩特市“十四五”综合交通规划和综合立体交通网规划专题会议。', '5.张如刚副县长上午参加烈士纪念日公祭活动;参加县委常委(扩大)会议;下午参加全区安全生产暨安全防范工作电视电话会议;参加县经济运行调度会。', '7.刘在俊上午疫情值班;下午参加全区安全生产暨安全防范工作电视电话会议;参加县经济运行调度会。', '1.陈胡日查代县长上午同天赐源煤矿负责人对接我县供暖公司用煤事宜;下午赴市政府对接工作。', '2.李军副县长上午召开中燃事故调查会;召开自治区审计问题整改工作会议;下午研究城镇重点项目建设工作。', '6.刘建强副县长上午赴市局参加自治区公安厅党委政治督察“回头看”情况反馈会议;下午协调公安工作。', '1.陈胡日查代县长上午参加自治区科学技术奖励大会;参加市政府常务会议;下午同煤炭企业对接供暖公司冬季用煤事宜。', '2.李军副县长上午参加国有企业改革工作会议;参加喇嘛湾镇运输车辆粉尘污染治理工作会议;下午参加清水河县道路交通安全专项整治工作会议;召开会议研究政府欠债问题。', '3.白海林副县长上午参加喇嘛湾镇运输车辆粉尘污染治理工作会议;下午召开绿色产品加工园区企业入驻会。', '1.陈胡日查代县长调研天赐源煤矿、宏河物流园、伊利赛科星核心育种场等重点项目运行、建设情况。', '3.白海林副县长陪同陈县长调研天赐源煤矿、宏河物流园、伊利赛科星核心育种场等重点项目运行、建设情况。', '7.刘在俊上午赴市政府参加全员新型冠状病毒核酸检测实施方案调度会;下午督导疫苗接种工作。', '2.李军副县长赴文体中心现场推进征拆工作;参加市委组织部组织的“树立正确政绩观专题培训班”。', '3.白海林副县长上午赴宏河物流园调研;下午参加市级破坏草原林地重大典型违法案件查处情况相关工作调度会。', '5.张如刚副县长上午召开乡镇为老服务餐厅推进会;下午赴乡镇调研为老服务餐厅营业情况。', '5.张如刚副县长上午列席县委常委会议;下午赴市民委参加蒙汉双语管理办法意见征求会;赴市政府参加退役军人事务权益维护工作会议。', '1.陈胡日查代县长上午参加北堡乡阳湾子村为老餐厅启动仪式;下午参加全县文明城市创建推进会。', '3.白海林副县长上午召开全县户厕改造调度会;陪同自治区环保厅调研;下午陪同自治区环保厅调研。', '5.张如刚副县长上午参加五良太乡菠菜营村养老服务中心揭牌仪式;下午陪同市红十字会领导调研。', '2.李军副县长上午参加市委组织部组织的“树立正确政绩观专题培训班”;下午参加县政府党组会。', '3.白海林副县长上午参加全县2021年度巩固脱贫成果和防返贫监测动态管理工作培训班开班仪式;下午参加全市生态环境重点工作第6次调度会议暨黄河流域地表水环境问题专项督察反馈意见整改推进会议。', '4.王惠慜副县长上午调研黄河大峡谷旅游区;下午参加县政府党组会议;参加明长城国家文化公园规划设计汇报会。', '3.白海林副县长上午调研绿色农产品加工园区;下午主持召开呼和浩特地方特色经济林果树保险课题调研座谈会;参加县政府常务会议。', '2.李军副县长上午主持召开“蜘蛛网”整治工作调度会;下午参加全县粮食购销领域腐败问题专项整治工作动员部署会议。', '7.刘在俊上午主持召开平安社区文明城市创建工作推进会;主持召开健康清水河行动推进会;下午督导疫情防控和疫苗接种工作。', '1.陈胡日查代县长上午参加国家第一批大型风电光伏基地内蒙古托克托200万千瓦外送项目动员大会;下午参加市政府疫情防控调度会;赴自治区老促会对接工作。', '3.白海林副县长上午参加全市2021京蒙消费帮扶北京集采推介会及我市农畜产品进京对接展销推介会;下午督查指导包联片区创城工作。', '4.王惠慜副县长上午参加国能新朔铁路大准分公司捐资助学仪式;下午督查指导包联片区创城工作。', '5.张如刚副县长上午赴窑沟乡参加养老服务中心揭牌仪式;下午督查指导包联片区创城工作。', '2.李军副县长上午参加县委网络安全和信息化委员会第三次会议;参加县委理论学习中心组(扩大)学习会;下午参加县委常委会议。', '3.白海林副县长上午陪同自治区老促会领导调研;下午参加自治区水利厅召开的“十四五”农村牧区供水保障工作推进电视电话会议;列席县委常委会议。', '4.王惠慜副县长上午参加县委网络安全和信息化委员会第三次会议;参加县委理论学习中心组(扩大)学习会;下午列席县委常委会议。', '5.张如刚副县长上午参加县委理论学习中心组(扩大)学习会;下午列席县委常委会议。', '7.刘在俊上午参加县委理论学习中心组(扩大)学习会;下午列席县委常委会议。', '1.陈胡日查代县长上午参加全国新冠肺炎疫情防控工作电视电话会议;下午督导文明城市创建工作。', '3.白海林副县长上午参加全市创建国家生态文明建设示范市推进大会;下午主持召开农业企业座谈会;主持召开乡村振兴后评估部署会。', '4.王惠慜副县长上午参加全国新冠肺炎疫情防控工作电视电话会议;参加校园安全工作电视电话会议;下午督导检查包联片区创城工作。', '7.刘在俊上午参加全国新冠肺炎疫情防控工作电视电话会议;下午督导疫情防控和疫苗接种工作;督导检查包联片区创城工作。', '2.李军副县长上午赴市政府参加会议研究疫情防控高速公路查验点事宜;下午督导疫情防控和核酸检测工作。', '2.李军副县长上午召开安全生产工作会议;参加县委常委会议;下午督导疫情防控、核酸检测工作。', '6.刘建强副县长上午参加呼和浩特市疫情防控工作指挥部社会管控组工作视频调度会;下午督导疫情防控工作。', '1.陈胡日查代县长上午参加旭阳集团呼和浩特园区“六五”发展规划、清水河县化工园区规划设计汇报会;听取全县第二轮核酸检查工作应急预案和乡镇现场指挥方案制定情况;下午督导疫情防控工作。', '2.李军副县长上午参加旭阳集团呼和浩特园区“六五”发展规划、清水河县化工园区规划设计汇报会;下午督导疫情防控工作。', '5.张如刚副县长上午听取全县第二轮核酸检查工作应急预案和乡镇现场指挥方案制定情况;下午督导疫情防控工作。', '6.刘建强副县长上午参加全县政法队伍教育整顿涉法涉诉信访案件集中评查化解专项行动会议;听取全县第二轮核酸检查工作应急预案和乡镇现场指挥方案制定情况;下午督导疫情防控工作。', '7.刘在俊上午听取全县第二轮核酸检查工作应急预案和乡镇现场指挥方案制定情况;下午督导疫情防控工作。', '1.陈胡日查代县长上午督导北堡乡、韭菜庄乡疫情防控工作;下午参加全县第二轮核酸检测模拟演练。', '2.李军副县长上午召开昆新社区检测点第二轮核酸检测工作调度会;下午参加全县第二轮核酸检测模拟演练。', '3.白海林副县长上午召开文博广场检测点第二轮核酸检测工作调度会;下午参加全县第二轮核酸检测模拟演练。', '4.王惠慜副县长上午检查学校第二轮核酸检测点准备情况;下午参加全县第二轮核酸检测模拟演练。', '2.李军副县长上午督导检查昆新社区核酸检测工作;赴市政府参加做好全市农牧民冬季取暖用煤保障工作会议;下午督导检查昆新社区核酸检测工作。', '2.李军副县长上午参加全县安全生产暨今冬明春森林草原防灭火工作会议;主持召开工程建设领域改革和优化营商环境工作部署会;下午参加全市农牧民冬季取暖用煤保障工作会议。', '3.白海林副县长上午赴市政府参加生态环境第7次周调度暨黄河流域地表水环境问题督查反馈意见整改推进会;参加创建国家生态文明建设示范市工作部署会;下午督导疫情防控工作。', '1.陈胡日查代县长上午参加市委民族工作会议暨创建全国民族团结进步示范市推进会;参加县委常委会议;下午参加县委常委会议。', '2.李军副县长上午参加市委民族工作会议暨创建全国民族团结进步示范市推进会;参加县委常委会议;下午参加县委常委会议。', '4.王惠慜副县长上午召开餐饮服务行业疫情防控工作会议;列席县委常委会议;下午列席县委常委会议。', '5.张如刚副县长上午参加市委民族工作会议暨创建全国民族团结进步示范市推进会;列席县委常委会议;下午列席县委常委会议。', '1.陈胡日查代县长上午参加新能源招商引资项目洽谈会;下午督导冬季森林草原防灭火工作。', '3.白海林副县长上午参加县乡村振兴工作领导小组第六次会议暨防返贫动态管理与衔接资金项目政策解读会议;参加全国冬春农田水利暨高标准农田建设电视电话会议;下午督导冬季森林草原防灭火工作。', '5.张如刚副县长上午研究根治农民工工资情况及社保缴纳任务完成情况;下午督导疫情防控工作。', '2.李军副县长上午主持召开分管领域重点工作调度会议;参加县委常委会议;下午督导冬季森林草原防灭火工作。', '3.白海林副县长上午赴市生态环境局对接工作;下午参加《呼和浩特市关于构建现代环境治理体系实施方案(代拟讨论稿)》、《呼和浩特市深入推进解决突出生态环境问题整改方案(代拟讨论稿)》专题讨论会。', '2.李军副县长上午赴市政府参加交通保障组疫情防控调度会;参加2022年全市工业经济调度会;下午赴宏河镇与选民见面。', '1.陈胡日查代县长上午参加圣泉社区投票;参加老牛湾黄河大峡谷旅游区创5A景观质量评审准备工作汇报会;下午研究全县经济运行工作。', '3.白海林副县长上午参加圣泉社区投票;下午协调喇嘛湾黄河水流域水污染治理项目申报。', '4.王惠慜副县长上午调研教育工作;参加圣泉社区投票;参加老牛湾黄河大峡谷旅游区创5A景观质量评审准备工作汇报会;下午调度文旅、教育工作。', '1.陈胡日查代县长上午研究文体综合服务中心建设工作;下午赴市政府参加老牛湾景区创5A景观质量评价准备工作汇报会。', '2.李军副县长上午主持召开政务服务暨工改工作推进会议;下午研究黄河流域生态保护和高质量发展推进工作。', '3.白海林副县长上午赴市林草局对接工作;下午参加全市2022年生态环境领域重点项目谋划情况调度会。', '4.王惠慜副县长上午研究文旅工作;下午赴市政府参加老牛湾景区创5A景观质量评价准备工作汇报会。', '1.陈胡日查代县长上午参加市政府第26次常务会议;下午参加全区一般公共预算农林水支出工作推进电视电话会议。', '3.白海林副县长上午参加乡村振兴工作领导小组2021年第7次会议暨巩固脱贫攻坚成果后评估工作部署会议;下午参加全区农林牧水支出推进电视电话会议。', '1.陈胡日查代县长上午赴市政府协调工作;下午参加县委常委会、中心组学习会。', '2.李军副县长上午主持召开自然资源执法监察业务综合培训暨近期重点工作推进会议;下午参加县委常委会、中心组学习会。', '3.白海林副县长上午调度巩固脱贫攻坚后评估工作;下午列席县委常委会、参加县委中心组学习会。', '4.王惠慜副县长上午参加文旅招商工作组调度会;下午列席县委常委会、参加县委中心组学习会。', '5.张如刚副县长上午赴市民政局对接工作;下午列席县委常委会、参加县委中心组学习会。', '6.刘建强副县长上午参加市公安局周调度会;下午列席县委常委会、参加县委中心组学习会。', '7.刘在俊上午督导疫情防控和疫苗加强针接种工作;下午列席县委常委会、参加县委中心组学习会。', '1.陈胡日查代县长上午参加创建“一县一地一区”工作会议;参加县民族工作会议暨创建全区民族团结进步示范县推进会;下午主持召开全县招商引资工作调度会;调研督导县文体综合服务中心建设工作。', '2.李军副县长上午赴市政府参加近期重点工作调度会议;下午参加市停车场专项整治第四次领导小组工作会议。', '3.白海林副县长上午参加创建“一县一地一区”工作会议;参加县民族工作会议暨创建全区民族团结进步示范县推进会;下午参加全县招商引资工作调度会。', '4.王惠慜副县长上午参加创建“一县一地一区”工作会议;参加县民族工作会议暨创建全区民族团结进步示范县推进会;下午参加全县招商引资工作调度会。', '5.张如刚副县长上午赴市人社局协调保障农民工工资工作;下午赴市政府参加创建全国民族团结示范市领导小组会议。', '7.刘在俊上午参加创建“一县一地一区”工作会议;参加县民族工作会议暨创建全区民族团结进步示范县推进会;下午实地查看3-11岁年龄段疫苗接种情况。', '1.陈胡日查代县长上午参加自治区根治欠薪“百日攻坚”行动部署电视电话会议;参加县农民工治欠保支工作调度会;下午参加全市重点工作月度点评会。', '2.李军副县长上午督导生态环保重点项目推进情况;下午参加国防动员工作会议;参加市纪委专项督导组督导我县停车场整治工作。', '3.白海林副县长上午召开农业农村重点工作专项督查见面会;下午参加市纪委督导我县破坏草原林地违规违法专项整治行动工作会议;参加全市重点工作月度点评会。', '5.张如刚副县长上午参加自治区根治欠薪“百日攻坚”行动部署电视电话会议;参加县农民工治欠保支工作调度会;下午参加全市重点工作月度点评会。', '7.刘在俊上午参加市委组织部谈话;下午参加全市重点工作月度点评会;督导疫苗接种工作。', '1.陈胡日查代县长上午研究全县经济运行工作;下午参加全市经济运行调度会暨今冬明春招商引资攻坚动员部署会议。', '2.李军副县长上午参加全市农牧民冬季取暖用煤工作推进会议;下午督导查验点疫情防控工作。', '1.陈胡日查代县长上午参加中央宣讲团党的十九届六中全会精神宣讲视频会;下午参加县委理论中心组学习会;参加县委常委会议。', '2.李军副县长上午主持召开收费停车场专项整治工作日调度会;参加中央宣讲团党的十九届六中全会精神宣讲视频会;下午参加县委理论中心组学习会;参加县委常委会议。', '3.焦乾副县长上午参加中央宣讲团党的十九届六中全会精神宣讲视频会;下午参加县委理论中心组学习会;参加县委常委会议。', '4.白海林副县长上午参加中央宣讲团党的十九届六中全会精神宣讲视频会;下午参加县委理论中心组学习会;列席县委常委会议。', '5.王惠慜副县长上午参加中央宣讲团党的十九届六中全会精神宣讲视频会;下午参加县委理论中心组学习会;列席县委常委会议。', '6.张如刚副县长上午参加中央宣讲团党的十九届六中全会精神宣讲视频会;下午参加县委理论中心组学习会;列席县委常委会议。', '7.刘建强副县长上午参加市公安局周调度会;下午参加县委理论中心组学习会;列席县委常委会议。', '8.张晓宁副县长上午参加中央宣讲团党的十九届六中全会精神宣讲视频会;下午参加县委理论中心组学习会;列席县委常委会议。', '9.刘在俊上午参加中央宣讲团党的十九届六中全会精神宣讲视频会;下午参加县委理论中心组学习会;列席县委常委会议。', '1.陈胡日查代县长上午调度涉法涉诉信访包联案件化解情况;与大唐清水河新能源有限公司座谈;下午信访局值班。', '3.焦乾副县长上午调度全县经济指标完成情况;陪同陈县长与大唐清水河新能源有限公司座谈;下午调度分管领域重点工作。', '1.陈胡日查代县长上午参加全区开发区以案促改动员部署电视电话会议;下午研究水务和依法治县工作。', '2.李军副县长上午主持召开停车场专项整治调度工作会议;赴市政府参加研究国道209清水河偏关BOT公路经营权回购资产评估有关事宜专题会议;下午督导疫情防控公路查验点工作情况。', '3.焦乾副县长上午参加全区开发区以案促改动员部署电视电话会议;下午调度2022年重点项目谋划情况。', '4.白海林副县长上午实地调研华清兄弟农牧业企业;下午召开全县农口重点项目推进会议。', '6.张如刚副县长上午参加全区开发区以案促改动员部署电视电话会议;下午研究民政救助工作。', '8.张晓宁副县长上午参加全区开发区以案促改动员部署电视电话会议;下午研究水务和双随机一公开工作。', '1.陈胡日查代县长上午参加市委常委会议;下午研究依法治县、巩固脱贫攻坚后评估迎检相关工作。', '2.李军副县长上午陪同自治区乡村振兴局督导调研城关镇八龙湾乡村振兴工作;下午督导停车场专项整治工作会议。', '3.焦乾副县长上午研究编报2022年重大项目计划和刘胡梁煤矿征地工作;下午调研分管领域重点工作;调度新能源项目推进情况。', '9.刘在俊上午参加自治区疫情常态化防控工作督导检查汇报会;下午督导疫苗接种和疫情防控工作。', '1.陈胡日查代县长上午参加市依法治市办法制建设第二督查组实地督查专题汇报会;下午参加县乡村振兴工作领导小组2021年第8次会议暨巩固脱贫攻坚成果后评估工作推进会。', '2.李军副县长上午参加市依法治市办法制建设第二督查组实地督查专题汇报会;专题研究内蒙古哈木格文化传媒有限公司信访事宜;下午赴市政府参加会议研究呼和浩特市《高风险地方法人银行金融机构风险处置方案》。', '4.白海林副县长上午安排部署巩固脱贫攻坚成果后评估工作;下午参加县乡村振兴工作领导小组2021年第8次会议暨巩固脱贫攻坚成果后评估工作推进会。', '5.王惠慜副县长上午赴和林格尔县参加长城文化进校园活动;下午赴市相关部门对接工作。', '7.刘建强副县长上午参加市依法治市办法制建设第二督查组实地督查专题汇报会;下午研究信访工作。', '3.焦乾副县长上午参加市优化营商环境考核组考核我县工作;下午研究2021年经济运行情况。', '4.白海林副县长上午参加全县疫情防控调度会;下午调度巩固脱贫攻坚后评估工作推进情况。', '2.李军副县长上午实地查看黄河段防凌情况;下午研究2022年城建重点项目谋划情况。', '3.焦乾副县长上午赴市政府参加研究《呼和浩特市开发区以案促改工作方案》;下午参加全市开发区电力供应及电力实施需求工作会议。', '1.陈胡日查代县长上午参加爱心企业捐赠仪式;下午参加全市干部大会;参加市委常委会议。', '3.焦乾副县长上午参加县人大调研活动;陪同自治区发改委实地督导;陪同呼和浩特市优化营商环境督导组督导我县工作;下午参加全市干部大会。', '8.张晓宁副县长上午赴市政府参加黄河流域生态环境警示片问题整改情况调度会;下午赴自治区生态环境厅协调工作。', '1.陈胡日查代县长上午参加全市行政机关负责人出庭应诉工作约谈会;下午参加全市根治欠薪工作推进会。', '2.李军副县长上午主持召开疫情防控工作组部署会议;参加书记办公会议;参加全国城镇燃气安全排查整治动员部署电视电话会议;下午参加县委常委会议。', '4.白海林副县长上午参加全市行政机关负责人出庭应诉工作约谈会;下午列席县委常委会议。', '6.张如刚副县长上午参加全国城镇燃气安全排查整治动员部署电视电话会议;下午参加全市根治欠薪工作推进会。', '7.刘建强副县长上午参加全市行政机关负责人出庭应诉工作约谈会;下午列席县委常委会议。', '8.张晓宁副县长上午召开落实中央环保督察办检查发现问题整改工作调度会议;参加全国城镇燃气安全排查整治动员部署电视电话会议;下午列席县委常委会议。', '2.李军副县长上午主持召开疫情防控邮件快递问题整改工作会议;主持召开城镇重点项目部署会议;下午走访慰问包联贫困户。', '4.白海林副县长上午陪同张书记调研巩固脱贫攻坚成果后评估工作开展情况;下午陪同张书记调研黄河防凌汛工作和喇嘛湾镇后评估准备工作。', '1.陈胡日查代县长上午外地出差返程;下午参加《清水河县地质博物馆布展大纲》汇报会。', '2.李军副县长上午召开会议研究县政府工作报告;参加国企改革工作汇报会;下午参加2022年产业项目谋划工作会议。', '4.白海林副县长上午赴呼和浩特市融媒体中心接受采访;下午赴韭菜庄乡调研巩固脱贫攻坚成果后评估工作推进情况及走访慰问脱贫户。', '5.王惠慜副县长上午研究教育、文旅工作;下午参加《清水河县地质博物馆布展大纲》汇报会。', '1.陈胡日查代县长上午主持召开县政府党组2021年第21次会议;参加全国新冠肺炎疫情防控指挥部工作电视电话会议;下午信访值班。', '2.李军副县长上午参加县政府党组2021年第21次会议;参加全国新冠肺炎疫情防控指挥部工作电视电话会议;主持召开中心区块拆迁会议;下午列席人大常委会会议。', '3.焦乾副县长上午参加县政府党组2021年第21次会议;参加全国新冠肺炎疫情防控指挥部工作电视电话会议，下午研究分管领域重点项目、重点工作。', '4.白海林副县长上午参加县政府党组2021年第21次会议;参加全国新冠肺炎疫情防控指挥部工作电视电话会议;下午安排部署巩固脱贫攻坚成果后评估工作。', '5.王惠慜副县长上午列席县政府党组2021年第21次会议;研究教育工作;下午赴市政府参加市教育领导小组第七次(扩大)会议。', '6.张如刚副县长上午赴市政府参加市教育领导小组第七次(扩大)会议;参加县政府党组2021年第21次会议;参加全国新冠肺炎疫情防控指挥部工作电视电话会议;下午研究民委工作。', '7.刘建强副县长上午参加县政府党组2021年第21次会议;参加全国新冠肺炎疫情防控指挥部工作电视电话会议;下午研究信访工作。', '1.陈胡日查代县长上午参加书记专题会议、县委常委会议;陪同市领导调研清水河县;参加市领导党的十九届六中全会和自治区第十一次党代会精神专题宣讲会;下午赴五良太乡调研脱贫攻坚后评估工作、看望贫困户、宣讲党的十九届六中全会和自治区第十一次党代会精神。', '2.李军副县长上午参加县委常委会议;下午看望贫困户、宣讲党的十九届六中全会和自治区第十一次党代会精神。', '3.焦乾副县长上午参加书记专题会议、县委常委会议;陪同市领导调研清水河县;下午召开接诉即办调度会议。', '6.张如刚副县长上午列席县委常委会议;陪同市领导调研清水河县;下午研究疫苗接种工作。', '1.陈胡日查代县长上午调研全县安全生产工作;参加自治区换届指导组座谈会;下午参加全市校园安全工作电视电话会。', '2.李军副县长上午召开会议研究矿产资源税费、招商引资工作;下午召开会议研究宏河园区土地上平台事宜;实地调研城镇建设工作。', '3.焦乾副县长上午参加自治区园区“三化一体”高质量发展暨以案促改专题电视电话会议;下午慰问贫困户。', '4.白海林副县长上午召开专题会议研究浑河湿地公园项目信访事项化解工作;下午督导巩固脱贫攻坚成果后评估工作。', '6.张如刚副县长上午研究退役军人事务、医保工作;出席爱心捐赠仪式;下午研究疫苗接种工作。', '1.陈胡日查代县长上午参加全县领导干部警示教育大会;下午参加呼和浩特市开发区以案促改工作动员部署大会。', '3.焦乾副县长上午参加全县领导干部警示教育大会;下午参加呼和浩特市开发区以案促改工作动员部署大会。', '4.白海林副县长上午参加全县领导干部警示教育大会;下午研究浑河湿地公园项目信访事项化解工作。', '.陈胡日查代县长上午赴五良太乡、宏河镇调研脱贫攻坚后评估工作、看望包联贫困户，宣讲党的十九届六中全会和自治区第十一次党代会精神;下午主持召开县政府常务会议。', '.李军副县长上午宣讲党的十九届六中全会精神和自治区第十一次党代会精神;下午参加县政府常务会议。', '4.白海林副县长上午赴乡镇督查巩固脱贫攻坚成果后评估工作;下午参加县政府常务会议;主持召开分管领域重点项目建', '5.王惠慜副县长上午调研教育工作;研究信访化解和圣域公司经济补偿事宜;下午参加县政府常务会议。', '6.张如刚副县长上午赴市政府呼和浩特市迎接健康内蒙古行动专项督查工作部署会;下午参加县政府常务会议。', '8.张晓宁副县长上午宣讲党的十九届六中全会和自治区第十一次党代会精神;下午参加县政府常务会议。', '1.陈胡日查代县长上午参加优然牧业奶山羊养殖基地项目洽谈会;参加新能源项目规划汇报会;下午参加2021', '2.李军副县长上午宣讲党的十九届六中全会精神和自治区第十一次党代会精神;参加优然牧业奶山羊养殖基 地项目洽谈会;下午参加2021年非公经济和社会组织公益捐赠答谢仪式。', '3.焦乾副县长上午参加分布式光伏项目推进协调会;参加新能源项目规划汇报会;下午参加全县以案促改工作 会议。', '5.王惠慜副县长上午陪同企业赴老牛湾景区调研水滑道项目;下午参加2021年非公经济和社会组织公益捐赠 答谢仪式。', '.张如刚副县长上午参加县第三届红十字会会员代表大会;下午参加2021年非公经济和社会组织公益捐赠答 谢仪式;约见信访代表。', '8.张晓宁副县长上午宣讲党的十九届六中全会和自治区第十一次党代会精神;下午慰问贫困户。', '1.陈胡日查代县长上午研究引进伊利集团优然牧业奶山羊基地工作;下午研究政府工作报告相关工作。', '2.李军副县长上午赴宏河镇宣讲党的十九届六中全会精神和自治区第十一次党代会精神，督导重点企业安 全生产工作;下午赴喇嘛湾镇检查黄河流凌工作。', '3.焦乾副县长上午研究以案促改工作;下午赴窑沟乡宣讲党的十九届六中全会精神和自治区第十一次党代会 精神。', '5.王惠慜副县长上午召开老牛湾黄河大峡谷旅游区创建国家5A级景区工作调度会;下午调度教育重点工作。', '6.张如刚副县长上午约见上访人员;下午赴杨家窑村委指导党建工作，宣讲党的十九届六中全会精神和自治 区第十一次党代会精神。', '8.张晓宁副县长上午陪同自治区水利厅领导调研黄河防凌工作;下午陪同自治区水利厅领导调研黄河防凌工 作。', '1.陈胡日查代县长上午研究国土空间规划、黄河防凌工作;下午研究经济运行和2022年重点项目谋划工作。', '2.李军副县长上午信访值班;召开清水河县喇嘛湾镇总体规划(2012-2030)局部修改必要性专题论证会暨喇 嘛湾镇总体规划(2012-2030)局部修改方案审查会;下午研究政府工作报告修改工作。', '4.白海林副县长上午参加自治区老促会为清水河县老牛坡党性教育培训基地挂牌仪式;下午督导调度巩固脱 贫攻坚成果后评估互查工作。', '6.张如刚副县长上午赴市退役军人事务局对接工作;下午赴市政府参加迎接自治区健康内蒙古行动专项督查 工作汇报会。', '8.张晓宁副县长上午参加全市河长制工作业务培训;下午召开“一县一地”创建工作推进会;听取分管部门2022年重点工作谋划情况。', '1.陈胡日查代县长上午主持召开全县干部大会、县委常委会议;下午参加市政府第29次常务会议。', '2.李军副县长上午召开会议研究喇嘛湾镇移民小区相关事宜;参加全县干部大会、县委常委会议;下午听取分管部门2022年重点工作谋划情况。', '4.白海林副县长上午研究政府工作报告修改完善工作;参加全县干部大会;下午督导调度巩固脱贫攻坚成果后评估互查工作。', '6.张如刚副县长上午研究政府工作报告修改完善工作;参加全县干部大会;下午研究疫苗接种工作。', '8.张晓宁副县长上午研究政府工作报告修改完善工作;陪同环保部调研;下午召开2021年全县河长制工作考核会议。', '1.陈胡日查代县长上午主持召开县乡村振兴工作领导小组第十次会议暨后评估工作推进会;会见伊利集团投资管理部投资总监阮明峰洽谈奶山羊养殖基地事宜;下午参加全区法治政府建设视频会议暨自治区依法行政工作领导小组全体会议。', '2.李军副县长上午赴市协调国土相关工作;下午参加全区法治政府建设视频会议暨自治区依法行政工作领导小组全体会议。', '3.焦乾副县长上午赴市工信局对接工作;下午参加全区法治政府建设视频会议暨自治区依法行政工作领导小组全体会议。', '4.白海林副县长上午参加县乡村振兴工作领导小组第十次会议暨后评估工作推进会;下午参加全区法治政府建设视频会议暨自治区依法行政工作领导小组全体会议。', '7.刘建强副县长上午参加市公安局周调度会;下午参加全区法治政府建设视频会议暨自治区依法行政工作领导小组全体会议。', '8.张晓宁副县长上午研究近期环保工作;下午参加全区法治政府建设视频会议暨自治区依法行政工作领导小组全体会议。', '3.焦乾副县长上午赴呼市参加全区推进清欠工作电视电话会议;下午参加全县以案促改工作调度会。', '4.白海林副县长上午列席县委常委会议;下午赴五良太乡督导巩固脱贫攻坚成果后评估工作。', '5.王惠慜副县长上午列席县委常委会议;下午赴老牛湾镇督导巩固脱贫攻坚成果后评估工作。', '6.张如刚副县长上午列席县委常委会议;下午赴城关镇督导巩固脱贫攻坚成果后评估工作。', '7.刘建强副县长上午列席县委常委会议;下午赴窑沟乡督导巩固脱贫攻坚成果后评估工作。', '8.张晓宁副县长上午列席县委常委会议;参加2021年河长制年终工作考核;下午赴宏河镇督导巩固脱贫攻坚成果后评估工作。', '1.陈胡日查代县长上午研究脱贫攻坚后评估工作;下午参加全区新冠肺炎疫情常态化防控和应急处置视频培训会。', '2.李军副县长上午参加清水河县第十六届人大代表初任培训;下午参加全区新冠肺炎疫情常态化防控和应急处置视频培训会。', '3.焦乾副县长上午参加以案促改工作会议;下午参加全区新冠肺炎疫情常态化防控和应急处置视频培训会;参加电力相关会议。', '4.白海林副县长上午主持召开林长制督查迎检、林区草原输配电设施森林草原火灾隐患专项排查治理、森林生态效益补偿资金兑现工作部署会议;下午赴五良太乡督导后评估工作。', '5.王惠慜副县长上午赴市文旅广电局、教育局对接工作;下午参加党外人士调研报告汇报会。', '6.张如刚副县长上午参加国家卫生健康委基层司召开的电视电话会议;下午参加国家卫生健康委体改司召开的电视电话会议。', '7.刘建强副县长上午研究公安工作;下午参加全区新冠肺炎疫情常态化防控和应急处置视频培训会。', '8.张晓宁副县长上午安排部署环保工作;陪同市政府督查指导居民饮水工程;下午陪同黄委规划院实地考察黄河流域高质量发展规划。', '1.陈胡日查代县长上午参加全区加快政府债务化解和政府债券指出工作视频调度会；召开全县干部大会；下午参加县委常委会。', '2.李军副县长上午参加全区岁末年初安全生产暨城镇燃气安全排查整治视频会议;参加全区加快政府债务化 解和政府债券支出工作视频调度会;参加全县干部大会;下午参加县委常委会。', '6.张如刚副县长上午到杨家川巡河;到城关镇督导巩固脱贫攻坚成果后评估工作;下午列席县委常委会。', '8.张晓宁副县长上午研究分管部门工作;参加全县干部大会;下午列席县委常委会;参加县黄河流域生态保护 设计汇报会。', '1.陈胡日查代县长上午主持召开县委中心组学习会;下午参加呼和浩特市创建国家生态文明建设示范市专题 辅导视频会;参加县委议军会、常委会。', '2.李军副县长上午参加县委中心组学习会;研究拆迁工作;下午参加呼和浩特市创建国家生态文明建设示范市 专题辅导视频会;参加县委议军会、常委会。', '3.焦乾副县长上午参加县委中心组学习会，之后对接企业;下午参加呼和浩特市创建国家生态文明建设示范 市专题辅导视频会;参加县委常委会。', '4.白海林副县长参加内蒙古农业大学“党建引领”科技服务走进清水河助力乡村振兴活动。', '6.张如刚副县长上午参加自治区计生协改革调研督导会;下午主持召开疫情防控应急演练部署会;研究农民工 工资事宜;列席县委常委会议。', '7.刘建强副县长上午参加县委中心组学习会;下午参加呼和浩特市创建国家生态文明建设示范市专题辅导视 频会;列席县委常委会议。', '8.张晓宁副县长上午参加《呼和浩特市节水条例》意见征求会;下午参加呼和浩特市创建国家生态文明建设 示范市专题辅导视频会;列席县委常委会议。', '2.李军副县长上午参加全市城镇公共停车场建设管理领域腐败和作风问题专项整治评估验收工作会议;下午 研究“一行一策”风险处置方案。', '3.焦乾副县长上午参加市工信局安全生产培训班开班;调度工业重点项目;研究以案促改督导工作;下午陪同 自治区以案促改督导组调研。', '8.张晓宁副县长上午参加2022年北京冬奥会、冬残奥会空气质量保障工作部署会议暨生态环境重点工作第 11次调度会议;下午研究环保等相关工作。', '2.李军副县长上午研究人防问题诉讼事宜;研究金融风险方案修改事宜;研究扶贫资金使用相关事宜;下午参 加全市整顿作风优化营商环境警示教育大会。', '3.焦乾副县长上午研究签约项目相关事宜;下午参加全市整顿作风优化营商环境警示教育大会。', '4.白海林副县长上午研究扶贫资金使用相关事宜;下午参加全市整顿作风优化营商环境警示教育大会。', '5.王惠慜副县长上午研究教育、文旅工作;下午参加全市整顿作风优化营商环境警示教育大会。', '6.张如刚副县长上午赴市政府参加全市疫情防控部署会;下午参加全市整顿作风优化营商环境警示教育大会。', '7.刘建强副县长上午信访值班;下午参加全区贯彻落实《内蒙古自治区公安机关警务辅助人员条例》暨辅警 队伍建设工作会议。', '6.张如刚副县长上午列席县委常委会;下午赴市政府参加“两节”期间疫情防控工作部署会。', '1.陈胡日查代县长上午参加全市经济运行调度会暨全市重点工作月度点评会;下午参加市政府常务会议。', '2.李军副县长上午参加全市经济运行调度会暨全市重点工作月度点评会;下午督导拆迁工作。', '3.焦乾副县长上午参加全市经济运行调度会暨全市重点工作月度点评会;下午调度重点项目。', '4.白海林副县长上午参加全市经济运行调度会暨全市重点工作月度点评会;下午督导巩固脱贫攻坚成果后评 估工作。', '5.王惠慜副县长上午赴学校检查指导工作;参加全市经济运行调度会暨全市重点工作月度点评会;下午召开教 育工作总结大会。', '6.张如刚副县长上午出席县妇联举行的“把爱带回家”启动仪式;参加中华民族共同体意识专题讲座;下午督导 检查疫苗接种情况。', '7.刘建强副县长上午参加全市经济运行调度会暨全市重点工作月度点评会;下午研究公安工作。', '8.张晓宁副县长上午参加全市经济运行调度会暨全市重点工作月度点评会;下午列席县十五届人大常委会第】 29次会议。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>25</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>呼和浩特市农牧局关于对呼和浩特市第十五届人民代表大会第四次会议第号建议关于继续加大力度扶持发展规模化肉牛养殖的建议的答复</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2021-06-28</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/snmj_22416/fdzdgknr/jytablnew/202107/t20210707_1000517.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['呼和浩特市农牧局关于对呼和浩特市第十五届人民代表大会第四次会议第227号建议《关于继续加大力度扶持发展规模化肉牛养殖的建议》的答复_ 呼和浩特市人民政府', '呼和浩特市农牧局关于对呼和浩特市第十五届人民代表大会第四次会议第227号建议《关于继续加大力度扶持发展规模化肉牛养殖的建议》的答复', '一直以来，我市畜牧业发展坚持以奶牛养殖为核心、稳定肉羊养殖，扩大生猪产能，其他畜禽兼顾发展，提高畜牧业综合生产能力，保障畜产品供应。', '“生产标准化”作为全年畜牧业工作重点工作，依据肉牛主推标准12项，技术规范2项，持续推进肉牛养殖标准化工作，组织专业技术人员成立标准化工作推进组，深入到各旗县、乡镇、村进行宣讲，推广标准化养殖关键技术，为养殖户提供产前、产中和产后提供全程技术服务。按照畜牧业重点工作方案,', '7个旗县区推动肉牛养殖场（大户）进行标准化生产建设，养殖场带动提高周边农户养殖水平，全市肉牛标准化饲养比重达到47%。', '20多个肉牛规模养殖场纳入项目，对肉牛养殖场粪污无害化处理设施的配套进行补贴，提高养殖水平。同时积极争取国家、自治区、市级资金支持肉牛养殖及肉牛定点屠宰加工企业标准化建设，达到设施标准化、环境整洁化、生产规范化、处理无害化、监管常态化，推动我市肉牛养殖、屠宰与加工产业健康、可持续发展。全面贯彻落实市委、市政府关于乡村振兴和科技创新的工作要求，我局推荐的内蒙古侩牛物联网服务有限公司已列入科技创新投资基金储备项目。', '255人；组织改良站专业技术人员赴北京、通辽参加肉牛产业研讨会，为下一步我市发展肉牛产业化发展提供了技术保障。依托肉牛产业项目，赴通辽进行肉牛产业考察，并引进西门塔尔、安格斯肉牛冻精，与本地肉牛进行杂交，加大地方品种改良力度；组织行业管理人员和专家赴兴安盟学习考察，计划启动培育“牛联体”大数据养殖模式，建设肉牛产业联合体大数据运用平台，以适度规模饲养母牛、集中育肥的肉牛发展模式 ，强化“物联网+”带动肉牛产业转型升级，加强产销对接，积极拓展消费市场。', '由于缺乏政策资金支持，肉牛养殖场产业发展相对较慢，下一步我们将在以下几个方面做好推进工作：', '依托侩牛物联网服务有限公司科技创新投资基金储备项目，逐步提高企业的技术创新能力，培育知名品牌，提高产品附加值，提高市场占有率。借鉴国家生猪、奶牛发展扶持政策，积极向上级争取肉牛产业相关项目支持。', '“小而散”，养殖水平相对奶牛而言有些落后。我们将肉牛养殖标准化推进工作列入全年畜牧业重点工作，持续推进肉牛养殖标准化工作引导养殖户进一步转变养殖观念，调整养殖模式，在全市畜牧标准化示范推广工作中，大力发展标准化、规模化养殖，切实转变肉牛现有的饲养方式，提高我市肉牛整体养殖水平，力争2021年肉牛养殖标准化水平达到50%。', '“300万牛羊驴养殖区”八个百万工程建设，把发展肉牛养殖摆到更加重要的位置，继续做好肉牛生产标准化行动。以优质母牛扩群增量和提高单产品质为目标，以西门塔尔牛、安格斯牛等为主导品种，主推人工授精、犊牛和育肥牛饲养管理、高档牛肉生产、优质牛肉生产溯源、苜蓿青贮加工利用、牛舍建设与环境控制等技术，组装配套散装饲料配送和自动化喂料系统以及废弃物处理等机械装备。培育龙头企业联合农户，以侩牛公司为核心，组织与市内养殖户进行对接。目前侩牛正在逐步对接一些养殖企业、养殖大户。', '提升防灾减灾能力，不断完善政策体系建设，在推进奶牛政策性保险的基础上，探索开展肉牛政策性保险，降低养殖风险', '“侩牛”公司现有平台为基础，加快推动培育我市肉牛联合养殖模式及大数据平台的建设，将大数据运用模式尽快覆盖呼市全部肉牛养殖场，并逐步扩展到全产业链，解决我市肉牛养殖户养殖“小而散”、技术不足、采购生产物资价格高、贷款难、销售不畅等问题，增强抵抗市场风险的能力，建立紧密的利益联结机制，促进肉牛养殖健康发展。', '加强养殖场日常监管，增强个体抗病能力，搞好环境卫生，做好养殖场日常消杀，有计划开展免疫接种工作，强化饲料等投入品监管，屠宰场做好肉品品质检验检疫工作，加大对养殖场和防疫员疫病防治技术的培训力度，保证我市肉牛养殖屠宰环节质量安全。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>25</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>呼和浩特市住房和城乡建设局关于对呼和浩特市政协第十四届一次会议第号提案关于以交通疏堵为引领建设五宜城市的提案的答复</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2022-09-13</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/zfxxgknew/fdzdgknr/jytablnew/202212/t20221220_1460631.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['呼和浩特市住房和城乡建设局关于对呼和浩特市政协第十四届一次会议第0060号提案《关于以交通疏堵为引领建设五宜城市的提案》的答复_ 呼和浩特市人民政府', '呼和浩特市住房和城乡建设局关于对呼和浩特市政协第十四届一次会议 第0060号提案《关于以交通疏堵为引领建设五宜城市的提案》的答复', '您好！您的《关于以交通疏堵为引领建设五宜城市的提案（流水号503并入）》的提案已收悉，您对城市道路交通建设管理工作提出了非常中肯的意见和建议，我们表示衷心感谢。', '按照这次“提案”办理分工，市住房和城乡建设局负责您的提案的分办答复工作。根据提案内容，7月19日，市城市道路交通委员会办公室（简称市道交办，现设在市住建局）联合市政协教科卫体委邀请相关市政协委员，并组织市公安局交管支队、市自然资源局、市城管执法局、市交通运输局、市住建局、市大数据局、市交投集团、公交总公司、市政建设服务中心等单位召开基层协商会，研究梳理了近几年我市对交通疏堵做出的贡献及仍需改进的问题，会议达成了工作共识，明确了工作事项，分解了工作任务。现就按照“提案”分工答复如下：', '目前，《呼和浩特市中心城区控制性详细规划》已编制完成，并获市政府批复实施。该规划在《呼和浩特市城市总体规划》的基础上，按照“窄马路、密路网”道路布局理念，进一步补齐了支路网密度不足的短板，在总规主干路网基础上，打通断头路、增加支路778条。规划后道路有快速路10条，主干路30条，次干路107条，构建了畅通、便捷、级配合理的道路网体系。', '按照市委、市政府工作部署，今年我市已开展《我市疏堵保畅研究及改善策略总体工作计划》，对城市道路基础设施、交通安全设施、公路安全隐患进行了全面排查，加大建设、整改、维护、管理力度，努力提高全市交通设施规范化、智能化、精细化水平，充分发挥交通设施在城市道路疏堵保畅、交通事故预防、交通出行引导的积极作用，打造良好的道路通行环境。建成区三环路、金海路、昭哲路、巴彦路、金盛路等5条主干道改造提升工程主体部分已基本完工，为减轻交通压力，在部分路段实施了交通分流。地铁1、2号线开通运营，交通基础设施和路网结构有了明显增强。今年，市道交办牵头组织相关地区、部门并邀请上海市政交通设计研究院道路设计师，用7天时间，对我市重点点位、重点路段，进行了排查梳理，建立了问题台账，上海市政交通设计研究院按照一段一策、一点一策的思路，设计了优质的整改方案，截至目前，完成渠化改造50处，完成绿化带影响行人改造35处，渠化面积累计近2360平方米。同时，对新华大街、成吉思汗大街、北垣街沿线的交通拥堵路口进行优化，现已落实完成新华大街沿线16个路口优化工作。当前，地铁1、2号线沿线道路路面恢复平整、交通标线施划、标识标牌安装已全面完成，在新华大街、成吉思汗街、锡林路、北垣街等道路重新铺设行车道、施划交通标识标线，合理设置掉头口和人行过街通道，规范通行轨迹，有效解决了影响交通安全畅行的各类问题。另外，在交通相对拥堵、人行过街需求量大的路段新建6座人行过街天桥，现已启动施工，建成后将更好地缓解行人过街顺畅与安全的需求，加强已建成人行过街天桥的使用管理，加大对行人过街疏导与引导力度，提高人行过街天桥使用率和通行率，着力解决行人过街秩序混乱的问题。下一步，继续加大资金投入，完善交通基础设施，今年全市计划完成新建、改建道路63条，打通断头路31条，改造背街小巷39条，进一步改善交通拥堵问题。', '近年来，随着我市经济社会的高质量发展，人民生活水平不断提高，建成区常住人口、机动车和非机动车保有量逐年快速增加，交通需求迅速增长，交通拥堵问题比较突出，全面加强交通秩序精细化综合治理，推动有效解决城市交通拥堵问题刻不容缓。在市委、市政府的领导下，各级各部门切实增强责任感和使命感，健全完善推进落实工作机制，坚持问题导向、创新管理模式，持续发力攻坚，全力保障道路畅通，取得了一定的成绩成效。2021年，市人民政府办公室先后印发了《呼和浩特市人民政府办公室关于调整城市道路交通委员会组成人员进一步明确工作职责的通知》（呼政办字〔2021〕2—70号），切实加强顶层设计，为交通秩序综合治理提供了制度机制保障。同年，分别到上海、常州、无锡等交通管理先进的城市进行了考察学习，借鉴经验并用于我市交通综合治理。聘请部分人大代表、政协委员、一线交警、媒体记者、普通市民为交通管理义务监督员，参与交通管理监督，发现并提供交通管理存在的问题线索。组织工作人员开展交通管理业务学习培训，提高专业能力，培养想干事、愿干事、能干事的胜任尽职的人员队伍。我们拟适时从高等院校、行业领域聘请城市交通规划、建设管理等方面的专家，条件允许时跨省区市聘请专家，建成专业团队，为我市交通规划、建设、管理提供技术咨询和技术服务，补短板、强弱项，助力我市交通秩序精细化综合治理工作，畅通城市交通网络，打造顺畅的出行环境。', '针对存在的问题，我市已开展《我市疏堵保畅研究及改善策略总体工作计划》，按照“规划优先，建管并重，协同共治”的理念，以问题为导向，通过三个抓手，采取十项措施，缓解交通拥堵，全面构建绿色、便捷、畅通、高效的交通体系。根据工作的必要性、难易程度分三个阶段进行疏堵保畅工作，近期改善计划（2021-2022年）、中期改善计划（2023-2025年）以及远期改善计划（2026年-2035年），持续推进疏堵保畅剩余建设项目，包括快速路网完善、快速路节点互联互通、轨道交通建设、慢行交通网络建设。下一步，我们还将走出去，到交通管理先进、交通组织发达的地区学习借鉴，结合实际，复制应用于我市的交通规划、建设、管理工作中，有效提升我市交通综合管理治理水平。', '以上答复如有不妥，敬请指正。再次感谢您对我市城区交通管理工作的关心、关注和支持，也请您对我们以后的工作多提宝贵建议和意见。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>25</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>习近平在中国人民大学考察</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2022-04-26</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tt_1/202204/t20220426_1236754.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['新华社北京4月25日电 在五四青年节即将到来之际，中共中央总书记、国家主席、中央军委主席习近平25日上午来到中国人民大学考察调研。习近平代表党中央，向全国各族青年致以节日的祝贺，向中国人民大学全体师生员工、向全国广大教育工作者和青年工作者致以诚挚的问候。习近平希望全国广大青年牢记党的教诲，立志民族复兴，不负韶华，不负时代，不负人民，在青春的赛道上奋力奔跑，争取跑出当代青年的最好成绩！', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平在立德楼观摩思政课智慧教室现场教学并参与讨论。新华社记者 鞠鹏 摄', '习近平强调，“为谁培养人、培养什么人、怎样培养人”始终是教育的根本问题。要坚持党的领导，坚持马克思主义指导地位，坚持为党和人民事业服务，落实立德树人根本任务，传承红色基因，扎根中国大地办大学，走出一条建设中国特色、世界一流大学的新路。广大青年要做社会主义核心价值观的坚定信仰者、积极传播者、模范践行者，向英雄学习、向前辈学习、向榜样学习，争做堪当民族复兴重任的时代新人，在实现中华民族伟大复兴的时代洪流中踔厉奋发、勇毅前进。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平同师生代表座谈并发表重要讲话。新华社记者 谢环驰 摄', '中国人民大学是中国共产党创办的第一所新型正规大学，前身是1937年诞生于抗日战争烽火中的陕北公学，以及后来的华北联合大学和北方大学、华北大学，在长期的办学实践中，注重人文社会科学高等教育和马克思主义教学与研究，被誉为“我国人文社会科学高等教育领域的一面旗帜”。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平向师生们挥手致意。新华社记者 谢环驰 摄', '上午9时20分许，习近平在中国人民大学党委书记张东刚、校长刘伟陪同下，首先来到立德楼，观摩思政课智慧教室现场教学。习近平同青年学生一起就座，认真倾听并参与讨论，对学校立足自身优势，不断推进思政课教学改革创新，打造高精尖水平思政课的做法表示肯定。他强调，思想政治理论课能否在立德树人中发挥应有作用，关键看重视不重视、适应不适应、做得好不好。思政课的本质是讲道理，要注重方式方法，把道理讲深、讲透、讲活，老师要用心教，学生要用心悟，达到沟通心灵、启智润心、激扬斗志。青少年思想政治教育是一个接续的过程，要针对青少年成长的不同阶段，有针对性地开展思想政治教育。希望人民大学绵绵用力，久久为功，止于至善，为全国大中小学思政课教学提供更多“金课”。也鼓励各地高校积极开展与中小学思政课共建，共同推动大中小学思政课一体化建设。习近平勉励同学们坚定中国特色社会主义道路自信、理论自信、制度自信、文化自信，在全面建设社会主义现代化国家新征程中勇当开路先锋、争当事业闯将。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平在立德楼观摩思政课智慧教室现场教学并参与讨论。新华社记者 燕雁 摄', '中国人民大学校史展设立于学校博物馆内。习近平来到这里，详细了解学校历史沿革、建设发展和近年来教学科研成果等情况。习近平强调，中国人民大学在抗日烽火中诞生，在党的关怀下发展壮大，具有光荣的革命传统和鲜明的红色基因。一定要把这一光荣传统和红色基因传承好，守好党的这块重要阵地。要加强校史资料的挖掘、整理和研究，讲好中国共产党的故事，讲好党创办人民大学的故事，激励广大师生继承优良传统，赓续红色血脉。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平在博物馆了解学校近年来教学科研成果等情况。新华社记者 谢环驰 摄', '在博物馆门前广场上，习近平看望了老教授、老专家和中青年骨干教师代表，并同他们亲切交谈。看到老教授、老专家身体健康、精神矍铄，习近平非常高兴。他指出，中国人民大学历来是人才荟萃、名家云集的地方。老教授、老专家们为党的教育事业付出了巨大心血，作出了重要贡献。希望中青年教师向老教授老专家学习，立志成为大先生，在教书育人和科研创新上不断创造新业绩。习近平强调，建设世界一流的中国特色社会主义大学，培养社会主义建设者和接班人，必须有世界一流的大师。要高度重视教师队伍建设，特别是要加强中青年教师骨干的培养，把人民大学打造成为我国人文社会科学研究和教学领域的重要人才中心和创新高地。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平在博物馆门前广场上，同老教授、老专家和中青年骨干教师代表亲切交谈。新华社记者 谢环驰 摄', '中国人民大学图书馆以人文社会科学学术性文献馆藏为主，有藏书410余万册。习近平来到这里，考察馆藏红色文献、古籍集中展示，察看现代化检索平台和复印报刊资料等数字化学术资源，听取学校加强文献古籍保护利用，促进理论研究成果转化应用等情况介绍。习近平强调，人民大学馆藏红色文献，鉴证了我们党创办正规高等教育的艰辛历程，是十分宝贵的红色记忆，要精心保护好，逐步推进数字化，让更多的人受到教育、得到启迪。要运用现代科技手段加强古籍典藏的保护修复和综合利用，深入挖掘古籍蕴含的哲学思想、人文精神、价值理念、道德规范，推动中华优秀传统文化创造性转化、创新性发展。要加强学术资源库建设，更好发挥学术文献信息传播、搜集、整合、编辑、拓展、共享功能，打造中国特色、世界一流的学术资源信息平台，提升国家文化软实力。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平在图书馆考察。新华社记者 燕雁 摄', '随后，习近平来到世纪馆北大厅同中国人民大学师生代表座谈。中国人民大学党委书记张东刚、“人民教育家”国家荣誉称号获得者高铭暄、经济学院教授赵峰、新闻学院博士生周晓辉、哲学院本科生王海蓉先后发言，现场气氛轻松热烈。', '在认真听取大家发言后，习近平发表重要讲话。他强调，我国有独特的历史、独特的文化、独特的国情，建设中国特色、世界一流大学不能跟在别人后面依样画葫芦，简单以国外大学作为标准和模式，而是要扎根中国大地，走出一条建设中国特色、世界一流大学的新路。中国人民大学从陕北公学成立之初就鲜明提出要培养“革命的先锋队”，到新中国成立之初提出培养“万千建国干部”，到改革开放新时期提出培养“国民表率、社会栋梁”，再到新时代提出培养“复兴栋梁、强国先锋”，始终不变的是“为党育人、为国育才”，展现了“党办的大学让党放心、人民的大学不负人民”的精神品格。希望中国人民大学落实立德树人根本任务，传承红色基因，让听党话、跟党走的信念成为人大师生的自觉追求。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平同师生代表座谈并发表重要讲话。新华社记者 鞠鹏 摄', '习近平指出，高校是我国哲学社会科学“五路大军”中的重要力量。当前，坚持和发展中国特色社会主义理论和实践提出了大量亟待解决的新问题，世界百年未有之大变局加速演进，世界进入新的动荡变革期，迫切需要回答好“世界怎么了”、“人类向何处去”的时代之题。要坚持把马克思主义基本原理同中国具体实际相结合、同中华优秀传统文化相结合，立足中华民族伟大复兴战略全局和世界百年未有之大变局，不断推进马克思主义中国化时代化。加快构建中国特色哲学社会科学，归根结底是建构中国自主的知识体系。要以中国为观照、以时代为观照，立足中国实际，解决中国问题，不断推动中华优秀传统文化创造性转化、创新性发展，不断推进知识创新、理论创新、方法创新，使中国特色哲学社会科学真正屹立于世界学术之林。哲学社会科学工作者要做到方向明、主义真、学问高、德行正，自觉以回答中国之问、世界之问、人民之问、时代之问为学术己任，以彰显中国之路、中国之治、中国之理为思想追求，在研究解决事关党和国家全局性、根本性、关键性的重大问题上拿出真本事、取得好成果。要发挥哲学社会科学在融通中外文化、增进文明交流中的独特作用，传播中国声音、中国理论、中国思想，让世界更好读懂中国，为推动构建人类命运共同体作出积极贡献。', '习近平强调，好的学校特色各不相同，但有一个共同特点，都有一支优秀教师队伍。对教师来说，想把学生培养成什么样的人，自己首先就应该成为什么样的人。培养社会主义建设者和接班人，迫切需要我们的教师既精通专业知识、做好“经师”，又涵养德行、成为“人师”，努力做精于“传道授业解惑”的“经师”和“人师”的统一者。教育是一门“仁而爱人”的事业，有爱才有责任。广大教师要严爱相济、润己泽人，以人格魅力呵护学生心灵，以学术造诣开启学生智慧，把自己的温暖和情感倾注到每一个学生身上，让每一个学生都健康成长，让每一个孩子都有人生出彩的机会。老师应该有言为士则、行为世范的自觉，不断提高自身道德修养，以模范行为影响和带动学生，做学生为学、为事、为人的大先生，成为被社会尊重的楷模，成为世人效法的榜样。', '习近平指出，立足新时代新征程，中国青年的奋斗目标和前行方向归结到一点，就是坚定不移听党话、跟党走，努力成长为堪当民族复兴重任的时代新人。希望广大青年用脚步丈量祖国大地，用眼睛发现中国精神，用耳朵倾听人民呼声，用内心感应时代脉搏，把对祖国血浓于水、与人民同呼吸共命运的情感贯穿学业全过程、融汇在事业追求中。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平向师生们挥手致意。新华社记者 鞠鹏 摄', '习近平离开学校时，道路两旁站满了师生，大家激动地向总书记问好，齐声高呼“青春向党、不负人民”、“复兴栋梁、强国先锋”，习近平向大家挥手致意，掌声、欢呼声在校园内久久回荡。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>25</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>呼和浩特市农牧局关于对呼和浩特市政协第十三届四次会议第号提案关于发展肉牛产业化特色经济助推我市经济高质量发展的提案的答复</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2021-08-23</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/snmj_22416/fdzdgknr/jytablnew/202109/t20210915_1027229.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['呼和浩特市农牧局关于对呼和浩特市政协第十三届四次会议第0174号提案《关于发展肉牛产业化特色经济 助推我市经济高质量发展的提案》的答复_ 呼和浩特市人民政府', '呼和浩特市农牧局关于对呼和浩特市政协第十三届四次会议 第0174号提案《关于发展肉牛产业化特色经济 助推我市经济 高质量发展的提案》的答复', '您的《关于发展肉牛产业化特色经济 助推我市经济高质量发展的提案》收悉，现答复如下：', '一直以来，我市畜牧业发展坚持以奶牛养殖为核心、稳定肉羊养殖，扩大生猪产能，其他畜禽兼顾发展，提高畜牧业综合生产能力，保障畜产品供应。2020年牧业年度，我市肉牛存栏4.66万头，出栏牛10.5万头（包括肉牛和淘汰健康奶牛）。截至目前，全市肉牛存栏5万头左右，较2020年度略有升高，存栏稳定。', '1.大力推进肉牛养殖标准化工作。近几年，我们把“生产标准化”作为全年畜牧业工作重点工作，依据肉牛主推标准12项，技术规范2项，持续推进肉牛养殖标准化工作，组织专业技术人员成立标准化工作推进组，深入到各旗县、乡镇、村进行宣讲，推广标准化养殖关键技术，为养殖户提供产前、产中和产后提供全程技术服务。按照畜牧业重点工作方案,计划在7个旗县区推动肉牛养殖场（大户）进行标准化生产建设，养殖场带动提高周边农户养殖水平，全市肉牛标准化饲养比重达到47%。但由于缺乏政策资金支持，肉牛养殖场推标工作收效并不明显，标准化、规模化程度不高。', '2.积极争取项目支持。充分依托现有畜禽粪污资源化利用项目，各旗县区将20多个肉牛规模养殖场纳入项目，对肉牛养殖场粪污无害化处理设施的配套进行补贴，提高养殖水平。同时积极争取国家、自治区、市级资金支持肉牛养殖及肉牛定点屠宰加工企业标准化建设，达到设施标准化、环境整洁化、生产规范化、处理无害化、监管常态化，推动我市肉牛养殖、屠宰与加工产业健康、可持续发展。全面贯彻落实市委、市政府关于乡村振兴和科技创新的工作要求，我局推荐的内蒙古侩牛物联网服务有限公司已列入科技创新投资基金储备项目。', '3、开展培训和技术指导。加强现代实用养殖技术培训，提高畜牧科技含量，2020年，在肉牛养殖集中的四个旗县区开展饲养管理、遗传育种、疾病防控等技术培训班，培养肉牛人工授精员和养殖人员达255人；组织改良站专业技术人员赴北京、通辽参加肉牛产业研讨会，为下一步我市发展肉牛产业化发展提供了技术保障。依托肉牛产业项目，赴通辽进行肉牛产业考察，并引进西门塔尔、安格斯肉牛冻精，与本地肉牛进行杂交，加大地方品种改良力度；组织行业管理人员和专家赴兴安盟学习考察，计划启动培育“牛联体”大数据养殖模式，建设肉牛产业联合体大数据运用平台，以适度规模饲养母牛、集中育肥的肉牛发展模式 ，强化“物联网+”带动肉牛产业转型升级，加强产销对接，积极拓展消费市场。', '4、严格牛屠宰企业日常监管。督促屠宰企业落实质量安全主体责任，完善肉品品质检验制度，按要求配备肉品品质检验员，按规程实施肉品品质检验。督促企业加强肉品品质管理人员和肉品品质检验人员专业技术培训，提高其肉品品质管控能力；严格要求屠宰企业落实入场查验、肉品品质检验、出厂检查、无害化处理以及车辆进出场消毒等要求，确保“两证两章”制度落实到位；要求官方兽医落实好牛羊屠宰场巡监和抽检制度，保障出厂肉品质量安全。', '5.重点做好动物疫病防控工作。我市高度重视动物疫病防控体系建设，目前已形成市-县-乡-村四级较为完善的动物疫病防控体系。市县各级政府部门从防疫工作经费，防疫人员补助等方面给予大力支持，不断建立健全防疫工作各项制度。有计划开展免疫接种工作，强化饲料等投入品监管。重点提高免疫密度和质量，要求旗县要严格落实强制免疫措施，按照国家和自治区年度免疫计划执行，做到免疫区应免尽免。', '由于缺乏政策资金支持，肉牛养殖场产业发展相对较慢，下一步我们将在以下几个方面做好推进工作：', '（一）加大力度推进牛羊产业发展。全面推进“300万牛羊驴养殖区”八个百万工程建设，把发展肉牛养殖摆到更加重要的位置，继续做好肉牛生产标准化行动。以优质母牛扩群增量和提高单产品质为目标，以西门塔尔牛、安格斯牛等为主导品种，主推人工授精、犊牛和育肥牛饲养管理、高档牛肉生产、优质牛肉生产溯源、苜蓿青贮加工利用、牛舍建设与环境控制等技术，组装配套散装饲料配送和自动化喂料系统以及废弃物处理等机械装备。培育龙头企业联合农户，以侩牛公司为核心，组织与市内养殖户进行对接。目前侩牛正在逐步对接一些养殖企业、养殖大户。', '（二）继续推进标准化进程。呼市肉牛养殖特点“小而散”，养殖水平相对奶牛而言有些落后。我们将肉牛养殖标准化推进工作列入全年畜牧业重点工作，持续推进肉牛养殖标准化工作引导养殖户进一步转变养殖观念，调整养殖模式，在全市畜牧标准化示范推广工作中，大力发展标准化、规模化养殖，切实转变肉牛现有的饲养方式，提高我市肉牛整体养殖水平，力争2021年肉牛养殖标准化水平达到50%。', '（三）加大政策扶持。依托侩牛物联网服务有限公司科技创新投资基金储备项目，逐步提高企业的技术创新能力，培育知名品牌，提高产品附加值，提高市场占有率。借鉴国家生猪、奶牛发展扶持政策，积极向上级争取肉牛产业相关项目支持。', '（四）加强产学研结合。您提出的利用奶牛优势，向奶牛要牛肉，我们也在积极推进以维牛科技、政福牛业、土左旗慧宝养殖农民专业合作社、清水河圣地牧业为主的奶公犊30多个育肥场，目前存栏1.5万头左右。主要分布在和林县、土左旗、清水河县。由于肉牛养殖周期长，资金压力大，所以企业分阶段养殖，大部分架子牛外调。利用我市奶业发展优势，以奶牛和肉牛相结合，注入科技成果，大力发展肉牛产业，提高奶牛和肉牛养殖效率。争取将肉牛发展纳入产业发展规划中，依托内蒙古农业大学、科研院所、基层畜牧部门实施肉牛产业项目，建立完善种畜供应、配种服务、质量检测三位一体的良种繁育体系。', '（五）做好养殖场动物疫病防控工作。加强养殖场日常监管，增强个体抗病能力，搞好环境卫生，做好养殖场日常消杀，有计划开展免疫接种工作，强化饲料等投入品监管，屠宰场做好肉品品质检验检疫工作，加大对养殖场和防疫员疫病防治技术的培训力度，保证我市肉牛养殖屠宰环节质量安全。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>25</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>习近平总书记关切事三北工程攻坚战一线见闻</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2024-06-06</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tt_1/202406/t20240606_1722608.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['加强荒漠化综合防治，深入推进“三北”等重点生态工程建设，事关我国生态安全、事关强国建设、事关中华民族永续发展。', '2023年6月6日，习近平总书记主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会并发表重要讲话，强调“努力创造新时代中国防沙治沙新奇迹”，提出“力争用10年左右时间，打一场‘三北’工程攻坚战”。', '一年来，“三北”工程攻坚战围绕荒漠化治理的重点、难点加速推进，更加浓郁的绿色在祖国北疆不断铺展。', '6月骄阳似火。看着县城东边最后一片流动沙丘也被草方格牢牢罩住，宁夏吴忠市盐池县林草服务中心主任孙果吁了一口气，20多年悬着的心终于放下了。', '20世纪80年代，盐池县沙化土地面积占比超过82%。一夜狂风过境，沙子堆得和房顶一样高。经过几十年努力，全县200万余亩严重沙化土地重披绿装，唯独剩下与内蒙古鄂尔多斯市鄂托克前旗交界的这片沙丘迟迟未能治理，明晃晃一片，成了孙果一块“心病”。', '“难就难在沙丘跨省了。”孙果说，过去治沙往往以行政区划为单位，各治各的，一些省市县交界处反而容易留下林草带断档盲点，虽然面积不大，却直接影响治沙成效，成为“三北”工程的攻坚难点。', '习近平总书记提出，要强化区域联防联治，打破行政区域界限，实行沙漠边缘和腹地、上风口和下风口、沙源区和路径区统筹谋划，构建点线面结合的生态防护网络。', '闻令而动，共同攻坚！去年10月，陕甘蒙宁四省区五地共同签订《毛乌素沙地区域联防联治合作协议》，将单打独斗变为抱团共进，从四周向中心织网锁沙。', '协议签署次月，盐池县就与鄂托克前旗“双向奔赴”。盐池县投资治理的3000多亩沙地，最近刚刚完工，其中1000多亩在鄂托克前旗境内。不远处的鄂托克前旗毛乌素沙地蒙陕宁联防联治二道川作业区，当地农牧民正忙着栽种沙柳，加速构建上风口阻隔带。', '孙果告诉记者，盐池县的治沙队伍刚进入内蒙古时，还曾发生一段小“插曲”。个别村民担心发生地界纠纷，上前阻挡工人：“这是我们的地，你们治了以后就成你们的了？”两地基层干部耐心消除误会：“地当然还是各自的，但沙害面前不分你我，大家联手打个歼灭战，环境好了大家都好。”如今，两地林草部门已协议共同禁牧，管护好来之不易的治理成果。', '“三北”工程攻坚战打响以来，在国家林草局等部门协调推动下，联防联治新局面不断拓展：不仅黄河“几字弯”攻坚战区围绕毛乌素沙地开展了联防联治，甘肃和内蒙古共同构筑四大阻击防线，阻止巴丹吉林沙漠和腾格里沙漠“握手”，青海、甘肃、新疆也围绕各自主要风沙口部署了阻击点，构建同向发力的新格局。', '在内蒙古巴彦淖尔市杭锦后旗治沙新品种苗木示范区，400多亩草方格里，栽植两个多月的沙木蓼、四翅滨藜大多长到40厘米左右，生出了侧枝，一片绿意盎然。', '杭锦后旗治沙站站长杨瑞正在指导技术人员栽种刚运送来的幼苗：“栽苗一定要做到深度够、苗扶正、土踩实、水浇足，要从四周注水，才能保证湿度。”', '“这些都是我们引进的新品种，可宝贝着呢！”杨瑞告诉记者，过去部分地方栽种的是单一树种柠条，几十年过去，这些树开始集中进入“退休期”。加上种植的传统灌木品种耐盐碱、耐旱性不强，成活率不高。', '“一些老化退化的沙生植物失去了固沙功能，原来已经治理固定的沙丘又会流动起来，我们只能年年在缺株断行的地方补植，但修补的速度赶不上退化的速度，时刻都在担心沙化会反扑。”杨瑞说。', '习近平总书记指出，“要坚持科学治沙，全面提升荒漠生态系统质量和稳定性”“要科学选择植被恢复模式，合理配置林草植被类型和密度”。', '去年8月，三北工程研究院在位于内蒙古巴彦淖尔市磴口县的中国林科院沙漠林业实验中心揭牌成立，汇聚了国内防沙治沙领域优势科研力量。杭锦后旗林草局立即请研究院的专家现场“诊疗”，开出“处方”：引进耐干旱、耐盐碱的“先锋”树种，同时增加植物多样性，提升林草系统的稳定性。', '杨瑞多次带队到甘肃、宁夏等周边省份考察学习，终于在今年3月与宁夏一家农林种植专业合作社达成合作，共同打造适应西北干旱区的治沙新品种苗木示范区——由对方提供苗木、技术等支持，引进20多种沙生灌木进行固沙试验。', '近期，苗木栽种已接近尾声，马上将飞播草籽。“目前看成活率能达到90%以上。”杨瑞满脸喜悦地告诉记者，试种成功的话，今年秋季计划推广“复合型”林草治理模式1000亩，构筑更加稳固的生态屏障。', '在内蒙古巴彦淖尔市乌拉特后旗西补隆林业管护中心，4台装有履带的压沙机正在沙地里“插秧”——小推车大小的压沙机前方都装有一个直径80厘米的大齿轮，压沙机前进一米，大齿轮就会将早已均匀铺在沙地上的稻草、秸秆精准“植”入沙地里。不一会儿，一条条金黄色的沙障“编织”完成，将沙丘牢牢缚住。', '“赶在秋天前扎好草方格，到时就可以种苗了。今年以来我们防沙治沙都是机械化操作，作业速度比以前纯人工提高了3倍多。”管护中心主任杜永军介绍，乌拉特后旗造林窗口期短，夏季高达40摄氏度的地表温度会将幼苗晒死，冬季几场大风就会让树苗被流沙掩埋，只有春夏交接的一个半月和秋季一个月适合种苗。', '“过去我们不知道什么样的机械适合在沙漠腹地运行，扎草方格和种苗一直依靠人工，效率很低。”杜永军说，乌拉特后旗沙化土地面积2065万余亩，已经治理的面积仅有459万余亩，剩余治理任务重、难度大，很多地方连路都没有，光靠人工背着草和树进去，耗时太长，“‘人海战术’已经难以满足新时代防沙治沙需求”。', '去年10月，国家林草局在西补隆林业管护中心举办了一场“三北”工程攻坚战先进机械装备演示活动，沙障铺设机、无人机、全地形运输车等一批先进适用的防沙治沙机械装备集中亮相。看到压沙机械能在起伏的沙丘上如履平地，杜永军信心倍增：“要攻坚剩下的沙漠，非得上机械不可！”', '活动结束后，国家林草局向西补隆林业管护中心捐赠了30台生产设备。之后，管护中心又派人走出去考察市场，先后从甘肃武威、内蒙古呼和浩特等地引进压沙、栽植梭梭等各类机械设备16台，有了科技助力，防沙治沙效率大大提高。', '“机械压制沙障不仅速度快多了，稻草扎下去的深度也能统一达到15厘米，抗风固沙能力更强。”杜永军说，截至目前，西补隆林业管护中心通过新型机械设备实施压沙造林已有2600亩。', '如今，运输苗木的无人机、沙障铺设机、固沙机等多种机械越来越多地运用于“三北”工程攻坚战区域，科技的力量不断助力提升治沙效能、延伸祖国北疆的绿色版图。（记者 刘紫凌、马丽娟、胡璐、李云平、刘祯）']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>25</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>呼和浩特市体育局赴七台河体育中心进行调研交流</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2023-03-07</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/styj_22426/fdzdgknr_24634/qt/shgysyjs/ggty_26823/202303/t20230307_1489932.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['3月2日至5日，呼和浩特市体育局党组成员、副局长苏亚拉带领呼和浩特市体育局竞体科、呼和浩特市体育运动学校、呼和浩特体育中心相关工作人员，受邀赴黑龙江省七台河市观摩“2022-2023赛季全国短道速滑青少年锦标赛”，并对当地短道速滑后备人才培养、梯队建设及教练员队伍情况等方面进行了调研考察和学习交流。', '调研组一行实地考察了七台河市体育中心各场馆、短道速滑冠军陈列馆，并与七台河市体育局副局长王宏斌、七台河市业余体校校长赵小兵及相关科室负责人进行了座谈。王宏斌副局长首先对七台河市体育工作做了总体介绍，又针对短道速滑项目的整体布局,人才选拔输送及大赛和体教融合情况进行了汇报。呼和浩特市体育局副局长苏亚拉在座谈中表示，七台河是一座与冰雪体育相伴而生相助发展的城市，是名副其实的“奥运冠军之城”，我们要学习“七台河模式”竞技体育的工作经验，对培养冰雪运动后备人才，实现冰雪运动可持续发展奠定人才基础。调研中还与我国短道速滑资深专家王石安老先生在教练员、裁判员、体育社会指导员培训等事宜进行了深入交流，此次调研活动中国滑冰协会代表刘祯部长全程陪同，同时对呼和浩特市下一步开展短道速滑项目提出指导性意见。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>25</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>呼和浩特市民政局关于对呼和浩特市政协第十三届委员会第四次会议第号提案关于加快推进居家和社区养老服务工作的提案的答复</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2021-08-12</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/smzj_22407/fdzdgknr/jytablnew/202108/t20210820_1016488.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['呼和浩特市民政局关于对呼和浩特市政协第十三届委员会第四次会议第0363号提案《关于加快推进居家和社区养老服务工作的提案》的答复_ 呼和浩特市人民政府', '呼和浩特市民政局关于对呼和浩特市政协第十三届委员会 第四次会议第0363号提案《关于加快推进居家和社区养老服务工作的提案》的答复', '2019年9月，呼和浩特市被确定为第四批中央财政支持开展居家和社区养老服务改革试点城市。自治区党委、政府和呼市市委、市政府高度重视，自治区政府分管副主席多次听取我市居家和社区养老服务改革试点工作进展情况汇报并进行实地指导；自治区民政厅领导多次就试点建设情况进行了实地督导，经过全市上下共同努力，我市居家和社区养老服务改革工作取得了可喜的成绩，在国家验收第四批54个试点城市中，我市位列第二，并被被评为“优秀”，我市居家和社区养老服务体系建设经验在全区范围内推广。', '一是高标准规划发展蓝图，科学制定政策措施。为大力支持社会力量参与我市居家和社区养老服务，培育和打造品牌化、连锁化、规模化、专业化的居家和社区养老服务企业，构建良好的养老服务营商环境，我市坚持高起点、高标准规划发展蓝图，科学制定政策措施，先后制定出台了《呼和浩特市支持居家和社区养老服务发展若干措施》、《呼和浩特市推进居家和社区养老综合服务体系建设三年行动计划》、《呼和浩特市政府购买居家养老服务实施办法》、《呼和浩特市长期护理保险制度实施方案》等19个规范性政策文件，明确了开展居家和社区养老发展的时间表、路线图和任务书，并从土地、税费、场所、运营奖励、政府购买居家养老服务、助餐、长期护理保险等方面给予政策支持，同时从政策层面明确了各项政策的实现途径，初步形成了比较完备的1+N政策配套体系。', '二是加大资金的投入力度，着力推进居家和社区养老服务试点场所建设。一是新建住宅小区按照《城市居住区规划设计标准》要求配套建设居家和社区养老服务用房，并与住宅同步规划、同步建设、同步验收、同步交付；二是老城区和已建成住宅小区主要通过合理腾退社区办公用房，利用闲置厂房、仓储用房、医院、酒店、校舍等设施等方式解决；三是鼓励企事业单位、社会组织和个人利用自有房产开展居家和社区养老服务。2020年已运营104个居家和社区养老服务中心；2021年再建设100个居家和社区养老服务中心，截至七月底，已完工17个、已开工 36个、未开工47个，300平米以下2 个、300平米及以上49个、500平米及以上28个、1000平米及以上21个，所有的服务场所都由政府统一进行适老化改造、装修后免费提供给社会力量运营。', '三是着力加大外引内联工作力度，打造品牌化、连锁化养老服务企业。多次邀请德国蕾娜范、南京悦华、悦心、中鼎、九如城、美邦美好家园、北京乐老汇、福建福龄金太阳等46家国内外知名企业来呼考察。同时，积极培育本土企业内蒙古寿康养老集团、呼和浩特市社康老年综合服务中心等进行品牌化、连锁化战略。目前“上海爱照护”和南京中鼎、悦心、德国蕾娜范、北京积善之家、华邦美好家园等国内外知名养老企业已落户呼和浩特并形成品牌化、连锁化效应，内蒙古寿康、呼市社康已布局市内多个居家和社区养老服务中心。多元参与、多点布局、优势互补、百花齐艳的运营服务体系在我市已基本形成。', '四是加大养老服务信息化建设，积极推广智慧养老服务产品。统一部署全市智慧养老综合监管平台建设，建立市级监管、区级调度和社区服务的三级监管服务体系，完善在线审批、在线服务、实时监管、统计分析、政策宣传、服务规范等功能。老人足不出户、只要按下智能呼叫键、或打个服务电话、或点一下手机APP菜单式服务项目，指挥调度中心就会为老人选择就近的照护师上门服务。并通过上传服务图片、调度中心电话回访，及时跟踪评价服务质量。目前，平台已录入的老人基础信息数据32.6多万条。同时各运营服务商积极推广应用康复辅具器具和智慧养老服务产品，引进爬楼机、洗澡车、体征监测床垫、AI智能看护等产品并通过政府购买服务的方式发放了一键通手机终端7192部，绿手环2.9万个，“关护通”806台。', '五是着力加强养老服务人才培养，培育高素质的人才队伍。一是市民政局分别与呼和浩特职业学院、内蒙古建筑职业技术学院签署了战略合作框架协议，2所高校开设了老年服务与管理专业，累计招收100多名学生；同时市民政局与内蒙古大学、内蒙古师范大学等4所驻呼高校建立了高端人才（社工）联系制度，目前社工持证人数1156人。二是内蒙古财经大学等10所驻呼高校与我市9家居家和社区养老服务企业签订了校企合作协议，参加实训人数283人。三是多形式对养老从业人员进行培训，通过邀请德国蕾娜范来呼授课、举办培训班等形式累计线下培训700多人；同时积极开展了线上职业技能培训，对养老从业人员进行免费技能指导。', '六是制定服务标准，全方位提供服务。居家和社区养老服务试点开展的服务有生活照料类助餐服务、助浴服务、助洁服务、助行服务、代办服务、护理服务；精神慰藉类心理慰藉、心理疏导、法律援助；家政服务类玻璃清洁、清洗服务、疏通服务；医疗保障类医疗协助、康复护理、健康指导等4类15个服务项目。截至目前，覆盖人数约24.7万，受益老人约13.6万，接受服务的老人满意度为98%。', '一是领导重视。我市被确定为全国改革试点地区以来，市政府专门成立“一把手”任组长的养老服务体系建设领导小组，三次常务会专题研究居家社区养老工作。分管领导定期调度、密集调研、外出考察，征求基层意见，倾听老人心声，对接养老企业，从试点建设的规范标准、运营企业、养老人才、信息化建设等方面通盘考虑、统一部署、同步推进，为工作的高效推进提供了有力组织保障。', '二是找准定位。政府主要发挥好“支持、引导、监督和服务”四个作用。“支持”主要通过免费提供服务场所、水电气暖与居民同价等措施，吸引企业来投资运营；“引导”主要通过政府购买服务、助餐补贴、长期护理保险等惠民政策，引领养老服务发展方向，帮助企业快速健康成长；“服务”主要在办理证照、注册商标等方面为企业提供更多的便利；“监督”就是对企业服务质量、申领补贴资金等加强跟踪监管。企业在养老服务工作中“唱主角”，在享受政府补贴政策的同时，全面提升为老服务质量，挖掘老年市场消费潜力，满足老年人多样化需求。同时进一步整合理发、家政、餐饮等更多的社会为老资源，建立为老服务诚信商家联盟，共同开展居家社区为老服务，不断构建政府引导、企业服务、市场补充和老人受益的养老综合服务体系。', '三是政策支持。房子建的再好，如没有政策支持，居家社区养老服务这项工作就会落空。只有出台了政策、并真正落地了，工作推进才有标准，企业经营才有希望，老人受益才有保障。从推进改革试点之初，我市多次考察学习外地的先进经验，并与老人、运营企业等多层面召开座谈会，了解各方需求，掌握企业愿景，调研市场服务，制定完善各项建设标准、专项补贴和考核奖励等一系列政策规范，通过采取免费提供场所、给予绩效奖励、政府购买服务、长期护理保险等政策措施，让运营企业能存续，让社会组织能参与，让辖区老人能受益，不断形成居家社区为老服务的长效机制。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>25</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>呼市人社局关于对呼和浩特市政协第十三届三次会议第号提案关于推进我市政府服务一网通办的建议的答复</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2020-11-16</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/srlzyhshbzj_22410/fdzdgknr/jytablnew/202011/t20201116_941045.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['呼市人社局关于对呼和浩特市政协第十三届三次会议第321号提案《关于推进我市政府服务“一网通办”的建议》的答复_ 呼和浩特市人民政府', '呼市人社局关于对 呼和浩特市政协第十三届三次会议第321号提案 《关于推进我市政府服务 “一网通办”的建议》的答复', '近年来，国务院和自治区先后密集出台了关于积极推进“互联网+政务服务”的一系列政策措施，对政府部门充分利用信息化手段、大数据分析决策提升服务能力等，提出了明确要求和部署。', '按照《国务院办公厅关于印发进一步深化“互联网+政务服务”推进政务服务“一网、一门、一次”改革实施方案的通知》的相关要求，在自治区人社厅的大力支持下，我局2018年12月起启动了呼和浩特市人力资源和社会保障“一网通办”综合服务项目建设，着力解决企业和群众办事难点痛点堵点问题。“一网通办”一期项目于2019年6月5日上线试运行，二期项目于12月1日上线，累计完成122项人社公共服务事项的网上办理，截至目前累计网上办理业务69.6万笔，大厅工作接待量较之前减少近90%，初步形成了网上服务大厅、手机移动客户端、自助服务终端、综合柜员制、12333电话服务“五位一体”的人社服务矩阵。', '2018年末，我市试点建设“一网通办”平台。市委、市政府将“一网通办”项目列入2019年为民办实事项目。经先后学习考察秦皇岛市、常州市、南宁市人社领域信息化建设先进经验，初步梳理出以下几点建设思路：', '1、流程大改造，改变业务办理方式。通过建设网上服务大厅，坚决改变目前窗口排队办理业务模式。', '2、服务大提升，实现“不见面”办理。以往提升服务效能，往往通过增加大厅服务窗口、加强工作人员培训教育、规范窗口服务标准等方式进行。但我们意识到，“不见面”办理是提升服务效能的最佳手段。', '3、材料大瘦身，实现档案电子化管理。多年来，办理业务收取纸质材料已经是再正常不过的事情。但是，纸质材料的收取、归档、存放、后续的调取、查阅等既浪费人力财力，更不环保。我们认为档案电子化管理是大势所趋，可以实现对业务档案共享使用，有利于大数据分析决策。', '4、业务大协同，实现条状分散办理到网状协同办理。人社部门内部，乃至人社和其他部门之间，很多业务都存在内在的关联，我们完全可以通过大数据分析，实现多项业务的协同办理，真正实现“让数据多跑路，让老百姓少跑腿”的目的。', '5、观念大转变，实现“人找事”到“事找人”。多年以来，老百姓往往被动办理业务，不办理会影响到切身利益时才会办。但实际上，很多业务，是可以通过大数据分析，提前预知并主动推送服务。', '按照以上建设思路，我们开始着手“一网通办”平台建设。经过一期二期项目，现已取得阶段性的成果，但离我们的建设初衷还有一定的差距。', '（1）对人社服务事项进行标准化梳理。集中利用一个月时间，系统梳理人社服务事项清单，优化业务流程，编制办事指南，全局共梳理出219个服务事项。', '（2）建设业务档案一体化平台。将电子档案与业务系统深度融合,进行业务档案一体化管理，实现全程无纸化办理。目前已存储业务档案图片110万张。', '（3）初步建立电子证照库。对服务对象的身份证、社保卡、低保证、退休证等证件进行电子化管理，实现“一次采集、终身使用，一库管理、互认共享”。', '（4）实现“三项业务”协同办理。实现了劳动用工备案、就业失业登记和社会保险登记三项业务的协同办理。截至目前，共有18项业务实现协同，累计办理业务22.7万笔，减少服务对象到现场办理业务约68.2万笔。为进一步实现各项业务协同办理提供可行性实践，为有效推进人社部要求开展的“人社服务快办行动”，关联事项“打包办”、高频事项“ 提速办” 打下基础。', '（5）实现参保缴费证明、个人权益记录单网上自助打印。服务对象可通过单位网上服务大厅、个人网上服务大厅、人社系统自助服务一体机自助打印参保缴费证明、个人权益记录单。同时，引用二维码防伪标签，可随时查询单据的真伪。截至目前，网上自助打印参保证明共计3.7万份，为服务对象在工程招标、非本市户籍考生高考报名、申请公租房、各类考试资格审查等方面提供了极大的便利。', '（6）建设“青城智慧人社”手机APP。“青城智慧人社”手机APP实现了51个事项的“掌上”办理。我市市民办理个体灵活就业人员核定，失业保险金申领，社会保障卡申领、挂失，企业职工退休申请等业务可以足不出户“掌上”办理。截至目前，共办理业务2万余笔。', '（7）拓展自助办理，服务重心下沉。通过积极向全市13个网点（包含九个旗县区市民服务中心）布设人社自助服务一体机，实现养老保险待遇资格认证、养老关系转移凭证自助打印、社保卡挂失解挂等老百姓常办的业务。截至目前，人社自助服务一体机已办理11.1万笔业务，将人社服务送到了群众“家门口”。', '（8）主动推送服务，老百姓从“能办事”到“好办事”。本着“让数据多跑路，让群众少跑腿”理念，做到全业务周期进度随时查询，审批事项智能调度，业务办理全程留痕，办结结果短信告知。自“一网通办”平台试运行以来，累计发送短信已超过100万条。', '众所周知，人社工作具有政策复杂、事项繁多、服务对象广、手工办理多等特点。目前，我市参保单位已超过2万家，仅职工参保达到67万人次。新冠肺炎疫情发生对我们在完成防控部署的情况下有序开展相关工作带来极大的挑战。', '疫情就是命令，防控就是责任，全局上下朝乾夕惕，全力以赴，以“一网通办”为平台，全面推进“不见面”服务，坚决打赢疫情防控阻击战。', '（1）自疫情以来，我局通过“呼和浩特12333”微信订阅号发布各类信息20多条，包含疫情防控期间各类政策文件解读、疫情防控阶段业务办理方式、具体业务的操作流程等。引导全市市民疫情期间有序办理人社业务，保障了国家、自治区和我市发布的各项疫情扶持政策落实落细。', '（2）针对疫情及时调整业务办理模式。自疫情发生以来，我局第一时间公布《呼和浩特市人力资源和社会保障局疫情防控阶段人社业务“不见面”办理温馨提示》，公布了120项网上服务事项清单，公布了60余部服务电话；引导群众办理人社业务首选网上办，并结合电话办、邮寄办、延后办、暂停办、预约办等举措，通过“非接触”方式，提供“不见面”服务。截至目前，累计网办业务量超过28万笔。通过及时调整业务办理模式，有效减少人员聚集，阻断疫情传播，更好地保障了人民群众身体健康和生命安全。', '近年来，各地政府部门在深化“放管服”改革过程中，显有部门间数据共享程度不高，协作配合的紧密度不够的问题，我市也不例外。由于各单位各部门信息系统建设纵向林立，横向不通现象严重，系统间业务数据共享协同确有不足。在协调各业务系统开发管理部门开放接口、共享数据时，困难重重，进展缓慢。这就给打破“信息孤岛”，推进跨部门信息共享、业务协同，带来重重阻碍。', '下一步，我们将加快建设“一网通办”三期项目,尽快完成事业单位人事人才、仲裁监察、职称评审、汇总统计、综合分析等子系统建设，全面打破纵向“信息孤岛”， 推进跨部门信息共享、业务协同，构建方便快捷、公平普惠、优质高效的人社服务体系，真正为我市实现智慧化助力。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>25</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>关于呈报一九九一年上半年工作小节的报告</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2010-06-22</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/sjtysj_22414/xxgknb/202105/t20210525_930712.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['抄报：呼市市委、呼市人大、内蒙交通厅、贾才市长、周喜成副书记、许光荣副市长、刘学敏副市长、云峰副市长、呼市经委、计委、呼市体改办', '九一年是“质量、品种、效益年”，又是实现第二步战略目标的起步年。根据我市十年规划和八五计划纲要精神，交通局及时调整工作重心，全力以赴投入经济建设，以扭亏为盈为目的，开拓了两条路。', '新的经济形势要求企业做出灵敏的反映。面对与开放城市越来越拉达的距离，分析十年当中一个贫穷小镇（深圳）的腾飞历史，我们深切感到开放搞活才是经济繁荣的立足点，只有引进先进的技术才能退出优质的产品。目前，呼运与香港达川有限公司的合作项目已经批复，并且列入市府计划项目。形成意向的有：大运与蒙古的丝绸项目、通达与蒙古的易货贸易。同时我们积极推进帮带工作，例如市计划的有：呼运同长春一汽（帮带售后服务，帮技术、资金和管理）；形成协议的有：大运与北京起重机厂、大运与济南车辆厂、科研所同广州标志公司等项目。另外，大运为湛江市府礼堂安装的舞台升降设备受到好评，在外省市打开了局面。', '帮带是横向联合的一种特殊形式，实践证明，它是改变经济后进的行之有效的办法，上半年局党政领导带领到蒙古和南方几个地区学习考察，商谈有关事宜，使我们的视野更开阔，思路更缜密，决心也更坚定，这条“外引内联”之路前景乐观。', '九一年的经济形势无论是外部环境还是内部条件都好于往年，这就给企业二轮承包的完善和搞活大中型企业以及发展规模经营提供了可行的契机。作为全国和内蒙的试点单位，通达实业股份有限公司经过外部兼并和内部优化组合，闯出了一条路。今年，通达公司在力争减亏的情况下发展商场，开辟多种经营、多相贸易的市场体系，又走活了一步路。目前，通达公司依靠“计划单列，财政挂钩”的特殊优惠政策，进一步深化改革，求得更大发展。', '要想发展和壮大企业，规模经营势在必行，为此，大运公司、联运公司、二运公司和呼哈铁路管理站积极筹组集团公司，以求最大限度地调动现有企业的经营能力，以大型运输带动普通运输，朝特殊运输方向发展，实现资产存量的优化组合和增量的合理配制，达到规模经营的效益，为形成呼市的交通枢纽地位奠定基础。', '为适应全市经济发展和“外引内联”的需要，交通运输体系的建立及基础设施的配套建设显得十分重要。交通事业的另一支柱，公路建设是为公路运输服务的。而随着经营形式的不断丰富，作为窗口单位的交通部门，其对服务意识也在不断增强。另一方面，作为企业发展的活力剂—科学技术也更受重视，通过技术改造，兴建、扩建原有设备，为唱好经济戏打下坚实的基础。', '今年我们继续以“养建结合、以养为主、科学管理、提高质量”为公路建设的指导方针来规划建设项目。为保证那达慕工程顺利完工，局领导和有关技术人员多次亲临现场指挥，勘察。目前，呼包路、呼喇路和喇嘛洞旅游路三项大修工程分别完成工作量216万元，58.5万元和56.7万元，均占总量的90%。上半年新建及大修工程累计完成工作量427.2万元，占总量68.5%。', '所谓“质量、品种、效益”就是企业发展由速度效益型向质量效益型转变。质量效益的标志是管理和技术的进步。科学技术是企业发展的源头，而落实技术进步的关键是投入问题。依靠今年我市对交通拨款的倾斜政策，我们及时上马了一批技改项目。如呼哈铁路管理站以70万货款改建货场；呼运的“发动机无隙过盈配合新技术”；大运的“改造500马力牵引车和大型200吨平板车”还有交通修理厂厂房改建；二运车辆更新项目。这些技改措施无疑是提高经济效益的决定性因素。', '经济建设需要良好的社会环境、投资环境。91年随着十年规划和八五计划的提出与事实，全社会进入为经济建设服务好的意识中。', '社会治安综合治理工作从签订责任书到建立机构层层落实严格把关，已经做到了群防群治，并形成网络，交通系统前后曾40次组织学习中央7号文件和市委市政府1号文件，从思想上高度重视，使“看好门、管好人、办好事”的口号家喻户晓。', '搞好综合治理工作既是长治久安、创造良好经济环境的必要提前，又是确保我区那达慕大会圆满召开的有力措施。交通系统是窗口单位，在四面八方广泛往来的今天，我们的精神面貌和服务意识如何，影响重大。车、路、站、所更是前哨阵地。因此，我们借迎接那达慕大会之机，对车辆检测、行车安全、站口卫生、文明服务等方面进行了评比、考核，并且使那达慕精神深入人心，成为推动企业向前发展的巨大动力。', '上半年我们的政治思想工作以配合党建活动为中心，用丰富多彩的形式起到了寓教育于娱乐的作用。如大型文艺会演，象征性长跑比赛，极大地推动了干部群众的积极性，工作状态和精神面貌都有改观。', '上半年工作进展方向是好的，但我们应该看到，希望与挑战同在，困难与机遇并存，取得的成绩仅仅是个起步，大步还没有迈开。我们所面临的经济环境将更复杂难测。因此，今后必须做好三件事：', '1、强化行业管理，加强宏观调控。行业管理以规划指导、组织协调、信息服务为内容，实现跨部门、跨所有制的行业管理。', '2、克服一手硬一手软的倾向，使硬件、软件配套进行。目前，我们在思想建设、制度管理等方面存在不足，还需要进一步加强。坚持两个文明一起抓，仍是我们今后努力的方向。', '3、在巩固的基础上进一步提高企业经济效益，企业要加强内引外联，发展横向联合开拓经济发展的新路子。机关事业单位要把管理和服务结合起来，要继续为企业创造良好的社会和经济环境，在那达慕期间各项工作要迈上一个新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>25</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>呼市人社局关于对呼和浩特市第十五届人大三次会议第号关于加强市区两级统筹联动推进社区治理智慧化精细化的建议的答复</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2020-11-16</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/srlzyhshbzj_22410/fdzdgknr/jytablnew/202011/t20201116_941023.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['呼市人社局关于对呼和浩特市第十五届人大三次会议第359号《关于加强市、区两级统筹联动，推进社区治理智慧化、精细化的建议》的答复_ 呼和浩特市人民政府', '呼市人社局关于对 呼和浩特市第十五届人大三次会议第359号 《关于加强市、区两级统筹联动， 推进社区治理智慧化、精细化的建议》的答复', '您提出的《关于加强市、区两级统筹联动，推进社区治理智慧化、精细化的建议》已收悉，现就有关问题答复如下：', '近年来，国务院和自治区先后密集出台了关于积极推进“互联网+政务服务”的一系列政策措施，对政府部门充分利用信息化手段、大数据分析决策提升服务能力等，提出了明确要求和部署。', '按照《国务院办公厅关于印发进一步深化“互联网+政务服务”推进政务服务“一网、一门、一次”改革实施方案的通知》的相关要求，在自治区人社厅的大力支持下，我局2018年12月起启动了呼和浩特市人力资源和社会保障“一网通办”综合服务项目建设，着力解决企业和群众办事难点痛点堵点问题。“一网通办”一期项目于2019年6月5日上线试运行，二期项目于12月1日上线，累计完成122项人社公共服务事项的网上办理，截至目前累计网上办理业务69.6万笔，大厅工作接待量较之前减少近90%，初步形成了网上服务大厅、手机移动客户端、自助服务终端、综合柜员制、12333电话服务“五位一体”的人社服务矩阵。', '2018年末，我市试点建设“一网通办”平台。市委、市政府将“一网通办”项目列入2019年为民办实事项目。经先后学习考察秦皇岛市、常州市、南宁市人社领域信息化建设先进经验，初步梳理出以下几点建设思路：', '1、流程大改造，改变业务办理方式。通过建设网上服务大厅，坚决改变目前窗口排队办理业务模式。', '2、服务大提升，实现“不见面”办理。以往提升服务效能，往往通过增加大厅服务窗口、加强工作人员培训教育、规范窗口服务标准等方式进行。但我们意识到，“不见面”办理是提升服务效能的最佳手段。', '3、材料大瘦身，实现档案电子化管理。多年来，办理业务收取纸质材料已经是再正常不过的事情。但是，纸质材料的收取、归档、存放、后续的调取、查阅等既浪费人力财力，更不环保。我们认为档案电子化管理是大势所趋，可以实现对业务档案共享使用，有利于大数据分析决策。', '4、业务大协同，实现条状分散办理到网状协同办理。人社部门内部，乃至人社和其他部门之间，很多业务都存在内在的关联，我们完全可以通过大数据分析，实现多项业务的协同办理，真正实现“让数据多跑路，让老百姓少跑腿”的目的。', '5、观念大转变，实现“人找事”到“事找人”。多年以来，老百姓往往被动办理业务，不办理会影响到切身利益时才会办。但实际上，很多业务，是可以通过大数据分析，提前预知并主动推送服务。', '按照以上建设思路，我们开始着手“一网通办”平台建设。经过一期二期项目，现已取得阶段性的成果，但离我们的建设初衷还有一定的差距。现结合疫情防控工作，将“一网通办”项目阶段性成果汇报如下：', '（1）对人社服务事项进行标准化梳理。集中利用一个月时间，系统梳理人社服务事项清单，优化业务流程，编制办事指南，全局共梳理出219个服务事项。', '（2）建设业务档案一体化平台。将电子档案与业务系统深度融合,进行业务档案一体化管理，实现全程无纸化办理。目前已存储业务档案图片110万张。', '（3）初步建立电子证照库。对服务对象的身份证、社保卡、低保证、退休证等证件进行电子化管理，实现“一次采集、终身使用，一库管理、互认共享”。', '（4）实现“三项业务”协同办理。实现了劳动用工备案、就业失业登记和社会保险登记三项业务的协同办理。截至目前，共有18项业务实现协同，累计办理业务22.7万笔，减少服务对象到现场办理业务约68.2万笔。为进一步实现各项业务协同办理提供可行性实践，为有效推进人社部要求开展的“人社服务快办行动”，关联事项“打包办”、高频事项“ 提速办” 打下基础。', '（5）实现参保缴费证明、个人权益记录单网上自助打印。服务对象可通过单位网上服务大厅、个人网上服务大厅、人社系统自助服务一体机自助打印参保缴费证明、个人权益记录单。同时，引用二维码防伪标签，可随时查询单据的真伪。截至目前，网上自助打印参保证明共计3.7万份，为服务对象在工程招标、非本市户籍考生高考报名、申请公租房、各类考试资格审查等方面提供了极大的便利。', '（6）建设“青城智慧人社”手机APP。“青城智慧人社”手机APP实现了51个事项的“掌上”办理。我市市民办理个体灵活就业人员核定，失业保险金申领，社会保障卡申领、挂失，企业职工退休申请等业务可以足不出户“掌上”办理。截至目前，共办理业务2万余笔。', '（7）拓展自助办理，服务重心下沉。通过积极向全市13个网点（包含九个旗县区市民服务中心）布设人社自助服务一体机，实现养老保险待遇资格认证、养老关系转移凭证自助打印、社保卡挂失解挂等老百姓常办的业务。截至目前，人社自助服务一体机已办理11.1万笔业务，将人社服务送到了群众“家门口”。', '（8）主动推送服务，老百姓从“能办事”到“好办事”。本着“让数据多跑路，让群众少跑腿”理念，做到全业务周期进度随时查询，审批事项智能调度，业务办理全程留痕，办结结果短信告知。自“一网通办”平台试运行以来，累计发送短信已超过100万条。', '众所周知，人社工作具有政策复杂、事项繁多、服务对象广、手工办理多等特点。目前，我市参保单位已超过2万家，仅职工参保达到67万人次。新冠肺炎疫情发生对我们在完成防控部署的情况下有序开展相关工作带来极大的挑战。', '疫情就是命令，防控就是责任，全局上下朝乾夕惕，全力以赴，以“一网通办”为平台，全面推进“不见面”服务，坚决打赢疫情防控阻击战。', '（1）自疫情以来，我局通过“呼和浩特12333”微信订阅号发布各类信息20多条，包含疫情防控期间各类政策文件解读、疫情防控阶段业务办理方式、具体业务的操作流程等。引导全市市民疫情期间有序办理人社业务，保障了国家、自治区和我市发布的各项疫情扶持政策落实落细。', '（2）针对疫情及时调整业务办理模式。自疫情发生以来，我局第一时间公布《呼和浩特市人力资源和社会保障局疫情防控阶段人社业务“不见面”办理温馨提示》，公布了120项网上服务事项清单，公布了60余部服务电话；引导群众办理人社业务首选网上办，并结合电话办、邮寄办、延后办、暂停办、预约办等举措，通过“非接触”方式，提供“不见面”服务。截至目前，累计网办业务量超过28万笔。通过及时调整业务办理模式，有效减少人员聚集，阻断疫情传播，更好地保障了人民群众身体健康和生命安全。', '近年来，各地政府部门在深化“放管服”改革过程中，显有部门间数据共享程度不高，协作配合的紧密度不够的问题，我市也不例外。由于各单位各部门信息系统建设纵向林立，横向不通现象严重，系统间业务数据共享协同确有不足。在协调各业务系统开发管理部门开放接口、共享数据时，困难重重，进展缓慢。这就给打破“信息孤岛”，推进跨部门信息共享、业务协同，带来重重阻碍。', '下一步，我们将加快建设“一网通办”三期项目,尽快完成事业单位人事人才、仲裁监察、职称评审、汇总统计、综合分析等子系统建设，全面打破纵向“信息孤岛”， 推进跨部门信息共享、业务协同，构建方便快捷、公平普惠、优质高效的人社服务体系，真正为我市实现智慧化助力。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>25</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>呼市人社局关于对呼和浩特市第十五届人大三次会议第号关于窗口单位有些业务可持续在网络上办理的建议的答复</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2020-11-16</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/srlzyhshbzj_22410/fdzdgknr/jytablnew/202011/t20201116_941025.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['呼市人社局关于对呼和浩特市第十五届人大三次会议第021号《关于窗口单位有些业务可持续在网络上办理的建议》的答复_ 呼和浩特市人民政府', '呼市人社局关于 对呼和浩特市第十五届人大三次会议第021号 《关于窗口单位有些业务可持续在网络上办理 的建议》的答复', '您提出的《关于窗口单位有些业务可持续在网络上办理的建议》已收悉，现就有关问题答复如下：', '近年来，为深入贯彻落实中央关于深化“放管服”改革、优化营商环境的决策部署，国务院和自治区先后密集出台了关于积极推进“互联网+政务服务”的一系列政策措施，对政府部门充分利用信息化手段，提升服务能力提出了明确要求和部署。', '按照《国务院办公厅关于印发进一步深化“互联网+政务服务”推进政务服务“一网、一门、一次”改革实施方案的通知》的相关要求，在自治区人社厅的大力支持下，我局2018年12月起启动了呼和浩特市人力资源和社会保障“一网通办”综合服务项目建设，着力解决企业和群众办事难点痛点堵点问题。“一网通办”一期项目于2019年6月5日上线试运行，二期项目于12月1日上线，累计完成122项人社公共服务事项的网上办理，截至目前累计网上办理业务69.6万笔，大厅工作量较之前减少近90%，初步形成了网上服务大厅、手机移动客户端、自助服务终端、综合柜员制、12333电话服务“五位一体”的人社服务矩阵。', '2018年末，我市试点建设“一网通办”平台。市委、市政府将“一网通办”项目列入2019年为民办实事项目。经先后学习考察秦皇岛市、常州市、南宁市人社领域信息化建设先进经验，初步梳理出以下几点建设思路：', '（一）流程大改造，改变业务办理方式。通过建设网上服务大厅，坚决改变目前窗口排队办理业务模式。', '（二）服务大提升，实现“不见面”办理。以往提升服务效能，往往通过增加大厅服务窗口、加强工作人员培训教育、规范窗口服务标准等方式进行。但我们意识到，“不见面”办理是提升服务效能的最佳手段。', '（三）材料大瘦身，实现档案电子化管理。多年来，办理业务收取纸质材料已经是再正常不过的事情。但是，纸质材料的收取、归档、存放、后续的调取、查阅等既浪费人力财力，更不环保。我们认为档案电子化管理是大势所趋。', '（四）业务大协同，实现条状分散办理到网状协同办理。人社部门内部，乃至人社和其他部门之间，很多业务都存在内在的关联，我们完全可以通过大数据分析，实现多项业务的协同办理，真正实现“让数据多跑路，让老百姓少跑腿”的目的。', '（五）观念大转变，实现“人找事”到“事找人”。多年以来，老百姓往往被动办理业务，不办理会影响到切身利益时才会办。但实际上，很多业务，是可以通过大数据分析，提前预知并主动推送服务。', '按照以上建设思路，我们开始着手“一网通办”平台建设。经过一期二期项目，现已取得阶段性的成果，但离我们的建设初衷还有一定的差距。现结合疫情防控工作，将“一网通办”项目阶段性成果汇报如下：', '1.对人社服务事项进行标准化梳理。集中利用一个月时间，系统梳理人社服务事项清单，优化业务流程，编制办事指南，全局共梳理出219个服务事项。', '2.建设业务档案一体化平台。将电子档案与业务系统深度融合,进行业务档案一体化管理，实现全程无纸化办理。目前已存储业务档案图片110万张。', '3.初步建立电子证照库。对服务对象的身份证、社保卡、低保证、退休证等证件进行电子化管理，实现“一次采集、终身使用，一库管理、互认共享”。', '4.实现“三项业务”协同办理。实现了劳动用工备案、就业失业登记和社会保险登记三项业务的协同办理，一次申请提交，可同时办理三项业务。截至目前，共有18项业务实现协同，累计办理业务22.7万笔，减少服务对象到现场办理业务约68.2万笔。为进一步实现各项业的务协同办理提供了可行性实践，为有效推进人社部要求开展的“人社服务快办行动”，关联事项“打包办”、高频事项“ 提速办” 打下基础。', '5.实现参保缴费证明、个人权益记录单网上自助打印。服务对象可通过单位网上服务大厅、个人网上服务大厅、人社系统自助服务一体机自助打印参保缴费证明、个人权益记录单。同时，引用二维码防伪标签，可随时查询单据的真伪。截至目前，网上自助打印参保证明共计3.7万份，为服务对象在工程招标、非本市户籍考生高考报名、申请公租房、各类考试资格审查等方面提供了极大的便利。', '6.建设“青城智慧人社”手机APP。“青城智慧人社”手机APP实现了51个事项的“掌上”办理。我市市民办理个体灵活就业人员核定，失业保险金申领，社会保障卡申领、挂失，企业职工退休申请等业务可以足不出户“掌上”办理。截至目前，共办理业务2万余笔。', '7.拓展自助办理，服务重心下沉。通过积极向全市13个网点（包含九个旗县区市民服务中心）布设人社自助服务一体机，实现养老保险待遇资格认证、养老关系转移凭证自助打印、社保卡挂失解挂等近40项老百姓常办的业务。截至目前，人社自助服务一体机已办理11.1万笔业务，将人社服务送到了群众“家门口”。', '8.主动推送服务，老百姓从“能办事”到“好办事”。本着“让数据多跑路，让群众少跑腿”理念，做到全业务周期进度随时查询，服务事项智能调度，业务办理全程留痕，办结结果短信告知。自“一网通办”平台试运行以来，累计发送短信已超过100万条。', '众所周知，人社工作具有政策复杂、事项繁多、服务对象广、手工办理多等特点。目前，我市参保单位已超过2万家，仅职工参保人数达到63万。新冠肺炎疫情发生对我们在完成防控部署的情况下有序开展相关工作带来极大的挑战。', '疫情就是命令，防控就是责任，全局上下朝乾夕惕，全力以赴，以“一网通办”为平台，全面推进“不见面”服务，坚决打赢疫情防控阻击战。', '1.自疫情以来，我局通过“呼和浩特12333”微信订阅号发布各类信息20多条，包含疫情防控期间各类政策文件解读、疫情防控阶段业务办理方式、具体业务的操作流程等。引导全市市民疫情期间有序办理人社业务，保障了国家、自治区和我市发布的各项疫情扶持政策落实落细。', '2.针对疫情及时调整业务办理模式。自疫情发生以来，我局第一时间公布《呼和浩特市人力资源和社会保障局疫情防控阶段人社业务“不见面”办理温馨提示》，公布了120项网上服务事项清单，公布了60余部服务电话；引导群众办理人社业务首选网上办，并结合电话办、邮寄办、延后办、暂停办、预约办等举措，通过“非接触”方式，提供“不见面”服务。截至目前，累计网办业务量超过28万笔。通过及时调整业务办理模式，有效减少人员聚集，阻断疫情传播，更好地保障了人民群众身体健康和生命安全。', '下一步，我们将加快建设“一网通办”三期项目,尽快完成事业单位人事人才、仲裁监察、职称评审、汇总统计、综合分析等子系统建设，逐步形成“一网通办、一门服务、一窗受理、一次办结”“四个一”服务新标准，构建方便快捷、公平普惠、优质高效的人社服务体系，为群众提供好办事、快办事的服务平台，增强群众的幸福感、获得感。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>25</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>呼和浩特高位推进全力构建强首府战略的四梁八柱</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2023-01-16</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650087598&amp;idx=4&amp;sn=14ce8805df0cd3c8da114bc1fa310049&amp;scene=0</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '刚刚过去的2022年，首府成功应对两轮大规模疫情，全市经济保持稳定良好发展。这一年，首府国土空间布局得到优化，产业集群得到发展壮大，基础设施进一步夯实，要素保障能力大幅增强。', '新的一年里，全力推进“强首府”工程，进一步提升城市能级，大力构建支撑现代化区域中心城市的“四梁八柱”，成为首府经济社会高质量发展的首要任务。', '不久前，久泰新材料公司100万吨乙二醇项目进入正式试生产，目前生产非常稳定。“下一步，我们将集中精力继续推进后续的聚甲醛、聚乙醇酸、新型精细化学品延链补链一体化项目及液态氢等项目，使我们的整个产业链、价值链不断延伸。”久泰新材料公司总经理助理李俊胜介绍说。', '久泰项目的快速推进，是首府深入贯彻落实自治区“强首府”要求和市第十三次党代会工作部署，全面建设现代化区域中心城市的具体体现。', '市第十三次党代会围绕落实习近平总书记交给内蒙古的五大任务，提出争创“三个城市”、培育“六大产业集群”、推动融入“四大经济圈”、打造“四个区域中心”、建设“五宜城市”奋斗目标。通过不懈努力，首府在项目建设、产业结构调整、基础设施建设等方面都取得显著成效。2022年全市实施重点项目1055个、预计完成投资1114.6亿元，首次实现“双千”目标，固定资产投资实现了“两位数”逆势增长。“一横、两纵、四环、三枢纽”的城市立体交通布局逐步形成，三环路、金海路等共计155公里的快速路全部通车。通过抓“拔尖”、补“链条”，六大产业集群加速成长，产值占到全市工业总产值的88.1%。荣获了国家先进制造业集群、和林格尔数据中心集群、商贸服务型国家物流枢纽、国家骨干冷链物流基地、国家北方地区冬季清洁取暖城市、“无废城市”、海绵城市、国家公立医院改革与高质量发展示范项目、首批国家知识产权强市建设试点城市、国家城市一刻钟便民生活圈试点地区、国家个人养老金先行城市等多个“国字号”荣誉称号。', '抓项目就是抓发展。今年首府还将实施重点项目1100个以上，完成投资1200亿元以上。抓项目仍然是全市的“头号工程”，“项目优先、项目为王”的理念在全市上下已形成共识。', '“由于工作关系，我多次到呼和浩特考察、学习和交流，每次到呼市都能感受到这里的新变化、新发展。近年来，华为集团与呼市不断深化战略合作，华为非常看好呼和浩特未来的发展前景，将抢抓新机遇，联合合作伙伴共同为呼和浩特高质量发展贡献力量。”华为集团相关负责人在呼和浩特市“百家联盟”招商大会上如是说。', '2022年12月18日，我市举办“百家联盟”招商大会，采取线上线下相结合的方式，共签约涵盖智慧农业、绿色食品、清洁能源、生物医疗、现代商贸等领域产业项目31个，协议投资额近600亿元。', '今年，首府招商引资的目标是，力争引进亿元以上项目400个以上、完成投资500亿元以上，进一步加大招商引资力度成为政府重点工作之一。政府工作报告明确提出，要实行“全员招商”机制，发挥商协会、第三方机构、链主企业等作用，在招商引资的战场上“八仙过海、尽显其能”。要围绕“六大产业集群”，聚焦世界500强、行业龙头、上市公司、“独角兽”等企业，手拿图谱、手握清单，靶向招商、精准招商。要坚持要素跟着项目走、服务围着项目转，确保招商项目“签一个落一个、落一个成一个、成一个带一片”。', '近日，和林格尔新区与交通银行内蒙古分行签署投资合作协议，交通银行和林格尔新区数据中心项目正式落地和林格尔新区“中国金融云谷”，该项目是继中国银行、中国农业银行、中国建设银行之后，第四个落地和林格尔新区的超大型金融数据中心。', '良好的营商环境是吸引企业落地的原因之一。“我们不仅提供‘企业零跑腿、拿地即开工’等相关配套服务，还会针对不同企业类型，出台有针对性的优惠政策，让企业落户和林格尔新区更加快速便捷，同时在市场上更具竞争力。”和林格尔新区经济发展招商服务局一级主管康云鹏说。', '交通银行和林格尔新区数据中心项目的快速落地，只是我市大力优化营商环境结出的一个硕果。', '为加快推动全市重点项目早落地、早开工、早投产、早见效，1月9日，我市启动2023年重点项目“集中审批月”，并发布《快审快办二十条措施》，当天为83个项目办理了审批手续，项目总投资达568亿元。', '一直以来，首府始终在打造最强政策支持、最优服务保障上下功夫。制定出台了稳经济政策43 项、推进市场主体提质增效23 条，以及促进工业、服务业高质量发展、金融支持实体经济等一系列政策措施。对所有项目全部建立“专班服务”制度，提供“24 小时、365天”不打烊服务。', '对标一流、学习先进，推动营商环境综合评价排名在全区“走在前”、在全国“争进位”是首府今年优环境的工作目标。首府将大力推行企业开办极简审批，实现企业开办“一网通、一窗办、半日结、零成本”。', '蓝图已绘就，开启新征程。如今，首府你追我赶、干事创业的浓厚氛围已经形成，全市上下正沿着全面建设现代化区域中心城市的既定方向奋勇前进。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>25</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>市信访局年政务公开工作报告</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2010-06-18</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/sxfj_22433/xxgknb/202105/t20210525_931413.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['年 ，我局认真学习贯彻科学发展观和十七届四中全会精神 ，按照自治区和市委、市政府的决策部署，着力抓好“信访积案化解年”、“迎国庆、保稳定”信访百日功坚等专项活动，为建国60周年庆典活动营造了良好的社会环境，较好地发挥信访工作在促进、维护社会和谐与稳定中的重要作用。现将一年来的工作情况总结如下：', '（三）矛盾纠纷调处情况。年内共调处各类矛盾纠纷33件，对178名非正常上访人员进行了思想疏导和法制教育。', '（四）信访网络建设情况。按照全区信访信息系统建设和市委、市政府关于2009年改善民生工作的部署，完成了市信访信息中心软、硬件基础建设，并对局机关全体干部及旗县区信访局信息化建设负责人和系统管理员等40余人进行了系统应用、维护和“网上办公”等业务知识培训。', '（五）党建、纪检及其它工作。一是继续加强以提高执政能力和政策水平为目标的领导班子和干部队伍建设，较好地完成了党建和思想政治工作任务，并认真落实干部廉洁自律有关规定和党风廉政建设责任制，顺利通过了市政府办公厅机关党委和市纪委年终目标责任制考核。二是按照市政府办公厅的统一安排，积极开展结对共建和社会扶贫任务。三是按要求完成了年度综治、信息、督查和保密等工作任务。', '（一）完善机制，进一步强化信访工作领导责任制。一是制定出科学有效的信访工作目标考核监控办法，以百分制形式考评各有关单位的目标任务完成情况，作为考核旗县区和部委办局领导班子实绩的重要依据。二是与各地区签订了信访工作目标管理责任书，并实施量化考评，考评结果作为年终目标考核监控的重要内容。三是建立信访问题月通报制度，督促责任地区和部门及时解决群众反映的热点、难点信访问题，推动信访责任制的落实。', '（二）结合实际，认真落实好中央“三个”指导性意见。一是严格落实党政领导定期接访制度，妥善解决信访突出问题。累计接待群众来访25批次、2230人次，妥善处理了16件疑难信访问题。二是制定了《呼和浩特市关于党政机关定期组织干部下访的实施方案》，并结合第二批学习实践科学发展观活动的要求，先后3次共组织21个市直部门和单位的机关干部63人次，带案分赴各旗县区和市有关部门开展集中下访活动，对重点信访案件进行督导检查，促进了案结事了。三是深入开展矛盾纠纷排查化解工作。今年以来，共排查出各类信访隐患161件，并对其中的120件重点复杂案件实施了市、县两级领导包案，提前介入、提前处理，使大量信访隐患化解在基层。', '（三）注重实效，积极开展“信访积案化解年”活动。一是于年初制定下发了关于开展“信访积案化解年”活动工作方案，明确任务、目标和要求。二是于5月份在武川县召开了全市“信访积案化解年”活动动员大会，认真传达中央、自治区的有关工作要求，全面部署了信访积案化解工作，并现场交办了各地区和市有关部门的信访积案。', '（四）把握形势，召开全市信访维稳会议部署阶段性工作。根据工作需要，于 7月14日召开了全市信访维稳工作会议，全面安排了下半年开展“迎国庆、保稳定”信访百日功坚活动，整治非正常上访、解决“三跨三分离”信访问题等专项治理工作和建国60周年活动期间的信访稳定工作。', '（五）源头治理，有效解决“三跨三分离”信访问题。“8·24”全区“三跨三分离”信访问题交办调度会议之后，按照自治区信访局的要求，及时协调处理了其他盟市转来的6件“三跨三分离”信访问题。', '（六）精心组织，切实搞好信访百日功坚活动。7月初，按照自治区的统一部署，集中3个多月时间认真组织开展了信访百日功坚活动。一是制定下发了《呼和浩特市关于开展“迎国庆、保稳定”信访百日功坚活动方案》，指导全市的百日功坚活动。二是通过实施市、县两级领导包案，组织市信访联席会议成员单位带案下访等方法妥善处理了一大批久拖不决的信访问题。', '（七）周密部署，突出抓好重大活动期间的信访工作。今年全国“两会”和建国60周年活动前分别制定了信访工作应急预案，有效化解了各类信访苗头隐患，保障了各项重大活动的顺利进行。', '（一）深入开展思想政治教育，不断提高领导班子和干部思想政治素质。一是有步骤地制订理论学习和业务学习计划，并把理论学习与业务工作紧密结合起来，使理论学习常抓常新。通过集中学习、经验交流、撰写心得、参观考察、深入调研交流等形式，使广大党员干部特别是领导干部的理想信念更加坚定，政治思维更加敏锐，分辨是非的能力明显提高。二是制定了支部思想政治工作目标管理责任制，与党建工作同部署，同落实，同检查，同考核。同时严格执行思想政治工作协调、联系等制度，通过谈心、征求意见、组织生活会等形式，领导班子深入了解干部职工的思想动态和工作情况，深刻进行思想分析，为组织和领导全局工作奠定了基础。三是成立了思想政治工作领导小组，党政主要负责同志亲自抓，负总责，分管领导具体抓，形成“一把手抓两手”、“一班人两手抓”的思想政治工作领导机制。多次召开局长办公会议，研究部署全年思想政治工作的目标任务、工作措施、软硬件建设等，及时将目标考核任务逐条逐项分解落实，真正把思想政治工作贯穿于业务工作和机关建设工作中。同时，还建立了《三会一课制度》、《思想政治工作责任制》、《民主评议党员工作制度》等一系列配套制度，进一步推进了思想政治工作的制度化、长效化。四是党支部在年初专门制定了党组织学习计划，全年安排学习计划26次，要求领导干部先学一步、多学一些、学深一些，充分发挥党员领导干部学习的指导和带动作用，努力建设学习型领导班子。五是班子始终坚持民主集中制，认真组织召开民主生活会，积极开展批评与自我批评，积极开展谈心交心活动，为加强领导班子团结提供可靠的组织和制度保证。', '今年以来，局领导班子成员参加中心组学习、党校培训和赴外学习考察共计10人次，累计50余课时；组织党员干部集中学习和参加各类培训教育共计30余次，党员干部的思想理论、法律政策水平和业务能力明显提高。', '（二）重点抓好学习实践科学发展观活动。按照中央、自治区和市委关于开展深入学习实践科学发展观活动的部署，我局以领导班子成员和党员干部为重点，集中2009年3月份—8月份半年的时间，认真组织开展了学习实践科学发展观活动。从抓准备工作、党员干部培训教育、结合信访案件进行调查研究入手，扎实开展学习调研阶段的各项任务；通过精心组织召开专题民主生活会和组织生活会，认真撰写领导班子分析检查报告并广泛进行评议，确保分析检查阶段的任务落实，达到了分析检查到位，问题查找到位的预期目标；及时制定整改落实方案，与干部带案下访活动结合起来，集中解决突出问题，并实实在在搞好“回头看”，全面落实整改落实阶段的工作任务，确保“党员干部受教育、人民群众得实惠、科学发展上水平”。', '学习实践活动期间，我局还结合实际印发了市领导联系点存在的19件信访突出问题相关材料，通过市委学习实践活动领导小组办公室分发给7位市领导，由相关市领导借助学习实践调研活动，深入基层调查研究，督导检查，有力地推动了问题解决。', '另外，结合学习实践活动的开展，我们还组织开展了“内强素质、外树形象”和“学习型、服务型、廉洁型、高效型、创新型、和谐型”机关创建活动。领导班子及时研究部署活动情况，积极参与每项活动，随时接受着干部职工的监督。通过严明纪律，加强教育、规范管理、建立和完善处室及人员考核激励机制，切实解决目前工作中存在的突出问题，使单位学风、行风、政风得到改善，全体干部职工在履行职责和工作创新上有所进步，在服务质量和办事效率上明显提高，使信访局成为纪律严、业务精、服务好、效率高的表率部门。', '根据工作需要，一是从基层信访局选拔调入1名具有专业技术的工作人员，充实到信访信息中心工作。二是按照组织程序推选、提拔了4名年轻干部，分别担任有关处室和二级事业单位的领导，加强了机关干部队伍建设，促进了信访工作整体上水平。', '一是信访积案化解工作措施缺少突破，一些已报结案的信访案件虽然有了处理意见，但仍未做到案结事了。二是各地区信访信息系统建设进度不一，个别地区相对滞后。三是由于工作任务重，学习实践科学发展观活动仅仅是按程序完成各项规定动作，形式和内容上缺乏创新。四是信访工作力量与信访工作形势任务不相适应，制约了信访工作的开展。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>25</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>呼和浩特市体育局副局长苏亚拉赴青岛市体育运动学校交流学习</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2022-08-10</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/styj_22426/fdzdgknr_24634/qt/shgysyjs/jyty/202208/t20220810_1329245.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['市体育运动学校李雷书记陪同苏亚拉副局长一行参观了综合馆、田径馆、射箭馆、游泳馆等重点项目训练场馆，介绍了', '创新竞技体育、人才培养的模式，加快新形势下体育事业的发展，突出体育运动学校的办学特色，', '让更多的人了解体育运动学校优质体育资源与文化教学有机融合，积极破解发展瓶颈。同时，更要充分依托自身地域优势，通过建立青少年体育俱乐部等方式，打破壁垒、盘活资源，强化师资力量，促进教练员队伍成长，积极探索具有区域特色的体校发展之路，不断为体育后备人才培养注入新动力。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>25</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>呼和浩特市环境保护局能源办二六年工作总结及二七年工作思路</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2009-11-28</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/ssthjj_22412/xxgknb/202105/t20210525_930589.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['呼和浩特市环境保护局能源办二○○六年工作总结及二○○七年工作思路_ 呼和浩特市人民政府', '我办今年紧紧围绕“创模”和创新两方面工作，扩大清洁能源利用比例和提升能源基础供应、水平等方面都取得了明显的成效。到2007年，城市气化率应大于90%；在烟控区内，清洁能源使用率锅炉达30%；商业网点、食堂大灶、茶浴炉达70%。', '1、充分利用现有的天然气、煤气、电、液化石油气等清洁能源，使用范围由二环路以内扩展至市区内的所有餐饮业、商业网点、食堂大灶、茶浴炉、采暖炉、工业用户、高层建筑中央空调、工业园区、热电联产等。', '2、按照《呼和浩特市大气污染防治管理条例》规定，根据我市集中供热管网、天然气管网铺设情况，下列区域为市区划定的禁煤区：西界：通道北街、大南街；东界：展览馆西路；北界：海拉尔东西路以南；南界：鄂尔多斯大街。在禁煤区内采用集中供热或天然气等清洁能源采暖。', '3、为提高清洁能源使用率，实现天然气引气规模，市政府出台有关政策，鼓励和扶持煤气化总公司经营以天然气为燃料的热源厂，扩大天然气用量，打破目前供热市场的垄断局面，引入竞争机制，实现供热市场的多元化。', '1、充分利用太阳能资源。太阳能是一种可再生能源，我市日照时数长达2969小时/年，太阳能资源相对充足，如何合理规划使用太阳能，应作为一项重点项目来抓。', '——出台强制政策，要求我市所有的新建筑和改建低层（别墅）、多层住宅建筑，必须进行太阳能热水器一体化设计和施工，使太阳能热水器建筑整齐美观，协调有序。', '2、继续开展建筑节能工作。建筑节能不但是社会进步的需要，也是清洁能源利用成本降低的关键。我市2004年开始开展建筑节能工作，提出了节能指标和相关要求，并开展了试点示范工作，此项工作应持续开展下去。', '——新建筑要严格执行已出台的建筑节能方面的管理规定，加强监管，不符合管理规定的，不予审批。', '3、积极引进研究清洁能源技术。近年来，学习引进的清洁技术有电热膜、电锅炉采暖；地源热泵、地面热管采暖；煤气（天然气）壁挂炉、锅炉采暖；煤制气锅炉等多项技术，对我市利用清洁能源技术防治空气污染起到了很好的推动作用。今后应总结经验，继续加大工作力度，积极考察学习国内外先进的技术项目，在我市推广应用，提升现代化首府城市的品位。', '4、推广生物质能工程项目。农村沼气开发利用，现已在土左旗、清水河县及和林县相继建设试用。', '在总结前几年煤炭管理工作经验的基础上，结合2006年我市环保工作的任务，进一步完善了煤炭经营管理工作中的各项管理制度，相继制定了以下规定：', '等等这些规定和要求，使我市煤炭市场经营管理工作更加有计划、有步骤、合理规范地进行。', '2、上半年煤炭监测64份，其中合格23份，不合格41份。对发现问题及煤质不合格现象，及时通知监察支队及四区环保局进行处罚。', '（1）开展摸底调查工作。为顺利开展“煤炭市场清理整顿工作”，成立了专项工作领导小组，制定了《清理整顿国道、省道、公路沿线两侧非法煤炭市场的工作方案》。经过各旗县区环保局摸底调查，公路沿线共有224家煤炭经营企业，其中持证经营共有100家，非法经营共有124家。', '（2）加强宣传动员、展开清理整顿。各旗县环保局先后出动人员500余人次，车辆130多台次，对各自管区的煤炭市场进行了清理整顿工作。经过整顿，有52家无证经营户在规定的时限内进行了自行清理，共计清理煤炭20900多吨，拆除各种计量、分选等设施16台。对两家企业采取了强制取缔，其余无证经营户都纳入了各自辖区煤炭市场的统一管理。', '如学习引进的清洁技术有电热膜、电锅炉采暖；地源热泵、地面热管采暖；煤制气进行及时总结，并进一步指导推广工作。', '我市重点实施集中供热工程以来，拆除了约1100多台分散锅炉。但是，保留下来的大中型工业采暖锅炉仍然以燃煤为主，燃煤污染依然是我市的主要污染源。因此，煤炭洁净燃烧技术、节能降耗、开发再生能源、做好重点项目示范工作非常重要。', '——利用伊利集团的工业锅炉节能降耗示范工程，在同类企业中推广应用，逐步总结经验在其他工业锅炉、采暖锅炉上应用。', '——继续做好武川淖尔梁风力发电、和林盛乐园区热电厂、和林生物质能发电和和林养牛村沼气项目的协调扶持工作。', '——尽快制定出台有关节能降耗的标准、鉴定体系、奖惩措施，提高监管力度，激励企事业单位及广大民众树立节能意识，明白节约型社会要从我做起，从能源做起。', '——稳定精煤推广使用范围，精煤推广使用范围已由市区、旗县城关镇及工业园区扩展至全市用煤户。需要进一步稳定巩固，以降低能耗。', '——加大对供煤企业的管理力度，煤炭经营企业须具有经营资质并与市环保局签订责任状，从源头上把好精煤质量关。', '——加强对用煤户煤质监管，用煤户与市环保局签订用煤责任书，按规定使用煤炭。在储煤初期，即对用煤户进行煤质检测。严格按有关管理规定对违规用煤单位、供煤公司予以处理，确保精煤质量。', '——组织有实力的供煤企业，协调大的用煤户与之签订购煤合同，同时加大对供需双方的监督。', '煤炭市场的规范建设，是我市煤炭经营管理工作的重要内容，对防治煤尘污染，改善景观和空气质量等均有积极作用。', '——凡在呼市地区设置煤场经营煤炭的新企业，一律入呼市各旗县区规划建设的煤炭集中交易市场，对市场外的已有煤炭经营点要从严管理并逐步搬迁或取缔。', '——各旗县区规划建设的煤炭集中交易市场，要严格执行我市煤炭市场建设的有关规定，垒砌围墙、配备防尘网及水喷淋装置，封闭式选煤筛等防治煤尘污染的设施。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>25</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>呼市人社局关于对呼和浩特市政协第十三届三次会议第号提案关于优化首府营商环境提升我市公共服务水平的建议的答复</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2020-11-17</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/srlzyhshbzj_22410/fdzdgknr/jytablnew/202011/t20201117_941034.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['呼市人社局关于对呼和浩特市政协第十三届三次会议第300号提案《关于优化首府营商环境 提升我市公共服务水平的建议》的答复_ 呼和浩特市人民政府', '呼市人社局关于对 呼和浩特市政协第十三届三次会议第300号提案 《关于优化首府营商环境 提升我市公共服务水平 的建议》的答复', '您提出的《关于优化首府营商环境 提升我市公共服务水平的建议》已收悉，现就有关内容答复如下：', '近年来，为深入贯彻落实中央关于深化“放管服”改革、优化营商环境的决策部署，国务院和自治区先后密集出台了关于积极推进“互联网+政务服务”的一系列政策措施，对政府部门充分利用信息化手段，提升服务能力提出了明确要求和部署。', '按照《国务院办公厅关于印发进一步深化“互联网+政务服务”推进政务服务“一网、一门、一次”改革实施方案的通知》的相关要求，我局于2018年12月启动了呼和浩特市人力资源和社会保障“一网通办”综合服务项目建设，着力通过信息化建设改善营商环境，解决企业和群众办事难点痛点堵点问题。“一网通办”一期项目于2019年6月5日上线试运行，二期项目于2019年12月1日上线，截至目前，累计完成122项人社公共服务事项的网上办理，累计网上办理业务69.6万笔，大厅工作接待量较之前减少近90%，初步形成了网上办事大厅（包括：企业网上办事大厅和个人网上办事大厅）、手机移动客户端、自助服务终端、综合柜员制、12333电话服务“五位一体”的人社服务矩阵。', '2018年末，我市试点建设“一网通办”平台。市委、市政府将“一网通办”项目列入2019年为民办实事项目。经先后学习考察秦皇岛市、常州市、南宁市人社领域信息化建设先进经验，初步梳理出以下几点建设思路：', '1、流程大改造，改变业务办理方式。通过建设网上服务大厅，坚决改变目前窗口排队办理业务模式。', '2、服务大提升，实现“不见面”办理。以往提升服务效能，往往通过增加大厅服务窗口、加强工作人员培训教育、规范窗口服务标准等方式进行。但我们意识到，“不见面”办理是提升服务效能的最佳手段。', '3、材料大瘦身，实现档案电子化管理。多年来，办理业务收取纸质材料已经是再正常不过的事情。但是，纸质材料的收取、归档、存放、后续的调取、查阅等既浪费人力财力，更不环保。我们认为档案电子化管理是大势所趋。', '4、业务大协同，实现条状分散办理到网状协同办理。人社部门内部，乃至人社和其他部门之间，很多业务都存在内在的关联，我们完全可以通过大数据分析，实现多项业务的协同办理，真正实现“让数据多跑路，让老百姓少跑腿”的目的。', '5、观念大转变，实现“人找事”到“事找人”。多年以来，老百姓往往被动办理业务，不办理会影响到切身利益时才会办。但实际上，很多业务，是可以通过大数据分析，提前预知并主动推送服务。', '按照以上建设思路，我们开始着手“一网通办”平台建设。经过一期二期项目，现已取得阶段性的成果，但离我们的建设初衷还有一定的差距。现将“一网通办”项目阶段性成果汇报如下：', '1、对人社服务事项进行标准化梳理。集中利用一个月时间，系统梳理人社服务事项清单，优化业务流程，编制办事指南，全局共梳理出219个服务事项。', '2、建设业务档案一体化平台。将电子档案与业务系统深度融合,进行业务档案一体化管理，实现全程无纸化办理。目前已存储业务档案图片110万张。', '3、初步建立电子证照库。对服务对象的身份证、社保卡、低保证、退休证等证件进行电子化管理，实现“一次采集、终身使用，一库管理、互认共享”。', '4、实现“三项业务”协同办理。实现了劳动用工备案、就业失业登记和社会保险登记三项业务的协同办理。截至目前，共有18项业务实现协同，累计办理业务22.7万笔，减少服务对象到现场办理业务约68.2万笔。为进一步实现各项业务协同办理提供可行性实践，为有效推进人社部要求开展的“人社服务快办行动”，关联事项“打包办”、高频事项“ 提速办” 打下基础。', '5、实现参保缴费证明、个人权益记录单网上自助打印。服务对象可通过单位网上服务大厅、个人网上服务大厅、人社系统自助服务一体机自助打印参保缴费证明、个人权益记录单。同时，引用二维码防伪标签，可随时查询单据的真伪。截至目前，网上自助打印参保证明共计3.7万份，为服务对象在工程招标、非本市户籍考生高考报名、申请公租房、各类考试资格审查等方面提供了极大的便利。', '6、建设“青城智慧人社”手机APP。“青城智慧人社”手机APP实现了51个事项的“掌上”办理。我市市民办理个体灵活就业人员核定，失业保险金申领，社会保障卡申领、挂失，企业职工退休申请等业务可以足不出户“掌上”办理。截至目前，共办理业务2万余笔。', '7、拓展自助办理，服务重心下沉。通过积极向全市13个网点（包含九个旗县区市民服务中心）布设人社自助服务一体机，实现养老保险待遇资格认证、养老关系转移凭证自助打印、社保卡挂失解挂失等近40项老百姓常办的业务。截至目前，人社自助服务一体机已办理11.1万笔业务，将人社服务送到了群众“家门口”。', '8、主动推送服务，老百姓从“能办事”到“好办事”。本着“让数据多跑路，让群众少跑腿”理念，做到全业务周期进度随时查询，审批事项智能调度，业务办理全程留痕，办结结果短信告知。自“一网通办”平台试运行以来，累计发送短信已超过100万条。', '近年来，各地政府部门在深化“放管服”改革过程中，显有部门间数据共享程度不高，协作配合的紧密度不够的问题，我市也不例外。由于各单位各部门信息系统建设纵向林立，横向不通现象严重，系统间业务数据共享协同确有不足。在协调各业务系统开发管理部门开放接口、共享数据时，困难重重，进展缓慢。这就给打破“信息孤岛”，推进跨部门信息共享、业务协同，带来重重阻碍。', '下一步，我们将加快建设“一网通办”三期项目,尽快完成事业单位人事人才、仲裁监察、职称评审、汇总统计、综合分析等子系统建设，全面打破纵向“信息孤岛”， 推进跨部门信息共享、业务协同，构建方便快捷、公平普惠、优质高效的人社服务体系，为优化我市营商环境助力。', '（一）落实国家降费率、降基数政策。为确保中央、国务院“减税降费”各项政策在我市不折不扣的落实到位，根据自治区《关于降低社会保险缴费率有关问题的通知》（内人社发〔2019〕16号）文件精神要求，我局严格落实降低社会保险缴费费率各项工作。按照文件部署要求，我市已于2019年5月1日起降低养老保险单位缴费比例，城镇职工基本养老保险（包括企业和机关事业单位基本养老保险）单位缴费比例统一由20%降至16%；继续阶段性降低失业保险、工伤保险费率，失业保险费率由最初3%降至1%；工伤保险费率整体减半（共八类，其中七类整体减半），单位缴费费率整体下降约26%。', '同时，自2019年5月1日起，调整以就业人员平均工资（上年度自治区城镇非私营单位就业人员平均工资和城镇私营单位就业人员平均工资加权计算的全口径城镇单位就业人员平均工资）为计算口径；改变过去一直以上年度自治区城镇非私营单位就业人员平均工资作为核定养老保险缴费基数上下限的核定方法。按照新办法将一定幅度的降低社会保险缴费基数。', '（二）落实减免缓缴社会保险费政策。2020上半年因为突如其来的疫情，使经济社会面临前所未有的困境，按照中央、自治区统一安排，我局全力支持企业复工复产， 2020年3月20日发布了《转发&lt;关于阶段性减免企业社会保险费的实施意见&gt;的通知》（呼人社发[2020]29号），《通知》中对困难企业予以实施减免、缓缴、阶段性降费等优惠政策。', '中小微企业、以单位形式参保的个体工商户，2020年2月至6月的养老保险、失业保险、工伤保险单位缴费予以免征;大型企业及其他单位2020年2月至4月的单位缴费减半征收。2020年6月22日，人社部、财政部、税务总局出台延续性政策，将免征中小微企业、以单位形式参保的个体工商户养老保险、失业保险、工伤保险单位缴费部分期限延长至2020年年底;将减半征收大型企业及其他单位缴费部分期限延长至2020年6月。按项目参加工伤保险的，减免期内新开工的工程建设项目，按单位划定类型享受阶段性减免工伤保险费政策。', '阶段性减免社保费期间，享受减免政策后仍无力为职工缴纳社保费的中小微企业，可按照《内蒙古自治区人民政府关于支持防控疫情重点保障企业和受疫情影响生产经营困难中小企业健康发展政策措施的通知》(内政发电〔2020〕1号)的规定延期缴纳。受疫情影响生产经营出现严重困难的企业，可申请缓缴社会保险费，企业可在2020年3月至9月通过人社部门单位网上服务大厅申请报备缓缴，缓缴期限截至9月底。符合缓缴资质的企业在9月底前缴费的免收滞纳金。在2020年6月22日人社部、财政部税务总局出台延续性政策，将缓缴期限延长至2020年年底。就目前情况，预计今年我市将给企业减免各项社会保险费超过23亿。', '降低社会保险缴费率工作直接关系到每参保企业的切身利益，我局精心组织实施，稳步推进降低社会保险费率工作，切实保障减免缓政策在我市落实到位，有效降低企业运行成本，让企业减负轻装上阵，为优化我市营商环境做出新的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>25</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>关于印发年呼和浩特市高标准农田建设项目管理工作要点的通知</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2020-04-30</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/snmj_22416/fdzdgknr/bmgk/202004/t20200430_938285.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['关于印发《2020年呼和浩特市高标准农田建设项目管理工作要点》的通知_ 呼和浩特市人民政府', '为了更好的开展高标准农田建设工作，确保项目顺利完成，完成年度目标任务，现将《2020年呼和浩特市高标准农田建设项目管理工作要点》印发给你们，请认真落实。', '2020年，全市要集中完成2019年承担的24万亩高标准农田建设项目和2020年承担的25万亩高标准农田建设项目，以及2万亩中度盐碱地改造示范项目，总任务数51万亩。截至目前，全部建设任务的项目地块已基本落实，多数项目已完成初步设计，部分项目旗县区已陆续开工。为了确保项目按期顺利完成，实现项目预期目标，现就我市高标准农田建设项目工作要点安排如下：', '由于中央补贴资金下达较晚和各级农牧部门对该项工作经验不足，致使当年工作进展缓慢。2020年将在上一年工作的基础上，进一步强化对项目实施旗县区的督促指导，及时掌握各旗县区的工作动态，实行动态管理，制定项目进度计划，明确完成的时间节点，保障信息渠道畅通，采用周报及定期调度会议制度。', '要进一步规范项目申报、可行性研究、勘察设计、招标投标、工程施工、工程监理、竣工验收、监督检查等各个环节的操作规程，实现项目建设管理精细化，严禁未经过申报审批流程的项目进行招投标和开工建设。', '要加强对施工方、供货方、监理方的管理，全环节严把项目质量关，确保用于工程的原材料、半成品、构配件质量安全可靠，工程建设标准不降低、工程质量有保证。', '1、对具备验收条件的项目，由旗县区农牧局组织施工方、设计方、监理方进行初验，初验合格后，申请市农牧局正式验收。严格按照《高标准农田建设通则》（GB/T30600—2014）的有关规定，以及印发的《2019年呼和浩特市高标准农田建设实施方案（试行）》要求，完成田、水、路、林、渠、电、技相配套的内容。', '2、竣工验收的项目要及时上图入库、备案，并要对项目进行绩效评价。按照绩效评价的相关指标，综合评价项目对带动项目区贫困户脱贫致富的数量指标和质量指标。', '3、做好项目竣工移交后的后期管护工作。要与当地村委会、土地经营者、受益农民共同协商制定项目管护制度，并由当地政府农业主管部门监督实施。', '项目旗县区要及时分解建设任务，落实各项目建设地块、面积、主要建设内容等，做好项目实施前的各项准备工作。按照农业农村部《农田建设项目管理办法》、《农田建设补助资金管理办法》、市农牧局《2020年高标准农田建设项目实施方案》以及相关的标准要求进行项目的申报、可行性研究、勘察设计、招标投标、落地实施。', '包括项目实施方案、项目选址办法、项目评审专家库的组建与管理、项目实施的日常监管、竣工验收以及建成后的管护制度、激励奖惩等相关办法制度。各旗县区要严格按照国家、自治区、呼和浩特市有关高标准农田建设的相关规定，督促指导各旗县区完成项目建设内容。', '2、强化示范引领，分类指导。土左旗建设一处1万亩以上的盐碱化耕地改良示范片，托县要建设一处1万亩以上的高标准农田建设示范片，7月份召开全市现场会。和林县也要建设一处5000亩以上的高标准农田建设示范片。', '要坚守底线思维，不断强化廉洁意识，严肃财经纪律、廉政纪律，严把立项审批关，严格规范管理，切实防范高标准农田建设项目管理风险。要及时公开、公示项目审批情况、建设地点、建设内容、建设规模等相关信息，接受社会监督。', '按照“两增、四控、七配套”的基本要求，通过农机农艺相结合、良种良法相配套、监管服务同发力，有效提升项目区耕地地力质量，提高粮食生产水平。', '耕地质量监测是针对性开展高标准农田建设、提高耕地质量水平和效益的重要基础，耕地质量关系到国家粮食安全、农产品质量安全及生态安全。高标准农田项目区要全部建立耕地质量长期定位监测点，开展土壤肥料长期定位监测和测土配方施肥推广，为粮食安全提供保障。', '要严格保护永久基本农田面积不减少，高标准农田建设项目完成后耕地质量要提升2--3个等级。同时，要加强对项目区内农业设施用地管理。设施农业属于农业内部结构调整，可以使用一般耕地，不需要落实占补平衡。设施农业用地不再使用的，必须恢复原有用途。设施农业用地被非农建设占用的，应依法办理建设用地审批手续，原地类为耕地的，应落实占补平衡。', '1、按照自治区农牧厅关于《内蒙古自治区关于开展“十二五”以来高标准农田建设评估工作方案》的要求，认真做好“十二五”以来各旗县区相关部门实施的高标准农田项目的数量、质量、分布情况和使用情况的摸底调研工作，认真完善高标准农田建设项目的上图入库备案工作，为高标准农田建设项目储备库的建立和项目选址工作提供基础信息资料。', '2、建立健全高标准农田建设项目实施管理的调度和信息沟通体系，实行项目建设的动态管理，加大监管力度，确保建设标准不降低，工程质量有提高。', '3、学习借鉴高标准农田建设工作先进地区的管理模式，提高工作效率，完善监督机制，有序推进各项工作。计划组织部分项目旗县区具体工作人员到通辽市、巴彦淖尔市考察学习，或派人挂职学习。邀请专家来我集中培训，提高我市项目人员的建设管理水平。', '利用多种宣传方式广泛宣传政策、先进做法、典型经验和成效等，争取得到各级党委政府重视、部门配合支持、社会关心理解、农民积极参与的良好氛围。', '针对目前各地在高标准农田建设方面存在的“家底不清、标准不一、沟通不畅、重建轻管”等问题，要主动对接自然资源部门、水利部门、发展与改革部门、财政部门（农业综合开发），查清底数，准确上图入库，避免在规定的时间内同一地块项目重复，充分发挥项目投资效益。', '1、各旗县农牧部门是项目实施的业主单位，要成立专门机构，组建一支专业队伍来参与项目建设和管理，要充分调动项目区乡镇、村集体组织、村民参与项目监督管理的积极性，形成联动机制助推项目实施，不得完全依赖监理单位对项目进度和质量状况进行管理。项目实施地的村委会要及时协调解决项目实施过程中出现的纠纷矛盾，确保项目按期完成。', '2、要按照高标准农田建设“五统一”的原则科学规划布局项目，优化设计方案，严把规划设计关。高标准农田建设项目区的名称统一为“20XX年XX盟市XX旗县XX乡镇高标准农田建设（高效节水灌溉）项目”。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>25</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>关于印发呼和浩特市安全生产委员会办公室年安全生产工作安排的通知</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2009-04-07</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/syjglj_22421/xxgknb/202105/t20210525_931148.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['关于印发《呼和浩特市安全生产委员会办公室2009年安全生产工作安排》的通知_ 呼和浩特市人民政府', '为认真贯彻落实全国安全生产电视电话会议和全国安全生产工作会议精神，全力做好2009年“安全生产年”各项工作，进一步推进道路交通、建筑施工、公共场所消防等重点行业领域安全生产隐患排查治理，严厉打击安全生产领域非法违法行为，现将今年安全生产工作安排如下：', '认真学习领会和全面贯彻落实国家、自治区及市委、市政府关于加强安全生产工作的一系列指示精神和决策部署，以学习实践科学发展观活动为动力，坚持“安全第一、预防为主、综合治理”的方针，坚持近期与长远、治标与治本、预防与查处相结合，以深入开展“安全生产年”活动为主线，以有效防范、坚决遏制重特大事故为目标，深入开展“三项行动”，全面加强“三项建设”，扎扎实实做好“安全生产年”各项工作，推动全市安全生产状况的持续稳定好转。', '进一步完善安全生产控制指标体系，落实各级安全生产责任制。根据2008年度安全生产控制指标考核工作中存在的问题，修订完善今年安全生产控制指标体系，建立与之相配套的监督检查、考核奖惩等制度，做到定期通报、年度考核，实行安全生产一票否决，维护安全生产控制考核指标的严肃性。同时，坚持日常考核与年终考核相结合，共性指标考核与单项工作考核相结合，增强可操作性。进一步落实安全生产“一岗双责”制度和行政问责制度，市安全生产委员会办公室定期组织监察、工会等有关部门，对各地区、各有关部门的安全生产组织领导、机构建设、安全投入、责任制落实、建章立制、应急救援、信息报送、专项整治、隐患排查、打击非法违法、事故调查等方面的工作进行督察，综合评价，根据各地区、各有关部门安全生产工作任务完成情况予以通报。', '1、道路交通、水上交通安全。继续深入开展道路交通安全“五进”宣传工作，努力提高人民群众道路交通安全意识；继续深入开展创建“平安畅通县区”、“平安农机”等活动，以国道、省道、农村道路为重点加强道路交通安全监管；要按照“三关一监督”的要求，切实加强源头管理，加大对包车客运、超长客运班线的安全监督力度，引导运输企业建立健全包车运管管理制度和安全行车日志制度；深化落实道路交通“五整顿”、“三加强”各项工作措施,实施以排查治理危险路段为主要内容的“安保工程”，加大投入，加快整治危险路段；进一步加强对运输船舶、渡口渡船、客渡船舶的安全监管，深入排查治理运输船舶、客渡船舶的安全隐患；严格落实道路交通重大事故“警示告诫”制度，依法追究有关责任单位和责任人员相应责任。', '2、建筑施工安全。继续深入开展建筑行业领域隐患排查工作；在建筑行业开展起重机械、脚手架、劳动防护、电气安全、工地坍塌、模板支撑垮落、人员坠落等专项整治工作；加快推进建筑行业安全质量标准化管理；要加强安全生产许可证动态监管，对发生安全事故或降低安全生产条件的企业，严格按照有关规定由发证机关依法暂扣或吊销其安全生产许可证。', '3、中小学校、幼儿园安全。督促教育主管部门加强校园安全工作，排查治理学校消防、饮食、危旧校舍、体育器材等方面存在的安全隐患；年内对全市中小学、幼儿园开展一次以电气设备及消防安全为重点的拉网式安全检查。', '4、消防安全工作。认真宣传贯彻新修订的《消防法》；继续加大对集市、超市、宾馆、饭店、学校、大型活动及各类娱乐场所和其他易燃易爆场所的整治力度，重点完善消防安全管理、消防安全设施、疏散通道、消防安全责任、应急管理和消防安全培训制度，不断提高生产经营单位自防自消能力；在全面排查重大消防安全隐患的同时，加大隐患整治，特别是政府挂牌督办的重大消防安全隐患的整治力度；要督促各旗县区人民政府认真履行对辖区内人员密集场所经营单位的消防安全管理职责；年内，在全市范围内开展一次百货店、购物中心、超市、家具建材市场、医院、大中专院校、文化娱乐场所、体育场馆等人员密集场所电气消防安全检测工作，最大限度地消除安全隐患。', '5、民用爆炸物品安全。督促经委、公安、交通部门认真开展民用爆炸物品生产、储存、运输、使用等环节安全生产专项整治工作。', '6、铁路安全工作。督促旗县区人民政府及相关企业，加大对44处平交道口的监管力度，特别是加强对城区铁路平交道口和地方铁路平交道口的安全监管，提高平交道口的看守、监护条件与水平，防止各类事故的发生。', '7、公共安全管理。督促有关部门加强供水、供热、供暖、城镇燃气、天然气管网安全监管，深入开展隐患排查治理，消除安全距离不符合标准、燃气管道占压等安全隐患。做好民航、电力、商务、旅游、文化、体育、特种设备等行业安全生产监督管理及协调配合工作。', '各地区、各有关部门按照各自职责，以严厉打击非法违法生产经营行为为主要内容，以打击五类严重违反安全生产法律法规的行为为重点，继续深入开展打击安全生产非法违法行为专项行动，解决当前安全生产领域比较突出的非法违法行为。', '1、督促配合公安、交通运输等部门，严格依法查处客运车辆超员、机动车超速、疲劳驾驶、非法改装运输车辆、非法经营等严重交通违法行为；开展治理拖拉机等非营运车辆违法载人工作，严厉打击非营运车辆违法载人行为。', '2、督促配合建设主管部门部门，加强对建筑施工企业的安全监管，严厉查处建筑工程违法违规施工、分包转包、以包代管等行为。', '3、督促配合公安消防部门，抓好新修订的《消防法》贯彻实施工作，严厉打击未通过消防设计审核验收和开业前消防安全检查擅自营业、超工商注册登记范围经营、从业人员未经相关培训即上岗作业等违反消防法律法规的行为。', '4、组织开展相关行业（领域）按全身产非法违法行为，加强重点建设项目安全生产“三同时”专项检查，严肃查处违反《安全生产法》关于建设项目安全生产“三同时”规定的行为。', '健全应急救援预案体系。修订完善矿山、危险化学品、烟花爆竹等重点行业领域的专项应急预案，督促重点企业进一步完善应急预案，形成覆盖所有行业领域和生产经营单位的预案体系，并定期组织开展预案演练。搞好应急救援队伍建设。加强抢险救援物资和防护用品的共享。督促有关企业与专业救援队伍签订救援协议，开展联合演练，增强实战能力。完善应急协调联动机制。严格落实灾害性天气预警信息发布监控联动制度，加快安全预警信息共享能力建设，确保信息共享、反应迅速。', '严把市场准入关，严格执行新、改、扩建项目“三同时”审查制度，坚决把住安全设计审查、竣工验收关。加强安全设施“三同时”日常监管。与规划部门建立建设项目定期沟通制度，摸清辖区内建设项目安全设施“三同时”工作开展情况，采取有针对性的措施，确保项目施工和“三同时”手续同步进行。严厉查处“先上车、后买票”的问题。加强对新建、改建项目进入审批程序后发放许可证前的安全监管。通过加大执法检查力度，推动全市安全设施“三同时”工作的开展。', '各地区、各部门要采取多种形式加强各级安监人员的业务培训，努力提高全市安监人员的工作能力，切实承担起法律法规赋予的安全生产检查、违法行为纠正、事故隐患排除、处罚建议等工作职责。狠抓工作作风建设，努力培养安监队伍求真务实的工作作风，坚持深入基层、深入一线，把安全监管的重点放在基层企业、放在监管现场。把执法与服务紧密结合起来，既要严格执法，又要热情帮助企业发现问题、提出建议、改进工作。同时要加强安监队伍党风廉政建设，要把廉政建设作为队伍建设的重要内容来抓，认真落实责任制和廉政教育计划，做到警钟长鸣，防微杜渐，努力树立全市安监系统公正执法、文明执法、执法为民的良好社会形象。年内组织一次到外省市学习考察活动，扩大安监人员视野，进一步提高全市安全生产监管水平。', '（一）加强领导，落实责任。各地区、各部门、各单位要将安全生产基层基础工作作为工作的重中之重，从建设平安首府的战略高度，进一步加强组织领导，层层落实安全生产责任制，及时研究和解决安全生产的重大问题，维护好安全生产秩序，切实做到安全生产工作机构、人员、装备、经费到位，狠抓责任落实，确保工作到位。', '（二）突出重点，检查督查。各地区、各部门、各单位要针根据实际，制定年度工作实施意见，要在突出工作重点，解决突出问题上下功夫，务求取得实效。切实抓好重点时段、重要阶段、重点部位的安全事故防范，组织开展好安全生产专项检查督查行动。对措施不落实、工作进展不快、效果不明显的，要予以通报批评并限期改进。要充分利用新闻媒介，加大舆论监督和群众监督力度，进一步促进全市安全监管水平的提高，确保全年安全生产各项工作任务圆满完成。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>25</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>呼和浩特市人力资源和社会保障局关于对呼和浩特市政协第十三届第四次会议第号提案关于对数字经济新职业加强保障的建议的答复</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2021-08-16</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/srlzyhshbzj_22410/fdzdgknr/jytablnew/202109/t20210903_1022274.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['呼和浩特市人力资源和社会保障局关于对呼和浩特市政协第十三届第四次会议第0051号提案《关于对数字经济新职业加强保障的建议》的答复_ 呼和浩特市人民政府', '呼和浩特市人力资源和社会保障局关于对 呼和浩特市政协第十三届第四次会议 第0051号提案《关于对数字经济新职业 加强保障的建议》的答复', '二是现行社会保障法律法规以保障建立劳动关系劳动者权益为主。“互联网+”企业中稳定的就业人员，无论是全日制就业人员还是非全日制就业人员，都可以参加工伤保险，纳入制度保障。对于工伤保险来说，最难解决的是新业态从业人员的职业风险保障问题。主要原因是现行工伤保险制度是以传统的、规范的单位用工模式为基础设计的，与灵活就业这种自主就业形式在诸多方面无法对接。具体原因如下：工伤保险以劳动关系为参保前提，灵活就业人员不存在法定意义的劳动关系；用人单位要承担部分工伤保险待遇的支付责任，要求平台企业承担待遇支付责任缺少法律依据；灵活就业人员的工伤调查取证难、认定难。新业态从业人员工伤调查取证难、认定难，会导致工伤纠纷和争议增多，反而不利于稳定，同时也会增加非工伤向工伤的逆选择，增加道德风险，增加基金风险。', '一是我局在长期从事社会保险参保登记、社会保险核定、社会保险稽核检查的工作过程中，积累了丰富的社会保险经办经验。通过日复一日办理社会保险相关业务，发现工伤保险虽然是个小险种，但对于减小企业生产经营风险，保障职工社会保障权益发挥着举足轻重的作用。', '我局从2019年年初开始关注新业态从业人员的社会保障问题。重点以工伤保险为突破口，拟出台《呼和浩特市新业态从业人员优先参加工伤保险试行办法》，探索在我市范围内办理社会保险登记的物业、家政、快递、环卫等行业的用人单位招用的女45周岁以上、男55周岁以上但未达到法定退休年龄，且未参加职工社会保险的职工和在我市范围内办理社会保险登记的用人单位招用的非全日制从业人员优先参加工伤保险的可能性。但是，以现行户籍制度与劳动关系为基础的社会保障制度提体系下，出台《呼和浩特市新业态从业人员优先参加工伤保险试行办法》变得非常困难。', '二是向其他先进省市学习新业态从业人员社会保障经验，积极参加人社部、人社厅相关工作调研，建言献策。2020年-2021年，我们到江苏省南京市、浙江省杭州市、重庆市考察学习“互联网+人社”建设经验时将加强新业态从业人员社会保障作为考察交流的一项重要议题。经过沟通交流，在新业态从业人员社会保障问题上大部分地区与我市存在同样的困难，在该用第三方职业伤害保险模式还是纳入工伤保险保障范围的问题上存在分歧，尚未形成较为成熟的实施办法。', '2020年，我局受自治区人社厅工伤保险处邀请，参加了人社部关于平台企业从业人员工伤保障有关措施的征求意见。按照人社部当时的方案，拟出台委托第三方商业保险公司承办，实施与平台订单实时挂钩的承保模式，保障平台从业者从接单到结束订单期间工伤风险。我局结合我市工作实际，向自治区人社厅提出了意见建议，由人社厅汇总上报人社部。但到目前为止，人社部尚未出台相关政策。', '三是今年5月，国务院常务会议提出要进一步完善灵活就业者的社保制度，研究制定灵活就业人员参加城乡居民基本养老保险的兜底措施，推动放开在就业地参加社保的户籍限制，并探索将灵活就业人员纳入工伤保险范围。7月7日，国务院总理李克强主持召开国务院常务会议，确定加强新就业形态劳动者权益保障的若干政策措施。适应新就业形态，推动建立多种形式、有利于保障劳动者权益的劳动关系。以出行、外卖、即时配送等行业为重点，开展灵活就业人员职业伤害保障试点。建立适合新就业形态的职业技能培训模式，符合条件的按规定给予补贴。', '四是今年7月，我局邀请美团和滴滴公司负责人就外卖配送员和平台司机的社会保障和职业技能培训、提升等问题进行了座谈。', '随着经济社会的发展、新兴技术的应用和人们需求的提升，新产业、新业态、新模式不断涌现。国家为反映职业发展变化，适应经济社会发展需要，陆续公布了人工智能工程技术人员、物联网工程技术人员、大数据工程技术人员、云计算工程技术人员等40多个新职业。这些新职业的发布，对于引领产业发展、促进就业创业、加强职业教育培训、增强对新职业从业人员的社会认同度等，都具有重要意义。', '一是关于建立完善适应灵活就业的社保制度和支持政策方面。按照现行的政策规定，“灵活就业人员可以参加基本养老保险，由个人缴纳基本养老保险费”（《社会保险法》第十条）。目前政策是支持灵活就业人员参加基本养老保险的。但是，缴纳基本养老保险对于灵活就业人员来说缴费负担较重。这类人群如果满足年满16周岁（不含在校学生）且不属于职工基本养老保险覆盖范围的城乡居民条件，可以选择参加城乡居民养老保险，城乡居民养老保险缴费标准从200元至7000元分12个档次，灵活就业人员可根据自身经济条件自行选择缴费档次。按照不同的缴费档次政府给予不同额度的补贴。', '二是关于完善数字经济新职业人群保障措施方面。目前新业态从业人员（未与单位建立劳动关系）急需得到的是工伤（或者职业伤害）保障。', '近期，经向自治区人社厅请示，确认人社部将开展平台灵活就业人员职业伤害险试点工作。我局已向自治区表达成为第一批试点城市的意愿，相信在不久的将来，我市新业态从业人员的职业伤害风险将得到保障。', '三是加大数字经济职业人群人才培训力度方面。我局将紧密结合首府地区产业发展需求，围绕紧缺职业（工种）和新职业（工种）组织开展特色品牌培训。主要做好以下工作:1.继续深入企业组织调研，进一步了解企业用工需求，组织开展“订单式”“定向式”培训，面向企业在岗职工组织开展技能提升培训；2.继续加强对政府补贴性培训的管理工作，抓好培训过程监管和质量跟踪评价；3.坚持包容审慎原则，鼓励企业、职业院校等培训主体组织开展新职业培训，持续做好对职业技能标准的开发和完善工作。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>25</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>呼和浩特市住房和城乡建设局关于对呼和浩特市政协第十三届四次会议第号提案关于加强城市交通秩序精细化管理的建议的答复</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/szfhcxjsj_22413/fdzdgknr/jytablnew/202107/t20210702_999079.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['呼和浩特市住房和城乡建设局关于对呼和浩特市政协第十三届四次会议第0292号提案《关于加强城市交通秩序精细化管理的建议》的答复_ 呼和浩特市人民政府', '呼和浩特市住房和城乡建设局关于对呼和浩特市 政协第十三届四次会议第0292号提案《关于加强城市交通秩序精细化管理的建议》的答复', '您好！您提出的《关于加强城市交通秩序精细化管理的建议》的提案收悉，就加强我市交通秩序精细化管理工作提出了非常中肯的意见和建议，对我们更高标准、更高质量、更大热情推动开展相关工作给予了很大的鞭策。衷心感谢您参与支持、关心关注我市城市道路交通管理高质量发展工作。', '按照这次“提案”办理分工，市住房和城乡建设局负责您的提案的办理答复工作。您在“建议”中提出了关于加大交通秩序综合整治、行人机动车、交通设施、公交运行停泊、交通管理等方面精细化工作的意见建议，我们在积极与您保持沟通的同时，还专门组织相关部门召开了“提案”办理工作协调推进会，对您的意见建议进行了认真的研商，现综合相关部门工作开展情况，答复如下：', '近年来，随着我市经济社会的高质量发展，人民生活水平不断提高，建成区常住人口、机动车和非机动车保有量逐年快速增加，交通需求迅速增长，交通拥堵问题比较突出，全面加强交通秩序精细化综合治理，推动有效解决城市交通拥堵问题刻不容缓。在市委、市政府的领导下，各级各部门切实增强责任感和使命感，健全完善推进落实工作机制，坚持问题导向、创新管理模式，持续发力攻坚，全力保障道路畅通，取得了一定的成绩成效。2019年，市人民政府办公室先后印发了《呼和浩特市人民政府办公室关于调整城市道路交通委员会组成人员进一步明确工作职责的通知》（呼政办字〔2019〕132号）和《呼和浩特市人民政府办公室关于印发呼和浩特市城市道路疏堵保畅“联络站+专项工作组”工作机制的通知》，切实加强顶层设计，为交通秩序综合治理提供了制度机制保障。同年，市城市道路交通委员会办公室（简称市道交办，2020年5月起设在市住建局）牵头组织，分别到上海、常州、无锡等交通管理先进的城市进行了考察学习，借鉴经验并用于我市交通综合治理。聘请部分人大代表、政协委员、一线交警、媒体记者、普通市民为交通管理义务监督员，参与交通管理监督，发现并提供交通管理存在的问题线索。组织工作人员开展交通管理业务学习培训，提高专业能力，培养想干事、愿干事、能干事的胜任尽职的人员队伍。我们拟适时从高等院校、行业领域聘请城市交通规划、建设管理等方面的专家，条件允许时跨省区市聘请专家，建成专业团队，为我市交通规划、建设、管理提供技术咨询和技术服务，补短板、强弱项，助力我市交通秩序精细化综合治理工作，畅通城市交通网络，打造顺畅的出行环境。我们非常重视走访调研工作，今年以来，共组织开展市内实地调研24次，针对存在的问题，研商议定整改方案，盯办整改落实。下一步，我们还将走出去，到交通管理先进、交通组织发达的地区学习借鉴，结合实际，复制应用于我市的交通规划、建设、管理工作中，有效提升我市交通综合管理治理水平。', '今年3月，市人民政府办公室印发了《呼和浩特市文明交通整治提升行动方案》，在全市范围内启动了交通文明整治提升行动，提升行动自3月12日起，至年底结束，共开展“十大行动内容”，其中交通违法、车辆乱停乱放事、一盔一带、校园周边通行秩序整治行动和文明交通整治“大宣传”行动，均有行人、非机动车不走斑马线、闯信号、抢行及机非混行等交通违法行为、乱象专项整治内容，采取加强宣传教育与加大管理处罚力度相结合的措施，规范行人、非机动车通行行为，效果较为明显。按照市领导指示要求，市道交办牵头组织相关单位针对“我市城区多地交通混乱，自行车、电动车、共享单车、私家车随意占用机动车道停放、行驶，导致道路交通拥堵”等现象，以内蒙古人民医院西南侧丁字路口为整改试点，于4月29日进行了实地调研，形成了整改方案，明确了责任地区、部门，整改内容包括：完善交通标识标牌、施划行人过街斑马线和非机动车行车线、安装机动车与非机动车隔离护栏、增设自行车（电动车、共享单车）停放区域、施划公交车停靠区域、加大警力投入加强交通秩序管理和疏导、加大对非机动车乱停乱放清理整治等，以上整改已于5月5日全部完成，极大地改善了交通混乱现象，通行效率和顺畅程度有了明显提高。下一步，由市道交办牵头，组织相关地区、部门并邀请上海市政交通设计研究院道路设计师，拟用3至5天时间，以金海路、昭哲路、巴彦路、金盛路、云中路沿线为重点，排查梳理全市范围内类似内蒙古人民医院西南侧丁字路口的重点地段、重点点位，建立问题台账，聘请上海市政交通设计研究院按照一段一策、一点一策的思路，设计优质的整改方案，市道交办加强统筹协调，督促相关地区、部门依据整改方案限时抓好整改落实，有效解决影响交通畅行的各类问题。另外，今年拟在交通相对拥堵、人行过街需求量大的路段新建5座人行过街天桥，更好地缓解行人过街顺畅与安全的需求，加强已建成人行过街天桥的使用管理，加大对行人过街疏导与引导力度，提高人行过街天桥使用率和通行率，有效解决行人过街秩序混乱的问题。继续开展城市道路开工项目的交通影响评价，科学合理规范小区、单位、停车场进出口设置，最大限度降低交通影响。', '我市建成区3条主干道改造提升工程基本完工，地铁1、2号线开通运营，交通基础设施和路网结构有了明显增强。在今年的文明交通整治提升行动中，将开展交通设施“大维护”列为十大行动之一，对城市道路基础设施、交通安全设施、公路安全隐患进行全面排查，加大建设、整改、维护、管理力度，努力提高我市交通设施规范化、智能化、精细化水平，充分发挥交通设施在城市道路疏堵保畅、交通事故预防、交通出行引导的积极作用，打造良好的道路通行环境。去年，市交管部门就已经在全市范围进行了交通标志、标线、信号灯、斑马线等设施的排查，对发现的问题制定了相应的解决措施，当前正与多部门协调配合，推进整改落实。同时，车道设置、信号灯团队建设、信号灯基础信息建立完善、电子监控设备恢复等方面的工作正在有序推进中。以4月份为例，市交管部门排查信号灯路口424处，维修路口44处、优化信号灯配时50处、优化设计绿波路段3处，安装交通标志4面，清除废弃标线12米，修复护栏19节，报废破损护栏31节；市住建部门维修沥青路面17950平方米，维修人行便道15239平方米，维修更换桥梁护栏169米，桥梁连接缝防水堵漏120米，维修高架桥声屏障17平米，绿网格栅126米，维修快速路交通安全防护设施59处，安装爆闪灯10套，维修灰色分隔护栏12米，粘贴反光膜12平米，对我市548台变压器、路灯控制箱逐一进行了细致全面的春季检测、检修，维修路灯639盏次，维修路灯电缆10230米，维修更换路灯电器698个。目前，地铁1、2号线沿线道路路面恢复平整、交通标线施划和标识标志标牌安装已基本完成。下一步，继续加大资金投入，完善交通基础设施，今年全市拟完成新建改造道路63条，打通断头路31条，改造背街小巷39条，进一步改善交通拥堵问题。', '近几年，经过市公交总公司和相关部门的共同努力，我市公共交通发展取得了很好的效果，公交线网优化、公交车辆更新和学生专线、定制公交、区间公交等多元的运营模式、服务水平、便捷程度均有很大提升，基本满足了市民的公共交通出行需求。截至目前，全市公交运营线路200条，其中学生专线28条，城郊线路33条，定制公交线路9条，直线快速公交线路7条，公交运营线路长度达3391.7公里，公交线网长度达1049.7公里，线网覆盖范围南至和林格尔县盛乐经济园区，东至榆林镇陶卜齐村，西至土左旗兵周亥村，北至大青山登山步道附近的水磨村，基本形成了以市区为中心、以快速路为主干、以辅助线路为补充的互相贯穿、无缝对接、零距离换乘的运行网络。同时，市公交总公司与相关部门密切配合，定期开展主城区公交站点实地调研勘察，对于影响交通畅通的站点，及时合理择址迁移。继续优化公交运行线网、施划公交专用道、设置公交专用出口，持续加强对已有公交专用道的监督管理，让公交优先真正落实落地，鼓励引导广大市民公交出行、绿色出行，有效缓解交通拥堵。今年计划完成新建公交场站5个，新增公交站点294个，新开通公交线路5条、优化调整15条，更好地实现地面公交场站及站点、地铁进出站口换乘无缝衔接。', '目前，市交管部门正在结合政法队伍教育整顿工作，进一步强化队伍建设和管理，不断提振队伍士气，牢固树立以人民为中心意识，强化完善各项管理措施，提升精细化管理水平，努力为全市人民营造更安全、更顺畅的交通环境。下一步，持续完善管理措施、创新管理方法，加强重点路段、重点时段警力安排，紧密结合文明交通整治提升行动，加大城区道路交通管理巡查和执法力度，聚焦突出交通违法行为，依法进行严厉打击、严厉处罚，对影响道路交通畅通、影响城市交通文明和各类交通违法违规行为进行严查严管。以4月份为例，全市共查处各类交通违法行为294425起（现场查处120101，电子抓拍查处174324起），其中机动车不礼让斑马线3627起，闯信号12342起，不系安全带11157起，违规变道加塞12起，机动车乱停乱放94694起，查处行人交通违法行为11103起，非机动车交通违法行为22783起；现场教育、劝导驾驶人、行人10万余人次；查处饮酒驾车171起、醉酒驾车125起、无证驾驶17起，假牌2起。进一步加强执法人员队伍教育培训，提高交通管理能力素质，做到公平、公正、文明执法，努力为全市人民营造更安全、更顺畅的交通环境。', '感谢您对城市建设工作提出的宝贵意见与建议，希望今后能够一如既往的关心和支持我们的工作，对我们的工作继续予以监督和帮助，共同促进我市住房和城乡建设的发展。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>25</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>呼和浩特市农牧局关于对呼和浩特市第十五届人民代表大会第四次会议第号建议关于加大本地农民技术培训助力乡村振兴的建议的答复</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2021-07-07</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/snmj_22416/fdzdgknr/jytablnew/202107/t20210707_1000482.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['呼和浩特市农牧局关于对呼和浩特市第十五届人民代表大会第四次会议第352号建议《关于加大本地农民技术培训，助力乡村振兴的建议》的答复_ 呼和浩特市人民政府', '呼和浩特市农牧局关于对 呼和浩特市第十五届人民代表大会第四次会议第352号建议 《关于加大本地农民技术培训，助力乡村振兴的建议》的答复', '2014年以来，根据国家和自治区相关工作要求及培训任务，我市结合农业生产实际，按照“科教兴农、人才强农、新型职业农民固农”的战略要求，强化培育工作实施管理，创新培育模式，培育高素质农民（新型职业农民）近7300多人，为实施乡村振兴战略，发展多种形式适度规模经营，提供了农业人才保障。', '在培训方式上，采取集中教学与现场实习教学相结合、现场培训与远程培训相结合、传统培训与现代培训相结合的方式，把农业新成果、新技术、新信息及时快捷地传递给农民；', '在培训时间上，采用适合于农民生产生活节奏的农学结合、半农半读、弹性学制的教育方式，切实提高农民科技培训的质量、效益和水平；', '通过教师与学员交换位置互动式培训，把种植能手请到讲台，经过教师的引导，让学员把生产中适用经验推广给大家，调动学员的学习积极性并增强培训效果；', '严格按照培训要求，结合我市产业发展短板开展培训，将种养殖大户、专业合作社、龙头企业列为重点培育对象，努力提高种养殖及经营能力；', '利用互联网技术资源进行培训服务，让农民共享网络资源库中的种养技术、市场行情，国家法律法规等相关知识的讲座，提高农业科技推广的针对性和时效性。', '经过多年的实施，我市形成了以市和旗县区农业广播电视学校为主的新型职业农民培训机构，以当地具有教育意义的农业专业合作社以及其他盟市旗县科技含量较高的地方为实训基地的多元化培育体系。目前，呼和浩特市现有', '1所地级市农广校，除托县外，土左旗、和林县、武川县、赛罕区、清水河县都设立了农广校（农牧民科技教育培训中心），并且全部配备了必要的教学设施，可以随时开展教学活动。另外，为适应新型职业农牧民培育需求，我市特别强化了新型职业农牧民教育培训基地建设与管理，遴选出自治区实训基地1个，旗县级实习实训基地20个，以上办学条件基本能够满足新型职业农牧民培育所需要求。', '101名，培训的教师一部分主要使用新型职业农牧民培育师资库的教师资源，另一部分吸收农牧业教育、科研、农业推广机构有实践经验的专家教授和技术人员以及农牧业企业、农民专业合作社等新型经营主体的优秀技术人才作为培训教师，目前初步形成了数量充足、结构合理、素质优良的指导教师队伍。', '通过职业培育及示范带动，农民综合素质大幅提升，特别是高素质农民的思想观念进一步转变，初步掌握了一至两门实用技术，发展生产的能力显著提高，生产效益明显增强，许多高素质农民成为当地产业发展和致富的带头人。例如，武川县上秃亥乡三间房村委会下勿兰自然村种植户李瑞峰、田宏亮等学员向土右旗农民朋友学习大白菜腌制技术，提高了农产品附加值，在当地起到了引领示范带动作用。迦南种植合作社理事长朱瑞芳通过培训逐渐改变意识营销意识，综合线上线下惠农活动，将实惠真正落到农民兄弟口袋中。', '2017年初被农民日报社指定为武川县“惠农工作站”站点，可以优先获得政策惠农、科技惠农、信息惠农、产品惠农、营销惠农等举措。通过示范社的引领带动，更多贫困农民实现灵活就业、脱贫致富，充分发挥了致富、帮富、带富作用。', '“农业科技服务云平台”，创建高素质农民微信群等现代信息化服务手段，搭建信息技术服务桥梁。建立起专家与学员，技术员与学员，学员与学员之间多向信息交流平台，各产业部门及时将政策、信息、生产措施、病虫害防治技术公布在群里，随时为学员提供创业信息和各项服务。学员们充分利用培训平台，相互交流探索产业发展方向和前景，相互之间形成资源共享。有的学员通过我们微信平台相互交流，从种子购买到田间管理到产品销售都相互帮助，取长补短，形成了抱团取暖的团队，起到了极大的产业带动作用；有的学员认识到网络的重要性，逐渐摆脱了传统销售的方式方法。例如武川县学员王玲玲、张成忠、姜和平等新型职业农民入驻了“武川县电子商务创业园”，实现了“互联网+”的发展模式。', '通过精准扶贫、包村联户、年货节等活动，开展技术到田到户。选派专业干部担任成立科技服务包联工作组，每个服务组包联两个乡镇，负责所包乡镇农业技术服务工作，助推精准扶贫。武川县组织高素质农民参加首届年货节和呼和浩特市农副产品展销会，切实帮助贫困群众缓解了', '将高素质农民培育对象纳入为科技示范户，得到经常性、长期跟踪服务。同时对部分种养规模大、发展势头足、技术力量薄弱的职业农民采取分派专家，定点服务。', '为按时、保质、保量的完成任务，我市及时印发了《呼和浩特市高素质农民培育实施方案》，成立了由分管领导任组长，科教科、农广校、局机关纪委为成员的工作组，重点督促旗县区加快工作进度，协调解决项目实施过程中存在的问题，确保工作不留死角。市农广校全程跟踪培训、考察学习；指导、督查基层农广校的培训进度、质量和培养程序；帮助编制培养计划，建立师资库、教材库、联系外地实习等事宜。市农广校在我市高素质农民培育项目实施中发挥了重要作用。项目旗县区都成立相应的工作组并制定切实可行的工作方案，明确具体工作人员和措施，保障项目取得实效。', '在学员储备上，各旗县区根据当地产业特点，重点从调查对象、调查内容、培训需求、产业结构、收入结构、务农意愿、发展策略等与高素质农民培育密切相关的问题入手，进行走访调查，优先选择种养规模大、学习意愿强、文化程度高、年轻力壮的种养大户、家庭农场主、合作社骨干成员作为培育对象。例如：托县积极与农牧业经营管理部门联系，以他们认定的家庭农场主、农牧民合作社带头人为主，遴选有意愿、有需求、年龄在', '18—60周岁的农牧民参训。目前各旗县区都建立了高素质农民培育学员信息库，围绕主导产业确定了培训对象。', '在办学过程中，指导各旗县区本着贴近农民、服务农民、一切从农民出发的理念，注重将细节程序化，过程规范化，学习正规化，沟通情感化。', '积极开展十九大精神的系统学习，宣传十九大关于乡村振兴战略的发展方向，增加农民的创业信心；', '注重学员间的交流，对每期学员进行分组，课上进行组与组之间的讨论交流，课后进行组内讨论，互相学习，取长补短；', '注重提高学员能力，有意识地在组织销售等方面选择一些内容授课，拓宽学员的知识面，提高学员的经营理念。在实训实践上，鼓励各旗县区组织、带领参训学员外出参加农展、到周边区县参观、学习和交流。', '我市积极争取市级配套培训资金扶持，各旗县区也积极响应号召，积极采取各项措施对高素质农民进行扶持。例如，和林县获得高素质农民培训证书的农民可享受优先保证涉农优惠扶持政策，优先申报项目扶持，优先提供金融信贷支持，优先享受科技推广等各项配套措施。同时，各旗县区逐步规范认证程序，制定了一系列扶持政策助力高素质农民培育体系健康发展。例如，和林县专门制定了新型职业农民认定管理和准入退出办法。武川县农牧业局也已向县政府呈报了《武川县新型职业农民认定管理暂行办法》，对凡符合认定条件的经营业主，按程序申报认定。对已认定的高素质农牧民实行动态管理，对不履行相关义务者，经领导小组办公室研究给予退出管理体系，不再享受各级政府的相关政策。', '为加大宣传力度，旗县区农广校开展了多渠道广泛宣传，积极营造社会关注、政府支持、农民参与的良好氛围。充分利用各种媒体，大力宣传培育高素质农民的现实意义和政策举措。各旗县区通过各级电视台、网络、报纸等媒体报道刊登宣传信息，多次深入各乡镇村，采取发放资料、口头宣讲等多种形式进行广泛宣传，保证每个行政村举办一场宣传活动，每个农民都拥有宣传手册。', '“田间课堂”和“田间学校”为主要形式，做好对高素质农民的回访及跟踪服务。在生产关键时期，对参加培训的高素质农民的培训效果进行实践指导，学习实际操作技能，以教师演示、学员操作为主要形式，加深学员对理论的理解。同时组织学员到现代化农牧业园区、科技示范场、养殖场等地进行考察、交流，使学员了解现代农牧业生产经营方式和新品种、新技术、新成果的应用，了解现代农牧业发展方向，拓宽现代农牧业发展理念。', '坚持公开、公平、公正的原则，通过考试考核、专家评审等方式，使符合条件的农牧民取得高素质农民的身份。同时要积极协调有关部门，对取得证书的人员进行重点扶持，提供农业补贴、农机补贴、农业保险等服务，推动农业补贴和项目建设向高素质农民倾斜。', '总结好做法、好经验，找出不足，为下一年的培育打好基础，同时整理学员培育过程中的各类档案，做好绩效考评工作。', '“中国农技推广APP”，为农技人员和高素质农民搭建信息技术服务桥梁，帮助农民逐步更新种养殖知识，同时对新型职业农民进行互联网培训，引导农民通过网络经营农产品，拓宽销售渠道。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>25</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>新城区组织技能培训结业考试</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/srlzyhshbzj_22410/fdzdgknr/ywxx/202309/t20230925_1593703.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['结业考试是对学员学习成果的正式考察及评定，为确保本批班期结业考试公平公正，中心工作人员考前认真整合各科目试卷，考中监督考务人员认真履行职责，严格操作规程，严肃考风考纪，考后严格阅卷。本批次结业的课程涉及母婴护理、美容美发、保健按摩等十余种专业，参加本次结业考试的', '下一步，区就业服务中心将积极对接用人单位，帮助通过考核的学员早日实现就业，做到培训与就业及时衔接。', '的群众搭建平台，引导、鼓励他们参加职业技能培训，不断提升其职业素养，带动更多人走好技能成']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>25</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>呼和浩特市农牧局关于年度依法治市工作情况的报告</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2020-03-24</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/snmj_22416/fdzdgknr/bmgk/202003/t20200324_938272.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['按照市委政府年度考核工作领导小组办公室《关于印发&lt;2019年度旗县区、经济技术开发区和市直部门依法治市考核指标评价细则&gt;的通知》（呼考办发〔2020〕3号）要求，现将年度依法治市工作情况报告如下：', '2019年，我局认真学习贯彻习近平总书记重要论述和重要指示精神，全面落实中央、自治区和市委、市政府有关决策部署，主要领导切实履行第一责任人职责，全局上下严格落实法治政府建设相关责任，完善制度、依法决策、依法行政、公正执法、大力普法，各项工作都取得了明显成效。', '我局高度重视法治政府建设工作，局党组充分发挥在推进全局法治建设中的领导核心作用，党组书记、局长把推进法治政府建设作为工作的重中之重，作为每年述职的重要内容，亲自统筹谋划，亲自安排部署，定期听取工作汇报，及时研究解决重大问题。带头学法、用法、守法、普法，认真参加法宣在线学习、考试，刻苦钻研相关法律法规，树立法治思维、运用法治方式，坚持依法行政、依法办事。对于市人大责成我局起草的《呼和浩特市耕地污染防治办法（草案）》，亲自组织，认真参与讨论，反复指导修改。切实履行了推进法治建设第一责任人职责。', '按照市人大2019年立法工作总体安排，为确保《呼和浩特市耕地污染防治办法（草案）》起草工作有序推进，我局成立由局主要领导担任组长的起草工作领导小组及相应的工作机构，制定了起草工作实施方案，明确进度安排和具体责任分工。《办法（草案）》经过深入开展调查研究、召开座谈会讨论、赴外地学习考察、邀请专家咨询、书面发函等方式多方征求意见，进行了十多次修改，市政府常务会议讨论通过，市人大常委会已经过第一次审议。', '完善规范性文件“三统一”制度，对统一登记、统一编号、统一公布工作程序和工作要求进行了明确。按照市人民政府办公室《关于开展2019年度行政规范性文件清理工作的通知》要求，我局对本部门起草、以市政府或政府办名义制发的规范性文件和本部门制发的规范性文件进行清理，对于土地确权登记颁证工作整理档案、颁发经营权证书、自查核验等工作还需执行的文件提出保留意见。清理建议、依据及理由已按时报送到市人民政府办公室和市司法局。', '2019年，我局认真落实合法性审查工作规定，建立审查工作流程，规范审查程序，明确审查要求。截至目前，共进行合法性审查29件，经过审查，上报的材料均不存在与上位法相冲突情形。', '根据《重大行政决策程序暂行条例》研究制定我局重大行政决策事项目录，拟将《呼和浩特市农牧业发展“十四五”规划》列入重大行政决策事项，制定决策标准，明确决策启动、公众参与、专家论证、风险评估、合法性审查、集体讨论决定和决策公布、决策执行和调整等规定。', '健全完善法律顾问制度，在法律顾问经费列入2020年财政预算未果的情况下，积极协调局里统筹安排，争取解决法律顾问工作经费，确保重大行政决策必须听取法律顾问的意见，有效发挥法律顾问、公职律师在重大行政决策中的作用。', '严格贯彻执行国务院办公厅《关于全面推行行政执法公示制度执法全过程记录制度重大执法决定法制审核制度的指导意见》精神和《内蒙古自治区行政执法公示执法全过程记录重大执法决定法制审核办法》规定，落实自治区农牧厅和我市实施方案，制定了《呼和浩特市农牧系统推行行政执法公示制度执法全过程记录制度重大执法决定法制审核制度工作实施方案》并认真组织实施，按时报送行政执法“三项制度”工作台账，组织相关人员参加培训。并全面落实行政执法公示要求，加强事前公开、严格事中公开、规范事后公开。全面落实执法全过程记录要求，规范文字记录，推进重大执法音视频记录。全面落实重大执法决定法制审核要求，规范细化重大执法决定法制审核目录，明确重大执法决定法制审核人员。', '开展“绿剑护农”行动，抓好农资市场的监管，严厉打击制售假冒伪劣农资的行为，严防坑农害农事件发生，切实保障农民利益不受侵害。健全落实投诉举报、情况通报等制度，保障群众的知情权、监督权。印发了《致农民朋友的一封信》，提醒农民在选购农资时应当注意的事项，告诉农民在合法利益受到侵害时该如何维权，并公布了市农牧业综合执法支队和旗县执法大队投诉举报电话。并公布了“呼和浩特农业执法”微信公众号。', '为规范农牧业系统日常监管行为，提高事中事后监管的效率和执行力，2019年，我局继续推行“双随机、一公开”监管模式，按照《呼和浩特市农牧局随机抽查工作实施细则》和当年工作计划要求，除有初步证据或线索证明明显涉嫌违法、由市农牧业综合行政执法支队依法立案查处的外，通过摇号、机选等方式，从检查对象名录库中随机抽取检查对象，从执法检查人员名录库随机选派执法检查人员。2019年，共随机抽取检查门店349家（其中包括同市场监督管理局联合执法检查门店6家）。随机抽取执法人员59名，涉及市土壤肥料工作站、市农牧业综合行政执法支队等12家执法单位。', '开展行政执法监督检查，对局系统“双随机、一公开”执法检查进行监督，对检查进度慢、只打电话不到企业驻地核实、检查结果填写不规范、未及时录入的单位进行督促，确保100%完成年度检查计划。', '此外，我局树立重视法治素养和法治能力的用人导向，把干部依法执政作为提拔干部重要的考核内容，对法治素养好、具有法治思维和法治观念、依法办事能力强的干部优先提拔。认真落实自治区政府办公厅关于应用信息化手段科学参加考评的相关要求，按时按要求上传了相关资料。', '重新调整成立了普法工作领导小组，由党组书记、局长任组长，分管领导任副组长，各有关科室和局属执法单位主要负责人为成员，局政策法规科负责具体工作。局属各执法单位也成立领导机构，均有专人负责此项工作。制定了年度普法责任清单，保证普法责任落实。', '一是按照《关于在全区实行网络在线学法和普法考试工作的通知》要求，组织机关及局属事业单位工作人员认真开展网上学法，重点学习《宪法》《扫黑除恶专项斗争》《习近平新时代中国特色社会主义思想》《中华人民共和国公务员法》《内蒙古自治区地方性法规专题》等内容，督促各单位人员按学时按要求完成学习及考试。二是督促广大干部职工，着力提升依法办事的意识和能力。结合国家新颁布的法律法规和社会热点问题，组织集中培训2次，共培训240人次，不断提升依法办事能力和素质。组织全局领导、干部、职工学习了《保守国家秘密法》《国家安全法》《军事设施保护法》《国防法》《反间谍法》及相应《实施细则》，并参加了“五法”普法知识竞赛；组织全局干部职工举办消防安全知识讲座1次，组织人员参加农业农村部法治骨干培训班1次，组织相关人员参加市人大立法技术规范培训2次。', '宣传教育是做好普法工作的基础，我局高度重视宣传教育工作，每年都要结合实际，利用学习、宣传、服务以及市场检查、田间地头办案工作的间隙，向农民讲解国家法律法规和维权意识。充分利用广播、电视、网络、报刊、宣传单等形式，大力宣传农资法律法规，普及农资识假辨假和科学使用知识，提高农民对农产品质量安全识别意识和维权能力。扎实开展了“宪法宣传周”“宪法宣传月”活动。', '根据相关法律、法规、规章和本部门“三定方案”规定，经梳理审查，2019年确认的执法主体共17个，其中法定行政机关1个，法律、法规授权的组织9个，依法受委托执法的组织7个；行政执法人员共计181人， 全部通过“法治政府建设智能化一体平台”录入审核工作。', '在2018年5月对原有的行政权责事项重新梳理并在网上公示的247项行政权责事项基础上，2019年，根据法律法规规章的立、改、废及机构改革职能划转，我局再次进行梳理，确认权责清单事项共216项，其中：行政许可1项，行政确认1项，行政处罚168项，行政强制措施17项，行政强制执行3项，行政监督检查25项，其他权力事项1项。动态调整后送审稿已报至市“放管服”领导小组。', '根据中央办公厅、国务院办公厅《关于深化农业综合行政执法改革的指导意见》和自治区《关于深化交通运输、农牧业、生态环境保护、文化市场、市场监管综合行政执法改革的实施意见》精神，按照《呼和浩特市机构改革方案》和《呼和浩特市机构改革实施意见》要求，我局结合实际，起草报送了《呼和浩特市农牧业综合行政执法改革实施方案（草案）》《呼和浩特市农牧业综合行政执法支队“五定”方案（草案）》，《呼和浩特市农牧业综合行政执法改革人员方案》。同时，对旗县农牧业综合行政执法改革进行指导，托县、土左旗、和林县、清水河县和武川县改革实施方案和农牧业综合执法大队“五定”方案均已反复修改，报县委等待批复。', '按照市信用体系建设领导小组《关于进一步加快我市社会信用体系建设的实施意见》（呼政办〔2016〕57号）要求，2019年，我局大力推进全市农牧业领域信用体系建设，营造诚实守信的社会氛围。一是对行政处罚、行政审批信息按月实行零报告。二是在联合惩戒业务系统中录入奖惩措施及法律依据，推进社会信用体系建设。三是制定了《呼和浩特市农牧行业领域信用承诺制度》，建立了《信用承诺书》模板。', '按照市委市政府统一安排部署，积极配合市审批局，做好“互联网+监管事项”的认领填报工作，2019年，通过“互联网+监管”平台认领监管事项43项，按时完成实施清单填报、执法人员信息采集、监管行为录入等工作。', '完成公共服务事项和中介服务事项清单的动态调整工作。调整后，我局共有公共服务事项4项，不存在中介服务事项。已将调整结果反馈至市审批局。', '总之，我局对法治政府建设工作高度重视，坚持依法治理，加强对依法治理工作的实践总结和研究探索，各项工作均取得了明显成效。今后我们将继续加大依法行政工作力度，深化行政执法改革，为推进法治政府建设、提升法治治理水平而努力奋斗。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>25</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>从贫困县到百强县的跨越安徽合肥长丰县高质量发展纪实</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2023-10-08</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/ztzl/yhyshj/dxjy/202310/t20231008_1598000.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['高架桥宽阔平坦，新能源车川流不息，住宅楼灯火通明，眼前的这座县城，与大城市别无二致。', '指着县城规划图，长丰县委书记李命山介绍：“长丰有14个乡镇和1个开发区。我们打破了传统空间布局，按照合肥的发展定位重新布局。”规划图上，长丰被分成东部文旅、南部都市、西部科创、北部产教、中部智造5个片区。', '长丰先天自然条件不足、旱涝频发，十种九不收，虽名“长丰”，却被当地人自嘲“常穷”。', '“要把县域作为城乡融合发展的重要切入点，推进空间布局、产业发展、基础设施等县域统筹，把城乡关系摆布好处理好，一体设计、一并推进。”习近平总书记对县域经济的发展指引，打开了长丰的发展思路。“打造合肥先进制造业发展的新高地、实现全域协调发展新突破，争当全国巩固拓展脱贫攻坚成果与乡村振兴有效衔接的示范县”，合肥对长丰的“两新一示范”新定位，让长丰踏上新路。', '瞄准市区发展规划，加快城乡基础设施一体化建设。高速道口“镇镇通”，两座高铁站遥相呼应……短短10余年，北城已集聚52万常住人口，成为合肥的消费新中心、科创服务新高地和宜居宜业新标杆。', '紧抓耕地、种子，因地制宜推动农业现代化。县城南部，集成种子、智慧农业、合成生物、菌物等产业；县城北边，草莓产业引入科技智慧手段，实现全产业链产值过百亿元。', '请来安徽省林木种苗总站专家调研分析，引进薄壳山核桃产业。过去“种啥啥不长、栽啥啥不成”的荒地，已变成了绿色走廊。“全县种植薄壳山核桃约9万亩，今年起开始进入盛果期。”长丰县薄壳山核桃种植协会会长沈军城说。', '走进汽车城下塘镇，现代化的厂房外，满载汽车零部件的货车络绎不绝。“你能想象，这里两年前还是块荒地吗？”长丰县委常委、宣传部部长卢先梅说。', '锚定安徽省、合肥市产业政策导向，从最初引入汽车零部件厂商开始，长丰围绕汽车配套产业链展开招商布局。规划下塘镇作为产业新城后，提早预留工业用地。这些配套企业和“留白”用地，在2021年比亚迪投资选址时发挥了关键作用，也让长丰从发展汽车零部件配套产业快速转向新能源汽车及智能网联汽车产业。', '“现在，下塘镇不仅有整车工厂，还引进了中创新航、佳通轮胎等百亿元级项目。”下塘镇党委书记樊邵斌说。', '翻开长丰县规划图：南部大力发展服务业促进产城融合；中部打造下塘新能源汽车城，朝着千亿元产业镇方向前进；北部县城全面开展城市更新……', '地图不断完善，规划日益清晰。记者发现，图上还有处地方，标注着“能源综合改革创新试点”。', '按图索骥，走进安徽皖丰长能投资有限责任公司，董事长张学锁告诉记者，根据试点方案，长丰正依托城市、工业园区和乡村三大板块，聚焦工业、农业、建筑、交通4个重点领域，目前已经建成9个示范场景项目。', '陶楼镇“光伏＋智慧农业”科技示范基地，就是其中一个项目。顶棚安装的光伏板提供电能，集装箱上放置的盆栽辣椒长势喜人，箱中鱼儿游来游去。张学锁算了笔账，光伏发电一年收入15万元，农业种养，每箱鲫鱼能挣6万多元，“别看只有3.5亩，可以创造出上百亩土地的经济效益。”', '如今，长丰的规划图上仍有几处留白，都是高铁站、高架路旁的“黄金地带”。“长丰的发展与产业布局，不仅要着眼当下，更要着眼于未来。”李命山说。', '长丰县委常委、县委办主任李多魁的手机里，保存着一张抓拍照片：烈日下，站在几辆小车旁，李命山手握钢笔，在写满交地日期的工业用地图上签字。', '照片场景，发生在2021年7月。当时，比亚迪与长丰的项目谈判到了关键时期，基本达成意向合同，但比亚迪对能否在20多天内交地心存疑虑。那时的规划用地上，有的长满杂草，有的水塘密布，还有村民开的农家乐。为此，比亚迪安排相关人员到现场一一查探。', '为了争取到比亚迪的这个百亿元大项目，长丰的干部铆足了劲。拿着地图，边看地边商讨。地块怎么规划、道路如何设计、土地何时平整……比亚迪方面，则把县里承诺的交地时间一一标注。', '准备上车离开时，比亚迪负责人担心“口说无凭”，拿着那张交地时间图，希望县委书记在上面签字。“我当时有点猝不及防，但也特别理解，说明对方是非常认真地在考虑，也是考验我们长丰人的诚信与能力。”李命山拿起笔郑重地签下了自己的名字。', '项目区域因标高问题，急需土方填平，下塘镇立即调来千辆卡车，一夜之间完工；园区企业提出员工住宿问题，樊邵斌带着镇干部腾出宿舍，解决了难题。“为保证项目进度，无论企业有啥需求，哪怕正在吃饭，我们都会立刻赶过去。”樊邵斌说。', '一期项目从谈判到签约，用时23天；从签约到开工，用时42天；从开工到整车下线，用时10个月。', '“抓产业就是抓发展，拼经济就是拼闯劲。”长丰县提出，政府部门要做营商环境金牌“店小二”，为企业和经营主体服务好。正是凭着这股闯劲，2022年，长丰县有78个亿元以上项目签约落户，其中超50亿元项目2个、超百亿元项目2个，总投资600亿元。', '“长丰县领导班子心往一处想、劲往一处使，团结一心抓产业，一任接着一任干，这才有了大发展。”从长丰县走出来、目前在合肥市政府部门工作的多位干部，不约而同地谈到这一点。', '记者在长丰调研采访期间，赶上了周六。这天，为建设合肥菌物谷的事，中国工程院院士、吉林农业大学教授李玉专程来到长丰。在县长李孝鸿主持下，当地坚持了两年的“周六解题”调度会搬至施工现场，实验室如何装修、资源库怎样建设，县里七八个部门一起商讨，推进问题解决。', '用心用情，办好实事。长丰县2020年6月起持续开展“千名干部进万企”活动，对全县“上规、上亿、上云、上市、上百亿”企业一对一服务，好时不扰、难时出手，年均化解4000多个问题。', '中国科学院合肥智能机械研究所总工程师、研究员王儒敬没想到，研究所的技术、比亚迪的工艺，在合肥智慧农业谷里碰出了火花。', '检测土壤养分，过去由人工操作，周期长、成本高，还易出现误差。合肥智能机械研究所融合机器视觉、多臂协同、优化调度算法等技术，尝试研发土壤成分智能检测机器人。', '“3000个机械臂如何有效运转成了难点，理论上没啥问题，却总造不出来。”王儒敬东奔西走，把熟悉的厂家跑了个遍。', '李命山的“撮合”，给王儒敬提了个醒：“要不找比亚迪试试？新能源汽车都能造，机器人说不定也行。”', '政府牵线搭桥，双方一拍即合。今年5月，比亚迪项目总监孙茂连带队，组建专班团队进驻智慧农业谷，不到一个月，产品研制成功。“我们已经接到了一些订单。没想到，3年干成了过去10年没有做成的事。”王儒敬说。', '2020年，中国科学院合肥物质科学研究院与合肥市人民政府、长丰县人民政府分别签订框架协议和工作协议，建设合肥智慧农业谷，从农业传感器到大数据，从机器人到新材料，应用基础研究、关键核心技术、集成创新应用接连开展，人工智能与农学深度融合。', '如今的王儒敬也有了新职务，担任中科合肥智慧农业协同创新研究院负责人。身份在研究所，人在长丰，不仅解决了过去项目缺资金、技术落地难的问题，智慧农业谷还有相应激励机制。', '一次跨界合作，让科研人员实现了成果转化，令比亚迪开辟了产业空间，同时也为长丰集聚人才出了把力。智慧农业谷现有科研人员280多人，其中近百名是硕士、博士毕业生。', '智慧农业谷的科研成果，和当地产业紧密相连。打开长丰草莓产业互联网平台，乡镇种植面积、主要销往区域、辐射带动地区等数据一目了然，还能查看各地草莓市场行情与病虫害动态走势。', '种了半辈子草莓的兴农草莓专业合作社负责人蒋秀芝，去年给自家大棚装上了智慧农业系统。坐在家中，打开手机，浇水、通风全能操纵，“省了人力，还更加精准，新技术可给我们省了不少事。”', '在岗集镇，合肥航太雷电综合试验大厅项目正加紧建设，不远处是规划中的“科学家小镇”，长丰科学城雏形初现。', '智慧农业谷旁，合肥菌物谷创新研究院工作人员正在观察菌丝生长情况。去年7月，中国菌物谷（合肥）正式揭牌。“从厂房建设到仪器采购，不到4个月，我们已经有了产品。”合肥菌物谷创新研究院院长、吉林农业大学教授王琦介绍，眼下资源库还在搭建，接下来，菌种库、活体库、基因库等将陆续建成。', '把创新作为最大政策，是长丰跨越式发展的重要动力和关键路径。“我们正琢磨设立‘科技副总’，鼓励高校科研人员深入企业一线，攻克研发难关。”长丰县科技局局长张帆介绍，政府给奖励，企业付薪资，院校出技术，切实解决企业在生产过程中遇到的技术难题。', '换上工装，戴上工牌，晚上7点半，刘畅准时到岗。查物料、点人数、清设备……作为比亚迪合肥基地车间小组长，刘畅早已得心应手。', '“随着比亚迪入驻，去年总投资约350亿元的产业链项目签约落地下塘镇。”长丰县常务副县长石磊说，比亚迪合肥基地项目全部完工后，将为下塘新能源汽车城创造约10万个就业岗位，“基础设施有了，商业配套起来了，年轻人也愿意回来。”', '采摘花草、绘制图案，浸染布料、反复晾晒，在杨庙镇马郢村，来自四川的90后陈燃忙个不停。', '马郢村原是个空心村，无产业，年轻人都往外走。2015年，以“助学、助农、助村”为目标的“马郢计划”发起。“想在城市与乡村之间架起一座桥梁，吸引志愿者加入，让创客们通过公益改变乡村。”马郢村第一书记钟宇说。', '随着志愿者的到来，“马郢计划”有了新的内容：通过创客计划，吸引志愿者就地转化，在这里办起文旅创意产业。学校来的志愿者，教孩子们英语、戏曲等；艺术家来到村里，做花艺、烧陶器、制印染，让马郢与文化相结合；村民们种草莓、养龙虾、开饭店，日子越过越红火。', '通过创业孵化、政策扶持、资源嫁接，马郢目前已集聚40多个创客团队，陈燃团队也是其中之一。“在这儿能感受到村民的热情和创业的氛围，我决定留下搭建染坊，传承好蜡染这项非遗技艺。”陈燃说。', '创客不断加入，村民陆续返乡。过去在高速公路服务区工作的吕银银，去年回村在创客经营的陶瓷馆找到了工作。随着研学游的学生越来越多，她忙得“脚不沾地”，“家门口上班，挣钱带娃两不误。”', '激活人才引擎，赋能乡村振兴。如今，长丰244个村居都已是集体经济强村，年均收入112万元，收入最高的达1021万元。', '李玉经常往返安徽和吉林之间，为菌物谷的发展出谋划策；“草莓育苗达人”沈海燕，返乡建起草莓立体育苗大棚，利用智能温室、无土栽培系统和水肥一体化精准灌溉施肥；00后新农人俞泽明，在造甲乡和父亲一道科学种粮，把4000亩耕地打理得井井有条……', '2022年，长丰实现人口、中小学生、资金“三个净流入”，人才势能正源源不断转化为发展动能。', '前不久，长丰县领导班子去浙江学习考察。如今的长丰又有了新坐标，跳出合肥市，对标长三角。“从贫困县到百强县，我们一张蓝图绘到底，咬定青山不放松。接下来，还要朝着共同富裕目标前进，奋力书写县域经济高质量发展新篇章。”李命山说。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>25</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>呼和浩特市行政审批和政务服务局对呼市政协十三届三次会议第号关于审慎推进相对集中行政许可改革优化我市政务服务营商环境提案的答复</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2020-06-03</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/sxzsphzwfwj_22435/fdzdgknr_25816/jytablnew/202006/t20200603_945820.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['呼和浩特市行政审批和政务服务局对呼市政协十三届三次会议第223号“关于审慎推进相对集中行政许可改革，优化我市政务服务营商环境”提案的答复_ 呼和浩特市人民政府', '呼和浩特市行政审批和政务服务局 对呼市政协十三届三次会议第223号 “关于审慎推进相对集中行政许可改革， 优化我市政务服务营商环境”提案的答复', '您提出的“关于审慎推进相对集中行政许可改革，优化我市政务服务营商环境的提案”已收悉，现答复如下：', '您在提案中提出的“审慎推进相对集中许可权改革，建立闭环式审管衔接制度”、“进一步简化水、气报装涉及的工程建设备案程序”和“建议有关部门进一步转变管理思维，取消店招牌匾定制备案事项，还权于民”的建议，我们认为很好，很重要。', '法》第二十五条 经国务院批准，省、自治区、直辖市人民政府根据精简、统一、效能的原则，可以决定一个行政机关行使有关行政机关的行政许可权。', '近年来，李克强总理多次要求“加快推进相对集中行政许可权工作，支持地方开展相对集中行政许可权改革试点”、“组建行政审批局，实行综合审批、一个印章管到底”。把开展相对集中行政许可权改革作为当前深化“放管服”改革、推动政府职能转变的一项重要举措。', '日启用“呼和浩特市行政审批服务局审批专用章”，标志着呼和浩特市行政审批服务局正式运行。', '日，根据我市机构改革要求，呼和浩特市行政审批服务局更名为呼和浩特市行政审批和政务服务局。为深入做好相对集中行政许可权改革试点工作，加强行政审批与事中事后监管工作的有效衔接，促进部门间信息共享和协调配合，呼和浩特市人民政府印发了《关于做好相对集中行政许可权改革有关事宜的通知》（呼政发〔', '号）等文件，明确规定：市行政审批和政务服务局对所划转的行政许可及其他行政职权事项，依法履行审批职责，承担相应的法律责任。相关部门不再承担被划转事项的审批工作，主要负责事中事后的监管以及牵头研究制定政策，调整相关行政审批事项的要件、标准等内容。并对做好相互配合工作进行了具体规定。', '日，内蒙古自治区人民政府办公厅印发了《关于深化相对集中行政许可权改革有关事宜的通知》（内政办发〔', '号），强化事中事后监管，坚持“谁主管、谁监管”的原则，主管部门要严格按照法律、法规和“三定”规定明确的监管事项和监管职责，依法对市场主体进行监管，严格落实事中事后监管责任。', '事项的划转是相对集中行政许可权改革工作的核心，为了保证划转工作的科学性和严谨性，多次组织工作人员到先进省市调研考察学习、反复商讨研判，并结合我市实际统筹谋划，确定划转事项和人员的范围。', '）事项划转原则。按照自治区“应划尽划，不划为例外”的要求，坚持“一次性设计到位、问题导向、应划尽划、集中高效”、“先易后难，分步实施”的原则，将市属部门实施的面向公民、法人和其他组织办理的行政许可事项和带有审批性质的部分其他行政职权也一并划转。划转了', '）人员划转情况。按照业务骨干优先划转和“人随事走，编随人走”的原则，市编办先后两批从原部门划转到市行政审批服务局', '）市委、市政府强势推进。呼和浩特市委、市政府下定决心推进相对集中行政许可权改革，专门成立了以市主要领导任组长的行政审批制度改革领导小组，主要领导在多种会议上反复强调改革工作的重要性，要求各部门转变思想，提高认识，全力支持和推进改革。分管领导多次组织召开专题工作会议，研究制定具体实施方案，解决工作中遇到的问题；召开工作动员会议，形成全市推动改革工作的强大合力。', '为进一步深化“放管服”改革工作，促进政府职能转变、改进作风、高效便捷地为企业群众做好便民、利民服务，放大“一个印章管到底”改革效应，制定了《呼和浩特市行政审批服务局审批事项流程管理办法》《呼和浩特市行政审批服务局对象评议制度》《呼和浩特市行政审批服务局现场勘验管理办法》《呼和浩特市行政审批服务局窗口工作人员行为规范》《呼和浩特市行政审批服务局投诉管理办法》《呼和浩特市行政审批服务局督查管理规定》等二十余项管理制度，保证了各项审批标准化、制度化、规范化。', '市行政审批服务局对所划转的行政许可及其他行政职权事项，依法履行审批职责，承担相应的法律责任，并做好相关的复议、应诉、听证等工作。', '相关部门不再承担被划转事项的审批工作，承担事中事后的监管、政策研究，并配合市行政审批服务局做好复议、应诉、听证等工作；负责牵头制定相关行政审批事项的要件、标准等内容，并征求市行政审批服务局意见。', '划转事项交接过渡期从“呼和浩特市行政审批服务局行政审批专用章”启用时起，原则上为三个月。过渡期内，原职能部门根据市行政审批服务局办理业务需求，积极配合做好相关审批业务办理等工作。在过渡期内出现行政慢作为、不作为、乱作为等问题的，相关职能部门与行政审批服务局各自承担相应责任。', '从“呼和浩特市行政审批服务局行政审批专用章”启用之时起，事项全部划转部门的“行政审批专用”印章、“行政审批办公室”印章及钢质印章等，一律由市行政审批服务局收缴，市政府统一封存废止。未划转行政审批事项和部分划转审批事项的部门所使用的部门行政审批专用章暂不收回，在办理承担的审批事项时继续使用。', '——各有关部门要积极配合市行政审批服务局做好与上级专用网络系统对接、专用电脑和密钥的授权和制式证照使用的交接工作。', '各有关部门要积极配合市行政审批服务局做好与上级专用网络系统对接、专用电脑和密钥的授权和制式证照使用的交接工作。', '——划转事项涉及的相关法律、法规、规范性文件、制式证照等资料，相关部门要统一移交市行政审批服务局。上级部门下发的涉及审批业务的各类文件，原部门要及时转交给市行政审批服务局。', '划转事项涉及的相关法律、法规、规范性文件、制式证照等资料，相关部门要统一移交市行政审批服务局。上级部门下发的涉及审批业务的各类文件，原部门要及时转交给市行政审批服务局。', '——事项划转前审批事项形成档案原则上由原部门保管，市行政审批服务局需要调档、查档时，原部门应当提供。市行政审批服务局承接划转事项后形成的档案，由市行政审批服务局保管，并严格按照档案管理有关规定，做好审批事项及其他行政职权相关卷宗的管理工作。', '事项划转前审批事项形成档案原则上由原部门保管，市行政审批服务局需要调档、查档时，原部门应当提供。市行政审批服务局承接划转事项后形成的档案，由市行政审批服务局保管，并严格按照档案管理有关规定，做好审批事项及其他行政职权相关卷宗的管理工作。', '——划转事项中原部门已受理的事项，因各种原因未办结的，须做出书面说明，与市行政审批服务局协商完成后续办理工作，确保事项办理的完整性。划转的行政许可及其他行政职权事项，市行政审批服务局仍然按照分级、分类的原则实施具体审批行为。', '划转事项中原部门已受理的事项，因各种原因未办结的，须做出书面说明，与市行政审批服务局协商完成后续办理工作，确保事项办理的完整性。划转的行政许可及其他行政职权事项，市行政审批服务局仍然按照分级、分类的原则实施具体审批行为。', '、专家论证、专家评审、验收等工作并出具意见。同时，要配合市行政审批服务局建立好专家库。在审批过程中产生的专家评审费用，列入财政预算，由财政统一支付。', '——划转事项中，涉及审批前的培训、考试等相关工作，暂时由原业务部门承担，以确保相关业务工作的专业性和连续性。待市行政审批服务局运行条件具备后，交由市行政审批服务局全流程办理。', '划转事项中，涉及审批前的培训、考试等相关工作，暂时由原业务部门承担，以确保相关业务工作的专业性和连续性。待市行政审批服务局运行条件具备后，交由市行政审批服务局全流程办理。', '——各相关部门要与市行政审批服务局紧密配合，共同做好上级部门涉及政务服务工作的检查、考核、评比等工作，避免出现因业务对接不及时而产生工作疏漏。', '各相关部门要与市行政审批服务局紧密配合，共同做好上级部门涉及政务服务工作的检查、考核、评比等工作，避免出现因业务对接不及时而产生工作疏漏。', '——为保证行政审批工作的规范化和专业化，相关部门应及时告知并协助市行政审批参加相关的法律法规培训和业务学习等。', '为保证行政审批工作的规范化和专业化，相关部门应及时告知并协助市行政审批参加相关的法律法规培训和业务学习等。', '为进一步强化事中事后监管职责，避免监管缺位、失位，我市建立行政审批与监管协调联运机制。', '市行政审批和政务服务局和划转行政审批事项到市行政审批和政务服务局所涉及的市属部门。', '）市行政审批和政务服务局依法履行审批职责，负责向相关部门推送审批信息，及时查收各部门反馈的事中事后监管信息。', '）相关部门承担审批事项事中事后监管、政策研究等职责。负责及时查收市行政审批和政务服务局推送的审批信息，并将监管信息反馈至市行政审批和政务服务局。', '③负责将履行事中事后监管职责中发现的监管对象违反行政审批的行为及作出的行政处理决定、行政处罚和监管意见等信息反馈至市行政审批和政务服务局。', '负责将履行事中事后监管职责中发现的监管对象违反行政审批的行为及作出的行政处理决定、行政处罚和监管意见等信息反馈至市行政审批和政务服务局。', '④负责将与行政审批相关的法律、法规、规章和政策性文件的修订、调整信息及时反馈至市行政审批和政务服务局。', '负责将与行政审批相关的法律、法规、规章和政策性文件的修订、调整信息及时反馈至市行政审批和政务服务局。', '⑥负责将本系统组织的与行政审批工作相关的理论培训、业务学习和资质考试等信息及时告知市行政审批和政务服务局。', '负责将本系统组织的与行政审批工作相关的理论培训、业务学习和资质考试等信息及时告知市行政审批和政务服务局。', '）明确信息联络专人。市行政审批和政务服务局和各相关部门确定专人作为信息联络员，具体负责信息双向反馈工作。部门联络员应为本单位领导和在编在岗且熟悉本部门工作的人员。联络员如有变更，须以文件形式及时函告。', '）加强信息保密管理。严格保护相关信息中涉及企业、个人隐私等内容，不得将相关信息随意公开，并加强网络安全工作，避免信息泄露。', '相对集中行政许可权改革是一项全新的工作，今后我们将不断探索和创新，使改革更加完善，为我市优化营商环境助力加速。', '按照《呼和浩特市工程建设项目审批制度改革工作实施方案》进一步优化办理环节的要求，通过“信息共享、联合勘验、压缩环节、快速审批”举措的实施，推动市政设施建设类（管线类）审批工作进一步优化，解决水电气暖相关审批“时限长、材料多、程序多、环节多、签字多、会议多、交叉多”等制约效率的问题，结合我市实际，采取分阶段审批形式进行，于', '日制定印发了《呼和浩特市政设施建设类审批事项优化方案》。第一阶段由自然资源局牵头，办理建设工程规划许可证（市政工程），时限', '个工作日，用户网上申报，城管执法局在网上对市政工程管理局、市公安局交警支队发出征求意见，根据相关意见作出审批。做到了申请、受理、审查、反馈、告知等全过程、全环节网上办理，实现了“数据多跑腿、用户少跑路”。', '为进一步优化我市营商环境，落实“三减一增”要求，进一步梳理、精简全市水、电、气、暖报装申请要件和时限，于', '个工作日。后续施工及接入，因涉及费用及入住率等不可控因素，由项目单位与申请人约定办理。', '我们根据提案对接了用水用气行业主管部门住建局，住建局起草了全市水气暖优化营商环境实施办法，现正在征求意见中。', '您所提到的“店招牌匾定制备案”事项与“户外广告设置许可、发布、悬挂、张贴审批（包括一楼牌匾审批）”事项属同一事项', '日修正） 第十一条 在城市中设置户外广告、标语牌、画廊、橱窗等，应当内容健康、外形美观，并定期维修、油饰或者拆除。 大型户外广告的设置必须征得城市人民政府市容环境卫生行政主管部门同意后，按照有关规定办理审批手续。', '月２日内蒙古自治区第十一届人民代表大会常务委员会第十九次会议关于批准《呼和浩特市人大常委会关于修改部分地方性法规的决定（一）》的决议第一次修正', '日内蒙古自治区第十一届人民代表大会常务委员会第二十八次会议关于批准《呼和浩特市人大常委会关于修改部分地方性法规的决定》的决议第二次修正）第', '号）精神，该行政许可事项由行政审批和政务服务局负责依法审批；业务主管局（市城管执法局）负责事中事后的监管以及牵头研究制定政策，调整相关行政审批事项的要件、标准等内容。', '感谢您对我们工作的关注和支持，今后我们将不断探索和创新，使改革更加完善，为我市优化营商环境助力加速。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>25</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>呼和浩特市农牧局关于年法治政府建设自检自查报告</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2020-05-29</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/snmj_22416/fdzdgknr/qt/ggjg/202005/t20200529_953055.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['呼和浩特市农牧局关于2015-2020年法治政府建设自检自查报告_ 呼和浩特市人民政府', '按照《呼和浩特市人民政府办公室关于对全市法治政府建设开展自检自查工作的通知》精神，我局高度重视，对照《法治政府建设实施纲要（2015-2020年）》及自治区相关文件认真进行了自检自查，现将2015-2020年法治政府建设工作情况报告如下：', '我局主要领导切实履行法治政府建设第一责任人职责，全局上下严格落实法治政府建设相关责任，完善制度、依法决策、依法行政、公正执法、大力普法，各项工作都取得了明显成效。', '1、深化行政审批制度改革。2015年，我局按要求，在《呼和浩特市市级行政权力清单目录》基础上，将执业兽医、乡村兽医从业资格许可等5项行政许可事项下放旗县区。', '2018年，按照呼和浩特市人民政府《呼和浩特市人民政府关于印发呼和浩特对集中行政许可权改革实施方案的通知》（呼政发〔2018〕40号）要求，我局的种子生产、经营许可等7项行政许可事项，全部划转至市行政审批和政务服务局办理。', '今年，针对自治区下放行政许可事项，市行政审批和政务服务局与我局召开对接会，会议议定自治区下放的涉及农牧渔业的11项行政许可事项全部由行政审批和政务服务局承接。', '2、大力推行权力清单 、责任清单。根据法律法规规章的立、改、废及机构改革职能划转，按照要求及时对我局行政权力事项进行调整。今年，在做好承接自治区下放权力事项的基础上，对2019年12月我局上报的215项权力事项进一步梳理，调整后我局行政权力事项为164项，其中：行政处罚122项、行政强制措施16项、行政强制执行1项。此次取消4项，执法重心下移12项，合并54项为19项，共压减51项，压减比例为23.7%，达到了市里的要求。调整后的《权责事项清单》已报市行政审批和政务服务局。', '经对照《市场准入负面清单（2019年版）》认真梳理，我局无行政许可事项，也无与市场准入负面清单不相符的不合理的限制和隐性壁垒问题。对于《市场准入负面清单（2019年版）》列出的农牧渔业许可和禁止性规定，我局将进一步健全完善工作机制，加强事中事后监管，确保清单得以实施。清理结果已及时反馈市发展和改革委员会。', '3、调整公共服务事项。完成公共服务事项清单的动态调整工作，调整后，我局共有公共服务事项4项，即受理农业投诉举报、农业技术推广、农产品“三品一标”认证服务指导和新型职业农民培育。已将我局《公共服务事项清单》报市行政审批和政务服务局。', '4、全面推行“双随机、一公开”监管。为规范农牧业系统日常监管行为，提高事中事后监管的效率和执行力，我局积极推行“双随机、一公开”监管模式，制定《呼和浩特市农牧局随机抽查工作实施细则》和年度工作计划，通过摇号、机选等方式，从检查对象名录库中随机抽取检查对象，从执法检查人员名录库随机选派执法检查人员。每年随机抽取检查门店300多家，并将检查结果全部网上录入公开。2019年配合市场监督管理局联合开展执法检查。', '5、加强信用体系建设。大力推进全市农牧业领域信用体系建设，营造诚实守信的社会氛围。一是对行政处罚、行政审批信息按月实行零报告。二是在联合惩戒业务系统中录入奖惩措施及法律依据，推进社会信用体系建设。三是制定了《呼和浩特市农牧行业领域信用承诺制度》，建立了《信用承诺书》模板。', '6、大力推行互联网+监管模式。按照市委市政府统一安排部署，做好“互联网+监管事项”的认领填报工作，按时完成实施清单填报、执法人员信息采集、监管行为录入等工作。', '1、做好立法起草工作。按照市人大2019年立法工作总体安排，为确保《呼和浩特市耕地污染防治办法（草案）》起草工作有序推进，我局成立由局主要领导担任组长的起草工作领导小组及相应的工作机构，制定了起草工作实施方案，明确进度安排和具体责任分工。《办法（草案）》经过深入开展调查研究、召开座谈会讨论、赴外地学习考察、邀请专家咨询、书面发函等方式多方征求意见，进行了十多次修改，市政府常务会议讨论通过，市人大常委会已经过第二次审议。', '2、严格规范性文件监督管理。落实《内蒙古自治区规范性文件制定和备案监督办法》，全面实现规范性文件制定、备案的规范化管理。完善规范性文件“三统一”制度，对统一登记、统一编号、统一公布工作程序和工作要求进行了明确。行政规范性文件依法依规执行、公开征求意见、合法性审核、集体审议决定、向社会公开发布等程序。专业性、技术性较强的规范性文件，组织相关领域专家进行论证、评估，作为制发文件的重要依据。对公民、法人和其他组织权利义务有重大影响、涉及人民群众切身利益的行政规范性文件，向社会公开征求意见。涉及企业和特定群体、行业利益的，应当充分听取企业、人民团体、行业协会商会的意见。', '3、规范合法性审查。建立行政文件合法性审查工作制度，建立审查工作流程，规范审查程序，明确审查要求，开展合法性审查。', '4、定期清理规范性文件。按照市人民政府办公室要求定期对我局起草、以市政府或政府办名义制发的规范性文件和本部门制发的规范性文件进行清理，对于土地确权登记颁证工作整理档案、颁发经营权证书、自查核验等工作还需执行的文件提出保留意见。清理建议、依据及理由已按时报送到市人民政府办公室和市司法局。', '1、探索建立完善重大行政决策制度。根据《重大行政决策暂行条例》研究制定我局重大行政决策事项目录，拟将《呼和浩特市农牧业发展“十四五”规划》列入重大行政决策事项，制定决策标准，明确决策启动、公众参与、专家论证、风险评估、合法性审查、集体讨论决定和决策公布、决策执行和调整等规定。', '2、探索建立局机关内部重大决策合法性审查机制，局政策法规科对违反《公平竞争审查制度实施细则（暂行）》和《重大行政决策程序暂行条例》规定的决策内容，及时指出，并建议起草部门予以纠正。', '3、健全完善法律顾问制度，在法律顾问经费列入2020年财政预算未果的情况下，积极协调局里统筹安排，争取解决法律顾问工作经费，确保重大行政决策必须听取法律顾问的意见，有效发挥法律顾问、公职律师在重大行政决策中的作用。', '1、改革行政执法体制。落实党办、政办2019年印发的《关于深化交通运输、农牧业、生态环境保护、文化市场、市场监管综合行政执法改革的实施意见》，按照减少层次、整合队伍、提高效率的原则，将农产品质量安全、农作物种子、农药、肥料、兽医兽药、畜禽屠宰、农机、饲料和饲料添加剂、动物卫生、植物检疫、农业转基因生物安全、植物新品种权保护、野生植物保护、基本农田保护以及渔政执法等农业，畜牧业涉及十多个领域的行政处罚和行政强制内容全部剥离、综合，由一支执法队伍集中行使。整合市四区农牧业综合执法队伍，统一划转至市农牧业综合执法支队。目前，《呼和浩特市农牧业综合行政执法改革人员划转方案》已经市委编办批复印发。', '2、开展“绿剑护农”行动，抓好农资市场的监管，严厉打击制售假冒伪劣农资的行为，严防坑农害农事件发生，切实保障农民利益不受侵害。健全落实投诉举报、情况通报等制度，保障群众的知情权、监督权。印发了《致农民朋友的一封信》，提醒农民在选购农资时应当注意的事项，告诉农民在合法利益受到侵害时该如何维权，并公布了市农牧业综合执法支队和旗县执法大队投诉举报电话。并公布了“呼和浩特农业执法”微信公众号。', '3、全面推行行政执法“三项制度”。严格贯彻执行国务院办公厅《关于全面推行行政执法公示制度执法全过程记录制度重大执法决定法制审核制度的指导意见》精神和《内蒙古自治区行政执法公示执法全过程记录重大执法决定法制审核办法》规定，落实自治区农牧厅和我市实施方案，制定了《呼和浩特市农牧系统推行行政执法公示制度执法全过程记录制度重大执法决定法制审核制度工作实施方案》并认真组织实施，按时报送行政执法“三项制度”工作台账，组织相关人员参加培训。并全面落实行政执法公示要求，加强事前公开、严格事中公开、规范事后公开。全面落实执法全过程记录要求，规范文字记录，推进重大执法音视频记录。全面落实重大执法决定法制审核要求，规范细化重大执法决定法制审核目录，明确重大执法决定法制审核人员。', '4、编制《呼和浩特市农牧局重大执法决定法制审核目录》。按照市司法局印发的编制指南，将我局《权责事项清单》中符合重大执法决定标准的行政处罚和行政强制事项共52项列入。', '5、健全行政执法和刑事司法衔接机制。2018年，市公安局、市农牧业局联合印发了《呼和浩特市公安局与农牧业局执法联动协作机制》，建立了联席会议制度、案件咨询和会商制度、信息通报制度、联合执法制度、案件督办制度，并认真执行，有效打击涉农领域违法犯罪活动，进一步规范了农资市场秩序。', '6、全面落实行政执法责任制。严格确定不同部门及机构、岗位执法人员的执法责任，建立健全常态化的责任追究机制。使用自治区统一的行政执法监督信息化平台，录入全局所有执法主体和执法人员信息，完成自治区考核呼市我局承担工作信息录入。开展年度行政执法情况检查、考评。完善执法过错纠正和责任追究制度，健全执法过错纠正和责任追究程序。', '7、健全执法人员管理制度。在2016年严格清理的基础上，根据相关法律、法规、规章和本部门“三定方案”规定，经梳理审查，2019年确认的执法主体共17个，其中法定行政机关1个，法律、法规授权的组织9个，依法受委托执法的组织7个；行政执法人员共计181人， 全部通过“法治政府建设智能化一体平台”录入审核工作。', '2、自觉接受党内监督、人大监督、民主监督。认真落实党组党风廉政建设和反腐败工作主体责任，党组成员坚持“一岗双责”，党组书记履行第一责任人职责，其他党组成员按照分工抓好职责范围内抓党风廉政建设和反腐败工作责任。党组书记每年主持召开政府系统廉政工作会议，定期主持召开政府党组会议、组织理论中心组学习，加强理论武装和思想政治工作，发挥好政府党组把方向、管大局、保落实的重要作用。建设廉政风险防控制度措施。认真研究办理人大及其常委会组成人员对政府工作有关审议意见、人大代表和政协委员意见和建议。按时办理本级人大代表、政协委员提出的建议、批评和意见，2019年人大代表满意度达到98%。', '3、完善社会监督和舆论监督机制。建立对行政机关违法行政行为投诉举报登记制度，畅通举报箱、电子信箱、热线电话等监督渠道，方便群众投诉举报、反映问题，依法及时调查处理违法行政行为。', '4、全面推进政务公开。坚持“公开为常态、不公开为例外”原则，实行政务公开清单管理制度，推进决策公开、执行公开、管理公开、服务公开、结果公开。按年度制发政务公开工作要点，编撰政府信息公开年度报告并公布。建立落实政府新闻发言人制度，对涉及特别重大、重大突发事件的政务舆情，最迟在事件发生后5小时内发布权威信息，在24小时内举行新闻发布会，并根据工作进展情况，持续发布权威信息，主要负责人要带头主动发声。', '制定出台《呼和浩特市农牧部门依法分类处理信访诉求清单》，并在市政府信息网上公布，进一步厘清信访与其他法定途径之间的边界，引导信访群众按照法定途径反映和解决合理诉求，依法及时就地化解矛盾，推动诉访分离。', '召开信访工作会议，学习传达全区信访工作视频会议和全国“两会”信访保障工作呼和浩特市部署动员会精神，提出具体贯彻意见，并安排部署了全局信访工作，进一步排查信访隐患，建立局领导信访接待日制度和信访工作值班制度，对重点信访案件和信访人员严盯死守，确保“两会”期间不发生进京群访聚集，不发生极端案件。', '1、树立重视法治素养和法治能力的用人导向。把法治观念强不强、法治素养好不好作为衡量干部德才的重要标准，把能不能遵守法律、依法办事作为考察干部的重要内容，在同等条件下，优先提拔任用法治素养好、依法办事能力强的干部。', '2、加强法律法规学习。一是按照《关于在全区实行网络在线学法和普法考试工作的通知》要求，组织机关及局属事业单位工作人员认真开展网上学法，督促局机关和局属各单位人员按学时按要求完成学习及考试。二是督促广大干部职工，着力提升依法办事的意识和能力。结合国家新颁布的法律法规和社会热点问题，组织集中培训，不断提升依法办事能力和素质。组织全局领导、干部、职工学习法律法规，并参加了普法知识竞赛，组织人员参加农业农村部法治骨干培训班和市人大立法培训。加强对新提拔干部法律知识考查和依法行政能力测试，促进领导干部严格履行法治建设职责。', '3、全面落实“谁主管谁负责谁执法谁普法”普法工作责任制。制定了年度普法责任清单，保证普法责任落实。加大宣传力度。每年都要结合实际，利用学习、宣传、服务以及市场检查、田间地头办案工作的间隙，向农民讲解国家法律法规和维权意识。充分利用广播、电视、网络、报刊、宣传单等形式，大力宣传农资法律法规，普及农资识假辨假和科学使用知识，提高农民对农产品质量安全识别意识和维权能力。扎实开展了“宪法宣传周”“宪法宣传月”活动。', '加强党对法治政府建设的领导，党政主要负责人切实履行推进法治建设第一责任人职责。局党组充分发挥在推进全局法治建设中的领导核心作用，制定法治政府建设年度工作计划，向市委、市政府递交法治政府建设工作报告并在政府信息网上公布。党组书记、局长把推进法治政府建设作为工作的重中之重，作为每年述职的重要内容，亲自统筹谋划，亲自安排部署，定期听取工作汇报，及时研究解决重大问题，带头学法、用法、守法、普法。全局上下扎实开展法治宣传教育，积极创建法治政府示范典型，形成树立法治思维、运用法治方式、坚持依法行政、依法办事的良好氛围。', '下一步，要加快综合执法改革步伐，加大培训力度，提升工作人员法律素养和工作能力，促进全局法治政府建设上水平、上台阶。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>25</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>呼和浩特市年政府信息公开工作年度报告</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2019-03-06</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/szfbgs/xxgknb/202106/t20210601_955638.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['2018年我市按照国家、自治区关于全面推进政务公开工作的部署要求，以进一步推动转变政府职能，深化简政放权，助力打造人民满意的服务型政府为目标，积极理顺管理体制。加快政务大厅建设，统一线上线下服务标准，推进政府信息公开基础工作标准化建设，综合运用互联网、手机等信息化公开手段，切实为群众提供更加便捷、周到的政务公开服务，提升群众对政务公开和政务服务工作的满意度。目前，各项工作均已取得较好成效。', '一是编制政务公开年度工作要点。按照国务院和自治区政府2018年政务公开工作要点，结合我市实际，编制完成了《呼和浩特市2018年政务公开工作要点》，进一步明确了政府信息公开的内容及标准，细化了具体责任，在征求各地区、各部门的意见建议后，于6月9日正式下发执行。', '二是编制政务公开标准化规范化实施方案。按照中央和自治区的部署要求，在市行政审批服务局工作的基础上，对政务公开具体工作内容做了进一步的修改完善后，印制《政务公开工作规范》在全市进行推广，以推动全市政务公开工作标准化建设。', '四是建立健全信息公开制度。根据《条例》要求，全市各地区各部门针对政务公开工作均已建立健全各类信息公开制度，其中包括责任追究制度、保密审查制度、依申请公开管理办法等信息公开监督管理制度，以规范信息公开工作，加强社会监督，更好服务民众。', '为满足不同用户的需求，增强信息查询体验感，在依托自治区政府系统蒙古文政务网站群平台，进一步统一标准、格式和规模后，市政府蒙古文网站于2018年4月28日正式上线运行。', '市政务公开领导小组于7月12日召开了全市政务公开工作推进会暨信息发布平台培训会。市政府秘书长、政府办公室主任、市政务公开领导小组副组长罗琳同志对我市下一步政务公开工作做了动员部署。进一步理顺了工作的体制机制，工作效率得到进一步提升。', '按照《国务院办公厅关于做好政府公报工作的通知》要求，规范有序开展政府公报工作。《呼和浩特市人民政府公报》是呼和浩特市人民政府主管，呼和浩特市人民政府办公室主办编辑出版并面向全社会公开发行的机关刊物。《呼和浩特市人民政府公报》为双月刊，主要刊登地方性法规和规章、市政府文件、市政府领导的重要讲话及市政府批准刊登的其他文件。在推进政务公开、加强政务服务、促进依法行政等发面发挥着重要作用。', '另外，为方便市民取阅查用，在市区具备查阅条件的60座青城驿站设置“政府信息公开查阅点”，配备了政府公报展示书架，对每期的中文版和蒙文版政府公报进行投放，不断提升政府公报的使用效果。各旗县区也定期出版政府公报，公布辖区内的重要政府信息。', '新城区被确定为基层政务公开标准化规范化试点单位以来，通过积极健全工作机制、梳理重点领域公开事项、组织培训、考察学习先进地区的成功经验等方法，重点围绕城乡规划、重大建设项目等25个方面，积极推进基层政务公开试点工作。“试点”工作现已顺利通过自治区评估组验收评审。', '我市“放管服”改革不断深化，初步建立了“一枚印章管审批”的全新审批模式。进一步简化办事流程，全面推行“32证合一”，试点推行“证照分离”。不动产登记、交易、税务“一窗式”综合受理工作受到国务院表扬。财税体制改革顺利实施，7大类133个涉税事项全部实现“最多跑一次”服务模式。', '在财政资金领域共公开信息192条。依法行政领域主要包括市行政事业性收费项目清单、市本级随机抽查事项清单、市本级公共服务事项清单、市本级权责清单等八项清单。在公共资源配置领域共公开信息764条，其中土地征收信息31条、国有建设用地使用权出让信息10条、重大建设项目信息577条、工程招投标信息75条、政府采购信息33条、产权交易信息18条。在公共服务与民生领域共公开信息362条，其中教育类信息16条、科学类信息15条、文化体育类信息21条、社会救助类信息35条、就业创业类信息76条、脱贫攻坚类信息84条。在公共监管领域共公开信息553条，其中环境保护类信息76条、安全生产类信息84条、食品药品安全类信息155条、查处类信息95条、产品质量监管类信息18条、城市管理监管类信息25条、法律服务监管类信息15条、人防监管类信息19条。', '各地区各部门主动公开信息及时在政府信息查阅场所进行更新，全市各地区各部门共设置公开查阅点230个，为社会公众提供信息查阅服务。', '2018年全市各级行政机关共受理政府信息公开申请216件。申请内容主要涉及城市规划、项目审批、国有土地房屋征收等方面的政府信息。', '2018年全市受理的政府信息依申请已全部办结，其中按时办结197件，延期办结19件。', '根据《关于清理规范一批行政事业性收费有关政策的通知》（财税〔2017〕20号）规定，各受理单位在依申请提供政府信息时，未收取任何费用。', '全市各级法院审理政府信息公开行政诉讼案件3件。其中，维持具体行政行为或驳回原告诉讼请求2件，被依法纠错1件。', '总结一年来全市政府信息公开工作，尽管取得了一定成效，但与自治区要求、公众期盼、与建设服务型政府、法治政府的要求相比，还存在一些不足，主要表现为：一是信息公开意识有待增强。部分地区和部门对信息公开工作还不够重视，主动公开意识不强，信息公开更新较慢。二是信息公开工作人员设置不完善。各地区各部门兼职从事政府信息公开工作的人员比例偏大，不能适应政务公开工作的新要求。三是依申请公开信息工作还需加强。个别部门经办人员对依申请公开政策法规不熟悉，依申请公开回复办理不规范、不及时、回复质量不高等问题仍较突出。', '下一步，我们将坚持问题导向，全面梳理政府信息和相关制度，积极推进政府数据开放共享，不断规范政务公开工作流程，提升群众对政务公开和政务服务工作的满意度。', '（一）加强政策解读和回应，努力提升信息公开实效。建立完善政策解读机制，对政府出台的重大决策部署、涉及民生的政策措施、重点领域改革、重大项目规划及实施等情况，及时发布权威信息，正面引导舆论。多运用概述、图表等直观易懂的方式对政策措施进行解读，增进公众对政府经济社会发展政策和改革举措理解、认同，增强政府公信力、执行力，提升政府治理能力。', '（二）严格规范依申请工作，加大政务公开工作创新发展。进一步规范受理、审查、处理、答复及保存备查等各个环节的流程，提升依申请公开服务能力，畅通受理渠道，方便公众申请。增强答复内容针对性并明示救济渠道，对目前全市统一的标准化答复文本继续按照内容进行完善，降低因形式、时效等问题出现的行政复议和诉讼问题。', '（三）完善培训考核制度，全面夯实政务公开工作基础。积极探索、大胆创新，研究形成信息公开与依法行政良性互动的有效措施。在加强培训上下功夫，开展多层次、多类型的政府信息公开业务培训，进一步扩大培训范围，提高履职能力和水平。进一步完善考核机制、细化考核标准，加强第三方评估成果运用，落实部门工作责任，加强对各级政府、各部门的指导，形成一级抓一级、层层抓考核的工作格局，为推进政府信息公开工作提供坚实保障。', '（四）政府信息公开专项经费（不包括用于政府公报编辑管理及政府网站建设维护等方面的经费）']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>25</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>年呼和浩特市交管支队大调研大排查活动工作方案</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2018-04-28</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/sgaj_22406/fdzdgknr/bmgk/201804/t20180417_933968.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['2018年呼和浩特市交管支队“大调研”“大排查”活动工作方案_ 呼和浩特市人民政府', '为深入贯彻落实习近平总书记关于大兴调查研究之风的重要指示精神和中央八项规定及实施细则及自治区副主席杨伟东提出的开展“大学习大调研”活动要求,科学分析首府公安交通管理工作面临的新形势,切实摸清新时代人民群众对公安交管工作提出的新要求,真正找准制约公安交管工作创新发展的新问题,扎实推进全市公安交管部门作风“大改进”、机制“大创新”、执法“大规范”、警务“大提升,全面提高首府公安交管部门履行新时代“四项任务”和驾驭首府公安交通管理能力与水平,奋力打造首府一流现代化警务省会城市,不断开创首府公安交管工作的新局面。根据市公安局要求部署,支队决定,自2018年4月1日开始,在全市公安交管部门开展为期三个月的“大调研”“大排查”活动,现制定工作方案如下：', '以习近平新时代中国特色社会主义思想为指导,紧紧围绕市委、市政府对公安交管工作提出的新任务新要求、人民群众对公安交管工作提出的新需求新期盼、维护道路交通安全面临的新形势新问题,坚持问题导向,强化目标引领,全面开展“大调研”“大排查”活动,有力推动首府公安交管工作信息化、法治化、现代化和公安交管队伍的正规化、专业化、职业化进程。通过开展“大调研”活动,摸准下情、吃透上情,积极问需问计、问策问效,推动全市公安交管工作作风“大改进”。通过开展“大排查”活动,认真查找全市公安交管业务工作中存在的发展不平衡不充分问题和队伍建设中存在的能力不强、本领不高等问题,找准病灶、分析原因,以改革强警、科技兴警为突破口,全面推进首府公安交管工作和队伍建设各项机制“大创新”。', '支队各级领导干部要充分认识“大调研”“大排查”工作的重要性、必要性,坚持对内与对外调研、调查与排查相结合,以找问题找不足作为出发点,以找办法找抓手作为落脚点,以展现新姿态、实现新作为为工作目标,扎实推进新时代首府公安交管工作和公安交管队伍建设迈上新台阶。', '要站在公安交管工作适应新时代、担负新使命的高度,把“大调研”“大排查”作为成事之基、谋事之道的一种工作方法,作为分析问题、解决问题的先决条件,以对党和人民高度负责的精神,以对公安交管事业高度负责的担当,切实增强“大调研”“大排查”的自觉性和主动性。', '要针对社会各界关心关注的热点难点问题和自身存在的历史现实问题开展“大调研”“大排查”,从客观实际出发,实事求是地调研排查首府公安工作和公安队伍建设的实际情况和存在的具体问题,提出解决问题的办法和措施,确保“大调研”“大排查”的真实性和客观性。', '要在深入调研排查的基础上,得出科学的调研排查结论,用事实、数据、资料说话,有针对性地提出对策建议,坚决防止以偏概全、主观臆断,确保“大调研”“大排查”活动取得实实在在效果。', '主要是面向社会各界开展全方位的调研工作,重点突出“四走四听”,即走访人民群众听呼声、走访服务对象听建议、走访行业单位听意见、走访党政机关听要求。要与广大人民群众面对面,认真听取社会主要矛盾转变后人民群众对安全稳定、公平正义、公共服务等方面的新期盼；要与公安交管服务的企业单位、行业场所负责人进行座谈交流,认真听取服务对象发展过程中对公安工作提出的新需求；要与相配合的公安兄弟单位密切沟通,认真听取改进公安交管工作的新举措；要积极主动向党委、政府汇报工作,认真听取党委、政府对加强公安交管工作的新要求。', '主要是面向公安交管部门自身开展全方位的排查工作,以存在问题为导向、服务实战为目的,重点突出“九个方面”: 1.当前治理交通拥堵存在的问题; 2.当前道路交通存在的安全隐患与问题;3.当前公安交通管理业务工作和队伍建设存在的短板; 4.当前执勤执法和警务实战中存在的问题; 5.当前队伍思想状况大排查;6.社会矛盾纠纷排查化解及解决信访案件存在的问题;7.我市公安交管工作与先进地区相比存在的差距；8.推动公安交管工作创新发展的对策建议及创新举措；9.落实上级部门及支队部署的其它重点大项工作中存在的问题。', '4月1日启动, 6月底结束,为期三个月。参加人员为全支队副科级以上领导干部,辅以个别一般干部；分为四个阶段实施。', '各级领导干部要根据本职工作,谋划调研排查的方向和重点,明确调研排查思路和具体推进的方式方法,选定调研课题及排查专题。涉及编组的,要科学确定调研排查工作组成员。除编组人员外,各级领导干部一律不得自带工作人员,严禁私自成立工作组。', '各部门各级领导干部要按照分组安排,有所属工作组的要随组开展实地调研,未列入编组的,要自行开展调研。原则上,按照1/3时间在全市走访、 1/3时间在基层调研、1/3时间进行分析研究的安排,副科级以上领导干部累计在基层一线的调研时间不少于30天。', '各工作组和各级领导干部要对调研收集到的情况进行归纳汇总,以工作组或个人名义形成初步的调研成果。', '各工作组和各部门要进一步总结调研工作,对调研成果进行反复斟酌修改。要根据调研排查的专题,以工作小组或部门名义形成调研报告,连同个人调研报告上报支队办公室。', '要把“大排查”作为“大调研”的一项基础工作,二者同步进行。各工作组和各级领导既要开展“大调研”工作,也要开展“大排查”工作,最终的调研报告要实现二者有机融合。期间,各工作组和各部门可与市局的对口部门或厅交管局进行联系沟通,拜访提请业务指导。市局确定的“智慧公安”建设、电动车管理等重大项目,可实地到相关的先进省区市学习考察。除此之外,如需向外省区学习借鉴先进经验做法,原则上以函询为主,不再进行实地走访考察调研。', '由郭小兵政委牵头,高瑞军副支队长、王境宁副支队长协助,成员为梁治国、宫焱、赵琪成、魏天星、张春明、白振伟、霍二平、多俊平。负责围绕推进公安交管大数据战略、视频联网与“智慧交通”建设、治堵保畅、整治机动车乱停乱放、强化电动车管理、危险品运输监管等工作进行专题调研排查。', '由高瑞军副支队长牵头,成员为郝素珍、梁治国、吴成山、魏天星。负责走访财政、科技及网信、网络安全保护及其他业务对口单位；下设四个小组。', '由办公室副科级以上干部组成。主要围绕加强和改进公安政务工作、提升办文办会、加强档案管理、加强信息审核、加强行政督察等工作进行调研排查。', '由指挥中心副科级以上干部组成。主要围绕提高指挥调度能力、加强“指挥交通”建设、推动公安大数据战略、规范122接处警、提高应急指挥处置等工作进行调研排查。', '由装备科副科级以上干部组成。主要围绕加强装备、财务保障、营房建设等工作进行调研排查。', '由新城大队副科级以上干部组成。负责走访辖区的人民群众及有关企业单位,围绕加强和改进本部门业务工作和队伍建设进行调研排查。', '由马力民副支队长牵头,成员为付立新、郭利霞、云耀成。负责走访重点车辆企业、检车站、二手车交易市场、驾校及其他业务对口单位,走访车驾管、人检业务办事群众及企业；下设三个小组。', '由车管所副科级以上干部组成。主要围绕车辆管理业务、推进业务下放、优化审批流程、减少审批环节、提高办事效率和便民服务等工作进行调研排查。', '由考试中心副科级以上干部组成。主要围绕驾驶人考试业务、加强考试监管、推进业务下方、优化考试流程、减少审批环节、提高办事效率和便民服务等工作进行调研排查。', '由人检中心副科级以上干部组成。主要围绕驾驶人体检业务、提高办事效率和便民服务等工作进行调研排查。', '由石中建副支队长牵头,王全科长协助,成员为杨治坪、张春明、于水泉、苏平俊、陈集兴、卢春、布和、荣文厚、刘政。负责走访安监局、隐患路段路权单位、检法两院、信访及其他业务对口相关单位；下设十个小组。', '由事故科副科级以上干部组成。主要负责事故隐患排查、事故处理、农牧区道路交通安全、事故快处快赔、交通巡回法庭和事故人民调解工作等工作进行调研排查。', '由法制科副科级以上干部组成。主要围绕增强民警执法办案能力、推进执法规范化建设、公安信访问题化解、精简行政审批手续等工作进行调研排查。', '由回民区大队副科级以上干部组成。负责走访辖区的人民群众及有关企业单位。围绕加强和改进本部门业务工作和队伍建设进行调研排查。', '由土左旗大队副科级以上干部组成。负责走访土左旗辖区的人民群众及有关企业单位。围绕加强和改进本部门业务工作和队伍建设进行调研排查。', '由托县大队副科级以上干部组成。负责走访托县辖区的人民群众及有关企业单位。围绕加强和改进本部门业务工作和队伍建设进行调研排查。', '由和林大队副科级以上干部组成。负责走访和林辖区的人民群众及有关企业单位。围绕加强和改进本部门业务工作和队伍建设进行调研排查。', '由清水河大队副科级以上干部组成。负责走访清水河辖区的人民群众及有关企业单位。围绕加强和改进本部门业务工作和队伍建设进行调研排查。', '由武川大队副科级以上干部组成。负责走访武川辖区的人民群众及有关企业单位。围绕加强和改进本部门业务工作和队伍建设进行调研排查。', '由城南大队副科级以上干部组成。负责走访城南辖区的人民群众及有关企业单位。围绕加强和改进本部门业务工作和队伍建设进行调研排查。', '由南地大队副科级以上干部组成。负责走访南地辖区的人民群众及有关企业单位。围绕加强和改进本部门业务工作和队伍建设进行调研排查。', '由李晓东副支队长牵头,成员为狄永红、赵琪成、崔春生、白振伟。负责走访城建、广电、报社、物业管理公司及其他业务对口单位；下设四个小组。', '由宣传科副科级以上干部组成。主要围绕开展公安交管宣传、驾驶人安全教育培训等工作开展排查调研。', '由服务中心副科级以上干部组成。主要围绕交通设施建设服务、物业管理、综合服务等工作开展排查调研。', '由玉泉区交管大队副科级以上干部组成。负责走访辖区的人民群众及有关企业单位。围绕加强和改进本部门业务工作和队伍建设进行调研排查。', '由王境宁副支队长牵头,成员为宫焱、霍二平、周志、张国栋、孙建军,负责走访公交公司、交通管理局、城市管理局、环保局、道路施工单位、客货运输企业、警卫局及危化品运输企业及其他业务对口单位；下设五个小组。', '由交管科副科级以上干部组成。主要围绕城区疏堵保畅、整治机动车乱停乱放、强化电动自行车管理、危险品运输监管、加强交通安全警卫工作进行调研排查。', '由赛罕区大队副科级以上干部组成。负责走访赛罕辖区的人民群众及有关企业单位,围绕加强和改进本部门业务工作和队伍建设进行调研排查。', '由特勤大队副科级以上干部组成。主要围绕创新交通安全保卫机制和加强本部门队伍建设开展排查调研。', '由停放大队副科级以上干部组成。主要围绕规范停车管理及加强和改进本部门业务工作和队伍建设进行调研排查。', '由高速快速路大队副科级以上干部组成。主要围绕加强快速路交通管理和队伍建设进行调研排查。', '由刘冠男书记牵头,成员为纪委副科级以上干部组成。负责走访纪委、监察委、审计等监督检查部门,主要围绕加强公安机关从严治党、从严治警,落实党风廉政建设责任、推进反腐败工作,创新警务督察工作模式、维护民警执法权威以及贯彻落实《中华人民共和国监察法》、配合监察体制改革和加强机关纪委等工作进行调研排查。', '由刘军主任牵头,成员为政治处副科级以上干部。负责走访组织、人事、社保、工会、机关党委、老干等党群机关；走访扶贫、民政、对口帮扶对象等。主要围绕加强党建和基层党组织建设、领导班子建设、专业人才引进、辅警队伍建设管理、队伍思想状况、优化队伍结构、加强队伍教育训练、加强和改进公安宣传、加强和改进绩效考核、对口帮扶工作等进行调研排查。', '各级领导干部要高度重视此项工作,切实加强组织领导。牵头支队领导要围绕调研排查的领域,合理确定课题专题,合理进行任务分解。必要时,可在本组内指定一名领导干部协助开展日常工作,指挥调度、合理摆布各工作小组的工作。视课题研究需要,各组可适当扩大走访排查范围。承担市局调研课题的部门,要细化方案,确定调研排查人员,明确职责任务,保证副科级以上领导干部应参尽参。支队将适时召开会议听取“大调研”“大排查”情况汇报,组织开展评比活动和对策建议的分析研判,统筹推进具体落实工作。', '各工作组和各部门要牢固树立大局意识,在走访过程中要广泛征求涉及公安交管工作和队伍建设的意见建议,及时归纳整理,建立工作台账。属于其他工作组和部门负责处理的意见建议,要及时做好移交工作,不得推诿扯皮。全体调研排查人员要统筹处理好调查研究与日常工作的关系,做到“两不误”。各工作组和各部门要在保证业务工作正常开展的前提下,最大限度地安排时间和力量赴基层开展调研排查。', '要严格遵守中央八项规定及实施细则,杜绝迎来送往、层层陪同,坚持廉洁自律、轻车简从,做到守纪律、不扰民。各工作组和各级领导干部到基层调研排查要遵循客观性、科学性原则,不得有意设计线路,不得只到条件好的基层所队蹲点,不得到同一调研对象反复调研排查,不得向下分解调研排查任务。支队纪委要强化对“大调研”“大排查”工作纪律的监督。', '各工作小组每月撰写本组工作小结,对当月本工作小组开展“大调研”“大排查”活动情况进行梳理汇总,于4月25日、5月25日将电子版报送至市局邮箱：wangyao@hsga.nm。各工作小组排查结束后,要分别撰写不少于1篇的调研报告(要求质量高、联系工作实际,字数在2000字以上）。负责市局指定调研课题的小组,要围绕专项课题,形成1篇调研报告(办公室负责治堵保畅的调研报告,交管科负责整治机动车乱停乱放、强化电动车管理、危险品运输监管的调研报告,事故科负责“防事故保安全”的调研报告,指挥中心负责推进公安大数据战略、“智慧交通”的调研报告）。', '每一个工作小组的调研报告经工作组牵头支队领导签字后,于6月20日前报支队办公室618室,电子版报送至市局邮箱：wangyao@hsga.nm,由支队办公室统一汇总后上报市局。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>25</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>呼和浩特市市场监管局关于印发呼和浩特市乳制品质量安全提升行动方案的通知</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2021-07-26</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/sscjdglj_22425/fdzdgknr_24516/zdlyxx/spaqnew/spaqq1/202107/t20210726_1008065.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['呼和浩特市市场监管局关于印发《呼和浩特市乳制品质量安全提升行动方案》的通知_ 呼和浩特市人民政府', '现将《呼和浩特市乳制品质量安全提升行动方案》印发给你们。请结合工作实际认真贯彻落实。', '为贯彻落实中共中央、国务院《关于深化改革加强食品安全工作的意见》（中发〔2019〕17号）、《国务院办公厅关于推进奶业振兴保障乳品质量安全的意见》（国办〔2018〕43号）、《内蒙古自治区人民政府办公厅关于印发〈奶业振兴三年行动方案（2020－2022年）〉的通知》（内政办发〔2020〕 39号）文件要求，进一步加强乳制品质量安全监管，推进全市乳制品质量安全总体水平不断提升，解决企业自主研发能力不足，食品安全管理能力不强、产品竞争力和美誉度不高等问题，按照市场监管总局《乳制品质量安全提升行动方案》（国市监食生〔2020〕195号）和《自治区市场监管局关于印发内蒙古自治区乳制品质量安全提升行动方案的通知》（内市监食〔2021〕19号）具体部署，结合呼和浩特市乳制品发展实际，现决定在全市开展乳制品质量安全提升行动。具体方案如下：', '以习近平新时代中国特色社会主义思想为指导，全面贯彻党的十九大和十九届二中、三中、四中、五中全会精神，严格落实“四个最严”要求和自治区市场监督管理局、呼和浩特市委、市政府关于推进乳制品质量安全行动的具体部署，进一步加强乳制品质量安全监管，督促企业自觉履行食品安全主体责任，大力推动乳制品高质量发展。', '大力实施乳制品“质量提升、产业升级、品牌培育”行动计划，实现产品质量安全可靠，品质稳步提升，消费者信心和满意度明显增强；企业技术工艺、生产条件和研发创新继续提升；自建自控奶源比例持续提高，产品结构更加优化，我市品牌乳制品在国内外市场的占有率明显提升。到2023年底，乳制品质量安全监管制度措施进一步完善，监管能力进一步提升，监督检查发现问题整改率达到100%，乳制品监督抽检合格率保持99%以上。乳制品生产企业质量安全水平进一步提升，具备自主研发能力的企业达到60%以上，建立实施危害分析与关键控制点体系的企业达到90%以上。乳制品生产企业原辅料、关键环节与产品检验管控率达到100%，食品安全自查率达到100%，发现风险报告率达到100%，食品安全管理人员监督抽查考核合格率达到100%。婴幼儿配方乳粉生产企业质量管理体系自查与报告率达到100%。', '⒈加强食品安全管理。督促乳制品企业主要负责人增强全面负责食品安全工作的责任意识，有效落实食品安全管理制度。督促企业建立健全食品安全管理机构，设立食品安全管理岗位，配备专业技术人员和食品安全管理人员。鼓励企业设置独立的内部质量安全审查部门和专职审查员，健全产品质量问题快速反应及处理机制。', '⒉加强全过程控制。督促乳制品企业加强原辅料管控，建立供应商审核、原辅料验收、不合格原辅料处置、贮存运输等制度。加强过程管理，严格按照生产工艺要求生产，加强生产过程中称量、投料、杀菌、灌装等关键控制点控制，严格执行防止微生物、化学、物理污染的控制要求。督促企业制定适用于企业内部的检验规程，严格执行出厂产品检验项目和频次，确保检验数据真实、完整、准确。', '⒊加强食品安全自查。督促乳制品企业严格落实食品安全自查报告制度，定期对产品研发、原辅料采购贮存、生产条件、设备状态、产品检验、标签标识、生产记录等方面食品安全状况进行检查评价并向属地监管部门报告食品安全事故潜在风险。鼓励企业选择食品安全专业机构开展第三方检查评价。督促婴幼儿配方乳粉生产企业定期对质量管理体系运行情况进行自查，并提交自查报告。', '⒋加强问题处置。加强食品安全突发事件处置，对监督检查、抽检监测、媒体报道、投诉举报等反映的问题立即进行排查分析，及时消除风险隐患。加强食品召回演练，对上市销售的不符合食品安全标准或者有证据证明可能危害人体健康的乳制品，立即停止生产销售并实施召回，及时告知消费者，最大限度地减少食品安全危害。', '⒈提升自主研发能力。鼓励集团公司整合技术力量统一设立研发部门，独立或者通过产学研相结合的方式开展科研创新。支持企业采用新工艺生产新产品，鼓励企业使用生鲜乳生产乳制品，强化奶酪、黄油等干乳制品研发。鼓励企业优化加工工艺，开发高品质产品，发展适销对路的低温乳制品，提升企业竞争力。推动特色乳制品特别是驼、马乳系列产品的自主研发生产，打造具有我区地域特色的乳制品。', '⒉提升检验检测能力。指导督促企业严格按照食品安全标准加强原辅料、半成品、成品以及生产卫生状况的检验检测把关，实施全过程质量安全控制，对出厂的乳制品按照食品安全标准实施批批检验。婴幼儿配方乳粉生产企业对出厂产品按照食品安全标准实施全项目逐批检验，不得实施委托检验，加强对质量安全风险指标的检验检测。鼓励企业设置产品质量安全风险指标，加强与法定检验检测机构的合作，采取技术能力培训、比对检验等方式，提高检验检测能力和水平。', '⒊加强追溯体系建设。企业要在现有质量安全追溯体系的基础上，进一步严格落实进货查验、过程控制、出厂检验、销售记录等制度，加大企业信息化建设投入力度，鼓励企业采用建立、完善食品安全追溯体系，实施全过程可追溯。依托自治区“风险防控监管平台”的优势，实现食品安全信息顺向可追踪、逆向可溯源、过程可控制、责任可追究。鼓励企业建设乳制品配送信息化平台，整合末端配送销售网点，全程监控低温乳制品冷链储运和销售温度。', '⒋推进奶源基地建设。支持鼓励乳制品生产企业自建、收购养殖场，进行标准化基地建设和升级改造，促进乳制品企业奶源基地实行专业化、规模化、智能化生产。将奶牛养殖集中到专业化饲养企业、合作社养殖，提高原料奶质量。逐步将“养殖户+奶站+乳制品企业”链条升级为“专业化饲养企业（合作社）+乳制品企业”，实现奶牛养殖与乳制品加工直接协作。开展牧场审核，严格奶牛养殖环节饲料、兽药等投入品使用管理，对生鲜乳收购、运输实行精准化、全时段管理。', '⒌扶持传统奶制品产业发展。结合我区实际，大力扶持内蒙古传统奶制品的产业发展，统筹抓好传统奶制品研发、生产、销售各环节工作，完善市场准入机制、规范加工坊生产经营、加强标准供给服务、强化检验检测、畅通产品销售渠道，打造有市场竞争力和美誉度的传统奶制品区域公用品牌。优化产业布局规划，延伸产业链条，创新产业有效运行机制，形成内蒙古特色产品和品牌效应。', '⒈严格生产许可审查。加强乳制品生产许可审查培训，提高材料审查与现场核查质量，严把乳制品生产企业食品生产许可关。严格新建工厂、生产条件发生变化工厂的现场核查，强化生产场所、设备设施、设备布局和工艺流程、原辅料采购与使用管理、人员管理、管理制度及其执行等方面检查，督促乳制品生产企业持续符合食品生产许可条件。加大对婴幼儿配方乳粉生产许可的审查力度，重点审核与产品配方注册内容的符合性，特别是产品配方注册申请的设备设施、生产工艺是否发生变化，审核企业食品安全管理制度以及质量管理体系建立情况。', '⒉加大监督检查力度。将乳制品生产企业作为监督检查重点，根据企业风险等级合理确定检查频次，重点检查进货查验、原辅料使用、产品检验记录和标签标识等是否符合规定要求。探索建立乳制品安全生产规范体系检查常态化机制，建立健全婴幼儿配方乳粉生产企业体系检查制度，重点检查企业生产质量管理体系建立运行、按配方注册和生产许可要求组织生产等情况。自治区市场监管局原则上对婴幼儿配方乳粉生产企业每年至少开展一次体系检查、并督促企业对体系检查发现问题整改到位，指导基层加强日常监管。各旗县区市场监管部门要加大对农村、城乡结合部等重点区域和超市、批发市场、母婴用品店、网络平台等乳制品经营场所的日常监督检查力度，重点检查进货查验、产品标签标识、温度控制和记录等，以及婴幼儿配方乳粉专区专柜销售、标签说明书是否与注册批准的一致等内容，开展形式多样、全方位、多渠道监管。', '⒊加强抽检监测力度。加大乳制品抽检监测力度，以问题为导向，加强对不合格产品生产企业的抽检。监督检查人员对乳制品生产企业开展监督检查时，根据需要可对原料、半成品、成品进行抽样检验。加强抽检监测数据收集、分析、研判，开展乳制品风险预警交流工作。', '⒋严厉打击违法违规行为。严厉打击使用不合格原辅料、非法添加非食用物质、滥用食品添加剂、虚假夸大宣传、生产假冒伪劣乳制品等违法行为。严厉查处分装、未按规定注册备案或未按注册备案要求组织生产婴幼儿配方乳粉等违法违规行为。严格落实复原乳标识制度，依法查处使用复原乳不作出标识的企业。严格按照法律法规要求，依法从严落实“处罚到人”要求。', '⒌加强信用监管力度。建立完善乳制品生产企业监管档案，推动企业建立诚信管理体系，探索建立乳制品生产企业诚信档案，充分运用国家企业信用信息公示系统，按照谁产生、谁提供、谁负责的要求，及时准确归集企业的行政许可、行政处罚、抽查检查结果等信息，依法予以公示。支持乳制品企业开展质量安全公开承诺活动和诚信文化建设，加强社会舆论监督，形成市场性、行业性、社会性约束和惩戒机制。', '⒈完善信息公开制度。进一步完善乳制品标准制定、监督、抽检结果、监督检查情况等食品安全信息公开制度。每年定期发布质量报告，并与国家和自治区级主流媒体加强合作，客观、公正反映乳制品产品质量状况，提振消费者对国产乳制品的信心。借鉴乳业先进省份和发达国家经验，将历年抽检积累的检测数据与企业共享，指导企业有针对性的提升产品品质。', '⒉加强舆论宣传引导。定期开展宣传推介活动，展示我区乳制品质量安全保障工作成效。组织专家学者进行科普解读，营造良好舆论氛围。引导企业设立公众开放日，组织媒体、消费者走进企业，了解乳制品生产状况和质量保障措施。支持企业利用中国自主品牌博览会、中国品牌日、新闻发布会，内蒙古乳制品推介会等平台，展示我区品牌形象。加强对自媒体等新兴媒体行为的管理与规范，及时制止和澄清刻意博取眼球、夸大其词的不实报道，依法查处捏造虚假信息造谣惑众、恶意中伤竞争对手等行为。', '⒊发挥行业协会作用。充分发挥行业协会诚信建设、科普宣传作用，鼓励相关行业协会在行业运行监测、质量报告发布、品牌宣传推广、诚信体系建设、国际合作等方面加大工作力度，推动乳制品行业健康有序发展。支持行业协会加强行业自律，引导乳制品企业自觉维护和规范市场竞争秩序。', '⒋积极推进社会监督。畅通投诉举报渠道，加大举报奖励力度，鼓励社会各界特别是企业内部人员、媒体、消费者等举报或提供乳制品质量安全问题线索，曝光企业违法行为。鼓励企业建立内部员工发现食品安全隐患奖励制度。', '（一）部署推动阶段（2021年7月15日前）。各旗县区市场监管局根据本方案，结合实际情况，细化目标、分解任务，制定完善工作方案。深入开展动员部署，统一思想认识，采取多种形式，强化社会宣传，营造良好氛围。', '（二）深入推进阶段（2021年7月至2023年7月）。各级市场监管部门加强督促指导，定期组织评价乳制品质量安全提升行动工作进展情况，及时分析新问题、研究新情况，出台新措施，深入推进乳制品质量安全提升行动。', '（三）总结提升阶段（2023年8月至2023年12月）。各旗县区市场监管局在全面完成乳制品质量安全提升目标任务的基础上，认真总结工作成效，研究进一步提升乳制品质量安全水平的意见建议，探索加强乳制品质量安全监管举措。', '（一）加强组织领导。各地要深入开展动员部署，结合工作实际，细化目标、分解任务，全面有序推进工作落实。要进一步完善协调机制，积极与各级政府和有关主管部门沟通会商，协调解决，确保乳制品质量提升行动的各项任务措施落到实处。督促相关行业协会在行业运行监测、质量报告发布、品牌宣传推广、诚信体系建设、省际合作等方面加大工作力度，积极承担行业管理等工作，推动乳制品行业健康有序发展。', '（二）加大政策支持。积极争取各级政府支持，开展乳制品“品质提升、产业升级、品牌培育”行动。加大对乳制品特别是传统奶制品、驼乳和马乳行业发展的支持力度，重点支持关键共性技术研发平台、质量安全追溯平台等公益性设施建设，鼓励各类产业投资基金支持企业改造升级和兼并重组。', '（三）加强督促指导。组织开展乳制品生产企业食品安全管理人员培训和外出学习考察，提升企业食品安全管理能力。组织开展乳制品监管专题培训，通过现场教学、实地检查等方式提升基层监管人员监管能力。呼和浩特市市场监管局配合自治区市场监管局开展对乳制品生产企业的综合检查、专项检查、飞行检查、体系检查，推动落实属地监管责任，确保各项工作任务落实。', '（四）做好工作总结。各旗县区要及时总结工作中的典型做法和先进经验，查找问题和不足，分析原因及工作建议，持续推进工作任务落实等情况、每年12月5日前，将年度工作情况报送呼和浩特市市场监管局。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>25</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>呼和浩特市林业局关于划转保留行政许可事项的函</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2018-05-03</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/slyhcyj_22428/fdzdgknr_24870/bmgk/201804/t20180425_944521.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['1.建设工程临时占用防护林地和特种用途林地面积5公顷以下，其它林地面积1 0公顷以上、20公顷以下的审批', '2.进入林业部门管理的(大青山自然保护区除外)自治区级自然保护区从事教学实习、参观考察、拍摄影片、登山等活动的审批', '1、森林经营单位在所经营的林地范围内修筑直接为林业生产服务的工程设施占用林地的审核']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>25</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>呼和浩特市公安局交管支队大学习大提升活动实施方案</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2018-04-28</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/zfxxgknew/fdzdgknr/bmgk/201804/t20180419_933969.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['为深入贯彻落实全区公安局长和全市公安工作会议精神,全面提升支队全体交通民警、辅警履职能力和业务水平,根据市局《呼和浩特市公安局“大学习、大提升”活动实施方案》要求,结合支队工作实际及《呼市公安局交管支队2018年教育训练工作计划》,制定本实施方案。', '以习近平新时代中国特色社会主义思想和党的十九大、十九届一中、二中、三中全会精神为指导,全面贯彻落实“对党忠诚、服务人民、执法公正、纪律严明”的总要求,以政治建警为核心,', '紧紧围绕交通管理中心工作,突出问题导向,聚焦实战需求,以着力提高规范执法、事故处理、道路安全宣传、信息化使用、队伍管理正规化为目标,以“四个突出”、“四类培训”和“三项建设”为重点', '全力打造政治过硬、本领高强的公安交警队伍,强化公安交通民警、辅警忠诚核心、拥戴核心、维护核心、捍卫核心的思想自觉、政治自觉和行动自觉,确保对党绝对忠诚、绝对纯洁、绝对可靠。切实解决“本领不够、本领恐慌、本领落后”的问题。', '坚定理想信念、提高政治站位。把学习贯彻习近平新时代中国特色社会主义思想,作为支队各类培训的重要内容和必修课,与推进“两学一做”学习教育常态化制度化、开展“不忘初心、牢记使命”主题教育结合起来统筹部署。把《习近平谈治国理政》等重要论著作为理论培训的重点内容,有计划地制定学习时间表、任务书,确保学深悟透。继续加强忠诚教育,加强党史国史、党的优良传统和国情区情市情教育,引导干部传承红色基因,永葆政治本色。', '强化精神引领、锻造职业品格。把学习党的十九大精神、十九届一中、二中、三中全会精神和政法、公安等重要会议精神作为当前和今后一个时期首要学习任务,不折不扣地抓好落实。深刻领会2018年全国两会精神和习近平总书记关于政法工作的重要批示精神,切实找准与我市公安交管工作的结合点、切入点、着力点。将“红船精神”“井冈山精神”等革命精神和“枫桥经验”“工匠精神”“钉钉子精神”等工作精神作为筑牢忠诚警魂、塑造警察职业品格的重要抓手。', '规范执法行为、铸牢思想防线。在全支队范围内组织开展为期一年的执法大轮训工作。通过 “法律知识竞赛”“随岗抽检”等形式,激发民警学法、用法的积极性和主动性。通过举办法律法规视频讲座以及依托“网络警校”在线学习等新模式提升民警、辅警的执法素养,严格规范执法行为。重点加强对《中华人民共和国宪法》、《中华人民共和国监察法》、', '、《中华人民共和国道路交通安全法》等法律法规的学习培训。同时,把廉洁教育纳入各级各类学习培训中,通过专题辅导、廉政谈话、以案说法、观看警示教育片等多种形式抓好廉洁教育,切实增强底线思维,提升民警、辅警拒腐防变能力。', '深化岗位练兵、补齐工作短板。紧紧围绕科技应用、规范执法、安全防护、舆情应对等现实急需,开展岗位练兵,提升民警、辅警专业素养。大力增强全警信息化应用能力,全面普及新科技、新知识、鼓励民警开发小应用、小创新,着力练就善于获取数据、分析数据、运用数据的基本功,打造数据警务、建设“智慧公安”。面对日益复杂的执法环境和新时代队交通管理工作的新期待,有针对性的提升处置突发案事件、安全防范、科技应用、便民利民等本领。', '精心组织开展党的十九大精神、新党章学习活动,用习近平新时代中国特色社会主义思想武装头脑、指导实践。', '突出党委、党支部、党小组的主体作用,根据《呼市公安局交管支队2018年党建工作要点》,组织开展各项政治理论学习,通过定期检查、随时抽查、排名通报等方式,严格学习考勤制度,进一步增强民警和辅警学习的自觉性,努力营造善于学、持久学、深入学的良好氛围。', '在参照《呼市公安局交管支队2018年党委中心组学习安排》的基础上,制定本级党支部理论中心组学习计划,各级领导干部要做好表率,带头学,坚持学,率先落实各项学习计划,落实 “三会一课”制度等组织形式,主动深入分管部门和单位,为党员民警和辅警上党课、作报告,推动党的各项决策部署深入警心,凝聚共识,汇聚力量。', '教育引导民警、辅警,根据工作需要和问题短板,有计划地加强学习,既要完成“必学”内容,也要善于“选学”,把自学与集中学习、研讨结合起来,充分利用各种网络载体开展学习。', '围绕“习近平新时代中国特色社会主义思想”和“深入学习贯彻党的十九大精神”两大重点设定每月学习内容,支队全体民警、辅警每月至少有1篇学习“习近平新时代中国特色社会主义思想”和“深入学习贯彻党的十九大精神”心得体会,全年至少完成一本《习近平总书记系列重要讲话精神》、《习近平谈治国理政》《干在实处 走在前列》等重要著作的学习。按月下发支队思想政治教育学习内容,引导支队政治思想学习展开,硬性落实支队科室(车管所、考试中心、人检中心）和大队每月集中组织4次思想学习制度经常化、落实中队(股室）每天10--30分钟岗位学习固定化,强化“笔记本”管理载体意识的督导和考核,把民警、辅警的评优与学习笔记本结合在一起,突出思想政治工作生命线地位。', '坚持问题导向,以干部为导向,瞄准聚焦实战,组织开展分级分类培训,实现全警普训与针对性培训点面结合,着力构建民警、辅警终身职业训练体系。', '认真贯彻落实上级公安机关深化执法规范化建设的安排部署,牢牢抓住领导干部和基层一线执法主体,建立健全常态化教育培训机制。要将《中华人民共和国宪法》、《中华人民共和国人民警察法》、《中华人民共和国道路交通安全法》、《交通警察道路执勤执法工作规范》等法律法规作为支队民警、辅警集中学习和日常岗位练兵必训必学内容。针对实际工作中存在执勤执法不规范等问题开展相应培训,强化支队民警、辅警执勤执法规范的养成,不断提升执勤执法素质和能力。', '由支队法制科牵头,负责开展全年法律知识大培训活动,计划每月组织2期《中华人民共和国道路交通安全法》培训班,力争完成对支队所有人员进行培训一次的目标。', '把廉洁教育纳入各级各类学习培训中,通过廉政讲座、以案说法、观看警示教育片等多种形式抓好廉洁教育,切实增强底线思维,提升民警、辅警拒腐防变能力。', '(1）“走出去”,积极协调上级公安机关,选送优秀民警、辅警代表参加各类培训。依托强警交流合作机制,积极组织支队基层骨干,兼职教官、优秀民警、辅警参加部局、自治区公安厅、厅交管局、市局开展的警务实战类、交通管理类培训,协调其他友邻城市、先进城市的交警单位开展1对1交流对换、考察学习活动,通过参加上级部门培训和互动交流,进一步了解上级机关、先进兄弟单位的新动态、新方法、新知识,并在学习过程中与其他省市、盟市学员相互学习,对比促进,多方位、深层次优化民警整体素质,努力提升全市公安交管队伍的业务水平。', '全年力争组织100名人员参加上级各类培训。计划组织2期社会主义核心价值观“红色之旅”的实践活动。', '(2）“转起来”,深化开展“轮值轮训 战训合一”轮训活动。就当前而言,“轮值轮训 战训合一”训练体系是有效克服工训矛盾、最大限度提升交管队伍业务素质、作战能力的最佳途径。2018年,支队层面要着力完善战训体系建设,加大教官队伍建设力度,明确战训模式,落实配套设施、经费保障,着力构建“轮值轮训 战训合一”轮训班常态化、正规化。同时,全力推动各大队、车管所、考试中心建立本级“轮值轮训 战训合一”培训班,以实现内部岗位轮转,全员参训的工作目标。各二级战训班将每期培训考核不合格的学员、工作中出现严重失误的民警、辅警上报至支队一级战训班继续学习深造,经考核合格的,准予回原单位工作,考核不合格者,根据支队管理规定,予以调整岗位直至辞退。', '(3）大力推行互动教学、情景再现等教学新模式,提升全警执勤执法安全防护理念。按照公安部下发《交通警察执勤执法安全防护实训示范教程》和视频教学片等内容,采取课堂教学与现场教学、基础训练与实战演练相结合的方式,以公安部《常见阻碍和妨害交通民警执行职务行为现场处置规程(试行）》、《公安机关人民警察现场制止违法犯罪行为操作规程》、《公安民警执法安全指引》和《交通民警警务实战技能》为重点,按照“三级”培训体系分工,由支队组织各大队专(兼）职教官、业务骨干开展“一级”执勤执法安全防护专题培训；各大队分批次对全体一线民警及辅警进行安全防护“二级”轮训；各中队利用碎片化时间段,灵活多样地组织开展路面执勤、集中整治、事故处理等情形的模拟演练“三级”训练。通过训练不断提高民警、辅警警务实战技能和自身安全防护能力。', '“请进来”,针对交通民警、辅警执勤执法任务重、风险大、要求高和执法环境复杂的现状,支队将邀请著名职业规划师、心理辅导师等专业性人才,开展忠诚教育、职业道德、心理健康等内容的教育,强化民警、辅警的纪律意识和日常养成,帮助民警、辅警正确疏导和缓解心理压力,消除心理障碍,及时缓解危机事件对民警、辅警造成的心理伤害,确保广大民警、辅警保持良好的心理素质和精神状态。支队计划每季度开展1-2期交通民警心理健康专题辅导,并将心理健康团辅科目纳入日常培训和轮训中。', '事故科、指挥中心、宣传科、车管所、驾考中心等业务科室坚持实战引领,准确把握交通管理工作发展趋势和民警、辅警切身需要,重点围绕车驾管业务、法律法规、道路科技信息化应用、交通缉查布控、事故现场勘查处置、恶劣天气交通应急管理、交通宣传等交管工作主要业务,制定全年业务培训计划,组织开展各类业务培训。同时,以比武竞赛的形式,激发全体民警、辅警参与学习的积极性和主动性,提升全体民警、辅警履职担当本领和实战能力。计划全年开展一次有针对性的“单人作战业务标兵”比武活动,组织一次以辅警为主的综合能力执勤执法的比武活动,组织一次法律法规知识竞赛活动,', '围绕素质与能力建设,不断夯实教育训练工作基础,切实强化训练平台、教官、课程“三大建设”。', '依托内蒙古公安网络学院、全国交警网校平台,实现网上培训一体化目标。采取“每季度一小考、每半年一大考”的方式,每月分批次组织民警、辅警开展学业务、强素质网络学习培训。各大队要把网上培训与线下培训、实战训练结合起来,有针对性地组织民警、辅警上网学业务、网上看视频、在线互动交流,不断提高交警队伍整体素质。同时,积极探索和推动“润警” 公众号平台的使用,利用好“两微”等自媒体学习平台,多渠道做好教育培训学习工作。', '加强教官队伍建设是提升培训教育成效,提高队伍整体素质和战斗力的首要环节。支队要在继续完善各业务方面的兼职教官队伍建设的基础上,强化警务实战专职教官团队建设。通过选拔、考核,聘用符合条件、能力突出的优秀教官、业务骨干组建支队警务实战教官团队。同时,各业务职能部门、大队要将业务技能娴熟、实战能力较强的民警、辅警调整、充实到本部门教官队伍,以推动本部门教育训练工作经常性、规范化地开展。精心组织参加上级公安机关组织的教官专业培训、教学研讨和教学能力比武活动,努力提升教官队伍建设效果。', '上讲台、基层骨干做教官,打造既懂理论教学又懂实战训练的“双师型”教官队伍,积极营造领导带头、骨干带动、全警参与、相互学习、共同提高的良好氛围,提升支队教育训练工作的针对性和实效性。', '各业务职能科室针对车驾管业务、科技信息、政秘、宣传、交通渠化设计、事故处理等交管业务,积极动员专兼职教官、', '业务骨干制作业务(微）课程、课件、学习资料、习题等。要求各业务科室全年完成不少于3个的成熟、可用于授课的课题。', '各部门要结合支队的方案和年度训练计划,迅速筹划部署,紧密联系本部门实际,理清思路,明确目标,研究制定具体实施方案,并将方案报支队“大学习、大提升”活动领导小组办公室。', '各部门根据具体实施方案,细化工作责任,明确任务指标,精心组织实施。每月28日前将工作开展情况形成书面材料报“大学习、大提升”活动领导小组办公室。', '各部门按照统一部署要求,对本部门“大学习、大提升”活动完成情况进行自查,切实找准工作推进过程中存在的问题和短板,有针对性地进行整改完善。', '支队政治处会同各业务科室共同研究制定《支队“大学习、大提升”活动考评办法》,量化民警、辅警个人考核指标,各部门分层分级组织实施。考评中,通过网上考试、随机抽考、比武竞赛等形式检验学习成果。各部门既要通过考评选拔一批优秀的专业人才和业务骨干,也要采取末位复学复训复考等措施,激发学习自觉性、主动性,确保人人能达标、人人有提升。', '“大学习、大提升”活动是加强支队队伍建设,提升业务能力的务实举措和重要途径,事关支队交管工作的长远发展,各部门要统一思想、提高认识,以高度的政治责任感和使命感,切实抓好各项工作的落实。', '各部门要把“大学习、大提升”活动作为今年的一项重要工作任务抓紧、抓好、抓出成效。支队各部门分别成立相应的组织领导机构,明确职责任务,精心组织实施。形成主要领导亲自抓、分管领导具体抓、领导班子共同抓,一级抓一级、层层抓落实的良好局面。', '此次“大学习、大提升”活动要覆盖到全体民警和辅警,各单位要认真组织实施,特别是各级领导要带头主动学、主动提升,为民警和辅警做好表率,当好榜样,营造创先争优的良好氛围,确保实现全员参训、全面提升。', '各部门要有效整合资源,做好统筹安排,通过采取战训合一、即时应用培训、互帮互教、互学互助等有效措施,处理好工学矛盾,确保学习效果,不断推动学习活动向纵深发展。', '支队活动领导小组办公室要适时抽调工作组,对支队各部门培训开展情况进行督导检查,对相关情况进行通报。同时,严格按照各项工作的考评标准开展考核工作,并将其纳入对各单位的年度绩效考核。', '各部门要充分利用报纸、广播电视、网络等新闻媒体,及时宣传“大学习、大提升”活动的具体措施、目标任务和经验成效,扩大社会影响。同时各部门政秘股要对在活动中涌现出的优秀团队和先进个人,进行宣传表扬,为全面提升支队队伍素质能力营造浓厚的']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>25</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>呼和浩特市文化旅游广电局传达学习习近平总书记考察内蒙古的重要讲话精神</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2023-06-14</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/swhlygdj_22418/fdzdgknr/ywxx/202306/t20230614_1543439.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['呼和浩特市文化旅游广电局传达学习习近平总书记考察内蒙古的重要讲话精神_ 呼和浩特市人民政府', '6月13日，呼和浩特市文化旅游广电局召开党组理论中心组学习会议，传达学习习近平总书记考察内蒙古时的重要讲话、在加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会上的重要讲话、在内蒙古调研边境管控和边防部队建设情况时的重要讲话精神，市委宣传部副部长、市文化旅游广电局党组书记、二级巡视员兰毅主持会议，局领导、机关各科室、各二级单位党员干部参加。', '会议指出，要充分认识习近平总书记这次考察内蒙古的重大意义，深刻感悟习近平总书记对内蒙古的深情厚爱，深刻领会、准确把握习近平总书记重要指示和重要讲话精神的核心要义、思想内涵、精神实质和实践要求，把习近平总书记此次考察内蒙古重要讲话精神与习近平总书记历次关于内蒙古工作的重要讲话精神结合起来，与学习贯彻习近平新时代中国特色社会主义思想和党的二十大精神结合起来。', '会议强调，一要强化政治意识，提高政治站位。广大党员干部要切实用科学理论武装头脑、统一思想、凝聚力量，自觉增强“四个意识”、坚定“四个自信”、坚决做到“两个维护”，以高度政治自觉、思想自觉、行动自觉抓好贯彻落实，确保首府文旅事业始终沿着习近平总书记指引的方向阔步前进。二要扎实推进铸牢中华民族共同体意识工作。深入学习贯彻习近平总书记关于加强和改进民族工作的重要论述，充分发挥文旅部门优势，组织开展文艺精品创作活动，全面加强文化遗产保护，大力实施旅游促进各民族交往交流交融计划，以文旅赋能铸牢中华民族共同体意识。三要以生态文明建设引领旅游转型升级。深入落实习近平总书记“筑牢我国北方重要生态安全屏障”“大力发展优势特色产业”的重要要求，立足我市资源禀赋和文旅产业基础，以推动文旅高质量发展为主线，推进“文旅+”“+文旅”融合发展，大力发展生态游、休闲游、康养游、乡村游、红色游、工业游、研学游等新业态，促进一二三产业深度融合，加快现代文旅产业体系建设，提升文旅公共服务能力。四要大力弘扬“蒙古马精神”。全体党员干部要扛起责任、主动作为，紧密结合首府文旅工作实际，将习近平总书记重要讲话逐条逐项梳理细化为具体工作措施，以提劲、提质、提效的满格状态做好各项工作，为完成好习近平总书记交给内蒙古的五大任务，全方位建设“模范自治区”贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>25</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>开展新型学徒制培训培育新时代技能工匠</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2024-01-15</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/srlzyhshbzj_22410/fdzdgknr/ywxx/202401/t20240131_1655071.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['企业新型学徒制是按照政府引导、企业为主、职业培训学校参与的原则，以“招工即招生、入企即入校、校企双师联合培养”为宗旨，按照“企校双制，工学一体”的培养模式。企业新型学徒制通过系统化的专业性知识理论培训和技能性知识导师实操带教的方式，提高员工的理论水平和操作技能，使企业员工能够达到职业技能标准和岗位需求。', '1月11日，新城区就业服务中心组织内蒙古中环晶体材料有限公司第四期光伏组件制造工培训班期结业考试有序进行。内蒙古中环晶体材料有限公司于2022年申报企业新型学徒制培训开班申请，申请开班的专业是光伏组件制造。此次结业考试通过理论考试和实操考试两个考试科目，对学员的学习成果进行正式考察及评定，后期将陆续组织剩余三期培训结业考试。', '下一步，新城区就业服务中心将进一步深化政校企合作，探索行之有效的合作模式，实现资源共享、优势互补，提升员工技能，为员工学技能、练本领提供更多的便利。不断推动企业健康快速发展，为校企双方实现高质量发展培养更多高素质技能人才。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>25</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>呼市旅游局年工作总结及年工作安排</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2012-01-12</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/swhlygdj_22418/xxgknb/202105/t20210525_931070.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['呼市旅游局2011年工作总结 及2012年工作安排 2011年是“十二五”规划的开局之年，在市委、市政府的正确领导下，在自治区旅游局的大力关心和指导下，市旅游局以邓小平理论和“三个代表”重要思想为指导，深入贯彻落实科学发展观，以《国务院关于加快发展旅游业的意见》为统领，紧紧围绕“一核双圈一体化建设”的城市发展总体战略，按照“两个一流”的要求，以打造“京津夏都”为重点，推进重点项目建设，加大招商引资力度，开展旅游宣传促销，强化行业管理，整顿市场秩序，提升服务质量，全市旅游业实现了平稳较快发展。截止到9月底，全市共接待游客1290.47万人次，同比增长21%；实现旅游收入177.05亿元，同比增长25%。预计全年将接待游客1570万人次，同比增长20%；实现旅游收入220亿元，同比增长22%。 一、2011年工作总结 （一）科学规划，合理开发旅游资源 1、顺利完成《呼和浩特市旅游业发展“十二五”规划纲要》的编审上报工作。积极推进《呼和浩特市旅游发展总体规划》的修编工作。加强对旗县区、重点旅游景区的旅游规划编制指导工作，今年重点指导新城区、清水河县及老牛湾黄河大峡谷完成旅游建设规划的编制和评审工作。 2、对全市旅游资源、景区基础设施进行普查，实地指导各旗县区旅游工作。组织专人对全市旅游资源，景区交通指示牌、旅游厕所等基础设施实地调查，对各地在旅游工作中存在的一些困难和问题予以帮助和指导。 （二）加强项目建设，丰富旅游产品 1、积极争取资金补助，加快景区建设步伐。积极争取2011年度旅游发展资金525万元，共计16个旅游项目获得支持。一是为红色旅游建设争取到140万元资金支持，乌兰夫纪念馆（故居）、大青山革命抗日根据地被评为全国红色旅游先进单位。二是积极争取景区建设资金240万元，用于完善我市旅游导向及标识系统和支持6家重点景区旅游基础设施建设。三是积极争取乡村旅游支持资金95 万元，支持乡村采摘活动，扶持新城区圣水梁生态山庄等4家重点农家乐旅游项目基础设施建设。在积极争取资金的同时，我们还注重资金的跟踪管理，今年我局与呼市财政局联合对我市2009至2010年旅游发展基金项目执行和资金使用情况进行检查和调研。通过检查和调研,各地使用旅游发展专项资金总体情况良好。 2、加强招商引资工作，加快旅游业发展。编制了《呼和浩特旅游招商手册》，通过参加在山东等地举办的旅游招商会进行招商，并将圣水梁综合旅游区等旅游资源条件好、市场潜力大的项目报招商局，通过更大的平台进行招商。 3、旅游资源项目库转型升级稳步推进，实行重点项目动态管理。在及时更新目前在线的旧版项目库信息基础上，我局根据旅游项目规划工作的新需求，全力推进项目库的转型升级。对敕勒川文化旅游产业园、和林大南山旅游园区、黄河大峡谷等重点项目的进展情况实行动态管理，进行重点督查。 4、创新旅游产品。为进一步开拓我市旅游市场，遵循资源分类、产品分级、市场分层、服务分等的原则，大力发展民俗旅游、工农业旅游、红色旅游、自驾游等旅游产品。一是大力推动乡村旅游发展，积极指导和支持各旗县区开展各具特色的农业观光游和民俗游活动，如土左旗李子甜杏采摘节、清水河河灯节、托县黄河旅游文化节等。二是对全市农家乐进行规范性指导和评定，促进我市乡村旅游的发展，今年申报了3家自治区四星级乡村旅游接待户。三是继续推动工业旅游发展升级。指导和支持蒙牛、伊利积极申报5A级景区，同时积极支持利乐包装、奥醇酒庄园等企业创建工业旅游，增加我市工业旅游观光点。四是积极推动红色旅游精品项目建设，依托得胜沟大青山抗日根据地、乌兰夫纪念馆（故居）大力开展红色旅游主题活动，以红色旅游景区为基础结合周边旅游资源，红绿结合、突出特色，推动红色旅游又好又快的发展。五是加快发展周边休闲度假旅游，扩展“一日游”、“周边游”旅游市场。 5、着力扩大旅游消费，积极开展便民服务。春节期间，组织我市旅游景区开展了景区大拜年活动，既为广大市民提供了优惠，也为我市发展冬季旅游做出了有益的探索。5月19日中国旅游日，组织我市19家旅游景区，向市民赠送了价值70万元的景区门票，受到市民欢迎。针对端午、清明等节日，编制不同的旅游主题线路并通过媒体向社会发布，编印了《呼和浩特特色旅游宣传册》，包括工业游、文博休闲游、农林渔牧游，方便游客出行。游客集散中心积极为游客服务，旅游旺季为游客推出了10余条旅游线路，受到市民广泛关注。为了更好的服务广大游客，游客集散中心开通了24小时旅游咨询热线，截至10月底共接待现场咨询和电话咨询400余次。充分发挥中国北方旅游网的积极作用，全年共更新信息2000余条，成为广大游客了解呼和浩特旅游的一个重要平台。在呼和浩特白塔国际机场成立了旅游咨询中心，自今年8月份成立以来，免费为广大游客提供旅游信息咨询服务，已发放各类旅游宣传资料近万份，受到游客广泛好评。 （三）强化旅游促销，提高呼和浩特旅游知名度 1、组织旅游节庆活动，吸引游客来呼旅游。承办了呼和浩特“5•19中国旅游日”启动仪式活动，组织全市近300家旅游企业参加了在新华广场举办的旅游宣传活动。5月底邀请50家外地旅行商及呼和浩特市新闻媒体记者赴包头市参加了内蒙古中部地区旅游推介踩线会。8月，组织参赛队伍参加了在锡林郭勒盟举办的“第八届中国蒙古族服饰艺术节暨服装服饰大赛”，并获得蒙古族服饰表演一等奖、现代蒙古族服饰设计三等奖和优秀组织奖。在“中国•呼和浩特少数民族文化旅游艺术活动”期间，成功举办了少数民族地区导游员大赛、少数民族地区自然风光摄影展、少数民族服装服饰展演三项活动。组织旗县区旅游局、旅游企业参加了9月17日—11月18日在杭州举办的“2011杭州世界休闲博览会”。 10月，成功承办了“内蒙古地区2011—2012年冬春航季航空旅游产品交易会”。通过组织大型旅游节庆活动，集中展示呼和浩特的旅游资源和旅游产品，吸引更多的国内外游客来呼和浩特旅游观光。 2、采取“走出去，请进来”的旅游促销模式，不断拓展旅游客源。今年，我局组织旅游企业积极参加广州国际旅游展览会、西安、重庆国内旅游交易会、北京国际旅游博览会、第16届中国北方旅游交易会、2011中国山西旅游博览会、第二届中国国际自驾游交易博览会、云南国际旅游交易会等大型交易会，并充分利用自治区旅游局组织的推介会宣传我市的旅游产品。5月，市旅游局组织旅游企业赴烟台、威海、青岛等地开展旅游宣传促销，并签订了《旅游合作协议》。6月，市旅游局赴延安、西安开展宣传促销。9月，组织旗县区旅游局、旅游企业赴杭州、宁波、苏州、无锡、南京开展宣传促销。在“走出去”促销的同时，我们积极实施“请进来”的办法，共同与青岛市、烟台市、威海市、南京市、重庆市、桂林市、延庆县、阿拉善盟、二连浩特市等区内外旅游客源地联合召开旅游产品推介会，为双方企业搭建平台，共同推介旅游产品及线路。 3、积极投放旅游宣传广告。今年2月至4月，为加大旅游宣传力度，我局投入50万元参加了自治区旅游局在中央电视台的捆绑宣传促销活动，分别在1套和13套午间《新闻30分》栏目同步播出呼和浩特旅游宣传片；并在旅游卫视播出了15秒钟的呼和浩特旅游宣传片。4月，借助“2011内蒙古•香港经贸合作周”举办的契机，在香港《文汇报》刊登了整版呼和浩特旅游宣传——《京津夏都•旅游名城》。今年，我局在首都机场和呼和浩特白塔机场LED大屏幕循环播出呼和浩特旅游宣传片，集中向国内外游客展示呼和浩特丰富的旅游资源。在发行量较大的《环球人文地理》杂志上出版了《京津夏都—呼和浩特》旅游专辑，引起较大反响。利用分众传媒楼宇广告及时宣传我市旅游产品、旅游动态，收到了良好效果。 4、加大在各级各类新闻媒体宣传报道的力度。今年我局积极与中央驻区、自治区、呼市三级媒体协作，充分发挥广播、电视、报纸、网络的优势，共计发稿近1300多条，形成了全方位、立体式宣传的格局。并且每月根据旅游统计月报的分析，及时向新闻媒体公布月报统计结果和客源分析，每月统计结果的公布，得到了各新闻单位的广泛关注。 5、印制相关旅游宣传品。2011年，根据呼和浩特市旅游业新的发展趋势，重新撰写呼和浩特市旅游推介词，并制作了新版的PPT和呼和浩特旅游宣传片。设计、印制《呼和浩特市旅游主题宣传口号和旅游形象标识征集作品选》。设计、印制《休闲游走京津夏都》旅游手册，并在全国举办的各类旅游交易会中发放，宣传我市丰富的旅游资源。 （四）强化管理和服务，旅游产业素质快速提升 1、加强景区建设和管理，提升景区品质。认真组织蒙牛工业旅游景区、乌兰夫纪念馆、大青山野生动物园、湿地公园等15家景区开展创建国家A级旅游景区工作，严格按照创建标准，促使各旅游景区不断完善软硬件设施，丰富内涵，规范管理、优化服务，提高品味与档次。5月，在蒙古风情园举行了国家A级旅游景区授牌仪式，蒙古风情园、白石生态旅游区、固伦恪靖公主府博物馆、乌兰夫故居、哈达门高山牧场、将军衙署、云滚洞7家旅游景区获得国家A级旅游景区称号。在积极创建A级景区的同时，加大对景区的日常管理力度，今年在乌兰夫纪念馆举办了呼市旅游景区讲解员大赛，进一步提高了景区的服务质量。严格按照旅游安全生产法律法规，与各景区签订《旅游景区安全责任状》、编制突发公共事件应急预案，并在“清明”、“五一”、“端午”、国庆等节假日期间，与各旗县区旅游局共同检查旅游景区，切实做好景区安全工作。 2、加强旅行社工作。圆满完成2010年度旅行社统计调查工作；根据《旅行社条例》初审上报呼和浩特市云川旅行社等13家旅行社；上报内蒙古盛祥国际旅行社等5家旅行社为组团出境社；受理备案了北京好运通等14家旅行社分社及内蒙古凯撒旅行社等9家旅行社的服务网点；按照国家旅游局的要求，完成旅行社网上填报工作；做好16家组团社有关中国公民出境旅游团的审验工作;按照国家旅游局、自治区旅游局的有关要求，积极推行旅行社责任保险统保示范项目，我市旅行社的参保率已经达到了百分之百。为了强化对旅行社的服务与管理，出台了《旅行社星级管理办法》。 3、酒店管理方面，我局积极推荐高档次社会饭店加入星级饭店的行列。对喜来登等4家拟上星饭店进行前期辅导，其中上报了1家五星级、2家四星级酒店，核准了1家三星级酒店。7月，举办了2011年起实施的新版星级标准宣贯班，不仅组织了我市星饭店参加培训还吸引了巴彦淖尔市、乌兰察布市、二连浩特市旅游饭店的参与，并以此为契机，使“新标准”深入到每位员工。继续在全市星级饭店中开展“金叶级和银叶级绿色旅游饭店”的创建工作，倡导低碳旅游方式，推进节能降耗。12月初我们还将举办全市星级饭店服务技能大赛，通过比赛推动星级酒店开展岗位练兵、技术比武，从而进一步提升星级饭店的服务质量。 4、加强对从业人员的培训、管理力度。今年我局先后组织开展了导游员培训、旅行社业务统计调查培训、旅游行业财务信息培训、“最高人民法院关于旅游纠纷司法解释”等各类培训，提高了从业人员的业务素质和职业道德。根据要求，按时完成导游员年检工作，在年审培训中开展了“优秀导游员进课堂”、“优秀总经理进课堂”活动，对导游员开展了职业道德、我市经济社会发展基本情况等方面的培训，并首次颁发“导游员年审合格上岗证”，进一步提升导游员的服务技能和服务质量；颁发2010年度《导游员资格证书》并组织换发导游证（IC卡）工作；按照自治区旅游局的安排，组织完成2011年度导游员报名工作。 （五）规范旅游市场秩序，开展旅游服务质量提升活动 1、加大旅游市场综合整治力度。今年，我局联合相关部门共开展联合执法12次，跨地区联合检查3次，日常检查100余次，共计出动执法人员445人次，执法车280台次；依法检查旅行社150家次，景区（点）40家次，星级饭店15家次，旅游汽车公司5家次，带团导游430人次，接团旅游车430台次；依法对29名违规导游给予IC卡扣分处理，累计扣减144分；现场指导带团导游服务质量100余人次，接团旅游车司机100余人次。 认真受理、处理旅游投诉。为了更好地维护游客的权益，我局开通了24小时投诉电话，今年共计接听旅游投诉、咨询电话2000余次。依法受理投诉25起，已处理25起，理赔金额53807元，结案率100%，满意率100%。 2、深入开展了“规范旅游市场秩序，提升旅游服务质量”专项行动。市旅游局通过加强旅游标准化体系建设、打造旅游精品，强化市场监管、规范市场秩序，提升行业素质，加强旅游安全管理等一系列措施，进一步提升我市旅游服务质量。4月11日，市旅游局召开了全市旅游安全工作暨整顿旅游市场秩序提升服务质量的专项会议，下发了相关文件，要求各旅游企业开展自查自纠，规范内部经营管理。同时，市旅游局采取分组检查、社会监督、明查暗访、有奖举报等多种形式，强化市场监管力度，进一步规范旅游市场秩序，严厉查处无证经营、欺客宰客、强买强卖等违规行为，特别是对承包挂靠、零负团费等违规行为加大打击力度。 3、切实做好旅游安全工作。为了给广大游客营造安全、健康、有序的旅游环境，重点完成旅游突发公共事件应急预案的编制与建档工作，从细节入手，强化对企业的安全要求策划并组织了全市安全及旅游服务工作会议，与192家旅游企业签订了安全责任状。在“五•一”小长假、端午节、昭君文化节、中秋节、“十一”黄金周期间我局还与安监、公安、工商、卫生等相关部门对旅游企业进行检查，确保旅游市场安全有序。 （六）加强机关自身建设，提升机关整体战斗力 1、加强班子建设 建设“团结奋进、开拓创新、与时俱进、高效廉洁”的领导班子，是旅游工作顺利进行的重要保障。旅游局党组高度重视领导班子建设，切实提高班子成员贯彻落实科学发展观的能力，构建和谐社会的能力，务实创新的能力。一是坚持民主集中制原则，坚持重大问题领导班子集体研究决定。二是加强学习，提高领导班子管理决策能力。今年，我局共组织中心组学习12次。三是加强勤政廉政建设，塑造自身良好的形象。 2、加强党建工作 按照市直党工委的要求，对党建工作目标进行认真分解量化，使责任落实到每一位党支部成员身上。2011年，全局共组织集体理论、业务学习26次，其中邀请市委讲师团教授进行形势报告教育2次，接受参观展览等实地教育6次，观看了《伟大的道路》等4部电化教育片。积极开展“党建带工建”活动，按照“围绕中心，促进工作，活跃生活，凝聚人心”的思路推进工会工作，组织职工开展了丰富多彩的文化活动。继续实施“送温暖”工程，为广大职工做好事、办实事、解难事。 3、开展“转变工作作风 强化服务意识 打造一流首府机关形象”专项活动 今年，按照市政府的要求，我局开展了“转变工作作风 强化服务意识 打造一流首府机关形象”专项活动，在市专项活动领导小组的指导下，我们高度重视、精心组织，突出“四个注重”（注重服务游客、注重服务旅游企业、注重服务基层、注重自身建设），采取多项措施，圆满完成了学习动员，查摆剖析、整改提高、总结和建立长效机制四个阶段的任务，切实达到转变工作作风、强化服务意识、促进旅游工作、打造一流首府机关形象的目标。 4、加强党风廉政和行风建设 一是制定了《呼市旅游局2011年惩防体系建设工作要点》《呼市旅游局开展廉政文化建设活动实施方案》，抓好“三重一大”事项的监督决策。二是及时召开了民主生活会，提高民主生活会的质量。三是制定了全年行风建设工作方案，不断增强为民、务实、清廉、高效的意识，在加强行风建设、制度建设、转变机关作风方面狠下功夫，在《旅游行风》刊物上刊登了《呼和浩特市旅游局加强制度建设取得新突破》等3篇信息。四是严肃换届纪律，保持风清气正的换届环境。严格学习、执行中纪委、中组部及自治区党委、市委有关党委换届精神及换届纪律相关材料，宣贯《关于严肃换届纪律保证换届风清气正的通知》（中组发[2010]21号）文件精神，特别是“五个严禁、17个不准、5个一律”的纪律要求，在广大干部群众中营造出自觉遵守换届纪律、积极参与换届监督的良好氛围。 5、提高行政效能，构建“依法、公开、便民、高效”的旅游服务平台。 2011年，市旅游局审批办对进驻窗口的审批程序进行认真研究和梳理，重新设定窗口办事程序，最大限度地减少办理要件，简化办事程序，缩短办结时限，真正做到阳光政务、阳光服务。在实际工作中，市旅游局审批办立足本职岗位，结合今年开展的“转变工作作风”专项活动，围绕“高、准、细、严”四个标准，采取“四项措施”解决工作中存在的问题，不断完善旅游审批服务工作。在做好日常工作的同时，审批办积极创新工作思路，改进工作方法，认真做好后续跟踪服务，努力践行“以人为本”的科学发展理念，使审批工作再上新台阶。截止到目前，共办理各类审批服务事项1300余件，按时办结率为100%；群众满意率为100%。 6、加强干部培训教育工作 组织机关人员积极参加全市各类培训班，全年共派出工作人员60多人次赴国内旅游发达地区学习先进经验。通过形式多样的学习、考察，增强了广大干部职工的学习积极性，提高了工作人员的整体素质和工作能力。 7、做好信息、督查和扶贫工作 2011年，呼市旅游局圆满完成了市委、市政府信息、督查等项工作。截止目前共报送信息124期，督查专报3篇。接到人大建议1件，政协提案14件，对建议、提案中提出的问题逐一认真落实和答复。对口扶贫单位为武川县德胜沟乡大路壕村，今年我局多方面积极争取扶贫资金，力争完成扶贫任务。 过去的一年，我市旅游业在科学发展观的指导下，在市委、市政府高度重视和大力支持下，取得了跨越式的发展。在总结成绩的同时，我们必须清醒的看到，在加快旅游业发展的进程中，还存在着一些不容忽视的问题，主要表现在：我市旅游企业普遍“小弱散”，市场竞争力不强；没有形成龙头景区，龙头景区的影响和辐射带动作用没有形成；政策支持和宣传促销力度不够；旅游从业人员的素质有待进一步提高等，这些问题的存在，制约了旅游经济的快速发展，我们一定要高度重视，并在今后的工作中认真加以解决。 二、2012年工作安排 2012年，全市旅游工作的总体思路是：以邓小平理论和“三个代表”重要思想为指导，深入贯彻落实科学发展观，以《国务院关于加快发展旅游业的意见》为统领，紧紧围绕“一核双圈一体化建设”的城市发展总体战略，按照“两个一流”的要求，转变发展方式，推进产业转型升级，培育新的消费热点，提高旅游服务质量，为十二五期间将呼和浩特打造成国内重要旅游目的地和西北地区旅游综合服务基地打下坚实的基础。 全年旅游业发展的预期目标是：旅游人数实现1884万人次，同比增长20%；旅游收入实现264亿元，同比增长20%。 明年要重点做好以下工作： （一）进一步构建全市大旅游发展格局 全市旅游业要以做大做强为目标，以加速发展为主线，以转型升级为核心，以提升经济效益和游客满意度为要求，促进旅游业与一二三产业的融合发展，把呼和浩特早日建成国内重要旅游目的地和西北地区旅游综合服务基地。一是进一步加大政府主导力度。加强对旅游业在规划、政策、环境、建立投融资平台和各部门联动、各要素整合、全社会支持等方面的主导作用，进一步树立大产业、大旅游的观念，不断推动旅游业快速发展。二是坚持产业化的发展方向。尤其是在注重完善产品体系，建设精品景区的基础上，加快培育满足不同市场需求的新产品、新业态，如休闲度假旅游、乡村旅游、工业旅游、会展旅游等专项旅游产品。三是继续加大政府引导性投入。加大旅游基础设施、重点项目建设、宣传促销的投入力度，通过重点项目建设，拉动旅游消费需求，积极探索项目开发的融资运作模式，通过争取国家政策扶持、发展资金补助、贴息与银行贷款、招商引资等投融资渠道，建设一批大项目，打造一批旅游精品，培育一批龙头企业，带动全市旅游产业的全面发展。 （二）加强旅游精品建设，提高旅游业科学发展水平 加强旅游规划、招商引资工作。加强对旗县区和重点旅游景区的旅游规划编制和指导工作，做好规划的评审和备案工作。继续推动项目库转型升级，对敕勒川(哈素海)旅游区、托县海眼神泉生态旅游区等重点项目的进展情况继续实行动态管理，确保项目如期顺利完成。认真做好旅游招商引资工作，对旅游资源好，有投资前景的项目做好招商项目书，并通过招商局及相关招商会议、网络等手段进行招商。 深入推进旅游精品建设。扶持重点旅游项目积极争取国家和自治区旅游发展基金，推进重点项目建设。完善旅游基础设施，提升旅游景区品质和服务质量。整合全市旅游资源，继续完善和推出新的旅游精品线路。在全市各主要道路和通往景区的公路上设置旅游标识、标牌，方便游客出行，提升呼和浩特整体旅游形象。 大力发展特色旅游产品。一是大力推动乡村旅游发展。继续指导和支持各旗县区开展独具特色的农业观光游活动和民俗游活动。着力打造一批乡村度假区和专业旅游特色村。在全市继续推行乡村旅游接待户星级评定工作，申报一批符合标准的自治区星级“乡村旅游接待户”。 二是继续发展工业旅游，在巩固提升原有项目的同时，增加新的工业旅游观光点。三是积极推动红色旅游精品项目建设。在和自治区旅游局调研的基础上，确定一批重点发展的红色旅游景区，争取纳入全区红色旅游精品项目建设计划中，以现有红色旅游景区实现整合资源，突出特色，提升质量，推动红色旅游又快又好的发展。四是加快发展周边休闲度假旅游，扩展“一日游”、“自驾游”旅游市场。 （三）加强宣传促销，进一步提升呼和浩特旅游知名度和影响力 加大在各级各类新闻媒体宣传报道的力度。积极协调相关部门，与中央驻区、自治区、呼市三级媒体协作，不断加强与新闻媒体打交道的能力，充分发挥广播、电视、报纸、网络的优势，加大在《中国旅游报》、《内蒙古日报》、《北方新报》、《呼和浩特日报》等主流媒体宣传报道力度。发挥“中国北方旅游网”的积极作用，与国内知名网站进行合作，拓宽旅游宣传渠道。 围绕国家旅游局确定的“2012中国欢乐健康游”宣传主题，开展丰富多彩的旅游节庆活动和主题活动。在“5.19”中国旅游日期间,开展主题宣传活动；积极参加自治区旅游局主办的内蒙古中部地区旅游推介踩线会；与自治区旅游局联合主办2012年中国旅游年内蒙古首游式；积极承办昭君文化节相关旅游活动；积极组织各旗县区开展一系列农家乐、瓜果采摘、民俗旅游等旅游活动。 进一步采取“请进来，走出去”的旅游促销模式。一是加大在区内旅游宣传的力度，在包头、鄂尔多斯等周边盟市开展旅游推介会。二是抓住高铁即将开展的有利契机，加大对北京、天津等地的宣传促销力度。三是加强对长江三角洲地区、珠江三角洲地区传统客源地以及与呼和浩特主要通航城市的旅游宣传促销。同时，邀请主要客源城市的旅行商来呼和浩特实地踩线，进一步扩大呼和浩特的旅游影响力和美誉度。继续组织旅游企业参加广州旅游交易会、北京国际旅游展、中国北方旅游交易会、中国国内旅游交易会、中国国际旅游交易会等国际、国内大型展会。 在主要客源地和人流密集场所投放旅游宣传广告。继续加大在北京地区旅游宣传广告的投放力度，重点选择在首都国际机场、呼和浩特机场、分众传媒等媒体进行旅游形象宣传。在机场、车站、商业街等人流密集场所投放各类宣传广告，放置旅游指南、地图、折页等宣传品，逐步形成全方位大旅游宣传格局。 （四）加强旅游标准化、信息化体系建设 做好国家A级景区的创建工作。2012年重点指导蒙牛、伊利创建5A级景区，乌兰夫纪念馆、大召创建4A级景区；支持南湖湿地公园、清水河乌兰牧伦草原、老牛湾黄河大峡谷等景区创建3A景区，继续做好公主府、白石等3A级景区创建后的后续工作，进一步提升旅游景区的品质。 全面贯彻实施新的《旅游饭店星级的划分与评定》，依据国家标准，强化对旅游星级饭店的日常管理与服务，指导并规范社会饭店进入星级行列。按时完成全市二、三星级饭店的年度复核工作。继续在全市星级饭店中开展“金叶级和银叶级绿色旅游饭店”的创建工作，倡导低碳旅游方式，推进节能降耗。继续组织开展全市旅游星级饭店服务技能大赛，提升旅游行业服务质量。 继续开展旅行社指导员制度，强化对旅行社的上门服务和指导。按照《旅行社条例》的规定，把好旅行社的初审关，把初审中的现场勘察作为面对面的服务。做好旅行社责任险、旅游合同、门市部及分社的备案管理工作。做好《旅行社星级管理暂行办法》的宣传与实施，强化对旅行社的服务管理，加快全市旅行社星级评定的步伐。做好《呼和浩特市旅游促销奖励暂行办法》贯彻与实施，做好日常登记、核实与监管，确保政策发挥作用。 按照《呼和浩特市旅游接待单位管理规定》并根据旅游市场发展及游客的需要，规范指导社会特色餐馆进入旅游行列。发挥“中国北方旅游网”的积极作用，与国内知名网站进行合作，拓宽旅游宣传渠道。 （五）规范旅游市场秩序，提高旅游服务质量 建立健全旅游市场监管体系，严厉查处无证经营、欺客、宰客、强买强卖等违法行为，坚决取缔黑社、黑导、黑车。加大市场执法检查力度，与工商、物价、公安、卫生、交通、质监等部门密切配合，坚持日常检查与重点检查相结合，尤其要做好“五一 ”、“十一”、“春节”、“昭君文化节”等节假日的旅游市场监督管理。及时处理投诉案件，维护游客的合法权益。发挥协会的积极作用，开展旅游企业精神文明创建活动，倡导诚实守信、和谐发展的旅游环境。与旅游企业签订安全管理责任状，引导旅游企业做好旅游安全工作，重点完成旅游突发公共事件应急预案的编制与建档工作，强化旅游企业的安全管理。 （六）加强旅游教育培训，促进旅游队伍建设 加强旅游从业人员队伍建设，把提高旅游从业人员的职业道德素质放在突出位置，深入开展创先争优活动。完善旅游行业表彰机制，树立一批旅游行业的先进集体和典型人物。有计划的组织A级景区、乡村旅游、市场营销、旅游统计等各类培训。加强对社会导游的管理力度，有针对性地对导游进行培训，提高岗位技能、职业道德。 （七）进一步加强区域旅游合作 旅游区域合作是当今旅游产业发展的大势所趋。目前，通过每年举行的内蒙古中部地区旅游推介踩线会，我市与周边包头、鄂尔多斯、巴彦淖尔和乌兰察布等地的旅游区域联合已初步形成。2012年，我们将进一步加强与周边城市的旅游合作，同时巩固完善与京津环渤海地区、长三角、珠三角地区全方位的旅游合作机制，推进与各大中城市，特别是西北地区城市之间的旅游区域合作，增强区域旅游竞争力。 （八）积极做好准备，迎接“高铁”开通给我市旅游业带来的发展机遇 2012年，高铁即将开通。面对“高铁时代”的到来，我市旅游业要做好全面准备。我们将着手加快我市旅游景区建设、星级饭店建设、旅游人才培养，大力推行优质旅游服务，并积极协调相关部门努力解决旅游旺季用车紧张问题，以应对即将到来的高铁时代。充分发挥游客集散中心的作用，在总结现有白塔机场游客咨询中心经验的基础上，积极探索在市区人流密集场所建立若干旅游服务咨询点，更好地为游客服务。 （九）加强旅游部门自身建设 我们将加强政治理论和业务学习，不断提高干部职工综合素质，努力推动学习型机关的创建活动。推进依法行政，切实维护旅游企业和广大游客的合法权益。广泛开展旅游企业对旅游管理部门的民主行风评议活动，坚持不懈地抓好旅游行风建设，强化社会监督。加强干部队伍自身建设，增强公仆意识，服务意识，把我局建设成为清正廉洁、务实高效的行政机关。积极开展丰富多彩的文体活动，增强干部职工的集体观念和凝聚力。协调各方面的力量，认真做好扶贫和社区共建工作。 二Ｏ一一年十一月十日 附件：']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>25</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>呼和浩特市大数据管理局年上半年工作总结及下半年工作安排</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2020-07-01</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/sdsjglj_22438/fdzdgknr_26169/bmgk/202007/t20200701_946193.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['呼和浩特市大数据管理局2020年上半年工作总结及下半年工作安排_ 呼和浩特市人民政府', '2020年上半年，市大数据管理局进一步强化首府意识，把思想和行动统一到党中央的决策部署、自治区党委和市委、市政府的部署要求上来，以党的政治建设为统领，加强干部队伍建设，坚持以人民为中心的发展思想，对标先进地区，筹划大数据产业高质量发展，整合数据资源，推进大数据在疫情防控中的作用，促进智慧城市建设，提升政府管理和社会治理现代化水平，建设生态首府、品质首府、幸福首府、文化首府。', '1.认真贯彻落实上级决策部署，全员参与新冠肺炎疫情防控阻击战。自我市开展新冠肺炎疫情防控以来，我局高度重视，全体党员迅速下沉社区参与防控工作，局党组共召开2次专题会议，及时安排和部署防控工作。局机关党支部充分发挥战斗堡垒作用，团结带领我局干部党员坚守在社区防控一线和本职工作岗位，用实际行动担当作为，践行初心使命，做到了“五个百分百”', '2.聚焦“两个维护”，着力强化机关政治建设。今年以来，结合疫情防控工作，局党组、党支部把及时传达学习中央、自治区党委和市委关于疫情防控的最新精神与强化党内规章制度学习相结合，及时做好上级精神的传达学习，及时跟进学习习近平总书记最新讲话和指示批示精神，学习贯彻习近平总书记在全国两会内蒙古代表团讲话精神，通过讲党课、党员研讨等多种方式，认真领悟。认真落实王莉霞书记在市纪委十二届六次全会上的讲话精神，组织党员干部认真学习《中共中央关于加强党的政治建设的意见》《党委（党组）落实全面从严治党主体责任规定》等内容，加强政治建设，对我局政治生态进行分析研判，强化对党员干部的严格管理，营造积极向上、干事创业、风清气正的机关政治生态。在新冠肺炎疫情考验面前，我局全体党员干部在局党组的领导下，严守政治纪律政治规矩，言行一致听党指挥，团结一致冲锋在前，始终树牢“四个意识”、坚定“四个自信”，坚决做到“两个维护”，为首府夺取疫情防控阶段性胜利贡献了我们的智慧和力量。', '3.抓实学习教育，强化党员干部理论武装。上半年我局共组织党组理论中心组集体学习8次，党组会学习2次，党支部集中学习5次，机关学习 10 次，开展了关于强化作风建设、贯彻落实习近平总书记提出的以人民为中心、人民至上的专题交流研讨2次。开展了理论知识测试1次，开展了学习强国、法宣在线等自学、考试活动，开展了“鸿雁悦读”、“书香呼和浩特•脱贫奔小康”2020草原阅读季的办卡、借书、读书、书评、荐书活动。', '4.严格落实意识形态和网络意识形态工作责任制，牢牢把握意识形态工作主动权。加强对意识形态和网络意识形态工作的领导，班子成员严格落实分管领域内意识形态工作责任，严格按程序履职办事。制定了《呼和浩特市大数据管理局网络意识形态管理制度》《呼和浩特市大数据管理局党员干部网络行为规范》等制度，确立了我局网评员和新闻发言人，进一步加强了制度建设和对意识形态工作的管理力度。', '5.多措并举抓落实，扎实推进机关党的建设工作高质量发展。一是严格落实党建工作责任制。上半年我局共召开 2次党组会专题研究机关党建工作，制定了市大数据管理局2020年党建工作要点，召开了党建工作会议；二是严格组织生活，按要求召开党员大会和支委会，党组书记、支部书记带头讲党课，进一步提升机关党支部的凝聚力、战斗力、吸引力。三是创新丰富组织活动形式，组织开展6次党日活动，提升党员干部参加党日活动的实践锻炼效果。四是做好党费的收缴工作。对递交入党申请书的2名年轻干部进行组织培养，开展谈心谈话，严把发展党员质量关；五是开展“党建领航·数智赋能”党建品牌的创建。制定了党建品牌创建工作方案，推动党务工作与业务工作、服务群众深度融合；六是认真落实党务公开制度，按要求制定了我局党务公开实施方案和党务公开目录，坚持做到应公开尽公开，切实做好党务公开工作；七是深入实施“青城先锋”工程和“五化协同、大抓基层”工作，开展了创建首府模范机关活动，争创“四有”“四强”党支部；八是全力抓好主题教育整改落实“回头看”，制定整改落实“回头看”工作方案，强化问题意识，紧盯未完成的整改任务，明确任务完成时限和责任科室，目前还有3项需持续推进任务；九是加强党支部标准化规范化建设。对照党支部标准化规范化建设内容的要求，已向市财政报送和申请了党建工作专项经费。', '6.加强党风廉政建设，推进机关作风建设。一是加强对党风廉政建设和纪检工作的研究部署。召开多次党组会议对工作进行研究部署，确定政治责任清单和全面从严治党责任清单，严格落实主体责任；组织召开2020年党风廉政建设工作会议，印发党风廉政建设工作要点和纪检工作要点，对全年工作进行安排部署。二是深入开展廉政学习和廉政教育。及时传达学习贯彻十九届中央纪委三次、四次全会精神，自治区纪委十届六次全会精神和市纪委十二届六次全会精神，组织开展9次廉政教育及警示教育，共164人次参加。三是及时传达学习了全国、自治区和我市关于深化“放管服”改革优化营商环境的工作安排和部署，学习我市优化营商环境工作方案，深入开展作风改进提升年活动，就深化治理突出问题巩固拓展作风实效进行了专题学习和交流研讨。四是深入整治形式主义、官僚主义，整治“四官”转变干部作风，对存在的突出问题进行了对照查找，对形式主义官僚主义列出了14条问题清单，对整治“四官”列出了“问题清单”。开展了矿产资源领域和煤炭领域违规违法问题专项整治工作。', '7.加强群团工作，齐抓共管形成合力。健全了工青妇组织，上半年组织成立了妇委会和青年工作小组，积极组织参与各项活动，在干部教育、监督、管理和服务，决战决胜脱贫攻坚、开展创建活动方面发挥更大的作用，形成齐心协力齐抓共管的良好氛围。', '1.加大招商引资力度，关注重点项目建设。与和林格尔新区产业发展招商服务局携手组织举办和林格尔新区招商引资网络直播推介会，拓宽招商引资渠道，扩大交流合作的领域和空间；关注指导浪潮大数据产业园建设，加强对企业的服务工作。积极协助呼和浩特市北疆蒙古语人工智能产业研究院开展工作，为研究院拓展业务提供良好的服务。', '2.做好数字呼和浩特专项规划编制工作。围绕十四五规划编制，召开党组会研究成立专班，开展《数字呼和浩特发展规划（2021--2025）》编制工作；完成前期调研和材料收集工作，明确了规划主要内容，确定时间表，计划90天分4个阶段完成，已形成初步框架。', '3.培育我市的大数据高新技术企业。我局建立了云计算大数据企业交流群，于2019年11月建立了大数据高新技术企业培育库，截至目前，已有入库企业45家，为已入库企业培养“政策联络员”，组织了政策解读、项目申报等两期专题培训。通过企业微信群，为大数据企业推荐推送大数据知识线上培训10期。', '4.积极应对疫情支持企业复工复产。在抗击新冠肺炎疫情期间，我局认真落实《呼和浩特市人民政府应对疫情支持中小企业健康发展的十五条措施》，与政务云中心运营单位浪潮公司商定了免费支持我市中小微企业开发的与疫情防控直接相关的业务系统、利于企业开复工或线上办公的业务系统免费上云的政策。截止2020年5月底，共为此类系统开通云服务器53台，云存储64T，免除云资源费用45万元。', '5.加强走访调研，帮助企业纾困解难。赴大学生科技城、留学生创业园、赛罕区电商产业园等调研了解40余家大数据企业复工复产情况。深入6家包联企业详细了解了经营情况，积极为企业发展“出主意、想办法、解难题、纾困难”，推动民营企业生产经营中的一些问题得到尽快解决。', '1.编制新型智慧城市顶层设计。2020年3月完成《呼和浩特新型智慧城市顶层设计》（2020-2022年）初稿，征求了市各委办局、有关专家对顶层设计方案的意见，目前正做进一步的修改完善。', '2.牵头建设党建引领基层网格智慧化平台。根据市委办《关于加强和改进新时代城市基层党的建设工作的实施意见》（呼党办通〔2020〕12号）文件《党建引领基层网格化治理实施方案》，我局作为牵头单位建设党建引领基层网格智慧化平台。其主要任务是整合各类党建信息平台、社会治安综合治理平台、城市管理信息服务平台等，建设全市城市基层党建与基层治理一体化信息平台，主要包含党建一张图、基层治理、督察督办、数据分析、舆情监测和线上党群中心六大模块。', '3.协助智慧城管开展平台升级建设。我市数字城管平台建设于2014年，包括12345和12319两条政务服务热线及全市数字城管系统等三大综合性协调指挥调度平台。由于平台一直没有升级，目前面临平台理念和管理方式落后等问题。我局配合市城管局开展了相关调研，在周强副市长的带领下，赴上海、杭州考察学习智慧城管平台建设，深度分析我市智慧城管统筹建设工作，从智慧项目建设角度，提出相关专业化建议。', '4.做好新型智慧城市指挥运营中心项目前期工作。2019年4月，该项目由市行政审批局移交市大数据管理局，我局根据智慧城市新理念对项目进行了优化，强化了大数据基础平台功能。截止2020年1月2日，指挥中心场地装修项目（图纸设计、造价、监理、施工）已经顺利完成招标。信息集成项目于2019年12月2日挂网招标。市领导提出智慧项目一体化建设的要求后，我局暂停了项目建设。市政府2020年政府工作报告将该项目列为重点建设任务，我局积极做好项目启动的前期工作，全面开展智慧项目调研，梳理清楚了智慧项目家底，为全力推进我市智慧城市建设奠定工作基础。', '1.加强政务信息资源共享交换平台建设工作。制定了《呼和浩特市政务信息资源共享平台管理办法（试行）》《呼和浩特市政务信息资源共享平台使用流程规范》《呼和浩特市政务信息资源目录体系标准》《呼和浩特市政务信息资源元数据及扩展标准》等9项标准规范。建立起较为完善的管理运维标准体系，夯实平台建设基础。', '2.推进政务信息资源目录补充和完善工作。以市公安局、市自然资源局、市行政审批与政务服务局及爱城市APP项目数据共享需求为契机，梳理完善并共享了一批政务信息资源，涵盖了市住建局、市民政局、市中级法院、市发改委等多家单位。协助市自然资源局、市行政审批局、市纪检委等单位申请市本级单位、自治区及国家相关政务资源，支撑了对方业务工作开展。', '3.积极参与大数据地方性标准制定与宣贯工作。配合自治区大数据发展管理局工作，参与自治区地方性标准《数据中心绿色分级评估技术要求》《数据中心可用性分级评估技术要求》《数据中心服务能力分级评估技术要求》的制定工作，对《内蒙古自治区大数据标准体系编制规范》《自治区政务数据生命周期管理规范》进行宣传。', '1.完善上云流程和机房管理制度。对云资源申请、云资源变更、设备托管、云资源撤销四项业务办理流程进行细化完善。完善机房管理制度，严格工作标准，规范工作流程。2020年以来，撤销上云冷系统5个，新上云系统14个，目前政务云共承载57家单位335个业务系统。', '2.开展云平台安全检查和升级工作。对所有业务系统开展全面漏洞检查，及时通报并督促使用单位完成漏洞修补升级工作，保证系统安全。增强安全防护能力，丰富云产品类型，不断满足电子政务新需求。目前已有20家使用单位漏洞修补升级完毕，经过复查暂未发现其他问题。其余使用单位目前仍在漏洞修补中。', '3.优化云存储空间。针对部分业务系统使用率较低问题，细化冷系统冷数据整改方案，合理调整政务云资源分配，机柜由53个精减至34个，提高云资源利用率，降低运行成本。', '4.加快区县上云需求调研。政务云中心已具备区县业务应用系统上云条件，完成9个旗县区调研，正与赛罕区进行工作对接。', '5.启动政务云异地容灾项目。为避免因不可抗力因素造成数据丢失，提高呼和浩特市政务云计算中心服务质量，增强数据安全防护能力，保证数据安全可恢复，上半年启动政务云异地容灾项目，已完成方案评审和可行性测试，目前正在设备采购中。', '1.梳理外网和专网线路。完成了电子政务外网（电信主网）与专网现有线路的梳理工作。市电子政务外网共接入线路127条，连接单位148家。电子政务专网接入线路68条，连接单位86家，现78家均已接通。', '2.进行带宽升级。协调运营商将市行政审批和政务服务局主网带宽由原100M提升至300M。外网备用线路带宽可高达1000M，解决了市行政审批和政务服务局政务外网运行效率问题，极大的缓解了市民通过网络进行政务审批活动的数据传输压力，基本消除延迟、卡顿现象，为后续开展的政务数据共享工作打下了扎实的基础。', '3.保障机房安全。为了解决电子政务外网核心交换机安全问题，进行了机房核心交换机搬迁工作，通过专家论证，将从市政府机房搬迁到和林云计算中心，完成电信机房至政府机房第一、第二路由跳纤，完成加载政府机房预演割接设备安装、更改云计算机柜PDU设备、云计算组、C组设备安装以及适配加电900-8E与M6000，完成64条业务割接。', '1.积极配合市委开展优化营商环境专项巡察。对优化营商环境工作开展自查，上报工作报告，自觉接受监督，坚决支持配合巡察组工作。', '2.提高依法行政能力。组织开展2期线上法律法规知识培训，开展知识测试，提高依法行政能力，制定我局《规范性文件合法性审查制度》《法律顾问制度（试行）》《新闻发言人制度》和《重大行政决策制度》及其五项配套制度，为营造法治化营商环境，提供制度机制保障。', '3.梳理云计算、大数据产业的扶持政策。对我市已出台的促进大数据产业发展方面的政策进行政策清理，对已到有效年限、已经废止的政策进行清理，还在沿用的进行深化调研，初步梳理出我市大数据产业发展基础、优势等，组织召开政策评估会，结合我市大数据产业实际，进一步分析总结先进经验，为出台促进我市大数据产业发展的扶持政策奠定基础。', '土左旗把什村是大数据管理局的对口包扶贫困村。围绕发展产业，我局积极发挥大数据专长，通过加大宣传、优化网络基础、进行网红推介、协助商标注册等方式，助力把什村脱贫攻坚。', '1.在局微信公众号设立脱贫攻坚专栏。开设了《走进把什村》系列栏目，围绕把什村的历史、特色产业、教育、红色旅游基地等开展宣传，上半年已推出7期，并被文旅青城微信公众号同步转发。', '2.与企业联手助力扶贫。邀请中国联通呼和浩特分公司赴把什村进行实地考察，准确掌握把什村产业状况、网络运用需求，确定了优化网络基础的相关工作，助力乡村振兴战略。', '3.助推把什村产业发展。邀请内蒙古领新知识产权服务有限公司，协助把什村办理特色农产品、特色手工编织品申请商标。邀请国风网络公司，开通了“木兰网红直播土左旗把什村手工编织制品专栏”，助力贫困村通过产业脱贫。', '认真贯彻落实市委对标工作要求，“拉高标杆”激发斗志，确定全区对标单位为乌兰察布市大数据发展局，全国对标单位为山东省济南市大数据管理局。制定了对标工作方案，明确改进措施和责任科室、责任人，赴乌兰察布市开展了调研学习，了解数据中心、智慧城市建设情况，与乌兰察布市大数据局沟通了协同发展事宜，从推进大数据高端产业项目和浪潮内蒙古大数据产业园建设，进行政务云中心系统升级，推进公共信息资源和政务信息资源共享开放，推进智慧城市建设方面着力，推进我市数字经济发展。', '1.加强干部队伍建设。严格按组织程序，对6名新任职科级干部进行转正考核，开展了四级调研员职级晋升前期工作，积极开展业务培训，有效提升干部素质能力。', '2.加强重点工作督查督办。按照市委“闭环工作法”有关要求，进一步完善了重点工作督查督办台账，明确了目标要求、责任部门、责任人以及完成时限，便于查阅和监控，共督办重点工作115件，促进重点工作有效落实。', '3.进一步加强宣传和信息报送工作。加强信息报送工作，及时、准确反映我局工作情况，制定印发《信息报送监控办法》和《重大紧急信息报送工作制度》，推动重大紧急信息工作步入制度化、规范化、科学化轨道。充分发挥微信公众号宣传作用，对法律法规、政策措施、大数据发展情况和工作动态进行宣传，共发布信息361条，阅读量累计达到2.1万人次。', '4.积极接受监督。积极接受人大监督和政协民主监督，认真办理人大代表建议和政协委员提案，组织召开代表、委员见面沟通会，积极主动与代表、委员沟通，交流办理思路，认真开展接到的5件人大代表建议、17件政协委员提案的办理工作。按照“三务”公开工作要求，上半年主动公开政府信息20条，所有公开的数据规范、完整、清晰、合规，做到了应公开、尽公开，接受群众和社会监督。', '（一）深入推进全面从严治党。一是以机关政治建设为统领，继续深入开展学习教育和培训。二是持续抓好主题教育整改问题的解决落实。着力做好主题教育整改落实“回头看”整改问题的整改落实，围绕存在问题、完成时限和责任科室切实做好整改落实和监督检查。三是深入开展“先锋工作”和“五化协同、大抓基层”“首府模范机关创建”“党建领航•数智赋能”党建品牌创建等活动。四是深入开展党风廉政建设和宣传教育工作，继续加强作风建设，持续推进各专项工作。五是加大党务公开工作力度。', '（二）推动呼和浩特国家级互联网骨干直联点建设。配合和林格尔新区，推动呼和浩特国家级互联网骨干直联点建设，确保2020年建成并投入使用，加快扩大互联网出区带宽。推动5G站址规划和基站建设，实现全区重点区域连续覆盖，加快通信网络设施IPV6改造升级和推广应用。', '（三）推进大数据产业发展。加强与和林格尔新区、各旗县区的沟通协作机制，围绕大数据产业链补链延链加大招商引资工作，推进我市大数据产业发展壮大。协助浪潮大数据产业园、北疆蒙古语智能研究院等重点项目建设。成立“呼和浩特市大数据产业联盟”，号召有实力、有诚信、有影响力的行业协会、企业、社团及高校共同参与，加强首府在全区大数据产业发展的引领作用。', '（四）完成《数字呼和浩特（2021--2025专项规划）》编制工作。继续深化调研，开拓编制思路，提高规划编制的科学性，完成《数字呼和浩特建设发展规划（2021--2025）》编制工作，在数字经济发展以及智慧城市建设方面谋思路、想方法、出实招，大力发展以信息化驱动的数字经济，通过数字经济赋能产业转型升级和社会创新发展。', '（五）完成《呼和浩特市新型智慧城市顶层设计》编制工作。以“数智青城”为目标，按照“五位一体”架构，通过2020-2022年三年时间的发展，构建起呼和浩特新型智慧城市体系框架，打造呼和浩特智慧能力新形象，为我市智慧城市建设提供科学发展蓝图。', '（六）全力推进新型智慧城市指挥运营中心建设。市政府2020年政府工作报告将该项目列为重点建设任务，目前该项目的场地建设还在停滞、系统招标还未进行，如果不能及早开工，面临着年内不能完成任务，已经招标项目面临违约的困难。当前需要尽快确定建设目标，按照政府工作报告的要求，全力推进该项目建设。', '（七）建立智慧城市建设专家团队。确定3-5名较为固定的专家团队智库，专家需要具备智慧城市项目建设的实战经验，并且大部分能在我市常驻开展工作。专家委需要在审定智慧城市顶层设计，确定行动计划和年度计划，推进重点智慧项目建设等方面，发挥指导工作、辅助决策、纠正偏差、推进建设等作用。', '（八）加强智慧项目管理，促进有序建设。做好全市智慧项目的统筹规划、项目专业评审、综合协调和监督管理等工作。拟通过组织专家评审，建立智慧项目库（非涉密项目）的方式，对全市智慧项目进行技术和标准业务初审和总体统筹，科学合理确定年度建设计划。协助智慧城管平台的研发建设工作。', '（九）完成党建引领基层网格智慧化平台建设。按照7月初步完成平台框架搭建和模块开发，9月完善平台功能的计划，全力推进平台建设。', '（十）推动政务信息资源共享交换平台建设。编制发布政务数据资源目录。加强数据治理和大数据共享平台建设，为智慧项目数据需求做好服务，为数据相互共享打下坚实基础。推进“互联网+政务服务”平台建设，推进大数据在宏观决策、政务管理、民生服务等领域应用，运用大数据提升政府治理现代化水平。完善数据安全管理规范体系，制定政务数据资源共享交换平台数据安全管理制度，完善审查机制。运用技术和管理手段，强化政务数据全生命周期安全管理，确保数据存储安全、共享安全、应用安全。', '（十一）保障呼市电子政务外网及专网核心设备运行安全。改善电子政务外网及专网核心机房物理环境，加强专业维护，确保网络安全稳定可靠。完善安全保障体系，强化技术防护措施，落实安全管理责任，确保网络和各项业务系统安全稳定运行。', '（十二）加强大数据人才培养力度。促进我市设立大数据人才培养专项资金，配套制定《呼和浩特市大数据人才培养专项资金使用办法》。', '（十三）加强大数据宣传工作。加大对我市发展数字经济的宣传，宣传我市在大数据、人工智能、区块链、5G技术领域的推广应用成果，为我市营造良好的大数据招商引资氛围。加大对新型智慧城市建设、大数据便民应用、大数据助推“放管服”改革工作方面取得的成就，让更多市民了解呼和浩特市新型智慧城市建设取得的成效，提升对大数据发展和信息化建设的体验感和获得感。', '（十四）加快对标工作进度。进一步夯实我市数据中心等应用基础设施建设，推进数据中心做优做强，加强技术产品创新，充分发挥超算等领先的大数据前沿技术项目的带动引领作用，大力推动数字产业集聚集群发展。加大政务信息资源共享，稳步推进智慧城市建设，在大数据产业、智慧城市建设等方面加快赶超全区对标单位乌兰察布市大数据发展局和全国对标单位山东济南市大数据管理局。', '（十五）完成脱贫攻坚任务。继续贯彻落实国家、自治区和我市扶贫工作要求，切实做好土左旗察素齐镇把什村的帮扶工作，加强产业扶贫，强化村特色产业品牌建设，加大对贾力更故居红色教育和旅游业宣传，帮助村集体和村民有效增加收入。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>25</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>呼和浩特市国土资源局年工作总结和年工作安排</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2008-11-19</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/szrzyj_22411/xxgknb/202105/t20210525_930543.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['2008年,呼和浩特市的国土资源工作，在市委、市政府和自治区国土资源厅的正确领导下，认真贯彻党的十七大精神，按照既保护好资源又保障好发展的工作目标，不断转变管理理念，完善管理机制，创新管理方式，开启了资源保护的新思路，探索了保障经济社会发展的新途径，初步开创了全市国土资源工作的新局面，在促进首府“十年巨变”的进程中发挥了积极的作用。现将一年来的主要工作完成情况及2009年重点工作安排情况报告如下：', '（一）、土地管理秩序更加规范，保障支持能力全面提高。2008年的土地资源管理工作，我们按照“确保全市土地资源总量不减少、质量不降低，合理利用每一寸土地，实现土地资源的最大经济和社会效益”的原则，加大了对全市土地资源的管理，实现了在保护土地资源的基础上，保障了全市经济社会发展用地的需要。全年共审批供应土地440公顷，其中，划拨20宗160.4公顷；协议出让6宗28.6公顷(协议出让为自用地划拨变出让)；挂牌出让46宗251公顷。全市实现土地收益共29.9亿元，为全市经济社会发展提供了强有力的支撑。', '一是土地利用规划紧扣全市经济发展的需要。一年来，我们通过严格执行土地利用总体规划和土地供应政策，按照全市启动“十年巨变”宏伟目标的用地需求，在严格控制新增建设用地总量的基础上，对建设用地进行了合理部局，全年共预审建设项目用地45宗，面积435.56公顷，严格控制各类非农建设占用耕地，严格执行了建设项目用地预审制度，做到了预审程序规范、内容全面、措施得力，从源头上把住了建设用地预审关,真正发挥了规划的“龙头”作用。', '三是土地供应实现了开源节流和对全市经济的宏观调控。今年以来，在土地供应上实行了“三优先”，即，使用存量土地优先供应，使用闲置土地优先供应，基础设施和公益事业用地优先供应，全年供应土地共440公顷，用于保障基础设施和公益事业用地63.09公顷，占土地供应量的14.3%。对新开工建设项目用地实行严格控制，全年供应新增建设用地286.59 公顷，占土地供应总量的65%。按照全市经济发展状况和商品房涨幅放缓的实际，及时对供地结构进行了调整，统筹土地供应总量和空间结构、产业结构和时间结构，增加了对中低价位、中小套型的普通商品住房、经济适用住房和廉租房用地的供应量，继续严格控制了高档住宅用地供应，停止了豪宅和别墅类用地审批，对促进房地产市场的健康发展和呼市经济平稳快速增长起到了积极作用。', '（二）、矿业秩序治理整顿成效明显，矿产资源管理全面加强。针对全市矿产资源零星分散，工作程度较低，可供开发的矿产资源种类较少、储量不大的现实，我们按照高效开采，有序利用的原则，积极引入社会资金勘查，对矿业结构进行了调整，对矿业开发布局进行了优化，对煤矿资源进行了整合，提高了矿产资源对全市经济发展的贡献率。', '一是矿产资源勘查力度不断加大。今年我们积极申请国家和自治区专项资金，同时制定了相关的配套政策，积极引进社会资金对全市的矿产资源进行勘查，全年共申请国家和自治区资金投入1165万元，引进社会资金2016 万元用于矿产资源勘查项目。主要对哈素海地热资源进行了勘查，对111个 矿区进行了进一步勘查,初步查明金矿资源量142万吨，铁矿新增资源量1476万吨。', '三是矿业权出让进一步规范，矿业收益稳步提高。今年，对探、采矿权的出让，我们在严格遵照上级规定的基础上，全面扩大公告的范围，在公开、公正、公平的基础上，实现了出让价款的最大化。全年共出让探矿权5个，出让总价款70万元，出让采矿权66个，出让总价款215万元，矿业出让总收益达285万元。', '四是地质环境治理成效明显，生态环境逐步改善。投资800万元，对呼包高速公路（毫沁营至罗家营）两侧砂坑矿山地质环境（一期）进行了治理，对大青山前坡陶思浩段采石矿区地质环境恢复治理，投资200万元的一期、投资650万元的二期均已经完成，大大改善了矿区周边的生态环境，为全市创建森林城市奠定了基础。', '（三）、执法监察工作有了新突破，体制机制不断完善。根据《土地管理法》和《矿产资源管理法》规定：“各级人民政府应采取措施，全面规划，严格管理，保护、开发土地资源和矿产资源，制止非法占有土地和盗采矿产资源的行为”以及呼市第八次卫片检查违法用地率的宗数和面积分别达到63.7%和61.5%，进入全国87个重点城市前十位的严峻形势，我们积极探索，努力寻求执法监察工作的新机制。局党组先后三次赴十余个先进城市对国土资源执法监察工作进行了考察，基本破解了我市国土资源执法监察工作的矛盾，主要是各级政府查处违法占地和非法盗采矿产资源工作的主体地位不突出，联合查处机制不健全，各相关职能部门联合查处职能不明确，“多家管、多家用”的管理机制没有形成，国土资源自身建设的滞后更加剧了执法监察工作的困难。我们在依托自身力量加大对违法违规查处的同时（今年共查处违法违规92 起，涉及面积9999亩，罚没1742万元，对12 人进行了党政纪处分），不断寻求执法监察工作的新机制，将国土资源执法监察工作纳入到了全市的工作大局中，市政府专门下发了《呼和浩特市人民政府关于认真查处违法占地和违法建设项目的决定》，对查处违法占地的主体进行了明确，对各职能部门和相关部门联合查处的职责进行了明确，拟分三个阶段，利用半年的时间对全市的违法占地行为进行严肃查处，目前已进入第二阶段（查处整改），通过第一阶段的调查核实和第二阶段的工作，目前全市共核实违法占地370宗，拟制定专门查处办法对违法违规行为进行查处。通过查处违法占地专项行动的开展，呼市的执法监察工作基本实现了由政府主导，国土资源部门统一协调，各部门各司其职、齐抓共管的联合查处的良性循环机制，基本改变了过去“一家管、多家用”被动局面，实现了国土资源执法监察工作的良好开端。', '（四）、基础工作逐步推进，基层建设发展规划基本完成。按照年年打基础，重在抓基层的工作思路，着力推进了各项基础工作建设。我们按照市委、市政府开展的“转变政府职能，优化发展环境，建设服务型政府部门”的总体要求，由管理型向服务型转变，将国土资源全部许可事项、审批事项、执法事项、登记事项以及服务保障事项的工作流程全部进行了梳理，按照不违反法律法规，最大限度地减化审批手续，缩短审批时间，细化了各项工作流程31项，大大方便了服务对象，提高了服务质量。同时，进一步强化了服务窗口建设，全面实行“一站式受理、一条龙服务”，从文明语言抓起，规范了服务的每一个环节，服务质量得到了全面提升，服务理念不断改进。根据全市国土资源信息化工作的现状，制定了全市国土资源信息化三年建设规划和具体建设方案。目前正在利用装修新办公楼之前进行各类网线的布设、机房建设和硬件配置。数据收集入库工作正在同步推进，全市土地二次调查工作稳步推进，全市农村权属外业调查完成50%，城镇地籍测量完成71%，权属调查完成30%，并启动了金土地工程，信息化建设工作稳步推进。同时完成了对国土所工作调研，找准了存在的问题，制定了分期建设规划。', '（五）、干部培训机制进一步健全，干部队伍建设全面加强。今年以来，我们将教育培训工作作为全市国土资源管理工作的基础，按照造就一支思想好、业务精、能力强、作风硬、素质高的国土资源干部队伍的总体要求，全面加强了对干部职工的教育培训，同时还下大力对全市的县乡村级干部进行国土资源法律知识培训，全面提高了全社会依法保护和管理国土资源的意识。', '一是干部队伍管理服务理念不断更新，综合素质稳步提高。根据市属国土资源系统干部职工素质的实际，制定了《呼和浩特市国土资源系统干部职工教育培训实施方案》，将全市国土资源系统的所有人员全部纳入培训的范围，根据不同专业的需要既制定了不同的培训内容又规定了必训内容，先后购买相关专业资料3000余册，聘请市区两级专家学者30多人次，培训时间共计300余小时，分十七个班次对全市近千名干部职工全部进行了至少一次一个专业的培训。同时建立了干部学习、培训档案，制定了干部培训中长期规划，使干部培训工作经常化、制度化。通过培训拓展了干部职工的视野，找到了思想上和能力素质上的差距，纠正了一些不合时宜的思想观念、做法，进一步认清了当前国土资源管理工作形势和任务，基本掌握了本职工作的程序、任务、要求等，激发了干部职工的积极性和创造性，科级以上人员基本能够独当一面，能独立解决比较复杂的矛盾和问题。', '二是基层干部法治观念全面提高，资源保护意识明显加强。根据2007年底全国县、乡、村级干部国土资源法律知识宣传教育培训活动电视电话会议精神及自治区培训活动办公室统一安排，我们按照学习动员、培训准备、组织实施三个步骤，采取集中培训与日常宣传教育相结合，通过广泛调研确定了培训重点内容，为每位学员购买了《国土资源管理法律法规政策选编》、《乡镇村干部国土资源知识读本》，同时还编印了《国土资源宣传图册》人手一册，聘请相关专家和知名学者为学员进行讲解，全市共有16 名县级干部参加了自治区组织的统一培训，市本级先后举办三期培训班对全市136名乡镇干部、四市区409名村干部进行了培训，五个旗县分别对1884名村干部进行了培训，培训率均达到90%以上。通过培训进一步提高了广大基层干部对国土资源在国民经济中的重要地位的认识；明确了各自在管理和保护国土资源的职责；明确了在保护和有序利用国土资源中的基本要求和主要任务，全面提高了保护国土资源的自觉性、主动性和责任感。', '（六）、班子建设发展势头良好，集体决策能力全面提高。局党组班子从今年5月调整以来，就按照建一流班子，带一流队伍，干一流业绩的工作思路，通过在工作中交流思想、相互取长补短，广泛征求加强班子建设的意见和建议，较好地把握了新班子的现状、特点，实现了新班了建设的良好开端和发展。', '一是进一步解放思想，统一认识。党组一班人重点抓了思想建设，组织建设和作风建设，在认真分析总结我们工作中存在的问题和差距后，通过健全学习制度，加强对新知识、新理论的学习，通过强化班子成员的忧患意识、责任意识、法规意识和服务意识，班子成员间较快地实现了思想感情的沟通和理解，解决了一些不想动、不敢动、不能动的问题。', '二是加强了民主集中制建设。在工作实践中，我们“不唯书、不唯上”，既不搞个人说了算，也不搞简单的以量取胜。而是一切从实际出发，从长远出发，从全市经济社会可持续发展出发，从全市国土资源管理工作的实际出发，从不违背自然规律出发，基本形成了适应首府国土资源管理工作需要“首”起来的工作作风和工作方法。', '三是国土资源工作目标基本明确。随着全市启动“十年巨变”工程，给国土资源管理工作既提出了更大挑战也提供了更多的机遇，按部就班、畏首畏尾显然不适应全市经济社会发展的需要，也不适应国土资源工作改革的需要。通过局党组成员赴区内外先进地区的考察学习，通过国土资源工作改革的深入推进，通过对全市经济社会发展规划的进一步了解，基本形成了符合全市经济社会发展需要和国土资源工作改革需要的长远奋斗目标和近期工作规划。实现了班子决策的科学性、前瞻性、准确性、和较强的执行力。', '同时，今年还加强了对测绘工作的管理，对测绘乙资企业进行了年检；加大了对信访案件调查处理；认真开展了土地纠纷调处工作；全面开展了对全社会的国土资源法律知识宣传；党风廉政建设不断推进，治腐抓源头工作成效明显；基层党组织建设不断加强，市属国土资源系统全面建设取得了较大成效。', '今年以来，我市的国土资源管理工作在自治区国土资源厅和市委、市政府的领导和关心下，取得了长足发展，为呼市地区经济社会实现又好又快做出了积极的贡献。但通过我们对全市的国土资源管理工作进行认真思考和深入剖析感到，呼市国土资源管理工作主要存在思想观念滞后，管理手段滞后，基础工作滞后，基层建设滞后，队伍能力素质滞后。', '（一）、联合查处机制虽已形成，执法难、查处难的问题仍然比较突出。虽然市政府对各级政府和相关职能部门在查处和管理国土资源中职责进行了明确，联合执法的长效机制还不健全，执法联合查处合力还不够。再加之，案件查处无论对事还是对人都起不到应有的威慑作用，违法收益远远高于违法成本，造成违法事件屡禁不止。导致今年国土资源执法监察没有摆脱“一家管、多家用”的被动局面，违法率仍然比较高。', '（二）、基础工作薄弱，国土资源管理手段相对滞后。多年来由于缺乏足够的资金等原因，目前的信息化建设工作处于起步阶段，新的规划刚刚提出，管理手段仍然停留在“手工帐本式”管理阶段，资料查阅比较困难。', '（四）、执法监察制度不健全，执法手段落后，查处效果不佳。从执法监察现状看，相关制度还不够健全，执法装备严重滞后（全市执法监察装备共6台车辆，一部摄像机、四部照相机，再无其他装备），处罚执行力不够，单独处罚执行不了的现象比较突出，人员缺少，巡查工任务量较大，直接影响了全市执法监察工作的有效开展。', '（五）、自身建设水平不高，干部队伍整体素质差距较大。2005年国土资源管理体制改革后，内设机构虽作了调整，但一些职能职责不到位，虽履行测绘管理相关工作，但测绘管理职能仍然缺失；人员严重短缺，机关平均每科只有2名工作人员，很难完成繁重的工作任务。干部年龄偏大，结构不合理，局机关科级（含）以下干部共30人，平均47岁，55岁以上的5名，50至54岁的9名，40至49岁11名，35至39岁的5名，35岁以下的没有，梯次配备无法实现。这些客观原因严重影响了各项工作的开展。', '2008年的工作我们初步实现了思想观念的大转变，管理机制的大创新，为做好2009年国土资源管理工作奠定了基础。我们有信心在2009年实现国土资源管理工作的新跨跃。我们要按照上级国土资源部门和市委、市政府的统一要求，严格落实耕地保护目标责任制，合理调整土地供应结构，深化土地市场改革，积极参与宏观调控，全面加强对矿产资源的管理，实现高效有序利用。在此基础上，我们还要重点抓好下面六项工作。', '（一）、大力加强党组班子自身建设，全面提升保护资源与保障发展的能力。力争用2009年一年的时间，通过建设一个奋发有为的领导班子去带动全体干部职工形成一个锐意进取的工作氛围。第一，要强化四种意识。一是要强化危机意识。要通过对全国、全区以及全市国土资源形势的进一步了解，通过对国土资源与粮食安全和国民经济关系的进一步理解，通过对国土资源在参与宏观调控中的重要作用的认识，通过对全市国土资源管理工作与先进地区存在的差距的对比，增强每一位干部职工做好国土资源管理工作的紧迫感。二是要强化责任意识。要充分认识国家对国土资源管理工作提出的新要求，明确各级国土资源管理部门的职能职责，通过细化工作流程，明确每位干部职工所承担的工作责任，真正做到“守土有责”，不断增强做好工作责任感和使命感。三是要强化服务意识。要教育全体干部职工转变观念，改进作风，构建科学高效的办事程序，最大限度方便企业、方便办事人，方便投资者，真正实现由“管理者”向“服务者”的转变。四是要强化争先创优意识。经过近几年的艰苦努力，首府经济社会发展实现了“首起来”的目标，做为国土资源部门也要与首府经济社会的发展相协调、相一致，我们要大但创新，锐意进取，力争使我市国土资源管理工作早日走进自治区前列。形成人人争先，事事创优的工作氛围，对每一件事、每一项工作都要求高标准、严要求。第二，要严格管理，建章立制。根据国土资源领域不断涌现的新情况新问题，进一步完善党组的决策和工作机制，健全集体领导与个人分工负责相结合的具体制度和办法，努力做到科学决策、民主决策。要建立健全内部管理各项制度，用制度管理人、管权、管事，从科学、有效的管理中要效益。第三，要理顺工作机制。要加强与各职能部门的沟通协调，理顺国土资源部门与其他政府部门的关系，积极争取各级政府的理解和支持，形成齐抓共管的局面。要加强与上级业务部门的联系，做到多汇报、多请示、多报告。对下级单位要做到多帮助、多督促、多指导，形成上下贯通、目标一致的工作格局。同时，要理顺班子与科室之间，科室与科室之间，市局与各分局、旗县局的关系，要不断优化干部队伍结构，充实年轻化、知识化的专业人才，要真正把全体干部职工的思想统一到贯彻落实科学发展观的要求上来，理清保护资源与保障发展的工作思路，寻求实践保护资源与保障发展的最佳结合点，切实增强管理国土资源的能力。', '（二）、做好规划修编、提高规划的前瞻性、权威性，发挥规划的龙头作用。2009年，我们将按照《纲要》总体规划目标，修编全市2006—2020年土地利用规划。在修编中，坚持节约资源和保护环境的基本国策，坚持保护耕地和节约集约用地的根本指导方针。加强组织领导，提高土地利用总体规划的法律地位。加强与国民经济和社会发展规划、城市规划、城镇规划及相关行业规划的衔接。要加强对基础资料的收集分析，积极吸纳专家学者以及社会各界的意见和建议，充分考虑全市经济发展速度，为地区经济发展预留用地空间，充分体现规划的前瞻性，实现土地利用与全市经济社会协调发展，不断提高土地资源对经济社会全面、协调、可持续发展的保障能力。结合我市自然和社会经济条件，统筹安排各行各业用地和产业布局，加强各类主体功能区域的土地利用调控，引导城镇用地内部结构调整，提高基础设施用地效率。严格控制新增建设用地规模，加强农村宅基地管理，重点加强对城乡建设用地扩展边界的控制，严格执行保护耕地政策。', '（四）、加强国土所建设，逐步完善国土所职能。全市国土所建设总体规划已经编制完成，2009年底前主要完成国土所建设第一、二步。利用2008年底完成国土所第第一步，制定完成全市国土所建设总体方案，完成国土所定性问题，明确国土所的职能职责和机构性质、编制人数，确定人员的工资待遇等问题。同时完成对国土所人员的第一轮培训。同步完成2009年国土所试点建设方案，试点所的选址，经费筹集等工作。第二步，利用2009年一年时间，根据试点建设方案，市四区完成二分之一的建设任务，各旗县要完成三分之一的建设任务。同步完成全市一半以上国土所的车辆等硬件配置。同时完成对国土所人员的第二轮培训，建立健全国土所的各项制度。', '（五）、完善联合查处机制，加大执法监察力度。2009年我们将通过全面提高人员素质，完善执法监察联合查处长效工作机制，更新执法设备，配置越野巡查车辆、车载和手持GPS定位仪、手提电脑、照相机、摄像机、录音笔等工具。完善相关制度，进一步完善动态巡查制度、基层国土所的报告制度、会审制度、责任追究等制度，建立督察制度，在局机关增设执法督察员，负责对执法科室、执法监察支队以及各旗县区的巡查、查处和执行情况进行监督检查。完善执法监察功能。建立三级巡查网络，加大巡查力度，利用GPS定位仪和现场勘查的方式，每周进行一次全面巡查，对重要地区每三天报告一次情况，对辖区内违法违规情况要即时发现，切实通过有效的管理，利用高科技手段实现巡查工作纵向到底，横向到边，全面遏制各类违法违规行为，使违法率降到全国平均水平以下。', '一是理顺职能。积极向市政府争取测绘管理职能，改变现在只负责工作，无工作职能的现状。申请成立成立呼和浩特市国土资源勘测规划设计研究院，负责国土资源领域的技术研究、技术指导、土地评价、地质环境研究、农田保护、土地开发整理等技术工作。强化信息中心职能，将市国土资源信息中心更名为市国土资源信息院。在原职能基础上增加收集管理全市国土资源信息数据，组织实施国土资源信息社会化服务；开展国土资源领域信息技术服务和研究应用两项职能。', '二是增加人员编制。已向市政府专项申请增加人员编制，达到行政科室平均3人的标准。增加信息工程技术人员和执法监察人员编制，通过公开招考，引进具有五年以上国土资源工作经历的业务骨干，以及硕士以上学位的高层专业人才，全面提高干部队伍的综合素质。', '三是优化干部队伍结构。2009年要对系统干部进行全面轮岗，按照“能者上、平者让、庸者下”的原则，坚持五湖四海，用好的作风把作风最好、能力最强的人选拔到最重要的工作岗位上，全面改进工作中不思进取，得过且过的现状，激发干部队伍的工作激情和创造力。', '四是加大培训力度。2009年要在2008年教育培训的基础上，分期分批对市属国土资源系统各职各类人员进行全面的培训。主要以学习国家有关法律法规、国土资源管理业务知识，学习相关理论知识，同时注重基本能力素质的培训。在培训方法上，主要采取集中办班培训为主，选送部分人员到上级国土资源部门学习为辅，同时通过工作中传帮带，以会代训等方法进行。要建立干部学习、培训档案，使干部培训工作经常化、制度化，通过培训达到思想政治素质全面提升，工作认真负责，积极主动，熟悉工作职责，工作思路清晰，熟悉相关法律和业务知识，熟练掌握工作流程和基本方法，人人能够独当一面。副科长以上人员具备较强的创新工作能力，能独立解决比较复杂的矛盾和问题，创建一支政治坚定、业务精湛、清正廉洁、素质较高、人民满意的国土资源队伍，实现全市国土资源工作大跨跃，朝着全区先进行列的目标迈进。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>25</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>呼和浩特市大数据管理局关于对呼和浩特市第十六届人民代表大会第三次会议第号建议关于加强信息化系统运维水平的建议的答复</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2024-05-29</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/sdsjglj_22438/fdzdgknr_26169/jytablnew/202405/t20240529_1719136.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['呼和浩特市大数据管理局关于对呼和浩特市第十六届人民代表大会第三次会议第100号建议 《关于加强信息化系统运维水平的建议》的答复_ 呼和浩特市人民政府', '呼和浩特市大数据管理局关于对呼和浩特市第十六届人民代表大会 第三次会议第100号建议 《关于加强信息化系统运维水平的建议》的答复', '您提出的《关于加强信息化系统运维水平的建议》收悉。按照分工安排，市大数据管理局为主办单位，经认真研究，结合分办单位市工信局的反馈内容，现答复如下：', '为统筹推动全市信息工作均衡、高效发展，在顶层规划方面我市主要开展了四项工作。一是2020年印发了《呼和浩特新型智慧城市顶层设计方案》，在全面调查分析我市智慧化发展现状及存在问题的基础上，提出了智慧城市建设的总体架构、主要任务及重点工作，有效指导智慧城市建设工作开展；二是自2021年起设立智慧城市专项资金，强化信息化建设资金保障；三是2024年4月17日，市通管办联合市工信局印发了《关于成立呼和浩特市加快边境地区电信基础设施建设及提升5G建设应用水平工作推进组的通知》，加快推动边境地区电信基础设施建设；四是2023年成立呼和浩特市唯一一家国有独资的数字技术领域专业化企业-内蒙古大数据产业发展有限公司，为全市信息化建设工作提供专业技术解决方案。为充分发挥市场经济力量，以呼和浩特的国有高科技企业为主体，联合具有行业和技术优势的企业为全市信息化建设工作提供更好的维保服务和解决方案。', '为确保市本级信息化系统进行集约节约建设，我市于2022年印发了《呼和浩特市智慧城市信息化项目建设管理暂行办法》，明确了信息化项目前期储备、立项审批、中期评估、建成验收、后期评价全流程规范要求，同时在前期发改委评审项目的基础上加入了市大数据管理局技术评审。按照流程安排，累计对青城智慧交管、智慧急救、智慧河湖、公安局互联网+行政审批等10余个项目开展了前置审核，审减资金近2亿元，有效减少了新建项目重复建设大屏、移动终端及数据无法互通共享等问题，确保信息化项目的技术先进性、模式持续性，有效提升了信息化项目建设质效。', '为统一、协同各个部门业务，我市于2024年初启动城市大脑“应接尽接”工作，经5批次推进，目前已接入全市109家单位、337个系统，实现了可接入、可展示、可应用、能协同，做到了层层穿透。应用场景覆盖经济、政务、文化、社会、生态文明五大领域。建成服务全市各层级、各部门的数据共享交换体系，汇集数据42亿条，共享数据24.5亿条，形成了31个部门库，3个基础库，6个专题库，开发数据接口723个，调用5100余万次。', '在解决信息化人才短板方面，目前我市创新开展了三项工作。一是与中科院软件所合作打造“P4”级数据应用实验室，通过与专家院士合作形式，打造一个集科研、科普和人才培养三维一体的数据应用创新基地。此外，结合我市的数字经济产业基础和发展目标，联合我区高校等组建联合实验室或研究院，进行相关技术的攻关和研发，以点带面，支撑我市的数字经济核心产业，支撑数字经济发展；二是由市属全资国有企业内蒙古大数据产业发展有限公司引进行业人才，打破科技人员薪酬待遇“天花板”，贡献大的科技人员的薪酬待遇水平可以超过同职级管理人员。对市场化引进的稀缺高端科技人才，可以采用市场化对标方式，提供具有市场竞争力的薪酬。同时加强信息化学习培训，相关管理人员多次赴上海、福建等信息化发展水平较高地区考察调研，学习管理思维，避免出现重建设，轻运维；重实施、轻规划；重概念、轻功能等问题；三是依托城市大脑面向全市各层级、各部门开展高频次专业技能培训，提升委办局信息化专业水平，自3月初正式运营以来，已累计接待65场共计2198人次。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>25</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>王莉霞在全市党史学习教育工作推进会上强调站在两个维护高度全力推动党史学习教育更加走深走实落细</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2021-05-12</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwgk/2022_ldzc/hhd/ldhd_53123/202203/t20220321_1216588.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['王莉霞在全市党史学习教育工作推进会上强调 站在“两个维护”高度 全力推动党史学习教育更加走深走实落细_ 呼和浩特市人民政府', '王莉霞在全市党史学习教育工作推进会上强调 站在“两个维护”高度 全力推动党史学习教育更加走深走实落细', '5月11日，自治区党委常委、市委书记王莉霞主持召开全市党史学习教育工作推进会，强调要深入学习贯彻习近平总书记在党史学习教育动员大会和在福建、广西考察时的重要讲话精神，认真领会精神实质，准确把握核心要义，不断提高政治判断力、政治领悟力、政治执行力，站在“两个维护”高度，以强烈的政治自觉、昂扬的精神状态、务实的工作作风开展好党史学习教育。', '会议传达学习了习近平总书记在福建、广西考察时的重要讲话精神和全区党史学习教育工作推进会会议精神;通报了全市党史学习教育工作推进情况，部分地区、部门和巡回指导组作了交流发言。', '王莉霞指出，在全党开展党史学习教育，是以习近平同志为核心的党中央作出的重大决策，是中国共产党成立100周年庆祝活动的重要组成部分。全市各地各部门要进一步深化学习习近平总书记在党史学习教育动员大会上指出的“六个进一步”重要要求，按照党中央、自治区党委安排部署，认真梳理总结前一阶段工作，总结和推广好的经验做法，认真对照、全面排查、及时解决存在的突出问题，紧扣任务清、全覆盖、见实效要求，扎实做好各阶段、各环节任务，全力推动党史学习教育更加走深、走实、落细。', '王莉霞强调，要进一步感悟思想伟力，抓好专题学习、示范带头和宣传宣讲，深学笃用习近平新时代中国特色社会主义思想，认真学习好党在内蒙古的历史，从历史必然性中强化爱党爱国意识，进一步铸牢中华民族共同体意识，矢志不渝感党恩、听党话、跟党走，确保学习教育深学深悟。要把好事真正办到群众心坎上，明确计划，明确清单，明确时限，确保为群众办实事有力有效。要全面压实党史学习教育重大政治责任，确保各项工作求实务实，以更加昂扬的精神状态和奋斗姿态建功新时代、奋进新征程。', '会议以视频形式召开，市领导贺海东、曹思阳、张金萍、李炯、云海、吴文明及相关地区和部门负责同志在主会场参加，各旗县区设分会场。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>25</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>关于对呼和浩特市政协十三届二次会议第号提案的答复</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2019-10-18</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/slyhcyj_22428/fdzdgknr_24870/jytablnew/201910/t20191018_944872.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['为贯彻落实“十三五”时期的发展目标，秉承“创新、协调、绿色、开放、共享”的发展理念，深入践行“绿水青山就是金山银山”理论精神。我市自2000年以来大搞生态建设，一方面加大了造林力度，另一方面也加大了自然保护区、湿地和森林公园建设力度。经过林业人十多年艰苦奋斗，截止到2018年底，全市森林面积557万亩，湿地面积61万亩，活立木蓄积760 万立方米，森林覆盖率达到21.5%。森林景观相继显现，石咀子水库、和林沙坝四号湿地公园、李齐沟自然保护区、哈素海湿地自然保护区、乌素图国家森林公园、哈达门国家森林公园、清水河县贾浪沟生态旅游区、大青山绿色生态屏障等，已经具备森林旅游业发展的基础。', '党的“十九大”以来，党中央、国务院强调要落实“健康中国2030战略部署”，着力乡村振兴战略，合理利用林草资源，高质量发展林业产业，实现生态美百姓富的有机统一，深化供给侧结构性改革，创新经营理念和经营方式，满足社会对优质林草产品的需求，探索健康与林业、旅游、健身休闲相融合的新产业、新业态、新模式，提高公众幸福指数。并于2019年5月7日和5月24日分别下发了《关于开展2019“中国森林养生基地”、“中国森林体验基地”、“中国慢生活休闲体验区、村（镇）”申报命名的通知》《关于开展申报2019年全国森林康养基地试点建设单位的通知》。目前，我市清水河和和林格尔县已经有一处“森林康养人家”正在申请、一处“森林康养基地试点”申报成功，标志着我市利用森林景观发展林业产业正在形成。', '森林旅游是依托森林资源为主要自然生态资源的空间区域展开，通过利用对人体健康有益的林分、水土、空气、林下经济产品并通过建设和运营医疗、康复、护理、研学教育、修身养性、体育健身、生态美食、度假观光、历史文化等健康业态为一体森林生态健康体验项目，深化森林旅游产品结构。依托我市现有的森林、湿地资源，大力推进森林旅游业发展，是对森林和湿地资源的有效合理利用，对于推动和实现城乡融合具有积极的重要的意义。', '1、森林旅游非常符合当今林业发展的实际需要，也是我们在今后一个时期内大力推进林业产业化发展的重要方向。我们将按照国家和自治区林业产业发展政策为导向，大力宣传、鼓励我市森林生态本体条件优越的森林经营主体，积极创建森林旅游基地，发展森林旅游产业。同时积极引导社会资本投入森林旅游业，大力开发旅游产品，不断满足人们对美好生活的需求。', '2、大青山沿线属于国家级自然保护区，呼和浩特段内大部分纳入大青山国家级自然保护区内，应按照《中华人民共和国自然保护区条例》和《内蒙古自治区大青山国家级自然保护区条例》进行管理。根据《中华人民共和国自然保护区条例》第十八条规定，自然保护区内保存完好的天然状态的生态系统以及珍稀、濒危动植物的集中分布地，应当划为核心区，禁止任何单位和个人进入；核心区外围可以划定一定面积的缓冲区，只准进入从事科学研究观测活动；缓冲区外围划为实验区，可以进入从事科学试验、教学实习、参观考察、旅游以及驯化、繁殖珍稀、濒危野生动植物等活动。因此，发展我市森林旅游业可在自然保护区的实验区内进行，且应按照保护区总体规划实施。建设性项目审批受林地管制所限，只能在其它适宜发展森林旅游的地区进行娱乐性、健身类项目建设，逐步配置齐全，丰富森林旅游产品结构。其他各级各类自然保护地（湿地、森林公园、地质公园等）旅游建设发展也应按照保护地总体规划稳步推进。', '3、森林旅游区开发一定与国家、自治区及呼市地区的历史文化相衔接，让游人在游乐之际，饱尝各种文化带来的愉乐，让身体和精神一样有获得感。比如和林县南山公园打造的中国钱币发展历史文化等。', '4、建议政府协调林业、金融、卫健、民政、旅游等部门形成合力，争取相关的产业扶持力度，在探索森林旅游产业持续稳定健康发展之路的同时 ，真正把绿水青山转变为金山银山，增强人民生活的获得感、幸福感。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>25</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>孙绍骋到自治区信访局调研并指导开展主题教育车俊一同调研</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2023-06-16</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/ztzl/yhyshj/ldhd/202306/t20230616_1544255.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['6月14日，自治区党委书记孙绍骋到自治区信访局调研信访工作并指导开展主题教育。中央第一指导组组长车俊、副组长李小三一同调研。', '信访工作是了解社情民意的重要窗口，孙绍骋专门选择自治区信访局作为他的主题教育联系点。当日上午9时，孙绍骋来到自治区信访局，首先走进信访接待大厅详细了解接访流程，并现场模拟体验群众反映问题受理的便捷程度。随后，他走进各接访室察看接访情况，并详细询问工作人员每天接访多少人、群众反映最多的问题是什么等。孙绍骋还了解了网络信访和疑难复杂信访事项化解办理情况。', '在听取自治区信访局和第五巡回指导组的情况介绍后，孙绍骋说，当前全区信访形势总体平稳有序，但抓信访工作的弦一刻也不能松。要紧密结合开展主题教育，紧密结合学习贯彻习近平总书记考察内蒙古时的重要指示精神，深学笃用习近平总书记关于加强和改进人民信访工作的重要思想，学好用好“枫桥经验”、“浦江经验”，进一步做好信访工作，切实把以人民为中心的发展思想落到实处。他提出四点要求：一是信访工作是送上门来的群众工作，一定要从政治的高度看待信访工作，善待每一位上访群众，能办的马上办，越快越好。二是强化“有解思维”，下大气力化解信访突出问题，着力提升初信初访一次性化解质效，扎实推进化解信访积案常态化。三是大力实行信访代办制，做好网上信访工作，更多依靠机制的力量提升信访工作质效。信访代办，代是手段，办是目的，一定要紧紧围绕“案结事了”真心实意地为群众服务。四是把责任发条拧得紧紧的，拿出抓铁有痕、踏石留印的劲头，敢于啃“硬骨头”、办“钉子案”。', '孙绍骋说，自治区信访局的主题教育开展得有质量有成效，要深入落实习近平总书记关于主题教育的重要指示要求，多办实事、多出成果，把理论学习、调查研究、推动发展、检视整改、建章立制不断引向深入。对发现的问题要立行立改，坚决杜绝形式主义、官僚主义。自治区领导于立新参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>25</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>市委常委会召开会议传达学习贯彻习近平总书记重要讲话精神</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2023-04-17</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650091137&amp;idx=2&amp;sn=d5f2509cc170e32922940cdbabc0b783&amp;scene=0</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '4月16日，自治区党委常委、市委书记包钢主持召开市委常委会会议，传达学习习近平总书记在广东考察时的重要讲话精神，传达学习全国巡视工作会议暨二十届中央第一轮巡视动员部署会议精神和十一届自治区党委第二轮巡视工作动员部署会议精神，研究部署贯彻落实工作。', '会议强调，要认真学习领会习近平总书记在广东考察时的重要讲话精神，结合首府实际，不折不扣抓好贯彻落实。要加快建设以实体经济为支撑的现代化产业体系，对照项目、投资“双千”目标，围绕全产业链狠抓招商引资、项目建设和园区发展，扎实推动“六大产业集群”延链补链强链，推进产业集群链式化发展。要进一步强化国有企业管理，对闲置资产、烂尾楼盘等进行全面清理，盘活国有资产，提高企业经营能力。要提升服务业发展质效，把夜经济、老字号、大型商业综合体等业态做起来，把首府人气聚起来、消费带起来，让城市更有烟火气。要充分发挥首府创新资源集聚的优势，加快建设国家乳业技术创新中心，积极申报国家级草(种)业技术创新中心等创新载体，落实好“十万大学生留呼”工程，持续提升首府科技创新能力。要加强生态保护，扎实推进中央环保督察反馈问题整改，深入推进黄河流域、大青山生态环境治理，不断巩固国家生态文明建设示范市创建成果。要全面推进乡村振兴，统筹抓好乡村发展、建设和治理，坚定不移推进共同富裕。要认真落实党中央关于开展主题教育的部署要求，持续在“以学铸魂”中筑牢根本，引导广大党员干部更加坚定自觉用习近平新时代中国特色社会主义思想凝心铸魂、指导实践、推动工作。', '会议强调，要认真落实党中央关于巡视工作的新部署新要求，全力抓好巡视整改，不断深化以巡促改、以巡促建、以巡促治。要坚决贯彻自治区党委巡视工作部署要求，自觉接受巡视监督，全力配合好巡视工作。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>25</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>月至月大事记</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2019-05-23</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/hhht_zfgb/hhht/2015/dlq/201905/t20190523_435040.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['1、代市长主持召开市长办公会议，听取“十三五”规划编制情况汇报。代市长指出:我市“十三五”规划编制报告要紧扣全面实现小康社会的总目标，根据各有关部门提出的建议，认真修改，尽快完善;“十三五”规划要体现2020年在2010年的基础上实现两个翻番，在现有基础上到“十三五”实现全面脱贫;我市“十三五”规划要亮点突出、特色鲜明。市委副书记、政法委书记于立新，副市长狄瑞明，市人大常委会副主任鲁剑钧，副市长刚布和，经济技术开发区主任吴志强，市政府秘书长罗琳和市有关部门负责人参加了会议。', '3、孙建华副市长主持召开会议，研究自治区发改委发展小区办理房产证;向金谷银行申请公租房项目贷款;建筑职工教育中心注销固定资产回迁解决办公用房;研究海亮广场历史遗留问题;研究富邦综合楼消防验收有关事宜。', '4、孙建华副市长主持召开会议，研究拆除占压燃气管道建筑物、构筑物有关事宜及部署轨道交通建设项目近期工作任务。', '8、刚布和副市长分别召集玉泉区、赛罕区研究我市重点商贸流通企业纳入限上企业库事宜。', '2、孙建华副市长主持召开会议，听取城建系统“勇于担当、攻坚克难”各项工作进展情况汇报。', '6、刚布和副市长分别召集新城区、回民区研究我市重点商贸流通企业纳入限上企业库事宜。', '2、孙建华副市长主持召开会议，研究回购新华大街广播电视大院、解决青山乳品厂改造项目遗留问题、建设工程交易项目招标资格审查继续实行资格后审的方式等有关事宜。', '4、王恒俊副市长参加市人大常委会对全市城镇职工基本医疗保险工作专项评议调查动员大会。', '1、狄瑞明副市长参加市四区、经济技术开发区“十个全覆盖”工程建设暨农村产业发展观摩推进会。', '2、孙建华副市长主持召开会议，研究减免自治区自然博物馆项目城市建设配套费、湿地公园北路征拆、呼准鄂铁路立交雨水泵站迁改和土地征收、裕隆工业园区市政基础设施移交相关事宜。', '3、白金祥副市长参加自治区综合治理严厉打击非法境外电视网络接收设备专项整治行动电视电话会议。', '1、代市长、王恒俊副市长对回民区寅龙供热企业、回民区奈林尚苑工地、金川南区雨污分流及周边企业污水接入、班定营污水处理厂、金山电厂至章盖营污水处理厂再生水管网未接通处及小黑河污水排放、章盖营污水处理厂、辛辛板污水处理厂、盛乐园区污水处理厂等相关情况进行实地调研，市政府办公厅、城乡建设委、环保局、水务局、城管执法局、经济技术开发区、金川开发区、回民区、玉泉区、和林县、春华水务公司等相关部门负责同志参与调研。', '5、孙建华副市长听取轨道交通1、2号线前期工作开展情况及42个站口地上征拆范围等有关事宜。', '1、代市长主持召开市长办公会议，专题研究全市物流配送和快递业发展有关事宜。会议听取了市商务局、城管执法局、交警支队关于全市物流配送、占道经营专项整治和非法运营三轮车专项整治进展情况的汇报，听取了呼和浩特铁路局、内蒙古食全食美集团关于各自物流配送运营情况的汇报，并对当前全市物流配送和快递业发展中存在的问题进行了深入探讨，对下一步工作进行了研究部署。会议指出，违法违章渣土车辆、违法运营三轮车严重影响正常的交通秩序，易引发道路交通事故、对人民群众生命财产安全造成了重大威胁。市委、市政府开展对违法违章车辆的专项整治，是一项体民情、顺民意，为群众创建安全出行环境的民生工程，是全面推进依法治市、依法规范道路交通秩序的重要举措。会议认为，物流业作为我市服务业的重要组成部分，市委、市政府始终把支持物流配送和快递业发展作为重要工作来抓。随着物流配送和快递业的快速发展，在繁荣市场经济、为人民群众生活带来便利的同时，诸如配送车辆无牌照运营、配送人员无证驾驶引发交通事故等问题时有发生，加强对物流配送和快递业发展的规范管理刻不容缓。全市各级各部门要进一步统一思想、坚定信心，敢于担当，勇于攻坚，对于影响城市交通秩序的违法运营行为要常抓不懈、依法打击，对于当前物流配送和快递业发展存在的问题要深入研究，妥善解决。会议要求，一是对全市物流配送行业进行深入调研。市商务局牵头，市邮政管理局、发展改革委、工商局等相关部门参与，组成联合调研组，深入全市各物流企业，进一步摸清现有物流企业配送网点布局、物流配送车辆类型及数量、企业运营模式及经营项目等具体情况，找准制约行业发展的问题根源，提出具体解决措施。二是进一步建立商贸物流业规范管理的长效机制。市商务局要结合调研成果，研究制定鼓励支持商贸物流业及快递业健康有序发展的相关政策和实施意见。市商务局要协调呼和浩特海关，采取有效措施，进一步规范和促进跨境商贸物流业发展。市邮政管理局要从行业监管职能出发，根据快递业长远发展和行业生产安全的要求，尽快制定全市快递业配送车辆合法运营的具体管理办法。三是加强对快递业从业人员的培训。市邮政管理局牵头，市各快递企业参与，尽快制定快递工作人员从业标准，及时组织工作人员进行专业培训，强化从业人员专业水平。四是加大对占道经营行为的整治。市城管执法局要加强人员力量，进一步加大对占道经营行为的清理整治力度。同时，要积极引导占道经营商贩进入便民市场开展经营活动。呼和浩特铁路局、中国邮政集团公司呼和浩特分公司、内蒙古食全食美集团等部分企业负责人和我市有关部门负责人参加了会议。', '7、刚布和副市长带队赴杭州学习考察城市配送和快递管理的模式和方法，并与杭州市政府、发改委、商务委、经信委等有关部门座谈。', '2、孙建华副市长听取新城区19中西巷燃气泄漏事故的情况汇报，部署全市燃气使用安全大排查、大整治行动。', '孙建华副市长主持召开会议研究轨道交通建设有关事宜。下午，1、主持召开会议听取轨道交通第二轮建设规划方案比选汇报。2、主持召开会议研究部署申请国开行专项基金有关事宜。', '1、代市长主持召开市长办公会议，听取昭君博物院品牌景区提升改造进展情况汇报。代市长指出:要尽快成立由代市长为组长，副市长白金祥、市政府党组成员刘敏为副组长的昭君博物院品牌景区提升改造领导小组，领导小组办公室设在昭君文化旅游区建设指挥部;涉及文化、文物、供电、土地征拆及资金运作方面的工作由白金祥副市长负责，其它工作由市政府党组成员刘敏负责;所有设计工作要在春节前完成，所有开工前手续办理工作由指挥部在开工前完成，同时要倒排工期、明确责任人;规划局要控制昭君博物院景区周边建筑的产业功能;各有关部门要高度重视、通力配合，确保在2017年5月1日前投入使用。副市长白金祥，市政府党组成员刘敏和市有关部门负责人参加了会议。参加敕勒川文化研究会赠书仪式，敕勒川文化研究会会长伏来旺，市委常委、市委宣传部长王雪峰，市人大常委会副主任付东海，副市长白金祥，市政协副主席孙清宾，市政府办公厅主任刘月平及市有关部门负责人参加。', '3、孙建华副市长赴自治区参加关于国务院大督查复核会议;主持召开会议，研究安排部署轨道交通1、2号线征拆工作;听取轨道交通1、2号线一期工程初步设计工作汇报。', '4、市发改委累计争取国家专项建设资金15.82亿元，共涉及18个项目，资金分三批已下达。', '市发改委累计争取国家专项建设资金15.82亿元，共涉及18个项目，资金分三批已下达。', '3、孙建华副市长主持召开会议，研究国际蒙医院项目进展情况、爱民街城北环卫作业场站建设项目成本、尖峰房地产公司“燕莎玫瑰园二期”土地挂牌手续、拨付东二环高压线走廊带(一家村段)征地款等有关事宜;主持召开城建项目协调会，听取地下空间综合利用方案、城市地下管网综合管理解决方案、地下管线普查工作情况、东客站北广场设计方案等汇报并就海亮广场历史遗留问题进行了专题研究。', '5、刚布和副市长赴通辽市参加自治区推进商贸流通现代化暨农村牧区电子商务工作现场会。', '7、我市交通运输“十三五”规划计划投资283亿元，建设客运场站6个，其中市区内2个，各旗县4个，建设货运场站2个，水运码头1个，以及其他惠及民生的交通建设若干。', '2、王恒俊副市长参加自治区教育厅对我市教育领域重要指标和任务完成情况督查汇报会;主持召开专题会议，研究部署清理“吃空饷”和“临时工”以及近年招考教师遗留问题。', '4、全自治区新三板挂牌企业共计20家，我市占比50%，挂牌企业数量位居自治区首位。', '1、代市长主持召开市长碰头会，安排部署12月份重点工作。代市长指出:市政府办公厅和发改委要按照2016年人代会召开的时间节点要求，《政府工作报告》和《“十三五”规划纲要》要在12月底前完成，报政府常务会审定;由市农工委和发改委牵头在12月底前完成扶贫攻坚实施方案和易地扶贫搬迁方案，方案要明确呼市在全区率先脱贫，2017年全面完成农村贫困人口脱贫工作，2018-2020年巩固提高、稳定脱贫达小康;棚户区改造、打通断头路、老旧小区改造、大黑河改造、地铁、机场搬迁、地下综合管廊等城市建设工作，各有关部门要尽快完善2016年开工前期各项手续办理工作，市政府各分管副市长要每月调度一次，要倒排工期，加快推进;2015年各项任务指标要退出后三名，各项指标要进入第一序列。副市长狄瑞明、孙建华、白金祥、刚布和，市政府党组成员刘敏，市政府秘书长罗琳及市有关部门负责人参加了会议。', '2、狄瑞明副市长研究平安呼和浩特方案;会见内蒙古浪潮集团董事长宫明祥一行;赴国资委调研。', '3、孙建华副市长接待国家土地督查北京局副巡视员张军民一行，并汇报我市不动产职责机构整合、闲置用地整改情况。', '5、白金祥副市长参加全市食品生产企业质量安全暨食品加工小作坊食品摊贩监管工作推进会。', '2、孙建华副市长主持召开城建项目协调会，研究内蒙古科技大厦项目规划验收、玉锦轩项目土地问题、师范大学鸿德学院建设塔利新校区和足球训练基地选址等有关事宜。', '3、白金祥副市长参加自治区标准化工作考核组汇报会;陪同自治区标准化工作考核组视察。', '1、狄瑞明副市长陪同国家质检总局副局长、国家认监委主任孙大伟一行调研考察。', '1、狄瑞明副市长听取研究购买新城宾馆商业楼改变用于市政务中心、公共资源交易中心有关事宜。', '3、孙建华副市长参加市委、市政府与中国农业发展银行副行长鲍建安一行召开座谈会，洽谈项目融资贷款事宜。', '7、自治区下达我市2015年战略性新兴产业发展专项资金1800万元，我市争取资金数占自治区资金总额10%。', '1、孙建华副市长主持召开会议，听取2016年道路、桥梁、市政基础设施工作安排及研究公租房项目完善配套基础设施有关事宜。', '1、白金祥副市长参加新年音乐会工作协调会;主持召开严厉打击非法境外电视网络接收设备专项整治行动会议。', '5、国道209线武川至呼和浩特段公路大青山隧道及引线开工建设，全线采用一级公路标准建设，项目全长约26公里，总投资9.64亿元。', '2、孙建华副市长陪同全国和自治区十二届人大代表视察我市快速路建设、大盛魁、大召塞上老街、昭君博物院景区改造等项目情况。', '4、王恒俊副市长参加全区机关事业单位养老保险制度改革工作电视电话会议;参加自治区对我市农民工工资支付专项检查汇报会。', '1、狄瑞明副市长参加市政协围绕我市制定“十三五”规划建言献策专题议政会;参加2015年旗县区、开发区党委(党工委)书记抓党建述职评议会议。', '4、白金祥副市长参加自治区卫计委检查组考核工作汇报会;主持召开我市国家公共文化服务体系示范区创建及长城保护工作会议。', '8、国家发改委获准内蒙古金隆工业园区开发有限公司发行2015年公司债券，共计发行债券6亿元，期限7年，采用固定利率形式，单利按年计息。', '4、12月14日，在人民网人民微博“对话官微”推出的《全国政务微博办实事排行榜》第70期榜单中，“@呼和浩特发布”政务微博获得最佳回复账号季军。', '2、狄瑞明副市长参加全市各民主党派调研成果交流会;主持召开全市易地扶贫搬迁工作协调会。', '3、孙建华副市长主持召开会议，研究回迁房、公租房、经适房项目基础设施配套相关事宜;断头路立项审批事宜;听取公租房项目手续办理及全市房地产开发项目基本情况的汇报。', '1、狄瑞明副市长主持召开重点信访事项工作会议，研究“e租宝”等重点信访事项;主持召开会议，研究全市防范金融风险事宜，刚布和副市长一同参加。', '3、王恒俊副市长主持召开全市军转干部安置工作会议;主持召开专题会议，研究市科创中心建设事宜。', '2、白金祥副市长听取2016年呼和浩特新年音乐会和2016年元宵节文化活动安排情况汇报。', '5、国家发改委发出《关于完善陆上风电光伏发电上网标杆电价政策的通知》，适当降低新建陆上风电和光伏发电上网标杆电价。', '10、我市蒙羊牧业、中环光伏材料、吉宏印刷包装等3家企业被选为自治区两化融合贯标试点企业。', '3、伊利集团发起的儿童安全公益项目“伊利方舟”荣获“2015年度中国社会责任公益典范奖”。', '1、代市长主持召开市政府第18次常务会议，一是听取2016年主要指标安排情况汇报;二是安排部署近期重点工作。1、安排部署“勇于担当，攻坚克难”工作任务。2、围绕中央经济工作会议五大任务要求，制定去产能、去库存等一系列专项实施方案。3、全委扩大会议前需听取相关工作汇报;三是研究深化国有企业改革方案、分类统一监管、薪酬制度改革方案和经营业绩考核办法;四是审议《呼和浩特市城镇燃气安全管理办法》;五是审议《呼和浩特市永久性基本农田划定方案》;六是审议《呼和浩特市棚户区(城中村)改造专项贷款还本付息实施办法》;七是审议《呼和浩特市重大行政决策程序规定(草案)》。副市长狄瑞明、白金祥、王恒俊、刚布和，市政府党组成员刘敏、市政府秘书长罗琳、旗县区及相关部门负责人参加了会议。', '2、王恒俊副市长现场指挥市二中西校区氰化银药剂瓶破碎泄露处置工作;主持召开分管部门2016年重点工作和重点项目汇报会。', '4、自治区筹划出台粉煤灰综合利用政策，自治区发改委就推进我市托克托县大唐粉煤灰综合利用项目等工作进行了安排部署。', '6、市国土资源局突出重点严守红线节约集约取得了新进展，“十二五”期间实现耕地保有量56.65万公顷，占全市面积的32.89%，基本农田保护面积46.8万公顷，占耕地保有量的82.61%。耕地质量和数量得到了双提升。', '7、北方物流总部基地目前建筑面积8万m2的物流商品交易大厅已投入运营，年交易额达到8500万元，实现年税收500万元。', '3、白金祥副市长参加马头琴博物馆开馆仪式;参加自治区医疗服务价格规范调整工作调度会。', '7、国家发改委、住建部、财政部等三部委在北京召开评审会，托县获评国家循环经济示范城市(县)。', '3、王恒俊副市长主持召开全市清理拖欠农民工工资专题会议，进一步研究部署农民工工资清欠工作，确保春节前农民工工资基本无拖欠。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>25</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>习近平深入贯彻新发展理念主动融入新发展格局在新的征程上奋力谱写四川发展新篇章</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2022-06-10</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tt_1/202206/t20220610_1306159.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['习近平：深入贯彻新发展理念主动融入新发展格局 在新的征程上奋力谱写四川发展新篇章_ 呼和浩特市人民政府', '新华社成都6月9日电 中共中央总书记、国家主席、中央军委主席习近平近日在四川考察时强调，要坚决贯彻党中央决策部署，弘扬伟大建党精神，坚持稳中求进工作总基调，完整、准确、全面贯彻新发展理念，主动服务和融入新发展格局，统筹疫情防控和经济社会发展，保持经济稳定发展，保持社会大局稳定，推动治蜀兴川再上新台阶，在全面建设社会主义现代化国家新征程上奋力谱写四川发展新篇章，以实际行动迎接党的二十大胜利召开。', '6月8日，习近平在四川省委书记王晓晖、省长黄强陪同下，先后来到眉山、宜宾等地，深入农村、文物保护单位、学校、企业等进行调研。', '6月8日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是8日上午，习近平在眉山市东坡区太和镇永丰村考察时，同村民们亲切交流。新华社记者 申宏 摄', '6月1日，四川雅安发生6.1级地震，习近平当即作出重要指示，要求四川省委和省政府全力做好抢险救灾，安抚遇难者家属，及时救治受伤群众，安排好受灾群众生活，注意防范次生灾害，抓好灾后重建，尽快恢复正常生产生活秩序。中央有关部门立即启动国家地震三级应急响应，四川省委和省政府迅速组织开展抗震救灾工作，抢通生命通道，全力以赴做好伤员救治工作，及时转移和安置受灾群众。目前灾区群众绝大多数已返回家园，四川终止了省级地震三级应急响应，转入恢复重建阶段。', '考察期间，习近平十分牵挂受伤人员的救治和灾区人民生产生活，详细了解抗震救灾进展情况，叮嘱四川省委和省政府继续做好伤员救治，加强受灾群众心理疏导，做好遇难者善后处理及其家属安抚工作，稳妥安置受灾群众，保障基本生活物资供应。要做好恢复重建规划，抓紧实施，帮助受灾群众尽早恢复正常生产生活。', '8日上午，习近平来到眉山市东坡区太和镇永丰村考察调研。永丰村依托水稻产业和技术优势，建成了全省规模最大的水稻新品种新技术中试基地。在高标准水稻种植基地，习近平听取村整体情况介绍，对他们坚持粮食种植助力保障国家粮食安全的做法表示肯定。习近平强调，成都平原自古有“天府之国”的美称，要严守耕地红线，保护好这片产粮宝地，把粮食生产抓紧抓牢，在新时代打造更高水平的“天府粮仓”。', '6月8日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是8日上午，习近平在眉山市东坡区太和镇永丰村高标准水稻种植基地考察，了解水稻试验育种和种植推广情况。新华社记者 谢环驰 摄', '习近平走进试验田，察看水稻长势。农技人员向总书记介绍水稻试验育种和种植推广情况。习近平指出，水稻良种育种周期长，需要反复试验筛选，我国广大农业科技工作者付出了艰辛努力，为保障国家粮食安全、确保老百姓丰衣足食作出了重要贡献，功不可没。推进农业现代化，既要靠农业专家，也要靠广大农民。要加强现代农业科技推广应用和技术培训，把种粮大户组织起来，积极发展绿色农业、生态农业、高效农业。我们有信心、有底气把中国人的饭碗牢牢端在自己手中。', '习近平十分关心推进乡村振兴情况。他步行察看永丰村污水处理池和村容村貌，考察村卫生站，详细了解该村改善人居环境、做好农村疫情防控等情况。习近平强调，乡亲们吃穿不愁后，最关心的就是医药问题。要加强乡村卫生体系建设，保障好广大农民群众基本医疗。要把党的基层组织建设好，团结带领乡亲们脱贫之后接续推进乡村振兴。', '离开村子时，总书记同村民们亲切道别。习近平对乡亲们说，中国共产党执政，就是要把中国特色社会主义事业一步步向前推进，全心全力把老百姓的事一件一件办好，让老百姓过上更加美好的生活。', '在眉山市中心城区，坐落着北宋著名文学家苏洵、苏轼、苏辙父子三人的故居三苏祠。习近平来到这里，了解三苏生平、主要文学成就和家训家风，以及三苏祠历史沿革、东坡文化研究传承等。习近平指出，中华民族有着五千多年的文明史，我们要敬仰中华优秀传统文化，坚定文化自信。要善于从中华优秀传统文化中汲取治国理政的理念和思维，广泛借鉴世界一切优秀文明成果，不能封闭僵化，更不能一切以外国的东西为圭臬，坚定不移走中国特色社会主义道路。家风家教是一个家庭最宝贵的财富，是留给子孙后代最好的遗产。要推动全社会注重家庭家教家风建设，激励子孙后代增强家国情怀，努力成长为对国家、对社会有用之才。党员、干部特别是领导干部要清白做人、勤俭齐家、干净做事、廉洁从政，管好自己和家人，涵养新时代共产党人的良好家风。', '6月8日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是8日下午，习近平在宜宾市三江口考察，听取当地推进长江流域生态修复保护等情况汇报。新华社记者 李学仁 摄', '8日下午，习近平来到宜宾市考察。长江、金沙江、岷江在宜宾市主城区交汇，形成了三江汇流的壮阔景象。宜宾依水而建，有“万里长江第一城”的美誉，经过多年持续整治，三江六岸的岸线更美了，变成了人民群众喜爱的亲水岸线公园。习近平来到三江口，眺望三江交汇处，听取当地推进长江流域生态修复保护、实施长江水域禁捕退捕等情况介绍。习近平指出，保护好长江流域生态环境，是推动长江经济带高质量发展的前提，也是守护好中华文明摇篮的必然要求。四川地处长江上游，要增强大局意识，牢固树立上游意识，坚定不移贯彻共抓大保护、不搞大开发方针，筑牢长江上游生态屏障，守护好这一江清水。', '6月8日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是8日下午，习近平在宜宾学院考察时，向正在参加企业招聘宣讲会的教师、学生、企业负责人了解企业招工需求和毕业生签约率等情况。新华社记者 李学仁 摄', '今年我国高校毕业生预计达1076万人，同比增加167万人，创历史新高。习近平十分关心高校毕业生就业情况，来到宜宾学院考察调研，察看毕业生创新创业代表作品展示，了解学校开展就业创业指导服务工作。学校招聘大厅内，正在举行企业招聘宣讲会，习近平向教师、学生、企业负责人了解企业招工的需求和毕业生签约率等情况。习近平强调，党中央高度重视高校毕业生就业，采取了一系列政策措施。当前正是高校毕业生就业的关键阶段，要进一步挖掘岗位资源，做实做细就业指导服务，学校、企业和有关部门要抓好学生就业签约落实工作，尤其要把脱贫家庭、低保家庭、零就业家庭以及有残疾的、较长时间未就业的高校毕业生作为重点帮扶对象。习近平对同学们说，幸福生活是靠劳动创造的，大家要保持平实之心，客观看待个人条件和社会需求，从实际出发选择职业和工作岗位，热爱劳动，脚踏实地，在实践中一步步成长起来。他勉励同学们自觉践行社会主义核心价值观，努力做到德智体美劳全面发展。', '6月8日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是8日下午，习近平在宜宾学院考察时，向师生们挥手致意。新华社记者 李学仁 摄', '随后，习近平考察了极米光电有限公司。他走进公司展厅和生产车间，了解企业加强自主创新、产品研发销售、带动就业和当地支持民营经济发展、出台纾困帮扶政策等情况。习近平强调，推进科技创新，要在各领域积极培育高精尖特企业，打造更多“隐形冠军”，形成科技创新体集群。', '6月8日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是8日下午，习近平在宜宾市极米光电有限公司考察，了解企业自主创新和产品研发销售情况。新华社记者 谢环驰 摄', '在车间外广场上，习近平同企业员工们亲切交流。习近平强调，我国是制造大国，要努力提高自主创新能力，加快向制造强国转变。中国要强大，各领域各方面都要强起来。全面建设社会主义现代化国家，实现中华民族伟大复兴，前途是光明的，道路是曲折的，还会面临许多激流险滩，要勇于迎接各种风险挑战。天上不会掉馅饼，一切成就都要通过我们共同拼搏来取得。大家都是“80后”、“90后”，正当其时，要有事业心、责任感，努力奋斗，到本世纪中叶全面建成社会主义现代化强国之时，大家一定会为“强国圆梦、功成有我”而感到自豪。', '6月8日，中共中央总书记、国家主席、中央军委主席习近平在四川考察。这是8日下午，习近平在宜宾市极米光电有限公司车间外广场，同企业员工们亲切交流。新华社记者 李学仁 摄', '考察途中，习近平指出，当前，各地区各部门要坚决贯彻党中央决策部署，坚持稳中求进工作总基调，全面做好改革发展稳定各项工作，努力保持平稳健康的经济环境、国泰民安的社会环境、风清气正的政治环境，为党的二十大召开营造良好氛围。要高效做好统筹疫情防控和经济社会发展工作，坚决克服目前经济发展面临的一些困难，做好就业、社会保障、贫困群众帮扶等方面的工作，做好维护社会稳定各项工作，保持人心稳定，保持社会大局稳定。坚持就是胜利，要毫不动摇坚持“动态清零”总方针，坚定信心，排除干扰，克服麻痹思想，抓紧抓实疫情防控重点工作，坚决巩固住来之不易的疫情防控成果。', '习近平强调，近期，我国一些地方发生洪涝地质灾害。各有关地区和部门要立足于防大汛、抗大险、救大灾，提前做好各种应急准备，全面提高灾害防御能力，切实保障人民群众生命财产安全。要加强统筹协调，强化灾害隐患巡查排险，加强重要基础设施安全防护，提高降雨、台风、山洪、泥石流等预警预报水平，加大交通疏导力度，抓细抓实各项防汛救灾措施。灾害发生后，要迅速组织力量抢险救灾，严防次生灾害，最大限度减少人员伤亡和财产损失。要在做好抢险救灾工作的同时尽快恢复生产生活秩序，扎实做好受灾群众帮扶救助和卫生防疫工作，防止因灾返贫和“大灾之后有大疫”。', '9日上午，习近平在成都亲切接见驻蓉部队大校以上领导干部和建制团主官，代表党中央和中央军委，向驻蓉部队全体官兵致以诚挚问候，并同大家合影留念。许其亮陪同接见。', '6月9日上午，中共中央总书记、国家主席、中央军委主席习近平在成都亲切接见驻蓉部队大校以上领导干部和建制团主官，代表党中央和中央军委向驻蓉部队全体官兵致以诚挚问候。新华社记者 李刚 摄']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>25</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>市委召开全市领导干部会议</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650093382&amp;idx=2&amp;sn=3d3098f0ce9f1d3a4df853483c98e4a7&amp;scene=0</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '传达学习习近平总书记考察内蒙古时的重要讲话、在加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会上的重要讲话、在内蒙古调研边境管控和边防部队建设情况时的重要讲话', '6月10日，市委召开全市领导干部会议，传达学习习近平总书记考察内蒙古时的重要讲话、在加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会上的重要讲话、在内蒙古调研边境管控和边防部队建设情况时的重要讲话，部署学习宣传贯彻工作。自治区党委常委、市委书记包钢主持会议并讲话。', '会议指出，在全面学习贯彻党的二十大精神的开局之年、深入开展主题教育的关键时刻，习近平总书记亲临内蒙古考察并发表重要讲话，这是内蒙古发展进程中具有里程碑意义的大事，充分体现了习近平总书记对内蒙古各族人民的深情关怀和对内蒙古工作的高度重视。这期间，习近平总书记到呼和浩特市中环产业园考察，鼓励我们要靠高水平科技自立自强、构建新发展格局来攻克科技难关，继续努力，更上一层楼，让全市各族干部群众倍感振奋、备受鼓舞。', '会议强调，习近平总书记的重要讲话，高屋建瓴、思想深邃，系统全面、内涵丰富，具有极强的政治性、指导性、针对性，是做好首府各项工作的科学理论指引和根本行动遵循。全市各级党组织和广大党员干部一定要站在拥护“两个确立”、做到“两个维护”的高度，深刻领会习近平总书记重要讲话的核心要义，全力推动现代化区域中心城市建设，确保首府各项事业始终沿着习近平总书记指引的方向阔步前进。要准确把握“加快优化产业结构”的重要要求，保持大抓产业的鲜明导向，培育壮大“六大产业集群”，抓好项目、投资“双千”工程，全力推动产业集群链式化发展。抢抓新一轮新能源、新材料发展机遇，延伸产业链，持续做大做强中环产业园，瞄准半导体单晶硅国产化进行科技攻关，努力突破“卡脖子”核心技术难题。主动融入和服务新发展格局，积极参与共建“一带一路”和中蒙俄经济走廊建设，推动并融入“四大经济圈”，在联通国内国际双循环中发挥更大作用。要准确把握“把生态环境保护挺在前头”的重要要求，把筑牢我国北方重要生态安全屏障作为必须牢记的“国之大者”，以推进中央环保督察反馈问题整改为抓手加强生态环境保护和污染防治工作。坚决打赢黄河“几字弯”攻坚战，加快推进黄河河道综合整治，深入抓好沿黄生态廊道建设、哈素海生态治理、大黑河河道生态修复治理和水系连通等工程。持续深化“五个大起底”行动，深入推进能源、土地、水、粮食、行政资源等各领域节约，尽快在节水上见到明显成效。要准确把握“扎实推动共同富裕”的重要要求，实打实地为民办事、为民造福。加快实施国家公共就业服务提升示范项目，深入推进“十万大学生留呼”工程。打造区域教育医疗中心，全力推动教育高质量发展，深入实施公立医院改革与高质量发展三年行动。持续巩固脱贫攻坚成果，因地制宜推进乡村振兴和农村人居环境整治。要准确把握“铸牢中华民族共同体意识”的重要要求，深入开展铸牢中华民族共同体意识宣传教育，巩固好全国民族团结进步示范市创建成果，持续开展民族团结进步示范县、示范单位创建工作。扎实做好推广使用国家通用语言文字等工作。深化嵌入式社会结构和社区环境建设，广泛开展“结对子”“手拉手”等联谊活动，创造更加完善的各族群众共居共学、共建共享、共事共乐的社会条件。要认真落实习近平总书记关于开展好主题教育的重要要求，对照以学正风的重要论述，大兴务实之风，弘扬清廉之风，养成俭朴之风，坚决整治形式主义、官僚主义问题，不断转作风、严纪律、树新风，切实以风清气正的良好政治生态保障各项工作落实。', '会议强调，要坚决贯彻习近平总书记关于“打一场‘三北’工程攻坚战，把‘三北’工程建设成为功能完备、牢不可破的北疆绿色长城、生态安全屏障”的重要要求，统筹山水林田湖草沙综合治理。要精心谋划好京津风沙源治理、“三北”防护林六期等项目，积极推进大青山生态综合治理、敕勒川草原生态提升等工程。要摸清全市林草资源底数，加强林草资源保护与开发利用，让群众享受到生态文明建设的成果。', '会议强调，学习宣传贯彻习近平总书记重要讲话精神是当前全市上下的首要政治任务。要入脑入心抓学习，组织广大党员干部把学习习近平总书记此次考察内蒙古重要讲话与学习习近平总书记历次关于内蒙古工作的重要讲话精神结合起来，与学习贯彻习近平新时代中国特色社会主义思想和党的二十大精神结合起来，真正学深悟透、知行合一。要见行见效抓宣传，切实把习近平总书记对内蒙古的深情关怀传达到每一个基层党组织和每一名党员干部、传递给每一名群众，做到家喻户晓、深入人心。要全面细致抓落实，各级领导干部要扛起责任、主动作为，紧密结合首府实际，将习近平总书记重要讲话逐条逐项梳理细化为具体工作措施，以提劲、提质、提效的满格状态做好各项工作，切实推动习近平总书记重要讲话精神在首府落地落实。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>25</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>我市在所高中学校开展英才计划试点招生</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2023-06-28</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650094173&amp;idx=5&amp;sn=6798e88e8b83b59a64468b88d4dc4cc9&amp;scene=0</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '近日，记者在中央民大附中呼和浩特分校“英才计划”面试考场看到，参加面试的学生们正有序地进行着答辩、小组讨论等各项流程。', '中央民大附中呼和浩特分校“英才计划”招生选拔主要分笔试和面试两个部分。笔试主要考察学生的学习能力、创造力以及表达能力和解决实际问题的能力。面试分为心理素质测定、答辩、无领导小组辩论和实验操作四个环节。', '记者了解到，“英才计划”项目在中央民大附中呼和浩特分校前期已经进行了两年的探索，主要是通过和内蒙古大学的合作，学生可以参加大学一些博士导师的研究项目。“今年市教育局‘英才计划’的自主招生和以往的‘英才计划’又不太一样，它既不是一个重点班，也不是一个超前授课的班，而是从课程教学以及评价全方位改革的育人体系的创新。这些‘英才计划’的孩子们进入高中课程要进行重新整合，要加强学科的实践，加强研究性学习和深度学习，在评价方面和信息赋能方面也要进行一些探索和尝试。” 中央民大附中呼和浩特分校党总支书记、校长王建学介绍说。', '据了解，从2013年开始，中国科协和教育部共同实施“中学生科技创新后备人才培养计划”，简称“英才计划”，让学有余力的中学生走进大学，在导师指导下进行学术研究。10年来，已在全国培养了7000多名具有创新潜质的中学生。今年我市在5所高中学校(呼市一中、二中、十四中，中央民大附中呼和浩特分校，师大附中)开展“英才计划”试点招生。试点校面向市区招收“英才计划”学生，每校招生计划不得超过20人。', '今年这5所试点校将根据各自办学实际，制定招生方案，经市招生工作领导小组评估认定后批复招生计划。学生报名方式主要有两种，一是初中学校推荐报名，二是学生自荐报名。具有学科特长的应届初中结业生到所报志愿学校登记，并进行专业测试，5所学校需将本校组织测试合格学生名单统一报送市教育局招生工作领导小组考务组，同时在“呼和浩特市招生考试信息网”上进行公示后确认生效。', '市教育局副局长弓慧扬表示，“我们希望能更好地推动初高中一体化协同育人，发现和培养具有学科特长和创新潜质的学生，满足这些学生在基础学科的发展需求，同时推动普通高中学校多样化特色办学。” 弓慧扬说:“对学生而言，可以在总分不太占优势的情况下，在升学招生时被重点学校录取，对孩子学好基础学科、培养学习兴趣和素养很有帮助。对学校而言，可以更早发现人才、培养人才，锻炼出一支优秀的教师队伍。”', '这样一种中学教育和大学教育相结合的方式，可以激发同学们对科学研究的兴趣，培养出崇尚科学、具有创新潜质的优秀中学生，这是“英才计划”的宗旨。我市将通过试点招生，将这部分学生培养为身心全、基础厚、会整合、爱探究、重实践的复合型人才。', '“希望通过这种育人方式的变革，更好地推进学校的自主招生，更好地推进学生全面发展。用这样的小切口推动呼市教育生态的更大变革。”弓慧扬说。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>25</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>年度推进依法治市工作考核指标完成情况报告</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2017-01-19</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/sgyzcjdglwyh_22424/fdzdgknr/bmgk/202004/t20200410_943488.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['按照贵办《关于对全市依法治市工作进行考核评价的通知》（呼依法治市通〔2017〕1 号）要求，现将2016年度国资委推进依法治市工作考核指标完成情况报告如下： 责任制落实和承担依法治市专项目标任务完成情况', '一是国资委党组书记、主任金强2016年先后主持召开3次领导小组会议，研究部署依法治市工作，落实依法治市工作任务；二是根据国资委承担的工作任务，明确、细化专项工作分工，确定专职工作人员负责依法治市日常工作；三是明确政策法规与企业改革改组科为依法治市联络科室，并确定了具体责任人；四是配合专项组按进度完成了承担的加强国有资产监管工作任务，包括制定《关于深化市直属国有企业改革的实施意见》、《市本级经营性国有资产分类统一监管的实施意见》、《呼和浩特市企业负责人经营业绩考核办法及实施细则》，加强国有资产监管；五是国资委没有需要牵头完成的依法治市工作任务；六是按照依法治市实施规划，积极开展修订完善《呼和浩特市企业国有资产监督管理办法》工作，根据国家、自治区国资国企改革实际，国资委于2016年3月17日向市法制办报送了《关于暂缓修订&lt;呼和浩特市企业国有资产监督管理办法&gt;的报告》，提请暂缓修订《呼和浩特市企业国有资产监督管理办法》，发挥参与单位作用，主动与牵头单位配合；七是国资委2016年4月20日印发了《关于到监管企业开展调研的通知》，于2016年4月25日-5月6日赴出资监管的6家公司制国有企业开展董事会建设等情况的调研，以公交公司体制机制改革为试点，2016年5月22日-5月27日，赴深圳、武汉、郑州、太原等地考察调研，学习公交改制先进经验，研究制定公交改制方案。', '一是国资委没有因违反法律法规、决策失误造成重大问题或群体性事件的情况；二是通过与监管企业、国开发展基金有限公司签订《国开发展基金投资合同》，以增资扩股方式争取资金累计56.13亿元，支持我市重点领域和重大项目建设。积极推进城市轨道交通、棚房区改造、城中村改造、少数民族文体中心、集中供热工程、新能源汽车制造、防洪景观工程、文化生态旅游区等等重点项目工程；三是按照市委、市政府关于做好精准扶贫工作的安排部署，国资委于2016年6月2日印发了《呼和浩特市国资委2016-2020年精准扶贫“一对一”包扶工作方案》，明确了扶贫方式、组织领导内容，开展实施精准扶贫“一对一”包扶工作，干部与和林县6个自然村的贫困户结成对子，进行“一对一”包扶，先后入户3次具体开展精准扶贫工作。到2016年底，精准扶贫工作取得显著成效，国资委帮扶的22人中已有16人脱贫。', '一是按照中央、自治区党委部署，国资委制定了《呼市国资委2016年党风廉政建设和反腐败工作实施意见》、《市国资委党组中心2016年度学习计划》、《市国资委“两学一做”学习教育实施方案》等党内制度文件，积极开展党组中心组学习；二是开展党内法规宣传教育，定期组织学习《中国共产党章程》、《中国共产党纪律处分条例》、《中国共产党廉洁自律准则》等党内法规，干部职工参学率达到95%以上。除此之外，深入开展“两学一做”学习教育，严格执行中央、自治区各项制度，以党内法规和新颁布法律为学习重点，贯彻落实全区党内法规工作会议精神。三是分别于2016年11月3日、2016年11月10日、2016年11月17日、2016年12月1日、2016年12月19日进行十八届六中全会精神的全面解读，认真学习贯彻十八届六中全会精神；通过自学等方式学习《习近平总书记系列重要讲话读本》，切实用讲话精神武装头脑、指导实践、推动工作。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>25</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>习近平总书记在中共中央政治局第十五次集体学习时的重要讲话为进一步健全全面从严治党体系指明方向</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2024-07-01</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/ztzl/2022zyzz/202407/t20240701_1742294.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['把新时代党的建设新的伟大工程推向前进 &lt;br&gt;——习近平总书记在中共中央政治局第十五次集体学习时的重要讲话为进一步健全全面从严治党体系指明方向_ 呼和浩特市人民政府', '把新时代党的建设新的伟大工程推向前进 ——习近平总书记在中共中央政治局第十五次集体学习时的重要讲话为进一步健全全面从严治党体系指明方向', '“全党必须永葆‘赶考’的清醒和坚定，以健全全面从严治党体系为有效途径，不断把新时代党的建设新的伟大工程推向前进。”', '“七一”前夕，中共中央政治局就健全全面从严治党体系进行第十五次集体学习。习近平总书记在主持学习时发表了重要讲话，从健全组织体系、教育体系、监管体系、制度体系、责任体系等五方面，对进一步健全全面从严治党体系作出部署。各地党员、干部表示，要以习近平总书记重要讲话精神为指引，深入贯彻落实新时代党的建设总要求，善用系统思维、科学方法，为进一步健全要素齐全、功能完备、科学规范、运行高效的全面从严治党体系作出积极贡献，为强国建设、民族复兴提供坚强保障。', '今年7月1日，是中国共产党103周年诞辰纪念日。习近平总书记在发表重要讲话时，首先代表党中央，向全国广大共产党员致以节日的问候。', '“七一勋章”获得者、“渡江英雄”马毛姐感慨道：“从革命年代先辈们舍生忘死解放全中国，到如今广大党员向着新目标努力奋斗，100多年来，我们党始终朝气蓬勃，正是因为抓住了党的建设这一关键。”', '耄耋之年的马毛姐已有70年党龄，她表示，将继续为后辈讲述红色故事，传承红色精神，带动更多人向党、爱党，让“共产党员”这个称号更响亮。', '新时代全面从严治党伟大实践开辟了百年大党自我革命新境界，但同时党面临的“四大考验”“四种危险”将长期存在。', '“习近平总书记在重要讲话中，既肯定新时代全面从严治党伟大成就，又点明管党治党新挑战新考验，彰显了总书记强烈的忧患意识和使命担当，展现出新时代领航人把党治理好、建设强的坚定决心。”清华大学廉政与治理研究中心副主任宋伟说。', '全面从严治党是党的长期战略、永恒课题。宋伟表示，聚焦党的建设，中央政治局在“七一”前夕举行集体学习是新时代以来的一项重要传统，习近平总书记向全党发出响亮号召，表明全面从严治党永远在路上，党的自我革命永远在路上。', '“习近平总书记在讲话中强调探索加强新经济组织、新社会组织、新就业群体党建工作，这是针对党的建设新领域、新阵地、新课题提出的重要要求，需要我们练就过硬本领、努力应对挑战。”浙江省杭州市萧山区委组织部部长吴斌说。', '吴斌表示，充分发挥战斗堡垒作用，每一个党支部都不能落下。“我们将聚焦‘三新’组织和群体的市场化网络化特性、社会化专业化特点、流动性多元化属性，分类施策，为推动新形势下党的组织和党的工作线下线上全覆盖而努力。”', '盛夏时节，河北省廊坊市广阳区万庄镇高家营村党支部书记冯亚楠顶着烈日在村里走街串户，带领村民装点乡村小院、发展庭院经济。', '习近平总书记在集体学习中提出“大力推进党建引领基层治理”的要求，让冯亚楠深有感触。“支部强，乡村兴。我们要加大培训力度，努力把村党组织建设成乡村治理的‘主心骨’、村民致富路上的‘领头雁’。”冯亚楠说。', '延河之畔，中国延安干部学院教室里，教学科研部教师郭建明正组织学员学习研讨习近平总书记此次重要讲话精神。学员们积极发言，现场气氛十分热烈。', '“习近平总书记将‘健全固本培元、凝心铸魂的教育体系’作为进一步健全全面从严治党体系重要内容，是因为理论上清醒政治上才坚定。”郭建明说，抓好思想建设这个基础，他将和同事们一起引导学员深刻领悟党的创新理论背后的道理学理哲理，当好政治上的明白人、行动上的实干派。', '当前，党纪学习教育正在全党深入开展。在青海省西宁市湟中区鲁沙尔镇镇政府会议室里，党员干部们围坐在一起交流党规党纪学习心得。', '“习近平总书记在青海考察时强调党纪学习教育要‘真抓实学、善始善终’，此次讲话中又要求以党纪学习教育为契机，‘引导党员、干部把增强党性、严守纪律、砥砺作风贯通起来，融入日常、化为习惯’。”镇党委书记宋国梁表示，将继续带领当地党员、干部在一体推进认真学纪、准确知纪、对标明纪、严格守纪中，“醒脑子”“照镜子”。', '党要管党、从严治党，“管”和“治”都包含监督。健全精准发力、标本兼治的监管体系至关重要。', '“监督是纪检监察干部的基本职责、第一职责。习近平总书记在讲话中提出着力抓好政治监督、领导班子特别是‘一把手’监督、‘三重一大’事项监督以及一些重点领域的监督，为我们明确了工作的着力点。”江西省南昌市西湖区纪委书记陈韬表示，西湖区纪委监委将运用好监督执纪“四种形态”，坚持党性党风党纪一起抓、治病强身相结合，把党规党纪严起来、立起来。', '“习近平总书记提出要健全科学完备、有效管用的制度体系，我理解就是要全方位织密制度的笼子，让权力不脱轨、不越界。”第一时间学习了习近平总书记的讲话，天津市纪委监委法规室四级调研员拜飞对制度治党有了更深刻的理解。他说，下一步将面向实践需要，在“研”字上下功夫，及时总结好经验好做法，进一步提高法规制度建设的规范性、科学性。', '“总书记要求健全主体明确、要求清晰的责任体系，提出要明确党委（党组）书记第一责任人责任，让我感到重任在肩。”四川省巴中市巴州区委书记余斌表示，将带头知责担责履责，以高质量党建赋能高质量发展。', '广大党员、干部表示，将更加紧密团结在以习近平同志为核心的党中央周围，进一步健全全面从严治党体系，确保党永远不变质不变色不变味，在新的“赶考”之路上交出更加优异的答卷。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>25</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>呼市交通运输局召开党组理论学习中心组年第次集中学习会</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2022-06-17</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/fwyzt/jt_jtcx/jtyw/202206/t20220617_1309099.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['呼市交通运输局召开党组理论学习中心组2022年第6次集中学习会_ 呼和浩特市人民政府', '6月16日，市交通运输局召开党组理论学习中心组2022年第6次集中学习会议，深入学习领会习近平总书记重要讲话精神，传达学习自治区、我市工作会议精神。', '会议集中学习了习近平总书记在四川考察时的重要讲话精神；学习习近平总书记在《求是》杂志发表重要文章《坚定不移走中国人权发展道路更好推动我国人权事业发展》；学习《习近平谈治国理政》第三卷《始终把人民放在心中更高位置》；传达学习李克强总理在国务院第五次廉政会议上的讲话；传达学习《在呼和浩特市平安建设领导小组会暨党的二十大维稳安保工作部署会上的讲话》；传达学习孙春兰在学习贯彻习近平总书记重要指示精神暨表彰座谈会上的讲话；传达学习自治区党委办公厅、政府办公厅《关于进一步强化安全生产责任落实坚决防范遏制重特大事故的意见》；传达中共呼和浩特市委保密委员会关于转发《内蒙古自治区党委保密委员会关于微信泄密专项整顿行动开展以来全区微信保密违法违规案例的通报》的通知；传达关于印发《中共呼和浩特市委保密委员会关于做好党的二十大保密工作的工作方案》的通知；传达学习孙绍骋书记在有关盟市考察时的讲话精神；传达自治区应对新冠肺炎疫情工作领导小组会议精神。', '会议强调，要深入学习贯彻习近平总书记在四川考察时的重要讲话精神，高效统筹疫情防控和经济社会发展，保持经济运行在合理区间，奋力完成交通运输目标任务。要贯彻落实好国务院第五次廉政会议精神，坚持标本兼治推进党风廉政建设，切实增强党风廉政建设和反腐败工作的思想自觉和行动自觉，严格责任落实，始终坚持不懈把党风廉政建设和反腐败工作推向纵深。要全面贯彻落实好自治区党委、市委市政府关于安全生产的决策部署，守住安全生产底线和红线，持续强化交通运输行业领域和职责范围内的安全监管，常态化开展安全排查，强化隐患处置能力。要严格落实市委保密委员会通知要求，牢牢掌握意识形态工作领导权，贯彻落实好意识形态工作责任制，着力提升主流意识形态引领力。要坚决捍卫国家政治安全，牢固树立“万无一失、一失万无”的安保理念，坚决筑牢祖国北疆安全稳定屏障，当好首都“护城河”，为党的二十大胜利召开营造安全稳定的社会环境贡献交通力量。', '会议还传达学习了《中国共产党党务公开条例（试行）》、内蒙古自治区党委贯彻《中国共产党党务公开条例（试行）》实施细则、《中共呼和浩特市委员会关于党务公开实施细则（试行）》。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>25</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>呼市交通运输局召开党组理论学习中心组年第次集中学习会</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2022-04-15</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/fwyzt/jt_jtcx/jtyw/202204/t20220415_1232199.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['呼市交通运输局召开党组理论学习中心组2022年第3次集中学习会_ 呼和浩特市人民政府', '4月14日下午，呼市交通运输局召开党组理论学习中心组2022年第3次集中学习会议，深入学习领会习近平总书记重要讲话精神，传达学习我市工作会议精神。局党组书记张玮主持集体学习，局领导、局机关科室负责人、局属单位主要领导参加此次学习会议。', '会议集中学习了习近平总书记在海南考察时的重要讲话精神；学习习近平总书记在北京冬奥会、冬残奥会总结表彰大会上的讲话；学习习近平总书记在第四届中国国际进口博览会开幕式上的主旨演讲；学习《习近平谈治国理政》第三卷《黄河流域生态保护和高质量发展的主要目标任务》《求是》杂志重要文章《在中央政协工作会议暨庆祝中国人民政治协商会议成立70周年大会上的讲话》；会议传达学习了《曹思阳同志在市委乡村振兴工作领导小组会议上的讲话》《曹思阳同志在市创城工作推进会上的讲话》《唐勇同志在全市拓展新时代文明实践中心建设工作电视电话会议讲话提纲》。', '会议要求，中心组成员要把习近平总书记重要讲话精神学深悟透，掌握蕴含其中的政治原则、理论观点、方针政策，深化对习近平新时代中国特色社会主义思想理论逻辑、实践逻辑的理解和把握，更好地用以武装头脑、指导实践，真正做到学以致用、用以促学、学用相长。在自己学懂弄通的基础上，积极引领和推动各分管领域、各部门、各科室党员干部深学践悟，确保各级党员干部正确认识和全面落实好习近平总书记的重要要求、重要指示批示精神，努力把学到的知识、掌握的规律，切实转化为解决交通运输发展问题、应对行业风险挑战的能力，转化为锐意进取、担当实干的精气神，转化为推动交通运输高质量发展的生动实践。', '会议强调，要深入学习领会、贯彻落实习近平总书记重要讲话精神，全面贯彻落实好自治区党委、市委市政府的决策部署，认真谋划和推进今年各项重点工作。要全面加强党的政治建设，加强政治理论学习，持续深化党史学习教育，扎实开展思想政治教育，严肃党内政治生活，严守政治纪律和政治规矩，认真落实意识形态和网络意识形态工作责任制，严格落实党组织主体责任；要全面加强组织建设，打牢基层组织基础，创新基层党建工作模式，完善基层党建考核机制；要持续加强作风建设，夯实风险防控防线；要不断加强纪律建设，锻造清正廉洁交通运输队伍；要全面加强队伍建设，夯实交通运输高质量发展根基，努力构建安全、便捷、高效、绿色、经济的现代化综合交通运输体系，为我市经济社会高质量发展当好“开路先锋”，以优异成绩迎接党的二十大召开。', '会议还传达学习了《关于新时代加强和改进思想政治工作的意见》；学习《优化营商环境条例》；学习《内蒙古自治区以更优营商环境服务市场主体行动方案》；传达《关于三起违反中央八项规定精神典型案例的通报》。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>25</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>关于市十五届人大三次会议代表建议办理工作总结</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2020-12-08</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/srlzyhshbzj_22410/fdzdgknr/jytablnew/202012/t20201208_941062.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['今年交办我局市人大十五届三次会议代表建议共37件。其中，主办10件，分办7件，协办20件。涉及就业创业、社会保险、人事人才等方面，37件建议已全部按期办结，形成了办理意见并与代表进行了充分沟通。A类答复件33件，B类4件。从建议的情况看，我们认为每一件建议都是人大代表在认真研究和反复调查的基础上提出的，蕴含着大量的社情民意，反映的都是当前人力资源和社会保障工作的热点和焦点问题，既是社会各界和广大群众关心的问题，也是各级人力资源和社会保障部门目前正在着力研究解决的问题。', '我局建议办理工作坚持主要领导负总责,分管领导和相关部门负责人具体抓的工作机制，通过召开交办会议、制定工作台账、印发建议办理流程图等方式，进一步提高认识，明确目标责任，确保建议办理工作取得实效。', '在建议办理工作中主要采取了以下措施：一是突出工作重点。对交办的建议进行认真分类，对反映集中的问题进行重点研究。分析问题产生的原因，找出工作的薄弱环节，提出完善和改进措施并重点研究解决。二是严格层层把关。对办理答复文稿层层审核把关，即承办人员的拟稿关、科室负责人的审稿关、办公室的文字审核关、分管领导审批关和局长签发关。三是强化办理督导。督促各承办部门按办理时限制订办理计划,做到早完成、早落实,避免拖拖拉拉和临时突击的现象。按时向分管领导汇报办理情况，对每一件建议做到件件有答复、事事有回音,不说空话大话套话,坚决杜绝敷衍应付。第四季度进行工作总结，完成建议办理台账，通报建议办理情况和代表满意度，并作为年终评比考核依据。四是加强部门协调。我局为主办单位的，充分发挥牵头作用，积极协调各协办单位及时汇总情况数据，研究落实举措；我局为协办单位的，及时将建议中涉及人社部门的工作认真研究部署，加以落实，并通报给主办单位，做到资源和信息及时共享，保障建议办理工作不脱节、不遗漏。五是坚持与代表沟通。要求每一件建议承办人要与代表沟通两次以上，实现“办理前联系、办理中征求意见、办理后跟踪回访”。丰富沟通方式，除电话邮件沟通外，更加注重面对面沟通。前期已邀请包双梅代表就我市就业创业工作进行调研和座谈，切实保障办理效果。', '近年来，为深入贯彻落实中央关于深化“放管服”改革、优化营商环境的决策部署，国务院和自治区先后密集出台了关于积极推进“互联网+政务服务”的一系列政策措施，对政府部门充分利用信息化手段，提升服务能力提出了明确要求和部署。', '按照《国务院办公厅关于印发进一步深化“互联网+政务服务”推进政务服务“一网、一门、一次”改革实施方案的通知》的相关要求，在自治区人社厅的大力支持下，我局2018年12月起启动了呼和浩特市人力资源和社会保障“一网通办”综合服务项目建设，着力解决企业和群众办事难点痛点堵点问题。“一网通办”一期项目于2019年6月5日上线试运行，二期项目于12月1日上线，累计完成122项人社公共服务事项的网上办理，截至目前累计网上办理业务69.6万笔，大厅工作量较之前减少近90%，初步形成了网上服务大厅、手机移动客户端、自助服务终端、综合柜员制、12333电话服务“五位一体”的人社服务矩阵。', '1、“一网通办”平台建设思路。2018年末，我市试点建设“一网通办”平台。市委、市政府将“一网通办”项目列入2019年为民办实事项目。经先后学习考察秦皇岛市、常州市、南宁市人社领域信息化建设先进经验，初步梳理出以下几点建设思路：', '（1）流程大改造，改变业务办理方式。通过建设网上服务大厅，坚决改变目前窗口排队办理业务模式。', '（2）服务大提升，实现“不见面”办理。以往提升服务效能，往往通过增加大厅服务窗口、加强工作人员培训教育、规范窗口服务标准等方式进行。但我们意识到，“不见面”办理是提升服务效能的最佳手段。', '（3）材料大瘦身，实现档案电子化管理。多年来，办理业务收取纸质材料已经是再正常不过的事情。但是，纸质材料的收取、归档、存放、后续的调取、查阅等既浪费人力财力，更不环保。我们认为档案电子化管理是大势所趋。', '（4）业务大协同，实现条状分散办理到网状协同办理。人社部门内部，乃至人社和其他部门之间，很多业务都存在内在的关联，我们完全可以通过大数据分析，实现多项业务的协同办理，真正实现“让数据多跑路，让老百姓少跑腿”的目的。', '（5）观念大转变，实现“人找事”到“事找人”。多年以来，老百姓往往被动办理业务，不办理会影响到切身利益时才会办。但实际上，很多业务，是可以通过大数据分析，提前预知并主动推送服务。', '2、“一网通办”取得的阶段性成果。按照以上建设思路，我们开始着手“一网通办”平台建设。经过一期二期项目，现已取得阶段性的成果，但离我们的建设初衷还有一定的差距。现结合疫情防控工作，将“一网通办”项目阶段性成果汇报如下：', '对人社服务事项进行标准化梳理。集中利用一个月时间，系统梳理人社服务事项清单，优化业务流程，编制办事指南，全局共梳理出219个服务事项。', '建设业务档案一体化平台。将电子档案与业务系统深度融合,进行业务档案一体化管理，实现全程无纸化办理。目前已存储业务档案图片110万张。', '初步建立电子证照库。对服务对象的身份证、社保卡、低保证、退休证等证件进行电子化管理，实现“一次采集、终身使用，一库管理、互认共享”。', '实现“三项业务”协同办理。实现了劳动用工备案、就业失业登记和社会保险登记三项业务的协同办理，一次申请提交，可同时办理三项业务。截至目前，共有18项业务实现协同，累计办理业务22.7万笔，减少服务对象到现场办理业务约68.2万笔。为进一步实现各项业的务协同办理提供了可行性实践，为有效推进人社部要求开展的“人社服务快办行动”，关联事项“打包办”、高频事项“ 提速办” 打下基础。', '实现参保缴费证明、个人权益记录单网上自助打印。服务对象可通过单位网上服务大厅、个人网上服务大厅、人社系统自助服务一体机自助打印参保缴费证明、个人权益记录单。同时，引用二维码防伪标签，可随时查询单据的真伪。截至目前，网上自助打印参保证明共计3.7万份，为服务对象在工程招标、非本市户籍考生高考报名、申请公租房、各类考试资格审查等方面提供了极大的便利。', '建设“青城智慧人社”手机APP。“青城智慧人社”手机APP实现了51个事项的“掌上”办理。我市市民办理个体灵活就业人员核定，失业保险金申领，社会保障卡申领、挂失，企业职工退休申请等业务可以足不出户“掌上”办理。截至目前，共办理业务2万余笔。', '拓展自助办理，服务重心下沉。通过积极向全市13个网点（包含九个旗县区市民服务中心）布设人社自助服务一体机，实现养老保险待遇资格认证、养老关系转移凭证自助打印、社保卡挂失解挂等近40项老百姓常办的业务。截至目前，人社自助服务一体机已办理11.1万笔业务，将人社服务送到了群众“家门口”。', '主动推送服务，老百姓从“能办事”到“好办事”。本着“让数据多跑路，让群众少跑腿”理念，做到全业务周期进度随时查询，服务事项智能调度，业务办理全程留痕，办结结果短信告知。自“一网通办”平台试运行以来，累计发送短信已超过100万条。', '众所周知，人社工作具有政策复杂、事项繁多、服务对象广、手工办理多等特点。目前，我市参保单位已超过2万家，仅职工参保人数达到63万。新冠肺炎疫情发生对我们在完成防控部署的情况下有序开展相关工作带来极大的挑战。', '疫情就是命令，防控就是责任，全局上下朝乾夕惕，全力以赴，以“一网通办”为平台，全面推进“不见面”服务，坚决打赢疫情防控阻击战。', '自疫情以来，我局通过“呼和浩特12333”微信订阅号发布各类信息20多条，包含疫情防控期间各类政策文件解读、疫情防控阶段业务办理方式、具体业务的操作流程等。引导全市市民疫情期间有序办理人社业务，保障了国家、自治区和我市发布的各项疫情扶持政策落实落细。', '针对疫情及时调整业务办理模式。自疫情发生以来，我局第一时间公布《呼和浩特市人力资源和社会保障局疫情防控阶段人社业务“不见面”办理温馨提示》，公布了120项网上服务事项清单，公布了60余部服务电话；引导群众办理人社业务首选网上办，并结合电话办、邮寄办、延后办、暂停办、预约办等举措，通过“非接触”方式，提供“不见面”服务。截至目前，累计网办业务量超过28万笔。通过及时调整业务办理模式，有效减少人员聚集，阻断疫情传播，更好地保障了人民群众身体健康和生命安全。', '下一步，我们将加快建设“一网通办”三期项目,尽快完成事业单位人事人才、仲裁监察、职称评审、汇总统计、综合分析等子系统建设，逐步形成“一网通办、一门服务、一窗受理、一次办结”“四个一”服务新标准，构建方便快捷、公平普惠、优质高效的人社服务体系，为群众提供好办事、快办事的服务平台，增强群众的幸福感、获得感。', '2020年突如其来的新冠疫情，使经济社会面临前所未有的困境，呼和浩特市中小企业繁多，规模小，抗风险能力弱，受疫情影响大。按照中央、自治区统一安排，我局全力支持和组织企业复工复产，相继出台一系列优惠政策，切实抓好“稳就业，保就业”工作。', '我局于2020年3月20日印发了《转发&lt;关于阶段性减免企业社会保险费的实施意见&gt;的通知》（呼人社发〔2020〕29号）。明确对困难企业实施减免、缓缴、阶段性降费等优惠政策。现根据国家政策规定进一步延长了减免期限。一是落实减免政策。中小微企业、以单位形式参保的个体工商户，2020年2月至12月的养老保险、失业保险、工伤保险单位缴费予以免征;大型企业及其他单位2020年2月至6月的单位缴费减半征收。按项目参加工伤保险的，减免期内新开工的工程建设项目，按国家规定享受阶段性减免工伤保险费政策。二是落实延缴缓缴政策。阶段性减免社保费期间，享受减免政策后仍无力为职工缴纳社保费的中小微企业，可按照《内蒙古自治区人民政府关于支持防控疫情重点保障企业和受疫情影响生产经营困难中小企业健康发展政策措施的通知》(内政发电〔2020〕1号)的规定延期缴纳。受疫情影响生产经营出现严重困难的企业，可申请缓缴社会保险费，企业可在2020年3月至9月通过人社部门单位网上服务大厅申请报备缓缴，缓缴期限截至9月底。符合缓缴资质的企业在9月底前缴费的免收滞纳金。三是落实阶段性降费。继续实施阶段性降低失业保险费率、工伤保险费率的政策，期限延长至2021年4月30日。', '我局下一步将按照人力资源和社会保障部统一部署，对中小微企业三项社会保险单位缴费部分免征的政策延长执行到2020年12月底，对受疫情影响生产经营出现严重困难的企业，可继续缓缴社会保险费至2020年12月底，缓缴期间免收滞纳金。', '为应对新冠肺炎疫情，支持企业稳定就业岗位，2020年2月8日，市人民政府出台了《关于应对疫情支持中小企业健康发展的十五条措施》（〔2020〕1-15）。2月14日，市人社局及时下发了《关于做好疫情防控期间失业保险稳岗返还工作的通知》，将中小微企业失业保险稳岗返还政策裁员率标准，放宽到不高于上年度全国城镇调查失业率控制目标。对参保职工在30人（含）以下的企业，裁员率放宽至不超过企业职工总数的20%。根据《内蒙古自治区政府办公厅关于应对新冠肺炎疫情影响强化稳就业若干措施的通知》要求，对中小微企业失业保险返还标准提高至企业及其职工上年度缴纳失业保险费的100%。此外，为了支持经营困难且恢复有望的企业，我市于2019年8月13日制定下发了《关于明确经营困难且恢复有望企业认定标准、流程及失业保险费返还标准的通知》（呼政办发〔2019〕26号），现该政策执行期限已延长至2020年12月30日，符合条件的企业可申请认定为困难企业，困难企业失业保险费返还标准为：按认定当年1月份最低工资标准的85% × 6 × 申请认定时上月失业保险参保职工人数。', '为确保政策落地，及时通过人社局官网、12333微信公众平台进行政策宣传，向在本市参保的1.3万余户企业发送提示短信，加强政策宣传。通过人社局“一网通办”管理系统实行网上受理、审核，同时将申报材料由原来的5项（企业申请、承诺书、营业执照、资产负债表、资产利润表）减少为2项（承诺书和营业执照），集中力量加快审核进度。截至目前，共审核发放稳岗返还资金1.25亿元，惠及职工27.27万人。', '2019年以来，我市积极贯彻国务院《职业技能提升行动方案（2019-2021）》要求。对企业新录用员工开展岗前培训、对在职职工开展在岗和转岗培训的，可向所在旗县区人力资源和社会保障部门提出申请，并按照规定享受职业技能培训补贴政策。对农村牧区劳动力、贫困劳动力、就业困难人员、“零就业家庭”成员，在培训期间按规定通过就业补助资金给予每人每天100元生活费（含交通费）补贴。今年6月，我市转发了《内蒙古自治区人力资源和社会保障厅关于大力开展以工代训工作的通知》，按照通知要求，符合条件的企业在组织开展以工代训职业培训，按照每人每月600元予以职业培训补贴，补贴期限最长不超过6个月。政策受理期限从2020年6月12日起，截至2020年12月31日。', '2020年突如其来的新冠疫情，使经济社会面临前所未有的困境，按照中央、自治区统一安排，呼和浩特市人力资源和社会保障局全力支持和组织企业复工复产，相继出台一系列社保优惠政策。2020年3月20日市人社局发布了《转发&lt;关于阶段性减免企业社会保险费的实施意见&gt;的通知》（呼人社发[2020]29号）。《通知》中对困难企业予以实施减免、缓缴、阶段性降费等优惠政策。', '1、减免政策。中小微企业、以单位形式参保的个体工商户，2020年2月至12月的养老保险、失业保险、工伤保险单位缴费予以免征;大型企业及其他单位2020年2月至6月的单位缴费减半征收。按项目参加工伤保险的，减免期内新开工的工程建设项目，按国家规定享受阶段性减免工伤保险费政策。', '2、延缴缓缴政策。阶段性减免社保费期间，享受减免政策后仍无力为职工缴纳社保费的中小微企业，可按照《内蒙古自治区人民政府关于支持防控疫情重点保障企业和受疫情影响生产经营困难中小企业健康发展政策措施的通知》(内政发电〔2020〕1号)的规定延期缴纳。受疫情影响生产经营出现严重困难的企业，可申请缓缴社会保险费，企业可在2020年3月至9月通过人社部门单位网上服务大厅申请报备缓缴，缓缴期限截至9月底。符合缓缴资质的企业在9月底前缴费的免收滞纳金。', '3、阶段性降费政策。继续实施阶段性降低失业保险费率、工伤保险费率的政策，期限延长至2021年4月30日。', '呼和浩特市人力资源和社会保障局下一步将按照人力资源和社会保障部统一安排，对中小微企业三项社会保险单位缴费部分免征的政策延长执行到2020年12月底，对受疫情影响生产经营出现严重困难的企业，可继续缓缴社会保险费至2020年12月底，缓缴期间免收滞纳金。', '4、针对律师事务所减免政策。按照《人力资源社会保障部办公厅关于律师事务所等参保单位减免社会保险费使用政策问题的复函》（人社厅函[2020]42号）对于律师事务所、会计师事务所、民办幼儿园等特殊类型单位，登记为企业类型的应做好相关划型和社会保险单位缴费部分减免；登记为个体工商户并以单位方式参保的，应参照11号文、38号文件规定，执行单位缴费部分减免政策；登记为其他类型且以单位方式参保的，应划归为“其他参保单位”，对其三项社会保险费单位缴费部门实行减半征收，减征期限不超过5个月。', '2020年突如其来的新冠疫情，使经济社会面临前所未有的困境，呼和浩特市中小企业繁多，规模小，抗风险能力弱，受疫情影响大。按照中央、自治区统一安排，呼和浩特市人力资源和社会保障局全力支持和组织企业复工复产，相继出台一系列社保优惠政策，助力企业复工复产。2020年3月20日发布了《转发&lt;关于阶段性减免企业社会保险费的实施意见&gt;的通知》（呼人社发〔2020〕29号）。《通知》中对困难企业予以实施减免、缓缴、阶段性降费等优惠政策。', '建议收悉后，我局先后派人到托县、和林县等地，深入调研了解失地农民具体情况。失地农民情况较为复杂，因该群体整体生活水平不高，很多人年龄超出60周岁，仍然寻求到附近企业打工，多数人技能水平低下，就业面很窄。这些因素决定了失地农民就业难，部分失地农民处于“种地无田、就业无岗”的困境。针对失地农民就业难问题，宜由当地政府部门开拓渠道，采取多种方式予以解决。如加大公益岗位设置数量、开展失地农民就业技能培训、利用当地优势搞种养殖项目等方式予以解决。', '我市针对失地农民先后出台过多项政策，不同时期，政策有所变化。按照《关于呼和浩特市被征地农转非人员养老保险暂行办法》的通知》（呼政发〔2005〕59号）精神，规定市区规划范围内土地被全部依法征用并办理农转非登记的人员，可以办理失地养老保险。按照《呼和浩特市人民政府关于被征地农民参加城镇职工基本养老保险问题的通知》（呼政发〔2012〕61号）文件精神，规定将被征地农民纳入城镇职工基本养老保险。按照《关于进一步加强企业职工基本养老保险基金收支管理的通知》（人社部发〔2016〕132号）文件精神，规定各地不得违反国家规定采取一次性缴费的方式将超过法定退休年龄等不符合条件人员纳入企业职工基本养老保险参保范围。不得以事后追补缴方式增加缴费年限。按照《关于建立城乡居民基本养老保险待遇确定和基础养老金正常调整机制的实施意见》（内人社发〔2019〕61号）文件精神，对城乡居民养老保险缴费档次进行调整为13个档次，最高为7000元每年，最少100元每年。最多可以一次补缴15年。', '失地农民在不同时期失地，享受政策也有所不同，缴费标准和时间不一样，到龄领取待遇时，也会出现待遇不同的情况。但无论参加哪种保险，针对失地农民的参保渠道始终是畅通的。为了使被征地农民的最低生活得到保障，因超龄不参加职工基本养老保险的农民，可以参加城乡居民养老保险。', '1、国家、自治区关于教师工资待遇的政策。《中华人民共和国教师法》第二十五条规定“教师的平均工资水平应当不低于或者高于国家公务员的平均工资水平”。按照《国务院办公厅关于进一步保障义务教育教师工资待遇的通知》（国办发﹝2018﹞89号）比对口径，义务教育教师平均工资水平的工资项目包括基本工资和绩效工资；公务员平均工资水平的工资项目包括基本工资、规范津贴补贴和年终一次性奖金。', '2、我市旗县教师工资水平总体情况。按照国办发﹝2018﹞89号文件的比较口径，根据我市2019年工资收入统计报表（上报人社部），我市旗县教师年平均工资水平均高于当地公务员年平均工资水平。', '3、关于我市确保教育教师工资水平不低于公务员工资水平采取的措施。2019年1月20日，市人民政府出台了《呼和浩特市人民政府关于提高呼和浩特地区班主任津贴标准的通知》（呼政发〔2019〕5号），将班主任津贴由原来的小学240元/月、中学300元/月，提高到的小学800元/月、中学1200元/月，并纳入义务教育教师绩效工资总量管理，从2019年1月执行。', '2019年4月17日，市人民政府办公室出台了《呼和浩特市人民政府办公室关于提高我市义务教育教师绩效工资标准的通知》（呼政办发〔2019〕13号），旗县区教育绩效工资水平同步调高3600元。使全市每一位义务教育教师年人均增加工资3600元。从2019年1月1日执行。', '同时，建立长效机制，确保教师工资待遇不低于公务员年平均工资水平。第一，当义务教育教师低于当地公务员平均水平时，动态调整义务教育教师绩效工资水平；第二，遇当地公务员津贴补贴水平提高时，同步提高义务教育教师绩效工资水平；第三，统筹考虑高中教师绩效工资水平的提高。', '(1)关于未休假补贴。《中华人民共和国教师法》第七条第四款规定“教师享受寒暑假期带薪休假”；《机关事业单位工作人员带薪年休假实施办法》(中华人民共和国人事部令第 9 号) 第五条规定“依法应享受寒暑假的工作人员，因工作需要未休寒暑假的，所在单位应当安排其休年休假；因工作需要休寒暑假天数少于年休假天数的，所在单位应当安排补足其年休假天数。”第七条规定“机关、事业单位应当根据工作人员应休未休的年休假天数，对其支付年休假工资报酬”。', '（2）关于公车补贴。《呼和浩特市党政机关公务用车制度改革总体方案》（呼党办发〔2016〕10号）规定，列入公车改革范围的市直党政机关及参照公务员法管理的事业单位中，已进行公务员登记并享受公务员工资待遇的正式在编在岗工作人员（含参照公务员法管理的参公登记人员），以及享受机关工勤工资待遇的工勤人员；《呼和浩特市事业单位公务用车制度改革实施意见》（呼车改组发﹝2019﹞1号）规定，享受公车补贴的人员范围为：事业单位副厅级以上领导干部以及一些科研行业或特殊领域有配车待遇（且目前已经配车）的岗位或人员。', '2020年因为突如其来的疫情，使经济社会面临前所未有的困境，尤其影响我市旅游行业及周边产业。按照中央、自治区统一安排，呼和浩特市人力资源和社会保障局全力支持和组织企业复工复产，相继出台一系列社保优惠政策，助力企业复工复产。2020年3月20日发布了《转发&lt;关于阶段性减免企业社会保险费的实施意见&gt;的通知》（呼人社发〔2020〕29号）。《通知》中对困难企业予以实施减免、缓缴、阶段性降费等优惠政策。', '呼和浩特市人力资源和社会保障局下一步将按照人社部和自治区人社厅的统一安排，对中小微企业三项社会保险单位缴费部分免征的政策延长执行到2020年12月底，对受疫情影响生产经营出现严重困难的企业，可继续缓缴社会保险费至2020年12月底，缓缴期间免收滞纳金。', '突如其来的新冠肺炎疫情，对我市部分行业企业的生产生活带造成重大损失，尤其像旅游、娱乐等行业至今仍受疫情影响无法正常全面开展经营。疫情爆发以来，为积极预防疫情期间重大劳动关系矛盾风险的爆发,市人社局采取了多项举措,劳动关系总体保持和谐稳定，尚未出现较大群体性劳动关系风险矛盾。', '1、及时发布涉疫情劳动关系政策。第一时间印发了《关于做好新型冠状病毒感染的肺炎疫情防控有关工作的通知》《转发内蒙古自治区人力资源和社会保障厅关于妥善处理新型冠状病毒感染肺炎疫情防控期间劳动关系问题的通知》等七个稳定劳动关系、支持企业有序复工复产的文件。', '2、加强劳动关系争议处理指导服务。在处理企业和劳动者关于工资支付、休息休假等因疫情影响而引发矛盾争议的来电、来访、局长信箱等问题中，在向企业、职工解释国家、自治区和我市疫情防控期间稳定劳动关系相关政策的同时，我们更加注重向企业、职工传达“企业与职工是利益共同体”、“有事好商量、遇事多商量”的矛盾纠纷处理意识，帮助企业和职工建立相互理解、协商一致、同舟共济、共渡难关的生产经营和理性维权理念，稳定劳动关系。', '3、主动防范化解劳动关系风险和矛盾。疫情期间，我局积极与市总工会、工商联密切联系，协调配合，充分发挥协调劳动关系三方作用，召开了“疫情防控期间稳定劳动关系”协调劳动关系三方会议，联合印发了《呼和浩特市协调劳动关系三方关于进一步做好2020年集体协商工作的通知》（呼工发〔2020〕13号）等政策文件，积极指导企业通过集体协商的方式，解决劳动关系矛盾争议。对个别企业集中裁员出现的群体性矛盾争议进行及时介入，指导协商，有效避免群体性矛盾事件的升级。及时与市场监管局、经信委、疫情防控指挥部进行对接，掌握我市企业复工复产动态，随时关注可能引发劳动关系矛盾争议的行业、产业及群体，对受疫情影响我市劳动关系形势进行分析研判。', '4、全面推行“互联网+劳动关系”。实行企业服务事项“线上一网办，办事不见面”，减轻企业负担，提升服务效能，持续优化劳动用工市场营商环境。', '虽然当前全国疫情形势得以控制，但我们仍然不能放松警惕，要清醒地认识到当前仍然面临的问题，相关行业可能出现劳动关系矛盾风险仍然存在。下一步，我们要做好准备，进一步统筹谋划，在现有工作基础上加强劳动关系协调机制，强化劳动争议调解准备和处理能力，以便更好地应对可能出现的劳动关系风险矛盾。', '由于您提出的三条建议没有涉及我局相关职能，经与您本人沟通，同意该建议由市教育局答复。', '（十）关于尽快出台对公车公营出租公司及出租汽车驾驶员援企稳岗政策措施的建议（分办）', '感谢您对我市公车公营出租公司及出租汽车驾驶员疫情期间运营情况的关注。疫情爆发以来，国家、自治区及时出台政策，我市出台《关于印发应对疫情支持中小企业健康发展的十五条措施的通知》（〔2020〕1—15），结合上级通知要求，我们及时采取行动，开展援企稳岗政策宣传和受理工作：', '1、为切实支持企业稳定就业，下发了《关于做好疫情防控期间失业保险稳岗返还工作的通知》（呼人社办发〔2020〕12号）。放宽中小微企业失业保险稳岗返还政策裁员率标准；全面推行业务受理线上经办；进一步简化手续，加快审核工作。', '2、为支持我市经营困难且恢复有望的企业，于2019年8月13日制定下发了《关于明确经营困难且恢复有望企业认定标准、流程及失业保险费返还标准的通知》（呼政办发〔2019〕26号），专门成立了困难企业认定工作领导小组，领导小组成员单位包括市人社局、市发改委、市工信局、市生态环境局、市财政局。该政策出台执行期限为2019年12月30日；今年国家、自治区和我市又将该政策延长至2020年12月30日。企业符合以下条件的可以认定为困难企业：（1）截止企业提出认定申请的上月末，企业参加失业保险并足额缴纳失业保险费满12个月的（补缴欠费的可计算为缴费时间）；（2）企业提出认定申请时，前12个月企业未裁员或裁员率低于全国上年度城镇登记失业率；（3）生产经营活动符合国家及所在区域产业结构调整和环保政策；（4）暂时性生产经营困难（主营业务收入下降，企业利润明显下滑，流动资金严重不足，融资困难，工资支付压力大，缴纳社会保险费困难）且恢复有望的；（5）企业与工会组织协商制定了稳定就业岗位措施且该措施符合《劳动合同法》相关规定；（6）失信企业和僵尸企业不列入享受范围。认定为困难企业的，可返还按认定当年1月份最低工资标准的85% X 6个月的失业保险费。', '3、市人社局按照《内蒙古自治区人力资源和社会保障厅 内蒙古自治区财政厅 国家税务总局内蒙古自治区税务局关于阶段性减免企业社会保险费的实施意见》（内人社发〔2020〕19号）要求，我局及时联合市财政局、税务局制定我市阶段性减免企业社会保险费政策。减免办法：中小微企业、以单位形式参保的个体工商户，2020年2月至12月的单位缴费予以免征；大型企业及其他单位2020年2月至6月的单位缴费减半征收。按项目参加工伤保险的，减免期内新开工的工程建设项目，按国家规定享受阶段性减免工伤保险费政策。', '4、对符合条件的出租车公司，按规定给予创业担保贷款支持。下一步我们将按照国家、自治区和市委市政府的决策部署，全面落实各项扶持政策，减轻企业负担，努力帮助企业渡过难关。', '1、公开招聘方面。《关于进一步规范事业单位公开招聘有关问题的通知》（内人社办发〔2015〕29号）明确：“盟市、旗县（市、区）事业单位公开招聘计划须由盟市机构编制部门核准。盟市委编办核准的公开招聘计划须报自治区编办核准备案同意”。为此，事业单位列编招聘工作人员，需在编制部门核准的空编使用计划内进行。对于用人单位急需紧缺人才和高层次人才，在招聘时也给予了政策倾斜，一是招聘急需紧缺专业人才和高层次人才，经用人单位主管部门申请，可降低笔试和面试开考比例；二是招聘急需紧缺专业人才和高层次人才，可根据实际情况简化招聘流程，采取面试考核的方式进行招聘。从政策层面上，为用人单位更好更快的选拔和留住人才提供了方便。', '2、职称聘任方面。2010年我市开展岗位聘用工作以来，始终按照优中择优，竞聘上岗的办法，旨在形成“能者上、庸者下”的用人格局。在具体落实过程中，用人单位还存在“论资排辈”、“能上不能下”问题，需要用人单位不断完善内部人事管理制度，加强对工作人员的绩效考核管理，明确“上”的门槛和“下”的底线，强化用人单位领导较真碰硬的工作作风，才能逐步形成良好的用人格局。', '社会保险制度是完善社会主义市场经济体制、构建社会主义和谐社会和全面建设小康社会的重要支柱性制度。我国《劳动法》《劳动合同法》《社会保险征缴暂行条例》都明确规定了用人单位必须为劳动者缴纳社会保险费。企业是否给在职职工按时足额缴纳社会保险费，不仅关系到劳动者的合法权益，更关系到社保基金的支撑能力，关系到地方财政负担，直接影响社会的和谐稳定。', '为深入贯彻落实国务院“放管服”改革，努力营造我市良好营商环境，在疫情特殊时期，我局及时调整工作重心，利用手机APP、微信公众号、报刊、电视电台等媒介进行广泛宣传。截至2020年6月底，我市累计已核定缴费人数61.7万人次，核定参保单位约2.03万户，核定金额约15.2亿元。其中城镇企业职工基本养老保险约38.5万人，核定金额约13.8亿元；工伤保险约48.02万人，核定金额约2053.23万元；失业保险约58.9万人，核定金额约1.14亿元。城镇企业职工基本养老保险核定人数比去年同期增加约7845人，失业保险比去年同期增加约2.01万人，工伤保险比去年同期增加约22348万人。', '我局深化落实“放管服”改革要求，优化经办流程，减少办事环节，缩短办理时间，提升服务水平，积极创新服务方式，推进以参保单位网上申报、灵活就业人员预核定为代表的非接触式服务，同时积极拓宽公共服务渠道。进一步完善和推广网上申报系统，要求全市参保单位包含旗县区在内，全部使用网上申报系统完成工资申报、缴费核定通知单打印，社会保险费征收等业务，真正实现“办事不见面”。', '1、全面推进社会保险稽核工作改革。由事前审核变为事中面审和事后稽查，贯彻落实“双随机，一公开”政策，由全面审核变为重点随机抽查审核，减少企业核定负担，累计减少窗口办理量近24万人次。规范事中事后监管，落实监管责任，将社会保险缴费基数、缴费人数反复申报不实的参保单位，及欠缴社会保险费的企业列为重点稽审对象。', '2、推广个体灵活就业人员预核定。经过一段时间的试运行，个体灵活就业预核定受到了广大参保人员的一致好评，实践证明预核定不仅提高了办事效率，而且提升了群众的满意度。进一步推广个体灵活就业预核定，将预核定推广至五个旗县区', '同时，将全民参保扩面工作作为重点工作之一，不定期到企业、商铺、小区等进行全民参保宣传工作，让群众深入了解社会保险政策，熟知参保的权利和义务，知晓“为什么参保、什么人要参保、怎样参保”，切实提升全民参保意识，在全社会形成“我要参保”的良好氛围。同时，积极打通与工商局、市场监督局、税务局的信息盲点，将新注册企业作为重点对象，进行参保扩面，真正做到应参尽参。', '我局妥善解决社会保险欠费问题，既是经济社会层面的问题，也是法律层面的问题。您提出的加强监管执法力度，了解企业社会保险费征缴情况，对有违法、违规行为的用人单位，根据相关法律进行严惩重罚，对解决部分企业恶意欠缴社保费用问题有很好的借鉴意义。', '下一步，我们将以“保权益、可操作、顾大局”为基本原则，会同相关部门做好以下工作：一是鼓励企业为职工缴纳社会保险。二是研究解决部分企业恶意欠缴社保费的问题，将按照《劳动法》《劳动合同法》《社会保险征缴暂行条例》对欠缴社会保险费的违法行为进行严格执法。协同税务局等相关单位，维护参保人员社会保险权益，强化征缴清欠工作，对能够提供佐证材料的，尽量满足参保者诉求，予以解决，以减少企业职工无法享受社会保险的问题发生。进一步完善相关法规和政策规定，规范行政管理和经办管理，完善执法程序，督促用人单位合法用工、应保尽保。', '我市历来高度重视“三支一扶”、“高校毕业生社区民生工作志愿服务计划”等基层项目人员服务期满后的相关政策，始终认真贯彻落实国家和自治区促进高校毕业生就业决策部署，严格按照自治区统一安排组织实施高校毕业生基层服务项目。“三支一扶”属于国家项目，招募人员主要到苏木乡镇从事支教、支农（支牧）、水利、支医和扶贫工作；“高校毕业生社区民生工作志愿服务计划”属于自治区项目，招募的高校毕业生主要到基层苏木乡镇（街道）从事人力资源和社会保障、法律志愿服务、社区矫正、社区禁毒等民生工作。实施这些项目的重要意义在于让高校毕业生在基层经风雨，见世面，磨炼意志，提高能力；熟悉基层，了解民情，增强热爱群众、服务人民的责任意识。', '按照自治区相关文件要求，“三支一扶”、“社区民生工作志愿服务计划”高校毕业生服务期满后进入编制内的相关政策，一是全区公务员考录每年要安排一定比例的职位，对服务期满考核合格的高校毕业生定向招录；二是盟市事业单位按照每年不低于招聘总数20%，旗县及旗县以下事业单位每年安排不低于招聘总数40%的岗位，用于招聘服务期满考核合格的高校毕业生。三是在服务地参加公务员考录和事业单位公开招聘的，不受盟市、旗县户籍限制。', '今年，为切实加强社区工作人员队伍建设，进一步充实社区力量，我市计划公开招考聘用1000名社区工作人员，其中，在呼和浩特市服务的六类基层项目人员报考不限户籍，鼓励“三支一扶”、“高校毕业生社区民生工作志愿服务计划”等项目人员扎根基层。乡镇（街道办事处）与聘用人员签订劳动合同，实行聘用合同制，薪酬总额执行社区三岗十八级工资，按规定缴纳五项社会保险。', '下一步，我们会配合相关单位，继续全力做好服务期满高校毕业生参加公务员考录、事业单位公开招聘和社区工作人员招聘等工作，促进其尽快实现就业。', '1、关于疫情防控工作补贴。按照国务院应对新型冠状病毒感染肺炎疫情联防联控机制《关于聚焦一线贯彻落实保护关心爱护医务人员措施的通知》（国发明电〔2020〕10号）通知要求，我局已全部落实了全市防控疫情一线医务人员的各项补贴和工资待遇工作，如临时性工作补贴、防疫津贴、2倍绩效工资等。', '临时性工作补贴的发放范围严格按照国发明电〔2020〕10号文件执行。一线医务人员是指疫情防控期间按照政府统一部署、卫生健康部门调派或医疗卫生机构要求，直接参与新冠肺炎防疫和救治一线工作，且与确诊或疑似病例直接接触的接诊、筛查、检查、检测、转运、治疗、护理、流行病学调查、医学观察，以及直接进行病例标本采集、病原检测、病理检查、病理解剖的医疗卫生专业技术人员。援鄂一线医务人员临时性工作补助按每人每天600元，本省一线医务人员一档按确诊病例的当日计算工作天数，每人每天300元，二档标准为每人每天200元。', '对于您提出的社区防控一线工作人员工作补助的发放事宜，截至目前，我局尚未收到具体实施文件。据了解，市民政局结合社区疫情防控的实际情况，就社区疫情防控人员工作补助事宜已向市人民政府提出建议，待下一步组织实施。', '2、关于疫情防控奖励表彰工作。按照国家表彰办统一部署，对于疫情期间表现特别突出的重大典型可以开展及时性表彰奖励，表彰主体为省委省政府、省级工作部门、地市一级和县市一级党委政府。能否进行及时性表彰奖励，取决于是否出现重大先进典型，如果没有出现重大先进典型，可以不表彰。', '我市针对疫情防控工作开展全市范围内的普遍性表彰活动，要严格按照《国家功勋荣誉表彰条例》（中发〔2017〕21号）的明确规定“市级党委和政府表彰奖励项目每年不超过2个，县级党委和政府表彰奖励项目每年不超过1个”且经市委、市政府请示自治区党委、政府同意后开展。', '2020年我市党委、政府2个表彰项目即“市劳动模范和先进工作者”“市民族团结进步模范集体和模范个人”已按程序报经自治区党委、政府审批。', '您建议中提到我市大学生志愿者待遇问题。我市组织实施“西部计划”、“三支一扶”和社区民生志愿服务计划至今，志愿者的生活补贴标准2次提高，从开始的每月1600元提高到每月2500元，在今年又提高到每月2950元，同时按照每人3000元标准，给予每名新招募且在岗服务满6个月以上的“三支一扶”、社区民生志愿服务人员一次性安家补贴。', '《国务院办公厅关于进一步促进旅游投资和消费的若干意见》（国办发〔2015〕62号）、《内蒙古自治区人民政府关于进一步促进旅游投资和消费加快旅游业改革发展的实施意见》（内政发〔2016〕64号）中分别提出了“鼓励弹性休息”和“优化休假安排”，要求“有条件的地方和单位可根据实际情况，依法优化调整夏季作息安排，为职工周五下午与周末结合外出休闲度假创造有利条件。”', '今年，由于突如其来的新冠肺炎疫情，自治区人民政府在确保全面复工复产的基础上，提出了“六大集中行动”，进一步明确了“完善弹性休假制度”由各盟市根据当地实际，研究出台周末2.5天弹性休假或调剂休假，在完成本职工作并安排好值班的情况下，鼓励市民周末外出休闲度假，带动短途旅游消费。', '今年4月20日，我局已向市人民政府提出“试行周末2.5天休假的建议”，建议将周一至周四的工作日时间适当延长，鼓励干部职工周五下午合并周末时间外出休闲度假，带动旅游消费。下一步，待市政府研究讨论后确定是否实施。', '接到您的建议后，我局选择了两家本地区相对高端的物业管理公司开展了调研检查，并结合日常巡查等监管模式了解掌握物业服务企业劳动用工情况，重点调查建议中提出的超时间工作、劳保用品和防护用品发放不及时的问题。', '经调查核实这类问题确实存在，尤其是安全保卫及维修维护人员实行倒班制，每班12小时且没有休息休假，已严重超过国家规定的每日8小时，每周不超过44小时的工时制，也严重违反每周至少休息一日的休息制度，法定节假日也有一些用工单位没有休假且不安排补休或支付补偿，劳动者想休息就得请假，这种请假有时是要被扣除当日工资，所以也不能算作休息休假。关于劳保防护用品发放不及时的问题，也不同程度的存在，尤其在今年防疫期间的防护用品因客观原因更是极度缺乏。有的公司还会收取工服、工具等押金，一些防护手套、消毒用品的配备不足不及时的情形也很普遍，对劳动者的身心健康造出了一定的影响。', '针对以上发现的违法用工行为，我局将本着维护劳动者的合法权益的职责将加大执法力度，纠正违法行为，敦促有关方面通过提高劳动者的待遇促进物业服务公司提高服务质量。', '呼和浩特市委、市政府高度重视保障农民工工资支付工作，坚持把保障农民工工资支付工作作为一项重要政治任务，加强组织领导，强化责任落实，全市形成了职责清晰、机制完善、上下协同、齐抓共管的工作局面。', '（2）加强对旗县区治欠保支工作年度考核。将治欠保支工作纳入各级政府和部门绩效考核体系。制定印发了《呼和浩特市保障农民工工资支付工作考核实施办法》《呼和浩特市2019年保障农民工工资支付工作考核细则》，进一步强化了对各旗县区和市有关部门的专项绩效考核。因疫情影响，今年5月份开展对旗县区2019年度保障农民工工资支付工作的考核，考核连同全市2020年第一季度专项执法检查同步进行，对发现的问题同步督办整改。', '（3）加强治欠保支工作督查。一是建立定期督查制度。2019年5月，抽调人社、住建、城管、发改、财政等部门组成专项执法检查组，对全市在建工程项目治欠保支各项制度落实、执法检查开展、农民工投诉举报案件查处、信访案件查办等情况先后开展了3次专项督查。二是加大对欠薪案件的督办力度。通过专项执法检查，对欠薪问题较多、举报量大的地区进行重点督办。对欠薪案件查办时间长、农民工情绪激烈的案件，派出督导组现场督办，直到问题妥善解决。三是实行案件化解周通报制度。对案件查处结果报送不及时、案件化解率低、连续两周排在后两位的旗县区进行全市通报，并由市政府领导约谈其一把手。2019年，全市共立案查处拖欠农民工工资案33件，涉及农民工885人，解决农民工工资760.43万元。督查督办国家和自治区转办案件30件，涉及农民工404人，追讨农民工工资1240万元。', '（5）加强根治欠薪工作宣传。2019年11月，为营造全市根治欠薪冬季攻坚行动的良好舆论氛围，市、旗县区两级人社部门在主要街道、建筑工地通过发放资料、张贴画报、悬挂标语横幅等多种形式进行了集中宣传，并在北方新报做了“首府：向欠薪者亮剑”的专题报道。通过“青城人社”微博、“12333”、“市劳动保障监察支队”微信公众号等新媒体平台向广大市民进行了多篇幅的信息推送，其中突出对欠薪失信联合惩戒内容进行了宣讲。', '2、健全长效机制，强化源头治理。2019年，我市严格项目的审批和资金监管，加大在建项目的执法检查力度，加强欠薪隐患排查，从源头上预防欠薪问题。', '（1）整顿规范建筑市场秩序。一是严格工程建设项目施工许可审批程序，对建设资金不到位、挂靠施工、肢解发包、层层转包等一律不予办理施工许可。市住建局对三家违法分包的企业进行了处罚。二是推行工程款支付担保制度。建设单位的建设资金到位率达不到规定比例的项目，要求建设单位向施工总承包单位提供等额工程款支付担保。对建设资金来源不落实、建设资金不到位又不能提供有效期与项目工期一致的银行保函或其它合法有效担保的工程项目，实施重点监控。三是全面推行施工过程结算。规定建设单位要按照合同约定的计量周期或者工程进度结算并支付工程款。对发包人不按合同约定支付工程进度款，双方又未达成延期付款协议，导致施工无法进行的，要求发包人承担违约责任。四是坚决打击未批先建违法行为。对未获得施工许可证的项目一律不批准开工建设。对没有施工许可证开工建设的项目，除立即停工外，对建设单位和施工单位的违法行为实施行政处罚，并记入不良行为记录。五是加强实名制管理检查。2019年，全市检查在建工程项目191项，涉及施工企业626家，下达督办单161份，计入不良诚信记录135条，通报企业17家。', '（2）加强政府投资工程项目监管。一是加强政府投资项目资金筹措方案审查。对建设资金不落实的政府投资项目，一律不予审批，对有拖欠农民工工资和工程款的建设单位，不得审批新项目开工建设。将按月足额支付工资、工资与工程款分账管理等内容列入招投标文件，列为评标标准和中标承诺。二是严禁政府投资工程项目要求施工企业带资承包，印发了《关于政府投资工程项目不得在施工合同中出现带资施工条款的通知》，任何建设单位不得将施工单位带资承包作为招标投标条件，更不得要求施工单位将此类内容写入工程承包合同。三是加强政府投资项目资金监管。2019年抽调人社、住建、财政、审计四个部门16人组成两个核查组，对相关地区、部门上报的历年政府投资项目欠薪情况开展实地核查，针对存在的问题，市政府及时安排资金拨付，坚决预防和整治政府投资项目因拖欠工程款导致的欠薪问题。', '3、加强执法检查，强化制度落实。2019年我市进一步加大执法检查力度，加紧推进保障农民工工资各项工作制度的落实，对落实不到位的建设项目限期整改。', '（1）加强执法检查，健全工作台账。抽调人社、发改、财政、住建、城管、公安、工会等治欠保支主要成员单位40人，成立了10个督导组，由抽调部门处级领导任组长、抽调部门作为督导责任单位，对各地区、各单位落实“一金四制”进行了实地督导。7月和11月按照自治区统一部署，组织开展了根治农民工欠薪夏季、冬季攻坚行动。按照自治区统一文本格式，建立了全市在建项目管理台账，按月动态更新，按时报送自治区。', '（2）加强劳动用工管理，推行实名制管理制度。一是加大企业实行劳动合同制度的推进力度，着力提高劳动合同签订率，在建工程项目劳动合同签订率100%。司法行政机关根据有关要求，组织开展了农民工劳动合同普查和体检工作。二是全面建立实名制管理制度。项目工地安装了考勤设备、设立了劳资专管员，在建工程项目实名制管理实现了全覆盖。三是积极推广应用自治区建筑业从业人员实名制管理服务信息平台。管理平台实现了市、旗县区与自治区三级互联共享。全市所有在建工程项目签订的劳动(劳务)合同，房屋、市政类工程的项目合同在管理平台上进行了注册登记，实现监管全覆盖。截止目前，全市建筑业实名制信息管理服务平台内已录入企业744家，其中自治区内企业471家，自治区区外企业273家；录入企业人员45453人，录入在建工程项目265个。', '（3）建立并落实农民工工资专用账户管理制度。制定实施《建设领域农民工工资与工程款分账管理制度》。全市建设工程项目有375家企业签署了建筑业企业工资代付专用账户监督管理四方协议，建立了企业工资代发专用账户。', '（4）规范落实施工现场维权公示制度。行业主管部门和人社部门实地督导施工企业现场设立维权信息公示牌，所有在建项目实现了维权信息公示制度全覆盖。', '4、加强诚信体系建设，加大联合惩戒力度。2019年我市进一步加强企业劳动保障违法行为诚信体系建设，加大了对欠薪违法行为的打击力度和联合惩戒力度。一是市、区两级人社部门将15家违法企业列入了“劳动保障失信社会法人黑名单”，在人社部门官网和呼和浩特市日报进行了公开曝光，并按规定向“信用内蒙古”、“信用中国”进行了推送，社会信用体系建设联席会议各成员单位按照部门职责，对列入拖欠农民工工资“黑名单”的失信主体进行了相应惩戒。二是住建部门将保障支付制度落实不到位的17家施工企业纳入了信用信息共享平台实施了惩戒。', '5、加大执法力度，依法处置欠薪案件。2019年我市加大对在建工程项目的联合执法检查力度，进一步畅通农民工维权渠道和对欠薪案件的查处力度，加强行政司法联动机制，严厉打击拒不支付劳动报酬违法行为。', '（1）多渠道解决欠薪案件。一是畅通投诉举报渠道，建立由15个部门联合办公的清欠服务大厅，对农民工在内的广大劳动者的举报投诉信息进行统一登记、录入、流转和办理，形成一点举报投诉、全网联动处理的工作机制。全市劳动保障监察部门立案查处拖欠农民工欠薪案件33件，结案率100%。二是加强行政司法联动。落实行政执法和刑事司法衔接机制和会商制度，坚决打击拒不支付劳动报酬违法犯罪行为。全年全市公安机关刑事立案3件，涉及农民工290多人，涉案金额840多万元。三是落实欠薪案件快裁快审机制，建立农民工工资争议“绿色通道”。对因劳动合同引发的工资争议，积极引导农民工就地就近解决，劳动争议仲裁委员会对拖欠农民工工资案件开辟“绿色通道”，加强调裁、调审、裁审衔接，及时办理欠薪争议案件。四是建立并落实法律援助制度，全面畅通农民工法律援助绿色通道，积极引导农民工依靠法律途径解决合理诉求，全年全市司法行政机关受理请求支付劳动报酬法律援助案件1078件。五是各行业主管部门进一步加强工程建设领域的日常监管，加大因挂靠承包、违法分包、层层转包、以及因拖欠工程款导致的欠薪案件查办力度。在2019年专项执法检查中，对“三包一挂”等违法行为，开展了集中清理整顿。对内蒙古建设公司、中建三局、江苏南通三建集团违法分包行为进行了处罚。', '（2）健全欠薪预警机制。一是制订了《农民工讨薪突发事件处置工作预案》，市、旗县区两级政府采取有力措施，加强源头治理，强化预警防控。二是建立健全了建设领域农民工工资支付监控网络和预警机制，根据市场监管、税务、银行等单位提供的信息和企业经营相关指标变化，对在建项目实行全面监控，及时预警，变被动应对为主动预防。三是加强“两网化”管理，全市划分83个网格，每个网格配备专职监察员1名、协管员2名。依托两网化管理平台，加强辖区内企业工资支付情况日常监管，对发生过工资拖欠的企业实行重点监控，建立拖欠农民工工资情况台账，实行动态监管。', '1、关于社区工作人员工资待遇的问题。2020年5月，按照内蒙古自治区党委组织部、民政厅、财政厅、人力资源和社会保障厅《关于印发﹤社区工作者职业体系建设试点方案﹥的通知》（内组通字〔2020〕9号）精神，我局起草了《呼和浩特市社区工作者薪酬待遇实施意见（试行）》，以下简称《意见》。', '该《意见》从适用范围、实施原则、岗位等级、薪酬水平、薪酬构成、薪酬管理、社会保险、经费保障等八个方面对社区工作人员薪酬进行了细化。以岗定薪，优绩优酬，注重工作年限、岗位等级、岗位责任、工作业绩、考核结果等因素，向社区一线骨干、优秀人员倾斜，适当拉开差距，体现激励导向，吸引和留住社区人才。', '例如“岗位等级”，推行“三岗十八级”社区工作者岗位等级序列。“三岗”即：社区正职、社区副职、社区其他人员。各岗位按照社区所在岗位、社区工作年限、受教育程度等设置相应岗位等级。', '再如“薪酬水平”，根据2019年全区城镇常住居民人均可支配收入40782元，确定社区工作者1级岗位的月薪酬总量为3398元，2-18级岗位的月薪酬总量在1.05-1.85倍之间合理确定。试用期人员月薪酬总量按1级岗位的0.9倍确定。遇事业单位工作人员增加基本工资标准时，社区工作者相应调整工资。', '2、关于社会保险缴费基数的问题。该《意见》明确，按照国家和我市有关规定，为社区工作者缴纳企业职工基本养老保险、基本医疗保险、失业保险、生育保险、工伤保险等社会保险费及住房公积金。基本工资和绩效工资纳入社会保险缴费基数。所需经费列入同级财政预算管理。', '上述《意见》，我局已提交市委组织部，经有关部门研究同意后即可实施，相信工资待遇的保障对留住社区人才会起到积极地推动作用。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>25</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>呼和浩特市人民政府办公厅关于印发呼和浩特市十三五时期及中长期足球发展规划年的通知</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2018-11-27</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/hhht_zfgb/hhht/2017/4/201811/t20181127_346594.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['呼和浩特市人民政府办公厅关于印发呼和浩特市 “十三五”时期及中长期足球发展规划 （2016-2050年）的通知', '经市人民政府同意，现将《呼和浩特市“十三五”时期及中长期足球发展规划（2016-2050年）》印发给你们，请认真组织实施。', '按照《中国足球改革发展总体方案》和《中国足球中长期发展规划（2016-2050年）》以及《内蒙古自治区足球中长期发展规划（2016-2050年）》要求，为抓住内蒙古作为全国首个足球改革发展试点省区的机遇，发挥我市首府的特殊优势，率先推动足球改革发展，促进我市足球运动持续健康发展，制定本规划。规划近期至2020年，中期至2030年，远期展望至2050年。', '2015年底我市常住人口数为306万，初步估算参与职业联赛、青训、社会足球、业余足球及校园足球、大型高水平赛事等的足球消费人口达5万余人。截止到2015年，我市已有足球特色学校81所，校园足球运动员注册人数达6900多人，校园足球参赛人数达48000人，各级各类足球教练员90余人，持有足球裁判员证书裁判员41人，业余足球队273支约9000人参与足球赛事活动。在呼高校23所，集中了内蒙古自治区70%的教育资源，在校生达28.6万人，为足球发展提供了充足的后备人才力量和消费群体。', '我市与时俱进，引入成立职业足球队，实现了自治区职业足球新突破，促进了职业足球俱乐部建设。2014年，我市成功引进全区唯一一支甲级职业足球队——呼和浩特中优足球队，并征战中甲联赛，2015年、2016年赛季中甲联赛中奋力拼搏，分别摘得第6名、第7名的好成绩，吸引百万人关注，斩获最佳人气、优秀团队、最佳运行团队、优秀赛区及安保工作优秀等全国奖项。CCTV5、乐视体育及全国各省市电视台、网络等对比赛进行了直播，并在数个一二线发达城市进行比赛，提升了我市的美誉度和知名度，在女子足球发展上，呼和浩特市蒙古族学校女子足球队曾代表中国参加1993年世界中学生女子足球锦标赛并夺得冠军，之后一直处于校园足球的发展模式。', '我市包括在呼高校现共有25个体育场，其中2个11人制真草草坪足球场，56个400米跑道标准田径足球运动场，196个小运动场。319所中小学中共有各类足球场241个，有11人制足球场46个，其中40个为人工草坪，6个为沙石场；共有104个7人制足球场，其中88个为人工草坪，16个为沙石场；共有91个5人制足球场，其中52个为人工草坪，39个为沙石场；各旗县区已建成62片笼式足球场和5个室内足球馆，已着手改造20所校园足球场地，正在推进已有的体育场馆向足球馆进行功能转换，提高场地利用率。呼和浩特体育场场内为双层看台，能够容纳51632个观众观赏足球赛事，具备发展足球及承办大型足球赛事的基础优势。', '我市属典型的蒙古高原大陆性气候，年平均气温8℃夏季平均气温13℃至27℃，冬季平均气温-17℃至-5℃，平均海拔1050米，最高海拔武川大青山接近2280米，四季气候变化明显，夏季凉爽，地理纬度、气候气温等条件是足球训练、足球竞赛、足球青少年培训的夏季优选圣地。', '我市通讯业、保险业、酒店餐饮业等服务业态发展迅速，大型云计算数据中心加快建设为我市足球发展的云应用平台创造了条件。目前，我市五星级酒店数量达到8个，为足球赛事保障、足球赛事接待工作等打下了良好基础。各新闻媒体、广告营销传播企业、电视电台报纸和互联网等各类媒体具备开设专栏、专题网页报道我市足球开展的能力。', '目前我市已形成了以中甲职业联赛带动，“市长杯”、“区长杯”、“校长杯”系列赛事普及，校园学生、机关干部、社区居民、企业职工、农民等各个群体全面参与的赛事体系。呼和浩特地区足球联赛、“阿吉奈”杯青少年女子足球邀请赛等地区性赛事不定期举办；校园足球赛基本覆盖了我市多数中小学，2015年进行了3269场比赛；社会足球比赛进行了675场，全面覆盖了我市现有社会足球人口。', '目前，我市足球发展与国内足球发达地区差距不小，仍然存在诸多制约因素：一是基础薄弱，场地设施条件有限。中心城区范围内规划和预留的足球场地严重不足，体育场周边已没有足够的足球建设用地；部分校园内规划建设预留空间无法拓展，现有78个学校没有足球场，学校空间小，预留场地不足，对足球特色学校足球场地建设形成了制约。二是管理运营方式落后，资金投入不足。2015年市财政预算已安排足球产业发展引导资金，但是，旗县区财政预算目前还没有安排足球发展专项资金，足球发展缺乏持久保障，足球产业发展处于起步阶段。三是专业人才缺乏。各类足球人才储备量不足、人才结构不合理，人才体系和人才流动发展机制不健全。四是赛事层级不清,缺乏系统、成系列的高水平赛事。各级专业足球竞赛组织推广水平相对落后，现存竞赛缺乏体系设立，足球文化普及不广。五是配套政策还不完善。校园足球政策急需完善，校园足球工作评价机制政策、人才选拔“绿色通道”政策、足球特长生评定考核政策、足球专业人才考试优惠等政策需完善；教师、教练员和裁判员激励政策等需完善。人才开发、引进足球专业人才政策，足球运动风险保障政策，足球场馆建设与管理政策等需要配套完善。', '全面贯彻党的十八大和十八届三中、四中、五中全会精神，深入贯彻习近平总书记系列重要讲话精神和关于足球改革发展工作的重要指示，按照“国务院关于中国足球改革发展总体方案”和自治区党委、政府关于足球改革发展总体部署，树立现代足球运动理念，遵循足球运动发展规律，以服务于人的全面发展为宗旨，以改革创新为动力，以足球普及为导向，扎实筑牢足球发展的制度基础、人才基础、设施基础、社会基础，不断提升足球运动的规模和质量，推进足球产业向规模化、高层次化发展，促进足球体育消费，切实改善青少年体质健康水平，在全市形成喜欢足球、参与足球、发展足球的文化氛围，促进社会和谐进步，不断增强群众的身体素质和健康水平，建设足球强市。', '——坚持遵循规律，持续发展。遵循足球发展规律，科学谋划，以人为本，从娃娃抓起，从基层抓起，从基础抓起，努力夯实足球运动的群众基础、人才基础、设施基础、管理基础和文化基础。有序推进，持之以恒，推动足球走向社会、走向校园、走向家庭。', '——坚持改革引领，创新发展。树立大足球观，坚持以人为本，充分发挥足球对体育发展和改革的引领作用，以改革体制机制为突破口，坚持政府主导与市场化发展并举，加强政府与企业合作，充分发挥市场机制作用，转变足球发展方式，积极探索足球发展的新路径，提升足球运动的活力和水平。', '——坚持依法治理，规范发展。把足球发展纳入法治化轨道，健全政策法规体系，推进行业标准建设，强化监督管理，提升法治观念和法治水平，创造平等参与、公平竞争的发展环境，引导从业人员诚信自律、遵纪守法，坚决打击足球领域违法犯罪行为。', '——坚持包容共享，特色发展。充分调动全社会的积极性和创造力，营造重视足球、支持足球、参与足球的良好氛围。立足优势，突出特色，以青少年校园足球、女子足球及场地设施建设为重点，勇于实践，开拓创新，着力探索引领足球运动普及与提升的有效路径。', '——坚持盘活存量，优化发展。坚持实事求是、量力而行，努力盘活存量，充分挖掘和利用现有各类场馆和闲置场地、场所，通过填平补齐、整合共享的方式，提升功能定位，优化足球场馆资源配置，积极稳妥推进足球场馆设施建设。', '——坚持重点提高，赶超发展。坚持持久用力，久久为功。举全市之力，社会足球以普及为主，职业足球以引进、提升为主，追赶足球发达地区发展水平。', '——坚持无缝对接、融合发展。坚持足球产业整体整合发展，使足球产业与文化产业、广告传播业、旅游业相融合，相互促动融合联动发展，最终实现以围绕城市发展为主体的足球产业、文化产业、旅游产业的多业态格局，推动足球产业向规模化发展，提高我市城市影响力和品牌力。', '以自治区试点省区为支点，普及足球、筑牢足球发展基础，确立我市足球改革发展“四个基地、三个中心”的发展定位, 打造多元发展、多极支撑的足球产业发展体系。', '——国家（北方）足球训练基地。加快建设国家（北方）足球训练基地，力争2018年建成投入使用。吸引和引入职业足球俱乐部和联赛，辐射带动周边形成足球公园、体育运动休闲区。', '——全国女子足球人才培养基地。借助我市蒙古族中学女子足球队闻名全国的影响力，树立内蒙古乃至中国女子足球后备人才培养的旗帜。以蒙古族中学女子足球队为基础滚动发展，加大政府投入和扶持，吸引社会投入和市场资本，扩大招生规模，改善训练场地设施，引进高水平教练团队，加大足球后备人才选拔和培养，通过5至10年时间逐步建成全国女子足球人才培养基地，为全国女足发展培养和输送人才。', '——打造呼和浩特青少年足球训练基地。按照省级青训基地的建设标准，将位于赛罕区榆林镇的市第十中学改造建设为具备500人以上训练接待能力的市青少年足球训练基地。市青训体系建立后，对全市青少年足球运动队伍开展集中训练，为足球运动发展储备后备人才。', '——自治区足球产业发展基地。创造条件，激发市场活力，挖掘足球消费潜力，打造自治区足球产业发展基地。以国家（北方）足球训练基地、呼和浩特体育场为核心打造足球产业新业态，通过足球产业要素资源的生产与培育，通过社会力量与市场潜力的释放，着重培养和发展足球相关产品制造销售、足球培训、足球赛事、足球健身娱乐、足球广告代理、足球传播营销、足球中介业等业态，逐步形成足球产业集群，打造自治区足球产业发展基地。', '——西北足球赛事中心。充分利用国家（北方）足球训练基地场馆资源，完善建设体校、市体育场等足球场地建设，达到举办大型赛事的基础条件。充分利用“呼和浩特中优足球队”品牌，注重职业联赛、商业性体育赛事、区域性赛事、青少年等级赛事、校园足球赛事的有机衔接，建立各级别赛事衔接结构体系，打造具有品牌效应的足球赛事市场。积极引进高端国际国内足球赛事，精心培育职业足球俱乐部参与足球联赛，开拓市场潜力，最终将我市建成为西北地区具有影响力的足球赛事中心。', '——自治区足球人才培训输送中心。通过开展青少年校园足球活动普及足球运动，建立青训体系提高竞技水平，注重发现、选拔和重点培养青少年足球运动苗子，为促进我市青少年足球运动的普及和发展，为内蒙古乃至中国足球事业的发展培养出更多的优秀后备人才；通过呼市体校、青训中心、各中小学校积极培训补充足球教师师资队伍，形成面向全区的足球人才培训输送中心。', '——西北足球文化旅游消费中心。以职业足球、校园足球、社会足球消费为基点，积极培育足球消费市场，扩大消费渠道，鼓励广大市民足球消费；充分利用祖国北疆的历史文化名城、优秀旅游城市资源，借助大召寺、五塔寺、哈素海、昭君墓、内蒙古博物馆等名胜风景游客资源，进一步开发足球公园、足球走廊、足球草滩、足球博物馆等，培育足球旅游产品，打造我国西北地区的足球文化旅游中心。', '以保基本、强基层、打基础为发展目标。理顺管理体制，加强足球基础设施建设，营造有利于足球发展的外部环境，使人民群众对足球运动的需求得到基本满足，开展足球活动的场地、时间、经费得到基本保障，全社会关心和支持足球发展的良好氛围基本形成。符合足球运动发展规律的管理体制机制初步建立，政策法规初具框架，行业标准和规范趋于完善，竞赛和培训体系科学合理，足球事业和产业协调发展的格局基本确立，足球大市的雏形基本形成。', '1. 校园足球发展取得新突破。认真落实国家教育部有关校园足球政策和规定，扎实推进我市校园足球工作。', '——全面普及足球课程。所有中小学按照课程标准要求普及足球运动知识和技能。在中小学校开展足球文化进课堂活动，开展足球运动文化、足球运动知识、足球运动欣赏等领域的宣传教育活动，逐步实现校园足球课程完整化、训练方法科学化、活动组织有序化。', '——实现我市校园足球重点发展国家级校园足球特色学校120所以上。逐步形成国家级、自治区级、市级特色足球学校分级布局，达到240所，校园足球活动覆盖全市所有大、中、小学和幼儿园。', '——完善校园足球竞赛体系，组织好校长杯、旗县区长杯及市长杯联赛，承办自治区和全国校园足球比赛1-2次。', '2. 足球人才培养引进有新突破。建立健全足球人才培养、引进、考核评价体系，建立竞争择优、充满活力的激励用人机制，构建一套多层次、分类别的培训机制和多样化的培训体系。', '——每年定期举办教练员、裁判员培训班。5年内培训教练员800人以上，裁判员200人以上。积极培训D级以上足球教练员，力争在2020年取得中国足协D级教练员资格人员达150人以上，B级以上教练员40人以上，全国二级以上足球裁判员达300人以上，并进入各层次专业队担任教练员，力争有更多裁判员成为国际级、国家级裁判员。', '——校园足球特色学校至少配备一名大学专科以上足球专业毕业的体育教师，配备1名足球教练员。', '——延续落实“草原英才计划”，从全国范围内引进足球专业人才，其中足球教师培训和引进足球人才不少于80人，在教师招聘中扩大足球专业教师名额，使足球教师（或教练员）全部得到专业培训。', '3. 足球基础设施建设取得新突破。将足球场地设施建设纳入我市经济社会发展“十三五”规划，积极利用闲置场地新建或者改扩建标准性或非标准性气膜足球馆、笼式足球场、5人制足球场、7人制足球场等足球场馆。', '——建设1个自治区级示范性足球训练培训基地和1个青少年足球夏令营活动基地，建成国家（北方）足球训练基地，建成呼和浩特市武川足球高原训练基地，建成呼和浩特市青少年足球训练中心。', '——实现每所学校建有至少1个7人制人造草坪足球场地，保证人均每周可参加1-2次校内足球课或足球活动。', '——完善建设公共足球场地。9个旗县区分别配备1-2个标准化足球场，配备笼式足球场、气膜足球馆、5人制足球场、7人制足球场等非专业足球场200个以上，并通过改造与升级旗县区原有足球场地和室内条件较差的足球场地，使全市足球场地达到400块，使每万人拥有1块以上足球场地。', '4. 促进职业足球有序稳定发展。深化我市足球运动项目改革，组织协调政府、企业和社会等多方力量支持职业足球健康可持续发展，保持我市长期拥有职业足球队，提升足球氛围，促进足球运动发展。', '——巩固稳定“呼和浩特中优职业队”中甲联赛成绩，发挥后发优势，争取早日冲击“中超”。', '——争取组建呼和浩特地区本土中乙球队，不断完善职业足球布局体系，冲击中甲联赛，实现职业足球发展的新突破。', '——加强市蒙古族学校女子足球队伍建设，力争成为全国女子足球后备人才培养基地，完善汉语授课女子足球特长生学业保障机制。以市蒙古族学校女子足球队为班底组建呼和浩特女子足球队，参加中国足协女子足球甲级联赛。', '5. 业余足球普及实现新突破。积极发动和组织辖区、机关、社区、乡镇、企事业单位组建业余足球队，争取平均每个社区建立1-2支社区业余足球队。完善辖区、机关、社区、乡镇、企事业单位足球联赛体系，全市实现四季有赛事。鼓励业余球队参加各级举办的业余足球赛事，使我市足球人口不断增加，到2020年足球运动员注册人数达到2万人以上，争取实现足球消费人口达到20万人以上。', '青训体系构建完成，足球氛围更加浓厚，管理体制科学顺畅，法律法规完善健全，多元投入持续稳定，基础设施完备，群众普遍参与，足球人口大幅增加，改革试点经验得到推广。基础设施条件完善，每万人拥有2块足球场地。校园足球、社会足球、职业足球体系有效运行，优秀足球人才显现，各类市场主体踊跃参与，足球产业规模有较大提高，成为体育产业的重要引擎。足球竞技水平跻身全国前列，职业足球队影响力更大，拥有知名品牌赛事，在蒙超、蒙甲等准职业联赛位居前列。草原足球文化初步形成，基本建成足球大区。', '2. 职业足球水平跃上新台阶。我市职业足球整体水平位居全国前列，力争保持拥有1支男子中超队、1支男子中甲队和1支女超队。', '3. 运动员培养输送比率位居全国前列。实现拥有超过全国平均水平的各年龄段业余足球队数量和常年参加活动的校园足球人口等指标，最终实现我市校园足球队争取进入全国地级城市前10名，培养各年龄段青少年男女梯队，形成优秀青少年足球人才储备，为职业足球的长期发展奠定一定的人才基础。', '4. 足球文化品位有新突破。电视、广播、报刊、网络对足球文化宣传常规化，开设足球专栏和专题，成立各类球迷组织，引导其以正确积极的态度对待足球赛事，建设国际国内足球赛事品牌，打造成具有我市特色的足球发展文化氛围。', '5. 建设完善达到中超联赛俱乐部准入标准的足球场和训练基地。达到具备承办亚洲杯小组赛、奥运会及世界杯外围赛以及成为世界杯决赛主办城市之一的能力，创办有呼和浩特特色的足球系列赛事。', '实现足球基础设施建设、校园足球发展、职业足球发展、足球人才培养、业余足球普及以及城市足球文化品位的新突破，逐步形成社会足球与职业足球相结合、足球事业与足球产业协调发展的良好局面。足球竞技水平与世界接轨，为国家培养、输送一批优秀运动人才，建成足球强市，实现足球发展综合实力迈向新台阶。', '整合足球产业资源，鼓励多元资本投入和通过资本市场发展壮大足球俱乐部，以职业足球俱乐部及联赛带动足球产业整体水平，逐步形成布局合理，结构优化的足球产业体系，以“一核三带多点”为布局，到2030年，全市力争培育4个以上以足球产业为特色和优势的体育产业基地，形成强有力的示范、辐射和带动作用。', '以国家（北方）足球训练基地为核心、规划建设形成足球小镇，打造集足球竞技表演、足球健身、足球娱乐、足球培训、足球休闲和足球展示展销于一体的足球产业核心区，形成产业聚集效应，带动体育消费。', '以呼和浩特市体育场（体校）、大统体育为中心新华大街沿线，形成足球消费服务带；以敕勒川文化公园、赛罕区体育公园和仕奇公园为中心沿线，形成足球休闲健身带；以和林蒙牛小镇、敕勒川草原文化产业园和托克托黄河湿地旅游区为中心，形成足球消费旅游带。', '整合足球资源和体育产业资源，构造具有自身特色优势的足球产业网、点、面，全市形成足球产业多点推进，逐步发展点、面、网联成产业链和产业集群。依托大学城经济文化发展优势和人口密集消费潜力，把大学城及高校区域建设成为足球产业消费区，积极引进国内外体育产业知名企业入驻我市鸿盛、盛乐工业园区等，进一步壮大区县体育产业和足球产业综合实力。充分利用武川县高原环境优势，建成青少年足球高原训练基地，围绕全市青少年足球人才培养、交流发展相关产业。建成呼和浩特市青少年足球训练中心，做好全市青少年足球人才培养、交流及青训，并围绕青训体系建设发展相关产业。充分利用和林格尔县旅游资源、产业园区优势，建成青少年足球夏令营活动基地、青少年足球游乐园、足球绿色走廊，并改善配套设施，提高服务品质，鼓励建设和林格尔县盛乐园体育产业园，积极申报国家级体育产业示范基地足球产业示范点。', '优化资源配置，积极创造各级足球联赛的无形资产，整合评估后划归给各职业足球俱乐部，建立相适应的联赛经营管理体制，提升足球产业对社会资本的吸引力，实现俱乐部资产的充分流动，广泛引入各类社会和国外资本联动的进退结合，形成能进能退的融资体制和机制。探索政府以财政投入和国有场馆资源共同参股等形式，吸引更多民间资本出资入股，与“职业足球俱乐部”联合组建“呼和浩特市足球产业集团”，实施品牌战略，积极培育具有核心竞争力的大型足球企业。', '积极鼓励企业与高校联合兴办足球俱乐部、足球学校、足球培训中心和社区足球场地，并建立资产运营机制。积极探索联合内蒙古大学、内蒙古师范大学、内蒙古财经大学等高校与伊利、蒙牛、大唐托电等企业联合兴办足球俱乐部、足球学校、足球培训中心和社区足球场地，并建立资产运营机制。探索建立“呼包鄂”区域足球联盟，积极推进中小学体育教学改革，鼓励和引入社会力量，赞助和投入校园足球场地设施建设，支持各种联盟模式发展。创造更加有利于职业球队运营的环境，采取“外引内联”的方式畅通资金注入渠道，吸引本土企业赞助，培养本土球员加入，逐步使球队“本土化”，使球队“来得了、留得住、上得去”。', '着力提升足球产业在体育产业中的比重，大力发展足球健身娱乐业、竞赛表演业、足球休闲业、足球培训业、中介服务业、足球广告业、足球会展业等时尚体育竞赛消费，促进足球产业协同文化产业、旅游业、传媒业关联度极高产业融合发展，成为服务业的新业态。扶持一批具有市场潜力的中小足球广告、足球传播、足球展会、足球动漫开发、足球电子游戏和足球休闲企业，打造具有活力的足球产业集群，促成足球产业链向两端延伸。', '在不断增强足球氛围的同时，努力打造本土足球文化。将历史悠久、底蕴深厚的草原文化和充满活力、热情洋溢的足球文化逐步融合，形成具有鲜明特色的青城足球文化。加快足球行业协会建设，鼓励足球行业协会开展职业足球俱乐部、业余足球俱乐部“十强评选”，重点扶持一批优秀足球服务品牌、龙头足球俱乐部和足球赛事活动。借助各种赛事组织、职业培训、自治区草原文化节、昭君文化节等活动推动建立“呼和浩特足球用品博览会”，逐步办成国内有影响力的足球资源交易、技术交流和宣传推广平台，引导专业化发展，促进足球市场自律水平提高。定期举办草原足球文化活动，作为发展足球文化的拓展和宣扬。', '凝聚社会力量、坚持管办分离和投资主体多元化，从制度、人才、文化和基础设施协同推进建设，促进足球事业、产业全面发展。', '构建政府推进、社会支持、市场运作、全民参与的管理体制。完善呼和浩特推进足球运动改革与发展工作领导小组运作机制，努力形成政府主抓、部门协同驱动、各负其责的畅通的工作沟通渠道，形成合力。足球改革领导小组办公室负责全市足球改革和发展工作组织，落实国家、自治区政府有关足球改革文件精神和政策，设计全市足球发展制度体系，协调、监督和督查全市足球改革和发展工作进程。形成青少年校园足球由教育部门主导、职工足球由工会主导、机关事业单位足球活动由机关工委主导、社区足球由民政部门主导，体育部门统筹协同、分类指导的部门协调、各负其责的工作机制。', '（1）深化足球协会管理机制改革。按照政社分开、权责明确、依法自治的原则，加强足球协会组织建设。组织我市各类别足球协会按照内蒙古足球协会章程以会员名义加入内蒙古足球协会，接受内蒙古足球协会行业指导和管理。各地区、行业、类别足球协会承担本地区、本行业、本类别的会员组织建设、竞赛、培训、足球活动开展、宣传等职责。', '（2）完善市级足球协会建设。大力扶持呼和浩特市足球协会健康发展，支持足协独立行使全市足球联赛组织、市场开发、俱乐部发展监管职责。呼和浩特市足球协会应加强自身建设，着力加强协会竞赛、教练、裁判、新闻等各专项委员会建设，扩大会员单位数量，提高自身素质和管理水平，认真履职全市足球市场化建设和发展任务，促进全市足球事业可持续发展，从而在全区率先成为足球管理体制改革样板，发挥示范力和引领作用。', '（3）加强旗县区级足球协会建设。鼓励支持各旗县区成立足球协会，按照体育、民政部门的要求，健全规章制度，形成工作机制，加强内部建设，吸纳各界力量，开展本地区足球活动。支持有条件的街镇、社区、企事业单位建立足球活动组织，推广足球普及，发展足球人口，鼓励支持社会力量建立业余足球俱乐部、培训中心、新型足球学校，支持学校建立青少年足球俱乐部。', '（4）深化职业足球俱乐部运营机制改革。鼓励足球项目走职业化道路，支持教练员、运动员职业化发展。构建职业足球俱乐部对外交流与合作平台，推动职业足球俱乐部在管理、运营机制上与国际接轨。支持内蒙古中优足球俱乐部管理机制和运营模式改革，促进股权多元化发展，进一步增强资产、人才、赛事开发力度，加大呼和浩特中优足球队投入。鼓励各旗县区和学校球队冠名。积极鼓励支持企业冠名各旗县区和学校球队，达到企业宣传效应与球队创收的合作共赢。各旗县区要积极冠名树立自己的品牌。', '（5）创新足球场馆运营机制。深化呼和浩特市体育场的管理和运营机制改革，逐步实现其所有权、管理权与经营权分离，推动足球场馆运营的专业化和社会化发展。组建“呼和浩特市足球产业集团”，实施品牌战略。正在建设的国家(北方)足球训练基地场馆投入使用后，可以采取委托运营（O&amp;M）模式，确保社会效益和经济效益双赢。全市各级各类足球场馆遵循社会效益和经济效益并重的原则，低成本对外开放，拓展服务领域，延伸配套服务，拓展商业营销渠道，提升服务水平。', '激发市场活力，充分调动社会力量参与足球发展的积极性，探索PPP模式的发展方式和公建民营、民办公助的管理模式，实现足球运动经济效益和社会效益良性循环。鼓励企业联合设立足球产业投资基金，按现代企业制度规范运营，依法鼓励并引导社会募集和捐赠，逐步壮大基金规模，基金运营收益专项用于推进足球改革发展试点工作。', '落实和完善相关法律法规及足球行业规范规则。推进标准化和规范化建设。健全监督、执法和仲裁机制，加强足球组织、俱乐部、从业人员诚信守则自律，严肃赛风赛纪。完善足球赛事和活动安保服务标准，积极推进安保服务规范化、社会化。加强对足球赛事的安全检查，维持治安、交通秩序，预防和处置突发治安事件，严厉打击违法犯罪行为。', '以扶持特色带动普及为宗旨，逐年提高校园足球特色学校经费保障水平，深化学校体育改革，提高足球教学训练水平，办出校园足球特色，发挥其在发展青少年校园足球中的骨干、示范和带动作用。鼓励并引导有实力的知名企业投资我市足球特色学校建设，赞助学校足球赛事和足球公益项目，足球特色学校达到以下建设标准。', '（1）校园足球场地建设。每个国家级足球特色学校具备至少一片符合本学龄段比赛及训练所需要的室外足球场地，小学至少具备一片5人制足球场地、初中至少具备一片7人制足球场地、高中至少具备一片11人制足球场地。', '（2）教师队伍建设。国家级足球特色学校到2020年底，每校小学、初中至少有一名具备D级教练员资质的体育教师，高中、大学分别需要一名具备C级、B级教练员资质的体育教师。', '（3）课时及训练。国家级校园足球特色学校，每周要为学生开设一节足球课，至少组织不少于三次以足球为主要内容的大课间或课外活动，小学特色学校在低年级建立足球兴趣小组，三年级以上建立班级、年级代表队；学校要建立规模适当，人员稳定的校级足球代表队并定期组织课余训练，其中小学每周不少于4次，每次不少于60分钟；初中、高中每周不少于5次，每次不少于90分钟；大学每周不少于6次，每次不少于120分钟。高中开设足球选修课，中小学要编制或选用足球校本教材，充分开发和利用教学资源，实施适合学生年龄特点的足球教学，提高足球教学的趣味性和吸引力，使大部分学生能积极参加足球教学活动。', '（4）比赛活动。国家级足球特色学校至少每年开展一次校内比赛，每年必须参加各级各类校园足球比赛及相关活动。', '市直属：呼市一中、呼市二中、呼市十四中、呼市土中、呼市蒙校、呼市回中、师大附中、师大附属盛乐学校', '回民区：钢铁路二小、中山西路小学、铁六小、贝尔路小学、铁三小、回民区少体校、县府街小学、巴彦诺尔路小学、南马路小学、海西路小学', '赛罕区：锡林南路小学、大学路小学、先锋路小学、民族小学、金桥小学、南门外小学、东风路小学、腾飞路小学、呼伦南路小学', '新城区：成吉思汗小学、山水小学、胜利街小学、海拉尔路小学、苏虎街小学、落凤街小学、名都小学、北垣小学、东门外小学', '玉泉区：通顺街小学、民族实验小学、石东路小学、巧尔齐召小学、五塔东街小学、小召小学、百什户民小', '积极推动学校建立学生业余足球俱乐部，加强学生课外足球锻炼与训练。在足球俱乐部中，可按学生足球技术能力的不同划分不同级别。要配备专门的教练员，给与经费支持，有效激发学生自主参加足球锻炼的兴趣，增强学生体质健康，培养足球苗子。', '全面开展呼和浩特市校园足球四级联赛建设，分层组织好“校长杯”、“旗县区长杯”、“市长杯”校园足球三级杯赛，择优参加自治区“主席杯”赛，把联赛列入各个学校的体育竞赛计划，各旗县区建立各自的联赛体系，构建包括校内竞赛、校际联赛、区域选拔赛在内的青少年校园足球竞赛体系。', '通过有奖征文、举办演讲比赛、举办足球知识系列讲座等形式，积极开展足球文化普及教育活动。积极举办校园足球趣味活动周，并利用电视实况转播、现场组织观看足球比赛等形式对学生进行足球运动体验教育，引导更多学生参加到足球运动的锻炼和学习中来。逐步优化足球发展环境，大力普及足球运动，培育健康向上的足球文化和体育精神。加强中小学足球文化对外交流，聘请国内外足球教育专家走进校园开展足球讲座，并有计划地组织足球明星和足球精英教练开展足球交流活动，组织学生参与国际、省市级青少年足球文化交流和竞赛活动，促进足球文化对外交流活动的开展。', '加强校园足球运动伤害风险管理，制定相应安全防范规章制度，加强足球运动安全教育、检查和管理，增强学生运动安全和自我保护意识。推进政府购买服务，在全面实施校方责任险的基础上，为参加校园足球运动的学生购买相应的险种，提升校园足球安全保障水平。', '建设1所300人左右规模的足球学校，联合区内外高校，兴办足球学院或足球学校，有计划地培养足球高层次人才。在呼和浩特职业学院开设足球专业，招收足球专业学生，有计划培养足球专业人才，促进全市足球青训体系建设和发展，储备足球后备人才资源。', '有计划有步骤加强足球教练员建设工作，加强现有教练员学习、培训、交流工作，力争做到每年保证每个教练员参加培训不低于1次，学习考察和交流不低于1次。建立严格规范的教练及管理团队遴选、考核评价机制及教练员考核资格证书制度，使教练员管理规范化发展。加强足球教师培养和建设工作，把足球教师建设纳入全市师资建设总体规划中，设立专项经费，加大投入。建立一支有资质、素质高、业务精、懂教育的足球师资队伍，构建一套多层次、分类别的培训机制，设计多样化的培训形式，满足我市足球事业发展需要。', '鼓励支持在呼和浩特职业学院等学校开设足球播音主持、足球广告设计、足球传播、足球产业开发与管理、足球行政管理、足球市场营销、足球职业俱乐部经营等专业，培养足球产业发展所需各类人才。', '探索与高校联合成立呼和浩特市足球发展研究中心，致力于改善呼和浩特市校园足球发展环境以及呼和浩特市校园足球的研究水平，推动呼和浩特市足球改革与发展。聘请国家队知名教练参与呼和浩特市足球发展研究中心在科研和培训交流等方面的工作。并在呼和浩特市建立“校园足球科研基地”，指导全市及旗区县学校开展校园足球训练和比赛、职业足球市场开发、足球产业市场延伸及无形资源开发等工作，提升我市校园足球发展水平，推动我市足球发展向更高层次发展。', '定期派遣教练员到足球发达国家或我国先进省市接受培训，为实现我市足球事业发展规划目标提供人才支撑。探索与广州恒大足球学校合作，联合招生，联合办学，拓展人才培养渠道。加强与北海市体育局合作，争取在广西北海建设足球南方冬训基地，解决我市冬季低温不能开展足球训练的问题。', '完善俱乐部法人治理结构，加快现代企业制度建设，推动俱乐部的地域化和名称的非企业化。建立职业足球俱乐部激励机制，不断完善职业足球发展体系，形成我市职业足球发展新格局。', '鼓励职业足球俱乐部发展壮大。按照足球联赛发展水平和规模，遵循市场规律，制定有利于企业支持职业足球俱乐部的政策，吸引更多的企业和社会团体支持职业足球发展，持续稳定的对职业足球俱乐部进行投入，鼓励内蒙古中优足球俱乐部对“呼和浩特中优足球队”加大投入，充分利用政府和市场双引擎，增强资金、人才等投入力度，积极培育蒙古族中学女子足球队加入女子足球职业联赛，组建呼和浩特女子足球职业队，参加中国女子足球甲级联赛。', '积极创建青少年体育足球俱乐部。鼓励拥有标准的训练场地、综合训练场馆的足球特色学校和企业、个人足球爱好者等为发起人，积极创建青少年体育足球俱乐部，积极申报进入内蒙古自治区青少年体育足球俱乐部创建名录，通过青少年体育足球俱乐部辐射功能，吸纳广大青少年的参与，进一步选拔和培养优秀运动苗子，建立青少年足球队，将真正有体育兴趣和发展潜力的青少年网罗到体育足球俱乐部，通过有组织、有计划、高水平的训练，为职业足球俱乐部备选人才。', '建设四级优秀足球后备人才梯队，即由中优足球俱乐部等各职业足球俱乐部设立U21、U19年龄后备队伍；由市足协、市足球训练中心等组织设立U17、U15、U13男女足梯队；实行校校联合，设立足球班，组建U13少年足球队，在全市、全自治区范围内招收13岁以下的学生，单独编班，半天文化课教学，半天专业训练。对足球特长生实行“双重学籍”，引进国内知名足球俱乐部管理理念和方式，采取统一食宿和走训相结合，进行专业、半专业化管理，建立半专业队伍，为呼和浩特足球培养后备人才。组建呼和浩特男子青年足球队。引进高水平教练团队，进行系统化训练，打造高水平业余队伍。在蒙校成立女子专业足球队，制定足球特长生特殊文化课标准与教学计划，形成科学训练。依据专业化队伍建设标准，规范建设长效发展的现代化专业队。根据全运、区运会年龄要求，在9个旗县区分别设立U13、U11男女梯队各2支。', '依托国内外足球专家资源，参考国外训练模式，构建国际化理念的青训体系。建设以“促普及、抓提高、育精英”为目标，融合食、训、赛于一体的市青训中心，市四区成立青训营，每区选择2-3所小学、1-2所中学作为青训基地，聘请国内外教练员进行训、赛指导。利用青训中心资源，定期组织中小学校长、教练员、裁判员及其他足球从业人员的培训。通过青训体系的建设，不断扩大足球人口，培养足球人才，提升足球运动整体水平。', '以积极探索幼儿园开展足球兴趣活动，以游戏形式为主，培养幼儿足球爱好，逐步建立“娜荷芽杯”幼儿园足球兴趣活动体系，以呼市蒙幼、新城区蒙幼、回民区五幼、玉泉区政府幼儿园为基础，在全市建立20支U11、U9年龄段的足球后备队伍，形成完善的梯队年龄衔接，为职业足球的长期发展奠定雄厚的人才基础。', '创办足球文化品牌，继续完善各级各类联赛体系，研究设立“青城甲级”、“青城乙级”、“青城青少年精英赛”、“阿吉奈”杯等赛事品牌，创造职业足球联赛品牌价值和品牌忠诚度。制订各级各类赛事品牌的具体赛程、组织制度等；建立并逐步完善足球运动员注册、签约、转会制度；建立和完善旗县区联赛竞赛体系，制定球队年龄、户籍等标准。', '合理设计足球赛事布局，完善足球赛事结构，扩大足球赛事规模，增加足球赛事种类，逐步形成赛制稳定、等级分明、衔接有序、遍及城乡的竞赛格局。定期举办班级、校级、区级和市级等校园足球联赛，使联赛制度化、常态化。加强监督校园四级联赛的执行力度，加大对校园足球四级联赛的宣传力度。确定每学年每学期的“校长杯”班级联赛日、“旗县区长杯”比赛日和“市长杯”比赛日。以旗县区体育部门或足球俱乐部为主，组建地区足球队，开展呼和浩特地区足球联赛，通过职业足球俱乐部体系的建设，不断扩大职业足球联赛的影响力和带动力，吸引更多资源投入，形成职业足球联赛投资发展的良性循环，建立职业足球联赛稳定的消费群体，形成健全稳定的赛制体系。', '由市民政部门负责协调组建社区足球队伍，开展社区足球宣传，组织社区足球队参加各级足球赛事。体育部门负责足球活动开展社区的确认和表彰、竞赛组织、规则制定、专业技术训练与指导以及相应专技人员和经费管理安排。鼓励更多的业余足球队加入到业余足球联盟；由呼和浩特市总工会、市直属机关工委牵头，组织开展好机关、企事业单位参加的职工业余足球赛，丰富全区广大职工的精神文化生活，推进全市职工足球竞赛水平。因地制宜，制定室内五人制和沙滩足球发展计划、赛事计划并组织实施，力争足球项目的全方位发展。', '加大对国家体育总局、中国足协积极沟通，争取继续引进和举办高水平的足球赛事。尝试举办商业足球赛事和高水平国际性足球赛事，提高我市组织举办大型足球赛事活动的能力水平，满足群众欣赏高水平足球赛事需求，刺激足球消费，拉动足球产业发展。', '优化资源配置，提升足球产业对社会资本的吸引力，实施品牌战略，鼓励足球产业集团化发展，增强发展实力和发展后劲。', '通过提高俱乐部竞技水平、加大职业足球联赛宣传力度和培育职业足球消费者的品牌忠诚度，提高职业足球联赛和职业足球俱乐部作为企业广告宣传平台的能力和效果，大力开发场地广告、球衣广告、媒体广告、印刷品广告等，增强职业足球广告开发力度。', '通过加大媒体宣传、差异化定价、套票优惠等措施，激发足球爱好者转化为消费者，积极促进职业足球联赛门票销售，增加职业足球俱乐部联赛收益。提高赛事质量和品牌价值的同时，在电视、广播、互联网以及其它新媒体领域通过直播、延迟播出、视频点播、轮播等方式进行职业联赛赛况转播，充分挖掘职业足球联赛的商业价值，并进一步宣传推广职业足球文化。', '加强设计和宣传广告力度，不断开发联赛相关产品如纪念品、印有联赛或者俱乐部标志的衣服、帽子、汗巾等体育用品和生活用品，通过出售职业足球相关产品获取利润。', '通过冠名、合作、赞助、广告和特许经营等形式，加强对职业足球联赛和职业足球俱乐部名称、标志等无形资产的开发，提升无形资产创造、运用、保护和管理水平。加强体育品牌建设，推动体育企业实施商标战略，开发科技含量高、拥有自主知识产权的体育产品，提高产品附加值，提升市场竞争力。促进体育衍生品创意和设计开发，推进相关产业发展。', '通过本地培育和引进国内外先进体育中介企业，加强完善职业足球运动员经纪、足球赛事经纪等职业足球中介业的建立与发展，开拓职业足球新的盈利模式。', '促进足球产业利用互联网整合开发资源，开创足球产业发展新的消费模式。结合呼和浩特市信息化城市建设，加快推进“呼和浩特市足球运营赛事信息化平台”建设，促进足球场馆的信息化、智能化和网络化管理和服务水平。鼓励以手机应用程序（APP）、微博公众号和微信公众号等移动载体营销足球赛事和转播足球赛事。支持企业借助大数据及移动互联网交易模式拓展足球赛事及产业发展信息，构建线上线下相互结合的足球产业营销模式。5年内争取建成自治区第一家互联网足球资源交易平台，拓展足球资源流动通道。', '大力支持足球产业与文化、旅游产业融合发展，利用呼和浩特市电视台开播足球频道，积极争取全国足球知名赛事在我市落地，以建设“体育全媒体”和“足球全媒体”为重点，打造一批足球传媒品牌企业。加快培育和发展足球动漫、足球游戏、电子竞技足球、足球在线等足球产业新兴业态，重点培育一批足球与文化传媒融合发展的重点项目和骨干企业。依托敕勒川文化旅游区、托克托黄河湿地旅游区等一批重点景区建设开发沙滩足球、足球游乐场地，结合大青山前坡旅游综合项目、新城区草原马汇等项目建设足球公园，打造足球小镇，积极打造自治区级足球旅游示范基地，引导建设2—3个以足球为主题的体育公园和广场。', '做强足球用品制造业，支持企业与高校、研究机构合作建立产学研一体的足球产品开发联合体，大力发展具有高技术含量和高附加值的高端足球用品制造业。坚持创新驱动、智能转型、强化基础、绿色发展，积极推动足球制造业转型升级。重点引进支持可穿戴智能运动装备及应用软件的开发企业落户我市。在新城区鸿盛园区和和林盛乐园区打造形成足球制造相关产业集群，鼓励和支持足球制造业建立智能工厂，提高足球制造业水平。引导和支持制造业企业延伸服务链，从单纯制造产品向提供产品和服务转变，推动足球制造业业态创新。', '到2020年，建成国家级北方足球训练基地。按照国家级足球训练基地的标准要求，尽快建设并争取资源共享。建成自治区级的呼市足球训练基地和1个自治区级青少年足球夏令营活动基地。改造和升级旗县区原有足球场地和市内条件较差的足球场地，每年升级改造5块以上足球场地。', '（1）加快建成自治区足球重点工程——国家（北方）足球训练基地。加快建设国家（北方）足球训练基地，集训练、比赛、培训和食宿等多功能于一体，可同时容纳运动员、教练员和裁判员等350人进行训练和培训，按照国际比赛标准110米×75米规格建成20片足球场地，包括核心赛事足球场、足球比赛训练馆、和配套室外足球训练场，并建有运动员、教练员公寓、活动中心，并配套开发建设游泳馆、宾馆、篮球场、电影院、超市等辅助设施。为引进高端体育赛、申办国际顶级足球赛事提供保障；同时积极规划设计，把国家足球训练基地建设成以足球为主的足球小镇，建成生态健身公园，兼具旅游景点功能和足球文化教育功能。', '（2）规划建设武川高原足球训练基地。充分利用武川县高原环境和土地资源优势，建成青少年足球高原训练基地。按照国际标准建成4片足球场地，可同时容纳2—3支球队进驻基地训练和培训。为举办足球夏令营，促进与发达地区足球交流和合作提供保障。', '（3）规划建设青少年夏令营足球训练基地。规划建成青少年足球夏令营活动训练基地。按照国际标准建成4片足球场地，可同时容纳2—3支球队进驻基地训练和培训。与广州、北海、海南等地区加强足球交流和合作，积极策划举办足球夏令营，按照国家级足球训练基地的标准要求，尽快建设并争取资源共享。', '（4）合作建设广西北海（海南）冬季足球训练基地。加强与自治区体育局、海南、北海市等体育局合作，与海南省、广西壮族自治区北海市体育局联合建设“呼和浩特足球南方冬训基地”，解决我市冬季严寒不能开展足球训练的问题。', '（5）改造市人民体育场，升级呼和浩特体育场。改造市人民体育场转播和综合服务功能，达到举办职业联赛、满足高清电视转播的要求。', '（6）改造建设旗县区足球场馆建设。按照就近就便的原则，为把旗县区愿意踢球的孩子和教练员吸纳进去，进行学习和训练。各旗县区建设市级足球基地。重点推进建设回民区、赛罕区、玉泉区、土左旗、和林县、清水河县等体育综合场馆和奥林匹克足球公园建设。', '充分发掘学校现有场地资源，提高利用率，为校园足球的开展创造条件。坚持政府主导的原则，着重解决场地严重不足给校园足球广泛开展带来的困境。对因场地不足制约校园足球开展的学校，规划购置教育用地补充学校体育活动场地不足的可行性方案。结合标准化学校建设和教育均衡化发展的实施，严格控制学校规模，新建校要达到自治区标准，保证生均体育活动场地达到每生4平方米。加快校园足球场地升级改造。全面提升改造现有59个沙石足球场为人工草坪足球场，改造提升约110个校园足球场，其中新建和改扩建11制足球场20个以上，达到65个以上11人制标准足球场，并不断完善其功能。市内四区根据实际，每区改建或新建一所学校，建成区级校园足球活动基地。使学生有足够的场地进行足球锻炼活动，并有足够规模的场馆举办足球赛事。', '在居民相对集中的生活聚居区、新建小区规划建设城市足球广场、足球绿道等绿色廊道。在成吉思汗公园、敕勒川公园等建设足球广场。充分利用城市绿地、公园和空置场地等开辟和铺设全民健身足球场地，将5人制、7人制、笼式足球场地等纳入城乡建设规划、土地利用总体规划和年度用地计划。鼓励、引导企业和社会开展足球运动，推动足球场地共用开放，并加强监督管理，确保安全，使全市足球运动基础设施建设有较大发展，足球设施的综合利用率和运营能力有较大提高，满足多元化足球发展需求。', '规划建设城市足球公园，打造15分钟健身圈，为喜爱足球运动的人们提供便利的场地条件。以北方足球训练基地为中心，充分利用呼和浩特市大青山前坡万亩草场、少数民族群众文化体育运动中心的大型项目为纽带，规划建设呼和浩特城市足球公园，配备建设大型完善的足球博物馆，博物馆展示足球的起源、发展与传播过程及呼和浩特市足球发展的历史和足球运动所获得的荣誉等。', '足球场馆建设工程：推进建设国家（北方）足球训练基地、武川足球训练基地、改造建设呼和浩特市青少年足球训练中心、改造市人民体育场，升级呼和浩特体育场、合作建设广西北海（海南）冬季足球训练基地、建设回民区、玉泉区、赛罕区、土左旗、托克托县、和林格尔县、武川县、清水河县等7个旗县区足球场和基地。', '校园足球场升级改造工程：全面提升改造现有59个沙石足球场为人工草坪足球场，改造提升约110个校园足球场。新建和改扩建11制足球场20个以上，达到65个以上11人制标准足球场。', '社区足球与笼式足球工程：推进建设足球公园与笼式足球工程60个以上。其中，七人制笼式足球场20个以上，五人制笼式足球场40个以上。', '树立健康、快乐、进取的足球理念，充分发挥足球在强身健体、立德树人方面的积极作用，让参与足球成为健康生活的重要方式。大力积极倡导尊重规则、尊重对手、尊重观众的行为规范，不断增强足球运动的集体荣誉感和民族自豪感。积极开展足球进社区文化讲座等活动。定期举办足球文化系列展览活动，以及足球文化知识讲座，推广、普及、宣传足球相关知识，调动人们积极参与体育锻炼的意识。注重发挥新媒体作用和足球志愿者奉献、友爱、互助、进步的精神，努力培育文明参赛、文明观赛的良好氛围，使足球运动成为传播正能量的重要载体。各级各类媒体开辟足球专题专栏，普及健身知识，宣传健身效果，积极引导广大人民群众养成足球运动和观赏习惯，并支持形式多样的体育题材文艺创作，推广足球文化。成立球迷俱乐部，组织开展丰富多彩的活动，引导和吸引更多的球迷加入进来，足球俱乐部定期开展活动，引导球迷正确对待足球赛事，打造一批高素质的足球球迷团体。', '教育部门制定特色学校评估标准和办法，积极推进足球课程普及。建立全市中小学校园足球活动督导评估制度，对旗县区和校园足球特色学校的课程教学、文化建设、普及程度、业余训练、竞赛组织、竞赛成绩、活动参与、条件保障、组织领导等方面进行综合评估，实行动态管理，对不符合校园足球特色学校的标准的取消资格或降级处理，对综合评估成绩优秀的学校给与表彰奖励，考察评估体系，及时有效地指导、规范校园足球工作。', '在原高中体育特长生招生政策的基础上，进一步完善小学、初中、高中、大学足球特长生招生政策，对校园足球特色学校招生给与政策扶持。理顺以优质初中、优质高中为引领的足球人才培养的中间环节，筑牢小学校园足球人才培养基础，盘活驻地高校和专业队高水平人才选拔的优势资源，逐步形成以高校为龙头的大中小学“一条龙”足球梯队建设和运行机制。', '加大经费保障力度，推进政府购买服务，完善保险机制，学校和俱乐部要建立运动员购买制度，提升校园足球安全保障水平，解除学生、家长和学校对于学生运动安全问题的后顾之忧。学校和俱乐部要进行定期的医疗保健健康和营养指导培训。', '建立和规范运动员、教练员、裁判员等人才注册制度，理顺球员培养补偿和转会机制，推动与国际通行规则相接轨。加大足球从业人员培训力度，将校园足球教师、社会足球指导员、足球教练员的专业技能培训，按规定纳入教师培训、全民健身、技能人才培养、就业培训等专项经费保障范围。采取联合、委托、挂职等多种形式培训现有学校足球教师、教练员、裁判员和管理人才。构建一套多层次、分类别的培训机制，设计多样化的培训形式。依托自治区足协、呼市足协、青少年活动中心以及社会和学校体育俱乐部，广泛开展青少年儿童校外足球运动，积极开展校园足球的交流合作，分别对接国外、国内足球发达城市和学校，充分吸收先进足球文化，与校园足球发展较好的省市中小学合作、交流、共建，探索学生委培、互访等多元培养机制。', '采取绿色通道，人社部门制定对足球人才引进的具体管理办法，采取“政府购买服务”、特聘教师等方式，聘请退役运动员、教练员参与青训中心、校园足球发展。', '统筹市场机制和政策引导，为退役足球运动员再就业再发展搭建平台，支持其经过必要培训和考核，担任足球教练员、裁判员和讲师，或到企事业单位和部队成为群众足球活动的骨干，或进入足球协会、足球俱乐部、社区等从事足球管理和服务工作，鼓励社区、企业等设立相应岗位，吸引退役运动员、教练员从事社会足球指导工作，支持退役运动员从事足球相关产业工作。', '鼓励企业、社会资本单独或合作设立足球发展基金。采取直接投资、贷款贴息、补贴补助、后期奖励等方式，支持足球事业发展。市政府投入1亿元资金，成立呼和浩特市足球发展基金会，以开展募捐、接受募捐和资助等方式扩大基金规模，每年不低于5000万筹措力度。', '加大彩票公益金支持足球发展的力度，用于支持青少年足球人才培养的专项经费，以及青少年培训、器材补充、联赛实施、学生保险、组织训练营和足球节活动、场地建设和宣传推广以及足球公益活动等，同时，扶持社会业余足球广泛开展和普及，提高足球文化覆盖率和普及度。', '加大公共财政对足球事业发展的支持力度，将基础性、公益性项目纳入财政预算安排，纳入政府购买服务范围。体育、教育等部门在安排相关经费时，应对足球改革发展工作给予倾斜。设立校园足球发展专项经费，各级财政把校园足球发展专项经费按照预算编制办法纳入年度经费预算，保证校园足球特色学校的日常训练和比赛经费，对于承办各类赛事的旗县区和单位市、旗（县区）两级财政都要给予经费保障，确保赛事正常运转。同时积极争取上级财政和国家体育彩票公益金支持,鼓励、争取企业及社会各界支持校园足球发展。', '鼓励大型企业投资，吸引社会各界支持足球改革发展试点工作。鼓励金融机构在风险可控、商业可持续的基础上拓展足球领域金融服务新业务。拓宽足球产业投融资渠道，支持符合条件的足球用品、赛事服务等企业进入资本市场或发行债券。引导保险公司根据足球运动特点开发职业球员伤残保险、校园足球和社会足球人身意外伤害保险、足球场地设施财产保险等多样化的保险产品，鼓励企事业单位、学校、个人购买运动伤害类保险。', '加强足球场地建设规划，把兴建足球场馆纳入城镇化和新农村建设总体规划，因地制宜建设足球场馆。对利用城市和乡村的荒地、闲置地、公园、林带等，建设简易实用的足球场地，要简化审批程序，取消项目可行性研究审批前置要件。对社会资本投资足球场馆建设予以支持，对社会资本投入足球场馆建设，经认定符合非营利性体育设施用地的可按照划拨方式办理用地手续。', '积极争取国家和自治区关于足球发展的基本建设补贴资金，要从体育发展专项资金中，加大对校园足球的投入，每年安排市级专项建设资金5000万元用于足球场地建设。', '鼓励大型足球场馆运用建设-运营-移交（BOT）、建设-拥有-运营（BOO）、委托运营（O&amp;M）和PPP等市场化模式，开展政府和社会资本的合作。加强足球基础设施国有资产管理，按照“谁投资，谁拥有产权”的原则，建立产权清晰、职责分明的监管体制。', '将足球场地设施建设纳入城乡建设规划、土地利用总体规划和年度用地计划，在配建体育设施中予以保障。鼓励新建居住区和社区配套建设足球场地，支持老城区与已建成居住区改造现有设施、增加足球活动空间。充分利用公园、公共绿地、城乡空置场所建设足球场地。对单宗体育用途且有偿用于足球场地建设的土地，供地计划公布后只有一个意向用地者的，可按挂牌出让公告确定的土地使用条件和价格办理供地手续。在其他项目中配套建设足球场地设施的，可将建设要求纳入供地条件。利用以划拨方式取得的存量房产和原有土地兴办足球场地设施，土地用途和使用权人可暂不变更，连续运营1年以上、符合《划拨用地目录》的，可以划拨方式办理用地手续；不符合的，可采取协议方式办理用地手续。', '按照国务院《关于加快发展体育产业促进体育消费的若干意见》的要求，支持社会资本投入足球场地设施建设，足球场馆自用的房产和土地，可按有关规定享受有关房产税和城镇土地使用税优惠。足球领域的社会组织，经认定取得非营利组织企业所得税免税优惠资格的，依法享受相关优惠政策。足球俱乐部及相关企业发生的符合条件的广告费支出，符合税法规定的可在税前扣除。鼓励企业和社会力量捐赠足球运动服装和器材装备，对于赞助和支持青少年校园足球发展的企业或个人对符合税收法律法规规定条件的捐赠，按照相关规定在计算应纳税所得额时扣除。足球场地设施的水、电、气、热价格按不高于一般工业标准执行。', '加大足球无形资产开发和保护力度，依法依规全面规范清理不利于足球产业发展的规定，加快体育赛事管理制度改革，及时公开年度体育赛事与体育活动综合目录、竞赛规程，对允许社会资本参与的大型国际国内赛事承办权实行公开招标。推动形成以政府引导为保障、以足球行业协会和服务组织为支撑、以企业为主体的产业发展机制。构建以足球赛事策划、组织、培训为一体的足球产业新体系，将足球产业发展同等享受我市服务业发展相关政策。', '建立校园足球、职业足球和社会足球联赛电视或网络直播、录播制度，探索足球转播市场化路径。运用传统和新兴媒体，加强足球改革发展工作和足球赛事的宣传推广和报道点评。增强足球明星的示范效应，宣传社会足球热情，形成浓厚的群众足球氛围，宣传足球文化，营造关注足球、参与足球的良好氛围，提高全社会对发展足球运动重要性的认识，引领足球运动健康发展。', '各部门、各旗县区要积极贯彻落实本规划，建立动态跟踪监测和考核评估机制，每2年进行一次专项督查,每5年进行一次综合评估，确保责任落实到位、建设任务顺利推进、规划目标如期实现。呼和浩特市足球改革发展工作领导小组办公室、市发展改革委、市体育局、市教育局、市民政局和呼和浩特市足球协会等相关单位负责本规划的监督检查。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>25</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>习近平在新疆乌鲁木齐市考察调研</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2022-07-15</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tt_1/202207/t20220715_1319314.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['12日下午至13日上午，习近平总书记在新疆乌鲁木齐市考察了新疆大学、乌鲁木齐国际陆港区、天山区固原巷社区、新疆维吾尔自治区博物馆，了解新疆加强人才培养、统筹疫情防控和经济社会发展、扎实推进民族团结进步、铸牢中华民族共同体意识等情况。(文字记者:张晓松、朱基钗;摄影记者:李学仁、谢环驰、申宏、燕雁)']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>25</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>市委常委会召开会议传达学习贯彻习近平总书记重要讲话精神和中央有关会议精神</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2023-04-05</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650090810&amp;idx=2&amp;sn=cc459fa3984fd9202d141e4fdef37004&amp;scene=0</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '4月4日，市委常委会召开会议，传达学习习近平总书记在中共中央政治局第四次集体学习、在学习贯彻习近平新时代中国特色社会主义思想主题教育工作会议上的重要讲话精神和中共中央政治局会议精神，传达学习中央政治局委员、国务院副总理张国清在内蒙古考察时的讲话精神，传达学习自治区党委常委会会议精神，研究部署贯彻落实工作。自治区党委常委、市委书记包钢主持。', '会议强调，要深刻认识在全党深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育的重大意义，全面落实“学思想、强党性、重实践、建新功”的总要求，准确把握主题教育的根本任务和具体目标，着力解决理论学习、政治素质、能力本领、担当作为、工作作风、廉洁自律等6个方面的问题，不断把学习贯彻习近平新时代中国特色社会主义思想引向深入。要深化实践运用，围绕落实好习近平总书记交给内蒙古的五大任务和全方位建设“模范自治区”两件大事，以学铸魂、以学增智、以学正风、以学促干，书写好中国式现代化的首府新篇章。会议要求，要严格执行《领导干部报告个人有关事项规定》，增强纪律意识、规矩意识，自觉接受组织监督。', '会议强调，要深刻吸取阿拉善左旗露天煤矿坍塌事故教训，扎实做好安全生产工作，对煤矿、化工、燃气、商超、建筑工地、道路交通等领域开展安全隐患大排查大整治，加强和改进执法检查，严督实导推动问题解决，对问题整改不到位的严肃问责。要建立健全安全生产长效监管机制，坚决防范各类事故发生。', '会议强调，要全力做好森林草原防灭火工作，严格野外火源管理，严查违规用火行为。要统筹好各方执法救援力量，完善应急预案，加强信息联动、队伍联动、物资联动，形成应急处置合力。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>25</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>贺海东会见中交集团党委常委副总经理王建一行</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2023-08-18</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650096235&amp;idx=3&amp;sn=e4a47311e4f22be7f9260ed2ada028ae&amp;scene=0</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '8月17日，市委副书记、市长贺海东会见中交集团党委常委、副总经理王建一行，双方就有关合作事宜进行深入交流。', '会见中，贺海东代表市委、市政府对王建一行表示欢迎。他说，呼和浩特正在深入学习贯彻习近平总书记考察内蒙古重要讲话精神，加快优化产业结构，壮大新材料产业集群，希望中交集团加快推进项目建设，同时积极参与城市更新、生态环保等方面重大项目，深度融入呼和浩特经济社会发展，呼和浩特将全力营造好营商环境，为企业在呼发展做好服务保障工作。', '王建表示，公司将充分发挥自身优势，积极推进双方开展深度合作，助力首府经济社会高质量发展。', '市委常委、常务副市长刘继英，副市长提名人选付金在，呼和浩特经济技术开发区党工委书记刘占英、管委会主任塔拉参加会见。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>25</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>年各科室上半年工作总结</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2010-09-30</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/sydw_22443/stdscpmzx/xxgknb/202105/t20210525_930793.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['上半年，党支部按照年初制定的《目标管理责任状》和加强党的建设的有关要求，不断加大工作力度，努力以党的建设的实际成果推动中心业务工作的开展。现将上半年工作总结如下。', '上半年，中心党支部召开了换届大会，使组织机构进一步健全，领导能力进一步加强，职能职责进一步完善。党支部积极推进“一岗双责”，注重培养党务人才，努力探索健康发展、持续发展、科学发展的党务工作新思路，重点做好了以下三个保障：', '首先，中心党组大力支持，支部成员率先垂范，为中心党支部的健全发展提供了有力的领导保障。党支部书记带头主抓工作，支部其他成员按照“一岗双责”的要求，把党务工作融入自身工作之中，形成党务工作与业务工作的互相促进的工作格局，实现了“围绕业务抓党建、抓好党建促业务”的工作目标。', '其次，加强党性教育和政治理论学习，探索收储文化与党务工作的结合，为中心党支部的健全发展提供了有力的思想保障。今年，党支部以学习廉政准则、廉政文化为重点，组织政治理论自学4次，观看廉政警示片1次，举办法律讲座1次，信息员培训班2期。在政治理论学习中，我们注意把社会主义核心价值观与党员干部从事的事业结合起来，与首府城市现代化建设结合起来，与实现首府“十年巨变”、打造“一核双圈一体化”、推进“两个一流”建设结合起来，使党员干部学有所知、学有所用、学有所成，把理论学习转化为实实在在的生产力，实现了思想建设与业务工作两手抓、两手硬。', '再次，落实“一岗双责”，推进党员化目标管理，为中心党支部的健全发展提供了制度保障。', '一方面，中心各科室每年都签订《目标管理责任状》，其中就把党务工作量化为一条条易操作、易执行、易考核的工作目标，做到了与业务工作同部署、同安排、同落实。另一方面，中心努力抓好党员目标化管理，按照市直机关党工委“五个好”党员标准，制定了实施细则和考核方案，及时考核，并以此为基础开展评优评先。', '按照市委、市政府的安排部署，上半年党支部重点开展了创先争优活动。在活动中，我们及时制定了活动方案，成立了领导小组，明确了', '学习实践活动整改后续工作，梳理难以落实的整改任务，集中破解一批需要迫切解决的突出问题。目前，我中心正在着力突破“建立土地出让金收缴的良性机制”、', '等5个中长期整改项目。另一方面，特别重视化解社会矛盾工作，加强信访工作，加强中心各科室的信息沟通，多渠道、多角度地收集来信来访信息，做好矛盾、纠纷的排查工作。特别在房屋拆迁补偿、解决下岗职工生活保障和失地农民医保、社保工作中可能存在的矛盾苗头，工作人员发现问题要及时上报，分管领导和业务科室收到群众来信来访信息要及时处理，争取把矛盾化解在源头。', '中心党支部围绕打造“窗口”单位这一主题，大力加强政风行风建设和党员作风建设，主要做了以下工作:', '党员干部做到了文明礼貌、热情接待、主动服务，杜绝了“门难进、脸难看、话难听、事难办”，蛮横粗暴、态度生硬、故意刁难的现象。', '加强职工勤政教育，树立爱岗敬业的思想。同时完善了规章制度，加强了对党员干部的监管，从根本上遏制“吃、拿、卡、要”等不正之风。三是开展了机关精神文明建设活动。深入开展了“八荣八耻”教育，积极倡导八个方面良好风气', '中心党员干部树立了“窗口”单位的宗旨意识和责任意识，工作热情更加高涨，服务意识更加强烈，机关行政效能明显提高。', '制定了社区共建方案，确定了“四个一”活动；还组织全体工作人员为西南旱灾地区捐款4950元。', '中心党支部围绕首府“十年巨变”、打造“一核双圈一体化”、建设“两个一流”首府发展战略，开展了', '党建主题活动做到了三个结合。一是与我市城市现代化建设相结合，组织中心党员干部参与到我市的重点工程、重点项目中。二是与创建中心学习型团队相结合。每次党建活动的重点是掌握最新的政治理论，把学习放在首位，做到学有所知，学有所用。三是与推进土地收购储备拍卖工作相结合。党建活动的过程就是党员干部提高自身业务能力和服务水平的过程，就是一个形成建设现代化首府合力的过程。', '推进惩治预防腐败体系建设。工作中，我们提前动手，积极组织，深入落实，进一步强化了党员干部的廉洁从政意识，完善了监督管理体系，推动了中心党风廉政建设健康发展。', '成立了党风廉政建设工作领导小组，建立了《党风廉政建设工作制度》，对落实党风廉政建设责任制、开展反腐倡廉工作、纠风工作、提高行政效能工作等都做出了制度性的规定。通过建章立制，使党风廉政建设各项工作都有章可依，增强了党风廉政建设的规范性。', '中心党组书记与中心主任、中心主任与各分管领导、分管领导与分管科室分三级签订了《党风廉政建设责任状》，把党风廉政建设工作细分为一项项易操作、易执行、易考核的具体工作目标，一级抓一级、一级带一级，职责明确、分工配合，形成了党风廉政建设工作的合力。', '一方面开展领导干部廉政教育，通过一把手讲廉政课、外请报告、观看警示片等形式，使领导干部树立廉洁自律的观念。另一方面，加强了对党员领导干部的监督与管理，今年，科级以上领导干部全部填写了《科级领导干部廉政信息采集表》，进一步更新完善了领导干部廉政档案，履行个人有关事项申报制度，起到了监督干部、保护干部的作用。', '把廉政文化建设融入党风廉政建设和反腐败工作的全过程。首先，建立完善了廉政文化领导体制，建立工作方案，完善工作制度，细化工作职责。其次，营造了浓厚的廉政文化建设氛围，采取在中心网页设立廉政文化板块、设立廉政文化宣传专栏等方式，营造了浓厚的机关廉政文化建设氛围。再次，进一步提高了我中心廉政文化建设品味，把廉政文化建设放在实现首府现代化和谐首府目标中去谋划，放在中心整体工作中去布局，推动我中心廉政文化建设不断向纵深发展。', '（一）以贯彻党的十七大、十七届三中、四中全会和学习实践科学发展观为重点，进一步推进党的思想建设', '围绕打造学习型团队，充分调动党员干部的自觉性、主动性、创造性，推进党务、业务工作的相互促进。', '按照科学发展观的要求，进一步创新学习方法，丰富学习内容，用科学发展观的理论武装全体党员的头脑，', '科学运营土地、推动城市建设、促进和谐发展为载体，提高全体党员的政治思想素质和服务科学发展的能力。', '按照中央、自治区党委和市委的部署和要求，提高认识，加强领导，作出安排，明确责任，采取理论宣讲、形式报告会、“一把手”讲党课、基层党校培训和专题辅导等形式，不断提高政治理论学习效果，切实加强新形势下党的思想建设，增强党员干部的忧患意识和责任意识，使中心党员干部成为群众利益守护者，城市建设的先锋队。', '，把政治理论学习与业务联系起来，把中心组学习、全体人员学习与党员干部自学结合起来，进一步提高中心全体党员的政治理论水平和组织领导能力。', '认真学习贯彻落实市委提出的具体贯彻落实意见，牢牢把握服务中心、建设队伍两大任务，推进中心党组织建设。', '认真按照“五个好”党员标准，制定实施细则和考核方案，抓好落实，加强制度建设，强化教育、管理和监督，促进党员全面发展，使党员干部的管理走上规范化、科学化、制度化的轨道。', '要按照《目标管理责任状》要求，把思想、组织、作风、精神文明和党风廉政建设工作全部纳入其中，逐步形成岗位职责明确、任务量化具体、工作程序严格的党务工作格局。', '按照市委、市直机关党工委的安排部署，结合我中心工作实际，制定符合我中心特点的党建主题活动方案，创新活动内容，丰富活动内涵，增强活动效果，教育党员干部提高认识、坚定信念，凝聚力量、发挥作用，为机关各项工作任务的完成提供有力的保障。', '把“三创三落实”与巩固学习实践科学发展观活动成果结合起来，与学习型党组织建设结合起来，与党建主题活动结合起来，与纪念建党活动结合起来，全面推进活动的开展。', '要严格按照《市直机关发展党员工作细则（试行）》文件的要求，严密组织，规范程序，认真培养入党积极分子。同时，要着力搞好基层党员干部的培训、教育工作，过好组织生活，抓好评优评先。', '要把干部作风和行政效能建设放在更加突出的位置。要全面落实效能建设的九项制度，严格执行市纪委《严肃纪律、改进作风的十条禁令》，以优良的党风促政风、带作风，促进中心作风的改善和行政效能的切实提高。', '从中心实际出发,坚持“围绕业务抓党建、抓好党建促业务”的工作思路，围绕中心业务工作进行有针对性的学习，不断加强中心作风和行政效能建设。下半年，定期召开民主生活会，继续', '深入开展以“建设服务型机关、打造窗口单位良好形象”为主题的行政效能建设，提高服务质量和服务水平，促进业务工作向更高层次迈进。', '紧紧围绕创建“为民、勤政、高效、和谐”机关和争创“党的好干部、人民贴心人”目标，建立廉政文化建设活动运行机制，明确任务、完善制度、责任到人，狠抓工作落实。要把廉政文化建设活动列入全年工作整体规划，与其他工作同部署、同检查、同考核、同总结。', '按照《社区共建工作方案》，组织党员干部轮流进社区，开展好“四个一”活动，解决社区实际困难，与社区生活困难群众结成帮扶对子，为困难群众排忧解难。', '年上半年在中心党组和分管领导的带领下，在中心各相关科室的积极配合下，计划财务科紧紧围绕中心本年度工作布署，按照2010年计划财务科目标责任状要求开展各项工作。具体工作完成情况如下：。', '（一）继续完善中心财务管理制度及土地储备资金会计核算办法，为进一步落实“收支两条线”规定，规范我市非税收入核算管理，提供依据。', '（二）继续加强与市财政的沟通联系，确保挂牌成交土地前期成本、挂牌业务费、国有土地收益基金及时、全额返还我中心。', '（三）自2007年第八批挂牌出让土地以来，我市土地出让收入全额纳入财政基金管理，我中心不再直接收取土地出让价款，也不再核算政府收益分成。但是竞买保证金、一级和三方协议土地开发整理项目保证金以及土地整理贷款资金仍然在我中心核算。为进一步提高中心各项资金使用效率，保障资金收付的安全合法、合规性，计划财务科于每年10月末开始制定下一年度的资金总体使用计划，该报政府批复的，报政府批复，该报财政批复的，报财政批复，为我中心下一年度的资金使用作准备，同时在资金管理方面实行按用途分类分户管理，资金不互相混淆使用，严格按照项目性质使用资金。', '（四）及时按月、按季、按年编制财务预算、决算及统计报表是财务会计核算管理的一个重要环节和组成部分，也是财务日常必须完成的一项工作，这项工作已全部按部就班，认真落实完成，并且年内实现中心会计核算电算化的准备工作也已全部完成，年内一定能够实行中心财务电算化管理。', '（五）在日常工作中，计划财务科上下，能自觉主动积极配合其他相关部门的工作，为进一步完善中心各项工作制度和中心财务审计制度尽到自身应尽的义务。', '（六）主动接受上级财政、审计部门的业务指导、监督检查，圆满完成了本年度会计审计工作。2010年4初开始，市审计局对我中心2009年预算执行及土地出让金收支情况进行了为期一个月的审计。在审计工作中，我科人员积极主动配合审计人员工作，虚心接受审计人员提出的建议和意见，不但圆满完成审计工作，同时还进一步加深了彼此的理解，为我中心下一步工作取得市审计局的支持奠定了一定基础。', '（七）收支两条线之后，我市土地出让收入金额纳入了财政基金管理，我中心不再有任何收入，却承担着市政重点项目的建设任务。2010年，在没有任何资金来源的情况下，为确保中心日常运转及承担的市政重点项目（火车东站及机场路景观大道项目）的顺利推进，在中心主要领导的亲自带领下，我中心积极与开行、中行、农行、建行、呼市商业银行等多家金融机构洽谈联系。截止2010年上半年累计到位贷款资金7亿元，完成全年任务的87.5%。', '（一）我科室内部团结协作，互帮互助，能够开拓性的完成各项工作任务，接受督查的任务全部超额完成。', '（二）我科人员能够做到严格遵守中心的考勤与请休假制度，科室人员出勤率基本达到95%以上。', '（三）我科人员能够积极参加中心组织的各项政治理论和业务学习，并且认真记录学习心得笔记，对学习内容进行交流探讨，总结出与实际工作相结合的方面，并能将理论联系到实际工作中。', '（五）在精神文明建设活动中，我科人员能够做到积极进取，从我做起，不断监察自身缺点，为中心精神文明建设出力。', '（六）我科室认真开展党风廉政建设工作，严格自律，树立政府工作形象，未出现群众来信来访现象，更没有出现一起违纪违法事件。', '年，成本审核科在中心党组的正确领导下，按照《2010年度成本审核科目标管理责任状》要求，认真落实管理责任状中确定的工作目标、共性目标，以及年初制定的各项工作计划，从而保证每一宗拟出让土地的权属地界清晰，前期成本审核准确无误，现将我科上半年工作完成情况汇报如下：', '按照《2010年度成本审核科目标管理责任状》要求，我科需完成的工作目标共8项，需完成的共性目标共9项。', '、认真核定拟挂牌土地权属资料。通过与收购科、规划储备科对接，接收拟出让地块规划设计条件及规划初审意见，并对规划红线范围内的土地权属状况进行全面审查，截止目前，已接收用地单位报件59件，已成功挂牌出让宗地19宗（经营性用地17宗、工业用地2宗），流牌1宗，出让总面积1707.96亩（经营性用地1598.46亩、工业用地109.5亩）。', '、认真核实拟挂牌土地的前期投入费用。按照规划红线确定的用地范围，我科室对拟出让地块规划用地范围内的前期投入情况进行逐项核实，截止目前，已召开成本审核小组会议二次，审核前期成本37.21亿元，确定前期成本36.78亿元。我科初审的全部前期投入费用经审核小组审核确认后报市长办公会议研究确定，现已向市长办公会议提交宗地55宗，已挂牌公告20宗，还有35宗土地正在准备挂牌公告相关工作。', '、准确测算招拍挂国有土地使用权出让底价，截止目前，已出让土地成交总价为17亿元（经营性用地16.72亿元、工业用地0.28亿元），出让土地总收益3.51亿元，平均出让土地收益为20.55万元/亩，平均收益比例为26.02%。保证了土地挂牌费用、农业土地开发资金、失地农民养老保险金、失地农民医疗保险金、廉租房建设资金、教育基金、国有土地收益基金的顺利收回。', '、负责将拟出让地块前期成本初审意见报送监察审计室。我科室按照规划确定的供地范围，对拟出让地块前期投入进行初步审核，并将审核结果报送监察审计室复审，截止目前，已报送拟挂牌出让土地二批次，宗地55宗，其中：20宗土地已挂牌出让，35宗土地待挂牌出让。通过监察审计室再次对拟出让地块的前期投入进行复审，提高了前期投入费用审核的准确性和完整性。', '、与监察审计室共同将初审结果报送市土地成本审核领导小组审核。通过跟踪服务，保证成本审核小组审核会议按时召开；截止目前，已顺利组织召开成本审核小组会议二次，审核前期成本37.21亿元，确定前期成本36.78亿元,经过我科初审、监察审计室复审的前期投入费用，已全部提交前期成本经审核小组会议研究确认。', '、负责测算拟挂牌出让地块的出让底价。前期投入费用经市前期成本审核小组会议确定后，我科室依据市审核小组会议确定的前期投入数额，准确测算拟出让地块的出让底价，并报中心会议研究提出拟挂牌地块的建议价。按照市政府统一安排，我科室及时将拟挂牌出让项目用地材料报送市长办公会议研究确定。现已向市长办公会议提交宗地55宗，已挂牌公告20宗。', '、完成年度土地收益目标。按照责任状要求，土地收益在成本价的基础上，平均不低于30%。截至目前，已成交土地19宗（经营性用地17宗，工业用地2宗），其中，有2宗为金桥遗留项目，在政府确定挂牌出让价格时享受优惠政策，其余17宗土地属正常房地产项目，17宗土地的成交总价16.72亿元，前期成本13.22亿元，土地出让总收益3.5亿元，平均出让土地收益为21.9万元/亩，平均收益比例为26.48%。', '、我科正在积极加强政务信息汇总上报工作，确保政务信息按期上报，完成责任状确定的目标。', '按照市委、政府打造“一核双圈一体化”战略规划，为详细摸清我市城中村的实际情况，我科参加了中心组织的“城中村”调研小组，就我市二环路以内城中村和二环路外重点城中村基本情况进行了', '实地调查，摸底调查了62个城中村，其中二环路内29个，二环路外33个。摸清了底数，并对当前我市城中村改造工作中存在的突出问题进行了认真的分析，形成的调研报告已报市政府研究确定。', '项共性目标概括为五大部分内容，分别为：1、科室内部团结，科室人员严格执行考勤及请休假制度；2、认真参加政治理论和业务学习；3、加强党的建设，积极开展精神文明建设；4、开展党风廉政建设及社会治安综合治理工作；5、努力完成中心党组及中心领导交办的工作。以上四部分内容完成情况为：', '、我科工作人员严格遵守中心制定的各项规章制度，在单位学习、请消假及单位组织的各项活动方面严格按照中心党组的安排部署执行；科室内部团结和谐，组织性、纪律性强，工作程序规范，责任到人、分工明确，互帮互助，在重大项目、遗留项目服务方面，严格制定工作计划，以最短时间解决相关疑难问题，不断开创工作新局面。', '、在参加中心组织的政治理论和业务学习方面，我科人员严格按照中心党组制定的学习计划，中心学习与科室内部学习相结合，理论学习与业务学习相结合，尤其在科学发展观学习活动中，我科人员参加了中心党组组织的各类学习科学发展观活动，并按要求做好学习笔记。通过学习，我科人员对当前新的政策规范有了进一步的掌握，加强了工作中的责任意识、大局意识，提高了工作效率。', '、我科人员积极参加党建活动，积极开展精神文明建设活动。在文明科室、优秀共产党员、先进工作者评选方面表现突出，科室被评为文明科室，人员被评为优秀共产党员1人；被评为先进工作者2人。', '、认真开展党风廉政建设及社会治安综合治理工作。我科按照中心党组的统一安排，认真落实党风廉政建设责任制，做好群众来信来访工作，积极开展社会治安综合治理工作和计划生育知识培训活动，从而防止我科人员出现违法违纪事件，提高我科人员的公共事务管理能力。', '、努力完成中心党组及中心领导交办的其他工作。截止目前，中心党组交办的事项已全部落实；中心领导交办的事项共计67件，其中,已办结事项60件，剩余7件事项中，有5件为办理规划设计条件事宜，现已转规划储备科办理；有2件为挂牌出让事宜，已列入2010年第二批挂牌出让范围内。', '、严格遵守中心制定的各项规章制度，科室内部也要整章建制，夯实基础，培养科室人员的团队意识、责任意识，从而提高工作人员的主动性、积极性。', '、鉴于成本审核工作涉及的土地权属混乱、前期费用复杂的特点，我科人员在对项目用地前期审核过程中，通过与市国土资源局核对每一宗用地的权属状况，与项目所在区政府核对每一笔前期投入费用，确保每一宗土地的权属地界清晰，前期费用完整，尽可能将规划供地范围内存在的权属矛盾和经济、法律纠纷在挂牌出让前处理完毕，保障项目用地挂牌出让后的土地相关手续能够按期办理。', '、在资料审核方面，要做到认真细致，主动服务，及时向用地单位说明拟出让地块中存在的问题及解决方法，并积极协调各职能部门，加快用地项目办理速度，缩短项目运行周期，从而提高我科工作效率，保证已接收的项目用地稳步推进，尽快达到可出让条件。', '、做好土地一级开发项目前期成本跟踪审核工作，一级开发项目用地范围大，资金流量大，费用较为复杂，需分批、分期挂牌出让，科室人员将对已发生的前期投入费用及每块土地分摊费用进行跟踪审核和准确测算，从而为出让前期成本核定提供准确依据，为出让后成交确认手续的办理奠定基础。', '年上半年，综合办公室在中心领导的正确领导下，按照年初确定的责任目标，紧紧围绕主要工作，突出重点，扎实工作，为全年工作任务完成奠定了良好基础，现将2010年上半年工作总结汇报如下：', '、一是认真做好文稿撰写工作。1—6月份共撰写各类材料48篇，向政府信息处上报信息8条，同时组织信息员培训会议，邀请政府信息处专家讲座，提高各科室信息员报送、撰写信息业务水平。二是完善和实行重要制度的起草，修订完善了《土地收储中心制度汇编》。', '协调配和好业务科室的各项工作，处理好与市政府有关职能部门、其它各委办局的关系；协助监察审计室、党支部对中心工作纪律、作风进行考核抽查，及时通报，有效地改进中心工作作风。', '、认真严谨办好各类会议及接待工作。筹备组织了1次市长听取中心工作汇报会，协调召开了10次中心工作例会、主任办公会、2010年第一批、第二批经营性用地土地挂牌会及其它项目工作协调会，其中包括研究火车东客站专题汇报工作会议、赴大连等三城市考察学习楼面地价出让土地报告讨论会；记录传达并筹备会议通知33次，包括王市长、包市长视察东客站和城市重点建设项目活动、“城中村改造及绕城水系”协调会；转达其他会议通知40余次，组织保障了中心总结表彰大会、考察座谈会、民主评议政风行风座谈会等的成功举办。耐心细致处理群众来访10次。', '高效快捷安全运转公文，文件管理规范。使公文高效、快捷、安全、规范运转，提高了公文办理效率和质量。对请示报告市政府的重要事项，严格按程序呈送和办理，确保不拖、不压、不误、不漏。对各级各类文件能安排专人负责文件收发，每周四次取送，对急办的文件随时取送，没有因为文件处理不当延误工作。在文件管理上，做到了汇总及时，立卷归档，上半年协议存档53件，为各科室提档用档30卷次，认真落实档案利用手续，无论本单位还是外部人员都严格履行查阅制度，保证了档案的完整与安全。', '加强文稿审核。截至目前起草中心请示、报告、函、通知等文件10多个，认真审核，及时印发，严格把好政策和文字关，确保不出现失误。切实抓好印章管理，所有文件、材料必须有领导签字或经领导授权才能盖章，未出现印章管理失误现象。', '紧紧围绕中心的重大决策和工作任务，集中力量抓好重点项目督查和领导批示件督查。改进督查方法，扩大督查范围，不仅仅督查重要项目批示件,同时对影响日常工作落实的各种文件批示，如通知、批复、请示、来函、党组文件的领导批示及其它突出问题统计汇总并严格督促落实，提高督查工作的质量和水平，增强督查工作的实效性、准确性和权威性。每月对', '各类文件的办理结果进行汇总，下发督察报表，促使各科室认真总结上月工作，寻找差距，计划安排下月工作，截止目前，共计督察领导指示284件，办结200件。', '、做好中心后勤保障工作。办公室本着统筹、节俭和高效的原则，随时为各业务科室提供所需办公用品，做好水电线路的维修保养，做到定期检查，及时维修，保障供电供水设备的正常运行；专人负责中心各楼层的卫生工作；进一步加强车辆管理，严格车辆保养检修，确保车况良好和安全行车。严格控制车辆燃油费开支，目前没有出现任何交通事故。', '、搞好中心福利工作。办公室在中心领导的支持下，在三八妇女节、五一劳动节等重大节日落实福利商品和福利费的采购与发放。', '、狠抓综合治理与安全保卫工作。按照市综治委《关于下达市综治委成员单位2010年度责任目标的通知》的要求，积极筹备并参加了2010年全市社会治安综合治理3月份宣传月活动，同时牵头做好机构节能减排工作，制定下发工作方案，协调落实好机构节能减排工作；做好中心公共财产的管理和维护，加强执勤警卫工作，特别是在法定节假日期间，严格门卫值班工作，加强防火、防盗，', '、做好计划生育工作。成立“爱卫月”和“除四害”工作领导小组，并积极参加计划生育办公室举办的各种宣传教育活动和业务培训。', '积极开展精神文明建设，以思想建设、作风建设和能力建设为切入点，全面加强科室管理和科员思想、作风、纪律教育，努力提高办文、办会、办事的效率，积极鼓励科员参加中心党建活动和献爱心活动。', '全面落实党风廉政建设责任制，办公室与各科室签订了党风廉政建设目标责任书，在宣传教育、制度建设、工作落实等方面积极开展工作。', '上半年，综合办公室取得了一定的成绩，但我们的工作还有很多不足之处:一是工作的责任性和主动性有待进一步增强，质量和效率有待进一步提高；二是按工作程序和工作制度办事的要求还没有真正落到实处。三是作风有待进一步改进，纪律有待进一步加强。对于这些存在的问题，今后我们一定要努力加以解决。', '在下半年的工作中，办公室要继续提高全局观念，为中心领导当好参谋助手，同时为全中心提供坚实的后勤服务保障，进一步做好各项工作，', '今年以来，我们按照工会目标管理责任状的工作目标，充分发挥职能，提高工作效率，进一步规范了工会的多项规章制度，积极做好各项活动，努力调动全体职工的工作热情，为中心各项工作的顺利开展打好基础。对照目标管理责任状，现将工会上半年工作完成情况做一汇报。', '一、加强工会自身建设。建立健全了工会经费管理制度，进一步规范了工会经费的使用范围及支付程序，为以后的工作提供依据，避免了乱花销、不规范、不科学的经费支出。', '二、年初，我们就制定了工会工作计划，对一年的工作有了科学的安排，及时、准确上报了工会经费预决算统计报表，得到了上级工会的好评。', '年上半年的工会经费，确保了我中心各项活动的顺利开展，如：购置新年联欢纪念品、组织“三八”妇女节的庆祝活动及日前举办的全市第七届乒乓球比赛等活动经费。', '名，充分发挥了工会组织的桥梁和纽带作用，为中心干部职工创造了良好而和谐的工作环境，增强了工会组织的凝聚力和亲和力。', '六、组织开展了“三八”妇女节的庆祝活动，带领全体女职工参加了市妇联举办的大型健身活动。充分发挥了工会组织的优势，树立和维护了女职工的团队意识，努力营造有利于女职工发展的浓厚氛围。', '七、积极组织参加市直机关工委和市总工会举办的全市第七届乒乓球比赛，丰富了干部职工的业余生活。在参赛期间，我中心的参赛队员以高涨的热情、饱满的精神、友好的比赛态度，赢得了赛场全体人员的一致好评，最终取得了我们应有的好成绩，同时我中心荣获优秀组织奖。', '总之，我们工会的全体工作人员，要再接再厉，继续做好今后的工会工作，为我中心的整体工作服务。', '半年来，我科在中心领导的正确领导下，按照2010年度签订的目标管理责任状的工作要求，在科室全体工作人员的共同努力下，扎实有效、开拓创新，较好地完成了各项工作任务，现将工作目标完成情况及下半年工作计划汇报如下：', '上半年，我科以参加中心组织的各项学习为契机，坚持自觉学习实践科学发展观和业务知识。并按照中心学习要求，全部人员积极参加了中心组织的每次政治学习，并自学了2010年政府工作报告、中国共产党领导干部廉洁从政若干准则等，同时，进一步提高行政效能和服务水平，以优质、务实、高效的服务态度和积极向上争做贡献的工作热情，高标准、高质量地完成中心领导交办的各项任务，进行认真的对照检查和反思。查找出了对政治理论学习与日常业务工作摆不正的问题，重业务、轻学习主要表现在走过场，听听课、记好笔记，没有在深度上下功夫，在日常工作上存在工作拖拉，办事效益不高，人员业务素质相对较低与科学发展观和执政能力的要求还有较大差距。服务质量和服务意识不够深，“门难进，脸难看，话难听”等不良现象在一定程度也存在，在学习实践科学发展观活动中，我们清醒的认识到，上述问题不改正，直接损害了政府公众形象，影响到创建和谐首府的目标和各项工作任务的完成。通过前一阶段的学习对照检查，进一步明确了在新形势下加强党的执政能力建设的重要性和紧迫性，用科学发展观指导科室工作，不断提高思想政治觉悟和业务水平、提高工作的自觉性和主动性、增加服务观念和服务意识、廉洁奉公是保障各项工作任务圆满完成的根本动力。', '为完成好2010年度土地储备供应计划工作，我科根据2009年度土地储备情况和土地供应情况，及我市房地产市场和土地市场的运行现状，制定了2010年度储备土地出让计划，以增强政府运用储备土地市场参与房地产市场宏观调控能力。', '按照中心制定的工作目标要求，我科每季度要对呼市房地产市场和土地运营市场进行分析，我科就此项工作指派专人负责，定期从呼市官方网站和目前我市的房地产市场和土地市场运行现状，认真分析和研究。并会同北京思源公司工作人员完成了对我市一季度房地产市场和土地市场分析汇总，为领导决策本年度土地出让计划提供基础数据。', '截止目前，储备用地总计60宗，土地面积为10517.07亩。其中：农用地4宗，土地面积为4153亩；建设用地25宗，土地面积为3752.35亩；工业用地24宗，土地面积为2122.39亩；公共用地6宗，土地面积达489.33亩。在2009年储备土地的基础上，2010年上半年新增加储备用地3宗（原安鹏置业、会展中心两宗），增加土地面积127.83亩，新增加的3宗土地已报市国土资源局办理国有土地使用证，我科将未纳入储备用地的北郊公园、公主府公园拟报市国土资源局，待办理国有土地使用证后再纳入土地储备库，积极配合收购科组件向市政府申请拟将巧报镇后巧报村、双树村的两宗土地（合412.34亩）纳入市政府土地储备库。', '为防止储备土地侵权行为发生，我们对纳入市政府土地储备库的土地及时的聘用工人进行严格管理和看护。半年来，我们对土地储备库的60宗共计10248.9亩的土地，进行了认真的跟踪管理，每周派专人进行巡回检查，发现问题及时纠正，确保国有土地资产不流失。', '按照中心领导的安排部署，我科承担了1000亩的土地备任务。为完成1000亩的土地储备任务，我科积极的与市规划局、国土局协商。目前会展中心两宗土地、内蒙古信访中心（原安鹏置业）前期测图整理工作已完成，公主府公园、北郊公园前期测图办理四邻具结证明及相关报件整理工作也基本完成，为尽快办理土地使用证抵押贷款积极准备。', '根据我市国民经济发展总体规划，土地利用总体规划和土地市场供需状况及城市竞争力可持续发展战略的要求，服务于政府对房地产市场的宏观调控职能的需要，以及为更好的完成中心的整体工作，配合相关科室征地报批等工作，积极协调市规划局测绘处测绘我中心需要储备、报批及公开出让的土地。在规划设计条件方面，我科认真审核报件资料，对用地位置进行现场踏勘、权属核查、发现问题及时纠正，确保每个项目报件及权属资料与土地现状相吻合，对不符合办理规划条件或者有瑕疵的建设项目，及时与用地单位讲清原由，作出明确的解释，不推诿、不出难题，尽量让用地单位满意。对条件成熟的项目出具规划设计条件的函，并积极协调规划局为出让土地工作做好前期工作。', '、加大力度对已储备的土地及地上建筑物进行全程跟踪管理，及时发现问题及时处理，防止国有土地资产流失、破坏。', '、充分调动和发挥集体力量，将现有的条件成熟的土地进行出租，开展经营活动，为土地储备筹措资金，创造收益，防止土地的闲置和浪费。', '、进一步做好储备土地的办理土地证过户手续工作，为我中心进行货款抵押创造有利条件，使贷款抵押工作高效、快捷。', '总之，下半年按照责任目标和工作要求，我科的任务还非常艰巨，我们决心团结一致、齐心协力、不折不扣地圆满完成中心党组和中心领导赋予的各项工作任务，为我市的土地收储事业再上一个新台阶做出应有的贡献。', '重要思想和科学发展观为指导，紧紧围绕中心总体工作思路及奋斗目标，坚持业务工作和党务精神文明建设“两手抓，两手都要硬”的原则，在相关科室的大力协助下，全科人员齐心努力，较好的完成各项工作任务，现总结如下：', '、依据年度土地供应计划，依法挂牌出让土地。根据《中华人民共和国土地管理法》、《中华人民共和国城市房地产管理法》、《中华人民共和国城镇国有建设用地使用权出让和转让暂行条例》、《招标拍卖挂牌出让国有建设用地使用权规定》，按照我市年度土地供应计划及我中心工作安排，继续认真做好土地招拍挂工作。今年上半年，我科协同其他相关科室，认真组织实施了二批经营性用地及一批工业用地的挂牌出让工作，其中第二批经营性用地挂牌前期工作已全部完成，准备公告。', '、认真做好土地挂牌出让前各项工作。每批土地挂牌前我科均要进行现场踏勘，价格评估，深入了解每宗土地的具体情况，在此基础上拟定出让方案并报政府审批，同时配合成本审核科做好市长办公会议汇报材料的准备工作，撰写会议纪要，拟定和发布公告、制定宗地介绍材料等出让文件，保障招拍挂出让工作的顺利进行。', '、参阅现行的土地招拍挂相关法律法规，借鉴外地先进经验，不断完善丰富招拍挂文件资料（如《呼和浩特市出让国有建设用地使用权挂牌文件》、《呼和浩特市土地出让宗地简介》等），使其更合法、更规范。结合每宗土地的实际情况，对出让土地的宗地文本适时进行修改，如宗地环境及市政交通设施分析、交地条件等内容，做到文本资料合法、客观，可参考价值高。', '、积极主动和相关科室对接，依法合规的办理成交确认相关手续，维护政府利益，保障竞得人合法权益。办理成交确认手续的基础是出让地块权属清晰，无纠纷，符合规划设计条件要求，报名、竞价等档案资料齐全。每批挂牌土地公告后，我科要对每宗土地的权属进行复核，包括核对勘测定界图、规划红线图、宗地图及实地情况等。竞价期结束后，要和信息科对接，接受并复核报名、竞价等材料。对没有问题的宗地，签订《成交确认书》，待竞得人缴清地价款后再办理其他后续手续。10年挂牌成交土地已有14宗签订了《成交确认书》；还有5宗土地存在问题，正在积极处理中。', '、积极协调市国土局，加强拟挂牌土地权属确认工作，争取每宗土地在挂牌前取得市国土局的确权文件，做到有问题在挂牌前解决，缓解挂牌出让后出现问题不好处理、不能及时办结手续的被动局面，提高我们的工作效率。', '、加强地价款的收缴工作。为进一步加大土地出让金的收缴力度，结合工作实际，我科制定了整改措施：一是加大催款力度。对2006-2009年欠交出让金的土地分年限、分情况限期催缴，限期内仍不缴纳的将报请市政府同意，取消竞得资格，依法收回土地；二是调整竞买保证金收取标准。市政府自主整理的土地，招拍挂出让时，竞买保证金按70%收取；其他开发整理的土地，招拍挂出让时，竞买保证金按50%收取；三是对房地产开发企业建立诚信档案，对其竞买土地后缴纳地价款情况进行记录。从2010年1月1日起，对有拖欠地价款行为的单位，限制其参加土地招拍挂活动，竞买保证金在正常水平基础上提高20%；从2010年1月1日起，对于拖欠地价款的单位，在欠款期间不得参与新的土地招拍挂交易活动。2010年1月至6月，我科共收缴地价款365466.5739万元，其中清理10年以前欠款270159.3351万元。', '、及时移交宗地档案，完善档案整理工作。对办理完成交确认手续、地价款已缴清的地块，我科及时整理相关资料，转国土局一份，留中心存档一份，按照档案管理有关规定及时整理归档。今年上半年，我科已办结转档47宗土地。按照中心的档案整理要求，通过前一段时间的实践，我们对现有的档案整理规范做了进一步的修改与完善，力争做到档案资料齐全、内容详实、立卷规范。', '（二）我科正在积极清理以前划拨用地遗留地块的欠款情况。截至目前，共办理划拨用地手续2宗，还有4宗正在积极办理中。', '（三）为了贯彻落实《关于进一步加强土地出让收支管理的通知》（财综[2009]74号）及《关于加强房地产用地供应和监管有关问题的通知》（国土资发〔2010〕34号）等文件精神，按照我市治理工程建设领域突出问题专项治理工作要求，我科加大对欠缴地价款的清缴力度，对每批不能按《成交确认书》规定日期缴清地价款的成交单位通过发放《限期交款通知单》限期缴纳地价款。我科还制定了一套催缴地价款的具体措施：', '、中心领导与欠款单位进行约谈，主动了解欠款企业存在的问题及困难，商讨解决办法，积极帮助欠款单位解决问题，促进地价款的收缴；', '对于仍在欠缴地价款的土地成交单位，我科将继续加大催缴力度，采取更有效的措施，催促其尽快缴纳欠款。', '（一）按照中心学习实践科学发展观活动领导小组要求，我科认真完成学习实践的各个步骤，各项任务，取得了很好效果。', '（二）坚持定期的集中学习制度，认真贯彻落实科学发展观，加强党风廉政建设，提高科室工作人员的思想政治素质，把经常性的学习教育作为培养工作人员思维能力，提高科学预见性和增强判断能力的重要载体，努力提高工作人员政治理论素质。', '（三）不断加强党风廉政反腐教育工作，不断增强科室人员的宗旨意识、服务意识、勤政廉政意识。在管理方法上进一步创新，强化工作人员的廉洁自律意识，要求工作人员严于律己，克己奉公，真心诚意为群众办实事、办好事。', '（四）积极开展精神文明建设活动，做到办公环境整洁、工作人员对外态度热情、服务周到，对内团结友爱、互相帮助，遵守中心各项规章制度，充分体现良好的精神风貌。', '（一）地价款收缴难度越来越大，土地手续不能顺利办结。具体表现在，成交土地中有一半土地竞买保证金都要求抵顶。今年已成交土地19宗，其中有7宗土地抵顶竞买保证金，抵顶金额为9963.44564万元。竞得人缴款积极性明显下降，纷纷要求抵顶。截止目前，', '我市的土地招拍挂出让工作日趋完善，但每年出让土地的批次、时间和具体地块没有预先安排，存在随意性，土地出让前期准备工作难以到位，往往造成规划设计条件办理、土地权属确认、前期成本测算等工作仓促进行或来不及完成。一方面容易出错，另一方面直接影响后续的成交确认工作。如国土局确权文件没有出具，权属不确定，成交确认书不能及时签订，后续手续无法办理；先挂牌后确权，产生供地确权面积与挂牌面积不符的现象；规划条件不能及时出具，挂牌文本不能及时印制发售等，造成工作被动，办事效率降低。', '年上半年，审批办始终牢固树立窗口对外良好形象，在中心党组的正确领导下，积极配合市政务服务中心开展各项工作，严格按照《2010年度审批办目标管理责任状》要求，认真落实年初制定的各项工作计划，现将审批办2010年上半年工作总结及下半年工作计划汇报如下：', '经过公告期、竞价期共计42天的竞买报名与竞价，审批办共接受来电来访咨询60余次，并做到书面咨询报件的登记工作。对报名企业提供材料做到严把资格审查关，累计受理60项，其中录入审批系统40项，均按时限要求按时完成。在受理招拍挂出让土地工作中，严格使用电子审批专用章，给竞买申请人出具的《受理通知书》、《办结通知书》上加盖电子审批专用章，按要求使用40余次。共发售《土地出让宗地简介》、报名表格33套，各项工作均做到了耐心细致解答、及时高效办理。同时，上半年共接待了各级组织考察和调研团体21个，审批办工作人员均起立迎接，耐心解答咨询和提问，对审批办的工作给予了充分的肯定和认可。', '上半年，审批办根据业务工作需要，及时在政务服务中心一楼LED电子显示屏发布招拍挂出让国有建设用地使用权信息，并在竞价期根据开发企业适时报价及时在电子显示屏上予以更新，未出现一次信息发布延缓及信息发布错误。在政务信息上报工作方面，审批办高度重视，明确指定专职信息员，截止目前，共向中心上报政务信息4条，均通过党支部窗口发布，向政务服务中心上报政务信息10条，其中被政务服务中心《政务之声》采纳了6条。并且为做好全国政务工作现场会迎接工作，按照政务服务中心要求，积极撰写论文一篇。', '在市政务服务中心的严格管理下，土地收储中心审批办作为进驻单位之一，上下班实行指纹签到签退制度，外出办事实行请销假制度。审批办工作人员严格遵守《呼和浩特市政务服务中心工作人员守则》、《呼和浩特市政务服务中心运行管理办法》、《呼和浩特市政务服务中心工作人员指纹考勤和请销假管理办法（试行）》等政务服务中心的各项规章制度。严守国家和公务秘密、商业秘密以及其他非公开的信息。实行岗位责任制，做到任务清楚、要求明确，权责一致、责任分明。均未出现警告、告知、部门通报、全市通报等事件。', '由于审批办属市政务服务中心大厅进驻单位之一，在日常管理上遵守市政务服务中心相关规章制度，就共性目标完成情况上来看，主要体现在以下几个方面：', '、严格遵守政务服务中心各项日常规章管理制度，科室内部团结和谐，组织性、纪律性强，工作程序规范，责任到人、分工明确，互帮互助。在今年呼市政务服务中心第一季度评比中，市土地收储中心审批办以高效优质的窗口服务荣获了“红旗窗口”称号，审批办副主任孙建国也被评为“服务标兵”。', '、认真参加市政务服务中心组织的政治理论及业务学习，上半年共参加学习16次，均做到有学习安排、有学习资料、有学习笔记、有心得体会，出勤率达100%。认真参加市政务服务中心机关党组织组织开展的“锐意改革创新、奋力开拓进取、为首府科学发展、和谐发展打造优良服务环境”党建主题活动，使审批办领导及全体工作人员在服务大局、服务基层、服务群众的能力和水平上得以大幅度提升。', '、积极参加中心举办的献爱心、捐款等党建活动，上半年审批办工作人员大力弘扬“一方有难、八方支援”传统美德，积极参加中心举办的向西南受旱灾地区捐款活动，为帮助西南五省区（市）灾民度过难关尽微薄之力。', '、在业务事项的办理过程中，逐步完善各项业务的办理流程。实行首问负责制、一次性告知制、限时办结制、统一收费制，减少审批环节，缩短办事时限，提高政务服务的质量和效率，强化公共服务意识，切实做到“依法、公开、便民、高效”，使其真正成为政府对外服务的重要窗口。', '我审批办受理的2010年第一批呼和浩特市招拍挂出让国有建设用地使用权（呼国土储告字[2010]01号）工作自 2010年1月28日开始，至 2010年3月11日结束，整个工作跨过了一个新年。为了做好2010年的第一批土地招拍挂出让工作，审批办工作人员新年前后加班加点，放弃个人的休息时间，从《土地出让宗地简介》、报名表格的发售，到报名材料的受理、审查，最后发放《（未）竞得通知书》，全部按规定流程、时间办理，没有因为新年的喜庆气氛而将工作热情“降温”。在 2月20日（ 农历正月初七）本批次的竞买报名工作进入了后期阶段，大部分竞买人（房地产开发企业）都在这个时间段提交报名材料，审批办两名工作人员按时上下班，坚守岗位，没有出现迟到、早退、旷工的现象，为竞买报名工作的顺利进行提供了保障。', '全力做到“用微笑接待办事人员的来访，用耐心解答办事人员的提问，用热心解决办事人员的难题”。', '始终站在群众的立场上想问题，带着感情为群众办事、办实事、求实效，牢固树立和落实科学的发展观和正确的政绩观，努力塑造“团结、实干、创新、效率”的良好窗口形象，开展阳光作业，一站式服务，充分得到了中心领导及广大办事群众的一致认可和好评。', '通过2010年第一批招拍挂出让土地工作，审批办的敬业精神与热情服务得到了办事人员的认可和好评，并收到了内蒙古万铭实业有限责任公司、内蒙古希望阳光实业股份有限公司送来的表扬锦旗两面。', '工作中，审批办仍需加强与中心各级领导及各相关科室之间，加强与政务服务中心领导和其他进驻兄弟单位之间的沟通，及时汇报、及时协调、及时解决。', '审批办主要负责的招拍挂报名及业务咨询工作，工作人员实际业务知识有限，经验不足，需要多向业务熟练的同事学习请教。加强对土地管理的相关法律法规学习，提高工作人员的自身业务素质。进一步深入学习实践科学发展观，学习贯彻党的相关理论精神，做到理论联系实际、理论指导实际，以人为本，提高服务质量。', '（一）为迎接全国政务服务现场会在我市的召开，进一步做到服务热情、细致，业务精通熟练，以饱满的热情完成现场会的各项工作。', '（二）继续做好审批办窗口土地信息咨询接待工作。认真接待办事群众来电、来访、来信、来函等咨询工作，并做好书面咨询报件的登记工作。', '（三）继续做好招拍挂出让国有土地使用权信息的发布、挂牌文件及《土地出让宗地简介》的发售、受理招拍挂出让国有建设用地使用权的申请报名和资格审查、接受竞价期间的土地竞买报价等工作。', '（四）继续加强与相关业务科室的沟通协调，进一步明确审批办工作职能，完善工作流程，做好与相关科室之间的工作衔接。', '（五）认真完成中心领导交办的各项工作，配合其他相关科室完成中心主要业务工作和日常工作。', '（六）遵守市政务服务中心的各项管理规定，按时上下班，积极主动参加市政务服务中心组织的各项学习实践活动。', '在中心党组的正确领导下，土地收购科上半年的工作，按照工作职责和与中心签定的《目标管理责任状》，全科工作人员，团结一致、积极进取，较好地完成了中心赋予的国有土地收回、收购、置换、集体土地征收、土地整理、国有土地办证等工作，根据中心半年总结通知的要求，现将收购科半年以来的工作汇报如下。', '、内蒙古科技馆等建设项目用地占用内蒙古公路工程局46.38亩划拨工业用地，土地置换工作多次反复进行商谈，至今没有签订《国有土地置换》。', '按照国家关于集体土地征收报批的相关规定和新修编的《呼市土地利用总体规划纲要》确定的中心城区范围，我科室将我中心储备整理区域内所涉及的集体农用地556公顷全部组件向国土资源管理部门逐级申报年度用地计划，国土资源部批准年度用地计划后再逐级申报项目实施方案，实施方案由自治区国土资源厅批准后方可供地。2010年6月1日，市国土资源局《关于确定2010年报国务院批准中心城市建设用地规模和项目的报告》中只给我中心提供60公顷新增建设用地。', '截止目前，中国房地产开发集团到位10000万元，荣盛房地产发展股份有限公司到位20000万元，北京大朗弘业公司到位2500万元，内蒙古远鹏房地产开发有限公司到位2000万元，内蒙古玉泰房地产开发有限责任公司到位2000万元，内蒙古蒙亮民族文化有限公司到位1000万元，内蒙古伊泰置业有限公司到位2000万元', '截止目前，共受理16宗土地整理项目三方协议的起草工作，签订完成7宗土地整理项目，正在办理9宗土地整理项目。其中：', '北京大朗弘业公司土地整理项目位于回民区攸攸板镇二环路以东，该地块土地整理面积约为281亩；整理项目预计总投资额约7000万元，已交入我中心2500万元；', '呼和浩特市永华房地产开发有限责任公司土地整理项目位于大台什村及后巧报村，该地块土地整理面积约为944.53亩，整理项目预计总投资额约3亿元，至今未给我中心打土地整理首付资金；', '内蒙古日信房地产开发有限责任公司土地整理项目位于大台什村及后巧报村，该地块土地整理面积约为124.436亩，整理项目预计总投资额约3110万元，至今未给我中心打土地整理首付资金；', '内蒙古远鹏房地产开发有限公司土地整理项目位于大召广场南侧，该地块土地整理面积约为5.68亩，整理项目预计总投资额约6000万元，已交入我中心2000万元；', '内蒙古玉泰房地产开发有限责任公司土地整理项目位于赛罕区巧报镇双树村新村，该地块土地整理面积约为202.0515亩，整理项目预计总投资额约6500万元，已交入我中心2000万元；', '内蒙古蒙亮民族文化有限公司土地整理项目位于回民区成吉思汗大街以南、以东，乌里沙河以西，该地块土地整理面积约为82.328亩，整理项目预计总投资额约2000万元，已交入我中心1000万元；', '（一级整理）中国房地产开发集团土地整理项目位于呼市团结小区，该地块土地整理面积约为443.3亩，整理项目预计总投资额约9.3亿元，已交入我中心1亿元；', '内蒙古鑫行达房地产开发有限公司土地整理项目位于新城区呼伦北路与北二环丁字路口东南角，该地块土地整理面积约为154.14亩；', '内蒙古翔宇房地产开发有限责任公司土地整理项目位于回民区厂汉板村，该地块土地整理面积约为155亩；', '内蒙古华堃房地产开发有限公司土地整理项目位于赛罕区巧报镇双树村旧村，该地块土地整理面积约为166.14亩；', '内蒙古瑞亿商贸有限责任公司土地整理项目位于回民区攸攸板镇倘不浪村、攸攸板村，该地块土地整理面积约为40.273亩；', '内蒙古和成房地产开发有限公司土地整理项目位于新城区毫沁营镇南店村，该地块土地整理面积约为346.511亩；', '内蒙古隆聚园房地产开发有限责任公司土地整理项目位于新城区中山东路以北，该地块土地整理面积约为64.08亩；', '内蒙古电力（集团）有限责任公司土地整理项目位于赛罕区西把栅乡讨号板村、小厂库伦村，该地块土地整理面积约为1113.249亩；', '北京蓝天百脑汇房地产开发有限公司土地整理项目位于新城区中山东路，该地块土地整理面积约为10.88亩；', '荣盛房地产发展股份有限公司土地整理项目位于小黑河沿岸，该地块土地整理面积约为2857亩；', '（一）根据中心的安排，我科认真学习2010年度本科室目标管理责任状内容，明确了职责和任务，并按照目标任务进行了分工，做到各司其职，各负其责，在工作过程中，团结协作、积极进取，勇于创新，较好地完成中心交给的各项任务。', '（二）我科室人员自觉遵守中心考勤和休假、请假及销假制度，按时上下班，认真履行职责，没有无故迟到、早退或缺勤现象。', '（三）今年上半年，我科人员积极参加中心组织的各项学习活动，从科长到科员，都做到了自觉主动，没有一人因故请假迟到，同时，科室内部经常组织学习讨论，统一思想，提高认识，使每个同志都增强了服务意识和责任意识，树立了服从大局，服务全局的思想。', '四)加强党的建设，保持共产党员的先进性，是我党的长期工作任务，我科党员同志经常组织学习党的理论知识，不断提高自己的理论水平，积极参加中心组织的各项活动。我科室人员踊跃参加西南旱灾献爱心、捐款活动。', '（五）在集体土地征收和国有土地收回收购过程中，我科工作人员，处处严格要求，遵章守纪，严格纪律，没有发生一起违章违纪问题，党风廉政建设各项措施和廉洁自律的各项规定得到了很好的贯彻落实。', '（六）我科人员积极开展社会治安综合治理、计划生育工作的学习，无重大责任事故，无违反计划生育现象。', '根据我科与中心签订的目标管理责任状，今年主要完成征收集体土地和收购国有土地6000亩，招商引资5亿元，办理国有土地证500亩的任务，目前离完成目标任务还有一定差距，下半年我科工作人员将进一步加大工作力度，确保全年目标任务圆满完成。同时，积极巩固科学发展观教育成果，圆满完成共性目标任务，使本科室工作再上一个新台阶。', '上半年，我科在中心党组的正确领导和各业务科室的大力支持下，严格落实中心2010年度工作部署，以土地整理工作为重心，认真对照《年度目标管理责任状》，狠抓了各项工作的落实，进一步完善拆迁工作流程和科室各项规章制度，较好地贯彻执行了党风廉政建设制度和要求，完成中心领导赋予的各项任务。现将我科上半年主要工作总结如下：', '目前，该项目还有40余户未拆迁，根据上级领导的批示，对剩余的40余进行了预算评估，正在做挂牌前准备工作。', '半年来,我科紧紧围绕《年度目标管理责任状》和我科工作职责，较好地贯彻了中心党组工作指导思想和工作思路，完成了年度目标管理责任状规定内容。', '二是所有监管项目都如期上报监察审计室进行了复核审查，全部完成监察审计室所有督办事项。', '三较好地执行了考勤制度和请销假制度，认真参加了科学发展观理论学习，报送拆迁简报和信息15期。', '、党风廉政建设工作。我科在积极主动开展业务工作的同时,还重点白抓了党风廉政建设工作,一年来,科室人员利用科室例会时间统一组织学习了《呼和浩特市土地收购储备拍卖中心党组2010年党风廉政建设工作方案》及中心的各项规章制度，并针对工作中存在不足，借助我中心组织的专家讲座契机,进行普法知识的学习，通过讨论研究和自查自纠提高全科人员的法纪意识。', '、认真学习了业务知识，提高了全科人员的业务水平。为了夯实全科人员的业务水平，全科人员在做好本职工作的同时，还认真学习《呼和浩特市土地拆迁管理条例》和《呼和浩特市征收集体土地房拆迁补偿安置办法》等文件。半年来，通过学习实践科学发展观，有效地提高全科人员的政策理论水平和业务知识，增强了大家的服务观念和服务意识。', '、好了特点：重点突出，措施到位。团结小区拆迁改造项目因涉及居民多，单位多，拆迁量大，人员构成复杂，又是我市的重点改造项目，所以，在前期准备工作时，我科积极与新城区相关部门及时沟通，针对团结小区项目的特点，进行了认真细致的调研，制定了切实可行的拆迁补偿方案，并聘请专业评估机构对该项目进行了风险评估，邀请小区街道办事处和业主召开专门的听证会，第一时间与业主和开发企业做了有效沟通，由于准备工作充分，工作针对性强，团结小区动迁工作开始的前三天，就与拆迁居民签订了300余份拆迁协议。', '、存在不足：一是科室人员的业务素质和和政策理论水平有待提高，二是部分工作人员主动性和积极性还不强，三是与相关业务单位的协调和沟通有待提高。', '二是继续加强与有关部门的协调与合作，规范拆迁整理工作流程，重点做好中房新团结小区项目和火车站周边配套设施用地整理工作。', '二0一0年上半年，我科贯彻落实中心《2010年工作计划》，围绕“建设一流首府城市、建设一流首府经济”市委政府总体决策目标，对照《土地整理一科目标管理责任状》认真工作抓落实，较好地完成了上半年工作目标任务，现将完成情况总结如下：', '（一）上半年，我科对呼市文化产业园等九个城中村拆迁改造和旧城区改造项目进行了监管。', '、机场北辅路以北地块项目正全面展开征地拆迁，截止目前总计发放《拆迁公告》和《拆迁补偿安置方案》各116份，张贴《拆迁通告》80余份，发放《致拆迁群众的一封公开信》116份，悬挂拆迁宣传标语8处，经近期耐心细致地动迁，已有2个院落带头拆迁，院落已拆除。', '（四）上半年，我科和其他科室抽调人员对位于赛罕区、玉泉区43个村庄摸底，形成了基础资料汇总成果；对二环路两侧约五百米范围内可利用地进行核实，完善了基础资料。', '（五）对现在的拆迁项目全部按户进行照像录像，留存影像档案资料和进行局域网保存和传输，开展了网上审批、网上调阅和网上查找，提高了工作效率。', '（一）我科人员能够认真参加中心组织的政治理论和业务学习，在学习实践科学发展观活动中，能够按要求保证人员、时间、内容、效果四落实，人员的宗旨意识、责任意识和大局意识有所增强。', '（二）年初，我科与中心签订了《土地整理一科党风廉政建设责任状》，按照责任状要求，我科经常教育科室工作人员，严格要求自己，执行好和落实好廉政建设制度和要求。', '（三）上半年，网上报送拆迁类信息和其他综合类信息22期，为领导科学决策提供了快速的信息渠道。', '今年我科承担拆迁整理工作比较繁重，涉及政策方面、法律方面和其他方面问题比较多，为此，下一步应主要做好以下几项工作。', '（一）认真开展党风廉政建设，严格落实党风廉政建设责任制，确保本科室人员自觉履行党风廉政建设责任制。', '（二）突出抓好机场北辅路以北地块项目和高压走廊带状公园项目市重点项目，保证项目按时完成。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>25</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>习近平解放思想开拓创新团结奋斗攻坚克难加快建设具有世界影响力的中国特色自由贸易港</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2022-04-14</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tt_1/202204/t20220414_1231518.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['习近平：解放思想开拓创新团结奋斗攻坚克难 加快建设具有世界影响力的中国特色自由贸易港_ 呼和浩特市人民政府', '新华社海口4月13日电 中共中央总书记、国家主席、中央军委主席习近平近日在海南考察时强调，要坚决贯彻党中央决策部署，坚持稳中求进工作总基调，完整、准确、全面贯彻新发展理念，全面深化改革开放，坚持创新驱动发展，统筹疫情防控和经济社会发展，统筹发展和安全，解放思想、开拓创新，团结奋斗、攻坚克难，加快建设具有世界影响力的中国特色自由贸易港，让海南成为新时代中国改革开放的示范，以实际行动迎接党的二十大胜利召开。', '4月10日至13日，习近平在海南省委书记沈晓明、省长冯飞陪同下，先后来到三亚、五指山、儋州等地，深入科研单位、国家公园、黎族村寨、港口码头等进行调研。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是10日下午，习近平在位于三亚市崖州湾科技城的崖州湾种子实验室考察。新华社记者 李学仁 摄', '10日下午，习近平首先来到位于三亚市崖州湾科技城的崖州湾种子实验室考察调研。习近平听取了科技城规划建设和实验室总体情况介绍，察看了实验室搭建平台支持种业创新成果展示，对海南省探索农业科技创新模式、支撑保障国家粮食安全的做法表示肯定。习近平先后走进大型仪器公共服务中心、精准分子设计育种中心，同科研人员深入交流。习近平指出，中国人的饭碗要牢牢端在自己手中，就必须把种子牢牢攥在自己手里。要围绕保障粮食安全和重要农产品供给集中攻关，实现种业科技自立自强、种源自主可控，用中国种子保障中国粮食安全。要继承和发扬老一辈农业科研工作者胸怀祖国、服务人民的优秀品质，拿出十年磨一剑的劲头，勇攀农业科技高峰。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是10日下午，习近平在位于三亚市崖州湾科技城的崖州湾种子实验室考察。新华社记者 谢环驰 摄', '随后，习近平来到中国海洋大学三亚海洋研究院，了解海洋观测设备与信息服务系统研发应用情况，连线“深海一号”作业平台。前方工作人员向总书记汇报了一线工作情况。习近平向他们表示诚挚问候，嘱咐他们注意安全、保重身体。习近平强调，建设海洋强国是实现中华民族伟大复兴的重大战略任务。要推动海洋科技实现高水平自立自强，加强原创性、引领性科技攻关，把装备制造牢牢抓在自己手里，努力用我们自己的装备开发油气资源，提高能源自给率，保障国家能源安全。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是10日下午，习近平在中国海洋大学三亚海洋研究院考察。新华社记者 燕雁 摄', '考察途中，习近平下车察看沿海生态环境保护工作，并为他在12年前种下的一棵不老松施肥浇水。习近平叮嘱当地负责同志加强陆海统筹，把生态保护工作作为一项重要任务抓紧抓好。', '海南省于2011年4月20日试点实行离岛免税政策。11日上午，习近平来到三亚国际免税城，实地了解离岛免税政策落地实施等情况。习近平指出，要更好发挥消费对经济发展的基础性作用，依托国内超大规模市场优势，营造良好市场环境和法治环境，以诚信经营、优质服务吸引消费者，为建设中国特色自由贸易港作出更大贡献。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是11日下午，习近平在海南热带雨林国家公园五指山片区考察。新华社记者 谢环驰 摄', '11日下午，习近平到海南岛中南部的五指山市考察调研。海南热带雨林国家公园是我国首批5个国家公园之一。习近平深入五指山片区，沿木栈道步行察看公园生态环境，不时停下脚步，询问树木生长、水源涵养、动植物资源保护等情况。他指出，海南要坚持生态立省不动摇，把生态文明建设作为重中之重，对热带雨林实行严格保护，实现生态保护、绿色发展、民生改善相统一，向世界展示中国国家公园建设和生物多样性保护的丰硕成果。', '水满乡毛纳村是五指山市一个黎族村寨，近年来积极推进美丽乡村建设，大力发展乡村旅游业。习近平总书记来到村里调研，沿村道边走边看。黎族村民王柏和一家热情将总书记迎进家里。习近平察看院落、客厅、卧室等，在手工茶坊参与炒茶劳动，并买下两袋茶叶。习近平勉励他们把茶叶经营好，把日子过得更红火。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是11日下午，习近平在五指山市水满乡毛纳村，同当地干部群众亲切交谈。新华社记者 李学仁 摄', '在村寨凉亭内，习近平同驻村第一书记、乡镇乡村振兴工作队队长、村支部书记、老党员、致富带头人代表等亲切交谈，了解当地因地制宜发展特色产业，加强民族传统文化保护传承等情况。习近平强调，推动乡村全面振兴，关键靠人。要建设一支政治过硬、本领过硬、作风过硬的乡村振兴干部队伍，吸引包括致富带头人、返乡创业大学生、退役军人等在内的各类人才在乡村振兴中建功立业。要强化农村基层党组织建设，充分发挥基层党组织战斗堡垒作用。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是11日下午，习近平在五指山市水满乡毛纳村同村民们亲切交流。新华社记者 李学仁 摄', '习近平沿长廊察看黎族特色农产品和黎锦、藤编等非物质文化遗产展示。广场上，歌声悠扬、鼓乐齐奏，村民们跳起竹竿舞迎接远方的客人。习近平亲切地对大家说，很高兴来看望黎族乡亲们，看到你们过上幸福生活，我感到很欣慰。我们全面建成小康社会以后，还要继续奔向全体人民共同富裕，建设社会主义现代化国家。乡村振兴要在产业生态化和生态产业化上下功夫，继续做强做大有机农产品生产、乡村旅游、休闲农业等产业，搞好非物质文化遗产传承，推动巩固拓展脱贫攻坚成果同乡村全面振兴有效衔接。各级领导干部要贯彻党的群众路线，牢记党的根本宗旨，想群众之所想，急群众之所急，把所有精力都用在让老百姓过好日子上。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是11日下午，习近平在五指山市水满乡毛纳村向村民们挥手致意。新华社记者 李学仁 摄', '12日上午，习近平来到地处海南岛西北部的儋州市考察调研。在展示馆，习近平听取洋浦经济开发区建设发展总体情况介绍，并仔细观看了开发区发展历程、建设成就、未来规划以及入驻企业成果等展示。习近平指出，洋浦经济开发区作为海南自由贸易港先行区、示范区，要总结好海南办经济特区经验，用好“中国洋浦港”船籍港的政策优势，大胆创新、先行先试。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是12日上午，习近平在洋浦经济开发区考察。新华社记者 李学仁 摄', '随后，习近平来到洋浦国际集装箱码头小铲滩港区，了解港口建设发展情况，同现场作业人员、挂职干部代表等亲切交流。习近平强调，振兴港口、发展运输业，要把握好定位，增强适配性，坚持绿色发展、生态优先，推动港口发展同洋浦经济开发区、自由贸易港建设相得益彰、互促共进，更好服务建设西部陆海新通道、共建“一带一路”。他指出，党中央选派干部来自由贸易港挂职，既体现了党中央对自由贸易港建设的关心和支持，也是对干部的培养锻炼，要发挥挂职干部的积极作用，让他们在基层一线增长才干。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是12日上午，习近平在洋浦国际集装箱码头小铲滩港区，同现场作业人员、挂职干部代表等亲切交流。新华社记者 燕雁 摄', '13日上午，习近平在参观海南全面深化改革开放和中国特色自由贸易港建设成果展后，听取了海南省委和省政府工作汇报，对海南各项工作取得的成绩给予肯定，希望海南以“功成不必在我”的精神境界和“功成必定有我”的历史担当，把海南自由贸易港打造成展示中国风范的靓丽名片。', '习近平指出，推进自由贸易港建设是一个复杂的系统工程，要做好长期奋斗的思想准备和工作准备。要继续抓好海南自由贸易港建设总体方案和海南自由贸易港法贯彻落实，把制度集成创新摆在突出位置，强化“中央统筹、部门支持、省抓落实”的工作推进机制，确保海南自由贸易港如期顺利封关运作。要坚持党的领导不动摇，自觉站在党和国家大局上想问题、办事情，始终坚持正确政治方向。要坚持中国特色社会主义制度不动摇，牢牢把握中国特色社会主义这个定性。要坚持维护国家安全不动摇，加强重大风险识别和防范，统筹改革发展稳定，坚持先立后破、不立不破。', '习近平强调，要把海南更好发展起来，贯彻新发展理念、推动高质量发展是根本出路。要聚焦发展旅游业、现代服务业、高新技术产业、热带特色高效农业，加快构建现代产业体系。要加快科技体制机制改革，加大科技创新和成果转化力度。要突出陆海统筹、山海联动、资源融通，推动城乡区域协调发展。要着力破除各方面体制机制弊端，形成更大范围、更宽领域、更深层次对外开放格局。', '习近平指出，要深入推进农业供给侧结构性改革，加强农业全产业链建设，严守生态保护红线、永久基本农田、城镇开发边界三条控制线。要推进城乡及垦区一体化协调发展，加快推进国家南繁科研育种基地建设，完善天然橡胶产业扶持政策。要深入打好污染防治攻坚战，落实最严格的围填海管控和岸线开发管控措施。要扎实推进国家生态文明试验区建设。热带雨林国家公园是国宝，是水库、粮库、钱库，更是碳库，要充分认识其对国家的战略意义，努力结出累累硕果。', '习近平强调，越是深化改革、扩大开放，越要加强精神文明建设。要持之以恒抓好理想信念教育，培育和弘扬社会主义核心价值观，广泛开展群众性精神文明创建活动，不断提升人民文明素养和社会文明程度。要加强诚信建设，倡导遵纪守法、诚实守信的社会风尚。', '习近平指出，要实施更多有温度的举措，落实更多暖民心的行动，用心用情用力解决好人民群众的急难愁盼问题，积极探索共同富裕的实现途径。要继续实施减负稳岗扩就业政策，健全重要民生商品保供稳价机制。要全面贯彻党的教育方针，统筹推进义务教育均衡发展和城乡一体化。要全面做好社会治理工作，扎实做好安全生产工作，常态化开展扫黑除恶斗争，严厉打击各类涉海违法犯罪活动。', '习近平强调，要坚持严的主基调，深入推进全面从严治党，以党的政治建设为统领推进党的各方面建设。要巩固拓展党史学习教育成果，弘扬伟大建党精神，用好海南琼崖纵队纪念场所、红色娘子军纪念园等红色资源，引导广大党员、干部坚定理想信念，传承红色基因，赓续红色血脉。要加强干部教育培训，引导广大党员、干部用党的创新理论武装头脑，自觉践行初心使命，着力解决“本领恐慌”、能力不足的问题，着力克服形式主义、官僚主义。要夯实基层基础，持续扩大党组织有效覆盖，把各领域基层党组织建设成为坚强战斗堡垒。要保持反腐败的高压态势，准确把握反腐败斗争新的阶段性特征，一体推进不敢腐、不能腐、不想腐，在土地批租、房地产开发、招商引资、项目建设等方面健全制度、堵塞漏洞，营造良好政治生态。', '习近平指出，当前全球新冠肺炎疫情仍然十分严重，尤其不能放松防控工作。坚持就是胜利。要坚持人民至上、生命至上，坚持外防输入、内防反弹，坚持科学精准、动态清零，抓细抓实疫情防控各项举措。要克服麻痹思想、厌战情绪、侥幸心理、松劲心态，针对病毒变异的新特点，提高科学精准防控本领，完善各种应急预案，严格落实常态化防控措施，最大限度减少疫情对经济社会发展的影响。']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>25</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>呼和浩特市民政局召开年上半年党建和党风廉政建设推进会暨两优学习强国平台先进表彰会</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/smzj_22407/fdzdgknr/ywxx/202307/t20230731_1564975.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['呼和浩特市民政局召开2023年上半年党建和党风廉政建设推进会暨“两优”“学习强国”平台先进表彰会_ 呼和浩特市人民政府', '呼和浩特市民政局召开2023年上半年党建和党风廉政建设推进会 暨“两优”“学习强国”平台先进表彰会', '根据年度党建工作安排，为全面落实管党治党责任，推进全面从严治党向纵深发展，7月26日上午，呼和浩特市民政局召开2023年上半年党建和党风廉政建设推进会暨“两优”“学习强国”平台先进表彰会。会议由局党组成员副局长李瑞俊主持，局党组成员、调研员、机关各科室主要负责人、机关纪委书记，局属各基层党组织班子成员，各基层党组织负责党务工作者参加了会议。', '会上听取了精神康复医院党总支书记、殡仪馆党支部书记、综合保障中心党支部书记汇报2023年上半年党建和党风廉政建设开展情况，并表彰2022－2023年度优秀党务工作者、优秀共产党员和“学习强国”前三名党组织及学习标兵，市政协副主席候选人，市民政局党组书记、局长武成义总结回顾2023年上半年党建和党风廉政建设工作开展情况，安排部署下半年工作。', '会议要求，各基层党组织和党员干部要统一思想、振奋精神，扎实推进党建及党风廉政建设工作任务。一要增强政治领导力，推动“两个维护”落到实处。各基层党组织要全面建立“第一议题”制度，认真传达学习习近平总书记最新重要讲话精神，结合实际抓好贯彻落实。严格落实主体责任，认真履行党建工作“第一责任人”职责，按照“一岗双责”有关要求，做到管好班子、带好队伍、抓好工作，示范引领全面从严治党向纵深发展。二要加强思想建设，不断淬炼政治品质。抓好党的二十大精神、习近平新时代中国特色社会主义思想主题教育、习近平总书记在内蒙古考察时的重要讲话的学习宣传贯彻。做好意识形态工作，牢牢守住意识形态阵地。要大力加强精神文明建设，要持续做好文明单位的创建活动。要加强对党员教育管理，认真落实党员干部“双报到”工作，深入包联村、包联社区开展文明城市创建，组织党员干部开展好各类主题党日活动。三要增强组织力凝聚力，强基固本筑堡垒。严抓班子建设，班子成员之间要取长补短，优势互补。要认真贯彻执行民主集中制，坚持“三重一大”问题集体研究，民主决策。扎实抓好学习贯彻习近平新时代中国特色社会主义思想主题教育。优化组织建设，要深入开展“亮晒比”活动，积极创建“模范党支部”。四要落实中央八项规定精神，以严明纪律整饬作风。坚持不敢腐、不能腐、不想腐一体推进，坚持系统施治、破立并举，以实的作风、严的举措落实责任，把纠治“四风”的成果更好转化为树立新风、弘扬正气的综合效能，坚决防止“四风”反弹回潮。五要坚持党建引领民政事业高质量发展。牢固树立以人民为中心的发展思想，抓好抓牢党建引领创建工作，用心用情用力做好普惠性、基础性、兜底性民生工作，确保做到兜住底、兜准底、兜好底。牢固树立和践行正确的政绩观，以求真务实的作风，真抓实干的闯劲、敢抓敢为的狠劲，常抓不懈，久久为功。六要抓好党建带群建，充分发挥群团组织桥梁纽带作用。要做好统战工作，抓好无党派代表人士和党外知识分子统战工作。要建强群团组织，积极组织广大干部职工开展好乒羽、书法、摄影等竞赛活动、职工运动会，在法定节假日、职工住院、结婚生育、职工退休时组织慰问好职工，组织局系统职工进行体检，把党组织关爱职工的具体举措落到实处。', '会议强调，要更加紧密地团结在以习近平同志为核心的党中央周围，按照中央、自治区党委、市委的部署要求，争当全方位建设“模范自治区”的排头兵，争做“五大任务”的见行见效推动者，为新时代首府民政事业高质量发展提供坚实力量。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>25</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>呼和浩特市民政局召开全局干部大会学习贯彻习近平总书记关于内蒙古工作十次重要讲话精神</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/smzj_22407/fdzdgknr/ywxx/202307/t20230731_1564980.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['呼和浩特市民政局召开全局干部大会学习贯彻习近平总书记关于内蒙古工作十次重要讲话精神_ 呼和浩特市人民政府', '呼和浩特市民政局召开全局干部大会学习贯彻习近平总书记 关于内蒙古工作十次重要讲话精神', '7月26日上午，呼和浩特市民政局在市儿童福利院召开全局干部大会学习贯彻习近平总书记关于内蒙古工作十次重要讲话精神，会议由市政协副主席候选人，局党组书记局长武成义主持，局党组成员、市纪委监委驻市民政局纪检监察组负责人、局调研员、机关科长、局属单位负责人及党务干部参加了学习。', '会议强调，一要深刻学习领会习近平总书记关于内蒙古工作十次重要讲话精神的丰富内涵和实践要求。各级党组织和广大党员、干部要用心学习领会习近平总书记重要讲话的丰富内涵和精髓要义，切实把思想和行动统一到精神上来。二要把学习贯彻习近平总书记重要讲话精神同学习贯彻党的二十大精神结合起来，同抓好学习贯彻习近平新时代中国特色社会主义思想主题教育结合起来，通过精心组织开展“感党恩、听党话、跟党走”群众教育实践活动，推动第二批主题教育走深走实，深植厚培忠诚维护、感恩奋进的情感之基和力量之源，让党员、干部、群众发自内心地感恩党、感恩党中央、感恩习近平总书记。三要抓好自治区党委、市委、市政府精神的贯彻落实。各级党组织、领导干部要按照自治区党委、市委、市政府部署要求，以办好两件大事为牵引推动习近平总书记重要讲话精神落地落实，加力落实“五大任务”，全方位建设“模范自治区”。四要全面贯彻党的民族政策，全面推进中华民族共有精神家园建设，全面推行使用国家统编教材，当好民族地区推广普及国家通用语言文字的表率，促进各民族广泛交往交流交融。五要以务实作风做好民政各项工作。要健全多层次社会保障体系，加大社会救助、医疗救助、低保和困难家庭保障扶持措施，精准落实各项救助政策，兜牢基本民生底线。加快发展养老事业和养老产业，完善社区适老化改造，健全多元化养老服务保障体系。全面加强党建引领基层治理，提升基层治理能力。六要抓好安全生产，坚决守好安全底线。七要大兴务实之风、弘扬清廉之风、养成俭朴之风，更好推动广大党员干部以昂扬斗志和饱满热情做好各项工作，引导各族群众以主人翁精神投入到全方位建设“模范自治区”中来。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>25</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>把学习贯彻习近平新时代中国特色社会主义思想不断引向深入</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2024-02-18</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/ztzl/2022zyzz/202402/t20240218_1659625.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['2024年2月4日,学习贯彻习近平新时代中国特色社会主义思想主题教育总结会议在北京召开。会议传达了习近平总书记日前在主持中央政治局会议审议主题教育总结报告和关于巩固拓展主题教育成果的意见时发表的重要讲话,对学习贯彻讲话精神作出部署。', '在重要讲话中,习近平总书记指出,主题教育启动以来,全党紧扣“学思想、强党性、重实践、建新功”总要求,聚焦主题主线,明确目标任务,突出以学铸魂、以学增智、以学正风、以学促干,与做好开局之年工作紧密结合,特别是着力解决制约高质量发展问题、群众急难愁盼问题、党的建设突出问题,达到预期目的,取得明显成效;强调要巩固拓展主题教育成果,抓好意见落实,形成长效机制,并提出“五个持续”的明确要求。', '党的二十大报告指出,“从现在起,中国共产党的中心任务就是团结带领全国各族人民全面建成社会主义现代化强国、实现第二个百年奋斗目标,以中国式现代化全面推进中华民族伟大复兴”。面对加速演进的百年变局,要更好肩负起新时代新征程党的使命任务,推进中国式现代化这项前无古人的开创性事业,唯有坚持以科学理论武装,才能坚定信念信仰、牢牢掌握历史主动;唯有凝聚在真理的旗帜下,才能不惧惊涛骇浪,保持定力勇毅前行。按照党中央的部署,从2023年4月起,一场正当其时、正当其势的理论大学习、思想大武装——学习贯彻习近平新时代中国特色社会主义思想主题教育,在全党如火如荼开展。', '近一年来,全党坚持不懈用习近平新时代中国特色社会主义思想凝心铸魂,坚决做到“两个维护”的坚定性自觉性有了新提高,思想的伟力进一步激发出干事创业的澎湃动力、旺盛活力,转化为推动高质量发展的生动实践、显著实绩,人民群众的获得感、幸福感、安全感不断增强,强国建设、民族复兴伟业呈现出勃勃生机、万千气象。', '这次主题教育之所以能够取得明显成效,根本在于以习近平同志为核心的党中央的坚强领导,在于习近平总书记亲自谋划、直接领导、全程指导、示范引领。主题教育启动以来,总书记出席主题教育工作会议并作动员部署,主持召开中央政治局常委会会议、中央政治局会议审议相关文件,围绕主题教育主持中央政治局集体学习和专题民主生活会,并多次实地考察调研,对主题教育提出要求、作出一系列重要论述,为主题教育高质量开展指明了方向、提供了重要遵循。', '2023年3月30日,习近平总书记主持召开中央政治局会议,明确主题教育的总要求是“学思想、强党性、重实践、建新功”,根本任务是坚持学思用贯通、知信行统一,把习近平新时代中国特色社会主义思想转化为坚定理想、锤炼党性和指导实践、推动工作的强大力量,使全党始终保持统一的思想、坚定的意志、协调的行动、强大的战斗力,努力在以学铸魂、以学增智、以学正风、以学促干方面取得实实在在的成效。当天下午,中央政治局就学习贯彻习近平新时代中国特色社会主义思想进行第四次集体学习。总书记在主持学习时发表重要讲话,深刻阐发在全党开展主题教育的一系列重大问题,为全党上了一堂生动而深刻的党课。', '4月3日,学习贯彻习近平新时代中国特色社会主义思想主题教育工作会议在北京召开,习近平总书记从新时代新征程党和国家事业发展全局的战略高度,深刻阐述开展主题教育的重大意义和目标要求,对主题教育各项工作作出全面部署。', '4月10日至13日,主题教育启动后一周,习近平总书记来到改革开放前沿广东考察。4天时间里,在南粤大地,一路把脉问诊、解剖麻雀,为全党深入开展调查研究作出表率。在这次考察中,总书记强调,“以学铸魂”就是要“做好学习贯彻新时代中国特色社会主义思想的深化、内化、转化工作,从思想上正本清源、固本培元,筑牢信仰之基、补足精神之钙、把稳思想之舵”,要求全党坚定理想信念,铸牢对党忠诚,站稳人民立场。', '5月17日,在西安听取陕西省委和省政府工作汇报时,习近平总书记强调,“以学增智”就是要“从党的科学理论中悟规律、明方向、学方法、增智慧,把看家本领、兴党本领、强国本领学到手”,要求全党提升政治能力、思维能力、实践能力。', '6月7日至8日,在内蒙古考察期间,习近平总书记强调,“以学正风”就是要“坚持目标导向和问题导向相结合、学查改相贯通,对标党风要求找差距、对表党性要求查根源、对照党纪要求明举措,增强检视整改实效”,要求全党大兴务实之风,弘扬清廉之风,养成俭朴之风。', '7月5日至7日,在江苏考察期间,习近平总书记强调,“以学促干”就是要“坚持学思用贯通、知信行统一,匡正干的导向,增强干的动力,形成干的合力”,要求全党树牢造福人民的政绩观,鼓足干事创业的精气神,形成狠抓落实的好局面。', '7月25日至27日,在四川考察期间,习近平总书记指出,要对主题教育的实效进行科学、客观评估,并提出评估的重要标准;特别要求“对形式主义、官僚主义的东西来一次检视,分析根源,对症下药,切实改出实效”。', '8月30日,习近平总书记主持召开中央政治局常委会会议,充分肯定第一批主题教育成果,对第二批主题教育提出“更加注重理论武装、更加注重分类指导、更加注重强基固本、更加注重统筹协调、更加注重领导指导”的明确要求。', '9月6日至8日,在黑龙江考察期间,习近平总书记强调,要注重抓好第一批、第二批主题教育的衔接联动。针对第二批主题教育参加单位人员范围广、类型多、数量大等情况,强调“坚持科学谋划、统筹安排、分类指导,确保取得实效”。', '10月10日至13日,在江西考察期间,习近平总书记强调,要把实的要求贯穿主题教育全过程,“实实在在抓好理论学习和调查研究,实实在在检视整改突出问题,实实在在办好惠民利民实事,用实干推动发展、取信于民”。', '11月28日至12月2日,在上海考察期间,习近平总书记强调,“要坚持标准不降、劲头不松,把主题教育同各方面工作结合起来,做到两手抓、两不误、两促进”。', '12月14日至15日,在广西考察期间,习近平总书记强调,“要善始善终,建立健全以学铸魂、以学增智、以学正风、以学促干的长效机制”。', '12月21日至22日,中央政治局召开学习贯彻习近平新时代中国特色社会主义思想主题教育专题民主生活会。习近平总书记指出,这次主题教育主题主线突出,目标任务明确,在以学铸魂、以学增智、以学正风、以学促干上取得了明显成效,要求中央政治局带头巩固拓展主题教育成果,建立长效机制,加强自身建设,在全党发挥示范带头作用。', '2024年2月1日至2日,农历甲辰年春节前夕,习近平总书记赴天津看望慰问基层干部群众。时值主题教育即将收官,总书记谆谆嘱咐:“要健全长效机制,巩固拓展主题教育成果,引导党员干部持续深入学习党的创新理论。”', '习近平总书记作出的一项项科学部署、一次次精准指导、一场场身先示范,从理论与实践的结合上深刻回答了“为什么学、学什么、怎么学、学出什么效果”等一系列重大问题,推动全党将主题教育不断引向深入。广大党员、干部闻令而动、听令而行,把自己的思想摆进去、把工作摆进去、把职责摆进去,坚持学思用贯通、知信行统一,更加真切感悟到党的创新理论的真理力量和实践伟力。这次主题教育为新时代开展党内集中教育积累了新经验,主要包括坚持把理论学习贯穿始终、突出问题导向、服务中心任务、力戒形式主义、以上率下示范引领等,要注意总结好、运用好。', '学习贯彻习近平新时代中国特色社会主义思想是一个纵深推进、不断深化的过程,必须持之以恒深学细悟、真信笃行。要持续加强理论武装,教育引导党员干部通过坚持学习党的创新理论,悟规律、明方向、学方法、增智慧,固本培元、凝心铸魂,进一步打牢党的团结统一的思想基础。要持续推动解决问题,继续抓好整改整治、建章立制,让人民群众切实感受到解决问题的实际成效,让人民群众有获得感。要持续改进作风,落实“四下基层”,坚持和发展新时代“枫桥经验”,走好新时代群众路线,纠治形式主义、官僚主义,切实抓好整治形式主义为基层减负工作。要大兴务实之风、清廉之风、俭朴之风,发扬自我革命精神,在全党组织开展好集中性纪律教育。要持续夯实基层基础,推进以党建引领基层治理,充分发挥基层党组织战斗堡垒作用和党员先锋模范作用,推进基层治理体系和治理能力现代化。要持续抓好落实,树牢正确政绩观,坚持问题导向,实事求是、因地制宜,重实干、做实功、求实效,更好将主题教育成果转化为推动高质量发展的成效。各级党委(党组)要把巩固拓展主题教育成果作为重大政治任务,扛起主体责任,不折不扣抓好落实。', '理论创新没有终点,理论武装永无止境。新征程上,全党要紧密团结在以习近平同志为核心的党中央周围,坚持不懈用习近平新时代中国特色社会主义思想凝心铸魂,深刻领悟“两个确立”的决定性意义,增强“四个意识”、坚定“四个自信”、做到“两个维护”,在新的赶考之路上书写出不负时代、不负人民的优异答卷!']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>25</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>呼和浩特市党外人士座谈会召开</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2023-08-04</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650095692&amp;idx=2&amp;sn=a904524ddd8e770f84b85622b66ab1ef&amp;scene=0</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '8月3日，呼和浩特市党外人士座谈会召开，传达学习习近平总书记在党外人士座谈会上的重要讲话精神及《中共中央 国务院关于促进民营经济发展壮大的意见》。', '市政协党组书记、主席，市委统一战线工作领导小组副组长李炯出席并讲话，市委常委、统战部部长，市委统一战线工作领导小组副组长葛智敏主持会议。', '会议指出，要深入学习贯彻习近平总书记在内蒙古考察时的重要指示精神，围绕首府高质量发展目标，积极融入、服务和保障大局，全面提升履职尽责能力水平，鼓足干事创业精气神，为推进中国式现代化首府实践画出最大同心圆。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>25</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>旗委常务委员会第次会议召开</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2024-06-26</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/qxqdt/202406/t20240626_1740177.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['6月25日，中共土默特左旗第十三届委员会常务委员会第111次会议召开。旗委书记海鹰主持会议。', '会议传达学习习近平总书记在青海考察时的重要讲话精神、在宁夏考察时的重要讲话精神，在中央军委政治工作会议上的重要讲话精神，习近平总书记近期有关贺信精神，习近平总书记对防汛抗旱工作作出的重要指示精神，自治区党委常务委员会第126次会议、市委常委会第134次会议精神。听取了我旗防汛抗旱工作情况汇报与推进落实诚信建设工程工作情况汇报，并安排部署了相关工作。', '会议强调，产业发展要按照全市的规划提前布局，继续以乳产业、新能源新材料及装备制造两大主导产业为基础，加大招商引资力度，同时要加大文旅产业项目引进，推进文旅产业的发展；对于高标准农田的建设要紧抓工期，把好质量关，相关责任部门要做好配套设施的建设；要做好全区农村供水现场会的准备工作，持续做好人居环境的提升改造工作，以高标准完成观摩任务；要全力抓好诚信建设工程，统筹做好政务诚信建设、商务诚信建设、社会诚信建设、司法公信建设等方面工作，相关部门严格按照具体要求，推进工作落实。', '会议要求，全旗的防汛抗旱工作要高度重视，要做到防汛抗旱两手抓，加强对重点区域的定点定向预警；要抓实隐患排查，抓紧排查风险隐患区域，做好应急预案，及时充实防汛抗旱物资和设备，统筹协调抢险救援力量，确保发生灾情时第一时间投入救援。相关部门要时刻紧盯其他重点行业、重点领域的安全生产工作，把工作做在日常，牢牢守住不发生安全生产事故这条底线。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>25</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>呼和浩特市林业和草原局关于依法分类处理信访诉求的清单主要法定途径及法律依据</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2020-05-21</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/slyhcyj_22428/fdzdgknr_24870/bmgk/202005/t20200521_944721.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['呼和浩特市林业和草原局关于依法分类处理信访诉求的清单、主要法定途径及法律依据_ 呼和浩特市人民政府', '为进一步推进通过法定途径分类处理林业草原领域信访投诉请求工作。按照市信访局《关于做好上下衔接推进依法分类处理信访诉求工作的通知》（〔2020〕066号）要求，结合我市林草工作实际，现将《呼和浩特市林业和草原局关于分类处理信访投诉请求的主要法定途径及法律依据》公示如下，请各部门、各单位认真贯彻落实。', '申诉求决是指公民、法人或者其他组织依据法律法规或组织章程规定，向国家机关、政党、社会团体、企事业单位提出申诉，要求重新做出处理或解决矛盾纠纷。', '（2）反映因农村、林地和草原承包经营权转包、出租、互换、转让、入股等流转发生的纠纷。', '3.主要法律依据：《森林法》《草原法》《合同法》《物权法》《农村土地承包法》《农村土地承包经营纠纷调解仲裁法》等。', '（3）申请由于不可抗力原因，为生产需要必须使用低于国家或地方规定的种用标准的林木种苗的问题。', '（4）申请因科研等特殊情况需要采集或者采伐自治区重点保护的天然林木、草种质资源的问题。', '（18）申请进入自然保护区缓冲区从事非破坏性的科学研究、教学实习和标本采集活动的问题。', '(19）申请进入林业和草原主管部门管理的国家级自然保护区从事教学实习、参观考察、拍摄影片、登山等活动的问题。', '(20)申请在森林、草原防火区内野外用火，进行实弹演习、爆破等活动，森林、草原高火险期内进入森林、草原高火险区的问题。', '3.主要法律依据：《行政许可法》《森林法》《草原法》《种子法》《野生动物保护法》《森林法实施条例》《植物检疫条例》《森林病虫害防治条例》《森林防火条例》《草原防火条例》《野生植物保护条例》《野生动物保护实施条例》《自然保护区条例》《森林和野生动物类型自然保护区管理办法》《林木种子生产经营许可证管理办法》《草种管理办法》《植物检疫条例实施细则》（林业部分）《国务院关于第三批取消和调整行政审批项目的决定》（国发〔2004〕16号）《国家林业局公告》（2015年第1号）《内蒙古自治区实施&lt;中华人民共和国森林法&gt;办法》《内蒙古自治区林木种苗条例》《内蒙古自治区森林草原防火条例》《内蒙古自治区珍稀林木保护条例》《内蒙古自治区实施&lt;中华人民共和国野生动物保护法&gt;办法》《内蒙古自治区森林公园管理办法》等。', '（3）反映因林业和草原行政主管部门为选育林木良种建立测定林、试验林、优树收集区、基因库而减少经济收入的单位和个人给予经济补偿的问题。', '3.主要法律依据：《森林法》《草原法》《野生动物保护法》《种子法》《防沙治沙法》《森林法实施条例》《森林防火条例》《陆生野生动物保护实施条例》《内蒙古自治区实施&lt;中华人民共和国野生动物保护法&gt;办法》等。', '（2）反映认为符合法定条件，申请林业和草原主管部门颁发许可证、资质证、资格证等证书，或者申请林业和草原主管部门审批、登记有关事项，林业和草原主管部门没有依法办理的问题。', '（3）反映对林业和草原主管部门做出的有关许可证、资质证、资格证等证书变更、终止、撤销决定不服的问题。', '（4）反映林业和草原主管部门的其他具体行政行为侵犯其人身权、财产权等合法权益的问题。', '1.具体争议：因订立、履行、变更、解除和终止劳动合同，或者因除名、辞退和辞职、离职发生的争议等。', '3.主要政策法规依据：《中华人民共和国劳动合同法》《中华人民共和国公务员法》《中华人民共和国劳动争议调解仲裁法》《事业单位人事管理条例》《人事争议处理规定》等。', '揭发控告是指向行政机关、司法机关等反映公民、法人或其他组织违法违纪事实或线索，要求依法制止、惩处或赔偿。', '（1）检举林业和草原行政人员违反法定权限实施林业和草原行政许可，违反规定发放林业和草原许可文件、证件等问题。', '（2）检举林业和草原行政人员拒不执行法律、法规或者违反法律、法规、政策和决定、命令以及行政纪律的问题。', '（2）检举买卖林木采伐许可证、木材运输证件、林业植物检疫证、批准出口文件、允许进出口证明书的问题。', '（8）反映在禁猎区、禁猎期或使用禁用的工具、方法猎捕野生动物、未取得狩猎证或者未按狩猎规定猎捕野生动物，在自然保护区、禁猎区破坏国家或者地方重点保护野生动物主要生息繁衍场所，出售、收购、运输、携带国家或者地方重点保护野生动物或者其产品，伪造、倒卖、转让特许猎捕证、狩猎证、驯养繁殖许可证或允许进出口证明书的问题。', '（9）检举擅自采集、运输、违法出售、收购、加工珍稀林木，擅自迁移古树，毁坏野生珍稀林木的问题。', '（10）反映外国人在内蒙古自治区境内采集、收购国家重点保护野生植物，或对国家重点保护野生动植物进行野外考察、标本采集或者在野外拍摄电影、录像的问题。', '（11）反映生产、经营假劣种子，无证或者未按照许可证的规定生产、经营、伪造、变造、买卖、租借生产经营许可证，为境外制种的种子在国内销售，未经批准私自采集或者采伐国家重点保护的天然种质资源，经营的种子未按照规定包装、附具标签、制作和保存档案的，非法向境外提供或者从境外引进种质资源的，未审先推的，抢采掠青、损坏母树或者在劣质林内和劣质母树上采种的，未经批准收购林木种子的，在种子生产基地进行病虫害接种试验的问题。', '（12）反映在防火期内，擅自在森林和草原防火区域野外用火，使用机动车辆和机械设备，擅自进行爆破、勘察和施工活动，盗窃、破坏、拆除森林和草原防火设施设备，拒绝、阻碍森林和草原防火监督检查人员实施防火检查的问题。', '（13）检举违法在自然保护区进行砍伐、放牧、狩猎、捕捞、采药、开垦、烧荒、开矿、采石、挖沙等活动的问题。', '（14）检举国家工作人员以外的其他人员弄虚作假、虚报冒领退耕还林补助资金，尚不构成刑事处罚的问题。', '（17）反映在自然保护区内燃烧冥纸、取暖、野炊等野外用火，建造坟墓、携带动植物疫原体进入保护区，进行经营性取水或者拦截水源的问题。', '3.主要法律依据：《行政处罚法》《土地管理法》《森林法》《草原法》《野生动物保护法》《种子法》《海关法》《森林法实施条例》《退耕还林条例》《陆生野生动物保护实施条例》《植物检疫条例》《野生植物保护条例》《植物新品种保护条例》《森林防火条例》《草原防火条例》《植物新品种保护条例实施细则》（林业部分）《国家重点保护野生动物驯养繁殖许可证管理办法》《国家级森林公园管理办法》《林木种子生产、经营档案管理办法》《林木种子质量管理办法》《林木种子包装和标签管理办法》《草种管理办法》《林业行政处罚程序规定》《内蒙古自治区珍稀林木保护条例》《内蒙古自治区森林草原防火条例》《内蒙古自治区实施&lt;中华人民共和国野生动物保护法&gt;办法》《内蒙古自治区大青山国家级自然保护区条例》等。', '3.主要法律依据：《刑法》及《刑法修正案》《刑事诉讼法》《森林法》《草原法》《野生动物保护法》《种子法》《最高人民法院关于审理破坏森林资源刑事案件具体应用法律若干问题的解释》《最高人民法院关于审理破坏野生动物资源刑事案件具体应用法律若干问题的解释》《最高人民法院关于审理破坏林地资源刑事案件具体应用法律若干问题的解释》《最高人民法院关于审理破坏草原资源刑事案件应用法律若干问题的解释》等。', '政府信息公开是指行政机关应公民、法人或其他组织的申请，依法公开由其在履职过程中制定或者获取的，以一定方式记录、保存的信息。', '（一）公民、法人或者其他组织申请公开的政府信息，属于林业和草原信息公开范围的，应按照《政府信息公开条例》第二十条的规定，向林业和草原主管部门信息公开工作机构提出。', '（二）公民、法人或者其他组织认为林业和草原主管部门不依法履行政府信息公开义务的，可以向上级行政机关、监察机关或者政府信息公开工作主管部门举报。', '（三）公民、法人或者其他组织认为林业和草原主管部门在政府信息公开工作中具体行政行为侵犯其合法权益的，可以依法申请行政复议或者提起行政诉讼。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>25</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>机关简介</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2022-05-09</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/smzswwyh_22405/fdzdgknr/jgjj/jgznnew/202205/t20220509_1274462.html</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['第一条 根据自治区党委、政府批准的《呼和浩特市机构改革方案》和市委、市政府印发的《呼和浩特市机构改革的实施意见》,制定本规定。', '第二条 呼和浩特市民族事务委员会是市人民政府工作部门,为正处级,加挂呼和浩特市蒙古语文工作委员会牌子,归口市委统战部领导。', '第三条 呼和浩特市民族事务委员会贯彻落实党中央关于民族、少数民族语言文字工作的方针政策和自治区党委、市委相关决策部署,在履行职责过程中坚持和加强党对民族、少数民族语言文字工作的集中统一领导。主要职责是:', '(一) 组织开展民族理论和民族工作重大问题调查研究,起草民族工作和少数民族语言文字工作政策。并对执行情况进行督促检查。组织开展民族理论、民族政策、少数民族语言文字政策的宣传教育工作。', '(二) 监督实施民族区域自治制度。监督办理少数民族权益事宜,保障少数民族的合法权益。研究提出协调民族关系的工作建议,协调处理民族关系中的重大事项。参与协调社会稳定工作,促进各民族共同团结奋斗,共同繁荣发展,维护国家统一。', '(三) 负责协调督促有关部门履行民族工作相关职责,促进民族政策在经济发展和社会事业有关领域的实施、衔接。研究分析少数民族和少数民族聚居地区经济和社会发展方面的问题并提出政策建议。协调或配合有关部门处理相关事宜,参与协调科技发展、对口支援和经济技术合作、民族贸易、民族特需用品生产等有关工作。对旗县区民族工作和蒙古语文工作进行业务指导。', '(四) 监督检查少数民族事业等专项规划实施情况,参与拟订全市经济社会相关领域的发展规划,建立和完善少数民族事业发展综合评价监测体系,推进实施民族事务服务体系和民族事务管理信息化建设。', '(五) 指导各级人民政府民族事务部门依法履行管理职能,承办全市民族团结进步表彰活动,联系少数民族聚居地区和区域。', '(六) 管理少数民族语言文字的学习、使用、研究、发展、抢救、保护、传承工作。指导少数民族语言文字的民族教育、翻译、出版、报刊、广播影视和民族古籍的搜集、整理、出版工作。', '(七) 组织协调民族工作领域有关对外和对港澳台的交流与合作。参与涉及民族事务对外宣传工作。', '(八) 参与拟订少数民族人才队伍建设规划,联系少数民族干部,协助有关部门做好少数民族干部的培养、教育和使用工作。', '(九) 按照本部门权责清单履行相关职责。负责职责范围内的安全生产、职业健康、生态环境保护等工作。', '（一) 办公室。负责机关日常运转,承担信息、保密、信访、财务、政务公开、信息化建设等工作,指导所属单位的财务、审计工作。实施市民族事务委员会兼职委员制度,承担联系兼职委员单位的具体工作。负责重大庆典、重大活动的组织和承办。负责少数民族重要学习、参观、考察等事宜的具体工作。负责机关人事、劳资、机构编制工作。负责机关和所属事业单位的干部教育培训工作,指导民委系统的干部教育培训工作。参与拟订少数民族人才队伍建设规划,承担联系少数民族干部的具体工作,配合有关部门承办少数民族干部的培养教育、选拔推荐工作。', '(二) 政策法规和监督检查科。组织起草有关规范性文件,做好有关法律、法规、政策的宣传教育,承担规范性文件合法性审查和行政复议、行政应诉工作。承办民族团结进步表彰的具体工作。承办涉及尊重少数民族风俗习惯有关管理工作的具体指导和协调。承办民族成分管理相关工作。承担组织、协调清真食品的管理工作。承担民族工作和少数民族语言文字工作法律、法规、政策执行情况的督促检查工作。监督办理少数民族权益保障事宜。研究提出协调民族关系的工作建议,研究民族关系突发事件的预警、应急机制问题,承担有关协调处理工作。承办民族团结进步创建工作。负责协调督促有关部门履行民族工作相关规制。', '(三) 经济发展科。研究提出少数民族和少数民族聚居地区经济发展政策建议,协调或配合有关部门处理具体事宜。配合有关部门拟订全市少数民族地区经济发展规划,承担监督检查规划实施情况的具体工作。承担民族地区统计分析和联合评价监测体系的有关工作。参与协调民族地区对口支援、经济技术合作和民族贸易、民族特需商品生产的有关工作。参与少数民族发展资金管理工作和扶贫工作,做好相关业务培训指导工作。', '(四) 社会发展科。研究提出少数民族和少数民族聚居地区有关教育、文化、体育、卫生、科技等社会事业发展政策建议,协调或配合有关部门开展相关工作。承担会同有关部门定期举办重大民族文化活动和承办少数民族传统体育运动会的具体工作。开展民族之间的文化艺术合作与交流等工作。', '(五) 民族语言文字和古籍整理科。贯彻落实国家、自治区和市关于少数民族语文工作方面的政策、法规。指导全市蒙古语言文字的学习、使用研究和发展工作。负责组织拟订和实施全市民族语言文字工作的规划和措施。组织开展少数民族语言文字政策法规的研究,提出政策意见。协助有关部门做好民族语言文字政策贯彻落实情况的监督检查工作。承担完成蒙古语文的表彰奖励活动。负责组织协调蒙古语文科学研究及管理工作。负责组织蒙古语文的信息化、规范化、标准化工作。综合掌握蒙古语言文字的科学研究使用推广工作。开展以蒙古语文授课为主的民族教育及民族文化艺术、蒙古语文新闻出版、蒙古语广播影视。负责完成国家语委和自治区语委交办的其他工作。负责全市民族古籍的搜集、整理、挽救和保护工作。组织全市民族古籍的出版工作。参与制订全市民族古籍保护方面的政策,并组织实施。协调组织有关民族古籍的学术研究和协作交流活动。', '第五条 呼和浩特市民族事务委员会机关行政编制20名。设主任1名(兼任蒙古语文工作委员会主任),副主任2名;科级领导职数14名(8正(含机关党支部专职副书记、离退休人员工作科科长各1名)6副〕。', '第七条 本规定由中共呼和浩特市委员会机构编制委员会办公室负责解释,其调整由机构编制委员会办公室按规定程序办理。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>25</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>呼和浩特市人力资源和社会保障局关于市政协十三届四次会议委员提案办理工作总结</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2021-08-31</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/srlzyhshbzj_22410/fdzdgknr/jytablnew/202109/t20210915_1026879.html</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['呼和浩特市人力资源和社会保障局关于市政协十三届四次会议委员提案办理工作总结_ 呼和浩特市人民政府', '今年交办我局市政协十三届四次会议委员提案共14件。其中，主办11件，分办3件。涉及就业创业、社会保险、人事人才等方面，14件提案已全部按期办结，形成了办理意见并与委员进行了充分沟通。A类答复件11件，B类1件，C类2件。从提案的情况看，我们认为每一件提案都是政协委员在认真研究和反复调查的基础上提出的，蕴含着大量的社情民意，反映的都是当前人力资源和社会保障工作的热点和焦点问题，既是社会各界和广大群众关心的问题，也是各级人力资源和社会保障部门目前正在着力研究解决的问题。', '我局提案办理工作坚持主要领导负总责,分管领导和相关部门负责人具体抓的工作机制，通过召开交办会议、制定工作台账、印发提案办理流程图等方式，进一步提高认识，明确目标责任，确保提案办理工作取得实效。', '在提案办理工作中主要采取了以下措施：一是突出工作重点。对交办的提案进行认真分类，对反映集中的问题进行重点研究。分析问题产生的原因，找出工作的薄弱环节，提出完善和改进措施并重点研究解决。二是严格层层把关。对办理答复文稿层层审核把关，即承办人员的拟稿关、科室负责人的审稿关、办公室的文字审核关、分管领导审批关和局长签发关。三是强化办理督导。督促各承办部门按办理时限制订办理计划,做到早完成、早落实,避免拖拖拉拉和临时突击的现象。按时向分管领导汇报办理情况，对每一件提案做到件件有答复、事事有回音,不说空话大话套话,坚决杜绝敷衍应付。第四季度进行工作总结，完成提案办理台账，通报提案办理情况和委员满意度，并作为年终评比考核依据。四是加强部门协调。我局为主办单位的，充分发挥牵头作用，积极协调各协办单位及时汇总情况数据，研究落实举措；我局为协办单位的，及时将提案中涉及人社部门的工作认真研究部署，加以落实，并通报给主办单位，做到资源和信息及时共享，保障提案办理工作不脱节、不遗漏。五是坚持与委员沟通。要求每一件提案承办人要与委员沟通三次以上，实现“办理前联系、办理中征求意见、办理后跟踪回访”。丰富沟通方式，除电话邮件沟通外，更加注重面对面沟通。今年由我局主办和分办的政协委员提案办理基本情况如下：', '（一）关于尽快设立我市劳动人事争议仲裁院 完善劳动人事争议仲裁委建设的建议（主办）', '1.设立呼和浩特市劳动人事争议仲裁院的情况。2021年2月26日，中共呼和浩特委员会印发了《关于呼和浩特市人力资源和社会保障局所属事业单位机构职能编制的批复》（呼机编办发﹝2021﹞90号）文件，成立呼和浩特市劳动人事争议仲裁院，为呼和浩特市人力资源和社会保障局所属相当于正科级公益一类事业单位。', '（1）主要职责任务。一是依法调处劳动人事争议案件；参与处理涉及劳动人事争议的突发事件、群体案件；提供劳动人事争议调解仲裁法律法规咨询；承担对本地区劳动人事争议机构和基层劳动人事争议调解组织的指导工作。二是承担“12333”人力资源和社会保障政策咨询、办事指南、信息查询、投诉举报、接诉即办等电话服务工作；承担人力资源和社会保障“12333”信息资源库的维护和管理工作；承担人力资源和社会保障舆情监控工作；承担市人力资源和社会保障局局长信箱的回复工作。三是承担市人力资源和社会保障局交办的其他相关工作任务。', '2020年4月14日，我局与呼市财政局联合印发《关于转发〈内蒙古自治区劳动人事争议仲裁办案补助管理办法〉的通知》（呼人社发﹝2020﹞32号），采取以案定补的原则，为各级劳动人事争议仲裁委员会中从事处理劳动人事争议案件且获得仲裁员证、调解员证的仲裁员、调解员、书记员，每依法处理一件劳动人事争议案件（包括调解）补助一次。', '我局于2020年6月17日向呼和浩特市人民政府报送了《关于申请增加劳动人事争议调解仲裁工作经费的请示》（呼人社发〔2020〕71号），申请增加劳动人事争议调解仲裁工作经费50万元，其中办案经费42万元、服装费3万元、仲裁庭建设经费“互联网+调解仲裁”2020行动计划实施经费5万元。呼和浩特市人民政府办公室于2020年6月28日批复同意。', '2020年共申请600件劳动人事争议案件补助共计42万元，其余经费亦在规定时间内支出完毕。2021年，呼市财政局审批了42万元劳动人事争议案件补助，呼和浩特市劳动人事争议仲裁委员会将依据实际办案情况按季度进行申报劳动人事争议案件补助工作。', '3.聘任专职、兼职仲裁员，以及通过政府购买服务等方式聘用记录人员、安保人员等办案辅助人员情况。我局于2021年3月为全市48名专兼职仲裁员进行了新办仲裁员证及换证的申请工作，现已全部申报批复完成。其中市本级新办证人员11名，专职仲裁员7名，兼职仲裁员4名。目前，呼和浩特市劳动人事争议仲裁委员会专门从事调解仲裁工作的人员共有12名（其中正式编制人员10名，合同制聘用人员1名，社区志愿者1名）。聘任专职仲裁员10名，兼职仲裁员4名，且专职仲裁员中具有法律专业背景的人员7名，研究生学历5名，通过法律从业资格考试的人员5名。基本建立了一支具有专业化、高素质的仲裁员队伍，进一步加强了调解仲裁队伍建设，正在逐步解决我市案多人少的实际问题。', '4.加强对仲裁员、办案辅助人员的培训，提高业务素质，提升办案水平，保证依法依规调解仲裁情况。为解决案多人少的问题，进一步推进劳动人事争议处理效能建设，经报自治区主管部门备案同意，我局于2020年11月12日至13日组织了内蒙古自治区呼和浩特地区劳动人事争议仲裁员培训班，邀请了人社厅、市中院有关领导和同志担任授课老师，从多个角度以解读理论、分析案例及操作演示相结合的教学模式，加深了学员对法律法规的理解认识，提高了办案水平。2021年将继续参加由人社部、自治区人社厅组织的相关仲裁员、调解员的培训班，进而提高劳动人事争议仲裁员、调解员、办案辅助人员的业务素质，努力多办案、办好案。', '2020年、2021年连续两年我局与市中院召开劳动人事争议案件裁审衔接座谈会，对劳动争议案件受理问题，仲裁时效、连带责任的适用问题以及其他处理案件中发现的裁审意见不统一的案件进行交流沟通，统一了今后在处理加班费、确认劳动关系等案件中的裁判尺度，并联合印发了《呼和浩特市中级人民法院 呼和浩特市劳动人事争议仲裁委员会〈关于劳动人事争议案件裁审衔接会议纪要〉的通知》（呼中法﹝2020﹞128号）文件。', '5.存在的问题及解决措施。存在的问题是随着劳动人事争议案件持续增加，呼和浩特市劳动人事争议仲裁委员会人手不足的问题更加凸显。为解决该问题，今后我局将积极向市人民政府请示报告通过政府购买服务等方式聘用专门记录人员、安保人员等办案辅助人员，以保证劳动人事争议案件的按时办结。', '1.发挥部门职能优势，加大从业人员培训力度。一直以来，市委、市政府高度重视技能人才培养工作，将其作为促进就业和改善民生的一项战略举措，始终摆在经济社会发展的突出位置。落实职业资格制度相关政策，统筹建立面向城乡劳动者的职业培训制度是市人力资源和社会保障局的一项重要职能。', '多年来，我局持续加大居家养老、居家保姆、家庭照护等家政服务从业人员的培训力度，目前，我市约有28家民办职业培训学校开展相关业务培训，年培训规模约为1500人。2020年8月，按照市政府对我市养老护理工作的部署要求，我局立足本部门实际，经认真筛选，向市民政局推荐呼和浩特卫生学校、内蒙古志同职业培训学校承担养老护理培训工作。仅内蒙古志同职业培训学校就在2020年培训了护工140人，养老护理员278人；今年上半年已培训养老护理员300人。2019年以来，我局共为591名“病人陪护”从业人员进行了职业技能鉴定，基本满足了从业人员对职业资格证书的需求。', '2.着力打造呼市家政养老病护就业创业实训基地。实训基地的建设满足家政养老服务培训、实训、就业服务、创业孵化以及评价指导的功能，以创业培训、职业技能培训、职业技能等级认定和连锁化经营管理为抓手，通过在基地培训服务人员、组建服务团队、实训服务流程，帮助创业人员成立居家养老、居家保姆、家庭照护等类型的服务机构，同时依托社区的支持，将孵化成熟的服务机构推进入驻社区，形成深入到呼市各社区的辐射状家政服务机构网络，实现以创业带动就业和家政养老服务机构进社区的总体布局。', '目前，我市较知名的从事养老护理、“病人陪护”的实训基地有呼市儒科家政服务基地、八方保姆家政服务基地、仁和家政服务基地等。2020年以来，由呼市儒科职业培训学校牵头，呼市家协、呼市儒科家政服务有限公司和呼市宏泰公益服务中心共同建设呼市家政养老就业创业实训基地项目已初具规模，该项目位于呼市回民区新华西街铁骑华府北侧（孔家营地铁站），占地近7亩，建有智慧教室、康养实训区、社区养老实训区、家政服务实训区、智慧养老指挥中心、智慧家居体验中心等功能区域。', '按照我局对基地的整体规划，未来三年，将联合民政局、发改委、商务局等部门，力争打造5个以上涵盖家政服务行业标准化建设、服务人员培训、服务等级认定和服务评价为一体的家政服务管理指导评价平台（基地），并将其纳入“创业就业‘以奖代补’项目”给予资金支持。基地建成后，“家政养老”、“病人陪护”等相关工种的年培训人数不少于3000人，岗前培训率要达到100%，持证上岗率要保持在100%，就业创业率要达到60%以上，使更多的从业人员实现创业和稳定就业。', '近年来，在市委、市政府的有力领导下，全市各级人社部门会同组织部门，扎实推进人才工作，加强人才队伍建设，助力打造良好营商环境，取得了一定成效。', '一是大力开展人才招聘活动。为搭建高校毕业生和企业供需桥梁，2021年，我市各级公共就业服务机构计划集中举办各类线上线下人才招聘洽谈活动95场。其中，现场招聘会40场，网络招聘会55场。提供就业岗位4.8万余个次，接待各类求职者1万余人次。截至5月底，已组织38场招聘活动。去年，我市以稳就业、促民生为导向，紧紧围绕高校毕业生就业创业，与人力资源公司联合举办人才招聘活动，共举办公益性招聘会106场。', '三是认真组织开展人力资源服务培训。会同行业主管部门扎实做好调研论证，积极培育发展行业协会、专业学会等专业组织，推动其有序承接政府转移的人才评价职能，结合我市行业协会等发展实际，探索在条件成熟领域开展试点工作。同时在充分调研、广泛征求培训内容建议的基础上，针对各企业在实际工作中遇到的热点难点问题，就企业有需求的问题如劳动合同签订、社会保险缴纳、人力资源管理服务、就业扶持、人才奖补政策等进行专题辅导讲座，结合具体案例进行理论剖析，解答各企业在日常工作中遇到的难点问题，积极开展人力资源服务的相关培训。', '我市已于2021年出台《呼和浩特市吸引人才政策10条（试行）》，这些政策内容包含了人才认定、引进、培养、使用、服务等方面的措施。从大力集聚现代产业体系高层次人才、积极吸引大学生在呼创业就业、深化校（院）地合作交流、加强人才载体平台建设、营造宜居宜业人才发展环境等方面进行了更具有针对性的政策制定。', '1.针对人才落户政策。全面放开人才落户限制，大中专毕业生、留学归国人员、专业技术人员申请落户，不受合法稳定住所、合法稳定就业、参加城镇社会保险、居住年限等条件限制，实行“零门槛”落户。每年统筹使用2000个左右编制招聘优秀高校毕业生。建立事业单位人才引进“绿色通道”，大力引进高学历、高素质人才。设立人才引进专项编，用于引进各类急需紧缺高层次人才。实施“一村两名大学生”培育计划，通过“乡招村用”等办法，引导广大青年投身基层干事创业。打通校地干部人才流动通道，鼓励驻呼高校优秀人才到市党政机关和企事业单位工作。', '2.针对不同类型的人才引进的住房问题。对刚性引进相当层次的国内外顶尖人才、国家级领军人才及地方级领军人才，提供免费拎包入住院士公寓、专家公寓和人才公寓。对柔性引进人才在呼工作期间提供相应免费拎包入住公寓。对市域内非公企业新招聘的应届及毕业2年内未就业高校毕业生给予租房补贴，博士研究生、硕士研究生、本科生分别按月给予1000元、800元、500元补贴，发放时限为2年。对在市域内非公企业就业或自主创业，毕业5年内首次在呼购房的博士研究生、硕士研究生、本科生分别给予10万元、5万元、3万元补贴。', '3.针对人才的就医、子女入学等相关配套服务。为高层次人才提供全方位服务。发放“青城人才卡”，凭卡享受创新创业、奖励资助、便捷就医等“全程式”服务。为高层次人才配备健康顾问和就医服务联络员，每年免费提供1次医疗保健检查。新引进高层次人才配偶按照“有工作的优先对口安排，自主创业的提供担保贷款，未就业的发放生活补贴”原则，分层次解决来呼就业问题。对符合条件的高层次人才子女在市域内就读公办幼儿园、小学、初中的，可结合本人意愿协调办理入学。符合条件的高层次人才父母在呼生活的，每位老人每年给予1万元养老服务补贴。', '4.针对高层次人才科研工作提供保障。支持国内外知名高校和科研院所，在呼设立产业技术创新研究院，合作期内每年最高给予2000万元科研项目经费，免费提供研发场地和企业办公场地。鼓励高校、科研院所、企业、社会投资机构、金融单位等组建“政产学研推用银”创新联合体，经评审最高给予200万元经费支持。支持各类体育世界冠军在呼建立培训基地、学校，给予资金奖补。支持医学类国家重点实验室或者重点学科（专科）在呼建立分中心，最高给予1000万元学科建设经费支持。支持知名院校和教育机构在呼建立分校，进行合作办学，合作期内每年最高给予3000万元资金支持。', '5.针对优质人才完善服务。为中央驻呼机构，自治区直属机关、国有企业、科研院所等单位和新引进的高层次人才提供“一对一”优质、便捷、高效服务。', '6.针对支持鼓励人才创新、创业。绕全市重点发展的绿色食品加工、新能源、现代生物医药、信息技术、现代物流、文化旅游体育等特色优势产业和战略性新兴产业，大力引进和培育引领产业发展的高层次创新创业人才（团队）项目，推动相关产业迈向高端化、智能化、绿色化。对刚性引进的拥有自主知识产权、核心技术和在产业瓶颈上取得重大突破的人才（团队）项目，经评审给予1000万元—1亿元项目综合资助，其中认定为顶尖人才（团队）项目，“一事一议”给予特殊综合资助，对刚性引进相当层次的领军人才，最高给予200万元奖励。支持鼓励用人单位柔性引进高层次人才（团队），对柔性引进的人才（团队），经评审最高给予10万元生活补贴和100万元的项目扶持资金。开展“科技创新创业人才”评选，围绕全市优势特色和战略性新兴产业，选拔取得创新突破的人才（团队），最高给予20万元奖励。', '7.针对优秀人才回乡创业的政策倾斜。鼓励和支持在外优秀人才回呼创新创业，建立家乡人才名录，定期开展交流推介、专项洽谈，为回乡创新创业人才提供专项便捷服务，对投资规模大、技术含量高、质量效益好的回乡人才创新创业项目，经评审最高给予1000万元项目扶持资金，开展“青城鸿雁”创新创业人才评选，最高给予20万元奖励。', '在今后的工作中，我们也将不断完善工作机制，积极配合组织部门进一步加大人才政策的落实力度，推动各项政策早日落地。', '二是现行社会保障法律法规以保障建立劳动关系劳动者权益为主。“互联网+”企业中稳定的就业人员，无论是全日制就业人员还是非全日制就业人员，都可以参加工伤保险，纳入制度保障。对于工伤保险来说，最难解决的是新业态从业人员的职业风险保障问题。主要原因是现行工伤保险制度是以传统的、规范的单位用工模式为基础设计的，与灵活就业这种自主就业形式在诸多方面无法对接。具体原因如下：工伤保险以劳动关系为参保前提，灵活就业人员不存在法定意义的劳动关系；用人单位要承担部分工伤保险待遇的支付责任，要求平台企业承担待遇支付责任缺少法律依据；灵活就业人员的工伤调查取证难、认定难。新业态从业人员工伤调查取证难、认定难，会导致工伤纠纷和争议增多，反而不利于稳定，同时也会增加非工伤向工伤的逆选择，增加道德风险，增加基金风险。', '2.我局关于加强数字经济新职业人群社会保障问题的探索。一是我局在长期从事社会保险参保登记、社会保险核定、社会保险稽核检查的工作过程中，积累了丰富的社会保险经办经验。通过日复一日办理社会保险相关业务，发现工伤保险虽然是个小险种，但对于减小企业生产经营风险，保障职工社会保障权益发挥着举足轻重的作用。', '我局从2019年年初开始关注新业态从业人员的社会保障问题。重点以工伤保险为突破口，拟出台《呼和浩特市新业态从业人员优先参加工伤保险试行办法》，探索在我市范围内办理社会保险登记的物业、家政、快递、环卫等行业的用人单位招用的女45周岁以上、男55周岁以上但未达到法定退休年龄，且未参加职工社会保险的职工和在我市范围内办理社会保险登记的用人单位招用的非全日制从业人员优先参加工伤保险的可能性。但是，以现行户籍制度与劳动关系为基础的社会保障制度提体系下，出台《呼和浩特市新业态从业人员优先参加工伤保险试行办法》变得非常困难。', '二是向其他先进省市学习新业态从业人员社会保障经验，积极参加人社部、人社厅相关工作调研，建言献策。2020年-2021年，我们到江苏省南京市、浙江省杭州市、重庆市考察学习“互联网+人社”建设经验时将加强新业态从业人员社会保障作为考察交流的一项重要议题。经过沟通交流，在新业态从业人员社会保障问题上大部分地区与我市存在同样的困难，在该用第三方职业伤害保险模式还是纳入工伤保险保障范围的问题上存在分歧，尚未形成较为成熟的实施办法。', '2020年，我局受自治区人社厅工伤保险处邀请，参加了人社部关于平台企业从业人员工伤保障有关措施的征求意见。按照人社部当时的方案，拟出台委托第三方商业保险公司承办，实施与平台订单实时挂钩的承保模式，保障平台从业者从接单到结束订单期间工伤风险。我局结合我市工作实际，向自治区人社厅提出了意见建议，由人社厅汇总上报人社部。但到目前为止，人社部尚未出台相关政策。', '三是今年5月，国务院常务会议提出要进一步完善灵活就业者的社保制度，研究制定灵活就业人员参加城乡居民基本养老保险的兜底措施，推动放开在就业地参加社保的户籍限制，并探索将灵活就业人员纳入工伤保险范围。7月7日，国务院总理李克强主持召开国务院常务会议，确定加强新就业形态劳动者权益保障的若干政策措施。适应新就业形态，推动建立多种形式、有利于保障劳动者权益的劳动关系。以出行、外卖、即时配送等行业为重点，开展灵活就业人员职业伤害保障试点。建立适合新就业形态的职业技能培训模式，符合条件的按规定给予补贴。', '四是今年7月，我局邀请美团和滴滴公司负责人就外卖配送员和平台司机的社会保障和职业技能培训、提升等问题进行了座谈。', '3.开展数字经济新职业人群人才培训工作方面。随着经济社会的发展、新兴技术的应用和人们需求的提升，新产业、新业态、新模式不断涌现。国家为反映职业发展变化，适应经济社会发展需要，陆续公布了人工智能工程技术人员、物联网工程技术人员、大数据工程技术人员、云计算工程技术人员等40多个新职业。这些新职业的发布，对于引领产业发展、促进就业创业、加强职业教育培训、增强对新职业从业人员的社会认同度等，都具有重要意义。', '4.关于提案中政策建议的进展情况及下一步打算。一是关于建立完善适应灵活就业的社保制度和支持政策方面。按照现行的政策规定，“灵活就业人员可以参加基本养老保险，由个人缴纳基本养老保险费”（《社会保险法》第十条）。目前政策是支持灵活就业人员参加基本养老保险的。但是，缴纳基本养老保险对于灵活就业人员来说缴费负担较重。这类人群如果满足年满16周岁（不含在校学生）且不属于职工基本养老保险覆盖范围的城乡居民条件，可以选择参加城乡居民养老保险，城乡居民养老保险缴费标准从200元至7000元分12个档次，灵活就业人员可根据自身经济条件自行选择缴费档次。按照不同的缴费档次政府给予不同额度的补贴。', '二是关于完善数字经济新职业人群保障措施方面。目前新业态从业人员（未与单位建立劳动关系）急需得到的是工伤（或者职业伤害）保障。', '近期，经向自治区人社厅请示，确认人社部将开展平台灵活就业人员职业伤害险试点工作。我局已向自治区表达成为第一批试点城市的意愿，相信在不久的将来，我市新业态从业人员的职业伤害风险将得到保障。', '三是加大数字经济职业人群人才培训力度方面。我局将紧密结合首府地区产业发展需求，围绕紧缺职业（工种）和新职业（工种）组织开展特色品牌培训。主要做好以下工作:1.继续深入企业组织调研，进一步了解企业用工需求，组织开展“订单式”“定向式”培训，面向企业在岗职工组织开展技能提升培训；2.继续加强对政府补贴性培训的管理工作，抓好培训过程监管和质量跟踪评价；3.坚持包容审慎原则，鼓励企业、职业院校等培训主体组织开展新职业培训，持续做好对职业技能标准的开发和完善工作。', '为落实党中央、国务院“六稳”“六保”决策部署，守好基本民生底线，近年来，我市始终坚持政府负总责、行业部门监管的总体思路，研究制定了多项有效措施，扎实推进治欠保支工作有序开展。在全市各级政府和根治欠薪领导小组成员的共同努力下，农民工工资治欠保支工作取得了长足的进步，实现了党中央、国务院对根治欠薪工作既定的“三个不发生”工作目标。具体情况如下：', '一是进一步加大宣传力度，营造良好氛围。充分利用“春风行动”等各种大型宣传活动，制作劳动保障相关法律法规宣传册，免费向农民工发放。利用市清欠服务大厅农民工来往密集特点，在显著位置悬挂劳动保障投诉举报须知和劳动保障举报投诉案件办理流程图以及各单位举报投诉受理电话，利用电子显示屏滚动循环播放劳动保障法律法规和政策规定，现场受理农民工咨询。在全市各用工单位、施工工地张贴维权告示，并通过各类媒体广泛播报，强化了执法宣传效果，营造了农民工依法维权的良好氛围。市联合清欠保障农民工工资服务大厅“多部门联合清欠，全力维护农民工合法权益”的工作做法被《中国劳动保障报》《内蒙古日报》等多家媒体报道。', '二是积极开展各类培训业务，建立劳资员持证上岗制及年检制。2020年全年开展多次业务培训，4月20日--30日开展了为期10天的《条例》网络视频培训会，培训2018人次。5月至8月，全市所有劳动监察员、根治欠薪领导小组成员单位有关人员参加了国家《保障农民工工资支付条例》培训平台进行培训并经过考试，全部取得培训合格证书。11月底，在全市保障农民工工资支付暨在建工程项目劳资培训会上，邀请自治区人社厅领导做了《保障农民工工资支付条例》释义。同时，印刷《呼和浩特市建设工程领域劳动用工管理制度填写规范》3000份，《企业用人单位支付工资义务告知书》1万份，进行了现场发放。', '三是关于进一步推进新型智慧城市建设、建设智慧工地的问题，该办法自治区住建部门已完善建立了“内蒙古自治区建筑业从业人员实名制管理服务信息平台”，该平台可以实现农民工实名制管理、考勤管理、工资发放等一系列功能。', '四是贯彻中央“六稳”“六保”决策部署，减轻中小企业资金负担。根据自治区住建部门相关规定，农民工保证金缴存均由各盟市、旗县区住建部门予以征缴、管理。', '五是推进工程款支付担保“差额制”、“滚动制”。工程款支付担保制度，除在《保障农民工工资支付条例》第二十四条提出后，国家、自治区并未制定配套实施细则，就您提出的此项办法，我单位将在近期治欠保支联系会议中，与成员单位展开可行性讨论，拿出初步意见后逐级报送，提请自治区级相关职能单位制定相关实施细则。', '在今后的工作中，我们也将进一步细化工作机制，全力推动农民工治欠工作各项制度落实落地，保障劳动者的合法权益得到有效维护。', '2002年国务院办公厅转发了原人事部《关于在事业单位试行人员聘用制度的意见》（国办发〔2002〕35号），要求在全国范围事业单位中探索试行人员聘用制度，明确了事业单位人事管理从身份管理向岗位管理转变。2006年，原人事部出台了《事业单位岗位设置管理试行办法 》(国人部发〔2006〕70号)，对事业单位因事设岗、按岗聘用提出了具体要求。2007年，自治区人社厅结合自治区实际，印发了《内蒙古自治区事业单位岗位设置管理实施意见》（内人发〔2007〕131号），全区事业单位岗位设置、按岗聘用工作正式启动。2008年，经自治区核准备案，我市出台了《呼和浩特市事业单位岗位设置管理实施意见》（以下简称《实施意见》）。经过3年研究探索，从2010年开始，按照管理权限，全市各级事业单位结合本单位职能职责，经同级人力资源社会保障部门核准后，陆续制定岗位设置方案并开展了岗位聘用工作。', '《实施意见》中明确了专业技术岗位有三个类别（高级、中级、初级），13个等级（一级至十三级），允许事业单位依据职能职责和结构比例设置不同等级，并开展竞聘上岗。在具体执行过程中，各地区、各部门结合自身实际，形成了一些习惯性做法。以市本级事业单位为例，在岗位设置时除了明确高中初级岗位数外，还要求事业单位明确各级别岗位的具体数量，有空余岗位且符合岗位聘用条件的人员可以在高中初级岗位内晋升。', '经了解，清水河县在开展岗位设置时已按照职能职责和结构比例设置了不同类别、不同等级的岗位，在岗位聘用中目前还聘用至相应类别的最低等次，正在筹备开展专业技术岗位晋级工作。下一步，我们将结合事业单位改革试点有关精神，按照自治区关于事业单位岗位设置管理的最新要求，进一步指导有关地区做好岗位设置聘用工作。对于各地区制定或在实施过程中增加的一些“土政策”“土规定”，欢迎各地区事业单位积极向市人力资源社会保障局反映，我们将督促有关部门抓好整改工作。', '按照国家和自治区有关规定，专业技术岗位同管理岗位一样，分别受到岗位设置数和编制核定数的限制。职称作为专业技术人员聘用到相应的专业技术职务的基本条件，就如同领导干部需要具备一定的学历条件一样。对于管理岗位来讲，不论满足学历条件的人员有多少，均不能突破编制部门下达的领导职数进行任命。同样，具备相应职称的人员，也需要在岗位设置数内，由用人单位优中择优聘用到相应岗位。从实际情况看，大多数单位误认为取得职称就应聘用到相应专业技术岗位，对大家思想疏导教育不多，导致持有职称证书未聘到相应岗位的人员对聘岗制度心存不满。', '在参加全国事业单位人事管理培训时，人社部事业司有关领导对岗位设置的政策进行了解释：实行事业单位岗位设置管理，就必然会导致高级别岗位评聘矛盾，这一矛盾在全国事业单位中也普遍存在。岗位设置的制度设计，客观造成这种择优竞争局面，不可避免的会出现专技人员旺盛的需求与高中级岗位稀缺之间的矛盾，这种矛盾是促进事业单位内部有序良性竞争的有力武器，也是推进事业单位开展竞聘上岗的主要动力。适当提高专业技术高中级岗位比例是解决一时之需的权宜之计，无法满足用人单位不断提高的专业技术高中级岗位的迫切需求。', '考虑到我市对专业技术岗位的实际需求，在自治区明确盟市本级事业单位高中初级专业技术岗位结构比例控制目标为1.7:4.0:4.3的情况下，2008年，经向自治区争取，我市在具体执行时将专业技术人员高中初级比例控制目标定为2:4:4，并在《实施意见》中予以明确。近年来，随着人才战略的逐步实施，各地区、各单位多次反映高中级专业技术岗位不足的问题，考虑到专业技术岗位结构比例需要省级人社部门调整，我们在做好政策解释引导的同时，积极向自治区人社厅争取政策支持。今年3月底，我们在充分调研的基础上，向自治区人社厅提交了提高我市高、中级专业技术岗位比例的请示，目前未收到自治区人社厅的答复。', '下一步，我们将结合事业单位改革试点有关精神，按照自治区关于事业单位岗位设置管理的最新要求，进一步指导有关地区做好岗位设置聘用工作。', '近年来，我市事业单位新进人员主要采取公开招聘方式，充分尊重了用人单位的自主权，增强了选人用人针对性。特别是近年来，国家和自治区公开招聘政策不断丰富完善，对公开招聘岗位条件设置、违纪违规问题处理等都提出了明确要求，我市都严格进行了落实，较好地体现了事业单位公开招聘“公开、平等、竞争、择优”的原则。', '为缓解艰苦边远旗县事业单位招人难、留人难问题，从2018年开始，针对清水河县、武川县等艰苦边远地区实际，给予了“三放宽、一允许”的招聘优惠政策，允许这两个县事业单位在招聘时适当放宽年龄、学历、专业等招聘条件，允许拿出一定数量的岗位面向本县、本市或者周边县市户籍人员（或者生源）招聘，同时可明确3-5年的最低服务期。', '为增强事业单位公开招聘的针对性，2020年，我市首次参加了人力资源社会保障部人事考试中心组织的全国事业单位公开招聘分类考试公共科目笔试，按照“干什么、考什么”的原则，为教育、卫生、综合管理类岗位分别提供了不同类别的试卷，收到了良好效果。', '同年，中共中央、国务院出台了《深化新时代教育评价改革总体方案》，要求事业单位公开招聘要按照岗位需求合理制定招考条件、确定学历层次，不得将毕业院校、国（境）外学习经历、学习方式作为限制性条件，我们在2021年的公开招聘总体方案中予以明确，并要求各招聘单位贯彻落实。', '下一步，我们将结合事业单位改革试点有关精神，按照编制部门批复的公开招聘空编使用计划，按照干部管理权限，组织或指导招聘单位认真开展好事业单位公开招聘工作。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>25</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>市委常委会召开会议传达学习贯彻习近平总书记重要讲话精神决定召开市委十三届六次全会</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2023-07-12</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650094714&amp;idx=2&amp;sn=e599873f0457d52ff91a41066055cbcf&amp;scene=0</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['市委常委会召开会议传达学习贯彻习近平总书记重要讲话精神 决定召开市委十三届六次全会', '传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '7月11日，市委常委会召开会议，传达学习习近平总书记在江苏考察时的重要讲话精神、在《求是》发表的重要文章《努力成长为对党和人民忠诚可靠、堪当时代重任的栋梁之才》，传达学习自治区党委常委会会议精神，研究部署贯彻落实工作。自治区党委常委、市委书记包钢主持会议。', '会议强调，各级各部门要认真学习领会习近平总书记在江苏考察时的重要讲话精神，结合首府实际，不折不扣抓好贯彻落实。要深入贯彻“以学促干”的重要要求，树牢正确政绩观，匡正干的导向，增强干的动力，形成干的合力，在以学促干上取得实实在在的成效。要开好全市“贯彻新发展理念、推动高质量发展”现场会，在比学赶超中切实把标准立起来、进度抓上来、成效提上来，实打实地干出一番业绩。要登高望远、系统谋划，加快推动“六大产业集群”链式化发展，紧盯项目、园区建设，破除束缚开发区发展的“条条框框”，为高质量发展提供新动能。要密切监测雨情汛情，加强预警响应联动，做好应急救援演练和队伍物资准备，全力保障人民群众生命财产安全。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>25</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>年度上半年工作总结和下半年工作计划</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2012-08-10</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/ssthjj_22412/xxgknb/202105/t20210525_930824.html</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['一一年度呼和浩特市城市环境综合整治定量考核结果上报材料》，并报请以市政府名义上报自治区环境保护厅。2012年4月参加了全区2011年度城市环境综合整治定量考核审查会。经现场核查和厅务会确定我市城市环境综合整治定量考核结果仍为全区第一。', '环保部组织的全国城市集中式饮用水水源环境状况（2011年度）评估技术培训班，并编制完成了我市饮用水水源环境状况（2011年度）评估报告。', '、5月编制完成了新的《呼和浩特市城区地下水饮用水水源保护区划定方案》并上报自治区人民政府。自治区人民政府于6月15日', '开展了呼和浩特市城镇饮用水源地环境保护规划编制和乡镇集中式饮用水水源保护区划定工作，完成了现状调查和相关基础环境信息表格的填报。', '完成了2012年汞污染电子数据上报。出文说明汞污染物在废渣、废酸中不能监测的原因。开展了电石法生产聚氯乙烯及相关行业汞污染防治情况的检查和上报', '目前该企业采用废水综合利用方式进行污水处理，废水实际属于零排放。但如何认可这种处理方式，还在寻找认量的依据。', '城关镇污水处理厂虽然已经建成，但是县城管网铺设的难度过大，基本没有进水，无法计算削减量。', '由于今年输京电线路畅通，预计今年大唐的发电量还要增加，因此2012年大唐燃煤量估计会继续增加。虽然大唐托电的拆除旁路和脱硝计划已经压缩到3年内完成的，但是工程时间长，同时必须结合机组大修时间。今年的减排工程虽然大，实际可以形成削减量并不大，相对于可能增加的燃煤量，前景不容乐观。', '金桥、金山热电厂，脱硫扩容和脱硝改造项目目前都处于前期阶段，如果可研、环评相关手续顺利，工程可以开始建设，但是预计年内无法完成，预计不会形成实际削减量。', '由于市区内辛辛板、章盖营、公主府认定情况已经接近满负荷，预计年内新增削减量空间不大。', '从2011年减排核查情况来看，我市“十二五”减排责任状中列入计划的养殖场（小区）大部分尚未达到认定削减量的要求，本着项目改变，减排总量不变的原则，准备好替代项目，在规定的时限内完成农村减排任务。', '参加“十二五”城市环境综合整治定量考核工作培训班，与“城考”工作先进城市开展“城考”工作考察、调研和交流学习。', '督促做好列入“十二五”黄河重点流域水污染防治规划项目的各项准备工作，进入启动阶段。', '电厂脱硝工程在2012年以后才能建成并发挥作用，丰泰电厂2×350MW机组脱硝设施的运行还未达到设计要求，短期内氮氧化物的减排仅能依靠大唐各机组拆除旁路同时改进低氮燃烧器工程，必须督促加快进度。', '水泥行业方面，我市具有脱硝条件的水泥企业共计三家：天皓、蒙西、冀东。但企业动作缓慢。', '新建污水处理厂负荷率方面，主要是旗县新建生活污水处理厂的负荷率，提高生活污水的收集率及稳定运行仍然是关键。', '年电力煤炭消耗就增加近300万吨，新增污染物排放量已经超过减排项目形成的削减能力，今年情况仍然不容乐观。', '扭转对减排工作抓的力度有所下降，一方面新增加的指标和领域对环保来说比较陌生，减排需要相关部门支持配合，各部门达成共识，形成合力需要有个过程。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>25</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>月至月大事记</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2018-12-29</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/hhht_zfgb/qsh/2018/deq/201812/t20181229_402707.html</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['2、张敏春副县长下午主持召开清水河县落实中央环保督察“回头看”反馈意见领导小组会议;晚上参加全市环保督察例会。', '3、 石永平副县长上午实地查看城关镇环境综合整治情况，之后参加清水河县煤矿采区窑沟乡沙石泉采空区灾害综合治理项目推进会;下午参加自治区首届中国国际进口博览会调度工作电视电话会议。', '区灾害综合治理项目推进会;下午参加自治区首届中国国际进口博览会调度工作电视电话会议。', '2、张敏春副县长上午参加全区全面治理拖欠农牧民工工资问题电视电话会议;下午主持召开清水河县落实中央环保督察“回头看”反馈意见领导小组会议，晚上参加全市环保督察例会。', '2、王崇英副县长7月4日至6日在市委党校参加全区政法领导干部学习习近平新时代中国特色社会主义思想专题培训班。', '3、李军副县长上午赴呼市参加清水河小香米产业项目申报评审答辩会;下午陪同自治区林业厅、市林业局调研我县林业工作。', '2、张敏春副县长上午研究部署环保工作;下午主持召开清水河县落实中央环保督察“回头看”反馈意见领导小组会议，晚上参加全市环保督察例会。', '3、李军副县长上午陪同自治区农牧业厅调研我县农牧业扶贫产业发展工作;下午赴北堡乡参加全县脱贫攻坚现场观摩调度会。', '2、张敏春副县长上午参加全区推进企业上市挂牌和深化农信社改革电视电话会议;下午研究部署环保工作，晚上参加全市环保督察例会。', '3、云巧堂副县长参加市十三届政协教育界别组开展的市区小升初“大班额、择校热”专题调研。', '2、王崇英副县长在市委党校参加全区政法领导干部学习习近平新时代中国特色社会主义思想专题培训班，之后参加市公安局党委(扩大)会议。', '1、亢永强县长上午参加清水河县清康扫帚加工厂揭牌仪式;下午主持召开建筑骨料产业园区建设协调会。', '2、李军副县长上午陪同市委常委、组织部部长黄雅丽调研韭菜庄乡脱贫攻坚工作并参加清水河县清康扫帚加工厂投产揭牌仪式。', '3、石永平副县长陪同市委常委、组织部部长黄雅丽调研韭菜庄乡脱贫攻坚工作并参加清水河县清康扫帚加工厂投产揭牌仪式。', '4、王崇英副县长7月9日至7月14日随呼和浩特市人民政府代表团赴浙江、贵州、山东三省对农村人居环境整治工作进行考察学习。', '2、张敏春副县长上午检查保障农民工工资支付工作;下午参加全市国税地税征管体制改革电视电话会议。', '1、张敏春副县长上午参加县人大常委会;下午陪同呼市税务局联合党委委员、副局长徐建宝同志一行督导国税地税征管体制改革工作。', '2、王崇英副县长在市委党校参加全区政法领导干部学习习近平新时代中国特色社会主义思想专题培训班。', '1、亢永强县长上午参加全市生态环境保护大会，之后参加全市网络安全和信息化工作会议;下午参加全市“三城同创”动员大会。', '3、县政府党组副书记刘在俊上午参加全市生态环境保护大会，之后陪同市卫计委副主任王兴建一行督查我县2018年上半年卫生计生工作。', '2、张敏春副县长上午参加清水河县退出自治区级扶贫开发工作重点县市级初审工作汇报会;下午主持召开清水河县国税地税征管体制改革座谈会。', '3、县政府党组副书记刘在俊参加北坡古村落改造、修缮、保护综合ppp项目合同谈判预备会议。', '4、李军副县长上午参加清水河县退出自治区扶贫开发工作重点县市级初审工作汇报会;下午主持召开扶贫易地搬迁工作会议。', '5、石永平副县长上午主持召开自治区义务教育均衡评估验收迎评会，之后主持召开北堡乡旅游项目协调会。', '2、张敏春副县长上午参加全县民兵集训动员大会;下午赴窑沟乡陪同市级脱贫初审组检查验收扶贫工作。', '3、县政府党组副书记刘在俊参加北坡古村落改造、修缮、保护综合ppp项目合同谈判会议。', '4、李军副县长上午陪同县委副书记、政府县长亢永强同志赴宏河镇调研葡萄种植基地建设情况;下午赴和林格尔县参加全市产业扶贫现场会暨扶贫资金管理使用工作推进会。', '2、张敏春副县长上午主持召开神-喇线(城关段)复工征地拆迁部署会;下午实地巡查杨家川流域。', '4、石永平副县长上午研究后火盘石灰岩矿开发相关事宜;下午去呼市迎接自治区义务教育均衡发展评估验收组专家。', '2、张敏春副县长上午实地查看神-喇线(城关段)建设工程进展情况;下午参加第四次全国经济普查电视电话会议。', '5、李军副县长陪同市委常委、副市长黄继刚赴宏河镇、窑沟乡、韭菜庄乡调研脱贫攻坚工作。', '1、亢永强县长上午参加全市防汛工作现场办公会;下午主持召开全县防汛抗洪工作部署会，之后实地查看城关镇防汛工作情况。', '5、李军副县长上午参加全县防汛抗洪应急演练;下午参加全县防汛抗洪工作安排部署会议。', '2、李军副县长陪同县委副书记、政府县长亢永强赴城关镇、宏河镇实地调研浑河、清水河以及石峡口、当阳桥水库防汛度汛工作情况。', '李军副县长上午参加全区上半年重点工作汇报会电视电话会议，之后参加全县扶贫易地搬迁工作迎接检查安排部署会议。', '1、亢永强县长上午参加国务院大督查自治区督查组督查安排部署会;下午参加宏河镇特色小镇项目规划会。', '2、张敏春副县长上午研究部署川峁上至老牛坡公路建设有关事宜，并实地研究规划路线;下午研究部署中央环保督察“回头看”反馈群众信访举报问题整改落实工作。', '4、李军副县长上午参加全市以“新科技革命与呼和浩特未来”为主题的创新青城院士论坛。', '1、张敏春副县长赴黄河万家寨水利枢纽有限公司协调紧急救援老牛湾水域停泊船舶有关事宜。', '6、石永平副县长上午研究煤矿周边居民搬迁事宜，之后参加段静涛副县长挂职期满考核见面会;下午实地查看喇嘛湾镇尚善庄村道路建设项目推进情况。', '1、亢永强县长上午参加全区实施乡村振兴战略工作推进会;下午参加县委全面深化改革领导小组第10次会议，之后参加中共清水河县第十四届委员会常委会第66次会议。', '2、张敏春副县长上午参加全区实施乡村振兴战略工作推进会;下午陪同市城投公司督查组督查冯家塔至老牛湾公路建设情况，之后参加中共清水河县第十四届委员会常委会第66次会议。', '3、县政府党组副书记刘在俊上午参加全区实施乡村振兴战略工作推进会;下午参加县委全面深化改革领导小组第10次会议，之后参加中共清水河县第十四届委员会常委会第66次会议。', '5、李军副县长上午陪同药材企业赴宏河镇考察中药材产业;下午参加县委全面深化改革领导小组第10次会议，之后参加中共清水河县第十四届委员会常委会第66次会议;晚上参加全县脱贫攻坚工作调度会2018年第21次例会。', '议，之后参加中共清水河县第十四届委员会常委会第66次会议;晚上参加全县脱贫攻坚工作调度会2018年第21', '6、石永平副县长上午参加全区实施乡村振兴战略工作推进会，之后陪同市发改委调研中央自治区预算投资项目进展情况。', '4、李军副县长上午参加县政协林果产业暨扶贫林果基地建设协商座谈会;下午参加全区总河长暨全区河湖长制工作电视电话会议。', '1、亢永强县长上午赴五良太乡、喇嘛湾镇调研危房改造工作;下午参加冯玉甄市长廉政谈话活动。', '4、李军副县长随县委组团赴赤峰市林西县、锡林郭勒盟太仆寺旗考察调研脱贫攻坚工作。', '5、李军副县长随县委组团赴赤峰市林西县、锡林郭勒盟太仆寺旗考察调研脱贫攻坚工作。', '3、李军副县长随县委组团赴赤峰市林西县、锡林郭勒盟太仆寺旗考察调研脱贫攻坚工作。', '李军副县长随县委组团赴赤峰市林西县、锡林郭勒盟太仆寺旗考察调研脱贫攻坚工作。', '3、李军副县长上午参加全县财政扶贫资金专项检查进点会，之后主持召开全县林地保护有关事宜安排部署会议。', '7、段静涛副县长赴呼市参加内蒙古金融投资集团战略合作大会暨金融大数据平台上线仪式。', '3、云巧堂副县长8月22日至8月23日赴石家庄考察学习退伍军人服务管理工作。', '1、亢永强县长赴北堡乡、老牛湾镇、宏河镇调研精准脱贫危房改造、收缩转移村安全饮水和道路改造、特色小镇建设工作。', '4、李军副县长上午陪同市委组织部刘强副部长一行赴韭菜庄乡调研脱贫攻坚工作;下午陪同县委副书记、政府县长亢永强同志赴北堡乡、老牛湾镇、宏河镇调研农村危房改造、基础设施建设、安全饮水以及特色小镇建设工作。', '县长亢永强同志赴北堡乡、老牛湾镇、宏河镇调研农村危房改造、基础设施建设、安全饮水以及特色小镇建设', '1、亢永强县长上午参加内蒙古党委组织部扶贫工作总队谈话活动;下午参加全市环保重点工作调度会。', '2、张敏春副县长上午观摩呼和浩特市危险化学品泄漏事故应急救援预案演练;下午参加全市环保重点工作调度会。', '3、王崇英副县长上午召开会议安排部署“中非合作论坛北京峰会”清水河县安保工作;下午参加清水河县', '4、石永平副县长上午主持召开会议协调解决地区部分国有建设用地回收事宜;下午参加清水河县2018年8月党建工作交流座谈会暨县委党建领导小组第三季度工作调度会。', '1、张敏春副县长参加第95期关于《学习贯彻习近平生态文明思想坚决打好污染防治攻坚战》的专题报告双休日讲座。', '2、县政府党组副书记刘在俊参加中国生态文明建设大讲堂走进内蒙古呼和浩特打好污染防治攻坚战供需交流会。', '5、石永平副县长上午研究农村危房改造、破旧房屋整治相关事宜;下午参加全县秋季教育工作会议。', '1、亢永强县长上午参加自治区打赢精准脱贫攻坚战旗县(市、区)委书记述职交流视频会，之后参加呼和浩特市打赢精准脱贫攻坚战视频会;下午参加县委第67次常委会议。', '2、张敏春副县长上午参加自治区打赢精准脱贫攻坚战旗县(市、区)委书记述职交流视频会;下午参加县委第67次常委会议。', '3、县政府党组副书记刘在俊上午参加自治区打赢精准脱贫攻坚战旗县(市、区)委书记述职交流视频会;下午列席县委第67次常委会议。', '4、云巧堂副县长上午参加自治区打赢精准脱贫攻坚战旗县(市、区)委书记述职交流视频会;下午列席县委第67次常委会议。', '6、李军副县长上午参加自治区打赢精准脱贫攻坚战旗县(市、区)委书记述职交流视频会，之后参加呼和浩特市打赢精准脱贫攻坚战视频会;下午列席县委第67次常委会议。', '4、李军副县长上午赴呼市赛罕区榆林镇苏木沁西梁参加全市森林草原防扑火实战演练;下午参加全市自治区扶贫交叉检查部署会。', '5、石永平副县长上午调研教育项目推进情况;下午赴集宁区参加2018年全区电子商务进农村综合示范暨电商扶贫培训工作会议。', '1、亢永强县长上午参加全县组织工作暨决战脱贫攻坚百日行动誓师大会;下午参加冯玉臻市长主持召开的林业专员办森林督查反馈会。', '2、张敏春副县长上午参加全区第三季度安全生产工作电视电话会议;下午研究部署政府债务化解相关工作。', '4、王崇英副县长上午参加全县组织工作暨决战决胜脱贫攻坚百日行动誓师大会;下午主持召开公安局党委会议。', '5、李军副县长上午参加全县组织工作暨决战决胜脱贫攻坚百日行动誓师大会;下午参加全县脱贫退出专题讲座。', '6、石永平副县长8月30日至8月31日参加2018年全区电子商务进农村综合示范暨电商扶贫培训工作会议。', '2、张敏春副县长上午安排部署全县第三季度安全生产工作;下午参加全市环保重点工作调度会。', '3、李军副县长上午参加全市农村人居环境整治工作领导小组会议;下午在市农牧业局参加全国非洲猪瘟防控电视电话会议。', '李军副县长陪同自治区扶贫办信息监测中心主任、考评处处长张化珍一行赴北堡乡老牛坡村督查脱贫攻坚工作。', '1、亢永强县长上午参加第六届内蒙古“草原英才”高层次人才合作交流会暨呼包鄂人才创新创业周开幕式;下午参加周强副市长主持召开的沙尔营物流园规划设计汇报会。', '2、张敏春副县长上午参加第六届内蒙古“草原英才”高层次人才合作交流会暨呼包鄂人才创新创业周开幕式;下午参加“鸿雁行动”柔性引才活动-人才项目资金技术对接会。', '4、李军副县长在市委党校参加市委组织部举办的全市新提任县处级干部专题研讨班学习。', '5、石永平副县长上午参加大连内蒙古商会来我县开展的爱心音乐教室捐赠仪式;下午参加全市处级干部培训班学习。', '3、李军副县长上午在市委党校参加市委组织部举办的全市新提任县处级干部专题研讨班学习;下午参加自治区农发行赴清水河县开展农牧业扶贫产业中药材种植项目指导会;晚上参加全县脱贫攻坚工作调度会2018年第22次例会。', '农发行赴清水河县开展农牧业扶贫产业中药材种植项目指导会;晚上参加全县脱贫攻坚工作调度会2018年第22', '1、亢永强县长上午陪同市政府冯玉臻市长调研我县农村人居环境综合整治工作;下午参加冯玉臻市长主持召开的“十个全覆盖”工程及农村其他债务化解汇报会。', '4、李军副县长上午陪同冯玉臻市长一行调研我县农村人居环境综合整治工作;下午参加全区非洲猪瘟等动物疫病防控工电视电话会议。', '1、亢永强县长上午陪同市人大常委会主任、托清经济开发区建设发展协调领导小组云建东调研重点项目建设;下午参加第三次全国国土调查电视电话会议。', '5、李军副县长上午陪同安徽亳州药材公司赴宏河镇调研药材产业发展情况;下午参加安徽亳州药材企业赴清水河县调研药材产业发展情况座谈会。', '3、云巧堂副县长列席县人大常委会;参加全县党建督导和村(居)委会换届选举调度会议。', '5、李军副县长上午参加全市非洲猪瘟等动物疫病防控工作会议;下午参加全国、全区开展“大棚房”问题专项清理整治行动电视电话会议。', '李军副县长上午主持召开全县非洲猪瘟等动物疫病防控工作紧急会议，之后主持召开全县土地流转项目农发行贷款有关事宜安排部署会。', '5、石永平副县长上午参加清水河县第二十一届全国推广普通话宣传周开幕式;下午参加清水河县庆祝第34个教师节暨表彰大会。', '上午迎接市扫黑除恶督导组督导我县扫黑除恶工作落实情况;下午赴窑沟乡对接贫困户，与贫困户商量脱贫致富办法。', '3、县政府党组副书记刘在俊上午参加清水河县2018年扶贫开发领导小组工作会议;下午开展脱贫攻坚工作。', '上午参加清水河县2018年扶贫开发领导小组工作会议;参加全区医改工作电视电话会议。', '5、张谢军副县长上午主持召开黄河大峡谷·老牛湾旅游区2018清水河县首届中国农民丰收节暨中秋节活动协调会，之后主持召开清水河县“国庆、中秋”节假日期间旅游保障工作会议;下午调度旅游重点工作重点项目进展情况。', '9、韩冰副县长赴呼伦贝尔参加自治区环保厅举办的2018年国家重点生态功能区县域生态环境质量检测评价与考核培训班。', '赴呼伦贝尔参加自治区环保厅举办的2018年国家重点生态功能区县域生态环境质量检测评价与考核培训班。', '4、张谢军副县长上午调度县旅游工作进展情况并安排部署下一阶段工作;下午听取乌兰牧骑信访问题。', '3、张谢军副县长上午赴文体广电局调研工作，之后听取文体综合服务中心工程进展及工程设计、审计相关事宜;下午赴林业局主持召开“双随机一公开”调度会，之后与蒙清公司协调对接申报国家品牌相关事宜。', '6、石永平副县长上午陪同亢县长调研城建重点项目，之后陪同自治区财政厅基层处处长张金良一行调研工作;下午主持召开各乡镇土地利用总体规划调整工作会议;主持召开明阳风电供热项目推进协调会议。', '上午赴重点企业检查国庆节前安全生产和环保工作;下午参加全市开展保障农民工工资支付工作专项检查部署会。', '4、张谢军副县长上午实地查看文体综合服务中心;下午研究讨论老牛湾酒店开工、皮划艇基地建设和旅游厕所专题研究方案的相关事宜。', '4、张谢军副县长上午赴呼和浩特市体育局协调工作;下午赴内蒙古工大设计院协调文体中心项目事宜。', '6、李军副县长上午参加烈士纪念日活动;下午参加全县2018年度扶贫对象动态管理和考核评估工作部署培训会。', '7、石永平副县长上午参加烈士纪念日活动;下午参加全县2018年度扶贫对象动态管理和考核评估工作部署培训会。', '9、刘在俊上午参加烈士纪念日活动;下午参加全县2018年度扶贫对象动态管理和考核评估工作部署培训会。', '1、张敏春副县长上午研究特岗教师服务期满转正事宜;下午检查保障农民工工资支付工作开展情况。', '3、张谢军副县长主持召开全域旅游规划讨论会;之后赴老牛湾镇督导检查“脱贫攻坚百日行动”落实情况。', '2、张谢军副县长赴呼市与工大设计院实地考察市里的文体综合服务中心项目，之后召开会议与工大设计院讨论研究县文体综合服务中心完善主体外围设计及内装修设计方案。', '4、李军副县长赴五良太乡脑包村、宏河镇高茂泉窑村督查农村人居环境整治工作进展情况。', '1、亢永强县长上午赴喇嘛湾镇精准调研精准脱贫工作;下午参加全市“十个全覆盖”债务化解工作会议。', '5、李军副县长上午参加全县脱贫攻坚工作调度会2018年第28次例会;下午赴市农牧业局参加全国非洲猪瘟等重大动物疫病防控工作视频会议。', '4、张谢军副县长上午参加旅游局巡察反馈意见会，之后实地调研窑沟乡七0二电台遗址;下午参加文体广电局巡察反馈意见会，之后主持召开关于落实国家、自治区、呼市文物安全工作精神会议。', '6、石永平副县长上午实地查看城镇改造拆迁事宜;下午参加市政府研究呼市自然保护区内矿业权退出补偿办法会议。', '1、亢永强县长上午主持召开2018年县政府第9次政府常务会议和县政府党组第10次会议;下午赴山东省招远市出差。', '3、云巧堂副县长上午参加清水河县人民政府2018年第9次常务会议，之后参加清水河县人民政府党组2018年第10次会议;下午主持召开全县健康扶贫推进会。', '6、李军副县长上午参加清水河县人民政府2018年第9次常务会议，之后参加清水河县人民政府党组2018年第10次会议。', '7、石永平副县长上午参加清水河县人民政府2018年第9次常务会议，之后参加清水河县人民政府党组2018年第10次会议;下午主持召开清水河县“精准扶贫”农特产品展销会暨扶贫日捐助部署会议。', '第10次会议;下午主持召开清水河县“精准扶贫”农特产品展销会暨扶贫日捐助部署会议。', '1、亢永强县长上午陪同冯玉臻市长走访慰问韭菜庄乡、北堡乡贫困户;下午调研清水河县精准脱贫工作。', '3、李军副县长上午参加冯玉臻市长调研清水河县扶贫工作活动;下午参加调研清水河县精准脱贫工作活动。', '1、亢永强县长赴宏河镇范四窑村委、火烧也村委、栅梢也村委、解放村委调研精准扶贫工作。', '2、张敏春副县长上午参加全市财税工作调度会议;下午督导保障农民工工资支付工作，并安排部署迎检工作。', '4、张谢军副县长上午赴内蒙古大学历史与旅游文化学院对接全面合作框架协议;下午赴市委党校参加2018年呼和浩特市新闻发言人培训班。', '5、李军副县长上午赴市政府参加全市乳业扶贫实施方案研讨会;下午赴市政府参加扶贫工作会议。', '2、张敏春副县长上午参加市检查组赴清水河县检查保障农民工工资支付工作汇报会;下午陪同市检查组检查保障农民工工资支付工作。', '6、李军副县长上午参加全县脱贫攻坚工作现场观摩会;下午赴五良太乡圣地牧业公司参加台湾农牧业企业招商引资座谈会。', '9、刘在俊10月16日至10月19日赴鄂尔多斯市委党校参加2018年内蒙古自治区政务大数据理论与实践专题研修班培训学习。', '1、亢永强县长上午参加清水河县“精准脱贫”农产品展销会暨扶贫日捐助仪式;下午在市政府参加中央第二次环保督察组对内蒙古自治区开展“回头看”情况反馈会。', '2、张敏春副县长上午参加清水河县“精准扶贫”农特产品展销会暨扶贫日捐助仪式;下午赴市政府参加中央第二环境保护督察组对内蒙古自治区开展“回头看”情况反馈会。', '5、李军副县长上午参加清水河县“精准扶贫”农特产品展销会暨扶贫日捐助活动启动仪式，并接受内蒙古新闻网现场采访。', '2、张敏春副县长上午陪同内蒙古煤矿安全监察局鄂尔多斯监察分局检查组检查煤矿安全生产工作，并参加联席会议;下午赴窑沟乡督导脱贫攻坚百日行动工作开展情况。', '3、云巧堂副县长10月18日至10月21日，参加自治区党委统战部与市委统战部联合举办的统一战线两支队伍培训班学习。', '6、李军副县长上午赴市政府参加中央第八巡视组对内蒙古自治区开展脱贫攻坚专项巡视工作动员会议;下午参加全市国土绿化工作座谈会。', '7、石永平副县长上午研究印刷厂拆迁和原二旅社营业房回迁事宜;下午参加2018年全区土地例行督察意见反馈及整改工作部署视频会议。', '1、亢永强县长上午参加全县干部大会暨习近平总书记扶贫讨论研讨会;下午赴五良太乡督查精准扶贫工作。', '2、张敏春副县长上午参加全县干部大会和县委中心组第12次(扩大)学习会暨习近平总书记扶贫论述研讨会;下午参加呼和浩特市第四次全国经济普查汇报会，之后参加全市环保工作调度会。', '4、王崇英副县长参加全县干部大会、县委中心组理论学习第12次(扩大)会议暨习近平总书记扶贫思想论述研讨会。', '5、李军副县长参加全县干部大会、县委中心组理论学习第12次(扩大)会议暨习近平总书记扶贫思想论述研讨会。', '6、石永平副县长参加全县干部大会暨习近平总书记扶贫讨论研讨会;下午主持召开国家义务教育均衡督导检查迎检会议。', '3、李军副县长上午陪同县委云霖琼书记赴老牛湾镇督查扶贫工作;下午陪同冯玉臻市长赴宏河镇、老牛湾镇调研督查脱贫攻坚工作并走访贫困户。', '2、张敏春副县长上午安排部署第四次全国经济普查工作;下午赴窑沟乡督导脱贫攻坚工作。', '3、云巧堂副县长10月22日至10月23日参加自治区党委统战部与市委统战部联合举办的统一战线两支队伍培训班学习。', '6、李军副县长陪同市领导赴北堡乡调研脱贫攻坚工作并走访慰问贫困户;下午赴五良太乡五良太村督查调研干部驻村工作情况。', '9、刘在俊赴鄂尔多斯市委党校参加2018年内蒙古自治区政务大数据理论与实践专题研修培训学习。', '1、亢永强县长上午参加义务教育均衡验收督导检查活动;下午实地查看超牌高龄土三期项目建设情况。', '2、张敏春副县长上午陪同自治区科技厅调研组调研工作;下午安排部署环保工作，晚上参加全县脱贫攻坚工作调度会2018年第29次例会。', '3、张谢军副县长实地查看文体综合服务中心内外装修工程进展情况;下午赴老牛湾镇督查脱贫攻坚工作。', '5、李军副县长上午赴自治区财政厅参加全区农村“十个全覆盖”十项工程拖欠工程款化解工作调度会;下午参加2018年全市秋季森林草原防火工作会，晚上参加全县脱贫攻坚工作调度会2018年第29次例会，之后主持召开2018年全县秋季森林草原防火工作会。', '1、亢永强县长上午陪同义务教育发展均衡验收国家组检查工作;下午督查城关镇芦沟子村、庄古窑村、祁家沟村脱贫攻坚和产业发展情况。', '4、张谢军副县长上午参加全国脱贫攻坚先进事迹报告会;下午主持召开原乌兰牧骑信访协调会。', '5、王崇英副县长上午参加全国脱贫攻坚先进事迹巡回报告会视频会;下午赴窑沟乡栜木沟村调研检查脱贫攻坚工作。', '6、李军副县长上午参加全国脱贫攻坚先进事迹巡回报告会视频会;下午陪同县委云霖琼书记赴五良太乡喇嘛庙村、厂汉沟村督查指导调研脱贫攻坚工作。', '7、石永平副县长上午参加创建义务教育发展基本均衡县国家督导检查活动;下午研究殡仪馆选址相关事宜之后研究开展打击非法采矿、采石、取土专项行动。', '1、亢永强县长上午参加县委常委会;下午参加国务院安委办召开的今冬明春火灾防控工作动员部署视频会。', '2、张敏春副县长上午参加县委常委会;下午参加国务院安委办召开的今冬明春火灾防控工作动员部署视频会议。', '5、李军副县长上午列席中共清水河县第十四届委员会常委会第69次会议，之后在五良太乡政府主持召开五良太乡贫困人口动态调整工作培训暨精准脱贫工作推进会;下午赴五良太乡白旗窑村、康圣庄村督查调研脱贫攻坚工作并入户走访贫困户。', '6、李军副县长上午赴县林业局调研工作，之后赴北堡乡老牛坡村接受呼市电视台关于我县扶贫工作进展情况的采访。', '7、石永平副县长上午研究原二旅社营业房回迁安置事宜，之后去北堡乡开展扶贫户包联工作;下午去韭菜庄乡开展扶贫户包联工作。', '7、石永平副县长上午研究2019年全县重点项目相关事宜;下午实地督查危房改造进展情况。', '1、亢永强县长上午参加“早安工程”健康暖心中国行公益项目清水河县启动仪式，之后赴窑沟乡督查扶贫工作;下午参加脱贫攻坚百日行动推进会。', '2、张敏春副县长上午参加县级干部包联乡镇工作情况汇报会;下午参加脱贫攻坚百日行动推进会。', '3、云巧堂副县长上午参加县级干部包联乡镇工作情况汇报会，之后参加“早安工程”健康暖心中国行公益项目清水河县启动仪式;下午参加脱贫攻坚百日行动推进会。', '5、王崇英副县长上午参加县级干部包联乡镇工作情况汇报会;下午参加自治区公安厅重点工作调度视频会。', '6、李军副县长上午参加县级干部包联乡镇工作情况汇报会;下午陪同市森林资源督查组督查我县森林资源，之后参加脱贫攻坚百日行动推进会。', '7、石永平副县长上午参加县级干部包联乡镇工作情况汇报会;下午参加脱贫攻坚百日行动推进会。', '8、刘在俊上午参加县级干部包联乡镇工作情况汇报会;下午参加脱贫攻坚百日行动推进会。', '2、张敏春副县长上午赴市政府参加自治区督查全面治理拖欠农民工工资情况工作汇报会;下午赴市政府协调债务化解有关工作。', '5、王崇英副县长上午主持召开扫黑打伞铲基集中攻坚行动推进会;下午参加全县宣传思想工作会议，之后参加县委中心组学习。', '7、石永平副县长上午主持召开发改经信局脱贫攻坚百日行动推进会;下午参加全县宣传思想工作会议，之后参加县委中心组学习。', '9、刘在俊上午参加韭菜庄乡脱贫攻坚百日行动推进会;下午参加全县宣传思想工作会议，之后参加县委中心组学习。', '1、张敏春副县长上午参加窑沟乡脱贫攻坚百日行动推进会;下午对接窑沟乡的帮扶贫困户。', '2、云巧堂副县长陪同国家发改委环资领域中央预算内投资项目现场督察组调研;下午参加清水河县第二个健康促进月启动仪式。', '4、王崇英副县长上午参加窑沟乡脱贫攻坚百日行动推进会;下午对接帮扶的建档立卡贫困户。', '1、张敏春副县长上午参加刘文玉副市长召开的全市债务化解约谈调度会;下午赴上级部门协调环保工作。', '4、王崇英副县长上午参加自治区公安厅党委巡查组巡查市局扫黑除恶专项斗争反馈意见电视电话会议;下午赴市公安局协调专案工作。', '1、张敏春副县长上午参加自治区政府党组理论中心组2018年第九次集体学习(扩大)会议;下午赴韭菜庄乡对接帮扶贫困户。', '3、张谢军副县长上午参加自治区政府党组理论中心组2018年第九次集体学习(扩大)会议;下午赴老牛湾镇督查脱贫攻坚工作。', '4、王崇英副县长上午办理专案;下午参加全区扫黑除恶专项斗争推进工作电视电话会议，之后参加全市扫黑除恶专项斗争推进会。', '7、刘在俊上午参加自治区政府党组理论中心组2018年第九次集体学习(扩大)会议;下午下乡开展脱贫攻坚工作。', '2、张敏春副县长上午研究脱贫攻坚环境秩序、易地搬迁等专项工作;下午赴呼市参加国家人社局等十二个部门召开的保障农民工工资视频会及全市保障农民工工资部署会。', '4、张谢军副县长上午参加自治区政府办公厅关于全区推开“证照分离”改革电视电话会议;下午赴老牛湾镇督查脱贫攻坚工作。', '7、石永平副县长上午研究脱贫攻坚牵头负责推进组相关工作;下午下乡督查脱贫攻坚工作。', '6、李军副县长陪同县委书记云霖琼同志赴五良太乡菠菜营村、青豆沟村督查脱贫攻坚工作。', '7、石永平副县长上午协调三大运营商解决村庄信号覆盖问题;下午参加全国开展“大棚房”问题专项清理整治行动推进落实视频会议。', '1、亢永强县长上午观看专题片《铁纪强军》;下午赴韭菜庄乡北圪洞村委、双井子村委、韭菜庄乡村委督查脱贫攻坚工作，并走访贫困户李堂小。', '2、张敏春副县长上午参加自治区人大常委会召开的建立政府向本级人大常委会报告国有资产管理情况制度推进会，之后观看专题片《铁纪强军》;下午参加全市中央环保督察反馈意见整改调度会。', '3、云巧堂副县长上午观看专题片《铁纪强军》;下午督查健康扶贫、社会兜底等脱贫工作。', '4、张谢军副县长上午观看专题片《铁纪强军》;下午至16日赴老牛湾镇督查脱贫攻坚工作。', '7、石永平副县长上午协调宏河镇特色小镇项目上报事宜，之后观看专题片《铁纪强军》;下午下乡督查脱贫攻坚工作。', '5、李军副县长上午参加全国冬春农田水利建设电视电话会议;下午赴五良太乡督查扶贫工作。', '1、亢永强县长上午赴老牛湾镇单台子村委、藏峁梁村委、中咀梁村委督查脱贫攻坚工作，并走访帮扶贫困户吕二宏，之后主持召开信访维稳安排部署会;晚上参加全市财税工作会议。', '3、云巧堂副县长上午陪同市民政局副局长志铭一行督查我县殡葬领域突出问题专项整治工作;下午下乡督查健康扶贫、社会兜底等脱贫工作。', '1、亢永强县长上午参加县委第72次常委会;下午参加市委理论中心组第12次学习。', '1、亢永强县长下午参加脱贫攻坚第三方专项评估验收对接会;晚上参加全县脱贫攻坚调度例会。', '4、李军副县长下午参加清水河县退出自治区级贫困县专项评估对接会，之后参加清水河县退出自治区级贫困县专项评估经济发展座谈会;晚上参加全县脱贫攻坚调度例会。', '2、李军副县长上午赴五良太乡康圣庄村、三十一号村督查扶贫工作;晚上参加全县脱贫攻坚调度例会。', '1、亢永强县长上午与武川县脱贫攻坚考察团举行座谈;晚上参加全县脱贫攻坚调度例会。', '5、李军副县长上午陪同县委书记云霖琼同志赴五良太乡圣地牧业奶牛养殖基地、永兴村调研工作;晚上赴县公安局参加全县精准脱贫工作调度视频会。', '1、亢永强县长下午参加全县扫黑除恶专项斗争领导小组会议，之后参加冯市长主持召开的脱贫攻坚市长办公会议;晚上参加全县脱贫攻坚调度例会。', '2、王崇英副县长上午参加市公安局细化落实厅党委巡查组扫黑除恶专项斗争整改意见会;下午检查安保工作。', '1、亢永强县长上午调研脱贫攻坚工作;下午参加全市扶贫领导小组第11次会议，晚上参加全县脱贫攻坚调度例会。', '3、李军副县长上午赴五良太乡白旗窑村督查调研精准脱贫工作;晚上赴县公安局参加全县精准脱贫工作调度视频会。', '1、亢永强县长下午参加脱贫攻坚第三方专项评估验收反馈会，之后参加国务院扶贫办评选全国脱贫攻坚先进模范考察工作座谈会;晚上参加县委中心组学习(扩大)会议(国务院扶贫办陈洪波讲授扶贫法律法规知识)。', '2、张敏春副县长上午研究农民工工资治欠保支工作;晚上参加县委中心组学习(扩大)会议(国务院扶贫办陈洪波讲授扶贫法律法规知识)。', '4、李军副县长参加县委中心组学习(扩大)会议(国务院扶贫办陈洪波讲授扶贫法律法规知识)。', '5、张谢军副县长参加县委中心组学习(扩大)会议(国务院扶贫办陈洪波讲授扶贫法律法规知识)。', '6、刘在俊参加县委中心组学习(扩大)会议(国务院扶贫办陈洪波讲授扶贫法律法规知识)。', '7、杜贵忠上午安排部署工业园区工作;下午参加国务院扶贫办评选全国脱贫攻坚先进模范考察工作座谈会;晚上参加县委中心组学习(扩大)会议(国务院扶贫办陈洪波讲授扶贫法律法规知识)。', '3、云巧堂副县长上午调研县退役军人和其他优抚对象信息采集工作;下午参加全县信访联席会议。', '6、李军副县长上午赴石峡口实地调研蘑菇产业发展情况，之后赴五良太乡厂汉沟村委巴图沟村调研。', '1、亢永强县长上午到自治区交通运输厅汇报协调工作;下午主持召开退役军人安置领导小组会议。', '1、亢永强县长上午主持召开政府常务会议;下午参加县委中心组学习(扩大)会议。', '2、张敏春副县长上午参加政府常务会议;下午参加县委中心组学习(扩大)会议。', '3、云巧堂副县长上午参加政府常务会议;下午参加全市困难群众基本生活保障领导小组成员会议。', '4、王崇英副县长上午参加政府常务会议;下午参加县委中心组学习(扩大)会议。', '5、张谢军副县长上午参加政府常务会议;下午参加县委中心组学习(扩大)会议。', '7、石永平副县长上午参加政府常务会议;下午参加县委中心组学习(扩大)会议。', '9、刘在俊上午参加政府常务会议，之后参加县十五届人民代表大会第一次会议代表建议调度会;下午参加县委中心组学习(扩大)会议。', '1、亢永强县长上午主持召开全县“十个全覆盖”工程拖欠工程款债务和隐形债务化解协调会，之后参加青岛绿色能源工程技术研究院有限公司捐资助教捐赠仪式。', '3、云巧堂副县长上午参加县政协养老服务发展协商座谈会议;下午主持召开我县创建全区慢性病综合防控示范区调度会议。', '6、李军副县长上午参加全县“十个全覆盖”工程拖欠工程款债务和隐形债务化解协调会;下午主持召开全县农村集体资产清产核资工作动员培训会。', '7、石永平副县长上午陪同自治区发改委调研组调研宏河镇特色小镇建设，之后参加青岛绿色能源工程技术研究院有限公司捐资助教捐赠仪式;下午支持召开县发改经信局巡视整改民主生活会。', '8、杜贵忠安排部署工业园区工作，之后参加青岛绿色能源工程技术研究院有限公司捐资助教捐赠仪式。', '3、云巧堂副县长参加全市退役军人事务工作推进会，参加全市“清真”泛化专项治理工作推进会。', '2、张敏春副县长上午陪同亢县长检查全县危化领域安全生产工作;下午参加议军会和常委会。', '5、王崇英副县长上午陪同亢县长检查全县危化领域安全生产工作;下午参加全市今冬明春火灾防控工作暨深入宣传贯彻《消防安全责任制实施办法》动员部署电视电话会议。', '1、亢永强县长上午参加全区第四季度安全生产工作电视电话会议，参加“十个全覆盖”专项督查汇报会;下午参加托清园区建设发展领导小组会议。', '2、张敏春副县长上午参加全市保障农民工工资支付“百日攻坚行动”部署会;下午参加全市财政资金保工资、保运转、保民生调度会。', '4、张谢军副县长上午参加全区第四季度安全生产工作电视电话会议;下午组织召开会议安排部署第四专项检查组开展旅游安全、公共娱乐场所安全、特种设备安全专项整治工作。', '5、王崇英副县长上午参加全区第四季度安全生产工作电视电话会议，参加信访年度考核汇报会;下午研究部署冬春火灾防控工作。', '2、张敏春副县长上午主持召开会议研究道路交通有关事宜，安排部署财政专项扶贫资金绩效评价工作;下午安排部署保障农民工工资支付工作。', '4、张谢军副县长上午召开优化民营企业服务环境协调会;下午现场检查文体综合服务中心建设项目。', '5、王崇英副县长主持召开全县今冬明春火灾防控工作暨深入宣传贯彻《消防安全责任制实施办法》动员部署会议。', '7、石永平副县长上午参加团市委书记南男一行督查我县共青团改革座谈会议;下午陪同市发改委调研组调研我县重点流域、水环境治理工作。', '2、张敏春副县长上午参加自治区金融支持脱贫攻坚联席电视电话会议;下午参加全市安全生产工作调度会。', '3、云巧堂副县长陪同自治区验收组开展我县创建自治区慢性病综合防控示范区建设现场验收。', '6、李军副县长参加呼和浩特市人民政府与知识产权出版社合作签约仪式暨知识产权助力经济高质量发展主题报告会。', '1、亢永强县长上午参加县委中心组学习(扩大)会议;参加县委常委会议;陪同自治区宗教事务局领导调研我先宗教工作;下午参加自治区扫黑除恶专项斗争督导工作动员会。', '2、张敏春副县长上午参加县委中心组学习(扩大)会议;列席县委常委会议;下午安排部署安全生产工作。', '3、云巧堂副县长参加县委中心组学习(扩大)会议;列席县委常委会议;陪同自治区宗教事务局领导调研我先宗教工作。', '1、亢永强县长上午参加全国加强非洲猪瘟防控工作电视电话会议;下午参加全县扫黑除恶专项斗争工作推进会;参加县委常委会议。', '2、张敏春副县长上午参加关于清水河县社会保障体系建设的调研报告专题协商会;下午参加全县扫黑除恶专项斗争工作推进会;参加县委常委会议。', '5、王崇英副县长上午参加全区专项工作调度会;下午参加全县扫黑除恶专项斗争工作推进会。', '1、亢永强县长上午参加县志评审会议;调研民政工作;赴准格尔旗能源集团协调工作;下午参加全县全域旅游规划设计中期汇报会。', '6、石永平副县长上午研究中心区块建设推进事宜;陪同亢县长赴准格尔旗能源集团协调工作;下午参加全县全域旅游规划设计中期汇报会。', '1、亢永强县长上午主持召开政府常务会议;参加全区促进民营经济高质量发展大会;下午参加全市推动清水河县、武川县经济高质量发展座谈会。', '3、云巧堂副县长上午参加县政府常务会议;研究退役军人事务工作;下午实地督导退役军人和其他优抚对象信息采集工作。', '4、张谢军副县长上午参加县政府常务会议;参加全区促进民营经济高质量发展大会;下午与巅峰智业调研全域旅游。', '10、杜贵忠上午参加县政府常务会议;参加全区促进民营经济高质量发展大会;下午实地调研工业园区企业运行情况。', '2、张敏春副县长上午参加市安全生产考核组考核工作汇报会;下午陪同市安全生产考核组赴相关部门、企业检查工作。', '4、张谢军副县长上午参加全区领导干部警示教育电视电话会议;下午赴市体育局协调工作。', '1、亢永强县长上午参加自治区扫黑除恶专项斗争督导清水河县座谈会;下午参加市政府第26次常务会议。', '2 、张敏春副县长上午召开会议研究具体工作，之后收看庆祝改革开放40周年大会现场直播;下午参加全市农民工欠薪信访隐患排查工作部署会。', '3、云巧堂副县长上午主持召开全县退役军人和其他优抚对象信息采集工作调度会;收看庆祝改革开放40周年大会现场直播;下午实地督查全县退役军人和其他优抚对象信息采集工作推进情况。', '4、张谢军副县长上午收看庆祝改革开放40周年大会现场直播;下午赴县新华书店检查调研安全生产工作。', '7、石永平副县长上午参加全市土地批而未供专项治理工作会议;下午参加全县提升教育教学质量现场研讨会。', '10、杜贵忠上午收看庆祝改革开放40周年大会现场直播;下午主持召开清水河县工业园区党工委2018年度基层党组织书记述职评议大会。', '2、张敏春副县长上午安排部署保障农民工工资支付工作;下午主持召开清水河县开展烟花爆竹、成品油市场、城镇燃气专项整治工作部署会。', '6、石永平副县长上午参加全县教育教学质量提升研讨会;下午主持召开会议研究劣质煤销售事宜，研究批而未供土地清理工作。', '1、亢永强县长上午参加全县乡村振兴战略推进全域旅游专题培训班，之后陪同自治区公安厅督查组督查工作。', '2、张敏春副县长上午参加清水河县实施乡村振兴战略推进全域旅游专题培训班;下午赴刘胡梁煤炭有限责任公司协商矿区有关事宜。', '2、张敏春副县长上午在市政府参加生态环境保护专题讲座;下午参加全市第四次全国经济普查工作推进会。', '6、石永平副县长上午研究宏河镇特色小镇项目推进事宜;下午主持召开发改经信局党组织书记党建述职会议。', '2、张敏春副县长上午参加县委常委会议;下午参加全县2018年党组织书记抓基层党建工作述职评议会暨12月党建交流座谈会。', '3、云巧堂副县长全天陪同自治区卫健委调研组调研我县健康促进、爱国卫生及第二个健康促进月任务落实情况;下午参加2018年全区健康扶贫工作第三次调度电视电话会议。', '5、王崇英副县长上午迎接市公安局年终考核;下午参加全县2018年党组织书记抓基层党建工作述职评议会暨12月党建交流座谈会。', '7、石永平副县长上午研究城建等重点项目推进事宜;下午参加全县2018年党组织书记抓基层党建工作述职评议会暨12月党建交流座谈会。', '10、杜贵忠上午调研工业园区企业相关工作;下午参加全县2018年党组织书记抓基层党建工作述职评议会暨12月党建交流座谈会。', '1、亢永强县长参加自治区扶贫开发领导小组会议暨打赢精准脱贫攻坚战旗县(市、区)委书记述职交流视频会。', '2、张敏春副县长上午参加自治区扶贫开发领导小组会议暨打赢精准脱贫攻坚战旗县(市、区)委书记述职交流视频会;下午赴刘胡梁煤炭有限责任公司协商矿区有关事宜。', '3、云巧堂副县长上午参加自治区扶贫开发领导小组会议暨打赢精准脱贫攻坚战旗县(市、区)委书记述职交流视频会;下午参加全区健康扶贫工作第三次视频调度会议，晚上参加全县“博爱一日捐、大爱满人间”企业家现场募捐活动。', '4、张谢军副县长上午参加自治区扶贫开发领导小组会议暨打赢精准脱贫攻坚战旗县(市、区)委书记述职交流视频会;下午研究文体综合服务中心事宜。', '6、李军副县长参加自治区扶贫开发领导小组会议暨打赢精准脱贫攻坚战旗县(市、区)委书记述职交流视频会。', '7、石永平副县长参加自治区扶贫开发领导小组会议暨打赢精准脱贫攻坚战旗县(市、区)委书记述职交流视频会。', '8、韩冰副县长参加自治区扶贫开发领导小组会议暨打赢精准脱贫攻坚战旗县(市、区)委书记述职交流视频会。', '9、刘在俊参加自治区扶贫开发领导小组会议暨打赢精准脱贫攻坚战旗县(市、区)委书记述职交流视频会。', '1、亢永强县长参加县人大十五届二次会议;参加县政协九届二次会议;参加武汉鼎同志先进事迹报告会。', '2、张敏春副县长参加县人大十五届二次会议;参加县政协九届二次会议;参加武汉鼎同志先进事迹报告会。', '3、云巧堂副县长参加县人大十五届二次会议;参加县政协九届二次会议;参加武汉鼎同志先进事迹报告会。', '4、张谢军副县长参加县人大十五届二次会议;参加县政协九届二次会议;参加武汉鼎同志先进事迹报告会。', '5、王崇英副县长参加县人大十五届二次会议;参加县政协九届二次会议;参加武汉鼎同志先进事迹报告会。', '6、李军副县长参加县人大十五届二次会议;参加县政协九届二次会议;参加武汉鼎同志先进事迹报告会。', '7、石永平副县长参加县人大十五届二次会议;参加县政协九届二次会议;参加武汉鼎同志先进事迹报告会。', '8、韩冰副县长参加县人大十五届二次会议;参加县政协九届二次会议;参加武汉鼎同志先进事迹报告会。', '9、刘在俊参加县人大十五届二次会议;参加县政协九届二次会议;参加武汉鼎同志先进事迹报告会。', '2、张敏春副县长上午参加金盛快速路PPP项目协调会;下午参加县人大十五届二次会议;参加县政协九届二次会议。', '6、李军副县长上午参加全市国土绿化工作;下午参加县人大十五届二次会议，参加县政协九届二次会议。', '3、云巧堂副县长上午参加县人大十五届二次会议;下午参加全区地方病防治工作电视电话会议。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>25</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>自治区党委常委会召开会议传达学习贯彻习近平总书记考察内蒙古时的重要指示和在加强荒漠化综合防治和推进三北等重点生态工程建设座谈会上的重要讲话孙绍骋主持</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/ztzl/yhyshj/ldhd/202306/t20230612_1542468.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['自治区党委常委会召开会议 传达学习贯彻习近平总书记考察内蒙古时的重要指示和在加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会上的重要讲话 孙绍骋主持_ 呼和浩特市人民政府', '自治区党委常委会召开会议 传达学习贯彻习近平总书记考察内蒙古时的重要指示和在加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会上的重要讲话 孙绍骋主持', '6月9日，自治区党委常委会召开会议，传达学习习近平总书记考察内蒙古时的重要指示和在加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会上的重要讲话，研究部署贯彻落实工作。自治区党委书记孙绍骋主持会议并讲话。', '会上，王莉霞、张延昆等联系思想和工作实际谈了学习的感受和体会，就抓好贯彻落实讲了想法。大家一致认为，习近平总书记这次到内蒙古考察，充分体现了以习近平同志为核心的党中央对内蒙古2400多万各族人民的深情关怀、对内蒙古工作的高度重视，令人深受鼓舞、倍感振奋。大家一致表示，要带头抓好贯彻落实，把习近平总书记的期望嘱托转化为干事创业的生动实践。', '会议指出，在全面学习贯彻党的二十大精神的开局之年、深入开展主题教育的关键时刻，习近平总书记亲临内蒙古考察并主持召开具有标志性意义的加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会，这是全区各族人民政治生活中的大事，也是内蒙古发展进程中具有里程碑意义的大事。习近平总书记此行考察，对近年来内蒙古各项事业发展特别是办好落实“五大任务”和全方位建设“模范自治区”两件大事给予肯定，为我们紧扣战略定位做好各项工作进一步指明了方向和路径，极大提振了全区广大干部群众建设亮丽内蒙古的信心，更加坚定了我们以两件大事为主抓手、一张蓝图绘到底推进全面现代化的决心。全区各级要从政治的、战略的、全局的高度，充分认识习近平总书记这次考察内蒙古的重大意义， 深刻感悟习近平总书记对内蒙古的关心厚爱，团结带领各族干部群众把各项工作做得更好，以实际行动拥护“两个确立”、践行“两个维护”。', '会议强调，习近平总书记的重要指示和重要讲话，既着眼中国式现代化全局给我们指方向、明路径，又立足内蒙古实际给我们交任务、提要求，对做好内蒙古工作具有全局性、根本性、战略性的指导意义。要深刻领会习近平总书记对内蒙古工作的肯定鼓励和总体要求，牢记嘱托、感恩奋进，坚定不移沿着习近平总书记指引的方向前进，全力办好两件大事，努力在新征程上闯出一条边疆民族地区的现代化之路。要坚决落实习近平总书记关于加快优化产业结构、把生态环境保护挺在前头、扎实推动共同富裕、铸牢中华民族共同体意识等重要指示要求，进一步完善改变产业结构“四多四少”状况、解决中欧班列“酒肉穿肠过”问题的工作举措，抓好重点生态工程建设，以推进中央环保督察反馈问题整改为抓手加强污染防治，抓实就业、教育、医疗、养老等老百姓关心的大事，拧紧安全生产责任链条，扎实做好推广使用国家通用语言文字等工作。要认真落实习近平总书记关于开展好主题教育的重要指示要求，特别是以学正风的重要论述，大兴务实之风，弘扬清廉之风，养成俭朴之风，下大气力解决发展中存在的突出问题、人民群众反映强烈的现实问题，在中央指导组的指导下推动主题教育不断走深走实。', '会议强调， 内蒙古横跨三北，荒漠化防治战线长、任务重，一定要以强烈的责任感使命感做好防沙治沙工作。要加强组织领导，搞好统筹谋划，抓紧做好相关规划编制修订等工作。要坚决打赢标志性战役，确保如期完成黄河“几字弯”攻坚战、科尔沁和浑善达克两大沙地歼灭战任务，配合打好河西走廊—塔克拉玛干沙漠边缘阻击战。要加快优化产业和人口布局。要把水资源作为最大的刚性约束，以“降水耗”为目标，以完善体制机制为抓手，加快解决河套灌区大水漫灌问题，尽快见真章。要切实提高系统治理、科学治理水平，推进山水林田湖草沙一体化保护和系统治理，坚持因地制宜、因区施策，科学选择植被恢复模式，大力推广应用行之有效的治理模式。要千方百计调动各方面的积极性，完善政策举措，强化政策引导，吸引广大农牧民和更多民间资本参与生态建设。', '会议强调， 学习宣传贯彻习近平总书记重要指示和重要讲话精神，是当前全区上下的头等大事和首要政治任务。要认真组织传达学习，把学习习近平总书记的重要指示和重要讲话精神作为主题教育的重要内容，组织广大党员干部深学细悟笃行。要广泛开展宣传宣讲，切实把习近平总书记对内蒙古的深情关怀和殷切期望传达到每一个基层党组织和每一名党员干部、传递给每一名农牧民群众，在全社会营造大抓学习贯彻的浓厚氛围。各地各部门要结合实际深入谋划贯彻落实的思路举措，加强督促检查和跟踪问效，推动习近平总书记重要指示和重要讲话精神落实落地。要抓紧动起来、干起来，主动从习近平总书记重要指示和重要讲话精神中找定位、找任务，弘扬蒙古马精神和“三北精神”，鼓足干劲、真抓实干，以工作实绩向习近平总书记和党中央报账交卷。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>25</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>呼和浩特市教育局关于做好年秋季全市基础教育教学用书选用征订工作的通知</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2018-07-18</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/fwyzt/jy/jy_zcfg/202005/t20200508_932432.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['呼和浩特市教育局关于做好2018年秋季全市基础教育教学用书选用征订工作的通知_ 呼和浩特市人民政府', '各旗县区教育局，直属学校、二级单位，师大附中、师大附属盛乐实验学校，经济技术开发区社会事业发展局：', '按照教育部办公厅《关于2014年中小学教学用书有关事项的通知》（教基二厅〔2014〕1号）、自治区教育厅《关于规范中小学教科书选用工作的规定》（内教基函〔2014〕116号）、自治区教育厅《转发教育部办公厅关于2018年中小学教学用书有关事项的通知》（内教基函〔2018〕27号）、自治区教育厅《关于2018年自治区中小学地方课程教学用书的通知》（内教基函〔2018〕33号）和自治区教育厅《关于2018年自治区中小学教辅材料有关事项的通知》（内教基函〔2018〕45号）等文件要求，组织实施了我市中小学教学用书的选用工作，现将呼和浩特市2018年全市基础教育教学用书征订工作要求如下，请各地区、各学校认真做好征订工作。', '一、二年级和七、八年级统一使用统编《道德与法制》、《语文》教程；七、八年级统一使用统编《历史》教材。一、二年级使用审定通过对增编小学《科学》教材，三到六年级使用现行教材。由于小学科学教材的修订审查工作尚未全部结束，2018年我市选定的教育科学出版社编写《科学》（一年级至二年级）将延期至2019年使用。', '特殊教育学校义务教育阶段相关学科相应年级原则上使用特殊教育新编教材，没有新编教材的学科和年级沿用原版本教材。', '体育运动学校七、八年级《道德与法制》、《语文》使用国家统编教材，其他学科使用体育运动学校专用新编教材。没有新编实验教材的年级仍沿用原版教材。', '全市义务教育阶段教学用书由自治区教育厅统一配发，教学用书按我市教学用书目录（详见附件1、附件2）进行征订。全市高中阶段教学用书严格按我市教学用书目录范围进行征订（详见附件3）。请各地区、各学校根据课时要求，合理安排相关课程，课时不足的课程，可以作为专题性读本要求学生自学，并采用适当方式考察学生学习效果。', '按照自治区要求，市直属义务教育阶段学校要向属地教育局征订各学科教学用书，并统一上报市教育局。具体安排如下：呼市蒙古族学校上报新城区教育局；呼市回民中学上报回民区教育局；呼和浩特土默特学校上报玉泉区教育局；呼市第四中学、呼市第十七中学、内蒙古师范大学附属中学上报赛罕区教育局；内蒙古师范大学附属盛乐实验学校上报和林县教育局；金川学校上报土左旗教育局。', '按照自治区教育厅、新闻出版局、发改委、纠风办联合下发的《关于加强中小学教辅材料使用管理工作的实施意见的通知》（内教基字〔2012〕24号）文件要求，学生在自愿的前提下要求学校代购，学校可统一代购，但不得从中牟利。学校代购的教辅材料，必须按照现行中小学教材发行渠道征订。教辅材料推荐目录执行《呼和浩特市教育局关于印发中小学有关学科同步练习教辅材料推荐结果的通知》（呼教办字〔2012〕147号），教辅材料目录详见附件4。假期作业和幼儿园教师用书选用范围详见附件5。', '1．按照自治区教育厅、内蒙古新华发行集团《关于填报2014年秋季学期免费教科书订数的紧急通知》（内教基函〔2014〕40号）要求，教学用书的征订工作由各旗县区教育局审定完成，由内蒙古新华发行集团统计好订数后交市教育局和新华发行集团呼市分公司共同确认后方可报自治区教育厅。', '2．各地区、各学校要严格按照呼和浩特市2018年秋季基础教育教学用书选用范围征订的各学科教学用书，不得超范围征订。为保证教学工作的连续性，各学科教学用书版本一经选定，使用过程中不得中途随意更换。', '3．义务教育汉语授课免费教科书英语教材配套音像制品供应方式为：农村学校继续为学生选用磁带，其他学校学生均选用光盘。', '4．教学用书、教辅材料的征订必须通过有发行教材资质的部门进行，坚决杜绝学校和个人通过非法渠道征订。', '5．旗县区教育局要从学生使用的教学用书、教辅材料入手，加强用书管理。严禁各学校借各种课题实验、评先进、挂各类“优秀学校”牌匾等名目搞搭配征订，也不得组织和要求学生统一购买各种专题教育读本、活动课程教材等。旗县区教育局要联合纪检监察部门对群众反映较大，有乱订、乱编、乱印、乱收费现象的学校和个人进行严肃查处。市教育局将不定期地进行抽查，并予以通报。', '请各学校按照高中新课程实验的要求，合理安排课程计划，并提前做好各学科教材的征订工作。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>25</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>关于做好全市年专业技术人员继续教育工作的通知</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2023-02-06</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/srlzyhshbzj_22410/fdzdgknr/zdlyxx/wgjy_48546/wgjy1/202302/t20230206_1475887.html</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['各旗县区人力资源和社会保障局，呼和浩特经济技术开发区科技人才局，和林格尔新区党群工作部，市各部、委、办、局，各企事业单位，各市级专业技术人员继续教育基地：', '为加强专业技术人员继续教育工作，促进专业技术人员队伍建设，提升专业技术人员能力素质，根据自治区人力资源和社会保障厅《关于做好2023年全区专业技术人员继续教育有关工作的通知》（内人社办发〔2022〕220号），结合我市实际，现就做好我市2023年专业技术人员继续教育工作通知如下：', '我市企事业单位专业技术人员应按规定参加继续教育。每年参加继续教育累计应不少于90学时，其中，公需科目不少于30学时，专业科目不少于60学时。继续教育培训时间截止到2023年12月31日。', '（一）公需科目。围绕学习贯彻党的二十大精神、“十四五”规划、“五大发展任务”精神解读、铸牢中华民族共同体意识等内容开展公需科目培训，公需科目开展网络培训。市本级单位由呼和浩特市人事考试中心、呼和浩特职业学院组织实施，各旗县区公需科目培训由当地人社部门组织实施。', '（二）专业科目。市本级单位专业科目培训仍实行备案制度。市各主管部门在开展2023年专业课程培训前需履行备案手续。专业课培训须根据本部门行业特点开展并结合实际需求自行确定专业科目培训内容，并对培训内容、培训形式、培训时间、培训地点、师资情况、使用教材及培训人数等做出详细的计划，于2023年2月28日前报市人力资源和社会保障部门备案，事前不备案的项目不得认定继续教育学时。各旗县区专业科目由旗县区人力资源和社会保障部门商旗县区各主管部门确定。专业科目培训学时不少于60学时。', '专业技术人员参加继续教育情况作为专业技术人员考核、聘任和申报评审职称的重要条件，用人单位要支持专业技术人员参加继续教育学习，提供必要的学习条件、时间和相关保障。', '（一）职称评审学时要求：申报高、中级职称评审的人员，需按要求完成近三年（2021年、2022年、2023年）公需科目和专业科目学习，申报初级职称评审的人员，需按要求完成2023年公需科目和专业科目学习。', '（二）考核认定学时要求：申请考核认定的专业技术人员，应按照考核认定年限参加继续教育学习。大学本科、专科毕业认定助理级，需完成2023年公需科目和专业科目学时；硕士研究生认定中级职称，需完成近两年（2022年、2023年）公需科目和专业科目继续教育学时，博士研究生认定中级职称不要求继续教育学时。', '（一）按年龄减免学时规定：男满55周岁、女满50周岁的专业技术人员参加职称评审时，不再要求继续教育学时；男满50周岁、女满45周岁的专业技术人员参加职称评审时，达到近三年中一个年度学时要求即可。', '（二）非公有制经济领域学时规定：非公有制经济领域专业技术人员参加职称评审时，继续教育学时数作为评审参考因素。（非公有制领域专业技术人员自愿参加继续教育学习的，按照属地管理原则，可向企业所在地旗县区人力资源和社会保障部门咨询，联系方式见附件1）。', '（三）基层一线专业技术人员学时规定：乡镇等基层一线专业技术人员参加职称评审时，继续教育学时数作为评审参考因素。', '（四）疫情防控一线工作的医疗卫生专业技术人员学时规定：援鄂医疗卫生人员和自治区内外收治确诊病患医疗机构直接参与医疗救治的一线医务人员在申报职称时，不要求继续教育学时。', '（五）“三科”教师业务培训学时规定：全市教材改革涉及的“三科”教师参加业务集中培训和线上培训的学时均可计入当年继续教育专业科目学时。', '（六）学时折合规定：参加各类高研班、学术交流、进修考察等培训学习的，可依据相关证书，折合相应专业科目学时。凡在自治区参加各类职业资格考试成绩合格的，视同完成取得证书年度的专业科目学时。', '（七）从党政机关调入企事业单位人员评审学时规定：党政机关工作人员转任到企事业单位专业技术岗位，当年参加职称评审时，不要求继续教育学时。非当年参加评审的，按转任年限要求继续教育学时。', '（八）技能人员申报职称评审学时规定：高技能人才参加职业技能培训或其他专业培训，可折合专业科目培训学时。', '（一）审验卡网上打印工作。各旗县区人力资源和社会保障局，各行业主管部门、各市级专业技术人员继续教育基地做好继续教育培训数据传输和信息对接工作，确保本年度全市继续教育审验卡全面实现网上打印。', '继续教育基地要深刻认识做好专业技术人员继续教育工作的重要意义，进一步加强专业技术人才队伍建设，为我市专业技术人员提供优质的继续教育服务。', '（一）基地设立基本条件。设立市级继续教育基地的单位应具有丰富的培养培训专业技术人员经验，在本地区、本行业具有一定影响力，并具备以下基本条件：', '1.具有满足培训需要、相对稳定、密切联系科研生产一线的高素质专（兼）职师资队伍。专（兼）职师资应当具有较高理论水平、实践经验，在本专业领域具有较高影响力和公认度；', '2.有健全的继续教育管理机构及从事继续教育管理的专（兼）职人员。有健全的教学组织管理、学员考核管理，教学科研管理，培训登记管理，培训经费管理，后勤保障管理以及规范的培训效果评估，跟踪反馈等基地管理制度；', '3.能为基地基本建设和日常工作提供配套经费保障。具备与所承担的专业技术人员培训任务相适应的固定教室、教学设备，专业图书资料及相应的硬件设施；专业性强的领域或继续教育科目，还要有能供专业技术人员进行实训的场所或实训合作单位；', '4.具备现代化远程教育条件，具有满足网络培训所需的教学设备和基础设施，建立网络化的培训和管理信息平台，实现网上培训和网络互动交流；', '5.事业单位须提供机构编制部门下达的职能配置批复，其他单位须提供有关部门批准的具有培训资质的许可证书或文件复印件。', '（三）市级继续教育基地开展培训要求：各市继续教育基地培训前须上报培训计划，培训计划包括培训时间、地点、内容、师资和报名人员花名册（见附件4）。', '各继续教育基地在培训工作结束后一周内须提交培训总结，培训总结主要包括培训开展情况、培训花名册（电子版）、培训效果评估表（见附件5）、学员签到表（见附件6）、面授图片资料或网络培训截图（和学员名单顺序一致）等内容。培训情况报告审核通过后，各市继续教育基地通过自治区继续教育审验系统上报数据。', '（一）新闻、出版及其他领域行业主管部门举办的专业培训进修等，各级人社部门应予以认可并按规定核定专业科目学时。', '（二）有条件的旗县区人力资源和社会保障局和继续教育基地可组织补学往年专业科目课程。', '（三）加大监督检查力度。我市将对市本级继续教育基地的专业科目培训进行抽查和巡查，着重对面授培训的时间和人数等情况开展专项、随机检查，发现弄虚作假、违规办班等情况的，按照相关规定追究有关人员责任。', '专业技术人员继续教育是对专业技术人员进行知识更新、拓展和提高的一个重要渠道，是提高专业技术人员整体素质，优化知识结构，推动科技进步和管理现代化的重要手段，请各旗县区、市直各部门高度重视，加强领导，明确责任，精心组织，尽快部署，确保做好2023年专业技术人员继续教育工作。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>25</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>呼和浩特市体育局召开党组理论中心组扩大年第次集体学习会</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2022-07-20</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/wugongkai/zhixinggk/shehuigy/ggty/202207/t20220720_1321095.html</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['呼和浩特市体育局召开党组理论中心组（扩大）2022年第7次集体学习会_ 呼和浩特市人民政府', '7月19日上午，呼和浩特市体育局召开党组理论中心组（扩大）2022年第7次集体学习会。会议由党组书记、蔡铁雷主持。呼和浩特市体育局领导班子成员，各科室和局属各二级单位负责人、局系统副科级以上干部参加。', '会议集中学习了习近平总书记在新疆考察时的重要讲话精神和在湖北武汉考察时的重要讲话精神，学习了总书记在《求是》杂志发表的重要文章《把中国文明历史研究引向深入 增强历史自觉坚定文化自信》，传达学习了全区党代表会议和经济高质量发展座谈会精神，以及市委有关意识形态工作文件精神。与会人员围绕首府体育事业高质量发展进行了研讨交流。', '会议要求，必须坚持好理论中心组学习和支部集中学习制度，第一时间学习习近平总书记最新重要讲话精神，坚持学原文、悟原理，经常学、反复学，不断提高思想觉悟，统一思想认识，激发工作干劲。要认真学习习近平总书记关于加强和改进民族工作的重要思想，不断教育引导体育系统的干部职工树立正确的国家观、历史观、民族观、文化观、宗教观，增进对伟大祖国、中华民族、中华文化、中国共产党、中国特色社会主义的认同。要落实好今年全市创建全国民族团结进步示范市工作任务，结合体育职能职责，开展创建活动。', '会议强调，机关各科室和各二级单位要切实落实好意识形态工作责任制，压实主体责任，定期分析研判，掌握好所属人员的思想动态，及时掌握各种苗头性倾向性问题，防范化解体育领域意识形态领域风险。要重视体育理论和业务知识的学习，特别是要加强对习近平总书记关于体育的重要论述精神的学习理解，注重学用结合、学以致用，持续推进首府体育事业高质量发展。', '会议还部署安排了《呼和浩特市体育事业“十四五”发展规划》任务分解、体育公园建设、疫情防控、安全管理和党建等工作。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>25</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>关于做好全市年专业技术人员继续教育工作的通知</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2024-01-08</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/srlzyhshbzj_22410/fdzdgknr/zdlyxx/wgjy_48546/wgjy1/202401/t20240108_1644484.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['各旗县区人力资源和社会保障局，呼和浩特经济技术开发区科技人才局，和林格尔新区党群工作部，市各部、委、办、局，各企事业单位，各市级专业技术人员继续教育基地：', '为全面推进分类分层的专业技术人员继续教育体系建设，开展大规模知识更新继续教育，持续提升专业技术人员能力素质，根据内蒙古自治区人力资源和社会保障厅《关于做好2024年全区专业技术人员继续教育工作的通知》（内人社办发〔2023〕204号），结合我市实际，现就做好我市2024年专业技术人员继续教育工作通知如下：', '我市企事业单位专业技术人员应该按规定参加继续教育。每年参加继续教育累计应不少于90学时，其中公需科目不少于30学时，专业科目不少于60学时。2024年继续教育培训从2024年1月1日开始，至12月31日截止。', '（一）公需科目。围绕培育和践行社会主义核心价值观，铸牢中华民族共同体意识，切实办好“两件大事”，在科技创新、数字经济、绿色发展及乡村振兴等领域开展培训。公需科目实行网络培训，考试合格后取得相应学时。市本级单位由呼和浩特市人事考试中心、呼和浩特职业学院组织实施，各旗县区公需科目培训由当地人力资源社会保障部门组织实施。', '（二）专业科目。市本级单位专业科目培训仍实行备案制度。市各主管部门在开展2024年专业课程培训前需履行备案手续。专业课培训须根据本部门行业特点开展并结合实际需求自行确定专业科目培训内容，并对培训内容、培训形式、培训时间、培训地点、师资情况、使用教材及培训人数等做出详细计划，于2024年1月31日前报市人力资源和社会保障部门备案，事前不备案的项目不得认定继续教育学时。各旗县区专业科目由旗县区人力资源和社会保障部门商旗县区各行业主管部门确定。', '继续教育培训是专业技术人员考核、聘任和申报职称评审的重要条件，企事业单位应支持专业技术人员参加继续教育学习，提供必要的学习条件、时间和相关保障。', '（一）申报职称评审学时要求：专业技术人员申报高、中级职称评审，需完成近三年（2022年、2023年、2024年）公需科目和专业科目学习（符合学时减免政策人员按相关规定执行）；申报初级职称评审，需完成当年（2024年）公需科目和专业科目学习。', '（二）申请考核认定学时要求：高等院校毕业生在乡镇、村基层单位从事本专业或相近专业技术工作，申请考核认定职称时，应按照考核认定要求年限完成继续教育学习。', '（一）按年龄减免学时规定：男满55周岁、女满50周岁的专业技术人员参加职称评审时，不再要求继续教育学时；男满50周岁、女满45周岁的专业技术人员参加职称评审时，完成近三年中一个年度学时要求即可。', '（二）非公有制经济领域和基层一线专业技术人员学时规定：鼓励非公有制经济领域和乡镇等基层一线专业技术人员积极参加继续教育，在参加2024年度职称评审时，不要求继续教育学时，相关学习经历作为评审参考因素。', '（三）出站博士后申报职称学时规定：在站期间获得中国博士后科学基金资助或主持省部级以上科研项目、出站后留在呼和浩特市工作的专业技术人员，申请考核认定高级职称时，不要求继续教育学时。', '（四）疫情防控一线的医疗卫生专业技术人员学时规定：符合疫情防控职称评审倾斜政策的专业技术人员在申报职称时，不要求疫情防控年度的继续教育学时。', '（五）“三科”教师业务培训学时规定：全市教材改革涉及的“三科”教师参加业务集中培训和线上培训的学时均可计入当年继续教育专业科目学时。', '（六）学时折合规定：专业技术人员参加各类高研班、论坛、学术交流、进修考察等培训学习，均可依据相关证书折合相应继续教育专业科目学时。凡在自治区参加各类职业资格考试成绩合格的，视同完成取得证书年度的继续教育专业科目学时要求。', '（七）从党政机关调入企事业单位人员学时规定：党政机关工作人员转任到企事业单位专业技术岗位，当年参加职称评审时，不要求继续教育学时；非当年参加评审的，应按转任实际年限（年度），完成继续教育学时要求。', '（八）技能人员申报职称学时规定：高技能人才申报职称评审时，参加职业技能培训或其他专业培训取得的学时可1：1折合继续教育专业科目学时。', '（九）破格人员学时规定：专业技术人员破格申报职称评审时，按实际任职年限（年度），完成继续教育学时要求。', '各旗县区人力资源和社会保障局，各行业主管部门、各市级专业技术人员继续教育基地做好继续教育培训数据传输和信息对接工作，确保专业技术人员顺利完成继续教育审验。市级各继续教育基地开展培训要求如下：', '（一）上报培训计划。市各继续教育基地须在培训前上报培训计划，培训计划包括培训时间、地点、内容、师资和报名人员花名册（见附件4）', '继续教育基地要深刻认识做好专业技术人员继续教育工作的重要意义，进一步加强专业技术人才队伍建设，为我市专业技术人员提供优质的继续教育服务。', '（一）基地设立基本条件。设立市级继续教育基地的单位应具有丰富的培养培训专业技术人员经验，在本地区、本行业具有一定影响力，并具备以下基本条件：', '1.具有满足培训需要、相对稳定、密切联系科研生产一线的高素质专（兼）职师资队伍。专（兼）职师资应当具有较高理论水平、实践经验，在本专业领域具有较高影响力和公认度；', '2.有健全的继续教育管理机构及从事继续教育管理的专（兼）职人员。有健全的教学组织管理、学员考核管理，教学科研管理，培训登记管理，培训经费管理，后勤保障管理以及规范的培训效果评估，跟踪反馈等基地管理制度；', '3.能为基地基本建设和日常工作提供配套经费保障。具备与所承担的专业技术人员培训任务相适应的固定教室、教学设备，专业图书资料及相应的硬件设施；专业性强的领域或继续教育科目，还要有能供专业技术人员进行实训的场所或实训合作单位；', '4.具备现代化远程教育条件，具有满足网络培训所需的教学设备和基础设施，建立网络化的培训和管理信息平台，实现网上培训和网络互动交流；', '5.事业单位须提供机构编制部门下达的职能配置批发，其它单位须提供有关部门批准的具有培训资质的许可证书或文件复印件。', '（三）市级继续教育基地开展培训要求：各市继续教育基地培训前须上报培训计划，培训计划包括培训时间、地点、内容、师资和报名人员花名册（见附件4）。', '各继续教育基地在培训工作结束后一周内须提交培训总结，培训总结主要包括培训开展情况、培训花名册（电子版）、培训效果评估表（见附件5）、学员签到表（见附件6）、面授图片资料或网络培训截图（和学员名单顺序一致）等内容。培训情况报告审核通过后，各市继续教育基地通过自治区继续教育审验系统上报数据。', '各旗县区、各行业主管部门围绕服务经济社会高质量发展需求，在新一代信息技术、新能源和乡村振兴等重点领域组织实施专业技术人才知识更新能力提升项目，2024年1月底前制定当年培养培训计划（见附件7），并于11月20日前报送项目实施情况总结。计划表及总结报送至市人力资源和社会保障局专业技术人员管理科。', '（一）行业主管部门举办的专业培训进修等，各级人社部门应予以认可并按规定核定专业科目学时。', '（三）市级继续教育基地及旗县区人力资源和社会保障部门应积极主动对接内蒙古人才信息库，于2024年2月底前全面实现继续教育信息动态归集。', '继续教育工作是加强市本级专业技术人员队伍建设的重要抓手，请各旗县区、市直各部门高度重视，加强领导，明确责任，精心组织，尽快部署，确保做好2024年专业技术人员继续教育工作。', '7.2024年呼和浩特市专业技术人才知识更新工程专业技术人员能力提升项目培养培训计划表（旗县区及各委办局）']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>25</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>习近平在福建考察</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2021-03-26</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tt_1/202103/t20210326_856635.html</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山市星村镇燕子窠生态茶园，同科技特派员、茶农亲切交流，了解当地茶产业发展情况。新华社记者 燕雁 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山市星村镇燕子窠生态茶园，同科技特派员、茶农亲切交流，了解当地茶产业发展情况。', '新华社福州3月25日电 中共中央总书记、国家主席、中央军委主席习近平近日在福建考察时强调，要落实党中央决策部署，坚持稳中求进工作总基调，立足新发展阶段、贯彻新发展理念、构建新发展格局，深化供给侧结构性改革，扩大改革开放，推动科技创新，统筹疫情防控和经济社会发展，统筹发展和安全，在加快建设现代化经济体系上取得更大进步，在服务和融入新发展格局上展现更大作为，在探索海峡两岸融合发展新路上迈出更大步伐，在创造高品质生活上实现更大突破，奋力谱写全面建设社会主义现代化国家福建篇章。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日上午，习近平在三明沙县总医院住院楼一层大厅，同医护人员、患者亲切交流。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州三坊七巷历史文化街区考察时，向游客和市民招手致意。新华社记者 鞠鹏 摄', '仲春时节，八闽大地一派勃勃生机。3月22日至25日，习近平在福建省委书记尹力、省长王宁陪同下，先后来到南平、三明、福州等地，深入国家公园、生态茶园、文物保护单位、医院、农村、企业、学校等，就贯彻党的十九届五中全会精神、推动“十四五”开好局起好步、统筹推进常态化疫情防控和经济社会发展等进行调研。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山国家公园智慧管理中心，察看智慧管理平台运行情况。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山国家公园智慧管理中心同游客亲切交流。新华社记者 王晔 摄', '武夷山国家公园是首批国家公园体制试点之一。22日下午，习近平来到公园智慧管理中心，察看智慧管理平台运行情况。该中心综合运用智能化技术，实现了对公园“天地空”全方位、全天候监测管理，提升了生态保护能力。习近平对生态文明建设高度重视，在福建工作期间就推动了长汀水土流失治理、木兰溪防洪工程等重大生态保护工程，并于2000年推动福建率先在全国探索生态省建设。经过长期努力，福建生态文明建设取得了积极成效。习近平指出，建立以国家公园为主体的自然保护地体系，目的就是按照山水林田湖草是一个生命共同体的理念，保持自然生态系统的原真性和完整性，保护生物多样性。要坚持生态保护第一，统筹保护和发展，有序推进生态移民，适度发展生态旅游，实现生态保护、绿色发展、民生改善相统一。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山市星村镇燕子窠生态茶园，察看春茶长势，了解当地茶产业发展情况。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山市星村镇燕子窠生态茶园，察看春茶长势，了解当地茶产业发展情况。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山市星村镇燕子窠生态茶园，同科技特派员、茶农亲切交流，了解当地茶产业发展情况。新华社记者 鞠鹏 摄', '武夷山是乌龙茶、红茶的发源地。习近平来到星村镇燕子窠生态茶园，察看春茶长势，了解当地茶产业发展情况。习近平强调，要统筹做好茶文化、茶产业、茶科技这篇大文章，坚持绿色发展方向，强化品牌意识，优化营销流通环境，打牢乡村振兴的产业基础。要深入推进科技特派员制度，让广大科技特派员把论文写在田野大地上。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山朱熹园，了解朱熹生平及理学研究等情况。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山朱熹园考察时，向游客招手致意。新华社记者 王晔 摄', '离开茶园，习近平乘竹筏沿九曲溪察看生态环境保护情况和自然景观。在九曲溪畔的朱熹园，习近平详细了解朱熹生平及理学研究等情况。他指出，要推动中华优秀传统文化创造性转化、创新性发展，以时代精神激活中华优秀传统文化的生命力。要把坚持马克思主义同弘扬中华优秀传统文化有机结合起来，坚定不移走中国特色社会主义道路。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日上午，习近平在三明沙县总医院住院楼一层大厅，听取医改情况介绍。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日上午，习近平在三明沙县考察时向群众挥手致意。新华社记者 王晔 摄', '近年来，三明医改以药品耗材治理改革为突破口，坚持医药、医保、医疗改革联动，为全国医改探索了宝贵经验。2016年2月，习近平主持中央全面深化改革领导小组会议，听取了三明医改情况汇报，要求总结推广改革经验。23日上午，习近平来到三明市沙县总医院，在住院楼一层大厅听取医改情况介绍，向医护人员、患者了解医改惠民情况。习近平强调，人民健康是社会主义现代化的重要标志。三明医改体现了人民至上、敢为人先，其经验值得各地因地制宜借鉴。要继续深化医药卫生体制改革，均衡布局优质医疗资源，改善基层基础设施条件，为人民健康提供可靠保障。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日下午，习近平在三明沙县夏茂镇俞邦村考察时，向村民挥手致意。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日下午，习近平在三明沙县夏茂镇俞邦村考察时，同村民亲切交流。新华社记者 王晔 摄', '福建发扬习近平在宁德工作时提出的弱鸟先飞、滴水穿石精神，下大气力抓摆脱贫困。经过30多年努力，福建全省同全国一道，彻底消除了绝对贫困。23日下午，习近平来到革命老区村——沙县夏茂镇俞邦村，在小吃摊边、特产店里、村民家门前，同乡亲们亲切交谈，详细了解沙县小吃发展现状和前景。习近平指出，沙县人走南闯北，把沙县小吃打造成了富民特色产业。乡村要振兴，因地制宜选择富民产业是关键。要抓住机遇、开阔眼界，适应市场需求，继续探索创新，在创造美好生活新征程上再领风骚。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日下午，习近平在三明沙县夏茂镇俞邦村考察时，在小吃摊边同乡亲们亲切交谈。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日下午，习近平在三明沙县夏茂镇俞邦村考察时，在小吃摊边同乡亲们亲切交谈。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日下午，习近平在三明沙县夏茂镇俞邦村考察时，同乡亲们亲切交流。新华社记者 王晔 摄', '习近平在福建工作时推动开展了集体林权制度改革，试行“分山到户、均林到人”，实现“山定权、树定根、人定心”。在沙县农村产权交易中心，习近平听取集体林权制度改革介绍，向办事群众和工作人员了解集体林地经营权流转交易、不动产登记等情况。习近平指出，三明集体林权制度改革探索很有意义，要坚持正确改革方向，尊重群众首创精神，积极稳妥推进集体林权制度创新，探索完善生态产品价值实现机制，力争实现新的突破。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日下午，习近平在三明沙县农村产权交易中心考察。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日下午，习近平在三明沙县农村产权交易中心考察时，同工作人员、办事群众等亲切交流。新华社记者 王晔 摄', '习近平24日在福州考察调研。在福州工作期间习近平领导实施了福州市“3820”工程，勾画跨世纪福州现代化建设宏伟蓝图。在福山郊野公园，习近平乘坐电瓶车实地了解郊野福道风貌，他登上观景平台，远眺福州新貌，听取城市生态公园规划建设、城市水系综合治理情况汇报。市民们看到总书记来了，争相围拢过来。习近平指出，建设好管理好一座城市，要把菜篮子、人居环境、城市空间等工作放到重要位置切实抓好。福州是有福之州，生态条件得天独厚，希望继续把这座海滨城市、山水城市建设得更加美好，更好造福人民群众。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福山郊野公园乘坐电瓶车实地了解郊野福道风貌。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福山郊野公园观景平台，听取城市生态公园规划建设、城市水系综合治理情况汇报。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福山郊野公园考察时，向市民们招手致意。新华社记者 鞠鹏 摄', '福州三坊七巷历史文化街区保留了唐宋遗留下来的坊巷格局和大量明清古建筑。早在1991年，习近平在福州工作期间就召开文物工作现场办公会，推动制定福州历史文化名城保护管理条例和保护规划，有力促进了城市历史文化传承保护工作。习近平听取福州古厝和三坊七巷保护修复等情况介绍，步行察看南后街、郎官巷，参观严复故居，向游客和市民频频招手致意。习近平强调，保护好传统街区，保护好古建筑，保护好文物，就是保存了城市的历史和文脉。对待古建筑、老宅子、老街区要有珍爱之心、尊崇之心。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州三坊七巷历史文化街区步行察看南后街。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州三坊七巷历史文化街区步行察看郎官巷。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州三坊七巷历史文化街区参观严复故居。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州三坊七巷历史文化街区考察时，向游客和市民招手致意。新华社记者 燕雁 摄', '福建福光股份有限公司是光学镜头重要制造商。习近平步入公司展厅，察看产品展示，询问企业技术创新和生产销售情况。超精密车间内，企业员工向总书记展示了产品生产工艺。习近平强调，我们国家进入科技发展第一方阵要靠创新，一味跟跑是行不通的，必须加快科技自立自强步伐。要坚持创新在现代化建设全局中的核心地位，把创新作为一项国策，积极鼓励支持创新。创新不问“出身”，只要谁能为国家作贡献就支持谁。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福建福光股份有限公司考察。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福建福光股份有限公司考察。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福建福光股份有限公司考察时，同企业职工亲切交流。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福建福光股份有限公司考察时，同企业员工亲切交流。新华社记者 鞠鹏 摄', '25日上午，习近平来到闽江学院考察调研。闽江学院前身是福州师范高等专科学校和闽江职业大学。在福州工作期间，习近平曾兼任闽江职业大学校长6年时间，提出的“不求最大、但求最优、但求适应社会需要”的办学理念影响深远。2018年10月，习近平曾就闽江学院成立60周年致贺信。在闽江学院校史和应用型办学成果展示厅，习近平肯定学院在坚持应用型办学、深化产教融合等方面取得的成绩。习近平指出，要把立德树人作为根本任务，坚持应用技术型办学方向，适应社会需要设置专业、打好基础，培养德智体美劳全面发展的社会主义建设者和接班人。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是25日上午，习近平在福州闽江学院，参观校史和应用型办学成果展示。新华社记者 王晔 摄', '校园广场上师生们高喊“总书记好”、“习校长好”，习近平向大家挥手致意。习近平强调，实现第二个百年奋斗目标，实现中华民族伟大复兴，青年一代责任在肩。希望同学们树立远大理想、热爱伟大祖国、担当时代责任、勇于砥砺奋斗、练就过硬本领、锤炼品德修为，努力成为对社会有用的人、道德高尚的人，积极投身全面建设社会主义现代化国家的伟大事业。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是25日上午，习近平在福州闽江学院考察时，同师生们亲切交流。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是25日上午，习近平在福州闽江学院考察时，向师生们挥手致意。新华社记者 王晔 摄', '当天上午，习近平听取了福建省委和省政府工作汇报，对福建各项工作取得的成绩给予肯定，希望福建在全方位推动高质量发展上取得新成效。', '习近平强调，推动高质量发展，首先要完整、准确、全面贯彻新发展理念。新发展理念和高质量发展是内在统一的，高质量发展就是体现新发展理念的发展。要坚持系统观念，找准在服务和融入构建新发展格局中的定位，优化提升产业结构，加快推动数字产业化、产业数字化。要加大创新支持力度，优化创新生态环境，激发创新创造活力。要深度融入共建“一带一路”，办好自由贸易试验区，建设更高水平开放型经济新体制。要突出以通促融、以惠促融、以情促融，勇于探索海峡两岸融合发展新路。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是23日下午，习近平在三明沙县夏茂镇俞邦村考察时，同村民亲切交流。新华社记者 鞠鹏 摄', '习近平指出，要加快推进乡村振兴，立足农业资源多样性和气候适宜优势，培育特色优势产业。要以实施乡村建设行动为抓手，改善农村人居环境，建设宜居宜业美丽乡村。要推进老区苏区全面振兴，倾力支持老区苏区特色产业提升、基础设施建设和公共服务保障等。要把碳达峰、碳中和纳入生态省建设布局，科学制定时间表、路线图，建设人与自然和谐共生的现代化。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福山郊野公园观景平台，听取城市生态公园规划建设、城市水系综合治理情况汇报。新华社记者 王晔 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福山郊野公园考察时，同市民们亲切交流。新华社记者 王晔 摄', '习近平强调，要着力提高人民生活品质，拓展居民收入增长的渠道，统筹做好高校毕业生、农民工、退役军人等重点群体就业。要全面贯彻党的教育方针，落实立德树人根本任务，坚持教育公益性原则，深化教育改革，办好人民满意的教育。要把保障人民健康放在优先发展的战略位置，织牢公共卫生防护网，推动公立医院高质量发展。要慎终如始做好“外防输入、内防反弹”的工作。要有效遏制重特大安全生产事故，推动扫黑除恶常态化。', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是25日上午，习近平在福州闽江学院考察时，同师生们亲切交流。新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是25日上午，习近平在福州闽江学院考察时，向师生们挥手致意。新华社记者 燕雁 摄', '习近平指出，福建是革命老区，党史事件多、红色资源多、革命先辈多，开展党史学习教育具有独特优势。要在党史学习教育中做到学史明理，明理是增信、崇德、力行的前提。要从党的辉煌成就、艰辛历程、历史经验、优良传统中深刻领悟中国共产党为什么能、马克思主义为什么行、中国特色社会主义为什么好等道理，弄清楚其中的历史逻辑、理论逻辑、实践逻辑。要深刻领悟坚持中国共产党领导的历史必然性，坚定对党的领导的自信。要深刻领悟马克思主义及其中国化创新理论的真理性，增强自觉贯彻落实党的创新理论的坚定性。要深刻领悟中国特色社会主义道路的正确性，坚定不移走中国特色社会主义这条唯一正确的道路。要把各领域基层党组织建设成为坚强战斗堡垒。要不断提高不敢腐、不能腐、不想腐的综合功效，持续巩固发展良好的政治生态。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>25</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>习近平贯彻新发展理念弘扬塞罕坝精神努力完成全年经济社会发展主要目标任务</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2021-08-26</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tt_1/202108/t20210826_1018337.html</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['习近平：贯彻新发展理念弘扬塞罕坝精神 努力完成全年经济社会发展主要目标任务_ 呼和浩特市人民政府', '新华社承德8月25日电 中共中央总书记、国家主席、中央军委主席习近平近日在河北省承德市考察时强调，要全面落实党中央决策部署，坚持稳中求进工作总基调，完整、准确、全面贯彻新发展理念，弘扬塞罕坝精神，切实抓好统筹疫情防控和经济社会发展各项工作，更好统筹发展和安全，推动高质量发展，努力完成全年经济社会发展主要目标任务，实现“十四五”良好开局。', '8月23日至24日，习近平在河北省委书记王东峰、省长许勤陪同下，深入国有林场、文物保护单位、农村、社区等进行调研。', '8月23日至24日，中共中央总书记、国家主席、中央军委主席习近平在河北省承德市考察。这是23日下午，习近平在塞罕坝机械林场月亮山考察。新华社记者 谢环驰 摄', '8月23日至24日，中共中央总书记、国家主席、中央军委主席习近平在河北省承德市考察。这是23日下午，习近平在塞罕坝机械林场月亮山考察。新华社记者 李学仁 摄', '23日下午，习近平首先考察了位于河北省最北部的塞罕坝机械林场。八月的塞罕坝，林海苍翠连绵。林场始建于1962年。近60年来，塞罕坝林场的建设者们听从党的召唤，在“黄沙遮天日，飞鸟无栖树”的荒漠沙地上艰苦奋斗、甘于奉献，创造了荒原变林海的人间奇迹。习近平来到海拔1900米的月亮山，远眺林场自然风貌，听取河北省统筹推进山水林田湖草沙系统治理和塞罕坝机械林场情况介绍，对林场打造人防、技防、物防相结合的一体化资源管护体系，守护森林资源安全取得的成绩给予肯定。习近平强调，我国人工林面积世界第一，这是非常伟大的成绩。塞罕坝成功营造起百万亩人工林海，创造了世界生态文明建设史上的典型，林场建设者获得联合国环保最高荣誉——地球卫士奖，机械林场荣获全国脱贫攻坚楷模称号。希望你们珍视荣誉、继续奋斗，在深化国有林场改革、推动绿色发展、增强碳汇能力等方面大胆探索，切实筑牢京津生态屏障。月亮山上建有集防火瞭望和资源管护为一体的望海楼。习近平亲切看望驻守望海楼13年的护林员刘军、王娟夫妇，并登上望海楼，详细了解他们的日常工作和饮食起居情况，称赞他们默默坚守、无私奉献，守护了塞罕坝生态安全。', '8月23日至24日，中共中央总书记、国家主席、中央军委主席习近平在河北省承德市考察。这是23日下午，习近平在塞罕坝机械林场月亮山考察时，亲切看望护林员刘军、王娟夫妇。新华社记者 谢环驰 摄', '尚海纪念林位于塞罕坝机械林场原马蹄坑造林会战区，是百万亩林海起源地。习近平来到这里，沿木栈道步行察看林木长势，了解动植物保护等情况。习近平对林场的工作给予肯定，并再三叮嘱，防火责任重于泰山，要处理好防火和旅游的关系，坚持安全第一，切实把半个多世纪接续奋斗的重要成果抚育好、管理好、保障好。要加强林业科研，推动林业高质量发展。离开纪念林前，习近平同林场三代职工代表亲切交流，询问他们工作生活情况，共话林场沧桑巨变，共谋林场未来发展。习近平强调，塞罕坝林场建设史是一部可歌可泣的艰苦奋斗史。你们用实际行动铸就了牢记使命、艰苦创业、绿色发展的塞罕坝精神，这对全国生态文明建设具有重要示范意义。抓生态文明建设，既要靠物质，也要靠精神。要传承好塞罕坝精神，深刻理解和落实生态文明理念，再接再厉、二次创业，在实现第二个百年奋斗目标新征程上再建功立业。', '8月23日至24日，中共中央总书记、国家主席、中央军委主席习近平在河北省承德市考察。这是23日下午，习近平在塞罕坝机械林场尚海纪念林察看林木长势。新华社记者 谢环驰 摄', '8月23日至24日，中共中央总书记、国家主席、中央军委主席习近平在河北省承德市考察。这是23日下午，习近平在塞罕坝机械林场尚海纪念林考察时，同林场职工代表亲切交流。新华社记者 李学仁 摄', '24日上午，习近平考察了承德避暑山庄。承德避暑山庄始建于1703年，是第一批全国重点文物保护单位，被列入世界遗产名录。习近平察看山庄主要建筑和旅游服务设施，详细了解山庄历史和文物保护工作。习近平指出，我国是世界文化和自然遗产大国。承德避暑山庄底蕴深厚，在民族交往交流交融、宗教与社会相适应、传统文化保护和传承、人与自然和谐相处等方面具有重要历史价值和时代意义。要保护好、传承好、利用好中华优秀传统文化，挖掘其丰富内涵，以利于更好坚定文化自信、凝聚民族精神。游客们纷纷向总书记问好，习近平向大家挥手致意。', '8月23日至24日，中共中央总书记、国家主席、中央军委主席习近平在河北省承德市考察。这是24日上午，习近平在承德避暑山庄考察时，同游客亲切交谈。新华社记者 谢环驰 摄', '离开避暑山庄，习近平前往普宁寺考察调研。普宁寺始建于1755年，属于典型的汉藏合璧式寺庙。习近平仔细察看有关历史碑刻以及天王殿、大雄宝殿等建筑，听取宗教工作等情况汇报。习近平强调，要坚持党的宗教工作基本方针，坚持我国宗教的中国化方向，积极引导宗教与社会主义社会相适应，坚持独立自主自办原则，全面贯彻党的宗教信仰自由政策，弘扬爱国爱教优良传统，创建良好宗教环境，依法依规管理宗教事务，促进宗教更好顺应社会、服务社会、履行社会责任。', '8月23日至24日，中共中央总书记、国家主席、中央军委主席习近平在河北省承德市考察。这是24日上午，习近平在普宁寺考察。新华社记者 李学仁 摄', '随后，习近平来到承德博物馆，参观《望长城内外——清盛世民族团结实录》展览。习近平走进展厅，不时驻足察看，详细了解清代民族关系发展和多措并举维护民族团结、边疆稳定、国家统一等情况。习近平指出，我国是统一的多民族国家，在漫漫历史长河中形成了多元一体的中华民族。经过全党全国各族人民持续奋斗，我们实现了第一个百年奋斗目标，在中华大地上全面建成了包括少数民族和民族地区在内的小康社会。实践充分证明，只有中国共产党才能实现中华民族的大团结，只有中国特色社会主义才能凝聚各民族、发展各民族、繁荣各民族。要坚持中国共产党领导，坚持走中国特色解决民族问题的正确道路，全面贯彻党的民族理论和民族政策，不断巩固和发展平等团结互助和谐的社会主义民族关系。要围绕实现中华民族伟大复兴做好研史学史工作，整合历史研究资源和力量，提高研究水平和创新能力，更好总结历史经验、揭示历史规律、把握历史趋势。', '8月23日至24日，中共中央总书记、国家主席、中央军委主席习近平在河北省承德市考察。这是24日上午，习近平在承德博物馆参观《望长城内外——清盛世民族团结实录》展览。新华社记者 谢环驰 摄', '当天下午，习近平乘车来到位于滦河北岸的双滦区偏桥子镇大贵口村考察调研。习近平十分关心当地推进乡村振兴情况，走进村山谷市集、卫生室，了解特色农产品市场销路、品牌打造，以及改善村民医疗卫生条件、做好常态化疫情防控等情况。他指出，产业振兴是乡村振兴的重中之重，要坚持精准发力，立足特色资源，关注市场需求，发展优势产业，促进一二三产业融合发展，更多更好惠及农村农民。要加强农村基础设施和公共服务体系建设，加快补齐公共卫生服务这块短板，完善基层公共卫生设施，加强乡村精神文明建设，开展健康知识普及，倡导文明健康、绿色环保的生活方式。', '8月23日至24日，中共中央总书记、国家主席、中央军委主席习近平在河北省承德市考察。这是24日下午，习近平在双滦区偏桥子镇大贵口村同村民霍金一家人亲切交谈。新华社记者 谢环驰 摄', '习近平来到村民霍金家中看望。一家老小说起这些年生活无忧、子孙满堂，对如今的好日子感慨不已。习近平强调，民族要复兴，乡村必振兴。即使未来我国城镇化达到很高水平，也还有几亿人在农村就业生活。我们全面建设社会主义现代化国家，既要建设繁华的城市，也要建设繁荣的农村，推动形成工农互促、城乡互补、协调发展、共同繁荣的新型工农城乡关系。这只有在中国共产党领导和我国社会主义制度下才能实现。我们要通过实施乡村建设行动，深入开展农村人居环境整治，因地制宜、实事求是，一件接着一件办，一年接着一年干，把社会主义新农村建设得更加美丽宜居。', '8月23日至24日，中共中央总书记、国家主席、中央军委主席习近平在河北省承德市考察。这是24日下午，习近平在双滦区偏桥子镇大贵口村，同村民亲切交流。新华社记者 谢环驰 摄', '离开村子时，村民们热情欢呼：“总书记好！”习近平祝愿乡亲们的日子越来越红火、越来越幸福。', '傍晚时分，习近平来到承德市高新区滨河社区居家养老服务中心。近年来，该社区通过政府购买服务、企业运营、社会参与的方式，为社区提供居家养老服务，探索解决老年人健康医疗、生活照料等问题。习近平察看信息化平台、适老化改造等项目，详细询问服务范围、救助方式等事项。习近平指出，满足老年人多方面需求，让老年人能有一个幸福美满的晚年，是各级党委和政府的重要责任。要推动养老事业和养老产业协同发展，发展普惠型养老服务，完善社区居家养老服务网络，构建居家社区机构相协调、医养康养相结合的养老服务体系。要把老有所为同老有所养结合起来，研究完善政策措施，鼓励老年人继续发光发热，充分发挥年纪较轻的老年人作用，推动志愿者在社区治理中有更多作为。要发挥社区作为联防联控、群防群控的第一道防线作用，始终绷紧疫情防控这根弦，全面做好“外防输入、内防反弹”各项工作，坚决克服麻痹思想、厌战情绪、侥幸心理、松懈心态，毫不放松抓好疫情防控。', '8月23日至24日，中共中央总书记、国家主席、中央军委主席习近平在河北省承德市考察。这是24日下午，习近平在承德市高新区滨河社区居家养老服务中心，同老年志愿者亲切交谈。新华社记者 申宏 摄', '在社区广场上，习近平同社区群众亲切交流，他指出，在党的领导下，我国56个民族、14亿多人和睦共生。中国共产党人牢记为中国人民谋幸福、为中华民族谋复兴的初心使命，14亿多中国人拧成一股绳，在新时代中国特色社会主义道路上锲而不舍走下去，我们就一定能够实现中华民族伟大复兴。广场上掌声经久不息。', '8月23日至24日，中共中央总书记、国家主席、中央军委主席习近平在河北省承德市考察。这是24日下午，习近平在承德市高新区滨河社区考察时，同社区居民亲切交流。新华社记者 李学仁 摄']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>25</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>市委常委会召开会议传达学习贯彻习近平总书记近期重要讲话重要批示精神</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2023-06-15</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650093528&amp;idx=3&amp;sn=e3a7047383070839412b8e4e6b2149a8&amp;scene=0</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '6月14日，市委常委会召开会议，传达学习习近平总书记在中共中央政治局第五次集体学习时、在北京育英学校考察时、在二十届中央国家安全委员会第一次会议上、在文化传承发展座谈会上的重要讲话精神和关于浙江“千万工程”重要批示精神，传达学习自治区党委常委会会议精神，研究部署贯彻落实工作。自治区党委常委、市委书记包钢主持。', '会议强调，要深刻领会习近平总书记重要讲话、重要批示精神的核心要义，结合我市实际，全面抓好贯彻落实。要持续深化教育改革，教育、组织、人社、编制、户籍管理等部门要解放思想，坚决破除一切制约教育高质量发展的思想观念束缚和体制机制弊端，加快推进教育高质量发展，建设现代化教育强市;结合全市适龄儿童少年生源量，优化调整教育资源布局，避免资源浪费;进一步促进教育公平，加快推动集团化办学、强校建分校、强校带弱校等办学模式，增加小、初、高各学段优质学位供给;优化职业教育专业设置，围绕“六大产业集群”，推动产教融合、工学结合;深入实施“十万大学生留呼工程”，争取将更多驻呼高校毕业生留在首府。扎实做好推行使用国家统编教材工作，确保各民族青少年掌握和使用好国家通用语言文字。要深刻领会习近平总书记关于中华文明“五个突出特性”“第二个结合”的重要论述，深入挖掘城市文化内涵，保护传承好城市文脉、塑造好城市文明，切实把城市精神立起来。紧紧围绕铸牢中华民族共同体意识这条主线，建设好各民族共有精神家园。要认真贯彻总体国家安全观，切实维护好政治安全、经济安全、意识形态安全。要深入学习借鉴浙江“千万工程”经验，结合我市乡村人口流动和产业发展实际，扎实推进乡村振兴各项工作。', '会议听取了我市自建房安全专项整治、燃气安全隐患整治工作情况，强调要以时时放心不下的责任感抓好安全生产，对自建房、燃气管网领域安全隐患开展“回头看”，持续抓好项目工地、道路运输、消防、人员密集场所等重点领域安全生产隐患排查整治工作。', '会议要求，要高度重视第五次全国经济普查工作，坚守数据质量第一原则，查全、查准、查实我市经济运行情况，确保普查数据应统尽统、真实准确。', '会议还听取了市文联、社科联工作情况汇报，审议了《市委外事工作委员会2023年工作要点》等文件。']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>25</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>勇担使命久久为功筑牢我国北方重要生态安全屏障习近平总书记在内蒙古考察重要讲话引发我市干部群众强烈反响</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2023-06-14</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650093448&amp;idx=2&amp;sn=3e0dcc4a0b370b6a62095dbeced117f2&amp;scene=0</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['勇担使命久久为功 筑牢我国北方重要生态安全屏障——习近平总书记在内蒙古考察重要讲话引发我市干部群众强烈反响', '传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '连日来，习近平总书记的殷殷嘱托，鼓舞激励着我市广大干部群众。大家纷纷表示，要勇担使命，不负嘱托，大力弘扬蒙古马精神和“三北精神”，在首府广袤大地上书写生态文明建设的崭新篇章，把我国北方重要生态安全屏障构筑得牢不可破。', '赛罕区文体旅游广电局党组书记、局长郝晓虎说:“聆听了习近平总书记考察内蒙古时的重要讲话，内心无比激动且深受鼓舞和启发，围绕总书记提出的坚持走以生态优先、绿色发展为导向的高质量发展新路子，作为文旅部门，我们要进一步加大对绿色赛罕、生态赛罕的宣传和推广力度，结合赛罕区的生态建设和城区建设，按照‘一山一河一湾四带’的文旅产业布局，抓好文旅项目建设，推进文旅产业发展。”', '这几天，全国“三八”绿色奖章获得者贾改改怀着激动的心情把习近平总书记在内蒙古考察的新闻看了一遍又一遍。“我的父亲几十年如一日开荒种树，我接过父亲的接力棒，植树的脚步从未停歇，如今我的儿子学成返乡继续守护德胜梁的一草一木，我们三代人始终铭记着共产党员的使命，总书记的重要讲话给予了我们极大地动力，我将继续做好本职工作，积极引导群众共同守护好绿水青山，用更高标准、更严要求、更实作风，当好生态安全忠诚卫士。”贾改改动情地说。', '蒙草集团党委组织全体员工通过线上线下方式，收听收看习近平总书记在内蒙古考察的新闻，大家认真学习讨论、分享感受，纷纷表示，要始终牢记嘱托，小草扎根、久久为功，努力做好特色种业。“做生态修复技术研究必须要脚上带泥、身上带土。”蒙草集团研发中心技术总监邢旗说，“习近平总书记始终关心和牵挂生态保护和生态安全，蒙草人将牢记嘱托，勇于创新，以科技赋能草产业发展。在近30年的生态修复实践中，蒙草科研团队引种驯化、筛选繁育耐旱、耐风沙、抗逆性强的荒漠植物，在数字技术导航下，结合植树种草、围栏封育等技术，精准治理轻、中、重度荒漠化土地近千万亩，为防荒止漠提供了智慧方案。”', '学习了习近平总书记考察内蒙古的重要讲话，我市林业和草原部门的党员干部感觉肩上的担子更重了。“‘十四五’期间，清水河县将通过实施森林质量精准提升、森林抚育、低质低效林改造、退化草原修复等项目，完成生态保护修复建设任务49.9428万亩。聚焦‘三北’六期工程、黄河流域沙化土地可持续治理工程等重点工程，显著提升沿黄区域森林、草原、湿地的多样性、稳定性、持续性。力争在2025年前，完成沙化土地治理2.8万亩。达到森林资源总量有所增加，草原得到自然修复，植被明显恢复。同时，以林长制为总抓手，加强林草资源管护，进一步做好林地草地审核、提升林草智慧化管理水平，强化林草资源监管、加强自然保护地保护，严格落实禁牧休牧制度等。”清水河县林业和草原局局长云璐说。', '市林业和草原局新城分局局长李世珍表示:“学习了习近平总书记在内蒙古考察时的重要讲话深受鼓舞，也切实感受到责任重大。我们林草部门将深入践行习近平生态文明思想，统筹推进山水林田湖草沙一体化保护与系统治理，深入实施草原生态修复。沙地综合治理等重大工程，着力打造集草原、森林、沙地等生态要素于一体的全域生态防护格局。目前，新城区生态资源相对较好，我们要用心保护，精心呵护，一以贯之，久久为功，守护好来之不易的生态成果，为子孙后代留下一个山青、水秀、空气清新的美丽家园。”', '目前，新城区生态资源相对较好，我们要用心保护，精心呵护，一以贯之，久久为功，守护好来之不易的生态成果，为子孙后代留下一个山青、水秀、空气清新的美丽家园。”', '武川县林业和草原局局长薛树志结合工作经历谈了自己的心得体会:“一直以来，武川县都是我市重要的生态功能区，对于首府地区水源涵养、水土保持、防风固沙等都具有十分重要的意义。今后我们会在林草生态建设、保护和生态产业发展三个方面持续用力，做到持续‘增绿’、全面‘护绿’、科学‘用绿’，筑牢生态安全屏障，不畏艰辛，久久为功。”', '“总书记的重要讲话是对我们每一个林草人的激励和鼓舞，更是鞭策和要求，为我们接下来的工作提供了根本遵循和明确的方向。经过42年的不懈努力，我市累计完成‘三北’防护林体系工程建设475.4万亩，栽植苗木达到4亿株。通过实施退耕还林还草、京津风沙源治理、天然林资源保护、草原生态修复等一系列重点生态工程，‘十三五’至今，我市累计完成荒漠化综合防治任务329.12万亩，全市森林覆盖率和草原综合植被覆盖度实现‘双提升’;荒漠化和土地沙化面积实现‘双减少’。”市林业和草原局副局长郝利忠说，“作为生态文明建设的排头兵、主力军，市林草局将勇担使命、不畏艰辛、久久为功，主动担负起这项重大的政治责任。始终把生态环境保护放在前面，坚持山水林田湖草沙一体化保护和系统治理，以林长制为总抓手，加强林草资源管护，科学开展国土绿化，统筹森林、草原、湿地、荒漠生态保护修复，精心组织实施京津风沙源治理、退耕还林还草、‘三北’防护林体系建设等重点工程;落实禁牧休牧、防沙治沙等各项工作目标任务，全力打好三大标志性战役，以实际行动把我国北方重要生态安全屏障构筑得更加牢固。”']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>25</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>习近平在浙江考察时强调始终干在实处走在前列勇立潮头奋力谱写中国式现代化浙江新篇章</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tpxw_56060/202309/t20230926_1594387.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['习近平在浙江考察时强调 始终干在实处走在前列勇立潮头 奋力谱写中国式现代化浙江新篇章_ 呼和浩特市人民政府', '习近平在浙江考察时强调 始终干在实处走在前列勇立潮头 奋力谱写中国式现代化浙江新篇章', '习近平在浙江考察时强调 始终干在实处走在前列勇立潮头 奋力谱写中国式现代化浙江新篇章 返京途中在山东枣庄考察 蔡奇陪同考察', '始终干在实处走在前列勇立潮头 奋力谱写中国式现代化浙江新篇章 返京途中在山东枣庄考察 蔡奇陪同考察', '新华社浙江杭州/山东枣庄9月25日电 中共中央总书记、国家主席、中央军委主席习近平近日在浙江考察时强调，要完整准确全面贯彻新发展理念，围绕构建新发展格局、推动高质量发展，聚焦建设共同富裕示范区、打造新时代全面展示中国特色社会主义制度优越性的重要窗口，坚持一张蓝图绘到底，持续推动“八八战略”走深走实，始终干在实处、走在前列、勇立潮头，奋力谱写中国式现代化浙江新篇章。', '9月20日至21日，习近平在浙江省委书记易炼红和省长王浩陪同下，先后来到金华、绍兴等地，深入农村、商贸市场、陈列馆、文化园区等进行调研。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在金华市义乌市后宅街道李祖村考察。新华社记者 谢环驰 摄', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在金华市义乌市后宅街道李祖村考察。新华社记者 李学仁 摄', '20日上午，习近平来到金华市义乌市后宅街道李祖村考察调研。近年来，李祖村人居环境大为改善，各类创业主体纷纷进驻，乡村旅游十分红火，被评为全国文明村。习近平先后在村党群服务中心、“共富市集”、扎染商铺等场所了解李祖村发展变化情况。得知李祖村年人均收入达到5.2万元，习近平十分高兴。他说，李祖村扎实推进共同富裕，是浙江“千万工程”显著成效的一个缩影，要再接再厉，在推动乡村振兴上取得更大成绩。乡村振兴为年轻人提供了展现才华的用武之地，希望更多的年轻人为乡村振兴发挥积极作用。离开村子时，当地群众簇拥到总书记身旁，热情欢送总书记。习近平对大家说，乡村振兴潜力无限、大有可为，乡亲们要努力奋斗，一起奔向共同富裕的美好明天。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在义乌国际商贸城考察时，同商户亲切交流。新华社记者 李学仁 摄', '随后，习近平来到义乌国际商贸城考察。他通过电子屏幕实时了解商贸城运营及“义新欧”班列运行情况，并走进市场同商户、小企业主代表亲切交流，详细询问市场行情。他强调，义乌小商品闯出了大市场、做成了大产业，走到这一步很了不起，每个人都是参与者、建设者、贡献者。商贸城要再创新辉煌，为拓展国内国际市场、畅通国内国际双循环作出更大贡献。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在义乌国际商贸城考察时，同商户、小企业主代表亲切交流。新华社记者 李学仁 摄', '今年是毛泽东同志批示学习推广“枫桥经验”60周年。20日下午，习近平来到“枫桥经验”发源地诸暨市枫桥镇，参观枫桥经验陈列馆，了解新时代“枫桥经验”的生动实践。习近平指出，要坚持好、发展好新时代“枫桥经验”，坚持党的群众路线，正确处理人民内部矛盾，紧紧依靠人民群众，把问题解决在基层、化解在萌芽状态。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日下午，习近平在诸暨市枫桥镇枫桥经验陈列馆，同当地群众亲切交流。新华社记者 燕雁 摄', '随后，习近平乘车来到位于绍兴的浙东运河文化园考察。他步行察看古运河河道和周边历史文化遗存，详细了解浙东运河发展演变史和当地合理利用水资源、推进大运河保护等情况。习近平强调，大运河是世界上最长的人工运河，是十分宝贵的文化遗产。大运河文化是中国优秀传统文化的重要组成部分，要在保护、传承、利用上下功夫，让古老大运河焕发时代新风貌。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日下午，习近平在绍兴市浙东运河文化园考察。新华社记者 谢环驰 摄', '21日下午，习近平听取了浙江省委和省政府工作汇报，对浙江各项工作取得的成绩给予肯定，对浙江提出了新要求。', '习近平指出，浙江要在以科技创新塑造发展新优势上走在前列。要把增强科技创新能力摆到更加突出的位置，整合科技创新力量和优势资源，在科技前沿领域加快突破。强化企业科技创新主体地位，推动创新链产业链资金链人才链深度融合，加快科技成果落地转化。把实体经济作为构建现代化产业体系的根基，引导和支持传统产业加快应用先进适用技术，推动制造业高端化、智能化、绿色化发展。深化国家数字经济创新发展试验区建设，打造一批具有国际竞争力的战略性新兴产业集群和数字产业集群。加强科技基础能力建设，深化科技体制改革，打造科创高地。从全球视野布局产业链供应链建设，不断提升产业链供应链韧性和安全水平。坚定不移推动发展方式绿色转型，建立完善绿色低碳循环发展的经济体系。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在金华市义乌市后宅街道李祖村考察时，同群众亲切交流。新华社记者 李学仁 摄', '习近平强调，浙江要在推进共同富裕中先行示范。要把缩小城乡差距、地区差距、收入差距作为主攻方向，进一步健全城乡融合发展体制机制。坚持就业优先政策，在推动传统产业转型升级和发展新兴产业中注重扩大就业容量，解决好重点群体就业问题。深化收入分配制度改革，健全多层次社会保障体系。全面推进乡村振兴，积极发展乡村特色产业，深化“千村示范、万村整治”工程。加强平安浙江、法治浙江建设，在推进基层治理体系和治理能力现代化上创造更多经验。', '习近平指出，浙江要在深化改革、扩大开放上续写新篇。要以重点领域改革为牵引，全面推进各领域体制机制创新。以服务全国、放眼全球的视野来谋划改革，稳步扩大规则、规制、管理、标准等制度型开放。发挥各种开放平台的功能作用，创新利用外资、做大外贸的方法和渠道。主动适应国际经贸规则重构走向，在服务业开放、数字化发展、环境保护等方面先行先试。坚持“两个毫不动摇”、“三个没有变”，鼓励和支持民营企业积极参与全球范围产业分工和资源配置，提升核心竞争力。', '习近平强调，浙江要在建设中华民族现代文明上积极探索。要更好担负起新时代新的文化使命，赓续历史文脉，加强文化遗产保护，推动优秀传统文化创造性转化、创新性发展。坚守中华文化立场，积极发展反映时代要求、具有时代特色的新文化，发展中华文明的现代形态。弘扬伟大建党精神，广泛培育和践行社会主义核心价值观，发展社会主义先进文化。繁荣发展文化事业和文化产业，持续推进城乡公共文化服务标准化、均等化，加强公民道德建设，推进书香社会建设。运用杭州亚运会亚残运会、世界互联网大会等窗口加强文化交流传播，不断提升中国文化感染力和中华文明影响力。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日下午，习近平在绍兴市浙东运河文化园考察。新华社记者 李学仁 摄', '习近平指出，要坚持和加强党的全面领导、加强和改进党的建设。树立正确政绩观，坚持立足实际、科学决策，坚持着眼长远、打牢基础，坚持干在实处、务求实效，防止形式主义、官僚主义。加强干部教育培训和实践锻炼，健全干部担当作为激励保护机制，激发干部干事创业活力，构建亲清统一的新型政商关系。各级党组织要加强对第二批主题教育的组织领导和工作指导，把握不同层级、不同领域、不同对象的特点，结合实际，分类指导，上下联动抓整改，让群众看到实效。', '9月24日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察结束返京途中，来到山东省枣庄市考察。这是习近平在位于峄城区的冠世榴园石榴种植园了解石榴产业发展情况。新华社记者 燕雁 摄', '9月24日下午，在返京途中，习近平在山东省委书记林武和省长周乃翔陪同下来到枣庄市考察。枣庄是我国石榴集中连片种植面积最大、品种最多、产业链最完整的地区之一。习近平来到位于峄城区的冠世榴园石榴种质资源库，察看石榴树种，了解当地石榴种植历史、种质资源收集保存和产业发展情况，并来到石榴种植园中向老乡们询问今年石榴种植、收获和收入情况。得知当地大力发展石榴深加工和石榴盆栽培育有力带动了农民增收，习近平很高兴。他指出，人们生活水平在提高，优质特产市场需求在增长，石榴产业有发展潜力。要做好品牌、提升品质，延长产业链，增强产业市场竞争力和综合效益，带动更多乡亲共同致富。祝乡亲们生活像石榴果一样红红火火。', '9月24日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察结束返京途中，来到山东省枣庄市考察。这是习近平在位于峄城区的冠世榴园石榴种植园同老乡们亲切交流。新华社记者 燕雁 摄', '9月24日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察结束返京途中，来到山东省枣庄市考察。这是习近平在位于峄城区的冠世榴园石榴种植园同老乡们亲切交流。新华社记者 谢环驰 摄', '李干杰、何立峰、王小洪及中央和国家机关有关部门负责同志陪同分别参加上述有关活动，主题教育中央第五巡回指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>25</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>土左旗人社局召开第七次党组中心组扩大学习会议</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/srlzyhshbzj_22410/fdzdgknr/ywxx/202307/t20230724_1561103.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['党组中心组（扩大）学习会议，局党组书记、局长韩树林主持会议，局党组成员、局属各单位、各科室负责人参加会议。', '习近平总书记主持召开中央全面深化改革委员会第二次会议的重要讲话精神、内蒙古自治区第十一届委员会第六次全体会议精神、呼和浩特市委十三届六次全会精神等内容。', '守正创新促提升。要心怀“国之大者”，守正创新，拿出解难题、建机制、抓落实的思路、方法和举措，推进人社事业发展。', '牢牢把握铸牢中华民族共同体意识这一主线，紧紧围绕主线谋划推动人社各项工作，让各族群众享受人社事业发展成果。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>25</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>市委举办主题教育第三期读书班暨理论学习中心组集体学习</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2023-12-11</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650101328&amp;idx=2&amp;sn=52068dd2dda9f1ebfcd5c13bc51c40cc&amp;scene=0</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '12月7日至9日上午，市委以主题党日、专题讲座、集中读书和调研成果交流相结合的方式在市委党校(行政学院)举办主题教育第三期读书班暨理论学习中心组集体学习，围绕深入学习贯彻习近平法治思想、习近平总书记关于党的建设的重要思想，以及推进全面从严治党进行研讨交流。自治区党委常委、市委书记包钢主持集中研讨交流并讲话。自治区第一巡回督导组组长姜华到会指导。', '学习期间，参加读书班的领导同志集体前往内蒙古廉政教育展厅开展主题党日活动，聆听了关于总体国家安全观的专题辅导，在集中学习时重点研读了《论党的自我革命》《“五句话”的事实和道理辅导读本》等学习材料。李炯、方玉东、崔振武、商井民、王海瑜、葛智敏、张晓红7位同志作了交流发言。', '包钢继前两期读书班围绕“以学铸魂”“以学增智”和“以学促干”同大家作学习交流后，在本期读书班上，就“以学正风”谈了认识和体会。他说，今年6月，习近平总书记考察内蒙古时深刻阐述了“以学正风”的科学内涵，鲜明划定了党员干部的作风“红线”，为深入开展好主题教育，推进党的作风建设提供了重要遵循。我们要认真贯彻落实习近平总书记重要指示要求，以自我革命精神推进作风转变，以新风正气取信于民，以实际行动坚定拥护“两个确立”、坚决做到“两个维护”。', '包钢强调，求真务实是共产党人的重要思想和工作方法，一个“实”字，体现党性，折射作风。我们办好两件大事、建设现代化区域中心城市，要的是“真刀真枪干一场”，而不是“敲锣打鼓唱一出”。要大兴务实之风，树牢正确政绩观，真正把心思用在干事创业上，做到谋划要实、干事要实、导向要实，实打实推动产业发展、城市建设、公共服务等各项工作，用看得见的变化、摸得着的成果来衡量工作质效，力戒形式主义、官僚主义。要弘扬清廉之风，树牢正确权力观，筑牢思想防线，坚守法纪红线，做到公正用权、依法用权、廉洁用权，坚决整治滥用职权、谋求私利、贪污腐败的行为。要养成俭朴之风，树牢“过紧日子”思想，抓实资源节约、资金节约、时间节约，做好“五个大起底”工作经验总结和建章立制，统筹推进土地、水、能源、矿产资源节约集约利用，持续提升办事速度和工作效率，以疾步快跑的姿态奋力实现新突破、新跨越。']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>25</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>呼和浩特市民政局召开年党建暨党风廉政建设工作会议</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2024-04-17</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/smzj_22407/fdzdgknr/ywxx/202404/t20240417_1687207.html</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['4月11日下午，呼和浩特市民政局召开2024年党建暨党风廉政建设工作会议。局党组成员、市纪委监委驻市民政局纪检监察组负责人、调研员、局机关科长、机关纪委书记、局属各单位党政负责人、各基层党支部书记、党务工作者、纪检委员参加了会议。', '会上，集体观看了警示教育片，市民政局党组成员、副局长王拓涵传达学习了党中央、自治区、呼和浩特市三级纪委全会精神，市纪委监委驻市民政局纪检监察组负责人贾晓东就加强党风廉政建设工作做了安排部署。市民政局党组书记、局长张国富全面总结2023年党建暨党风廉政建设工作，安排部署2024年党建暨党风廉政建设工作。', '会议指出，2023年，局党组坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻落实党的二十大精神，紧紧围绕保障和改善民生工作，突出政治功能和组织功能，基层党建工作全面进步、全面过硬。', '会议强调，2024年，局系统党建暨党风廉政建设工作要以习近平新时代中国特色社会主义思想为指导，全面贯彻落实党的二十大和二十届二中、三中全会精神，认真贯彻习近平总书记关于党的建设的重要思想，深入学习领会习近平总书记考察内蒙古的重要讲话精神和习近平关于民政工作的重要论述，按照市委十三届七次全会和市政府2024年第一次全体会议暨廉政工作会议部署要求，把铸牢中华民族共同体意识主线贯彻到各项工作中，巩固拓展主题教育成果，聚焦“争进位、作示范”，奋力书写首府民政事业高质量发展新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>25</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>自治区党委召开新闻发布会介绍自治区党委十一届六次全会有关情况和会议主要精神</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2023-07-11</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwgk/2022_xwfbh/202307/t20230711_1555438.html</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['自治区党委召开新闻发布会介绍自治区党委十一届六次全会有关情况和会议主要精神_ 呼和浩特市人民政府', '7月10日上午，自治区党委召开新闻发布会，介绍自治区党委十一届六次全会有关情况和会议主要精神，自治区党委新闻发言人，自治区党委常委、秘书长于立新参加并作有关情况介绍。', '新闻发布会介绍，去年自治区党委制定了“五大任务”实施方案，本次全会对标对表习近平总书记这次考察时作出的重要指示要求，又作出新的安排、部署和决定，办好两件大事有了更为系统的战略谋划、更为完整的工作体系。加快调结构、转观念、改作风，是这次全会部署的重点，旨在加快解决制约内蒙古高质量发展的产业结构问题和干部队伍思想作风上的顽疾。全会强调，要按照习近平总书记关于以学正风特别是大兴务实之风的重要指示要求实打实干，提出要来一个经验成果大起底，加大对各类成果和经验的挖掘、总结、推广、运用力度，推动各方面在互学互鉴、取长补短中提升工作质效。全会对开展好主题教育进一步作出部署。', '新闻发布会介绍，全会高度评价了上半年自治区党委常委会的工作。一致认为，自治区党委常委会抓发展、促担当、树新风的成效不断显现，全区经济运行态势良好，各项事业持续健康发展，广大党员干部干事创业的精气神加快提振，大抓招商引资、节约利用资源、推进科技创新等工作成果丰硕。与会同志一致表示，要倍加珍惜当前发展的好势头，齐心协力把下半年工作做得更好。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>25</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>在全方位建设模范自治区中展现新担当新作为习近平总书记在内蒙古考察重要讲话引发我市干部群众强烈反响</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2023-06-20</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650093858&amp;idx=2&amp;sn=2118659b2780f95e929e7587ce5bd398&amp;scene=0</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['在全方位建设“模范自治区”中展现新担当新作为——习近平总书记在内蒙古考察重要讲话引发我市干部群众强烈反响', '传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '“铸牢中华民族共同体意识是新时代党的民族工作的主线，也是民族地区各项工作的主线。”“民族地区的经济建设、政治建设、文化建设、社会建设、生态文明建设和党的建设等，都要紧紧围绕、毫不偏离这条主线。”……连日来，习近平总书记在内蒙古考察时的殷殷嘱托，为内蒙古全方位建设“模范自治区”指明了前进方向，在我市干部群众中引发强烈反响。', '亲切关怀温暖人心，殷殷嘱托催人奋进。市委统战部副部长、市民委党组书记、主任李强表示:“我们将深入学习贯彻习近平新时代中国特色社会主义思想和习近平总书记在内蒙古考察期间的重要指示重要讲话精神，紧紧围绕铸牢中华民族共同体意识这条主线，找准贯彻落实的切入点、着力点和突破点，有形有感有效开展铸牢中华民族共同体意识宣传教育，推进落实各族青少年交流计划、各族群众互嵌式发展计划、旅游促进各民族交往交流交融计划，全面推进铸牢中华民族共同体意识示范市创建，全力推动民族团结进步工作提质增效，在完成好习近平总书记交给内蒙古的五大任务和全方位建设‘模范自治区’两件大事中不断展现新担当新作为。”', '“习近平总书记在内蒙古考察期间的重要指示重要讲话鼓舞人心，为我们做好统战工作指明了方向。”和林格尔县委常委、统战部部长刘宁表示，“我们要紧扣铸牢中华民族共同体意识这条主线，扎实推进‘三项计划’的落实。以持续巩固提升全区民族团结进步示范县创建成果，积极争创全国民族团结进步示范县为抓手，精心组织好‘两月一周’活动，深入推进八进‘一进一主题’工作，着力在铸牢中华民族共同体意识宣传教育、民族团结进步示范点示范带教育基地打造、各民族交往交流交融、构筑中华民族共有精神家园以及中华优秀传统文化保护传承等方面创亮点创特色。”', '“铸牢中华民族共同体意识是新时代党的民族工作的主线，也是民族地区各项工作的主线。市人大民族宗教侨务委员会将按照市委部署和市人大常委会工作安排，深入学习贯彻习近平总书记在内蒙古考察期间的重要指示重要讲话精神，紧紧围绕铸牢中华民族共同体意识这条主线，结合委员会职能职责，做好监督、代表等各项工作。今年我们对民贸民品企业发展情况、民族文化保护传承工作情况进行专题调研，对《关于将民族团结进步工作纳入市委、市政府及相关单位常态化工作安排的建议》进行重点督办，对《内蒙古自治区促进民族团结进步条例》在我市贯彻实施情况开展执法检查，持之以恒用法治护航首府民族团结进步事业行稳致远。”市人大民族宗教侨务委员会主任委员孟娅茹说。', '市人大民族宗教侨务委员会将按照市委部署和市人大常委会工作安排，深入学习贯彻习近平总书记在内蒙古考察期间的重要指示重要讲话精神，紧紧围绕铸牢中华民族共同体意识这条主线，结合委员会职能职责，做好监督、代表等各项工作。今年我们对民贸民品企业发展情况、民族文化保护传承工作情况进行专题调研，对《关于将民族团结进步工作纳入市委、市政府及相关单位常态化工作安排的建议》进行重点督办，对《内蒙古自治区促进民族团结进步条例》在我市贯彻实施情况开展执法检查，持之以恒用法治护航首府民族团结进步事业行稳致远。”市人大民族宗教侨务委员会主任委员孟娅茹说。', '市政协民宗委主任张瑞新表示，我们要把思想和行动统一到习近平总书记重要指示重要讲话精神上来，按照市委部署和市政协党组工作安排， 找准工作定位，发挥政协重要阵地、重要平台、重要渠道优势，立足市政协民族宗教港澳台侨联络委员会的职能职责，以铸牢中华民族共同体意识为主线，坚持广泛凝聚共识和建言资政双向发力，我们将以“挖掘我市各民族交往交流交融的历史文化资源，加强中华民族共同体建设”议题为载体，持续讲好首府民族团结进步故事，助力巩固全国民族团结进步示范市创建成果，切实推动首府各民族交往交流交融更加深入。', '市委宣传部副部长吴季表示，“我们要把学习贯彻习近平总书记考察内蒙古期间的重要指示重要讲话精神作为宣传思想文化战线当前和今后一个时期的重要任务。紧紧围绕、毫不偏离铸牢中华民族共同体意识这条主线，坚持以人民为中心的发展思想，大力传承和弘扬中华优秀传统文化，用优秀文艺作品持续不断增强民族团结的向心力、凝聚力，增强多元一体中华文化认同，构筑中华民族共有精神家园，持续推动首府文化走在前、作表率，为实施‘强首府’工程注入文化动力，为全方位建设‘模范自治区’作出首府贡献。”', '连日来，全市统战干部、统战成员认真学习贯彻习近平总书记在内蒙古考察期间的重要指示重要讲话精神。九三学社市委会主委、市贸促会会长张郡说:“作为九三学社市委会主委，今后我将带领全市社员进一步提高政治站位，强化思想政治引领，把学习习近平总书记的重要指示重要讲话精神作为‘凝心铸魂强根基、团结奋进新征程’主题教育的重要内容，坚持学思用贯通、知信行统一。全市社员将继续以落实‘两件大事’为主抓手，切实履职尽责，发挥人才智力优势，始终围绕我市生态建设重点工作，让调查研究接地气、增实效。”', '呼和浩特博物院院长武高明表示，呼和浩特博物院各博物馆要始终以铸牢中华民族共同体意识为主线，从展览到讲解内容，多方面、多角度有形、有效、有感地反映历史上各民族交往交流交融的生动故事，充分阐释各民族共同团结奋斗、共同繁荣发展、努力建设各民族共有精神家园的历史佳话。博物馆作为城市文化地标，要坚定文化自信，增进历史主动，通过历史文化宣传教育，将铸牢中华民族共同体意识深入人心，引导各族人民牢固树立休戚与共、荣辱与共、生死与共、命运与共的共同体理念，为建设“美丽青城、草原都市”作出新的贡献。', '“习近平总书记的殷殷嘱托我们都铭记在心，要用实际行动带领全镇各族群众共同团结奋斗,共同繁荣发展。毕克齐镇要依托土默川平原得天独厚的土壤环境，深挖当地特色产业发展优势，全力打造‘文墨毕川区域公共品牌’，努力让毕克齐大紫李、大葱、大蒜等农产品不仅形成特色产业品牌，更要在订单化、规模化发展势头中，带领村民走出一条产业致富之路。”土左旗毕克齐镇镇长张锐说。', '“今年街道、社区坚持以党建引领助推基层社会治理，持续推动解决群众身边急难愁盼问题，通过实施群众需求清单化、民办实事项目化管理，在老旧小区改造、人居环境提升、增加群众收入等方面下功夫。”玉泉区兴隆巷街道俪城社区党支部副书记杨牵千表示，俪城社区党支部以党建为引领，以服务创新为抓手，充分发挥外卖、快递小哥走街串巷、熟悉社情的优势，让他们在为民服务、文明建设等工作中发挥“急先锋”作用，推动快递、外卖从业人员融入社区并参与社区基层治理。同时，带动辖区各族群众广泛参与社区治理，打造共建共治共享的社会治理格局，做到居民有需求、社区有服务，努力把社区打造成为各族群众守望相助的大家庭。', '玉泉区小召小学德育主任井丽娜说:“我们学校将紧扣铸牢中华民族共同体意识主线，将民族团结进步教育贯穿学校教育工作的方方面面，培养德智体美劳全面发展的社会主义建设者和接班人。”']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>25</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>呼和浩特市人民政府外事办公室年法治政府建设工作总结及年工作安排</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2021-01-26</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/swsbgs_22423/fdzdgknr/bmgk/202111/t20211115_1059325.html</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['呼和浩特市人民政府外事办公室2020年法治政府建设工作总结及2021年工作安排_ 呼和浩特市人民政府', '2020年，在市委、市政府的正确领导和市委全面依法治市委员会办公室的指导下，我办坚持以习近平新时代中国特色社会主义思想为指引，深入学习贯彻习近平总书记全面依法治国新理念新思想新战略，贯彻落实市委、市政府提出的法治政府建设各项工作任务，坚持把外事工作纳入法治化轨道，圆满完成依法治市相关工作任务。现将有关工作情况报告如下：', '一是切实提高政治站位。坚持用习近平新时代中国特色社会主义思想指导法治政府建设工作，全面贯彻落实习近平总书记在中央全面依法治国工作会议上的讲话精神。今年以来，我办开展党组会专题学习法治建设和法律知识相关内容共5次、支部学习会3次，特别是将习近平法治思想作为一项重要学习任务，与深入贯彻落实党的十九届五中全会精神结合起来，与学习贯彻习近平总书记考察内蒙古重要讲话指示精神结合起来，与坚决落实市委、市政府对加强法治政府建设的部署要求结合起来，通过开展专题学习、专题研讨等形式，确保第一时间把法治政府建设政策理论及相关会议精神传达到位。', '二是强化第一责任人职责。我办主要负责人认真履行“第一责任人”职责，坚决贯彻落实党中央关于全面依法治国的重大决策部署要求，“一把手”负总责、分管领导抓协调、主办科室具体落实，相关科室密切配合，做到法治工作与中心工作同部署、同研究，做到办领导带头了解、学习法律知识，做遵法学法守法用法的模范，为我办扎实开展依法治市工作提供了良好的组织保障。', '一是我办扎实做好市委全面依法治市委员会办公室交办的各项工作任务，严格按照市本级《法治政府建设实施纲要（2015-2020年）》工作指南内容，结合我办工作实际，认真整理完善各项指标落实情况，明确责任科室、责任人和具体工作任务，形成“人人肩上有责任、法治工作能落实”的工作体系。', '二是不断加强我办法治队伍建设。严格执行“岗位责任制”、“闭环工作法”，按照每周工作例会要求，认真对照各科室（中心）责任清单督查督办，确保件件有反馈、事事有落实，使每个科室（中心）、每名干部都能“工作担使命，肩上有责任”，依法履职，让责任清单变成人民满意清单。', '一是积极营造学法用法的良好氛围，年内，我办按照法治政府建设学习计划，创新学习方式，将集中学习和个人自学相结合的方式，组织全办干部认真学习法律法规知识，提高全办干部学法、懂法、用法意识，提升知法、守法、用法的工作水平。11月，我办组织“宪法宣传周”系列活动，活动期间，特邀请我办聘用的专业法律顾问进行《中华人民共和国民法典》集中授课解读，使全体干部认识到新修订《民法典》的重大意义和积极作用。', '二是我办高度重视法治宣传教育工作，定期通过网站、政务新媒体宣传发布最新法律政策及详细解读专题内容。同时，运用“法宣在线”平台组织本级和所属二级单位全体干部开展法律知识学习，使全办干部将法律知识学深悟透，让法治观念深入人心，不断提升运用法律思维开展工作，依法履职尽责的能力。', '一是学习贯彻习近平总书记关于依法治国重要论述还不够深不够透，对标对表中央、自治区党委和市委相关要求，仍有较大差距，学法用法意识不强。', '二是在实际推进依法治市工作中压力传导力度还不够，在实际工作中，个别同志对法治政府建设工作的重要性认识还不够深刻，没有把法治政府建设放在更加突出的位置，依法防范化解外部环境重大风险能力不足。', '三是运用法治思维指导外事工作实际还有差距，在工作中习惯用老惯例、老办法解决问题，没有真正形成运用法治思维开展工作的习惯和运用法律手段化解工作难题的能力。', '一是继续加强法治理论知识学习，提高思想认识。把传达学习中央全面依法治国工作会议精神纳入党组中心组和党支部学习会重要内容，与深入贯彻落实党的十九届五中全会精神结合起来，与学习贯彻习近平总书记考察内蒙古重要讲话指示精神结合起来，与坚决落实市委、市政府对加强法治建设的部署要求结合起来，确保第一时间把会议精神传达到位。同时，通过网站和政务新媒体积极发布宣传中央全面依法治国工作会议精神和习近平总书记对推进全面依法治国重点工作提出的11个方面的要求，组织全办干部认真学习领会，把会议精神转化为我办依法开展各项工作的强大动力。', '二是健全规章制度，推进规范化建设。按照习近平总书记提出的“十一个坚持”和“十四五”规划建议，结合我办工作实际，协调推进国内治理和国际治理，有效应对挑战，防范未知风险。加快因公出国（境）管理、涉外案事件处置等工作依法依规开展，严格遵循程序执行，推动我办工作提质增效。继续聘请专业律师担任我办法律顾问，在重大决策和外事项目等方面充分发挥法律顾问作用。各科室、中心要严格落实法治政府建设相关政策规定，推进全面依法治市各项工作责任到人、落实到位。承担法治政府建设任务的科室要在认真开展日常工作的基础上，加强监督和服务，同时积极主动配合市委、市政府相关部门做好依法治市工作。', '三是加强干部队伍建设，践行外事为民理念。加强我办法治队伍建设，严格实行“岗位责任制”“闭环工作制”，按规定和制度办事。认真对照各科室（中心）责任清单，件件有落实，使每个科室（中心）、每名干部都能“工作担使命，肩上有责任”，让责任清单变成人民满意清单。狠抓工作纪律和工作作风，使全办干部自觉运用法治思维行使公职权力，坚持“一线工作法”、“闭环工作法”，切实解决好群众的操心事、烦心事，不断提升群众获得感、幸福感、安全感，树牢外事为民的宗旨意识，践行外事为民理念，依法保障人民权益。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>25</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>市信访局召开党组理论学习中心组扩大年第次集体学习会议</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2024-06-13</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/zfxxgknew/fdzdgknr/bmgk/202406/t20240613_1725360.html</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['市信访局召开党组理论学习中心组（扩大）2024年第8次集体学习会议_ 呼和浩特市人民政府', '6月7日，市信访局召开党组理论学习中心组（扩大）2024年第8次集体学习会议，局党组书记、局长栾世强主持会议，各党组成员、全体党员及民主党派干部参加会议。', '会议传达学习了习近平总书记在山东省考察并主持召开企业和专家座谈会重要讲话精神，传达学习包钢同志在新任职干部集体廉政谈话会上的讲话精神和《自治区整治形式主义为基层减负工作情况反映》，集中学习《中国共产党纪律处分条例》部分章节内容。党组成员围绕“习近平总书记关于全面加强党的纪律建设的重要论述”开展交流研讨。', '会议指出，加强纪律建设是全面从严治党的治本之策，要深入学习贯彻习近平总书记关于全面加强党的纪律建设的重要论述，坚持党纪学习教育要融入日常、抓在经常，准确掌握《条例》主旨要义和规定要求，进一步明确日常言行的衡量标尺。要自觉对照《条例》各项规定，把自己摆进去、把职责摆进去、把工作摆进去，及时发现问题、明确努力方向、细化整改措施，真正做到受警醒、明底线、知敬畏。', '会议强调，一要深刻领会习近平总书记在山东考察并主持召开座谈会上的重要讲话精神的深刻内涵、核心要义，要结合信访工作实际找准定位，理顺工作机制，切实担负起“为民解难、为党分忧”政治责任，推动信访工作高质量发展。二要认真贯彻落实市委关于整治形式主义为基层减负各项措施，坚持问题导向，举一反三，切实抓好信访领域突出问题整治，推动整治形式主义为基层减负工作向纵深拓展。三要全面推进信访工作法治化。围绕中央《关于着力推进信访工作法治化的意见》，各职能科室要进一步细化举措、完善机制，确保上下贯通、左右协同，确保信访工作依规依法规范运行。', '会议还传达学习了市委常委会第130次、131次会议纪要精神、《中国共产党呼和浩特市委员会社会工作部2024年工作要点》、市委保密局《关于转发关于学习宣传&lt;中华人民共和国保守国家秘密法&gt;的通知》，自行学习了《求是》杂志2024年第7期发表习近平总书记重要文章《必须坚持人民至上》。']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>25</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>习近平在黑龙江考察时强调牢牢把握在国家发展大局中的战略定位奋力开创黑龙江高质量发展新局面</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tt_1/202309/t20230909_1586471.html</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['习近平在黑龙江考察时强调 牢牢把握在国家发展大局中的战略定位 奋力开创黑龙江高质量发展新局面_ 呼和浩特市人民政府', '习近平在黑龙江考察时强调 牢牢把握在国家发展大局中的战略定位 奋力开创黑龙江高质量发展新局面 蔡奇陪同考察', '新华社哈尔滨9月8日电 中共中央总书记、国家主席、中央军委主席习近平近日在黑龙江考察时强调，要牢牢把握在国家发展大局中的战略定位，扭住推动高质量发展这个首要任务，落实好党中央关于推动东北全面振兴的决策部署，扬长补短，把资源优势、生态优势、科研优势、产业优势、区位优势转化为发展新动能新优势，建好建强国家重要商品粮生产基地、重型装备生产制造基地、重要能源及原材料基地、北方生态安全屏障、向北开放新高地，在维护国家国防安全、粮食安全、生态安全、能源安全、产业安全中积极履职尽责，在全面振兴、全方位振兴中奋力开创黑龙江高质量发展新局面。', '9月6日至8日，习近平在黑龙江省委书记许勤和省长梁惠玲陪同下，来到大兴安岭、哈尔滨等地，深入林场、乡村、高校等进行调研，前往灾后恢复重建现场看望慰问受灾群众。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市漠河林场自然林区考察。新华社记者 殷博古 摄', '6日下午，习近平来到大兴安岭地区漠河市，考察漠河林场自然林区，察看自然林生长态势和林下作物展示，听取当地深化森林资源资产管理改革、推进生态产业化和产业生态化以及加强森林防火灭火情况介绍。习近平指出，要坚持造林与护林并重，做到未雨绸缪、防患于未然，决不能让几十年、几百年、上千年之功毁于一旦。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村，同村民史瑞娟一家亲切交谈。新华社记者 鞠鹏 摄', '随后，习近平乘车来到我国大陆最北端的边境临江村落北极村，仔细了解当地结合地域优势发展特色旅游、将生态优势转化成发展优势等情况。习近平强调，森林是集水库、粮库、钱库、碳库于一身的大宝库。要树立增绿就是增优势、护林就是护财富的理念，在保护的前提下让老百姓通过发展林下经济增加收入。在村民史瑞娟家的民宿小院，习近平向乡亲们了解当地发展乡村特色产业、助推兴边富民乡村振兴等情况。他指出，北极村的发展和群众的生活状况好，看了很高兴。发展旅游业是推动高质量发展的重要着力点。把大兴安岭森林护好，旅游业才有吸引力。这里的旅游资源得天独厚，地方党委和政府要提供政策支持，坚持林下经济和旅游业两业并举，让北国边塞风光、冰雪资源为乡亲们带来源源不断的收入。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察时，同当地群众亲切交流。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察时，向当地群众挥手致意。新华社记者 鞠鹏 摄', '离开小院时，当地群众在道路两旁热情欢送总书记。习近平亲切地对大家说，北极村前景可期。希望广大干部、群众共同努力，把乡村建设得更好、把生态保护得更好、让人民生活得更好，共同奔向中国式现代化的美好未来。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，察看水稻受灾情况。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，察看水稻受灾情况。新华社记者 谢环驰 摄', '习近平十分牵挂洪涝灾害地区灾后恢复重建工作和受灾群众的生活保障问题。7日上午，习近平乘车来到受灾较重的哈尔滨尚志市老街基乡龙王庙村，察看水稻受灾和水毁房屋重建情况。村民杨春贵家房屋在洪灾中进水浸泡，屋内设施受损、间墙开裂，正在修缮。习近平走进杨春贵家中，看到房屋修缮即将完毕、生产生活都有安排，感到很欣慰。习近平指出，我一直牵挂受灾群众，尚志市这次受灾较为严重，看到灾后恢复重建快速顺利，乡亲们生活有了着落、生产有了保障，心里很踏实。东北冬季来得早、时间长，要确保受灾群众安全温暖过冬，地方党委和政府要抓紧谋划，提前行动，把吃、喝、住、行、就业、教育、医疗防疫等事关群众生产生活的大小事情考虑得更细致、更周全一些，不留一丝纰漏。要抓紧修复受损房屋，加快推进灾后重建，最大程度减少农业因灾损失，确保受灾群众安心安全。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，察看水毁房屋重建情况。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，习近平走进村民杨春贵家中，察看受损房屋修缮情况。新华社记者 殷博古 摄', '看到总书记来了，当地村民和施工人员纷纷围拢过来，向总书记问好。习近平亲切地对大家说，党和政府十分关心灾区群众，始终同大家风雨同舟、携手同行，希望乡亲们在党组织领导下齐心协力、共克时艰，努力建设美好家园。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，同当地村民和施工人员亲切交流。新华社记者 谢环驰 摄', '7日上午，习近平还来到哈尔滨工程大学，了解学校发展历程和为我国国防科技事业作出的贡献，察看教学科研成果展示。习近平强调，哈尔滨工程大学要发扬“哈军工”优良传统，紧贴强国强军需要，抓好教育、科技、人才工作，为建设教育强国、科技强国、人才强国再立新功。年轻一代成为奋力拼搏、振兴中华的一代，实现第二个百年奋斗目标就充满希望。青年学子要树牢科技报国志，刻苦学习钻研，勇攀科学高峰，在推进强国建设、民族复兴伟业中绽放青春光彩。再过几天就是教师节，向全校教师致以节日祝福，祝全国广大教师节日快乐。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在哈尔滨工程大学哈军工纪念馆考察。新华社记者 谢环驰 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在哈尔滨工程大学考察时，同师生代表亲切交流。新华社记者 谢环驰 摄', '8日上午，习近平听取了黑龙江省委和省政府工作汇报，对黑龙江各项工作取得的成绩给予肯定。', '习近平指出，要以科技创新引领产业全面振兴。要立足现有产业基础，扎实推进先进制造业高质量发展，加快推动传统制造业升级，发挥科技创新的增量器作用，全面提升三次产业，不断优化经济结构、调整产业结构。整合科技创新资源，引领发展战略性新兴产业和未来产业，加快形成新质生产力。提高国有企业核心竞争力，引领民营经济健康发展，打造一批产业集群，做大做强实体经济。把企业作为科技成果转化核心载体，提高科技成果落地转化率。主动对接全国产业链供应链，在优势产业和产业优势领域深耕细作，更好融入全国统一大市场，在联通国内国际双循环中发挥更大作用。坚持绿色发展，加强绿色发展技术创新，建立健全绿色低碳循环发展经济体系。', '习近平强调，黑龙江要当好国家粮食安全“压舱石”。要以发展现代化大农业为主攻方向，加快建设现代农业大基地、大企业、大产业，率先实现农业物质装备现代化、科技现代化、经营管理现代化、农业信息化、资源利用可持续化。强化数字技术和生物技术赋能，优先把黑土地建成高标准农田，切实把黑土地保护好。把发展农业科技放在更加突出的位置，统筹推进科技农业、绿色农业、质量农业、品牌农业，推进现代种业提升工程，配套推广先进适用科技和高端农机装备，发展农业循环经济。创新农业经营方式，发展规模化经营、社会化服务。打造食品和饲料产业集群，提高粮食生产综合效益。加快推进乡村振兴，让农村具备现代化生产生活条件。', '习近平指出，要大力发展特色文化旅游。把发展冰雪经济作为新增长点，推动冰雪运动、冰雪文化、冰雪装备、冰雪旅游全产业链发展。守护好森林、江河、湖泊、湿地、冰雪等原生态风貌，改善边境地区基础设施条件，积极发展边境旅游，更好地促进兴边富民、稳边固边。勇担新的文化使命，繁荣发展文化事业和文化产业，深入开展城乡精神文明建设，推进城乡公共文化服务体系一体建设，努力培育新风尚、展示新形象。', '习近平强调，要构筑我国向北开放新高地。更好统筹贸易、投资、通道和平台建设，在市场准入、要素流动、制度型开放等方面大胆探索、先行先试，形成全方位对外开放新格局。加快建设重要陆路通道、河海航道、能源管道等基础设施，完善面向东北亚开放的交通运输网络。要加强自贸试验区、综合保税区等开放平台创新发展，深度融入共建“一带一路”，积极参与区域合作。要切实做好重点领域风险防范化解工作，落实安全生产责任，坚决避免发生重特大安全生产事故。', '习近平指出，第一批主题教育已经告一段落，要抓好继续整改和建章立制工作，把主题教育探索的好经验好做法转化为长效机制。要建立健全理论学习、调查研究、推动高质量发展、密切联系群众、防止形式主义和官僚主义等长效机制，巩固发展主题教育成果。第二批主题教育已经启动，各地要坚持科学谋划、统筹安排、分类指导，确保取得实效。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第四巡回指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>25</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>土左旗召开移风易俗工作调度会</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2024-06-17</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tpxw_56060/202406/t20240617_1726183.html</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['6月14日上午，旗委宣传部组织召开全旗移风易俗工作调度会，传达上级有关文件精神，调度当前全旗移风易俗方面重点工作内容，各乡镇、区域服务中心及相关单位分管负责同志参会。', '会上，传达学习了市委《关于开展“抵制高额彩礼 倡导文明婚俗”宣传引导工作分工方案》文件精神。各乡镇、区域服务中心就移风易俗有关工作作了简要汇报。各相关部门按照工作任务和职责分工，认真梳理推动移风易俗的工作举措，针对重点、难点和短板，创新治理方式、形成长效机制，不断改善提升农民精神风貌，推动文明乡风建设取得明显成效。', '会议强调，移风易俗是精神文明建设的重要内容，是推动社会和谐稳定、促进经济社会发展的重要举措。它不仅事关党风政风民风，更事关人民群众切身利益。要深入学习贯彻习近平文化思想和习近平总书记考察江西重要讲话精神，坚持守正创新，注重标本兼治，久久为功，为奋力谱写中国式现代化新篇章贡献力量。', '下一步，土左旗将继续健全完善工作机制，倡导简约适度的婚俗礼仪，鼓励倡导喜事新办标准，着力培育文明向上的婚俗文化，大力营造健康有序的婚俗新风，在潜移默化中深化移风易俗、培育文明新风，在润物无声中植入民淳俗厚的新民俗、新礼仪。']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>25</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>呼和浩特市图书馆举办走进甲骨文学校系列主题讲座</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2023-06-06</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/swhlygdj_22418/fdzdgknr/ywxx/202306/t20230606_1539412.html</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['习近平总书记在北京育英学校考察时强调，少年儿童是祖国的未来，是中华民族的希望。为贯彻落实习近平总书记关于“要抓住青少年价值观形成和确定的关键时期，引导青少年扣好人生第一粒扣子”重要指示精神，坚定少年儿童理想信念，铸牢中华民族共同体意识。', '日，呼和浩特市图书馆特邀知名儿童文学作家，《北京日报》特别报道部副主任黄加佳老师，分别走进上东墅鸿雁书房、呼和浩特市文化馆群星剧场、南马路小学新华西街校区，为小读者们带来《甲骨文学校》系列作品讲座，与孩子们共度六一，共享丰富多彩的文化盛宴。', '本次活动，黄加佳老师以讲座的形式，将她的作品《甲骨文学校》系列丛书带到孩子们身边去，与孩子们一同走近中国历史，了解“甲骨文”文化。讲座中，黄老师带着小读者们回到历史现场，趣味解锁古代文化知识，分享传统文化故事；穿越回现场，进行大语文下的通识学习，收获“无穷”写作素材；打开童话之门，进阶提升小读者们的阅读和写作能力。三场精彩的讲座激发了小读者们的探索求知欲，现场的小读者们兴致勃勃的讨论着书中的内容，与黄老师欢乐互动，受益良多。', '近年来，呼和浩特市图书馆为更好地发挥公共图书馆的社会教育职能，联合各公共文化场馆、学校，将多方优质资源整合，形成馆际合作、馆校合作的联动机制，始终致力于探索对少儿阅读的实践，不断创新少儿阅读的内容与形式，使少儿阅读向品牌化精细化发展。希望通过本次活动，能让孩子们在潜移默化中将社会主义核心价值观根植于心，培养孩子们对中华民族传统文化的自豪感，养成“爱读书、读好书、善读书”的良好习惯。今后，呼和浩特市图书馆将继续加强与社会力量的交流合作，辛勤耕耘，扎实前行，为创造少儿阅读事业更美好的未来作出新的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>25</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>呼和浩特市民政局召开年全市民政工作会议</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2024-02-07</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/bmdt/202402/t20240206_1657976.html</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['2月5日,呼和浩特市民政局召开全市民政工作会议。会议以习近平新时代中国特色社会主义思想为指导,深入学习贯彻习近平总书记考察内蒙古重要讲话精神和关于民政工作的重要论述,认真落实中央经济工作会议、中央农村工作会议和全国、全区民政工作会议以及市委全委会、市“两会”精神,全面贯彻铸牢中华民族共同体意识主线,总结2023年工作,安排部署2024年重点任务。会上4个旗县区民政局作了经验交流发言,市民政局党组书记、局长张国富作讲话。', '会议指出,2023年全市民政系统全面贯彻落实党的二十大和二十届二中全会精神,以铸牢中华民族共同体意识为主线,全面加强基本民生保障、健全完善养老服务体系、积极推进基层社会治理、努力提升基本社会服务水平,年度各项重点任务全面完成,获评自治区民政厅重点工作综合评估“优秀”等次。', '会议强调,2024年是新中国成立75周年,是实现“十四五”规划目标的关键一年,做好民政工作意义重大、责任重大。全市民政系统要凝心聚力、紧盯目标、狠抓落实,全力打造“五型民政”,以实干实绩彰显新担当新作为,扎实推进2024年民政各项工作,在七个方面实现争进位、作示范。一是完善救助体系建设,守好民生保障底线,争进位作示范;二是打造宜养青城品牌,提升养老服务品质,争进位作示范;三是加强未成年人保护,守护儿童健康成长,争进位作示范;四是深化社会事务改革,巩固提升服务能力,争进位作示范;五是管理服务并重,助力社会组织发展,争进位作示范;六是健全完善服务体系,发展公益慈善事业,争进位作示范;七是加强区划地名管理,切实履行管理职能,争进位作示范。', '会议指出,新的一年,全市民政工作任务艰巨,全市民政系统要全面加强自身建设,强化党建引领,推进全面从严治党;盯紧抓实目标任务,全力推进各项工作任务落实;持续提升履职能力,不断夯实工作基础;强化工作统筹,落实安全生产“三管三必须”责任,做好信访工作和民政领域矛盾纠纷化解,维护好服务对象生命健康和财产安全;聚焦“争进位、作示范”目标,凝心聚力、狠抓落实,全力开创首府民政事业高质量发展新局面。', '会议强调,春节即将到来,全市各级民政部门要认真落实关于做好春节期间有关工作的要求,切实做好困难群众救助帮扶、走访探视、温暖过冬等工作。领导干部要带头落实应急值守、重特大事故报告制度,统筹做好节日期间各项工作,确保民政服务对象温暖、安全、祥和过冬过节。', '局领导、驻民政局纪检监察组负责同志出席会议,各旗县区民政局主要负责同志、办公室主任,局机关各科室、局属各单位负责同志参加了会议。']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>25</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>市大数据管理局赴和林格尔新区调研大数据产业发展情况</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2023-10-09</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/sdsjglj_22438/fdzdgknr_26169/qt/ggfwyms/202310/t20231009_1598373.html</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['9月26日下午，呼和浩特市大数据管理局党组成员、副局长包乌日汉同志带队同局副科以上干部、业务技术骨干赴和林格尔新区参加新区开展的主题教育班学习，调研新区大数据产业发展情况。', '调研组实地考察了中国农业银行内蒙古数据中心项目、中国银行金融科技中心项目、园区数字化展示中心和党建教育实践基地，详细了解新区发展概况、战略定位、空间布局以及数字经济发展、大数据重点项目的建设情况，并就和林格尔新区数字经济的发展布局和未来规划、当前大数据产业发展中存在的不足以及如何助力我市打造高端产业生态链、加快产业结构转型、拓展城市功能等方面进行了交流探讨。', '下一步，我局将重点围绕数据中心、人工智能、集成电路产业，着力推进一批投资规模大、技术含量高、对电子信息技术产业集群发展拉动提升明显的重大项目，鼓励企业向园区集中，引导产业链上下游企业对接合作，补齐产业链短板，推动产业集群整合发展。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>25</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>呼和浩特市关于我为企业找资金我为企业找原料我为企业找用工我为企业找市场行动方案政策解读</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2023-12-08</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwgk/2022_zcjd/2022_szfzcjd/202404/t20240425_1691446.html</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['《呼和浩特市关于“我为企业找资金、我为企业找原料、我为企业找用工、我为 企业找市场”行动方案》政策解读_ 呼和浩特市人民政府', '《呼和浩特市关于“我为企业找资金、我为企业找原料、我为企业 找用工、我为 企业找市场”行动方案》政策解读', '深入贯彻落实党中央、国务院关于稳增长的决策部署和《内蒙古自治区促进中小企业发展三年行动方案（2023-2025）》文件精神，立足服务企业，聚焦化解企业面临的“痛点”“堵点”“难点”，特制定《呼和浩特关于“我为企业找资金、我为企业找原料、我为企业找用工、我为企业找市场”行动方案》。', '以习近平新时代中国特色社会主义思想为指导，深入学习贯彻习近平总书记考察内蒙古重要讲话，以开展习近平新时代中国特色社会主义思想主题教育为契机，聚焦全市企业稳定生产经营，通过创设政策、打造环境、搭建平台、优化服务，解决制约企业发展的突出问题，持续增强企业发展信心，激发企业发展活力，为全市经济社会高质量发展贡献力量。', '一是开展“我为企业找资金”行动。包含3项具体任务：①拓宽融资渠道找资金。主要从助保贷、信易贷、科技贷、银税互动、知识产权质押融资等几个方面发力。②开展银企对接找资金。③充分利用政策找资金。主要是利用国家出台支持内蒙古高质量发展意见及自治区“强首府”契机，向上争取资金。', '二是开展“我为企业找原料”行动。包含3项具体任务：①推行集中采购找原料。推动产业集群内企业从“分散采购”向“集中采购”转变。②利用大数据找原料。发挥我市各类平台作用，为企业原材料买卖牵线搭桥。③完善物流体系找原料。主要是推动陆港型、商贸服务型国家物流枢纽和国家骨干冷链物流基地建设，降低企业原材料运输成本。', '三是开展“我为企业找用工”行动。涵盖5项具体任务：①摸清企业需求找用工。摸清企业招工计划，建立缺工企业管理台账，按需组织精准对接。②举办招聘活动找用工。③开展技能培训找用工。④加强校企合作找用工。搭建校企合作平台，推动重大项目和重点企业用工与高校对接。⑤完善政策保障找用工。主要是通过落实政府出台的各项引人留人政策，满足企业用工需求。', '四是开展“我为企业找市场”行动。涵盖5项具体任务：①实施精准招商找市场。围绕六大产业集群和17条产业链，开展精准招商，形成产业互补。②开展供需对接找市场。搭建企业产品对接平台，畅通产业链和供应链，提高产品的本市配套率。③利用办展参展找市场。④依托协会组织找市场。⑤组建产业联盟找市场。主要是围绕六大产业集群组建六个产业联盟。联盟内部深入开展产业链上下游产供销适配性对接，提高产业链供应链稳定性和地方配套率。⑥应用平台载体找市场。主要是借助电商和媒介推动企业产品销售。', '四、保障措施。主要包括加强组织领导、坚持问题导向、强化督促考核、加大宣传力度等4方面内容。', '呼和浩特市人民政府办公室关于印发呼和浩特市“我为企业找资金、我为企业找原料、我为企业找用工、我为企业找市场”行动方案的通知']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>25</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>关于呼和浩特市城乡饮水安全方案的政策解读</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2020-08-26</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/ztzl/yhyshj/zcjd/bmzcjd/202008/t20200826_942393.html</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['为切实提升饮水安全环境，解决饮水安全问题，按照《中共呼和浩特市委办公室印发关于深入学习贯彻习近平总书记考察内蒙古重要讲话精神扎实开展主题教育推动经济高质量发展重点任务的分工方案的通知》（中共呼和浩特市委办公室［2019〕-61号）中的重点工作及分工安排，结合《市人民政府2020年第18次会议纪要》精神，按照各责任部门的涉水职责，依据《城市供水条例》、《水利部办公厅关于加快推进农村供水工程水费收缴工作的通知》（办农水【2019】210号）、《呼和浩特市地方病防治专项攻坚行动方案（2018-2020年）》等法律、法规及相关文件要求，制定本方案。', '为认真贯彻落实习近平总书记考察内蒙古重要讲话精神，全面提升我市城乡饮水安全保障水平，助推我市经济高质量发展， 2019年底编制完成《饮水安全方案》（征求意见稿），并广泛征求相关部门意见，修改完善后提交市政府正式印发。', '到2020年底，水源地水质达到国家标准，供水水质达到国家生活饮用水卫生标准，农村集中供水率达到97%。城镇供水达到“水压稳、水量足、水质优”，饮用水安全保障能力全面提升，让人民群众喝上安全水、干净水、放心水。', '（一）大力推进城乡供水工程改造与建设。1.实施城区老旧小区供排水管网和二次加压供水改造工程；2.编制《城市集中供水地下水水源地开采井优化布局方案》；3.加快推进哈拉沁水厂建设；4.加快推进呼张客专铁路沿线安全区水源井封闭置换水源工程建设；5.加快推进蒙吉利水厂水源水氨氮超标整改进度；6.加快推进砷、氟等水质超标问题防治工作；7.加强对农村饮水安全工程进行巩固和提升。', '（二）建立城镇供水安全长效监管机制。1.建立二次供水设施维护长效化管理机制；2.开展非居民用水户饮水安全检查及整改工作；3.开展现制现售水、送水车灌装直饮水运营单位规范化管理工作；4.建立完善农村供水水费收缴制度。', '（三）加大城乡饮用水水源地保护和整治力度。1.依法依规划定饮用水水源保护区或保护范围，推进水源地规范化建设；2.加强饮用水水源地环境监管；3.加强水源地水质监测。', '（四）切实保障城乡供水水质安全。1.加强日常检测和定期抽检；2.健全供水水质上报和公示制度。', '（五）全面提升城乡供水运行管护能力。1.提升城镇供水运行管理能力；2.提升城镇供水服务水平；3.完善城镇和农村供水突发事件应急预案。']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>25</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>市委召开新任职干部集体谈话会议</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2023-06-16</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650093580&amp;idx=3&amp;sn=882ece5494e800459c58ff64c0650849&amp;scene=0</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '6月15日下午，市委召开新任职干部集体谈话会议，提醒和督促新任职干部珍惜岗位舞台，以实干实绩向组织和人民交出满意答卷。', '会议强调，新任职干部要坚定信念、对党忠诚，深刻领悟“两个确立”的决定性意义，深学笃用习近平新时代中国特色社会主义思想，认真学习贯彻习近平总书记在内蒙古考察期间的重要指示重要讲话精神，切实在落实习近平总书记交给内蒙古的“五大任务”和全方位建设“模范自治区”两件大事中践行忠诚担当。要担责于身、履责于行，围绕提升城市能级、建设现代化区域中心城市，认真思考谋划本地区本部门工作，把任务细化、具化到每一年、每一季度，对账抓好落实，积小胜为大胜。要牢记初心、为民造福，深入开展调查研究，扎实做好教育、医疗、文旅高质量发展以及推进基层治理体系和治理能力现代化等各项民生实事，不断增强群众获得感、幸福感、安全感。要廉洁自律、严守底线，认真落实“以学正风”重要要求，进一步锤炼党性修养，大兴务实之风、弘扬清廉之风、养成俭朴之风，永葆清正廉洁的政治本色。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>25</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>习近平向全国广大少年儿童祝贺六一国际儿童节快乐</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tpxw_56060/202306/t20230601_1536089.html</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['习近平在北京育英学校考察时强调 争当德智体美劳全面发展的新时代好儿童 向全国广大少年儿童祝贺“六一”国际儿童节快乐 蔡奇丁薛祥陪同考察', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在科学教室同小学生们亲切交流。新华社记者 王晔 摄', '新华社北京5月31日电 在“六一”国际儿童节到来之际，中共中央总书记、国家主席、中央军委主席习近平5月31日上午来到北京育英学校，看望慰问师生，向全国广大少年儿童祝贺节日。习近平强调，少年儿童是祖国的未来，是中华民族的希望。新时代中国儿童应该是有志向、有梦想，爱学习、爱劳动，懂感恩、懂友善，敢创新、敢奋斗，德智体美劳全面发展的好儿童。希望同学们立志为强国建设、民族复兴而读书，不负家长期望，不负党和人民期待。', '中共中央政治局常委、中央办公厅主任蔡奇，中共中央政治局常委、国务院副总理丁薛祥陪同考察。', '北京育英学校1948年创办于河北西柏坡，前身为“中共中央直属机关供给部育英小学校”。75年来，学校在老一辈革命家关心关怀下，全面贯彻党的教育方针，落实立德树人根本任务，推行学制创新，开展特色办学，引领学生德智体美劳全面发展。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在校史馆考察。新华社记者 鞠鹏 摄', '习近平来到学校，首先走进校史馆，了解学校历史沿革、建设发展和近年来推动教育教学改革创新、落实“双减”政策要求、促进学生德智体美劳全面发展等情况。习近平指出，教育的根本任务是立德树人，培养德智体美劳全面发展的社会主义建设者和接班人。学生的理想信念、道德品质、知识智力、身体和心理素质等各方面的培养缺一不可。“双减”政策落地有一个过程，要久久为功。要引导家长、学校、社会等各方面提高认识，推动落实好“双减”工作要求，促进学生全面发展。育英学校具有光荣的革命传统和鲜明的红色基因。要加强革命传统教育，让每一位育英学校的学生牢记学校的光荣历史，铭记党的关怀，赓续红色传统，传承红色基因，从小听党话、跟党走，立志为党成才、为国奉献。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在篮球场同正在上体育课的小学生们亲切交流。新华社记者 申宏 摄', '习近平步行察看校园环境。篮球场上学生们正在打篮球、跳绳，上体育课。习近平指出，提高人的健康素质，青少年是黄金期。这个阶段，长身体是第一位的，身体好了，才能为今后一生的学习工作打好基础。体育锻炼是增强少年儿童体质最有效的手段。现在生活条件好了，孩子们不是要吃得胖胖的，而是要长得壮壮的、练得棒棒的。体育锻炼要从小抓起，体育锻炼多一些，“小胖墩”、“小眼镜”就少一些。学校要把体育老师配齐配好，家庭、学校、社会等各方面都要为少年儿童增强体魄创造条件。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在篮球场向正在上体育课的小学生们挥手致意。新华社记者 鞠鹏 摄', '随后，习近平来到学生农场。这里是学生开展农业种植活动的实践场所，阳光下、田垄上，一排排绿油油的菜苗生机勃勃。孩子们拿着水桶、铲子、耙子、毛笔，为西红柿、黄瓜等浇水、松土、除草、授粉。习近平强调，很多知识和道理都来自劳动、来自生活。引导孩子们从小树立劳动观念，培养劳动习惯，提高劳动能力，有利于他们更好地学习知识。现在一些城里的孩子接触农村、接触大自然少，不光“四体不勤”，而且“五谷不分”，对吃的是什么、从哪里来的、怎么来的都不知道，更体会不到“谁知盘中餐，粒粒皆辛苦”。他对同学们说，认识大自然，首先要从认识身边的植物开始。同学们栽培的各种植物，虽然书本上都有介绍，但大家亲手种、亲自培育、跟踪观察，收获肯定是不一样的。希望同学们从“学农”中感受到农作的艰辛和农民的不易，从小养成热爱劳动、珍爱粮食、尊重自然的良好习惯，为建设美丽中国作贡献。新时代生态文明建设要从娃娃抓起，通过生动活泼的劳动体验课程，让孩子亲自动手、亲身体验、自我感悟，让“绿水青山就是金山银山”的理念早早植入孩子的心灵。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在学生农场同正在进行农业种植实践的小学生们亲切交流。新华社记者 鞠鹏 摄', '学校思聪楼二层科学教室不时传出欢声笑语，习近平走进教室，师生们告诉总书记，他们正在运用所学的直线运动、曲线运动、斜面运动等知识，用积木动手设计搭建过山车模型进行验证。习近平指出，科学实验课，是培养孩子们科学思维、探索未知兴趣和创新意识的有效方式。希望同学们从小树立“科技创新、强国有我”的志向，当下勇当小科学家，未来争当大科学家，为实现我国高水平科技自立自强作贡献。', '习近平随后来到五年级教师办公室，看望正在研讨备课的老师们，询问课后服务课程结构设置等情况。习近平指出，中国特色社会主义教育体系是好的，我国的基础教育在世界上是有优势的，要坚定文化自信，把自己好的东西坚持好，把国外好的东西借鉴好，与时俱进、开放发展，让孩子们有更广阔的眼界、更开阔的思路、更开放的观念，努力培养堪当民族复兴重任、勇于创造世界奇迹的国之栋梁。习近平强调，人才培养，关键在教师。广大教师要牢记为党育人、为国育才的初心使命，以人民教育家为榜样，以德立身、以德立学、以德施教。要在全社会营造尊师重教的良好风尚，让教师成为最受社会尊重和令人羡慕的职业，努力形成优秀人才争相从教、优秀教师不断涌现的良好局面。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在教师办公室同教师们亲切交流。新华社记者 申宏 摄', '在学校小广场上，师生们热情欢送总书记。习近平祝愿孩子们茁壮成长、健康成才，并向全国广大少年儿童祝贺“六一”国际儿童节快乐。他说，今天我专程来北京育英学校看望大家，和小朋友们共庆“六一”儿童节。看到同学们天真活泼、朝气蓬勃，脸上洋溢着幸福的笑容，感到非常高兴。党中央始终关心关怀少年儿童的健康成长，采取了一系列政策举措，努力为孩子们健康成长创造更好环境。我相信，有中国共产党的领导和社会主义制度的显著优势，生活在中华民族大家庭里的各族儿童一定会越来越幸福，一定会拥有更加美好的未来。各级党委和政府、社会各方面要切实做好与儿童事业发展有关的各项工作，关心帮助困难家庭的孩子特别是孤儿和残疾儿童，让所有孩子都能感受到党和政府的温暖，都能有一个幸福美好的童年。', '5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在学校小广场同师生们亲切交流。新华社记者 鞠鹏 摄', '习近平对同学们说，今天的少年儿童是强国建设、民族复兴伟业的接班人和未来主力军。为在本世纪中叶把我国全面建成社会主义现代化强国，现在是我们这一代人在努力奋斗，未来要靠你们去接续奋斗。']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>25</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>推动农牧业高质量发展习近平总书记在内蒙古考察重要讲话引发我市干部群众强烈反响</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2023-06-16</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650093580&amp;idx=2&amp;sn=35cca5854bfc21e9b0a6728cf90ac908&amp;scene=0</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '连日来，习近平总书记考察内蒙古重要讲话为首府农牧业高质量发展指明了方向。我市干部群众纷纷表示，要认真学习贯彻习近平总书记重要指示重要讲话精神，牢记总书记嘱托，凝心聚力、奋斗实干，发挥好地区农牧业资源优势，推动我市农牧业高质量发展，在新征程上不断创造新的辉煌。', '“习近平总书记在内蒙古考察时的重要讲话，鼓舞激励着托县农牧系统干部职工，我们将牢牢把握党中央对内蒙古的战略定位，完整、准确、全面贯彻新发展理念，锚定高质量建设国家重要农畜产品生产基地这个任务，坚持以生态优先、绿色发展为导向，扛稳保障国家粮食安全重任。”托县农牧局党组书记、局长刘广春说:“托县土壤肥沃、地势平坦，极适合种养殖业发展。我们要继续推进藏粮于地、藏粮于技战略，稳步增加播种面积，着力提高单产，巩固提升综合产能，确保粮食绝对安全。要加快补齐基础设施短板，加快完成现有高标准农田改造提升，逐步把永久基本农田全部建成高标准农田。要依托首府科技优势和项目支撑，引进示范推广设施农业新品种、新技术、新装备，着力提高设施农业标准化、产业化发展水平。要加强冷链物流、农产品加工等产业发展，促进一二三产业融合，积极落实自治区农畜产品产地冷链物流设施节点布局、服务网络和支撑体系，加快推动有条件的企业申报建设冷链物流基地。要加快推进奶牛品种良种化、养殖设施现代化和牧草优质化。要做精做优特色种养殖，在巩固现有成果基础上，进一步提升我县葡萄、辣椒、黄河鲤鱼等特色农产品保障和供给能力，拓展虾蟹养殖基地，发展鱼蟹共生养殖，实施水产养殖池塘尾水达标治理项目，推动水产养殖业绿色发展。”', '“聆听了习近平总书记考察内蒙古时的重要讲话，作为一名农业工作者，在深受鼓舞的同时，我也感到了肩上的责任。我们一定要牢记总书记嘱托，创新思路，脚踏实地，扎实工作，为农牧业现代化发展贡献更大力量。”新城区农牧局副局长矫娇娇说，2023年，新城区将通过鼓励农业龙头企业、农民合作社等新型农业经营主体建设农畜产品冷藏保鲜设施，加快农牧业基础设施建设，使仓储库容达到400吨以上;严守耕地保护红线，持续推广高产种植技术，不断提升粮食单产水平，进一步加强“菜篮子”有效供给;不断推进产业融合发展体系建设，以新城草莓、野马图葡萄、塔利蝴蝶兰等产品为抓手，高标准打造区域公用品牌“味美新城”，努力将本土产品推向更为广阔的市场，全面提升现代农牧业发展质量。', '“我们一定要认真学习贯彻落实习近平总书记考察内蒙古时的重要讲话精神，进一步推动农牧业转型发展，大力发展生态农牧业，抓好农畜产品精深加工和绿色有机品牌打造，促进一二三产业融合发展，推动农牧业高质量发展。”玉泉区农牧和科技局农业科干部韩乐说，玉泉区农牧和科技局全体干部职工将牢记总书记嘱托，在提高土地空间利用率、保障菜篮子供应等方面下功夫，带领全体农民创新思路，脚踏实地，扎实工作，为农牧业现代化高质量发展贡献力量。', '玉泉区农牧和科技局农业科干部韩乐说，玉泉区农牧和科技局全体干部职工将牢记总书记嘱托，在提高土地空间利用率、保障菜篮子供应等方面下功夫，带领全体农民创新思路，脚踏实地，扎实工作，为农牧业现代化高质量发展贡献力量。', '伊利集团高级执行总裁张剑秋表示，伊利集团通过持续提升奶源建设、品质管控、科技创新和服务消费者能力，打造了一条运行稳健、可持续高质量发展的产业链，让上下游合作伙伴共享发展成果。尤其是通过技术联结、产业联结、风险联结等7大利益联结机制，保障了上游农牧民实现共建、共享、共赢。截至2023年3月31日，伊利累计为11467户产业链上下游合作伙伴提供金融扶持，累计融资金额1245.7亿元，其中扶持内蒙古自治区产业链合作伙伴融资金额130.09亿元。伊利全面启动“质量领先战略”，将食品安全工作延伸至全球产业链条上的所有合作伙伴，系统性构建全球质量管理体系，以100%优质健康的乳制品，保障消费者“舌尖上的安全”。2022年7月12日，伊利现代智慧健康谷全球智能制造产业园正式投产，产业园以科技创新为核心驱动力，不断汇聚全球智慧，打造了在国际上产能领先、设备顶尖、管理一流的数智化牧场、工厂，创造了全球奶业多项之最，成为中国乳品行业又一次升级发展的典范。这既是伊利落实总书记嘱托的具体行动，也是落实总书记交给内蒙古的五大任务、贯彻国家奶业振兴战略的重要举措。未来，伊利将继续牢记总书记嘱托，感恩奋进，引领中国乳品行业实现高质量发展。', '托县古城镇宣传委员张燕燕连日来一直在认真学习习近平总书记考察内蒙古时的重要指示重要讲话精神，她说:“古城镇根据奶牛养殖业市场化发展新形势、新情况、新特点，全面引导和打造以奶牛生态养殖为主体的畜牧业发展体系，促进了奶牛养殖业健康发展，同时带动了饲料加工服务业、青贮、黄贮饲草种植业、农民就近安置就业及生态环保服务产业发展。全镇现有规模养殖牧场14个，有大型饲料加工企业两家，个体饲料、兽药服务商户20多家。通过保本分红、资产收益等方式，实施了奶牛托管、肉牛养殖等产业项目，为村集体经济‘造血’。同时，充分利用荒地闲地，持续扩大奶牛青贮、黄贮饲草种植面积，实现了经济和生态效益的‘双丰收’。今后，我们一定牢记总书记嘱托，结合古城镇实际，继续撸起袖子加油干，进一步提高村民的幸福指数。”']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>25</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>呼市交通运输局召开党组理论学习中心组年第次集中学习会</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2022-07-29</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/fwyzt/jt_jtcx/jtyw/202207/t20220729_1325347.html</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['呼市交通运输局召开党组理论学习中心组2022年第7次集中学习会_ 呼和浩特市人民政府', '7月28日，市交通运输局召开党组理论学习中心组2022年第7次集中学习会议。局党组书记、局长张玮主持集体学习，局领导、局机关科室负责人、局属单位主要领导参加此次学习会议。', '会议集中学习了习近平总书记在省部级主要领导干部“学习习近平总书记重要讲话精神，迎接党的二十大”专题研讨班发表重要讲话精神；学习习近平总书记在《求是》杂志发表重要文章《加强党史军史和光荣传统教育确保官兵永远听党话、跟党走》；学习《习近平谈治国理政》第三卷《全面加强新时代人民军队党的领导和党的建设工作》；传达学习《习近平强军思想》；传达学习《关于落实孙绍骋书记通辽市考察讲话精神进一步做好优化营商环境工作的通知》；传达市政府办公室《关于对市交通运输局政务公开信息引发舆情给予批评的通报》；学习《国防法》《国防教育法》《国防动员法》《兵役法》《军事设施保护法》等。', '会议强调，要深入学习贯彻习近平总书记在省部级主要领导干部专题研讨班发表重要讲话精神，深刻领悟重要讲话的政治性、理论性、指导性，捍卫和坚持“两个确立”，坚决做到“两个维护”，进一步学懂弄通做实习近平新时代中国特色社会主义思想，不断提高政治判断力、政治领悟力、政治执行力，牢牢把握新时代新征程党的中心任务，把思想和行动统一到贯彻落实习近平总书记重要讲话精神上，锚定以习近平同志为核心的党中央对全面建成社会主义现代化强国作出的战略部署，汇聚起奋进新征程、建功新时代的交通运输强大力量，踔厉奋发、勇毅前行，以首府交通运输新成绩迎接党的二十大胜利召开。要树立首府交通运输担当作为的形象，聚焦人民群众对交通运输的新需求、新期待，紧盯市场主体和群众问题诉求，切实提升交通运输营商环境满意度。要不断提升意识形态工作能力，贯彻落实好意识形态工作责任制，做到守土有责、守土负责、守土尽责。']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>25</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>习近平扎实推动教育强国建设</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tpxw_56060/202309/t20230919_1591347.html</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['今天，中央政治局进行第五次集体学习，内容是建设教育强国。安排这次学习，目的是贯彻落实党的二十大部署，总结我国建设教育强国的进展和成就，分析面临的形势和需要解决的问题，探究我国建设什么样的教育强国、怎样建设教育强国这一重大课题，扎实推动教育强国建设。', '纵观人类历史，教育兴则国家兴，教育强则国家强。世界强国无一不是教育强国，教育始终是强国兴起的关键因素。建设教育强国，是全面建成社会主义现代化强国的战略先导，是实现高水平科技自立自强的重要支撑，是促进全体人民共同富裕的有效途径，是以中国式现代化全面推进中华民族伟大复兴的基础工程。', '重教尚学是中华民族世代传承的优良传统，是中华民族生生不息的内在动力。新中国成立以来，我国教育事业走过了由旧到新、由小到大的非凡历程，实现了从文盲大国向教育大国、从人口大国向人力资源大国的转变。党的十八大以来，党中央坚持把教育作为国之大计、党之大计，作出加快教育现代化、建设教育强国的重大决策，推动新时代教育事业取得历史性成就、发生格局性变化。我国已建成世界上规模最大的教育体系，教育现代化发展总体水平跨入世界中上国家行列。据中国教育科学研究院测算，我国目前的教育强国指数居全球第23位，比2012年上升26位，是进步最快的国家。这充分证明，中国特色社会主义教育发展道路是完全正确的。', '2018年9月10日，全国教育大会在北京召开。中共中央总书记、国家主席、中央军委主席习近平出席会议并发表重要讲话，代表党中央向全国广大教师和教育工作者致以节日的热烈祝贺和诚挚问候。新华社记者 王晔/摄', '当今世界，新一轮科技革命和产业变革深入发展，围绕高素质人才和科技制高点的国际竞争空前激烈。我国在建设教育强国上仍存在不少差距、短板和弱项，实现从教育大国向教育强国的跨越依然任重道远。', '党的二十大报告把教育科技人才单独成章进行布局，吹响了加快建设教育强国的号角。我们要建设的教育强国，是中国特色社会主义教育强国，必须以坚持党对教育事业的全面领导为根本保证，以立德树人为根本任务，以为党育人、为国育才为根本目标，以服务中华民族伟大复兴为重要使命，以教育理念、体系、制度、内容、方法、治理现代化为基本路径，以支撑引领中国式现代化为核心功能，最终是办好人民满意的教育。我们要全面贯彻党的教育方针，坚持以人民为中心发展教育，主动超前布局、有力应对变局、奋力开拓新局，加快推进教育现代化，以教育之力厚植人民幸福之本，以教育之强夯实国家富强之基，为全面推进中华民族伟大复兴提供有力支撑。', '2023年5月31日上午，中共中央总书记、国家主席、中央军委主席习近平来到北京育英学校看望慰问师生，向全国广大少年儿童祝贺“六一”国际儿童节快乐。这是习近平在科学教室同小学生们亲切交流。新华社记者 王晔/摄', '第一，培养担当民族复兴大任的时代新人。培养什么人、怎样培养人、为谁培养人是教育的根本问题，也是建设教育强国的核心课题。我们建设教育强国的目的，就是培养一代又一代德智体美劳全面发展的社会主义建设者和接班人，培养一代又一代在社会主义现代化建设中可堪大用、能担重任的栋梁之才，确保党的事业和社会主义现代化强国建设后继有人。浇花浇根，育人育心。要坚持不懈用新时代中国特色社会主义思想铸魂育人，着力加强社会主义核心价值观教育，引导学生树立坚定的理想信念，永远听党话、跟党走，矢志奉献国家和人民。要坚持改革创新，推进大中小学思想政治教育一体化建设，提高思政课的针对性和吸引力。网络已成为广大青少年学习生活的重要空间，要提高网络育人能力，扎实做好互联网时代的学校思想政治工作和意识形态工作。', '第二，加快建设高质量教育体系。当前，我国教育已由规模扩张阶段转向高质量发展阶段。要坚持把高质量发展作为各级各类教育的生命线，加快建设高质量教育体系，以教育高质量发展赋能经济社会可持续发展。建设教育强国，基点在基础教育。基础教育搞得越扎实，教育强国步伐就越稳、后劲就越足。要推进学前教育普及普惠安全优质发展，推动义务教育优质均衡发展和城乡一体化。基础教育既要夯实学生的知识基础，也要激发学生崇尚科学、探索未知的兴趣，培养其探索性、创新性思维品质。要在全社会树立科学的人才观、成才观、教育观，加快扭转教育功利化倾向，形成健康的教育环境和生态。建设教育强国，龙头是高等教育。放眼全球，任何一个教育强国都是高等教育强国。要把加快建设中国特色、世界一流的大学和优势学科作为重中之重，大力加强基础学科、新兴学科、交叉学科建设，瞄准世界科技前沿和国家重大战略需求推进科研创新，不断提升原始创新能力和人才培养质量。要建设全民终身学习的学习型社会、学习型大国，促进人人皆学、处处能学、时时可学，不断提高国民受教育程度，全面提升人力资源开发水平，促进人的全面发展。', '第三，全面提升教育服务高质量发展的能力。要把服务高质量发展作为建设教育强国的重要任务。当今时代，人才是第一资源，科技是第一生产力，创新是第一动力，建设教育强国、科技强国、人才强国具有内在一致性和相互支撑性，要把三者有机结合起来、一体统筹推进，形成推动高质量发展的倍增效应。要进一步加强科学教育、工程教育，加强拔尖创新人才自主培养，为解决我国关键核心技术“卡脖子”问题提供人才支撑。要系统分析我国各方面人才发展趋势及缺口状况，根据科学技术发展态势，聚焦国家重大战略需求，动态调整优化高等教育学科设置，有的放矢培养国家战略人才和急需紧缺人才，提升教育对高质量发展的支撑力、贡献力。要统筹职业教育、高等教育、继续教育，推进职普融通、产教融合、科教融汇，源源不断培养高素质技术技能人才、大国工匠、能工巧匠。', '第四，在深化改革创新中激发教育发展活力。从教育大国到教育强国是一个系统性跃升和质变，必须以改革创新为动力。要坚持系统观念，统筹推进育人方式、办学模式、管理体制、保障机制改革，坚决破除一切制约教育高质量发展的思想观念束缚和体制机制弊端，全面提高教育治理体系和治理能力现代化水平。教育公平是社会公平的重要基础，也是建设教育强国的内在要求。要把促进教育公平融入到深化教育领域综合改革的各方面各环节，缩小教育的城乡、区域、校际、群体差距，努力让每个孩子都能享有公平而有质量的教育，更好满足群众对“上好学”的需要。教育评价事关教育发展方向，事关教育强国成败。要紧扣建设教育强国目标，深化新时代教育评价改革，构建多元主体参与、符合我国实际、具有世界水平的教育评价体系。要加强教材建设和管理，牢牢把握正确政治方向和价值导向，用心打造培根铸魂、启智增慧的精品教材。教育数字化是我国开辟教育发展新赛道和塑造教育发展新优势的重要突破口。我国互联网上网人数已达10.67亿人，要进一步推进数字教育，为个性化学习、终身学习、扩大优质教育资源覆盖面和教育现代化提供有效支撑。', '第五，增强我国教育的国际影响力。要根据国际形势发展变化，完善教育对外开放战略策略，统筹做好“引进来”和“走出去”两篇大文章，有效利用世界一流教育资源和创新要素，使我国成为具有强大影响力的世界重要教育中心。要积极参与全球教育治理，大力推进“留学中国”品牌建设，讲好中国故事、传播中国经验、发出中国声音，增强我国教育的国际影响力和话语权。要坚持扩大教育对外开放不动摇。深入贯彻总体国家安全观，把牢教育对外开放正确方向和安全底线。', '第六，培养高素质教师队伍。强教必先强师。要把加强教师队伍建设作为建设教育强国最重要的基础工作来抓，健全中国特色教师教育体系，大力培养造就一支师德高尚、业务精湛、结构合理、充满活力的高素质专业化教师队伍。要立足教育强国建设实际需要，加大教职工统筹配置和跨区域调整力度。要弘扬尊师重教社会风尚，提高教师政治地位、社会地位、职业地位，使教师成为最受社会尊重的职业之一，支持和吸引优秀人才热心从教、精心从教、长期从教、终身从教。要加强师德师风建设，引导广大教师坚定理想信念、陶冶道德情操、涵养扎实学识、勤修仁爱之心，树立“躬耕教坛、强国有我”的志向和抱负，坚守三尺讲台，潜心教书育人。', '2023年9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在哈尔滨工程大学考察时，同师生代表亲切交流。新华社记者 谢环驰/摄', '建设教育强国是全党全社会的共同任务。要坚持和加强党对教育工作的全面领导，不断完善党委统一领导、党政齐抓共管、部门各负其责的教育领导体制。中央教育工作领导小组要把建设教育强国作为总抓手，加强顶层设计、统筹协调、整体推进、督促落实。各级党委和政府要始终心怀“国之大者”，坚持教育优先发展，在组织领导、发展规划、资源保障、经费投入上加大力度。学校、家庭、社会要紧密合作、同向发力，积极投身教育强国实践，共同办好教育强国事业。全党全国各族人民要坚定信心、久久为功，为早日实现教育强国目标而共同努力。']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>25</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>市政府党组会议理论中心组集体学习会议暨政府党组班子主题教育领导小组会议召开</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2023-09-23</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650097870&amp;idx=2&amp;sn=2d5ceb5ffb84984018503f9e346d57ee&amp;scene=0</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '9月22日，市政府召开党组会议、理论中心组集体学习会议暨政府党组班子主题教育领导小组第一次会议，学习习近平总书记近期重要指示重要讲话精神，传达近期中央、自治区重要会议、重要文件精神，围绕贯彻落实习近平总书记在内蒙古考察期间的重要指示重要讲话精神进行研讨交流，对政府党组班子开展主题教育进行安排部署。', '会议强调，政府班子成员要认真学习习近平总书记近期重要指示重要讲话精神，结合日常工作多研究、多对标、多查摆，确保相关工作精准落实到位;要结合第二批主题教育，通过自学与专题培训、交流研讨相结合的方式，深入学习贯彻落实习近平总书记在内蒙古考察期间的重要讲话重要指示精神，进一步明确任务、细化台账，扎实做好产业发展、生态保护、安全生产、民族团结、社会民生等工作;要准确把握主题教育的总要求和目标任务，加强理论学习、深化调查研究、加快推动发展，全力推动《政府工作报告》重点任务落实，用实实在在的发展成果检验主题教育实际成效。']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>25</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>石泰峰在扎兰屯市调研党史学习教育和政法队伍教育整顿工作</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2021-06-01</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/guidangzhuanti/shce/gzdt/202106/t20210601_951795.html</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['5月22日至23日，自治区党委书记、人大常委会主任石泰峰来到呼伦贝尔市扎兰屯市，深入调研党史学习教育、政法队伍教育整顿等工作，强调要进一步提高思想认识、压实工作责任，以更加务实的态度、扎实的举措开展好党史学习教育和政法队伍教育整顿。', '石泰峰深入卧牛河镇、兴华街道办事处、河西街道南市社区，走进党群服务中心、爱心e家、爱心超市及网格化管理指挥中心等，与党员、干部、职工深入交流，详细了解党史学习教育开展情况，深入考察“我为群众办实事”的举措和成效。他指出，乡镇、街道和社区处于基层一线，直接面对广大人民群众，“小单位”处理的是大事情、“小书记”承担的是大责任。要立足基层特点扎扎实实开展党史学习教育，党员干部首先要真学深悟，真正在思想上受教育、心灵上受洗礼，增强信仰信念信心，增强党员意识，切实扛起时代赋予的责任。同时，要面向全社会搞好“四史”教育，教育引导广大群众深刻感悟今天的好日子是怎么来的，发自内心地感党恩、听党话、跟党走。他强调，开展党史学习教育一定要突出效果导向，不能做样子、搞花架子，不要把心思和精力用在刷标语、做展板、迎接检查上，坚决杜绝搞形式主义、作表面文章那一套，坚决防止层层加码、给基层增加负担。要精心组织开展“我为群众办实事”实践活动，防止把办实事庸俗化，简单地“戴帽子”、“贴标签”，用日常性工作代替办实事。办实事要与发展所需和开创新局结合起来，踏踏实实把该做的工作做到位，用情用心用力解决群众反映强烈的急难愁盼问题，把好的作风、好的做法常态化保持下去。', '政法队伍教育整顿工作开展得怎么样，石泰峰非常关注。他先后来到扎兰屯市公安局兴华派出所、扎兰屯市检察院，走进接报警服务中心、综合勤务指挥室、舆情监控室、听证室等，深入了解教育整顿工作开展情况。开门纳谏主要采取什么形式、征集了多少意见，自查自纠发现了哪些突出问题，谈话具体谈了什么内容，石泰峰每到一处都详细询问这些方面的情况，仔细翻阅有关材料，认真检查查找出的问题实不实、深不深。他强调，开展查纠整改一定要聚焦到教育整顿的核心要求上来，不能泛泛地谈问题、找问题，不能简单地拿日常工作中的问题来说事。各政法单位的领导和干警都要进一步提高思想认识、激发内在动力，心贴心地谈、细而细地查、实打实地抓，切实做到真查问题、查真问题，坚决杜绝轰轰烈烈搞形式、认认真真走过场。他指出，开展政法队伍教育整顿是当前的一项重要政治任务，各级党委特别是主要负责同志要高度重视，坚决扛起主体责任，主动上手抓，动真碰硬抓，既抓思想教育又抓问题查纠，做到全程跟进、全力督导，确保教育整顿走深走实、取得实效。', '调研中，石泰峰还来到阜丰生物科技公司，深入考察玉米深加工产业发展和重点项目建设等情况。他强调，要进一步强化产品研发，更加注重在推进产品精深加工、产业链条延伸升级上下功夫，持续用力做好环境保护和治理工作，促进产业高质量发展。在中国民航大学内蒙古飞行学院实训基地和教学基地，石泰峰查看了机库、停机坪、实训综合楼，就飞行学院建设与运行、临空产业发展等与有关负责人进行深入交流，强调要在现有基础上突出重点、发挥优势，努力把这个新兴产业做大做优。']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>25</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>习近平在河北雄安新区考察并主持召开高标准高质量推进雄安新区建设座谈会</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tt_1/202305/t20230511_1525183.html</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['习近平在河北雄安新区考察并主持召开高标准高质量推进雄安新区建设座谈会_ 呼和浩特市人民政府', '习近平在河北雄安新区考察并主持召开高标准高质量推进雄安新区建设座谈会时强调 坚定信心保持定力 稳扎稳打善作善成 推动雄安新区建设不断取得新进展 李强蔡奇丁薛祥陪同考察并出席座谈会', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日下午，习近平主持召开高标准高质量推进雄安新区建设座谈会并发表重要讲话。新华社记者 燕雁 摄', '新华社河北雄安新区5月10日电 中共中央总书记、国家主席、中央军委主席习近平10日在河北省雄安新区考察，主持召开高标准高质量推进雄安新区建设座谈会并发表重要讲话。他强调，雄安新区已进入大规模建设与承接北京非首都功能疏解并重阶段，工作重心已转向高质量建设、高水平管理、高质量疏解发展并举。要坚定信心，保持定力，稳扎稳打，善作善成，推动各项工作不断取得新进展。', '中共中央政治局常委、国务院总理李强，中共中央政治局常委、中央办公厅主任蔡奇，中共中央政治局常委、国务院副总理丁薛祥陪同考察并出席座谈会。', '5月10日，习近平在河北省委书记倪岳峰、省长王正谱陪同下，深入雄安新区的高铁站、社区、建设工地等，就高标准高质量推进雄安新区建设进行调研。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在雄安站候车大厅同旅客亲切交流。新华社记者 申宏 摄', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在雄安站考察。新华社记者 李学仁 摄', '当天上午，习近平乘高铁前往雄安新区，抵达后首先考察了雄安站的建设运行情况。雄安站是雄安新区开工建设的第一个重大基础设施项目，具有标志性意义。习近平先后察看站台、候车大厅、站外广场，了解雄安站建设运营和所在的昝岗片区规划建设情况。习近平指出，雄安站是雄安新区的交汇车站，要进一步完善联通雄安站和雄安新区的交通“微细血管”，提升人流物流聚集和疏散的效率。要把昝岗片区建设成为高端高新产业集聚区，让各方来客一到雄安，就能感受到雄安新区扑面而来的现代化新气象。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在容东片区南文营社区党群服务中心考察。新华社记者 李学仁 摄', '习近平随后乘车来到容东片区南文营社区。该社区安置了安新、容城两县回迁群众5000多人。习近平先后来到党群服务中心和社区食堂，同社区工作人员、现场办事群众、就餐的社区老人等亲切交流，仔细查看民情台账，对社区开展的便民养老服务等表示肯定。习近平强调，我一直牵挂着回迁群众，看到大家生活好，我很欣慰。建设好雄安新区，重要的是衔接好安居和乐业，让群众住得稳、过得安、有奔头。要同步推进城市治理现代化，从一开始就下好“绣花”功夫，积极推进基本公共服务均等化，构筑新时代宜业宜居的“人民之城”。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在容东片区南文营社区食堂同就餐的社区老人亲切交流。新华社记者 李学仁 摄', '习近平走进回迁居民李敬和家中看望。李敬和告诉总书记，2021年11月迁入新居，房子宽敞明亮，住得十分舒心，日子越过越红火。习近平强调，建设雄安新区是党中央作出的重大战略决策，大家响应国家号召，积极配合，为国家战略实施作出了贡献。他勉励年轻一代在强国建设、民族复兴的进程中，坚定信心，学好本领，造福桑梓，做社会主义事业的建设者和接班人。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在容东片区南文营社区回迁居民李敬和家中看望。新华社记者 李学仁 摄', '临别时，居民们高声欢呼“总书记好”，习近平向大家挥手致意。他深情地对大家说，河北是我工作过的地方，我对这里充满感情，把这里建设好是我的心愿。建设雄安新区是千年大计、国家大事，既不能心浮气躁，也不能等靠要，要踏实努力，久久为功。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在容东片区南文营社区考察时向社区居民挥手致意。新华社记者 殷博古 摄', '雄安城际站枢纽位于雄安新区启动区的核心位置。习近平来到雄安城际站及国贸中心项目建设现场，看沙盘、登平台，远眺建设工地，了解启动区重大基础设施项目及重点疏解项目规划建设进展情况。习近平指出，交通是现代城市的血脉。血脉畅通，城市才能健康发展。要在建设立体化综合交通网络上下功夫，在充分利用地下空间上下功夫，着力打造一个没有“城市病”的未来之城，真正把高标准的城市规划蓝图变为高质量的城市发展现实画卷。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日上午，习近平在雄安城际站及国贸中心项目建设现场考察。新华社记者 燕雁 摄', '下午，习近平来到雄安会展中心雄安厅，结合沙盘、视频短片，听取雄安新区整体规划建设进展介绍，了解白洋淀生态环境治理和保护及清淤疏浚、百淀连通等工作进展情况。习近平强调，白洋淀生态环境治理和保护，功在当代、利在千秋，必须统筹谋划，扎实推进。', '随后，习近平在会展中心三层多功能厅主持召开高标准高质量推进雄安新区建设座谈会。国家发展改革委主任郑栅洁、河北省委书记倪岳峰、雄安新区党工委书记张国华先后发言。中国卫星网络集团有限公司、中国建筑集团有限公司主要负责同志提交了书面发言。', '听取大家发言后，习近平发表了重要讲话。他强调，在党中央坚强领导下，在中央有关部门和北京、天津等地大力支持下，河北省积极履行主体责任，雄安新区党工委和管委会认真履行属地责任，扎实推动各项工作，雄安新区建设取得重大阶段性成果，新区建设和发展顶层设计基本完成，基础设施建设取得重大进展，疏解北京非首都功能初见成效，白洋淀生态环境治理成效明显，深化改革开放取得积极进展，产业和创新要素聚集的条件逐步完善，回迁安置工作有序推进。短短6年里，雄安新区从无到有、从蓝图到实景，一座高水平现代化城市正在拔地而起，堪称奇迹。这些成绩是在世界百年未有之大变局、3年新冠疫情的严峻形势下取得的，殊为不易。实践证明，党中央关于建设雄安新区的重大决策是完全正确的，各方面工作是扎实有效的。', '5月10日，中共中央总书记、国家主席、中央军委主席习近平在河北省雄安新区考察，并主持召开高标准高质量推进雄安新区建设座谈会。这是10日下午，习近平主持召开高标准高质量推进雄安新区建设座谈会并发表重要讲话。新华社记者 殷博古 摄', '习近平强调，要完整、准确、全面贯彻落实党中央关于建设雄安新区的战略部署，深刻领悟党中央决策的重大现实意义和深远历史意义，牢牢把握党中央关于雄安新区的功能定位、使命任务和原则要求，提高政治站位，保持历史耐心，处理好近期目标和中远期目标、城市建设速度和人口聚集规模、产业转移和产业升级、政府和市场、承接北京非首都功能疏解和城市自身发展、城市建设和周边乡村振兴等重大关系，确保雄安新区建设和发展的正确方向。', '习近平指出，要扎实推动疏解北京非首都功能各项任务落实，接续谋划第二批启动疏解的在京央企总部及二、三级子公司或创新业务板块等，着手谋划金融机构、科研院所、事业单位的疏解转移。要继续完善疏解激励约束政策体系。对有关疏解人员的子女教育、医疗、住房、薪酬、社保、医保、公积金等政策，要按照老人老办法、新人新办法的原则要求，进一步细化实化政策措施，确保疏解单位和人员享受到实实在在的好处。要坚持市场机制和政府引导相结合，项目和政策两手抓，通过市场化、法治化手段，增强非首都功能向外疏解的内生动力。', '习近平强调，要全面落实创新驱动发展战略，推动各领域改革开放前沿政策措施和具有前瞻性的创新试点示范项目在雄安落地，努力建设新功能、形成新形象、发展新产业、聚集新人才、构建新机制，使雄安新区成为新时代的创新高地和创业热土。要打造市场化、法治化、国际化一流营商环境，研究出台一揽子特殊支持政策，广泛吸引、聚集国内外力量和资本参与雄安新区建设和发展，形成人心向往、要素汇聚、合力共建、共同发展的生动局面。要广泛运用先进科学技术，着力加强科技创新能力建设，加大科技成果转化力度，积极发展新业态、新模式，培育新增长点、形成新动能，把智能、绿色、创新打造成为雄安新区的亮丽名片。要贯彻绿水青山就是金山银山的理念，坚持绿色化、低碳化发展，把雄安新区建设成为绿色发展城市典范。', '习近平指出，要优化健全雄安新区领导体制和管理机制，分阶段、分步骤、稳妥有序推动新区向城市管理体制转变。要加强新区各级领导班子和干部队伍建设，提高干部人才队伍整体素质和专业化水平。要完善新区干部考核评价机制，激励广大党员干部敢担当、勇创新、善作为。', '习近平强调，要坚持人民城市人民建、人民城市为人民，解决好雄安新区干部群众关心的切身利益问题，让人民群众从新区建设发展中感受到实实在在的获得感、幸福感。要坚持就业优先，完善就业创业引导政策，加强对新区劳动力的再就业培训。要推进城乡统筹发展，在缩小城乡差距、推动城乡融合发展、促进全体人民共同富裕上闯出一条新路来。', '习近平指出，雄安新区党工委及各级党组织要认真开展主题教育，并以此为契机，加强调查研究，推动思想大解放、能力大提升、作风大转变、工作大落实，进一步提升政治功能和组织功能。要持续纠治“四风”，一体推进不敢腐、不能腐、不想腐，以“廉洁雄安”保障“雄安质量”。', '李强在讲话中表示，高标准高质量推进雄安新区建设，最根本最关键的是要把习近平总书记重要指示和党中央决策部署学习领会好、贯彻落实好。要有“千年大计”的定力，牢牢把握雄安新区的功能定位和使命任务，稳扎稳打、久久为功。要有“只争朝夕”的干劲，把已明确的、必须做的事紧紧抓在手上，不等不拖、紧张快干，加快承接北京非首都功能疏解，扎实推进基础设施建设，着力构建现代化产业体系，充分发挥各方面积极性，推动各项工作不断取得新进展。', '丁薛祥表示，要深入学习贯彻习近平总书记重要讲话精神，把科技创新作为雄安新区高质量建设和发展的根本，着力打造自主创新和原始创新重要策源地，搭建一流创新平台，开展高水平科技创新；着力推动创新链产业链深度融合，围绕产业链部署创新链，加大科技成果转化力度，促进高新技术产业发展；着力建设京津冀协同创新共同体，创新利益分享模式，吸纳和集聚更多创新要素资源参与推动雄安新区高质量发展。', '李干杰、何立峰等陪同考察并出席座谈会，吴政隆、穆虹、姜信治及中央和国家机关有关部门、军队有关单位、河北省、雄安新区、有关企业负责同志参加座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>25</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>兴安盟党政考察团来我市考察交流</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2021-12-02</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwgk/2022_ldzc/hhd/ldhd_53123/202203/t20220321_1216829.html</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['12月1日，兴安盟党政考察团赴我市，对我市智慧城市指挥中心建设运行、12345接诉即办以及优化营商环境等工作进行考察交流。', '自治区党委常委、市委书记包钢，兴安盟盟委书记张晓兵，兴安盟盟委副书记、盟长苏和，市委副书记、市长、和林格尔新区党工委书记贺海东参加考察活动。', '考察团一行首先来到呼和浩特智慧城市指挥中心，观看《智慧城市数创未来》宣传片，听取关于我市智慧城市建设有关情况介绍，详细了解12345接诉即办、智慧应急、智慧养老、智慧停车、青城智慧抗疫平台等信息化系统。双方就智慧城市顶层规划编制、信息化项目管理及12345接诉即办指挥调度中心的工作内容、组织架构、运作方式、考评体系等进行了深入交流。双方一致认为，对于智慧城市建设，数据是灵魂、应用是根本、融合是方向、联通是基础、统筹是保障，信息化手段可以实现政府流程再造、程序简化、过程可控和效能监察，有效解决以往社会管理主体单一、方式粗放、反应滞后的问题，有助于提升城市精细化管理水平，增强群众的获得感幸福感。考察团对我市智慧城市建设工作给予高度评价，认为我市在智慧城市建设方面工作务实、推进力度大，走在了自治区前列，给其他地区提供了很多值得学习的宝贵经验。', '在市行政审批和政务服务局，考察团听取关于我市优化营商环境工作情况汇报，认真察看政务服务中心环境布置、功能分区、管理措施和部门联动、并联审批、快办快结、便民服务以及“蒙速办·一次办”落实情况，来到24小时自助服务区、“一网通办”专项攻坚组了解相关情况，同在场的有关负责同志深入交流。考察团对服务大厅干净整洁的环境、舒适休闲的等候区、便民利民的设施设备、标准化和人性化相结合的管理模式以及窗口工作人员热情的服务态度和高效的办事效率表示赞赏，认为首府近年来在优化营商环境上下足了功夫，很多先进做法值得借鉴。', '兴安盟领导李洪才、许宝全、张立华、董欣悦、杨冀鹏，我市相关单位和部门负责同志参加考察活动。']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>25</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>呼和浩特市住房和城乡建设局年政府信息公开工作年度报告</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2024-01-26</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/szfhcxjsj_22413/xxgknb/202401/t20240126_1653328.html</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['呼和浩特市住房和城乡建设局2023年政府信息公开工作年度报告_ 呼和浩特市人民政府', '和《国务院办公厅政府信息与政务公开办公室关于印发〈中华人民共和国政府信息公开工作年度报告格式〉的通知》（国办公开办函〔', '2023年度政府信息公开工作年度报告。本报告由概述、主动公开政府信息情况、收到和处理政府信息公开申请情况、政府信息公开行政复议、行政诉讼情况、存在的主要问题及改进情况、其他需要报告的事项六部分组成。本报告所列数据的统计期限自2023年1月1日起至2023年12月31日止。如对本报告有任何疑问，请与', '2023年，呼和浩特市住房和城乡建设局坚持以习近平新时代中国特色社会主义思想和党的二十大精神为指导，认真学习贯彻习近平总书记考察内蒙古的重要讲话精神，深入落实中央、自治区、我市关于政务公开工作的指示要求，紧密结合工作实际，健全政府信息公开工作机制，拓展政府信息公开渠道，进一步提升政府信息公开工作水平。', '以政务公开平台、局网站为主，微信公众号、新闻发布会等各种载体为辅，及时发布政策及解读文件、部门文件、工作动态等各类信息，确保法定主动公开要求全面落实。', '进一步规范接收、登记、审核、办理、答复、归档等流程。强化服务理念，加强与申请人的前期沟通，由相关科室、单位分别按职能办理，政策法规科对答复内容进行合法性审查，办公室审核、汇总答复，确保信息公开办理的准确性。', '坚持先审后发，确保发布内容准确、可靠。发布主动公开的文件须同时填写《公文源头属性认定表》或《公文公开审批单》。同时，在我局政务办公平台（', '由局综合保障中心专人负责局网站日常运维，重点围绕办事服务、互动交流等内容开展常态化监管，规范日常管理，并增加了', '加强政务新媒体平台建设，及时发布保障性住房、住房公积金、建筑工程质量等群众关心关注的热点问题，截至', '60条，在自治区和呼市级媒体发布新闻288条，参加市级新闻发布会两次，办理人大建议47件、政协提案61件。', '存在的主要问题：部分栏目更新不及时，政策解读的形式和质量有待提高，部分单位对依申请公开的答复把握不够准确、不够规范等。', '下一步，我局将在以下方面加以改进：一是加大主动公开力度，进一步梳理、规范信息公开内容，及时公开涉及群众切实利益的各类信息；二是围绕我局重点工作，加大政策解读力度，通过图文、视频等多种形式丰富解读方式；三是组织各科室、各单位认真学习《政府信息公开条例》，认真贯彻中央、自治区、呼和浩特市关于政务公开的有关文件精神，规范答复内容，提高依申请公开办理水平。', '及时公开涉及群众切实利益的各类信息；二是围绕我局重点工作，加大政策解读力度，通过图文、视频等多种形式丰富解读方式；三是组织各科室、各单位认真学习《政府信息公开条例》，认真贯彻中央、自治区、呼和浩特市关于政务公开的有关文件精神，规范答复内容，提高依申请公开办理水平。']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>25</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>绿算赋能青城论数中国绿色算力大会在呼和浩特开幕</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2023-07-03</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650094337&amp;idx=2&amp;sn=63fdb03d924887d8df730b8b8991708c&amp;scene=0</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '在全市上下深入学习贯彻习近平总书记考察内蒙古重要讲话精神的关键时刻，7月2日上午，由呼和浩特市人民政府、中国电信集团有限公司内蒙古分公司、中国移动通信集团内蒙古有限公司、中国联合网络通信有限公司内蒙古自治区分公司主办，中国信息通信研究院、内蒙古和林格尔新区管理委员会承办的中国绿色算力大会在呼和浩特敕勒川草原千人会议中心举行开幕仪式。会议以“绿算赋能、青城论数——打造最强绿色算力供给者”为主题，旨在构建绿色算力成果展示窗口、打造“东数西算”绿色算力样板和建设绿色算力基础设施引领高地，助力提升国家整体算力能效和可再生能源使用水平，促进东西部协同联动和数字化发展赋能，推动高质量发展。', '自治区党委常委、市委书记包钢，自治区副主席奇巴图，中国工程院院士郑纬民，工业和信息化部信息通信发展司副司长赵策，中国信息通信研究院院长余晓晖，国家发展改革委创新驱动发展中心副主任徐彬，市委副书记、市长、和林格尔新区党工委书记贺海东等共同启动大会。', '赵策在大会上致辞，他说，党中央、国务院高度重视我国算力产业发展，在各地区各部门和产业界的共同努力下，我国算力基础设施建设取得积极进展，算力规模不断扩大，算力布局逐步优化，算力成效稳中向好。内蒙古能源富足、气候冷凉、区位优势明显、产业基础完备，呼和浩特成为国家算力枢纽节点，建成国家级互联网骨干直联点，算力发展具有广阔发展前景，建议未来一个时期，要提能效，加强绿色算力能源供给水平;促创新，强化绿色算力技术应用创新;强赋能，提升绿色算力应用水平。', '赵策说，本次大会为大家提供了一个良好的交流平台，希望各方通过本次会议，凝聚发展共识，探索有效路径，加快算力产业高质量发展，为加快制造强国、网络强国、数字中国建设提供有力支撑。', '贺海东在作主题推介时从“我们为什么要举办这次中国绿色算力大会”“发展数字经济和绿色算力，我们有基础、有优势”“发展数字经济和绿色算力，我们目标明确”三个方面，介绍了呼和浩特数字经济、绿色算力等情况。', '会上，和林格尔绿色算力发展研究中心、中国移动呼和浩特绿色智算中心、联通(内蒙古)产业互联网有限公司揭牌，“和林格尔绿色算力超市”启动上线。', '大会还发布了《2023中国绿色算力发展研究报告》和《和林格尔绿色算力指数研究报告》。', '中国工程院院士郑纬民在大会上作了“算力的互联和互通”主旨演讲。中国电信集团副总经理栾晓维、阿里云计算有限公司副总裁卫炜等10人作了主题演讲。12个数字经济重点项目在大会上签约。', '来自国家相关部委、中国工程院、全国一体化算力网络国家枢纽八大节点和十大数据中心集群地方政府、自治区有关指导单位以及通信运营商、金融机构、高校科研机构、头部企业等近800人参加了会议。']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>25</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>兴安盟党政考察团来呼和浩特市考察交流包钢张晓兵苏和贺海东参加</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2021-12-02</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/ztzl/yhyshj/ldhd/202112/t20211202_1067326.html</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['兴安盟党政考察团来呼和浩特市考察交流 包钢张晓兵苏和贺海东参加_ 呼和浩特市人民政府', '呼和浩特新闻网12月2日讯 据《呼和浩特日报》报道（记者 梁婧姝）12月1日，兴安盟党政考察团赴我市，对我市智慧城市指挥中心建设运行、12345接诉即办以及优化营商环境等工作进行考察交流。', '自治区党委常委、市委书记包钢，兴安盟盟委书记张晓兵，兴安盟盟委副书记、盟长苏和，市委副书记、市长、和林格尔新区党工委书记贺海东参加考察活动。', '考察团一行首先来到呼和浩特智慧城市指挥中心，观看《智慧城市数创未来》宣传片，听取关于我市智慧城市建设有关情况介绍，详细了解12345接诉即办、智慧应急、智慧养老、智慧停车、青城智慧抗疫平台等信息化系统。双方就智慧城市顶层规划编制、信息化项目管理及12345接诉即办指挥调度中心的工作内容、组织架构、运作方式、考评体系等进行了深入交流。双方一致认为，对于智慧城市建设，数据是灵魂、应用是根本、融合是方向、联通是基础、统筹是保障，信息化手段可以实现政府流程再造、程序简化、过程可控和效能监察，有效解决以往社会管理主体单一、方式粗放、反应滞后的问题，有助于提升城市精细化管理水平，增强群众的获得感幸福感。考察团对我市智慧城市建设工作给予高度评价，认为我市在智慧城市建设方面工作务实、推进力度大，走在了自治区前列，给其他地区提供了很多值得学习的宝贵经验。', '在市行政审批和政务服务局，考察团听取关于我市优化营商环境工作情况汇报，认真察看政务服务中心环境布置、功能分区、管理措施和部门联动、并联审批、快办快结、便民服务以及“蒙速办·一次办”落实情况，来到24小时自助服务区、“一网通办”专项攻坚组了解相关情况，同在场的有关负责同志深入交流。考察团对服务大厅干净整洁的环境、舒适休闲的等候区、便民利民的设施设备、标准化和人性化相结合的管理模式以及窗口工作人员热情的服务态度和高效的办事效率表示赞赏，认为首府近年来在优化营商环境上下足了功夫，很多先进做法值得借鉴。', '兴安盟领导李洪才、许宝全、张立华、董欣悦、杨冀鹏，我市相关单位和部门负责同志参加考察活动。']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>25</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>市委常委会会议暨市委学习贯彻习近平新时代中国特色社会主义思想主题教育领导小组第一次会议召开</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650097356&amp;idx=2&amp;sn=079bb2774626e4b662295b747e6cede5&amp;scene=0</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['市委常委会会议暨市委学习贯彻习近平新时代中国特色社会主义思想主题教育领导小组第一次会议召开', '传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '9月12日，市委常委会会议暨市委学习贯彻习近平新时代中国特色社会主义思想主题教育领导小组第一次会议召开，传达学习习近平总书记在黑龙江考察时的重要指示精神和在新时代推动东北全面振兴座谈会上的重要讲话精神，传达学习中央和自治区党委学习贯彻习近平新时代中国特色社会主义思想主题教育第一批总结暨第二批部署会议精神，听取我市学习贯彻习近平新时代中国特色社会主义思想主题教育筹备情况汇报，审议主题教育有关文件，安排部署相关工作。自治区党委常委、市委书记包钢主持会议。', '会议指出，呼和浩特要主动作为，找准东北振兴战略政策结合点，切实在融入新发展格局中体现首府担当。要准确把握“科技创新推动产业发展”的重要要求，紧盯产业链短板弱项，加快培育壮大“六大产业集群”，强化科技创新同产业发展的有机衔接，争取更多科技成果落地，激发各方面科技创新潜能。要准确把握“发展现代化大农业”的重要要求，巩固提高粮食生产能力，着力提升耕地质量，牢固树立大食物观，做强首府奶业“育好种、种好草、养好牛、产好奶、建好链”全产业链。要准确把握“大力发展特色文化旅游”的重要要求，加强文旅产业市场化运作，积极打造“北疆文化”品牌，加快历史文化名城、现代文明之城、艺术之城、博物馆之城建设，打造具有全国影响力的城市IP。要准确把握“构筑向北开放新高地”的重要要求，大力拓展国际物流业务，发展现代物流、保税加工、国际贸易，推动“过路经济”向“落地经济”转变。要准确把握“人口高质量发展”的重要要求，不断做大产业规模、扩大优质教育供给、优化医疗资源布局、改善城市基础设施，不断提升首府人口吸附能力。', '会议强调，要高标准、高质量开展好第二批主题教育，做到思想高度重视、全面把握要求、强化组织领导，推动全市广大党员干部经受一次全面深刻的政治教育、思想锤炼、精神洗礼，把学习成效转化为坚定理想、锤炼党性和指导实践、推动工作的强大力量。', '会议还传达学习了9月10日自治区党委常委会会议精神，强调要吸取鄂尔多斯市杭锦旗独贵塔拉工业园区亿鼎公司安全事故深刻教训，加大对我市重大危险源、重点化工工艺场所、易燃易爆场所的排查整治力度，健全各项安全制度，着力从根子上消除隐患，坚决遏制重特大安全事故发生。', '会议听取了全市供热保障筹备情况汇报，强调要紧盯时间节点，加快推进城区热源热网建设、燃煤供热锅炉淘汰和燃煤散烧整治等工作，提前安排部署，做好供热设备调试、温度检测和应急处置预案，确保按时高质量供暖。']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>25</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>回民区召开年度政法工作会议</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2024-02-29</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tpxw_56060/202402/t20240229_1665704.html</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['2月28日下午，回民区召开2024年度区委政法工作会议，会议坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻习近平法治思想，认真落实中央、自治区党委、市委政法工作会议精神，总结过去一年工作，分析当前形势任务，研究部署2024年和今后一个时期全区政法工作。会议由区人民法院院长周燕主持，区政法各单位领导班子成员、区信访局领导班子成员、区委政法委全体领导干部、区有关部门分管政法工作的领导干部及一镇七办政法委员参加了会议。区委副书记、政法委书记赵博出席会议并讲话。', '会议指出，2023年面对艰巨繁重的改革发展任务和错综复杂的稳定形势，全区政法系统认真贯彻落实党中央决策部署和自治区党委、市委、区委工作要求，把上级的工作部署与回民区实际结合起来，紧紧围绕落实“筑牢祖国北疆安全稳定屏障”重大政治责任，以实施“基层基础提升年”为抓手，深入推动“八大专项行动”，坚定不移抓学习、强队伍、提能力、保安全、促发展，党对政法工作的领导更加坚定有力，政法队伍作风能力显著提高，基层基础不断夯实，法治政府建设扎实推进，社会大局保持安全稳定，人民群众的安全感和满意度不断增强。展现出了政法队伍的新面貌、新作为。', '会议要求，新的一年，全区政法机关要坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻习近平法治思想，准确把握总体国家安全观，深入学习贯彻习近平总书记在内蒙古考察时的重要指示精神，按照中央决策部署和自治区党委、市委、区委工作安排，坚持党对政法工作的绝对领导，坚持以人民为中心的发展思想，坚持和发展新时代‘枫桥经验’，紧紧围绕落实好“两件大事”，忠诚履职，担当作为，全力抓好防风险、保安全、护稳定、促发展各项工作，着力提升法治化营商环境建设水平、信访代办制工作水平和矛盾纠纷排查化解法治化水平，持续加强政治机关建设和政法队伍建设，以政法工作现代化支撑和服务回民区经济社会高质量发展，为全区加快建设“四个城区”，打造首府现代化消费中心保驾护航。', '会议强调，要继续坚持党对政法工作的绝对领导。重点要做好8个方面工作。要坚持不懈用习近平新时代中国特色社会主义思想凝心铸魂，持续巩固拓展主题教育成果。要深入贯彻总体国家安全观，主动防范化解重大风险，确保全区政治大局稳定。要深化“平安回民区”建设，始终把工作做在前端、做在平时，推动维护社会稳定向事前预防转变。要在巩固基层治理工作成效的基础上，坚持和发展新时代“枫桥经验”，继续在重点领域、薄弱环节上做优做细。要紧紧围绕争创国家信访示范区，一手抓信访代办，一手抓积案化解，以解决问题的实效取信于民。要坚定坚决支持公检法等部门依法履职，强化执法监督，确保高质量的办理每一个案件，让全区群众感受到公平正义就在身边。要坚持加强政法队伍建设，切实提升政法干警能力素质，激励干警担当作为，不断提升政法干警法治化、专业化、实战化水平。要及时总结经验亮点，加大宣传推广力度，坚持讲好回民区政法故事。']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>25</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>呼和浩特市赛罕区第五届人民代表大会第三次会议开幕</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2024-01-11</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/qxqdt/202401/t20240111_1645931.html</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['凝心聚智谋发展，履职尽责显担当。1月9日，呼和浩特市赛罕区第五届人民代表大会第三次会议隆重开幕。来自全区各行各业、各条战线的人大代表们汇聚一堂，肩负全区人民的重托，履行宪法和法律赋予的神圣职责，共谋发展大计。', '会议现场气氛庄严热烈，主席台帷幕中央，国徽高悬。会场内悬挂着横幅:“立新图强，创新赋能，为奋力书写中国式现代化的首府新篇章贡献赛罕力量”，表达了全体参会人员的共同心声。', '上午9时，大会在雄壮的国歌声中正式开幕。会议由区人大常委会党组书记、主任焦艳红主持。区委副书记、政府区长李玉蛟代表赛罕区人民政府向大会作政府工作报告，报告分2023年工作回顾、2024年工作安排及努力建设人民满意的服务型政府三个部分。', '报告指出，2023年是全面贯彻落实党的二十大精神的开局之年，习近平总书记第四次到内蒙古考察，特别是亲临中环产业园作出重要指示，为我们指明了前进方向，这是赛罕区发展史上具有里程碑意义的大事。全区上下深受鼓舞、感恩奋进，坚定把学习贯彻习近平总书记考察内蒙古时的重要指示精神作为最重要的政治任务、最根本的工作遵循，深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育，以铸牢中华民族共同体意识为主线，扎实推动高质量发展，各项工作齐头并进，经济社会发展取得新成绩。', '报告从“主要经济指标再攀新高，综合实力提级跃升;产业优势加速放大，经济能级持续提升;营商环境持续优化，科技创新活力迸发;城市能级和品质不断提升;美丽赛罕底色更加亮丽;群众获得感、幸福感、安全感显著增强;干部工作作风明显转变”七个方面回顾总结了区政府2023年的主要工作。', '报告提出，2024年经济社会发展主要预期目标是:地区生产总值增长10%以上，规上工业增加值增长20%以上，固定资产投资增长30%左右，社会消费品零售总额增长15%以上，外贸进出口总额增长15%以上，一般公共预算收入增长12%以上，全体居民人均可支配收入增长6.5%左右。', '报告强调，2024年重点从以下八个方面努力:一是扛实扛牢在全市高质量发展中肩负的重要责任，坚持“一切围绕项目转、一切聚焦项目干”，上争外引，以项目建设强引擎，推进高质量发展加速跑。二是保持抓二产、园区、实体经济，生产性服务业、高端服务业和增加城市“烟火气”的决心不动摇，抢抓未来产业布局，以实干为先发展优势产业，不断做大经济总量。三是坚持提级赋能创新、改革、开放，加快产业转型升级，持续增强发展活力和动力。四是坚持抓城市建设、人口增长和基础设施互联互通，精心构建城市格局，提升功能品质，强化建管并重，做宜居环境的示范者。五是保持抓生态保护、污染防治和美丽赛罕建设的定力和决心，围绕争创自治区“绿水青山就是金山银山”实践创新基地、国家生态文明建设示范区，加快发展提级转型，夯实生态绿色底蕴。六是用好“千万工程”经验，坚持用“工业化”思维推动农业链式发展，构建“农业+”产业融合发展新模式，推进和美乡村建设，夯基筑本推动“三农”发展，全面推进乡村振兴。七是保持抓民生福祉、安全生产、社会治理的决心不动摇，在集聚人口上下功夫，坚持尽力而为、量力而行，在持续兜住、兜准、兜牢民生底线的基础上，用心用情保障改善民生，统筹发展社会事业。八是坚定不移筑牢安全稳定底线，不断铸牢中华民族共同体意识，持续在提升城市治理水平和提高防控风险能力上下功夫，扎实开展平安赛罕建设。', '大会还听取了赛罕区2023年民生实事项目完成情况及2024年民生实事候选项目形成情况的报告;审查了《赛罕区2023年国民经济和社会发展计划执行情况与2024年国民经济和社会发展计划(草案)的报告》《赛罕区2023年财政预算执行情况和2024年预算(草案)的报告》。']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>25</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>呼和浩特市人民政府外事办公室年度法治政府建设工作报告</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2022-01-24</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/zfxxgknew/fdzdgknr/bmgk/202201/t20220124_1171726.html</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['呼和浩特市人民政府外事办公室2021年度法治政府建设工作报告_ 呼和浩特市人民政府', '2021年，在市委、市政府的正确领导和市委全面依法治市委员会办公室的指导下，我办坚持以习近平新时代中国特色社会主义思想为指引，全面贯彻落实党的十九大和十九届二中、三中、四中、五中全会精神，深入学习贯彻习近平法治思想，严格落实市委、市政府提出的法治政府建设各项工作任务，坚持把外事工作纳入法治化轨道，稳步推进依法治市各项工作任务。现将有关工作情况报告如下：', '我办切实提高政治站位，紧紧围绕市委、市政府中心工作，以法治政府建设为抓手，认真贯彻落实市委依法治市委各项工作任务到位。', '一是深入学习贯彻习近平法治思想。我办结合外事工作实际，制定年度法治学习计划，把习近平法治思想、宪法法律和党内法规等内容列入《市外事办党组理论中心组2021年学习方案》，坚持领导干部带头学，组织党员干部深入学，引导干部群众积极学。特别是将习近平法治思想作为一项重要学习任务，与深入贯彻落实党的十九届五中全会精神结合起来，与学习贯彻习近平总书记考察内蒙古重要讲话指示精神结合起来，与坚决落实市委、市政府对加强法治政府建设的部署要求结合起来，2021年至今，我办开展党组理论中心组学习习近平法治思想、法律法规、党内法规等内容共9次、支部学习会共15次，通过集中传达、专题研讨等形式，确保第一时间把习近平总书记关于全面依法治国重要决定、重要指示批示以及法治政府建设政策理论和相关会议精神传达到位。', '二是强化履行推进法治建设第一责任人职责。我办主要负责人认真履行“第一责任人”职责，坚决贯彻落实党中央关于全面依法治国的重大决策部署要求，做到法治工作与中心工作同部署、同研究，将法治政府建设纳入我办年度工作要点，坚持“一把手”负总责、分管领导抓协调、主管科室具体落实，相关科室密切配合，确保各项工作依法依规开展。全年召开法律专题座谈会2次，在重要工作、重大问题、重点环节中涉及的法律政策相关问题，充分听取专业法律顾问意见，进行有效分析研判，推进全面依法履职。', '我办认真贯彻落实市委、市政府各项工作部署，狠抓责任落实，严格按规定和制度办事，保障各项工作于法有据、依法履行。', '一是我办扎实做好市委全面依法治市委员会办公室交办的各项工作任务，严格按照《2021年度旗县区、经济技术开发区、市直单位全面依法治市考评细则》要求，结合我办工作实际，认真梳理各项指标内容，制定《市外事办关于落实全面依法治市工作任务清单》，明确责任科室、责任人和具体工作任务，加强工作调度，督促各科、中心将法治政府建设各项任务落实落细，形成“人人肩上有责任、法治工作能落实”的工作体系。', '二是进一步依法依规开展工作。我办严格贯彻落实《呼和浩特市人民代表大会关于进一步优化营商环境的决定》《贯彻落实自治区党委政法委员会自治区党委全面依法治区委员会办公室〈关于进一步优化法治化营商环境的若干措施〉的分工方案》，结合工作实际，进一步优化我办法治化营商环境。我办窗口科室出国审理科推出线上办、马上办、最多跑一次工作流程，为企业简化办理手续，截至目前，全市派出因公出国（境）团组1批5人次，为14家企业邀请外国专家技术人员28批39人，为我市6名企业人员办理APEC商务旅行卡，在服务我市企业发展和拓展国际交流合作做出积极努力。对外友好交流中心增设翻译件网上受理及邮寄服务，承诺3个工作日内完成翻译、邮寄服务，方便群众足不出户、一次性办成业务。截至目前，共受理涉外证件、证明翻译材料等954份，其中线上接件共计330份，为办事群众邮寄翻译件152份。为健全完善政府守信践诺、进一步提升政府公信力，培育良好营商环境发挥外事力量。', '我办充分提高思想认识，扎实推进法治建设学习宣传教育，切实增强法治宣传教育实效，进一步提高普法工作水平。', '一是积极营造学法用法的良好氛围。按照《呼和浩特市关于落实国家工作人员学法用法制度的实施办法》，结合我办工作实际，制定年度法治政府建设学习计划，创新学习方式，将集中学习和个人自学相结合的方式，组织全办干部认真学习习近平法治思想、法律法规、党内法规等内容共24次，提高全办干部学法、懂法、用法意识，提升知法、守法、用法的工作水平。同时，邀请专业法律顾问在办内开展《中华人民共和国公务员法》等法律法规知识专题培训，充实法律专业知识，提升干部法律意识。', '二是认真做好法治宣传教育工作。定期通过部门网站、政务新媒体发布法治宣传信息21次，重点宣传解读习近平法治思想、习近平总书记提出的“11个坚持”重要论述，中央依法治国工作会议精神、自治区党委全面依法治区工作会议和市委全面依法治市委员会会议精神，《民法典》等基本法律法规、疫情防控有关热点难点法律政策，提高群众对法治建设的认同感和信任感，为常态化疫情防控和社会稳定发展提供法治保障方面做出积极努力。', '下一步，我办将继续深入学习贯彻对习近平总书记关于依法治国重要论述重要指示批示精神，按照市委、市政府关于法治政府建设工作要求，结合我办工作实际，抓好工作落实，进一步提高干部知法懂法的能力，运用法治思维指导外事工作，为推动首府社会经济高质量发展营造良好法治环境做出积极贡献。']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>25</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>市商务局年政务公开工作要点</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2019-08-12</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/sswj_22417/xxgknb/202105/t20210525_931009.html</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['2019年是中华人民共和国成立70周年，也是全面建设小康社会关键之年。做好全局今年政务公开工作，要', '全面贯彻党的十九大和十九届二中、三中全会以及中央经济工作会议精神，特别是以深入学习贯彻习近平总书记考察内蒙古重要讲话精神为指导，', '以维护人民群众的根本利益为出发点和落脚点，全面深化商务领域决策、执行、管理、服务、结果信息公开，加强解读回应，扩大公众参与，细化政务公开任务，不断提升政务公开的质量和实效，让行政机关的权利在阳光下运行。', '优化政策解读、新闻发布机制，完善舆情收集、研判和回应机制。聚焦重大工作部署，对本部门印发的与民生密切相关、市场主体和新闻媒体高度关注的新政策、新文件，按照“谁起草、谁解读”原则，切实做到政策文件与解读材料同步考虑、同步安排、及时发布，注重运用数字化、图表图解、音频视频等方式，提高政策解读的针对性、科学性、权威性。加强重大政务舆情回应督办工作，依法依规明确回应主体，落实责任。对涉及我局的重要政务舆情、媒体关切、突发事件等热点问题，要按程序及时、认真回应关切。', '做好财政预决算及“三公”经费的公开，推进“放管服”改革信息公开，着重公开商务领域重点改革任务、重要政策、重大建设工程项目、民生举措的执行措施、实施步骤、监督方式，推进公共资源配置领域政府信息公开。做好市委、市政府全面深化重点任务责任分工方案和《2019政府工作报告》重点目标任务责任落实分工，对涉及公共利益、社会广泛关注的各项事务，原则上都要公开答复全文，及时回应关切，接受群众监督。', '按月公开我市社会消费品零售总额完成情况和对外贸易进出口完成情况，保障其持续平稳运行。', '按月公开消费市场及成品油运行情况，引导消费升级，加大“双随机一公开”执法的公开透明。', '必须把政务公开工作与其他各项工作统筹起来研究部署，政务公开涉及决策、执行、监督各个环节，整体推进，形成综合效应，提升我局信息发布、政民互动、办事服务的整体水平。', '严格政务信息公开审批制度。公开信息由各相关科室按要求提供公开信息内容，经业务分管领导把关、保密分管领导同意，才能进行政务公开。', '强化监督，科学设置考核指标。建立健全政务公开常态化督查机制，完善政务公开绩效考核评价制度，纳入党风廉政建设责任制内容，列入各科室年终考核中，完善正向激励机制，强化考核问责机制，确保既定部署落地生根、见到实效。发现不足，及时整改。', '做好信息安全及保密管理工作。严格遵循政府信息公开保密审查制度，坚持“先审查后公开”和“谁提供、谁审核、谁负责”的原则。局办公室、各科室负责人及相关分管领导要严格把关，任何信息未经审核一律不得发布，任何涉及国家安全和有保密要求的信息均不得发布。']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>25</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>中国共产党呼和浩特市第十三届委员会第六次全体会议公报</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2023-07-13</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650094831&amp;idx=2&amp;sn=6570d085207283a24c6da108fb5ec219&amp;scene=0</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '7月12日，自治区党委常委、市委书记包钢在中国共产党呼和浩特市第十三届委员会第六次全体会议上讲话。刘清羽 闫鑫 摄', '7月12日，中国共产党呼和浩特市第十三届委员会第六次全体会议举行。刘清羽 闫鑫 摄', '出席会议的有，市委委员49人，候补委员11人，市级有关领导同志、纪委常委监委委员和有关方面负责同志，部分党代表列席会议。', '全会认为，今年是内蒙古发展历程中极不平凡、值得铭记的一年。习近平总书记第四次亲临内蒙古考察，不仅给我们提出了新要求、明确了新目标，而且为我们点了赞、加了油、鼓了劲，给内蒙古带来了重大政策利好和宝贵发展机遇，意义十分重大、影响十分深远。', '全会强调，要优化产业结构，坚持有所为有所不为，保持大抓产业、大抓实体经济的定力，推动“六大产业集群”向高端化、智能化、绿色化迈进。乳产业要围绕“育好种、种好草、养好牛、产好奶、建好链”的全产业链发展思路，下大力解决好草源、牛源、奶源等“卡脖子”问题，加快国家乳业技术创新中心投用，积极争创国家草业技术创新中心，推动由“中国乳都”向“世界乳业科技之都”迈进。硅材料产业要突出抓好两条产业链，推动光伏硅材料产业构建从多晶硅、单晶硅、切片到电池、组件、光伏电站的全产业链;半导体硅材料产业要延伸切片、抛光、研磨、清洗、封装、检测等产业链条，积极引进集成电路、光电器件、传感器、存储器、电子特气等下游应用项目，打造“中国半导体硅材料之谷”。大数据产业要加大引进装备制造、数据标注、数据清洗、数据交易以及算法编程等方面的企业，加快布局人工智能产业，争取设立数据要素市场，推动算法、算据、算力全产业链发展，打造“中国云谷”和中国绿色算力中心。化工产业要按照“能化一体”思路，突出抓好石油化工、煤化工、煤焦化工、氯碱化工四条产业链，促进化工产业高端化、多元化、低碳化发展。清洁能源产业要推进建设绿电消纳示范基地项目，依托大唐、金山两个大型火电基地推进金山三期、金桥二期项目，加快建设呼和浩特抽水蓄能二期、清水河抽水蓄能一期，建设千万千瓦级风光新能源生产基地和氢能储能产业研发制造基地。生物医药产业要高起点建设国家动物疫苗技术创新中心，大力提升成品药制剂生产比例，推进动物疫苗、生物发酵与制药、中医药(蒙医药)产业发展。要推动“六大产业集群”链式化发展，实现相关集群之间相互耦合，形成系统完备的产业集群链。要彻底理顺开发区管理体制和运行机制，解决好职能重叠交叉的问题，推动开发区把主要精力放在经济管理、项目建设和招商引资上。要更好融入国内国际双循环，坚定不移实行高水平对外开放，发挥首府区位、交通、产业优势，加快建设中欧班列集结服务中心、铁路运输类海关监管作业场所，积极培育外向型产业，推动货物和服务贸易向首府集聚，加快实现“过路经济”向“落地经济”转变;高起点规划建设呼和浩特新机场临空经济区和空港城，做大做强航空物流业;加强与京津冀、长三角、粤港澳大湾区和东三省的联通，积极承接国内先进产业转移;密切与雄安新区的合作联系，做好“融进去”和“引进来”的文章。', '全会强调，要坚持把生态环境保护挺在前头，巩固发展国家生态文明建设示范市创建成果。要完善“两屏、四带”的城市生态空间布局，不断厚植首府的生态优势。要坚决打好“三北”工程攻坚战，做好“三北”防护林补植补造、森林抚育、退化林修复等工作。要坚决打好黄河“几字弯”攻坚战，高标准开展黄河流域综合治理，深入实施沿黄生态廊道建设、哈素海生态治理、大黑河河道修复整治、大青山前坡山洪沟治理等工程，加快推进黄河滩区综合整治。要深入打好污染防治攻坚战，扎实做好中央环保督察反馈问题整改，加快推进北方地区冬季清洁取暖城市、无废城市建设，推进大唐长输供热、金山电厂供热、供热管网互联互通等工程。要抓好资源节约集约利用，树立“节约就是增长、就是发展”的理念，持续深化“五个大起底”行动，深入推进能源、土地、水、粮食、行政资源等各领域节约。', '全会强调，要不断增进民生福祉，在发展中保障和改善民生。要把就业摆在突出位置，深入实施国家公共就业服务提升示范项目，实施好三年“十万大学生留呼工程”，加快保障性租赁住房建设，解决好大学生就业创业后顾之忧，真正让大学生在首府留得住、干得好、有奔头。要加快区域教育医疗中心建设，全面优化教育布局，扩大优质教育资源供给;深入推进公立医院改革与高质量发展三年行动，全面提升首府医疗卫生服务水平。要完善城市基础设施建设，优化“一横、两纵、四环、三枢纽”的城市立体交通体系，提升道路通达能力;深入推进“断头路”、背街小巷、老旧小区、棚户区改造;推进海绵城市建设，不断提升防汛排涝能力。要扎实推进基层社会治理，强化基层人员配备，落实社区工作者“三岗十八级”薪酬体系，畅通社区工作者晋升通道，加强基层党建引领，提高基层服务效能。', '全会强调，要对标以学正风重要要求，大兴务实之风、弘扬清廉之风、养成俭朴之风，大力弘扬蒙古马精神和“三北”精神，切实转变思想观念、增强实干意识。要增强“首府就是要首起来”的意识，抓住自治区出台支持呼和浩特市高质量发展的意见的有利机遇，把首府的基础设施和产业做起来，提升首府的首位度。要增强“二产强才是真正强”的意识，保持战略定力，心无旁骛做实业，真正把实体经济作为首府的立市之本、强市之基。要增强“人力资源就是财富”的意识，下大力气通过现代产业、教育医疗、宜居环境集聚人口，增添首府城市发展活力。要增强“按经济规律办事”的意识，把该管的事情切实管好、管住，把不该管的事情放给市场、交给社会。要增强“实实在在交卷和报账”的意识，匡正干的导向，增强干的动力，形成干的合力，树牢造福人民的政绩观、鼓足干事创业的精气神、形成狠抓落实的好局面。要增强“新官要理老经验”的意识，认真开展经验成果大起底，形成一批具有示范效应、能复制、可推广的成果和经验，充分展现现代化区域中心城市的良好形象，不断提升外界对首府的向往度、美誉度。', '全会号召，全市各级党组织和广大党员干部要更加紧密地团结在以习近平同志为核心的党中央周围，牢记嘱托、感恩奋进，以实实在在的工作成效，向习近平总书记和党中央交上一份合格答卷。']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>25</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>市委常委会会议暨市委学习贯彻习近平新时代中国特色社会主义思想主题教育领导小组第三次会议召开</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2023-10-19</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650098840&amp;idx=2&amp;sn=b817eb018ebfe2c9531c450e33224f22&amp;scene=0</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['市委常委会会议暨市委学习贯彻习近平新时代中国特色社会主义思想主题教育领导小组第三次会议召开', '传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '10月18日，市委常委会会议暨市委学习贯彻习近平新时代中国特色社会主义思想主题教育领导小组第三次会议召开，传达学习近期习近平总书记重要讲话重要指示精神和《国务院关于推动内蒙古高质量发展奋力书写中国式现代化新篇章的意见》，传达学习全区重点工作推进会和自治区党委常委会会议精神，安排部署贯彻落实工作。自治区党委常委、市委书记、市委主题教育领导小组组长包钢主持。', '会议强调，要深入学习贯彻习近平文化思想，认真落实习近平总书记对宣传思想文化工作作出的重要指示精神，扎实做好全市宣传思想文化工作。要强化宣传阵地意识，牢牢掌握宣传工作的领导权、主动权，不断提升新闻舆论传播力和影响力。要系统梳理青城历史文脉，用好博物馆资源，全方位挖掘、阐释、宣传首府的历史文化，加快建设雕塑艺术之城，在打造“北疆文化”品牌中展现首府作为。', '会议强调，要认真学习领会习近平总书记在江西考察时和在进一步推动长江经济带高质量发展座谈会上的重要讲话精神，加快构建现代化产业体系，推动传统产业提档升级，培育壮大战略性新兴产业，积极布局未来产业。要始终坚持生态优先、绿色发展，抓好产业生态化和生态产业化。要构建全方位开放格局，发展开放型经济，以战略眼光做大做强“首府都市圈”。', '会议指出，国务院出台《关于推动内蒙古高质量发展奋力书写中国式现代化新篇章的意见》，在内蒙古发展史上具有里程碑意义。要按照全区重点工作推进会部署要求，吃透用好政策，立即行动起来，拿出具体落实举措，加强与上级部门的对接沟通，积极争取政策项目支持，努力把国家政策红利转化为首府高质量发展的实效。要筹备召开全市重点工作推进落实会，全力推动各项工作高效落实。', '会议传达学习了自治区党委书记孙绍骋对做好办公厅工作作出的批示及全区党委和政府秘书长会议精神，对相关工作作出安排部署。', '会议强调，要认真落实自治区党委常委会会议精神，全力抓好第四季度经济运行，保持住发展势头，拿出攻坚冲刺劲头，确保完成今年经济社会发展目标任务。要及早谋划明年经济社会发展工作举措，提高工作的前瞻性、主动性、创造性，为全区大局多作贡献。', '会议听取了关于自治区党委巡视组常规巡视、专项巡视反馈意见整改落实情况汇报，强调巡视整改是一项严肃的政治任务，要以解决问题为导向，坚决做好巡视“后半篇文章”，确保巡视反馈问题整改到位。', '会议听取了我市优化营商环境和知识产权保护工作情况汇报，要求切实增强知识产权保护意识，总结宣传好本地依法治市和优化营商环境及保护知识产权的好经验好做法，切实营造最优发展环境，持续提升城市核心竞争力。']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>25</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>清水河县人民政府关于印发清水河县公立医院改革与高质量发展三年工作方案年的通知</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2024-01-19</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/hhht_zfgb/qsh/qsh2023/202302/202401/t20240119_1649854.html</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['清水河县人民政府 关于印发《清水河县公立医院改革与高质量 发展三年工作方案（2023-2025年）》 的通知', '现将《清水河县公立医院改革与高质量发展三年工作方案（2023－2025年）》随文印发给你们，请认真贯彻执行。', '为贯彻落实国务院办公厅《关于推动公立医院高质量发展的意见》（国办发〔2021〕18号）和《呼和浩特市公立医院改革与高质量发展三年行动方案（2022－2024年）》（呼政办字〔2022〕82号）精神，持续改善基本医疗卫生服务公平性可及性、常态化防控新冠感染等重大疫情、保障人民群众生命安全和身体健康，推动公立医院高质量发展，结合我县实际，制定本工作方案。', '以习近平新时代中国特色社会主义思想为指导，全面贯彻党的二十大精神，坚持以人民为中心的发展思想，把人民健康放在优先发展的战略位置，坚持政府主导、公益性主导、公立医院主导，坚持医防融合、平急结合、中西医并重，以建立健全现代医院管理制度为目标，通过体系创新、技术创新、模式创新、管理创新，深化医疗、医保、医药三医联动改革，推动公立医院发展提质增效，运行模式从粗放管理转向精细化管理，资源配置从注重物质要素转向更加注重人才技术要素，为建设健康清水河奠定坚实基础。', '明确医疗机构功能定位，以实现“大病重病在自治区解决，一般病、常见病在市县解决，头疼脑热在乡镇村解决”为目标，加快推进优质医疗资源扩容下沉和均衡布局，做实分级诊疗，双向转诊更加顺畅。提升卫生健康信息化水平，推进智慧医院建设。力争到2025年，医院管理更加规范化、精细化、科学化，县级医院达到二级甲等水平，遴选2个优质专科努力创建自治区级重点专科、遴选6个科室打造市级重点专科、 遴选7个专科培育建设县级临床重点专科。', '建立以县公立医院为骨干，基层医疗卫生机构为基础，体系完整、分工明确、功能互补、密切协作的医疗卫生服务和分级诊疗就医格局，全力推进清水河县公立医院改革与高质量发展。', '1．推进县医院业务用房项目建设。按照二甲综合医院标准规划建设清水河县医院业务用房和相关附属设施。总用地面积12295.16㎡，总建筑面积34662.6㎡，设置床位260张，建成功能完善、布局合理、设备齐全、规模适度、环境优美，集医疗、预防、保健、教学等为一体的综合性医院。', '2．提升基层医疗服务能力建设。加强乡镇卫生院和社区卫生服务中心标准化建设，乡镇卫生院60％达到基本标准，20％以上达到自治区推荐标准。全面提升基层中医药在治未病、疾病治疗、康复、公共卫生、健康宣教等领域的服务能力。加强基层医疗机构中医药科室建设，力争实现社区卫生服务中心和乡镇卫生院全部设置中医馆、配备中医医师，100％的社区卫生服务站和80％以上的村卫生室能够提供中医药服务。持续提升基层医疗服务能力，做好县域居民健康“守门人”。', '1．加快推进紧密型县域医共体建设，形成县域就医诊疗服务新格局。推动总医院与中蒙医院、疾病预防控制中心、妇幼保健计划生育服务中心等资源融合发展。落实中蒙医服务、慢性病防治、妇幼保健、医养结合、免疫规划管理和预防接种服务、筛查与体检平台、健康教育等公共卫生与医疗资源一体管理，提升实验室检查检测能力，推动检查检测结果互认。建立医防融合项目清单并签订服务协议，做实基本医疗、中蒙医、基本公共卫生服务、免疫规划、妇女儿童保健、性病艾滋病防治、慢性病管理、健康教育等相关监测工作，为公众提供多层次、多维度的疾病防治服务；落实妇女“两癌”筛查、新生儿疾病筛查等妇幼健康公共卫生服务。', '责任部门：县委编办、县卫健委、县财政局、县医疗保障局、县人力资源和社会保障局、各乡镇人民政府', '（1）加强家庭医生队伍建设。扩容加强家庭医生队伍建设，每年将优秀的临床医学毕业生按照县聘乡用的办法吸引到基层服务，将符合条件的公立医院专科医师、公立医院中级以上职称的退休医师纳入签约队伍，或将非政府办医疗机构（含个体诊所）医师纳入家庭医生签约服务团队。', '（2）丰富家庭医生服务内容。建立全方位全生命周期健康管理服务，采取全专结合、医防融合组合式签约等方式。针对居民健康状况和需求，制定不同类型的个性化签约服务内容，包括慢性病、康复、医养结合、安宁疗护、智能辅助诊疗等服务。发挥中医药（蒙医药）作用，强化健康管理服务，完善“分片、分级、分类”慢性病管理，提升家庭医生对高血压、糖尿病、结核病、严重精神障碍等主要慢性病患者的健康管理水平，2024年老年人等十类重点人群签约覆盖率保持在70％以上。按照县域医共体建设的网格化布局，引导二级医院采取“包干分片”方式，通过对口支援、科室共建、人才下沉、多点执业等多种途径，促进优质医疗资源下沉，与基层医疗卫生机构一起壮大签约服务力量，共同做好家庭医生签约服务。', '（3）推进基层门诊、病房建设，提升家庭医生服务能力。赋予家庭医生一定比例的医院专家号、住院床位等资源，对经家庭医生团队转诊的患者提供优先接诊、优先检查、优先住院等服务。2023年底签约的65岁以上老年人、残疾人等重点人群实现家庭医生预约号源、上级转诊绿色通道全覆盖。对于符合条件的签约慢性病患者，建立家庭医生长处方制度，单次配药量从4周逐步增加到12周，减少病人往返开药的频次。', '（4）健全家庭医生签约服务激励机制。家庭医生团队为居民提供特色打包医疗服务、健康服务以及便民服务等，落实签约服务费由医保基金、基本公共卫生服务经费和签约居民付费等方式共同分担。县医院、中蒙医院在绩效工资分配上向签约服务的医师倾斜。', '3．推动落实分级诊疗制度。按照“两级共建、网格布局、均衡配置”，针对基层医疗卫生机构短板弱项，以科室为单位，通过人才下沉、技术下沉、管理下沉、病种下沉的方式，u着力推动基层医疗机构发展，落实分级诊疗制度。', '（2）依托“双首”行动和名医工作室，邀请区内外医学专家定期或不定期开展临床诊疗、指导工作，利用名医名家的诊疗能力，提升服务能力、方便老百姓。', '责任部门：县财政局、县人力资源和社会保障局、县医疗保障局、各乡镇人民政府、县医院、中蒙医院', '加强县级医院临床重点专科建设，着力打造品牌和优势，全面提升核心竞争力，坚持外引内培，提升医院综合服务能力。进一步提高急诊急救医疗服务质量和服务效率，提供安全、有效、便捷的医疗服务，提升群众获得感。', '1．加强临床重点专科建设。建成老年病科、康复科2个区级重点专科；建成脾胃科、针炙科、治未病、肾内科、呼吸危重症科、内分泌科6个市级重点专科；建成心血管内科、消化内科、变态反应科、骨科、肛肠科、普外科、治未病科7个县级临床重点专科，打造县级医疗“龙头”效应，提高县域就诊率。以人民群众喜好的中医（蒙医）服务作为出发点和落脚点，加快推进中医（蒙医）特色专科建设，加强内科、妇科、针灸推拿、骨伤、治未病等中医（蒙医）特色专科和医技科室建设，推广中西医结合等诊疗技术，提高中医优势病种诊疗和综合服务能力。', '2．推进医学技术合作与能力转化。县医院依托自治区、市级三甲医院，建成肾内科博士工作站和消化内科、心血管内科、内分泌科、创伤、卒中等名医工作室；中蒙医院依托北京中医药大学附属护国寺中医医院和自治区国际蒙医医院合作，建成王利平工作室和贾淑华、王永胜名老中医工作室；妇幼保健计划生育服务中心依托自治区、市妇幼保健院提升妇女、儿童保健服务能力。', '3．提升急诊急救服务能力。以危急重症为重点，加强县域急诊急救和“五大中心”建设，健全院前急救、急诊急救体系，实现无缝衔接，重视2所县级医院急诊急救队伍建设，全面提升急诊急救的服务水平和救治能力，打通人民群众急诊急救生命绿色通道。', '县医院建立急诊急救、重症和“五大中心”与内蒙古人民医院重症医学科专科联盟，通过引进专家坐诊、带教、疑难病例讨论等方式，提高县医院重症诊疗、急救和护理水平。县医院、中蒙医院与市妇幼保健院建立危重孕产妇、危重儿童和新生儿会诊、转诊、技术指导等双向协作关系。提升院前急救能力。健全清水河县院前急救体系，规划建设总医院急救分中心和中蒙医院、五个乡镇卫生院院前急救转运站，合理布局院前急救网络，达到每3万人配备一台急救车和城市地区服务半径不超过5公里，农村服务半径10－20公里的标准，实现急危重症患者救治快速、高效、高质量运行。建设一支高效、稳定的急诊急救队伍，通过增加编制、合同备案制、劳务派遣、政府购买服务等多种形式，引进和培养急诊急救人才队伍。', '4．提升中蒙医综合服务能力。加强中蒙医院“治未病”科、康复科建设，基层医疗卫生机构中医馆（阁）提供“治未病”服务，将中医（蒙医）治未病服务纳入家庭医生签约服务内容。针对优势病种形成融中医（蒙医）与现代康复技术于一体的特色康复技术和康复方案。推动中医（蒙医）康复技术和康复器具进社区、进家庭、进康养机构；加强卫生院中医馆建设，开展六类10种以上中医适宜技术，社区卫生服务站、村卫生室提供4类6种以上中医适宜技术。加大中医文化保护传承和传播推广力度，广泛开展健康教育，实施中医（蒙医）文化传播行动，推进中医（蒙医）传统文化和知识进校园、进机关、进企业、进家庭、进社区、进乡村，推动开展中小学中医文化教育。', '责任部门：县财政局、县医疗保障局、县教育局、县民政局、县残联、县中蒙医院、各卫生院', '5．提升诊疗服务水平。积极开展多学科联合、中西医结合、长期护理、长期用药等服务新模式。建立患者综合服务中心（窗口），推进健康教育、疾病预防、预约诊疗、门诊和住院等一体化服务，各科室建立自己的专业知识库，开展入院、院中、出院三个阶段健康教育，把健康教育和健康促进融入医院管理中，形成公立医院医防融合服务新模式；制定完善长期护理服务指南，加强长期护理从业人员培训，提升长期护理服务能力。对长期护理人群的需求进行综合分析，提出差异化解决方案，扩大老年护理服务供给，不断满足老年人群健康服务需求。围绕老年人预防保健、基本医疗、康复护理、生活照料、精神慰藉等需求，在爱心家园、寿康养老院康养结合的基础上，加快推进县域医养结合项目。到2025年，建设1所具有医养结合功能的特困人员供养服务机构，护理型床位占比达到30％以上；开展长期精准用药服务。加大药师配备力度，持续开展药学服务培训，重点提高长期用药的药学服务能力。强化临床药师药事管理体系建设。', '深化公共卫生体系、应急管理机制改革，强化医疗机构公共卫生责任，构建分级分层的传染病应急响应和救治网络，提升应对重大突发公共卫生事件能力和应急处置质量。', '1．加强疾病预防控制能力。全面强化疾控中心疾病预防控制、健康危害因素监测与干预职能，推进疾控机构标准化建设，推动疾控与临床密切结合，提升全县疾病防控的业务管理能力；加强疾控中心实验室规范化建设，建成生物安全二级实验室，科学配置检验检测设备和人员，提升快速检测能力，具备开展新冠、流感、肠道和艾滋病病毒等病原体的核酸检测和抗体检测能力。根据需要，实施应急方舱医院、集中隔离点的建设，进一步筑牢疫情防控屏障；健全公共卫生执业人员培养、准入、使用、待遇保障、考核评价和激励机制，实施疾控人员岗位能力提升专项计划，开展疾控机构全员轮训，县乡村各医疗机构每年开展1次疾病预防工作培训，确保有疾控技术人员参与。', '责任部门：县委编办、县财政局、县发展和改革委员会、县人力资源和社会保障局、县疾控中心', '2．加强重大疫情救治能力。做好肝病、结核病、布鲁氏菌病、呼吸系统疾病的集中救治管理，全面提升县域内重大疫情防控救治能力，在县级医院建立疾病预防控制科；建立医疗机构公共卫生责任清单和评价机制，加强医疗机构传染病疫情、突发公共卫生事件信息管理监测报告、食源性疾病的监测报告、重点疾病监测报告以及院内传染病控制、职业病诊断、健康教育等公共卫生相关工作；提升重大疫情救治能力，加强医院负压病房、PCR实验室建设。县医院设立感染性疾病科和相对独立的传染病病区，具备传染病常规筛查、实验室及影像检查、病人留观和住院治疗等功能，落实预检分诊并发挥“哨点”作用。', '3．加强医防融合服务能力。坚持预防为主方针，推动医防深度融合，为群众提供疾病预防、诊断、治疗、营养、康复、护理一体化、连续性服务，推进“以治病为中心”向“以健康为中心”转变。', '（1）加快推进总医院疾控科与医疗机构建立健全分工协作、优势互补、业务融合的合作机制，将以疾控中心为主的公共卫生机构融入医疗机构，在医院内设机构总量内设置医防融合机构，通过专业人员、业务培训、监测报告融合，使疾控机构与医疗机构在病例报告、人员培训、现场流行病学调查、密切接触者追踪管理、疫点疫区的消杀处置等方面实现无缝衔接，发挥作用。', '（2）推进公共卫生和临床医疗队伍融合，组建由全科医生、上级医生、护士、公卫医师、药剂师等共同组成的医防融合服务团队，推动卫生医师定期参与临床诊疗过程、家庭医生签约服务、慢性病健康管理等工作，作为公共卫生医师晋升晋级、岗位聘用的重要依据，把预防为主落实到医疗服务当中。', '（3）推进公共卫生和临床医疗服务融合。统筹公共卫生和医疗资源，加大服务基层的力度，推进医防融合与医疗资源一体化管理。 加强慢性病健康管控，以“三高共管，三级联动”为抓手，提高高血压、高血糖、高血脂患者健康管理效果。推进县级医院、疾控机构、基层医疗机构预防、治疗、康复等“三位一体”防治服务融合，实现早发现，全程规范治疗。', '1．全面加强党的领导和党的建设，医院党组织充分发挥把方向、管大局、作决策、促改革、保落实的领导作用，加强领导班子建设，发挥专家在医院管理中的作用，强化文化引领理念，推动医院文化建设。建立健全管理科学、治理完善、运行高效、监督有力的医院内部管理制度，推动公立医院管理治理水平得到有效提升，加快提升医院治理体系和管理能力现代化水平。', '（1）全面落实政府办医职责，统筹行使公立医院举办权、发展权、重大事项决策权、资产收益权等。健全完善现代医院管理制度，遵循医学发展规律，推动公立医院高质量发展，为广大人民群众提供高效优质的医疗技术和医疗服务。健全公立医院党的领导制度，所有公立医院贯彻落实好党委领导下的院长负责制，医院党组织承担公立医院党建工作主体责任，党组织书记是党建工作第一责任人。', '（2）健全党委会议、院长办公会议等议事决策制度。建立书记、院长定期沟通和党委领导下的院长负责制执行情况报告制度，着力构建党委统一领导、党政分工合作、责权清晰、协调运行的现代医院管理制度。选优配强医院领导班子成员，特别是党委书记和院长。加强公立医院基层党组织建设，实施医院临床医技科室党支部书记“双带头人”培育工程。建立“双培养”机制，把业务骨干培养成党员，把党员培养成业务骨干。', '（3）以党的政治建设统领医院文化建设，在公立医院打造医疗卫生红色阵地。以“党建＋医疗服务”工作模式，开展“亮身份、争先进”、“党员示范岗”社会主义核心价值观教育活动，推进医院精神文明建设，促进形成良好的医德医风。挖掘整理医院历史、文化特色和名医学术思想、高尚医德、提炼医院院训、愿景、使命，凝聚支撑医院高质量发展的精神力量，建设医院院史文化长廊。', '2．优化医院运营管理。整合医疗、教学、科研等业务系统和人、财、物等资源系统，推动医院运营管理的科学化、规范化、精细化。', '（1）县医院、中蒙医院全部成立医院运营管理委员会和办公室。运营管理委员会由医院院长牵头负责，主持运营管理的意识形态建设。专门的运营管理人员对其科室或者对其所负责的单元进行摸底清查，针对主要问题开展研究，提出优化的运营管理建议。', '（2）打通信息孤岛，整合医疗、教学、科研等业务系统和人、财、物等资源系统，建立医院运营管理数字化决策支持系统。以大数据方法建立病种组合标准，对医院病例组合指数（CMI）、成本产出、人员绩效等进行检测评价。到2024年通过完善公立医院管理体制，提高效能、节约费用、减轻患者就医负担。', '（3）加强全面预算管理。建立一套科学预算管理模式，推动公立医院精细化管理，实施公立医院全面预算“一把手”工程。以医院功能定位、战略发展规划和年度计划目标为依据，以项目预算为基本单元，实行全口径、全过程、全员性、全方位预算管理，贯穿预算编制、审批、执行、监控、调整、决算、分析、考核等各环节。坚持“无预算、无支出”的原则，加强对公立医院预算执行的监督、检查和评价，并纳入对院长和各级干部的考核。', '3．完善内部控制制度。通过内部控制为医院提高运营效率和效果、保障财务报告可靠性、遵循相关法律法规等目标的实现，提供合理保证过程。', '（1）按照国家卫健委颁布的《公立医院内部控制管理办法》，准确界定内部控制实施的范围，结合实际出台《公立医院内部控制实施方案》和《内部控制实施计划表》，进一步规范以经济活动、医疗业务活动、科研教学、信息化建设为主的内部控制，有效防范和管控医院运营风险。', '（2）坚持“全面性”原则，实现对医院运营的全部业务、经济活动的决策、执行和监督全过程的全面控制。坚持“重要性”原则，确定医院重要经济活动和重点事项的风险防范和管控措施。坚持“制衡性”原则，在医院内部的部门管理、职责分工、业务流程等方面形成相互制约和相互监督。坚持“适用性”原则，内部控制应当符合国家有关规定和医院实际情况，并随着外部环境的变化、医院经济活动的调整和管理要求的提高，不断修订和完善。每年至少开展一次“风险评估”，定期开展“自我评价”。', '（3）编写医院内控手册，包括总章、风险评估、单位层面控制、业务层面控制、评价与监督等部分，对医院的各个部门及人员就内控设计的基本理念、制衡方法、主要业务控制流程、具体操作要求等内容进行讲解和培训。', '（4）加强成本消耗关键环节流程管理，降低万元收入能耗支出，县医院、中蒙医院推行医院后勤“一站式”服务，进一步推进餐厅、保洁等后勤保障实行社会化服务。通过医院内部控制，保证医院经济活动合法合规、财产安全和使用有效、财务信息真实完整，有效防范舞弊和预防腐败、提高资源配置和使用效率。', '4．健全绩效评价机制。按照建立现代医院管理制度的要求，加强医院科学精细化管理，制定科学、全面、量化的公立医院考核评价指标体系，考核结果与医院绩效薪酬总量挂钩。', '（1）坚持和强化公益性导向，按照国家公立医院绩效评价指标，以医疗质量、运营效率、持续发展、社会利益、满意度评价、对口帮扶、医共体建设等为重点，每年统一参与全市公立医院绩效考核，考核结果与财政补偿、新增薪酬总量、主要负责人薪酬、职务任免、医院等级评审等挂钩，提升医院运营效率。完善医共体绩效考核制度，促进资源下沉，提高基层服务能力和居民健康水平。', '（2）公立医院内部绩效考核办法，以聘用合同为依据，以岗位职责完成情况为重点，健全以岗位工作量、服务质量、行为规范、技术能力、医德医风和患者满意度等要素为核心的内部考核机制，将考核结果与岗位聘用、薪酬分配挂钩。公立医院将规范诊疗行为作为对医务人员绩效考核评价的重要内容，把合理检查、合理用药的执行情况与医务人员的评优、评先、晋升、聘用、绩效工资分配挂钩。', '进一步优化卫生健康资源配置，强化数字技术的支撑作用，构建卫生健康信息化、智慧化新型服务能力，加快推动全县卫生健康事业高质量发展。', '1．卫生健康数字化建设。基于全民健康信息平台功能，全面推动互联网与医疗健康深度融合，推进数字化卫生健康业务协同和应用，为居民提供高效便捷的健康管理和医疗服务，实现数据互联互通、全域共享。', '（1）建立双向转诊信息系统，县级医院完成转诊系统建设，构建“基层首诊、双向转诊、急慢分治、上下联动”的分级诊疗模式。建立智慧就医服务平台，构建“基层检查＋上级诊断＋区域互认”诊疗模式，实现公立医院间检查检验互联互通、结果互认和健康档案共享。', '（2）建设县域医共体信息平台，实现人、财、物、供应链、绩效的统一。实施预防接种门诊数字化工程，改善接种环境，推广非免疫疫苗接种。提升医院急救站数字化能力，提高急救智能化、数字化水平。', '（3）建立“互联网＋家庭医生签约”管理系统，以信息化为手段，拓展老年、慢性病等特殊群体为主的智能健康管理服务，做实做细家庭医生签约服务，持续提升家庭医生签约服务质量并稳步扩大覆盖面。', '（4）建设医改监测信息管理系统，实现公立医院高质量发展评价指标监管。参与全市互联网医院监管系统，对互联网医院诊疗质量和诊疗规范进行监管；建设处方流转机制，实现处方信息与药品零售信息的互联互通。', '（5）参与全市统一的患者满意度服务系统建设，通过患者的满意度评价，督促医疗机构提升服务水平。', '2．建设“三位一体”智慧医院。推动新一代信息技术与医疗服务深度融合，积极推进电子病历、智慧服务、智慧管理“三位一体”的智慧医院和医院信息标准化建设，提高群众看病就医的便捷度、满意度。到 2024 年，县医院、中蒙医院电子病历应用水平至少达到4级，智慧服务力争达到2级，智慧管理力争达到1级。', '（1）建立健全远程医疗服务网络，县级医院通过互联网向基层医疗机构提供远程会诊、远程培训等服务，采取1＋X模式，建成远程心电和影像会诊中心，实现远程诊疗的深度应用。', '（2）建立公立医院运营管理数字化决策支持系统，提升公立医院科学管理水平，加强资源配置并优化流程。建立公立医院医疗质量管理平台，实现医疗质量监管贯穿整个医疗过程。建立手术病例和常见病病种的临床路径、质量控制点和规范标准。', '建立健全公立医院引才、育才、用才机制，医教协同，“引育”并举，强化医院教学和人才培养职能，打造高层次、高素质人才队伍。通过薪酬改革稳定一批既有人才，备案管理招聘一批专业人才，开展合作交流一批高端人才，为公立医院高质量发展提供智慧支撑。', '1．加强管理人才队伍建设。实施公立医院行政管理人才培养计划，不断提高医院管理人员政治素质、专业能力和管理水平，加快推进高质量人才队伍建设。', '（1）加强公立医院管理人员职业化培训，利用上级组织的医院院长年度培训和专门机构、卫生行业学会（协会）举办的培训、学习、交流、考察等分散培训相结合的方式，每年组织参加医院院长培训，进一步提升医院书记（院长）职业化管理能力，推动建立现代医院管理制度，提高医院精细化管理水平和运行效率。', '（2）与区内外高水平医院合作，探索柔性引进高端管理人才、管理骨干和名誉科主任参与医院管理和提高专业化管理水平。', '2．紧缺专业人才队伍建设。多措并举，直接或柔性引进掌握学科核心技术、引领学科发展方向，在呼和浩特市、内蒙古自治区乃至全国有知名度和影响力的高端人才、专科学科带头人、紧缺医学人才。', '（1）实施中医药（蒙医药）师承工程，开展名老中医专家学术经验师承工作，培养中医药（蒙医药）骨干人才。', '（2）拓宽医学人才进修学习渠道，扩大交流合作，每年选派业务骨干到自治区和市级医院进修学习。依托“双首”健康行动等合作共建项目，每年培养中医药（蒙医药）传承创新人才。', '（3）利用三级医院对口帮扶县级医院，刚性、柔性引进优秀专家带教，培养心脑血管、消化内科、内分泌科、骨科、儿科、妇科等紧缺医护人才。', '（4）加大卫生专业技术人才招录力度，采取现场或专场面试考核等方式，3年引进硕士3名，本科20名，卫技人员30名。', '3．加强医防人才队伍建设。完善医教协同机制，强化早临床、多临床、反复临床，加强医学人文教育。探索以高质量学科群建设为背景的高层次复合型人才培养机制。', '（1）派出人员参与医防融合复合型人才培养计划。派出中、初级医师（含临床、中医、口腔、公共卫生医师）进行医防融合知识培训，中级职称医师每年累计不少于80学时；初级职称医师每年累计不少于 100 学时。', '（2）健全和完善住院医师规范化培训制度，推进专科医师、公共卫生医师规范化培训，大力推选全科转岗、助理全科医生培训、全科住院医师规范化培养工作，采取“订单定向”方式，做好定向乡镇卫生院、社区卫生服务中心、村卫生室基层医生培养，鼓励引导有意愿到乡镇卫生院（社区卫生服务中心）、村卫生室工作的考生报考定向医学生，吸引年轻医学毕业生加入基层医生队伍，充实基层医生队伍。', '以公立医院综合改革为切入点，县、乡、村统筹推进医疗、医药、医保改革，按照腾空间、调结构、保街接的路径，不断拓展改革的深度和广度，实现患者、医生、医院、医保基金等多方共赢。', '1．深化人事制度改革。扎实推进公立医院人员总量管理工作，实行人员备案制管理，对纳入总量管理人员实行统一的人事管理。', '（1）县委编办科学合理制定公立医院人员编制标准，建立总量管理、动态调整、核增机制。公立医院严格执行《呼和浩特市公立医院人员总量管理暂行制度》，按照人员总量和结构比例补充、配备工作人员。', '（2）用足用好编制资源，按照“保基本医疗、保公共卫生、保学科引领”原则，逐步消化现有编外聘用专业技术人员，对符合条件的，可充分考虑其从医经历、业绩、贡献等，通过公开招聘等严格规范的程序择优聘用，纳入编制管理，放宽进编条件，畅通绿色通道，对高精尖人才或医学硕士，直接面试入职，同时办理入编等相关手续。', '（3）落实公立医院用人自主权，统筹编制内外人员待遇，逐步增加护士配备，到 2024 年医护比总体达到1：1.5。医疗卫生机构制定完善岗位管理制度，科学编制岗位责任书，实行竞聘上岗、按岗聘用、备案制管理。', '（4）依法赋予医共体法人地位，按照事业单位管理进行统一法人登记。全面推行医疗卫生技术人员由总医院（医共体）“统招、统管、统用”，并在总医院（医共体）内灵活、有效流动。', '责任部门：县卫生健康委员会、县人力资源和社会保障局、县医疗保障局、各乡镇人民政府，县医院、县中蒙医院', '2．深化薪酬分配制度改革。科学确定年薪工作总额、落实“两个允许”、探索实施主要领导年薪制、全员年薪制等。合理确定动态调整公立医院薪酬水平，逐步提高人员支出占公立医院支出比例。', '（2）借鉴三明做法，改革完善公立医院薪酬总量核定办法，以医疗服务收入为基数计算医院薪酬总量。', '（3）落实公立医院内部分配自主权，允许医院自主设立薪酬项目，实行院长、书记年薪制，薪酬水平原则上不得超过本院职工平均薪酬水平的3倍。', '（4）逐步探索建立体现岗位职责和知识价值的薪酬分配体系，推行职工岗位年薪制、协议工资制、项目工资、工分制等薪酬制度。', '（5）完善院前医疗急救人员薪酬制度，建立符合院前医疗急救工作特点的收入分配机制；确保院前医疗急救医务人员薪酬水平不低于同级公立医院相应岗位的平均水平，以岗位为基础，以绩效为核心，打破单位、层级和身份区别，建立多劳多得、优绩优酬的内部分配机制。', '3．持续推进医保支付方式改革。积极推进以病种付费为主的多元复合式医保支付方式改革，按照《内蒙古自治区DRG／DIP支付方式改革三年行动计划》安排，全面推行区域点数法总额预算和按病种分值（DIP） 付费。', '（1）县医院、中蒙医院全部实施DIP支付方式改革。逐步减少医保基金按项目付费比例，提高按病种分值付费、门诊按人头付费等医保支付方式所占的比例。到2023年按病种付费的住院医保基金支出占全部住院医保基金支出的比例达到30％；到2024年达到70％。', '（2）积极推进门诊支付方式改革，对基层医疗服务探索开展按人头付费，对精神病、安宁疗护、医疗康复等需要长期住院治疗且日均费用较稳定的疾病，根据平均住院天数、日均费用及疗效，折算DIP点数或分值进行付费。', '（3）完善基层医疗机构医保政策，提高基层医疗机构医保支付比例，引导恢复期和康复期患者到基层就诊。', '（4）建立健全符合中医药（蒙医药）特色医保支付体系，遴选临床路径明确、诊疗方案成熟、临床疗效确切、诊疗费用稳定的中医优势病种实行按病种分值付费，合理确定付费标准。', '（5）积极将适宜的中医（蒙医）医疗服务项目和中药饮片规定纳入医保范围。在医保政策制定上，提高城乡居民门诊统筹在中医（蒙医）服务项目的报销比例。', '（6）按照国家、自治区规定，对取得备案许可证的中医（蒙医）医疗机构依申请及时纳入医保协议管理范围，开通划卡业务，开展医疗服务。', '（7）建立完善统一的支付平台，将符合条件的院前医疗急救服务收费项目纳入医保支付范围，做到应保尽保，实现急救费用医保卡移动支付，让生命通道更安全、便捷、通畅。', '4．深化医疗服务价格改革。按照腾空间、调结构、保衔接的路径，及时合理调整医疗服务价格，用于公立医院运行机制和薪酬制度改革。', '优化公立医院收入结构，提高体现技术劳务价值的医疗服务价格，不断提升医疗服务收入（不含药品、耗材、检查、化验收入）在医疗收入中的占比，到2024年到达40％以上。', '5．深化药品耗材管理改革。按照带量采购、招采合一、质量优先、确保用量、保证回款等要求，常态化制度化参加国家组织药品耗材集中带量采购，逐步扩大采购范围。', '（1）根据《呼和浩特市关于开展药品和医用耗材集中带量采购工作的实施方案》，积极参加国家、省际联盟和“三明联盟”组织的药品耗材集中带量采购，逐年扩大采购范围，促进价格回归合理水平。', '（3）加快落实国家、自治区组织药品耗材集中带量采购医保资金结余留用政策，测算拔付结余留用资金，主要用于薪酬制度改革，鼓励医疗机构合理使用、优先使用中选产品。', '（5）加强对药品和医用耗材配送管理，保障公立医疗机构采购药品和医用耗材配送及时到位。', '（6）认真执行国家、自治区药品和医用耗材价格管理政策，全面治理药品、高值医用耗材价格虚高。严格落实医药价格信息监测与披露、价格函询、约谈制度。', '推动公立医院高质量发展是党中央作出的重要战略部署，各级党委、政府及其相关部门要充分认识促进公立医院高质量发展的重要意义，强化“一把手”工程，推动医改工作县、乡、村全覆盖。党委常委会、政府常务会每年至少专题研究1次医改工作；医改领导小组每半年至少召开1次领导小组会议，及时学习贯彻国家、自治区、呼和浩特市关于医改工作最新要求。各部门要按照分工，结合实际研究制定推进各项重点任务的时间表、路线图，为公立医院高质量发展创造良好的政策环境。医疗卫生机构要把握发展契机，结合现状加强统筹谋划，明确阶段目标，努力实现“三个转变、三个提高”，为广大人民群众提供优质高放的医疗服务。', '全力推进县财政支持县公立医院综合改革和高质量发展示范项目。探索先行推进公立医院高质量发展的实施路径和支撑体系，形成符合实际、可推广、可复制、可持续的经验和模式。', '县财政局要落实符合我县卫生规划的公立医院基本建设和设备购置、重点学科发展、人才培养、符合国家规定的离退休人员费用和政策性亏损补贴等投入，对公立医院承担的公共卫生任务给予专项补助。对公立医院直接补助保持逐年增长。按照有关规定，逐步偿还和化解符合规定的公立医院长期债务。', '积极参与市公立医院高质量发展评价指标体系监测，根据每季度对推进公立医院高质量发展目标任务落实情况的定期评价和通报内容，及时落实整改。', '各级政府及相关部门要密切关注、及时跟进改革进度，做好典型培塑，推广成功经验，发挥示范引领作用，逐步形成具有特色的改革路子。正面宣传医改政策、措施、成效，正确引导社会舆论，推动公立医院整体实现高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>25</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>呼和浩特市人民政府外事办公室年度依法治市工作情况报告</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2021-01-19</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/swsbgs_22423/fdzdgknr/bmgk/202111/t20211115_1059296.html</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['呼和浩特市人民政府外事办公室2020年度依法治市工作情况报告_ 呼和浩特市人民政府', '2020年，在市委、市政府的正确领导和市委全面依法治市委员会办公室的指导下，我办坚持以习近平新时代中国特色社会主义思想为指引，全面学习贯彻党的十九大和十九届二中、三中、四中、五中全会精神和习近平总书记全面依法治国新理念新思想新战略，认真贯彻落实市委、市政府提出的法治政府建设各项工作任务，按照市委全面依法治市委员会办公室的具体工作要求，积极开展各项工作，推动外事工作纳入法治化轨道，圆满完成依法治市相关工作任务。现将有关工作情况报告如下：', '一是切实提高政治站位。深入学习习近平法治思想，全面贯彻落实习近平总书记在中央全面依法治国工作会议上的讲话精神，切实用习近平新时代中国特色社会主义思想指导法治政府建设工作。今年以来，我办开展党组中心组会议学习习近平法治思想、习近平依法治国重要论述和法律法规知识共7次、党支部学习会4次，特别是将习近平法治思想作为一项重要学习任务，与深入贯彻落实党的十九届五中全会精神结合起来，与学习贯彻习近平总书记考察内蒙古重要讲话指示精神结合起来，与坚决落实市委、市政府对加强法治政府建设的部署要求结合起来，通过开展专题学习、专题研讨等形式，确保第一时间把法治政府建设政策理论及相关会议精神传达到位。', '二是强化组织领导。2020年，我办将依法治市列入重要议事日程，4月，召开法治政府建设专题会议，对贯彻落实全区法治政府建设会议精神及我办开展依法治市工作进行了部署安排，根据工作实际成立了我办推进法治政府建设领导小组，研究制定了《市外事办关于落实全区法治政府建设电视电话会议精神任务清单分解方案》和《市外事办2020年法治政府建设及普法宣传工作计划》，为进一步压实工作责任提供了工作遵循。在日常工作中，为认真履行法治建设第一责任人职责，我办坚持“一把手”负总责、分管领导抓协调、主办科室具体落实，相关科室密切配合，将落实法治建设工作列入年终述职，做到法治工作与中心工作同部署、同研究，做到办领导带头了解、学习法律知识，做遵法学法守法用法的模范，为我办扎实开展依法治市工作提供了良好的组织保障。', '一是为积极营造学法用法的良好氛围，做好普法宣传教育，年内，我办按照法治政府建设学习计划，创新学习方式，采用集中学习和个人自学相结合的方式，组织全办干部认真学习《习近平关于全面依法治国论述摘编》内容，加深对党中央关于全面依法治国新理念新思想新战略的认识和了解。认真学习《中华人民共和国档案法》、《中华人民共和国网络安全法》、《中华人民共和国民族区域自治法（修正）》等法律法规知识，提高全办干部学法、懂法、用法意识，提升知法、守法、用法的工作水平。传达学习习近平总书记关于新冠肺炎疫情防控的重要指示批示和讲话精神，学习宣传《中华人民共和国突发事件应对法》、《中华人民共和国传染病防治法》等法律法规，为常态化疫情防控提供法律保障。', '二是积极开展法治宣传活动。12月组织“宪法宣传周”系列活动。特邀请我办聘用的专业法律顾问为全体干部举行《中华人民共和国民法典》专题讲座，集中授课解读，使全体干部认识到新修订《民法典》的重大意义和积极作用。同时开展了“加强法治宣传教育、推进依法治市进程”专题学习会，认真学习习近平总书记在《求是》杂志2020年第22期上发表的署名文章《推进全面依法治国，发挥法治在国家治理体系和治理能力现代化的积极作用》、《中华人民共和国宪法》及《中华人民共和国传染病防治法》等内容。通过 “宪法宣传周”活动，我办干部进一步树牢了法治意识，深化了对习近平法治思想的认识与理解，为法治呼和浩特建设营造了良好的氛围。为加强广大市民对海外安全常识和领事保护的了解，8月，我办在呼和浩特东站地铁站举办了呼和浩特市领事保护宣传活动启动仪式，并在地铁、公交上长期滚动播放领保宣传片。11月，我办二级事业单位交流中心赴市第二中学开展“领事保护宣传进校园”活动，落实“法律六进”举措，向学生普及领事保护知识，使师生能够更好地运用法律武器保护个人权益。通过多种形式向市民普及专业领事保护知识，使更多群众了解掌握相关法律政策知识，以保障在海外期间的正当权益。', '三是定期通过网站、政务新媒体宣传发布最新法律政策及详细解读专题内容，提升全办干部对法律政策的认知水平和解读能力。同时，运用“法宣在线”平台组织本级和所属二级单位全体干部开展法律知识学习和考试，并将学法成绩纳入干部考核任用的标准，敦促全办干部将法律知识学深悟透，提高干部队伍思想政治素质、业务工作能力和职业道德水平。 11月，组织开展我办干部赴法庭现场观摩庭审活动，引导干部职工牢固树立正确的人生观、价值观，严守法律底线，增强遵纪守法意识。', '一是扎实做好市委全面依法治市委员会办公室交办的各项工作任务。年内，严格按照市本级《法治政府建设实施纲要（2015-2020年）》工作指南内容，结合我办工作实际，认真整理完善各项指标落实情况，明确责任科室、责任人和具体工作任务，形成“人人肩上有责任、法治工作能落实”的工作体系，并按时上报工作落实情况报告。11月，对照中央依法治国办公室在我市实地督察时指出的共性问题，我办进行认真研究和深入剖析，举一反三，制定详细整改措施，并按时上报整改情况报告。12月，向市委全面依法治市委员会办公室按时上报我办2020年度法治政府建设总结和2021年工作计划情况。', '二是健全规章制度，推进规范化建设。为进一步提升法治行政能力，我办年内出台《规范化建设实施方案》，严格执行“岗位责任制”、“闭环工作法”，按照每周工作例会要求，认真对照各科室（中心）责任清单督查督办，确保件件有反馈、事事有落实，使每个科室（中心）、每名干部都能“工作担使命，肩上有责任”，依法履职，让责任清单变成人民满意清单。11月，按照中央全面依法治国工作会议提出的“要坚持统筹推进国内法治和涉外法治”要求，协调推进国内治理和国际治理，有效应对挑战、防范未知风险，加快因公出国（境）管理、涉外案事件处置等依法依规开展进程，提升窗口部门依法行政、便民服务水平，使我办成熟经验和有效做法上升为规范制度，出台《呼和浩特市应对境外媒体记者采访工作措施及流程（暂行）》、《翻译工作流程》、《驾驶执照翻译业务流程》、《新冠疫情期间邀请外国人来华审批工作流程》等工作方案和规程，使各项工作严格遵循程序执行，推动我办工作提质增效。', '三是充分发挥法律顾问作用。邀请聘请的法律专家参与到我市重大外事工作、活动决策和签署合作协议等事项的工作中来，对专业性、技术性较强的事项，组织专家、法律顾问及专业机构提供决策建议和论证评价。年内，聘请专业法律顾问为签署我办工作合作协议、对外交往协议等提供专业性法律意见书共20余份，法律顾问在推进我办法治建设工作和与国外政府间开展务实合作中发挥了积极作用。', '一是学习贯彻习近平总书记关于依法治国重要论述还不够深不够透，对标对表中央、自治区党委和市委相关要求，仍有较大差距，学法用法意识还有待进一步增强。', '二是在实际推进依法治市工作中压力传导力度还不够，在实际工作中，个别同志对法治政府建设工作的重要性认识还不够深刻，没有把法治政府建设放在更加突出的位置，依法防范化解外部环境重大风险能力不足。', '三是运用法治思维指导外事工作实际还有差距，在工作中习惯用老惯例、老办法解决问题，没有真正形成运用法治思维开展工作的习惯和运用法律手段化解工作难题的能力。', '一是继续加强学习，提高思想认识。下一步将继续加强法治理论知识学习，抓好贯彻落实。要组织全办干部认真学习领会中央、自治区党委和市委相关会议精神、决策部署，使其转化为我办依法开展各项工作的强大动力。', '二是健全规章制度，推进法治工作开展。下一步各科室、中心要严格落实法治政府建设相关政策规定，推进全面依法治市各项工作责任到人、落实到位。承担法治政府建设任务的科室要在认真开展日常工作的基础上，加强监督和服务，同时积极主动配合市委、市政府相关部门做好依法治市工作。', '三是加强干部队伍建设，狠抓工作纪律和工作作风。要继续坚持“一线工作法”、“闭环工作法”，敦促全办干部自觉运用法治思维行使公职权力，切实解决好群众的操心事、烦心事，不断提升群众获得感、幸福感、安全感，树牢外事为民的宗旨意识，践行外事为民理念，依法保障人民权益。']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>25</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>托克托县委副书记政府县长李春燕在县政府党组不忘初心牢记使命主题教育工作会议上的讲话</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2019-10-17</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/hhht_zfgb/tkt/2019/dsq/201910/t20191017_578614.html</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['托克托县委副书记、政府县长李春燕 在县政府党组“不忘初心、牢记使命”主题教育 工作会议上的讲话', '今天，我们召开县政府党组“不忘初心、牢记使命”主题教育工作会议，深入学习贯彻习近平新时代中国特色社会主义思想，学习贯彻习近平总书记在中央“不忘初心、牢记使命”主题教育工作会议上的重要讲话精神，全面落实中央、自治区、呼市和全县“不忘初心、牢记使命”主题教育工作会议精神，安排部署县政府党组主题教育工作。', '出席本次会议的领导有:市主题教育第二指导组组长陈学峰同志、副组长孙根怀同志及指导组全体成员。参加本次会议的有:县政府各党组成员、处级领导干部，县政府主题教育领导小组各成员。', '在全党开展“不忘初心、牢记使命”主题教育，是党的十九大作出的重大决定，是以习近平同志为核心的党中央统揽伟大斗争、伟大工程、伟大事业、伟大梦想作出的重大部署，是推动全面从严治党向纵深发展的重要抓手，对于统筹推进“五位一体”总体布局，决胜全面建成小康社会，实现中华民族伟大复兴的中国梦，具有重大而深远的意义。', '习近平总书记对开好这次主题教育高度重视，多次发表重要讲话、作出重要指示批示，为主题教育扎实开展提供了根本遵循、注入了强大动力。总书记强调，今年是中华人民共和国成立70周年，也是我们党在全国执政第70个年头，在这个时刻开展这次主题教育，正当其时。并深刻指出，开展“不忘初心、牢记使命”主题教育，是用习近平新时代中国特色社会主义思想武装全党的迫切需要，是推进新时代党的建设的迫切需要，是保持党同人民群众血肉联系的迫切需要，是实现党的十九大确定的目标任务的迫切需要。总书记的重要讲话，站在新时代党和国家事业发展全局的高度，深刻阐述了开展主题教育的重大意义，深刻阐明了主题教育的目标要求和重点措施，对开展主题教育提出明确要求，具有很强的政治性、思想性、针对性、指导性，是开展“不忘初心、牢记使命”主题教育的根本指针，是新时代加强党的建设的纲领性文献。', '县政府作为县级行政机关，是党中央、自治区、市委和县委决策部署的重要落实者，是全县经济社会发展的组织者、实施者，可谓重任在肩、使命光荣。县政府党组和政府系统党员干部一定要提高政治站位，从历史、理论和实践三个维度深刻认识开展主题教育的重大意义，认真学习、深刻领会习近平总书记重要讲话精神和党中央《意见》要求，切实增强做好工作的责任感和使命感，自觉把思想和行动统一到党中央、自治区和呼市的决策部署上来，全力开展好这次主题教育。', '党中央明确规定，这次主题教育的总要求是，守初心、担使命，找差距、抓落实;根本任务是，深入学习贯彻习近平新时代中国特色社会主义思想，锤炼忠诚干净担当的政治品格，团结带领全国各族人民为实现伟大梦想共同奋斗;具体目标是，理论学习有收获、思想政治受洗礼、干事创业敢担当、为民服务解难题、清正廉洁作表率。这些目标要求是党中央根据新时代党的建设任务，结合主题教育的特点提出来的，我们要准确理解党中央精神，把握目标任务、结合实际情况，强化理论学习、强化思想建设、强化担当意识、强化为民服务、强化清正廉洁，确保主题教育不虚、不空、不偏。', '一要深入推进思想解放，确保理论学习有收获。要通过开展主题教育，深学笃用习近平新时代中国特色社会主义思想，正确理解这一思想的深刻内涵和精神实质，切实增强“四个意识”、坚定“四个自信”、做到“两个维护”，全面掌握科学理论的立场、观点、方法，切实做到学思用贯通、知信行统一，进一步提高运用党的创新理论指导实践、推动工作的能力，确保主题教育扎实有效开展。', '二要认真锤炼坚强党性，确保思想政治受洗礼。要通过开展主题教育，更加坚定对马克思主义的信仰、对中国特色社会主义的信念，传承红色基因，发扬革命传统，始终忠诚于党、忠诚于人民、忠诚于马克思主义，信仰之基一时一刻也不能松动，精神之钙一丝一毫也不能缺少，要不断加强党员干部思想政治建设，不断掸去思想上的灰尘、淬炼政治上的坚定，筑牢信仰之基、补足精神之钙、把稳思想之舵。', '三要全力落实担当作为，确保干事创业敢担当。要通过开展主题教育，坚决摒弃一切明哲保身、得过且过、敷衍塞责、懒政怠政等消极行为，牢固树立正确政绩观，坚持实事求是思想路线，力戒形式主义、官僚主义，勇于担当负责，积极主动作为，把初心使命变成锐意进取、苦干实干的精气神，以钉钉子精神推动党中央决策部署在我县落地生根、开花结果，努力创造经得起实践、人民、历史检验的实绩。', '四要严格转变工作作风，确保为民服务解难题。要通过开展主题教育，进一步牢记党的根本宗旨，坚守人民立场，树立以人民为中心的发展理念，始终把人民对美好生活的向往作为奋斗目标，切实解决好群众的操心事、烦心事、揪心事，不断增强各族人民群众的获得感、幸福感、安全感，以为民谋利、为民尽责的实际成效取信于民。', '五要坚决维护政治生态，确保清正廉洁作表率。要通过开展主题教育，不断增强自我净化、自我完善、自我革新、自我提高的能力，保持为民务实清廉的政治本色，正确处理公私、义利、是非、情法、亲清、俭奢、苦乐、得失的关系，自觉同特权思想和特权现象作斗争，坚决预防和反对腐败，清清白白为官、干干净净做事、老老实实做人。', '要结合政府工作实际，对标对表，坚持把理论学习、调查研究、检视问题、整改提高贯穿始终，做到边学边改，立行立改、长效整改，高标准高质量开展好县政府党组“不忘初心、牢记使命”主题教育。', '一要在理论学习上下功夫。要坚持把加强理论武装作为重中之重，在全县上下深入开展理论大学习，推动学习贯彻习近平新时代中国特色社会主义思想往深里走、往心里走、往实里走。要认真学习党的十九大报告和党章，学习《习近平关于“不忘初心、牢记使命”重要论述选编》《习近平新时代中国特色社会主义思想学习纲要》，学习习近平总书记最新重要讲话文章和指示精神，学习习近平总书记考察内蒙古重要讲话精神和关于内蒙古工作的重要指示批示精神，坚持读原著、学原文、悟原理，全面系统学、深入思考学、及时跟进学，做到学深悟透、融会贯通、真信笃行。要对标先进，抓好向先进典型人物学习活动，汲取榜样力量，做到学有标杆、干有动力、改有实效。', '二要在调查研究上求实效。要围绕贯彻落实党中央决策部署和习近平总书记重要指示批示精神，围绕打好三大攻坚战、推进扫黑除恶专项斗争、推进乡村振兴等重点任务，围绕推动工业转型升级和文化旅游业高质量发展等重点工作，聚焦影响和制约高质量发展的难点痛点堵点进行调研，沉下去了解民情、掌握实情，把问题的症结和要害摸准，切实拿出破解难题的有效举措，真正把心思和功夫用在发现和解决问题上。调查研究要注重实效，深入基层一线，多听取人民群众意见，坚决不搞“作秀式”“盆景式”调研，让调研的过程成为加深党的创新理论领悟的过程，成为密切同人民群众血肉联系的过程，成为推动社会事业健康发展的过程。', '三要在问题检视上有深度。党组成员要对照习近平新时代中国特色社会主义思想和党中央决策部署，对照党章党规和初心使命，对照人民群众的新期待，着力查找自身存在的问题。要联系思想和工作实际，结合中央、自治区巡视、督察反馈意见和调研发现的问题、群众反映强烈的问题、民主生活会查摆的问题等方面，实事求是检视自身差距，深入开展“五查五找一对照”，既找个人差距，也找工作差距，有什么问题就解决什么问题，什么问题突出就重点解决什么问题，防止大而化之、隔靴搔痒、避重就轻、避实就虚。要通过持续向问题叫板，真正让广大群众叫好。', '四要在整改落实上讲坚持。要把“改”字贯穿始终，坚持边学边查边改，对调研发现的问题、群众反映强烈的问题、巡视巡察反馈的问题，立查立改、即知即改，能够当下改的，明确时限和要求，按期整改到位;一时解决不了的，要盯住不放，通过不断深化认识、增强自觉，明确阶段目标，持续整改。要结合实际，将整改落实贯穿主题教育全过程，敢于动真碰硬，防止表面整改、敷衍整改、纸上整改、虚假整改。要积极运用学习调研成果，针对检视反思问题，联系整改落实情况，认真开展批评和自我批评，坦诚相见、开门见山，红脸出汗、排毒治病。', '这次主题教育只有3个月，时间紧、任务重、要求高，大家一定要增强责任感紧迫感，切实在落实责任、营造氛围、统筹协调上下功夫、出实招。政府党组要为全县政府部门作表率，政府党组成员要为全县政府系统党员干部作表率，着力强化责任落实，周密安排部署，精心组织推动;坚持分类指导，具体化、精准化、差异化;注重统筹结合，营造浓厚氛围，全方位、多角度展示成效。', '一要压紧压实责任。进一步落实领导责任，各党组成员要加强对分管领域的主题教育工作指导，把自己摆进去，刀刃向内找差距，以上率下抓落实;把职责摆进去，善作善成强担当，从严从实强作风;把实际摆进去，深学细悟见真知，笃行务实求实效，为顺利开展主题教育提供坚实后盾。', '二要做到统筹兼顾。坚持把开展主题教育与全面贯彻落实习近平总书记考察内蒙古重要讲话精神结合起来，与打好打赢三大攻坚战、推进扫黑除恶专项斗争、实施乡村振兴战略、保障和改善民生结合起来，与统筹做好稳增长、促改革、调结构、惠民生、防风险、保稳定各项工作结合起来，切实做到两手抓、两促进，切实防止“两张皮”。', '三要强化具体深入。这次主题教育将力戒形式主义、官僚主义作为重要内容，必须坚持以抓具体抓深入的作风开展主题教育，坚持问题导向，奔着问题去、盯着问题查、对着问题改，杜绝学习教育“搞应付”、调查研究“走过场”、检视问题“不深刻”、整改落实“轻飘飘”等现象，确保主题教育各项工作任务落到实处。', '同志们，开展“不忘初心、牢记使命”主题教育，是全党的一项重大政治任务，我们要坚决贯彻落实党中央、自治区、呼市和全县决策部署，以认真负责的态度、改革创新的精神、求真务实的作风，扎扎实实把主题教育组织好、开展好，以实实在在的实践成果，推动全县经济社会高质量发展，以优异成绩庆祝新中国成立70周年!']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>25</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>为奋力谱写首府高质量发展新篇章贡献企业力量习近平总书记在内蒙古考察重要讲话引发我市干部群众强烈反响</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2023-06-22</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650093936&amp;idx=2&amp;sn=f74a3d0f1b7cf459fc9156227fe76e75&amp;scene=0</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['为奋力谱写首府高质量发展新篇章贡献企业力量——习近平总书记在内蒙古考察重要讲话引发我市干部群众强烈反响', '传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '殷殷嘱托，牢记心间。连日来，习近平总书记在内蒙古考察期间的重要指示重要讲话精神在我市企业界引起强烈反响。大家纷纷表示，要把思想和行动统一到习近平总书记的重要指示重要讲话精神上来，提振信心，担当作为，一心一意谋发展，为奋力谱写首府高质量发展新篇章贡献企业力量。', '“科技自立自强是国家强盛之基。”内蒙古中环晶体材料有限公司技术总监王林激情满怀地说:“聆听了习近平总书记的重要讲话，我们备受鼓舞、倍感振奋，对企业未来的发展充满了信心。我们将牢记习近平总书记的嘱托，持续攻克科技难关，聚焦集成电路先进制程用硅材料产品和技术创新，在半导体及光伏双赛道同时发力。在半导体产业方面延链强链补链，打破国家面临的‘卡脖子’难题。在光伏产业方面发挥链主企业带动作用，通过不断扩大产业规模，强链延链补链，形成绿色能源发展集聚效应，为内蒙古绿色能源的产业发展贡献中环力量。”', '“作为科技创新型企业，我们将牢记习近平总书记嘱托，用实际行动担当起生物医药产业集群的链主企业的重任，为自治区和首府的经济社会发展作出更大贡献。”金宇生物技术股份有限公司党委书记、董事长张翀宇说，“今年是金宇生物成立30周年。30年来，我们坚持自主创新，绿色发展，先后攻克细胞悬浮培养技术、抗原纯化浓缩、146S检测等生物技术壁垒和技术难关，成为国内动保行业的头部企业。 ‘十四五’时期，我们将率先进入生物技术、信息技术融合创新合成生物学时代;向迭代疫苗、数字化疫苗、多联多价疫苗和新型药物进军，攻克非洲猪瘟疫苗百年难关;应用AI智能为养殖业提供疫病防控整体解决方案，以方案营销、价值营销为用户提质增效创造价值。”', '“习近平总书记在内蒙古考察期间的重要指示重要讲话，让我们备受鼓舞，更加明确了努力方向，坚定了发展信心。”内蒙古鑫环硅能科技有限公司常务副总指挥魏海宁说，“我们一直把创新作为企业发展的第一动力，紧扣新能源产业链部署创新链，聚焦新能源领域实施一批关键技术攻关项目。我们将深度助推行业控碳减排，助力国家‘碳达峰’‘碳中和’目标的实现，为自治区工业高质量发展、中国光伏产业走向全球提供强劲源动力。”', '正耐电气股份有限公司总经理陈益平表示，将以更高的标准要求自己，努力推动企业做大做强，为风电、光伏新能源产业提供更多高质量、高可靠性的产品和优质服务，为自治区新能源产业发展和新能源装备产业集群发展贡献力量。目前，企业正实施产业升级，在传统输配电设备高低压开关柜产品的基础上，匹配优势资源，加强技术创新，开发技术先进的智能化、绿色化风电、光伏新能源变压器以及预装式变电站产品。', '内蒙古阜丰生物科技有限公司总经理赵兰坤表示，企业将进一步激活创新“第一动力”，全力推进新工艺试验，努力提升生产技术指标;通过抓实、抓细等措施优化提高运行水平、强化改造，从而推动稳产达产。抢抓市场机遇，强化管理，提质增效，争取实现更大的突破。', '呼和浩特城市交通投资建设集团有限公司党委委员、副总经理王晓东说，连日来，市交通集团认真学习贯彻习近平总书记在内蒙古考察期间的重要指示重要讲话精神，始终坚持立足国有企业功能定位，聚力擦亮高质量发展鲜明底色，做大、做强、做精轨道交通、民航机场、市域铁路、公路建设等主营业务，发挥交通建设主力军作用。下一步，集团公司将不断强化学习成果转化应用，夯实高质量发展支撑保障，在增强企业核心竞争力、盈利能力和发展优势方面加快破题，勇担使命，不断做强做优企业。', '内蒙古云科数据服务股份有限公司党群工作部经理林在娟说，习近平总书记在内蒙古考察期间的重要指示重要讲话精神指明了发展方向，提振了信心。作为内蒙古本土数字化服务的龙头企业，云科数据将继续用本地化服务优势推动能源产业转型升级;在稳岗就业方面，搭建数字化人才培育平台，打造数字化人才培育品牌，形成数字化人才培育良性生态体系，强化培训服务政策，践行非公企业的社会责任。', '内蒙古顺丰速运有限公司总经理郑达林表示，作为快递行业领军企业之一，将认真学习贯彻落实习近平总书记的重要指示重要讲话精神，一方面，主动承担社会责任，推动企业绿色发展。在绿色包装、可循环包装、绿色物流运输上全面开展绿色研发和使用计划，将绿色环保贯通整个快递环节，为建设生态文明的快递业贡献力量。另一方面，推动农产品上行，助力农户致富增收。将深入原产地，从资源、品牌、科技等多维度推动区域农产品的产业发展;主动对接农业产业化龙头企业，引导电商平台、种植养殖户、农业产业化企业等上游产业紧密合作，为农产品上行提供专业化供应链寄递服务，使更多特色农产品通过寄递渠道走出乡村、走向全国，推动快递行业更好服务乡村振兴。']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>25</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>中国共产党内蒙古自治区第十一届委员会第六次全体会议公报</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2023-07-06</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650094541&amp;idx=2&amp;sn=666afcb5cb003a4f97e2d709b7f35e4b&amp;scene=0</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '中国共产党内蒙古自治区第十一届委员会第六次全体会议，于2023年7月3日至5日在呼和浩特举行。', '出席全会的有，自治区党委委员73人，候补委员13人。学习贯彻习近平新时代中国特色社会主义思想主题教育中央第一指导组组长车俊、副组长李小三到会指导。自治区有关领导同志、纪委常委监委委员和有关方面负责同志，部分自治区第十一次党代会基层代表列席会议。', '全会认为，今年在内蒙古的发展历程中极不平凡，习近平总书记第四次亲临内蒙古考察，并在我区主持召开具有标志性意义的加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会。习近平总书记这次考察，不仅对内蒙古提出了新要求、明确了新目标，而且为内蒙古点了赞、加了油、鼓了劲，给内蒙古带来了重大政策利好和宝贵发展机遇，极大提升了内蒙古的正面形象和影响力，意义十分重大、影响十分深远。', '全会指出，习近平总书记这次考察内蒙古时作出的重要指示和重要讲话，既与此前对内蒙古的重要指示要求一以贯之，又有新的延伸拓展、有更高的要求，各级要统筹抓好贯彻落实，紧紧围绕在中国式现代化建设中闯出新路来、推动内蒙古经济总量进入全国中游做好工作。闯新路、进中游，不是另起炉灶，也不能一味守成，有的要坚持不变、一抓到底，有的则要加紧改变、重塑再造。必须坚定不移、一抓到底的是办好两件大事，需要加紧改变、重塑再造的是产业结构、思想观念、工作作风。无论“变”与“不变”，都要以实干出成果、求实效。', '全会强调，要对标对表习近平总书记这次考察时作出的重要指示要求，把有关任务细化充实到“五大任务”具体实施方案中，紧锣密鼓推进落实。要在做好生态安全屏障建设各项工作的同时，全力打好“三北”工程攻坚战。要统筹抓好各领域风险防范化解，深刻吸取阿拉善盟新井煤矿坍塌事故等血的教训，全面加强安全生产工作，加大力度推进稳边固边，确保社会大局稳定。要紧抓快干推进新能源发展，快马加鞭完成既定目标任务。要继续在突破“地、水、种和粮、肉、奶”的瓶颈制约上想办法，加快推进高标准农田建设、设施农业发展和舍饲圈养、草种繁育，着力解决河套灌区大水漫灌问题，坚决向浪费水资源行为“开刀”。要完善口岸基础设施，打造高水平开放平台，在解决“酒肉穿肠过”问题上拿出大动作，更好服务共建“一带一路”，建设好我国向北开放重要桥头堡。', '全会强调，要加快调整产业结构，构建多元发展、多极支撑的现代化产业体系。要拉长能源产业链条，推动传统能源产业转型发展，加强煤炭清洁高效利用，推进新能源与其他产业耦合发展、互促发展，把研发设计、装备制造、运维服务、市场营销等关联配套产业都做起来，打造具有较强竞争优势的特色产业集群。要加强稀土产业科技创新，有针对性地培育打造支柱产业和行业领头羊。要抓好农畜产品精深加工和绿色有机品牌打造，让更多的农畜产品“接二连三”，尽可能形成完整的产业链。要把发展旅游业的重心放在区内旅游资源开发上，把旅游基础设施建设好，吸引更多的游客到我区旅游消费。要强化科技和人才支撑，深入推进“科技兴蒙”行动。', '全会强调，要着力转变思想观念，切实做到“七个摒弃”。现在最当紧的是和“我不如人”的观念说再见，把在一些领域创一流、当标兵的雄心壮志树起来，在优势特色产业领域加紧谋划实施一批标志性、引领性重大项目，抢占制高点，以优势特色产业的领跑带动地区经济后来居上。改错就是改革，要结合主题教育检视整改，加大问题整改力度，在改的过程中找思路、找办法。理顺和健全体制机制就是解放和发展生产力，要聚焦防沙治沙、节约用水、科研成果推广应用、开发区建设、与央企合作、土地和碳汇指标交易、水权交易、信访代办、治理政府拖欠企业账款等，健全完善相关制度机制，通过创新机制提升工作质效。节约就是增长、就是发展，要继续深化“五个大起底”，把能、水、粮、地、矿、材和人力等社会各领域的资源节约工作都做起来，多给子孙后代留财富而不是丢包袱。深化区域合作也是开放，要加强与京津冀、长三角、粤港澳大湾区和东三省的联通，用好京蒙协作平台深化与北京的全方位合作，实现借力发展。', '全会强调，要切实改进工作作风，加快解决“慢”、“粗”、“虚”的问题。要深入开展“三多三少三慢”问题专项整治，完善正向激励和反向惩戒机制，犒赏“快马”，鞭打“慢牛”，全力推动各项工作提速提质提效。要坚决改变粗粗拉拉、大呼隆的毛病，凡事往细里抓、往深里抓，追求精细、精致。要从自治区层面带头做起，加快解决过度留痕和台账泛滥问题，大幅压减督查调度频次，让广大干部把心思和精力真正用在研究解决问题上。', '全会要求，各级领导干部要大力弘扬“吃苦耐劳、一往无前，不达目的绝不罢休”的蒙古马精神，弘扬艰苦奋斗、无私奉献、锲而不舍、久久为功的“三北精神”，实打实干抓好各项工作落实。要静下心来研究解决问题，切实把从哪入手、重点抓什么、具体怎么干都想清楚、琢磨透，找出方法、拿出举措。要一竿子插到底推动落实，做到“我开的会我贯彻，我作的批示我落实，我制定的政策我兑现，我做的调研我推动”。要拿实实在在的成果交卷，做到善始善终、善作善成。要加大对各类成果和经验的挖掘、总结、推广、运用力度，来一个经验成果大起底，对那些成熟的、行之有效的以法规和制度的形式固定下来，推动各方面互学互鉴、取长补短，把“盆景”变成“森林”。', '全会根据《中国共产党章程》和《中国共产党地方委员会工作条例》有关规定，决定免去李秀领、戴弘2名同志自治区第十一届党委委员职务。', '全会号召，全区各级党组织和广大党员干部要更加紧密地团结在以习近平同志为核心的党中央周围，带领全区各族人民牢记嘱托、感恩奋进，真抓实干、奋勇争先，继续开展好主题教育，全力办好两件大事，向着闯新路、进中游的目标扎实迈进，奋力书写中国式现代化内蒙古新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>25</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>习近平着眼全国大局发挥自身优势明确主攻方向奋力谱写中国式现代化建设的陕西篇章</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2023-05-18</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tpxw_56060/202305/t20230518_1529272.html</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['习近平：着眼全国大局发挥自身优势明确主攻方向 奋力谱写中国式现代化建设的陕西篇章_ 呼和浩特市人民政府', '习近平在听取陕西省委和省政府工作汇报时强调 着眼全国大局发挥自身优势明确主攻方向 奋力谱写中国式现代化建设的陕西篇章 途中在山西运城考察 蔡奇出席汇报会并陪同考察', '新华社陕西西安/山西运城5月17日电 中共中央总书记、国家主席、中央军委主席习近平在听取陕西省委和省政府工作汇报时强调，陕西在推进中国式现代化建设中要有勇立潮头、争当时代弄潮儿的志向和气魄，奋力追赶、敢于超越，在西部地区发挥示范作用。要完整、准确、全面贯彻新发展理念，紧紧围绕高质量发展这个首要任务，着眼全国发展大局，立足陕西实际，发挥自身优势，明确主攻方向，主动融入和服务构建新发展格局，努力在实现科技自立自强、构建现代化产业体系、促进城乡区域协调发展、扩大高水平对外开放、加强生态环境保护等方面实现新突破，奋力谱写中国式现代化建设的陕西篇章。', '5月17日上午，中共中央总书记、国家主席、中央军委主席习近平在陕西西安主持中国－中亚峰会前夕，专门听取陕西省委和省政府工作汇报，发表了重要讲话。新华社记者 申宏 摄', '5月17日，习近平在西安主持中国－中亚峰会前夕，专门听取陕西省委和省政府工作汇报，省委书记赵一德汇报，省长赵刚等参加汇报会。习近平发表了重要讲话，对陕西各项工作取得的成绩给予肯定。', '习近平指出，陕西要实现追赶超越，必须在加强科技创新、建设现代化产业体系上取得新突破。要立足自身产业基础和资源禀赋，坚持把发展的着力点放在实体经济上，在巩固传统优势产业领先地位的同时，勇于开辟新领域、新赛道，培育竞争新优势。以科技创新为引领，加快传统产业高端化、智能化、绿色化升级改造，培育壮大战略性新兴产业，积极发展数字经济和现代服务业，加快构建具有智能化、绿色化、融合化特征和符合完整性、先进性、安全性要求的现代化产业体系，做强做优现代能源产业集群。着眼国家战略需求和国际竞争前沿，实施国家重大科技项目，攻克更多关键核心技术，打造更多“国之重器”。强化企业科技创新的主体地位，推动创新链产业链资金链人才链深度融合，加快科技成果产业化进程。建好西安综合性国家科学中心和科技创新中心，努力打造国家重要科研和文教中心、高新技术产业和制造业基地。', '5月17日上午，中共中央总书记、国家主席、中央军委主席习近平在陕西西安主持中国－中亚峰会前夕，专门听取陕西省委和省政府工作汇报，发表了重要讲话。新华社记者 李学仁 摄', '习近平强调，全面建设社会主义现代化国家，扎实推进共同富裕，最艰巨最繁重的任务仍然在农村，必须逐步缩小城乡差距。要积极推进以县城为重要载体的新型城镇化建设，提升县城市政公用设施建设水平和基础公共服务、产业配套功能，增强综合承载能力和治理能力，发挥县城对县域经济发展的辐射带动作用。因地制宜发展小城镇，促进特色小镇规范健康发展，构建以县城为枢纽、以小城镇为节点的县域经济体系。健全城乡融合发展体制机制，完善城乡要素平等交换、双向流动的政策体系，促进城市资源要素有序向乡村流动，增强农业农村发展活力。因地制宜大力发展特色产业，推进农村一二三产业融合发展，拓宽农民增收致富渠道。持续深化农村人居环境整治，加强传统村落和乡村特色风貌保护，加强农村精神文明建设，培育文明乡风。持续实施动态监测，不断增强脱贫地区内生发展动力，坚决守住不发生规模性返贫的底线。', '习近平指出，要着力推动发展方式绿色低碳转型，提升生态文明建设水平。牢固树立和践行绿水青山就是金山银山的理念，继续打好蓝天碧水净土保卫战。要把黄河流域生态保护作为陕西高质量发展的基准线，严格执行黄河保护法和相关规划，推进水土流失、荒漠化综合治理，加强流域生态保护修复，深化农业面源污染、工业污染、城乡生活污染防治和矿区生态环境整治，守护好黄河母亲河。健全秦岭常态化长效化保护体制机制，完善监管体系，搞好动态排查整治，守护好我国中央水塔。强化南水北调中线工程水源地保护，确保“一泓清水永续北上”。推进经济社会发展绿色化、低碳化，加快产业结构、能源结构、交通运输结构和用地结构调整，促进能源产业绿色转型，积极稳妥推进碳达峰碳中和。实施全面节约战略，大力倡导绿色消费，深入推进资源节约集约利用。', '习近平强调，要着力扩大对内对外开放，打造内陆改革开放高地。更加主动融入和服务构建新发展格局，更加深度融入共建“一带一路”大格局，在扩大对内对外开放中强动力、增活力，打开发展新天地。稳步扩大规则、规制、管理、标准等制度型开放，推进自贸试验区高质量发展，积极打造高能级开放平台。积极参与西部陆海新通道建设，充分发挥中欧班列西安集结中心作用，加快形成面向中亚南亚西亚国家的重要对外开放通道，在联通国内国际双循环中发挥更大作用。着力营造市场化、法治化、国际化一流营商环境，提高招商引资的质量和水平。', '习近平指出，学习贯彻新时代中国特色社会主义思想主题教育正在全党深入开展，各级党组织务必在深入、扎实上下功夫，在以学铸魂、以学增智、以学正风、以学促干上见实效。以学增智，就是要从党的科学理论中悟规律、明方向、学方法、增智慧，把看家本领、兴党本领、强国本领学到手。一要提升政治能力，善于从党和人民的立场、党和国家工作大局出发想问题、作决策、办事情，善于从繁杂问题中把握事物的规律性、从苗头问题中发现事物的趋势性、从偶然问题中认识事物的必然性，善于驾驭复杂局面、凝聚社会力量、防范政治风险，切实担负好党和人民赋予的政治责任，真正成为政治上的明白人。二要提升思维能力，把新时代中国特色社会主义思想的世界观、方法论和贯穿其中的立场观点方法转化为自己的科学思想方法，作为研究问题、解决问题的“总钥匙”，切实提高战略思维、辩证思维、系统思维、创新思维、历史思维、法治思维、底线思维能力，做到善于把握事物本质、把握发展规律、把握工作关键、把握政策尺度，增强工作科学性、预见性、主动性、创造性。三要提升实践能力，发扬理论联系实际的优良学风，全面把握新时代中国特色社会主义思想一系列新理念新思想新战略的实践要求，增强推动高质量发展、服务群众、防范化解风险本领，加强斗争精神和斗争本领养成，着力增强防风险、迎挑战、抗打压能力，及时填知识空白、补素质短板、强能力弱项，不断提高专业化水平。陕西要用好自身历史文化资源和红色文化资源，大力弘扬伟大建党精神和延安精神，推动主题教育走深走实。', '5月16日下午，中共中央总书记、国家主席、中央军委主席习近平在前往陕西西安主持中国－中亚峰会途中，在山西运城博物馆考察。新华社记者 李学仁 摄', '习近平心系黄河流域生态和文物保护工作。5月16日下午，在前往陕西途中，习近平走下列车，在山西省委书记蓝佛安、省长金湘军陪同下，先后考察了运城博物馆和运城盐湖。运城历史悠久，文脉厚重，因“盐运之城”得名。在博物馆，习近平参观“华夏寻根”“馆藏珍品”“盬盐春秋”等展陈，详细了解运城有关人类起源和中华文明早期历史发展等，并听取运城盐湖的形成发展和历史沿革介绍。习近平强调，博物馆有很多宝贵文物甚至“国宝”，它们实证了我国百万年的人类史、一万年的文化史、五千多年的文明史，要深入实施中华文明探源工程，把中国文明历史研究引向深入。要认真贯彻落实党中央关于坚持保护第一、加强管理、挖掘价值、有效利用、让文物活起来的工作要求，全面提升文物保护利用和文化遗产保护传承水平。', '运城盐湖具有4600多年的开采史，有着深厚人文底蕴和重要历史价值。近年来，当地坚持保护优先、绿色发展，实施“退盐还湖”，盐湖保护范围内停止一切工业生产，因地制宜推动产业转型升级。习近平结合展板、展品等听取有关情况介绍，实地察看盐湖风貌。他指出，盐湖的生态价值和功能越来越重要，要统筹做好保护利用工作，让盐湖独特的人文历史资源和生态资源一代代传承下去，逐步恢复其生态功能，更好保护其历史文化价值。他强调，黄河流域生态保护和高质量发展，是党中央从中华民族和中华文明永续发展的高度作出的重大战略决策，黄河流域各省区都要坚持把保护黄河流域生态作为谋划发展、推动高质量发展的基准线，不利于黄河流域生态保护的事，坚决不能做。', '5月16日下午，中共中央总书记、国家主席、中央军委主席习近平在前往陕西西安主持中国－中亚峰会途中，在山西运城盐湖考察。新华社记者 谢环驰 摄', '中央有关部门负责同志参加汇报会并陪同考察，主题教育中央第三指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>25</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>月至月大事记</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2019-05-29</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/hhht_zfgb/hhht/2017/4/201905/t20190529_435693.html</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>['1、刘文玉副市长参加自治区生态文明宣传周启动仪式;陪同日本冈崎市友好城市代表团并出席冈崎市赠送和平鸽雕像揭幕仪式，副市长蔡裕东一同参加。', '4、王继平副市长视察门头牌匾整治工作;参加第九届少数民族传统体育运动会动员大会;视察昭君博物院工程建设情况。', '6、周强副市长参加自治区外事筹备工作会议;参加自治区战略环评调研会议;实地视察全市环境卫生综合整治情况。', '7、王继平副市长互换督导玉泉区兴隆巷办事处环境卫生综合整治情况;督查昭君路上跨南二环路工程交通堵点治理情况。', '1、冯玉臻代市长参加自治区公安机关迎接十九大胜利召开庆祝自治区成立70周年安保决战誓师大会。', '2、刘文玉副市长参加驻呼部队全面停止有偿服务工作军地协调领导小组第一次(扩大)会议。', '3、蔡裕东副市长赴新城区东风路办事处互换督导环境卫生综合整治情况;赴乌海市参加2017年呼包银榆经济区第五届联席会。', '1、冯玉臻代市长参加自治区党委第一巡视组专题工作会议，副市长罗青、刘文玉、毕国臣、市政府党组成员刘敏一同参加。', '4、蔡裕东副市长赴乌海市参加呼包银榆经济区第五届联席会议暨黄河金岸蒙西四盟市区域协同发展会议。', '6、王继平副市长陪同文化部、财政部第三批创建国家公共服务体系示范区中期督查组考察并汇报工作。', '7、我市在淘系平台上有网店数量5万家，在营业店铺1万家，有日常经营活动的店铺1500家。其中，零食特产占30%，羊绒羊毛围巾披肩帽子等服饰配件占12%，奶茶、奶酒等冲饮占4%，粮食米面、调味品占2%，男女羊毛羊绒衫等服装类占15%，剩余品类占36%。', '1、冯玉臻代市长主持召开市长办公会议，听取各旗县区、经济技术开发区信访工作情况汇报;听取信访局工作情况汇报。市委副书记王恒俊、市政府秘书长罗琳、各旗县区主要负责人及市有关部门负责人参加了会议;与朔州市市长陈振亮一行会谈;赴新城区调研呼和塔拉草原建设情况、内蒙古少数民族群众文化体育运动中心项目建设情况、国家北方足球训练基地项目、佳地公园建设情况，并主持召开座谈会。副市长周强，新城区及市有关部门负责人参加了调研;赴南二环看望慰问老干部。', '2、罗青副市长听取和林格尔新区基础设施项目工作进展情况汇报;听取和林格尔新区专项规划编制情况汇报。', '4、毕国臣副市长研究中环四期供电问题;互换督导新城区迎新路街道办事处环境卫生综合整治工作;实地督查包片堵点治理工作。', '毕国臣副市长研究中环四期供电问题;互换督导新城区迎新路街道办事处环境卫生综合整治工作;实地督查包片堵点治理工作。', '5、王继平副市长陪同文化部、财政部第三批创建国家公共服务体系示范区中期督查组实地考察;参加自治区政府互联网政务服务和公共资源交易管理工作新闻发布会。', '6、市政府党组成员刘敏参加自治区承担行政职能事业单位改革试点和从事生产经营活动事业单位改革动员部署电视电话会议。', '1、冯玉臻代市长陪同自治区副主席张建民赴北京协调相关工作;与和平会公司、新松机器人投资有限公司、辰运集团、大运集团等洽谈合作事宜。', '2、罗青副市长研究金盛路、快速路(大黑河南岸到绕城高速)高架桥改造事宜，听取新区北翼启动区土地征收进展情况，研究金盛路、快速路南段(南绕城至北环路)两侧辅道土地征收事宜;陪同自治区党委常委、秘书长罗永纲调研新区迎庆活动路线安排。', '3、刘文玉副市长听取迎庆首府活动组后勤保障组工作汇报;参加华金证券内蒙古分公司与赛罕区政府签约仪式，王继平副市长一同参加。', '5、毕国臣副市长参加全球乳业论坛组织(GDP)第四届亚太乳业峰会;实地调研国道110线、209线征拆相关事宜。', '7、王继平副市长赴将军衙署博物院改扩建、昭君博物院改扩建项目工地调研工程进展情况;赴大青山红色公园工地现场办公。', '1、冯玉臻代市长主持召开会议，研究我市老旧小区加建电梯试点工作。主持召开市长办公会议，研究“放管服”相关工作。', '3、刘文玉副市长主持召开会议，研究S43机场高速路建设相关事宜，毕国臣副市长一同参加;参加第二届中蒙博览会呼包鄂协同发展展示区筹备工作会议。', '1、冯玉臻代市长赴内蒙古党政机关、自治区发改委、成吉思汗大街、新华广场、大召、内蒙古电视台、新华东街、中山路、鼓楼立交桥、万达广场等地调研我市街景亮化工作，市政府秘书长罗琳、市四区主要领导及相关部门负责人参加调研。', '1、冯玉臻代市长陪同国家工信部副部长辛国斌调研我市新能源汽车项目，副市长毕国臣一同参加;主持召开迎庆工作协调会，听取市体育局关于迎庆自治区成立70周年筹备工作进展情况及各项活动经费支出情况汇报。', '2、罗青副市长会见清华同方人工环境有限公司工程技术总监赵健康一行;会见太平洋建设中山集团主席张陆春、北方稀土生一伦高科技有限公司董事长邱红军一行。', '5、市政府党组成员刘敏参加自治区总工会和市总工会联合开展的“情系职工、服务职工、以实际行动迎接自治区成立70周年”送清凉慰问活动。', '1、冯玉臻代市长调研内蒙古博物院、乌兰夫纪念馆、赛罕区人民路街道兴康社区、内蒙古赛科星生命科学与生物技术研究院和蒙草生态环境(集团)股份有限公司周边环境综合整治情况。副市长、周强，市政府秘书长罗琳，新城区、赛罕区区长和市有关部门负责人参加了调研。', '3、刘文玉副市长听取中国民航设计院、华东院关于新机场建设总规情况汇报;参加市工商联第十四次代表大会。', '4、蔡裕东副市长陪同中国五矿化工进出口商会副会长刘中慧调研;参加市工商联第十四次代表大会。', '8、周强副市长陪同自治区关于未分配大中专毕业生、退役士兵安置等问题专项督查组督查。', '9、王继平副市长主持召开旅游标识标牌建设工作协调会;主持召开市区蒙汉并用牌匾整治工作调度会。', '10、1-6月份，我市食药监督部门共完成食品监督抽检任务2159批次，其中14批次不合格，已全部处理。监督抽检药品527批次，抽样工作正在进行。全市共上报药品不良反应监测报告338份，医疗器械不良反应监测报告66份，药物滥用监测报告158份。为25所学校、16家食品经营单位配备了食品快检设备。上半年完成快检任务15149批次。', '1、冯玉臻代市长赴土左旗、回民区调研工作。副市长周强、市有关部门负责人参加了调研。', '1、冯玉臻代市长赴托县调研工作，冯玉臻代市长视察了久泰集团煤制烯烃项目基地、大唐托电五期项目、大唐国际再生资源公司、金河污水处理厂建设情况。', '2、罗青副市长研究和林格尔新区参加自治区深入学习贯彻习近平总书记考察内蒙古重要讲话精神工作汇报交流会的汇报视频片;会见兴业银行总行副行长薛鹤峰一行。副市长王继平一同参加。', '1、冯玉臻代市长赴和林县、赛罕区调研工作。参加深入学习习近平总书记考察内蒙古重要讲话精神工作汇报交流会，副市长罗青一同参加;与国务院督查组组长张通一行座谈。', '2、罗青副市长陪同“辉煌七十年·倾听内蒙古—中国广播联盟走基层、转作风、改文风大型主题采访活动”采访组采访新区;参加新区与兴业银行签约仪式;与财政厅对接工作;听取新区科技园设计方案汇报。', '3、蔡裕东副市长陪同国务院“放管服”专项组实地走访;陪同商务部投资促进事务局局长刘殿勋一行赴经济技术开发区考察;会见蒙古国乌兰巴托市青少年代表团。', '4、毕国臣副市长研究国道110线毕克齐至协力气段公路规划选址事宜;陪同国务院督查组“降成本”专项组在我市实地走访。', '毕国臣副市长研究国道110线毕克齐至协力气段公路规划选址事宜;陪同国务院督查组“降成本”专项组在我市实地走访。', '6、市政府党组成员刘敏参加国务院督查组重点文件落实责任部门座谈会;参加全总文工团来我市慰问演出活动。', '1、冯玉臻代市长陪同国务院第四督查组组长张通一行赴市政务服务中心视察工作;参加自治区“深入学习贯彻习近平总书记考察内蒙古重要讲话精神工作汇报交流会”，副市长罗青、蔡裕东、毕国臣、周强、市政府党组成员刘敏一同参加。', '2、蔡裕东副市长参加商务部投资促进事务局考察组在我市开展投资促进及产业对接座谈会;陪同国务院督查组“放管服”专项组赴永泰城·汇景、伊利食品科研与发展中心建设项目视察。', '8、2017年全市共68个项目列入自治区级重点项目，其中工业重点项目8项。总投资467.8亿元，2017年计划投资43.2亿元。按项目行业分为:生物医药1项(金宇保灵)、农副食品加工1项(麒麟胶原蛋白肠衣)、能源2项(大唐托电五期、和林电厂)、光伏2项(爱迩、中环四期)、新材料2项(勤达碳纤维、晶环蓝宝石)。截至目前，我市列入自治区级重点工业项目已全部复工，已完成投资38.7亿元。', '1、冯玉臻代市长主持召开市政府党组第6次(扩大)会议。副市长罗青、蔡裕东、毕国臣、周强、王继平、市政府党组成员刘敏一同参加。', '2、罗青副市长与呼和浩特供电局、自治区编办对接工作;听取新区基础设施建设项目开工相关情况汇报。', '5、王继平副市长主持召开“心连心”艺术团慰问演出后勤保障组工作协调会;实地视察重点项目建设情况。', '4、周强副市长研究解决退役士兵安置遗留问题事宜;参加市委研究农大教职工住宅楼土地事宜专题会;陪同国家土地总督察办公室主任马毅调研和林县农村土地制度改革情况。', '5、王继平副市长主持召开民族团结表彰评比工作协调会;听取金鸡百花电影节执委会各部门工作汇报。', '6、市政府党组成员刘敏参加自治区纪委深入整治“雁过拔毛”式腐败严查扶贫领域腐败问题电视电话会议;参加自治区征兵工作电视电话会议。', '2、蔡裕东副市长参加2017第三届“未来杯”和林格尔国际青少年足球邀请赛暨首届巴西足协亚太官方青训营开幕式。', '1、冯玉臻代市长参加自治区党员领导干部警示教育电视电话会议，副市长罗青、刘文玉、蔡裕东、周强、市政府党组成员刘敏一同参加;参加市安委会全体(扩大)会议并作重要讲话，副市长罗青、刘文玉、蔡裕东、白金祥、毕国臣，经济技术开发区，九个旗县区及相关部门负责人参加了会议;陪同中铁总局副总经理黄民一行视察沙良物流园区。', '2、罗青副市长主持召开会议，研究国开行贷款事宜;会见中国交建集团东北区域总部党工委书记杨毅一行。', '3、毕国臣副市长参加全市出租车汽车行业2016年度优秀企业、文明车和星级驾驶员暨第二届最美的哥的姐表彰会。', '毕国臣副市长参加全市出租车汽车行业2016年度优秀企业、文明车和星级驾驶员暨第二届最美的哥的姐表彰会。', '5、王继平副市长赴乌兰察布市参加自治区科技创新驱动现代农牧业发展助推脱贫攻坚现场会。', '8、上半年市财政局向自治区争取教育科技体育上级专项资金7.02亿元，同比增加6860.44万元、增长10.83%。其中，申报中央文化产业项目12个，自治区文化产业项目63个，申报2017年中央集中彩票公益金支持体育事业专项资金项目18个，申报2017年公共体育场馆免费低收费开放补助资金项目3个，申报教育类项目32个。', '1、冯玉臻代市长赴市公安局、消防支队调研，并听取了市公安局、消防支队工作汇报。市政府副秘书长邢俊平及相关部门负责人参加调研。', '2、罗青副市长会见内蒙古交投现代之路公司总经理李劲松一行，研究金融小镇政策相关事宜;参加呼和浩特新机场总体规划和航站楼方案审查会。', '4、蔡裕东副市长参加自治区成立70周年庆祝活动安全监督工作情况汇报;参加第二届中蒙博览会筹备工作汇报会;参加呼和浩特出口加工区整改转型升级综合保税区协调会。', '5、白金祥副市长参加市人大关于我市协调推动三医联动情况汇报会并调研工作;参加自治区重大活动食品药品安全保障暨下半年工作部署电视电话会议;主持召开全市多证合一工作会议;赴自治区成立70周年庆祝活动主会场视察卫生应急救治保障工作;赴呼市职业学院视察食品安全工作。', '6、毕国臣副市长与乌海市委常委、副市长刘俊山一行座谈;陪同国家安全监督组督导我市迎接自治区成立70周年庆祝活动安全生产工作。', '毕国臣副市长与乌海市委常委、副市长刘俊山一行座谈;陪同国家安全监督组督导我市迎接自治区成立70周年庆祝活动安全生产工作。', '1、冯玉臻代市长赴食品药品监督管理局调研，并实地查看了讨号板北路食品安全示范街、市食药监管局举报投诉受理中心、食品药品案件调查询问室、食品药品监管信息化平台建设情况。赴中燃公司、供排水公司调研，并实地查看了中燃公司燃气生产调度中心、呼叫中心，供水生产调度中心建设情况。', '4、蔡裕东副市长实地调研云中路站(南二环节点)至新机场高速路北端(世纪十八路)高架路工程;会见全国城市外事服务系统协作会议理事长温巨星一行。', '8、王继平副市长主持召开重点文化场馆建设项目协调会;与自治区文化厅厅长佟国清座谈;实地督查重点文化项目建设。', '1、冯玉臻代市长会见工商银行内蒙古分行行长赵贵德一行，副市长罗青一同参加;参加自治区安全生产电视电话会议;会见广州白云电气集团公司董事长胡德良一行，副市长罗青一同参加;听取市土地收储中心工作汇报。', '2、刘文玉副市长慰问空军某部;参加国务院安全生产委员会第四巡视组对内蒙古自治区安全生产工作巡查情况反馈电视电话会议。', '5、王继平副市长视察昭君博物院等重点项目建设情况;与内蒙古民航机场集团公司总经理邱蕴琦一行座谈;与央视主持人纳森等人商讨“马上出发”第一季相关活动合作事宜。', '1、冯玉臻代市长主持召开房地产遗留问题工作部署会议;主持召开和林格尔新区全体党员大会。副市长罗青一同参加;赴市供电局调研。', '2、罗青副市长听取新区财政金融局、基础设施建设投资公司项目进展情况汇报;会见内蒙古奥捷集团董事长霍灵生一行。', '6、周强副市长参加全市驻军部队环境综合整治义务劳动;实地视察全市环境卫生综合整治情况;参加办公厅第一党支部全体党员学习会。', '7、王继平副市长视察重点项目建设情况;实地视察心连心慰问演出场地;审查第26届金鸡百花电影节开幕式晚会。', '1、冯玉臻代市长赴玉泉区参加软通动力大数据应用启动仪式。副市长周强一同参加;陪同自治区副主席刘新乐视察大型活动医疗应急救治和食品药品安全保障工作，副市长白金祥一同参加;陪同自治区主席布小林审查舞台剧《驼道》;参加自治区党委副书记主持召开的迎庆有关工作部署会议。', '2、罗青副市长会见国银金融租赁股份有限公司副总裁黄敏一行;会见中交第四公路工程局有限公司总裁赵云一行。', '3、刘文玉副市长参加全市信访工作会议;研究巡视整改任务;参加自治区国有企业领导小组2017年第一次会议。', '5、毕国臣副市长主持召开“7.31”污水检查井有害气体窒息死亡事故调查处理和善后工作领导小组全体会议。', '6、周强副市长研究中央巡视“回头看”反馈意见国土资源开发领域整改事宜;实地视察全市环境卫生综合整治情况。', '7、王继平副市长参加心连心艺术团慰问演出筹备工作调度会;研究昭君路跨二环路高架桥建设工程相关事宜;赴内蒙古少数民族群众文化体育运动中心现场办公。', '2、罗青副市长陪同公安部一所所长仇保利一行考察我市“平安首府”视频监控建设联网应用项目推进情况。', '3、刘文玉副市长参加城市轨道交通建设规划专家评估会;会见中国农业银行副行长康义一行。', '4、蔡裕东副市长陪同自治区人大常委会督查组赴回民区、土左旗、武川县开展对《内蒙古大青山国家级自然保护区条例》落实情况执法检查。', '1、冯玉臻代市长参加庆祝自治区成立70周年中央电视台“心连心”艺术团慰问演出活动;陪同国土资源部副部长曹卫星一行在我市调研，副市长周强一同参加;陪同自治区副主席张建民一行赴和林格尔新区调研，副市长罗青一同参加调研。', '3、刘文玉副市长参加呼张客专呼市至乌兰察布段开通暨高铁列车首发活动;参加城市轨道交通建设规划专家评估会;检查轨道交通建设及安全生产工作。', '4、蔡裕东副市长、陪同自治区人大督查组开展对落实《内蒙古自治区大青山国家级自然保护区条例》情况执法检查。', '6、毕国臣副市长主持召开三环快速路北线工程征拆等前期工作调度会;参加中国首届高岭土产业发展与合作高峰论坛筹备会议。', '8、王继平副市长协调自治区成立70周年庆祝活动群众行进表演相关事宜;听取丰州古城遗址保护工作汇报。', '1、冯玉臻代市长陪同自治区主席布小林、自治区政协主席任亚平、自治区党委宣传部部长白玉刚参加内蒙古美术馆开馆活动;主持召开首府活动领导小组调度会议。副市长蔡裕东、白金祥、周强参加会议;赴回民区调研重点信访问题。', '2、罗青副市长会见东方国信副总裁吴国庆、内蒙古低碳发展研究院教授许柏年一行;主持召开金盛快速路管道改迁协调会。', '4、蔡裕东副市长陪同自治区国税局局长谭珩一行调研新城区国地税联合办税服务厅;赴玉泉区西菜园调研环境卫生综合整治情况。', '6、毕国臣副市长研究增量配电业务试点项目申报工作;研究沃特玛新能源汽车产业园正极材料项目投产仪式筹备工作。', '7、周强副市长主持召开昭乌达路哲里木路改造提升工程协调推进会;参加全市人大代表迎接自治区成立70周年座谈会。', '2、罗青副市长研究新区“七网”基础设施项目列入自治区“七网”规划相关事宜;听取宝贝河河道治理土地征收进展情况汇报;研究新区社会事业类项目有关事宜;会见内蒙古银行副行长田跃勇一行。', '3、刘文玉副市长赴信访局检查自治区成立70周年庆祝活动期间信访工作;赴赛罕区督查信访化解工作。', '4、蔡裕东副市长主持召开会议，研究筹办2017中国(呼和浩特)美食餐饮展览会事宜;陪同八省区蒙古族自治县代表团，参观内蒙古博物院和内蒙古展览馆。', '8、王继平副市长视察千人群众行进表演;参加大型主题绘画长卷《敕勒青城图》捐赠仪式。', '1、冯玉臻代市长参加呼和浩特市各族各界代表座谈会。副市长罗青、刘文玉、白金祥、毕国臣、周强、王继平、市政府党组成员刘敏一同参加;参加庆祝自治区成立70周年活动。副市长罗青一同参加。', '1、罗青副市长与自治区财政厅、自治区编办对接工作;参加和林格尔新区党工委第一支部会议。', '2、刘文玉副市长听取中蒙博览会呼包鄂协同发展展区筹备情况汇报;听取全市重大项目建设进展情况汇报。', '3、白金祥副市长主持召开落实市人大常委会关于食品安全法执法检查审议意见工作部署会。', '4、毕国臣副市长参加内蒙古欧晶科技股份有限公司石英坩埚二期项目开工奠基活动;主持召开会议，研究大青山自然保护区工矿企业退出方案。副市长周强一同参加。', '毕国臣副市长参加内蒙古欧晶科技股份有限公司石英坩埚二期项目开工奠基活动;主持召开会议，研究大青山自然保护区工矿企业退出方案。副市长周强一同参加。', '5、王继平副市长研究重点文化项目建设;主持召开文化剧场建设协调会;会见中央电视台电影频道田波导演一行。', '1、罗青副市长参加和林格尔新区学习习近平总书记“7.26”重要讲话精神专题研讨会;会见金谷银行董事长刘建强一行。', '3、毕国臣副市长参加市委三环快速路北线工程专题推进会。副市长周强一同参加;与中国科学院胡文瑞院士一行座谈。', '毕国臣副市长参加市委三环快速路北线工程专题推进会。副市长周强一同参加;与中国科学院胡文瑞院士一行座谈。', '4、周强副市长调研重点场馆建设情况。副市长王继平一同参加;实地督查全市环境卫生综合整治情况。', '1、冯玉臻代市长赴南浦商业街E、F商业楼项目、蔚蓝家园项目、青橙紫苑项目、内大翡翠城项目、大台西区回迁房项目调研，市四区政府主要负责人及市有关部门负责人参加了调研;参加自治区主席布小林听取我市重点场馆建设情况汇报会，副市长刘文玉、王继平一同参加;赴呼和浩特博物馆参观习近平总书记对自治区成立七十周年的重要题词。副市长白金祥、毕国臣一同参加。', '6、周强副市长参加土左旗创建国家卫生县城授牌及先进集体、先进工作者表彰会议;赴自治区教育厅研究教育厅旧址征收事宜。', '1、冯玉臻代市长赴武川县调研。主持召开市政府党组中心组2017年第8次学习会议。', '2、刘文玉副市长主持召开轨道交通1、2号线重点任务部署会议;主持召开加快剥离国有企业办社会职能工作领导小组会议。', '3、白金祥副市长参加市政协十二届五次会议提案督办会议;主持召开巴彦路改造提升项目管线迁改工作协调会。', '5、毕国臣副市长研究二砖厂生活区向赛罕区移交事宜;研究国务院安委办第四督导组来我市督导安全生产工作准备事宜。', '1、冯玉臻代市长参加国务院安委办督导组督导检查我市安全生产检查工作汇报会，副市长刘文玉、毕国臣一同参加;会见国开行内蒙古分行行长王琳一行，市政府秘书长罗琳及市相关部门负责人参加了会见;参加自治区年度考核工作电视电话会议，副市长罗青、刘文玉一同参加。', '2、罗青副市长会见亿邦通信科技股份有限公司副总经理彭春娟一行;会见工信部信息中心主任孙蔚敏一行。', '3、白金祥副市长实地调研巴彦淖尔路改造提升工程项目管线改迁工作;研究食品药品安全信息化建设事宜。', '5、王继平副市长赴北京参加第26届中国金鸡百花电影节(2017中国·呼和浩特)新闻发布会。', '6、市政府党组成员刘敏陪同自治区督察组督察我市《法治政府建设实施纲要》贯彻落实情况。', '1、冯玉臻代市长赴土左旗参加浩普瑞投产仪式，副市长毕国臣、市政府秘书长罗琳及市有关部门负责人一同参加;赴伊利集团调研。', '2、罗青副市长参加与白云电气集团战略合作框架协议签约仪式，副市长刘文玉一同参加;会见浙江泛城设计公司总经理李一飞一行;会见中交四公局总经理韩威一行。', '3、刘文玉副市长陪同自治区副主席张建民赴市地税局调研工作;研究中信信托与我市棚改项目政府购买服务资金合作事宜。', '5、白金祥副市长研究食品药品安全监管信息化建设事宜;研究呼和浩特健康管理中心建设事宜。', '1、冯玉臻代市长听取和林格尔新区各项工作进展情况汇报，副市长罗青一同参加;会见沃特玛集团总裁李金林一行，副市长毕国臣、土左旗及市有关部门负责人参加了会见。', '2、刘文玉副市长听取中蒙博览会呼包鄂协同发展展区筹备情况汇报;听取全市信用体系建设情况汇报;研究高架快速路等重点道路建设项目列入国家PPP示范库有关事宜;研究相对集中行政许可权试点方案。', '冯玉臻代市长主持召开市长办公会议，听取第26届中国金鸡百花电影节(2017中国·呼和浩特)总体筹备工作进展情况汇报。', '1、冯玉臻代市长赴经济技术开发区调研。副市长毕国臣和市有关部门负责人参加了调研;主持召开市政府第9次常务会议，研究新机场航站区规划设计方案调整有关事宜、审议《呼和浩特市航空市场开发专项资金使用管理暂行办法》、研究关于呼和浩特机场年旅客吞吐量冲击一千万人次相关事宜、听取中国PPP基金投资我市城市轨道交通1、2号线一期工程PPP项目有关情况汇报、听取关于落实外派监事会制度相关情况汇报、研究市教育局关于向和林格尔新区和经济技术开发区授予教育管理权限事宜、研究市卫计委关于向和林格尔新区和经济技术开发区授予卫生管理权限事宜、听取呼和浩特市2017年棚户区改造项目政府购买服务资金推进情况工作汇报、研究呼和浩特市2017年棚户区改造项目(自加压力第二批)政府购买服务相关事宜、研究高架快速路网等工程申报国家PPP项目库有关事宜。', '3、刘文玉副市长协调对接2017年棚户区改造项目政府购买服务资金与中信信托、平安资产管理合作事宜。', '1、冯玉臻代市长参加国务院督察组督查我市《法治政府建设实施纲要》贯彻落实情况汇报会议，市政府党组成员刘敏一同参加;会见包钢(集团)公司党委书记、董事长魏栓师一行。副市长罗青、市政府秘书长罗琳及市有关部门负责人一同参加;参加自治区生态环境保护大检查督察反馈意见会议，副市长罗青、刘文玉、毕国臣、周强一同参加。', '2、罗青副市长陪同自治区副主席常军政赴和林格尔新区调研;听取和林格尔新区基础设施建设及规划进展情况汇报。', '6、周强副市长研究深入扎实推进城市环境综合整治行动实施方案;赴呼和浩特铁路局沟通对接昭乌达路、哲里木路京包铁路公铁立交事宜;研究学校建设事宜。', '周强副市长研究深入扎实推进城市环境综合整治行动实施方案;赴呼和浩特铁路局沟通对接昭乌达路、哲里木路京包铁路公铁立交事宜;研究学校建设事宜。', '2、罗青副市长陪同自治区国防科工办主任文民一行在新区调研;陪同国家农发行副行长林立一行调研。', '3、刘文玉副市长参加市十四届人大常委会第四十次会议。副市长白金祥一同参加;参加人代会联组会议。', '4、蔡裕东副市长参加自治区投资工作会议;参加全国贸联会第43次高层论坛峰会;陪同自治区副主席艾丽华赴国际会展中心调研。', '7、周强副市长主持召开昭乌达路哲里木路改造提升工程协调推进会;研究关于新城区范围内政府主导项目土地违法处罚事宜。', '9、呼和浩特—台北地区航班顺利完成通关，宣告呼和浩特白塔航空口岸至1991年国务院批准成立以来，出入境旅客吞吐量突破100万人次，国际地区航线和出入境旅客大幅增加。截至目前，白塔国际机场共计开通了8个国家和地区的19条国际、地区航线。', '2、罗青副市长会见上海数字产业集团有限公司总经理宋凯敏一行;会见杭州暾澜投资管理有限公司董事长姚勇杰一行;会见国网信通产业集团国电通公司副总经理杨强一行。', '3、刘文玉副市长研究轨道交通1、2号线财务管理模式相关事宜;主持召开鄂尔多斯大街改造提升工程推进会;参加市十四届人大四十次会议闭幕式，白金祥副市长一同参加。', '5、毕国臣副市长研究调度三环快速路北线工程暨国道110线呼和浩特市至毕克齐段公路工程征拆等前期工作。', '毕国臣副市长研究调度三环快速路北线工程暨国道110线呼和浩特市至毕克齐段公路工程征拆等前期工作。', '6、周强副市长督导检查玉泉区兴隆巷办事处环境综合整治情况;听取中央环保督查反馈意见整改落实情况调度会。', '1、冯玉臻代市长参加在我市举办的第十七届中国网络媒体论坛，副市长罗青一同参加;参加财政部调研组工作汇报会议，副市长刘文玉一同参加;赴蒙牛集团调研。', '4、白金祥副市长参加巴彦淖尔路改造提升项目管线导改工作会议;协调解决呼和浩特健康管理中心筹建有关问题。', '6、王继平副市长主持召开第26届金鸡百花电影节协调会议;主持召开重点文化场馆建设调度会议。', '冯玉臻代市长主持召开市长办公会议，安排部署防范金融风险工作。冯玉臻代市长传达了《自治区党委政府关于坚决贯彻落实习近平总书记重要批示精神，全面做好防范金融风险工作的督办通知》，并就做好我市防范金融风险相关工作进行了安排部署。', '1、冯玉臻代市长参加自治区党委第一巡视组呼和浩特市情况反馈会议;主持召开市政府10次常务会议，研究关于小微企业创业创新基地城市示范预选项目和资金分配有关事宜，研究《首届中国(呼和浩特)国际美食节总体方案》，审议《呼和浩特市小旅店经营服务规范》《呼和浩特市农家乐经营服务规范》，研究内蒙古革命历史博物馆等重大公共文化项目建设事宜，审议《呼和浩特市公共供水水质信息公布工作管理办法》，研究在乡老复员军人遗孀(配偶)享受定期生活补助事宜，研究安排全市高龄津贴普惠制新增人员补助资金相关事宜，研究创建“全国义务教育发展基本均衡县(区)”评估认定所需经费相关事宜，研究提高民族学校教师绩效工资相关事宜，研究《关于呼和浩特市敕勒川实验中学引进优秀教师工作实施方案》，研究呼和浩特市城市地下综合管廊建设方案调整事宜，研究城发公司亚行贷款项目辛家营、毫沁营集中供热工程确定施工单位有关事宜。', '3、蔡裕东副市长陪同我国驻外使节团赴和林县调研;会见大连出口时代电子商务有限公司CEO徐延峰一行。', '1、冯玉臻代市长参加全国五个少数民族地区首府城市人大座谈会议，副市长刘文玉一同参加;主持召开市长办公会议，听取我市高架快速路网工程建设进展情况汇报。会见中国影协分党组书记张宏一行，副市长王继平参加会见。', '2、罗青副市长会见中国铁塔内蒙古分公司党委书记旭光一行;研究和林格尔新区金融小镇优惠政策制定事宜。', '1、罗青副市长会见首钢集团副总经理苏宝珍一行;主持召开新区2017年统计监测工作预备会议;研究新区财税制度工作进展情况。', '3、蔡裕东副市长调研西菜园环境卫生综合整治情况;调研云中路新机场连接线工程进展情况。', '6、周强副市长陪同自治区义务教育均衡发展评估组调研;主持召开推进昭乌达路、哲里木路改造提升工程协调会议。', '7、王继平副市长赴金鸡百花电影节现场办公;主持召开昭君路跨南二环高架桥建设调度会议。', '8、市政府党组成员刘敏参加百色市考察团考察自治区成立70周年庆祝活动座谈会议。', '1、冯玉臻代市长陪同自治区党委书记李纪恒调研并参加调研工作汇报会，副市长罗青、刘文玉、蔡裕东、白金祥、毕国臣、周强，市政府党组成员刘敏一同参加;赴市第二医院、西菜园社区卫生服务中心、市第一医院、市口腔医院、市蒙中医院调研。', '2、罗青副市长研究和林格尔新区棚改工作计划;研究“和林格尔国际电影那达慕”活动方案相关事宜。', '7、周强副市长主持召开教育均衡发展督导评估反馈会议;慰问自治区成立70周年庆祝活动优扶对象。', '8、王继平副市长参加中华民族大赛马2017传统耐力赛(和林格尔站)暨首届和林格尔“蒙草情”欢乐那达慕开幕式;赴文化重点项目现场办公。']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>25</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>中共呼市广播电影电视局委员会关于大力推进学习型党组织建设学习教育培训计划</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2011-11-30</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/swhlygdj_22418/xxgknb/202105/t20210525_931181.html</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>['中共呼市广播电影电视局委员会关于大力推进学习型党组织建设学习教育培训计划_ 呼和浩特市人民政府', '按照市委《关于推进学习型党组织建设的实施意识》要求，以学习贯彻十七届五中全会精神为重点，建设马克思主义学习型政党，大力推进建设学习型党组织，继续在全局范围开展“争创学习型党组织、争做学习型党员”活动，现结合我局实际情况，提出如下实施方案。', '坚持用中国特色社会主义理论体系武装头脑。要继续深入学习马克思列宁主义、毛泽东思想，深入学习邓小平理论、“三个代表”重要思想和科学发展观，全面系统、完整准确地掌握中国特色社会主义理论体系。二是深入学习实践科学发展观。认真总结深入学习实践科学发展观活动的成功经验，引导党员干部准确掌握科学发展观的科学内涵和精神实质，深刻理解科学发展观对各方面工作提出的新要求，不断推动学习实践向深度和广度发展。三是学习践行社会主义核心价值体系。组织开展社会主义核心价值体系学习教育，努力把社会主义核心价值体系体现到党员干部教育管理全过程，融入到党员干部日常工作学习生活中，以党员干部的模范带头作用推动全社会学习践行社会主义核心价值体系的深化。四是学习掌握现代化建设所需的各方面知识。积极推动党员干部学习现代化建设所需的经济、政治、文化、科技、社会和国际等各方面知识，学习反映当代世界发展趋势的现代市场经济、现代社会管理和现代信息技术等方面知识。五是学习总结实践中的成功经验。要加强调查研究，虚心向群众请教，不断总结人民群众创造的新做法、新经验。要学习借鉴其他地区部门单位的好做法、好经验，紧密联系自身实际，有机地运用到实际工作中去。', '加强和改进中心组学习，严格规范管理，增强学习效果。二是加强和改进务虚研讨，深入研究重大问题和热点难点问题。三是加强和改进专题调研，深入总结实践经验，形成改进工作的思路和举措。四是加强和改进主题宣讲，面对面地解答党员干部思想认真上的困惑。五是加强和改进形势政策教育，深入解读国家发展形势和重大方针政策。六是加强和改进个人自学，引导党员干部养成良好学习习惯。每年必读几本好书。七是加强和改进专题讲座、报告会、主题教育等学习教育方式，不断增强建设学习型党组织活动的吸引力、凝聚力，扩大覆盖面和参与度。', '组织各种形式的主题学习教育活动，运用学习讲坛、读书会、知识竞赛、技能比赛、参观考察等广大党员喜闻乐见的手段，特别是结合党和国家重大政策出台、重大活动开展等契机，不断丰富完善工作抓手。二是围绕重要节庆日以及重大历史事件纪念日，组织开展形式多样的专题学习教育。三是加强理想信念教育，引导广大党员干部坚持高举中国特色社会主义伟大旗帜不动摇、坚持中国特色社会主义道路不动摇、坚持中国特色社会主义理论体系不动摇、坚持改革开放不动摇。四是加强党性锻炼和党性修养教育，牢固树立正确的世界观、人生观、价值观和权力观、地位观、利益观，牢记“两个务必”，增强党的意识、宗旨意识、执政意识、大局意识、责任意识，讲党性、重品行、作表率。', '作为首府主流媒体，要充分发挥舆论引导作用，为推进学习型党组织建设提供强有力的思想保证和舆论支持。', '建立健全党组织集体学习制度，领导班子要定期务虚，保证集体学习每个季度不少于1次。二是建立健全培训制度，领导干部参加脱产培训每年一般不少于80学时。三是建立健全调查研究制度，领导干部每年不少于60天，撰写2至3篇调研报告。四是建立基层党员轮训制度。党支部书记每年至少培训1次，时间一般不少于40学时。五是建立健全党员个人自学制度，强化党员干部的日常学习，激发个人自觉学习的内在动力。六是建立健全主题教育制度，形成运用重大节庆日纪念日等组织党员干部学习的工作机制。七是建立健全学习考核制度，把学习情况作为民主评议党员、综合考核评价领导班子和领导干部的重要内容，把理论素养、学习态度和学习能力作为选拔任用干部的重要依据，形成注重学习的用人导向。', '要把推进学习型党组织建设列入重要议事日程，作出专门部署，精心组织、狠抓落实。要把建设学习型党组织与干部教育培训、加强领导班子和干部队伍建设、基层党组织队伍建设结合起来。切实发挥舆论引导作用，加强协调，扎实推进，牢固把握正确导向，努力形成浓厚学习氛围。二是成立建设学习型党组织领导小组及办公室，制定《创建学习型党组织、学习型班子实施意见》，在全局范围广泛开展创建“学习型党组织”、“学习型领导班子”和争当“学习型党员、干部”活动，营造人人崇尚学习的浓厚氛围。三是领导干部要带头学习，切实减少应酬，把更多的时间和精力放在学习上，努力成为建设学习型党组织和学习型领导班子的精心组织者，积极促进者和自觉实践者。四是切实把建设学习型党组织的任务落实到个人，通过积极开展各种形式的创建学习型党组织活动，使每一个党员都能自觉投身于学习型党组织建设中来。要加大对学习的投入，加强硬件建设，提高必要的设施设备等保障，积极为党员学习教育创造良好条件。五是要组织开展经验交流，适时召开学习经验交流会，宣传先进典型、推广成功经验。六是要坚持求真务实，力戒形式主义。七是加强分类指导和督促检查。局党委将根据不同类别、不同层次、不同岗位党员干部的特点，把学习的普遍性要求与特殊需要相结合，分别提出相应的任务和要求，并定期对组织学习情况进行督促检查。八是局属各单位、各部门每年年初向局党委报送上一年度学习情况总结和本年度学习计划，确保党员干部参加教育培训时间不少于24学时，领导班子成员不少于40学时。']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>25</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>豪情满怀担使命勇毅前行展作为习近平总书记在内蒙古考察重要讲话引发我市干部群众强烈反响</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2023-06-10</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650093304&amp;idx=2&amp;sn=9c2643e4e237cddf780a21e223581e4d&amp;scene=0</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>['豪情满怀担使命 勇毅前行展作为——习近平总书记在内蒙古考察重要讲话引发我市干部群众强烈反响', '传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '连日来，习近平总书记在内蒙古考察的新闻，让全市干部群众深受鼓舞、倍感振奋。大家纷纷表示要牢记习近平总书记的嘱托，紧紧围绕推进高质量发展这个首要任务，守正创新、开拓进取，在新的伟大征程上奋勇前进，奋力书写中国式现代化内蒙古新篇章。', '6月8日晚，内蒙古久泰新材料有限公司会议室里，大家正聚精会神收看新闻联播。“习近平总书记要求内蒙古大力发展优势特色产业，积极探索资源型地区转型发展新路径，是我们今后开展工作的行动纲领。”内蒙古久泰新材料有限公司副总经理李俊胜说:“内蒙古久泰公司是一家现代煤化工企业，扎根内蒙古，深耕煤化工产业。我们牢记习近平总书记的要求，坚定不移走高质量发展之路，用科技赋能产业链延伸，不断提高煤炭作为化工原料的综合利用效能，大力发展聚乙醇酸、聚甲醛、液氢等煤基新材料、新能源产品，推动煤化工产业高端化、多元化、低碳化，发挥好能源产业优势，把现代能源经济这篇文章做好，助力首府高质量发展。”', '华灯初上，在内蒙古生力资源集团红旗化工有限公司会议室，公司员工围坐在投影仪前，观看习近平总书记在内蒙古考察的新闻报道，该公司党委书记、总经理高明说:“聆听了习近平总书记的重要讲话，让我对公司未来发展充满了信心。我们公司全体员工将认真学习贯彻落实习近平总书记在内蒙古考察时的重要讲话精神，立足现实、改革创新、与时俱进、奋力拼搏，进一步拓宽企业科研、生产、销售、服务一体化经营的新领域，坚持绿色发展之路，抓好安全生产，精心打造一流生产企业。”', '呼和浩特市生态环境局辐射与固体废物管理科科长刘军军表示，作为一名首府生态环境保护工作者，要始终坚持以习近平生态文明思想为指导，牢固树立绿水青山就是金山银山的理念，自觉践行生态优先、绿色发展的新路子，按照“强首府、作表率”的要求，立足本职岗位，积极投身于大气、水、土壤污染治理和“无废城市”建设工作之中，为提升城市生态环境质量、改善人民群众的民生福祉展现首府环保人的使命担当，为构筑祖国北疆万里绿色长城贡献自己的力量。', '“习近平总书记在内蒙古考察时的重要讲话，为我们做好今后工作指明了前进方向、提供了根本遵循。作为我市唯一的国家级经济技术开发区，呼和浩特经济技术开发区按照打造‘千亿级园区’ ‘智慧园区’‘生态工业园区’和‘先进制造业’四个园区目标，突出项目为王，坚决贯彻项目建设是经济发展基石理念，强化要素保障，按下重点项目建设审批‘加速键’，全面推进重点项目‘拿地即开工’，保障重大项目、重点工程加快建设、加快投产。”接受记者采访时，经开区投资促进局(政务服务局)副局长兰常青如是说。', '“习近平总书记强调，边疆民族地区在走向共同富裕的道路上不能掉队。这充分显示出习近平总书记对我们少数民族地区群众的关心与关切。”土左旗毕克齐镇党委书记郭全全说，我们将牢记习近平总书记的嘱托，紧紧围绕推进高质量发展这个首要任务，以铸牢中华民族共同体意识为主线，坚持以生态优先、绿色发展为导向，从更新发展理念、提升村镇品味、提高产业层次几个方面持久发力，以昂扬的精神状态，勇毅前行。全镇党员干部信心百倍，要撸起袖子加油干，让百姓的日子如同芝麻开花节节高，同心浇筑“团结花”，让共同富裕的硕果结满土默川大地。', '土左旗毕克齐镇党委书记郭全全说，我们将牢记习近平总书记的嘱托，紧紧围绕推进高质量发展这个首要任务，以铸牢中华民族共同体意识为主线，坚持以生态优先、绿色发展为导向，从更新发展理念、提升村镇品味、提高产业层次几个方面持久发力，以昂扬的精神状态，勇毅前行。全镇党员干部信心百倍，要撸起袖子加油干，让百姓的日子如同芝麻开花节节高，同心浇筑“团结花”，让共同富裕的硕果结满土默川大地。', '6月8日晚，收看了习近平总书记在内蒙古考察的新闻后，和林县林草局副局长陈璟的心情久久不能平静。“我们将以习近平总书记在内蒙古考察时的重要讲话精神为指引，一张蓝图绘到底，一茬接着一茬干，锲而不舍推进山水林田湖草沙一体化保护和系统治理，全力推进生态建设由规模化向精细化、数量型向质量型、绿起来向美起来富起来的转变，把我国北方重要生态安全屏障筑得更牢。”陈璟说。', '和林格尔新区党群服务中心(企业发展服务中心)郭菊颖说:“和林格尔新区是自治区重点打造的中国云谷、中国金融云谷，我们要做好五位一体企业服务工作，推动移动、电信、联通三大运营商数据中心智算中心，中行、农行等金融机构科技数据中心，华为等头部企业数据中心加快建设，同时立足内蒙古丰富的绿色清洁能源优势，加快实现数据中心100%绿电替代，为京津冀、长三角等区域提供绿色算力，打造绿色算力供给者和林格尔品牌，为促进东西部协同联动和数字经济高质量发展，赋能数字中国建设贡献力量。”', '内蒙古金河环保科技有限公司工程师张祥海说:“聆听了习近平总书记的重要讲话使我倍感振奋，我们将牢记习近平总书记的嘱托，立足本职，加强技术进步，扎实做好污水治理工作，持续推进水污染治理，为构筑祖国北疆万里绿色长城作出应有的贡献。”', '回民区钢铁路办事处阿拉善北路社区党总支书记、居委会主任王海琼说:“作为一名基层社区工作者，我将牢记习近平总书记的殷殷嘱托，牢牢扎根基层，把社区打造成为各族群众守望相助的大家庭，积极创造各族群众安居乐业的良好社区环境。”', '“作为一名基层干部，在今后的工作中我将牢记职责、坚守岗位，把工作延伸、跟进到群众身边，尽可能为每一位居民提供热情优质的服务，解决群众‘急难愁盼’问题，同时把民族团结工作做好，不断增强各族群众获得感、幸福感、安全感。”玉泉区兴隆巷街道清泉街社区干部元颢媛说。', '(记者 苗青 梁婧姝 刘沙沙 宋向华 云静 李海珍 刘丽霞 武子暄 祁晓燕 阿柔娜 通讯员 韩新梅 李珍)']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>25</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>唱响新时代的青春之歌以习近平同志为核心的党中央关心青年和青年工作纪实</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2022-05-05</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tt_1/202205/t20220505_1242342.html</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['唱响新时代的青春之歌——以习近平同志为核心的党中央关心青年和青年工作纪实_ 呼和浩特市人民政府', '新华社北京5月4日电 题：唱响新时代的青春之歌——以习近平同志为核心的党中央关心青年和青年工作纪实', '党的十八大以来，以习近平同志为核心的党中央站在党和国家事业发展薪火相传、后继有人的战略高度，关心青年成长成才、谋划青年工作发展进步，激励广大青年在实现中华民族伟大复兴的时代洪流中踔厉奋发、勇毅前进。', '“青春向党、不负人民”“复兴栋梁、强国先锋”……2022年4月25日，位于北京中关村的中国人民大学校园里，激荡着青年学子的铿锵誓言。', '五四青年节到来之际，习近平总书记来到这所中国共产党创办的第一所新型正规大学，深情寄语广大青年：“牢记党的教诲，立志民族复兴，不负韶华，不负时代，不负人民，在青春的赛道上奋力奔跑，争取跑出当代青年的最好成绩！”', '百年芳华，青春万岁。“青春理想，青春活力，青春奋斗，是中国精神和中国力量的生命力所在。”', '1919年，以先进青年知识分子为先锋的五四运动，唤醒了沉睡大地，开启了一个伟大的觉醒年代；', '1921年，一群平均年龄28岁的青年建立了中国共产党，开启了中国革命的光明道路，掀起了改天换地的巨澜；', '1922年，中国社会主义青年团成立，凝聚中国青年之志，紧随党的脚步，探索民族复兴的前程；', '翻开史册，一代又一代中国青年满怀对祖国和人民的赤子之心，在党的领导下，积极投身革命、建设、改革的伟大事业，用青春之我创造青春之中国、青春之民族，谱写了中国青年运动的壮美篇章。', '“我们党取得的所有成就都凝聚着青年的热情和奉献。”习近平总书记深刻指出，代表广大青年，赢得广大青年，依靠广大青年，是我们党不断从胜利走向胜利的重要保证。', '2013年5月4日，党的十八大后第一个五四青年节，习近平总书记来到中国航天科技集团公司中国空间技术研究院，参加主题团日活动。', '“我国青年不懈追求的美好梦想，始终与振兴中华的历史进程紧密相联。”面对一张张青春洋溢的面孔，习近平总书记深刻点明中国青年运动的时代主题，“中国梦是我们的，更是你们青年一代的。中华民族伟大复兴终将在广大青年的接力奋斗中变为现实。”', '习近平总书记对青年学子们寄予厚望。他对青年朋友说，在高校学习的大学生都是20岁左右，到本世纪中叶基本实现现代化时，很多人还不到60岁。也就是说，实现“两个一百年”奋斗目标，你们和千千万万青年将全过程参与。', '党的十八大以来，习近平总书记始终立足于“确保党的事业薪火相传，确保中华民族永续发展”的深远考虑，指导青年成长和部署青年工作。', '在庆祝中国共产党成立95周年大会上，特别指出“青年是祖国的未来、民族的希望，也是我们党的未来和希望”；', '在纪念五四运动100周年大会上，发出“让青春在为祖国、为人民、为民族、为人类的奉献中焕发出更加绚丽的光彩”的伟大号召；', '一次次在重要场合反复强调，习近平总书记念兹在兹，引领全党一同走近青年、倾听青年，关心青年、关爱青年，教育青年、引导青年。', '2016年4月26日，习近平总书记来到中国科技大学。考察即将结束，走出图书馆时，天空下起雨来。', '习近平总书记冒雨走到送别的同学们中间，挨个儿握手。就这样持续了十多分钟，雨水打湿了习近平总书记的衣服和鞋子……', '“每年五四前后，这个时间我是留给青年人的”——这是习近平总书记为自己定下的一条原则。', '从未名湖畔聆听青春诗会到清华园内察看技术实验，从航天城的青春对话到巢湖之滨的青年座谈……每到青年人的节日，无论多忙，习近平总书记总要来到青年人中间同大家亲切交流，听取青年心声，感受青春脉动。', '希望青年教师成为打造中华民族“梦之队”的筑梦人；勉励青年劳动者“走技能成才、技能报国之路”；鼓励青年志愿者“以实际行动书写新时代的雷锋故事”；鞭策青年官兵“争当训练尖子、技术能手、精武标兵”……', '习近平总书记谆谆话语、殷殷嘱托，指引新时代青年担起时代重任，为实现中国梦锲而不舍、驰而不息地顽强奋斗。', '在澳门回归祖国15周年之际，习近平总书记来到这里，应邀参加师生们的“中华传统文化与当代青年”主题沙龙。', '“我本人也是一个中华文化的热烈拥护者、忠实学习者。”习近平总书记分享起自己的学习经历，从青少年时代开始到现在，一有空就会拿起一本翻一翻，每次都觉得开卷有益。读小学时，就看了《水浒传》和《三国演义》。后来做了七年农民，也一直在学习、在积累。至今，只要有闲暇，推开中华文化宝库的大门，仍是“一书在手，其乐无穷”。', '2014年5月4日，习近平总书记来到北京大学同师生座谈。博士研究生秦冲说到，自己打算毕业后先出国从事博士后研究，再回国从事新药品的研发。', '习近平总书记讲起自己年轻的时候也面临出国、工作的选择，但最终“想做点儿事”的想法让他选择留在了国内，要为国家和人民做事，“有信念、有梦想、有奋斗、有奉献的人生，才是有意义的人生”。', '“现在，青春是用来奋斗的；将来，青春是用来回忆的。”习近平总书记常常同青年朋友谈及自己的成长故事，激励青年奋斗逐梦。', '论修身，习近平总书记以“人生的扣子从一开始就要扣好”的生动比喻，引导青年养成正确的价值取向。', '谈学习，习近平总书记回忆上山放羊、抽空看书的知青岁月，强调青年人正处于学习的黄金时期，应该树立梦想从学习开始、事业靠本领成就的观念。', '讲健体，习近平总书记介绍自己的体育爱好，勉励青年人既把学习搞得好好的，又把身体搞得棒棒的。', '看天下，习近平总书记希望各国青年用欣赏、互鉴、共享的观点看待世界，推动不同文明交流互鉴、和谐共生，积极为构建人类命运共同体添砖献瓦……', '从坚定信仰到树立信心，从为人修身到求学择业，从身心健康到创新奋斗……习近平总书记深入研究当代青年成长成才的特点和规律，用青年人听得懂、听得进的话语，指引他们迈好人生的每一步。', '2022年4月21日，新中国历史上第一部专门关于青年的白皮书《新时代的中国青年》正式发布，客观呈现了党的十八大以来中国青年发展事业取得的巨大成就。', '此前几天，共青团党的十八大闭幕。习近平总书记对大会取得成功、对当选的团中央新一届领导班子表示祝贺，同时语重心长地说，“党中央对你们寄予很高期望。希望你们带头学理论、强信念，讲政治、严自律，促改革、抓落实，改作风、守规矩，把新时代共青团的好形象树起来”。', '党的十八大以来，以习近平同志为核心的党中央把青年工作摆在治国理政的重要位置，以改革创新精神不断推动青年工作取得历史性成就、发生历史性变革。', '从战略地位到目标任务，从职责使命到路径方法，习近平总书记对青年工作提出一系列新思想新观点新论断，深刻回答了我们党培养什么样的青年、怎样培养青年等一系列重大理论和实际问题，为做好新形势下党的青年群众工作指明了前进方向、提供了根本遵循。', '2021年11月24日，在浙江省杭州市临安区一家公司车间，青年党员志愿者在宣讲党的十九届六中全会精神。新华社记者 徐昱 摄', '2015年7月，习近平总书记领导召开党的历史上第一次中央党的群团工作会议，拉开了共青团深化改革的大幕。《共青团中央改革方案》《全国青联改革方案》《学联学生会组织改革方案》《中央团校改革方案》等相继印发，一系列重大改革举措，不断增强共青团的政治性、先进性、群众性。', '2017年4月，习近平总书记亲自指导制定的新中国历史上第一个青年发展规划《中长期青年发展规划（2016－2025年）》发布，明确党管青年原则和青年优先发展理念，从顶层设计层面对青年发展作出了战略擘画。', '沿着党中央对青年工作指引的道路，各级团组织和团干部的政治站位、政治能力明显提升，为党担当尽责、扛事分忧的自觉性持续增强。服务青年工作机制优化，千方百计为青年排忧解难，广泛组织动员青年建功新时代。', '目前，从中央到地方的青年工作机制基本建成，具有中国特色的青年发展政策体系初步形成。', '习近平总书记在这里亲切会见受表彰的北京冬奥会、冬残奥会突出贡献集体代表、突出贡献个人和中国体育代表团成员，并同大家合影留念。', '2月5日，中国队选手武大靖（右一）在比赛后庆祝。在首都体育馆举行的北京2022年冬奥会短道速滑项目混合团体接力决赛中，中国队夺得冠军。新华社记者 杨磊 摄', '看到国家短道速滑队运动员武大靖，习近平总书记微笑着说：“咱们第一次见面是在8年前，2014年索契冬奥会。”', '“人生能有几回搏，拼搏是值得的。不经一番寒彻骨，怎得梅花扑鼻香”——冬奥开幕前夕，习近平总书记这样鼓励武大靖和他的队友们。', '同小球员撞肩，祝女排队员凯旋，给冬奥健儿回信……在习近平总书记关心支持下，中国青年在体育竞技场上拼搏奋进。', '2021年6月23日，习近平总书记走进北京航天飞行控制中心，同神舟十二号航天员亲切通话。当时，为这场“天地对话”保驾护航的航天科技人员许多是“80后”“90后”，让人们看到了青年一代的蓬勃力量。中央人才工作会议上，习近平总书记想起这一细节：“大部分都是年轻人，三四十岁，但都是重要岗位的担当者。”', '2021年6月17日，在北京航天飞行控制中心，科研人员在监测神舟十二号载人飞船与天和核心舱自主快速交会对接情况。新华社记者 金立旺 摄', '“墨子”“天问”“嫦娥”，这些寄托着民族复兴梦想的事业中，处处可见青年科技人才的身影——北斗卫星团队核心人员平均年龄36岁，量子科学团队平均年龄35岁，中国天眼FAST研发团队平均年龄仅30岁……', '“我们要用欣赏和赞许的眼光看待青年的创新创造，积极支持他们在人生中出彩，为青年取得的成就和成绩点赞、喝彩”。', '在习近平总书记关心鼓励下，新时代的中国青年豪情满怀，经得起风雨、受得住磨砺、扛得住摔打，成为中华民族生气勃发、高歌猛进的亮丽风景。', '在村便民服务中心，“90后”大学生村官黄海芬见到习近平总书记，激动得心怦怦跳。这名潮汕女孩在广东上大学毕业后，放弃白领工作，怀揣梦想奔赴雪域高原。', '从脱贫攻坚的战场到乡村振兴的热土，无数青年挺身而出，将个人奋斗的“小目标”融入党和国家的“大蓝图”，把汗水挥洒在祖国大地上，成为当之无愧的时代先锋。', '每天上午10点，“90后”杨兴准时来到采油作业区。他打开记录本，紧盯机器，“磕头机”有节奏地上下摆动，“吱呀吱呀”，宛如青春之歌的韵脚。', '2020年，杨兴和110多名中国石油大学（北京）克拉玛依校区毕业生，毅然选择奔赴新疆基层工作。', '习近平总书记给他们回信，支持同学们的人生选择，并勉励他们“把个人的理想追求融入党和国家事业之中，为党、为祖国、为人民多作贡献”。', '“毕业后到人民最需要的地方去，以仁心仁术造福人民特别是基层群众”“到基层和人民中去建功立业，让青春之花绽放在祖国最需要的地方”。在北京大学首钢医院实习的西藏大学医学院学生、河北保定学院西部支教毕业生等都收到习近平总书记这样嘱托殷殷的回信。', '2021年12月25日，第三届山西省职业技能大赛参赛选手在位于山西机械高级技工学校的移动机器人项目赛场进行比赛。新华社记者 杨晨光 摄', '广大青年牢记习近平总书记的教导，把边疆和基层作为最好的课堂，在磨砺中见风雨、长才干、壮筋骨，书写着无愧于时代、无愧于历史的青春篇章。', '“让广大青少年都能充分感受到党的关怀和社会主义大家庭的温暖”——2019年在希望工程实施30周年之际，习近平总书记寄语希望工程，强调进入新时代，共青团要把希望工程这项事业办得更好，努力为青少年提供新助力、播种新希望。', '“广泛组织动员广大青年在深化改革开放、促进经济社会发展中充分发挥生力军作用。”习近平总书记为共青团紧紧围绕党和国家工作大局，找准工作切入点、结合点、着力点指明方向。', '2019年11月1日，在山东青岛举行的第六届“创青春”中国青年创新创业大赛全国赛暨2019中国青年创新创业交流会上，参会人员在给志愿者介绍新乡村智慧能源服务模式。新华社记者 李紫恒 摄', '2020年3月3日，在广西南宁国际铁路港，南宁车务段“青年突击队”队员黄莹莹（右二）在搬运广西驰援湖北物资。新华社记者 陆波岸 摄', '中国青年五四奖章评选、全国向上向善好青年推选活动……围绕弘扬社会主义核心价值观，共青团广泛选树优秀青年典型，用榜样力量激励青年奋发成才；“振兴杯”全国青年职业技能大赛、“创青春”中国青年创新创业大赛……围绕创新创业，在共青团搭台助力下，广大青年在强国之路上尽显青春风采；在抗疫一线组织青年突击队，在脱贫攻坚战场发挥生力军作用……广大青年在新时代的广袤天地贡献智慧力量。', '2021年7月1日上午，庆祝中国共产党成立100周年大会在北京天安门广场隆重举行。这是共青团员和少先队员代表集体致献词。新华社记者 陈晔华 摄', '回溯百年，南湖之畔、风雨如磐，一群风华正茂的青年人于一叶红船中开启引领中国的世纪远航。', '如今，红旗漫卷、征途如虹，在被装点成“巍巍巨轮”的天安门广场，习近平总书记发出赢得未来的时代强音——', '“新时代的中国青年要以实现中华民族伟大复兴为己任，增强做中国人的志气、骨气、底气，不负时代，不负韶华，不负党和人民的殷切期望！”']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>25</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>牢记嘱托矢志创新真抓实干不负厚望习近平总书记在内蒙古考察重要讲话引发我市干部群众强烈反响</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2023-06-15</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650093528&amp;idx=2&amp;sn=a7916f2e2dee48bcd36388b674c37131&amp;scene=0</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>['牢记嘱托矢志创新 真抓实干不负厚望——习近平总书记在内蒙古考察重要讲话引发我市干部群众强烈反响', '传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '连日来，习近平总书记在内蒙古考察时的重要讲话为全市科技工作者指明了前进方向，大家纷纷表示，作为新时代科技工作者，将勇担使命，不畏艰辛，矢志创新，久久为功，真抓实干，不负厚望。', '市科技局党组书记、局长李孔燕表示，围绕“六大产业集群”重大创新需求，市科技局将加快部署创新链，“揭榜挂帅”一批重大科技项目，攻克一批“卡脖子”关键核心技术，同时打造创新标杆，通过高水平建设国家乳业技术创新中心、高标准创建国家草种业技术创新中心、高起点建设动物疫苗技术创新中心、高质量创建呼包鄂国家自主创新示范区核心区，在重点产业领域打造国家级战略科技力量。同时加快创新主体培育，积极推进“科技兴蒙”行动，多措并举引进、培养、集聚科技人才，全力打造自治区人才科创高地。', '呼和浩特经济技术开发区科技人才局工作人员张波说，在今后的工作中我们将重点围绕经开区生物医药、新材料和现代装备制造两大主导产业，用足用好最新的科技政策，助力经开区科技型企业高质量发展，同时务实笃行，担当尽责，持续开展高新技术企业申报、科技型中小企业培育、科技成果转化、科技项目申报等工作，以科技赋能，跑出经开区科技“加速度”。', '“习近平总书记指出，筑牢我国北方重要生态安全屏障，是内蒙古必须牢记的‘国之大者’。这句话时刻激励着我们。”赛罕区科技局党组书记、局长李志勇表示，我们将深入贯彻落实习近平生态文明思想，围绕筑牢我国北方重要生态安全屏障，积极推进土地沙化荒漠化防治、草原森林保护和“一湖两海”保护治理等关键技术攻关，培育建设重大科技创新平台基地，加快提升科技支撑能力，为推动“五大任务”见行见效作出应有的贡献。', '“习近平总书记考察内蒙古时的重要指示重要讲话精神，为农牧业高质量发展指明了方向，让我们深受鼓舞。”玉泉区农牧和科技局干部段昊举激动地说。2022年5月，玉泉区区委、区政府与自治区农牧业科学院联合成立“专家工作站”，吸引和集聚了一批农业科技人才，推动科技成果就地转化。下一步，我们将充分发挥辖区科研院所和优质企业的资源优势，对玉泉区的产业布局图、发展远景图进行全面规划，系统梳理产品研发项目库、优质企业客户库等资源，探索党建引领各方合作机制，推动研发链创新链产业链供应链全面融合。', '“习近平总书记考察内蒙古时的重要讲话让我们信心倍增，也深感责任重大。” 回民区科技局局长高娃表示，要把总书记的关怀和期望转化为干事创业的强大动力，结合回民区实际，在校企产学研融合、强化科技创新服务、提高科技项目质量和推动科技成果转化等工作上下功夫，同时进一步深入企业一线开展调研，深入了解企业需求，为企业提供更多科技服务，进一步增强企业的科技创新活力。', '回民区科技局局长高娃表示，要把总书记的关怀和期望转化为干事创业的强大动力，结合回民区实际，在校企产学研融合、强化科技创新服务、提高科技项目质量和推动科技成果转化等工作上下功夫，同时进一步深入企业一线开展调研，深入了解企业需求，为企业提供更多科技服务，进一步增强企业的科技创新活力。', '连日来，全市科协系统认真学习贯彻落实习近平总书记在内蒙古考察时的重要讲话精神，市科协党组书记李开元表示:“我们将结合科协职能职责，紧紧围绕推进高质量发展这个首要任务，毫不偏离铸牢中华民族共同体意识这条主线，踔厉奋发，砥砺前行，团结带领全市广大科技工作者主动投身首府绿色能源、农牧业高质量发展、环境保护、乡村振兴等事业中，为建设‘美丽青城 草原都市’贡献科协力量。”', '“总书记在考察中环产业园时的重要讲话凸显了对科技创新工作的高度重视和殷切期望，我们深感责任重大。”收看了习近平总书记在内蒙古考察的新闻报道后，党的二十大代表、市科协兼职副主席韩佳彤激动万分，他表示，作为一线科研工作者，将努力加强原创性研究，以锲而不舍的“钉钉子精神”力求在智能交通、智慧建筑和智慧城市建设方面打赢关键核心技术攻坚战。科技创新关键在于人才，韩佳彤说，今后将进一步依托市科协平台，发挥“韩佳彤劳模创新工作室”的引领作用，扎实做好传帮带工作，培养高技能专业技术人才，并在自己任教的市现代信息技术学校大力培养产业技术工人。', '“作为基层科协组织，我们将牢记总书记的嘱托，持续把铸牢中华民族共同体意识和科学普及工作紧密结合，为全方位建设‘模范自治区’作出贡献。”回民区科协主席井丽表示。', '连日来，新城区科协积极服务科技工作者，联合多家单位承办民族团结进步知识竞赛，开展“村民创业增收富民行动”。新城区科协主席杨忠表示，今后仍将一如既往积极服务科技工作者，同时要努力打造高端科普基地，在建设“两个屏障”“两个基地”“一个桥头堡”上展现新作为，奋力书写中国式现代化内蒙古新篇章。', '“总书记考察内蒙古的重要讲话再次强调了科技创新的重要作用，这对科技工作者来说，既是压力，也是动力。”赛罕区科协工作人员史顺光说，今后的工作中，严格落实各项惠企科技政策，充当好科技服务“店小二”，为企业创造便利、高效、可预期的科技创新环境。', '内蒙古农业大学农学院教授、内蒙古武川燕麦科技小院首席专家赵宝平表示，作为一名农业高校教师和科研工作者，将牢记总书记嘱托，努力培养造就新时代高素质农业专业人才，并积极投身国家农业现代化建设，努力完成好总书记交给内蒙古的五大任务和全方位建设“模范自治区”两件大事，为建设农业强国贡献力量。', '“将科普宣传主体由科技馆扩展到各学校的同时，我们还将与其他场馆建立良性互动学习交流合作关系，同时不断创新，使科普宣传内容更接地气，进一步拓展公众获取科学知识的渠道，激发公众对科学知识的兴趣和求知欲，从而强化科学知识普及成果及覆盖面。”土左旗青少年科技馆馆长张海拴说。', '内蒙古国龙科技有限责任公司董事长戈小龙表示，国龙能源要将企业发展深度融入到全区产业结构升级与生态保护之中，坚持环境保护和资源开发并重，为自治区绿色发展、健康发展贡献一份力量。', '“作为生态环境保护事业和科技创新体系的一支重要力量，环境科学学会要充分发挥联系政府和广大生态环境科技工作者的桥梁纽带作用，在建设人与自然和谐共生的现代化美丽青城中展现新作为、作出新贡献。”市环境科学学会理事长郭天鹏说。']</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>25</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>奏响时代主旋律聚力奋进新征程年全市宣传思想文化工作综述</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2024-01-31</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/wzjyhdsjfxpt/wntj/202401/t20240131_1654804.html</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>['奏响时代主旋律 聚力奋进新征程 &lt;br&gt;——2023年全市宣传思想文化工作综述_ 呼和浩特市人民政府', '2023年以来，全市宣传思想文化战线坚持用习近平新时代中国特色社会主义思想凝心铸魂，深入学习贯彻习近平文化思想和习近平总书记对内蒙古的重要指示精神，紧扣“两件大事”和推动“强首府”工程，全面贯彻铸牢中华民族共同体意识主线，坚决扛牢举旗帜、聚民心、育新人、兴文化、展形象的使命任务，推动全市宣传思想文化工作取得新进展新成效。', '“在全党大兴调查研究是党中央作出的重大决策部署，是学习贯彻习近平新时代中国特色社会主义思想主题教育工作安排的重要一环。”2023年5月，市委理论学习中心组(扩大)2023年第5次集体学习会如此强调。', '一年来，呼和浩特市聚焦习近平总书记在内蒙古考察时的重要指示精神，市委理论学习中心组组织6个专题学习研讨，推动党员领导干部在深学细照笃行中提高理论素养。对74个地区、单位、国有企业(党委)党组开展巡听旁听，确保理论中心组学习更加规范。', '2023年2月，学习贯彻党的二十大精神理响青城“理论学习轻骑兵”示范宣讲团首场报告会走进武川县燕谷坊，宣讲员胡利以《缘起儿时的那个梦——我心中的中国式现代化》为题，用百姓话说百姓事，把党的二十大的“大道理”寓于基层发展的“小故事”之中，用观众爱听的“微故事”传递党的二十大的声音，观众听得津津有味，不时报以热烈掌声。', '“铸牢中华民族共同体意识是新时代党的民族工作的主线，也是民族地区各项工作的主线……”2023年12月，在呼市科协青少年教育实践基地，党的二十大代表、呼市科协兼职副主席韩佳彤为前来参观的赛罕区大学路小学呼伦南路校区的小学生们上了一堂生动的民族团结“思政课”。', '2023年，我市搭建“立体化”宣讲阵地，组建“分众化”宣讲团队，打造“理响青城”和“青城之光”理论学习宣讲品牌。通过身边人讲身边事，开展各类宣讲4100余场，受众近80万人。', '一年来，我市通过 “青城之光”理论学习轻骑兵“身边人讲身边变化”宣讲小分队、“首府新时代学习讲堂”、 “青城之光”理论宣讲大赛等推出一批优秀宣讲员，让党的创新理论“飞入寻常百姓家”;精心打磨的宣讲稿、制作的微视频等特色理论宣传产品，更是以鲜活的表达、生动的阐释不断“圈粉”。', '一场场接地气的理论宣讲、一篇篇新鲜的理论文章出炉、一项项实践研究成果的推出……让党的声音直达群众心间，汇聚起建设中国式现代化首府的磅礴力量。', '2023年，我市构建大宣传工作格局。建立中央、自治区、市、旗县区四级媒体联动机制和信息资源共享池，实现重大宣传共同策划、同步采访、互推共转，强力引导了舆论。', '特别是2023年，习近平总书记亲临呼和浩特考察，给我们带来了极大的政治关怀和宝贵的发展机遇，极大地激励着青城儿女在新征程上踔厉奋发、勇毅前行。在习近平总书记考察内蒙古期间，呼和浩特市融媒体中心开设专栏专题，加大宣传报道力度，青橙融媒客户端刊发稿件682篇，实现在央视《新闻联播》头条发稿零的突破。', '2023年，我市在全区首次明确新闻发布主体为各地区各部门、“第一发言人”为各地区各部门主要负责同志，组建起725人新闻发言人团队，进一步建强了新闻发言人队伍。共计举办新闻发布会、通气会25场，组织各级媒体宣传报道我市重点工作、重点项目、重点活动160场，累计刊播发报道3.6万余篇。', '围绕“五一”文旅消费宣传，市文化和旅游高质量发展大会暨“5·19中国旅游日”主题活动，全市贯彻新发展理念、推动高质量发展现场会等重大会议活动，2023年，我市组织开展全媒体宣传报道，以官方引领带动自媒体主动参与，形成了百号联动、千万传播、亿级到达的传播态势。', '作为全国60家市级媒体融合试点单位之一，我市打破体制机制壁垒，整合市属3家媒体成立呼和浩特市融媒体中心。通过系列改革，激发内部活力，构建起“报、台、网、微、端、云”全媒体传播体系，传播力、引导力、影响力、公信力显著提升。“青橙融媒”客户端下载量从合并之初80万跃升为500多万，位居12盟市首位。各新媒体平台账号总关注量超2000万，总发稿量16万余条，总点击量超20亿。', '弘扬主旋律，打好主动仗，传播正能量，一篇篇稿件、一张张图片、一段段影像，正全面展示着呼和浩特发展的力量不断凝聚，追梦的激情持续迸发。', '志愿者身穿红马甲，拿着小红旗在路口协助指挥交通;清扫车缓慢行驶马路上喷洒清水、清洁路面和护栏;红绿灯下人群静静等候，斑马线外司机师傅挥手示意让人先行……在青城，随处可见文明的踪影。', '2023年，全市宣传思想文化战线坚持以社会主义核心价值观为引领，举办“新春送福 文明过节”“缅怀革命先烈 赓续红色血脉”等“我们的节日”主题活动700余场，开展“做文明有礼首府人”等教育实践活动4300余场，群众文明素质显著提升。', '价值引领涵养新风正气。打造“青城有礼”“青城有爱”品牌，选树“青城好人”、道德模范99人，5人入选内蒙古好人，建成“榜样的力量”展示点位1300余个。身边好人选树宣传带动社会风气向善向好，使“青城好人”扎堆出圈，《00后外卖小哥》《李师傅好样的》等火爆全网。', '创建引领共建文明家园。全力构建长效常态的群众性精神文明创建工作机制，举全市之力创建全国文明城市，得到中宣部、中央文明办有关领导的充分认可。发布了呼和浩特市第五届 “十星级文明户”120户，评选出第四届全市文明家庭38户，选树“最美家庭”及标兵120户，创建首届自治区文明社区(小区)10个，命名市级文明社区(小区)10个，开展文明单位与文明村镇“结对共建、共育文明”活动280余场，广泛开展了“扣好人生第一粒扣子”“小手拉大手1+6行动”等未成年人思想道德建设主题实践活动。精神文明创建全面覆盖、纵深耕耘，使群众的获得感和幸福感进一步提升。', '实践引领汇聚前行力量。探索建立新时代文明实践项目库，召开新时代文明实践“百千万”现场会，举办志愿服务项目大赛，创建“雷锋学校”47所，组织首届呼和浩特市“邻聚力·共享家”社区邻里节，推出“百校千师点亮蓝精灵”“青春YOUNG益”等一批品牌项目。强化同城共创，自治区、市、城四区三级单位包联3000余个小区，使向善、向美、互助、友爱的美德蔚然成风。同时打造的社区“红石榴驿站”、“团结奋进号”公交专线、“民族团结”主题地铁车站、车厢“移动”阵地，加强了对互嵌式社区基层治理经验成果的宣传报道，推动了各族群众共居共学、共建共享、共事共乐。', '从民生到民心，文明融入每一个人的生活，城市变得生机勃勃。一处处口袋公园精致如画，一个个老旧小区焕然一新，一座座农贸市场提质升级……放眼青城大地，美丽随处可见，文明之花处处绽放。', '作为内蒙古唯一的国家历史文化名城，我市坚持以文塑旅、以旅彰文，召开呼和浩特市2023年文化和旅游高质量发展大会。在全区先行先试打造北疆文化品牌，在博物馆之城、雕塑之城、艺术之城、现代文明之城建设方面迈出坚实步伐。同时推出大型文博综艺节目《北疆文化·青城文脉》、“北疆文化·青城印记——寻迹文化符号集群”、城市精神和城市IP征集提炼等品牌活动，在全区率先吹响北疆文化建设的冲锋号。', '为激活文博“一池春水”，2023年，我市全面深化博物院总分馆制改革，成立呼和浩特博物院，推出《文明足迹——呼和浩特历史文物专题展》，引进故宫博物院《熠熠朝辉——故宫博物院典藏清代金银器》展，组织“回望千年·博物北疆”“行走的博物馆”等主题活动，在全社会掀起了文博热。“呼和浩特的城市很美，很干净，不仅有美食，也有很多可玩可看的地方，真是不虚此行。”来呼看文博的南京游客吴女士高兴地说。', '2023年，我市坚持提升城市文化品位，举办了第二十四届中国·呼和浩特昭君文化节、呼和浩特音乐季、第四届“塞上老街音乐美食季”等活动。同时积极引导文艺精品创作生产，舞蹈剧场《如见》在国家大剧院等地进行巡演，成为现象级作品，舞蹈《红山玉龙谣》在第十三届中国舞蹈“荷花奖”古典舞获提名奖……层出不穷的文艺精品，推动文艺创作从“高原”向“高峰”不断迈进。而以“相约草原 露营青城”为主题，推出一批露营季、美食季、马拉松等文旅活动，极大地丰富了群众文化生活。“城市的文化品位越来越高了。生活在这里，我有满满的幸福感。”2023年秋日，在中山西路“转角巷潮玩步行街”游玩的杨先生乐呵呵地说。', '2023年，我市持续擦亮城市品牌，举办了首届呼和浩特国际雕塑艺术展，建成呼和浩特雕塑艺术馆、呼和浩特国际雕塑园，构成了5.6公里“文化轴带”，形成了首府文化新地标。特别是2023年在呼连办的4场周杰伦演唱会，引发全网关注，成功将演唱会“流量”转化为城市经济“留量”而火爆“出圈”。此外，第四届中国—蒙古国博览会成功举办，极大展示了首府良好形象。', '回望过去，信心充足;展望未来，步履愈坚。新的一年，全市宣传思想文化战线将以习近平文化思想为指引，守正创新、锐意进取，不断开创新时代新征程全市宣传思想文化工作新局面，为谱写中国式现代化首府崭新篇章不懈努力，以优异成绩迎接中华人民共和国成立75周年。']</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>25</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>习近平在湖南考察时强调坚持改革创新求真务实奋力谱写中国式现代化湖南篇章</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2024-03-21</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tpxw_56060/202403/t20240321_1675866.html</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>['习近平在湖南考察时强调 坚持改革创新求真务实 奋力谱写中国式现代化湖南篇章_ 呼和浩特市人民政府', '习近平在湖南考察时强调 坚持改革创新求真务实 奋力谱写中国式现代化湖南篇章 蔡奇陪同考察', '新华社长沙3月21日电 中共中央总书记、国家主席、中央军委主席习近平近日在湖南考察时强调，湖南要牢牢把握自身在构建新发展格局中的战略定位，坚持稳中求进工作总基调，坚持高质量发展不动摇，坚持改革创新、求真务实，在打造国家重要先进制造业高地、具有核心竞争力的科技创新高地、内陆地区改革开放高地上持续用力，在推动中部地区崛起和长江经济带发展中奋勇争先，奋力谱写中国式现代化湖南篇章。', '3月18日至21日，习近平在湖南省委书记沈晓明和省长毛伟明陪同下，先后来到长沙、常德等地，深入学校、企业、历史文化街区、乡村等进行调研。', '18日下午，习近平来到湖南第一师范学院（城南书院校区）考察。该校前身是创办于宋代的城南书院，近代以来培养了一批老一辈无产阶级革命家和名师大家。习近平参观青年毛泽东主题展览，了解学院发展沿革和用好红色资源等情况。在学院大厅，习近平同师生代表亲切交流。他说，国家要强大，必须办好教育。一师是开展爱国主义教育、传承红色基因的好地方，要把这一红色资源保护运用好。学校要立德树人，教师要当好大先生，不仅要注重提高学生知识文化素养，更要上好思政课，教育引导学生明德知耻，树牢社会主义核心价值观，立报国强国大志向，努力成为堪当强国建设、民族复兴大任的栋梁之材。', '随后，习近平来到巴斯夫杉杉电池材料有限公司考察。这是一家主营锂离子电池正极材料研发、生产和销售的中德合资企业。习近平听取当地加快发展新质生产力、扩大高水平对外开放等情况介绍，察看企业产品展示，了解材料性能测试情况和电池生产流程。他强调，科技创新、高质量发展是企业不断成长壮大、立于不败之地的关键所在，民营企业、合资企业在这方面都可以大有作为。中国开放的大门会越开越大，我们愿意同世界各国加强交流合作，欢迎更多外国企业来华投资发展。', '19日，习近平到常德市考察调研。位于沅江江畔的常德河街历史悠久，曾毁于1943年的常德战役。近年来，常德市复原老河街风貌，将此地打造成为历史文化街区。当天上午，习近平来到常德河街，察看各种特色小吃、特产、特色工艺品，同店主和游客亲切交流，并欣赏非物质文化遗产技艺展示，详细了解常德老城街道修复利用、城市规划、水环境综合治理等情况。习近平指出，多姿多彩的地方特色传统文化，共同构成璀璨的中华文明，也助推经济社会发展。常德是有文化传承的地方，这里的丝弦、高腔、号子等要以适当载体传承好利用好，与时俱进发展好。', '湖南是全国13个粮食主产省之一，水稻播种面积、总产量均居全国第一。当天下午，习近平来到常德市鼎城区谢家铺镇港中坪村，走进当地粮食生产万亩综合示范片区，察看秧苗培育和春耕备耕进展，听取高质量推进农业现代化情况介绍，并同种粮大户、农技人员、基层干部一笔一笔算投入产出账。习近平强调，我国有14亿多人口，粮食安全必须靠我们自己保证，中国人的饭碗应该主要装中国粮。要建设好高标准农田，推行适度规模经营，加强政策支持和示范引领，加大良种、良机、良法推广力度，在精耕细作上下功夫，进一步把粮食单产和品质提上去，让种粮也能够致富，进而吸引更多农户参与发展现代化大农业，真正把中国特色农业现代化之路走稳走扎实。', '习近平随后来到种粮大户戴宏家中，察看农机具和春耕物资准备，并前往村党群服务中心了解当地为基层减负、提升基层治理效能等情况。他指出，要坚决整治形式主义、官僚主义问题，精兵简政，持之以恒抓好这项工作。他勉励基层干部在产业发展和乡村治理上群策群力，不断干出让农民群众认可的实绩。', '离开时，村民们纷纷围拢过来欢送总书记。习近平满怀深情地对大家说，党中央高度重视“三农”工作，一定会采取切实有力的政策举措，回应老百姓的关切和需求，把乡村振兴的美好蓝图变为现实。掌声在村庄久久回荡。', '21日上午，习近平听取了湖南省委和省政府工作汇报，对湖南各项工作取得的成绩给予肯定。', '习近平指出，科技创新是发展新质生产力的核心要素。要在以科技创新引领产业创新方面下更大功夫，主动对接国家战略科技力量，积极引进国内外一流研发机构，提高关键领域自主创新能力。强化企业科技创新主体地位，促进创新链产业链资金链人才链深度融合，推动科技成果加快转化为现实生产力。聚焦优势产业，强化产业基础再造和重大技术装备攻关，继续做大做强先进制造业，推动产业高端化、智能化、绿色化发展，打造国家级产业集群。', '习近平强调，进一步全面深化改革要突出问题导向，着力解决制约构建新发展格局和推动高质量发展的卡点堵点问题、发展环境和民生领域的痛点难点问题、有悖社会公平正义的焦点热点问题，有效防范化解重大风险，不断为经济社会发展增动力、添活力。湖南要加强改革系统集成，更好参与全国统一大市场建设，全面融入中部地区崛起和长江经济带发展战略，深度融入共建“一带一路”，稳步扩大制度型开放，高标准建设好自由贸易试验区，着力打造中非经贸深度合作先行区。', '习近平指出，推进乡村全面振兴是新时代新征程“三农”工作的总抓手。湖南要扛起维护国家粮食安全的重任，抓住种子和耕地两个要害，加快种业、农机关键核心技术攻关。坚持大农业观、大食物观，积极发展特色农业和农产品加工业，提升农业产业化水平。深入推进城乡融合发展，壮大县域经济，畅通城乡要素双向流动，科学统筹乡村基础设施和公共服务布局。切实加强乡村精神文明建设，大力推动移风易俗。健全党组织领导的自治、法治、德治相结合的基层治理体系，坚持和发展新时代“枫桥经验”。落实防止返贫监测帮扶机制，坚决守住不发生规模性返贫的底线。', '习近平强调，湖南要更好担负起新的文化使命，在建设中华民族现代文明中展现新作为。保护好、运用好红色资源，加强革命传统和爱国主义教育，引导广大干部群众发扬优良传统、赓续红色血脉，践行社会主义核心价值观，培育时代新风新貌。探索文化和科技融合的有效机制，加快发展新型文化业态，形成更多新的文化产业增长点。推进文化和旅游深度融合，守护好三湘大地的青山绿水、蓝天净土，把自然风光和人文风情转化为旅游业的持久魅力。', '习近平指出，推动高质量发展、推进中国式现代化，必须加强和改进党的建设。要巩固拓展主题教育成果，建立健全长效机制，树立和践行正确政绩观，持续深化整治形式主义为基层减负。组织开展好党纪学习教育，引导党员干部学纪、知纪、明纪、守纪，督促领导干部树立正确权力观，公正用权、依法用权、为民用权、廉洁用权。', '3月20日上午，习近平在长沙亲切接见驻长沙部队上校以上领导干部，代表党中央和中央军委向驻长沙部队全体官兵致以诚挚问候，并同大家合影留念。张又侠陪同接见。']</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A168" t="n">
+        <v>25</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>习近平咬定目标脚踏实地埋头苦干久久为功为黄河永远造福中华民族而不懈奋斗</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2021-10-23</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tt_1/202110/t20211023_1039605.html</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>['习近平：咬定目标脚踏实地埋头苦干久久为功 为黄河永远造福中华民族而不懈奋斗_ 呼和浩特市人民政府', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。新华社记者 李学仁 摄', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平20日下午在东营市黄河入海口考察。新华社记者 谢环驰 摄', '新华社济南10月22日电 中共中央总书记、国家主席、中央军委主席习近平22日下午在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。他强调，要科学分析当前黄河流域生态保护和高质量发展形势，把握好推动黄河流域生态保护和高质量发展的重大问题，咬定目标、脚踏实地，埋头苦干、久久为功，确保“十四五”时期黄河流域生态保护和高质量发展取得明显成效，为黄河永远造福中华民族而不懈奋斗。', '座谈会上，国家发展改革委主任何立峰、甘肃省委书记尹弘、山西省委书记林武、山东省委书记李干杰、自然资源部部长陆昊、生态环境部党组书记孙金龙、水利部部长李国英先后发言，介绍工作情况，提出意见和建议。参加座谈会的其他省区主要负责同志提交了书面发言。', '听取大家发言后，习近平发表了重要讲话。他强调，党中央把黄河流域生态保护和高质量发展上升为国家战略以来，我们围绕解决黄河流域存在的矛盾和问题，开展了大量工作，搭建黄河保护治理“四梁八柱”，整治生态环境问题，推进生态保护修复，完善治理体系，高质量发展取得新进步。同时也要看到，在黄河流域生态保护和高质量发展上还存在一些突出矛盾和问题，要坚持问题导向，再接再厉，坚定不移做好各项工作。', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。新华社记者 谢环驰 摄', '习近平指出，沿黄河省区要落实好黄河流域生态保护和高质量发展战略部署，坚定不移走生态优先、绿色发展的现代化道路。第一，要坚持正确政绩观，准确把握保护和发展关系。把大保护作为关键任务，通过打好环境问题整治、深度节水控水、生态保护修复攻坚战，明显改善流域生态面貌。沿黄河开发建设必须守住生态保护这条红线，必须严守资源特别是水资源开发利用上限，用强有力的约束提高发展质量效益。第二，要统筹发展和安全两件大事，提高风险防范和应对能力。高度重视水安全风险，大力推动全社会节约用水。要高度重视全球气候变化的复杂深刻影响，从安全角度积极应对，全面提高灾害防控水平，守护人民生命安全。第三，要提高战略思维能力，把系统观念贯穿到生态保护和高质量发展全过程。把握好全局和局部关系，增强一盘棋意识，在重大问题上以全局利益为重。要把握好当前和长远的关系，放眼长远认真研究，克服急功近利、急于求成的思想。第四，要坚定走绿色低碳发展道路，推动流域经济发展质量变革、效率变革、动力变革。从供需两端入手，落实好能耗双控措施，严格控制“两高”项目盲目上马，抓紧有序调整能源生产结构，淘汰碳排放量大的落后产能和生产工艺。要着力确保煤炭和电力供应稳定，保障好经济社会运行。', '习近平强调，“十四五”是推动黄河流域生态保护和高质量发展的关键时期，要抓好重大任务贯彻落实，力争尽快见到新气象。一是加快构建抵御自然灾害防线。要立足防大汛、抗大灾，针对防汛救灾暴露出的薄弱环节，迅速查漏补缺，补好灾害预警监测短板，补好防灾基础设施短板。要加强城市防洪排涝体系建设，加大防灾减灾设施建设力度，严格保护城市生态空间、泄洪通道等。二是全方位贯彻“四水四定”原则。要坚决落实以水定城、以水定地、以水定人、以水定产，走好水安全有效保障、水资源高效利用、水生态明显改善的集约节约发展之路。要精打细算用好水资源，从严从细管好水资源。要创新水权、排污权等交易措施，用好财税杠杆，发挥价格机制作用，倒逼提升节水效果。三是大力推动生态环境保护治理。上游产水区重在维护天然生态系统完整性，一体化保护高原高寒地区独有生态系统，有序实行休养生息制度。要抓好上中游水土流失治理和荒漠化防治，推进流域综合治理。要加强下游河道和滩区环境综合治理，提高河口三角洲生物多样性。要实施好环境污染综合治理工程。四是加快构建国土空间保护利用新格局。要提高对流域重点生态功能区转移支付水平，让这些地区一心一意谋保护，适度发展生态特色产业。农业现代化发展要向节水要效益，向科技要效益，发展旱作农业，推进高标准农田建设。城市群和都市圈要集约高效发展，不能盲目扩张。五是在高质量发展上迈出坚实步伐。要坚持创新创造，提高产业链创新链协同水平。要推进能源革命，稳定能源保供。要提高与沿海、沿长江地区互联互通水平，推进新型基础设施建设，扩大有效投资。', '习近平指出，党中央已经对推动黄河流域生态保护和高质量发展作出全面部署，关键在于统一思想、坚定信心、步调一致、抓好落实，要落实好中央统筹、省负总责、市县落实的工作机制，各尽其责、主动作为。要调动市场主体、社会力量积极性。', '习近平强调，进入7月下旬以来，黄河流域部分地方遭受罕见洪涝灾害，各有关地方要切实做好灾后恢复重建工作，特别是要关心和帮助那些因灾陷入困境的群众，保障人民群众基本生活，保证生产生活正常秩序。要注意克服秋汛影响，采取有针对性的措施，抓好秋冬种工作。入冬在即，各地要早作谋划、制定预案，保障群众生活用电、供暖，确保群众温暖过冬。', '韩正在讲话中表示，要认真学习贯彻习近平总书记重要讲话和指示精神，进一步增强推动黄河流域生态保护和高质量发展的责任感使命感。要坚持问题导向，统筹水安全和水资源优化利用，保障生态和生活用水，严控高耗水产能过度扩张。要从黄河流域生态环境系统性和完整性出发，加强上游水源涵养能力建设、中游水土保持、下游湿地保护和生态治理，分区分类推进生态环境保护修复。要扎实推动黄河流域高质量发展，建设特色优势现代产业体系，高度重视煤炭清洁利用，建设全国重要能源基地。要牢固树立大局意识，凝聚大保护合力，坚决把黄河流域生态保护和高质量发展重点任务落实到位。', '为开好这次座谈会，20日至21日，习近平在山东省委书记李干杰、代省长周乃翔陪同下，深入东营市的黄河入海口、农业高新技术产业示范区、黄河原蓄滞洪区居民迁建社区等，实地了解黄河流域生态保护和高质量发展情况。', '20日下午，习近平来到黄河入海口，凭栏远眺，察看河道水情，详细询问径流量、输沙量等。随后，习近平走进黄河三角洲生态监测中心，听取黄河流路变迁、水沙变化和黄河三角洲生物多样性保护等情况介绍。他强调，我一直很关心黄河流域生态保护和高质量发展，今天来到这里，黄河上中下游沿线就都走到了。扎实推进黄河大保护，确保黄河安澜，是治国理政的大事。要强化综合性防洪减灾体系建设，加强水生态空间管控，提升水旱灾害应急处置能力，确保黄河沿岸安全。', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平20日下午在东营市黄河三角洲国家级自然保护区考察。新华社记者 李学仁 摄', '习近平听取了黄河三角洲国家级自然保护区情况汇报，沿木栈道察看黄河三角洲湿地生态环境。他指出，党的十八大以来，各级党委和政府贯彻绿色发展理念的自觉性和主动性明显增强，一体推进山水林田湖草沙保护和治理力度不断加大，我国生态文明建设成绩斐然。黄河三角洲自然保护区生态地位十分重要，要抓紧谋划创建黄河口国家公园，科学论证、扎实推进。习近平强调，在实现第二个百年奋斗目标新征程上，要坚持生态优先、绿色发展，把生态文明理念发扬光大，为社会主义现代化建设增光增色。', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平20日下午在东营市黄河三角洲国家级自然保护区察看黄河三角洲湿地生态环境。新华社记者 王晔 摄', '21日上午，习近平来到黄河三角洲农业高新技术产业示范区考察调研，走进盐碱地现代农业试验示范基地，察看大豆、苜蓿、藜麦、绿肥作物长势，了解盐碱地生态保护和综合利用、耐盐碱植物育种和推广情况。习近平强调，开展盐碱地综合利用对保障国家粮食安全、端牢中国饭碗具有重要战略意义。要加强种质资源、耕地保护和利用等基础性研究，转变育种观念，由治理盐碱地适应作物向选育耐盐碱植物适应盐碱地转变，挖掘盐碱地开发利用潜力，努力在关键核心技术和重要创新领域取得突破，将科研成果加快转化为现实生产力。', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日上午在东营市黄河三角洲农业高新技术产业示范区考察。新华社记者 谢环驰 摄', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日上午在东营市黄河三角洲农业高新技术产业示范区考察时，走进田间察看大豆长势。新华社记者 王晔 摄', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日上午在东营市黄河三角洲农业高新技术产业示范区考察。新华社记者 李学仁 摄', '上世纪70年代，东营市黄河原蓄滞洪区群众响应国家号召搬迁至沿黄大堤的房台上居住。2013年起，东营市对66个房台村进行住房拆迁改造，建设新社区。习近平来到杨庙社区，走进便民服务中心、老年人餐厅、草编加工合作社，详细询问社区加强基层党建、开展便民服务、促进群众增收等情况。在居民许建峰家，习近平察看卧室、厨房、卫生间等，同一家三代人围坐交谈。许建峰告诉总书记，他们原来住在沿黄大堤房台村的老房子里，2016年搬进了这里的楼房，生活条件好了，就业门路多了，打心眼里感谢党的好政策。习近平指出，党中央对黄河滩区居民迁建、保证群众安居乐业高度重视。要扎实做好安居富民工作，统筹推进搬迁安置、产业就业、公共设施和社区服务体系建设，确保人民群众搬得出、稳得住、能发展、可致富。要发挥好基层党组织战斗堡垒作用，努力把社区建设成为人民群众的幸福家园。离开社区时，干部群众高声向总书记问好。习近平祝愿大家生活幸福、身体健康，孩子们茁壮成长。', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日上午在东营市垦利区董集镇杨庙社区考察。新华社记者 李学仁 摄', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日上午在东营市垦利区董集镇杨庙社区居民许建峰家，同一家三代人围坐交谈。新华社记者 李学仁 摄', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日上午在东营市垦利区董集镇杨庙社区考察时，同社区干部群众亲切交流。新华社记者 李学仁 摄', '21日下午，习近平来到胜利油田勘探开发研究院，了解油田开发建设历程和研究院总体情况，走进页岩油实验室、二氧化碳气驱实验室，听取油田坚持自主创新、加快技术攻关应用、保障国家能源安全等情况介绍。习近平强调，解决油气核心需求是我们面临的重要任务。要加大勘探开发力度，夯实国内产量基础，提高自我保障能力。要集中资源攻克关键核心技术，加快清洁高效开发利用，提升能源供给质量、利用效率和减碳水平。他指出，石油战线始终是共和国改革发展的一面旗帜，要继续举好这面旗帜，在确保国家能源安全、保障经济社会发展上再立新功、再创佳绩。', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日下午在东营市胜利油田勘探开发研究院页岩油实验室考察自主创新情况。新华社记者 谢环驰 摄', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日下午在东营市胜利油田勘探开发研究院二氧化碳气驱实验室考察自主创新情况。新华社记者 李学仁 摄', '离开研究院，习近平来到位于东营市莱州湾的胜利油田莱113区块，了解二氧化碳捕集、利用与封存技术研发应用情况。他登上二层钻井平台，察看钻井自动化设备，走进操作室，同正在作业的工人亲切交流。今年是胜利油田发现60周年。习近平代表党中央向为我国能源事业作出贡献的石油工作者们表示崇高敬意。习近平叮嘱大家继承和发扬老一辈石油人的革命精神和优良传统，始终保持石油人的红色底蕴和战斗情怀，为社会主义现代化建设事业作出更大贡献。', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日下午在位于东营市莱州湾的胜利油田莱113区块考察时，登上二层钻井平台，察看钻井自动化设备。新华社记者 李学仁 摄', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日下午在位于东营市莱州湾的胜利油田莱113区块考察时，同工人们亲切交流。新华社记者 李学仁 摄', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日下午在位于东营市莱州湾的胜利油田莱113区块考察时，同工人们亲切交流。新华社记者 谢环驰 摄', '习近平充分肯定党的十九大以来山东的工作，勉励他们努力在服务和融入新发展格局上走在前、在增强经济社会发展创新力上走在前、在推动黄河流域生态保护和高质量发展上走在前，不断改善人民生活、促进共同富裕，开创新时代社会主义现代化强省建设新局面。', '丁薛祥、刘鹤、陈希、何立峰等陪同考察并出席座谈会，中央和国家机关有关部门负责同志、有关省区负责同志参加座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A169" t="n">
+        <v>25</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>奋勇争先谱写中国式现代化新篇章习近平总书记在湖南考察时的重要讲话指明方向凝聚力量</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2024-03-23</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/ztzl/2022zyzz/202403/t20240323_1676458.html</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>['奋勇争先，谱写中国式现代化新篇章 &lt;br&gt;——习近平总书记在湖南考察时的重要讲话指明方向、凝聚力量_ 呼和浩特市人民政府', '奋勇争先，谱写中国式现代化新篇章 ——习近平总书记在湖南考察时的重要讲话指明方向、凝聚力量', '习近平总书记近日在湖南考察时发表重要讲话。广大干部群众认真学习领会讲话精神，表示要以习近平新时代中国特色社会主义思想为指引，坚定信心、真抓实干，奋发有为、开拓进取，为开创高质量发展新局面、谱写中国式现代化新篇章而努力奋斗，把强国建设、民族复兴伟业不断推向前进。', '“现场聆听习近平总书记的重要讲话，我深感重任在肩。”湖南第一师范学院物理与化学学院院长许兰说，学校拥有丰富的红色资源、深厚的历史底蕴，在教学过程中始终坚持立德树人根本任务，“我将牢记总书记的嘱托，不忘为党育人、为国育才使命，既向学生传授专业知识，也持续优化课程思政内容，培养更多德智体美劳全面发展的社会主义建设者和接班人。”', '“习近平总书记2020年来到岳麓书院同师生们亲切交流，这次考察又对高校学子寄予厚望。我感到人生的目标更加清晰。”湖南大学岳麓书院学生芦熹鸣说，“青年学生就应该满怀勤学奋进、矢志报国之心。我要苦练基本功、树立报国志，将充沛的学术热情与拳拳赤子之心结合起来，不负党和国家的培养与期待。”', '新征程上，既要全面贯彻党的教育方针，以教育之强夯实国家富强之基；也要突出科技创新引领，加快实现高水平科技自立自强。', '“科技创新、高质量发展是企业不断成长壮大、立于不败之地的关键所在，总书记勉励我们‘可以大有作为’。我们要在未来的工作中把握好发展新质生产力的实践要求，增加研发投入，加强技术创新，让产品更好地走向世界，为发展新质生产力、推进高质量发展作出更大贡献。”巴斯夫杉杉电池材料有限公司首席运营官暨首席技术官彭文杰说。', '数百公里之外，中国科学技术大学信息科学技术学院实验室内，肖鹏教授正带领团队进行相关实验工作。近年来，他所在团队致力于智能成像方法研究与仪器研制，形成了集人才培养、技术创新和产业支撑为一体的产学研用平台。', '“聚焦国家战略需求，为国培养拔尖创新人才，是我的不懈追求。”肖鹏说，“我要按照总书记的要求，继续肩负好立德树人、培养人才重任，加强教育科技人才一体化发展，同时注重把科技创新成果应用到产业链上，为发展新质生产力贡献教育和科技力量。”', '“多姿多彩的地方特色传统文化，共同构成璀璨的中华文明”，习近平总书记的重要讲话，令潘氏艺术木雕非遗传承人潘能辉思考良多。“总书记十分关注中华优秀传统文化的传承和弘扬，我们这些非遗传承人倍感振奋。我要持续探索木雕技艺与文化的融合发展，创作出更多反映湖南山水人文、传统风俗的作品，让承载历史文脉、寄托人们对美好生活向往的非遗技艺发扬光大。”潘能辉说。', '“习近平总书记来到湖南考察特别关注文化，这令我们感受到总书记深厚的文化情怀。”湖南省文化和旅游厅党组书记、厅长李爱武说，“我们将深入挖掘湖南的文化特色，发扬优良传统，培育时代新风新貌，推动湖湘文化创造性转化创新性发展，在建设中华民族现代文明中展现新作为。”', '“形成更多新的文化产业增长点”“推进文化和旅游深度融合”……习近平总书记提出的重要要求，令黑龙江省哈尔滨市市长张起翔更加明确了工作方向。', '“一段时间以来，我们深入挖掘哈尔滨多元文化荟萃、中西文化交融特色，推动文旅融合高质量发展。接下来，我们将对全市文旅资源进行一体化规划、市场化整合，让‘尔滨’文旅产业高质量发展的成色更足、名片更亮。”张起翔说。青铜器、陶器、玉器、甲骨……不久前，位于河南安阳的殷墟博物馆新馆正式开馆。截至目前，已有数万名游客走进这里，近距离感受悠久的中华文明。', '“未来，我们将持续通过博物馆创新表达，生动呈现商文明在中华文明乃至人类文明发展史上的重要地位和作用，增强民族自信心和凝聚力，扩大中华文化的影响力，更好担负起新的文化使命。”殷墟博物馆常务副馆长赵清荣说。', '正值春耕备耕关键时期，常德市鼎城区谢家铺镇港中坪村粮食生产万亩综合示范片区，一派繁忙景象。', '回忆起同总书记交流的场景，种粮大户戴宏难掩激动：“总书记来到我家中，察看农机具和春耕物资准备，亲切的关怀让我心里热乎乎的。如今，我们享受着育秧补贴、良种补贴、耕地地力保护补贴，农业现代化水平不断提高，种粮的劲头更足了。我要牢记总书记的要求，多种田、把田种好，今年力争再获丰收。”', '常德市农业农村局局长蒋颖群说：“接下来，我们将从价格、补贴、保险等方面强化政策举措，让农民种粮有钱挣、能得利，同时大力推进农业机械化、智能化，给农业现代化插上科技的翅膀，让我们的‘米袋子’始终稳得住。”', '青海柴达木盆地察尔汗盐湖，一艘艘采盐船游弋其间，远处生产车间内机械隆隆作响，一袋袋钾肥从这里生产装运，供应农民抢抓农时，“喂饱”庄稼。', '“为了保障春耕备耕，我们提前生产，确保钾肥及时到达全国各地春耕一线。”青海盐湖工业股份有限公司采盐船船长梁战军表示，“我们要按照总书记重要讲话精神，持续开足马力，全力保障钾肥供应，为春耕备耕提供有力支撑，为新一年的好收成贡献力量。”', '湖南省水利厅厅长罗毅君说：“总书记要求湖南要扛起维护国家粮食安全的重任。水利是农业的命脉，我们要从水源储蓄、水资源配置以及节约用水等方面综合施策，不断加强区域内水资源的优化调度，把各项工作做得更好更实，为全年粮食丰收夯实水利根基。”', '在常德市鼎城区谢家铺镇港中坪村党群服务中心门口，一块“鼎城区下沉乡村政府服务事项清单”展板清晰列出了65项村级受理、办结事项，大门上“一件事一次办”的标识格外醒目。', '“习近平总书记非常了解基层工作的重要性和困扰基层工作的种种难题，我深受感动。”港中坪村党支部书记段德喜介绍，去年以来村部挂牌数从近40块减少到12块，20多项证明不再需要村里开具，村干部的微信工作群、政务App打卡任务等都大幅缩减。“工作观念变了，作风实了，走村入户的时间更多了，群众的满意度也更高了。”', '在江苏省南京市浦口区，人社等部门贯彻为基层减负工作理念，主动将职能前移打造“家门口”就业服务站，为解决当地群众就业难题提供便利。', '“针对为基层减负、提升基层治理效能，总书记提出明确要求。基层负担减轻了，为民服务的定位更突出了。”浦口区百合社区劳保协理员雷永梅介绍，过去社区工作人员只能带着居民去参加招聘会，路途遥远、后续流程长。如今，居民在家门口就能了解到招聘信息，还能完成面试等一系列流程。“我们将继续聚焦群众急难愁盼的问题，主动担当、积极作为，为社区居民提供更多帮助，不断干出让大家认可的成绩。”', '走进河北省衡水市饶阳县饶阳镇端午村，通村入户路笔直平坦，房前屋后干净整洁，人居环境整治工作成效显著。', '“文山会海、迎来送往少了，基层干部有了更多时间进村入户开展调研，切实推动了农村污水、厕所、坑塘治理等实际问题的解决。”饶阳镇党委书记纪卫兵说，下一步将继续聚焦基层干部反映强烈的形式主义、官僚主义问题精准发力，筑牢思想政治根基、健全体制机制，让基层干部有更多的时间奔一线、办实事、抓落实。', '“习近平总书记要求基层干部在产业发展和乡村治理上群策群力，我们深受启发。”湖南省委办公厅副主任、湖南省级层面整治形式主义为基层减负专项工作机制办公室主任周卫龙表示，将聚焦“减负”和“赋能”两个关键词，重点开展“政绩工程”“形象工程”等9方面专项整治，推动基层减负工作走深走实，不断提升基层治理效能，让人民群众幸福感更强、满意度更高。']</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A170" t="n">
+        <v>25</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>内蒙古自治区法治宣传教育条例</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2022-12-07</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/hhht_zfgb/shq/2022/202203/202212/t20221207_1454400.html</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>['（2012年11月29日内蒙古自治区第十一届人民代表大会常务委员会第三十二次会议通过 根据2022年7月28日内蒙古自治区第十三届人民代表大会常务委员会第三十六次会议《关于修改〈内蒙古自治区法制宣传教育条例〉等3件地方性法规的决定》修正）', '第一条 为了加强法治宣传教育，增强全民法治观念和法律素质，弘扬社会主义法治精神，建设社会主义法治文化，提高社会治理法治化水平，全面推进法治内蒙古建设，根据宪法和有关法律、法规，结合自治区实际，制定本条例。', '第二条 法治宣传教育应当以习近平新时代中国特色社会主义思想为指导，全面学习宣传贯彻习近平法治思想，宣传以宪法为核心的中国特色社会主义法律体系，宣传党内法规，宣传立法、执法、司法、守法等法治实践，推进多层次多领域依法治理，培养公民尊法学法守法用法的意识和行为习惯，促进企业事业单位、社会团体和其他组织依法办事、诚信守法，增强国家机关依法决策、依法行政、公正司法的能力，提高社会治理法治化水平。', '国家机关、企业事业单位、社会团体和其他组织应当将法治宣传教育列入工作计划，确定相应机构和人员组织实施本部门、本单位以及面向社会的法治宣传教育工作。', '鼓励法学教育工作者、法律实务工作者以及其他法律专业人员等社会力量以开展法律咨询、法治讲座、志愿服务等多种形式支持和参与法治宣传教育。', '第四条 法治宣传教育应当统一规划，分类实施，实行经常教育与集中教育相结合、普及教育与重点教育相结合、宣传教育与法治实践相结合的原则。', '法治宣传教育应当根据不同时期经济社会发展状况和现实需要，确定主要内容和基本要求，增强针对性和实效性。', '在少数民族聚居的地方开展法治宣传教育，应当使用国家通用语言文字，根据需要可以同时使用国家通用语言文字和当地通用的少数民族语言文字。', '第六条 法治宣传教育应当通过多种载体、形式和方法，开展法律进农村、进社区、进校园、进机关、进企业、进军营、进网络以及法律宣传月、宣传周、宣传日和“法治乌兰牧骑”等普法宣传活动，着力提高普法针对性和实效性。', '第七条 旗县级以上人民政府应当制定普法规划，将法治宣传教育工作纳入国民经济与社会发展规划和政府公共服务体系，并组织实施。', '第八条 旗县级以上人民政府应当按照本行政区域内公民每人每年不低于0.5元人民币的标准将法治宣传教育经费列入本级政府预算，专款专用，并随着经济社会发展水平动态调整。', '旗县级以上人民政府有关部门按照规定可以通过政府购买服务的方式，引入社会力量开展法治宣传教育相关工作。', '国家机关、企业事业单位、社会团体和其他组织应当统筹安排必要的经费，保证法治宣传教育工作正常开展。', '第九条 旗县级以上人民政府司法行政部门主管本行政区域内的法治宣传教育工作，拟定并组织实施法治宣传教育工作规划，组织、指导、协调、检查和考核法治宣传教育工作。', '第十条 国家机关、企业事业单位、社会团体和其他组织应当按照谁执法谁普法、谁管理谁普法、谁服务谁普法的原则落实普法责任制，制定本系统本行业普法规划、年度普法计划，建立健全普法领导和工作机构，明确具体责任部门和责任人员，推进本系统本行业本单位人员学法用法，加大对管理和服务对象普法力度，并按照要求将开展法治宣传教育工作情况报同级人民政府司法行政部门。', '第十一条 司法机关和行政执法部门应当结合司法和行政执法活动开展相关法律法规宣传教育。法官、检察官、行政复议人员、行政执法人员、律师以及其他法律工作者应当深入基层，开展以案释法活动，在办理案件或提供法律服务过程中就所涉及法律问题向诉讼参与人、行政相对人、利害关系人及其他相关人员及时释法说理、答疑解惑。', '第十二条 行政执法部门应当加强对行政执法人员的法治宣传教育，确保每人每年接受不少于30学时的法律法规培训。', '第十三条 公务员主管部门应当将基本法律知识和与业务相关的法律知识列入公务员录用考试、初任培训、任职培训、专门业务培训和在职培训内容。', '各级公职人员培训机构应当把习近平法治思想和宪法、法律以及党内法规列入国家工作人员培训必修课范围。', '第十四条 文化、新闻出版、广播电视行政部门应当将法治宣传教育列入宣传文化事业发展计划，加强法治文化阵地建设，建立健全媒体公益普法制度，组织、指导有关单位做好法治题材文学艺术作品的创作、演出、出版和播映工作。', '广播、电视、报刊、网络等大众传播媒体应当开办法治节目、栏目，开展公益性法治宣传教育。', '各级各类学校应当落实计划、教材、课时、师资，根据不同年龄阶段学生的生理、心理特点和接受能力，有针对性地开展法治宣传教育和法治实践活动。', '中小学校应当聘请具有法律知识和法治工作经验的人员兼任法治副校长，协助开展法治宣传教育。', '第十六条 公安、民政、人力资源和社会保障、信访等部门应当按照各自职责，加强对流动人员、灵活就业人员、失业人员、农村牧区留守人员和信访人的法治宣传教育，引导其学法守法，提高依法维护合法权益的能力。', '第十七条 卫生健康、农牧、林业和草原等部门应当按照各自职责加大公共卫生安全、疫病防治、野生动物保护等方面法律法规和相关知识的宣传力度，增强公民应对突发公共卫生事件、疫病预防的意识。', '第十八条 监狱、看守所、社区矫正机构、拘留所、强制隔离戒毒场所应当按照各自职责，将法治宣传教育列入服刑人员、被羁押人员、社区矫正对象、行政拘留人员、强制隔离戒毒人员的教育改造计划并组织实施。', '第十九条 工会、共产主义青年团、妇女联合会、残疾人联合会等组织应当根据各自工作范围和工作特点，普及相关法律知识，维护职工、青少年、妇女儿童、残疾人的合法权益。', '第二十条 苏木乡镇人民政府、街道办事处应当宣传与基层群众生产生活密切相关的法律法规，引导群众依法维护权益、表达诉求、化解纠纷，提高群众参与基层自治和社会管理活动的意识和能力。', '第二十一条 对公务员和参照《中华人民共和国公务员法》管理的人员、国有企业经营管理人员、事业单位工作人员，分级分类进行法律知识考试。考试工作由司法行政部门会同有关部门组织实施。', '第二十二条 国家机关、国有企业事业单位、社会团体应当将学习和遵守法律情况作为其工作人员考核、考察的重要内容。', '第二十三条 各级人民代表大会及其常务委员会应当通过听取和审议工作报告、执法检查以及代表视察、专题调研等形式，加强对法治宣传教育工作的监督检查。', '第二十四条 对在法治宣传教育工作中成绩突出的单位和个人，旗县级以上人民政府应当给予表彰和奖励。', '第二十五条 旗县级以上人民政府司法行政部门应当会同有关部门对本级人民政府行政执法部门实施普法规划、年度普法计划和普法责任清单落实情况开展监督检查。', '监督检查时，可以委托第三方机构就履行责任制情况、法治宣传教育效果等事项进行评估，评估结果作为考核的重要参考。', '第二十六条 国家机关、企业事业单位、社会团体和其他组织未按照本条例规定履行法治宣传教育工作职责的，由旗县级以上人民政府司法行政部门提出限期整改建议；逾期不改正的，由具有管理权限的机关给予通报批评；情节严重的，对直接负责的主管人员和其他直接责任人员依法给予处分。']</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A171" t="n">
+        <v>25</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>习近平总书记考察河北承德纪实</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>2021-08-27</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tt_1/202108/t20210827_1019134.html</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>['新华社承德8月26日电 题：“14亿多中国人拧成一股绳，在中国特色社会主义道路上锲而不舍走下去”——习近平总书记考察河北承德纪实', '题：“14亿多中国人拧成一股绳，在中国特色社会主义道路上锲而不舍走下去”——习近平总书记考察河北承德纪实', '8月23日至24日，习近平总书记来到河北承德，深入绿意盎然的无边林海，赞誉荒漠变绿洲的精神力量；走进意蕴悠长的园林庙宇，感悟民族交往交流交融的历史启迪；来到欣欣向荣的乡村社区，描绘全面建设社会主义现代化国家的美好图景。', '在塞罕坝月亮山望海楼驻守了13年，护林员刘军、王娟夫妇没有想到，习近平总书记会来这里看望他们。', '秋日明媚的阳光洒向这片无边绿海，远处山峦起伏，四顾风景如画。半个世纪前塞罕坝还是飞鸟不栖、黄沙遮天的茫茫荒原，如今这里已是花的世界、林的海洋。沧桑巨变背后，是无数刘军、王娟这样林场人的辛苦付出和无私奉献。', '怎么值班、怎么休息，多久能回一趟家、多久能见一次孩子……习近平总书记详细了解他们工作生活情况。', '得知二人长年工作生活在这座三层高的望海楼里，24小时轮流值守，紧要时每15分钟瞭望一次，就这样度过了4700多个单调的日日夜夜，习近平总书记连声说：“很辛苦！”', '一层卧室、二层餐厅、三层工作间，总书记逐层察看，关切询问冬天取暖烧什么、能不能洗上热水澡，仔细翻看瞭望情况记录本，了解工作制度、管理规定。', '“你们真是不容易啊！”习近平总书记由衷感叹，“这项工作很光荣，也需要很强的责任感。这么多年都没有发生过火灾，这很不容易。谢谢你们！你们辛苦了！”', '离开月亮山，车队驶入林海深处，在一块写着“绿之源”的石碑前停了下来。这里正是百万亩绿色林海的起源地——尚海纪念林。', '建场之初，由于缺乏经验，塞罕坝连续两年造林成活率不足8%。林场第一任党委书记王尚海不信这个邪。1964年春，他带领职工在这里打响了“造林大会战”。连续多天，吃住在山上，共栽植落叶松516亩，当年成活率96%。', '“他始终放不下这片林子，1989年去世后，家人遵从遗愿，把他的骨灰撒在了这里，与这里的一草一木永远相伴。”林场负责同志说。', '“走进林子里，感觉确实不一样，空气很好。”沿着木栈道，总书记步入林中。在一棵落叶松前，总书记还特地用手丈量了一番：“长得很好，树干很直。”', '“原来我们脚下就是沙地，现在腐殖土层已有二三十公分厚。这些小落叶松，都是种子落下来自然长起来的。这里经常出现黑琴鸡、狍子，这些年还发现了狼。”林场负责人如数家珍。', '“人为的火灾隐患要特别注意，一定要处理好防火和旅游的关系。防火责任重于泰山，不能把旅游收入看得高于防火。那可是几代人的心血啊！60年植树造林成果如果毁于一旦、付之一炬，损失是物质上的，也是精神上的。”', '“你们60年没有发生火灾，这已经很不容易了，经验值得总结，继续完善，但丝毫不可松懈。我们建这片林，它的生态屏障作用，要永远发挥下去。”', '人群中，总书记一眼就认出了满头银发的第一代退休职工代表陈彦娴。2017年，她代表林场职工领回了联合国环境规划署颁发的“地球卫士奖”。', '“我是1964年高中毕业后，响应党的号召，来到塞罕坝。”“六女上坝”的故事家喻户晓，当年陈彦娴等6人义无反顾来到这里，在荒漠之上谱写了一曲无悔的青春之歌。', '如今，青丝变成了白发，荒山成了青山，牢记使命、艰苦创业、绿色发展的塞罕坝精神一以贯之、代代相传。', '站在陈彦娴身边的，既有防火调度员，也有“森林医生”防治检疫员；既有硕士毕业的林场科研所研究人员，也有刚刚毕业的大学生技术员……', '看着守林护林人的队伍越来越壮大，习近平总书记倍感欣慰：“2017年，我对你们感人事迹作了一个批示，提出了塞罕坝精神，这已经成为我们中国共产党精神谱系的组成部分。塞罕坝精神，不仅你们需要继续发扬，全党全国人民也要学习弘扬，共同把我们的国家建设好，把绿色经济发展好，把生态文明建设好！”', '清代，这里因地处京师和塞北之间、中原农耕文化和草原游牧文化过渡地带，见证了中国多民族统一国家的形成，留下一段段“合内外之心，成巩固之业”的民族团结佳话，藏传佛教达赖、班禅灵童转世的金瓶掣签制度也是在这里确立的。', '24日上午，习近平总书记先后走进承德避暑山庄、普宁寺、承德博物馆，深入考察文化遗产保护和民族宗教工作。', '习近平总书记依次察看澹泊敬诚殿、四知书屋、烟波致爽殿等，详细了解山庄历史和文物保护工作。', '“了解了很多情况，学到了很多知识。”总书记指出，承德避暑山庄底蕴深厚，在民族交往交流交融、宗教与社会相适应、传统文化保护和传承、人与自然和谐相处等方面具有重要历史价值和时代意义。', '这幅由清代画家绘制的长图，呈现了山庄鼎盛时期的全貌。山庄面积超过8000亩，西北多山、东南多水，地形犹如中国自然地貌的缩影，亭台楼阁、山水相依，自然风景与人文历史交相辉映。', '“避暑山庄的文化很深厚，建筑构思精美，是我国的重要文化遗产。”习近平总书记强调，“园林文化是几千年中华文化的瑰宝，要保护好，同时挖掘它的精神内涵，这里面有我们中华优秀传统文化基因。”', '听说有些人来自承德本地，总书记嘱咐他们常带孩子来看看，让他们“从小就要了解这里，热爱自己的家乡”。', '普宁寺是避暑山庄外八庙之一，前半部建筑为汉式、后半部为藏式，汉藏合璧、有机融合，寓意四海之内“安其居、乐其业、永永普宁”。', '普宁寺内立有普宁寺碑、平定准噶尔勒铭伊犁之碑、平定准噶尔后勒铭伊犁之碑，四面分别用汉、满、蒙、藏四种文字镌刻。习近平总书记仔细察看碑文，了解相关史实。', '参观过程中，一幅展现土尔扈特部从伏尔加河草原，逾越艰难险阻、万里东归的示意图，吸引了总书记的目光。当年乾隆正是在承德热情接见了东归英雄渥巴锡。', '习近平总书记感慨：“土尔扈特部都去了100多年了，最终还是义无反顾要回到祖国，这真正体现了我们中华民族的影响力和向心力。”', '走出博物馆，习近平总书记对大家说，历史是鲜活的，既有通史，也有专史，各个方面都要研究透。要因地制宜开展研究阐释，围绕中华民族伟大复兴做好研史学史工作。', '在承德考察过程中，习近平总书记多次强调，承德见证了我们国家历史发展的一些重要历史时刻，汉藏满蒙等中华各民族交往交流交融，在这里留下了许多历史印记。我们的祖先在中华民族的进步过程中、在文明发展的过程中，都有哪些政治智慧、做了哪些事情，我们要深入了解。', '鉴往知来，习近平总书记充满自信：“在党的领导下，我们56个民族、14亿多人和睦共生，更加坚强地屹立于世界民族之林。”', '2012年底，刚刚担任中共中央总书记的习近平，冒着零下十几摄氏度的严寒，来到太行山深处的河北省阜平县，为的是“看真贫”。', '时隔8年多，脱贫攻坚战取得全面胜利。24日下午，总书记再次来到河北农村，考察全面推进乡村振兴。', '承德市双滦区偏桥子镇大贵口村地处燕山余脉，莲花山风景秀美，滦河水绕村而过，吸引了不少游客前来。随着乡村旅游发展，休闲采摘、民宿等也兴起了，村民们在家门口卖土特产又卖风景，腰包渐渐鼓了起来。', '村山谷市集的展厅里，本地出产的南瓜、茄子、葡萄、毛桃等特色蔬菜水果，五颜六色、琳琅满目。', '“这里产的沙果昨天我吃了，味道很好。这是我们小时候吃的果子，别的地方还真不多见。”总书记笑着说。', '驻村第一书记郝天娇告诉总书记，现在全村有农业温室大棚303个，其中草莓大棚有230个。“我们专门去山东学草莓种植技术，一年下来一个大棚能赚六七万。”', '村民霍金就住在村里的小河边，推开门看得见山、望得见水。两层楼的大房子，院里种了棵杏树。', '一家人热情地邀请总书记到家中做客。这是一个三代11口人的大家庭。正值暑假，霍金的5个孙子都在家中。', '客厅里拉家常，老霍有点激动：“这些年来我们国家变化太大了，老百姓种地政府给补贴，病了有医保，大病还有救助，养老也有保障。有总书记领导，人民真幸福！”', '“我们是人民的勤务员，这句话不是一个口号，我们就是给老百姓做事的。”习近平总书记回应道。', '“我们已经全面建成小康社会了，我们农村下一步的目标就是乡村振兴。不仅城镇要好，乡村也要好，乡村城镇一样好。我们不能满足，还要再接再厉。全面小康之后还要现代化，这只有在中国共产党领导和我国社会主义制度下才能实现。”', '离开大贵口村，习近平总书记专程来到承德市高新区滨河社区，考察社区居家养老服务中心。', '中心成立于2018年，通过政府购买服务、企业运营、社会参与的方式，解决老年人健康医疗、精神慰藉、生活照料等需求，服务范围已从社区向周边辐射，惠及约1700人。', '走进中心，大屏幕上展示了居家养老智能化信息平台运行情况。工作人员随机调取了一位老人的健康档案，联系方式、生活习惯、服务需求、患病及用药情况等一目了然。', '工作人员告诉总书记，这位老人患有脑梗后遗症，性格内向，日常需要上门配送药物、打扫卫生、心理辅导。', '组建志愿服务队，创建“时间银行”，鼓励大家“今天为别人服务、明天免费享受服务”，是这个社区开展居家养老服务的创新举措。', '“当志愿者就是想老有所为，能发挥一点余热。”大家告诉总书记，目前全社区有48名志愿者，主要由身体较好的退休职工、退役军人组成，每天和工作人员一起上门服务。', '“你们讲的很好，对我很有启发。你们在探索做好老有所养的同时，也提出了一个怎么老有所为的问题。”', '习近平总书记指出，要把老有所为同老有所养结合起来，研究完善政策措施，鼓励老年人继续发光发热，充分发挥年纪较轻的老年人作用，推动志愿者在社区治理中有更多作为。', '离开社区时，总书记同依依不舍的群众深情道别。他指出：“我们已经走在实现第二个百年奋斗目标的新征程上。只要我们党牢记为中国人民谋幸福、为中华民族谋复兴的初心使命，14亿多中国人拧成一股绳，在中国特色社会主义道路上锲而不舍走下去，我们就一定能够实现中华民族伟大复兴。”']</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A172" t="n">
+        <v>25</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>习近平坚持以人民为中心深化改革开放深入推进青藏高原生态保护和高质量发展</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2021-06-10</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tt_1/202106/t20210610_964324.html</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>['习近平：坚持以人民为中心深化改革开放 深入推进青藏高原生态保护和高质量发展_ 呼和浩特市人民政府', '6月7日至9日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是7日下午，习近平在青海圣源地毯集团有限公司考察时，同企业员工亲切交流。新华社记者 李学仁 摄', '6月7日至9日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是7日下午，习近平在西宁市城西区文汇路街道文亭巷社区书画室，观看退休人员书画练习。新华社记者 谢环驰 摄', '新华社西宁6月9日电 中共中央总书记、国家主席、中央军委主席习近平近日在青海考察时强调，要坚决贯彻党中央决策部署，完整、准确、全面贯彻新发展理念，坚持以人民为中心，坚持稳中求进工作总基调，深化改革开放，统筹疫情防控和经济社会发展，统筹发展和安全，攻坚克难，开拓创新，在推进青藏高原生态保护和高质量发展上不断取得新成就，奋力谱写全面建设社会主义现代化国家的青海篇章。', '6月7日至9日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是8日下午，习近平在海北藏族自治州刚察县青海湖仙女湾，了解青海省加强祁连山地区和青海湖生态环境保护等情况。新华社记者 谢环驰 摄', '6月7日至9日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是8日下午，习近平在海北藏族自治州刚察县沙柳河镇果洛藏贡麻村，同藏族牧民索南才让一家人围坐在客厅聊家常。新华社记者 谢环驰 摄', '6月7日至9日，习近平在青海省委书记王建军、省长信长星陪同下，先后来到西宁市、海北藏族自治州等地，深入企业、社区、自然保护区、农村等进行调研。', '6月7日至9日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是7日下午，习近平在青海圣源地毯集团有限公司生产车间考察。新华社记者 谢环驰 摄', '7日下午，习近平来到位于西宁市城中区的青海圣源地毯集团有限公司考察调研。在生产车间，习近平察看原材料、生产流程、产品展示，了解国家级非物质文化遗产加牙藏毯手工编织技艺的保护传承，对企业带动当地群众就业增收表示肯定。在企业检测、设计部门，习近平仔细观看产品耐磨度测试、产品设计图样，询问产品销路和企业创新发展情况。习近平强调，推动高质量发展，要善于抓最具特色的产业、最具活力的企业，以特色产业培育优质企业，以企业发展带动产业提升。青海发展特色产业大有可为，也大有作为，要积极营造鼓励、支持、引导民营企业发展的政策环境。要加快完善企业创新服务体系，鼓励企业加大科技创新投入，促进传统工艺和现代技术有机结合，增强企业核心竞争力。要把产业培育、企业发展同群众就业、乡村振兴、民族团结更好统筹起来，相互促进、相得益彰。', '6月7日至9日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是7日下午，习近平在青海圣源地毯集团有限公司设计部门考察。新华社记者 谢环驰 摄', '6月7日至9日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是7日下午，习近平在青海圣源地毯集团有限公司考察时，向企业职工挥手致意。新华社记者 李学仁 摄', '随后，习近平来到西宁市城西区文汇路街道文亭巷社区，听取他们加强基层党建、完善基层治理、推进民族团结进步工作汇报，同现场办事群众交谈。习近平先后走进社区书画室、幸福食堂、康复室、舞蹈室、阅览室，观看退休人员书画练习、歌曲排练，了解社区向老年人提供餐饮、健康服务，向青少年提供公益性课后托管服务等做法。在社区广场，习近平同围拢来的群众亲切交流。他指出，要把社区作为民族团结进步创建的重要阵地，发扬各族人民手拉手、心连心的好传统，共同建设民族团结一家亲的和谐家园。社区治理得好不好，关键在基层党组织、在广大党员，要把基层党组织这个战斗堡垒建得更强，发挥社区党员、干部先锋模范作用，健全基层党组织领导的基层群众自治机制，把社区工作做到位做到家，在办好一件件老百姓操心事、烦心事中提升群众获得感、幸福感、安全感。要牢记党的初心使命，为人民生活得更加幸福再接再厉、不懈奋斗。', '6月7日至9日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是7日下午，习近平在西宁市城西区文汇路街道文亭巷社区，考察社区加强基层党建、完善基层治理、推进民族团结进步等情况。新华社记者 燕雁 摄', '6月7日至9日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是7日下午，习近平在西宁市城西区文汇路街道文亭巷社区舞蹈室，观看退休人员歌曲排练。新华社记者 谢环驰 摄', '6月7日至9日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是7日下午，习近平在西宁市城西区文汇路街道文亭巷社区阅览室，了解社区向青少年提供公益性课后托管服务情况。新华社记者 李学仁 摄', '8日，习近平到海北藏族自治州刚察县考察调研。他首先来到青海湖仙女湾，听取青海省加强祁连山地区和青海湖生态环境保护情况介绍。随后，沿木栈道步行察看。湖面开阔，水质清澈，飞鸟翱翔。习近平强调，青海湖生态保护和环境治理取得的成效来之不易，要倍加珍惜，不断巩固拓展。生态是我们的宝贵资源和财富。要落实好国家生态战略，总结三江源等国家公园体制试点经验，加快构建起以国家公园为主体、自然保护区为基础、各类自然公园为补充的自然保护地体系，守护好自然生态，保育好自然资源，维护好生物多样性。', '6月7日至9日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是8日下午，习近平在海北藏族自治州刚察县青海湖仙女湾考察。新华社记者 李学仁 摄', '沙柳河镇果洛藏贡麻村是牧民集中安置新村，2017年依托牛羊养殖业等产业实现整村脱贫。习近平来到这里，藏族牧民索南才让率一家老小热情邀请总书记到家里做客，并献上哈达。习近平走进家中，屋里屋外仔细察看，并同一家人围坐在客厅聊家常。索南才让激动地说，牧民生活好，全靠党的政策好，衷心感谢共产党，衷心感谢总书记。习近平指出，今年是中国共产党成立一百周年，我们党发展壮大起来不容易，夺取政权不容易，建设新中国不容易。老百姓衷心拥护中国共产党，就是因为中国共产党始终全心全意为人民服务、为各民族谋幸福。', '6月7日至9日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是8日下午，习近平在海北藏族自治州刚察县沙柳河镇果洛藏贡麻村考察时，藏族牧民索南才让向习近平献上哈达。新华社记者 谢环驰 摄', '6月7日至9日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是8日下午，习近平在海北藏族自治州刚察县沙柳河镇果洛藏贡麻村，走进藏族牧民索南才让家中了解生产生活情况。新华社记者 李学仁 摄', '离开索南才让家，村民们看到总书记来了，热情地涌到路边，欢呼着向总书记问好。习近平动情地说，看到乡亲们过上幸福生活，我感到很欣慰。我们要继续奋斗，到新中国成立一百周年时中华民族一定能够更加坚强地屹立于世界民族之林。全面建设社会主义现代化国家，一个民族也不能少。在中华民族大家庭中，大家只有像石榴籽一样紧紧抱在一起，手足相亲、守望相助，才能实现民族复兴的伟大梦想，民族团结进步之花才能长盛不衰。习近平祝福大家“扎西德勒”。', '6月7日至9日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是8日下午，习近平在海北藏族自治州刚察县沙柳河镇果洛藏贡麻村考察时，向村民们挥手致意。新华社记者 李学仁 摄', '6月7日至9日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是8日下午，习近平在海北藏族自治州刚察县沙柳河镇果洛藏贡麻村考察时，向村民们挥手致意。新华社记者 谢环驰 摄', '6月7日至9日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是8日下午，习近平在海北藏族自治州刚察县沙柳河镇果洛藏贡麻村考察时，同村民们亲切交流。新华社记者 谢环驰 摄', '9日上午，习近平听取了青海省委和省政府工作汇报，对青海各项工作取得的成绩给予肯定，希望青海各族干部群众开拓创新、担当实干，以优异成绩庆祝建党一百周年。', '习近平指出，进入新发展阶段、贯彻新发展理念、构建新发展格局，青海的生态安全地位、国土安全地位、资源能源安全地位显得更加重要。要优化国土空间开发保护格局，坚持绿色低碳发展，结合实际、扬长避短，走出一条具有地方特色的高质量发展之路。要立足高原特有资源禀赋，积极培育新兴产业，加快建设世界级盐湖产业基地，打造国家清洁能源产业高地、国际生态旅游目的地、绿色有机农畜产品输出地。要加快科技体制机制改革，加大科技创新支持和成果转化力度，加快创新型人才培养，激发创新活力。要贯彻落实党中央关于新时代推进西部大开发形成新格局、推动共建“一带一路”高质量发展的战略部署，主动对接长江经济带发展、黄河流域生态保护和高质量发展等区域重大战略，增强经济发展内生动力。各级党委特别是主要负责同志要承担起政治责任，统筹抓好财政、税收、审计等工作，严肃财经纪律，把各方面资金管好用好，切实防范金融风险，严格执行党中央关于财经工作的方针政策和工作部署，把过紧日子的要求落到实处。', '6月7日至9日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是7日下午，习近平在青海圣源地毯集团有限公司考察时，同企业员工亲切交流。新华社记者 谢环驰 摄', '习近平强调，保护好青海生态环境，是“国之大者”。要牢固树立绿水青山就是金山银山理念，切实保护好地球第三极生态。要把三江源保护作为青海生态文明建设的重中之重，承担好维护生态安全、保护三江源、保护“中华水塔”的重大使命。要继续推进国家公园建设，理顺管理体制，创新运行机制，加强监督管理，强化政策支持，探索更多可复制可推广经验。要加强雪山冰川、江源流域、湖泊湿地、草原草甸、沙地荒漠等生态治理修复，全力推动青藏高原生物多样性保护。要积极推进黄河流域生态保护和高质量发展，综合整治水土流失，稳固提升水源涵养能力，促进水资源节约集约高效利用。', '6月7日至9日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是8日下午，习近平在海北藏族自治州刚察县青海湖仙女湾考察。新华社记者 申宏 摄', '习近平指出，要坚守人民情怀，紧紧依靠人民，不断造福人民，扎实推动共同富裕。要以有效举措落实以人民为中心的发展思想，把就业、收入分配、教育、社保、医疗、住房、养老、托育、食品安全、社会治安等问题统筹解决好，妥善处理生态和民生的关系，实现生态保护和民生保障相协调。要推动巩固拓展脱贫攻坚成果同乡村振兴有效衔接，加强农畜产品标准化、绿色化生产，做大做强有机特色产业，实施乡村建设行动，改善农村人居环境，提升农牧民素质，繁荣农牧区文化。习近平请青海省委和省政府转达他对玛多地震灾区各族群众的诚挚慰问，要求切实抓好灾后恢复重建，解群众难，安群众心，暖群众情，共同创造幸福美好生活。', '6月7日至9日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是7日下午，习近平在西宁市城西区文汇路街道文亭巷社区幸福食堂，了解社区向老年人提供餐饮服务情况。新华社记者 燕雁 摄', '6月7日至9日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是7日下午，习近平在西宁市城西区文汇路街道文亭巷社区同群众亲切交流。新华社记者 谢环驰 摄', '习近平强调，青海是稳疆固藏的战略要地，要全面贯彻新时代党的治藏方略，承担起主体责任。要全面贯彻党的民族政策，铸牢中华民族共同体意识，深化民族团结进步示范省建设。要全面贯彻党的宗教工作基本方针，坚持我国宗教的中国化方向，积极引导宗教同社会主义社会相适应。要坚持总体国家安全观，坚持底线思维，坚决维护国家安全。要毫不放松抓好常态化疫情防控，有效遏制重特大安全生产事故，推动扫黑除恶常态化，深化政法队伍教育整顿，保持社会大局和谐稳定。', '习近平指出，我们党在百年奋斗中，培育形成了一系列各有特点的革命精神，集中体现了党的坚定信念、根本宗旨、优良作风，是激励我们不懈奋斗的宝贵精神财富。在党史学习教育中做到学史崇德，就是要引导广大党员、干部传承红色基因，涵养高尚的道德品质。一要崇尚对党忠诚的大德，广大党员、干部永远不能忘记入党时所作的对党忠诚、永不叛党的誓言，做到始终忠于党、忠于党的事业，做到铁心跟党走、九死而不悔。二要崇尚造福人民的公德，广大党员、干部要站稳人民立场，始终同人民风雨同舟、生死与共，勇于担当、积极作为，切实把造福人民作为最根本的职责。三要崇尚严于律己的品德，广大党员、干部要慎微慎独，清清白白做人、干干净净做事，努力做一个高尚的人、一个纯粹的人、一个有道德的人、一个脱离了低级趣味的人、一个有益于人民的人。要建设忠诚干净担当的高素质专业化干部队伍，继续加强党风廉政建设，一体推进不敢腐、不能腐、不想腐，确保党的肌体健康。']</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A173" t="n">
+        <v>25</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>呼市旅发委关于上报六个一百工程自查报告</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>2018-09-19</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/swhlygdj_22418/fdzdgknr/bmgk/201809/t20180919_939583.html</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>['按照《关于开展全市宣传思想文化工作“六个一百工程”集中督查的通知》要求，市旅发委对“六个一百工程”推进阶段工作进行自查并形成自查报告，请审阅。', '以习近平新时代中国特色社会主义思想为指导，深入学习宣传贯彻党的十九大精神、习近平总书记考察内蒙古系列重要讲话精神和给乌兰牧骑队员回信精神，牢固树立“四个意识”、坚定“四个自信”，自觉在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致，用习近平新时代中国特色社会主义思想和党的十九大精神武装头脑、指导实践、推动工作。', '（一）加强组织领导，制定实施方案。市旅发委党组高度重视，把“六个一百工程”及贯彻落实全市宣传思想工作会议精神纳入党建重要议事日程，制定了《呼市旅发委宣传思想文化工作“六个一百工程”实施方案》，明确工作目标与原则，通过召开周例会、专题会议进行安排部署，对委党组中心组、党员干部学习提出新的要求，及时把时事政治、党纪政规、意识形态、党建业务等专题学习贯穿到全年学习计划中。', '（二）党组中心组学习开展情况。结合实际制定了《呼市旅发委党组理论学习中心组2018年学习安排》、《呼市旅发委党组中心组、学习型党组织建设制度》，列出中心组学习计划和参考书目，内容包括习近平新时代中国特色社会主义思想、习近平总书记考察内蒙古讲话精神、习近平总书记参加十三届全国人大一次会议内蒙古代表团审议重要讲话精神、《中华人民共和国监察法》等，截至目前，通过专题研讨、座谈交流等形式共学习9次，并依照《学习口袋书》组织班子成员和党员干部进行理论武装测试。', '（三）建设学习型党组织情况。一是以党的政治建设为统领，不断提高党员干部政治意识，结合党支部“三项制度”、“三会一课”的形式，把党员日常学习记录分为党员干部大会和“三会一课”两种，把政治学习、业务学习、党建知识学习和主题党日活动相融合，采取学习方式主要有集中学习、聘请专家解读、网络答题、观看警示教育片、讲党课、实地教学、撰写心得体会、订购相关辅导刊物等方式，提高党员受教育的积极性和主动性。', '（四）“学习讲堂”建设情况。一是把“首府旅游大讲堂”更名为“学习讲堂”，与自治区党委、市委工作要求保持步调一致，要求党员干部关注“青城政道”；二是初步建立“呼市旅发委学习讲堂”微信群，要求委机关全体党员干部加入，并每日推送信息和相关学习资料，截至目前，共推送包括思想纵横、意识形态、党员干部应知应会、感悟《共产党宣言》等学习资料8期，努力提高推送质量，以提升阅读量。', '一是加强委党组中心组学习和学习型党员建设，通过“学习讲堂”的作用推送出与时俱进好的文章和学习材料；二是丰富学习内容和形式，以支部“三会一课”为平台，加强党员干部的融合式学习教育，力争达到良好的效果。']</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A174" t="n">
+        <v>25</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>上半年我市经济运行持续向好稳中优进主要经济指标好于预期高于同期</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>2023-07-25</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwgk/2022_xwfbh/202307/t20230725_1561330.html</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>['上半年我市经济运行持续向好稳中优进 主要经济指标好于预期高于同期_ 呼和浩特市人民政府', '7月24日，记者从市政府新闻办公室召开的新闻发布会获悉，上半年，全市上下勠力同心、奋楫笃行，持续贯彻新发展理念，充分激发经济发展潜力和势能，主要经济指标好于预期、高于同期，全市经济运行持续向好，稳中优进。', '农业生产稳中有增。上半年，全市农林牧渔业及服务业总产值64.9亿元，同比增长5.5%。主要经济指标较去年同期相比全面提升，其中农业产值同比增长9.1%、林业产值同比增长9.5%、牧业产值同比增长5.3%、渔业产值同比增长1.0%、辅助性活动业产值同比增长7.5%;农业和牧业主导地位稳固，占总产值比重达到92.6%;畜产品供给提升，猪牛羊禽肉类总产量同比增长15.0%，奶类总产量同比增长18.0%;“菜篮子”供应充足，全市蔬菜及食用菌产量同比增长13.5%，瓜果产量同比增长21.7%。', '工业生产增势强劲。上半年，全市规模以上工业增加值同比增长19.0%，工业生产增势强劲，为全市经济发展稳中优进打下良好基础。行业增长面近八成，全市在统的28个行业大类中有22个行业增加值同比实现增长，增长面达78.6%;三大门类全面增长，采矿业增加值同比增长14.0%;制造业增加值同比增长18.6%;电力、热力、燃气及水生产和供应业同比增长21.9%。民营企业活力彰显，全市规模以上工业企业中民营企业户数占比73.7%，规模以上民营工业增加值同比增长19.2%;高技术产业动能强劲。全市规模以上工业高技术制造业增加值同比增长36.2%，拉动全市规模以上工业增加值增长1.4个百分点。', '服务业加快回升。上半年，全市服务业增加值同比增长7.1%。服务业增速回升，比一季度加快1.9个百分点;交通运输业增加值同比增长9.6%，拉动地区生产总值增长0.6个百分点;批发零售、住宿餐饮业持续回暖，批发零售业增加值同比增长7.7%，住宿餐饮业增加值同比增长22.0%;金融业实现较快增长，金融业增加值同比增长9.1%，拉动地区生产总值增长0.8个百分点。', '投资保持快速增长。上半年，全市固定资产投资同比增长43.5%。基础设施投资拉动显著，同比增长1.2倍，拉动全部投资增长34.0个百分点，占全部投资比重为43.5%;工业投资支撑有力，同比增长1.3倍，拉动全市投资增速33.7个百分点，占全市固定资产投资的比重达到41.7%;高技术产业投资快速增长，同比增长3.2倍，拉动全部投资增长20.0个百分点，占全部投资比重18.2%;社会领域投资保持较快增长，全市社会领域投资同比增长43.1%。', '消费市场保持活跃。上半年，全市社会消费品零售总额541.7亿元，同比增长11.3%，消费品市场保持活跃态势。城乡消费品零售额均实现两位数增长，城镇消费品零售额同比增长11.4%，乡村消费品零售额同比增长11.1%;网络零售额快速增长，全市限额以上通过公共网络实现的商品零售额同比增长1.1倍，高于限额以上消费品零售额增速86.5个百分点;部分升级类商品销售高速增长，新能源汽车商品零售额同比增长2.3倍，电子出版物及音像制品类商品零售额同比增长2.2倍;必需品类商品销售平稳增长，全市限额以上单位日用品类、粮油食品类等生活必需品供应充足，产品销售保持稳定增长，同比分别增长21.1%、44.9%。', '总的来看，上半年，全市经济指标持续向好，经济运行稳中优进。下一步，全市上下将深入学习贯彻习近平总书记在内蒙古考察时的重要指示精神，铆足办好两件大事的劲头，继续坚持“稳”的发展基调，把握“优”的发展原则，持续推动首府经济高质量发展，奋力书写中国式现代化首府新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A175" t="n">
+        <v>25</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
           <t>数看呼和浩特市科技创新首起来强起来</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tpxw_56060/202403/t20240307_1669167.html</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>['2023年，呼和浩特市科学技术局坚持以习近平新时代中国特色社会主义思想为指导，以党的政治建设为统领，以铸牢中华民族共同体意识为主线。深入推进学习贯彻习近平新时代中国特色社会主义思想主题教育，聚焦完成两件大事，形成了全面从严治党与创新驱动发展相互促进、共同发展的良好局面，为推动首府科技事业持续进步提供了坚强的政治保证。', '全年组织党组理论学习中心组集中学习28次，研讨交流18次，班子成员带头讲党课5次，基层支部集中学习33次，专题辅导讲座6场，举办专题“读书班”3期，专题交流研讨15次，形成高质量调研报告3篇，为全面落实强首府战略提供坚强科技支撑。', '区市两级投入科研经费3.6亿元、建设资金12.7亿元，推动国家级乳业技术创新中心实体化运行。首次实施国家重点研发项目，取得98项技术成果。', '区市两级投入1.5亿元，支持创建国家草业技术创新中心，目前已研发出6个新品种、6项突破性技术成果。', '组建政校企创新创业联盟，举办3场“蒙科聚 强首府”协同创新系列路演，推动25项新技术新成果落地，预计年均新增经济收益近亿元。', '厅市共建“蒙科聚”创新驱动平台，强化“线上＋线下”全链条科技创新服务，实现科技研发、资本运作、项目孵化、成果转化、知识产权保护五大功能集聚。培育技术经纪人900余名、技术转移服务机构23家，新增2家自治区成果转移转化示范基地、3家国家级技术转移中心呼和浩特分中心、4家自治区技术转移人才培养基地。', '转化中国农科院北方农牧业技术创新中心无膜玉米密植滴灌精准调控高产技术，在全市推广后预计玉米产量将增加105万吨；落地建设益生菌共性技术研发中心和微生态制剂生产基地，达产后预计年产值30亿元。', '三大技术创新中心柔性引进15位院士、100余位行业专家等高端人才领衔参与建设。培育5家院士专家工作站，组建创新联合体68个，推动人才、产业、科技融通创新。支持人才的各类奖励补贴资金近1亿元，依托项目和平台，为重点产业领域柔性引进高层次人才500余人。', '有研发活动的规上工业企业占比提升至55％，上升17％。在全区率先开展“高新技术企业审核权限下放”试点，培育科技领军企业32家（其中自治区科技领军企业5家），高新技术企业和科技型中小企业数量达到533家、649家，较上年分别增长15％、57％。组织企业开展关键核心技术攻关154项，其中支持市级科研资金6200万元，带动企业投入1.3亿元。', '围绕水资源节约集约利用、电解水制氢、苜蓿品种遗传改良等方向，组织实施自治区和市级“揭榜挂帅”项目10项。其中“风力发电机关键技术”“退化草原生态修复技术体系”获得自治区科技进步奖一等奖，“氨基酸发酵行业废气处理共性关键技术”等3项获得二等奖。', '出台《促进高校院所协同创新若干措施》《加强企业科技创新优化营商环境措施》《规上工业企业科技创新“三清零全覆盖”专项行动方案》《支持生物医药产业高质量发展十条措施》等政策措施。落实科技创新政策，为420项创新事项兑现近3000万元，推动企业享受研发费用加计扣除额42亿元，“真金白银”激励企业创新。']</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A176" t="n">
+        <v>25</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>习近平在上海考察时强调聚焦建设五个中心重要使命加快建成社会主义现代化国际大都市</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tt_1/202312/t20231204_1627585.html</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>['习近平在上海考察时强调 聚焦建设“五个中心”重要使命 加快建成社会主义现代化国际大都市_ 呼和浩特市人民政府', '习近平在上海考察时强调 聚焦建设“五个中心”重要使命 加快建成社会主义现代化国际大都市 返京途中在江苏盐城考察 蔡奇陪同考察', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月29日下午，习近平在闵行区新时代城市建设者管理者之家，向社区居民挥手致意。新华社记者 王晔 摄', '新华社上海/江苏盐城12月3日电 中共中央总书记、国家主席、中央军委主席习近平近日在上海考察时强调，上海要完整、准确、全面贯彻新发展理念，围绕推动高质量发展、构建新发展格局，聚焦建设国际经济中心、金融中心、贸易中心、航运中心、科技创新中心的重要使命，以科技创新为引领，以改革开放为动力，以国家重大战略为牵引，以城市治理现代化为保障，勇于开拓、积极作为，加快建成具有世界影响力的社会主义现代化国际大都市，在推进中国式现代化中充分发挥龙头带动和示范引领作用。', '11月28日至12月2日，习近平在中共中央政治局委员、上海市委书记陈吉宁和市长龚正陪同下，先后来到金融机构、科技创新园区、保障性租赁住房项目等进行调研。', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月28日下午，习近平在上海期货交易所考察。新华社记者 王晔 摄', '28日下午，习近平一下列车就前往上海期货交易所考察。他结合电子屏幕和重要上市品种交割品展示，听取交易所增强全球资源配置能力、服务实体经济和国家战略等情况介绍，了解交易所日常资金管理和交割结算等事项。习近平强调，上海建设国际金融中心目标正确、步伐稳健、前景光明，上海期货交易所要加快建成世界一流交易所，为探索中国特色期货监管制度和业务模式、建设国际金融中心作出更大贡献。', '习近平随后乘车来到浦东新区张江科学城，参观上海科技创新成果展。他结合视频短片了解上海市科技创新整体情况，走进展厅详细察看基础研究、人工智能、生物医药等领域的科技创新成果展示，并同科研人员代表亲切交流。习近平指出，推进中国式现代化离不开科技、教育、人才的战略支撑，上海在这方面要当好龙头，加快向具有全球影响力的科技创新中心迈进。要着力造就大批胸怀使命感的尖端人才，为他们发挥聪明才智创造良好条件。', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月28日下午，习近平在浦东新区张江科学城参观上海科技创新成果展。新华社记者 谢环驰 摄', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月28日下午，习近平在浦东新区张江科学城参观上海科技创新成果展时，同科研人员代表亲切交流。新华社记者 鞠鹏 摄', '近年来，上海市加快保障性租赁住房建设，为许多来沪新市民、青年人和一线务工人员提供了住房保障。29日下午，习近平到闵行区新时代城市建设者管理者之家考察。听了当地加大保障性租赁住房筹措建设力度、构建“一张床、一间房、一套房”多层次租赁住房供应体系的情况介绍，习近平给予充分肯定。他先后走进社区住宅型、宿舍型出租房源租户的住房和公共厨房、公共洗衣房等共享空间，仔细了解在此居住的城市一线工作者的生活状况。总书记无微不至的殷切关怀，让在场所有人感动。离开时，社区居民纷纷围拢过来欢送总书记。习近平说，看到来自五湖四海的建设者在这里安居乐业，感到很高兴。城市不仅要有高度，更要有温度。我们的社会主义就是要走共同富裕的路子。外来务工人员来上海作贡献，同样是城市的主人。要践行人民城市理念，不断满足人民群众对住房的多样化、多元化需求，确保外来人口进得来、留得下、住得安、能成业。', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月29日下午，习近平在闵行区新时代城市建设者管理者之家考察时，在社区宿舍型出租房源租户的住房，了解在此居住的城市一线工作者的生活状况。新华社记者 鞠鹏 摄', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月29日下午，习近平在闵行区新时代城市建设者管理者之家，同社区居民亲切交流。新华社记者 王晔 摄', '12月1日上午，习近平听取了上海市委和市政府工作汇报，对上海各项工作取得的成绩给予肯定。', '习近平指出，加快建设“五个中心”，是党中央赋予上海的重要使命。上海要以此为主攻方向，统筹牵引经济社会发展各方面工作，坚持整体谋划、协同推进，重点突破、以点带面，持续提升城市能级和核心竞争力。要以科技创新为引领，加强关键核心技术攻关，促进传统产业转型升级，加快培育世界级高端产业集群，加快构建现代化产业体系，不断提升国际经济中心地位和全球经济治理影响力。要加强现代金融机构和金融基础设施建设，实施高水平金融对外开放，更好服务实体经济、科技创新和共建“一带一路”。要深入实施自由贸易试验区提升战略，推动国际贸易中心提质升级。要加快补齐高端航运服务等方面的短板，提升航运资源全球配置能力。要推进高水平人才高地建设，营造良好创新生态。要加强同长三角区域联动，更好发挥辐射带动作用。', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月28日下午，习近平在浦东新区张江科学城参观上海科技创新成果展。新华社记者 王晔 摄', '习近平强调，上海作为我国改革开放的前沿阵地和深度链接全球的国际大都市，要在更高起点上全面深化改革开放，增强发展动力和竞争力。要全方位大力度推进首创性改革、引领性开放，加强改革系统集成，扎实推进浦东新区综合改革试点，在临港新片区率先开展压力测试，稳步扩大规则、规制、管理、标准等制度型开放，深入推进跨境服务贸易和投资高水平开放，提升制造业开放水平，进一步提升虹桥国际开放枢纽能级，继续办好进博会等双向开放大平台，加快形成具有国际竞争力的政策和制度体系。要坚持“两个毫不动摇”，深化国资国企改革，落实保障民营企业公平参与市场竞争的政策措施，打造国际一流营商环境，激发各类经营主体活力，增强对国内外高端资源的吸引力。', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月29日下午，习近平在闵行区新时代城市建设者管理者之家公共厨房考察。新华社记者 谢环驰 摄', '习近平指出，要全面践行人民城市理念，充分发挥党的领导和社会主义制度的显著优势，充分调动人民群众积极性主动性创造性，在城市规划和执行上坚持一张蓝图绘到底，加快城市数字化转型，积极推动经济社会发展全面绿色转型，全面推进韧性安全城市建设，努力走出一条中国特色超大城市治理现代化的新路。要把增进民生福祉作为城市建设和治理的出发点和落脚点，把全过程人民民主融入城市治理现代化，构建人人参与、人人负责、人人奉献、人人共享的城市治理共同体，打通服务群众的“最后一公里”，认真解决涉及群众切身利益的问题，坚持和发展新时代“枫桥经验”，完善基层治理体系，筑牢社会和谐稳定的基础。', '11月28日至12月2日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是11月29日下午，习近平在闵行区新时代城市建设者管理者之家，同社区居民亲切交流。新华社记者 谢环驰 摄', '习近平强调，要贯彻新时代中国特色社会主义文化思想，深化文化体制改革，激发文化创新创造活力，大力提升文化软实力。坚持不懈用新时代中国特色社会主义思想凝心铸魂，广泛践行社会主义核心价值观，巩固马克思主义在意识形态领域的指导地位，在各种文化交汇融合中进一步壮大主流价值、主流舆论、主流文化。要注重传承城市文脉，加强文物和文化遗产保护，传承弘扬红色文化，深入实施文化惠民工程，扎实推进群众性精神文明创建，深化拓展新时代文明实践中心建设，推进书香社会建设，全面提升市民文明素质和城市文明程度。', '习近平指出，坚持党的领导是中国式现代化的本质要求，也是根本保证。上海是我们党的诞生地，要用好一大会址等红色资源，弘扬伟大建党精神，教育引导广大党员、干部牢记“三个务必”，在新征程上开拓创新、奋发进取、真抓实干。要贯彻新时代党的组织路线，落实新时代好干部标准，建设一支与社会主义现代化国际大都市相匹配的高素质专业化干部队伍。要把握超大城市特点，创新基层党建工作思路和模式，完善党的基层组织体系。要坚决反对和惩治腐败，一体推进不敢腐、不能腐、不想腐，保持风清气正的政治生态。第二批主题教育临近收官，要坚持标准不降、劲头不松，把主题教育同各方面工作结合起来，做到两手抓、两不误、两促进。', '12月3日，中共中央总书记、国家主席、中央军委主席习近平在上海考察结束返京途中，来到江苏省盐城市参观新四军纪念馆。新华社记者 王晔 摄', '12月3日上午，在返京途中，习近平在江苏省委书记信长星和省长许昆林陪同下，来到盐城市参观新四军纪念馆。展厅里，一张张照片、一份份史料、一件件文物、一个个模拟实景，完整展现了新四军浴火重生、浴血奋战的光辉历史。习近平不时驻足察看、同大家交流。他强调，新四军的历史充分说明，民心向背决定着历史的选择，江山就是人民、人民就是江山。这是开展革命传统教育、爱国主义教育的生动教材，要用好这一教材，教育引导党员、干部传承发扬不怕困难、不畏艰险，勇于斗争、敢于胜利的精神，紧紧依靠人民，把强国建设、民族复兴伟业不断推向前进。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同分别参加上述有关活动，主题教育中央第五巡回指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A177" t="n">
+        <v>25</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>关于印发呼和浩特市本级党政机关公务接待经费管理办法的通知</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>2018-01-26</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/sczj_22409/fdzdgknr/gzxzgfxwj/xzgfxwj/202012/t20201224_934723.html</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>['关于印发《呼和浩特市本级党政机关公务接待经费管理办法》的通知_ 呼和浩特市人民政府', '市委各部门，市人大，市政府各委、办、局，市政协办公厅，市各人民团体，各民主党派，市工商联合会，参照公务员法管理的事业单位：', '为进一步落实厉行节约反对浪费制度，不断规范和加强市本级党政机关公务接待经费管理，现将《呼和浩特市本级党政机关公务接待经费管理办法》印发给你们，请认真遵照执行。', '第一条 为进一步规范和加强呼和浩特市本级党政机关公务接待费管理，严格控制接待费支出，制止铺张浪费，建立接待费公开化制度，促进党风廉政建设，根据《中华人民共和国预算法》《党政机关厉行节约反对浪费条例》《行政单位财务规则》《内蒙古自治区本级党政机关公务接待管理办法》（内财行【2017】2088号），结合市本级实际，制定本办法。', '第二条 本办法适用于呼和浩特市本级党的机关、人大机关、政府机关、政协机关、审判机关、检察机关，以及工会、共青团、妇联等人民团体和参照公务员法管理的事业单位（以下简称接待单位）。', '第三条 本办法所称公务接待费，是指接待出席会议、考察调研、执行任务、检查指导、学习交流、请示汇报工作等公务活动而发生的费用。', '第四条 接待单位的公务接待实行分类管理、分级负责。来我市执行公务的副厅级以上接待对象或其他重要宾客的接待工作，由市接待办统一负责，执行国家相关规定。其他接待对象由市本级接待单位对口负责，执行本办法规定的接待标准。', '第五条 公务接待要严格执行中央和自治区及市委、市政府有关厉行节约、反对浪费的各项规定，坚持有利于公务、务实节俭、严格标准、高效透明、尊重少数民族风俗习惯的原则，严格控制接待费开支。', '（一）餐费。接待单位可安排工作餐一次，每人不得超过120元，根据市场价格变动情况，市旅游旺季（七、八、九月份）餐费标准最高可上浮20%。异地本级单位和外派单位、机构执行属地规定。', '接待单位安排接待对象集中乘车前往目的地，合理使用车型，严格控制随行车辆。需租用车辆的，要说明情况并经本单位分管财务负责人批准。', '第八条 接待单位内部具备接待条件的，要在内部接待场所安排公务活动。公务接待一律不得使用私人会所、高消费餐饮场所。', '第九条 公务接待费不得超过当年部门预算中基本公用经费预算的2%。有特定接待任务的单位，由市财政局安排专项公务接待费。公务接待费要全部纳入财政预算管理，严格实行总量控制，在年度接待费预算总额内开支，发生的公务接待费列入“公务接待费”科目，单独列示。', '公务活动结束后，接待单位应当如实填写接待清单，并由分管财务负责人审签。接待清单包括接待对象的单位、姓名、职务、和公务活动项目、时间、场所、费用开支以及陪同人员姓名、职务等内容，留存备查。', '第十二条 要正确划分公务接待费与会议费、培训费、正常差旅费以及其他办公经费的界限，合理归集费用，全面、真实反映本单位公务接待情况。公务接待费在单位决算中如实列报，不得采取瞒报、虚报或其他变通办法列支。', '第十三条 应由接待对象承担的差旅、会议、培训等费用，以及与公务接待无关的其他费用不得在接待费中列支。', '（二）接待费开支范围和开支标准是否符合规定，有无违规扩大接待费开支范围，擅自提高接待费开支标准；', '第十五条 各部门应当依法向社会公开本部门公务接待费支出的预决算情况，公开的内容、时间、方式等严格按照市委办公厅、市政府办公厅及市财政局制定的市本级预决算公开工作有关制度执行。', '第十六条 对违反本办法的，一经查实，按照中央、自治区及市本级有关党政机关公务接待管理办法和《财政违法行为处罚处分条例》等法律法规制度的有关规定处理.，并依法依规追究接待单位负责人和相关人员的责任。行为涉嫌犯罪的，移送司法机关处理。', '第十九条 本办法从发布之后的30日开始施行，有效期5年，规范性文件统一编号为BG-2018-2 号，市本级此前相关管理规定与本办法相抵触的，以本办法为准。']</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A178" t="n">
+        <v>25</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
           <t>学习贯彻习近平新时代中国特色社会主义思想主题教育总结会议在京召开</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>2024-02-05</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tpxw_56060/202402/t20240205_1657093.html</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>['学习贯彻习近平新时代中国特色社会主义思想主题教育总结会议在京召开_ 呼和浩特市人民政府', '学习贯彻习近平新时代中国特色社会主义思想主题教育总结会议在京召开 会议传达习近平关于巩固拓展主题教育成果的重要讲话 对学习贯彻讲话精神作出部署 蔡奇出席总结会议并讲话', '新华社北京2月4日电 学习贯彻习近平新时代中国特色社会主义思想主题教育总结会议4日在京召开。', '日前，中共中央总书记、国家主席、中央军委主席习近平在主持中央政治局会议审议主题教育总结报告和关于巩固拓展主题教育成果的意见时发表了重要讲话。他指出，主题教育启动以来，全党紧扣“学思想、强党性、重实践、建新功”总要求，聚焦主题主线，明确目标任务，突出以学铸魂、以学增智、以学正风、以学促干，与做好开局之年工作紧密结合，特别是着力解决制约高质量发展问题、群众急难愁盼问题、党的建设突出问题，达到预期目的，取得明显成效。', '习近平强调，要巩固拓展主题教育成果，抓好意见落实，形成长效机制。要持续加强理论武装，教育引导党员干部通过坚持学习党的创新理论，悟规律、明方向、学方法、增智慧，固本培元、凝心铸魂，进一步打牢党的团结统一的思想基础。要持续推动解决问题，继续抓好整改整治、建章立制，让人民群众切实感受到解决问题的实际成效，让人民群众有获得感。要持续改进作风，落实“四下基层”，坚持和发展新时代“枫桥经验”，走好新时代群众路线，纠治形式主义、官僚主义，切实抓好整治形式主义为基层减负工作。要大兴务实之风、清廉之风、俭朴之风，发扬自我革命精神，在全党组织开展好集中性纪律教育。要持续夯实基层基础，推进以党建引领基层治理，充分发挥基层党组织战斗堡垒作用和党员先锋模范作用，推进基层治理体系和治理能力现代化。要持续抓好落实，树牢正确政绩观，坚持问题导向，实事求是、因地制宜，重实干、做实功、求实效，更好将主题教育成果转化为推动高质量发展的成效。各级党委（党组）要把巩固拓展主题教育成果作为重大政治任务，扛起主体责任，不折不扣抓好落实。', '中共中央政治局常委、中央学习贯彻习近平新时代中国特色社会主义思想主题教育领导小组组长蔡奇出席会议并讲话。他强调，习近平总书记的重要讲话，充分肯定主题教育取得的明显成效，对巩固拓展主题教育成果提出明确要求。我们要深刻领会，认真贯彻落实。', '蔡奇指出，这次主题教育之所以能够取得明显成效，根本在于党中央的坚强领导，在于习近平总书记亲自谋划、直接领导、全程指导、示范引领。习近平总书记出席主题教育工作会议并作动员部署，主持召开中央政治局常委会会议、中央政治局会议审议相关文件，围绕主题教育主持中央政治局集体学习和专题民主生活会，并多次实地考察调研，对主题教育提出要求、作出一系列重要论述，为主题教育高质量开展指明了方向、提供了重要遵循。', '蔡奇强调，这次主题教育为新时代开展党内集中教育积累了新经验，主要包括：坚持把理论学习贯穿始终、突出问题导向、服务中心任务、力戒形式主义、以上率下示范引领等，要注意总结好、运用好。', '蔡奇指出，要不断巩固拓展主题教育成果，坚定不移全面从严治党，全面推进党的自我净化、自我完善、自我革新、自我提高。要夯实全党团结统一的思想基础，坚持不懈抓好党的创新理论武装，推动广大党员、干部真正把马克思主义看家本领学到手。要激发全党创造活力，把全党的智慧和力量凝聚到新时代新征程党的中心任务上来。要走好新时代群众路线，运用好“四下基层”经验，把我们党密切联系群众的优良作风发扬光大。要严明党的纪律，在全党开展集中性纪律教育，推动广大党员、干部自觉把铁的纪律转化为日常习惯和行动准绳。要提高制度治党、依规治党水平。要把学习贯彻习近平新时代中国特色社会主义思想不断引向深入，为以中国式现代化全面推进强国建设、民族复兴伟业而不懈奋斗。', '中央学习贯彻习近平新时代中国特色社会主义思想主题教育领导小组成员及办公室负责同志，各省区市和副省级城市、新疆生产建设兵团党委组织部部长，中央和国家机关各部门、各人民团体，中央管理的金融机构、部分企业和高校，中央军委机关有关部门负责同志，中央巡回指导组和省级巡回督导组组长、副组长等参加会议。会议以电视电话会议形式召开，各省区市和新疆生产建设兵团设分会场。', '学习贯彻习近平新时代中国特色社会主义思想主题教育从去年4月开始，自上而下分两批进行，目前已基本结束。']</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A179" t="n">
+        <v>25</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
           <t>市委常委会会议暨市委学习贯彻习近平新时代中国特色社会主义思想主题教育领导小组第次会议召开</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>2023-10-08</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650098326&amp;idx=2&amp;sn=64d8fb660dae5325bbeb057efd5c9692&amp;scene=0</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>['市委常委会会议暨市委学习贯彻习近平新时代中国特色社会主义思想主题教育领导小组第2次会议召开', '传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '10月7日，市委常委会会议暨市委学习贯彻习近平新时代中国特色社会主义思想主题教育领导小组第2次会议召开，传达学习近期中央政治局会议精神和习近平总书记重要讲话重要指示精神，传达学习中央主题教育领导小组办公室有关通知精神和近期自治区党委常委会会议精神，安排部署贯彻落实工作。自治区党委常委、市委书记、市委主题教育领导小组组长包钢主持。', '会议强调，要认真落实中央政治局会议关于巡视工作的重要要求，扎实做好自治区巡视反馈问题整改，充分发挥巡察政治监督作用，通过巡察发现问题、形成震慑，将严的主基调始终保持在日常、提升在平常。要落实好习近平总书记在中央政治局第八次集体学习时的重要讲话精神和深入推进自由贸易试验区建设的重要指示精神，坚定不移实行高水平对外开放，着力打造高水平对外开放平台，积极培育跨境电子商务等业态，进一步深化与“一带一路”沿线国家在经贸、文化、科技等方面的交流合作，加强与京津冀、长三角、粤港澳大湾区和东三省的联通，积极承接国内先进产业转移。', '会议强调，要学习领会好习近平总书记在浙江和山东枣庄考察时的重要讲话精神，抓实科技创新，建好用好和林格尔人才科创中心、金桥“双创”示范园、首府科技城三大平台。加快优化产业结构，推动“六大产业集群”向智能化、高端化、绿色化迈进。持续激活文旅经济，盘活用好首府优质文化旅游资源，让首府旅游一年四季都热起来。', '会议强调，开展好主题教育是重大的政治任务，各级党委(党组)要把学习贯彻习近平总书记关于主题教育的最新重要讲话和习近平新时代中国特色社会主义思想结合起来，针对不同层级、不同领域、不同对象作出合理安排。要把“四下基层”要求贯通落实到主题教育各项重点措施之中，把问题解决在一线、矛盾化解在一线。要做到“我做的调研我推动”，切实把调研成果转化为推动首府高质量发展的实际成效。要认真查找政绩观方面存在的偏差，把自己摆进去、把事情摆进去、把问题摆进去，坚持把全心全意为人民服务作为定政策、抓落实的根本宗旨，把好事办好、实事办实。要认真开展“扬优势、找差距、促发展”专题学习研讨，不断巩固扩大首府优势，补齐短板弱项、形成发展成果。', '会议要求，要贯彻落实好自治区党委常委会会议精神，做好水资源节约集约利用工作，增强依规治党的自觉性和坚定性，进一步做好首府深化改革各项工作。']</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A180" t="n">
+        <v>25</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
           <t>市委常委会召开会议传达学习贯彻习近平总书记近期重要讲话重要指示精神</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650095584&amp;idx=2&amp;sn=156066810d78a71f8d50b4e2da6ccea4&amp;scene=0</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>['传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '7月31日，市委常委会召开会议，传达学习习近平总书记在四川、陕西汉中考察时的重要讲话重要指示精神、在中共中央政治局第七次集体学习时的重要讲话精神、在《求是》杂志发表的重要文章《深化党和国家机构改革 推进国家治理体系和治理能力现代化》，传达学习中共中央政治局会议精神、自治区党委常委会会议精神，研究部署贯彻落实工作。自治区党委常委、市委书记包钢主持。', '会议强调，要认真学习领会习近平总书记近期重要讲话重要指示精神，结合首府实际，不折不扣抓好贯彻落实。要准确把握稳中求进工作总基调，深入研究国家政策和导向，围绕首府产业发展方向，大抓招商、大抓园区、紧盯项目开工，扎实推动经济高质量发展。要准确把握党和国家机构改革的任务要求，提前做好相关准备工作，确保机构改革稳步推进。要牢牢把握文化发展正确方向，紧紧围绕铸牢中华民族共同体意识这条主线，积极打造“北疆文化”品牌，切实保护好、发展好、利用好各类文博资源，加快打造“博物馆之城”。要坚决贯彻习近平强军思想，持续加强国防动员准备和后备力量建设，推动军民融合深度发展，不断提升双拥创建水平。', '会议要求，要围绕建设全区医疗中心，以市第一医院成功获批三级甲等医院和市口腔医院挂牌内蒙古自治区口腔医院为契机，深入实施国家公立医院改革与高质量发展示范项目，加强医联体共建，强化人才引进和重点学科打造，办好人民满意的医院。要完善城区路网结构，加快打通断头路、畅通微循环。要抓好新华广场地下互联互通工程，积极打造“夜经济”“跨年经济”，不断提升周边商圈品质。要全面提升大青山健身步道服务管理水平，打造“大青山敕勒川区块”文旅品牌。要以成功获批陆港型国家物流枢纽建设城市为契机，充分发挥首府铁路港、公路港、空港等集聚优势，集成国际国内要素资源枢纽功能，全力打造呼和浩特北疆国际陆港，培育高水平开放、高质量发展新动能。要深化城市精细化管理，开展各类施工工地围挡专项整治，应拆尽拆，还路于民、还绿于民、还空间于民。要突出业绩导向，强化国企考核，拿出釜底抽薪的办法理顺开发区管理体制，切实提高国企和开发区的效益。', '会议听取了我市第五次全国经济普查工作进展情况汇报，强调要提高政治站位，深刻认识普查工作的重大意义。要坚持把普查数据质量放在首位，认真开展清查普查登记，摸清摸全普查对象，确保数据全面真实。要强化组织领导，压实工作责任，加强宣传动员，注重普查人员调配和培训，完善工作流程，高标准完成各项普查任务，为我市经济高质量发展提供科学准确的统计数据支持。', '会议听取了土左旗农村饮水安全问题整改工作汇报，要求全面开展农村饮水排查整改工作，做到边查边改，切实保障群众基本用水需求。要进一步完善问题发现机制，畅通群众反映问题渠道，加强日常巡查检查，逐步建立信息化监测管理系统，强化农村供水水质保障，加快补齐农村供水工程短板。', '会议通报了齐齐哈尔市第34中学体育馆屋顶坍塌事故有关情况，要求深刻汲取事故教训，对全市校园、运动场馆等开展隐患排查，对发现的问题及时整改，压实主体责任，加强日常管理，严防此类事故的发生。']</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A181" t="n">
+        <v>25</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
           <t>市委常委会召开会议传达学习贯彻习近平总书记近期重要讲话精神研究部署深化改革建设北疆文化打造绿电消纳示范区等工作</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>2023-11-16</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650100157&amp;idx=3&amp;sn=18846a9581c9be60d6c7cc4c22f9bd43&amp;scene=0</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>['市委常委会召开会议 传达学习贯彻习近平总书记近期重要讲话精神研究部署深化改革、建设北疆文化、打造绿电消纳示范区等工作', '传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '11月15日，市委常委会召开会议，传达学习中央全面深化改革委员会第三次会议精神和习近平总书记在北京河北考察灾后恢复重建工作时的重要讲话精神，传达学习自治区党委常委会会议精神和自治区党委书记孙绍骋在我市调研北疆文化建设的工作要求，研究部署我市贯彻落实工作。自治区党委常委、市委书记包钢主持会议。', '会议强调，要认真学习贯彻中央全面深化改革委员会第三次会议精神，坚持用改革的办法和创新的思维解决发展中的问题。要做好生态文明领域改革工作，在碳汇、绿电交易等方面先行先试。要深化国企改革，进一步推进市场化选聘、契约化管理、差异化薪酬、市场化退出等机制，完善国有资本经营预算制度，提升企业经营效益，不断做大做强市属国有企业。', '会议强调，要结合首府实际落实好习近平总书记在北京河北考察灾后恢复重建工作时的重要讲话精神，坚持科学规划、合理布局，抓紧补短板、强弱项，加强重点水利工程建设，持续推进城市排水防涝、水库河沟防洪治理及自然灾害综合防治体系建设，不断提升防灾减灾救灾能力。', '会议强调，要按照自治区党委的部署要求，坚持以习近平文化思想为指引，牢牢把握铸牢中华民族共同体意识这条主线，结合首府实际，做好北疆文化的研究、阐释、宣传工作。要充分挖掘守望相助理念的丰富内涵，大力弘扬蒙古马精神和“三北精神”，赋予北疆文化更加鲜明的精神特质。', '会议强调，要学习借鉴山东推动设施农业和农产品精深加工的成功经验，进一步明确各旗县区农牧业发展定位，积极争创国家级、自治区级园区，用工业化思维抓农牧业，完善农畜产品加工布局，发挥龙头企业示范引领作用，打造区域公共品牌，健全物流体系，推动传统农业向现代农业转型发展。', '会议强调，要抓实退役军人和双拥工作，以创建全国双拥模范城“十连冠”为目标，统筹做好军地共建、驻呼部队服务保障、退役军人安置等工作，切实营造拥军优属的浓厚氛围。', '会议审议了《呼和浩特市落实&lt;国家新型电力系统布局规划(2023—2030 年)&gt;实施方案》，强调要发挥首府火电资源丰富、新能源应用场景多等优势，积极争取上级政策支持，持续做大“风光火储氢”产业规模，适度超前谋划电网建设，大力推动绿证交易，积极打造绿电消纳示范区。', '会议听取了我市燃煤散烧、学校公共场馆安全排查情况的汇报，审议了拟提交全市重点工作推进落实会讨论的《重点工作任务清单》，并对相关工作作出安排部署。']</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A182" t="n">
+        <v>25</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
           <t>回民区奋力书写新时代高质量发展答卷</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>2024-01-02</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/qxqdt/202401/t20240102_1640267.html</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>['今年以来，回民区坚持以习近平新时代中国特色社会主义思想为指导，深入学习贯彻习近平总书记考察内蒙古时的重要指示精神，以推动高质量发展为主题，以铸牢中华民族共同体意识为主线，持续用力把“五大任务”抓出成效，全力推进全方位建设“模范自治区”，奋力稳增长、全力拼经济、着力抓落实，高质量发展成色更亮、底色更足。', '64个500万元以上重点项目稳步实施，全年对接企业180家，与绿动未来、浙江星煜等91家企业签订招商引资协议，协议投资195.7亿元，商膜科技等80个项目落地实施，累计到位资金35亿元……', '今年，回民区立足“招商引资”攻坚年，将招商引资作为项目建设的“生命线”，产业发展的“强引擎”，以商招商、延链招商，推动经济发展踏浪前行。', '成立营商环境工作领导小组，把优化营商环境作为“一把手”工程，制定出台相关政策措施，全面推行营商环境制度化、规范化和科学化，为企业和市场主体发展提供一流政策环境。', '建立项目包抓工作机制，实行双专班跟踪推进，坚持容缺受理、并联审批、压缩时限、承诺办理，派专人跟进，做协调、办手续，帮助企业解决办事过程中存在的各种困难。', '同时，持续深化“放管服”改革。1128项政务服务事项实现标准化编制，876项实现电子证照关联和“免证办”，网办率达98.94%，890家企业通过“蒙速办”专窗实现一站式开办，公安分局政务服务窗口获评“一星级全国青年文明号”，全年累计新增市场主体3097户，实现净增长1936户，一项项务实举措让企业家投资倍感安心、更有信心。乡镇社区便民服务站实现全覆盖，66项政务服务事项纳入“帮办代办”服务，打通了服务群众“最后一公里”', '8米极限挑高的阳光屋顶、玩偶铺就的整面墙壁、音乐餐吧、特色美食、呼和浩特首个室内滑雪场……元旦前夕，刚运营不久的位于新华广场地下互联互通商业项目——“新华MALL”潮流体验式购物中心吸引了很多市民和游客前来购物、游玩、品美食。', '作为呼和浩特市回民区2023年的重点项目，建筑面积3.8万平方米的新华MALL地下商业街区不仅拥有快时尚、潮品、海淘等业态，还融合了创意集市、情景主题街区、特色餐饮街区、星空特色影院等众多首次入驻首府的年轻潮玩特色业态，100多个新晋品牌其中30多个为首进内蒙古品牌，给中山西路商圈注入了新鲜活力。', '今年以来，回民区围绕“一个中心广场、一个核心商圈、三个特色网红街”的思路，深入推进中山西路商圈和地铁经济融合发展，打造转角巷潮玩步行街商业新地标，建设新华广场购物中心，布局青岛啤酒吧等高端一线品牌104家，商圈日均人流量超15万人次。并先后引进江诗丹顿、小米等13家自治区旗舰店、青城首店，打造跨境电子商务，大力发展夜间经济、户外经济、体验经济，推广直播销售、网红带货、网红探店等消费新模式，为消费者打造“地铁+核心商圈”的新消费体验空间。', '同时，围绕“一轴两园”谋划布局总部经济，以新华西街为轴，利用新华广场周边楼宇空间发展楼宇经济，做大做强大健康产业园和蒙海数字产业园，引进北京新乐客数科公司、绿界新能源等31家高端数字化、新能源企业;围绕海西路商圈，进一步延伸新能源汽车产业链，做强金融保险、维修保养、汽车改装等后市场，推动综保区全面开展二手车进出口业务，不断扩大新能源汽车市场占有份额。依托西、北两个出城口，建设东棚子物流集散地、坝口子物流集散地，提升区域物流服务能力，全面构建起快速便捷的现代物流体系。', '在游览大青山四季盛景的同时，到回民区东乌素图村，感悟百年古树带来的时代沧桑，欣赏“杏福树下”的文创产品，饮一饮甘甜清冽的幸福泉水;在国家4A级景区莫尼山非遗小镇，感受非遗文化魅力;华灯初上，漫步百年商业街区——中山西路，在宽巷子、转角巷火红天幕营造出来的意境中，品味“潮玩+文化+美食”的“青城味道”……', '今年，回民区紧紧围绕首府打造“美丽青城、草原都市”、建设“文化旅游特色发展城区”目标，大力弘扬北疆文化，持续加强文化和旅游特色资源挖掘力度，强化资源整合优化，着力打造农文旅商消费新业态、新产品、新场景，不断满足游客多样化、多层次、多方面文旅消费需求，努力做强农文旅商产业融合这篇大文章。', '依托大青山146平方公里生态绿带，及丰富的林下经济业态和“杏坞番红”历史文化的人文优势、自然资源优势，回民区突出乌素图“杏福树下”大杏品牌效应，高标准规划建设大青山前坡万亩杏林基地，实施东乌素图村改造升级，打造幸福泉、古树广场等4处网红景点，创建国家3A级旅游景区乌素图杏花谷，举办杏花节、采摘节、冰雪节、跨年雪夜景等活动，推出6条精品旅游线路，形成一村一品、串珠成面的农文旅产业发展脉络。乌素图古杏树群入选全国100个最美古树群，莫尼山非遗小镇成为国家级非物质文化遗产生产性保护示范基地，东乌素图村获评内蒙古自治区农文旅融合示范村，一间房村获评内蒙古自治区乡村旅游重点村。农家乐由原来的20余家增加到58家，接待游客40.4万人，实现旅游收入900万元。元山子奇乐鲜农露营地、刀刀板蒙亮星光里烧烤、一间房夜市、莫尼山非遗小镇《茶道驼铃》实景剧等各具特色的生态野炊、草地露营、非遗演出、特色餐饮新亮点，激发了乡村旅游新活力，也带动了乡村振兴。据统计，全年旅游接待超过1000万人次，实现收入8.41亿元，特色乡村文旅品牌走向全国。', '“改造之前，小区软硬条件都不行，改造以后，小区面貌焕然一新，出了小区门口就是口袋公园，现在住着特别舒心，幸福指数是越来越高。”家住回民区呼钢小区的李明义老人为老旧小区改造项目连连点赞。', '民生连着民心，民心凝聚民力。今年，回民区持续坚持在高质量发展中更好保障和改善民生，用心用情用力办好民生实事，城市更新稳步实施，管理模式更趋优化，生态底色更加靓丽，乡村建设更加和美，社会保障更加牢固，教育资源更加均衡，医疗服务更加优质，社会治理更加精细……以实际行动交上一份温暖的民生答卷。', '路网体系更加完善，巴彦淖尔快速路实现全线贯通，打通新经十八路等8条断头路，整治提升成吉思汗西街等7条道路，修缮城隍庙等30条街巷破损路面，新建改造口袋公园60处、绿道35公里，打造大型街景花坛3座。改造提升老旧小区53个，惠及居民1.86万户，呼钢小区改造典型案例得到全国推广，巴北社区入选全市唯一国家级完成社区试点。', '全面强化基层治理。优化新增时代社区等7个社区，打造海亮社区等10个智慧平台试点，科学调整897个网格，打造“红石榴”志愿服务主题公园和红石榴驿站，构建“一张网、全覆盖、无死角”管理新格局。', '教育事业提质升级。围绕“九校七园”的三年规划，通过与呼市一中、海亮教育集团、财经大学合作办学等，建立3个九年一贯制学校，目前已完成一中初中部、铁三小、四十中、贝尔路小学西校区和第六幼儿园、六幼一分园及二分园、回二幼东方樾幼儿园、三幼滨海阳光幼儿园“四校五园”，新增4800个学位，彻底扭转教育布局“南多北少、东强西弱”格局。', '完善养老服务体系。完成3处社区养老服务站点和惠德养老中心，总数上将达到63个站点。成功运营“2+X+N型”“医养结合型”“站点式”“物业+养老式”“机构延伸社区式”6种养老服务模式，实现“一刻钟”居家养老服务圈全覆盖，义和巷社区成功创建2023年全国示范性老年友好型蜀山区培育试点。', '逐绿奔跑、实干争先、科技赋能、智慧驱动、团结奋进、开放包容、文明花开、时尚现代……站在回民区经济社会高质量发展的新起点上回眸，如今的回民区正在让发展更有温度、让幸福更有质感，全区上下将完整准确全面贯彻新发展理念，不断破解发展难题、挖掘发展潜力、增强发展动力、厚植发展优势，持续擦亮“魅力回民区”城市名片，奏响“诗和远方”优美乐章，以奋斗姿态走好回民区高质量发展之路。']</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A183" t="n">
+        <v>25</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>努力把祖国北疆这道万里绿色屏障构筑得更加牢固习近平总书记在内蒙古考察重要讲话引发我市干部群众强烈反响</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>2023-06-23</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650093976&amp;idx=2&amp;sn=a0b112080890b2e21ef833e3d63dca11&amp;scene=0</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>['努力把祖国北疆这道万里绿色屏障构筑得更加牢固——习近平总书记在内蒙古考察重要讲话引发我市干部群众强烈反响', '传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '连日来，习近平总书记在内蒙古考察期间的重要指示重要讲话精神在我市干部群众中引发强烈反响。大家纷纷表示，要牢记嘱托、勇担使命、不畏艰辛、久久为功，把思想和行动统一到习近平总书记的重要指示重要讲话精神上来，提振信心，担当作为，为首府高质量发展作出新的更大贡献。', '“我们将坚持生态优先、绿色发展，让绿色融入全县经济社会发展全过程，把习近平总书记的殷殷嘱托转化为推动工作的强大动力，以实干、实绩展现和林格尔担当。”和林格尔县委副书记、县长高峰说。近年来，和林县依托退耕还林、天保工程、京津风沙源治理、“三北”四期和草原生态修复、森林植被恢复等国家、自治区重点工程和地方重点区域绿化项目进行植树种草;开展全民义务植树，带动农民、企业、社会团体参与造林绿化;以村庄绿化为抓手，协力推进森林城镇建设。通过科学规划、统筹布局、着力实施，和林县现已形成“身边增绿、通道美化、农田林网、远山披装”的国土绿化总体格局。在守住“生态保护红线、环境质量底线、资源利用上线、生态环境准入清单”的“三线一单”基础上，和林县协调推进牛、羊、猪、草四大产业的同时，积极扶持蒙草、蒙树、宇航人等林草龙头企业扩大生产规模、扩展经营范围，注重种质资源保护，助推林草产业做大做强、高效升级、高质量发展和绿色转型，有效带动全县资源增量、生态增效、产业增值、农民增收，经济、社会、生态效益得到同步提升。', '“我们将用法治力量助推全县的生态文明建设，为把祖国北疆这道万里绿色屏障构筑得更加牢固作贡献。”托县人民法院党组书记、院长刘敏说，此次考察内蒙古，习近平总书记提出全力打好三大标志性战役，黄河“几字弯”攻坚战是其中之一。托县地处黄河上中游分界处，我们要在环境资源审判工作中严格、准确适用法律规定，把最严格的源头保护、损害赔偿和责任追究制度落到实处。要牢固树立恢复性司法理念，对于涉环境资源案件，在追究违法者法律责任的同时，积极运用劳务代偿、异地补植等修复方式，推动受损生态环境得到修复恢复。要落实好全市基层法院共同会签的《呼和浩特市法院司法保护黄河流域环境资源协作框架协议》，进一步推动构建全市范围内的环境资源审判常态化司法协作机制，提升全市相关案件的审判执行质效。', '“我们坚持以河长制工作为抓手，编制完成县域黄河流域的5条县级河流、33条乡镇级河流‘一河一策’实施方案，及时完成了河湖划界任务，各级河长巡河步入常态化、制度化，河湖乱象做到早发现、早整治，河流面貌明显改善。下一步，我们将深入学习贯彻习近平总书记在内蒙古考察期间的重要指示重要讲话精神，紧抓黄河流域生态保护和高质量发展国家战略、呼包鄂榆城市群发展战略及呼包鄂乌协同发展战略，积极争取新能源、现代农牧业、新兴产业等领域的项目，补短板、强弱项，深度融入区域经济布局，推动县域经济高质量发展，建设黄河流域高质量发展示范区。”清水河县政府办副主任庞胜宇说。', '“习近平总书记在加强荒漠化综合防治和推进‘三北’等重点生态工程建设座谈会上的重要讲话为我们今后的工作指明了方向。”市林草局四级调研员云枫说，我市全境属于黄河流域内，尤其清水河县又处于黄河“几字弯”东北角，黄河流域沙化土地可持续治理任务艰巨。近年来，我市先后实施了以托县、清水河县为中心的沿黄生态廊道治理工程，治理区域生态环境明显改善，为构建“两屏、四带”城市生态空间总体布局贡献了林草力量。下一步市林草局将积极谋划退化林修复、退化草原生态修复、低质低效林改造、森林质量精准提升等重点工程项目;将实施欧洲投资银行贷款黄河流域沙化土地可持续治理项目。在9个旗县区实施新造防护林2.28万亩，改良草原67.19万亩，修复退化林31.76万亩，配套建设护林房、作业道(用于防火、管护等)、瞭望塔等基础设施。完成大青山前坡“生态绿带”质量提升工程。计划在新城区、回民区分三个区块、9个标段，完成大青山前坡“生态绿带”质量提升工程11.2万亩。目前，已完成7.83万亩，占总工程量的70%。接下来，将继续在大青山前坡“做文章”，在土左旗、武川县、新城区、回民区大青山前坡(包括大青山保护区实验区)已实施过“三北”工程的区域内，进行退化林修复、退化草原生态修复、低质低效林改造和森林抚育，整体提升大青山前坡生态环境质量。']</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A184" t="n">
+        <v>25</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
           <t>党旗高扬筑基石奋楫笃行开新篇首府党的建设工作综述</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>2024-01-16</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/zwyw/202401/t20240116_1647305.html</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>['党旗高扬筑基石 奋楫笃行开新篇 &lt;br&gt;——首府党的建设工作综述_ 呼和浩特市人民政府', '2023年，呼和浩特市坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻党的二十大精神，贯彻落实习近平总书记关于党的建设的重要思想和对内蒙古的重要指示精神，坚定不移全面从严治党，推进新时代党的建设新的伟大工程，全面加强党的建设，以高质量党建引领高质量发展，凝聚起建设现代化区域中心城市的磅礴力量。', '始终把党的政治建设摆在首位。突出抓好习近平总书记重要讲话重要指示批示精神和党中央重大决策部署的贯彻落实，推动各级党组织和广大党员干部坚定拥护“两个确立”，坚决做到“两个维护”。', '深入开展党的创新理论学习教育培训。深化“书记领学”、优化示范培训、实化全员轮训，围绕党的二十大精神、习近平新时代中国特色社会主义思想，推动广大党员干部学深悟透习近平新时代中国特色社会主义思想的“民族篇”、“内蒙古篇”。', '不断强化政治监督。抓实自治区党委巡视反馈问题整改，注重从政治上找偏差，确保从根子上把问题改到位、改彻底，集中整改工作全面完成。市委听取市人大、政府、政协、法院、检察院党组工作汇报，确保各方面同向发力、步调一致。持续深化选人用人监督，出台优化选人用人监督流程的工作办法，建立完善“一备双查三追究”工作机制。扎实推进第二批主题教育。把实的要求贯穿主题教育全过程，一体推进五项重点措施落实落细，确保全市基层党组织和党员全覆盖参与、全身心投入，在以学铸魂、以学增智、以学正风、以学促干上取得实实在在成效。融入开展“感党恩、听党话、跟党走”群众教育实践活动，推动“六句话的事实和道理”深入人心。', '全面提升基层党组织政治功能和组织功能。坚持把抓基层打基础作为长远之计和固本之策，通过打牢底板、补齐短板、优化长板，统筹推进各层级各领域基层党组织全面进步全面过硬。', '强化党建夯实基层基础。扎实推进坚强堡垒“模范”支部创建工作，印发《开展“星级化”亮晒比、创建坚强堡垒“模范”支部实施方案》，以亮晒比活动推动各领域党支部创优争先。建立发展党员“重规范+强指导+真督查”的全链条工作模式，分级分类抓好党员培训轮训，制定流动党员流出地、流入地党组织责任清单，党员管理体系更加健全完善。党群服务中心功能体系进一步完善。', '强化党建引领基层治理，出台《关于全面提升首府城市基层治理能力和水平的实施意见》，对72个社区重新拆分合并，全市网格优化为5880个，选派5.4万余名楼栋长，推进“红色物业”数质同抓、“红色业委会”扩面提质、无物业小区清零“三项行动”，获评全国市域社会治理现代化试点合格城市，玉泉区清泉街社区被授予全国“枫桥式工作法”单位、托县燕山营派出所被授予全国“枫桥式公安派出所”。', '强化党建引领乡村振兴。组织开展乡镇、村领导班子届中分析，加强村后备干部储备培养，不断夯实筑牢农村党组织战斗堡垒。市县两级选派教科文卫农等领域专家人才1600余人，推动各类人才服务基层。全市965个行政村集体经济全部达到13万元以上，4个村镇入选全国乡村治理示范村镇，恼包村入选第三批国家级夜间经济和旅游消费集聚区、全国旅游休闲街区。', '着力锻造担当建设现代化区域中心城市重任的高素质干部队伍。坚持贯彻新时代好干部标准，坚决落实党中央对民族地区干部“四个特别”重要要求，不断优化干部选育管用全链条工作，全市干部队伍焕发新气象。', '以鲜明导向激励干部担当作为。出台激励干部担当作为七项落实机制，首次开展担当作为专项考核，评出“担当作为好干部”32名、“实干型”干部55名。鲜明树立起重基层、重实干、重实绩的选人用人导向，2023年我市从基层一线和重点工作重点项目一线提拔重用处级干部76名。', '以“九项措施”持续优化干部队伍结构。坚持多渠道发现储备和培养锻炼年轻干部，2023年，全市考录公务员496名、选调生40名，引进人才1111名，大力培养选拔使用优秀年轻干部，为干部队伍建设持续注入“源头活水”。', '以“五项措施”提升干部素质能力。围绕增强推动高质量发展、服务群众、防范化解风险本领，启动实施干部能力提升实训计划，全面推行分工“AB岗”、“短平快”实训、“真挂实挂”、任期聘用、动态更新等举措。', '推动新时代人才工作高质量发展。坚持和加强党对人才工作的全面领导，深入实施人才“强心”行动，全方位培养、引进、用好人才，为首府建设现代化区域中心城市提供有力人才支撑。', '持续优化人才工作布局。制定印发《关于加快推进人才中心和创新高地建设的实施方案》，确定“一核、两极、多点”基本布局，推动形成“核、极、点”联动、多点开花、全域发力的人才工作“雁阵格局”。建成投用和林格尔新区人才创新谷，推动国家乳业技术创新中心实体化运营，获批自治区草种业、动物疫苗技术创新中心。', '大力集聚高素质人才。聚焦深化产才融合，依托优势产业重点研发平台和重点技术攻关项目，2023年以来引进高层次人才团队50余个、高层次人才200余人，健全完善人才工作体制机制。成功举办第三届“院士青城行”活动，新增院士工作站5家，总数达到14家。深入实施“十万大学生留呼工程”，全年实现5.1万名大学生留呼创业就业。', '2024年，呼和浩特市将持续深化理论武装“铸魂”工程、选贤任能“强链”行动、育才聚才“强心”行动、强基固本“赋能”行动、严管厚爱“先锋”行动，不断深化主题教育成果，全面提升党建工作水平和实效，努力为实现首府高质量发展提供坚强保障。']</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A185" t="n">
+        <v>25</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
           <t>习近平在广东考察时强调坚定不移全面深化改革扩大高水平对外开放在推进中国式现代化建设中走在前列</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>2023-04-14</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tt_1/202304/t20230414_1509265.html</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>['习近平在广东考察时强调：坚定不移全面深化改革扩大高水平对外开放 在推进中国式现代化建设中走在前列_ 呼和浩特市人民政府', '习近平在广东考察时强调 坚定不移全面深化改革扩大高水平对外开放 在推进中国式现代化建设中走在前列 蔡奇陪同考察', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是10日下午，习近平在湛江市徐闻县徐闻港泊位码头，向船上的旅客挥手致意。', '新华社广州4月13日电 中共中央总书记、国家主席、中央军委主席习近平近日在广东考察时强调，广东是改革开放的排头兵、先行地、实验区，在中国式现代化建设的大局中地位重要、作用突出。要锚定强国建设、民族复兴目标，围绕高质量发展这个首要任务和构建新发展格局这个战略任务，在全面深化改革、扩大高水平对外开放、提升科技自立自强能力、建设现代化产业体系、促进城乡区域协调发展等方面继续走在全国前列，在推进中国式现代化建设中走在前列。', '4月10日至13日，习近平在中共中央政治局委员、广东省委书记黄坤明和省长王伟中陪同下，先后来到湛江、茂名、广州等地，深入企业、港口、农村等进行调研。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是11日下午，习近平在茂名高州市根子镇柏桥村同村民亲切交流。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是12日下午，习近平在广汽埃安新能源汽车股份有限公司考察。', '10日上午，习近平首先考察了位于湛江市东海岛的国家863计划项目海水养殖种子工程南方基地。习近平听取了广东省海洋渔业发展情况介绍，察看渔业良种展示，向现场科研和养殖人员询问选育技术、种苗长势、市场价格等。习近平指出，中国是一个有着14亿多人口的大国，解决好吃饭问题、保障粮食安全，要树立大食物观，既向陆地要食物，也向海洋要食物，耕海牧渔，建设海上牧场、“蓝色粮仓”。种业是现代农业、渔业发展的基础，要把这项工作做精做好。要大力发展深海养殖装备和智慧渔业，推动海洋渔业向信息化、智能化、现代化转型升级。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是10日上午，习近平在位于湛江市东海岛的国家863计划项目海水养殖种子工程南方基地考察。', '湛江红树林国家级自然保护区，是我国红树林面积最大、分布最集中的自然保护区。习近平来到位于保护区东部的麻章区湖光镇金牛岛红树林片区，察看红树林长势和周边生态环境。他强调，这片红树林是“国宝”，要像爱护眼睛一样守护好。加强海洋生态文明建设，是生态文明建设的重要组成部分。要坚持绿色发展，一代接着一代干，久久为功，建设美丽中国，为保护好地球村作出中国贡献。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是10日上午，习近平在湛江市麻章区湖光镇金牛岛红树林片区考察。', '10日下午，习近平来到湛江市徐闻县，考察徐闻港。徐闻港项目是广东与海南相向而行的“头号工程”。在港口专用码头，习近平察看徐闻港全貌，听取广东省提升交通基础设施互联互通水平、对接海南自由贸易港建设相向发展等工作汇报。随后，习近平来到泊位码头，察看船舶停靠、客运转接等。船上的旅客看见总书记来了，纷纷向总书记问好，习近平向大家挥手致意，祝他们一帆风顺。习近平指出，琼州海峡是国家经略南海的战略通道，也是海南自由贸易港建设和发展的咽喉要道，要把“黄金水道”和客货运输最佳通道这篇大文章做好，把徐闻港打造成连接粤港澳大湾区和海南自由贸易港的现代化水陆交通运输综合枢纽。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是10日下午，习近平在湛江市徐闻县徐闻港专用码头考察。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是10日下午，习近平在湛江市徐闻县徐闻港泊位码头，同船上的旅客亲切交流。', '离开徐闻港，习近平来到环北部湾广东水资源配置工程向南输水的接点站——徐闻县大水桥水库，了解工程建设、管理、运行和后续工程规划等情况。工作人员向总书记展示水样和监测设备，汇报当地加强周边生态保护等情况。习近平指出，我国缺水且水资源分布很不均衡。推进中国式现代化，要把水资源问题考虑进去，以水定城、以水定地、以水定人、以水定产，发展节水产业。广东要把水资源优化配置抓好，加快全面推进水资源配置工程建设，推动解决区域发展不平衡问题，尽早造福广大人民群众。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是11日下午，习近平在茂名高州市根子镇柏桥村荔枝种植园，同现场技术人员亲切交流。', '习近平11日来到茂名高州市根子镇柏桥村考察调研。柏桥村种植荔枝约6800亩，是荔枝生产专业村。习近平走进荔枝种植园，了解当地发展特色种植产业和文旅产业等情况，并同现场技术人员亲切交流。随后，习近平来到柏桥龙眼荔枝专业合作社，听取合作社运营和推进乡村振兴等情况介绍。习近平指出，这里是荔枝之乡，荔枝种植有历史传承和文化底蕴，特色鲜明，优势明显，市场空间广阔，要进一步提高种植、保鲜、加工等技术，把荔枝特色产业和特色文化旅游发展得更好。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是11日下午，习近平在茂名高州市根子镇柏桥龙眼荔枝专业合作社考察。', '临别时，村民们高声欢呼“总书记好”“总书记辛苦了”。习近平亲切地对大家说，这是我第一次到粤西地区，看到乡亲们通过发展荔枝等特色种植业过上了殷实的生活，我感到很欣慰。推进中国式现代化，必须全面推进乡村振兴，解决好城乡区域发展不平衡问题。要坚持走共同富裕道路，加强对后富的帮扶，推进乡风文明，加强乡村环境整治和生态环境保护，让大家的生活一年更比一年好。', '习近平12日在广州市考察调研。当天下午，他首先来到乐金显示广州制造基地。广东省相关负责同志介绍了全省近年来增强国内国际两个市场两种资源联动效应、提升贸易投资合作质量和水平等方面的做法和成效。习近平察看产品展示和生产组装流程，对企业发展取得的成就表示赞赏。习近平强调，在全球经济增长乏力情况下，中国加快构建新发展格局，加强营商环境建设，市场优势会更加明显。希望外国投资者抓住机遇，到中国来，到广东来，到粤港澳大湾区来，深耕中国市场，创造企业发展新辉煌。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是12日下午，习近平在乐金显示广州制造基地察看生产组装流程。', '习近平随后来到广汽埃安新能源汽车股份有限公司考察。他走进企业展厅、总装车间、电池生产车间等，了解企业突破关键核心技术和推动制造业高端化、智能化、绿色化等进展情况。在广汽研究院，习近平仔细察看智能网联实验室、模型设计实验室等，并同科技人员、企业家、职工、外资企业代表等交流。习近平指出，中国改革开放政策将长久不变，永远不会自己关上开放的大门。一切愿意与我们合作共赢的国家，我们都愿意与他们相向而行，推动世界经济共同繁荣发展。习近平强调，中国是个大国，要重视实体经济，走自力更生之路。关键核心技术要立足自主研发，也欢迎国际合作。要加强教育和人才培养，夯实科技自立自强根基。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是12日下午，习近平在广汽研究院同科技人员、企业家、职工、外资企业代表等亲切交流。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是12日下午，习近平在广汽研究院向职工们挥手致意。', '13日上午，习近平听取广东省委和省政府工作汇报，对广东各项工作取得的成绩给予肯定。', '习近平指出，粤港澳大湾区在全国新发展格局中具有重要战略地位。广东要认真贯彻党中央决策部署，把粤港澳大湾区建设作为广东深化改革开放的大机遇、大文章抓紧做实，摆在重中之重，以珠三角为主阵地，举全省之力办好这件大事，使粤港澳大湾区成为新发展格局的战略支点、高质量发展的示范地、中国式现代化的引领地。', '习近平强调，实现高水平科技自立自强，是中国式现代化建设的关键。要深入实施创新驱动发展战略，加强区域创新体系建设，进一步提升自主创新能力，努力在突破关键核心技术难题上取得更大进展。要加强对中小企业创新支持，培育更多具有自主知识产权和核心竞争力的创新型企业。要强化企业主体地位，推进创新链产业链资金链人才链深度融合，不断提高科技成果转化和产业化水平，打造具有全球影响力的产业科技创新中心。要推进粤港澳大湾区人才高地建设，形成高端科创人才聚集效应。', '习近平指出，中国式现代化不能走脱实向虚的路子，必须加快建设以实体经济为支撑的现代化产业体系。广东要始终坚持以制造业立省，更加重视发展实体经济，加快产业转型升级，推进产业基础高级化、产业链现代化，发展战略性新兴产业，建设更具国际竞争力的现代化产业体系。', '习近平强调，全体人民共同富裕是中国式现代化的本质特征，区域协调发展是实现共同富裕的必然要求。广东要下功夫解决区域发展不平衡问题，加快推进交通等基础设施的区域互联互通，带动和推进粤东、粤西、粤北地区更好承接珠三角地区的产业有序转移。要加强陆海统筹、山海互济，强化港产城整体布局，加强海洋生态保护，全面建设海洋强省。要积极推进以县城为重要载体的新型城镇化建设，加快构建现代乡村产业体系，发展新型农村集体经济，深入实施乡村建设行动，促进共同富裕。持续做好防止返贫动态监测和常态化帮扶，防止出现返贫。', '习近平指出，开展主题教育是今年党的建设的重大任务。各级党组织要坚决贯彻落实党中央的工作部署，教育引导党员、干部在以学铸魂、以学增智、以学正风、以学促干上下功夫见实效。以学铸魂，就是要做好学习贯彻习近平新时代中国特色社会主义思想的深化、内化、转化工作，从思想上正本清源、固本培元，筑牢信仰之基、补足精神之钙、把稳思想之舵。一是坚定理想信念，增强对党的价值追求和前进方向的高度政治认同，把好世界观、人生观、价值观这个“总开关”。二是铸牢对党忠诚，自觉坚持党的全面领导、坚定维护党中央权威和集中统一领导，不断提高政治判断力、政治领悟力、政治执行力，始终在政治立场、政治方向、政治原则、政治道路上同党中央保持高度一致，把对党忠诚体现到贯彻落实好党中央决策部署的实际行动上。三是站稳人民立场，强化宗旨意识，坚守初心使命，践行党的群众路线，把人民群众满意不满意作为评判主题教育成效的根本标准，解决好人民群众最关心最直接最现实的利益问题，把惠民生的事办实、暖民心的事办细、顺民意的事办好，让现代化建设成果更多更公平惠及全体人民。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第七指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A186" t="n">
+        <v>25</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
           <t>呼和浩特市人民政府办公室关于印发呼和浩特市我为企业找资金我为企业找原料我为企业找用工我为企业找市场行动方案的通知</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>2024-04-18</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/ztzl/yhyshj/hpxzczl/hq/202404/t20240418_1687938.html</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>['呼和浩特市人民政府办公室关于印发 呼和浩特市“我为企业找资金、我为企业 找原料、我为企业找用工、我为企业 找市场”行动方案的通知_ 呼和浩特市人民政府', '呼和浩特市人民政府办公室关于印发 呼和浩特市“我为企业找资金、我为企业 找原料、我为企业找用工、我为企业 找市场”行动方案的通知', '各旗、县、区人民政府，经济技术开发区、和林格尔新区（各开发区、工业园区）管委会，市各有关部门：', '经市人民政府同意，现将《呼和浩特市“我为企业找资金、我为企业找原料、我为企业找用工、我为企业找市场”行动方案》印发给你们，请认真遵照执行。', '呼和浩特市“我为企业找资金、我为企业找原料、我为企业找用工、我为企业找市场”行动方案', '为深入贯彻落实党中央、国务院关于稳增长的决策部署和《内蒙古自治区促进中小企业发展三年行动方案（2023-2025）》（内工信中小字〔2023〕410号）精神，立足服务企业，聚焦化解企业面临的“痛点”“堵点”“难点”，开展“我为企业找资金、我为企业找原料、我为企业找用工、我为企业找市场”助企降本增效行动，结合实际，制定本实施方案。', '以习近平新时代中国特色社会主义思想为指导，深入学习贯彻习近平总书记在内蒙古考察期间的重要指示重要讲话精神，以开展学习贯彻习近平新时代中国特色社会主义思想主题教育为契机，聚焦全市企业稳定生产经营，通过创设政策、打造环境、搭建平台、优化服务，解决制约企业发展的突出问题，持续增强企业发展信心，激发企业发展活力，为全市经济社会高质量发展贡献力量。', '聚焦我市工业企业生产经营情况，梳理形成困难企业问题台账。深入开展“我为企业找资金、找原料、找用工、找市场”助企降本增效行动，切实增强企业发展信心，推动企业扩大再生产。到2025年底，力争我市普惠型小微企业贷款余额达到1000亿元；引进高层次人才150人，引进优质人才项目15个，企业缺工现象动态清零；规模以上工业企业数量达到500家，高新技术企业数量达到500家，优质中小企业数量达到300家，市场主体数量较现在增加25%。', '1.拓宽融资渠道找资金。充分发挥政府性融资担保机构作用，逐步将平均担保费率降至1.2%以下；加强“信易贷”平台运用效果，推动我市金融机构入驻全国“信易贷”平台（呼和浩特站），发布金融产品，到2025年，实现在“信易贷”平台注册企业数量达到30000家，放款金额累计达到4亿元；加大“助保贷”实施力度，到2025年，“助保贷”累计为850家企业融资50亿元；鼓励金融机构加大对科技型企业信贷投入，鼓励科技型企业上市融资，并分阶段给予一定资金奖补，统筹设立规模不少于10亿元的科技创新投资引导基金，助力纾解融资难问题；持续扩大“银税互动”合作范围，每年帮助100家企业凭借良好纳税信用通过“银税互动”获得融资支持；积极推进商标专用权质押融资工作，深入开展知识产权质押融资“入园惠企”、知识产权服务万里行等活动拓宽融资渠道，2025年知识产权质押融资业务累计达到200件，金额达到30亿元。（责任单位：市工信局、金融办、财政局、科技局、发改委、税务局、市场监督管理局，各开发区管委会）', '2.开展银企对接找资金。聚焦“六大产业集群”企业和重大投资项目，每年整理编制重点企业和项目融资需求400个以上；建立有融资需求企业“名单+信息档案”推送机制，通过“线上+线下”形式组织10次以上政银企对接活动；收集整理银行机构金融产品，形成《金融产品册》，通过“爱青城”“中小企业公共服务平台”等平台进行展示，助力打破银企信息壁垒；深入开展“送资金、保项目、入园区、进企业”行动，为企业提供便捷、多元的金融服务。（责任单位：市工信局、金融办，各开发区管委会）', '3.充分利用政策找资金。抓住国务院关于推动内蒙古高质量发展战略性利好政策，积极主动和国家部委对接，着力争取国家资金及项目；积极争取自治区重点产业（园区）发展专项、科技重大专项、口岸经济发展专项、外经贸发展专项等自治区财政专项资金；推进自治区支持首府打造先进制造业集群，提升园区基础设施配套水平，每年市本级配套至少3亿元资金。（责任单位：市工信局、发改委、科技局、财政局）', '4.推行集中采购找原料。聚焦“六大产业集群”企业原材料需求，积极协调资源，对接国内优势资源，推动产业集群内企业从“分散采购”向“集中采购”转变，力争原材料采购成本下降5%左右。支持建设并做大做强原材料集采平台，提高原辅材料议价话语权。鼓励行业商（协）会针对“六大产业集群”发起建设细分领域原材料集采平台，组织会员企业抱团集采，降低采购成本，提升供货效率。（责任单位：市工信局、发改委、工商联、市六大产业集群专班）', '5.利用大数据找原料。充分运用智慧工业综合管理平台，发布企业原料需求，精准匹配供需，实现网上集采；深化“以数治税”，充分利用税收大数据优势，运用“全国纳税人供应链查询”功能，梳理本地区企业原材料需求，助力上下游企业衔接，为市场主体原材料买卖牵线搭桥，实现产销对接，推动企业保持产业链稳定。（责任单位：市工信局、税务局）', '6.完善物流体系找原料。全力打造呼和浩特北疆国际陆港，扩大与“一带一路”沿线国家贸易合作的业务规模，实现与中欧、中亚各城市的快速通达；加快陆港型、商贸服务型国家物流枢纽以及国家骨干冷链物流基地建设，深度融入国家“通道+枢纽+网络”的高效物流运行体系，进一步降低企业原材料运输成本。（责任单位：市发改委、商务局，综合保税区）', '7.摸清企业需求找用工。摸清企业招工计划，做到企业缺工规模、缺工类型、技能要求、薪资水平“四清”，建立缺工企业管理台账；动态掌握毕业生及社会劳动者求职、失业人员登记等信息，建立求职者就业需求清单，及时与缺工企业用工需求清单匹配；开展用工余缺调剂合作，按需组织专场对接。建立重大项目用工服务联动机制，在开展重大项目招商引资时，同步开展招用工服务。（责任单位：市人社局、区域局、工信局，各开发区管委会）', '8.举办招聘活动找用工。充分发挥公共就业服务机构的作用，每年组织开展100场以上线上线下招聘活动；通过与北京、上海等地建立跨区人才引进协作机制，每年组织开展3次“区外引才行”活动；每年开展中小企业网上百日招聘高校毕业生活动，积极解决中小企业用工需求。（责任单位：市人社局、工信局）', '9.开展技能培训找用工。发展壮大人才培训资源，到2025年，建成高技能人才培训基地12个，技能大师工作室50个；充分利用各类优质培训资源，每年开展职业技能培训3万人次，高技能人才培训2000人次，新型学徒制培训1500人次以上。（责任单位：市人社局）', '10.加强校企合作找用工。搭建校企合作平台，推动阿特斯、合盛硅业、双杰、正泰等大型企业与市内高校对接，建立“产学研”合作机制，每年解决大学生就业5万人以上；联合国内知名高校开展1次“丁香扎根”暑期实训活动，打造金桥“双创”示范区，全力推进“人才＋项目＋平台”一体化建设，与自治区高校联动，大力培养孵化专业人才，每年开展10场实习实训，参与人数达到1000人次。（责任单位：市人社局、工信局，各开发区管委会）', '11.完善政策保障找用工。持续落实各项援企稳岗政策，深入推进实施“十万大学生”留呼工程，落实《呼和浩特市人民政府关于印发呼和浩特市引人留人18条措施的通知》（呼政发〔2023〕24号），完善就业、住房、子女就近上学、婴幼儿托管等配套政策、设施。（责任单位：市人社局、教育局、住建局、工信局）', '12.实施精准招商找市场。紧紧围绕六大产业集群和17条产业链的薄弱环节，开展精准招商，形成产业互补。全市每年力争招引亿元以上产业项目400个，协议投资额500亿元以上。（责任单位：市区域局、工信局、市六大产业集群专班）', '13.开展供需对接找市场。搭建企业产品对接平台，形成六大产业集群企业产品索引名录，开展产品专题推介会或企业家座谈会，加大对企业产品宣传力度。支持本地中小企业与大企业结对，畅通产业链和供应链，提高产品的本市配套率，到2025年，助力500家本市企业实现产品配套协作。（责任单位：市工信局、商务局、市六大产业集群专班）', '14.利用办展参展找市场。结合我市产业和发展实际，积极推广“乳都”品牌，筹划举办“绿色农畜产品博览会”，打造我市具有特色的品牌展会活动。支持企业参加广交会、进博会、中蒙博览会等重大展会活动，确保重点展会参与率达到100%。对符合参展条件的小微企业，在展位费、展品运输费及参会人员差旅费等方面给予适当资金补贴，助力企业“走出去”。（责任单位：市商务局、工信局、农牧局、工商联）', '15.依托协会组织找市场。组织本地商（协）会和外地商（协）会加强我市优质企业拳头产品推介，帮助市内企业打开销路；畅通行业商（协）会、龙头企业、中小配套企业之间的沟通渠道，促进大中小企业协同创新、融通发展；推动本地商（协）会与外部商（协）会、先进发达地区商（协）会建立结对关系，促进资源整合、供需对接，使企业在上下游配套、原材料供应、运输物流、市场营销等方面实现共享共赢。（责任单位：市工商联、工信局、商务局、区域局、贸促会）', '16.组建产业联盟找市场。围绕6大产业集群组建6个产业联盟。联盟内部深入开展产业链上下游产供销适配性对接，提高产业链供应链稳定性和地方配套率；强化行业关键共性技术协同攻关，促进创新资源整合、创新效能提升、创新成果转化；建立共享市场的机制，通过联合营销、品牌推广和渠道共享等方式，扩大市场份额和提高品牌影响力，同时在产业联盟之间加强互动合作，构建群链融合协同发展机制。（责任单位：市工商联、发改委、工信局、商务局）', '17.应用平台载体找市场。以服务首府外向型经济发展为导向，打造外向型绿色制造基地和国际贸易物流分拨平台、展示交易平台等，到2025年进出口总额突破200亿元。开展“公益广告助力企业纾困”活动，利用电视、地铁站、户外广告等媒体，加强企业产品品牌推广力度。组织京东、苏宁易购等电商和企业开展“网上年货节”“双品网购节”等促消费活动，帮助企业对接入驻京东中国特产·内蒙古馆、京东中国特产·呼和浩特馆等平台，运用“直播+社交”电商新模式，不断拓宽产品线上销售渠道。（责任单位：市委宣传部、市商务局、融媒体中心，综合保税区）', '（一）加强组织领导。按照市级统筹、属地负责的原则，着力构建市县（旗、区）联动、部门协同配合的工作机制，资源整合，合力助企纾困，按季调度，统筹推动，推动活动有效开展。各旗县区（开发区）要落实属地责任，建立健全工作机制，制定出台具体措施，加大为企业找资金、原料、用工、市场力度。相关委办局要切实强化责任担当，主动作为，对照此方案，结合工作职责，进一步细化任务、实化举措。各旗县区（开发区）及相关委办局指定专人负责，围绕活动部署要求，立即行动，抓紧组织启动相关工作。', '（二）坚持问题导向。各责任单位组织专人了解企业在资金、原料、用工、市场等方面的需求及问题，不定期带队开展本领域、本地区专项对接协调活动，实地深入重点项目、重点困难企业，进行“一对一、面对面”沟通交流，解决好融资、市场等服务方面的具体诉求，健全完善企业反映困难问题的收集、梳理、研判、交办、督办、反馈工作机制，保障企业困难问题与部门办理职责精准对接，为企业经营发展提供优质服务。', '（三）强化督促考核。市人民政府督查室将把“我为企业找资金、我为企业找原料、我为企业找用工、我为企业找市场”助企降本增效活动作为重点督查事项，按季度统计汇总活动开展情况，对推动工作优秀的部门通报表扬，对推动工作不力的通报批评，以督查考核推动活动全面落实。', '附件：“我为企业找资金、我为企业找原料、我为企业找用工、我为企业找市场”行动方案重点任务分工表']</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A187" t="n">
+        <v>25</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
           <t>沿着总书记指明的方向奋勇前行习近平总书记在内蒙古考察重要讲话引发我市干部群众强烈反响</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>2023-06-13</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzA5NzEyODA4OQ==&amp;mid=2650093415&amp;idx=2&amp;sn=fb0f619f0a3ab9f087d195e0315caf1f&amp;scene=0</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>['沿着总书记指明的方向奋勇前行——习近平总书记在内蒙古考察重要讲话引发我市干部群众强烈反响', '传递政务信息，提供服务资讯，倾听您的诉求。呼和浩特市人民政府办公室公众平台欢迎朋友们与我们互动交流。', '亲切关怀备受鼓舞，殷殷嘱托牢记心间。连日来，全市广大干部群众认真学习习近平总书记在内蒙古考察时重要讲话精神，大家纷纷表示，要不负期望、感恩奋进，沿着总书记指明的方向奋勇前行。', '6月8日，武川县组织全县干部群众观看当天的《新闻联播》，从县城到乡村，总书记的讲话在武川县各族群众中产生强烈反响。大家纷纷表示要牢记总书记嘱托，结合武川县地域优势，紧紧围绕推进高质量发展这个首要任务，以铸牢中华民族共同体意识为主线，坚持发展和安全并重，坚持生态优先、绿色发展，在建设“两个屏障”“两个基地”“一个桥头堡”上展现新作为，全面、准确、完整贯彻新发展理念，努力做好保护、发展、富裕“三篇文章”。', '现任哈拉合少乡党委副书记、乡长的聂向荣被评为全国人民满意的公务员，他说:“总书记的重要讲话为我们今后工作提供了根本遵循和鲜明导向，我们将聚焦农业科学化、标准化、绿色化发展方向，推动高标准农田建设迈上新台阶，鼓励养殖户转变观念，算好经济账和生态账，保护好绿水青山，不断推动农业稳产增产、农民稳定增收、农村和谐稳定。”', '武川县耗赖山乡南房子村党支部书记杨海莉激动地说:“总书记的讲话催人奋进，鼓舞人心，是我们今后开展工作的行动纲领。今后我一定继续将最新的农业政策向广大农户宣传好，因地制宜，利用本村优势，培育新型职业农民，让高标准农田建设在我村发挥高效作用。”', '“总书记的重要讲话让我们深感责任重大，使命光荣!”收看了总书记在内蒙古考察的新闻后，市科技局的党员干部们备受鼓舞。今年，我市依托国家乳业技术创新中心等高能级技术创新中心，着力攻克种业、奶业等重点领域“卡脖子”技术难题，依托中环产业园，着力打造新一代半导体材料研发平台，重点突破太阳能电池、光伏应用核心部件研发生产“卡脖子”技术，切实用科技创新落实好习近平总书记交给内蒙古的五大任务。市科技局党组书记、局长李孔燕表示，全局上下将继续深入实施创新驱动发展战略，深化“科技兴蒙”行动，聚焦首府经济高质量发展，抓好创新平台建设、高校院所协同创新、关键技术攻关、创新主体培育、科技人才引育、科技成果转化等工作，增强创新整体效能，推动首府建成区域科技创新中心，用科技创新助力构建新发展格局，奋力书写中国式现代化首府新篇章。', '“收看了习近平总书记在内蒙古考察的新闻报道，聆听了总书记重要讲话，让我备受鼓舞、倍感振奋。”和林县团委书记曹宇倩说，作为一名团务工作者，要紧紧围绕习近平总书记交给内蒙古的五大任务和全方位建设“模范自治区”两件大事，以铸牢中华民族共同体意识为主线，履职尽责，引领和带动青少年听党话、感党恩、跟党走。依托系列活动，促进各民族青少年交往交流交融，不断增强民族地区青少年的获得感、幸福感、安全感。同时，将通过实践教育、研学等形式，加强青少年绿色环保教育，帮助孩子们树立绿色文明意识，在奋力书写中国式现代化内蒙古新篇章中贡献一份力量。', '今年5月，草都和林格尔县国家级草牧业园区开园，一直以来，草都牢记总书记嘱托，立草为业，努力带动更多农牧民增收致富。6月5日至8日，习近平总书记第三次来到内蒙古考察，草都集团党支部组织草都集团全体党员第一时间收听、收看了习近平总书记在内蒙古考察的新闻。草都集团董事长李国才说:“筑牢我国北方重要生态安全屏障和草业人息息相关，草都作为现代草牧业的引领企业，要发挥草都优势，努力把我国北方这道万里绿色屏障构筑得更加牢固。”', '“总书记在考察内蒙古讲话中特别强调，要全面落实就业优先政策，把推动实现更加充分更高质量的就业摆在突出位置，完善政策体系，强化培训服务，精准有效实施减负稳岗扩就业各项政策措施，支持多渠道灵活就业，重点抓好高校毕业生、退役军人、农民工等群体就业。总书记的殷殷嘱托让我们倍受鼓舞。”市退役军人事务局就业创业科科长靳瑞峰说，作为市退役军人事务局的一员，下一步，将认真落实总书记要求，围绕精准就业创业目标，扎扎实实做好退役军人教育培训、就业服务、创业扶持等方面工作，推动首府退役军人、军属实现高质量就业创业。', '连日来，回民区中山西路街道的全体干部职工以不同方式多次收看习近平总书记在内蒙古考察的新闻，深受鼓舞、倍感振奋。大家纷纷表示，总书记深情牵挂着内蒙古的各族儿女，今后一定要把总书记的深切关怀转化为源源不断的奋进力量，牢记嘱托、砥砺前行。', '“总书记多次来到内蒙古，每一次都令人难忘。这次在内蒙古考察时的重要讲话再次鼓舞人心，催人奋进，是我们今后开展工作的行动纲领。”中山西路街道宣传委员李颖说，作为一名基层街道工作者，要把总书记的重要讲话作为今后的工作指南和强大动力，紧紧围绕推进高质量发展这个首要任务，以铸牢中华民族共同体意识为主线，心系群众，履职尽责。在今后的工作中，要从更加细微处入手，坚持以人民为中心，更加注重保障和改善民生，增进民生福祉，切实推动基层社会治理工作做到治在基层、享在基层、暖在基层，用心用情把基层工作做好做细做实。']</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A188" t="n">
+        <v>25</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
           <t>习近平在河北考察并主持召开深入推进京津冀协同发展座谈会</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>2023-05-13</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tt_1/202305/t20230513_1526678.html</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>['习近平在河北考察并主持召开深入推进京津冀协同发展座谈会时强调 以更加奋发有为的精神状态推进各项工作 推动京津冀协同发展不断迈上新台阶 李强丁薛祥出席座谈会 蔡奇陪同考察并出席座谈会', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是12日下午，习近平在石家庄市主持召开深入推进京津冀协同发展座谈会并发表重要讲话。新华社记者 申宏 摄', '新华社石家庄5月12日电 中共中央总书记、国家主席、中央军委主席习近平近日在河北考察，主持召开深入推进京津冀协同发展座谈会并发表重要讲话。他强调，要坚定信心，保持定力，增强抓机遇、应挑战、化危机、育先机的能力，统筹发展和安全，以更加奋发有为的精神状态推进各项工作，推动京津冀协同发展不断迈上新台阶，努力使京津冀成为中国式现代化建设的先行区、示范区。', '中共中央政治局常委、国务院总理李强，中共中央政治局常委、国务院副总理丁薛祥出席座谈会。中共中央政治局常委、中央办公厅主任蔡奇陪同考察并出席座谈会。', '5月11日至12日，习近平在河北省委书记倪岳峰、省长王正谱陪同下，先后来到沧州、石家庄等地，深入农村、港口、科研单位等，实地了解京津冀协同发展情况。', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是11日上午，习近平在沧州市黄骅市旧城镇仙庄片区旱碱地麦田考察时，同种植户、农技专家亲切交流。新华社记者 殷博古 摄', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是11日上午，习近平在沧州市黄骅市旧城镇仙庄片区旱碱地麦田考察时，同种植户、农技专家亲切交流。新华社记者 李学仁 摄', '11日上午，习近平来到沧州市，考察了黄骅市旧城镇仙庄片区旱碱地麦田，了解盐碱地整治、旱碱麦种植推广及产业化情况。习近平走进麦田，仔细察看小麦长势，并向正在田里劳作的种植户、农技专家询问旱碱麦产量、价格、品质、收益等。习近平指出，开展盐碱地综合利用，是一个战略问题，必须摆上重要位置。要立足我国盐碱地多、开发潜力大的实际，发挥科技创新的关键作用，加大盐碱地改造提升力度，加强适宜盐碱地作物品种开发推广，有效拓展适宜作物播种面积，积极发展深加工，做好盐碱地特色农业这篇大文章。', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是11日上午，习近平在沧州市黄骅市旧城镇仙庄片区旱碱地麦田考察。新华社记者 李学仁 摄', '11日下午，习近平来到黄骅港煤炭港区码头，了解河北省港口整合发展和黄骅港生产经营、发展规划等情况。习近平强调，河北区位优势独特，海运条件便利，要持续推进港口转型升级和资源整合，优化港口功能布局，主动对接京津冀协同发展、高标准高质量建设雄安新区、共建“一带一路”等国家重大战略需求，在推动区域经济协调发展、建设现代化产业体系中发挥更大作用。黄骅港作为我国西煤东运、北煤南运的重要枢纽港口，要加强港口能力建设，创新管理体制机制，打造多功能、综合性、现代化大港。', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是11日下午，习近平在沧州市黄骅港煤炭港区码头考察。新华社记者 李学仁 摄', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是11日下午，习近平在沧州市黄骅港煤炭港区码头考察时，同码头工作人员、船务人员亲切交流。新华社记者 李学仁 摄', '12日上午，习近平来到位于石家庄市的中国电科产业基础研究院考察调研，了解企业发展历程及产品研发、加强军民融合发展、提升自主保障能力建设等情况，走进生产车间察看芯片生产流程。习近平指出，加快建设科技强国是全面建设社会主义现代化国家、全面推进中华民族伟大复兴的战略支撑，必须瞄准国家战略需求，系统布局关键创新资源，发挥产学研深度融合优势，不断在关键核心技术上取得新突破。他勉励科技工作者再接再厉、勇攀科技高峰，不断攻克前沿技术，打造更多科技自立自强的大国重器。', '业基础研究院考察调研，了解企业发展历程及产品研发、加强军民融合发展、提升自主保障能力建设等情况，走进生产车间察看芯片生产流程。习近平指出，加快建设科技强国是全面建设社会主义现代化国家、全面推进中华民族伟大复兴的战略支撑，必须瞄准国家战略需求，系统布局关键创新资源，发挥产学研深度融合优势，不断在关键核心技术上取得新突破。他勉励科技工作者再接再厉、勇攀科技高峰，不断攻克前沿技术，打造更多科技自立自强的大国重器。', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是12日上午，习近平在位于石家庄市的中国电科产业基础研究院考察。新华社记者 燕雁 摄', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是12日上午，习近平在位于石家庄市的中国电科产业基础研究院生产车间考察。新华社记者 申宏 摄', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是12日上午，习近平在位于石家庄市的中国电科产业基础研究院考察时，同科技工作者亲切交流。新华社记者 燕雁 摄', '习近平随后考察了石家庄市国际生物医药园规划展馆，听取石家庄生物医药产业发展情况汇报，察看医药产品展示，了解药品研发生产情况。习近平强调，生物医药产业是关系国计民生和国家安全的战略性新兴产业。要加强基础研究和科技创新能力建设，把生物医药产业发展的命脉牢牢掌握在我们自己手中。要坚持人民至上、生命至上，研发生产更多适合中国人生命基因传承和身体素质特点的“中国药”，特别是要加强中医药传承创新发展。', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是12日上午，习近平在石家庄市国际生物医药园规划展馆考察。新华社记者 燕雁 摄', '12日下午，习近平在石家庄市主持召开深入推进京津冀协同发展座谈会。河北省委书记倪岳峰、天津市委书记陈敏尔先后发言，北京市委书记尹力提交了书面发言，就深入推进京津冀协同发展汇报工作情况、提出意见建议。', '听取大家发言后，习近平发表了重要讲话。他对党的十九大以来河北经济社会发展取得的成绩表示肯定，希望河北全面学习贯彻党的二十大精神，完整、准确、全面贯彻新发展理念，牢牢把握高质量发展这个首要任务和构建新发展格局这个战略任务，在推进创新驱动发展中闯出新路子，在推进京津冀协同发展和高标准高质量建设雄安新区中彰显新担当，在推进全面绿色转型中实现新突破，在推进深化改革开放中培育新优势，在推进共同富裕中展现新作为，加快建设经济强省、美丽河北，奋力谱写中国式现代化建设河北篇章。', '习近平强调，党的十九大以来，按照党中央决策部署，京津冀3省市切实履行主体责任，中央有关部门和单位大力支持配合，做了大量卓有成效的工作，京津冀协同发展取得新的显著成效，疏解北京非首都功能初见成效，雄安新区建设取得重大阶段性成果，北京城市副中心高质量发展步伐加快，“轨道上的京津冀”加速形成，美丽宜居京津冀取得丰硕成果，科技创新和产业融合发展水平持续提升。实践证明，党中央关于京津冀等重大区域发展战略是符合我国新时代高质量发展需要的，是推进中国式现代化建设的有效途径。', '5月11日至12日，中共中央总书记、国家主席、中央军委主席习近平在河北考察，并主持召开深入推进京津冀协同发展座谈会。这是12日下午，习近平在石家庄市主持召开深入推进京津冀协同发展座谈会并发表重要讲话。新华社记者 李学仁 摄', '习近平指出，要牢牢牵住疏解北京非首都功能这个“牛鼻子”，坚持积极稳妥、稳中求进，控增量和疏存量相结合，内部功能重组和向外疏解转移两手抓，有力有序有效推进疏解工作。要着力抓好标志性项目向外疏解，接续谋划第二批启动疏解的在京央企总部及二、三级子公司或创新业务板块等。要继续完善疏解激励约束政策体系，充分发挥市场机制作用，通过市场化、法治化手段增强向外疏解的内生动力。要进一步从源头上严控北京非首都功能增量。', '习近平强调，要推动北京“新两翼”建设取得更大突破。北京城市副中心建设要处理好同雄安新区的关系，“两翼”要协同发力，有效解决北京“大城市病”问题。要处理好同中心城区的关系，实现以副辅主、主副共兴。要加快推进第二批北京市属行政企事业单位迁入副中心，腾出的空间主要用于加强对首都核心功能的服务保障。要处理好同周边地区的关系，带动周边交界地区高质量发展。', '习近平指出，京津冀作为引领全国高质量发展的三大重要动力源之一，拥有数量众多的一流院校和高端研究人才，创新基础扎实、实力雄厚，要强化协同创新和产业协作，在实现高水平科技自立自强中发挥示范带动作用。要加快建设北京国际科技创新中心和高水平人才高地，着力打造我国自主创新的重要源头和原始创新的主要策源地。要构建产学研协作新模式，提升科技成果区域内转化效率和比重。要强化企业的创新主体地位，形成一批有自主知识产权和国际竞争力的创新型领军企业。要巩固壮大实体经济根基，把集成电路、网络安全、生物医药、电力装备、安全应急装备等战略性新兴产业发展作为重中之重，着力打造世界级先进制造业集群。', '习近平强调，推进京津冀协同发展，最终要体现到增进人民福祉、促进共同富裕上。要大兴调查研究之风，深入了解群众需求，切实解决广大百姓关心关切的利益问题，不断提高人民群众的获得感、幸福感、安全感。要加快推进公共服务共建共享，强化就业优先政策，促进京津冀地区更加充分更高质量就业。要推动京津优质中小学基础教育资源同河北共享，深化区域内高校师资队伍、学科建设、成果转化等方面合作。要推进医联体建设，推动京津养老项目向河北具备条件的地区延伸布局。要持续抓好北方防沙带等生态保护和修复重点工程建设，持续推进绿色生态屏障建设等重大生态工程。', '习近平指出，要继续加快推进交通等基础设施建设，深入推进区域内部协同。要唱好京津“双城记”，拓展合作广度和深度，共同打造区域发展高地，在建设京津冀世界级城市群中发挥辐射带动和高端引领作用。要把北京科技创新优势和天津先进制造研发优势结合起来，加强关键核心技术联合攻关，共建京津冀国家技术创新中心，提升科技创新增长引擎能力。河北要发挥环京津的地缘优势，从不同方向打造联通京津的经济廊道，北京、天津要持续深化对河北的帮扶，带动河北有条件的地区更好承接京津科技溢出效应和产业转移。要进一步推进体制机制改革和扩大对外开放，下大气力优化营商环境，积极同国内外其他地区沟通对接，打造全国对外开放高地。', '习近平强调，深入开展主题教育是今年党建工作的重中之重。北京、天津、河北3省市党委要认真贯彻落实党中央的部署和要求，切实抓好主题教育，进一步增强各级党组织的政治功能和组织功能，为推进京津冀协同发展提供坚强保证。', '李强在讲话中表示，要认真学习领会、深入贯彻落实习近平总书记重要讲话精神，坚持在大局下思考和行动，更加有力有效推进京津冀协同发展。要突出首要任务，围绕疏解北京非首都功能，推动资源、政策、力量聚焦，确保标志性疏解项目取得明显成效。要把握区域差异，着力推动优势互补，既补各自的短板，又锻造共同的长板，把发展落差的势能变成协同发展的动能，让群众有更强的获得感。要进一步做实工作机制，形成更为紧密的协同推进格局。', '丁薛祥表示，要认真学习贯彻习近平总书记重要指示，坚持以空气质量明显改善为刚性要求，持之以恒做好大气污染防治工作，推动京津冀协同发展迈上新水平。加快产业结构优化升级，坚决遏制高耗能、高排放、低水平项目盲目发展；促进能源结构低碳转型，加强煤炭清洁高效利用，大力发展新能源和清洁能源；调整优化运输结构，从源头上减少燃油污染排放；持续深化大气污染联防联控，压实地方政府责任，形成齐抓共管合力。', '李干杰、何立峰等陪同考察并出席座谈会，吴政隆、穆虹及主题教育中央第二指导组、中央和国家机关有关部门、有关地方、有关企业负责同志参加座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A189" t="n">
+        <v>25</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
           <t>迈上新征程创造新伟业以习近平同志为核心的党中央年治国理政述评</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>2023-01-02</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tpxw_56060/202301/t20230102_1463503.html</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>['迈上新征程 创造新伟业——以习近平同志为核心的党中央2022年治国理政述评_ 呼和浩特市人民政府', '新华社北京1月1日电 题：迈上新征程 创造新伟业——以习近平同志为核心的党中央2022年治国理政述评', '2022年，极不平凡的一年。面对复杂严峻的国际环境和艰巨繁重的国内改革发展稳定任务，以习近平同志为核心的党中央领导全党全军全国各族人民迎难而上、砥砺前行，内政外交国防，治党治国治军，各项事业扎实推进。', '2022年，极为重要的一年。我们胜利召开党的二十大，在“两个一百年”奋斗目标的历史交汇期，描绘了以中国式现代化全面推进中华民族伟大复兴的宏伟蓝图，开启了充满光荣和梦想的新的远征。', '“百年成就无比辉煌，百年大党风华正茂。我们完全有信心有能力在新时代新征程创造令世人刮目相看的新的更大奇迹。”——习近平', '2022年10月16日至22日，中国共产党第二十次全国代表大会在北京胜利召开。这是在全党全国各族人民迈上全面建设社会主义现代化国家新征程、向第二个百年奋斗目标进军的关键时刻召开的一次十分重要的大会。', '高举中国特色社会主义伟大旗帜，全面贯彻新时代中国特色社会主义思想，弘扬伟大建党精神，自信自强、守正创新，踔厉奋发、勇毅前行，为全面建设社会主义现代化国家、全面推进中华民族伟大复兴而团结奋斗。', '习近平总书记冒着严寒来到山西省临汾市，进山村、访农户。在村民蔡文明家，总书记抚今追昔，感慨道，“过去我到农村，看到这样那样让人揪心的事儿，心里很是不安、难过。再看看我们现在的农村，面貌完全改变了，吃的穿的用的都不一样了”。', '习近平总书记对村民们说：“下一步，我们要走的路还很长，第一个百年奋斗目标实现了，第二个百年奋斗目标新征程已经开启，我们要全面建设社会主义现代化国家。”', '2022年初，党的二十大文件起草组成立，习近平总书记担任组长，鲜明提出起草党的二十大报告要全面把握我国发展面临的新的战略机遇、新的战略任务、新的战略阶段、新的战略要求、新的战略环境。', '2022年全国两会上，习近平总书记首次提出“五个必由之路”重大论断，阐述我国发展仍具有的“五个战略性有利条件”，深刻揭示新时代我们为什么成功、未来我们怎样继续成功。', '密集的地方考察调研中，从着力打造中国特色自由贸易港，到开辟经济发展的新领域新赛道，再到深入推动区域协调发展，习近平总书记提出一系列面向未来的重要观点和重大论断。', '习近平总书记在省部级主要领导干部“学习习近平总书记重要讲话精神，迎接党的二十大”专题研讨班上指出，党的二十大要对全面建成社会主义现代化强国两步走战略安排进行宏观展望，重点部署未来5年的战略任务和重大举措。', '“从现在起，中国共产党的中心任务就是团结带领全国各族人民全面建成社会主义现代化强国、实现第二个百年奋斗目标，以中国式现代化全面推进中华民族伟大复兴。”习近平总书记在党的二十大报告中郑重宣示。', '总结过去5年工作和新时代10年伟大变革的重大意义，阐述开辟马克思主义中国化时代化新境界的重大问题，阐释中国式现代化的五大特征、九条本质要求和前进道路上必须牢牢把握的五条重大原则，全面部署经济建设、政治建设、文化建设、社会建设、生态文明建设等各方面工作，强调坚持党的全面领导和全面从严治党……', '党的二十大报告是党团结带领全国各族人民夺取中国特色社会主义新胜利的政治宣言和行动纲领，是马克思主义的纲领性文献。', '党的二十大召开期间，习近平总书记来到他所在的广西代表团，同大家一起讨论党的二十大报告。', '谈成就、说体会、提建议，从发展茶产业，到保护好桂林山水，再到产业工人成长进步，代表们在讨论中饱含着信任、充满了信心、凝聚起力量。', '习近平总书记强调，学习贯彻党的二十大精神，要牢牢把握过去5年工作和新时代10年伟大变革的重大意义，牢牢把握新时代中国特色社会主义思想的世界观和方法论，牢牢把握以中国式现代化推进中华民族伟大复兴的使命任务，牢牢把握以伟大自我革命引领伟大社会革命的重要要求，牢牢把握团结奋斗的时代要求。', '“全党全国各族人民要在党的旗帜下团结成‘一块坚硬的钢铁’，心往一处想、劲往一处使，推动中华民族伟大复兴号巨轮乘风破浪、扬帆远航。”总书记话语铿锵。', '2022年10月23日，人民大会堂金色大厅。万众期盼中，党的二十届一中全会上当选新一届中共中央总书记的习近平，带领其他中央政治局常委同中外记者见面。', '坚强核心引领壮阔征程。有以习近平同志为核心的党中央掌舵领航，有习近平新时代中国特色社会主义思想科学指引，百年大党必将用新的伟大奋斗创造新的历史伟业。', '党的二十大闭幕后不到一周，习近平总书记带领新当选的二十届中共中央政治局常委来到延安，瞻仰延安革命纪念地，重温革命战争时期党中央在延安的峥嵘岁月，缅怀老一辈革命家的丰功伟绩，宣示新一届中央领导集体赓续红色血脉、传承奋斗精神，在新的赶考之路上向历史和人民交出新的优异答卷的坚定信念。', '叩开历史的厚重大门，习近平总书记深有感触：“无论我们将来物质生活多么丰富，自力更生、艰苦奋斗的精神一定不能丢，脚踏实地、苦干实干，集中精力办好自己的事情，把国家和民族发展放在自己力量的基点上。”', '在南沟村，习近平总书记走进果园，了解苹果收成和当地苹果产业发展情况。总书记语重心长地说，现在，“两个一百年”奋斗目标的第一个百年目标已经实现，绝对贫困问题解决了，老乡们过上了好日子，但还要继续努力往前走，让生活越来越美好。', '从胜利走向新的胜利，习近平总书记发出伟大号召：“让我们踏上新征程，向着新的奋斗目标，出发！”', '新时代新征程上，全党全国各族人民深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”，正以昂扬奋进的精神状态为全面建设社会主义现代化国家、全面推进中华民族伟大复兴而团结奋斗。', '“坚持把国家和民族发展放在自己力量的基点上、把中国发展进步的命运牢牢掌握在自己手中。”——习近平', '作为新冠疫情发生以来首次如期举办的全球综合性体育盛会，“无与伦比”的北京冬奥会、“精彩非凡”的冬残奥会，兑现了我们对国际社会的庄严承诺，令世界惊叹“这就是奇迹”。', '面对疫情反复延宕和复杂严峻的国内外环境，以习近平同志为核心的党中央高效统筹疫情防控和经济社会发展，带领中国交出一份又一份世所瞩目的精彩答卷。', '始终坚持人民至上、生命至上，始终把人民群众生命安全和身体健康放在第一位；因时因势、科学决策，准确把握疫情形势变化，及时作出更好统筹疫情防控和经济社会发展的重大决策……习近平总书记高瞻远瞩、科学果断，彰显着人民领袖的责任担当。', '面对一场场严峻复杂的抗疫大战、经历一次次艰苦卓绝的历史大考，我们以防控战略的稳定性、防控措施的灵活性，有效应对疫情形势的不确定性，稳扎稳打、步步为营，赢得了优化防控措施的主动。', '“最大程度保护人民生命安全和身体健康，最大限度减少疫情对经济社会发展的影响。”2022年11月10日，习近平总书记主持召开中共中央政治局常务委员会会议，研究部署进一步优化防控工作的二十条措施。', '12月6日，习近平总书记主持召开中共中央政治局会议。这次会议强调：“更好统筹疫情防控和经济社会发展，更好统筹发展和安全”。次日，国务院联防联控机制综合组公布优化落实疫情防控的“新十条”。', '以习近平同志为核心的党中央团结带领全党全国各族人民坚定不移开展抗击疫情斗争，始终牢牢把抗疫的战略主动权握在手中，最大程度保障了亿万人民的生命安全，最大程度创造了生产生活条件和投资发展环境，最大程度体现了我国社会主义制度的优越性。', '防疫关乎生命，发展关乎生计。如何统筹好这对看似不可调和的矛盾，是摆在世界各国面前的一道难题。', '2022年，国际环境复杂严峻，需求收缩、供给冲击、预期转弱“三重压力”持续显现，多重超预期因素冲击陡然增加。', '“要保持战略定力，坚持稳中求进，统筹好疫情防控和经济社会发展，采取更加有效措施，努力用最小的代价实现最大的防控效果，最大限度减少疫情对经济社会发展的影响。”', '习近平总书记2022年3月17日在中共中央政治局常委会会议上的讲话，用三个“最”字表明我国坚决打好统筹疫情防控和经济社会发展之战的决心和信心。', '针对市场主体遇到的发展困难，习近平总书记反复强调，要稳住市场主体，对受疫情严重冲击的行业、中小微企业和个体工商户实施一揽子纾困帮扶政策；', '确保产业链供应链稳定畅通，明确要坚持全国一盘棋，确保交通物流畅通，确保重点产业链供应链、抗疫保供企业、关键基础设施正常运转；', '把稳就业、稳物价、保民生作为必须守好的底线，切实保障和改善民生，稳定和扩大就业，组织好重要民生商品供应，保障城市核心功能运转；', '在关键时出手，于要害处发力。从稳住市场主体、稳住市场预期到确保产业链供应链稳定、畅通经济循环，各项政策靠前发力，最大程度稳住了经济社会发展的基本盘。', '习近平总书记以深刻的忧患意识和深远的战略眼光，创造性提出总体国家安全观，强调统筹国内国际两个大局、发展安全两件大事，在因势而谋、应势而动、顺势而为中增强忧患意识，树立底线思维，在斗争中维护国家尊严和核心利益，牢牢掌握了我国发展和安全主动权。', '2022年全国两会期间，习近平总书记强调，“在粮食安全这个问题上不能有丝毫麻痹大意”；', '4月，习近平总书记到海南考察，第一站就来到三亚市崖州湾种子实验室，进一步指出“中国人的饭碗要牢牢端在自己手中，就必须把种子牢牢攥在自己手里”。', '将能源安全作为关系经济社会发展的全局性、战略性问题，强调要“夯实国内能源生产基础，保障煤炭供应安全”；', '坚持科技自立自强，“把科技的命脉牢牢掌握在自己手中，在科技自立自强上取得更大进展，不断提升我国发展独立性、自主性、安全性”；', '深入实施新时代人才强军战略、科技强军战略，扭住能打仗、打胜仗这个强军之要深化国防和军队改革，开创新时代全民国防教育工作新局面；', '采取一系列强有力的反制措施，坚决捍卫国家主权和领土完整，有力打击外部势力干涉和“台独”分裂行径；', '习近平总书记强调：“无论国际风云如何变幻，我们都要坚定不移做好自己的事情，不断做强经济基础，增强科技创新能力，提升综合国力。”', '2022年4月26日，习近平总书记主持召开中央财经委员会第十一次会议，对全面加强基础设施建设作出重要战略部署，强调“优化基础设施布局、结构、功能和发展模式，构建现代化基础设施体系，为全面建设社会主义现代化国家打下坚实基础”。', '这一既利当前、又谋长远的战略部署，对保障国家安全，畅通国内大循环、促进国内国际双循环，推动高质量发展，意义重大。', '《中共中央 国务院关于加快建设全国统一大市场的意见》发布，以高水平社会主义市场经济体制的完善，进一步激发各类市场主体活力；贯彻落实《建设高标准市场体系行动方案》，破除妨碍生产要素市场化配置和商品服务流通的体制机制障碍；《扩大内需战略规划纲要（2022－2035年）》对实施扩大内需战略进行长远谋划……一个个重大战略、一项项重要谋划，疏通高质量发展的经脉。', '京津冀协同发展、长江经济带发展、粤港澳大湾区建设、长江三角洲区域一体化发展、黄河流域生态保护和高质量发展等区域重大战略稳步推进，筑牢区域协调发展的基石；21个自贸试验区覆盖东西南北中、海南自贸港扬帆起航，推动高水平对外开放蹄疾步稳……改革持续深化，积蓄发展动能、激活发展优势、释放发展潜力。', '“必须坚持人民至上”“江山就是人民，人民就是江山”……党的二十大报告将“坚持以人民为中心的发展思想”明确为必须牢牢把握的五条重大原则之一。', '“共产党就是给人民办事的，就是要让人民的生活一天天好起来，一年比一年过得好。”习近平总书记对民生改善始终念兹在兹。', '在2022年世界经济论坛视频会议演讲中，习近平总书记指出，“不论遇到什么困难，我们都要坚持以人民为中心的发展思想”。', '赴四川考察期间，习近平总书记殷殷叮嘱，“要高效做好统筹疫情防控和经济社会发展工作，坚决克服目前经济发展面临的一些困难，做好就业、社会保障、贫困群众帮扶等方面的工作”。', '在湖北武汉考察时，习近平总书记语重心长，“各级党委和政府要想办法帮助人民群众解决实际困难，确保经济发展和人民群众生产生活少受影响”。', '7月13日，走进新疆乌鲁木齐市天山区固原巷社区，习近平总书记看望银发耄耋老人，祝福他们“幸福生活日久天长”。一个多月后，到辽宁沈阳市皇姑区三台子街道牡丹社区，习近平总书记再次重点询问老人孩子的情况，强调“对老年人的服务要跟上”“对孩子们的养育和培养等工作要加强”。', '在四川考察时，习近平总书记专程来到宜宾学院，向教师、学生、企业负责人了解企业招工的需求和毕业生签约率等情况。', '“成绩殊为不易，值得倍加珍惜”。中央经济工作会议梳理了这极不平凡一年所取得的成就。', '2022年前11个月，全国城镇新增就业1145万人，完成1100万人的全年目标任务；规模以上工业增加值同比增长3.8％，货物进出口总额同比增长8.6％；在全球通胀压力高企的背景下，我国居民消费价格指数同比温和上涨2%；粮食产量连续8年保持在1.3万亿斤以上；预计全年经济总量超过120万亿元……就业稳、物价稳，粮食安全、能源安全和人民生活得到有效保障，经济社会大局保持稳定。', '壮丽神州大地：国产大飞机C919振翅蓝天，超9000米石油深井鸣笛开钻，中国空间站闪耀太空……', '最暖人间烟火：重大工程有序推进，工厂车间加快复工复产，港口码头吞吐不断，超市商场物丰价稳……岁末年初的中国，社会复苏，希望萌动。', '延安杨家岭，毛泽东同志旧居墙上，悬挂着一张已经发黄的照片。那是1945年夏，毛泽东到机场迎接前来考察的黄炎培一行。', '2022年10月27日，正在这里瞻仰革命圣地的习近平总书记走进窑洞，细致端详照片，思考着“窑洞对”提出的历史之问。', '延安时期，面对黄炎培提出的如何跳出“其兴也勃焉，其亡也忽焉”的历史周期率的问题，毛泽东给出了第一个答案，就是“让人民来监督政府”。', '党的十八大以来，以习近平同志为核心的党中央在全面从严治党实践中给出了第二个答案，这就是自我革命。', '2022年1月18日，十九届中央纪委六次全会上，习近平总书记深刻阐明“第一个答案”和“第二个答案”的内在统一：“一百年来，党外靠发展人民民主、接受人民监督，内靠全面从严治党、推进自我革命，勇于坚持真理、修正错误，勇于刀刃向内、刮骨疗毒，保证了党长盛不衰、不断发展壮大。”', '一年来，以习近平同志为核心的党中央以强烈的历史自觉、历史主动，持之以恒推进全面从严治党，深入推进新时代党的建设新的伟大工程，开辟百年大党自我革命新境界。', '2022年1月11日，中央党校（国家行政学院）礼堂。省部级主要领导干部学习贯彻党的十九届六中全会精神专题研讨班开班式举行。', '面对党内的“关键少数”，习近平总书记结合党的百年历史，深入阐述了五个问题，其中第一个，是推进马克思主义中国化时代化：', '“坚持用马克思主义之‘矢’去射新时代中国之‘的’，继续推进马克思主义基本原理同中国具体实际相结合、同中华优秀传统文化相结合”。', '9个多月后，河南安阳殷墟博物馆，习近平总书记仔细观摩青铜器、玉器、甲骨文等出土文物。', '“中华优秀传统文化是我们党创新理论的‘根’，我们推进马克思主义中国化时代化的根本途径是‘两个结合’。”习近平总书记一语中的。', '党的二十大报告就开辟马克思主义中国化时代化新境界提出一系列新思想新观点新要求，为我们党不断推进党的理论创新指明了方向。', '从“两个结合”到“六个坚持”，新时代中国共产党人深刻领会习近平新时代中国特色社会主义思想这一当代中国马克思主义、二十一世纪马克思主义，不断谱写马克思主义中国化时代化新篇章。', '2022年8月30日，人民大会堂。全国“人民满意的公务员”和“人民满意的公务员集体”表彰大会隆重举行，习近平总书记亲切会见受表彰代表。', '热烈的掌声中，总书记走到代表们中间，同大家亲切交流并合影留念，勉励他们牢记使命责任、勇于担当作为。', '这是首次以党中央、国务院名义开展全国“人民满意的公务员”和“人民满意的公务员集体”表彰。', '“全面建设社会主义现代化国家，必须有一支政治过硬、适应新时代要求、具备领导现代化建设能力的干部队伍。”习近平总书记强调。', '修订印发《推进领导干部能上能下规定》，着力解决干部不担当、不作为、乱作为等问题；切实抓好领导干部配偶、子女及其配偶经商办企业管理……党中央以高标准严要求锻造堪当时代重任的执政骨干队伍，凝聚干事创业正能量。', '“党没有自己的利益，党的领导干部更不应该有自己的私利”。2022年4月11日，海南五指山市水满乡毛纳村，面对围在身边的乡亲们，习近平总书记话语坚定。', '“必须始终保持正视问题的勇气和刀刃向内的坚定，坚决割除毒瘤、清除毒源、肃清流毒，以党永不变质确保红色江山永不变色。”', '2022年6月17日，十九届中共中央政治局就一体推进不敢腐、不能腐、不想腐进行第四十次集体学习。习近平总书记告诫全党，反腐败斗争“极其复杂、极其艰难，容不得丝毫退让妥协”。', '同一天，总书记主持召开中共中央政治局会议，审议《关于十九届中央第八轮巡视金融单位整改进展情况的报告》。这是中央政治局会议首次听取巡视整改情况汇报。', '一个多月后，随着十九届中央第九轮巡视完成对中央纪委国家监委机关、中共中央办公厅、中央组织部等单位的反馈，十九届中央巡视全覆盖任务圆满收官。', '“凸显了我们党勇于自我革命的鲜明品格，体现了党内监督无例外的坚定立场”。2022年7月28日，习近平总书记主持召开中央政治局会议，审议《关于十九届中央第九轮巡视情况的综合报告》。', '2022年，中央八项规定出台迎来十周年。以习近平同志为核心的党中央以上率下、正风肃纪，推进全党作风建设不松劲、不停步、再出发。', '党的二十大闭幕仅3天，习近平总书记主持召开中央政治局会议，研究部署学习宣传贯彻党的二十大精神。', '“加固中央八项规定的堤坝，锲而不舍纠‘四风’树新风。”一年来，广大党员严守纪律红线，带头践行新风正气，带动全社会敦风化俗。', '“四大考验”“四种危险”将长期存在。党的二十大上，习近平总书记向全党发出号召，全面从严治党永远在路上，党的自我革命永远在路上，决不能有松劲歇脚、疲劳厌战的情绪。', '“我们党作为世界上最大的马克思主义执政党，要始终赢得人民拥护、巩固长期执政地位，必须时刻保持解决大党独有难题的清醒和坚定。”', '立心铸魂、强基固本、激浊扬清……党的自我净化、自我完善、自我革新、自我提高能力显著增强，不断焕发生机活力，始终成为中国特色社会主义事业的坚强领导核心。', '展板上一幅幅照片，展现着这里的旧貌新颜。近年来，经过改造，这个居住着3000多户居民的典型老旧小区，已成为远近闻名的基层治理示范社区。', '“我们党是为人民服务、为人民造福的党。把老百姓关心的事一件件办好，是共产党人的共同心愿。”习近平总书记的话语饱含深情，“社区党组织要牢记党的宗旨，加强和改进社区工作，要让老百姓体会到，中国共产党是全心全意为人民服务的，党始终在人民身边。”', '在新疆考察期间，强调要坚决贯彻党中央决策部署，完整准确贯彻新时代党的治疆方略；庆祝中国共产主义青年团成立100周年大会上，寄望共青团始终成为紧跟党走在时代前列的先进组织；在给中国国家博物馆老专家的回信中，号召大家坚持正确政治方向……习近平总书记旗帜鲜明坚持和加强党的全面领导，党总揽全局、协调各方的领导核心作用充分发挥，为新时代新征程党和国家事业发展提供根本保证。', '踏上新的赶考之路，走过百年奋斗历程的中国共产党在革命性锻造中更加坚强有力，正团结带领亿万人民向着实现第二个百年奋斗目标勇毅前行。', '2022年10月23日，习近平总书记当选连任后首次同中外记者见面时的论断，既是对历史的深刻总结，更是对未来的郑重宣示。', '四季交替中，总有一种洞见穿越时空。时光，镌刻下现代化征程上东方大国的奋进步伐，也见证着中国特色大国外交绘就波澜壮阔的前行图景。', '2022年2月初，北京冬奥会开幕的日子里，习近平主席迎来一位又一位国际贵宾。会见联合国秘书长古特雷斯，习近平主席以“船”为喻，分享对世界大势的看法：', '“面对各种紧迫全球性挑战，加强团结合作，共同坐上新时代的‘诺亚方舟’，人类才会有更加美好的明天。”', '“船”之喻，在这两位老朋友11月于印尼巴厘岛的会面中再次提及。谈到上次见面后世界上“又发生了不少事情”，习近平主席的话意味深长：', '“我们必须以人类前途命运为重，同舟共济，共克时艰”“我坚信，和平、发展、合作、共赢的历史潮流仍然不可阻挡，人类的前途是光明的”。', '新冠疫情反复延宕，地缘政治局势紧张，经济复苏困顿乏力，粮食、能源等多重危机凸显……回望变乱交织的这一年，“人类向何处去”的未来之问，从未如此迫切。', '“冲出迷雾走向光明，最强大的力量是同心合力，最有效的方法是和衷共济”“团结就是力量，分裂没有出路”……统筹国内国际两个大局、着眼全人类共同利益，习近平主席高高举起人类命运共同体旗帜，为动荡变革的世界不断注入信心与力量——', '领导中国成功举办北京冬奥会、冬残奥会，向各国人民发出“一起向未来”的热情呼唤；在博鳌亚洲论坛首次提出全球安全倡议，为弥补安全赤字贡献国际公共产品，得到70多个国家赞赏支持；着眼人类永续发展，呼吁共建地球生命共同体，推动《生物多样性公约》第十五次缔约方大会取得里程碑式成果……', '6月下旬，习近平主席在金砖国家领导人会晤期间主持首次全球发展高层对话会，吸引众多新兴市场国家和发展中国家参与。会上，习近平主席宣布一系列落实全球发展倡议、推进2030年可持续发展议程的重大举措，受到与会各方热情称赞。', '不到5个月后，北京钓鱼台国宾馆。密集的快门声中，全球发展促进中心正式揭牌。推动中国国际发展合作统筹资源、协调行动，有了一个重要平台。', '面对全球发展事业遭遇前所未有的逆风，习近平主席推动将各国发展尤其是发展中国家发展放在突出位置，为共创普惠平衡、协调包容、合作共赢、共同繁荣的发展格局汇聚更多共识、凝聚更大合力。100多个国家和包括联合国在内多个国际组织支持倡议，近70个国家加入“全球发展倡议之友小组”。', '以人民之心为心，以天下之利为利。在习近平主席亲自引领推动下，中国坚定传递“以自身新发展为世界提供新机遇”的诚意决心——', '连续多年举办进博会、广交会、服贸会、消博会，一场场中国搭台的“东方之约”，践行“开放的大门将越开越大”的坚定诺言；', '从推动持续放宽外资准入、不断改善营商环境，到高质量实施《区域全面经济伙伴关系协定》、积极推进加入《全面与进步跨太平洋伙伴关系协定》，在做好自身发展“答卷”的同时，激活世界经济的一池春水；', '从中欧班列开行数量再创新高，到匈塞铁路、克罗地亚跨海大桥有效改善当地交通，源自中国、惠及世界的“一带一路”合作捷报频传，为实现发展大联动、成果大共享注入强大动力；', '在中国式现代化道路上阔步前行的中国，始终把自身发展置于人类发展的宏阔坐标系中，始终把中国人民利益同各国人民共同利益结合起来。', '党的二十大闭幕后不久，10月30日至11月4日，一周之内，越南、巴基斯坦、坦桑尼亚、德国四国领导人接踵访华。欢迎仪式、会见会谈、见证合作文件签署……一系列外事活动密集进行。天安门广场上，人们听到了久违的21响礼炮声。', '而在党的二十大开幕前一个月，习近平主席赴哈萨克斯坦、乌兹别克斯坦，新冠疫情以来首次出访取得圆满成功。', '“推动构建新型国际关系，深化拓展平等、开放、合作的全球伙伴关系，致力于扩大同各国利益的汇合点”——在党的二十大报告中，人们读懂了新征程上中国外交谋篇布局的现实逻辑。', '这一年，中美元首实现三年来首次线下会晤；中俄元首以多种方式保持沟通；中欧领导人频密通话和会晤；周边命运共同体建设迈出坚实步伐；与发展中国家真实亲诚的团结合作扎实推进……中国全方位、多层次、立体化的外交布局愈发成熟完善。', '一年来，习近平主席出席2022年世界经济论坛视频会议、上海合作组织撒马尔罕峰会、二十国集团巴厘岛峰会、亚太经合组织曼谷会议等多场重要多边外交活动，3次出访国外，与各国朋友以电话、视频、信函等方式密切联系……一次次微笑握手、一番番坦诚交流，彰显新时代中国自信从容的气度、海纳百川的胸怀，也让世界深刻感知：中国是胸怀天下的中国，是维护世界和平、促进共同发展的进步力量。', '广交天下朋友、共行天下大道。一个可信、可爱、可敬的中国，赢得越来越多理解、尊重与支持。', '12月初，沙漠绿洲利雅得，迎来期盼已久的喜雨。习近平主席抵达这里，出席首届中国－阿拉伯国家峰会、首届中国－海湾阿拉伯国家合作委员会峰会并对沙特进行国事访问，受到东道国最高礼遇欢迎。', '这是新中国成立以来我国对阿拉伯世界规模最大、规格最高的外交行动。观察人士评论称，面对国际风云变幻，阿拉伯国家同中国团结协作、携手同行，根本就在于中国对待阿拉伯国家“真心实意、客观公正”，在于中国外交“天下为公”的价值取向。', '不畏霸权霸道霸凌，在台湾、涉疆、涉港、涉藏等问题上坚决捍卫国家主权、安全、发展利益；秉持公道正义，为推动乌克兰危机和阿富汗、巴勒斯坦等热点问题解决发挥建设性作用；在“文明冲突”的喧嚣鼓噪中，倡导守护世界文明多样性，弘扬全人类共同价值，尊重各国人民自主选择发展道路的权利……', '站在历史正确一边、站在人类文明进步一边。在同世界相互交融、相互成就的奋斗史诗中，中国世界和平建设者、全球发展贡献者、国际秩序维护者的形象愈发鲜明。人们从中国声音、更从中国行动中真切感悟：中国式现代化不是传统大国崛起的翻版，更不是国强必霸的再版，而是造福中国、利好世界的正道。', '“我们所处的是一个充满挑战的时代，也是一个充满希望的时代。”习近平总书记坚定有力的话语，展现着一个阔步迈向世界舞台中央大国的担当与情怀，“中国人民愿同世界人民携手开创人类更加美好的未来！”', '我们坚信，在以习近平同志为核心的党中央坚强领导下，全党全军全国各族人民坚定信心、同心同德，向着全面建成社会主义现代化强国、全面推进中华民族伟大复兴的光辉彼岸进发，必将以新的伟大奋斗创造新的伟业！（记者 霍小光、张旭东、张晓松、赵超、杨依军、胡浩、安蓓、张辛欣、丁小溪、王宾）']</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A190" t="n">
+        <v>25</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
           <t>土默特左旗人民政府办公室关于印发关于深入开展法治宣传教育的第七个五年规划年的通知</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>2018-12-13</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/hhht_zfgb/tmtzq/2017/11/201812/t20181213_369910.html</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>['土默特左旗人民政府办公室 关于印发《关于深入开展法治宣传教育的第七个五年规划（2016—2020年）》的通知', '经旗人民政府同意，现将《关于深入开展法治宣传教育的第七个五年规划（2016—2020年）》印发给你们，请结合实际，认真贯彻落实。', '在旗委、旗政府的正确领导下，全旗顺利组织实施了《关于深入开展法治宣传教育推进法治土默特左旗建设的第六个五年规划（2011—2015年）》，普法依法治理工作取得明显成效。以宪法和民族区域自治法为核心的法律法规得到进一步普及，公民的法律素质得到进一步提升，领导干部和公职人员依法决策、依法管理能力得到进一步提高，“六五”普法依法治理规划各项任务圆满完成，法治宣传教育在依法治旗中发挥了重要作用，为促进土左旗经济社会发展营造了良好的法治环境。', '党的十八大以来，以习近平同志为核心的党中央对全面依法治国作出了重要部署，对法治宣传教育提出了新的更高的要求，明确了法治宣传教育的基本定位、重大任务和重要措施。十八届三中全会要求“健全社会普法教育机制”；十八届四中全会要求“坚持把全民普法和守法作为依法治国的长期基础性工作，深入开展法治宣传教育”；十八届五中全会要求“弘扬社会主义法治精神，增强全社会特别是公职人员尊法学法守法用法观念，在全社会形成良好法治氛围和法治习惯”。习近平总书记多次强调：“领导干部要做尊法学法守法用法的模范”，要求法治宣传教育“要创新宣传形式，注重宣传实效”，为法治宣传教育工作指明了方向，提供了基本遵循。为做好第七个五年法治宣传教育工作，根据《中共中央、国务院转发&lt;中央宣传部、司法部关于在公民中开展法治宣传教育的第七个五年规划（2016—2020年）&gt;的通知》（中发[2016]11号）、《内蒙古自治区党委、自治区人民政府转发&lt;自治区党委宣传部、司法厅关于深入开展法治宣传教育的第七个五年规划（2016—2020年）&gt;的通知》（内党发[2016]15号）、《中共呼和浩特市委、呼和浩特市人民政府转发&lt;市委宣传部、市司法局关于深入开展法治宣传教育的第七个五年规划（2016—2020年）&gt;的通知》（呼党发[2016]14号），结合我旗实际，制定本规划。', '高举中国特色社会主义伟大旗帜，全面贯彻党的十八大和十八届三中、四中、五中、六中全会精神，以马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想和科学发展观为指导，深入贯彻习近平总书记系列重要讲话精神，坚持党的领导、人民当家作主、依法治国有机统一，坚定不移走中国特色社会主义法治道路，坚持“四个全面”战略布局，坚持创新、协调、绿色、开放、共享的发展理念，紧紧围绕我旗“十三五”时期经济社会发展的目标任务和推进依法治旗的总体部署，深入开展法治宣传教育，弘扬社会主义法治精神，建设社会主义法治文化，扎实推进依法治理和法治创建，推进法治宣传教育与法治实践相结合，健全普法宣传教育机制，充分发挥法治宣传教育在全面依法治旗中的基础作用，推动全社会树立法治意识，为土左旗全面建成小康社会提供有力的法治保障。', '宪法、民族区域自治法及相关法律和党内法规制度得到深入宣传，全民法治观念和全体党员党章、党规意识明显提高；普法宣传教育机制进一步健全，法治宣传教育实效性进一步提高，依法治理进一步深化，法治队伍建设进一步加强，依法行政、公正司法助推法治宣传教育效果明显增强，全社会厉行法治的积极性和主动性明显提高，形成守法光荣、违法可耻的社会氛围。', '1、坚持围绕中心、服务大局。围绕自治区及我旗中心工作开展法治宣传教育，更好地服务协调推进“四个全面”战略布局，为全面实施国民经济和社会发展“十三五”规划营造良好法治环境。', '2、坚持依靠群众、服务群众。以满足群众不断增长的法治需求为出发点和落脚点，深入开展群众喜闻乐见、易于接受的法治宣传教育，增强全旗各族人民尊法、学法、守法、用法意识，使国家法律和党内法规为党员群众所掌握、所遵守、所运用。', '3、坚持学用结合、普治并举。坚持法治宣传教育与依法治理有机结合，把法治宣传教育融入执法、司法、法律服务、矛盾纠纷化解和党内法规建设活动中，引导党员群众在法治实践中自觉学习、运用国家法律和党内法规，提升法治素养。', '4、坚持分类指导、突出重点。根据不同地区、部门、行业及不同对象的实际和特点，分类实施法治宣传教育。突出抓好重点对象，带动和促进全民普法。', '5、坚持创新发展、注重实效。总结运用法治建设的成功经验，把握规律，立足实际，推动法治宣传教育工作理念、机制、载体和方式方法创新，在法治理念“固化升级”、法治宣传“转型升级”、法治创建“优化升级”、法治文化“提档升级”、载体平台“换代升级”上下功夫，不断提高法治宣传教育的针对性和实效性，力戒形式主义，努力推动普法依法治理工作不断迈上新台阶。', '(一)深入学习宣传习近平总书记关于全面依法治国的重要论述。党的十八大以来，习近平总书记站在坚持和发展中国特色社会主义全局的高度，对全面依法治国作了重要论述，提出了一系列新思想、新观点、新论断、新要求，深刻回答了建设社会主义法治国家的重大理论和实践问题，为全面依法治国提供了科学理论指导和行动指南。要深入学习宣传习近平总书记关于全面依法治国的重要论述，增强走中国特色社会主义道路的自觉性和坚定性，增强全社会厉行法治的积极性和主动性。深入学习宣传以习近平同志为核心的党中央关于全面依法治国的重要部署，宣传严格执法、公正司法、全民守法和党内法规建设的生动实践，使全社会了解和掌握全面依法治国的重大意义和总体要求，更好地发挥法治的引领和规范作用。', '（二）突出学习宣传宪法、民族区域自治法。坚持把学习宣传宪法摆在首要位置，在全社会普遍开展宪法教育、弘扬宪法精神、树立宪法权威。深入宣传依宪治国、依宪执政等理念，宣传党的领导是宪法实施的最根本保证，宣传宪法确立的国家根本制度、根本任务和我国的国体、政体，宣传公民的基本权利和义务等宪法基本内容，宣传宪法的实施，实行宪法宣誓制度，举办国家机关工作人员向宪法宣誓活动，进一步增强国家机关工作人员的宪法意识。认真组织好“12·4”国家宪法日和每年12月“宪法宣传月”集中宣传活动，开展宪法法律知识竞赛活动，推动宪法家喻户晓、深入人心，提高全体公民特别是各级领导干部和国家机关工作人员的宪法意识，教育引导一切组织和个人都必须以宪法为根本活动准则，增强宪法观念，坚决维护宪法尊严。立足民族地区实际，大力宣传党的民族、宗教政策和相关法律法规，进一步加大民族区域自治法的学习宣传力度，切实增强遵守和运用民族区域自治法的自觉性，维护民族地区繁荣稳定，促进民族关系、宗教关系和谐。', '(三)深入宣传中国特色社会主义法律体系。坚持把宣传以宪法为核心的中国特色社会主义法律体系作为法治宣传教育的基本任务，大力宣传宪法相关法、民法商法、行政法、经济法、社会法、刑法、诉讼与非诉讼程序法等多个法律部门的法律法规。大力宣传社会主义民主政治建设的法律法规，提高人民有序参与民主政治的意识和水平。大力宣传保障公民基本权利的法律法规，推动全社会树立尊重和保障人权意识，促进公民权利保障法治化。大力宣传依法行政领域的法律法规，推动各级行政机关树立“法定职责必须为、法无授权不可为”的意识，促进法治政府建设。大力宣传市场经济领域的法律法规，推动全社会树立保护产权、平等交换、公平竞争、诚实信用等意识，促进大众创业、万众创新，促进经济在新常态下平稳健康运行。大力宣传农村基本经营制度、土地承包经营权流转等方面的法律法规，维护农民群众合法权益。大力宣传有利于激发文化创造活力、保障人民基本文化权益的相关法律法规，促进社会主义精神文明建设。大力宣传教育、就业、收入分配、社会保障、医疗卫生、食品安全、扶贫、慈善、社会救助和妇女儿童、老年人、残疾人合法权益保护等方面法律法规，促进保障和改善民生。大力宣传国家安全和公共安全领域的法律法规，提高全民安全意识、风险意识和预防能力。大力宣传国防法律法规，提高全民国防观念，促进国防建设。大力宣传环境保护、资源能源节约利用等方面的法律法规，推动生态建设。大力宣传互联网领域的法律法规，教育引导网民依法规范网络行为，促进形成网络空间良好秩序。大力宣传诉讼、行政复议、仲裁、调解、信访等方面的法律法规，引导群众依法表达诉求、维护权利，促进社会和谐稳定。在传播法律知识的同时，更加注重弘扬法治精神、培育法治理念、树立法治意识，大力宣传宪法法律至上、法律面前人人平等、权由法定、权依法使等基本法治理念，破除“法不责众”、“人情大于国法”等错误认识，引导全民自觉守法、遇事找法、解决问题靠法。', '(四)深入学习宣传党内法规。适应全面从严治党、依规治党新形势、新要求，切实加大党内法规宣传力度。突出宣传党章，教育引导广大党员尊崇党章，以党章为根本遵循，坚决维护党章权威。大力宣传《中国共产党廉洁自律准则》、《中国共产党纪律处分条例》等各项党内法规，注重党内法规宣传与国家法律宣传的衔接和协调，坚持纪在法前、纪严于法，把纪律和规矩挺在前面，教育引导广大党员做党章、党规、党纪和国家法律的自觉尊崇者、模范遵守者、坚定捍卫者。', '（五）推进社会主义法治文化建设。以宣传法律知识、弘扬法治精神、推动法治实践为主旨，积极推进社会主义法治文化建设，将法治文化建设纳入现代公共文化服务体系，促进法治文化与民族文化、地方文化、行业文化、企业文化融合发展，充分发挥法治文化的引领、熏陶作用，使人民内心真诚拥护和信仰法律。繁荣法治文化作品创作推广，把法治文化作品纳入各级文化作品评奖内容，纳入艺术、出版扶持和奖励基金内容，培育法治文化精品。组织开展法治文艺演出、法治公益广告、法治微电影等法治专题创作、宣传活动，满足人民群众日益增长的法治文化需求。加强法治文化公共设施建设，把法治文化元素纳入城乡建设规划设计，因地制宜建设法治文化广场、法治文化公园、法治文化长廊等阵地，有条件的地方建设宪法法律教育中心。五年内，实现普法学法大讲堂、法律图书角在各乡镇全覆盖，普法宣传栏在村（社区）全覆盖。积极利用公共场所的电子显示屏推送法治宣传教育内容。', '（六）推进多层次多领域依法治理。深入推进法治旗、乡镇和“民主法治示范村（社区）”创建活动，深入开展全市“十佳法治人物”参选活动，建立健全创建工作标准和评价指标体系，依据有关规定开展创建工作先进单位评比活动。五年内，全旗60%的乡镇和50%的村（社区）达到自治区创建标准。积极开展“依法治校示范校”、“诚信守法示范企业”等法治创建活动，深入推进依法治理。', '(七)推进法治教育与道德教育相结合。坚持依法治国和以德治国相结合的基本原则，一手抓法治、一手抓德治，以法治体现道德理念，以道德滋养法治精神，促进实现法律和道德相辅相成、法治和德治相得益彰。大力弘扬社会主义核心价值观，弘扬中华传统美德，培育社会公德、职业道德、家庭美德、个人品德，提高全民族思想道德水平，为全面依法治国创造良好人文环境。强化规则意识，倡导契约精神，弘扬公序良俗，引导人们自觉履行法定义务、社会责任、家庭责任。发挥法治在解决道德领域突出问题中的作用，建立健全政务诚信、商务诚信、社会诚信和司法公信等社会征信体系和工作机制，健全公民和组织守法信用记录，完善守法诚信褒奖机制和违法失信行为惩戒机制。', '（八）推进法治土左旗建设。法治宣传教育是全面推进法治土左旗建设的基础性工程，是传播法律知识、培育法治信仰、弘扬法治精神的重要载体，也是提高全社会法治化管理水平的前提和保障。', '1、坚持法治宣传教育与依法行政相结合。各级政府及其部门要依法全面履行政府职能，坚持法定职责必须为、法无授权不可为，将依法行政与法治宣传有机结合，让依法行政的过程成为最好的普法过程，在依法行政工作中更好地践行法律、宣传法律。健全和完善重大行政决策规则和程序，深入开展法治宣传教育，引导群众积极参与重大行政决策。旗、乡镇两级政府及其组成部门要普遍建立法律顾问制度，组建以政府法制机构人员为主体、吸收法学专家和律师参加的法律顾问队伍，保证法律顾问在制定重大行政决策、推进依法行政中发挥重要作用。加强行政执法案例整理编辑工作，推动相关部门面向社会公众建立行政执法典型案例发布制度。', '2、坚持法治宣传教育与公正司法相结合。将严格公正司法的过程作为最好的普法过程，不断完善司法管理体制和司法权力运行机制，规范司法行为，加强对司法活动的监督，努力让人民群众在每一个司法案件中感受到公平正义。通过做好庭审公开、检务公开、文书说理、案例发布等工作，建立法官、检察官、行政执法人员、律师等以案释法制度。依法及时公开司法依据、程序、流程、结果和生效法律文书，通过司法实践教育引导，使群众信仰法律、遵守法律、崇尚法律。加快推进司法公开，探索构建开放、动态、透明、便民的阳光司法机制。', '3、坚持法治宣传教育与多元矛盾纠纷排查化解相结合。坚持在“调解中普法、普法中调解”的工作模式，将普法贯穿于调解的始终，让群众了解法律、遵守法律，依法理性表达利益诉求。紧紧围绕群众生产生活常见多发的矛盾纠纷，有针对性地开展法律宣传，从源头上解决影响社会和谐稳定的问题，有效预防和化解矛盾纠纷的发生。', '4、坚持法治宣传教育与法律服务相结合。加强公共法律服务平台建设，将提供优质法律服务的过程作为普法过程，推动法治宣传教育融入公共法律服务体系，不断健全工作制度，加强队伍建设，提高服务质量，满足广大群众的法律需求。整合司法行政法律服务中心、司法所、法务室等法律服务资源，推动建设市、旗县区、乡镇（街道）、村（社区）四级公共法律服务体系，努力实现法律服务全覆盖。', '法治宣传教育的对象是一切有接受教育能力的公民，重点是领导干部、青少年和农村“两委”班子成员。', '（一）坚持把领导干部带头学法、模范守法作为树立法治意识的关键。完善国家工作人员学法用法制度，把国家工作人员学法用法纳入各地区、各部门、各单位年度实绩考核中，将宪法法律和党内法规列入党委(党组)中心组学习内容,列为党校必修课,切实提高领导干部运用法治思维和法治方式深化改革、推动发展、化解矛盾、维护稳定的能力，切实增强国家工作人员自觉守法、依法办事的意识和能力。党委(党组)书记认真履行推进法治建设第一责任人职责,带头讲法治课,做学法表率。把法治教育纳入干部教育培训总体规划，纳入国家工作人员初任培训、任职培训的必训内容，在其他各类培训课程中融入法治教育内容，保证法治培训课时数量和培训质量。组织开展国家工作人员法律知识年度考试，贯彻执行国家工作人员任职法律考试制度，推动以考促学、以考促用。建立和完善国家工作人员学法考勤、学法档案、学法情况通报等制度。领导班子和领导干部在年度考核述职中要围绕法治学习、重大事项依法决策、依法履职情况等进行述法。把法治观念、法治素养作为衡量干部德才的重要内容,把能不能遵守法律、依法办事作为考察干部的重要依据。加强党章和党内法规学习教育，引导党员领导干部增强党章党规党纪意识，严守政治纪律和政治规矩，在廉洁自律上追求高标准，自觉远离违纪红线。', '（二）坚持把尊法、学法、守法、用法作为青少年树立法治理念的基础。切实把法治教育纳入国民教育体系，依法治教，认真组织实施青少年法治教育大纲，在中小学设立法治知识课程并将法治教育纳入教学计划，法律知识课每周不低于1课时，确保在校学生都能得到基本法治知识教育。在小学普及宪法基本常识，在中考中增加法治知识内容，使青少年从小树立宪法意识和国家意识。坚持法治副校长、法治辅导员制度，加强法治课教师、分管法治教育副校长、法治辅导员培训。充分利用主题教育、校园文化、党团队活动、学生社团活动、社会实践活动等多种载体，开展青少年法治教育，在开学第一课、毕业仪式中有机融入法治教育内容。加强校园文化建设，在校园建设中主动融入法治元素。在全旗中小学开展“校园法苑”创建活动，充分利用宣传栏、招贴画、名言警句等校园文化载体宣传法律知识。强化学校、家庭、社会“三位一体”的青少年法治教育格局，加强青少年法治教育实践基地建设和网络建设，到2020年至少建立一个较为完善的青少年法治教育实践基地。', '（三）坚持把农村“两委”班子成员学法用法作为基层法治建设的抓手。立足于促进农业现代化发展和农民增收、维护农村和谐稳定的工作大局，切实加强农村“两委”班子成员学法用法，为社会主义新农村建设营造浓厚的法治氛围。“两委”班子成员要严格遵守宪法、法律、法规和国家政策，认真组织实施村民自治章程、村规民约，执行村民会议、村民代表会议的决定、决议，接受村民监督。加强农村“两委”班子成员法律知识培训，围绕农村、牧区多发性的土地使用、婚姻家庭、邻里纠纷、民间借贷、农民工维权等热点难点问题，重点培训《村民委员会组织法》、《婚姻法》、《土地承包法》、《人民调解法》、《治安管理处罚法》等常用法律法规，让他们成为学法用法带头人。注重提高农村“两委”班子成员依法化解矛盾的能力，强化法治意识，依法维护农民合法权益。', '各单位各部门要根据实际需要，从不同群体的特点出发，因地制宜开展特色鲜明的法治宣传教育。突出加强对企业经营管理人员的法治宣传教育，提高依法经营、依法管理能力。加强对农民、居民、流动人口等群体的法治宣传教育，帮助、引导他们依法维权，自觉运用法律手段解决矛盾纠纷。', '第七个法治宣传教育五年规划从2016年开始实施，至2020年结束。各地区、各部门、各单位要深入宣传发动，根据工作实际制定法治宣传教育规划，确保“七五普法”各项目标任务落到实处。', '（一）健全普法宣传教育机制。各级党委、政府要加强对普法工作的领导，宣传、司法、文广、教育部门和人民团体要在普法教育中发挥职能作用。把法治教育纳入精神文明创建内容，开展群众性法治文化活动。人民团体、社会组织要在法治宣传教育中发挥积极作用，健全完善普法协调协作机制，根据各自特点和实际需要，有针对性地组织开展法治宣传教育活动。积极动员社会力量开展法治宣传教育，加强普法讲师团建设，成立各级普法讲师团，选聘优秀法律人才和精通党内法规的人才充实普法讲师团队伍。鼓励引导司法和行政执法人员、法律服务人员加入普法志愿者队伍，畅通志愿者服务渠道，健全完善管理制度，按照分层管理、分级培训的原则，对普法志愿者开展法治讲座、法治论坛、普法学法大讲堂等形式的专业知识培训，培育、打造一批普法志愿者优秀团队和品牌活动，提高志愿者普法宣传的能力和水平。加强工作考核评估，建立健全法治宣传教育工作考评指导标准和指标体系，完善考核办法和机制，注重考核结果的运用。健全激励机制，认真开展“七五”普法中期检查和总结验收，认真开展每年7月的“法治宣传月”活动，依据有关规定开展法治宣传教育先进集体、先进个人表彰工作。建立工作机制，丰富宣传内容，增强宣传实效，每年7月、12月份别开展“法制宣传月”和“宪法宣传月”活动。', '（二）健全普法责任制。实行国家机关“谁执法、谁普法”责任制，建立普法责任清单制度。在执法司法实践中广泛开展以案释法和警示教育，使案件审判、行政执法、纠纷调解和法律服务的过程成为向群众弘扬法治精神的过程。加强司法、行政执法案例整理编辑工作，推动相关部门面向社会公众建立司法、行政执法典型案例发布制度。落实“谁主管、谁负责”的普法责任，各行业、单位要在管理、服务过程中，结合行业特点和特定群体的法律需求，开展法治宣传教育，宣传方式要喜闻乐见,宣传效果要富有实效。健全媒体公益普法制度，广播电视、报纸期刊、互联网和手机媒体等大众传媒要自觉履行普法责任,在重要版面、重要时段制作刊播普法公益广告,开设法治讲堂,针对社会热点和典型案(事)例开展及时、权威的法律解读,积极引导社会法治风尚。报纸年度刊发公益普法广告的版面，不少于全年公益广告刊发版面的10%。广播、电视年度播出公益普法广告的时长，原则上不少于全年公益广告播出时长的10%。各级、各类媒体所属网站年度刊发公益普法广告的版面，要占到全年公益广告刊发版面的10%。各级党组织要坚持全面从严治党、依规治党，切实履行学习宣传党内法规的职责，把党内法规作为学习型党组织建设的重要内容，充分发挥正面典型倡导和反面案例警示作用，为党内法规的贯彻实施营造良好氛围。', '（三）推进法治宣传教育工作创新。坚持集中宣传与日常宣传相结合，传统媒体宣传与新兴媒体宣传相结合，进一步扩大法治宣传教育覆盖面。针对不同对象，分类施教，跳出灌输式、说教式、条文式的普法模式，加强普法的针对性。积极运用车站、商场、金融机构等公共活动场所的电子显示屏，推送法治宣传教育内容。充分利用报刊、电视台、微博、微信、QQ群、手机移动客户端和网络等宣传载体，大力宣传我旗法治文化建设，宣传“谁执法、谁普法”工作成效，不断丰富法治元素，讲好法治故事，传播法治声音。推动建立普法宣传目标管理机制、社会联动机制、分析研判机制、考核评估机制和媒体公益普法宣传机制，实现法治宣传教育工作规范化、制度化、常态化。创新普法载体。充分运用互联网传播平台，加强新媒体、新技术在法治宣传教育中的广泛运用，推进“互联网+法治宣传”行动，实现法治宣传教育资源开放和共享。深入推进法律进机关、进乡村、进社区、进学校、进企业、进单位的“法律六进”主题活动，延伸法律服务触角，推动法律进军营、进非公企业、进工地，形成扎根基层、机制完善、协同有力的法治宣传教育覆盖体系。不断创新“法律六进”形式，固化“法律六进”阵地，丰富“法律六进”载体。采取“项目化推进、实体化运作、实效化考核”的“法律六进”模式，逐步在不同领域、不同层面形成工作品牌，推进“法律六进”工作创新发展。落实“法律六进”责任制，采取网格化的方式，划分责任区、落实责任人，将“法律六进”内容、效果落到实处。积极组织开展观摩交流活动，增强“法律六进”活动文化底蕴，全面提升“法律六进”活动水平。', '（一）切实加强领导。进一步完善党委领导、人大监督、政府实施的法治宣传教育领导体制。各级党委、政府要把法治宣传教育纳入当地经济社会发展规划，定期听取法治宣传教育工作情况汇报，及时研究解决法治建设的重大问题，把法治宣传教育纳入综合绩效考核、综治考核和文明创建考核内容。加强法治宣传教育工作组织机构建设，落实由“一把手”任组长的依法治旗领导小组，调整充实成员单位，明确成员单位职责。人大要加强对法治宣传教育工作的日常监督和专项检查。政协要注重发挥在法治宣传教育工作中调研指导和建言献策作用。', '（二）加强工作指导。各级法治宣传教育领导小组每年要将法治宣传教育工作情况向党委(党组)报告，并报上级法治宣传教育工作领导小组。加强沟通协调，充分调动各相关部门的积极性，发挥各自优势，形成推进法治宣传教育工作创新发展的合力。结合各地区各部门工作实际，分析不同地区、不同对象的法律需求，区别对待、分类指导，不断增强法治宣传教育的针对性。坚持问题导向，深入基层、深入群众调查研究，积极解决问题，努力推进工作。认真总结推广各地区各部门各单位开展法治宣传教育的好经验、好做法，充分发挥先进典型的示范和引领作用，推进法治宣传教育不断深入。', '(三)加强法治队伍建设。全面加强专职、兼职和志愿者队伍建设，建立健全业务学习培训和交流制度，提高专、兼职工作人员的政治业务素质和职业道德水准，推进法治宣传教育队伍正规化、专业化、职业化，为建设法治土左旗提供组织和人才保障。高度重视基层法治宣传教育队伍建设，切实解决人员配备、基本待遇、工作条件等方面的实际问题。加强少数民族法律人才、尤其是蒙汉双语人才培养，研究制定双语法治人才培养中长期规划，完善少数民族法治宣传教育人才引进、培养、使用和管理制度。', '（四）加强经费保障。各级政府要将法治宣传教育经费纳入本级财政预算，切实予以保障，并根据本地区经济社会发展水平，建立动态调整机制。各部门、行业和单位要统筹安排必要的经费，保证法治宣传教育工作正常开展。各级政府要把法治宣传教育列入政府购买服务指导性目录，积极利用社会资金开展法治宣传教育。']</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A191" t="n">
+        <v>25</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
           <t>呼和浩特市教育局关于印发呼和浩特市初中学业水平考试与高中阶段学校考试招生制度改革实施细则的通知</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>2024-04-12</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/hhht_zfgb/hhht/2014/dyq/202404/t20240412_1685483.html</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>['呼和浩特市教育局 关于印发《呼和浩特市初中学业水平考试 与高中阶段学校考试招生制度改革 实施细则》的通知', '为深入落实《内蒙古自治区深化高中阶段学校考试招生制度改革实施方案》（内教发〔2022〕9号），进一步深化全市高中阶段学校考试招生制度改革，推进全市基础教育高质量体系建设，结合我市实际，制定本实施细则。', '号），进一步深化全市高中阶段学校考试招生制度改革，推进全市基础教育高质量体系建设，结合我市实际，制定本实施细则。', '以习近平新时代中国特色社会主义思想为指导，全面贯彻新时代党的教育方针，落实立德树人根本任务，深化高中阶段学校考试招生制度改革。', '坚持五育并举，遵循教育教学和学生身心发展规律，发展素质教育，深化课程改革，落实“双减”要求，完善德智体美劳全面育人体系。坚持公平公正，完善评价标准，规范评价程序，持续推行“阳光招生”，切实保障考试招生机会公平、程序公开、结果公正，建立完善科学合理、客观公正、组织规范、监督有力、保障到位的高中阶段学校考试招生制度。坚持分级管理，在自治区统筹管理下，以市为主实施，各旗县区协同推进，在报名、考试、招生、录取等各个环节各负其责，有序衔接。坚持综合协调，统筹推进考试科目设置、组织实施、录取方式和综合素质评价等改革；协同推进课程、教学、考试、招生、师资等各环节配套改革，促进义务教育、普通高中教育、中等职业教育协调发展。', '逐步形成体现科学教育质量观，以初中学业水平考试成绩和学生综合素质评价结果为依据的高中阶段学校考试招生录取模式。', '初中学业水平考试既是衡量学生达到国家规定学习要求、完成九年义务教育的终结性考试，又是高中阶段学校的招生考试。初中学业水平考试实行“两考合一、一考多用”，考试结果是初中学生毕业和升学的基本依据。初中学生毕业须参加初中学业水平考试。', '具有本市学籍的八年级、九年级学生（九年级学生学籍须在九年级第二学期开始前转入）和本市户籍在外就读的八年级、九年级学生。高中阶段学校在校学生（含休学学生）不得报名参加考试。', '地理和少数民族语文等科目采用纸笔考试的方式；物理、化学、生物学科目采用纸笔考试与实验操作相结合的方式；体育与健康科目包含体育与健康知识、日常参与情况、《国家学生体质健康标准》测试和专项运动技能测试等内容，其中体育与健康知识采取纸笔考试（与生物科目同卷）。', '信息科技、艺术、劳动、综合实践活动等科目采取过程性评价和终结性评价相结合的方式。信息科技采用计算机测试的方式', ',艺术中美术的考查通过计算机测试结合纸笔考试进行，艺术中音乐的考查通过计算机测试进行，劳动采用综合评定的方式,综合实践活动采用日常体验考查的方式，具体实施细则另行制定。', '艺术中美术的考查通过计算机测试结合纸笔考试进行，艺术中音乐的考查通过计算机测试进行，劳动采用综合评定的方式', '健康知识10分）、地理30分；体育与健康80分，其中体育与健康知识10分（与生物学同卷）、日常参与情况5分、《国家学生体质健康标准》测试七、八、九年级各占15分共45分、专项运动技能测试20分；少数民族语文80分。', '（2）考试时长。语文120分钟，数学、外语（含听力）各90分钟，道德与法治、历史同考不同卷共90分钟，物理、化学（均不含实验操作）同考不同卷共90分钟，生物学、地理同考不同卷共60分钟，少数民族语文90分钟。其他科目的考试时长结合实际情况确定。', '从2024年起由自治区统一命题；道德与法治、语文、数学、外语（含听力）、历史、物理、化学和少数民族语文纸笔考试从2025年起由自治区统一命题；物理、化学、生物学等', '年起由自治区统一命题；道德与法治、语文、数学、外语（含听力）、历史、物理、化学和少数民族语文纸笔考试从', '科目的实验操作以及信息科技、艺术、劳动、综合实践活动考查由全市统一制定考核要求，具体实施细则另行制定。', '，全市统一组织地理、生物学（含体育与健康知识）的考试；旗县区组织生物学实验操作的考查。', '九年级第二学期末，全市统一组织道德与法治、语文、数学、外语（含听力）、历史、物理、化学、少数民族语文等科目的纸笔考试；旗县区组织物理、化学实验操作以及信息科技、艺术、劳动、综合实践活动等科目的考查。', '按照《内蒙古自治区初中学业水平考试体育与健康评价实施方案》要求，制定全市体育与健康科目考试实施细则，市、县两级教育招生考试中心具体组织实施。体育与健康科目的《国家学生体质健康标准》测试在七、八、九年级上学期各组织一次，专项运动技能测试在九年级第二学期组织实施。', '道德与法治、语文、数学、外语（含听力）、历史、地理、物理、化学、生物学、体育与健康等学业水平考试科目', '高中阶段学校依据初中学业水平考试成绩和综合素质评价结果招收录取新生，原则上考查科目和综合素质评价全部达到', '等及以上，方可具备普通高中录取资格。自治区示范性普通高中、特色高中、旗县优质高中等可结合学校实际，适当提高考查科目和综合素质评价录取资格标准。', '长期有效。初中学业水平考试成绩用于高中阶段学校招生录取，应届毕业生当届有效，非应届毕业生当年有效。九年级未毕业休学到下一年级的，八年级已考过的科目须重新参加考试。', '外转入学生、回原籍报考学生、外来人员随迁子女等，在成绩认定、招生录取等方面，按照自治区有关规定执行。', '综合素质评价是对学生德智体美劳全面发展状况的观察、记录和分析，是培育学生良好品行、发展个性特长、促进学生全面发展的重要手段，是初中学生毕业和升学的基本依据。', '主要包括思想品德、学业发展、身心健康、艺术素养、劳动与社会实践五个维度，旨在促进学生德智体美劳全面发展，培养学生适应终身发展和社会发展需要的正确价值观、必备品格和关键能力。其中，思想品德主要考察学生在“五个认同”、人生理想、遵纪守法、集体意识、爱护环境、文明礼貌、诚实守信、勤俭节约、尊重他人、自律自强等思想素质与品德发展方面的表现；学业发展主要考察学生各门课程基础知识和基本技能的掌握、应用情况，以及学习兴趣、学习习惯、问题解决能力、合作学习能力、自主学习能力、科学素养、创新素养、信息素', '主要包括思想品德、学业发展、身心健康、艺术素养、劳动与社会实践五个维度，旨在促进学生德智体美劳全面发展，培养学生适应终身发展和社会发展需要的正确价值观、必备品格和关键能力。其中，思想品德主要考察学生在', '、人生理想、遵纪守法、集体意识、爱护环境、文明礼貌、诚实守信、勤俭节约、尊重他人、自律自强等思想素质与品德发展方面的表现；学业发展主要考察学生各门课程基础知识和基本技能的掌握、应用情况，以及学习兴趣、学习习惯、问题解决能力、合作学习能力、自主学习能力、科学素养、创新素养、信息素', '养等；身心健康主要考察学生的体质情况、健康生活和心理健康等；艺术素养主要考察学生对艺术的审美感知、艺术表现、创意实践、文化理解的能力；劳动与社会实践主要考察学生在学校生活和社会生活中动手操作、体验经历及劳动素养和实践能力等。学生的标志性成果是评价学生发展情况的重要依据，可以纳入相应维度进行评价。', '，积极吸纳教师、学生等参与评价，将评价有机融入到常规教育教学活动中。综合素质评价的主体主要有教师、学生本人、同学', '等。初中学校要根据评价内容，结合本地、本校实际，细化评价要素，逐项确定每项评价要素的评价主体、评价方式、记录方式等。', '严格规范写实记录、材料遴选、提交评语、公示审核、档案生成、综合评定等评价程序，建立健全信息确认公示、投诉申诉、复议审核等监督保障和诚信责任追究制度，确保评价工作客观真实、简便有效。', '为落实立德树人根本任务，鼓励初中学校不断创新评价方式，将主观评价和客观评价相互结合，结果评价、过程评价、增值评价、综合评价互为补充，保证评价主体在充分了解每一位被评价对象的基础上科学有效开展评价工作。主观评价可采用评语、问卷、量表等评价方式对学生成长情况进行描述。客观评价主要围绕综合素质评价内容，对学生参与国家课程、地方课程、校本课程的修习情况，以及参加各级各类活动取得的标志性成果等可测量、可量化的内容进行评价。', '完善市、旗县区、学校三级管理制度，各负其责协同落实综合素质评价的组织、实施和管理。根据自治区《内蒙古自治区深化高中阶段学校考试招生制度改革实施方案》，建立健全具有我市特点的综合素质评价体系。全市统一开发初中学生综合素质评价信息管理平台。旗县区分别制定综合素质评价实施方案，初中学校制定具体实施办法，实现', '到2025年，报考自治区示范高中、特色高中、旗县优质高中等高中阶段学校的考生，综合素质评价结果原则上应为B等及以上；报考其他普通高中阶段学校的考生，综合素质评价结果原则上应为C等及以上。', '年，报考自治区示范高中、特色高中、旗县优质高中等高中阶段学校的考生，综合素质评价结果原则上应为', '积极构建以初中学业水平考试成绩和综合素质评价结果为基本依据的招生录取模式，根据学校办学定位和特色制定学校招生标准，完善统招、分招、特长招生和自主招生相结合的多元录取机制。', '方式进行录取。道德与法治、语文、数学、外语（含听力）、历史、地理、物理、化学、生物学、体育与健康等学业水平考试科目', '少数民族语文作为普通高中学校计分录取科目；信息科技、艺术、劳动、综合实践活动、综合素质评价、生物学实验操作等以等第呈现作为录取基本依据。克服分分计较，避免过度竞争，减轻学生负担。', '，扩大具备分招资格的高中学校范围，区（旗县）属优质高中分招名额向属地初中倾斜。优质高中、示范高中的分招名额分配比例保', '名额分配以初中学校具有分招资格的毕业生人数为主要依据，结合学校育人质量、办学特色、课程开设情况、社会满意度等因素，合理分配到初中学校；分招名额逐步向农村学校、薄弱学校倾斜。', '具备条件的普通高中学校可申请招收体育类、艺术类特长生，招生人数比例原则上控制在本校年度招生计划的', '以内。学校负责制定招生章程和学生培养方案，详细列明招生类别、数量、标准以及范围、条件和程序等内容，报经市教育局核准后实施，并提前向社会公布。原则上，艺术类考生执行报考范围内', '经市教育局审批，具备条件的示范性、优质、特色高中学校可申请自主招生试点，自主招生人数比例原则上控制在本校年度招生计划的', '以内，制定招生章程和学生培养方案，详细列明招生类别、数量、标准以及范围、条件和程序等内容，报经市教育局核准后实施，并提前向社会公布。自主招生主要招收具有学科特长或创新潜质的学生，满足数学、物理、化学、生物学、信息科技以及哲学、历史、古文字等学科素养较高、特殊才能较突出、发展潜质较大学生的发展需求，推动普通高中学校多样化特色办学。', '鼓励和引导动手能力强、职业倾向明显的学生接受职业教育，为培养高素质技术技能人才奠定基础。中等职业学校（含技工院校，下同）招收应届初中毕业生，与普通高中学校招生同步进行。采用免试注册入学等方式招收初高中毕业未升学学生、退役军人、退役运动员、下岗职工、返乡农民工等接受中等职业教育。', '等中高职一体化人才培养模式改革。扎实推进高中阶段学校招生由分层向分类转型，开展普职融通试点工作，为具有不同发展潜质的学生搭建普职融通的成才立交桥。', '按照服务地方经济社会发展需求、普及高中阶段教育及普职招生工作要求，根据区域内学校布局、规模和学校各类教育资源总量，结合普通高中教育和中等职业教育均衡协调发展的原则，科学核定并严格执行高中阶段学校', '“同步报名、同步考试、同步录取”的原则进行招生。严格按照核定的招生计划开展招生工作，根据“属地招生”原则，普通高中学校在规定区域内招生，未经市教育局批准不得跨区域招生。严格学籍管理，做到“人籍一致”', '未经审批的“国际班”“实验班”“试点班”等“项目班”和没有单独制定实施差异化教学方案等以“项目班”名义乱收费的一律不准招生。经过审批且符合要求的“项目班”招生工作纳入市级统一招生管理，实行计划单列；录取分数不低于我市普通高中最低录取控制线，学生入学和就读期间不得转入普通班级。', '倾向，严禁用考试成绩给学校和教师排名，不得以任何形式对初中学校教师进行初中学业水平考试成绩的表彰奖励。加强考试信息管理，坚决杜绝对初中学业水平考试成绩的各种炒作行为，严禁利用网站、电子显示屏、横幅、展板、自媒体等渠道宣传炒作升学率、“中考状元”“单科状元”等。', '倾向，严禁用考试成绩给学校和教师排名，不得以任何形式对初中学校教师进行初中学业水平考试成绩的表彰奖励。加强考试信息管理，坚决杜绝对初中学业水平考试成绩的各种炒作行为，严禁利用网站、电子显示屏、横幅、展板、自媒体等渠道宣传炒作升学率、', '具有分招资格的普通高中学校，按照“先统招、后分招”的原则进行录取。各公办、民办普通高中不得录取', '的原则，对新建普通高中在招生范围、录取批次等方面实行特殊支持政策，促进新建普通高中建一所、成一所、“名”一所。', '各旗县区要高度重视，强化对考试招生工作的组织领导，主要领导要亲自把关、亲自协调、亲自督查，确保改革平稳落地。要及时解决改革中遇到的问题，加强统筹协调，完善招生考试领导体制和管理方式，加强教育招生考试机构建设，确保考试安全和改革稳妥推进。', '要加大中小学师资、考试招生经费、设施设备等投入保障力度，改善义务教育学校办学条件，完善教师激励机制，确保适应课程改革和高中阶段学校考试招生制度综合改革需要。要加强高中阶段学校招生录取、学生综合素质评价、实验操作考试、体育与健康考试、艺术考查等信息化系统建设，着力提升信息化水平。要加强招考部门考试组织能力建设，完善基础条件、强化保障措施，确保高中阶段学校考试招生制度改革平稳顺利。自主组织考试（考查）的科目，依法依规确定经费事项。', '严格落实义务教育课程方案，改善课程教学，合理安排教学进度，开齐开足课程。严禁压缩理化生实验、信息科技、体育与健康、艺术、劳动和综合实践活动等课程的课时。要以本次改革为契机，进一步深化人才培养模式改革，深入推进教育教学改革，转变人才培养方式，提高学校课程开发和实施能力，推进素质教育。教育行政部门要定期对初中学校课程实施质量和有效性进行监测评估。', '深入实施“阳光招生”，严格落实分级负责、规范有序、科学高效的信息公开制度，及时公开招生政策、招生方案、招生计划、录取办法、录取结果、咨询及申诉渠道、重大事件违规处理结果、录取新生复查结果等信息，确保考试招生组织实施的公平、公正、公开。落实考试招生违规行为责任追究制度，严肃查处考试招生中的违规行为，坚决杜绝任何高中阶段学校擅自提前招生、免试招生、超计划招生、违规跨区域招生、有偿招生、重复招生、抢拉生源等不正当竞争行为。完善违规违纪行为监督检查和处理机制，强化社会监督，完善多渠道监督体系。', '加大改革政策宣传力度，切实做好政策解读和培训，提高政策解读的科学性、权威性和有效性，提高公众对改革的知晓度和理解度，凝聚改革共识。要关注社情民意，坚持问题导向，积极回应社会关切。加强诚信教育，健全诚信制度体系，创设考试招生良好社会氛围。加大对家庭经济困难学生资助、中等职业学校学生免收学费、中等职业学校学生高考政策等惠民政策的宣传，为推进改革、普及高中阶段教育营造良好氛围。']</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A192" t="n">
+        <v>25</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
           <t>呼和浩特市年政府工作报告</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>2018-08-31</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="F192" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwgk/2022_szfgzbg/szf/202205/t20220507_1273946.html</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>['现在，我代表市人民政府向大会报告工作，请予审议，并请各位政协委员和列席会议的同志们提出意见。', '2016年是“十三五”开局之年。在自治区党委、政府和市委的坚强领导下，我们全面贯彻党的十八大和十八届三中、四中、五中、六中全会精神，认真学习贯彻习近平总书记系列重要讲话精神和考察内蒙古重要讲话精神，全面贯彻落实自治区党委、政府和市委的决策部署，主动适应经济发展新常态，践行发展新理念，深度推进供给侧结构性改革，实施“四个服务、两个保障”，统筹推进稳增长、促改革、调结构、惠民生、防风险各项工作，较好地完成了全年目标任务，实现 “十三五”良好开局。', '——城乡建设统筹推进、亮点纷呈。全年完成城市建设投资691亿元，同比增长69.8%。完成征拆面积847万平方米。全面建成65公里城市快速路，地铁、高铁、机场迁建等一批重大工程加快推进。总投资130亿元，完成1400个村的基础设施和公共服务建设。启动和林格尔新区建设，治山、治水、治气等环境治理取得阶段性成果。', '（二）大力培育发展新经济新动能。按照“科技+基金+大数据+文化”的发展模式，着力培育发展以乳业为主导的绿色食品产业，以光伏材料为龙头的新材料产业，以草、树为特色的生态环保产业，以新能源汽车为代表的先进装备制造产业和以云计算为基础的大数据应用产业。建成乳业、蒙草种业科技、矿业科技等7家研究院，正在规划建设晶体研究院，加快推进中环光伏四期、沃特玛新能源汽车产业创新联盟、环聚新能源等一批项目，引入了航天云网、百度、华为等大数据应用项目，全市云计算服务器装机能力达到70万台，新能源、新材料等战略性新兴产业实现产值440.9亿元。加快发展现代服务业。培育了中国薯网、华蒙通等20多个大型交易平台，电子商务交易额790亿元，网络零售额175亿元，分别增长49%和28.7%。新增各类金融机构8家，金融机构存贷款余额分别增长15.2%和16.1%。举办各类展会98场，成交及意向协议总额超过135亿元。完成城发恼包快递电商产业园一期、4个旗县快递集散中心和60个末端配送网点建设，“天津无水港”成功落户沙良物流园区，全市公路货运量和货运周转量分别增长9.4%、8.3%。开工建设14个文化重点产业项目。全年接待旅游人数和实现旅游收入分别增长13%、21%。着力发展现代都市农业。本地蔬菜供应率达到67.8%，同比提升10个百分点。农牧业产业化龙头企业达到324家，全年销售收入1560亿元，规模和效益均居全区首位。积极推动创新创业创意。设立了8亿元创新奖励扶持资金和10亿元创新投资引导基金，带动社会投入73亿元促进创新创业，全年新增自治区新型研发机构1家、第二批众创空间试点基地8个，新增新三板挂牌企业11家，成功申报国家小微企业创业创新示范基地城市，内蒙古大学生创业园被确定为全国创业孵化示范基地。全市专利申请量和授权量分别增长22.5%和12%，万人拥有有效发明专利5.4件，居全区首位。', '（三）着力提升城乡建设管理水平。一是城乡规划体系不断健全完善，编制完成各类规划8项。二是城市综合立体交通体系加快形成。机场迁建项目获得国务院、中央军委批复，地铁1、2号线一期工程全面开工，完成4.7公里地下综合管廊建设，打通45条断头路。优先发展公共交通，以租代购增加新能源公交车427台，完成BRT快速公交站点建设，新开通公交线路7条，延伸调整线路19条，将公共交通机动化出行分担率提高到48%。三是城市功能进一步完善。加快推进少数民族群众文化体育运动中心、国家（北方）足球训练基地和儿童探索博物馆等一批功能性场馆建设。四是城市文化、民族特色进一步彰显。加快如意总部区块、将军衙署区块、昭君博物院区块改造建设，完成大南大北街等特色景观街改造。五是老城区通过拆改建旧貌换新颜。深入推进拆改建、交通管理三年行动计划，重点对快速路两侧、机场路及河道水系两侧脏乱区域进行征拆和绿化。完成284个老旧小区改造、75个片区老旧小区供排水管网及二次加压设施改造。六是城市管理水平进一步提升。集中开展城市环境卫生综合整治提升行动，落实网格化、精细化管理责任，对13条主次街道实施街景整治，打造31条示范小街巷、301个示范社区，实现中心城区209平方公里标准化管理全覆盖。七是城市生态环境明显改善。完成4座污水处理厂提标扩建工程和4段城市黑臭水体治理，城市污水处理率由91.8%提高到95%以上，再生水回用率由20%提高到35%以上，地表水国控考核断面水质达标率达到75%。全面启动城市水系生态建设工程，总投资43亿元的大黑河综合治理工程实现注水。集中全力治理大气污染，实施京能盛乐电厂热源入呼工程，淘汰改造燃煤锅炉222台，PM2.5年平均浓度同比下降4.7%，空气质量优良天数同比增加7天，达到283天。深入实施“三环两带”生态绿化工程，建成丝绸之路公园和9个山体公园，全年完成绿化面积43.2万亩，建成区绿化覆盖率达到38.3%。八是美丽乡村建设与脱贫攻坚工程取得阶段性成果。改造农村危房70365户，建设标准化卫生室310个、文化室420个，完成322个村的农村电网改造，新建改造水源590个、管网4499公里，解决24万人的安全饮水问题，完成街巷硬化5622公里，具备条件的行政村全部通上沥青水泥路。完成呼塔二期等公路建设，新增公路里程434公里。全力推进精准脱贫攻坚工程，新建易地搬迁和生态移民房屋6127套，发放金融扶贫贷款1.6亿元。', '（四）全面深化改革开放。重点推进经济生态领域19大类211项改革任务，形成一批改革成果。深入开展武川县矿产资源资产责任审计，完成清水河县自然资源负债表森林、湿地、草原实物量登记工作。深化商事制度改革，率先在全区启动 “五证合一、一照一码”改革，全年新增各类市场主体5.1万户。持续深化国企改革。稳步推进农村综合改革，和林县农村土地征收制度改革试点在“非典型地区”试出了“典型经验”，在赛罕区开展了农村宅基地、土地承包经营权抵押贷款业务，全面完成武川县农村集体土地承包经营权确权登记颁证试点工作。深入推进户籍制度改革，实施居住证制度。全面推开不动产登记。积极有效推进文化体制改革。深入推进城市管理体制改革，有效整合城市管理和执法职能。按要求完成了行政单位和参照公务员管理事业单位公务用车改革。创新投融资体制改革，全市PPP项目投资总额达到1134亿元，有力保障了全市重点项目建设。深化财税体制改革，全面实行“营改增”。不断深化医疗卫生体制改革，公立医院药品、耗材、大型检查收入占总收入比重明显下降，仅取消药品加成一项让利患者近3亿元。进一步扩大对外开放。组团参加香港、广东等地举办的经贸合作活动，在北京成功举办大数据产业推介会，全年共引进项目330项，到位资金706.6亿元。大力发展跨境电子商务，开通首条国际快件俄蒙出口通道，进出口快件数量是2015年的4.4倍，增速在全国31个开通国际快件业务城市中排名第1位。', '（五）持续保障和改善民生。积极促进就业创业。筹集就业专项资金2.9亿元，发放创业担保贷款1.6亿元，帮助2.1万名高校毕业生和5479名就业困难人员实现就业，转移农村劳动力就业27.4万人。完善社会保障体系。全面启动机关事业单位养老保险改革，为18.5万名企业退休人员调整养老金，人均月增资167.3元。实施大病补充保险制度，统一城乡居民医保个人缴费标准。全年城乡低保保障12.1万人，医疗救助4.5万人（次），教育救助1852人（次），临时救助1.8万人（次），参保参合救助12.7万人，发放救助金4亿多元。努力办好人民满意的教育。新建、续建23所公办中小学、幼儿园，4个县区顺利通过全国义务教育发展基本均衡县评估认定。面向社会公开招聘教师629名、农村特岗教师20名。校园网络覆盖率和多媒体教学设备覆盖率分别达到55%和87%。全面推进健康呼和浩特建设。推进实施11个卫生重点项目，市蒙中医院、妇幼保健院和新建的6个社区卫生服务中心投入使用。深入实施乡村医生巡诊制度，惠及偏远地区群众2.8万人。加快推进游泳跳水馆、体育馆及一批小型文体馆建设，人均体育场地面积达到2.2平方米，是全国平均水平的1.5倍，市区基本实现了“15分钟健身圈”。着力推动文化事业繁荣发展。完成54个乡镇（街道）综合文化站和703个村（社区）基层综合性文化服务中心达标建设，成功举办第六届中国·呼和浩特少数民族文化旅游艺术活动、第十七届昭君文化节，推出《昭君》《巡城记》等一批优秀剧目，民族文化的影响力和感召力进一步提升。', '（六）努力维护社会和谐稳定。始终把安全稳定放在重要位置，全力推进平安首府建设。加强和创新社会治理，打造了30个创新服务示范社区，完成第九届社区居委会换届选举工作。推行信访首办责任制、领导包案、阳光信访等制度，着力解决回迁安置、拖欠农民工工资等突出问题，信访批次和人次分别下降10.8%和11.7%。加快实施“平安365工程”，基本完成平安首府视频监控联网应用项目建设，全市刑事案件发案下降11.1%，全年有239天无“两抢”案件发生。强化生产安全监管，全面开展安全生产大检查和重点领域、重点企业专项整治，全年安全生产事故起数下降28.4%。强化食品药品监管，完善食品药品监管网络体系。积极支持国防和军队现代化建设，注重军民融合式发展，国防动员、民兵应急力量建设得到加强。民族、宗教、人防、气象、防汛、防震减灾、外事侨务、工会、疾控、妇女儿童、计划生育、青少年、老龄、残疾人、关心下一代、红十字、慈善、史志、档案等各项工作取得了新成绩。', '（七）加强高效法治廉洁政府建设。加大“放管服”改革力度，实施审批流程再造，审批时限平均减少29.4%，我市公共服务满意度在全国38个上榜城市排名第3位。严格执行“三重一大”集体决策制度，推行政府法律顾问制度，强化重大行政决策合法性审查，依法行政水平得到全面提升。推进社会主义民主政治建设，认真执行市人大及其常委会的决议决定，主动接受法律监督和工作监督，自觉接受市政协民主监督，积极支持市政协开展民主协商，认真办理人大代表建议、政协委员提案，办复率达到100%。进一步深化政务公开，定期通报全市经济社会发展情况，主动回应社会关切，全年举办各类新闻发布活动116场。严格落实从严治党主体责任和党风廉政建设各项规定，“三公”经费压减11%。加强行政监察和审计监督，完成对24个新农村建设项目和市本级政府投资项目的审计工作，核减投资额1.3亿元。深入开展“两学一做”学习教育，持续改进工作作风，政府班子的凝聚力和战斗力有了新的提高。', '各位代表！过去一年的成绩，是在全国经济下行压力增大、周边地区经济深度调整、全区经济进入快速增长消化期的形势下取得的，是自治区党委、政府和市委正确领导的结果，是全市各族人民齐心协力、团结奋斗的结果，也是社会各界大力支持、大力帮助的结果。在此，我代表市人民政府，向辛勤工作的全市各族干部群众，向人大代表、政协委员，各民主党派、人民团体，向所有关心支持首府建设与发展的同志们、朋友们，表示崇高的敬意和衷心的感谢！', '在肯定成绩的同时，也清醒地看到面临不少困难和问题。一是经济下行压力依然较大，工业短板仍未补齐，新经济新动能尚未完全形成，稳增长、调结构的任务还很艰巨。二是城市综合承载力和竞争力还不够强，市政基础设施欠账多，城市管理不够精细，交通拥堵等“城市病”还未很好地解决，城市规划建设管理水平有待进一步提高。三是生态建设和环境保护压力较大，水、大气、土壤等污染治理任务依然艰巨，推动绿色发展还需持续发力。四是城乡居民收入还不高，农民持续增收面临较大压力，部分群众生活还比较困难，脱贫攻坚、移民搬迁、农村产业发展需下更大气力。五是少数领导干部存在为官不为、不敢担当的现象，政府自身建设还需进一步加强。对于这些困难和问题，我们要以创新的思维、必胜的勇气，下大力气解决。', '当前，我市正处于机遇叠加、蓄势奋发的重要时期，国家“一带一路”倡议向纵深推进，自治区成立70周年大庆助推首府各项建设，以大数据为代表的新产业新经济时代已到来，以国家级新区建设为代表的新动能新机遇已到来，以地铁、机场、高铁、高速公路、快速路网为标志的快捷、立体、综合交通时代已到来，全智慧、全过程、全员化的新城市管理时代已到来，首府将迎来一个前所未有的崭新发展阶段。', '今年政府工作的总体要求是：全面贯彻党的十八大和十八届三中、四中、五中、六中全会精神，深入贯彻习近平总书记系列重要讲话精神和治国理政新理念新思想新战略，认真落实自治区第十次党代会和市第十二次党代会、十二届二次全会决策部署，统筹推进“五位一体”总体布局、协调推进“四个全面”战略布局，坚持稳中求进工作总基调，适应把握引领经济发展新常态，以提高发展质量和效益为中心，以推进供给侧结构性改革为主线，瞄准“一个总目标”、守住“三条底线”、践行“五大理念”、促进“五化协同”、抢抓“五大机遇”、构建“五大体系”、打好“五场硬仗”、突出“五种导向”，谋在新处、干在实处、走在前列，提升首府“首位度”，努力打造区域发展重要增长极、现代化区域性中心城市、国家向北开放桥头堡的重要支撑、和谐宜居幸福的示范区与更具活力、更为美丽、更加和谐的首善之区，以优异成绩迎接党的十九大胜利召开，庆祝自治区成立70周年！', '今年发展的主要预期目标是：地区生产总值增长7.5%左右，规模以上工业增加值增长9%左右，固定资产投资增长16%左右，一般公共预算收入按可比口径增长6%左右，社会消费品零售总额增长10%左右，城乡常住居民人均可支配收入分别增长8%和8.5%左右，全面完成自治区下达的各项工作任务。', '（一）全力推动和林格尔国家级新区建设，加快打造发展新引擎。牢固树立强烈的发展意识、机遇意识，举全市之力、全区之力，借全国之势、全国之智，推动国家级新区建设，为首府和全区发展配置动力强劲的世界级发动机，与发达地区站齐、看齐，争取以自身的“一马当先”“一往无前”，带动自治区发展的“万马奔腾”“万象更新”，实现走在前列、打造祖国北疆亮丽风景线的目标。', '科学谋划新区发展。按照打造我国向北开放桥头堡的重要支撑、创新体制机制的重要平台、辐射带动区域发展的重要增长极、产城融合发展的重要示范区、绿色循环低碳发展的生态智慧区、民族地区繁荣发展的先行区等发展定位，将6个旗县区496平方公里纳入新区建设范围。统筹整合新机场组团、盛乐组团、沙尔沁组团，培育产业集群，完善城市功能，打造新区发展核心区；协同推进金桥组团、白塔组团产城融合发展进程，加快完善托清组团工业基础设施配套，南北两翼双向发力，全面拉开新区建设框架，全力构建“一核两翼六组团”新区发展格局。', '按照“一年起步、三年成型、五年上水平、十年大跨越”的发展目标，以“开局就是决战、起步就是冲刺”的劲头，通过全球招标高起点、高水平完成新区总体规划和各类专业产业规划编制，构建生态化的规划体系、市场化的管理体系、国际化的政策体系。组建投融资、产业发展和基础设施建设三大公司平台，争取自治区尽快研究出台加快推进新区建设的实施意见及分工方案，并分别设立200亿元新区发展和建设基金。坚持先规划后建设、先地下后地上、先生态后业态、先生产后生活，全面推进新区基础设施和公共服务配套设施建设。加快“一山两库五河”治理，推进综合交通枢纽、高铁、高速、高架路网等“七网”建设。开工建设内蒙古艺术学院、大数据学院、职业教育学院及实训基地项目，同步推进国际化教育、医疗等公共服务设施布局。', '以新区建设为依托，积极申报建设陆路国际港务区、中国—蒙古国博览会永久会址、内陆港铁路口岸、综合保税区、海关监管区、临空经济区、自由贸易区等对外开放平台，开展国际贸易结算中心试点、期货保税交割试点工作，开工建设大匠园区、大数据集中区、网货生产园区、民政福利产业园区等产业、科技聚集区，引进建设一批高端产业项目，助推新区发展全面起步。', '（二）全力培育新兴产业，加快构建具有首府特色的现代产业体系。紧盯新一轮科技革命和产业变革方向，多维度促进新兴产业和主导产业发展，全方位推动三次产业融合，激发新动能，培育新支撑，促进产业发展迈向高端化、智能化、绿色化、服务化。', '大力发展战略性新兴产业。积极申报“中国制造2025”试点示范城市，推动高端装备制造、大数据、新材料、新能源、生物医药等新兴产业发展壮大，全年完成产值470亿元以上，持续引领产业迈向中高端。围绕新能源汽车生产基地建设，确保沃特玛新能源汽车产业园一期项目全面建成投用，开工建设蓝海华腾电机控制器、10万吨三元锂电池制造等18个二期项目，建成具有明显竞争优势的动力电池产业链和电动车整车制造全产业链，促进高端装备制造产业快速发展。实施大数据发展工程，组建大数据发展管理局，成立大数据发展公司，服务器装机能力达到100万台，推进产业数字化、城市建管智能化，全力打造“中国云谷”。发挥光伏材料集聚形成的成本优势、规模优势、技术优势，完成晶体研究院、国家检测中心建设，促进全产业链高端化。围绕航天新材料、碳纤维复合材料等领域开展协同应用试点示范，加快石墨烯、富勒烯碳纳米等产业基地建设，推动形成“碳、硅、铝、锂、钴”等为主的新材料产业群。深入推进清洁能源生产应用，启动环聚二期、联合新能源等项目建设，持续推进光伏扶贫工程建设，着力打造清水河、武川光伏产业应用基地，新能源产业占工业总产值比重超过20%。加快生物产业创新发展步伐，壮大蒙中医药、动物疫苗、生命干细胞等产业规模，打造一流的生物医药研发生产基地。', '加快构建服务业“四大中心”。继续做好域外金融机构引进工作，推动发展第三方支付、众筹众扶等互联网金融产品，扶持建设金融资产管理、融资租赁等新型金融主体。大力发展总部经济，优化政策措施，引入更多企业总部落户我市，建设西北地区重要的金融交易结算中心。改善提升“两港三区”基础配套，加快快递电商产业园、大宗物资仓储基地、零担企业集聚区建设，打造物流公共信息平台，培育引进一批大型物流企业，新增1000个城乡物流配送终端网点，建设服务呼包鄂、连通京津冀、面向俄蒙欧的现代仓储物流配送中心。大力培育品牌展会，办好第二届中国—蒙古国博览会、第十届中国民族商品交易会等大型展会，筹办国际乳业博览会等一批新型展会，开工建设呼和浩特会展中心，展会场次和交易规模分别达到120场和200亿元。实施“旅游+”战略，全面统筹旅游资源开发建设，编制“全域全时旅游”发展规划，开展全域旅游示范旗县区创建活动，昭君博物院改造等项目投入运营，八拜湖旅游景区、蒙元世界草原文化产业园和冬季旅游项目建设取得重大进展，营造处处是风景、四季好风光的旅游全新格局。稳步推进养老服务市场化改革，积极推进政府购买居家养老服务，加快与养老有关的智慧社区、医养结合基地建设，打造北方地区重要的会展文旅健康中心。完善创业创新政策体系，落实《大众创业万众创新实施意见》，围绕战略性新兴产业发展新建一批 “双创”示范基地和专业化文化创意众创空间，依托互联网打造一批开放共享的跨界协同创新平台，各类市场主体达到22.8万户，高新技术企业达到140家，建设领先全区、引领周边、面向全国的创新创业创意中心。', '不断激发特色主导产业新活力。继续支持乳业、草业、肉业等绿色产业企业充分利用国内国外两个市场，做大总部基地生产能力，提升产品研发和竞争能力，增强原料市场掌控权、消费市场主导权、国际研发市场话语权，巩固提升“中国乳都、草都、肉羊第一品牌”核心地位。推动大中型热电联产、风电、光伏发电等能源产业规模化、集约化发展，支持电力生产企业开展市场供需对接，提高生产荷载和效率，打造全国重要的清洁能源输出基地。', '（三）积极扩大有效需求，全力保持经济平稳增长。精准加力有效投资，不断激发市场活力，促进经济稳中有进、进中向好，坚决守住发展底线。', '持续释放和扩大投资拉动力。牢固树立“项目第一”的发展思路，组织开展春季、秋季重大项目集中开工活动，全年实施亿元以上重大项目468项，力争完成投资1481亿元。积极优化投资结构，加大工业投资强度，提高战略性新兴产业投资比重，提升民间投资积极性，以投促快、以投调优，工业固定资产投资、战略性新兴产业投资和民间投资增幅均高于全社会固定资产投资水平，全年新增规模以上工业企业15户。', '着力拓宽投融资渠道。创新项目建设投融资方式，完善政府和社会资本合作机制，加快推进产业融资PPP模式，整合组建总规模为100亿元的产业引导和风险投资基金，放大财政资金的杠杆效应，突出社会资金的增值效应。规范国有融资平台运行，厘清功能定位、突出主业发展、优化债务结构。发展多层次资本市场，开展上市企业、科技小巨人企业培育行动，支持企业在主板、新三板、区域性股权交易市场挂牌，鼓励企业通过发行债券和票据进行融资，市场直接融资规模力争超过300亿元。', '不断挖掘消费潜力。顺应消费需求变化新趋势，继续增加文化信息、旅游休闲、体育健身等服务项目，积极开拓医养结合、健康管理、康复护理等服务模式，推动服务业模式创新、跨业融合、外延拓展，促进服务多元化供给与多样化需求更好对接，着力扩大服务消费。以工业消费和食品为重点，推动全面质量管理，加强企业的认证认可和标准化建设，增加高质量、高水平的有效供给，扩大中高端产品消费，促进消费扩大升级。', '（四）发力农业供给侧，加快农业现代化进程。持续推进创新强农、绿色兴农、协调惠农、共享富农，大力推动农业供给侧结构性改革，让农业有奔头、农村有看头、农民有干头。', '强化绿色供给满足绿色需求。加快推进绿色农畜产品生产基地建设，培育特色产业集群，完善批发交易市场体系，打造西北地区绿色农畜产品集散地。实施奶牛牧场标准化建设和管理“双标”提质工程，奶牛养殖全部实现规模化，年单产提高1吨，40%以上牧场实现电子化管理。启动建设全区肉羊交易市场，鼓励发展肉羊工厂化屠宰加工，规模化养羊比例达到60%，加快肉羊产业化发展进程。抓好首府 “菜篮子”工程，本地蔬菜供应率稳定在70%左右。合作设立100亿元草业发展基金，支持开展生物育种、草种资源库建设，鼓励企业加大营养型、耐寒型、节水型牧草品种培育种植力度，及时向生态绿化、体育用草等专业领域进军，推动草产业向“种养”一体、“种加”一体、“种赏”一体发展。积极开发绿色生态休闲产品，加强森林、湖泊、草原、湿地的修复保护，加快农家乐、牧家乐建设，大力发展观光型、融合型、智慧型、旅游型、生态型农业，年内新建9处综合性农业观光区。开展小香米、土豆等特色农产品标准化生产示范，建设一批原产地保护基地，培育一批知名合作社品牌和农户品牌，推动现代农业全产业链增值和品牌化发展。', '加快转变农业发展方式。加大实用人才带头人、现代青年农场主、农村青年创业致富“领头雁”培训力度，实施农民工等人员返乡创业行动计划。年内培养农民专业合作社200家、家庭农场200个、新型职业农民1000人。加快农业产业化进程，推动农民合作社、家庭农场与龙头企业、配套服务组织集群集聚，推动土地经营权入股发展农业产业化经营，产业化龙头企业年销售收入突破1650亿元。加快推进电子商务进农村，引导新型经营主体对接各类电商平台，农产品网上零售额占农业总产值比重达到6.2%。健全完善农牧业科技服务体系，加快农牧业科技成果推广应用。实施化肥农药使用量零增长行动，推进农业废弃物资源化利用，走产出高效、产品安全、资源节约、环境友好的农业现代化发展之路。', '大力推进脱贫攻坚。坚持精准扶贫、精准脱贫基本方略，强化问题导向，聚焦薄弱环节，深入落实“六个精准”要求和“五个一批”举措，加快完善贫困户动态管理制度，瞄准贫困问题最突出的区域、群体和环节，因地、因人、因事施策。支持重点贫困地区统筹整合各级财政安排的农业生产发展、农村基础设施建设资金，允许特殊贫困人口叠加享受各类惠民政策。加大产业、就业扶贫力度，提升精准兜底保障能力，培育壮大贫困村集体经济，多渠道促进贫困人口增收，建立健全稳定脱贫长效机制，确保今年全面完成移民搬迁任务，率先在全区实现建档立卡贫困人口动态脱贫，武川县和清水河县两个贫困县全部摘帽。', '集中打好新农村建设硬仗。力争用三年时间，完成城中村、城边村农民就地城镇化工作，完成常住户数20户以下自然村搬迁转移工作。加快农村污水管网和小型生态处理设施建设，健全完善基础设施和公共服务投入、管护长效机制，巩固农村基础设施建设和环境建设成果，推进乡村生态化、园林化、绿色化。', '（五）健全完善基础设施体系，不断夯实发展基础。按照 “七网”建设要求，持续加大基础设施建设投入力度，在全区率先实现“七网”全覆盖。', '加快打造“大交通”发展格局。全面开工建设和林格尔新机场，加快推进老牛湾通用机场项目。以新机场为核心，启动市区-新机场-和林-清水河、清水河-呼准鄂既有线、武川-火车东客站、托县-新机场动车项目，加快筹建环城连县轨道交通，加快构建全市域动车路网。推动呼张高铁、呼准鄂快速铁路建成通车，加快推进呼市-银川、呼市-太原、呼市-南宁等重点高铁建设项目。开工建设市区-新机场、呼市-鄂尔多斯、新机场-清水河城关镇、新机场-察素齐镇高速公路，加快推进国道209线武川-呼市大青山隧道及引线工程、国道110线呼市-毕克齐-协力气一级公路、呼市-毛岱公路、沿黄公路托县-老牛湾段、省道311线武川-杨树坝一级公路等重点项目建设，着力构建“市内大循环、外围大辐射、区域大联通”的现代化立体综合交通网络，打造国家级综合交通枢纽中心城市。', '加强市政、水利、能源和通信等基础设施网建设。完善城市地下管网规划，铺设给水管网100公里、雨水管网171公里、污水管网148公里、再生水管网17公里，开工建设新区地下综合管廊，进一步完善市政设施功能，提高基础设施承载水平。投资10亿元，实施大型灌区续建配套和节水改造、病险水库除险加固、水土保持治理等重点农区水利工程，启动引黄河水入新区工程，有效提升水资源保障能力。实施新一轮农网改造升级，农村电网供电可靠率达到99.8％，综合电压合格率达到97.3％。加快“智慧呼和浩特”建设，深入推进“宽带中国”示范城市创建，提高宽带覆盖水平、网络安全保障水平和信息资源综合开发利用水平。', '（六）强化生态环境综合治理，筑牢生态安全屏障。牢固树立“绿水青山”就是“金山银山”的发展理念，以落实中央环保督查反馈意见整改为契机，持续加大生态保护建设力度，坚决守住生态底线。', '突出治气。全面推进供热体制改革，积极推动“厂网分离”。完成京能盛乐热电一期、启动盛乐热电二期、大唐托电等热源长输入呼工程。拆并整合城区剩余79座分散燃煤锅炉房，推广使用天然气、地热等清洁能源。完成大唐托电、金桥电厂、科林电厂超低排放改造任务。强化汽车尾气污染治理，推广清洁能源汽车，新增电动公交车306辆，有效应对空气污染，提升空气质量。', '重拳治山。加快实施“揽山入城”战略，开展全民绿化大行动，投资100亿元，全面推进大青山前坡400平方公里生态保护综合治理工程，大力发展休闲度假、健康养生、文化旅游等特色产业。全部关停大青山保护区内采矿、采沙、采石等企业，从根本上解决大青山私挖乱采等破坏生态行为。全面清理整顿清水河县采矿企业，推进采矿企业合法、规范、安全运营。', '大力推进生态产业化、产业生态化。继续组织实施京津风沙源治理、天然林保护和新一轮退耕还林等重点生态工程，年内完成营造林面积40万亩。大力推进城市湿地、城市园林、城市绿地、城市绿道等建设，充分利用闲置土地、荒山坡地开展植树造林，全面提升“三环两带”、出城口等重点区域绿化水平，年内新增公园、游园10个，新增城市绿地5000亩。启动清水河百万亩经济林种植行动计划，使之成为生态林、脱贫林、小康林。坚持绿色发展，用绿色化理念改造提升现有产业，进一步做大做强草、树等生态产业，引导推广绿色低碳环保的生产生活方式，推动形成产业生态化与生态产业化互动互促的发展新格局。', '（七）强化城市建设管理，不断提高首府宜居水平。以争取联合国人居环境奖为目标，持续加大城市建设改造力度，打造便捷整洁、宜居宜业的现代化首府城市。', '全力推进主城区改造提升。继续推进“拆改建三年行动计划”，投资323亿元，完成678.8万平方米棚户区改造任务；公开摇号分配公租房4200套；完成1.3万套回迁房续建任务；对158个老旧小区实施改造提升工程，拆出来的区域全部建成绿地公园和功能设施；加快推进老旧小区物业管理全覆盖，对300个准物业管理老旧小区实施市场化、专业化物业管理。高标准规划建设3000个左右公共厕所，提高便利服务功能，让首府群众生活更舒适、更安心。', '铁腕治理交通拥堵。启动建设中心城区“十字形”快速路和云中路新机场连接线、外三环等城市快速路，完成滨河环路准快速化改造，完成大庆主会场连接线、白塔机场连接线项目，进一步完善城市快速路网体系。加快推进地铁1、2号线建设，启动实施地铁3、4号线项目，努力让首府地铁时代早日到来。优先发展城市公交，新建火车东客站公交综合场站等6座公交场站，优化调整公交线路，实现中心城区步行5分钟到达公交站点。在人员密集、交通流量大、集中拥堵区域，新建续建公铁立交桥7座、跨河桥4座、过街天桥20座，有效缓解交通拥堵。针对不同区域、不同路段，研究制定区划分流规划，进一步提升城市道路通行能力，让首府市民出行更顺畅、更便捷。', '强化城市面貌综合整治。以新华大街、机场路、成吉思汗大街等重要街区综合整治为重点，改造提升22条主次干道、258条小街巷，美化亮化13座公铁立交桥。整治规范餐厨垃圾等收集、清运，做到无害化处置，建成各类环卫作业场站及生活垃圾中转站5座，建成生活垃圾处理场4座，基本建立餐厨废弃物、建筑废弃物回收和再生利用体系。坚定不移开展城市环境综合整治专项行动，加强长效化、常态化管理，让首府环境更整洁、更优美。', '加强小城镇建设。以五个旗县政府所在地城镇为重点，围绕各自不同特点和优势，加大基础设施建设投入力度，有效提升公共服务水平，大力发展县域经济，提高城镇吸纳辐射带动能力，努力打造一批人口集中、产业集聚，特色鲜明、充满活力的特色化、专业化小城镇。', '继续推进供给侧结构性改革。巩固扩大去产能成效，继续消化钢铁、水泥和电力等过剩产能，全面依法关停淘汰小散污落后产能、落后企业。深化去库存举措，加大自住购房支持力度，出台商业用房租售消化政策，力争棚改货币化安置比例达到100%。有效防风险、去杠杆，重点关注企业债兑付、贷款不良、政府债管控等工作，切实防范区域性金融风险。持续加大降成本力度，持续降低企业融资、用能、用水、物流等生产性成本，尽可能压减税费、审批等制度性成本，社会物流总费用占生产总值比重由16%降低至14%。实施补短板专项工程，围绕实现有效供给和有效需求动态平衡、增加公共产品和公共服务供给、完善社会民生兜底保障政策等方面，打出一套“组合拳”，同步补齐发展硬短板和软短板。', '重点推进农村“三权分置”改革。基本完成农村土地承包经营确权登记颁证，扩大土地经营权抵押贷款试点范围，加强土地流转和规模经营管理服务，落实集体所有权，稳定农户承包权，放活土地经营权，充分释放土地“红利”。积极发展多种形式的适度规模经营，鼓励农户通过互换承包地、联耕联种等多种方式开展集中耕种，支持通过土地流转、土地托管、土地入股等多种形式发展适度规模经营。加快农村集体产权制度改革，探索建立城乡统一用地市场，稳妥推进农村土地征收、集体经营性建设用地入市、宅基地制度 “三块地”改革，让农村改革多点发力、多方获利。', '积极推进投资领域改革。制定支持混合所有制经济发展的实施意见，为非公有制经济发展扫清障碍、松绑助力。支持民间资本参与国有企业改革，进入基础性公共项目领域。出台进一步促进民间投资健康发展的政策，使非公有制经济占经济总量比重达60%以上。', '着力推进重要领域和关键性改革。深入推进“放管服”改革，制定投资核准事项清单、工商登记前置审批事项清单、企业设立后的经营许可清单、市场准入负面清单，推行工程建设项目多评合一、多审合一、多图连审、联合验收，以清单管理推动减权放权。组建成立行政审批服务局，积极推进相对集中行政许可权改革试点工作。大力推行“互联网+政务服务”，完成“政务服务与网上审批平台”建设，实现“一号申请、一窗受理、一网通办”。加快国企国资改革。稳妥推进财税体制改革。完成事业单位和国有企业公车改革。开展资源性产品价格改革，制定分质分价用水政策，扩大居民用电阶梯电量级差，形成有利于改善环境、节约资源、满足用户多层次需求的价格机制。', '（九）全方位扩大开放，构建八面来风的开放新格局。充分发挥优势，构建引领呼包银榆、承接京津冀鲁、融入“一带一路”、八面来风的对外开放和区域联动发展新格局。', '深入落实《建设中蒙俄经济走廊规划纲要》，全面加强电子口岸公共服务平台、国际快件通道、“无水港”建设，探索筹建中蒙、中俄经贸合作示范园区，推动由我市始发至欧洲的国际集装箱专列运行常态化，不断加强同俄蒙及欧亚其他地区的经贸、产业和人文交流合作，深度融入国际产业分工合作体系，提升对外开放水平。', '积极参与京津冀协同发展。加快完善公路、铁路、航空等交通网建设规划，全力打造出区达海的进出通道。抓好产业园区、科技园区、物流园区共建，着力建设承接京津冀鲁产业转移的重要基地。', '引领带动呼包银榆协同发展。认真落实《呼包鄂协同发展规划纲要（2016－2020年）》，进一步强化呼包银榆经济区合作机制，以和林格尔新区为载体，推动基础设施互联互通、产业发展互补互促、公共服务共建共享、要素配置对接对流，逐步形成以我市为中心的区域性合作发展格局，构建自治区向北开放中心区和国内协作大平台。', '创新开放合作体制机制。用好国家西部大开发政策和国务院促进内蒙古经济社会又好又快发展的支持政策，建立健全我市招商合作政策体系，制定一批针对性强、有吸引力的差别化政策，强化政策执行和落实，提高招商引资效率。立足现有发展基础和自身特色，围绕推动大数据等战略性新兴产业发展，加快储备一批合作项目。大力发展跨境电子商务，积极争取批准国家互联网骨干网直联点、国家跨境电子商务综合试验区，加快形成以出口为主、进口为辅、线上线下有序结合的跨境电子商务发展格局。', '坚持教育优先发展。新建续建公办中小学、幼儿园25所，深入推进考试招生制度改革。全面实施“农村学前教育推进工程”，制定乡村教师支持计划，提升农村教育质量。研究制定《学前教育第三期三年行动计划》，扩大普惠性学前教育供给。促进义务教育均衡发展，所有旗县区全部通过国家义务教育发展基本均衡县评估认定。加强教师队伍建设，下大力解决教师编制不足问题。加快职业教育基础能力建设，完善现代职业教育体系。制定加快发展民族教育实施方案，扶持和规范民办教育，关心支持特殊教育发展。', '推动文化事业繁荣发展。以创建国家公共文化服务体系示范区为目标，重点建设乌兰夫纪念馆、儿童探索博物馆、内蒙古革命历史博物馆等一批文化场馆，积极申报国家级抗战遗址名录，加快推进“文化客厅”、市四区小剧场等项目建设，抓好县、乡、村三级文化馆、图书馆、公共文化综合服务中心等项目实施，提升公共文化服务供给能力。推进媒体融合和广播电视事业健康发展。精心办好第二十六届中国金鸡百花电影节、第十八届昭君文化节和第七届中国·呼和浩特少数民族文化旅游艺术活动，加大地方戏曲传承保护力度，创作一批优秀文艺作品，扩大地域文化、民族文化影响力。深化群众性精神文明创建活动，全力创建全国文明城市。', '推进健康呼和浩特建设。优化医疗卫生资源布局，抓好自治区和市级重点医疗卫生项目建设，实施市第二医院迁建，在城市东部建设一所三级甲等心脑血管及儿童专科医院，在城市南部规划建设内蒙古蒙医药学院和一所三级甲等综合医院、内蒙古蒙医药研发中心及重点实验室。强化社区卫生服务中心和乡镇卫生院投入，做好乡村卫生室硬件配套和人员队伍建设，大力推广“市考县聘乡用”机制、农村医生“村来村去”制度，逐步解决基层医疗卫生服务力量不足问题。加强重大疾病预防控制，做好妇女儿童、老年人、残疾人、流动人口等人群健康服务工作。', '抓好体育事业发展。以建设体育强市为目标，深入开展全民健身运动，加强竞技体育发展。统筹推进健身娱乐、体育用品、体育彩票、运动休闲、电动赛车、马术竞技等体育产业发展，打造特色体育品牌。全面完成少数民族群众文化体育运动中心、国家（北方）足球训练基地、游泳跳水馆、体育馆等重点项目，为首府市民提供更多健身运动场所。', '深入实施《呼和浩特市妇女儿童发展纲要（2011—2020年）》。加强国防动员和后备力量建设，落实各项优抚安置政策，推动军民融合发展。统筹做好红十字、残疾人和慈善事业，发挥好工会、共青团、妇联等人民团体的桥梁纽带作用。全面贯彻党的宗教工作基本方针，发挥宗教界人士及信教群众的积极作用，扎实做好统计、档案、气象、地震、外事侨务等工作，推动各项社会事业再上新台阶。', '（十一）织密扎牢民生保障网，增进各族人民福祉。落实以人民为中心的发展思想，从解决群众最关心最直接最现实的利益问题入手，做好普惠性、基础性、兜底性民生建设，坚决守住民生底线。', '积极扩大就业创业。实施就业优先战略和更加积极的就业创业政策，鼓励多渠道、多形式就业创业。抓好高校毕业生等重点群体就业，落实就业促进和创业引领计划，鼓励高校毕业生到基层工作、开展创新创业。加强职业技能培训，有序组织农民工就近就地转移就业。全面落实就业援助政策，确保“零就业家庭”动态清零。积极做好破产转制企业职工安置工作，妥善解决去产能过程中的失业再就业问题，保障职工的合法权益。', '持续提高城乡居民收入。深化收入分配制度改革，健全与经济增长相适应的工资增长机制，促进形成公正合理的收入分配格局。逐步提高最低工资标准，增加中低收入人群收入。继续提高退休人员基本养老金水平，健全企业职工最低工资调整机制，引导企业职工工资合理增长，使我市总体工资水平在全国省会城市中排名前移。多措并举拓宽农民增收渠道，持续稳定增加农民收入，不断缩小城乡之间、区域之间收入差距。', '完善社会保障体系。实施全民参保计划，抓好跨省异地就医，加快推进社会保障“一卡通”进程。完善养老保险和医疗保险政策，建立全市统一的城乡居民基本医疗保险制度，将更多进城务工农民、失地农民、灵活就业人员纳入职工养老保险和城镇职工医疗保险。加大对困难群众的救助力度，统筹推进扶老、助残、救孤、优抚等福利事业发展。完善重大疾病保险机制，做好医疗救助工作，全额资助城乡低保、农村五保、城镇“三无”人员等困难群众参加城乡居民基本医疗保险，大幅提高旗县城镇低保、农村低保、五保供养和残疾人“两项补贴”标准。', '构建和谐稳定屏障，提高“两个保障”水平。全面贯彻党的民族政策，深入开展民族团结进步教育和创建活动，巩固发展各民族守望相助、团结奋斗的良好局面。加强基层社区建设，加大社区活动场所、服务场所投入，健全完善社区综合服务功能，夯实基层基础。深入推进“平安首府”建设，加强以信息化为支撑的社会治安防控体系建设，全面推进“平安365”工程，严厉打击各类违法犯罪活动。全面开展社会矛盾大排查大化解、信访积案“百日攻坚”、以“忠诚干净担当”为主题的三个专项行动，维护首府良好的社会秩序。强化安全生产责任落实，开展重点领域专项整治，加强特种设备安全监管，坚决遏制重特大安全事故发生。强化食品药品安全监管，加快建立科学完善的食品药品安全治理体系，让广大群众饮食用药无安全之忧。', '在此基础上，我们将努力办好一批与群众利益息息相关的民生实事，让改革发展成果更多更公平地惠及广大人民群众。', '（十二）加强政府自身建设，努力打造人民满意政府。严格遵守党的政治纪律和政治规矩，进一步增强“四个意识”特别是核心意识、看齐意识，更加坚定自觉地在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致，更加扎实地把党中央、国务院、自治区党委、政府和市委的各项决策部署落到实处。', '建设法治政府。坚持依法行政，做到法定职责必须为、法无授权不可为，始终把政府工作纳入法治轨道。认真执行市人大及其常委会的决议、决定，主动向市人大及其常委会汇报工作，自觉接受市人大工作监督、法律监督。加强社会主义协商民主建设，接受市政协民主监督。充分听取人大代表、政协委员、民主党派、工商联、无党派人士和人民团体意见建议。积极推进智能人才库、法律专家库建设，提高依法决策、科学决策水平。加强法制教育宣传，深入推进“七五”普法。支持法院、检察院依法独立公正行使职权。', '建设实干政府。树立“无为就是过、无为必问责”的理念，发扬肯干能干会干快干的实干精神，撸起袖子干工作、扑下身子谋发展，坚决纠正和问责懒政、怠政、不担责、不作为等行为。坚持问题导向，组织开展双向“问政”工作，真正把解决群众反映强烈的突出问题作为开展工作的出发点和落脚点。', '建设诚信政府。全面推进政务公开，推行“双随机、一公开”制度，打造透明电子政务，维护公民知情权。发挥政府在诚实守信方面的表率作用，政府制定的各项优惠政策坚决执行，政府承诺的所有民生实事必须兑现，切实提高政府公信力。强化诚信教育和宣传，推动信用文化建设，营造公开、公平、公正的社会诚信氛围。', '建设廉洁政府。严格履行全面从严治党主体责任，深入推进政府系统党风廉政建设。始终高举反腐利剑，不断完善重点领域和关键环节的制度设计，以零容忍态度惩治腐败。驰而不息推进作风建设，健全改进作风长效机制，巩固扩大“两学一做”学习教育成果。建立完善正向激励机制和容错纠错机制，旗帜鲜明地褒扬担当者、支持担当者、保护担当者，让广大干部愿意干事、敢于干事、能干成事。', '各位代表，今年我们将迎来自治区成立70周年大庆，这是自治区政治生活中的一件大事。呼和浩特市作为活动“主会场”，高标准、高质量、高水平地做好迎庆各项工作，是我们必须履行的重大政治责任和历史使命。我们要精心谋划、扎实推进、坚决完成场馆建设、环境整治、氛围营造、交通管理、安全稳定等各项迎庆任务，确保70周年大庆各项活动顺利进行、圆满成功。', '各位代表，新的一年，我们担负着新的艰巨发展任务、承载着新的重大历史使命。让我们更加紧密地团结在以习近平同志为核心的党中央周围，在自治区党委、政府和市委的坚强领导下，守望相助、团结奋斗，勇于担当、一往无前，为把祖国北疆这道风景线打造得更加亮丽而努力奋斗，以优异的成绩迎接党的十九大胜利召开，庆祝自治区成立70周年！']</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A193" t="n">
+        <v>25</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
           <t>呼和浩特市自然资源局关于报送年度依法治市工作总结的报告</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>2020-03-26</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/szrzyj_22411/fdzdgknr/bmgk/202003/t20200326_935439.html</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>['呼和浩特市自然资源局关于报送2019年度依法治市工作总结的报告_ 呼和浩特市人民政府', '按照中共呼和浩特市委员会全面依法治市委员会办公室《关于报送2019年度自治区全面依法治区考核工作总结及相关材料的通知》（呼依法治市办[2019]25），对照《2019年度盟市依法治区考核指标评价办法》的考核指标和责任分工，现将年度依法治市工作开展情况报告如下：', '以习近平新时代中国特色社会主义思想为指导，深入学习贯彻习近平全面依法治国新理念、新思路、新战略，围绕依法治区、依法治市工作部署，扎实有效推进依法治区和依法治市工作，积极营造良好的法治氛围，有力地推动各项工作的开展，促进我市自然资源管理工作更加法治化，规范化。', '成立依法行政工作领导小组，研究年度依法行政工作任务，对规章制度建设、普法宣传等工作进行全面部署，制定了《呼和浩特市自然资源局2019年依法行政工作计划》', '成立依法行政工作领导小组，研究年度依法行政工作任务，对规章制度建设、普法宣传等工作进行全面部署，制定了《呼和浩特市自然资源局', '深入开展审批制度改革提升营商环境。深化“放管服”改革，合并规划选址和用地预审，合并建设用地规划许可和用地批准。进一步优化完善审批流程，减事项、减材料、减时限，降低企业成本。重新梳理办理要件、办理流程、办理时限等内容；流程上，实行“一表申请、一窗受理、合并办理、网上审批”，努力实现工业项目“拿地即开工”，营造良好营商环境。', '年度完成了21个项目用地预审，核发规划条件148个，为19个重大项目办理选址意见；审核农用地转用和土地征收报件141个；核发《建设用地规划许可证》52个，核发《建设工程规划许可证》', '（二）规范规范性文件制定和备案监督工作，贯彻“三统一”制度。完成政府规章和规范性文件梳理报送工作。', '成立了全市国土空间规划委员会。今年以来，组织规委会全体会议4次，审议新华广场周边区域城市设计、新机场航站区设计方案、科技城发展规划和城市设计、中心城区控制性详细规划、街道设计导则、轨道交通1、2号沿线控制性详细规划等14项内容；规委会办公室召开会议36次，审查具体项目76项。', '（四）加强合法性审查。严格落实《呼和浩特市政府法律顾问工作的规定》和《呼和浩特市政府法律顾问工作实施方案》，聘用法律顾问，签订法律顾问合同，不断加强法律顾问', '在立法、行政决策、涉法案件处理等方面的积极作用，为我局行政决策以及相关立法文件提供合法性审查意见书，并参与咨询、论证等。全年法律顾问出具法律意见书43余份，为依法行政提供了保障。', '在立法、行政决策、涉法案件处理等方面的积极作用，为我局行政决策以及相关立法文件提供合法性审查意见书，并参与咨询、论证等。全年法律顾问出具法律意见书', '侧重执法人员能力素质提升，进一步压实监管责任、规范执法人员管理，严格贯彻执行各项规定制度，印发我局《进一步健全完善执法监管长效机制的实施意见》，促进依法履职、严格执法，提升执法效能。严格落实行政执法全过程记录、公示、重大行政处罚决定法制审核三项制度，制定《呼和浩特市自然资源局深入推进行政执法公示制度执法全过程记录制度重大执法决定法制审核制度工作方案》。提升执法监察网格化管理水平，压实网格化监管责任，严格检查督促，强化日常监管，对违法违规建设发现在初始、解决在萌芽；建立日常执法工作成效与卫片执法结果、案件查处情况等相挂钩的奖惩机制，严格规范考评，督促履职尽责。', '二是健全完善执法联动协作机制。强化综合执法、国土执法、公安、检察院、法院之间的工作衔接，完善报告、抄告、移送、通报、曝光等工作机制，运用综合手段严肃查处违法行为，构建以信用体系为核心的新型市场监管机制，建立诚信监督信用等级评定管理平台，逐步完善信用评价体系，全面实施守信联合激励和失信联合惩戒，促进行业健康有序发展。', '（六）自觉接受党内监督、人大监督、民主监督、司法监督。一是认真做好行政复议、行政诉讼工作，高度重视行政诉讼和行政复议工作，把每一次应诉和复议的过程，作为学法、提高法律知识水平、改进工作方式、转变工作作风的过程，认真及时做好案件的答辩和证据材料收集和报送工作。全年行政复议案件8件，3件未结案，5件已结案。案件类型为行政处罚5件，信息公开案件3件。已结案件中申请人撤回申请1件，认定违法1件，撤销具体行政行为并责令重新作出行为3件（均为信息公开案件）。（具体数据需与调处中心核实）。行政诉讼64件，其中涉及不动产登记案件54件；不履职案件3件；出让合同纠纷2件；行政处罚2件；其他类型3件。未结案24件，已结案40件。已结案件中败诉5件，其中要求履行职务1件，房屋登记3件（其中提起行政赔偿1件），出让合同纠纷1件（二审中原告撤诉）。已结案件中驳回起诉33件，发回重审2件。', '（六）自觉接受党内监督、人大监督、民主监督、司法监督。一是认真做好行政复议、行政诉讼工作，高度重视行政诉讼和行政复议工作，把每一次应诉和复议的过程，作为学法、提高法律知识水平、改进工作方式、转变工作作风的过程，认真及时做好案件的答辩和证据材料收集和报送工作。全年行政复议案件', '市政府转办依申请公开39条，办理民生服务平台转交70条；市长信箱转办131条，已答复117条，其余正在办理中；通过邮寄或当场申请34条，已答复31条，其余正在办理中；市委督查室转交18条，已答复15条，其余正在办理中；市长热线转办204条，', '共接待受理信访事项193件次。其中，自然资源厅直接交办事项24件次,22件次已调查上报，其余2件次正', '在调查处理中；自然资源信访系统受理案件28件次，10件已办结，其余18件正在调查处理中；自治区信访信息系统受理案件41件次，已按时办结；市政府及市信访局交办信访事项4件次，已按要求上报；直接受理来信来访信访事项96件次,200人次，76件次已办结，其余20件次正在调查处理中。', '（九）加强法制力量建设。内设机构设立了法规科，主要组织起草自然资源管理相关制度；规范性文件合法性审查和清理工作；组织开展法治宣传教育；承担行政复议、行政诉讼、信访有关工作。目前科室工作人员七名。', '结合自身实际，采取党建搭台、业务唱戏方式，充分发挥党员先锋模范带头作用，创建“规划宣讲在基层”这一党建品牌。通过党员干部带头宣讲，将规划业务工作和群众工作相结合，让更多的人了解规划、重视规划、最终形成人人参与规划的局面，以此提高规划的科学性、民主性和可持续性。', '制作了党的十九大精神宣传展板7块、文化墙展板33块，对党的十九大精神进行广泛宣传。', '积极参加呼市广播电台《连心桥》行风热线节目，组织局领导参加市委宣传部组织的呼市广播电视台《问政》录制，宣讲规划法律法规，介绍城市重大建设项目编制、审批情况，认真解答广大听众的热点问题。同时利用规划网站加强城乡规划法、城乡规划条例等法规政策的宣传。', '4月22日“世界地球日”、6月25日 “全国土地日”、8月29日“全国测绘法宣传日”大型主题宣传活动，通过现场集中宣传，摆放宣传展板，发放宣传材料，向社会公众宣讲自然资源法律法规等知识，还在主题宣传日期间利用全市出租车的顶灯宣传媒介，对宣传主题和宣传口号进行了24小时的滚动宣传。', '二是加强干部职工日常学法。组织开展网络在线学法活动和内蒙古自治区公务员网络在线学习活动，切实增强了干部职工学法用法能力，为推进依法行政工作奠定了坚实的基础。', '（一）健全党组议事决策规则。制定《中共呼和浩特市自然资源局党组“三重一大”议事决策规则》和《中共呼和浩特市自然资源局党组工作规则》，进一步健全和完善党内监督制度，完善党组决策机制，严格决策程序，规范重大决策、干部任免奖惩调动、大额资金使用等，增强决策的民主化、科学化、在制度化。', '集中学习21次，“晨读晨学、领读领学”学习13次，邀请专家教授讲课2次，局领导讲党课16次，教育引导全体党员把思想和行动统一到党的十九大精神上来，进一步', '引导党员干部增强党章党规党纪意识，做党章党规党纪和国家法律的自觉尊崇者、模范遵守者、坚定捍卫者。', '回顾我局全年依法治市工作，取得了一定成效，但也存在着不足，如普法形式单一，缺乏有效的考核体系等。在今后的工作中，我们将进一步增强干部职工依法行政、依法治市意识，强化制度建设，规范行政审批行为，努力建设法治型、服务型机关。']</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A194" t="n">
+        <v>25</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
           <t>呼和浩特市人民政府办公室关于印发呼和浩特市我为企业找资金我为企业找原料我为企业找用工我为企业找市场行动方案的通知</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>2024-01-19</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
+      <c r="F194" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/hhht_zfgb/hhht/2023/202306/202401/t20240119_1649599.html</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>['呼和浩特市人民政府办公室 关于印发呼和浩特市“我为企业找资金、我为 企业找原料、我为企业找用工、我为企业找市场” 行动方案的通知', '各旗、县、区人民政府，经济技术开发区、和林格尔新区（各开发区、工业园区）管委会，市各有关部门：', '经市人民政府同意，现将《呼和浩特市“我为企业找资金、我为企业找原料、我为企业找用工、我为企业找市场”行动方案》印发给你们，请认真遵照执行。', '为深入贯彻落实党中央、国务院关于稳增长的决策部署和《内蒙古自治区促进中小企业发展三年行动方案（2023-2025）》（内工信中小字〔2023〕410号）精神，立足服务企业，聚焦化解企业面临的“痛点”“堵点”“难点”，开展“我为企业找资金、我为企业找原料、我为企业找用工、我为企业找市场”助企降本增效行动，结合实际，制定本实施方案。', '以习近平新时代中国特色社会主义思想为指导，深入学习贯彻习近平总书记在内蒙古考察期间的重要指示重要讲话精神，以开展学习贯彻习近平新时代中国特色社会主义思想主题教育为契机，聚焦全市企业稳定生产经营，通过创设政策、打造环境、搭建平台、优化服务，解决制约企业发展的突出问题，持续增强企业发展信心，激发企业发展活力，为全市经济社会高质量发展贡献力量。', '账。深入开展“我为企业找资金、找原料、找用工、找市场”助企降本增效行动，切实增强企业发展信心，推动企业扩大再生产。到2025年底，力争我市普惠型小微企业贷款余额达到1000亿；引进高层次人才150人，引进优质人才项目15个，企业缺工现象动态清零；规模以上工业企业数量达到500家，高新技术企业数量达到500家，优质中小企业数量达到300家，市场主体数量较现在增加25%。', '1.拓宽融资渠道找资金。充分发挥政府性融资担保机构作用，逐步将平均担保费率降至1.2%以下；加强“信易贷”平台运用效果，推动我市金融机构入驻全国“信易贷”平台（呼和浩特站），发布金融产品，到2025年，实现在“信易贷”平台注册企业数量达到30000家，放款金额累计达到4亿元；加大“助保贷”实施力度，到2025年，“助保贷”累计为850家企业融资50亿元；鼓励金融机构加大对科技型企业信贷投入，鼓励科技型企业上市融资，并分阶段给予一定资金奖补，统筹设立规模不少于10亿元的科技创新投资引导基金，助力纾解融资难问题；持续扩大“银税互动”合作范围，每年帮助100家企业凭借良好纳税信用通过“银税互动”获得融资支持；积极推进商标专用权质押融资工作，深入开展知识产权质押融资“入园惠企”、知识产权服务万里行等活动拓宽融资渠道，2025年知识产权质押融资业务累计', '达到200件，金额达到30亿元。（责任单位：市工信局、金融办、财政局、科技局、发改委、税务局、市场监督管理局、各开发区管委会）', '2.开展银企对接找资金。聚焦“六大产业集群”企业和重大投资项目，每年整理编制重点企业和项目融资需求400个以上；建立有融资需求企业“名单+信息档案”推送机制，通过“线上+线下”形式组织10次以上政银企对接活动；收集整理银行机构金融产品，形成《金融产品册》，通过“爱青城”“中小企业公共服务平台”等平台进行展示，助力打破银企信息壁垒；深入开展“送资金、保项目、入园区、进企业”行动，为企业提供便捷、多元的金融服务。（责任单位：市工信局、金融办、各开发区管委会）', '3.充分利用政策找资金。抓住国务院关于推动内蒙古高质量发展战略性利好政策，积极主动和国家部委对接，着力争取国家资金及项目；积极争取自治区重点产业（园区）发展专项、科技重大专项、口岸经济发展专项、外经贸发展专项等自治区财政专项资金；推进自治区支持首府打造先进制造业集群，提升园区基础设施配套水平，每年市本级配套至少3亿元资金。（责任单位：市工信局、发改委、科技局、财政局）', '4.推行集中采购找原料。聚焦“六大产业集群”企业原材料需求，积极协调资源，对接国内优势资源，推动产业集群内企业', '从“分散采购”向“集中采购”转变，力争原材料采购成本下降5%左右。支持建设并做大做强原材料集采平台，提高原辅材料议价话语权。鼓励行业商（协）会针对“六大产业集群”发起建设细分领域原材料集采平台，组织会员企业抱团集采，降低采购成本，提升供货效率。（责任单位：市工信局、发改委、工商联、市六大产业集群专班）', '5.利用大数据找原料。充分运用智慧工业综合管理平台，发布企业原料需求，精准匹配供需，实现网上集采；深化“以数治税”，充分利用税收大数据优势，运用“全国纳税人供应链查询”功能，梳理本地区企业原材料需求，助力上下游企业衔接，为市场主体原材料买卖牵线搭桥，实现产销对接，推动企业保持产业链稳定。（责任单位：市工信局、税务局）', '6.完善物流体系找原料。全力打造呼和浩特北疆国际陆港，扩大与“一带一路”沿线国家贸易合作的业务规模，实现与中欧、中亚各城市的快速通达；加快陆港型、商贸服务型国家物流枢纽以及国家骨干冷链物流基地建设，深度融入国家“通道+枢纽+网络”的高效物流运行体系，进一步降低企业原材料运输成本。（责任单位：市发改委、综合保税区、商务局）', '7.摸清企业需求找用工。摸清企业招工计划，做到企业缺工规模、缺工类型、技能要求、薪资水平“四清”，建立缺工企业管理台账；动态掌握毕业生及社会劳动者求职、失业人员登记等', '信息，建立求职者就业需求清单，及时与缺工企业用工需求清单匹配；开展用工余缺调剂合作，按需组织专场对接。建立重大项目用工服务联动机制，在开展重大项目招商引资时，同步开展招用工服务。（责任单位：市人社局、区域局、工信局、各开发区管委会）', '8.举办招聘活动找用工。充分发挥公共就业服务机构的作用，每年组织开展100场以上线上线下招聘活动；通过与北京、上海等地建立跨区人才引进协作机制，每年组织开展3次“区外引才行”活动；每年开展中小企业网上百日招聘高校毕业生活动，积极解决中小企业用工需求。（责任单位：市人社局、工信局）', '9.开展技能培训找用工。发展壮大人才培训资源，到2025年，建成高技能人才培训基地12个，技能大师工作室50个；充分利用各类优质培训资源，每年开展职业技能培训3万人次，高技能人才培训2000人次，新型学徒制培训1500人次以上。（责任单位：市人社局）', '10.加强校企合作找用工。搭建校企合作平台，推动阿特斯、合盛硅业、双杰、正泰等大型企业与市内高校对接，建立“产学研”合作机制，每年解决大学生就业5万人以上；联合国内知名高校开展1次“丁香扎根”暑期实训活动，打造金桥“双创”示范区，全力推进“人才＋项目＋平台”一体化建设，与自治区高校联动，大力培养孵化专业人才，每年开展10场实习实训，参与人数达到1000人次。（责任单位：市人社局、工信局、各开发', '11.完善政策保障找用工。持续落实各项援企稳岗政策，深入推进实施“十万大学生”留呼工程，落实《呼和浩特市人民政府关于印发呼和浩特市引人留人18条措施的通知》（呼政发〔2023〕24号），完善就业、住房、子女就近上学、婴幼儿托管等配套政策、设施。（责任单位：市人社局、教育局、住建局、工信局）', '12.实施精准招商找市场。紧紧围绕六大产业集群和17条产业链的薄弱环节，开展精准招商，形成产业互补。全市每年力争招引亿元以上产业项目400个，协议投资额500亿元以上。（责任单位：市区域局、工信局、市六大产业集群专班）', '13.开展供需对接找市场。搭建企业产品对接平台，形成六大产业集群企业产品索引名录，开展产品专题推介会或企业家座谈会，加大对企业产品宣传力度。支持本地中小企业与大企业结对，畅通产业链和供应链，提高产品的本市配套率，到2025年，助力500家本市企业实现产品配套协作。（责任单位：市工信局，商务局、市六大产业集群专班）', '14.利用办展参展找市场。结合我市产业和发展实际，积极推广“乳都”品牌，筹划举办“绿色农畜产品博览会”，打造我市具有特色的品牌展会活动。支持企业参加广交会、进博会、中蒙博览会等重大展会活动，确保重点展会参与率达到100%。对符', '合参展条件的小微企业，在展位费、展品运输费及参会人员差旅费等方面给予适当资金补贴，助力企业“走出去”。（责任单位：市商务局、工信局、农牧局、工商联）', '15.依托协会组织找市场。组织本地商（协）会和外地商（协）会加强我市优质企业拳头产品推介，帮助市内企业打开销路；畅通行业商（协）会、龙头企业、中小配套企业之间的沟通渠道，促进大中小企业协同创新、融通发展；推动本地商（协）会与外部商（协）会、先进发达地区商（协）会建立结对关系，促进资源整合、供需对接，使企业在上下游配套、原材料供应、运输物流、市场营销等方面实现共享共赢。（责任单位：市工商联、工信局、商务局、区域局、贸促会）', '16.组建产业联盟找市场。围绕6大产业集群组建6个产业联盟。联盟内部深入开展产业链上下游产供销适配性对接，提高产业链供应链稳定性和地方配套率；强化行业关键共性技术协同攻关，促进创新资源整合、创新效能提升、创新成果转化；建立共享市场的机制，通过联合营销、品牌推广和渠道共享等方式，扩大市场份额和提高品牌影响力，同时在产业联盟之间加强互动合作，构建群链融合协同发展机制。（责任单位：市工商联、发改委、工信局、商务局）', '17.应用平台载体找市场。以服务首府外向型经济发展为导向，打造外向型绿色制造基地和国际贸易物流分拨平台、展示交', '告助力企业纾困”活动，利用电视、地铁站、户外广告等媒体，加强企业产品品牌推广力度。组织京东、苏宁易购等电商和企业开展“网上年货节”“双品网购节”等促消费活动，帮助企业对接入驻京东中国特产·内蒙古馆、京东中国特产·呼和浩特馆等平台，运用“直播+社交”电商新模式，不断拓宽产品线上销售渠道。（责任单位：市委宣传部、市商务局、综合保税区、融媒体中心）', '按照市级统筹、属地负责的原则，着力构建市县（旗、区）联动、部门协同配合的工作机制，资源整合，合力助企纾困，按季调度，统筹推动，推动活动有效开展。各旗县区（开发区）要落实属地责任，建立健全工作机制，制定出台具体措施，加大为企业找资金、原料、用工、市场力度。相关委办局要切实强化责任担当，主动作为，对照此方案，结合工作职责，进一步细化任务、实化举措。各旗县区（开发区）及相关委办局指定专人负责，围绕活动部署要求，立即行动，抓紧组织启动相关工作。', '各责任单位组织专人了解企业在资金、原料、用工、市场等方面的需求及问题，不定期带队开展本领域、本地区专项对接协调活动，实地深入重点项目、重点困难企业，进行“一对一、面对面”沟通交流，解决好融资、市场等服务方面的具体诉求，健全完善企业反映困难问题的收集、梳理、研判、', '交办、督办、反馈工作机制，保障企业困难问题与部门办理职责精准对接，为企业经营发展提供优质服务。', '市人民政府督查室将把“我为企业找资金、我为企业找原料、我为企业找用工、我为企业找市场”助企降本增效活动作为重点督查事项，按季度统计汇总活动开展情况，对推动工作优秀的部门通报表扬，对推动工作不力的通报批评，以督查考核推动活动全面落实。', '开展金融惠企政策宣讲，确保企业对惠企政策知晓率达100%；充分发挥政府性融资担保机构作用，逐步将平均担保费率降至1.2%以下，切实降低小微企业融资成本。', '推动我市金融机构入驻全国“信易贷”平台(呼和浩特站)，发布金融产品，到2025年，实现在“信易贷”平台注册企业数量和放款金额累计达到30000家和4亿。', '鼓励金融机构加大对科技型企业信贷投入，鼓励科技型企业上市融资，并分阶段给予一定资金奖补，统筹设立规模不少于10亿元的科技创新投资引导基金，助力纾解融资难问题。', '持续扩大“银税互动”合作范围，每年帮助100家企业凭借良好纳税信用通过“银税互动”获得融资支持。', '积极推进商标专用权质押融资工作，深入开展知识产权质押融资“入园惠企”、知识产权服务万里行等活动拓宽融资渠道，2025年知识产权质押融资业务累计达到200件，金额达到30亿元。', '每年整理编制重点企业和项目融资需求400个以上，通过“线上+线下”形式组织10次以上政银企对接活动；收集整理银行机构金融产品，形成《金融产品册》，通过“爱青城”“中小企业公共服务平台”等平台展示，助力打破银企信息壁垒；深入开展“送资金、保项目、入园区、进企业”行动，为企业提供便捷、多元的金融服务。', '抓住国务院关于推动内蒙古高质量发展战略性利好政策，积极主动和国家部委对接，着力争取国家资金及项目；积极争取自治区重点产业（园区）发展专项、科技重大专项、口岸经济发展专项、外经贸发展专项等自治区财政专项资金；推进自治区支持首府打造先进制造业集群，提升园区基础设施配套水平，每年市本级配套至少3亿元资金。', '聚焦“六大产业集群”企业原材料需求，积极协调资源，对接国内优势资源，推动产业集群内企业从“分散采购”向“集中采购”转变，力争原材料采购成本下降5%左右。', '鼓励行业协（商）会针对“六大产业集群”发起建设细分领域原材料集采平台，组织会员企业抱团集采，降低采购成本，提升供货效率。', '深化“以数治税”，充分利用税收大数据优势，运用“全国纳税人供应链查询”功能，梳理本地区企业原材料需求，助力上下游企业衔接，为市场主体原材料买卖牵线搭桥，实现产销对接，推动企业保持产业链稳定。', '全力打造呼和浩特北疆国际陆港，扩大与“一带一路”沿线国家贸易合作的业务规模，实现与中欧、中亚各城市的快速通达；加快陆港型、商贸服务型国家物流枢纽以及国家骨干冷链物流基地建设，深度融入国家“通道+枢纽+网络”的高效物流运行体系，进一步降低企业原材料运输成本。', '摸清企业招工计划，做到企业缺工规模、缺工类型、技能要求、薪资水平“四清”，建立缺工企业管理台账。', '动态掌握毕业生及社会劳动者求职、失业人员登记等信息，建立求职者就业需求清单，及时与缺工企业用工需求清单匹配，开展用工余缺调剂合作，按需组织专场对接。', '充分发挥公共就业服务机构的作用，每年组织开展100场以上线上线下招聘活动；通过与北京、上海等地建立跨区人才引进协作机制，每年组织开展3次“区外引才行”活动。', '发展壮大人才培训资源，到2025年，建成高技能人才培训基地12个，技能大师工作室50个；充分利用各类优质培训资源，每年开展职业技能培训3万人次，高技能人才培训2000人次，新型学徒制培训1500人次以上。', '搭建校企合作平台，推动阿特斯、合盛硅业、双杰、正泰等大型企业与市内高校对接，建立“产学研”合作机制，每年解决大学生就业5万人以上。', '联合国内知名高校开展1次“丁香扎根”暑期实训活动，打造金桥“双创”示范区，全力推进“人才＋项目＋平台”一体化建设，与自治区高校联动，大力培养孵化专业人才，每年开展10场实习实训，参与人数达到1000人次。', '持续落实各项援企稳岗政策，深入推进实施“十万大学生”留呼工程，落实《呼和浩特市人民政府关于印发引人留人18条措施的通知》', '紧紧围绕六大产业集群和17条产业链的薄弱环节，开展精准招商，形成产业互补。全市每年力争招引亿元以上产业项目400个，协议投资额500亿元以上。', '搭建企业产品对接平台，形成六大产业集群企业产品索引名录，开展产品专题推介会或企业家座谈会，加大对企业产品宣传力度。', '支持本地中小企业与大企业结对，畅通产业链和供应链，提高产品的本市配套率，到2025年，助力500家本市企业实现产品配套协作。', '支持企业参加广交会、进博会、中蒙博览会等重大展会活动，确保重点展会参与率达到100%。', '畅通行业商协会、龙头企业、中小配套企业之间的沟通渠道，促进大中小企业协同创新、融通发展。', '推动本地商会与外部商协会、先进发达地区商协会建立结对关系，促进资源整合、供需对接。', '围绕6大产业集群组建6个产业联盟。联盟内部深入开展产业链上下游产供销适配性对接，提高产业链供应链稳定性和地方配套率；强化行业关键共性技术协同攻关，促进创新资源整合、创新效能提升、创新成果转化；建立共享市场的机制，通过联合营销、品牌推广和渠道共享等方式，扩大市场份额和提高品牌影响力，同时在产业联盟之间加强互动合作，构建群链融合协同发展机制。', '打造外向型绿色制造基地和国际贸易物流分拨平台、展示交易平台等，到2025年进出口总额突破200亿元。', '开展“公益广告助力企业纾困”活动，利用电视、地铁站、户外广告等媒体，加强企业产品品牌推广力度。']</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A195" t="n">
+        <v>25</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
           <t>呼和浩特市人民政府办公室关于印发呼和浩特市城乡饮水安全实施方案的通知</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>2020-07-09</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
+      <c r="F195" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/ztzl/yhyshj/zcfb/202008/t20200828_893787.html</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>['呼和浩特市人民政府办公室关于印发《呼和浩特市城乡饮水安全实施方案》的通知_ 呼和浩特市人民政府', '《呼和浩特市城乡饮水安全实施方案》已经市人民政府同意，现印发给你们，请认真贯彻执行。', '为切实提升饮水安全环境，解决饮水安全问题，根据《中共呼和浩特市委办公室印发关于深入学习贯彻习近平总书记考察内蒙古重要讲话精神扎实开展主题教育推动经济高质量发展重点任务的分工方案的通知》（〔2019〕61号）要求，特制定本方案。', '以习近平新时代中国特色社会主义思想为指导，全面贯彻党的十九大和十九届二中、三中、四中全会精神，以创建国家节水型城市为抓手，落实最严格水资源管理制度，强化水资源消耗总量和强度刚性约束，大力推动节水制度，逐步完善节水管理机制和标准体系，提高用水效率和效益。形成政府主导、社会参与、水资源利用与发展规模、产业结构和空间布局协调发展的现代化新格局，实现水资源的高效利用和优化配置。坚持以城乡生活、生产、生态用水需求为导向，以解决群众问题为着力点，狠抓源头管控，重点解决部分地区水源水质不达标、城区老旧小区供水压力不足、吃水难等问题，加快城乡饮水安全巩固提升工程建设，构建完善供水保障体系。', '到2020年底，水源地水质达到国家标准，供水水质达到国家生活饮用水卫生标准，农村集中供水率达到97%。城镇供水达到“水压稳、水量足、水质优”，饮用水安全保障能力全面提升，让人民群众喝上安全水、干净水、放心水。', '根据工作需要，成立呼和浩特市城乡饮水安全专项工作领导小组，统筹协调全市城乡饮水安全工作，组织调度、督促、检查并解决存在问题。', '领导小组下设办公室，设在市水务局，办公室主任由赵永富兼任，副主任由云魁伟、师学峰担任，成员从各成员单位抽调，负责协调领导小组具体工作任务。', '实施城区老旧小区供排水管网和二次加压供水改造工程。加快办理项目前期手续，有效利用市本级财政配套资金，积极争取自治区专项债支持，积极引入市场化机制，吸引社会力量参与项目建设，确保工程顺利实施。尽快启动实施老旧小区供排水管网和二次加压供水设施改造，力争在2021年底前完成全部建设任务。', '配合单位：市发展和改革委员会、财政局、自然资源局、生态环境局、住房和城乡建设局、行政审批和政务服务局、水务局，市四区政府。', '编制《城市集中供水地下水水源地开采井优化布局方案》。市水务局负责组织方案编制、专家论证、方案报批等工作，确保方案科学合理，进一步优化布局城市集中供水地下水水源地开采井，有效解决现有城镇集中供水水源井过度集中，局部地区开采强度大，超采区漏斗难以恢复的问题。', '加快推进哈拉沁水厂建设。依托哈拉沁水库，建设供水能力2万吨/日的哈拉沁水厂应急水厂，作为我市应急备用水源。春华水务公司负责组织实施，新城区政府负责用地组件报批工作，市自然资源局、住房和城乡建设局、行政审批和政务服务局等部门主动配合，加快办理项目用地建设审批手续，全力保障建设项目顺利实施。', '配合单位：市财政局、自然资源局、生态环境局、住房和城乡建设局、水务局、行政审批和政务服务局、新城区政府', '加快推进呼张客专铁路沿线安全区水源井封闭置换水源工程建设，有效消除呼张客专铁路运行隐患，保障区域供水安全。', '配合单位：市发展和改革委员会、财政局、自然资源局、住房和城乡建设局、城管综合执法局、行政审批和政务服务局、新城区政府、玉泉区政府', '加快推进砷、氟等水质超标问题防治工作。按照《内蒙古自治区地方病防治专项三年攻坚行动方案（2018-2020年）》文件要求，市水务局、卫生健康委员会指导各旗县区水务、卫健部门要对农村饮水水质进行全面排查、监测，对排查出的水质问题工程实施改水。改水方式要尊重农民意愿，充分论证，精准落实项目；单户净水设备的选用要严格把控，既要改得好，又要运行得住，筑牢饮用水安全防线。', '配合单位：土左旗政府、托县政府、和林县政府、清水河县政府、武川县政府、回民区政府、玉泉区政府、赛罕区政府', '加强对农村饮水安全工程进行巩固和提升。根据《农村饮水安全评价准则》（T/CHES18－2018）水质、水量、用水方便程度、供水保证率评价指标，全面开展排查农村饮水工程隐患问题，优先解决涉及建档立卡贫困人口供水工程薄弱环节、保障不扎实的问题，统筹解决其他供水工程隐患问题，提升农村饮水安全水平，为脱贫攻坚和全面建成小康社会提供饮水安全保障。', '建立二次供水设施维护长效化管理机制。每年定期对城镇居民二次供水设施进行安全检查和维修维护，对二次供水设施清洗、消毒不少于两次，保证二次供水水质符合国家生活饮用水卫生标准，以消除居民饮水安全隐患，确保管网末梢水水质全部达标。', '对于有物业公司管理的小区由物业企业负责对二次供水水箱（池）进行清洗、消毒、维修维护；对于无物业管理小区，由辖区办事处和社区居委会、春华水务公司负责清洗、消毒、维修维护；对于准物业管理小区，由市四区政府物业办（局）牵头，对二次供水水箱（池）进行清洗、消毒、维修维护；市四区政府负责对二次供水水箱（池）清洗、消毒、维修养护的监督落实，市城管综合执法局负责协助开展工作。对于老旧小区供排水管网及二次供水设施改造完成的小区泵房和“三供一业”项目所接收管理的小区泵房，由春华水务公司负责对二次供水水箱（池）进行清洗、消毒、维修维护，市水务局负责监督落实。', '制定出台《呼和浩特市城市居民二次供水管理办法》，切实规范居民二次供水管理工作，逐步探索推行二次供水设施由城市供水单位“统建统管”模式，提高二次供水设施建设质量和管理水平。', '开展非居民用水户饮水安全检查及整改工作。根据2019年8月以来对建成区和建成区外的重点学校、医院、宾馆饭店、机关企事业单位等人口密集的非居民用水户供水设施及运行情况安全隐患排查结果，下发整改通知，按照时限要求完成整改，消除饮水安全隐患。', '开展现制现售水、送水车灌装直饮水运营单位规范化管理工作。制定《呼和浩特市现制现售水、送水车灌装直饮水管理办法》，规范行业制现售水、送水车灌装直饮水市场管理，解决水质安全存在隐患，有效避免水资源浪费。', '2.加强饮用水水源地环境监管。加大水源地环境监管执法力度，认真清理整治违法违规建设项目和违法违规行为。', '加强水源地水质监测。加快地下水源、河湖、水库等饮用水水源地水环境监测体系能力建设，完善水环境监测、监控体系和质量管理保障体系。生态环境部门负责监测集中式饮用水水源地原水水质，供水行政主管部门负责监测出厂水水质。', '1.加强日常检测和定期抽检。城镇供水单位应按《生活饮用水卫生标准》和《城市供水水质标准》规定的检测频率、标准和方法，加强对饮用水水源、生产工艺制水、出厂水、管网末梢水的水质检测，对取水、制水、供水实施全过程监测。农村集中供水工程应按各旗县区制定的水质检测制度开展水质检测；分散供水工程的用水户，由水务、卫生、乡镇、村等部门人员组成评价组，采用“望、闻、问、尝”等简便适宜方法进行水质现场评价，出具评价意见；分散供水工程也可进行水质抽检，结果符合GB5749中农村供水水质宽限规定为达标。同时，供水单位应积极配合市水质监测中心、市县两级疾控中心对水厂的出厂水和管网末梢水进行常规项目监测。', '健全供水水质上报和公示制度。按照《呼和浩特市公共供水水质信息公布管理办法》和《内蒙古自治区城镇供水水质督察管理办法》，定期将城镇水质检测结果对社会进行公示。', '配合单位：市卫生健康委员会、土左旗政府、托县政府、和林县政府、清水河县政府、武川县政府', '提升城镇供水运行管理能力。城镇供水单位应按照专业化管理的要求制定与水厂工艺和设施相匹配的工作管理制度，明确岗位职能、操作规程及上下岗制度，落实专业维修养护人员，实行规范化管理。', '提升城镇供水服务水平。各供水单位要切实保障供水安全，不断提高管理水平，增强服务意识，改进服务方式，完善服务措施，及时解决居民用水困难。积极搭建平台拓宽缴费渠道，实现缴交水费的信息化、便利化服务。值班和抢维修人员要24小时待命，做好各项应急准备，保证人员、车辆、机具、材料、通讯“五到位”，确保及时、有序、高效、妥善处置涉水突发性事件和问题。', '完善城镇和农村供水突发事件应急预案。按照供水、卫生、环保等主管部门和供水单位职能职责制定和完善《供水突发事件应急预案》，建立应急指挥机构，落实技术、物资、人员保障，建立值班、报告、处理制度，形成有效的预警和应急救援机制。同时，抓好人员培训工作，定期开展演练，提高应急处置能力。', '供水主管部门要推动落实各项政策措施，加强城乡供水监管，督促供水单位做好供水设施和供水管网的建设改造及应急处置能力建设；生态环境部门要加大饮用水水源地保护和整治力度，严查影响供水安全的各类污染源，做好水源地及取水口上游水质监测，提升有机污染物等特征因子分析能力和水质自动监控预警能力；卫生部门要加强饮用水卫生安全监督监测，及时反馈水质监测信息，有效防控饮用水污染事件发生；水行政主管部门要加强水资源管理和监督执法，提高水源水质达标率，保障水源地水量供给；自然资源局实施项目审批时要掌握现有供水管网情况，重视项目建设对供水管网的影响；市发展和改革委员会、自然资源局、住房和城乡建设局、行政审批局等部门要主动配合，加大项目建设审批手续支持力度，确保城区老旧小区供排水管网和二次加压供水改造工程、哈拉沁水厂、呼张客专铁路沿线安全区水源井封闭置换水源工程等项目顺利按时实施。其他相关部门根据各自职能，加强用水安全的指导和监管，合力解决影响饮用水安全的突出问题。', '市水务局要统筹整合现有水务执法队伍，全面开展城乡水资源管理、饮水安全、供水管网等行政执法监督工作，加大对违法、违规取水用水和破坏供水设施及违法违规经营的供水企业的查处力度，切实保障城乡饮水安全。', '市财政局要保证预算资金及时拨付到位，市水务局、发展和改革委员会要积极争取中央、自治区专项补助，全力保障项目工程建设。对获得资金支持的项目要加强监管，确保专项补助资金专款专用。', '各地区、各部门要加大宣传力度，营造全社会珍惜水资源、保护饮用水源、节约用水、自觉维护供水设施的良好氛围；要研究制作农村饮水安全宣传材料，由旗县、乡镇、村共同开展贫困户安全饮水教育引导工作，宣传不健康饮水危害，改变农村居民不健康的用水习惯，实现饮水安全目标。', '专项工作领导小组将对全市城乡饮水安全工作开展定期、不定期的督查，对未按时完成目标任务的责任单位进行通报。在饮水安全工作中慢作为、乱作为的单位和个人，依纪依法严肃问责。']</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A196" t="n">
+        <v>25</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
           <t>让人民群众奔着更好的日子去习近平总书记考察四川纪实</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>2022-06-11</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
+      <c r="F196" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tt_1/202206/t20220611_1306610.html</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
+      <c r="G196" t="inlineStr">
         <is>
           <t>['新华社成都6月10日电 题：“让人民群众奔着更好的日子去”——习近平总书记考察四川纪实', '“四川我来过多次，不少地方都走过。天府之国，真是一个好地方。在当前统筹疫情防控和经济社会发展的背景下，我再来这里看看。”', '一天时间，自眉山至宜宾，步入稻田看秧苗长势，走进乡村话接续振兴，考察三苏祠谈文化自信，眺望三江口察长江生态保护，走进高校调研就业问题，深入企业鼓励自主创新……一路调研，一路思索，指明方向，坚定信心。', '习近平总书记指出：“我们走到今天这一步不容易，都是拼来的。同时，我们不能满足于此，还要勇往直前，更上一层楼。”', '“新的征程上，我们遇到的困难还会很多。我一直讲前途是光明的，道路是曲折的，要准备迎接挑战、接受考验。中国共产党带领中华民族就是这样推着国家往前走，让人民群众奔着更好的日子去。”', '“刚好是农忙时节，这次到南方看看水稻田。”8日上午，四川考察第一站，习近平总书记来到岷江之畔的眉山市东坡区太和镇永丰村。', '总书记高度关注粮食安全这一“国之大者”。两个月前，赴海南考察，第一站就看了三亚崖州湾的种子实验室。', '眼前的高标准农田，是四川省规模最大的水稻新品种新技术中试基地。100多种水稻在这里试种、比较、筛选、推广，以良种为丰产打下坚实根基。', '“从单株分蘖数来看，已经表现出高产的特征。”农业专家、四川农业大学教授马均告诉总书记。', '马均告诉总书记，近年来村里通过流转耕地集中起来，把村民组织动员起来，培养了200多个种粮大户，调动了他们推广新品种新技术的积极性。', '习近平总书记十分高兴：“你们从事这项工作很辛苦，出成绩也是长周期的，日晒雨淋，淡泊名利，贡献非常大。咱们国家能够丰衣足食，农业专家功不可没。”', '放眼广袤田野，总书记思虑深远：“民以食为天。推进农业现代化，既要靠我们中国的农业专家，也要靠我们中国的农民，我们有信心、有底气实现粮食安全的目标。四川要把农业搞好，把粮食生产抓好。”', '4月底，习近平总书记主持召开中央财经委员会会议，研究全面加强基础设施建设，其中一项明确要求正是“加强农村污水和垃圾收集处理设施建设”。', '驻村第一书记刘超告诉总书记，村里进行了厕所改造，建设了化粪池和污水管网，生活污水经净化处理后进入荷塘，既美化了村民生活环境，又通过莲藕种植增加了集体收入。', '总书记点点头：“衣食住行，还有医药，老百姓最关心的就是这些。要多搞一些新品种、创新药、国产药，把药价平抑下来，为百姓谋福利。”', '4年来，四川省625万建档立卡贫困人口全部脱贫，集中连片特困地区全面摆脱贫困。正如总书记所说的，困扰中华民族的绝对贫困问题，在我们这一代人手里历史性得到了彻底解决。', '“永丰村，好名字啊。永丰永丰，永远丰收！”总书记笑着对乡亲们说，“大家收入高了、日子好了，脱贫之后要接续推进乡村振兴，不断发展下去。”', '不远处，高铁疾驰穿过绿色田野。田与村、人与自然、坚守与创新，铺展开中国农业农村现代化的美丽图景。', '苏轼同他的父亲苏洵、弟弟苏辙位列唐宋八大家，书写了“一门父子三词客，千古文章四大家”的文化传奇。眉山城内，街头巷陌，因三苏父子，氤氲着深厚的文化气息。', '前厅、飨殿、启贤堂、来凤轩……总书记一路走一路察看祠内建筑、陈设、楹联、题记，不时询问三苏生平、主要文学成就和家训家风，以及三苏祠历史沿革、东坡文化研究传承等情况。', '“文物和文化遗产承载着中华民族的基因和血脉，是不可再生、不可替代的历史文化资源。”', '不久前，习近平总书记在主持中央政治局集体学习时强调，要积极推进文物保护利用和文化遗产保护传承，挖掘文物和文化遗产的多重价值，传播更多承载中华文化、中国精神的价值符号和文化产品。', '实地考察，总书记更有感触：“一滴水可以见太阳，一个三苏祠可以看出我们中华文化的博大精深。我们说要坚定文化自信，中国有‘三苏’，这就是一个重要例证。”', '从文化自信又谈到道路自信：“中华民族有着五千多年悠久文明历史的深厚底蕴，我们带领人民走的是中国特色社会主义道路。要善于从中华优秀传统文化中汲取治国理政的理念和思维，广泛借鉴世界一切优秀文明成果，不能封闭僵化，更不能一切以外国的东西为圭臬。”', '《摆脱贫困》中援引“临大事而不乱”，党的中央全会上引用“犯其至难而图其至远”，面对领导干部引用“苟非吾之所有，虽一毫而莫取”……总书记多次引用苏东坡的名言，治国理念中浸润着中华优秀传统文化的深厚智慧。', '“我们是在这块土地上的文明培育出来的，全党全民族都要敬仰我们自己的文化，坚定文化自信。”习近平总书记深情地说。', '五千多年中华文明精华的源头活水，滋养着当代中国人民的精神气质，润泽着当代中国共产党人的品德修养，孕育出大江东去的英雄气概和海纳百川的博大胸怀。', '宜宾，素有“万里长江第一城”之称。自雪域高原奔腾而下的金沙江与穿成都平原蜿蜒而来的岷江在此汇流，长江始称“长江”。', '习近平总书记详细询问上游来水情况。当地负责同志说，金沙江来水稳定在二类水质，岷江水质稳定在三类左右，汇流之后全年有350天以上稳定在二类。', '总书记表示肯定，同时强调：“作为长江上游城市，要强化上游担当，不能沿江‘开黑店’、排污水，要以能酿出美酒的标准，想方设法保护好长江上游水质，造福长江中下游和整个流域。”', '共抓大保护，不搞大开发，长江生态环境保护和经济社会发展发生历史性、转折性变化的背后，是为了中华民族永续发展的大视野、大格局、大担当。', '当前，正值高校毕业生就业的关键当口。今年，我国高校毕业生预计达1076万人，同比增加167万人，创历史新高。对此，习近平总书记十分关心。', '4月29日，习近平总书记主持召开中央政治局会议，分析研究当前经济形势和经济工作时，专门对稳定和扩大就业提出明确要求。', '8日下午，习近平总书记来到宜宾学院，实地考察高校毕业生就业工作：“党中央十分关心民生工作，民生首先是就业，我们对高校毕业生就业问题特别关心。”', '学院负责同志告诉总书记，今年全校有毕业生5637人，截至前一天，已落实毕业去向人数4165人，落实率超过70%。', '电子屏幕上，展示了宜宾学院毕业生去向落实率的柱状图，总书记仔细察看，反复询问具体数据。', '“就业数据要扎扎实实，反映真实情况。”习近平总书记严肃指出，“现在有些学校为了追求高就业率，弄虚作假，搞‘拉郎配’，签了再说。这样不行，不能糊弄上级部门，更不能糊弄学生。”', '宜宾学院求实会堂里，一场企业招聘宣讲会正在进行。来自四川本地的8家民营企业，带来150个就业岗位。', '习近平总书记向企业负责人一一询问招工需求，又向学生们详细了解就业意向和求职进展：“都是学什么专业的？想去哪里工作？”', '面对即将走出校门、走进社会的青年学子，总书记话语谆谆：“要弘扬社会主义核心价值观，努力做到德智体美劳全面发展。劳动最光荣，我们的幸福生活是靠劳动创造的，一夜暴富、一夜成名是不现实的。大学生就业要怀着一颗平实之心，综合考虑自身条件和社会需求，防止高不成、低不就。”', '他又叮嘱当地党委、政府和学校负责同志：“高等教育不断普及，这是大势所趋。国家发展方方面面都需要人才，关键是要提高人的素质。当然，学校专业设置、学生知识结构要同社会就业结构相匹配，同时要给予人才应有的地位和待遇。”', '保持经济发展势头，是解决就业问题的根本保障。离开宜宾学院，习近平总书记来到极米光电有限公司，了解当地支持民营经济发展带动就业情况。', '极米光电是一家设计研制投影机的民营企业，产品在国内市场占有率领先，为当地创造了大量就业岗位。', '企业负责人告诉总书记，新冠肺炎疫情发生以来，当地政府积极帮助解决企业困难、出台纾困措施，他们专注技术创新和智能升级，这两年企业产品销售量逆势上升，为当地解决的就业岗位也从最初的几十人增加到上千人。', '“很好，就要有这样的志气！”习近平总书记指出，“中国是世界工厂，但我们更要做制造强国。中国要实现现代化，方方面面都要强起来。”', '习近平总书记对大家说：“在你们企业，我很高兴看到年青人撑起了大梁。大家都是‘80后’‘90后’，正当其时啊！事业进步、国家富强靠的是你们，要有这样的事业感、责任感，好好干！到那时，大家一定会为‘强国圆梦、功成有我’而自豪！”', '展望未来，总书记语气坚定：“集中精力把自己的事情办好，不管风云变幻，无论风吹浪打，我自岿然不动。14亿多中国人民、9500多万党员，守好我们的岗位，做好我们的本职工作，为实现第二个百年奋斗目标、实现中华民族伟大复兴作出自己应有的贡献！”']</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A197" t="n">
+        <v>25</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
           <t>赛罕区人民政府年政府工作报告</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>2020-07-31</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/hhht_zfgb/shq/2020/202001/202007/t20200731_716744.html</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>['现在，我代表区人民政府向大会报告工作，请予审议，并请各位政协委员和列席会议的同志们提出意见。', '2019年，我们紧密团结在以习近平同志为核心的党中央周围，以习近平新时代中国特色社会主义思想和党的十九大精神为指导，深入学习贯彻习近平总书记考察内蒙古重要讲话、重要指示批示精神，认真落实各级党委、政府决策部署，在区委的正确领导下，在区人大、政协的监督支持下，坚持走以生态优先、绿色发展为导向的高质量发展新路子，在决胜全面建成小康社会征程上迈出新步伐，各项事业取得了新成绩。', '脱贫成果持续巩固。坚决扛起脱贫攻坚政治责任，脱贫攻坚成效得到持续巩固和提升。完成中央脱贫攻坚专项巡视、国家对自治区、自治区对盟市成效考核等39个问题整改。严格落实“六个精准”和“两不愁三保障”政策要求，实施脱贫攻坚十项“清零达标”。聚焦重点难点问题补齐短板，累计投入财政专项扶贫资金1193.6万元，健康扶贫、教育扶贫、就业扶贫政策全面落实到位，改造农村危房313户，兜底保障更加坚实。统筹推进产业扶贫，有效提高建档立卡贫困户收入。加大边缘人群摸排和帮扶力度，完成扶贫对象动态管理和数据采集核查等工作，有效防止返贫。', '污染防治扎实有效。全面贯彻落实习近平生态文明思想，以中央环保督察“回头看”和自治区生态环境督察反馈问题整改为契机，全力开展蓝天、碧水、净土保卫战，生态环境持续改善。围绕蓝天保卫战，持续巩固清洁炉具替换成效，全面实施禁燃区内居民清洁燃煤替换工作，推广洁净煤炭4.3万户、2万余吨。严格开展道路运输、建筑工地扬尘管控，依法整治散乱污、挥发性有机物污染企业543家。全域27万亩秸秆实现无害化循环利用。围绕碧水保卫战，深入推进流域水质改善，严格落实河长制，深入开展河道清“五乱”专项整治，清理生活、建筑各类垃圾2.9万立方米。整治集中式饮用水水源地42处。围绕净土保卫战，推进金桥电厂粉煤灰场建设。持续开展畜禽养殖和农业面源污染防治，畜禽粪污资源化利用率达到85%。完成自治区生态保护红线划定工作。', '风险防控不断加强。强化对各类风险的排查、化解和管控，风险防控能力进一步增强。突出抓好地方政府隐性债务风险管控，化解政府存量债务21.4亿元，化解民营企业拖欠账款18.5亿元，超额完成年度化债任务。深入排查整治金融领域风险隐患，严厉打击集资诈骗、非法吸收公众存款等涉众型经济犯罪，立案查处95起。', '主导产业持续壮大。28家规模以上工业企业完成产值503亿元，总量位居全市第一。光伏产业发展势头强劲，完成产值124亿元，占全区规模以上企业工业总产值25%，形成晶体产能35吉瓦,晶片产能6吉瓦，高效N型硅片市场占有率全球第一。中晶研究院碳纤维复合材料一期项目建成，中环协鑫单晶硅五期、中环领先半导体产业化项目加快建设，产业链条不断延伸。石化产业转型升级稳步实施，中石油硫磺回收装置技改、蒙联二期项目加快推进。', '现代服务业活力增强。沙良公铁物流园全年吞吐量达到245万吨，实现营业收入5.4亿元。新华文化物流项目具备开工条件，九州通医药物流四期项目开展前期工作。金桥电子商务科技孵化器孵化企业180家，被科技部列入国家级科技企业孵化器名单；金桥电子商务产业园荣获“国家级电子商务示范基地”“内蒙古自治区双创示范基地”等荣誉称号，年交易额突破60亿元。万锦、北航等商业综合体项目全力推进，中海、融创等房地产项目加快建设，金融保险、总部经济等业态加快发展。', '现代农业提质增效。着力提升设施农业基地发展质量，形成根堡、万鑫等规模化特色蔬果种植基地28个。科技服务乡村振兴力度不断加大，推广示范新品种40种，新技术16项。联动中小微企业服务“三农”，积极开展“农企对接”拓宽销售渠道。新型经营主体持续壮大，培育伊佰康奶牛养殖合作社等国家级专业合作社2家，轩达泰种植合作社等自治区专业合作社8家，新型职业农民441名。农民“丰收节”活动广泛推开，农产品品牌效应逐渐显现。', '项目招商添薪蓄力。大力开展精准招商、产业链招商，参加深圳内蒙古商会草原万里行活动等招商推介会16次。浙商银行呼和浩特分行开业运营，航天长峰军民整合产业基地落地实施，新加坡丰树仓储物流和上海亿钶氩气提纯项目签约落地；呼和浩特新松智能城、呼和浩特国际食品冷链交易中心等项目开展前期工作，广发银行内蒙古分行、协鑫科技产业园等项目进行商洽对接。', '全面改革扎实推进。以市场主体需求为导向，以转变政府职能为核心，持续推进“放管服”等改革，整合服务窗口，企业开办时间压缩至一天。落实减税降费政策，规范涉企收费，切实减轻企业负担。努力为各类市场主体投资兴业营造稳定、公开、透明的良好环境。农村集体产权制度改革稳步推进，完成农村土地承包确权40.3万亩，村集体组织清产核资工作124个，农村“房地一体”确权登记发证、集体经济组织成员身份确认和股权量化工作有序推进。', '基础设施日臻完善。积极配合推进三环路、昭乌达路、金盛快速路、地铁等市重大工程建设。启动东瓦窑—双树、保全庄改造安置工作。老旧小区改造17个、37.7万平方米。既有住宅加装电梯试点工作有序推进。持续改善农村路网，启动“四好农村路”等道路改造提升工程。推广ETC发行安装，安装率达到85%。大力推进农村人居环境整治，新改造农村水冲户厕6253户，水冲公厕70座；农村安全饮水实现集中供水全覆盖；城乡环卫保洁实行一体化管理，农村垃圾日产日清。', '精细化管理继续提升。全面开展“三城同创”工作，城市环境综合整治再上新台阶。新增环卫作业面积184万平方米，城市道路机扫率、机洗率均达到90%以上。垃圾分拣和垃圾分类信息中心投入使用，居民小区、行政事业单位垃圾分类工作扎实推进。常态化推进“两违”整治，查处土地违法案件266件，拆除违法建筑2.1万平方米。清理沿街经营、户外广告等违规违法行为3万余处（起）。受理各类民生热线反映问题18.7万余件，处置率达到98.2%。新成立金桥社区综合服务中心和永泰等14个社区，改扩建高院社区等7个社区服务场所，社区基层治理和服务供给能力有效提升。', '生态建设成效明显。践行“绿水青山就是金山银山”发展理念，大力推广“以社会投资为主、多元投入相结合”的造林模式，全民义务植树82万株（丛），东干丈、石人湾生态建设项目区绿化造林2万余亩，全区林木面积达到27.8万亩，绿化率达到18.8%，东部绿色生态屏障初具规模。完成辖区82条道路、112处单位庭院、42处公园游园的绿化改造提升，新增道路、绿地、街景绿化美化18处（条），城区栽植各类苗木150万株（丛），新增绿地面积2万平方米，人均绿地面积达到19平方米。', '社会保障持续加强。坚持财政惠民，投入资金12.3亿元，用于改善和提高民生。落实积极的就业创业政策，城镇新增就业1.2万人，农村劳动力转移就业1.9万人，城镇登记失业率控制在3.8%以内。发放创业担保贷款445万元，就业创业培训1555人。持续提高城乡低保和各类救助标准，不断扩大覆盖面，城乡多层次社会保障体系更加完善。发放城乡低保、特困供养、医疗救助等资金8900万元。', '教育事业加快发展。区第三幼儿园、丰州路小学、绿地小学乌兰校区投入使用。加强教师队伍建设，新招聘教师128名；启动实施校长、教师素质提升工程，组织各类培训8693人次。提升教师待遇，小学、初高中班主任津贴分别提高至每人每月800元、1200元；发放乡村教师补贴每人每年1万元。义务教育阶段中小学生营养配餐试点工作稳步开展。民族教育政策有效落实，民办教育健康发展。清理校外培训机构23家，取缔无证幼儿园35家，规范管理“小饭桌”备案709家。校园安防建设得到加强，校舍消防整改逐步推进。', '文体事业更加惠民。三级公共文化服务体系日趋完善。区图书馆、文化馆完成数字化升级改造。乌兰牧骑编演节目36部，演出98场，赴北京、香港等地参加文化交流活动21场。举办各类群众性文化惠民演出、比赛、全民阅读系列活动267场，送影下乡1467场。开展全民健身活动112次，参与人数3万余人。加强文物保护，丰州故城遗址、白塔火车站旧址获批第八批全国重点文物保护单位。', '卫健水平稳步提高。赛罕区人民医院新建项目加快推进。金桥、如意社区卫生服务中心建成运行。公立医院综合改革持续深化，全部取消药品加成，药品价格平均降幅15%。区医院等12所医疗机构完成电子健康卡应用建设。区级公办基层医疗机构与自治区级重点医院，实现组建医联体全覆盖。建立家庭医生签约服务团队210个。建成公共场所标准化母婴室17个。疫病防控各项工作有序开展。', '行业整治有力有效。加大房地产、自然资源、城市管理、衣食住行等重点行业领域乱象整治力度。排查违建别墅疑似图斑221处，清理整顿违法搅拌站31家。下大力气解决房地产遗留项目“办证难”“回迁难”“入住难”问题，完成不动产初始登记86个，涉及78802户、922.8万平方米；交付回迁房1134户、40.4万平方米。严厉整治房地产违法施工乱象，整治违法违规项目10个，房地产市场秩序进一步规范。', '扎实开展扫黑除恶专项斗争。围绕政治站位、依法严惩、深挖彻查、综合治理、组织建设、组织领导六个方面，重拳出击，力腕除恶，扫黑除恶专项斗争行动取得阶段性成效。投入扫黑除恶专项资金1022万元。认领中央督导组指出呼市的6个方面32个问题全部整改完成，中央督导组移交我区的396件“三类线索”均已办结。打掉涉黑性质组织1个，认定恶势力犯罪8件24人，“打伞破网”立案16件67人，“打财断血”查封、扣押、冻结黑恶势力违法犯罪所得财产近6亿元。', '着力推进社会综合治理。圆满完成庆祝新中国成立70周年等重大活动安保维稳工作。接报各类警情、治安案件分别下降3%、6%。坚守安全生产底线，严格落实安全生产责任制，深化重点行业领域安全专项治理，整改问题5285个，全年未发生重特大安全事故。深入开展食品药品安全专项整治，进一步加强食品药品质量追溯体系建设。农民工工资清欠力度持续加大，为674名农民工追回拖欠工资690.3万元。加强社会矛盾排查化解，常态开展领导干部接访下访、包案督办，化解各类矛盾纠纷416件。', '大力开展民族团结进步创建工作，2019年赛罕区荣获“全国民族团结进步模范集体”荣誉称号。全面落实宗教工作“三级网络、两级责任制”，宗教工作法治化、规范化建设水平全面提升。退役军人服务保障体系初步建立。第四次全国经济普查、“七五”普法、审计、档案、人民武装、民兵预备役、双拥、消防、防震减灾、粮食安全、妇女儿童、残疾人和关心下一代等工作均取得新成绩。', '始终坚持以习近平新时代中国特色社会主义思想为指导，认真学习贯彻习近平总书记考察内蒙古重要讲话、重要指示批示精神，树牢“四个意识”，坚定“四个自信”，坚决做到“两个维护”。扎实开展“不忘初心、牢记使命”主题教育，大力推进群众反馈问题整改。行政单位机构改革顺利实施，政府职能进一步转变，群众满意度持续提升。坚持问题导向，狠抓中央脱贫攻坚专项巡视、中央扫黑除恶专项斗争督导、国务院第六次大督查等上级巡视督查督导反馈问题整改。主动接受区人大及其常委会法律监督和政协民主监督，办理人大代表建议110件、政协委员提案203件。落实全面从严治党要求，严格执行中央八项规定精神，认真落实党风廉政建设和意识形态工作责任制，持续保持正风反腐高压态势。“三公”经费支出下降10%。加强重大项目、财政预算等政务公开。强化跟踪督查，推动重大决策部署落地见效，政府公信力、执行力、落实力不断增强。', '各位代表！回顾2019年，我们面临的形势比预计的更为严峻，遇到的情况比原想的更为复杂，走过的道路比以往更为不平凡，取得的成绩比以往更为不容易。这一年，我们顶住了压力挑战，以改革创新干成了一批实事，以责任担当解决了一批难事，以初心使命回应了群众的新期待。奋斗充满艰辛、成就令人鼓舞。我们取得的每一份成绩、每一点进步，根本在于习近平新时代中国特色社会主义思想的引航定向，关键在于市委、市政府和区委的正确领导，得益于区人大、政协的监督支持，基础在于全区广大干部群众的团结奋斗和社会各界的鼎力相助。在此，我谨代表区人民政府，向付出辛勤努力的全区广大干部群众致以崇高的敬意，向所有参与、关心和支持赛罕区改革发展的同志们、朋友们表示衷心的感谢！', '看到成绩的同时，我们也清醒认识到，发展中还存在许多短板和不足。一是在学习习近平新时代中国特色社会主义思想、党的十九大和十九届二中、三中、四中全会精神上，学懂弄通做实还有很大差距，运用新思想谋划全局、解决问题、推动落实不够。二是整体产业发展层次仍然偏低。工业上，尽管单晶硅产量在全国已经占有一席之地，但多是太阳能级硅片，电子级硅片生产依然处于起步阶段，需要下大力气提升光伏产业向下游延伸的能力。服务业上，城区缺乏综合性商业配套，不能很好地满足群众多样化生活需要和城市、产业发展需要。农业上，产业发展融合不够，农产品附加值不高，品牌影响力有限，休闲观光农业发展层次较低。三是民生短板依然突出，在教育、医疗、养老、文化等方面，服务群众的能力有待进一步提升。四是一些干部作风不实、担当不够、能力不强、激情不足。对这些问题，我们务必保持清醒、积极应对，切实加以解决。', '各位代表，认真分析当前面临的形势和挑战，我们要深刻认识到，在全党深入开展“不忘初心、牢记使命”主题教育的重要时刻，习近平总书记再次亲临内蒙古考察指导工作并发表重要讲话，这在自治区发展史上具有里程碑意义。习近平总书记对内蒙古工作的一系列重要讲话、重要指示批示精神，一以贯之，共同构成了指导现代化内蒙古建设的顶层设计和战略部署，是我区当前及今后一个时期加快改革发展的根本遵循。我们要深刻认识到，党中央推进京津冀协同发展、共建“一带一路”等重大战略机遇；支持民族地区、边疆地区加快发展等重大历史机遇；支持资源型地区经济转型发展、国家民生领域补短板等一系列重大政策机遇，是我区今后发展的关键所在，务必要抓紧抓好。我们要深刻认识到，当前首府正处于探索走好以生态优先、绿色发展为导向的高质量发展新路子的攻坚期；正处于社会转型不断加深、城市治理水平向现代化迈进的攻坚期；正处于干部作风进一步转变、营造风清气正政治生态的攻坚期，攻坚克难，负重前行仍是我们务必保持的精神状态。我们还要深刻认识到，当前智能化、5G时代、高铁开通等一系列新发展，给我们带来了新机遇、新挑战和新起点。', '各位代表！机遇总是垂青勇于竞争的人。越是临近全面建成小康社会目标之时，越要增强忧患意识、发扬斗争精神，稳扎稳打、善作善成；越是面对经济形势复杂严峻之势，越要坚持以新发展理念引领高质量发展，久久为功、行稳致远；越是处于中流浪急、半山坡陡之地，越要坚持深化改革、创新突破，完善制度、激发活力；越是面临多重压力、综合考验之境，越要坚持以人民为中心的发展思想，凝心聚力、团结奋进，共建共享发展成果。我们坚信，只要沿着习近平总书记指引的方向，坚定不移、奋勇前行，就一定能够在新时代谱写新篇章、夺取新胜利！', '2020年是全面建成小康社会和“十三五”规划收官之年。我们要紧扣全面建成小康社会目标任务，贯彻落实好新发展理念，坚持“巩固、增强、提升、畅通”八字方针，坚持以供给侧结构性改革为主线，统筹推进稳增长、促改革、调结构、惠民生、防风险、保稳定，坚定信心、保持定力，勠力同心、锐意进取，确保全面建成小康社会和“十三五”规划圆满收官，开启建设现代化首府城区新征程。', '2020年政府工作的总体要求是：以习近平新时代中国特色社会主义思想为指导，全面贯彻党的十九大和十九届二中、三中、四中全会和中央经济工作会议精神，深入贯彻习近平总书记考察内蒙古重要讲话精神，坚决贯彻党的基本理论、基本路线、基本方略，坚持稳中求进总基调，坚持新发展理念，全面做好“六稳”工作，统筹推进稳增长、促改革、调结构、惠民生、防风险、保稳定，按照自治区党委和市委要求，紧扣全面建成小康社会目标任务，筑牢“两个屏障”，坚决打赢三大攻坚战，坚定不移走以生态优先、绿色发展为导向的高质量发展新路子，为建设活力、亮丽、和谐的现代化首府城区而努力奋斗。', '2020年全区经济社会发展主要预期目标是：地区生产总值增长6%左右；一般公共预算收入达到39亿元以上；城镇常住居民人均可支配收入增长6%左右；农村常住居民人均可支配收入增长7%左右。', '坚决打好打赢脱贫攻坚战。打赢脱贫攻坚战是全面建成小康社会的重中之重，要一鼓作气、乘势而上，对照“三落实、三精准、三保障”要求，全面做好脱贫攻坚“回头看”，扎实推进问题整改。健全落实精准帮扶和防返贫长效机制，持续加强边缘人群监测，加大对贫困人群和低收入群体的综合帮扶力度，巩固提升脱贫成效。强化教育扶贫、健康扶贫等兜底保障；强化就业扶贫，加大公益性岗位开发、技能培训，支持困难群体精准就业；强化产业扶贫，完善龙头企业与贫困户利益联结机制，提高增收能力，拓宽增收渠道，坚决如期完成脱贫攻坚任务。', '坚决打好打赢污染防治攻坚战。良好生态环境是最普惠的民生福祉，要始终保持加强生态文明建设的战略定力。打好蓝天保卫战。实施大气污染防治行动，加强污染源管控。稳定提升清洁燃煤使用成效。完善施工扬尘、餐饮油烟、挥发性有机物等区域联防联控机制。抓好禁燃区内禁燃禁放工作，加强秸秆综合利用，大力整治秸秆焚烧。打好碧水保卫战。严格落实河长制，坚持源头治理、全面截污、集中处理，持续开展好河道清“五乱”专项整治，巩固大黑河、小黑河治理成效，实现达标排放、清淤补水、岸绿景美。开展好饮用水水源地保护工作。打好净土保卫战。持续加大农村面源污染防治力度。推进生活垃圾焚烧发电及餐厨垃圾协同处置项目，实现垃圾减量化、资源化、无害化处理。加大交叉执法、联合执法力度，严厉打击污染环境、破坏生态行为，坚决守护好蓝天、碧水、青山。', '坚决打好打赢防范化解重大风险攻坚战。始终保持强烈的忧患意识、风险意识，严格落实《赛罕区防范化解重大风险“1+8”工作方案》，坚决守住不发生系统性区域性风险底线。平衡好稳增长和防风险的关系，积极稳妥处理地方政府债务，打好财政预算安排、土地出让、资产盘活“组合拳”，全力化解隐性债务和拖欠民营企业账款。加强政府投资项目管理，规范政府购买服务等行为，从源头管控债务。加强涵养税源、培植财源，促进财政税收提质增量。强化民间投融资、互联网金融等领域的金融风险防控，严厉打击非法金融活动，净化金融生态环境。', '坚持生态优先，增强绿色发展源动力。生态兴则文明兴，生态衰则文明衰，生态环境是关系党的使命宗旨的重大政治问题，也是关系民生的重大社会问题。要认真落实习近平生态文明思想，扎实开展生态建设和环境治理，为筑牢我国北方重要生态安全屏障贡献力量。提升城乡绿化品质。因地制宜发展“增效”经济林和“增色”景观林，巩固提升东干丈、石人湾生态建设项目区和大青山前坡、黄合少林场等重点区域绿化成效，完成造林2万亩，推进首府东部生态屏障建设。做好31公里高铁沿线景观绿化工作。推进公园游园、庭院小区、道路水系绿化，新增道路绿地2万平方米。开展全域全民绿化，通过政府引导、地企共建、市场运作、居民认领，打造一批公益绿地、主题林廊和美化景观。发展绿色生态经济。推行节能环保、技术改造、设备升级，大力支持光伏等新材料应用、可再生能源开发等生态经济项目建设；推动构建绿色农业体系，建设高标准基本农田5000亩，推广农业新技术20项、新品种45个，推进绿色有机农产品开发。增强群众绿色生态意识。加大环保公益宣传力度，倡导绿色低碳生活方式，扎实开展节约型机关、绿色家庭等创建活动，动员社会各界参与生态建设，共建绿色秀美家园。严格执行生态环境管理制度。压实生态环境保护责任，严守生态保护红线、永久基本农田、城镇开发边界三条控制线。加强耕地保护和责任目标考核，确保耕地总量动态平衡、质量不降低。严格落实领导干部任期生态文明建设责任制等各项法律制度，用最严格的制度最严密的法治保护生态环境。', '坚持守望相助，凝聚民族团结向心力。各民族团结稳定、和睦相处是民族工作的基本前提。全面贯彻执行党的民族政策和民族区域自治制度，把抓紧抓好民族团结进步事业作为基础性事业，为筑牢祖国北疆安全稳定屏障贡献力量。持续巩固扩大民族团结进步教育和创建活动成果。紧紧围绕“三个离不开”“五个认同”,深入践行守望相助理念，结合民族团结进步“七进”活动，全面深入开展民族团结进步创建工作，铸牢中华民族共同体意识。坚持共同团结奋斗、共同繁荣发展，充分尊重少数民族风俗习惯和正常宗教信仰，支持民族旅游商品、民族手工艺品等民族特色产业发展，共建美好家园，共创美好未来。大力推进扫黑除恶专项斗争向纵深发展。从严从实抓好中央扫黑除恶督导“回头看”反馈问题整改。深入开展线索核查、大要案攻坚、“打伞破网”“打财断血”，不断取得专项斗争新战果。加强重点行业领域乱象整治，巩固扩大综合治理成效。强化房地产市场监管，确保房地产市场健康发展。建立健全各项制度机制，推动扫黑除恶专项斗争常态化、制度化、规范化，为全区经济社会健康发展创造安全稳定的环境，让群众带着满满的安全感决胜全面小康。不断加强和创新社会治理。强化系统治理、依法治理、源头治理、综合施策，构筑以网格化为基础、以信息化为支撑、以协同化为保障、以实战化为导向的治理网络，着力建设人人有责、人人尽责、人人享有的社会治理共同体。完成乡镇街道改革，通过权力下放、资金下沉、重心下移，实现基层审批服务执法力量整合，在服务保障群众需求上有更大作为。增强服务群众工作本领，持续推进房地产遗留问题解决，确保群众“办证难”“入住难”“回迁难”取得阶段性成效；解决一批群众反映强烈的信访突出问题和矛盾纠纷，推动“案结事了”向“群众满意”转变。牢固树立安全发展理念，严格落实安全生产主体责任和监管责任，持续深化安全生产大排查大整治，坚决杜绝重特大事故。建立健全应急管理体系，提高防灾减灾救灾能力。加强社会治安综合治理，深入推进智慧公安建设，完善立体化社会治安防控体系，加大违法犯罪活动打击力度，保障群众生命财产安全。加强人民武装、国防动员和后备力量建设。扎实开展退役军人安置、双拥、优抚等工作，创建“全国双拥模范城”。', '培育壮大主导产业。推进光伏产业集聚发展，支持中环等龙头企业依托自身优势，向上下游延伸，向系列化发展，形成全产业链发展格局。推动中环协鑫单晶硅五期项目投产运行，推进中环领先半导体产业化配套项目、中晶研究院碳纤维复合材料二期项目建设，着力打造国内最大的半导体及硅单晶制造基地和国家级半导体晶体研发中心。推进传统产业转型升级，支持中石油、蒙昆卷烟等企业技术研发，实现产品升级换代。启动投资4.2亿元的中石油65万吨航空煤油扩能项目，投资2.5亿元的5万吨丙烷脱氢制丙烯项目，助推企业提质增效。', '繁荣活跃现代服务业。强化现代物流功能，依托沙良公铁物流园，着力发展公铁联运、多式联运，满足多样化物流配送需求。推进新华文化物流项目建成投用。积极培育冷链物流、仓储物流等业态，落地实施呼和浩特国际食品冷链交易中心和新加坡丰树仓储物流项目。提升电子商务质效，促进金桥电子商务产业园整合提升，扶持跨境电商、农村电商等业态发展，助力跨境电商综合试验区建设。充分发挥好孵化器作用，促进小微企业成长壮大。增强商贸服务活力，顺应城乡居民对美好生活的新需求，加大商业综合体建设力度，推进北航综合楼等项目建设；聚焦民族创意、医疗健康、养老家政等民生领域，弥补供给不优、消费不足短板，培育壮大消费新业态。推动文旅融合发展，着眼发展全域旅游、四季旅游、智慧旅游，促进文化旅游产业与设施农业、休闲观光等产业融合发展，建立文旅融合发展新格局。', '提质发展现代农业。全面推进乡村振兴战略，推动农业供给侧结构性改革，充分发挥城郊优势，推动农业产业融合发展。重点推进蔬菜产业链建设，积极培育和引进育种育苗、种植加工、销售配送等相关企业，提升“菜篮子”品质效益。大力培养新型经营主体和职业农民，培育农业产业化龙头企业、农业专业合作社、家庭农场50家。加快农业品牌建设，推动农业企业“三品一标”认证。加快农村电子商务发展，反哺农业特色品牌提质增效。延伸休闲农业产业链，积极培育民俗民宿、观光体验等农旅融合新型业态。充分发挥区域优势，激活农村生产要素潜能，多措并举壮大集体经济。持续推进农村集体产权制度改革，年内完成集体经济组织成员身份确认及股权量化任务，推进土地流转和股份合作，发展适度规模经营，不断增强农村发展活力。做好动物疫病防控工作，确保农牧业生产安全。', '提供优质高效服务。好的营商环境就是生产力、竞争力。深入推进“放管服”改革，加快“互联网+政务服务”建设，推进数据共享、业务协同，实施“一网、一门、一窗、一次”改革，全面优化政务服务流程。大力推进相对集中行政许可权改革，优化项目并联审批机制，简化办事程序，压减审批时间，搭建服务“绿色通道”。全面落实国家减税降费政策，进一步清理规范涉企收费，持续降低企业生产经营成本。积极落实产业扶持政策，争取上级更多改革试点、项目资金、专项债券等政策支持。鼓励金融机构加强民营、小微企业金融服务，多渠道破解资金短缺难题。加强知识产权保护，完善诚信体系建设。全力打造零障碍、低成本、高效率营商环境。', '大力开展招商引资。抓住进入“高铁时代”的有利契机，紧盯京津冀等重点区域产业转移承接，开展定点招商；紧盯优势产业采购端、供应端、研发端等延伸项目，开展配套招商；紧盯智能制造、商贸物流、健康养生、休闲文娱等领域，开展精准招商。完善招商引资机制，大力开展以商招商、商会招商、资本招商，引进一批市场前景好、产业带动强的优质项目，力争年内引进投资5亿元以上项目3至5个。深化区级领导包联服务，加强全程盯办和服务保障，推动构建亲清新型政商关系。', '做好片区综合开发。认真践行以人民为中心的发展思想，坚持规划引领、产城融合，统筹生产、生活、生态布局，结合城市总体规划调整，着手开展科尔沁路以东区域、喇嘛营区域的建设规划；实施东瓦窑—双树、保全庄等区块征收改造，加快安置房建设；推进第二砖瓦厂棚户区改造。配套建设基础设施和公共服务设施，改善人居环境，提升城市品质，拓展产业发展空间，带动创业就业，实现城市、产业、生态等功能多元复合共享。', '完善城乡功能配套。配合完成三环路、昭乌达路、金盛快速路、地铁等市重点工程建设。提升改造恒大华府规划路、金汉御园北巷等一批群众关心的小街小巷，疏通拥堵路、修好半边路，方便群众出行；实施既有住宅加装电梯、老旧小区改造等工程，完善城区功能配套；做好公厕驿站、道路管网运行维护，保障设施正常运转；完善社区文娱、便民市场等服务设施，提高居民幸福指数。建设美丽宜居乡村，推进“四好农村路”建设、农村危房改造、农村饮水安全巩固提升等工程。', '加强城乡精细化治理。充分发挥社区服务网格化管理优势，大力推广“街道吹哨、部门报到”管理模式，开展微治理、小改造，实现大成效。继续巩固扩大“三城同创”成果，加大小街小巷、违法建筑、市容秩序、环境卫生等城市顽疾整治力度。全面推进城乡生活垃圾治理、分类体系建设，提高垃圾前端分类水平、中端运输效率和后端处理能力，回收利用率达到35%，努力让垃圾分类成为新时尚。稳步实施农村人居环境整治三年行动，继续推进户厕公厕改造、村容村貌提升，强化垃圾污水治理，不断完善城乡市容环卫管理运行一体化等长效管护机制。', '推进劳有所得、老有所养。落实积极就业政策，加大职业技能培训力度，力争城镇新增就业7000人，农村劳动力转移就业1.7万人，城镇登记失业率控制在3.8%以内。严格执行“两金四制”等保障制度，巩固拖欠农民工工资专项治理成效，维护劳动者合法权益。支持养老服务业发展，完善配套设施，推进社区居家养老，探索医养结合等养老服务新模式，实现扩面提质。', '推进幼有所育、学有所教。全面贯彻党的教育方针，落实立德树人根本任务，坚持“五育”并举,全面发展素质教育,严格落实义务教育阶段学校免试入学、同步招生、阳光分班政策。全力推进城镇小区配套幼儿园专项治理，确保学前三年毛入园率达到85%,普惠性幼儿园覆盖率达到80%，公办园在园幼儿占比达到50%。完善教师待遇保障机制，提高编制外聘用教师工资待遇，统一规范管理。建设高素质专业化教师队伍，减轻中小学教师负担；加大师资培训力度。继续推进集团化办学，加快推进南门外小学南校区、三十九中学金地校区等续建、配建教育项目，实现优质教育资源共享，有效缓解“大班额”等问题。优先发展民族教育，加强职业教育，促进各类教育协调发展。持续推进校外培训机构、无证幼儿园专项治理。完善校园安全防控体系，建设平安校园。', '推进文化惠民、体育健民。培育和践行社会主义核心价值观，全面落实意识形态工作责任制。构建高标准公共文化服务体系，持续加强区、镇（街道）、村（社区）三级标准化文化阵地建设，保障群众基本公共文化服务需求。扎实推进乌兰牧骑“七个一”建设，推出新时代精品力作，打造赛罕文化品牌。积极传承和弘扬优秀传统文化、民族文化，组织开展丰富多彩的群众文化体育活动，不断满足新时代群众文化体育需求。', '推进病有所医、弱有所扶。开工建设赛罕区人民医院。不断充实基层医疗卫生服务人员，提高基层医疗服务保障能力。严格落实分级诊疗制度，推动紧密型医联体建设。夯实基本公共卫生服务，提高家庭医生签约服务率及质量。加强“互联网+医疗健康”服务，推动人工智能辅助诊疗，促进优质资源互联共享。提高妇幼保健水平。加强重大疾病防控。加大社会保障力度，不断扩大覆盖范围，稳定提高各项社会保障待遇水平，努力让群众享受更多普惠性政策。加强城乡低保、特困供养、残疾人等社会救助，加大困难群众脱困解困力度。', '统筹抓好第七次全国人口普查、“七五”普法、审计、档案、粮食安全、妇女儿童、残疾人和关心下一代等工作。', '旗帜鲜明讲政治。坚持把党的政治建设摆在首位，全面贯彻习近平新时代中国特色社会主义思想，加强党性锻炼，坚定理想信念，进一步树牢“四个意识”、坚定“四个自信”、坚决做到“两个维护”，做习近平新时代中国特色社会主义思想的坚定信仰者和忠实实践者。增强政治判断力、政治领悟力、政治执行力，在政治立场、政治方向、政治原则、政治道路上同以习近平同志为核心的党中央保持高度一致，不折不扣贯彻落实好党中央决策部署。', '理论武装强本领。深入学习贯彻习近平新时代中国特色社会主义思想和党的十九大，十九届二中、三中、四中全会精神、习近平总书记考察内蒙古重要讲话、重要指示批示精神和中央经济工作会议精神，不断汲取强大真理力量、信仰力量和实践力量，进一步打破思维定势和路径依赖，提升从政治上、大局中谋划、部署、推动工作的能力，寻找创新创造、示范试点的突破口，协调推进改革发展稳定和增进民生福祉各项工作。', '依法履职善作为。坚持依法行政，把法治理念和法治方式贯穿政府工作全过程，认真落实区人大及其常委会的决定，依法接受区人大及其常委会法律监督和工作监督，主动接受区政协民主监督，认真办理人大代表建议、政协委员提案和人民群众来信来访。自觉接受监察监督，主动接受社会舆论监督。持续推进“三务公开”，切实提高基层治理工作的透明度和公开度，让权力在阳光下运行。严格执行民主集中制、“三重一大”集体决策等制度，广泛听取社会各界和群众意见建议，确保决策科学化、民主化。', '勤政务实敢担当。践行以人民为中心的发展思想，推动“不忘初心、牢记使命”主题教育制度化。持续深入开展“回答初心之问，走到群众中去”干部作风专项整治行动，摒弃“观、等、躲、靠”思想，坚决杜绝“推拖绕”问题，以“马上办、我来干、说了算、接地气、勇担当、重节俭”的作风，勇于挑最重的担子、敢于啃最硬的骨头，及时发现和解决群众最盼最急最忧最怨的问题。全力做好政府民生实事项目。持续精文简会，改进文风会风，减轻基层负担。牢固树立过“紧日子”思想，严控“三公”经费，压减一般性支出，让有限的财力更多更好用于落实民生实事和服务群众。坚持严管和厚爱结合、激励和约束并重，树立有为才有位的导向，让想干事、能干事、干成事的干部有机会有舞台。坚决杜绝不作为、慢作为、乱作为等突出问题，建设忠诚、干净、担当的高素质干部队伍。', '廉洁从政守底线。始终将政治纪律和政治规矩挺在前面，严格落实全面从严治党主体责任和“一岗双责”，推动政府系统党风廉政建设责任制落到实处。严格遵守《中国共产党廉洁自律准则》《中国共产党纪律处分条例》，坚决贯彻中央八项规定及实施细则精神，驰而不息正风肃纪，坚定不移反腐倡廉，深入抓好以案促改，坚决铲除滋生腐败的土壤。筑牢思想防线，保持清醒头脑，始终敬畏人民、敬畏组织、敬畏法纪，自觉划清边线、不碰红线、守住底线，形成风清气正、干事创业良好政治生态。', '各位代表，唯有只争朝夕、团结奋斗，方能不负韶华、不辱使命。让我们更加紧密团结在以习近平同志为核心的党中央周围，以习近平新时代中国特色社会主义思想为指导，全面贯彻落实习近平总书记考察内蒙古重要讲话精神、重要指示批示精神，在市委、市政府和区委的坚强领导下，不忘初心、牢记使命，万众一心加油干，越是艰险越向前，为决胜全面建成小康社会和“十三五”规划圆满收官，建设现代化首府城区而努力奋斗！', '1.“六个精准”：即扶贫对象精准、项目安排精准、资金使用精准、措施到户精准、因村派人精准、脱贫成效精准。', '2.“两不愁、三保障”：即实现扶贫对象不愁吃、不愁穿，保障其义务教育、基本医疗和住房。', '3.十项“清零达标”:即自治区提出的六“清零”、四“达标”：脱贫攻坚到户政策未落实或执行有偏差的进行清零； 对有劳动能力贫困人口扶贫产业项目未覆盖和无劳动能力贫困人口兜底政策未覆盖的实现清零；实现集体经济薄弱贫困嘎查村清零；建档立卡贫困户危房清零；实现贫困嘎查村未通动力用电、贫困户生活用电未达标清零；实现建档立卡贫困户易地扶贫搬迁任务清零。 精准扶贫建档立卡平台数据系统建设达标； 贫困旗县苏木乡镇嘎查村两级卫生院（室）设备、人员、药物等基本医疗服务达标； 自治区还将实现建档立卡贫困户饮水安全达标；实现建档立卡贫困家庭义务教育阶段子女控辍保学达标。', '5.“房地一体”确权登记：即将农村宅基地和集体建设用地使用权及地上的建筑物、构筑物实行统一权籍调查、统一确权登记、统一颁发房地一体不动产权证书。', '7.“三城同创”：即同步开展创建全国文明城市、国家卫生城市、国家食品安全示范城市工作。', '12.“两个维护”：即坚决维护习近平总书记党中央的核心、全党的核心地位，坚决维护党中央权威和集中统一领导。', '13.“三公”经费：即政府部门人员因公出国（境）经费、公务车购置及运行费、公务接待费。', '16.“三落实、三精准、三保障”：即责任落实、政策落实、工作落实;识别精准、帮扶精准、退出精准;义务教育有保障、基本医疗有保障、住房安全有保障', '17.“三个离不开”：即“汉族离不开少数民族，少数民族离不开汉族，各少数民族之间也互相离不开”。', '18.“五个认同”：即对伟大祖国、中华民族、中华文化、中国共产党、中国特色社会主义的认同。', '20.“互联网+政务服务”：即充分运用信息化手段解决企业和群众反映强烈的办事难、办事慢、办事繁的问题，是党中央、国务院作出的重大决策部署。', '22.“两金四制”：即农民工工资支付保证金、应急周转金；项目经理不拖欠农民工工资承诺制、实名管理制、总承包企业欠薪负总责任制度、恶意欠薪企业实行黑名单制。', '24.“七个一”：即：每支乌兰牧骑要有一个经典剧（节）目；每年至少新推出一个自编自演的剧（节）目；每年要创作推出一个反映当地脱贫攻坚、乡村振兴、民族团结等改革发展现实题材剧（节）目；每年为基层群众演出100场以上；各地都要有一套推动乌兰牧骑事业发展的政策保障机制；每年组织一批乌兰牧骑队员进行专业培训；每年组织开展一次乌兰牧骑技能比赛、剧（节）目展演和巡演活动。', '25.“互联网+医疗健康”：即互联网在医疗行业的新应用，其包括了以互联网为载体和技术手段的健康教育、医疗信息查询、电子健康档案、疾病风险评估、在线疾病咨询、电子处方、远程会诊、及远程治疗和康复等多种形式的健康医疗服务。', '27.“三重一大”制度：即重大事项决策、重要干部任免、重要项目安排、大额资金使用，必须经集体讨论做出决定的制度。']</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A198" t="n">
+        <v>25</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
           <t>社保政策你我他</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>2024-01-30</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zmhd/jbft/index_6848.html?id=408&amp;siteId=3</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>['本次访谈是呼和浩特市政府网与呼和浩特广播电视台文艺广播进行的联合专访，网友可在网上留言与嘉宾进行互动，欢迎网友积极参与。', '访谈嘉宾：呼和浩特市社会保险事业服务中心副主任、四级调研员 马忠在,稽核审计科科长 冯利文,社会保险核定科科长 刘文厚,信息统计科科长 李林,综合业务科副科长 王怀勇', '2023年，市社保中心全面学习贯彻党的二十大精神和习近平总书记考察内蒙古重要讲话精神，认真落实自治区和市人社工作会议部署，以主题教育为引领，以实施《社会保险经办条例》为契机，着力打造集中统一、安全规范的社保经办体系，深入推进全民参保计划，经办服务水平全面提升，主要任务指标圆满完成。', '按照《国务院办公厅关于支持多渠道灵活就业的意见》(国办发[2020]27号)规定，灵活就业人员包括个体经营、非全日制、新就业形态等从业人员。', '首次参加我市企业职工基本养老保险的灵活就业人需携带本人身份证(居住证)或社保卡，到市四区政务服务中心、乡镇人民政府服务中心(街道办事处)或部分社区就近核定。参加各旗县灵活就业基本养老保险的人员在所属旗县社会保险经办机构就近办理,生成核定信息后再通过税务线上、线下缴费渠道缴费。以灵活就业人员身份正常缴纳2023年全年的灵活就业人员，无需经过核定，可自主选择缴费档次通过税务部门缴费渠道进行缴费，可选择线上、线下两种模式缴费。', '《社会保险法》第十二条第一款规定:“用人单位应当按照国家规定的本单位职工工资总额的比例缴纳基本养老保险费，计入基本养老保险统筹基金。”', '用人单位的缴费比例，根据《国务院关于建立统一的企业职工基本养老保险制度的决定》(国发[1997]26号)规定，企业缴纳基本养老保险费比例，一般不得超过企业工资总额的20%,按照《人力资源社会保障部财政部关于继续阶段性降低社会保险费率的通知》(人社部发[2018]25号)要求，自2018年5月1日起，企业职工基本养老保险单位缴费比例由20%阶段性降至19%,期限至2019年4月30日。按照《国务院办公厅关于印发降低社会保险费率综合方案的通知》(国办发[2019]13号)精神，自2019年5月1日起，城镇职工基本养老保险(包括企业和机关事业单位基本养老保险)单位缴费比例统一降至16%,具体比例由省、自治区、直辖市人民政府确定。从2006年开始，全国各地职工个人缴费比例统一为本人缴费工资的8%,由用人单位从职工本人工资中代扣代缴。', '参保单位按月核定，每月1-20日为办理人员增加减少等公共业务时间，如遇法定节假日，办理时间顺延。因此，单位负责社保工作人员一定要在规定时间内完成人员增加减少业务。', '社会保险法》第十二条第二款规定:“职工应当按照国家规定的本人工资的比例缴纳基本养老保险费，记入个人账户”。目前，全国各地职工个人缴费比例统一为本人缴费工资的8%,由用人单位从职工本人工资中代扣代缴。', '参保单位按月核定，每月1-20日为办理人员增加减少等公共业务时间，如遇法定节假日，办理时间顺延。', '依据《社会保险法》第十五条规定第一款规定:“参加基本养老保险的个人，达到法定退休年龄时累计缴费满15年的按月领取基本养老金。”', '缴费年限是指:依据有关规定实行个人缴费至职工退休时，单位和个人实际缴纳养老保险费的年限。', '视同缴费年限是指:参保个符合规定的连续工龄，期间虽然没有缴纳社会保险费用，但视同为已经缴费并计发相应的社会保险待遇情形。', '《社会保险法》第十五条规定:“基本养老金由统筹养老金和个人账户养老金组成。”基本养老金根据个人累计缴费年限、缴费工资、当地职工平均工资、个人账户金额、城镇人口平均预期寿命等因素确定。采取新人新办法、老人老办法、中人过渡的办法来办理。', '老人:国发〔2005〕38号文件实施前已经退休的参保人员属于“老人”，仍按国家原来的规定发给基本养老金。', '新人:国发〔1997〕26号文件实施后参加工作并于国发〔2005〕38号文件实施后退休的参保人员属于“新人”，退休时的基本养老金由基础养老金和个人账户养老金两部分组成。', '中人:国发〔1997〕26号文件实施前参加工作并于国发〔2005〕38号文件实施后退休的参保人员属于“中人” 。退休时的基本养老金由基础养老金和个人账户养老金、过渡性养老金三部分组成。', '领取养老金待遇资格认证是防范养老金被恶意冒领、防止社保基金流失的重要措施。按照《人力资源社会保障部办公厅关于印发&lt;领取社会保险待遇资格确认经办规程(暂行)&gt;的通知》(人社厅发〔2018〕107号)规定:“领取养老金待遇人员每年至少应进行一次领取待遇资格认证”。“对领取待遇未认证人员和采取其它手段无法联系到本人的，社保经办机构可办理待遇暂停手续，对办理了待遇暂停手续的人员，若3个月内无人提出异议将停发待遇”。', '养老金领取人员死亡、在押服刑或领取多份养老金的，家属或本人冒领多领的养老金要退回。以欺诈、伪造证明材料或其他手段骗取养老金的，属于刑法第二百六十六条规定的诈骗公私财物的行为，要依法追究刑事责任。', '按照国家人社部发布的社会保险经办规程规定:领取养老金待遇的人员每年至少要做一次领取待遇资格认证，超期未认证人员要暂停待遇发放，待认证后的下个月恢复待遇并补发暂停期间的养老金。', '按照国家颁布的社会保险法规定:符合领取养老金待遇条件的人员要按月足额发放养老金;所以你们的养老金是按月发放的。你这月X日认证时已过了本月的发放准备期(15日)，所以你当月因超期未认证被暂停发放的养老金本月已无法发放，只能等下个月一并补发了。', '按月领取养老金和每年要做一次领取待遇资格认证都是国家有明确规定的，你在享受每月领取养老金权利的同时也要配合社保经办部门完成认证的义务。所以认证不是需要每月都要通知。这次通知是因为要过春节，为了避免停发引起你的不便，所以对于没认证要停发的人员都电话和短信提示了一遍，为此全市退休人员的养老金发放都延后了5天。', '实体社会保障卡补换卡后电子社保卡怎么办?实体社会保障卡与电子社保卡是一一对应、唯一映射的。当实体社会保障卡补换卡后，那么卡号会发生变动。之前的实体社会保障卡失效，电子社保卡也会同步失效。这时候需要解绑原有的电子社保卡，申领新的电子社保卡，之后绑定新的实体社会保障卡，这样电子社保卡就还能继续使用。', '瘫痪在家的老人申领社保卡，可以到离家比较近的原办卡银行网点去申请上门服务，具体需要提供什么材料请按照银行的规定和要求办理。如果银行不提供上门服务，可以拨打社保中心监督电话0471--6243446和我们工作人员联系。', '社会保障卡(以下简称社保卡)兼具社保功能和银行账户，二者相互独立，各自设置密码，需分别办理密码修改与重置。', '②线下方式。持卡人持本人有效身份证件和社保卡前往当地银行社保卡服务网点，对社保卡社保功能密码进行修改和重置。在我区范围内，此项服务可以跨地区、跨银行办理，全区各地、所有合作银行的社保卡服务网点均可提供此项服务。', '(2)银行账户密码修改与重置。持卡人持本人有效身份证件和社保卡前往社保卡发卡银行设立在当地的任一服务网点，对社保卡银行账户密码进行修改和重置。', '社会保障卡(以下简称社保卡)到期实际上是指社保卡银行账户到期。银行账户到期后，社保卡的社保功能(例如，就医购药功能)不受影响，仍可正常使用;社保卡的银行账户通常会受到影响。因此，社保卡银行账户到期后，如果持卡人仅使用社保卡的社保功能，则可以不做任何处理;如果持卡人要使用社保卡的银行账户(例如，领取养老金)，则需要换领新的社保卡。(广大持有中国银行社保卡客户，为不影响您的社保卡使用，中国银行将已到期的社保卡统一延至2024年底，您的卡仍可正常使用。)', '谢谢呼和浩特市社会保险事业服务中心副主任、四级调研员马忠在,稽核审计科冯利文科长,社会保险核定科刘文厚科长,信息统计科李林科长,综合业务科王怀勇副科长，感谢网友的关注与参与，本期访谈到此结束，谢谢。']</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A199" t="n">
+        <v>25</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
           <t>呼和浩特市人民政府办公厅关于加强和改进企业国有资产监督防止国有资产流失的实施意见</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>2018-12-05</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/hhht_zfgb/hhht/2018/deq/201812/t20181205_363762.html</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>['呼和浩特市人民政府办公厅 关于加强和改进企业国有资产监督 防止国有资产流失的实施意见', '为深入贯彻落实《国务院办公厅关于加强和改进企业国有资产监督防止国有资产流失的意见》（国办发〔2015〕79号）和《内蒙古自治区人民政府办公厅关于加强和改进企业国有资产监督防止国有资产流失的实施意见》（内政办发〔2016〕9号）精神，切实保障国有资产安全，防止国有资产流失，结合我市实际，制定如下实施意见。', '以习近平新时代中国特色社会主义思想和党的十九大精神为指导，深入学习贯彻习近平总书记系列重要讲话和考察内蒙古重要讲话精神，贯彻落实自治区党委第十次党代会和市委第十二次党代会精神，按照党中央、国务院和自治区党委、政府的有关决策部署，以国有资产保值增值、防止流失为目标，坚持问题导向，立足体制机制制度创新，加强和改进党对国有企业的领导，强化国有企业内部监督、出资人监督和审计、纪检监察、巡察监督及社会监督，严格责任追究，加快形成全面覆盖、分工明确、协同配合、制约有力、严肃问责的国有资产监督体系，充分体现监督的严肃性、权威性、时效性，促进全市国有经济和国有企业持续健康发展。', '坚持全面覆盖、突出重点原则。实现企业国有资产监督的全覆盖，重点加强对国有企业权力集中、资金密集、资源富集、资产聚集等重点部门、重点岗位和重点决策环节的监督，切实维护国有资产安全。', '坚持权责分明、协同联合原则。清晰界定各类监督主体的监督职责，有效整合监督资源，增强监督工作合力，形成内外衔接、上下贯通的国有资产监督格局。', '坚持放管结合、提高效率原则。正确处理好依法监督和增强企业活力的关系，改进监督方式，创新监督方法，尊重和维护企业经营自主权，增强监督的针对性和有效性。', '坚持完善制度、严肃问责原则。建立健全企业国有资产监督制度体系，依法依规开展监督工作，完善责任追究制度，对违法违规造成国有资产损失以及监督工作中失职渎职的责任主体，严格追究责任。', '（三）完善企业内部监督机制。推动国有企业集团公司建立涵盖各治理主体及审计、纪检监察、法律、财务等部门的监督工作体系，强化对子企业的纵向监督和各业务板块的专业监督。明确内部监事会、内部审计、纪检监察及法律、财务等部门的监督职责，建立健全涉及财务、采购、营销、投资等方面的企业内部监督制度和内控机制。强化企业内部流程控制，推行分事行权、分岗设权、分级授权、定期轮岗等内控制度，防止权力滥用。发挥总会计师、总法律顾问作用，加强对企业重大决策和重要经营活动的财务、法律审核把关，推进企业依法经营，防范企业经营风险。加强内部监督工作的联动配合，提升信息化水平，强化流程管控的刚性约束，确保内部监督及时、有效。', '（四）强化董事会规范运作和对经理层的监督。以规范董事会建设完善法人治理结构为重点，深入推进外部董事占多数的董事会建设，加强董事会内部的制衡约束，依法规范董事会决策程序和董事长履职行为，落实董事对董事会决议承担的法定责任。出台董事会董事考核评价办法，强化对董事会、董事的考核评价和管理。开展企业经理层成员任期制和契约化管理试点，企业董事会负责同经理层签订聘任协议，约定聘任期限、岗位目标、薪酬待遇、奖惩条件等事项，明确相应的权利、责任、义务，严格任期管理和目标考核，切实加强董事会对经理层落实董事会决议的监督。推动具备条件的国有企业设立由外部董事组成的审计委员会，落实董事会审计委员会工作职责，建立企业内部审计部门向董事会负责的工作机制，董事会依法审议批准企业年度审计计划和重要审计报告，增强董事会运用内部审计规范运营、管控风险的能力。', '（五）加强企业内设监事会建设。推动国有企业重要子企业成立内设监事会，内设监事会直接对股东会或出资人负责。建立监事会主席由上级母公司依法提名、委派制度，提高专职监事比例，专职监事一般不得兼任其他实职，增强监事会的独立性和权威性。加大监事会对董事、高级管理人员履职行为的监督力度，通过列席企业有关会议、检查经营管理活动、查阅有关资料、检查企业财务等多种方式，落实监事会检查公司财务、纠正董事及高级管理人员损害公司利益行为等职权，保障监事会依法行权履职，强化监事会及监事的监督责任。', '（六）推进企业职工民主监督。强化职工代表大会民主监督，职工代表大会每年或定期听取企业负责人报告履职和廉洁自律情况，并对企业负责人进行民主评议和测评，民主测评结果作为企业负责人绩效考核的重要依据，上报履行出资人职责的机构或董事会。落实职工董事管理办法，完善职工监事产生程序，切实发挥职工董事、职工监事在参与公司决策和治理中的作用。大力推进厂务公开，建立公开事项清单制度，凡企业重大决策、生产经营管理方面的重要问题、涉及职工切身利益的问题、与企业领导班子建设密切相关的问题，全部予以公开，保障职工知情权、参与权和监督权。', '（七）发挥企业党组织保证监督作用。推动国有企业把党建工作总体要求纳入公司章程，明确党组织在公司法人治理结构中的法定地位。创新国有企业党组织发挥政治核心作用的途径和方式，健全党组织参与重大决策机制，明确党组织参与重大问题决策的主要内容，规范企业党组织参与重大问题决策的主要程序。落实党组织在企业党风廉政建设和反腐败工作中的主体责任和纪检机构的监督责任，强化党组织对企业领导人员履职行为的监督，确保企业决策部署及其执行过程符合党和国家方针政策、法律法规。加强国有企业基层党组织建设和党员队伍建设，充分发挥基层党组织战斗堡垒作用、共产党员先锋模范作用。', '（八）完善国有资产监管机构监督。各级国有资产监督管理机构要坚持出资人管理和监督的有机统一，准确把握依法履行出资人职责的定位，出台以管资本为主推进国有资产监管机构职能转变的实施方案，重点管好国有资本布局、规范资本运作、提高资本回报、维护资本安全，实现以管企业为主向管资本为主的转变。健全国有企业规划投资、改制重组、依法经营、产权管理、财务评价、业绩考核、选人用人、薪酬分配等规范国有资本运作、防止流失的制度。落实市本级经营性国有资产统一监管的实施意见，推动履行社会公共管理职能的部门、机构与直接管理的企业脱钩，具备条件的企业纳入国有资产监管机构直接监管，部分特殊性质企业在政府统一授权国有资产监管机构履行出资人职责的基础上委托相关部门、机构管理，并执行统一的国有资产监管制度。加大对国有企业执行监管制度情况的监督力度，定期开展对各业务领域制度执行情况的检查，针对不同时期的重点任务和突出问题不定期开展专项抽查。完善国有资产监管机构内部组织设置和职能配置，建立监管权力清单和责任清单，抽调精干力量专门负责分类处置和督办监督工作中发现的需要企业整改的问题，组织开展国有资产重大损失调查，提出有关责任追究的意见。开展国有资产监管机构向所出资企业依法委派总会计师试点工作，强化出资人对企业重大财务事项的监督。', '（九）加强和改进外派监事会监督。外派监事会由各级政府派出，作为出资人监督的专门力量，围绕企业财务、重大决策、运营过程中涉及国有资产流失的事项和关键环节，以及董事会和经理层依法依规履职情况等实施监督，对本级人民政府和国有资产监管机构负责并报告工作。出台外派监事会管理制度，依照权限做好外派监事会日常监督管理。建立健全履职报告制度，外派监事会逐户向政府报告年度监督检查情况，对重大事项、重要情况、重大风险和违法违纪违规行为“一事一报告”。保障监事会主席依法行权履职，落实外派监事会的纠正建议权、罢免或者调整建议权，监事会主席根据授权督促企业整改落实有关问题或者约谈企业领导人员。建立外派监事会可追溯、可量化、可考核、可问责的履职记录制度，切实强化责任意识，健全责任倒查机制。', '（十）健全国有企业审计监督体系。完善国有企业审计监督制度，加强离任、任中、专项等多种形式审计监督，进一步厘清政府部门公共审计、出资人审计和企业内部审计之间的职责分工，实现企业国有资产审计监督全覆盖。审计部门要依法加大对国有企业领导人员履行经济责任情况的审计力度，坚持离任必审，完善任中审计，探索任期轮审，实现任期内至少审计一次。探索建立国有企业经常性审计制度，对国有企业重大财务异常、重大资产损失及风险隐患、国有企业境外资产等开展专项审计，对重大决策部署和投资项目、重要专项资金等开展跟踪审计。国有企业要加大内部审计工作力度，完善内部审计工作机制，充分发挥内部审计的监督、评价和服务作用。审计部门应加强对国有企业内部审计机构工作的指导和监督，建立对社会审计机构出具的相关审计报告和执业准则的经常性核查制度。完善国有企业购买审计服务办法，扩大购买服务范围，推动审计监督职业化。', '（十一）进一步增强纪检监察和巡察的监督作用。督促国有企业落实“两个责任”，实行“一案双查”，强化责任追究。加强对国有企业执行党的纪律情况的监督检查，重点审查国有企业执行党的政治纪律、政治规矩、组织纪律、廉洁纪律情况，严肃查处违反中央八项规定精神的行为和“四风”问题。查办腐败案件坚持以上级纪委领导为主，线索处置和案件查办在向同级党委报告的同时，必须向上级纪委报告。严肃查办发生在国有企业改制重组、产权交易、投资并购、物资采购、招标投标等重点领域和关键环节的腐败案件。贯彻中央巡视工作方针，聚焦党风廉政建设和反腐败斗争，围绕“四个着力”，加强和改进对国有企业巡察工作，发现问题，形成震慑，倒逼改革，促进发展。', '（十二）建立高效顺畅的外部监督协同机制。明确各类外部监督主体的监督职责，增强监督工作合力。综合运用出资人监督、外派监事会监督和外部审计、纪检监察、巡察等外部监督力量，建立监督工作会商机制，加强统筹，减少重复检查，提高监督效能。创新监督工作机制和方式方法，运用信息化手段查核问题，实现监督信息共享。完善重大违法违纪违规问题线索向纪检监察部门、司法部门移送机制，健全监督主体依法提请有关部门配合调查案件的制度措施。', '（十四）畅通拓宽社会监督渠道。完善国有企业信用信息公示、整合、运用、惩戒机制，加强企业信息公示和共享工作，推动企业主动接受社会监督。重视各类媒体的监督，及时回应社会舆论对企业国有资产运营的重大关切。畅通人民群众反映国有企业问题的渠道，鼓励人民群众通过检举、揭发、申诉、控告等方式对国有企业经营管理者权力行使的合法性与合理性进行监督。认真处理公众关于国有资产流失等问题的来信、来访和检举，充分发挥社会监督作用。', '（十五）加大对国有企业违规经营责任追究力度。明确企业作为维护国有资产安全、防止国有资产流失的责任主体，抓紧制定我市国有企业违规经营投资责任追究办法，推动国有企业内部建立违规经营投资责任追究制度，细化经营投资责任追究的原则、范围、依据、启动机制、程序、方式、标准和职责，保障违规经营投资责任追究工作有章可循、规范有序。综合运用组织处理、经济处罚、禁入限制、纪律处分和追究刑事责任等手段，依法查办违规经营导致国有资产重大损失的案件，严厉惩处侵吞、贪污、输送、挥霍国有资产和逃废金融债务的行为。对国有企业违法违纪违规问题突出、造成重大国有资产损失的，严肃追究企业党组织的主体责任和企业纪检机构的监督责任。建立和完善国有企业违规经营责任追究典型问题通报制度，加强对企业领导人员的警示教育。', '（十六）严格监督工作责任追究。落实企业外部监督主体维护国有资产安全、防止国有资产流失的监督责任。健全国有资产监管机构、外派监事会、审计机关和纪检监察、巡察在监督工作中的问责机制，对企业重大违法违纪违规问题应当发现而未发现或敷衍不追、隐匿不报、查处不力的，严格追究有关人员失职渎职责任，视不同情形分别给予纪律处分或行政处分，构成犯罪的，依法追究刑事责任。完善监督工作中的自我监督机制，健全内控措施，严肃查处监督工作人员在问题线索清理、处置和案件查办过程中违反政治纪律、组织纪律、廉洁纪律、工作纪律的行为。', '（十七）完善企业国有资产监督制度体系。做好国有资产监督管理相关制度的立改废释工作，出台我市国有资产监督管理办法。借鉴先进地区和兄弟盟市国资监管工作好的经验做法，结合我市实际，制定完善投资规划、业绩考核、产权管理、薪酬分配、财务监督等领域的规范性文件，提升国资监管的针对性和有效性。废止或修改不符合改革方向、不适应监管要求或与上位法不一致的文件规定，形成科学统一的国有资产监督制度体系。', '（十八）加强监督队伍建设。选派政治坚定、业务扎实、作风过硬、清正廉洁的优秀人才，进一步充实监督力量。优化监督队伍知识结构，加强监督人员的专项业务素养、知识培训，全面提高监督人员依法行权履责的水平和能力。加强对监督队伍的日常管理和考核评价，健全与监督工作成效挂钩的激励约束机制，强化监督队伍履职保障。', '本意见适用于全市企业国有资产监督工作。金融、文化等企业国有资产监督工作，另有规定的按其规定执行。']</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A200" t="n">
+        <v>25</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
           <t>中国梦要靠你们来实现习近平总书记关心少年儿童成长成才纪实</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>2022-06-02</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tt_1/202206/t20220602_1294610.html</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>['“中国梦要靠你们来实现”——习近平总书记关心少年儿童成长成才纪实_ 呼和浩特市人民政府', '新华社北京5月31日电 题：“中国梦要靠你们来实现”——习近平总书记关心少年儿童成长成才纪实', '党的十八大以来，习近平总书记站在红色江山后继有人、中国特色社会主义事业薪火相传的战略高度，关心少年儿童成长成才、谋划少年儿童工作发展进步，激励新时代少年儿童奋发有为、向阳成长。', '2014年5月30日，习近平总书记参加北京市海淀区民族小学少先队员入队仪式时，回想起自己当年入队时的情景。', '习近平总书记说：“记得入队时心怦怦跳，很激动。不知你们有没有这种感觉？”孩子们回答：“有。”', '“为什么会这样？因为是一种荣誉。”习近平总书记说，“我在你们脸上看到了希望，祖国和民族的希望。正像誓言说的那样，要时刻准备着，将来接班。”', '嘉宾在观看北京海淀区民族小学书法社团活动（2019年5月29日摄）。新华社记者 刘莲芬 摄', '一番语重心长的话语，引导广大少年儿童树立远大理想，准备着为实现中国梦的美好未来接力奋斗。', '寄语“人生最重要的志向应该同祖国和人民联系在一起”；强调“你们这一代应该说是民族自豪感荣誉感最强的”；嘱咐“我国社会主义现代化、中华民族伟大复兴的中国梦，将来要在你们手中实现”……', '习近平总书记深情的嘱托、悉心的教导，指引新时代少年儿童“努力成长为社会主义建设者和接班人”。', '2013年5月29日，党的十八大后第一个儿童节前夕，习近平总书记来到北京市少年宫，同全国56个民族、革命老区、灾区、患有先天性心脏病少年儿童和农民工子女、首都城乡少年儿童代表共度节日。', '活动现场，一棵心愿树上挂满了孩子们的心愿卡，来自革命老区的少年儿童和农村留守儿童等向习近平总书记诉说着心愿。习近平总书记频频点头说，我此刻的心愿就是你们都心想事成。', '2014年1月，习近平总书记来到内蒙古呼和浩特市儿童福利院看望孤残儿童，谆谆嘱托，“全社会都要有仁爱之心、关爱之情，共同努力使他们能够健康成长，感受到社会主义大家庭的温暖”。', '在呼和浩特市儿童福利院，教职工在陪伴儿童们玩耍（2019年5月28日摄）。新华社记者 王靖 摄', '2014年4月，在新疆疏附县托克扎克镇中心小学，习近平总书记关心孩子们的双语教育，“少数民族孩子双语教育要抓好，学好汉语将来找工作会方便些，更重要的是能为促进民族团结多作贡献”。', '在新疆疏附县托克扎克镇中心小学书法教室内，王庄铁老师在教学生写毛笔字（2017年9月26日摄）。新华社记者 赵戈 摄', '2019年5月，给澳门濠江中学附属英才学校小学生们回信，习近平总书记殷切寄语，“传承好爱国爱澳优良传统，珍惜时光，刻苦学习，健康成长，长大后为建设澳门、振兴中华多作贡献”……', '这是2019年12月19日拍摄的澳门濠江中学附属英才学校的学生。新华社记者 王申 摄', '从传承红色基因到加强思想引领，从树立正确的价值观到促进全面发展……习近平总书记以细致入微的关怀，引导少年儿童在人生旅途上选对路、起好步。', '“四五岁时妈妈买了小人书，给我讲‘精忠报国、岳母刺字’的故事，我说‘刺字不疼啊？’妈妈说，虽然疼，但岳飞会始终铭记在心。我记到现在。精忠报国，是我一生的目标。”', '2022年3月30日，春意正浓。习近平总书记来到北京市大兴区植树点参加一年一度首都义务植树活动。', '“还记得过年时，我父亲给我女儿包了一个红包，打开一看，是牙签。原来这是老人家平时收集起来的家里剩下的牙签，他对孙女说‘这些都是珍贵的木材，我帮你们存了起来’。第二年，又包了一个红包，打开一看，是纸巾，也是攒的没用完的纸巾。”', '从事小学教育多年的王欢委员向习近平总书记直言：“校外培训广告满天飞，‘制造焦虑、贩卖焦虑’”……', '习近平总书记凝神静听。听完后，他深有感触地说：“教育，无论学校教育还是家庭教育，都不能过于注重分数。分数是一时之得，要从一生的成长目标来看。如果最后没有形成健康成熟的人格，那是不合格的。”', '“现在孩子普遍眼镜化，这是一个隐忧。”“小眼镜”越来越多，牵动着习近平总书记的心。', '2020年4月21日，习近平总书记走进陕西省平利县老县镇中心小学五年级一班。他欣慰地说：“现在这些孩子们的风貌，都是非常好的。而且眼镜不多啊，这个很重要。”', '在陕西省安康市平利县老县镇中心小学的操场上，学生们在课后参加武术社团活动（2020年9月7日摄）。新华社记者 李一博 摄', '习近平总书记多次作出重要指示，要求“全社会都要行动起来，共同呵护好孩子的眼睛，让他们拥有一个光明的未来”。', '2019年4月，沿着蜿蜒的山路，习近平总书记辗转3个多小时来到重庆大山深处的中益乡小学，仔细察看师生食堂的餐厅、后厨，了解贫困学生餐费补贴和食品安全卫生情况。', '重庆市石柱土家族自治县中益乡小学学生在食堂排队打饭菜（2020年1月10日摄）。新华社记者 王全超 摄', '看到午餐四菜一汤、营养均衡，习近平总书记感慨：我想起咱们开始扶贫的时候，推行每个孩子保证每天一杯牛奶、一个鸡蛋。现在每顿标准涨到了6块钱，比当初丰富多了。', '“小眼镜”“营养餐”“小胖墩”……一件件关乎少年儿童健康成长的“小事”，都是习近平总书记放在心头要解决的大事。', '2021年7月，在西藏考察的习近平总书记来到林芝市巴宜区林芝镇的嘎拉村，走进普布次仁家了解家里生产生活情况。', '“让孩子们跑起来”“个子长得高高的，身体长得壮壮的”“德智体美劳全面发展，字字千金，都是经过多年总结摸索才得出来的”……', '在习近平总书记的深情关怀下，逐步健全的制度、不断完善的政策，为少年儿童创造越来越好的成长成才环境，推动少年儿童实现全面发展。', '罗霄山脉，百丈岭下，湖南省郴州市汝城县文明瑶族乡，小小“讲解员”朱锐利用课余时间给大家分享“丰碑”“半条被子”等红色故事。', '时间倒回一年多前。2020年9月16日，在湖南考察的习近平总书记走进文明瑶族乡第一片小学，当时四年级的朱锐和同学们正在班主任指导下，重温红军长征的故事。', '“丰碑是什么故事？”习近平总书记问。朱锐站起来讲了长征中军需处长把棉衣让给战友、自己却牺牲于严寒的故事。', '“讲得好！讲得好！”习近平总书记连连夸道。“红色基因在你们身上得到了体现。革命事业要一代一代传下去。”', '不忘习近平总书记的叮咛，陕西照金北梁红军小学学生深感“今天的幸福生活来之不易”，加入“小红星合唱团”，传扬红色精神；', '陕西省铜川市耀州区照金镇北梁红军小学学生在操场跑步（2020年12月29日摄）。新华社记者 张博文 摄', '得到习近平总书记的鼓励，江苏省淮安市新安小学少先队员“听党话、跟党走”，深入家庭、社区、乡村，传播革命故事；', '大陈岛老垦荒队员后代、浙江省台州市椒江区实验二小学生李杭骏行队礼（2019年5月27日摄）。新华社发（王卫君 摄）', '收到习近平总书记的回信，大陈岛老垦荒队员的后代继续践行“热爱党、热爱祖国、热爱人民”，积极参与社会实践、志愿服务，建设家乡；', '人大附中西山学校初二年级学生官子钊已经练习近9年冰球，他至今还记得5年前和习近平总书记“撞肩”的一幕。', '2017年2月，习近平总书记来到北京五棵松体育中心，以冰球运动员特有的问候方式，同官子钊“撞肩”互动，笑着说，小伙子块头要再长大一点。', '“习爷爷在现场讲的给他弟弟礼让冰鞋的故事让我明白，做事要有合作精神，要有大格局。我会好好练习冰球，一直坚持下去，跟小伙伴们一起创造更多佳绩。”官子钊说。', '2012年在阜平同习近平总书记坐在一方炕上的唐孝亿，已是城厢中学的初中生，他想快快长大、学得更多，在扶贫先扶智的理念指引下，在物质上脱贫，更在精神上走向富裕；', '2014年同习近平总书记的会面，给聋哑女孩王雅妮无穷动力，她走上呼和浩特市特殊教育学校讲台，开始帮助更多残疾孩子改变命运；', '2017年在香港为习近平总书记演唱粤剧后，利文喆一直把习爷爷“中国优秀传统文化要传承下去”的鼓励放在心上，更加热爱粤剧表演，更加投入地练唱、练基本功；', '2016年12月，北京市八一学校孩子们研发的科普小卫星发射升空、准确入轨，发回信标信号。发射之前，他们按照约定给习近平总书记写信，报告小卫星即将发射的消息。', '北京市八一学校的学生在北京市中小学生特色科技活动展示上体验VR技术（2018年11月24日摄）。新华社记者 罗晓光 摄', '习近平总书记回信叮嘱他们：“保持对知识的渴望，保持对探索的兴趣，培育科学精神，刻苦学习，努力实践”。', '“我们的眼界不仅局限在课堂之中，而是扩展到了世界、飞向了浩瀚的星际。”被小卫星吸引而加入研制团队的张馨心分享探索宇宙的心路历程，“就像总书记说的‘发挥启明星一样的作用’，我们会不断用努力证明，我们是新时代的希望。”', '2014年5月30日，在北京市海淀区民族小学的书法课堂，书法老师请习近平总书记为“中国梦”点上最后一笔。习近平总书记对孩子们说，中国梦要靠你们来实现。“两个一百年”要靠你们接力奋斗，还是你们来点这一笔吧。', '“今天做祖国的好儿童，明天做祖国的建设者，美好的生活属于你们，美丽的中国梦属于你们。”这是习近平总书记对新时代少年儿童的真挚期待，也是中华民族可以预见的美好未来。']</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A201" t="n">
+        <v>25</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
           <t>呼和浩特市人民政府办公厅关于加强和改进企业国有资产监督防止国有资产流失的实施意见</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>2018-05-08</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/ztzl/yhyshj/zcfb/201804/t20180408_893874.html</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>['呼和浩特市人民政府办公厅关于加强和改进企业国有资产监督防止国有资产流失的实施意见_ 呼和浩特市人民政府', '为深入贯彻落实《国务院办公厅关于加强和改进企业国有资产监督防止国有资产流失的意见》（国办发〔', '号）和《内蒙古自治区人民政府办公厅关于加强和改进企业国有资产监督防止国有资产流失的实施意见》（内政办发〔', '号）精神，切实保障国有资产安全，防止国有资产流失，结合我市实际，制定如下实施意见。', '以习近平新时代中国特色社会主义思想和党的十九大精神为指导，深入学习贯彻习近平总书记系列重要讲话和考察内蒙古重要讲话精神，贯彻落实自治区党委第十次党代会和市委第十二次党代会精神，按照党中央、国务院和自治区党委、政府的有关决策部署，以国有资产保值增值、防止流失为目标，坚持问题导向，立足体制机制制度创新，加强和改进党对国有企业的领导，强化国有企业内部监督、出资人监督和审计、纪检监察、巡察监督及社会监督，严格责任追究，加快形成全面覆盖、分工明确、协同配合、制约有力、严肃问责的国有资产监督体系，充分体现监督的严肃性、权威性、时效性，促进全市国有经济和国有企业持续健康发展。', '坚持全面覆盖、突出重点原则。实现企业国有资产监督的全覆盖，重点加强对国有企业权力集中、资金密集、资源富集、资产聚集等重点部门、重点岗位和重点决策环节的监督，切实维护国有资产安全。', '坚持权责分明、协同联合原则。清晰界定各类监督主体的监督职责，有效整合监督资源，增强监督工作合力，形成内外衔接、上下贯通的国有资产监督格局。', '坚持放管结合、提高效率原则。正确处理好依法监督和增强企业活力的关系，改进监督方式，创新监督方法，尊重和维护企业经营自主权，增强监督的针对性和有效性。', '坚持完善制度、严肃问责原则。建立健全企业国有资产监督制度体系，依法依规开展监督工作，完善责任追究制度，对违法违规造成国有资产损失以及监督工作中失职渎职的责任主体，严格追究责任。', '（三）完善企业内部监督机制。推动国有企业集团公司建立涵盖各治理主体及审计、纪检监察、法律、财务等部门的监督工作体系，强化对子企业的纵向监督和各业务板块的专业监督。明确内部监事会、内部审计、纪检监察及法律、财务等部门的监督职责，建立健全涉及财务、采购、营销、投资等方面的企业内部监督制度和内控机制。强化企业内部流程控制，推行分事行权、分岗设权、分级授权、定期轮岗等内控制度，防止权力滥用。发挥总会计师、总法律顾问作用，加强对企业重大决策和重要经营活动的财务、法律审核把关，推进企业依法经营，防范企业经营风险。加强内部监督工作的联动配合，提升信息化水平，强化流程管控的刚性约束，确保内部监督及时、有效。', '（四）强化董事会规范运作和对经理层的监督。以规范董事会建设完善法人治理结构为重点，深入推进外部董事占多数的董事会建设，加强董事会内部的制衡约束，依法规范董事会决策程序和董事长履职行为，落实董事对董事会决议承担的法定责任。出台董事会董事考核评价办法，强化对董事会、董事的考核评价和管理。开展企业经理层成员任期制和契约化管理试点，企业董事会负责同经理层签订聘任协议，约定聘任期限、岗位目标、薪酬待遇、奖惩条件等事项，明确相应的权利、责任、义务，严格任期管理和目标考核，切实加强董事会对经理层落实董事会决议的监督。推动具备条件的国有企业设立由外部董事组成的审计委员会，落实董事会审计委员会工作职责，建立企业内部审计部门向董事会负责的工作机制，董事会依法审议批准企业年度审计计划和重要审计报告，增强董事会运用内部审计规范运营、管控风险的能力。', '（五）加强企业内设监事会建设。推动国有企业重要子企业成立内设监事会，内设监事会直接对股东会或出资人负责。建立监事会主席由上级母公司依法提名、委派制度，提高专职监事比例，专职监事一般不得兼任其他实职，增强监事会的独立性和权威性。加大监事会对董事、高级管理人员履职行为的监督力度，通过列席企业有关会议、检查经营管理活动、查阅有关资料、检查企业财务等多种方式，落实监事会检查公司财务、纠正董事及高级管理人员损害公司利益行为等职权，保障监事会依法行权履职，强化监事会及监事的监督责任。', '（六）推进企业职工民主监督。强化职工代表大会民主监督，职工代表大会每年或定期听取企业负责人报告履职和廉洁自律情况，并对企业负责人进行民主评议和测评，民主测评结果作为企业负责人绩效考核的重要依据，上报履行出资人职责的机构或董事会。落实职工董事管理办法，完善职工监事产生程序，切实发挥职工董事、职工监事在参与公司决策和治理中的作用。大力推进厂务公开，建立公开事项清单制度，凡企业重大决策、生产经营管理方面的重要问题、涉及职工切身利益的问题、与企业领导班子建设密切相关的问题，全部予以公开，保障职工知情权、参与权和监督权。', '（七）发挥企业党组织保证监督作用。推动国有企业把党建工作总体要求纳入公司章程，明确党组织在公司法人治理结构中的法定地位。创新国有企业党组织发挥政治核心作用的途径和方式，健全党组织参与重大决策机制，明确党组织参与重大问题决策的主要内容，规范企业党组织参与重大问题决策的主要程序。落实党组织在企业党风廉政建设和反腐败工作中的主体责任和纪检机构的监督责任，强化党组织对企业领导人员履职行为的监督，确保企业决策部署及其执行过程符合党和国家方针政策、法律法规。加强国有企业基层党组织建设和党员队伍建设，充分发挥基层党组织战斗堡垒作用、共产党员先锋模范作用。', '（八）完善国有资产监管机构监督。各级国有资产监督管理机构要坚持出资人管理和监督的有机统一，准确把握依法履行出资人职责的定位，出台以管资本为主推进国有资产监管机构职能转变的实施方案，重点管好国有资本布局、规范资本运作、提高资本回报、维护资本安全，实现以管企业为主向管资本为主的转变。健全国有企业规划投资、改制重组、依法经营、产权管理、财务评价、业绩考核、选人用人、薪酬分配等规范国有资本运作、防止流失的制度。落实市本级经营性国有资产统一监管的实施意见，推动履行社会公共管理职能的部门、机构与直接管理的企业脱钩，具备条件的企业纳入国有资产监管机构直接监管，部分特殊性质企业在政府统一授权国有资产监管机构履行出资人职责的基础上委托相关部门、机构管理，并执行统一的国有资产监管制度。加大对国有企业执行监管制度情况的监督力度，定期开展对各业务领域制度执行情况的检查，针对不同时期的重点任务和突出问题不定期开展专项抽查。完善国有资产监管机构内部组织设置和职能配置，建立监管权力清单和责任清单，抽调精干力量专门负责分类处置和督办监督工作中发现的需要企业整改的问题，组织开展国有资产重大损失调查，提出有关责任追究的意见。开展国有资产监管机构向所出资企业依法委派总会计师试点工作，强化出资人对企业重大财务事项的监督。', '（九）加强和改进外派监事会监督。外派监事会由各级政府派出，作为出资人监督的专门力量，围绕企业财务、重大决策、运营过程中涉及国有资产流失的事项和关键环节，以及董事会和经理层依法依规履职情况等实施监督，对本级人民政府和国有资产监管机构负责并报告工作。出台外派监事会管理制度，依照权限做好外派监事会日常监督管理。建立健全履职报告制度，外派监事会逐户向政府报告年度监督检查情况，对重大事项、重要情况、重大风险和违法违纪违规行为“一事一报告”。保障监事会主席依法行权履职，落实外派监事会的纠正建议权、罢免或者调整建议权，监事会主席根据授权督促企业整改落实有关问题或者约谈企业领导人员。建立外派监事会可追溯、可量化、可考核、可问责的履职记录制度，切实强化责任意识，健全责任倒查机制。', '（十）健全国有企业审计监督体系。完善国有企业审计监督制度，加强离任、任中、专项等多种形式审计监督，进一步厘清政府部门公共审计、出资人审计和企业内部审计之间的职责分工，实现企业国有资产审计监督全覆盖。审计部门要依法加大对国有企业领导人员履行经济责任情况的审计力度，坚持离任必审，完善任中审计，探索任期轮审，实现任期内至少审计一次。探索建立国有企业经常性审计制度，对国有企业重大财务异常、重大资产损失及风险隐患、国有企业境外资产等开展专项审计，对重大决策部署和投资项目、重要专项资金等开展跟踪审计。国有企业要加大内部审计工作力度，完善内部审计工作机制，充分发挥内部审计的监督、评价和服务作用。审计部门应加强对国有企业内部审计机构工作的指导和监督，建立对社会审计机构出具的相关审计报告和执业准则的经常性核查制度。完善国有企业购买审计服务办法，扩大购买服务范围，推动审计监督职业化。', '（十一）进一步增强纪检监察和巡察的监督作用。督促国有企业落实“两个责任”，实行“一案双查”，强化责任追究。加强对国有企业执行党的纪律情况的监督检查，重点审查国有企业执行党的政治纪律、政治规矩、组织纪律、廉洁纪律情况，严肃查处违反中央八项规定精神的行为和“四风”问题。查办腐败案件坚持以上级纪委领导为主，线索处置和案件查办在向同级党委报告的同时，必须向上级纪委报告。严肃查办发生在国有企业改制重组、产权交易、投资并购、物资采购、招标投标等重点领域和关键环节的腐败案件。贯彻中央巡视工作方针，聚焦党风廉政建设和反腐败斗争，围绕“四个着力”，加强和改进对国有企业巡察工作，发现问题，形成震慑，倒逼改革，促进发展。', '（十二）建立高效顺畅的外部监督协同机制。明确各类外部监督主体的监督职责，增强监督工作合力。综合运用出资人监督、外派监事会监督和外部审计、纪检监察、巡察等外部监督力量，建立监督工作会商机制，加强统筹，减少重复检查，提高监督效能。创新监督工作机制和方式方法，运用信息化手段查核问题，实现监督信息共享。完善重大违法违纪违规问题线索向纪检监察部门、司法部门移送机制，健全监督主体依法提请有关部门配合调查案件的制度措施。', '（十四）畅通拓宽社会监督渠道。完善国有企业信用信息公示、整合、运用、惩戒机制，加强企业信息公示和共享工作，推动企业主动接受社会监督。重视各类媒体的监督，及时回应社会舆论对企业国有资产运营的重大关切。畅通人民群众反映国有企业问题的渠道，鼓励人民群众通过检举、揭发、申诉、控告等方式对国有企业经营管理者权力行使的合法性与合理性进行监督。认真处理公众关于国有资产流失等问题的来信、来访和检举，充分发挥社会监督作用。', '（十五）加大对国有企业违规经营责任追究力度。明确企业作为维护国有资产安全、防止国有资产流失的责任主体，抓紧制定我市国有企业违规经营投资责任追究办法，推动国有企业内部建立违规经营投资责任追究制度，细化经营投资责任追究的原则、范围、依据、启动机制、程序、方式、标准和职责，保障违规经营投资责任追究工作有章可循、规范有序。综合运用组织处理、经济处罚、禁入限制、纪律处分和追究刑事责任等手段，依法查办违规经营导致国有资产重大损失的案件，严厉惩处侵吞、贪污、输送、挥霍国有资产和逃废金融债务的行为。对国有企业违法违纪违规问题突出、造成重大国有资产损失的，严肃追究企业党组织的主体责任和企业纪检机构的监督责任。建立和完善国有企业违规经营责任追究典型问题通报制度，加强对企业领导人员的警示教育。', '（十六）严格监督工作责任追究。落实企业外部监督主体维护国有资产安全、防止国有资产流失的监督责任。健全国有资产监管机构、外派监事会、审计机关和纪检监察、巡察在监督工作中的问责机制，对企业重大违法违纪违规问题应当发现而未发现或敷衍不追、隐匿不报、查处不力的，严格追究有关人员失职渎职责任，视不同情形分别给予纪律处分或行政处分，构成犯罪的，依法追究刑事责任。完善监督工作中的自我监督机制，健全内控措施，严肃查处监督工作人员在问题线索清理、处置和案件查办过程中违反政治纪律、组织纪律、廉洁纪律、工作纪律的行为。', '（十七）完善企业国有资产监督制度体系。做好国有资产监督管理相关制度的立改废释工作，出台我市国有资产监督管理办法。借鉴先进地区和兄弟盟市国资监管工作好的经验做法，结合我市实际，制定完善投资规划、业绩考核、产权管理、薪酬分配、财务监督等领域的规范性文件，提升国资监管的针对性和有效性。废止或修改不符合改革方向、不适应监管要求或与上位法不一致的文件规定，形成科学统一的国有资产监督制度体系。', '（十八）加强监督队伍建设。选派政治坚定、业务扎实、作风过硬、清正廉洁的优秀人才，进一步充实监督力量。优化监督队伍知识结构，加强监督人员的专项业务素养、知识培训，全面提高监督人员依法行权履责的水平和能力。加强对监督队伍的日常管理和考核评价，健全与监督工作成效挂钩的激励约束机制，强化监督队伍履职保障。', '本意见适用于全市企业国有资产监督工作。金融、文化等企业国有资产监督工作，另有规定的按其规定执行。']</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A202" t="n">
+        <v>25</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
           <t>确保党始终成为时代先锋民族脊梁写在中国共产党成立周年之际</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>2024-07-01</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/zwyw/202407/t20240701_1742225.html</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>['确保党始终成为时代先锋、民族脊梁 &lt;br&gt;——写在中国共产党成立103周年之际_ 呼和浩特市人民政府', '103年前启航的小小红船，已成为“中国号”巍巍巨轮。103年来，中国共产党领导人民创造了彪炳史册的历史伟业，书写了中华民族几千年来最为恢宏的华彩史诗。', '新中国成立75周年之际，进一步全面深化改革大幕将启之时，中国共产党这个世界第一大执政党，正在以习近平同志为核心的党中央坚强领导下，以时代为卷，以奋斗作笔，书写着新的壮美篇章。', '“从以前的骑马放牧到后来的骑摩托车放牧，再到现在的无人机放牧，我的家乡越来越现代化了！”', '2024年6月18日，青海西宁。在上海援建的果洛西宁民族中学明亮的教室里，15岁的尼东拉毛向前来考察的习近平总书记讲起家乡的今昔巨变。', '习近平总书记表示，包括教育在内的东西部协作和对口支援取得显著成效，充分彰显了中国共产党领导和中国特色社会主义制度的优势。', '一滴水可以折射太阳的光辉，一所中学里的温暖故事能够映射出新时代党领导各项事业蓬勃发展的壮阔历程。', '2024年6月27日，中共中央政治局召开会议，听取了《中共中央关于进一步全面深化改革、推进中国式现代化的决定》稿在党内外一定范围征求意见的情况报告，决定根据这次会议讨论的意见进行修改后将文件稿提请二十届三中全会审议。', '回望来路，从革命年代“取义成仁今日事”的无悔，到改革岁月“贫穷不是社会主义”的坚定，再到新时代“中华民族伟大复兴的中国梦一定能够实现”的担当，中国共产党团结带领中国人民进行的一切奋斗、一切牺牲、一切创造，都只为实现中华民族伟大复兴的梦想。', '站在我国和世界发展的历史新方位，统筹把握中华民族伟大复兴战略全局和世界百年未有之大变局，新时代中国共产党人以强烈的历史主动精神发出时代强音，吹响前进号角。', '当前，民族复兴进入不可逆转的历史进程，但仍有许多“险滩”要渡、“硬骨头”要啃。以习近平同志为核心的党中央要求全党以钉钉子精神抓好改革落实，把进一步全面深化改革的战略部署转化为推进中国式现代化的强大力量。', '2023年金秋十月，首都北京，全国宣传思想文化工作会议在京西宾馆召开。会议正式提出习近平文化思想。', '作为习近平新时代中国特色社会主义思想的文化篇，这一思想一经提出，立刻在全党全社会引发热烈反响。', '一百多年前，十月革命一声炮响，为中国送来了马克思主义，惊醒了“五千余年的沉梦”。从此，一代代中国共产党人开始了追求真理、揭示真理、笃行真理的伟大历程。', '我们党的历史，就是一部不断推进马克思主义中国化时代化的历史，就是一部不断推进理论创新、进行理论创造的历史。', '理论创新每前进一步，理论武装就要跟进一步。党的群众路线教育实践活动、“三严三实”专题教育、“两学一做”学习教育、“不忘初心、牢记使命”主题教育、党史学习教育、学习贯彻习近平新时代中国特色社会主义思想主题教育、党纪学习教育……加强理论武装始终都是最鲜明的底色。', '通过坚持学习党的创新理论，广大党员悟规律、明方向、学方法、增智慧，神州大地正在展开“思想之光”转化为物质力量的生动画卷。', '2023年6月，全国组织工作会议系统阐释习近平总书记关于党的建设的重要思想，明确了党的建设的根本原则、重大使命、科学布局、价值追求、重点任务。', '2024年1月，二十届中央纪委三次全会上，习近平总书记深刻阐述党的自我革命的重要思想，科学回答了我们党为什么要自我革命、为什么能自我革命、怎样推进自我革命等重大问题。', '2024年6月，在中央政治局第十五次集体学习时，习近平总书记围绕贯彻落实新时代党的建设总要求，强调以健全全面从严治党体系为有效途径，不断把新时代党的建设新的伟大工程推向前进。', '以习近平同志为核心的党中央全面深入思考党的建设的理论与实践，提出一系列新理念新思想新论断，极大丰富和发展了马克思主义建党学说，全面部署推进新时代党的建设新的伟大工程，确保党在坚持和发展中国特色社会主义的历史进程中始终成为坚强领导核心。', '烽火年代里，访问延安后的黄炎培感慨：“我认为中共朋友最可宝贵的精神，倒是不断地要好，不断地求进步，这种精神充分发挥出来，前途希望是无限的。”', '新时代以来，在以习近平同志为核心的党中央坚强领导下，全面从严治党的伟大实践成为新时代伟大变革的重要组成部分，产生了全方位、深层次影响。', '“要始终赢得人民拥护、巩固长期执政地位，必须时刻保持解决大党独有难题的清醒和坚定。”', '从强化政治引领，到全面从严治党体系不断健全，再到党的自我革命制度规范体系更加完善……', '新时代中国共产党人在党的旗帜下团结成“一块坚硬的钢铁”，心往一处想、劲往一处使，不断焕发愈加强大的政治领导力、思想引领力、群众组织力、社会号召力，成为风雨来袭时中国人民最可靠的主心骨。', '习近平总书记主持中央政治局常委会会议，听取全国人大常委会、国务院、全国政协、最高人民法院、最高人民检察院党组工作汇报，听取中央书记处工作报告。', '近年来，党中央听取“五大班子”工作汇报和中央书记处工作报告，已成为加强和维护党中央集中统一领导的重要制度安排。', '党的政治建设决定党的建设的方向和效果，新时代新征程，党的政治建设首要任务就是保证全党服从中央，坚持党中央权威和集中统一领导。', '围绕中心工作，2022年底召开的中央经济工作会议提出做好经济工作“必须坚持党的全面领导特别是党中央集中统一领导”；', '抓住“关键少数”，《全国党政领导班子建设规划纲要（2024－2028年）》将完善领导班子贯彻落实党中央重大决策部署和习近平总书记重要指示批示机制作为重要内容；', '着眼公务员队伍，召开全国公务员工作座谈会，印发《全国公务员队伍建设规划纲要（2024—2028年）》，把政治标准和政治要求落实到公务员选育管用全过程各环节，充实调优建强基层公务员队伍；', '聚焦重要领域，全国党委和政府秘书长会议要求新时代办公厅工作要强化政治担当，全力推动党中央决策部署落地见效……', '新征程上，中国共产党坚持以党的政治建设为统领，把增强“四个意识”、坚定“四个自信”、做到“两个维护”落实到党的建设全过程各方面。', '踏上克松这片雪域高原上的“红色土地”，赫然映入眼帘的是一块刻有“克松村党支部旧址”的石碑。', '65年来，从最初5名翻身农奴成为第一批共产党员，到如今两个党支部带领群众全面推进乡村振兴，克松已成为中国共产党基层组织建设的一个鲜活缩影。', '一年多来，中央组织部会同有关部门举办全国村党组织书记和村委会主任、全国社区党组织书记和居委会主任、全国律师行业党组织书记、中央和国家机关等单位选派驻村第一书记培训班，基层党组织战斗堡垒作用和党员先锋模范作用进一步发挥。', '2024年4月27日，一场秩序井然、严肃认真的党内法规测试，在中央党校（国家行政学院）县委书记研修班开考。', '在学制一个月以上的班次，把《中国共产党纪律处分条例》作为重点内容融入党内法规考试，成为中央党校（国家行政学院）以考促学、推动党纪学习教育取得实效的具体举措。', '开展党纪学习教育，是加强党的纪律建设、推动全面从严治党向纵深发展的重要举措。各地区各部门各单位党员、干部以此为契机，增强纪律意识、提高党性修养，不断用党规党纪校正思想行动。', '持之以恒改进作风。从查处“四风”问题，到持续通报违反中央八项规定精神典型问题，再到推进为基层减负赋能，新风正气在新征程上不断充盈，“金色名片”越擦越亮。', '以零容忍态度反腐败。2023年全国纪检监察机关共立案62.6万件，处分61万人，其中包括省部级干部49人，厅局级干部3144人，县处级干部2.4万人……深刻诠释了我们党“得罪千百人，不负十四亿”的使命担当。', '完善和健全监督体系。从聚焦“国之大者”强化政治监督，到二十届中央第一和第二轮巡视完成反馈、第三轮巡视扎实开展，再到全国纪检监察干部队伍教育整顿取得实效，各项监督多管齐下。', '从印发《中央党内法规制定工作规划纲要（2023－2027年）》，到推动建立领导干部应知应会党内法规和国家法律清单制度，再到以制度建设为重点深化纪检监察体制改革，党的制度建设持续推进，系统施治、标本兼治的综合效应日益深化。', '新征程上，党的制度建设蹄疾步稳。自我净化、自我完善、自我革新、自我提高的制度规范体系愈加完善，为党的伟大自我革命提供坚实保障。', '“保持以党的自我革命引领社会革命的高度自觉，坚持用改革精神管党治党”——这，正是新时代中国共产党人的响亮回答！', '“这次看了平津战役纪念馆，三大战役纪念馆我都看了。三大战役在中国革命战争史上的地位是不可替代的，以经典之作载入史册。”习近平总书记感慨系之。', '从哪里来、到哪里去，鉴往知来、向史而新。在这里，习近平总书记强调，对中国革命战争史要学而时习之，珍惜来之不易的红色江山，发扬革命传统，增强斗争精神，勇于战胜前进道路上的各种艰难险阻。', '一面鲜艳夺目的五星红旗、一个留在月背的“中”字，又一次定格下中国航天的“高光时刻”。', '2024年6月25日14时7分，嫦娥六号返回器携带来自月背的月球样品安全着陆。中国首次在月球背面独立动态展示国旗。嫦娥六号完成世界首次月背采样和起飞，成为我国建设航天强国、科技强国取得的又一标志性成果。', '“党的二十大明确了以中国式现代化全面推进强国建设、民族复兴伟业的中心任务。中国式现代化要靠科技现代化作支撑，实现高质量发展要靠科技创新培育新动能。”', '就在“嫦娥六号回家”前一天，习近平总书记在全国科技大会、国家科学技术奖励大会、两院院士大会上发表重要讲话，精辟论述科技创新在推进中国式现代化、实现第二个百年奋斗目标伟大进程中的重要作用。', '人口规模巨大的现代化、全体人民共同富裕的现代化、物质文明和精神文明相协调的现代化、人与自然和谐共生的现代化、走和平发展道路的现代化——推进中国式现代化是前无古人的伟大事业、艰巨繁重的系统工程，对我们党而言，这既是光荣的历史使命，也是严峻的现实考验。', '新征程上，以中国式现代化全面推进强国建设、民族复兴伟业的宏伟目标，就是要在党的领导下接续奋斗、艰苦奋斗、不懈奋斗，扎扎实实把“蓝图”变成“实景”。', '2024年6月6日，一场记者见面会上，“时代楷模”宝塔消防救援站的代表带来了一份特殊的“礼物”：', '小小纸盒里，代表平安的中国结和19张写满祝福的便签，见证了延安老区人民和这支队伍的“鱼水深情”。', '多年来，他们奔走于大街小巷，灭火救灾、抗洪抢险，被老区人民亲切称为“红军传人、人民卫士”。', '忠于党、忠于人民、无私奉献，是共产党人的优秀品质。党的事业，人民的事业，正是靠着千千万万党员的忠诚奉献而不断铸就的。', '新征程上，要始终贯彻以人民为中心的发展思想，解决好人民群众急难愁盼问题，让现代化建设成果更多更公平惠及全体人民，在推进全体人民共同富裕上不断取得更为明显的实质性进展。', '《红星照耀中国》一书中，美国记者埃德加·斯诺称他们是“最优秀的男女”，有着“经久不衰的热情、始终如一的希望、令人惊诧的革命乐观情绪”……', '井冈山精神、长征精神、“两弹一星”精神、特区精神、抗洪精神、抗震救灾精神、脱贫攻坚精神……以伟大建党精神为源头的中国共产党人精神谱系，滋养着中华民族心灵家园。', '“我们党之所以历经百年而风华正茂、饱经磨难而生生不息，就是凭着那么一股革命加拼命的强大精神。”习近平总书记语气坚定。', '唯有精神上站得住、站得稳，一个民族才能在历史洪流中屹立不倒，一个政党才能始终挺立潮头。', '我们坚信，中国共产党领导人民用伟大奋斗创造了光辉伟业，也一定能用新的伟大奋斗创造新的伟业。']</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A203" t="n">
+        <v>25</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
           <t>风正好扬万里帆党的二十大以来以习近平同志为核心的党中央贯彻执行中央八项规定推进作风建设综述</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>2024-01-22</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
+      <c r="F203" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tpxw_56060/202401/t20240122_1649982.html</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>['风正好扬万里帆——党的二十大以来以习近平同志为核心的党中央贯彻执行中央八项规定、推进作风建设综述_ 呼和浩特市人民政府', '风正好扬万里帆——党的二十大以来以习近平同志为核心的党中央贯彻执行中央八项规定、推进作风建设综述', '新华社北京1月20日电 题：风正好扬万里帆——党的二十大以来以习近平同志为核心的党中央贯彻执行中央八项规定、推进作风建设综述', '题：风正好扬万里帆——党的二十大以来以习近平同志为核心的党中央贯彻执行中央八项规定、推进作风建设综述', '2023年年终岁末，中共中央政治局一连两天召开学习贯彻习近平新时代中国特色社会主义思想主题教育专题民主生活会。会议的一项重要议程，即是听取关于党的二十大以来中央政治局贯彻执行中央八项规定情况的报告。', '党的二十大以来，以习近平同志为核心的党中央时刻保持解决大党独有难题的清醒和坚定，坚持不懈推进中央八项规定精神贯彻落实，驰而不息推进党的作风建设，推动百年大党在自我革命中不断焕发蓬勃生机，团结带领全国人民奋进强国建设、民族复兴新征程。', '2022年10月27日，党的二十大闭幕不到一周，习近平总书记带领新当选的二十届中共中央政治局常委来到延安，瞻仰革命圣地。', '在延安革命纪念馆，总书记在“延安时期的十个没有”展板前久久驻足。展板之上，列首位的正是“没有贪官污吏”。', '“当年毛泽东同志等老一辈革命家在延安，住窑洞、吃粗粮、穿布衣，用‘延安作风’打败了‘西安作风’。”习近平总书记强调，“全党同志要把老一辈革命家和共产党人留下的光荣传统和优良作风传承好发扬好，勇于推进党的自我革命，坚定不移推进全面从严治党，始终保持党的先进性和纯洁性，确保党始终成为中国特色社会主义事业的坚强领导核心。”', '几个月后，一场新时代中国共产党人的“新的学习竞赛”——学习贯彻习近平新时代中国特色社会主义思想主题教育，在全党深入展开。', '2023年3月30日召开的中共中央政治局会议，明确了此次主题教育具体要达到的5个方面目标，其中之一，正是“廉洁奉公树立新风”。', '党的作风和形象关系党的创造力、凝聚力、战斗力，决定党和国家事业成败。党的二十大以来，习近平总书记高度重视、亲自谋划新征程上党的作风建设，一以贯之把作风建设向纵深推进——', '党的二十大闭幕仅3天，主持召开中央政治局会议，重要议程之一就是审议《中共中央政治局贯彻落实中央八项规定实施细则》；', '从党的二十届一中、二中全会，到中央经济工作会议、中央纪委全会，再到学习贯彻习近平新时代中国特色社会主义思想主题教育工作会议等重要场合，都对持之以恒抓好党的作风建设、贯彻落实中央八项规定精神提出新要求；', '针对党风廉政建设、树立和践行正确政绩观、反对形式主义官僚主义、改进调查研究、推广“四下基层”、查处违规聚餐饮酒等作出一系列重要批示；', '在关于政法工作、党的建设和组织工作、新时代办公厅工作、宣传思想文化工作等的重要指示中，就作风建设提出要求……', '作风建设无小事。党的二十大以来，习近平总书记就持之以恒贯彻落实中央八项规定精神、深化作风建设作出一系列重要论述，进一步深化了对作风建设的规律性认识，为持续加固中央八项规定堤坝、推动作风建设常态化长效化指明了前进方向、提供了根本遵循——', '对中央政治局提出明确要求，强调“中央政治局同志要对照新修订的中央八项规定实施细则，一条一条严格对标对表，不折不扣抓好贯彻落实，重点纠治形式主义、官僚主义顽疾，带头弘扬党的优良作风。”', '谈作风建设重点任务，强调“要把纠治形式主义、官僚主义摆在更加突出位置，作为作风建设的重点任务，研究针对性举措，科学精准靶向整治，动真碰硬、务求实效。”', '谈加强新时代廉洁文化建设，强调要“深入开展党性党风党纪教育，传承党的光荣传统和优良作风，激发共产党员崇高理想追求，把以权谋私、贪污腐败看成是极大的耻辱。”', '谈党校工作，强调“各级党校要敢抓敢管、严抓严管，让学员一进党校就感受到学习之风、朴素之风、清朗之风。”', '党和人民事业发展到什么阶段，党的作风建设就要推进到什么阶段。风险越大、挑战越多、任务越重，越要加强党的作风建设，以好的作风振奋精神、激发斗志、树立形象、赢得民心。', '激浊扬清、久久为功。在以习近平同志为核心的党中央坚强领导下，全党上下锲而不舍贯彻落实中央八项规定精神，不断把作风建设引向深入，一个充满活力的马克思主义政党正以优良的作风形象、饱满的精神状态奋进新征程、建功新时代。', '2023年4月，学习贯彻习近平新时代中国特色社会主义思想主题教育启动后，习近平总书记来到广东考察调研。', '4天时间、辗转千里，从琼州海峡之畔到珠江之滨，自西向东穿行粤西大地，习近平总书记不辞辛劳，为的是多看一看当地的发展变化，了解掌握更多实际情况。', '“很亲切、很和蔼”“问得很细致、很具体”“没想到总书记对海洋渔业这么了解”……这是基层群众见到习近平总书记的真切感受。', '到浙江考察，走进商贸市场同商户、小企业主代表亲切交流；到江西考察，走访直升机生产企业，亲自登上直升机，了解技术研发成果……深入基层、深入一线，始终是习近平总书记地方考察调研的鲜明导向。', '党的二十大以来，习近平总书记18次进行国内考察调研，从革命圣地到改革前沿，从西北边疆到长三角区域，总书记行程密集、步履不停，足迹遍及16个省份。', '2023年9月7日，习近平总书记来到受洪涝灾害较重的黑龙江省尚志市老街基乡龙王庙村，看望慰问受灾群众，了解灾后恢复重建进展。从东北谈到华北，习近平总书记说：“我牵挂着受灾的地方。那些地方我之后也会去看。”', '2023年11月10日，北方入冬之际，习近平总书记专程来到受灾较重的北京门头沟区、河北保定涿州市，看望慰问受灾群众，检查指导灾后恢复重建工作。', '冒着严寒而往，沐着夜色而归。一天时间，乘汽车、换火车，行程横跨京冀两地，足迹覆盖农村、社区、学校、市政设施、水利工程，访居民、见师生、看商铺，入农户、进麦田、上大堤……', '“一路走下来，听到了看到了，我心里感到踏实，也是欣慰的，恢复重建工作都在按照计划进行。”', '2023年春节前夕，同6个省市基层干部群众视频连线进行看望慰问，与群众拉家常、为群众解难题；', '一言一行，体现带头贯彻执行中央八项规定的鲜明态度；点滴之间，彰显共产党人执政为民的深厚情怀。', '2023年金秋时节，习近平主席同来自五洲四海的新老朋友相聚北京，共同出席第三届“一带一路”国际合作高峰论坛。', '除出席高峰论坛开幕式并发表主旨演讲、举行欢迎宴会外，从2023年10月17日到20日，习近平主席安排了7个半天的时间，同与会的所有外方领导人分别会谈会见，常常从清晨忘我工作到深夜……', '党的二十大以来，习近平总书记出国访问6次25天，到访7个国家，主持4次主场外交，严格执行外事规定，精简随行人员，简化迎送接待，展现出以上率下的务实担当、崇高风范。', '李强、赵乐际、王沪宁、蔡奇、丁薛祥、李希同志和中央政治局其他同志认真贯彻落实习近平总书记重要指示要求，严格执行中央八项规定，切实抓好分管领域、部门和所在地方的贯彻落实。', '在改进调查研究方面，中央政治局同志围绕全面贯彻党的二十大精神，就推进中国式现代化等重大问题赴地方考察调研。调研中坚持扑下身子、沉到一线，注重通过“四不两直”等方式了解真实情况，力戒形式主义、官僚主义。', '在精简会议活动方面，严格控制全国性会议活动数量、规模、会期，优化党中央决策议事协调机构会议组织安排。严格审批越级开会、赴外地开会，采用视频方式召开会议、举办活动日益成为常态。', '在精简文件简报方面，坚持“短实新”文风，细化中央文件篇幅字数标准。除党中央统一安排和批准外，中央政治局同志个人没有公开出版著作、讲话单行本以及发贺信、贺电、题词、题字、作序等情况。', '在规范出访活动方面，合理统筹出访安排，严格执行出访天数、团组规模、住宿餐饮等方面要求；严格按照规定乘坐交通工具。', '在改进新闻报道方面，对篇幅字数、版面安排、时段时长等进一步严格把关。精简全国性会议活动新闻报道。', '在厉行勤俭节约方面，坚决落实“过紧日子”要求，进一步压减中央本级“三公”经费预算，严禁地方违规建设楼堂馆所、借债搞“形象工程”。', '以身教者从。以习近平同志为核心的党中央认真贯彻执行中央八项规定及其实施细则，不打折扣、不做变通，以实际行动为全党树起标杆、作出示范。', '2023年中秋、国庆节前夕，中央纪委国家监委公开通报7起违反中央八项规定精神典型问题，再次释放紧盯关键时间节点、严抓作风问题的鲜明信号。', '党的二十大以来，各地区各部门深入学习贯彻习近平新时代中国特色社会主义思想和党的二十大精神，深刻把握作风建设新形势新任务新要求，持续深化落实中央八项规定精神，科学精准整治作风顽疾，持续激发党员、干部干事创业动力，以作风建设新成效为奋进新征程保驾护航。', '“通过集中教育推动全党以自我革命精神解决党风方面的突出问题，是一条重要历史经验。”', '2023年6月，习近平总书记在内蒙古考察调研时，就抓实以学正风提出明确要求，为广大党员、干部以过硬作风、扎实举措推动主题教育取得实效指明方向。', '各地区各部门全面系统深入学习习近平新时代中国特色社会主义思想，在主题教育中采取各种形式，引导广大党员、干部以党的创新理论凝心铸魂，通过深入的检视剖析整改，涤荡思想之尘、作风之弊、行为之垢，将政治标准和政治要求贯穿作风建设始终，着力营造风清气正的政治生态。', '从把纠治形式主义、官僚主义摆在更加突出位置，对搞“半拉子工程”“面子工程”以及不担当不作为乱作为等开展专项整治，对粮食购销、耕地保护等领域不正之风强化监督执纪，到针对享乐主义、奢靡之风突出问题加大纠治力度，严肃查处并通报多地领导干部违规聚餐饮酒问题，对办公用房超标问题紧盯不放……', '各地区各部门坚持严的基调不动摇，紧盯普遍发生、反复出现的作风顽疾，紧盯问题突出、工作薄弱的领域和地区，靶向发力、重点突破，推动作风建设抓紧抓实、抓出成效。', '“我们将紧盯领导干部这个‘关键少数’，紧盯违规吃喝、违规收送礼品礼金、违规发放津贴补贴或福利等节日多发问题，深挖背后的利益交换、请托办事等风腐一体问题，从严从重查处违规违纪行为……”', '2023年端午节前，黑龙江省纪委监委向全省党员干部和公职人员发出廉洁过节提醒，敲响警惕“由风及腐”“由风变腐”的警钟。', '各地区各部门坚持党性党风党纪一起抓，健全风腐同查机制，坚决纠治不正之风背后的腐败问题，深挖细查腐败案件背后的不正之风。', '从针对餐饮浪费和“三公”经费支出等方面存在的问题开展联动联查；到严查酒驾醉驾背后的“四风”问题，曝光典型案例；再到推进监督综合信息平台建设，完善“惩、治、防”工作链条，形成治理合力……', '在严查“四风”问题的同时，各地区各部门结合干部队伍教育整顿开展光荣传统和优良作风教育、年轻干部纪律作风教育、警示教育，着力培育新时代廉洁文化，以优良党风政风带动社风民风向上向好，推动移风易俗，不断铲除作风问题滋生土壤。', '“多亏了你们，现在灌溉土地的费用降低了，还不到原来价格的一半。”2023年12月，在山东济宁市嘉祥县杨楼村，种粮大户高克国高兴地说。', '记者了解到，针对村民反映的村里灌溉水费过高的问题，嘉祥县纪委监委开展村集体“三资”专项整治，狠刹漠视侵害群众利益的不正之风，助力乡村振兴提质增效。', '各地区各部门围绕贯彻落实党的二十大作出的战略部署，采取一系列提升能力、改进作风、强化担当的具体举措，激励广大党员、干部锚定目标真抓实干，解决实际问题、办好民生实事，形成了狠抓落实的良好局面。', '2023年年底国家统计局社情民意电话调查结果显示，95.7%的受访群众对中央八项规定精神贯彻落实情况总体成效表示肯定。', '2024年是新中国成立75周年，是实现“十四五”规划目标任务的关键一年，推进中国式现代化建设任务艰巨，前景壮阔。', '在以习近平同志为核心的党中央坚强领导下，全党上下抓铁有痕、踏石留印，不断将作风建设引向深入，定能以优良作风凝聚起14亿多人民团结一心的磅礴力量，把强国建设、民族复兴伟业不断推向前进！']</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A204" t="n">
+        <v>25</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
           <t>呼市司法局党委中心组调研报告</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>2010-11-30</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/ssfj_22408/xxgknb/202105/t20210525_930437.html</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>['近一年来，呼市司法局党委认真贯彻落实上级党委有关加强和改善中心组学习的指示精神，紧密结合司法行政工作改革发展的实际，把局党委中心组学习作为加强局领导班子建设的重要环节，精心组织，改进方法，不断加强中心组学习的规范化、制度化建设，使局党委中心组成为了局领导干部坚持在职理论学习的有效形式，在全系统的党员干部思想政治建设中发挥了重要的示范带头作用，为统一思想、凝聚力量，加速我市司法行政系统改革发展提供了重要的思想保障。 一、党委高度重视，把领导班子的思想政治建设摆在重要位置 局党委高度重视领导者个人的思想政治素质及对各自工作的影响、参谋、咨询和推动作用，始终坚持把局党委中心组的学习作为一项战略性、基础性的工作来抓。今年的党委工作要点、年初工作计划都对局党委中心组学习的内容、方法、计划提出明确的要求，把局党委中心组学习的目的和作用，定位在推进理论武装，提高思想理论素质，真学、真懂上；定位在增强执政能力，在真用、实干上；定位在加强党风廉政建设，在坚持立党为公、执政为民上；定位在加强领导班子建设，在增强创造力、凝聚力和战斗力上。 局党委高度重视加强中心组学习的制度化建设。为了规范局党委中心组学习，保证理论学习的正常进行，制定了《呼市司法局中心组学习制度》，明确局党委中心组和局直属单位理论学习参加人员和组织机构；明确规定了学习时间和学习形式，确保每年集中学习不少于12次。同时建立并严格执行学习考勤制度、档案制度、通报制度、经验交流制度和考核制度，确保各项学习任务落到实处。 局党委充分发挥制度的制约作用，变"软"要求为"硬"管理。年初，局党委根据上级党组织要求，结合司法行政工作实际，制定司法局党委中心组学习计划和阶段性学习安排，拟出学习专题，确定学习材料，明确专题组成员，做好发言准备，并准备相应的讨论思考题。局党委对中心组的学习时间、考勤记录、检查考核、集中研讨交流等都有明确具体的要求，每半年对中心组成员完成学习任务的情况、运用理论指导工作和加强党性锻炼方面情况组织一次自查，使局党委中心组学习纳入长效机制的轨道。 局党委坚持"一把手"抓中心组学习的领导责任制。局党委中心组由司法局党政领导班子成员和党委委员组成。司法局党委书记云文怀同志担任局党委中心组组长，党委副书记、纪委书记金秀桃同志任副组长。云文怀同志在中心组学习中认真履行职责，亲自确定主题，审定学习计划，主持集体学习，带头讲党课，特别是越是在工作繁忙、矛盾集中的时候，越强调和加强对理论学习的领导，不断推动学习深入开展。 一年来，局党委委员十分重视理论学习，自觉学习、平均学习出勤率在95%以上。局党委中心组学习已经成为与局党委工作全局紧密相联的"学理论、议大事、转观念、出思路、建班子"的好形式。 二、理论联系实际，不断丰富学习内容 局党委高度重视中心组学习内容和重点的安排，始终以"三个代表"和科学发展观统一思想，统一认识，统一意志为重点，根据上级要求，紧密结合形势和任务，注意系统性与前瞻性，适时围绕司法行政的中心工作确定学习内容。一年来，局党委中心组认真学习了党的十六届六中全会精神、胡锦涛总书记关于社会主义荣辱观的重要讲话和《江泽民文选》等。在突出学习重点的同时，局党委中心组注重围绕党的中心工作学习相关内容，组织学习科学领导方法，观看廉政教育录像，收看劳模先进事迹录像等。 局党委中心组注意发扬理论联系实际的学风，不断提高学习的质量。具体来说就是坚持"五个结合"。 一是坚持理论学习与思想实际相结合。局党委中心组学习不仅是提高理论水平的重要手段，也是提高认识、统一思想、凝聚力量的重要方式。在学习中，中心组成员既重视掌握理论，又注意查找思想差距，提出改进对策。特别是在社会主义法治教育活动中，通过召开各种形式的座谈会、发放征求意见表、设置意见箱、个别访谈等形式，多层次、全方位地广泛征求广大党员对中心组成员的意见，查找存在的突出问题。针对存在问题，中心组成员之间相互真诚地交心谈心，召开民主生活会进行批评与自我批评，写出个人整改报告。这些学习活动，使党政领导班子成员的心灵受到了洗礼，思想得到了升华，相互之间了解更多了，更加团结了，精神状态更好了。 二是坚持理论学习与工作实际相结合。学以致用、以用促学、学用相长是马克思主义的优良学风。局党委中心组经过学习研究，确定我局重点解决的三个方面的突出问题：一为重点解决党员、特别是党员领导干部思想作风和工作作风方面存在的突出问题。为此，我们进一步完善以民主集中制为基础的各项制度建设，增强了领导班子的整体合力和解决问题的能力。通过开展社会主义法治理念教育，增强了领导班子依法办事、依法行政和自觉接受监督的观念，树立和强化了全心全意为人民服务的宗旨，增强了公仆意识，在实践中做到了执法为民、服务为民。健全完善领导班子能力建设长效机制，认真落实领导班子和领导干部任期目标管理机制、政绩考核评价机制。加大后备干部工作力度，加强了对后备干部培养、管理工作；二为重点解决广大党员干部关心的实际问题。加强劳教人民警察队伍建设。积极与市编办协调，完成了呼市劳教所主要职责、内设机构、人员编制"三定"。在劳教所开展了环节干部竞争上岗，经过审查、笔试、面试和民主测评，一批年轻化、知识化、专业化的优秀人才脱颖而出，打造了一支年轻化、知识化的劳教人民警察队伍在多年调研的基础上。我局多方协调，经过紧张筹备，首府第一家司法鉴定机构呼市第一医院司法鉴定所于年初成立；三为重点解决影响司法行政改革发展稳定的突出问题。市法律援助中心协助各级党委、政府处理好涉法上访事件，为"四川籍民工在呼坠车死亡案件"提供法律援助，将这起集体涉法上访的事件纳入依法解决的轨道。"都市华庭游泳馆儿童游泳致病"案件，今年全部结案，在法律援助律师的努力下，受害人全部依法得到了赔偿。与内蒙古总工会共同建立了维权中心，指派律师定期值班，热心解答群众的咨询，援助覆盖面进一步扩大。在学习研讨中，分别就法律宣传问题、劳动教养心理咨询问题、基层司法所问题、法律服务水平问题、机关作风问题等问题开展了专题理论研究，在确定基本思路的基础上，中心组中的党政分管领导分别征求有关职能部门意见的，提出了局机关改革建设方案，将需整改的问题分类提出，分类解决。 三是坚持理论学习与调查研究相结合。我局党委中心组着眼于对理论的实际思考和运用，带着理论课题，紧紧围绕工作重点、难点、进程及存在的问题，今年分别到劳教所、各直属律师事务所、公证处和旗县区基层司法所开展基层调查研究活动，指导工作并帮助解决一些实际问题。本着"把温暖送下去，把意见带上来"的精神去准确、详实地掌握第一手材料，经过大家的共同努力，重点做好以下几方面：一要充分发挥法律服务在依法行政、依法决策、依法管理中的作用，积极引导律师担任政府法律顾问，今年全市律师担任回民区政府等12家政府法律顾问，担任国家机关法律顾问9家，担任企业法律顾问128家。二要积极引导律师协助各级政府处理信访工作，为各级政府处理各类涉法、涉讼案件出具法律意见。一年来我市律师共参与处理重大信访案件25起，为各级政府出具法律意见120余条，有力地维护了社会和谐与稳定。三要引导律师为三农和社会弱势群体提供法律服务，积极参与公益法律服务活动。典型的有：内蒙古合星律师事务所参与中央电视台举办的"2006CCTV消费维权法律宣传月"活动，在经济频道《维权进行时》节目为广大观众解答法律问题，向全国电视观众展现了首府律师的良好形象；内蒙古合德所在内蒙古电视台"房地产新干线"栏目，义务开展法律咨询，内蒙古融兴所与内蒙古法制报建立了合作关系，实行律师值班制，义务接待群众信访和咨询。以实现公证资源科学合理配置为目标，积极稳妥地进行公证机构布局调整。在充分调研的基础上，制定了市区公证机构调整方案，按照"合法有序、积极稳妥、循序渐进和便民利民"的原则，开展了市区内公证处设置调整工作。在总结第一批司法所建设经验的基础上，进一步完善第二批39个司法所建设工作。协调市发改委、市财政局共同成立了呼市基层司法所建设领导小组，加强对司法所建设项目的管理和监督。 四是坚持理论学习与领导决策相结合。局党委中心组坚持理论学习为科学决策服务的原则，在每一个重大决策出台之前，都要进行相关的专题学习和调研，使决策具有科学性、合理性。《中国共产党章程》、《党政领导干部选拔任用工作暂行条例》等文件，制定了《关于进一步加强和改进机关工作作风的决定》、《关于进一步加强党风廉政建设的决定》等文件，进一步规范了局重要事项决策程序，各类会议的议事规则、会议制度，确保决策的民主化、规范化和程序化；通过学习科学发展观，进一步明确了市司法局发展的总体思路。2006年总体思路是以邓小平理论和"三个代表"重要思想为指导，深入贯彻落实党的十六届六中全会和市委九届十次全委会议精神，坚持以科学发展观统领司法行政工作全局，坚持以社会主义法治理念指导司法行政工作，紧紧围绕构建和谐社会和社会主义新农村建设对司法行政工作提出的新要求，充分发挥司法行政工作在维护社会和谐稳定，维护公平正义，化解矛盾纠纷，服务人民群众，服务经济社会发展中的作用，为首府更好地实施"十一五"规划、构建和谐社会和全面建设小康社会作出了积极贡献。 五是理论学习与提高执政能力相结合。局党委中心组把加强理论学习的落脚点放到提高执政能力上，把提高执政能力和领导水平作为理论学习的最重要的成果之一。在劳教所开展了环节干部竞争上岗，经过审查、笔试、面试和民主测评，一批年轻化、知识化、专业化的优秀人才脱颖而出，打造了一支年轻化、知识化的劳教人民警察队伍。继续在法律服务队伍中开展"集中教育整顿"。推行服务公开和服务承诺制度，严肃查处违法违纪行为，深化"两结合"管理体制，加强了行业协会管理力度，举办律师岗前培训班，开展了律师职业道德和执业纪律教育。在充分调研的基础上，制定了市区公证机构调整方案，按照"合法有序、积极稳妥、循序渐进和便民利民"的原则，开展了市区内公证处设置调整工作。在劳教人民警察队伍中开展了"岗位大练兵"活动，制定了《呼市劳教所岗位练兵活动实施方案》和《呼市劳教所民警体能训练实施细则》，做到了组织领导、物质保障、参训人员、训练时间"四个落实到位"。开展了"社会主义法治理念教育"、"规范化达标年"和"规范执法行为，促进执法公正"专项活动，努力解决影响规范执法和规范管理的突出问题，进一步提高了劳教干警的政治业务素质和规范执法水平。制定《2006年国家司法考试呼市考区考务工作实施方案》，做到职责明确、责任到人。今年呼市考区共有1164名考生报名，实际参考人数1063人，通过考试取得资格153人，高于往年水平。 三、不断创新学习方法，注重提高学习实效 局党委中心组从学习方法和学习体系创新入手，做到"六个坚持"，即坚持集中学习与分散学习结合、走出去与请进来相结合、请上来与走下去相结合、理论研讨与实地考察相结合、讨论交流与独立思考相结合、查摆问题与制定对策结合。开展了多种学习活动，充分利用读（书和文件）、看（电视专题片和录像片）、走（调查和考察）、讲（讨论和交流）、写（写读书笔记和调研文章）等学习方式，努力探索和运用开放性、互动性学习载体，逐步形成相对稳定的学习机制。在多种学习活动中，注重抓好了两个环节： 第一、抓好个人分散自学。中心组成员平时工作很忙、经常外出，个人开展见缝插针的分散自学是一种重要的学习形式。局党委中心组组长对中心组成员的自学情况进行定期的督促和检查。由于要求明确，时间灵活，既调动了中心组成员学习的积极性，又促使他们结合本职工作对所学的理论进行深入思考，通过自我修养获得提高。 第二、精心组织集中学习研讨。集中学习研讨是理论学习得以深化和学习成果转化为工作决策的最重要环节。局党委认真组织好每一次集中学习。围绕改革和建设的重点、难点和热点问题，认真设计专题，在自学和调研的基础上组织集体研讨。每次都安排好重点发言，引导集体的思路，形成了"分题到人、事先准备、一人主讲、大家补充"的研讨学习方法。发挥对呼市劳教所党委中心组的示范作用，扩大了学习成果的影响面和辐射力。 由于党委重视，精心组织，局党委中心组的理论学习效果显著。局党委中心组的学习有力地促进了局领导干部思想解放和观念更新，提高了理论水平和领导水平，促进了党风廉政建设，增强了党委和行政的凝聚力，推动了我局各项工作的改革和发展，促使我局管理和基础设施的建设迅速取得可喜成绩，党的建设、政治思想工作和精神文明建设迈上了新台阶。 我们深切地感受到：党委中心组学习是领导班子和领导干部加强马克思主义思想武装、提高思想政治素质的重要形式，是加强党的执政能力的有效途径。我们将进一步加强对党委中心组学习的领导，加强各项制度建设，积极探索和有效的学习形式和载体，把党委中心组的学习提高到更新的水平。']</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A205" t="n">
+        <v>25</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
           <t>勇毅笃行长风万里习近平总书记引领中国经济社会发展稳中求进述评</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>2022-06-17</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
+      <c r="F205" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tt_1/202206/t20220617_1308602.html</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>['勇毅笃行 长风万里——习近平总书记引领中国经济社会发展稳中求进述评_ 呼和浩特市人民政府', '新华社北京6月16日电 题：勇毅笃行 长风万里——习近平总书记引领中国经济社会发展稳中求进述评', '今年以来，新冠肺炎疫情和乌克兰危机导致风险挑战增多，我国经济发展环境的复杂性、严峻性、不确定性上升。', '以习近平同志为核心的党中央深刻洞察国际国内大局大势，高效统筹疫情防控和经济社会发展，统筹发展和安全，坚持稳字当头、稳中求进，引领中国经济这艘大船沿着高质量发展航道破浪向前、行稳致远。', '正如习近平总书记指出，我国发展一时一事会有波动，但长远看还是东风浩荡。“中国经济具有长期向好的光明前景”！', '6月1日起，上海进入全面恢复正常生产生活秩序阶段，园区车间一派繁忙景象；6月6日起，北京大部分地区恢复餐饮堂食，大街小巷重现“烟火气”；吉林、浙江、福建、湖南等一些省份陆续恢复跨省游；全国麦收进入高峰。', '面对百年变局和世纪疫情相互叠加的复杂局面，今年以来，在以习近平同志为核心的党中央坚强领导下，全国上下勠力同心，以科学之策应对非常之难，疫情防控形势持续向好，经济发展迎来回暖态势。', '进入2022年，疫情仍复杂多变，尤其3月以来，具有强传染性的奥密克戎变异株波及多数省份，人民生命健康受到威胁，经济复苏受到较大冲击。', '关键时刻，习近平总书记在3月17日主持召开中共中央政治局常委会会议，分析新冠肺炎疫情形势，部署从严抓好疫情防控工作。习近平总书记强调“要始终坚持人民至上、生命至上，坚持科学精准、动态清零，尽快遏制疫情扩散蔓延势头”“要保持战略定力，坚持稳中求进，统筹好疫情防控和经济社会发展，采取更加有效措施，努力用最小的代价实现最大的防控效果，最大限度减少疫情对经济社会发展的影响”。', '4月10日至13日，习近平总书记在海南考察，强调坚持就是胜利。“要克服麻痹思想、厌战情绪、侥幸心理、松劲心态，针对病毒变异的新特点，提高科学精准防控本领，完善各种应急预案，严格落实常态化防控措施，最大限度减少疫情对经济社会发展的影响。”', '4月29日，习近平总书记主持召开中共中央政治局会议分析研究当前经济形势和经济工作，强调“疫情要防住、经济要稳住、发展要安全，这是党中央的明确要求”，提出“要加大宏观政策调节力度，扎实稳住经济，努力实现全年经济社会发展预期目标，保持经济运行在合理区间”，并就全力扩大国内需求、稳住市场主体、切实保障和改善民生等各方面作出重要部署。', '这次会议强调：“高效统筹疫情防控和经济社会发展，坚定不移坚持人民至上、生命至上，坚持外防输入、内防反弹，坚持动态清零，最大程度保护人民生命安全和身体健康，最大限度减少疫情对经济社会发展的影响。”', '6月8日至9日，习近平总书记在四川考察时指出，要高效做好统筹疫情防控和经济社会发展工作，坚决克服目前经济发展面临的一些困难，做好就业、社会保障、贫困群众帮扶等方面的工作，做好维护社会稳定各项工作，保持人心稳定，保持社会大局稳定。', '习近平总书记强调，当前，各地区各部门要坚决贯彻党中央决策部署，坚持稳中求进工作总基调，全面做好改革发展稳定各项工作，努力保持平稳健康的经济环境、国泰民安的社会环境、风清气正的政治环境，为党的二十大召开营造良好氛围。', '贯彻落实党中央决策部署，全国各地各部门从严从细抓好疫情防控，筑牢疫情防控屏障：深圳、吉林等地沉着有力迎战疫情；抽调22个省份3万余名医务人员和重症专家，军队派出5000多人医疗队，全面支持上海疫情防控工作，上海全市上下不断提升疫情防控能力，持续优化防控举措；北京坚持以快制快，采取果断措施抓好疫情防控……目前，疫情防控已取得阶段性成效。', '今年以来，在以习近平同志为核心的党中央坚强领导下，各地区各部门扎实落实、主动作为，宏观、微观、结构、科技、改革开放、区域、社会等七大政策加快落地，增量政策工具谋划推出，六方面33项政策聚焦扎实稳住经济持续加力……一系列政策措施着力稳住宏观经济大盘。', '习近平总书记高度关注市场主体发展，指出“保市场主体就是保社会生产力”“要千方百计把市场主体保护好，为经济发展积蓄基本力量”。', '针对今年以来市场主体遇到的发展困难，习近平总书记在4月29日召开的中共中央政治局会议上强调，要稳住市场主体，对受疫情严重冲击的行业、中小微企业和个体工商户实施一揽子纾困帮扶政策。同时强调，“要坚持全国一盘棋，确保交通物流畅通，确保重点产业链供应链、抗疫保供企业、关键基础设施正常运转”。', '6月8日下午，习近平总书记在四川宜宾市考察时，走进极米光电有限公司展厅和生产车间，了解企业加强自主创新、产品研发销售、带动就业和当地支持民营经济发展、出台纾困帮扶政策等情况。', '全国保障物流畅通促进产业链供应链稳定电视电话会议部署10项重要举措，要求足量发放使用全国统一通行证，不得以等待核酸结果为由限制通行。与4月18日相比，6月15日全国高速公路货车流量上升约13.1%，铁路、公路货运量分别增长6.3%和11.6%，铁路货运量较2019年正常水平增长16.2%，全国邮政快递日均业务量较2019年正常水平增长77.5%。', '进一步加大增值税留抵退税力度，全年退税减税约2.64万亿元。将今年普惠小微贷款支持工具额度和支持比例增加一倍。北京推出45条政策措施统筹疫情防控和稳定经济增长，上海出台50条政策措施助企纾困、推动经济恢复重振，深圳出台助企纾困“30条”、培育壮大市场主体“30条”……密集出台的纾困政策为市场主体送来“及时雨”。', '推出“降、缓、返、补”政策组合拳，延续实施失业、工伤保险阶段性降费政策，对22个特困行业实施暂缓缴纳养老、失业和工伤保险费，提高中小微企业失业保险稳岗返还比例最高至90%，加力落实社保、培训等补贴，推出一次性留工培训补助。', '今年以来，全球大宗商品市场波动加剧，稳住粮食“压舱石”、确保能源安全稳定供应极为重要。', '2021年10月，习近平总书记考察胜利油田时就指出，“中国作为制造业大国，要发展实体经济，能源的饭碗必须端在自己手里”；今年春节前夕赴山西考察，总书记进一步强调，“要夯实国内能源生产基础，保障煤炭供应安全”。', '今年3月，习近平总书记在看望参加全国政协十三届五次会议的农业界、社会福利和社会保障界委员时强调，“在粮食安全这个问题上不能有丝毫麻痹大意”；4月10日，在海南考察时，习近平总书记进一步指出，“中国人的饭碗要牢牢端在自己手中，就必须把种子牢牢攥在自己手里”；6月8日，习近平总书记在四川眉山市考察调研粮食生产情况并察看水稻长势，强调“要加强现代农业科技推广应用和技术培训，把种粮大户组织起来，积极发展绿色农业、生态农业、高效农业”。', '各地区各部门全面贯彻落实习近平总书记的指示要求，不断推进能源保供稳价工作，有序释放煤炭优质产能，完善煤炭价格形成机制，加快大型风电光伏基地建设；下大力气保春耕抓夏收，中央财政下达300亿元为实际种粮农民发放补贴，大力实施大豆油料扩种行动……', '目前全国统调电厂存煤达1.61亿吨以上，可用天数31天；主要油气企业成品油库存保持高位运行，天然气管存、罐存均处在高位水平。最新农情调度显示，全国麦收进度已过八成，夏播、夏粮收购有序进行。', '在习近平总书记掌舵领航下，中国经济这艘大船迎难而上、破浪前行。一季度经济同比增长4.8%，平稳开局殊为不易；前5个月主要经济指标有所回升，5月份外贸进出口增幅比4月份环比增长9.2%，特别是长三角进出口环比增长近20%。', '当前中国经济运行符合预期，在全球依然具有很强的比较优势。从长远看、从大局看、从趋势看，中国经济依然具有长期向好的光明前景。', '正如习近平总书记在2022年世界经济论坛视频会议演讲时指出：“虽然受到国内外经济环境变化带来的巨大压力，但中国经济韧性强、潜力足、长期向好的基本面没有改变，我们对中国经济发展前途充满信心。”', '越是在发展承压的时候，越要完整、准确、全面贯彻新发展理念，越要坚定推动高质量发展的信心决心，主动服务和融入新发展格局。', '习近平总书记强调：“无论国际风云如何变幻，我们都要坚定不移做好自己的事情，不断做强经济基础，增强科技创新能力，提升综合国力。”', '2021年5月，河南南阳。习近平总书记在推进南水北调后续工程高质量发展座谈会上强调，加快构建国家水网主骨架和大动脉，为全面建设社会主义现代化国家提供有力的水安全保障。', '2021年7月，青藏高原。习近平总书记实地察看拉林铁路沿线建设情况，指出“全国的交通地图就像一幅画啊，中国的中部、东部、东北地区都是工笔画，西部留白太大了，将来也要补几笔，把美丽中国的交通勾画得更美”。', '今年4月26日，习近平总书记主持召开中央财经委员会第十一次会议，对全面加强基础设施建设作出重要战略部署，强调，“优化基础设施布局、结构、功能和发展模式，构建现代化基础设施体系，为全面建设社会主义现代化国家打下坚实基础”。', '“十四五”规划102项重大工程建设正加快推进，已分解出的2600多个项目稳妥有序实施；1至4月，全国铁路已累计完成固定资产投资1574.6亿元；今年全国预计完成水利建设投资约8000亿元，南水北调中线引江补汉、淮河入海水道二期、广东环北部湾水资源配置等重大水利工程将在近期开工建设，并加快推进后续工程规划建设；目前已累计建成5Ｇ基站161.5万个，工业互联网已延伸至45个国民经济大类。', '从中央到地方，重大工程不断落地，持续完善现代化基础设施体系的“四梁八柱”，为中国经济增强回旋空间，为高质量发展积蓄动力。', '习近平总书记深刻指出：“只有立足自身，把国内大循环畅通起来，才能任由国际风云变幻，始终充满朝气生存和发展下去。”', '习近平总书记高度重视统一大市场建设工作。他多次强调，打造统一开放、竞争有序的市场体系，不断夯实中国经济长远发展根基。', '2021年12月17日，习近平总书记主持召开中央全面深化改革委员会第二十三次会议时强调，构建新发展格局，迫切需要加快建设高效规范、公平竞争、充分开放的全国统一大市场，建立全国统一的市场制度规则，促进商品要素资源在更大范围内畅通流动。', '2022年4月10日，《中共中央 国务院关于加快建设全国统一大市场的意见》发布，释放出全面推动我国市场由大到强转变的鲜明改革信号。', '出台《建设高标准市场体系行动方案》，破除妨碍生产要素市场化配置和商品服务流通的体制机制障碍；11个部门印发《关于开展“携手行动”促进大中小企业融通创新（2022—2025年）的通知》，提升现代化产业体系效能；发布《关于进一步释放消费潜力促进消费持续恢复的意见》，着力破除消费领域体制机制障碍……落实习近平总书记重要指示，一系列部署着力巩固增强市场的资源优势，形成供需更高水平动态平衡。', '今年4月，习近平总书记在海南考察时强调，推动港口发展同洋浦经济开发区、自由贸易港建设相得益彰、互促共进，更好服务建设西部陆海新通道、共建“一带一路”。“要着力破除各方面体制机制弊端，形成更大范围、更宽领域、更深层次对外开放格局”。', '4月21日，习近平总书记在博鳌亚洲论坛2022年年会开幕式上的主旨演讲中强调，不论世界发生什么样的变化，中国改革开放的信心和意志都不会动摇。', '5月18日晚，习近平总书记在庆祝中国国际贸易促进委员会建会70周年大会暨全球贸易投资促进峰会上发表视频致辞，重申“中国扩大高水平开放的决心不会变，中国开放的大门只会越开越大”，表示“为全球工商界提供更多市场机遇、投资机遇、增长机遇”。', '扎实推进自由贸易试验区、海南自由贸易港建设；新版全国和自贸试验区外商投资准入负面清单施行；区域全面经济伙伴关系协定正式生效……疫情“大考”下，中国坚定不移推动更高水平对外开放。', '海外投资中国的脚步不停。今年1至5月，中国实际使用外资金额5642亿元人民币，同比增长17.3％。前4个月新增合同外资1亿美元以上大项目185个，相当于平均每天有1.5个外资大项目落地。', '习近平总书记反复强调，保持定力，增强信心，集中精力办好自己的事情，是我们应对各种风险挑战的关键。', '准确把握新发展阶段，完整、准确、全面贯彻新发展理念，锚定高质量发展目标，加快构建新发展格局，坚定信心走好自己的路、办好自己的事，这正是以习近平同志为核心的党中央把握时与势的战略自信，彰显勇毅前行的强大底气和定力。', '越是特殊时期，越要聚焦民生关切、注重改善和增进民生福祉。去年底习近平总书记在中央经济工作会议上发表重要讲话，强调“要统筹推进经济发展和民生保障”，围绕保障改善民生作出一系列重要部署。', '今年1月，在2022年世界经济论坛视频会议的演讲中，习近平总书记指出，“不论遇到什么困难，我们都要坚持以人民为中心的发展思想”。', '4月21日，在博鳌亚洲论坛2022年年会开幕式上的主旨演讲中，习近平总书记指出：“要坚持以人民为中心，把促进发展、保障民生置于突出位置，实施政策、采取措施、开展行动都要把是否有利于民生福祉放在第一位。”', '4月29日召开的中共中央政治局会议上，习近平总书记强调，“要切实保障和改善民生，稳定和扩大就业，组织好重要民生商品供应，保障城市核心功能运转”。', '就业是民生之本，高校毕业生等重点群体就业是重中之重。今年我国高校毕业生预计达1076万人，同比增加167万人，创历史新高。6月8日，在四川考察调研时，习近平总书记专程来到宜宾学院了解高校毕业生就业情况。习近平总书记指出，“党中央高度重视高校毕业生就业，采取了一系列政策措施。当前正是高校毕业生就业的关键阶段，要进一步挖掘岗位资源，做实做细就业指导服务，学校、企业和有关部门要抓好学生就业签约落实工作”。', '保重点群体保就业。对高校毕业生，着力扩大就业渠道，着力提供不断线服务，着力强化困难帮扶，对吸纳高校毕业生就业见习的企业按规定予以补贴支持。对农民工，重点加强劳务协作和信息对接，拓宽外出务工和就地就近就业渠道，稳定脱贫人口务工规模，促进就业增收。目前，主要群体就业基本稳定。1至5月份，全国城镇新增就业529万人，与时序进度基本同步。', '今年以来，习近平总书记多次就稳物价作出重要指示：“大企业特别是国有企业要带头保供稳价，强化民生用能供给保障责任”“健全重要民生商品保供稳价机制”……', '4月，多部门启动生活物资保障机制，将农产品及农业生产物资纳入重点运输物资保障范围；5月，调整煤矿核增产能政策，对所有煤炭暂行零进口税率；6月，11部门发文部署打通生产供应、产销衔接、流通运输等多环节堵点卡点……各地各部门政策加力增效，有效防止物价大起大落。', '5月，随着疫情防控形势持续转好，市场供应总体充足，国内物价指数环比转降，涨幅保持在2.1%。', '习近平总书记强调，对困难群众，我们要格外关注、格外关爱、格外关心，帮助他们排忧解难。要针对特困人员的特点和需求精准施策，按时足额发放各类救助金，强化临时救助，确保兜住底、兜准底、兜好底。', '允许受疫情影响严重的个人住房、消费贷款等延期还本付息；延续执行失业保险保障阶段性扩围政策，向广大失业人员发放失业补助金，向失业农民工发放临时生活补助；对因疫情影响暂时失业、未参保的困难人员，给予临时救助。', '及时启动社会救助和保障标准与物价上涨挂钩联动机制，发放临时价格补贴；为困难群体代缴基本养老、医疗保险费，坚决守住不发生规模性返贫底线；继续巩固脱贫攻坚成果，扎实推进乡村振兴、促进共同富裕。', '2022年安排困难群众救助补助资金1546.83亿元，较去年增加70.62亿元；居民医保和基本公共卫生服务经费人均财政补助标准分别再提高30元和5元；全国基本建设保障性租赁住房投资总额预估约8500亿元。', '前5个月，全国社会领域投资增长12.9%。对群众关注的骨科耗材、种植牙等开展集采，降低群众看病负担；异地就医结算持续推进，截至4月底，全国已有74个统筹地区启动高血压、糖尿病等5种门诊慢特病治疗费跨省直接结算试点。', '6月起，各地相继实施最新养老金调整方案，今年我国退休人员基本养老金再上调4%，将惠及1.3亿多退休人员……一项项务实改革，在百姓最关心的领域，加快补齐制度短板。', '今年全国两会期间，习近平总书记在作出“五个必由之路”重大论断的同时，提出并阐明我国发展仍具有的“五个战略性有利条件”——', '“有中国共产党的坚强领导”“有中国特色社会主义制度的显著优势”“有持续快速发展积累的坚实基础”“有长期稳定的社会环境”“有自信自强的精神力量”。', '新航程上，亿万中华儿女在以习近平同志为核心的党中央坚强领导下，用好“有利条件”，走好“必由之路”，劈波斩浪勇向前，必将在中华民族伟大复兴不可逆转的历史进程中创造新的发展奇迹！（记者 张旭东、韩洁、安蓓、姜琳、张辛欣）']</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A206" t="n">
+        <v>25</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
           <t>赛罕区政府工作报告年月日在呼和浩特市赛罕区第五届人民代表大会第三次会议上</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>2024-01-09</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwgk/2022_szfgzbg/qxq/202403/t20240301_1666456.html</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>['赛罕区政府工作报告&lt;br&gt;——2024年1月9日在呼和浩特市赛罕区第五届&lt;br&gt;人民代表大会第三次会议上_ 呼和浩特市人民政府', '赛罕区政府工作报告 ——2024年1月9日在呼和浩特市赛罕区第五届 人民代表大会第三次会议上', '现在，我代表赛罕区第五届人民政府向大会报告工作，请予审议，并请各位政协委员和列席会议的同志们提出意见。', '在贯彻落实党的二十大精神的开局之年，习近平总书记第四次到内蒙古考察，特别是亲临中环产业园作出重要指示，给我们寄予殷切期望，再次为我们指明了前进方向，这是赛罕区发展史上具有里程碑意义的大事。国务院关于推动内蒙古高质量发展《意见》和自治区支持呼和浩特市高质量发展《意见》，为我们服务战略全局、实现跨越式发展，注入了强大动力，带来了宝贵机遇。全区上下深受鼓舞、感恩奋进，坚定把学习贯彻习近平总书记考察内蒙古时的重要指示精神作为最重要的政治任务、最根本的工作遵循，深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育，以铸牢中华民族共同体意识为主线，扎实推动高质量发展，各项工作齐头并进，经济社会发展取得新成绩。', '一年来，我们锚定做大经济总量，奋力扛起全市经济“压舱石”的重要责任，培优提质，主要经济指标再攀新高，综合实力提级跃升。预计地区生产总值达到1050亿元，同比增长10%，成为全市首个“千亿城区”。规上工业总产值完成1045亿元，规上工业增加值同比增长20%；实施重点项目198个，固定资产投资完成210亿元，同比增长38%；社会消费品零售总额完成225亿元，同比增长15%；一般公共预算收入完成46.3亿元，同比增长14.2%；全体居民人均可支配收入完成53600元，同比增长6%。地区生产总值、规上工业总产值、固定资产投资、一般公共预算收入4项指标继续保持全市第一。完成重点项目土地整理出让1108亩。新签约项目落地开工76个，完成投资141亿元。连续三年招商引资签约落地项目数和完成投资额实现递增。', '一年来，我们聚焦“金山”主赛道、“航开”新赛道，实打实推进工业强区、商业旺区、农业兴区，破圈突围，产业优势加速放大，经济能级持续提升。', '工业支撑强劲有力。金山高新区在自治区排名由第7位跃升至第5位，预计完成工业总产值950亿元。鑫环10万吨颗粒硅、鑫华1万吨电子级高纯多晶硅实现一年内开工投产，合盛硅业项目从签约到开工仅用时21天。硅材料产业链条越来越有韧性，市场竞争力明显加强。中石油呼石化原油加工量扩能到455.2万吨，为历年来最高，新增产值72亿元。成立中石油（内蒙古）新材料公司，中石油年产5万吨丙烷脱氢项目、蒙联年产30万吨液化气深加工扩能项目竣工投产，现代化工产业集群“能化一体”发展格局持续优化。航天经济开发区获批自治区级一类开发区，启动建设园区道路、标准化厂房等14个基建项目，防务总装、商业航天等19个产业项目陆续落地，预计完成工业总产值80亿元，首府新的经济增长极蓄势待发。', '第三产业扩优提质。全区服务业增加值预计实现600亿元，同比增长9.9%。市场经营主体加快恢复，总量达到10.2万户。“五经普”顺利完成了清查工作。金桥“双创”园获批“自治区科技企业加速器”称号，创业空间增至10万平方米，直播经济、跨境电商等新业态交易额突破60亿元。呼和浩特国际陆港沙良海关监管作业场所正式启动，开行中欧班列38列，成为中欧班列发运新枢纽；全区外贸进出口总额达到29.52亿元。马鬃山滑雪旅游度假区成功创建国家3A级景区，滑雪专列、专线相继开通，推出“冰雪+文旅教体”等特色项目，冰天雪地变成金山银山。万达广场、大学城商圈升级改造，中商世界里购物中心隆重开业。大黑河两岸云羡森友会、花海之约、机车公园、湖湾林舍等商业业态火爆“出圈”。高品质实施街景亮化提升工程，小草公园灯展画面登上央视。举办主题促销活动240余场，开放早夜集市22处，市场消费信心持续提振。', '现代农业增产增效。坚决整治违法用地，守牢耕地保护红线。推广应用水肥一体化种植等技术，粮食总产量达到27万吨。实施总投资2.9亿元的蒙游记、嘉仕、润泽、健芯等21个高标准设施农业项目，全部实现当年建成当年投产；改造提升废旧温室大棚1700余栋，地产菜产量稳定在全市一半以上。持续做好防返贫致贫动态监测，实施乡村振兴产业帮扶项目34个，带动1.2万余人增收。新认证市级以上示范合作社12家、市级示范家庭农牧场5家。新增“二品一标”、名特优新农产品4个。成功承办2023年呼和浩特市“中国农民丰收节”。', '一年来，我们坚持向改革要活力、向创新要动力，更加注重依靠改革创新推进高质量发展，蓄势赋能，营商环境持续优化，科技创新活力迸发。持续深化“放管服”改革，优化审批流程，材料要件压减21%、办理环节压减24.6%、办理时限压减57.1%。认真落实优惠政策，留抵退税、减税降费15.34亿元。围绕“高效办成一件事”，在自治区率先实现政务网“多网融合”集约改造。科技创新动能不断增强。全年争取科技经费4036万元，完成技术交易额7579万元。新增高新技术企业25家、科技型中小企业114家，创新型中小企业24家，国家级专精特新“小巨人”企业1家，自治区专精特新中小企业2家。全区科技创新主体和平台载体新增51家，累计达到193个，增量和总量均居全市首位。', '一年来，我们坚持统筹城乡联动发展，持续推进城市更新，城市能级和品质不断提升。不断完善路网体系，三环快速路建成通车，打通满洲里路等“断头路”7条，完成背街小巷提升40条，街面整治6条。新扩建停车场31处、新增泊位6673个，新建智能充电站161处、充电桩2935个，群众出行更加通畅便捷。完成改造老旧小区57个、雨污管网3.4公里、老旧燃气管网60公里、居民室内燃气立管1.56万户，实施3个棚户区改造、13个村节能改造，筹集保障性租赁住房300套，居住条件持续改善；新建口袋公园75个、城市绿道50公里、街景花坛节点200处，建成大黑河郊野公园，打造格桑花海等4处千亩花田，建成区绿化覆盖率达到42.3%，人均公园绿地面积达到19.3平方米。新建省道102至格此老村等农村公路5条。争取衔接资金6984万元，实施产业帮扶项目34个，7个村集体经济收入超过50万元，22个村超过20万元。创建自治区绿化美化示范村2个。', '一年来，我们坚持生态优先、绿色发展，更大力度推进生态建设和系统治理，美丽赛罕底色更加亮丽。实施大黑河上游6.9公里流域、八拜湖生态修复等工程；实施“三北”防护林六期工程6500亩，全区林草覆盖率达到37.2%。完成燃煤散烧综合整治1万户。金桥工业污水处理厂建成投用，常态化开展河湖“四乱”清理，地下水超采区治理取得实效。化肥、农药使用量持续下降，地膜回收、秸秆综合利用水平持续提升。成功创建自治区第一批生态文明建设示范区，区防火办获评“全国森林草原防火工作先进单位”、区河长办获评自治区“河长制工作先进集体”荣誉称号。', '一年来，我们始终坚守初心，同心同向增进民生福祉，共建共享，群众获得感、幸福感、安全感显著增强。', '社会保障兜底有力。民生支出占一般公共预算支出的60%以上。城乡居民基本医疗保险参保达到32.9万人，特殊群体参保率达到100%。积极落实惠民助企就业创业政策，建成“丁香扎根”大学生创业就业示范基地，举办“区长喊你来就业”等系列招聘会23场，吸引大学生留呼就业创业1.08万人，新增城镇就业1.96万人，农村劳动力转移就业3.1万人，失业人员、就业困难人员再就业6500人。累计建成居家社区养老服务试点107个，增加医养康养床位459张，为老服务覆盖面进一步扩大。金隅社区获评“全国示范型老年友好社区”。', '教育发展更加普惠均衡。全年新续建教育项目16个、新增学位14640个，双台什学校等6所学校主体完工，金桥小学扩建等6个教育项目投入使用。招聘优秀教师565名，组织校长、教师、班主任、教研员培训1万余人次。校地共建取得新突破，7所农区小学加入教育集团，集团化办学取得新成效。', '健康服务更加优质惠民。引进北京知名医疗团队，与通用技术集团合作打造的内蒙古首家心脑血管医院开诊运营。2家区级医院与内蒙古自治区人民医院组建城市医疗集团。大学东路社区卫生服务中心建成投用。建设基层医保服务站点223个，实现医保站点建设全覆盖。建设特色临床专科3个，创建社区医院2家。赛罕区第二医院通过二级乙等医院评审，区卫健委创建成为“全国生育友好先进单位”。', '基层治理更加精细高效。迁址提升兴安南路、呼伦贝尔南路2个区域服务中心，新成立12个社区正式运行，优化网格1378个；社区工作者“三岗十八级”薪酬待遇全面落实。全区941个住宅小区物业管理实现全覆盖，网格化服务管理平台、接诉即办平台累计办结诉求近50万件，群众满意率持续提升。坚持和发展新时代“枫桥经验”“浦江经验”，积极推进信访代办制，化解遗留信访事项226件。金河镇成功入选第三批全国乡村治理示范村镇。电力腾飞社区获评“自治区级文明社区”，桃园、仕奇、大台什社区入选自治区“北疆示范社区”。', '社会大局更加安定有序。多措并举完成“保交楼”年度施工和交付任务，盘活“半拉子”工程3个，债务化解完成23亿元。常态化抓好安全生产工作，未发生安全生产重特大事故。严厉打击电信网络诈骗，有效保护了群众的“钱袋子”，社会治安形势持续向好。锡小永泰分校等4家单位荣获“自治区民族团结进步示范单位”称号。成功创建自治区法治政府建设示范区，平安赛罕建设迈上新台阶。各级巡视巡察、环保、审计等各项督导督察指出问题整改销号等任务全部完成。', '一年来，我们深入贯彻落实党的二十大精神，扎实开展学习贯彻习近平新时代中国特色社会主义思想主题教育，严格落实中央八项规定精神，加强政府自身建设，干部工作作风明显转变。自觉接受人大法律监督、工作监督和政协民主监督，人大代表建议、政协委员提案全部办复。军民融合、国防动员、双拥优抚等工作都有了新进步，外事侨务、统计调查、档案史志、地震气象、供销流通等事业都有了新提升，工会、共青团、妇联、科协、文联、残联、红会等组织都作出了新贡献。', '各位代表，看似寻常最奇崛，成如容易却艰辛。2023年我区可谓硕果累累，这是市委、市政府、区委正确领导的结果，是广大干部群众勠力同心、苦干实干的结果。在此，我代表区人民政府向辛勤奋战在各行各业、各条战线上的建设者、奉献者，向所有关心、支持、参与赛罕区发展的同志们、朋友们，致以崇高的敬意和衷心的感谢！', '思危方能居安，知忧方能克难。在发展的道路上，我们还面临不少困难和问题，存在不少短板和不足：一是中心城区区位优势和贡献发挥不够充分，一二三产融合发展、耦合联动还有差距；二是园区承载力有待加强，用地供给保障不足，主导产业结构不优，产业链不够完整，全区经济对支柱产业依赖性较大，产业布局还需进一步优化；三是当前及未来一段时期，政府债务、资金保障对发展的约束比较明显，还需要在开疆拓源、挖潜增效上精准发力、积极作为；四是干部的系统思维、争先意识、创新能力还不够强，推进政府系统全面从严治党、提升履职本领方面还需持续加力。', '2024年政府工作的总体要求是：紧扣习近平总书记交给内蒙古的“五大任务”和全方位建设“模范自治区”这两件大事，牢牢把握国务院关于推动内蒙古高质量发展《意见》的历史机遇，把铸牢中华民族共同体意识作为各项工作的主线，锚定“区内再进位，国内争百强”，做大“金山高新区、航天开发区”经济体量，推动城区、农区、园区三区联动，产业发展、城建文旅、民生服务协同发展，经济、文化、治理、生态、人口五个能级全面提升，立新图强，创新赋能，实现总量、数量、体量、份量、贡献量五个突破，着力打造“四个千亿”“五个第一”的现代化首府中心城区。', '2024年经济社会发展主要预期目标是：地区生产总值增长10%以上，规上工业增加值增长20%以上，固定资产投资增长30%左右，社会消费品零售总额增长15%以上，外贸进出口总额增长15%以上，一般公共预算收入增长12%以上，全体居民人均可支配收入增长6.5%左右。单位GDP能耗完成上级下达任务。', '（一）扛实扛牢在全市高质量发展中肩负的重要责任，坚持“一切围绕项目转、一切聚焦项目干”，上争外引，以项目建设强引擎，推进高质量发展加速跑。', '乘势而上把握历史机遇。高效落实国务院出台的支持内蒙古发展的《意见》、自治区政府出台的“强首府”1号文件，最大限度争取政策红利。力争获得更多国债、地方政府专项债券、基金支持，纳入自治区和市级重点项目134个以上。坚持城区、园区用地联动开发，加快城区土地整理、提速组件报批，出让土地3530亩，争取全额土地收益用于保障工业项目用地，工业用地实现“标准地”供应。', '千方百计稳定投资底盘。充分发挥投资“压舱石”作用，聚焦先进制造、新兴产业、城市更新、生态环保等领域，谋划实施重点项目215个，总投资2197.3亿元，其中产业项目84个，总投资1900亿元。开展全员、全年、全领域、全链条精准招商，引进亿元以上项目60个，到位资金100亿元以上。完善投融资机制，探索实施政府和社会资本合作新机制，支持社会资本参与新型基础设施等领域建设。', '坚定不移做强园区经济。聚焦新型工业化，坚持“链园结合”，推动园区集约集聚、智慧高效、绿色低碳发展。金山高新区建设“一区六园”，在全市率先迈入千亿级园区，争创国家级新型工业化示范基地。航天经济开发区建设“一区五园”，工业总产值达到120亿元以上，申报国家级开发区。实施总投资73亿元的20个基础设施项目。完成商砼站搬迁，推动天平营村、南地村征拆工作，整理工业净地10580亩，通过应用“管委会+公司”企业化模式、优化“开发区+属地”一体化运行机制，提高园区运营质效。金桥“双创”园充分发挥国家级科技企业孵化器和国家“众创空间”效能，加速腾笼换鸟、培优增效，围绕服务“两个园区”，培育引进更多科技创新、金融服务、数字信息、工业软件开发等生产性服务业“入园”，提升自主创新和成果转移转化能力。', '（二）保持抓二产、园区、实体经济，生产性服务业、高端服务业和增加城市“烟火气”的决心不动摇，抢抓未来产业布局，以实干为先发展优势产业，不断做大经济总量。', '增强先进制造业支撑力。抢抓国家“全面实施制造业重点产业链高质量发展行动”政策机遇，争创硅材料国家先进制造业集群、新型工业化示范区。推动硅材料生产向光伏电站、芯片制造全链条延伸，现代化工“蒙油蒙炼”扩量增产、“能化一体”结构调整，防务总装、军民融合、航空航天装备制造等产业发展壮大。推动总投资140亿元的鑫环颗粒硅、鑫华电子级高纯多晶硅4个项目放量达效；加快总投资1000亿元的合盛硅业碳化硅等5个项目建设进程（碳化硅、160GWN型单晶方棒、工业硅、有机硅、10万吨制氢液氨项目）；推动总投资550亿元的中环七期、中环20GW叠瓦组件、中环领先碳化硅外延片产业化、旭阳光伏全产业链、中芯富晟半导体产业园、苏州第三代半导体氮化镓、硅碳负极材料等16个项目落地开工；推动呼石化掺炼扩量、油浆制碳黑、9万吨聚甲醛装置及二期项目等5个项目开工建设；扩建总投资85亿元的金桥热电厂二期项目；保障航天开发区总投资54亿元的F12芳纶纤维产业化扩能、高性能储氢、复合材料研发、碳碳热场、航天六院环保装备制造、高精矾材料制造、邯郸极驰新能源汽车等12个项目建成投产。工业投资增长23.5%以上。', '增强现代服务业竞争力。大力发展总部经济、枢纽经济、流量经济、楼宇经济。加快三峡、合盛、协鑫等头部企业区域总部入驻。培育壮大新型消费，发展首店经济，积极引进北京华联精品店、盒马鲜生、山姆等高端商超8家以上，新增品牌连锁便利店和智慧商店300家。积极打造高品质商圈，加快运营摩尔城B区、永泰城等商业综合体，升级改造万达步行街、东影南街、附中东巷等特色街区。打造中商世界里、购觅（GOMEET）、文化客厅消费新商圈。发展银发经济、夜间经济、假日经济等新业态，策划筹备好节假日促销、冰雪文体旅游等活动，提升城市“烟火气”。', '增强未来产业牵引力。超前布局战略性新兴产业、未来产业，抢占未来竞争制高点。金山高新区建设智慧园区、智能工厂，加快发展引进新一代半导体材料及人工智能、类脑科学、区块链、元宇宙等产业入驻未来产业园。航天经济开发区建设北斗大厦，发展商业航天、低空经济、航空装备制造等产业，引进入驻中科星图、盛和芯、天玑北斗等北斗应用企业，打造国家级军民融合创新示范基地，内蒙古商业航天产业基地。', '更高质量实施创新驱动。实施科技企业“双倍增、双提升”、规上工业企业科技创新“三清零全覆盖”，在金山高新区建设国家半导体硅材料技术创新中心、中石油科创研发中心——两个国家级创新中心；在航开区打造航天科创中心、北斗产业科创总部——两个科技孵化中心。落实好科技投入刚性增长机制，实施创新主体梯度培育行动，科技型中小企业突破300家，高新技术企业达到180家，不断发展壮大科技领军企业。依托“蒙科聚”科技创新驱动平台，推动“政产学研推用银”协同创新，加强“政校企”创新创业联动，培育引进高科技人才50人以上。', '更大力度深化改革开放。推进国有企业综合改革，提高“盈利点”、增强竞争力。持续深化“放管服”改革，不断增强“一网通办”能力，扩大延时和帮代办服务范围；实施“政务服务进园区”工程，推动审批驻园主动服务。优化项目联审联批、快审快办机制，开展帮助企业“四找”行动，持续优化营商环境。围绕首府创建自贸核心区建设，推动发展大宗商品现货交易、国际物流枢纽经济等业态。加快引进跨境电商、离岸贸易、数字贸易等外贸企业，外贸进出口总额突破50亿元，增强外贸新动能。', '更实举措提升服务效能。持续做好第五次全国经济普查，摸清经济“家底”。优化中小企业公共服务体系，深化政企对接沟通机制，构建亲清政商关系，强化“一企一策”全过程服务，切实为民营企业解难题、办实事。建设诚信政府，依法保护民营企业产权和企业家合法权益，支持中小微企业和个体工商户创新创业，推进惠企政策直达快享，在市场准入、要素获取、公平执法等方面落实新举措，全力培育上市企业2家，市场主体总量突破11万户。创建国家知识产权保护示范区。让顶天立地的民营企业发展更好，让铺天盖地的小店小铺活力更强。', '（四）坚持抓城市建设、抓人口增长和抓基础设施互联互通，精心构建城市格局，提升功能品质，强化建管并重，做宜居环境的示范者。', '以系统思维优化城市布局。统筹推动城区、农区、园区三区联动，优化国土空间总体规划布局，完善镇街空间规划和村庄规划编制。推动机场搬迁后100多平方公里区块释放活力，引进企业总部、科研机构、高端产业、现代生活落户，谋划建设300万平方米综合性超大青年社区，更好满足大学生、新市民、产业工人等群体住房需求。推动保全庄区块建设“赛罕新区”，建设复合型、服务型综合城区，打造高品质的教育、医疗、消费区域生活中心。', '以工匠精神推进城市更新。完成老旧小区改造45个，解决“吃水难”问题小区185个。完成改造老旧燃气管网22.34公里、污水管网6公里、室内燃气立管1.34万户。打通“断头路”11条，推进城市“边死角”改造10处，提升背街小巷40条。推动S29呼凉高速建成通车，改造南二环至昭乌达立交、南丰路跨大黑河桥等路网重要节点5处。通过建设立体停车楼3处、新扩建停车场34处等措施，新增1.1万个泊车位。实施扮靓街区行动，提升改造鄂尔多斯东街等街面11条；新建口袋公园40处、绿道55公里，提升绿化节点200处、绿化道路17条；高品质提升大黑河生态廊道，营造“城在绿中、人在园中”的城市美景。', '以绣花功夫抓好城市治理。推进大城细管，定期开展“城市体检”，推广“一支队伍管执法”经验，做实物业服务标准化。新建改建生活垃圾分拣中心1座、“两网融合”垃圾转运站5座，打造生活垃圾分类示范片区1个、示范社区7个、样板小区（村）40个。加快基层治理智慧化建设，强化数字赋能“一网统管”，提升“蒙速办”和“12345”一线通达能力，倡导共建共管共享，让智慧城市更有质感。', '（五）保持抓生态保护、污染防治和美丽赛罕建设的定力和决心，围绕争创自治区“绿水青山就是金山银山”实践创新基地、国家生态文明建设示范区，加快发展提级转型，夯实生态绿色底蕴。', '久久为功“扩绿”。实施3.5万亩“三北”防护林六期等工程。实施大黑河全流域生态修复治理项目6个，完成历史遗留矿山生态修复204公顷。建设42公里森林草原防火通道、二级水源保护区等项目，持续提升生态系统防护能力。创建自治区森林城市、自治区绿化美化示范区和2个森林乡镇。', '扎实有力“减污”。实施燃煤散烧综合整治4500户。加强大气污染物协同控制，推进重点行业挥发性有机物污染治理。加强工业园区污水处置再利用，新建金山高新区、航开区3个再生水厂，推动续建喇嘛营污水处理厂。实施好建筑垃圾固废回收再利用项目，推进“无废城市”建设。', '稳步有序“降碳”。推进400亿度新增负荷绿电替代、源网荷储，打造绿电消纳示范园区。推动金山高新区创建国家级绿色园区。开工建设中能建氢能装备制造等5个项目，争取自治区级碳汇交易中心、绿电交易中心、绿证交易中心落户我区。建设新能源充电站51处、充电桩2000个以上。实施建筑节能改造58万平方米，推进节约型机关、绿色家庭等创建行动，倡导绿色低碳生活。', '（六）用好“千万工程”经验，坚持用“工业化”思维推动农业链式发展，构建“农业+”产业融合发展新模式，推进和美乡村建设，夯基筑本推动“三农”发展，全面推进乡村振兴。', '大力发展都市现代农业。守住耕地这个命根子，持续加大“非农化”“非粮化”整治力度。坚持产业兴农，实施“6项提升行动”，建设高标准农田4.5万亩，确保粮食产量稳定在27万吨以上。启动设施农业全域提标工程，建设蒙游记二期、嘉仕数智农场三期等项目，引进凯盛浩丰智慧农业园、维实综合型农场等项目，发挥龙头企业引领带动作用，新增改造1000亩蔬菜大棚，新建平价菜便民市场5处，供应更多地产菜，保障好城市“菜篮子”；加快建设现代都市高科技农业示范园区一期等项目，推动农业科技成果转移转化。高水平建设丰州驿、白塔等3个都市田园综合体，发展直播带货、民宿经济、共享农庄等新业态。实施农牧业品种培优、品质提升、品牌打造行动，培育“二品一标”、名特优新农产品2个以上。', '扎实推进乡村建设和治理。提升完善区域路网，改扩建金航路（格尔图—沙良物流园段）、县道009（合林—添密湾段）、县道017（G209—四间房段）32公里，新建郜独利—五路等8条农村公路12公里，争创国家级“四好农村路”示范区。打造优美洁净的村容环境，启动哈拉更沟全域景观提升工程，实施生活污水处理项目9个，农村安全饮水提升项目6个。全面推行农村集中供水工程标准化管理。全区20%行政村开展生活垃圾分类，打造生活垃圾分类示范村6个。每个镇打造1个乡村振兴特色村。培育文明乡风、良好家风、淳朴民风。', '持续巩固拓展脱贫攻坚成果。落实好防止返贫监测帮扶机制，提高产业和就业帮扶实效，增强脱贫群众内生发展动力，提高巩固拓展脱贫攻坚成果质效，确保不发生规模性返贫。实施总投资1.1亿元的乡村振兴衔接项目36个，新增新型经营主体4家、合作社50家。健全乡村产业联农带农益农机制，培育高素质农民累计达到1000人，更有效地带动农民就业，增收致富，带动全区20%的村集体经营性收入均达到50万元。', '（七）保持抓民生福祉、安全生产、社会治理的决心不动摇，在集聚人口上下功夫，坚持尽力而为、量力而行，在持续兜住、兜准、兜牢民生底线的基础上，用心用情保障改善民生，统筹发展社会事业。', '多措并举促进就业创业。突出就业优先导向，开展各类线上线下招聘会20场以上，新建零工驿站10个以上，围绕“两个园区”重点企业用工需求，继续实施三年“十万大学生留呼工程”和“五万产业工人留呼工程”，吸引大学生就业创业和产业工人留呼就业各1万人以上。扎实做好高校毕业生、失业人员、就业困难人员、脱贫人口等就业服务。年内新增城镇就业2万人以上，农村劳动力转移就业3万人以上。', '不断健全社会保障体系。扎实推进全民参保，加大特殊群体关爱保障力度。持续推动解决“一老一小”问题，新建养老公寓1处，居家社区养老服务中心（站）3个以上；建成托育机构5家。筹集保障性租赁住房400套，交付“保交楼”房屋6133套，推动双树、保全庄、西古楼、天平营、南地、徐家沙梁、喇嘛营7个棚户区改造，建成回迁房6301套。高标准、高质量、高效率全面实施温暖工程。做实做细国防动员和拥军优属工作，争创自治区“双拥模范城”十连冠。', '持续推进教育优质发展。全面落实好《呼和浩特市推动教育优质均衡发展10条措施》，营造尊师重教的良好社会风尚。新建续建中小学幼儿园22所、新增学位2.24万个，打造“家门口的好学校”8所。加强“校地共建”，借助京蒙协作“教育倍增计划”，积极争取引进北大金秋、北二外、首都师大、华东师大等合作办学项目，打造高质量共建校4所。招聘各类教师700名，继续推动“同工同酬”，提高教师待遇。加强师德师风建设，打造高水平、专业化、创新型“校长、教师、班主任、教研员”四支队伍；开展义务教育教师“县管校聘”管理改革，提升办学教学水平。全面推行使用国家统编教材，持续提高国家通用语言文字普及质量。', '加快建设健康赛罕。充分发挥辖区三级公立医院资源集中优势和辐射带动作用，进一步深化城市医疗集团和医联体建设，实施“名医工作室”提档升级工程，让群众在家门口享受到更高质量的医疗服务。推动北京友谊医院内蒙古分院开工建设，创建内蒙古心脑血管医院为三级医院，打造国内一流心脑血管诊疗中心。启动建设赛罕区人民医院医养结合中心、赛罕区第二医院、昭乌达社区医院项目。打造覆盖镇街的区域医学影像诊断中心，创建全国基层中蒙医示范区、3个国家级卫生镇、自治区级“无结核社区”。发展全民健身，建设全民健身路径30处，举办承办呼和浩特马拉松等群众性赛事活动12场。', '聚力打造文旅大区。围绕擦亮北疆文化品牌，开工建设大黑河欢乐小镇、美岱休闲康养度假区、机车公园二期、浩翔草原城等文旅项目。创建马鬃山国家级滑雪旅游度假地，打造白塔村、陶卜齐村为“网红”打卡村。依托“两个园区”，发展工业旅游。推动国际雕塑园二期工程建设、国际雕塑艺术馆创建为国家A级景区。扎实做好文物“四普”工作。提升改造赛罕区民俗文化馆和非遗传习馆3处以上。推动内蒙古自然博物馆等申报国家级馆3家。办好“石人湾乡村旅游节”、“消夏文化节”、非遗文创展等群众性文旅活动，举办文化惠民演出200场以上。', '（八）坚定不移筑牢安全稳定底线，不断铸牢中华民族共同体意识，持续在提升城市治理水平和提高防控风险能力上下功夫，扎实开展平安赛罕建设。', '坚持民族团结凝心聚力。站在旗帜鲜明讲政治的高度，加强和改进民族工作，持续开展民族团结进步创建“八进”活动，打造“赛出石榴红·融”民族团结进步创建品牌；着力营造互嵌式社会结构和社区环境，建设红石榴家园社区（村）10家，打造互嵌式示范社区5家、互嵌式示范企业2家；有形有感有效加强民族团结进步教育，打造铸牢中华民族共同体意识工作服务站、主题公园和教育实践基地。深入实施“三项计划”，全力创建铸牢中华民族共同体意识示范区。', '不断完善社会治理。深化全国文明城市创建，以创城带动城市品质和群众满意度提升。新建党群服务中心2个、新增社区6个。每个街道至少打造1个亮点示范社区。推进自治区基层“一表通”试点建设，常态化抓好网格化主动服务和接诉即办热线处办工作。全力推进信访代办制走深走实。做好人民调解工作，推动源头预防，就地化解纠纷。深入推进“八五”普法，争创全国行政复议先进单位。严厉打击各类违法犯罪，促进高质量发展和高水平安全良性互动。', '防范化解重大风险。坚持人民至上、生命至上，以“归零心态”狠抓安全生产，持续开展安全隐患大排查、大整治行动，严格落实“三管三必须”要求，严防重特大安全生产事故发生。全力推动开源节流，严格预算执行，坚决兜牢“三保必保”底线。有效防范化解各类风险，千方百计完成化债任务，严格控制新增债务。压实村级债务化解主体责任，确保分类处理、逐步化解到位。推动高风险金融机构清零。', '做好新一年政府工作，我们必须深入巩固学习贯彻习近平新时代中国特色社会主义思想主题教育成果，深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”，不断提高政治判断力、政治领悟力、政治执行力。牢记“国之大者”，坚决贯彻落实党中央、国务院、自治区决策部署、市委、市政府任务要求和区委工作安排，切实改进和提升政府治理效能，守正创新，奋勇争先。', '（一）坚持为民便民。站稳人民立场、顺应人民期盼，把政府工作的出发点放到造福群众、推动发展上，紧扣群众需求，统筹推进重大标志性工程和“小而美”民生项目。坚持问题导向、清单销号、调度问效、闭环管理、一线落实，面对面、实打实解决群众急难愁盼问题，更大力度办好一批民生实事，让美好生活可感可及。', '（二）坚持依法行政。加强法治政府建设，自觉运用法治思维和法治方式履行职责、推动发展。落实好“三重一大”科学民主依法决策制度。自觉接受人大法律监督和工作监督、政协民主监督，主动接受社会监督。高质量办理人大代表建议和政协委员提案。强化涉府案件源头治理，重视诉前调解、应诉出庭、行政执法培训等工作，做到依法行政，切实减少涉府诉讼。完善镇街综合行政执法体系，让行政执法有力度更有温度。', '（三）坚持实干担当。不折不扣抓落实，坚持事不避难、义不逃责，不断破难点、争试点、创亮点。雷厉风行抓落实，增强“不进则退、慢进也是退”的危机感和紧迫感，疾步快跑，出彩出新。求真务实抓落实，树牢机遇意识、市场理念、有解思维，确保工作落到实处、见到实效。要敢做善为抓落实，突破瓶颈制约，注重前瞻布局，推动各项工作争先进位、走在前列。', '（四）永葆清正廉洁本色。以自我革命精神纵深推进全面从严治党，驰而不息纠治“四风”，力戒形式主义、官僚主义。着力解决“三多、三少、三慢”问题，持续推进“规范、精简、提速”。严格落实过紧日子要求，严控一般性支出，严肃财经纪律。加强廉洁政府建设，深入推进党风廉政建设和反腐败斗争，强化重点领域廉政风险防控，切实做到政治清明、政府清廉、干部清正。', '各位代表！奋斗路正长，行者方致远。让我们更加紧密地团结在以习近平同志为核心的党中央周围，在市委、市政府和区委的坚强领导下，不惧风雨、守望相助，直面挑战、攻坚克难，努力在首府建设现代化区域中心城市中，谱写中国式现代化赛罕新篇章！']</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A207" t="n">
+        <v>25</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
           <t>年度呼和浩特市乌兰牧骑自主公开招聘事业编制工作人员简章</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>2022-08-30</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
+      <c r="F207" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/bmxxgk/szfzcbm/swhlygdj_22418/fdzdgknr/qt/shgysyjs/ggty_26823/202212/t20221201_1452796.html</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>['2022年度呼和浩特市乌兰牧骑自主公开招聘事业编制工作人员简章_ 呼和浩特市人民政府', '2022﹞2号）、《呼和浩特市政府序列事业单位2022年公开招聘工作人员总体方案》文件精神，按照编制部门下达的呼和浩特市乌兰牧骑自主公开招聘计划，经研究决定开展2022年度呼和浩特市乌兰牧骑自主公开招聘事业编制工作人员工作，特制定本简章。', '（一）招聘对象：本次自主公开招聘专业人员为普通中等专业学校、普通中等职业学校和国民教育序列专科及以上毕业生。', '1.在读的普通中等专业学校、普通中等职业学校、普通高等学校全日制专科生、本科生、研究生（不含应届毕业生）；', '3.曾因犯罪受过刑事处罚的人员，被开除公职的人员，被依法列为失信联合惩戒对象的人员；', '4.在公务员招考或事业单位公开招聘中被认定有舞弊等严重违反录用（聘用）纪律行为并在禁考期限内的人员；', '（四）普通中等专业学校、普通中等职业学校、全日制专科、本科、研究生在校就读期间参与的社会实践经历，不视为工作经历。', '5.应聘人员要认真阅读招聘简章和招聘岗位条件，对照个人条件，选报符合自身条件的岗位进行报考，每位应聘人员只能报考一个岗位，不得一人报考多岗位。', '6.应聘人员须在规定的报名时间内根据系统提示完整、如实填写相关信息，并上传本人近期正面免冠2寸数码彩照（20KB以下、jpg格式、蓝色背景，手机自拍照不予审核通过）。', '7.应聘人员须完整填写本人的学习经历和工作经历，经历的时间不能断开或空缺，不按要求填写或时间有断开的，将不予审核通过，在反复核对所填每一项信息均准确无误后点击提交。', '学习经历：填写本人就读中专、大专、本科和研究生学习经历，包含起止年月、就读学校、院系和专业（须如实按照毕业证书上的专业名称填写）、取得的学历、学位。', '工作简历：须完整填写到报名开始之日的工作经历，包含工作起止年月、工作单位、所从事工作。未就业期间的经历，填写起止年月并注明', '“待业”。公务员（参公人员）或已被事业单位列编聘用的要注明是否已过试用期或最低服务年限。报考人员故意隐瞒工作经历的，由此产生的后果由报考人员承担。', '8.应聘人员要认真核对所填信息，核对无误后点击提交。信息在资格初审通过后无法修改。', '9.应聘人员须对网上报名所填信息的真实性、准确性和完整性负责，凡因所提交材料不真实、不准确、不完整而影响报名、考试或聘用的，一切后果责任自负。填报虚假信息或隐瞒重要信息情节严重的，取消其考试、聘用资格，并记入本人诚信档案。', '11.报名期间，请应聘人员合理安排时间，尽量避开报名高峰期，以便按时完成报名有关事宜。', '1.资格初审工作在网上进行，由呼和浩特市乌兰牧骑自主公开招聘工作领导小组（以下简称招聘工作领导小组办公室）负责，资格审查部门于应聘人员网上报名后48小时内提出审查意见。对符合应聘资格条件的，审查通过；对审查未通过的，在资格审核栏中简要说明理由', '2.初审未通过的应聘人员，应根据“提示理由”及时修改信息或更改报考岗位，重新提交。因应聘人员未及时关注审查意见而造成报名不成功的责任自负。', '3.《招聘岗位表》中涉及的有关学历、学科、专业等资格条件方面的问题，由自主公开招聘工作领导小组办公室负责解释。', '4.《招聘岗位表》中所要求的专业类别或专业等，主要参考教育部制定的《职业教育专业目录》（2021年颁布）、《普通高等学校本科专业目录》(2020年版)、《授予博士、硕士学位和培养研究生的学科、专业目录》(1997年颁布)、《学位授予和人才培养学科目录》(2018年4月更新)以及研招网最新信息。对现行专业目录中未能完全涵盖的一些高校自设专业、新兴学科、国外教育学科等，应聘人员也要如实填写，以便资格审查人员初步判断是否符合岗位的专业要求。', '5.资格初审通过后，应聘人员要及时下载并打印《2022年度呼和浩特市乌兰牧骑自主公开招聘考试报名登记表》（以下简称《报名登记表》）一式三份，以备资格复审时使用。资格复审时，无《报名登记表》者，一律不接受资格复审。', '1.资格复审工作由呼和浩特市乌兰牧骑自主公开招聘工作领导小组具体负责组织实施，由纪检监督工作组对资格复审全过程进行监督，资格复审时间、地点、要求，在呼和浩特市文化旅游广电局官网、报名网站上公布。', '4）报名时使用的有效身份证件(居民身份证、临时居民身份证、护照)原件（正反面）及复印件；', '5）报考人员为大专及以上学历的人员，须提供本人专科、本科、研究生毕业证原件及复印件、学位证书原件及复印件，并提交教育部相关学历证书电子注册备案表或中国高等教育学历认证报告（从中国高等教育学生信息网下载打印）；', '6）报考人员为大专以下学历的，须提供本人毕业证原件及复印件、学校证明（须加盖学校公章）；', '7）报考岗位要求专业方向的，如毕业证书中无明确标识，须提供由毕业院校（系、院、部）教务部门出具的专业方向证明原件；', '8）留学回国人员需提供由教育部留学服务中心出具的《国（境）外学历学位认证书》原件及复印件；', '11）招聘简章和《招聘岗位表》中明确的其他材料和其他能够佐证本人报考资格的材料原件及复印件。', '14）按照呼和浩特市新型冠状病毒肺炎疫情防控指挥部最新通告要求，提供疫情防控所需材料。', '3.资格复审重点审核应聘人员在报名时所填报的信息是否真实准确，是否符合应聘岗位相应资格条件。凡不符合应聘条件、所填报个人信息与所持证件不符以及隐瞒重要信息或提供虚假证明材料，情节严重的，取消聘用资格。', '4.进入资格复审范围的应聘人员，按照规定时间和地点参加资格复审。未在规定时间内参加资格复审的，取消考试资格。', '3）按照呼和浩特市新型冠状病毒肺炎疫情防控指挥部最新通告要求，提供疫情防控所需材料。', '3.应聘人员先进行专业技能考试，专业技能考试最低分数线为60分，然后，从专业技能考试成绩达到最低分数线的应聘人员中，按照每个岗位应聘人员考试成绩由高到低的顺序，以3∶1的比例确定进入专业素质考试范围的人员（末位出现并列的，并列人员全部进入专业素质考试）。未达到3∶1比例的，以实际人数确定进入专业素质考试。专业技能和专业素质考试满分均为100分。专业技能考试成绩未达到60分以上者，不进入专业素质考试环节。', '主要测试应聘人员的基本素质、表演技术能力、表演创作能力等，成绩保留小数点后两位，小数点后第三位四舍五入。', '主要考察应聘者与岗位相适应的综合专业能力、理解能力、应变能力、语言表达能力，专业素质考试满分为', '，报考人员须选择国家通用语言文字作答，对同一科试卷用两种或两种以上文字作答的，按零分处理。政策性加分，对蒙古族、达斡尔族、鄂温克族、鄂伦春族应聘人员，在笔试加权成绩后给予', '100分）=专业技能考试×70%+专业素质考试×30%，按照所占比例先折算后再进行汇总，折算及汇总时，保留小数点后两位，小数点后第三位四舍五入。', '考试结束后，按照每个岗位报考人员考试总成绩由高到低的顺序和该岗位实际招聘计划数，等额确定进入体检和考察范围的人选。同一岗位进入体检考察范围人选最后一名考试总成绩出现并列并超出该岗位实际招聘计划数的，以专业技能考试成绩高低排序，等额确定进入体检和考察范围人选。专业技能考试成绩也相同的，组织加试（加试形式根据实际确定），等额确定进入体检和考察范围人选。', '6.考试结束后，应聘人员专业技能考试成绩、专业素质考试成绩、总成绩及进入体检和考察范围人选名单将在呼和浩特市文化旅游广电局官网和报名网站上公布。', '1.体检工作由自主公开招聘工作领导小组办公室具体实施，体检在市人事主管部门指定的医疗体检机构进行，体检费由应聘人员自理。', '3.应聘人员对体检项目结果存在异议，可向招聘单位申请复检，复检只能进行1次，体检结果以复检结论为准。', '4.体检结果由自主公开招聘工作领导小组办公室审核，报区人社局备案。应聘人员无正当理由不按时参加体检、体检不合格或在体检过程中弄虚作假、隐瞒重要病史等导致体检结果不实的，取消其聘用资格。', '5.对于体检中违反操作规程、弄虚作假、徇私舞弊、渎职失职、造成不良后果的工作人员按照有关规定进行严肃处理。', '1.考察工作由自主公开招聘工作领导小组办公室组织实施。考察内容主要包括被考察人员的政治素质、道德品行、能力素质、心理素质、学习和工作表现、遵纪守法、廉洁自律、职位匹配度以及是否需要回避等方面的情况。', '2.考察采取个别谈话、实地走访、严格审核人事档案、查询社会信用记录、同被考察人员面谈等方式进行，根据需要也可以进行延伸考察等，广泛深入地了解情况，做到全面、客观、公正，并据实写出考察材料。', '3.报考人员考察不合格，经党组会议研究确定，取消其聘用资格。考察阶段因个人原因放弃或考察不合格出现岗位名额空缺的，从达到考试合格分数线的人员中，按照考试总成绩由高到低依次等额递补。', '1.根据应聘人员的考试总成绩及体检和考察结果确定拟聘用人员，拟聘用人员名单在呼和浩特市文化旅游广电局官网、报名网站进行公示，公示期间接受社会监督举报。公示期为5个工作日。监督举报者应以真实姓名实事求是地反映问题，并提供必要的调查线索。', '2.公示期间，对于反映应聘人员有关问题的举报信、电话以及有关部门转办的举报信，要认真登记，及时进行调查核实并将最终核实结果反馈举报人和转办单位。对反映有影响聘用的问题并查有实据的，不予聘用;对反映的问题一时难以查实的，暂缓聘用，待问题查清后再决定是否聘用。', '1.公示期满，对没有问题或反映问题不影响聘用的，办理聘用手续；对有严重问题并查有实据的，取消其聘用资格，按相应程序进行递补；对有严重问题但一时难以查实或难以否定的，暂缓聘用，待查实并作出结论后再决定是否聘用。公示结束后，对公示无异议的拟聘人员，由市乌兰牧骑填写《呼和浩特市事业单位公开招聘工作人员备案花名册》（以下简称《花名册》），经审核无误后，按干部人事管理权限报送市人社局事业单位人事综合管理部门备案。经公示确定的拟聘用人员，凭市人社局下发的聘用事业单位工作人员通知办理有关聘用手续。', '2.拟聘用人员应在规定时间内报到，否则视为自动放弃，取消其聘用资格，所空缺岗位不再进行递补。', '3.对应届毕业生未能如期取得毕业证书、学位证书的;办理聘用备案手续前，已被其他机关事业单位新录（聘）用的以及录取为全日制学生的；试用期间或期满考核不合格的；在', ';具有其他影响聘用资格情形的人员，取消聘用资格。取消聘用后产生的缺额，在《花名册》备案前，依次递补。', '4.对与事业单位签订聘用合同（劳动合同）或与企业签订劳动合同尚在合同期内的拟聘用人员，如原所在单位不同意与其解除合同的，取消其聘用资格。取消聘用后产生的缺额，在《花名册》备案前，依次递补。', '应聘人员需随时关注本人工作生活居住地及呼和浩特市新冠肺炎疫情防控指挥部发布的有关通知、通告、公告，详细了解疫情防控政策，并严格按要求执行，以免影响考试。因不符合健康要求或疫情防控要求等而导致不能参加考试的，后果由应聘人员自行承担。', '（一）岗位回避。报考人员凡与聘用单位负责人员有夫妻关系、直系血亲关系、三代以内旁系血亲关系或者近姻亲等关系的，不得应聘具有直接上下级领导关系的管理岗位，不得应聘从事该单位组织人事、纪检监察、审计、财务工作的岗位。', '（二）履职回避。招聘单位工作人员涉及与本人有上述亲属关系人员利害关系的，以及其他可能影响招聘公正履行职责的，应当回避。', '为强化报考人员的诚信意识，杜绝考试替考、舞弊等违纪行为，确保本次招聘工作公平、公正进行，报考人员在考试资格复审时须提供签订的《考生诚信承诺书》（附件', '对报考人员的资格审查贯穿招聘工作全过程，任何阶段发现报考人员弄虚作假的，一经查实，即取消相应资格。对违反规定的已受聘人员，一经查实，解除聘用合同，予以清退。', '（一）本次自主公开招聘不举办也不委托任何机构举办考试辅导培训班。社会上出现的假借招聘考试命题组、专门培训机构等名义举办的辅导班、辅导网站或发行的出版物等，均与本次自主公开招聘无关。', '（二）自主公开招聘工作期间有关成绩公布、信息发布等事宜，将在呼和浩特市文化旅游广电局官网及报名网站公布，请报考人员及时查询。报考人员在招考期间要保持所留电话', '（三）招聘单位在自主公开招聘资格审查、考试、体检、考察、公示、办理聘用手续等环节拟取消应聘人员考试、聘用资格的，依据有关规定及时告知应聘人员被取消资格的相关事宜、理由和依据，并告知应聘人员依法享有的陈述和申辩权利。', '（四）本次自主公开招聘公告中未尽事宜及有关信息，将在呼和浩特市文化旅游广电局官网及报名网站及时发布，请予关注。', '附件： 附件1：呼和浩特市乌兰牧骑自主公开招聘专业人员岗位表.xlsx 附件2：呼和浩特市乌兰牧骑自主公开招聘专业人员考试办法.docx 附件3：考生诚信承诺书.docx']</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A208" t="n">
+        <v>25</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
           <t>呼和浩特市教育局关于印发呼和浩特市初中学业水平考试与高中阶段学校考试招生制度改革实施细则的通知</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>2024-01-31</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="F208" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/zfxxgknew/fdzdgknr/zdlyxx/202401/t20240131_1655195.html</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
+      <c r="G208" t="inlineStr">
         <is>
           <t>['呼和浩特市教育局关于印发《呼和浩特市初中学业水平考试与高中阶段学校考试招生制度改革实施细则》的通知_ 呼和浩特市人民政府', '呼和浩特市教育局关于印发《呼和浩特市初中学业水平考试与 高中阶段学校考试招生制度改革实施细则》的通知', '各旗县区教育局，直属学校、直属单位，师大附中、师大附属学校，经济技术开发区管委会：', '《呼和浩特市初中学业水平考试与高中阶段学校考试招生制度改革实施细则》已经市委教育工作领导小组同意，现印发给你们，请认真遵照执行。', '为深入落实《内蒙古自治区深化高中阶段学校考试招生制度改革实施方案》（内教发〔2022〕9号），进一步深化全市高中阶段学校考试招生制度改革，推进全市基础教育高质量体系建设，结合我市实际，制定本实施细则。', '以习近平新时代中国特色社会主义思想为指导，全面贯彻新时代党的教育方针，落实立德树人根本任务，深化高中阶段学校考试招生制度改革。', '坚持五育并举，遵循教育教学和学生身心发展规律，发展素质教育，深化课程改革，落实“双减”要求，完善德智体美劳全面育人体系。坚持公平公正，完善评价标准，规范评价程序，持续推行“阳光招生”，切实保障考试招生机会公平、程序公开、结果公正，建立完善科学合理、客观公正、组织规范、监督有力、保障到位的高中阶段学校考试招生制度。坚持分级管理，在自治区统筹管理下，以市为主实施，各旗县区协同推进，在报名、考试、招生、录取等各个环节各负其责，有序衔接。坚持综合协调，统筹推进考试科目设置、组织实施、录取方式和综合素质评价等改革；协同推进课程、教学、考试、招生、师资等各环节配套改革，促进义务教育、普通高中教育、中等职业教育协调发展。', '按照自治区统一部署，从2022年秋季入学的七年级开始启动，到2025年全面实施。逐步形成体现科学教育质量观，以初中学业水平考试成绩和学生综合素质评价结果为依据的高中阶段学校考试招生录取模式。', '初中学业水平考试既是衡量学生达到国家规定学习要求、完成九年义务教育的终结性考试，又是高中阶段学校的招生考试。初中学业水平考试实行“两考合一、一考多用”，考试结果是初中学生毕业和升学的基本依据。初中学生毕业须参加初中学业水平考试。', '1. 考试对象。具有本市学籍的八年级、九年级学生（九年级学生学籍须在九年级第二学期开始前转入）和本市户籍在外就读的八年级、九年级学生。高中阶段学校在校学生（含休学学生）不得报名参加考试。', '2. 考试科目。《义务教育课程方案》（2022年版）所设定的国家课程所有科目全部纳入初中学业水平考试（考查）范围。少数民族语文作为地方课程科目与初中学业水平考试同期进行。', '3. 考试方式。道德与法治、语文、数学、外语（含听力）、历史、地理和少数民族语文等科目采用纸笔考试的方式；物理、化学、生物学科目采用纸笔考试与实验操作相结合的方式；体育与健康科目包含体育与健康知识、日常参与情况、《国家学生体质健康标准》测试和专项运动技能测试等内容，其中体育与健康知识采取纸笔考试（与生物科目同卷）。', '信息科技、艺术、劳动、综合实践活动等科目采取过程性评价和终结性评价相结合的方式。信息科技采用计算机测试的方式,艺术中美术的考查通过计算机测试结合纸笔考试进行，艺术中音乐的考查通过计算机测试进行，劳动采用综合评定的方式,综合实践活动采用日常体验考查的方式，具体实施细则另行制定。', '（2）考试时长。语文120分钟，数学、外语（含听力）各90分钟，道德与法治、历史同考不同卷共90分钟，物理、化学（均不含实验操作）同考不同卷共90分钟，生物学、地理同考不同卷共60分钟，少数民族语文90分钟。其他科目的考试时长结合实际情况确定。', '5. 考试命题。地理、生物学、体育与健康知识纸笔考试从2024年起由自治区统一命题；道德与法治、语文、数学、外语（含听力）、历史、物理、化学和少数民族语文纸笔考试从2025年起由自治区统一命题；物理、化学、生物学等科目的实验操作以及信息科技、艺术、劳动、综合实践活动考查由全市统一制定考核要求，具体实施细则另行制定。', '6. 考试时间和考试组织。按照“学完即考”的原则，在八年级第二学期末，全市统一组织地理、生物学（含体育与健康知识）的考试；旗县区组织生物学实验操作的考查。在九年级第二学期末，全市统一组织道德与法治、语文、数学、外语（含听力）、历史、物理、化学、少数民族语文等科目的纸笔考试；旗县区组织物理、化学实验操作以及信息科技、艺术、劳动、综合实践活动等科目的考查。', '按照《内蒙古自治区初中学业水平考试体育与健康评价实施方案》要求，制定全市体育与健康科目考试实施细则，市、县两级教育招生考试中心具体组织实施。体育与健康科目的《国家学生体质健康标准》测试在七、八、九年级上学期各组织一次，专项运动技能测试在九年级第二学期组织实施。', '7. 成绩呈现。道德与法治、语文、数学、外语（含听力）、历史、地理、物理、化学、生物学、体育与健康等学业水平考试科目和少数民族语文成绩以分数呈现。', '8. 成绩使用。在校学生取得的所有学业水平考试（考查）成绩记入学生学籍档案和综合素质评价档案。到2025年，高中阶段学校依据初中学业水平考试成绩和综合素质评价结果招收录取新生，原则上考查科目和综合素质评价全部达到C等及以上，方可具备普通高中录取资格。自治区示范性普通高中、特色高中、旗县优质高中等可结合学校实际，适当提高考查科目和综合素质评价录取资格标准。', '初中学业水平考试成绩用于初中学生毕业与学历认定，长期有效。初中学业水平考试成绩用于高中阶段学校招生录取，应届毕业生当届有效，非应届毕业生当年有效。九年级未毕业休学到下一年级的，八年级已考过的科目须重新参加考试。', '残障学生、身体有疾病等特殊情况的学生参加有关科目考试，以及自治区外转入学生、回原籍报考学生、外来人员随迁子女等，在成绩认定、招生录取等方面，按照自治区有关规定执行。自治区内学生转出到自治区外，由市教育局为其出具学业成绩证明。', '综合素质评价是对学生德智体美劳全面发展状况的观察、记录和分析，是培育学生良好品行、发展个性特长、促进学生全面发展的重要手段，是初中学生毕业和升学的基本依据。', '1. 科学设定评价内容。主要包括思想品德、学业发展、身心健康、艺术素养、劳动与社会实践五个维度，旨在促进学生德智体美劳全面发展，培养学生适应终身发展和社会发展需要的正确价值观、必备品格和关键能力。其中，思想品德主要考察学生在“五个认同”、人生理想、遵纪守法、集体意识、爱护环境、文明礼貌、诚实守信、勤俭节约、尊重他人、自律自强等思想素质与品德发展方面的表现；学业发展主要考察学生各门课程基础知识和基本技能的掌握、应用情况，以及学习兴趣、学习习惯、问题解决能力、合作学习能力、自主学习能力、科学素养、创新素养、信息素养等；身心健康主要考察学生的体质情况、健康生活和心理健康等；艺术素养主要考察学生对艺术的审美感知、艺术表现、创意实践、文化理解的能力；劳动与社会实践主要考察学生在学校生活和社会生活中动手操作、体验经历及劳动素养和实践能力等。学生的标志性成果是评价学生发展情况的重要依据，可以纳入相应维度进行评价。', '2. 合理明确评价主体。按照服务育人、注重发展、科学评价、民主公开原则，坚持“谁了解、谁评价”“谁评价、谁负责”，积极吸纳教师、学生等参与评价，将评价有机融入到常规教育教学活动中。综合素质评价的主体主要有教师、学生本人、同学及家长等。初中学校要根据评价内容，结合本地、本校实际，细化评价要素，逐项确定每项评价要素的评价主体、评价方式、记录方式等。', '3. 建立健全评价程序。严格规范写实记录、材料遴选、提交评语、公示审核、档案生成、综合评定等评价程序，建立健全信息确认公示、投诉申诉、复议审核等监督保障和诚信责任追究制度，确保评价工作客观真实、简便有效。', '4. 不断创新评价方式。为落实立德树人根本任务，鼓励初中学校不断创新评价方式，将主观评价和客观评价相互结合，结果评价、过程评价、增值评价、综合评价互为补充，保证评价主体在充分了解每一位被评价对象的基础上科学有效开展评价工作。主观评价可采用评语、问卷、量表等评价方式对学生成长情况进行描述。客观评价主要围绕综合素质评价内容，对学生参与国家课程、地方课程、校本课程的修习情况，以及参加各级各类活动取得的标志性成果等可测量、可量化的内容进行评价。', '5. 全面保障评价实施。完善市、旗县区、学校三级管理制度，各负其责协同落实综合素质评价的组织、实施和管理。根据自治区《内蒙古自治区深化高中阶段学校考试招生制度改革实施方案》，建立健全具有我市特点的综合素质评价体系。全市统一开发初中学生综合素质评价信息管理平台。旗县区分别制定综合素质评价实施方案，初中学校制定具体实施办法，实现“一校一办法”。', '到2025年，报考自治区示范高中、特色高中、旗县优质高中等高中阶段学校的考生，综合素质评价结果原则上应为B等及以上；报考其他普通高中阶段学校的考生，综合素质评价结果原则上应为C等及以上。逐步实现综合素质评价结果与高中阶段学校招生硬挂钩。', '积极构建以初中学业水平考试成绩和综合素质评价结果为基本依据的招生录取模式，根据学校办学定位和特色制定学校招生标准，完善统招、分招、特长招生和自主招生相结合的多元录取机制。', '1. 改革统招办法。普通高中学校使用“分数+等第”方式进行录取。道德与法治、语文、数学、外语（含听力）、历史、地理、物理、化学、生物学、体育与健康等学业水平考试科目及少数民族语文作为普通高中学校计分录取科目；信息科技、艺术、劳动、综合实践活动、综合素质评价、生物学实验操作等以等第呈现作为录取基本依据。克服分分计较，避免过度竞争，减轻学生负担。', '2. 完善分招办法。自2025年起，扩大具备分招资格的高中学校范围，区（旗县）属优质高中分招名额向属地初中倾斜。优质高中、示范高中的分招名额分配比例保持50%，名额分配以初中学校具有分招资格的毕业生人数为主要依据，结合学校育人质量、办学特色、课程开设情况、社会满意度等因素，合理分配到初中学校；分招名额逐步向农村学校、薄弱学校倾斜。适时选取1—2个旗县区开展普通高中全部指标到校的改革试点。', '3. 规范特长招生。具备条件的普通高中学校可申请招收体育类、艺术类特长生，招生人数比例原则上控制在本校年度招生计划的5%以内。学校负责制定招生章程和学生培养方案，详细列明招生类别、数量、标准以及范围、条件和程序等内容，报经市教育局核准后实施，并提前向社会公布。原则上，艺术类考生执行报考范围内“统招”最低录取分数线，体育类考生为“统招”最低录取分数线的70%；对于学科成绩达不到规定要求，但专业成绩特别突出的体育类学生，经市教育局招生工作领导小组审议后可适当照顾录取。', '4. 推进自主招生。经市教育局审批，具备条件的示范性、优质、特色高中学校可申请自主招生试点，自主招生人数比例原则上控制在本校年度招生计划的5%以内，制定招生章程和学生培养方案，详细列明招生类别、数量、标准以及范围、条件和程序等内容，报经市教育局核准后实施，并提前向社会公布。自主招生主要招收具有学科特长或创新潜质的学生，满足数学、物理、化学、生物学、信息科技以及哲学、历史、古文字等学科素养较高、特殊才能较突出、发展潜质较大学生的发展需求，推动普通高中学校多样化特色办学。', '5. 优化中职招生。鼓励和引导动手能力强、职业倾向明显的学生接受职业教育，为培养高素质技术技能人才奠定基础。中等职业学校（含技工院校，下同）招收应届初中毕业生，与普通高中学校招生同步进行。采用免试注册入学等方式招收初高中毕业未升学学生、退役军人、退役运动员、下岗职工、返乡农民工等接受中等职业教育。', '创新中等职业学校人才培养模式，积极探索“3+3”（中职3年、高职3年）、“3+2”（中职3年、高职2年）、五年一贯制（中高职5年一贯）等中高职一体化人才培养模式改革。扎实推进高中阶段学校招生由分层向分类转型，开展普职融通试点工作，为具有不同发展潜质的学生搭建普职融通的成才立交桥。', '按照“谁主管，谁审批，谁负责”的原则，切实做好符合条件的中等职业学校开展合作办学、联合招生的审核、备案、监管和指导等工作。', '1. 合理编制招生计划。按照服务地方经济社会发展需求、普及高中阶段教育及普职招生工作要求，根据区域内学校布局、规模和学校各类教育资源总量，结合普通高中教育和中等职业教育均衡协调发展的原则，科学核定并严格执行高中阶段学校招生计划，并在“呼和浩特市招生考试信息网”（http://www.hhkszx.cn）公布。', '2. 保障公平招生机会。公办民办普通高中、中等职业学校按照“同步报名、同步考试、同步录取”的原则进行招生。严格按照核定的招生计划开展招生工作，根据“属地招生”原则，普通高中学校在规定区域内招生，未经市教育局批准不得跨区域招生。严格学籍管理，做到“人籍一致”。', '未经审批的“国际班”“实验班”“试点班”等“项目班”和没有单独制定实施差异化教学方案等以“项目班”名义乱收费的一律不准招生。经过审批且符合要求的“项目班”招生工作纳入市级统一招生管理，实行计划单列；录取分数不低于我市普通高中最低录取控制线，学生入学和就读期间不得转入普通班级。', '3. 严格加分项目政策。落实国家、自治区“减项、降分”要求，从严控制加分项目和加分分值。从2025年起，按照国家、自治区相关文件要求，仅保留烈士和符合条件的军人、消防救援人员、公安民警、移民管理人员子女等国家规定的照顾政策，享受多项优抚政策的不累计加分。', '4. 规范学业成绩管理。各级教育行政部门不得向初中学校下达升学指标，坚决克服“唯分数”“唯升学”倾向，严禁用考试成绩给学校和教师排名，不得以任何形式对初中学校教师进行初中学业水平考试成绩的表彰奖励。加强考试信息管理，坚决杜绝对初中学业水平考试成绩的各种炒作行为，严禁利用网站、电子显示屏、横幅、展板、自媒体等渠道宣传炒作升学率、“中考状元”“单科状元”等。', '具有分招资格的普通高中学校，按照“先统招、后分招”的原则进行录取。各公办、民办普通高中不得录取初中学业水平考试成绩在最低录取控制线以下的考生。', '按照“一校一策”的原则，对新建普通高中在招生范围、录取批次等方面实行特殊支持政策，促进新建普通高中建一所、成一所、“名”一所。', '各旗县区要高度重视，强化对考试招生工作的组织领导，主要领导要亲自把关、亲自协调、亲自督查，确保改革平稳落地。要及时解决改革中遇到的问题，加强统筹协调，完善招生考试领导体制和管理方式，加强教育招生考试机构建设，确保考试安全和改革稳妥推进。', '要加大中小学师资、考试招生经费、设施设备等投入保障力度，改善义务教育学校办学条件，完善教师激励机制，确保适应课程改革和高中阶段学校考试招生制度综合改革需要。要加强高中阶段学校招生录取、学生综合素质评价、实验操作考试、体育与健康考试、艺术考查等信息化系统建设，着力提升信息化水平。要加强招考部门考试组织能力建设，完善基础条件、强化保障措施，确保高中阶段学校考试招生制度改革平稳顺利。自主组织考试（考查）的科目，依法依规确定经费事项。', '严格落实义务教育课程方案，改善课程教学，合理安排教学进度，开齐开足课程。严禁压缩理化生实验、信息科技、体育与健康、艺术、劳动和综合实践活动等课程的课时。要以本次改革为契机，进一步深化人才培养模式改革，深入推进教育教学改革，转变人才培养方式，提高学校课程开发和实施能力，推进素质教育。教育行政部门要定期对初中学校课程实施质量和有效性进行监测评估。', '深入实施“阳光招生”，严格落实分级负责、规范有序、科学高效的信息公开制度，及时公开招生政策、招生方案、招生计划、录取办法、录取结果、咨询及申诉渠道、重大事件违规处理结果、录取新生复查结果等信息，确保考试招生组织实施的公平、公正、公开。落实考试招生违规行为责任追究制度，严肃查处考试招生中的违规行为，坚决杜绝任何高中阶段学校擅自提前招生、免试招生、超计划招生、违规跨区域招生、有偿招生、重复招生、抢拉生源等不正当竞争行为。完善违规违纪行为监督检查和处理机制，强化社会监督，完善多渠道监督体系。', '加大改革政策宣传力度，切实做好政策解读和培训，提高政策解读的科学性、权威性和有效性，提高公众对改革的知晓度和理解度，凝聚改革共识。要关注社情民意，坚持问题导向，积极回应社会关切。加强诚信教育，健全诚信制度体系，创设考试招生良好社会氛围。加大对家庭经济困难学生资助、中等职业学校学生免收学费、中等职业学校学生高考政策等惠民政策的宣传，为推进改革、普及高中阶段教育营造良好氛围。', '本方案从2022年秋季入学的七年级开始执行，呼和浩特市教育局之前发布的相关文件与本实施细则不一致的，按本实施细则执行。']</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A209" t="n">
+        <v>25</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
           <t>以优良作风书写非凡答卷年以习近平同志为核心的党中央推进作风建设纪实</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>2021-01-14</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
+      <c r="F209" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tt_1/202101/t20210114_831977.html</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>['以优良作风书写非凡答卷——2020年以习近平同志为核心的党中央推进作风建设纪实_ 呼和浩特市人民政府', '新华社北京1月13日电 题：以优良作风书写非凡答卷——2020年以习近平同志为核心的党中央推进作风建设纪实', '题：以优良作风书写非凡答卷——2020年以习近平同志为核心的党中央推进作风建设纪实', '“要以马不离鞍、缰不松手的定力，以反复抓、抓反复的韧劲，以钉钉子精神贯彻中央八项规定及其实施细则、整治‘四风’、落实为基层减负的各项规定”。', '会议再次聚焦作风建设，审议了《关于2020年中央政治局贯彻执行中央八项规定情况的报告》和《关于持续解决形式主义问题深化拓展基层减负工作情况的报告》。', '习近平总书记主持会议并发表重要讲话，对中央政治局在作风方面继续努力，为全党带好头、作示范提出要求，再次彰显出党的中央领导集体加强自身建设的高度政治自觉。', '面对国际国内形势的深刻复杂变化特别是突如其来的新冠肺炎疫情，以习近平同志为核心的党中央用行动发号令，以身教作示范，锲而不舍抓作风建设，凝聚起攻坚克难、拼搏奋进的磅礴力量。', '“你们都穿着防护服、戴着口罩，我看不到你们完整的面容，但你们是我心目中最可爱的人！”3月10日，武汉火神山医院指挥中心，习近平总书记同正在病区工作的医务人员代表视频连线。', '“作为医生，你们体现了救死扶伤、大爱无疆的精神，作为党员，你们体现了为人民服务的无私奉献，作为军人，你们体现了召之即来、来之能战、战之能胜的军人本色。我感谢你们！”', '在武汉期间，习近平总书记考察医院、走访社区、主持召开电视电话会议并发表重要讲话，给前方将士、给武汉人民、给全国人民以极大鼓舞。', '“党的作风是党的形象。”极不平凡之年，新时代中国共产党人的作风更显过硬、形象愈加闪亮。', '面对这场百年不遇的重大疫情，习近平总书记亲自指挥、亲自部署，统揽全局、果断决策，以非常之举应对非常之事，展现出人民领袖的深厚情怀和大国领航者的非凡判断力、决策力、行动力。', '在以习近平同志为核心的党中央坚强领导下，新时代中国共产党人挺身而出、舍生忘死、英勇奋战，凝聚起众志成城、共克时艰的强大力量。', '2020年2月9日，在山东济南，山东大学第二医院支援湖北抗疫国家医疗队中的党员在出发前重温入党誓词。新华社记者 朱峥 摄', '中共中央印发《关于加强党的领导、为打赢疫情防控阻击战提供坚强政治保证的通知》，强调要“做到哪里任务险重哪里就有党组织坚强有力的工作、哪里就有党员当先锋作表率”；中央组织部印发通知，要求把在抗疫一线发展党员作为打赢疫情防控阻击战的一项重要工作来抓。', '“我是党员我先上”“疫情不退我不退”“请组织把我派到最危险的地方”……誓言铿锵，丹心闪耀，960多万平方公里的土地上，460多万个基层党组织筑起坚实堡垒，2.5万多名优秀分子在火线上宣誓入党，鲜红的党旗高高飘扬在抗击疫情第一线。', '2020年3月4日，在位于湖北省仙桃市的山西省支援湖北抗击疫情前方指挥部，第二批火线入党的新党员进行入党宣誓。新华社发', '2020年5月11日下午，山西大同市西坪镇坊城新村，习近平总书记坐在村民白高山家炕沿上拉起家常，一开口就让人倍感亲近。', '此次赴大同考察，总书记一下车就直奔田间察看黄花长势，接着就赶赴坊城新村，了解易地搬迁之后巩固脱贫攻坚成果的情况。', '2020年是决胜全面建成小康社会、决战脱贫攻坚之年，也是“十三五”规划收官之年。为克服一系列困难挑战，如期实现既定目标任务，习近平总书记开启了少有的频密调研节奏。', '南下浙江，冒雨考察港口复工复产；西行陕西，深入秦岭深处考察产业扶贫；北上吉林，走进黑土地察看粮食生产；冒酷暑到安徽，深入蓄洪区了解受灾群众生产生活恢复情况……习近平总书记先后到13个省区市考察，出席一系列重要会议、重大活动，亲自指挥战“疫”“战洪”“战贫”，不辞辛劳、殚精竭虑。', '“正确的道路从哪里来？从群众中来。”为制定好“十四五”规划《建议》，习近平总书记主持召开7场专题座谈会，从经济社会领域专家，到教育科学文化卫生体育界的代表，从地方党政干部，到乡村教师、种粮大户、货车司机、快递小哥、餐馆店主，同各方面代表面对面，从人民中汲取智慧。', '创新开门问策方式，习近平总书记专门要求通过互联网向全社会征求意见和建议，这在我国五年计划和规划编制史上还是第一次。短短两周时间累计收到超过101.8万条建言，基层百姓的所思所想、所期所盼得以直通中南海。', '2020年，面对百年变局加速演进和外部环境风高浪急，习近平主席开展视频外交23次，与有关国家领导人和国际组织负责人通话81次，仅11月就以视频方式密集出席4场多边外交会议，在“云端”就开展抗疫国际合作、促进经济复苏等与各国共商大计，充分展现大国领袖的战略定力和责任担当。', '惊涛骇浪更显砥柱中流，大战大考锤炼本领作风。以习近平同志为核心的党中央在领导全党全国各族人民战胜史所罕见的风险挑战、奋力推进新时代中国特色社会主义事业中发挥了决定性作用，在极不寻常的年份创造了极不寻常的辉煌。', '2020年3月29日，宁波舟山港穿山港区码头，春雨沥沥，习近平总书记撑着雨伞，走到满是积水的岸边，仔细察看码头现场作业情况。而为了不让工人们淋雨，总书记特意嘱咐把见面地点改在服务中心大厅。', '“总书记好！”2020年4月22日傍晚，西安大唐不夜城步行街热闹非凡，沿途游客惊喜发现习近平总书记来到这里，不禁热情欢呼。', '习近平总书记走进老字号西安饭庄，就餐的顾客、跑堂的店员纷纷簇拥过来。羊肉泡、葫芦鸡、肉夹馍、水盆羊肉、陕北糜子糕……总书记笑称：“这些是家乡的味道啊。”', '从云南腾冲的和顺古镇到山西太原的汾河岸边，从湖南大学的校园里到广东潮汕人流熙攘的老街区……考察调研中，习近平总书记一次次同当地老百姓不期而遇、亲切互动。', '“伙食费交了没有？”考察调研期间，习近平总书记经常这样问，并以说到做到的较真态度带头执行。', '2020年8月，习近平总书记再次对制止餐饮浪费行为作出重要指示，强调要坚决制止餐饮浪费行为，切实培养节约习惯，在全社会营造浪费可耻、节约为荣的氛围。', '2020年10月25日下午，京西宾馆。参加党的十九届五中全会的吉林省长春市长山花园社区党委书记吴亚琴刚刚走进住地房间，书桌上“服务工作指南”上倡导“光盘行动”的提示便映入眼帘。', '从加强宣传提示到严控会议用餐标准，从精准统计就餐人数到加强食材采购管理，从注重剩余食材回收利用到倡导适度服务……大会厉行节约的浓厚氛围给吴亚琴留下深刻印象。', '2020年10月29日，受邀列席党的十九届五中全会的基层社区工作者吴亚琴在京西宾馆餐厅取了一份小碗面。她表示：“盛面的碗也都是小碗，吃多少打多少。”新华社记者 朱基钗 摄', '以上率下，蔚然成风。习近平总书记始终把贯彻执行中央八项规定、加强作风建设摆在突出位置来抓，坚持身体力行，为全党树立了标杆。', '一年来，习近平总书记在党的十九届五中全会、十九届中央纪委四次全会、“不忘初心、牢记使命”主题教育总结大会等会议上发表重要讲话，对作风建设提出明确要求；主持召开的中央政治局常委会会议、中央政治局会议，分别有18个、11个议题涉及作风建设；对贯彻落实向党中央请示报告制度、党风廉政建设和反腐败斗争、防止“低级红”“高级黑”、整治形式主义官僚主义、制止餐饮浪费行为等作出50多次重要批示，为持之以恒加强党的作风建设指明了方向。', '李克强、栗战书、汪洋、王沪宁、赵乐际、韩正同志和中央政治局其他同志认真贯彻落实习近平总书记提出的要求，从自己做起，从主管地方、分管领域和部门抓起，高标准、严要求地贯彻执行中央八项规定——', '在改进调查研究方面，中央政治局的同志围绕谋划“十四五”时期经济社会发展、决胜全面建成小康社会、决战脱贫攻坚等重要问题深入基层调研。考察调研中，督促有关方面简化接待，厉行勤俭节约，精简随行人员。', '在精简会议活动方面，对全国性会议严格把关。充分利用信息化手段，能以电视电话或视频会议形式召开的就不开现场工作会议，减少层层开会、级级陪会现象。全国两会会期压缩为一周，议程尽可能作了简化，每次全体会议时间控制在1.5小时以内，团组讨论尽量减少集中。', '在精简文件简报方面，指导制定《中央发文和规格办理标准》，继续严控发文总量和规格，以党中央或中央办公厅名义发文同比减少28%，以国务院或国务院办公厅名义发文同比减少18.4%。除党中央统一安排外，中央政治局的同志个人没有公开出版著作、讲话单行本，以及发贺信、贺电、题词、题字、作序等情况。', '在规范出访活动方面，受疫情影响，视频外交、领导人通话等密集；出访减少，中央政治局的同志出访次数大幅减少，出访期间压缩行程和代表团成员。', '在改进新闻报道方面，对篇幅字数、版面安排、时段时长等严格把关。充分释放融媒体传播效应，提高报道质量。', '在改进警卫工作方面，积极探索疫情防控背景下警卫工作方式方法，减少管制不封路、缩小警戒范围不清场不闭馆。', '在厉行勤俭节约方面，中央政治局的同志从自身做起，严格执行办公用房、住房、用车等工作生活待遇规定，在坚决制止餐饮浪费行为上作表率。督促中央有关会议筹备服务工作严格落实简朴、节约、安全、高效原则，严控会议经费开支；明确要求政府过紧日子，中央本级支出安排负增长，非急需非刚性支出压减50%以上。', '中央政治局着眼于统筹国内国际两个大局、实现党的执政使命对作风建设提出的更高要求，在推动一系列重大决策部署中强化严和实的作风，为党和国家工作开创新局面、开启新征程提供了坚强政治和作风保证。', '2020年12月28日，中央纪委国家监委公开通报6起违反中央八项规定精神典型问题，在元旦、春节到来前夕，释放对“四风”问题紧盯不放、一抓到底的强烈信号。', '“要坚决贯彻中央八项规定精神，保持定力、寸步不让，防止老问题复燃、新问题萌发、小问题坐大。”在2020年1月13日召开的十九届中央纪委四次全会上，习近平总书记再次强调。', '一年来，各地区各部门坚持以习近平新时代中国特色社会主义思想为指导，把贯彻落实中央八项规定精神纳入全面从严治党大局，把作风建设要求融入统筹推进疫情防控和经济社会发展工作实践，以坚决有力的行动推动党风政风持续向好，社风民风悄然转变，实现党心军心民心高度凝聚。', '2020年5月2日，广西兴业县小平山镇金华村驻村第一书记董积有（左二）与村民一起清理河道中的淤泥和垃圾。新华社记者 曹祎铭 摄', '各地区各部门结合学习《习近平谈治国理政》第三卷和习近平总书记最新重要讲话、重要指示批示精神，深刻领会贯穿其中的政治品格、价值追求、精神境界、作风操守要求，将学习成果转化为深化拓展作风建设新局面的思路办法。', '始终把“两个维护”作为最高政治原则和根本政治规矩，对习近平总书记关于作风建设的重要指示批示、党中央各项决策部署严肃认真贯彻落实，做到令行禁止。', '2020年3月，中央办公厅印发《党委（党组）落实全面从严治党主体责任规定》，明确将“落实中央八项规定精神，持续整治‘四风’特别是形式主义、官僚主义”作为党委（党组）的一项重要职责，以责任制落实确保从严管党治党要求落地。', '“查处违反中央八项规定精神问题12472起，处理17989人。”2020年12月24日，中央纪委国家监委公布了2020年11月全国查处违反中央八项规定精神问题月报数据。这已经是中央纪委国家监委连续公布月报数据的第87个月。', '从把坚决制止餐饮浪费行为作为落实中央八项规定精神、纠治“四风”的重要方面，到继续对享乐奢靡隐形变异的苗头性问题抓早抓小、防微杜渐……一年来，各地区各部门结合巩固“不忘初心、牢记使命”主题教育专项整治成果，对“四风”问题一体纠治，以钉钉子精神一锤接着一锤推进作风建设，积小胜为大胜，化量变为质变。', '“婚事新办、丧事简办”等良好风气正在逐步形成，“管够不浪费”“吃好不奢侈”成为群众办酒席、亲朋聚会的时尚口头语，曾经依附于公款消费生产链条上的灰色利益被剔除，寄生在奢靡之风上的虚假泡沫被挤掉……', '这是2020年10月5日在位于重庆来福士的一家老火锅餐厅拍摄的“光盘行动”宣传标语。新华社记者 王全超 摄', '各地区各部门进一步发挥党政机关、党员干部在净化社会风气、弘扬文明风尚方面示范引领作用，倡导党员干部带头传承勤俭节约的传统美德，树立良好家教家风，带动更多人践行文明新风尚。', '2020年11月2日，在河北邯郸市邯山区中华南四号小区，宣讲员在向孩子们讲家风家训故事。新华社记者 王晓 摄', '早在疫情发生之初，中央纪委国家监委就印发通知，明确要求对疫情防控工作中不担当、不作为、乱作为，形式主义官僚主义等问题从严查处。各级纪检监察机关坚决履行党内监督专责机关的职责，深入一线、加强监督，对疫情防控工作中的作风问题坚决查处。', '各地区各部门把疫情防控、脱贫攻坚等斗争一线作为检验党员干部作风的“试金石”，激励引导党员干部英勇奋斗、扎实工作、经受考验，以扎实过硬作风交出不负党中央重托、不负人民群众期待的优异答卷。', '2020年12月30日，纪检监察干部（左）在浙江湖州吴兴区埭溪镇璞心农场走访农业大户，核实涉农补贴发放和帮扶政策落实情况。新华社记者 翁忻旸 摄', '迈入2021年，全面建设社会主义现代化国家新征程已然开启。在以习近平同志为核心的党中央坚强领导下，风华正茂的百年大党，坚持以伟大自我革命引领伟大社会革命，一定能够带领中国人民，打赢一场又一场硬仗，取得一个又一个胜利。']</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A210" t="n">
+        <v>25</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
           <t>习近平总书记引领高效统筹疫情防控和经济社会发展述评</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>2022-08-09</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tt_1/202208/t20220809_1328682.html</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="G210" t="inlineStr">
         <is>
           <t>['新华社北京8月8日电 题：“疫情要防住、经济要稳住、发展要安全”——习近平总书记引领高效统筹疫情防控和经济社会发展述评', '题：“疫情要防住、经济要稳住、发展要安全”——习近平总书记引领高效统筹疫情防控和经济社会发展述评', '以习近平同志为核心的党中央引领亿万人民勠力同心，坚持稳字当头、稳中求进，高效统筹疫情防控和经济社会发展工作，统筹发展和安全，疫情防控取得积极成效，经济社会发展取得新成绩，在高质量发展中赢得历史主动。', '2022年7月24日，搭载问天实验舱的长征五号B遥三运载火箭，在我国文昌航天发射场点火发射。新华社记者 李刚 摄', '7月中旬，2022年中国经济半年成绩单公布，上半年国内生产总值同比增长2.5%，二季度经济顶住下行压力实现正增长。与此同时，中国是世界主要大国中，新冠肺炎发病率最低、死亡人数最少的国家。', '面对世纪疫情和百年变局交织叠加，今年以来，以习近平同志为核心的党中央引领高效统筹疫情防控和经济社会发展，全国上下众志成城，走过一段极不平凡的历程——', '年初，奥密克戎变异株席卷全球；3月份以来，迅速蔓延至我国大多数省份……我们经受了一场武汉保卫战以来最严峻的疫情防控考验。', '习近平总书记亲自指挥、亲自部署，团结带领亿万人民打好统筹疫情防控和经济社会发展之战。', '3月5日，习近平总书记参加十三届全国人大五次会议内蒙古代表团审议时，明确要求：“突出口岸地区疫情防控这个重点，守住不出现疫情规模性反弹的底线。”', '4天后，针对在多地扩散的疫情，习近平总书记又作出重要批示：当前疫情发展很快，散发面广，染疫人数大增，务必责成各有关部门和地方从严从紧开展防控工作。', '3月17日的中共中央政治局常委会会议上，习近平总书记强调：“要始终坚持人民至上、生命至上，坚持科学精准、动态清零，尽快遏制疫情扩散蔓延势头。”', '习近平总书记强调，各地区各部门各方面要深刻认识当前国内外疫情防控的复杂性、艰巨性、反复性，进一步动员起来，统一思想，坚定信心，坚持不懈，抓细抓实各项防疫工作。', '贯彻落实习近平总书记重要指示，全国各地区各部门全力以赴，毫不动摇坚持“动态清零”总方针，从严从细筑牢疫情防控屏障：深圳、吉林等地沉着有力迎战疫情；抽调22个省份3万余名医务人员和重症专家，军队派出5000多人医疗队，全面支持上海疫情防控工作，上海全市上下不断提升疫情防控能力，持续优化防控举措；北京坚持以快制快，采取果断措施抓好疫情防控……', '4月10日至13日，习近平总书记在海南考察时强调“坚持就是胜利”，并要求“要克服麻痹思想、厌战情绪、侥幸心理、松劲心态”。', '在山东港口青岛港前湾码头，欧洲贸易航线的“美途马士基”集装箱货轮解缆起航（2022年7月29日摄，无人机照片）。新华社记者 李紫恒 摄', '今年以来，需求收缩、供给冲击、预期转弱“三重压力”持续显现，国内疫情反弹、乌克兰危机等超预期因素冲击陡然增加，中国经济稳定恢复受到冲击。', '4月29日，习近平总书记主持召开的中共中央政治局会议分析研究经济形势和经济工作，强调“疫情要防住、经济要稳住、发展要安全，这是党中央的明确要求”，提出“要加大宏观政策调节力度，扎实稳住经济”，并就全力扩大国内需求、稳住市场主体、切实保障和改善民生等各方面作出重要部署。', '这次会议强调：“高效统筹疫情防控和经济社会发展，坚定不移坚持人民至上、生命至上，坚持外防输入、内防反弹，坚持动态清零，最大程度保护人民生命安全和身体健康，最大限度减少疫情对经济社会发展的影响。”', '在以习近平同志为核心的党中央坚强领导下，各地区各部门扎实落实、主动作为，宏观、微观、结构、科技、改革开放、区域、社会等七大政策加快落地，增量政策工具谋划推出，六方面33项政策聚焦扎实稳住经济持续加力。', '习近平总书记高度关注市场主体发展，指出“保市场主体就是保社会生产力”“要千方百计把市场主体保护好，为经济发展积蓄基本力量”。', '习近平总书记4月29日主持召开的中共中央政治局会议要求，要稳住市场主体，对受疫情严重冲击的行业、中小微企业和个体工商户实施一揽子纾困帮扶政策。', '6月8日下午，四川宜宾。习近平总书记走进极米光电有限公司展厅和生产车间，了解企业加强自主创新、产品研发销售、带动就业和当地支持民营经济发展、出台纾困帮扶政策等情况。', '落实新的组合式税费支持政策，截至7月20日，全国合计新增减税降费及退税缓税缓费超3万亿元；金融系统加大支持力度，上半年新增人民币贷款13.68万亿元，同比多增9192亿元；在全国集中开展涉企违规收费专项整治行动；深圳、上海、北京等多地推出助企纾困政策，为市场主体送来“及时雨”……我国市场主体在较大基数基础上实现正增长，截至目前，已超1.6亿户。', '习近平总书记4月29日主持召开的中共中央政治局会议要求：“要坚持全国一盘棋，确保交通物流畅通，确保重点产业链供应链、抗疫保供企业、关键基础设施正常运转。”', '足量发放使用全国统一通行证、建立重点产业和外贸企业白名单……4月18日全国保障物流畅通促进产业链供应链稳定电视电话会议部署的10项重要举措落地落实，着力解决层层加码、一刀切等问题，加大对物流枢纽和物流企业支持力度，推动重点区域重点枢纽逐步复工达产。', '面对复杂局面，中国经济顶住压力，走出一条修复曲线：4月份主要经济指标深度下跌，5月份主要经济指标降幅收窄，6月份经济企稳回升……', '上半年固定资产投资同比增长6.1%；6月份社会消费品零售总额由降转升，同比增长3.1%；7月份货物贸易进出口同比增长16.6%，延续了5月份以来外贸增速持续回升态势。', '6月28日，习近平总书记在湖北省武汉市考察时强调：“如果算总账，我们的防疫措施是最经济的、效果最好的。”', '回顾新冠肺炎疫情发生两年多来的历程，正如习近平总书记近日在省部级主要领导干部专题研讨班发表重要讲话时强调：', '“我们坚持人民至上、生命至上，开展抗击疫情人民战争、总体战、阻击战，最大限度保护了人民生命安全和身体健康，统筹经济发展和疫情防控取得世界上最好的成果。”', '观众在第二届中国国际消费品博览会现场参观（2022年7月29日摄）。新华社记者 杨冠宇 摄', '在高效统筹好疫情防控和经济社会发展中，习近平总书记把握大势、着眼长远，推动高质量发展和高水平安全良性互动。', '6月8日，习近平总书记在四川考察时，强调“要在各领域积极培育高精尖特企业，打造更多‘隐形冠军’”；', '6月28日，习近平总书记在武汉考察时，仔细察看芯片产业创新成果展示，指出“突破‘卡脖子’关键核心技术刻不容缓”，强调“把科技的命脉牢牢掌握在自己手中，在科技自立自强上取得更大进展，不断提升我国发展独立性、自主性、安全性”。', '实施科技体制改革三年行动方案，制定实施基础研究十年规划；强化企业创新主体地位；完善优化科技创新生态；将科技型中小企业研发费用加计扣除比例从75%提高到100%……按照习近平总书记重要指示和党中央部署，夯实科技自立自强基础的政策“组合拳”扎实落地。', '国产大飞机C919完成取证试飞、神舟十四号再探天河、中国空间站首个科学实验舱问天实验舱顺利升空、“华龙一号”示范工程全面建成投入运行；高技术制造业增加值保持较快增长，创新链与产业链加快融合……今年以来，我国科技创新步伐不断加快。', '4月26日，习近平总书记主持召开中央财经委员会第十一次会议，强调要统筹发展和安全，优化基础设施布局、结构、功能和发展模式，构建现代化基础设施体系，为全面建设社会主义现代化国家打下坚实基础。', '这一既利当前、又谋长远的战略部署，对保障国家安全，畅通国内大循环、促进国内国际双循环，推动高质量发展，意义重大。', '7月28日召开的中共中央政治局会议进一步作出部署：要提高产业链供应链稳定性和国际竞争力，畅通交通物流，优化国内产业链布局，支持中西部地区改善基础设施和营商环境。', '“西电东送”工程战略大动脉，白鹤滩至江苏±800千伏特高压直流输电工程竣工投产；引江补汉工程正式开工，南水北调后续工程建设拉开帷幕；成兰铁路铺轨进入川西高原……重大工程建设扎实推进，现代化基础设施体系的“四梁八柱”持续完善。', '习近平总书记4月29日主持召开的中共中央政治局会议强调，加快构建新发展格局，坚定不移深化供给侧结构性改革，用改革的办法解决发展中的问题，加快实现高水平科技自立自强，建设强大而有韧性的国民经济循环体系。', '今年以来，一系列加快构建新发展格局的政策措施接连出台：《中共中央 国务院关于加快建设全国统一大市场的意见》发布，释放全面推动我国市场由大到强转变的鲜明改革信号；推进以县城为重要载体的城镇化建设为推进新型城镇化、形成强大国内市场注入新动力；《关于进一步释放消费潜力促进消费持续恢复的意见》着力破除消费领域体制机制障碍……建设强大而有韧性的国民经济循环体系，加快形成需求牵引供给、供给创造需求的更高水平动态平衡。', '今年4月，习近平总书记在海南考察时强调，要着力破除各方面体制机制弊端，形成更大范围、更宽领域、更深层次对外开放格局。', '习近平总书记7月28日主持召开的中共中央政治局会议进一步强调，要以改革开放为经济发展增动力。', '扎实推进高标准市场体系建设，持续完善产权保护、市场准入、公平竞争、社会信用等市场体系基础性制度，开展要素市场化配置综合改革试点，进一步推进省以下财政体制改革，稳步推进股票发行注册制改革……', '坚持扩大高水平对外开放，推动形成国际竞争合作新优势：新版全国和自贸试验区外商投资准入负面清单施行；区域全面经济伙伴关系协定（RCEP）正式生效；跨境电商综试区再扩围至全国132个城市和地区；自由贸易试验区、海南自由贸易港建设扎实推进……', '新冠肺炎疫情和乌克兰危机影响交织叠加，导致全球产业链供应链紊乱、大宗商品价格持续上涨、国际货币金融体系更加脆弱。', '习近平总书记指出，对我们这样一个大国来说，保障好初级产品供给是一个重大的战略性问题。必须加强战略谋划，及早作出调整，确保供给安全。', '市民在江苏省无锡市经开区华润万家超市购物（2022年7月7日摄）。江苏省无锡市在做好疫情防控的同时，积极制定相关方案，制作城市保供地图，组织大型商超、市场正常运营，全力保供稳价，端稳市民“菜篮子”。新华社记者 李博 摄', '粮稳天下安。今年全国两会期间，习近平总书记在看望参加政协会议的农业界、社会福利和社会保障界委员时说：“在粮食安全这个问题上不能有丝毫麻痹大意”；', '4月10日，习近平总书记在考察三亚市崖州湾科技城的崖州湾种子实验室时，指出“中国人的饭碗要牢牢端在自己手中，就必须把种子牢牢攥在自己手里”；', '6月8日，习近平总书记在四川省眉山市考察时走进稻田，俯身察看秧苗长势，指出“我们有信心、有底气把中国人的饭碗牢牢端在自己手中”。', '中央财政下达300亿元为实际种粮农民发放补贴，提高稻谷、小麦最低收购价水平，大力实施大豆油料扩种行动……面对国际粮食价格高位波动和国内疫情扰动，各地区各部门贯彻落实习近平总书记重要指示，下大力气保春耕抓夏收，全力抓好粮食稳产增产。', '正值立秋节气，放眼广袤田畴，南方稻区早稻收获已经结束，晚稻栽插过九成，进入扫尾阶段，东北、华北等地农民辛勤劳作，做好玉米、水稻、大豆等田间管理，全力实现全年粮食稳产增产目标任务。', '习近平总书记强调，“中国作为制造业大国，要发展实体经济，能源的饭碗必须端在自己手里”“要夯实国内能源生产基础，保障煤炭供应安全”。', '面对国际能源市场波动加剧，我国立足以煤为主的基本国情，有序释放煤炭优质产能，确保电煤运输平稳有序，大力推进煤炭清洁高效利用，加快大型风电光伏基地建设……扭住“保量”和“稳价”两个关键，加快形成有效抵御国际能源价格大幅波动的“防火墙”。', '习近平总书记指出：“在看到困难的同时，也要看到危中有机，只要我们保持战略定力、坚定做好自己的事，是完全能够化险为夷、化危为机的。”', '疫情冲击和经济下行压力下，把保障民生置于突出位置、切实兜住兜牢民生底线，至关重要。', '习近平总书记今年1月在2022年世界经济论坛视频会议演讲中指出，“不论遇到什么困难，我们都要坚持以人民为中心的发展思想”。', '4月21日，习近平总书记在博鳌亚洲论坛2022年年会开幕式上的主旨演讲中指出：“要坚持以人民为中心，把促进发展、保障民生置于突出位置，实施政策、采取措施、开展行动都要把是否有利于民生福祉放在第一位。”', '4月29日，习近平总书记主持召开的中共中央政治局会议要求，“要切实保障和改善民生，稳定和扩大就业，组织好重要民生商品供应，保障城市核心功能运转”。', '6月8日，习近平总书记赴四川考察期间，殷殷叮嘱：“要高效做好统筹疫情防控和经济社会发展工作，坚决克服目前经济发展面临的一些困难，做好就业、社会保障、贫困群众帮扶等方面的工作，做好维护社会稳定各项工作，保持人心稳定，保持社会大局稳定。”', '6月28日，习近平总书记在湖北武汉考察时指出：“各级党委和政府要想办法帮助人民群众解决实际困难，确保经济发展和人民群众生产生活少受影响。”', '在位于重庆市北碚区的西南大学，应届毕业生参加“百万英才兴重庆”招聘会（2022年5月13日摄）。用人单位提供了涉及教育、人工智能、汽车制造等领域的3000多个岗位供毕业生选择。新华社发（秦廷富 摄）', '就业是民生之本，高校毕业生等重点群体是当前就业工作的重中之重。今年我国高校毕业生达1076万人，同比增加167万人，创历史新高。', '6月8日，在四川考察时，习近平总书记专程来到宜宾学院，察看毕业生创新创业代表作品展示，了解学校开展就业创业指导服务工作，向教师、学生、企业负责人了解企业招工的需求和毕业生签约率等情况。他指出，“就业数据要扎扎实实，反映真实情况”“不能糊弄上级部门，更不能糊弄学生”。', '从实施百万就业见习岗位募集计划，促进青年提升职业能力，到央企启动夏季招聘、实施“三支一扶”等基层服务项目，千方百计扩大就业机会，再到启动实施离校未就业毕业生服务攻坚行动，集中对未就业毕业生进行就业帮扶……从中央到地方一系列政策举措支持高校毕业生就业创业。', '春节前夕，北方正是供暖保障的关键时期。习近平总书记来到山西瑞光热电有限责任公司考察调研指出，“大企业特别是国有企业要带头保供稳价，强化民生用能供给保障责任，确保人民群众安全温暖过冬”。', '各地区各部门贯彻习近平总书记重要指示，以国内保供稳价的确定性应对外部环境的不确定性：', '稳定粮食生产，加强调控稳定生猪产能，强化蔬菜产销衔接，确保老百姓“粮袋子”“菜篮子”产品量足价稳；持续释放煤炭优质产能，从5月起对所有煤炭暂行零进口税率，通过稳煤价来稳电价，居民用电、用气价格保持基本稳定。', '各地加大货源组织力度，加强市场价格监测分析预警，努力畅通“最后100米”配送通道，全力保障受疫情影响地区的生活必需品供应。', '今年全国两会期间，习近平总书记强调，“对困难群众，我们要格外关注、格外关爱、格外关心，帮助他们排忧解难”“要针对特困人员的特点和需求精准施策，按时足额发放各类救助金，强化临时救助，确保兜住底、兜准底、兜好底”。', '一系列举措陆续推出：允许受疫情影响严重的个人住房、消费贷款等延期还本付息；延续执行失业保险保障阶段性扩围政策，向广大失业人员发放失业补助金，向失业农民工发放临时生活补助；对因疫情影响暂时失业、未参保的困难人员，给予临时救助；及时启动社会救助和保障标准与物价上涨挂钩联动机制，发放临时价格补贴；为困难群体代缴基本养老、医疗保险费，坚决守住不发生规模性返贫底线；继续巩固脱贫攻坚成果，扎实推进乡村振兴、促进共同富裕。', '上半年，全国共向620万失业人员发放失业保险待遇402亿元；为1600多万困难人员代缴城乡居民养老保险费；退休人员基本养老金再上调4%，惠及1.3亿多退休人员；中央财政困难群众救助补助资金1546.8亿元已经下拨，比去年增加了70.6亿元。', '重载列车行驶在大秦铁路上（2022年7月16日摄，无人机照片）。为做好迎峰度夏能源保供工作，中国铁路太原局集团有限公司在确保运输安全的前提下全力提升煤炭运量。新华社记者 曹阳 摄', '7月28日，习近平总书记主持召开的中共中央政治局会议指出“要保持战略定力，坚定做好自己的事”，强调“巩固经济回升向好趋势，着力稳就业稳物价，保持经济运行在合理区间，力争实现最好结果”。', '出席北京2022年冬奥会、冬残奥会开闭幕式，与八方宾朋共同见证载入史册的高光时刻；出席2022年世界经济论坛视频会议并发表演讲，在博鳌亚洲论坛2022年年会开幕式上发表主旨演讲，主持金砖国家领导人第十四次会晤、全球发展高层对话会……习近平总书记站在全人类福祉的高度，为促进世界持久和平与共同发展，举旗定向、凝聚力量。', '世界第二大经济体，第一大货物贸易国，拥有14亿多人口、超4亿中等收入群体、人均GDP超过1.2万美元的超大规模市场，1.6亿多户市场主体……这是我们抵御各种风险挑战的坚实底盘。', '拥有联合国产业分类中全部工业门类，220多种工业产品产量居世界首位；拥有全球最大高速铁路网、高速公路网，建成全球规模最大5G独立组网网络；从2012年到2021年，全球创新指数排名由第34位上升到第12位……中国特色自主创新道路越走越宽广。', '我国发展仍处于可以大有作为的重要战略机遇期。习近平总书记指出：“综合判断，我国发展仍具有诸多战略性有利条件，我国经济韧性强、潜力大、活力足，长期向好的基本面不会改变。”', '当今世界正经历百年未有之大变局，但时与势在我们一边，这是我们定力和底气所在，也是我们的决心和信心所在。', '在以习近平同志为核心的党中央坚强领导下，坚持稳中求进工作总基调，坚定不移做好自己的事情，踔厉奋发、勇毅前行、团结奋斗，以实际行动迎接党的二十大胜利召开，一定能够谱写全面建设社会主义现代化国家崭新篇章！（记者邹伟、齐中熙、安蓓、张辛欣、刘夏村、王雨萧）']</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A211" t="n">
+        <v>25</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
           <t>习近平在广西考察</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
+      <c r="E211" t="inlineStr">
         <is>
           <t>2021-04-28</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
+      <c r="F211" t="inlineStr">
         <is>
           <t>http://www.huhhot.gov.cn/2022_zwdt/tt_1/202104/t20210428_867395.html</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>['4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是27日上午，习近平在南宁市广西民族博物馆外，同参加三月三“歌圩节”民族文化活动的各族群众亲切交流。新华社记者 谢环驰 摄', '新华社南宁4月27日电 中共中央总书记、国家主席、中央军委主席习近平近日在广西考察时强调，要坚决贯彻党中央决策部署，完整、准确、全面贯彻新发展理念，坚持稳中求进工作总基调，解放思想、深化改革、凝心聚力、担当实干，统筹疫情防控和经济社会发展，统筹发展和安全，在推动边疆民族地区高质量发展上闯出新路子，在服务和融入新发展格局上展现新作为，在推动绿色发展上迈出新步伐，在巩固发展民族团结、社会稳定、边疆安宁上彰显新担当，建设新时代中国特色社会主义壮美广西。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日下午，习近平在桂林市阳朔县，乘船考察漓江阳朔段。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司挖掘机装配厂考察调研。新华社记者 鞠鹏 摄', '4月25日至27日，习近平在广西壮族自治区党委书记鹿心社和自治区政府主席蓝天立陪同下，先后来到桂林、柳州、南宁等地，深入革命纪念馆、农村、企业、民族博物馆等，就贯彻党的十九届五中全会精神、开展党史学习教育、推动“十四五”开好局起好步等进行调研。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在位于桂林市全州县的红军长征湘江战役纪念园，向湘江战役红军烈士敬献花篮。新华社记者 谢环驰 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在位于桂林市全州县的红军长征湘江战役纪念园，向湘江战役红军烈士敬献花篮。新华社记者 鞠鹏 摄', '25日上午，习近平来到位于桂林市全州县才湾镇的红军长征湘江战役纪念园，向湘江战役红军烈士敬献花篮并三鞠躬，瞻仰“红军魂”雕塑，参观纪念馆。1934年底，为确保中共中央和中央红军主力渡过湘江，粉碎敌人围歼红军于湘江以东的企图，几万名红军将士血染湘江两岸，这一战成为事关中国革命生死存亡的重要历史事件。习近平表示，我到广西考察的第一站就来到这里，目的是在全党开展党史学习教育之际，缅怀革命先烈，赓续共产党人精神血脉，坚定理想信念，砥砺革命意志。革命理想高于天，理想信念之火一经点燃就会产生巨大的精神力量。红军将士视死如归、向死而生、一往无前、敢于压倒一切困难而不被任何困难所压倒的崇高精神，永远值得我们铭记和发扬。在实现第二个百年奋斗目标的新长征路上，我们要抱定必胜信念，勇于战胜来自国内外的各种重大风险挑战，朝着实现中华民族伟大复兴的目标奋勇前进。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县，参观红军长征湘江战役纪念馆。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县，参观红军长征湘江战役纪念馆时，同工作人员亲切交谈。新华社记者 谢环驰 摄', '随后，习近平来到才湾镇毛竹山村。该村近年来积极发展葡萄种植业，有力促进了农民增收。习近平走进葡萄种植园，察看葡萄长势。农技人员正在指导村民为葡萄绑蔓、定梢，看到总书记来了，乡亲们纷纷围拢过来。习近平详细询问葡萄产量、品质、销路、价格等情况。他强调，全面推进乡村振兴，要立足特色资源，坚持科技兴农，因地制宜发展乡村旅游、休闲农业等新产业新业态，贯通产加销，融合农文旅，推动乡村产业发展壮大，让农民更多分享产业增值收益。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村，走进葡萄种植园，同农技人员和村民亲切交流。新华社记者 谢环驰 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村考察。新华社记者 殷博古 摄', '习近平步行察看村容村貌，并到村民王德利家中看望，同一家人围坐在一起聊家常。王德利告诉总书记，他们家种了12亩葡萄，农闲时外出务工，去年家庭收入超过14万元。习近平听了十分高兴。他指出，经过全党全国各族人民共同努力，在迎来中国共产党成立一百周年的重要时刻，我国脱贫攻坚战取得全面胜利。好日子都是奋斗出来的。希望你们依靠勤劳智慧把日子过得更有甜头、更有奔头。要注重学习科学技术，用知识托起乡村振兴。离开村子时，乡亲们高声向总书记问好。习近平向大家挥手致意。他深情地说，让人民生活幸福是“国之大者”。全面推进乡村振兴的深度、广度、难度都不亚于脱贫攻坚，决不能有任何喘口气、歇歇脚的想法，要在新起点上接续奋斗，推动全体人民共同富裕取得更为明显的实质性进展。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村考察。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村村民王德利家中看望，同一家人围坐在一起聊家常。新华社记者 谢环驰 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村考察时，同乡亲们亲切交流。新华社记者 谢环驰 摄', '近年来，桂林市大力推进漓江“治乱、治水、治山、治本”，改善了漓江生态环境。25日下午，习近平来到桂林市阳朔县漓江杨堤码头，听取漓江流域综合治理、生态保护等情况汇报，并乘船考察漓江阳朔段。他强调，要坚持山水林田湖草沙系统治理，坚持正确的生态观、发展观，敬畏自然、顺应自然、保护自然，上下同心、齐抓共管，把保持山水生态的原真性和完整性作为一项重要工作，深入推进生态修复和环境污染治理，杜绝滥采乱挖，推动流域生态环境持续改善、生态系统持续优化、整体功能持续提升。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日下午，习近平在桂林市阳朔县漓江杨堤码头，了解漓江流域综合治理、生态保护等情况。新华社记者 申宏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日下午，习近平在桂林市阳朔县漓江杨堤码头，了解漓江流域综合治理、生态保护等情况。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日下午，习近平在桂林市阳朔县，乘船考察漓江阳朔段。新华社记者 申宏 摄', '26日，习近平来到桂林市象鼻山公园，远眺山水风貌，沿步道察看商业、邮政等服务设施。游客们高声欢呼：“总书记好！”习近平同大家亲切交流。他指出，桂林是一座山水甲天下的旅游名城。这是大自然赐予中华民族的一块宝地，一定要呵护好。要坚持以人民为中心，以文塑旅、以旅彰文，提升格调品位，努力创造宜业、宜居、宜乐、宜游的良好环境，打造世界级旅游城市。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在桂林市象鼻山公园考察调研。新华社记者 申宏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在桂林市象鼻山公园考察时，同游客们亲切交流。新华社记者 鞠鹏 摄', '当天下午，习近平来到柳州市考察调研。在广西柳工集团有限公司，习近平先后走进公司展厅、研发实验中心、挖掘机装配厂等，听取企业发展情况介绍，察看主要产品展示，同企业职工和技术研发人员亲切交谈。习近平强调，制造业高质量发展是我国经济高质量发展的重中之重，建设社会主义现代化强国、发展壮大实体经济，都离不开制造业，要在推动产业优化升级上继续下功夫。只有创新才能自强、才能争先，要坚定不移走自主创新道路，把创新发展主动权牢牢掌握在自己手中。要坚持党对国有企业的全面领导，坚持加强党的领导和完善公司治理相统一，在深化企业改革中搞好党的建设，充分发挥党组织在企业改革发展中的领导核心作用。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司察看产品展示。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司挖掘机装配厂了解企业发展情况。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司挖掘机装配厂，同企业职工和技术研发人员亲切交谈。新华社记者 谢环驰 摄', '随后，习近平来到柳州螺蛳粉生产集聚区，详细了解螺蛳粉特色产业促进就业、带动农民增收等情况。习近平指出，发展特色产业是地方做实做强做优实体经济的一大实招，要结合自身条件和优势，推动高质量发展。要把住质量安全关，推进标准化、品牌化。要帮助民营企业解决实际困难，鼓励、支持、引导民营企业发展壮大。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在柳州螺蛳粉生产集聚区，了解螺蛳粉生产情况。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在柳州螺蛳粉生产集聚区，了解螺蛳粉生产情况。新华社记者 殷博古 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在柳州螺蛳粉生产集聚区考察调研。新华社记者 鞠鹏 摄', '广西是我国少数民族人口最多的自治区。27日上午，习近平来到位于南宁市邕江之畔的广西民族博物馆，参观壮族文化展。博物馆外，三月三“歌圩节”壮族对歌等民族文化活动正在这里集中展示。习近平强调，广西是全国民族团结进步示范区，要继续发挥好示范带动作用。各民族共同团结进步、共同繁荣发展是中华民族的生命所在、力量所在、希望所在，在全面建设社会主义现代化国家的新征程上，一个民族都不能少，各族人民要心手相牵、团结奋进，共创中华民族的美好未来，共享民族复兴的伟大荣光。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是27日上午，习近平在南宁市广西民族博物馆参观壮族文化展。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是27日上午，习近平在南宁市广西民族博物馆外，同参加三月三“歌圩节”民族文化活动的各族群众亲切交流。新华社记者 申宏 摄', '当天上午，习近平听取了广西壮族自治区党委和政府工作汇报，对广西各项工作取得的成绩给予肯定，希望广西各族干部群众奋力谱写全面建设社会主义现代化国家的广西篇章，以优异成绩庆祝建党一百周年。', '习近平指出，推动经济高质量发展，既要深刻认识贯彻新发展理念、构建新发展格局对推动地方高质量发展的原则要求，又要准确把握本地区在服务和融入新发展格局中的比较优势，走出一条符合本地实际的高质量发展之路。要推动传统产业高端化、智能化、绿色化，推动全产业链优化升级，积极培育新兴产业，加快数字产业化和产业数字化。要继续深化改革，坚持“两个毫不动摇”，优化营商环境。要加大创新支持力度，优化创新生态环境，推动各类创新要素向企业集聚，激发创新活力，推动科技成果转化。要主动对接长江经济带发展、粤港澳大湾区建设等国家重大战略，融入共建“一带一路”，高水平共建西部陆海新通道，大力发展向海经济，促进中国－东盟开放合作，办好自由贸易试验区，把独特区位优势更好转化为开放发展优势。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司考察调研。新华社记者 鞠鹏 摄', '习近平强调，要弘扬伟大脱贫攻坚精神，加快推进乡村振兴，健全农村低收入人口常态化帮扶机制，继续支持脱贫地区特色产业发展，强化易地搬迁后续扶持。要立足广西林果蔬畜糖等特色资源，打造一批特色农业产业集群。要严格实行粮食安全党政同责，压实各级党委和政府保护耕地的责任，稳步提高粮食综合生产能力。要继续打好污染防治攻坚战，把碳达峰、碳中和纳入经济社会发展和生态文明建设整体布局，建立健全绿色低碳循环发展的经济体系，推动经济社会发展全面绿色转型。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村，走进葡萄种植园，同农技人员和村民亲切交流。新华社记者 殷博古 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村考察时，同乡亲们亲切交流。新华社记者 鞠鹏 摄', '习近平指出，要提高人民生活品质，落实就业优先战略和积极就业政策，做好高校毕业生、退役军人、农民工和城镇困难人员等重点群体就业工作。要完善多渠道灵活就业的社会保障制度，维护好卡车司机、快递小哥、外卖配送员等的合法权益。要全面贯彻党的教育方针，落实立德树人根本任务，加强对线上线下校外培训机构的规范管理。要深化疾病预防控制体系改革，强化基层公共卫生体系，创新医防协同机制，提升基层预防、治疗、护理、康复服务水平，毫不放松抓好常态化疫情防控。要严密防范各种风险挑战，有效遏制重特大安全生产事故，常态化开展扫黑除恶斗争。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是27日上午，习近平在南宁市广西民族博物馆外，同参加三月三“歌圩节”民族文化活动的各族群众亲切交流。新华社记者 鞠鹏 摄', '习近平强调，要搞好民族团结进步宣传教育，引导各族群众牢固树立正确的国家观、历史观、民族观、文化观、宗教观，增进各族群众对伟大祖国、中华民族、中华文化、中国共产党、中国特色社会主义的认同，促进各民族像石榴籽一样紧紧抱在一起。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在位于桂林市全州县的红军长征湘江战役纪念园考察。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县，参观红军长征湘江战役纪念馆时，同工作人员亲切交谈。新华社记者 鞠鹏 摄', '习近平指出，广西红色资源丰富，在党史学习教育中要用好这些红色资源，做到学史增信。学史增信，就是要增强信仰、信念、信心，这是我们战胜一切强敌、克服一切困难、夺取一切胜利的强大精神力量。要增强对马克思主义、共产主义的信仰，教育引导广大党员、干部从党百年奋斗中感悟信仰的力量，始终保持顽强意志，勇敢战胜各种重大困难和严峻挑战。要增强对中国特色社会主义的信念，教育引导广大党员、干部深刻认识到，中国特色社会主义是历史发展的必然结果，是发展中国的必由之路，是经过实践检验的科学真理，始终坚定道路自信、理论自信、制度自信、文化自信。要增强对实现中华民族伟大复兴的信心，教育引导广大党员、干部牢记初心使命、增强必胜信心，坚信我们党一定能够团结带领人民在中国特色社会主义道路上实现中华民族伟大复兴，努力创造属于我们这一代人、无愧新时代的历史功绩。信仰、信念、信心是最好的防腐剂。要始终抓好党风廉政建设，使不敢腐、不能腐、不想腐一体化推进有更多的制度性成果和更大的治理成效。']</t>
         </is>
